--- a/modelo_resuelto.xlsx
+++ b/modelo_resuelto.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="628">
   <si>
     <t>day</t>
   </si>
@@ -46,6 +46,9 @@
     <t>detailed</t>
   </si>
   <si>
+    <t>det.coord</t>
+  </si>
+  <si>
     <t>manana</t>
   </si>
   <si>
@@ -55,30 +58,45 @@
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 754,S2408,Linea 752,S370,Linea 1842,S2421,Linea 741,S980,Linea 740,S377,Linea 748,S381,Linea 747,S2572,Linea 746,S315,Linea 1017,S59,Linea 1295,S2116,Linea 1293,S1,Linea 1292,S2189,Linea 797,S2095,Linea 1825,S2479,Linea 795,S189,Linea 1826,S18,Linea 1177,S2243,Linea 807,S205,Linea 1181,S2139,Linea 1180,S8,Linea 1183,S223,Linea 1189,S224,Linea 1190,S203,Linea 1187,S2586,Linea 1192,S2584,Linea 1205,S138,Linea 1208,S2101,Linea 1462,S183,Linea 1829,S2135,Linea 1814,S2541,Linea 1459,S206,Linea 826,S715,Linea 827,S2356,Linea 1456,S151,Linea 1489,S2304,Linea 1461,S984,Linea 1466,S284,Linea 1465,S2466;S2466,Linea 1465,S284,Linea 1466,S984,Linea 1447,S2093,Linea 1440,S2089,Linea 1438,S257,Linea 1437,S2074,Linea 1442,S2092,Linea 1835,S2319;S2319,Linea 1835,S2092,Linea 1442,S2074,Linea 1437,S257,Linea 1438,S2089,Linea 1440,S2093,Linea 1447,S984,Linea 1461,S2304,Linea 1489,S151,Linea 1456,S2356,Linea 827,S715,Linea 826,S206,Linea 1459,S2541,Linea 1794,S2135,Linea 1829,S183,Linea 1462,S2101,Linea 1208,S138,Linea 1490,S2080,Linea 1804,S184,Linea 1206,S194,Linea 820,S2177,Linea 815,S2242,Linea 821,S2441,Linea 823,S2406,Linea 1427,S2087,Linea 1426,S2081,Linea 1370,S2091,Linea 1371,S325,Linea 1372,S323,Linea 1373,S2255,Linea 568,S882,Linea 622,S523,Linea 215,S788,Linea 216,S2676,Linea 217,S2396,Linea 240,S2395,Linea 243,S1005,Linea 397,S543,Linea 399,S2288,Linea 247,S2418,Linea 249,S611,Linea 250,E291,Linea 252,S853,Linea 254,S851,Linea 257,S591,Linea 258,S876,Linea 263,S886,Linea 264,S868,Linea 270,S869,Linea 278,S864,Linea 277,S2582,Linea 275,S2279,Linea 274,S892,Linea 340,S594,Linea 260,S616,Linea 315,S2440,Linea 311,S1009;S1009,Linea 311,S2440,Linea 315,S616,Linea 260,S594,Linea 340,S892,Linea 274,S2279;S2279,Linea 275,S2582,Linea 277,S864,Linea 278,S869,Linea 270,S868,Linea 264,S886,Linea 263,S876,Linea 258,S591,Linea 257,S851,Linea 254,S853,Linea 252,E291,Linea 250,S611,Linea 249,S2418,Linea 247,S2288,Linea 399,S543,Linea 397,S1005,Linea 243,S2395,Linea 240,S2396,Linea 217,S2676,Linea 216,S788,Linea 215,S523,Linea 622,S882,Linea 568,S2255,Linea 1421,S354,Linea 1365,S2009,Linea 1363,S2006,Linea 1361,S353,Linea 1836,S997,Linea 854,S2504,Linea 853,S2716,Linea 849,S2056,Linea 850,S2407,Linea 773,S338,Linea 764,S395,Linea 763,S2468,Linea 760,S402,Linea 759,S2417,Linea 768,S172,Linea 1211,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9513514 -45.867951700000006,-67.9506004 -45.8681534,-67.9493558 -45.8665622,-67.9490876 -45.8664576,-67.9492164 -45.8668461,-67.95075242 -45.86791677,-67.9511476 -45.8693039,-67.95089010000001 -45.8697222,-67.9506433 -45.8681011,-67.9512978 -45.867892,-67.95011093 -45.86936834,-67.9526013 -45.869965,-67.9517484 -45.8700734,-67.9508901 -45.8697222,-67.9511476 -45.8693039,-67.95188123 -45.87007275,-67.9518449 -45.870925,-67.9516733 -45.8706037,-67.9509866 -45.870275,-67.95089010000001 -45.8697222,-67.9517484 -45.8700734,-67.9526281 -45.8699912,-67.95082673 -45.87123588,-67.9510081 -45.87218,-67.9515123 -45.8715599,-67.9518449 -45.870925,-67.94974928 -45.87213834,-67.9508579 -45.8736739,-67.9509115 -45.8721426,-67.94983615 -45.87396079,-67.9521346 -45.8759746,-67.951448 -45.8759597,-67.9509008 -45.8738383,-67.95155064 -45.87647635,-67.9521346 -45.8759746,-67.9517162 -45.8759074,-67.9513943 -45.8758999,-67.9525959 -45.87702780000001,-67.95337920000001 -45.8774162,-67.95259842 -45.87763583,-67.9538298 -45.8776104,-67.9575419 -45.8788205,-67.9596341 -45.8789624,-67.9602242 -45.8794852,-67.95937836 -45.87978501,-67.967391 -45.8796271,-67.9660606 -45.879657,-67.9619408 -45.879179,-67.959795 -45.8789997,-67.9602242 -45.8794852,-67.96661757 -45.87943084,-67.9708028 -45.8792686,-67.9686999 -45.8795524,-67.9682064 -45.8792238,-67.96993071 -45.87922522,-67.9739785 -45.8781632,-67.9745579 -45.8782677,-67.9740644 -45.8788802,-67.9710174 -45.8792537,-67.97210325 -45.8786421,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9755771 -45.8785142,-67.9742253 -45.8787756,-67.974236 -45.878222900000004,-67.9757414 -45.87911165,-67.9789352 -45.8795823,-67.9791069 -45.8776627,-67.9756737 -45.8784769,-67.9758239 -45.8787234,-67.9765105 -45.8789474,-67.97764389 -45.88001208,-67.9789352 -45.8795823,-67.9789889 -45.8790669,-67.9799759 -45.8791491,-67.97934342 -45.87920812,-67.9797721 -45.879179,-67.9789889 -45.8790669,-67.9792571 -45.8776403,-67.9831409 -45.876744,-67.9844499 -45.8766842,-67.9838705 -45.8772892,-67.98257485 -45.87765379,-67.9838705 -45.8772892,-67.9842675 -45.8766469,-67.9854584 -45.876617,-67.9846001 -45.8763854,-67.98281428 -45.87644776,-67.9865313 -45.8763033,-67.9853833 -45.8764975,-67.98469660000002 -45.8764303,-67.98563419 -45.87640922,-67.9896748 -45.8771548,-67.9892349 -45.8767216,-67.985158 -45.8765946,-67.9863167 -45.8762734,-67.98904006 -45.87741924,-67.9909623 -45.8768411,-67.9909086 -45.8766394,-67.9893529 -45.876729,-67.9896641 -45.8770726,-67.98995293 -45.87688436,-67.9932904 -45.8760792,-67.9926252 -45.8763556,-67.9912949 -45.8766319,-67.99230343 -45.87612978,-67.9940093 -45.875758,-67.9942882 -45.875646,-67.9944921 -45.8759223,-67.9952216 -45.8756385,-67.9962945 -45.874899,-67.99575168 -45.87505796,-67.9970562 -45.8749065,-67.998054 -45.8746002,-67.9989874 -45.8742865,-67.9998994 -45.8736889,-67.99900055 -45.87377745,-68.0009079 -45.8733901,-68.0017447 -45.8731436,-68.0013478 -45.8728149,-68.0005753 -45.8728074,-67.9998672 -45.8727327,-67.9986441 -45.8728074,-67.99707801 -45.87306235,-67.9984939 -45.8727327,-67.9986763 -45.8725609,-67.9987407 -45.872292,-67.99743076 -45.87213204,-68.0036652 -45.8703498,-68.0024529 -45.8706934,-68.0012727 -45.8709175,-68.0001891 -45.8713881,-67.9995775 -45.8718363,-68.00284674 -45.87040916,-68.0041587 -45.8700285,-68.0051243 -45.8686091,-68.00449906 -45.86852742,-68.0070448 -45.8686241,-68.0060685 -45.868385,-68.00620422 -45.86892139,-68.0070448 -45.8686241,-68.0067122 -45.8683028,-68.0066907 -45.8679293,-68.0047274 -45.8681086,-68.0029786 -45.8686316,-68.0021524 -45.8685344,-68.0022383 -45.8682132,-68.00126819 -45.86832361,,-68.00080119 -45.86808139,-67.9980218 -45.8692665,-68.0000389 -45.8684074,-68.0017662 -45.8680339,-67.99627751 -45.86960923,-67.9969811 -45.8694981,-67.9958439 -45.8695654,-67.99512510000001 -45.8693413,-67.99505 -45.8690499,-67.99439359 -45.86914058,-67.99505 -45.8690499,-67.9947495 -45.8687287,-67.9952323 -45.8676529,-67.99437986 -45.8677879,-67.9954576 -45.8672868,-67.9960907 -45.8666518,-67.9968202 -45.8663306,-67.99554948 -45.86642106,-67.9970026 -45.8663754,-68.0035257 -45.8657777,-68.003397 -45.8661662,-68.00288598 -45.86648631,-68.0048561 -45.8661961,-68.0066156 -45.864941,-68.00601835 -45.8652672,-68.0004144 -45.8672271,-68.0020022 -45.8664426,-68.0025816 -45.8662932,-68.0029786 -45.8663007,-68.003751 -45.8658375,-68.0066907 -45.8648887,-67.99912755 -45.86739172,-68.0017018 -45.8670702,-68.0004251 -45.8673989,-68.0009024 -45.8670472;-68.0009024 -45.8670472,-68.0017018 -45.8670702,-68.0004251 -45.8673989,-67.99912755 -45.86739172,-68.0004144 -45.8672271,-68.0020022 -45.8664426,-68.0025816 -45.8662932,-68.0029786 -45.8663007,-68.003751 -45.8658375,-68.0066907 -45.8648887,-68.00601835 -45.8652672,-68.0066907 -45.8648887,-68.0076134 -45.8646197,-68.0077314 -45.8640818,-68.0066907 -45.862595,-68.0065084 -45.8626847,-68.00524993 -45.86266209,-68.0066907 -45.862595,-68.0062294 -45.8616088,-68.0054569 -45.8608467,-68.004663 -45.8610185,-68.00290781 -45.86119572,-68.0032039 -45.861564,-68.0037832 -45.8611157,-68.0040193 -45.8610858,-68.00170055 -45.8618692,-68.0024529 -45.8617881,-68.0025601 -45.862341,-68.0002105 -45.8608467,-68.0004787 -45.8601219,-67.99931829 -45.86009184,-68.0074525 -45.859442,-68.0054677 -45.8582764,-68.0048132 -45.8581195,-68.0035686 -45.8582092,-68.0016375 -45.8587994,-68.0007148 -45.8595093,-68.00660247 -45.85987417,-68.0073881 -45.8595317,-68.0048668 -45.8579775,-68.0083323 -45.8566475,-68.0111432 -45.8564831,-68.0119586 -45.855833,-68.0093408 -45.8553025,-68.0084181 -45.8553324,-68.0081391 -45.8549139,-68.0071521 -45.8545179,-68.00533143 -45.85441605;-68.00533143 -45.85441605,-68.0073881 -45.8595317,-68.0048668 -45.8579775,-68.0083323 -45.8566475,-68.0111432 -45.8564831,-68.0119586 -45.855833,-68.0093408 -45.8553025,-68.0084181 -45.8553324,-68.0081391 -45.8549139,-68.0071521 -45.8545179,-68.00660247 -45.85987417,-68.0074525 -45.859442,-68.0054677 -45.8582764,-68.0048132 -45.8581195,-68.0035686 -45.8582092,-68.0016375 -45.8587994,-68.0007148 -45.8595093,-67.99931829 -45.86009184,-68.0024529 -45.8617881,-68.0025601 -45.862341,-68.0002105 -45.8608467,-68.0004787 -45.8601219,-68.00170055 -45.8618692,-68.0032039 -45.861564,-68.0037832 -45.8611157,-68.0040193 -45.8610858,-68.00290781 -45.86119572,-68.0066907 -45.862595,-68.0062294 -45.8616088,-68.0054569 -45.8608467,-68.004663 -45.8610185,-68.00524993 -45.86266209,-68.0066907 -45.8648887,-68.0076134 -45.8646197,-68.0077314 -45.8640818,-68.0066907 -45.862595,-68.0065084 -45.8626847,-68.00601835 -45.8652672,-68.0048561 -45.8661961,-68.0066156 -45.864941,-68.00288598 -45.86648631,-67.9970026 -45.8663754,-68.0035257 -45.8657777,-68.003397 -45.8661662,-67.99554948 -45.86642106,-67.9954576 -45.8672868,-67.9960907 -45.8666518,-67.9968202 -45.8663306,-67.99437986 -45.8677879,-67.99505 -45.8690499,-67.9947495 -45.8687287,-67.9952323 -45.8676529,-67.99439359 -45.86914058,-67.9969811 -45.8694981,-67.9958439 -45.8695654,-67.99512510000001 -45.8693413,-67.99505 -45.8690499,-67.99627751 -45.86960923,-67.9980218 -45.8692665,-68.0000389 -45.8684074,-68.0017662 -45.8680339,-68.00080119 -45.86808139,,-68.00126819 -45.86832361,-68.0070448 -45.8686241,-68.0067122 -45.8683028,-68.0066907 -45.8679293,-68.0047274 -45.8681086,-68.0029786 -45.8686316,-68.0021524 -45.8685344,-68.0022383 -45.8682132,-68.00620422 -45.86892139,-68.0070448 -45.8686241,-68.0060685 -45.868385,-68.00449906 -45.86852742,-68.0041587 -45.8700285,-68.0051243 -45.8686091,-68.00284674 -45.87040916,-68.0035579 -45.8703423,-68.0025816 -45.8706859,-68.0014014 -45.8705066,-67.99960904 -45.87080973,,-67.99921407 -45.87121751,-67.9971957 -45.8714031,-67.9989982 -45.8712611,-67.9998028 -45.8710071,-67.99553288 -45.87226112,-67.9929739 -45.8721949,-67.9927379 -45.872546,-67.993784 -45.8729494,-67.9957634 -45.8725273,-67.9964232 -45.8722024,-67.99156523 -45.87210921,-67.9930758 -45.87218,-67.992754 -45.8724788,-67.9914343 -45.8718886,-67.9915845 -45.8711565,-67.9912734 -45.8710071,-67.9900866 -45.8710699,-67.9910052 -45.8707457,-67.9910266 -45.8705664,-67.99163820000001 -45.8700883,-67.9915524 -45.8697073,-67.99024475 -45.86974641,-67.9914558 -45.8692516,-67.9914558 -45.8690499,-67.9925716 -45.8679293,-67.99174523 -45.8677107,-67.9929578 -45.8671225,-67.9928398 -45.8662783,-67.9924321 -45.8655835,-67.9919815 -45.8652548,-67.992121 -45.8648663,-67.9910159 -45.864672,-67.9918528 -45.8642238,-67.99158422 -45.86437969,-67.9920459 -45.8642163,-67.9910159 -45.864672,-67.9903078 -45.8650157,-67.9890847 -45.8656208,-67.9855978 -45.8654415,-67.9855227 -45.865322,-67.98422803 -45.86529103,-67.9859948 -45.8647094,-67.9874003 -45.863783,-67.98677491 -45.86342245,-67.9886341 -45.8629088,-67.9906297 -45.8618479,-67.9911232 -45.8617956,-67.99023202 -45.86204363,-67.9911339 -45.8618479,-67.9904687 -45.8619002,-67.9910696 -45.8615117,-67.9918849 -45.861295,-67.9930007 -45.8606151,-67.99220337 -45.86057361,-67.9928935 -45.8605404,-67.9914236 -45.8609588,-67.98931 -45.8614369,-67.9889023 -45.8613323,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86821501 -45.85959306,-67.8666258 -45.8579551,-67.8677523 -45.8588443,-67.8689218 -45.8588293,-67.8688896 -45.8591954,-67.86509618 -45.85797591,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86269634 -45.8576934,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86119926 -45.8582863,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.85800456 -45.85865306,-67.8585362 -45.8586425,-67.8567231 -45.8591431,-67.8550386 -45.8605852,-67.85325633 -45.86047853,-67.8547168 -45.8600622,-67.8545237 -45.8589862,-67.8537083 -45.858508,-67.852335 -45.8585529,-67.85051371 -45.8587379,-67.8511226 -45.8587172,-67.8489661 -45.8581942,-67.8504252 -45.8565952,-67.84992667 -45.85649082,-67.851541 -45.8561394,-67.8511119 -45.8555416,-67.8497386 -45.8553249,-67.8490841 -45.8555341,-67.84737753 -45.85568862,-67.8480864 -45.8556163,-67.846477 -45.8561992,-67.8452325 -45.8556537,-67.84359994 -45.85582912,-67.8438914 -45.8557508,-67.8414237 -45.8563262,-67.8377545 -45.8563187,-67.83653581 -45.85644197,-67.8371108 -45.8561767,-67.8326368 -45.8556313,-67.83154193 -45.85548135,-67.8319716 -45.855437,-67.8292787 -45.855108200000004,-67.82760578 -45.8552439,-67.8277767 -45.8550036,-67.8251696 -45.8547271,-67.824676 -45.8544207,-67.82322995 -45.85451391,-67.8244078 -45.8540994,-67.8225088 -45.8518801,-67.82163737 -45.8516816,-67.8223801 -45.8515886,-67.8209639 -45.8504751,-67.8196657 -45.8504079,-67.81800483 -45.85079524,-67.8185713 -45.8505798,-67.816962 -45.851073,-67.8161895 -45.8523658,-67.81497943 -45.85259887,-67.816329 -45.8519921,-67.8167796 -45.8511701,-67.8158462 -45.8513121,-67.8150415 -45.8533148,-67.8138399 -45.8541293,-67.81217316 -45.85421245,-67.809999 -45.85395,-67.81053540000002 -45.8542265,-67.8125417 -45.8543386,-67.80813131 -45.85419968,-67.8093982 -45.8548467,-67.8103423 -45.8545851,-67.808851 -45.8544506,-67.8103101 -45.854219,-67.8097093 -45.8539126,-67.8072436 -45.85498762,-67.8098595 -45.8560647,-67.809999 -45.8550036,-67.8090441 -45.8548691,-67.80907829 -45.8565264,-67.8125632 -45.8568492,-67.810396 -45.8571033,-67.8101599 -45.8566923,-67.81224182 -45.85671416,-67.8138077 -45.8564532,-67.814548 -45.8566699,-67.813561 -45.8597484,-67.8137219 -45.8605777,-67.81282229 -45.86107452,-67.8186142 -45.8634617,-67.8183568 -45.8624605,-67.8160179 -45.8615565,-67.8143764 -45.8610559,-67.81720169 -45.86444747,-67.8182173 -45.868004,-67.8160286 -45.8663455,-67.8181314 -45.8648065,-67.8182173 -45.864545,-67.81633269 -45.86814359,-67.8182173 -45.868004,-67.8163826 -45.8667415,-67.8134429 -45.8668909,-67.81175633 -45.86687163;-67.81175633 -45.86687163,-67.8182173 -45.868004,-67.8163826 -45.8667415,-67.8134429 -45.8668909,-67.81633269 -45.86814359,-67.8182173 -45.868004,-67.8160286 -45.8663455,-67.8181314 -45.8648065,-67.8182173 -45.864545,-67.81720169 -45.86444747,-67.8186142 -45.8634617,-67.8183568 -45.8624605,-67.8160179 -45.8615565,-67.8143764 -45.8610559,-67.81282229 -45.86107452,-67.8138077 -45.8564532,-67.814548 -45.8566699,-67.813561 -45.8597484,-67.8137219 -45.8605777,-67.81224182 -45.85671416,-67.8125632 -45.8568492,-67.810396 -45.8571033,-67.8101599 -45.8566923,-67.80907829 -45.8565264;-67.80907829 -45.8565264,-67.8098595 -45.8560647,-67.809999 -45.8550036,-67.8090441 -45.8548691,-67.8072436 -45.85498762,-67.8093982 -45.8548467,-67.8103423 -45.8545851,-67.808851 -45.8544506,-67.8103101 -45.854219,-67.8097093 -45.8539126,-67.80813131 -45.85419968,-67.809999 -45.85395,-67.81053540000002 -45.8542265,-67.8125417 -45.8543386,-67.81217316 -45.85421245,-67.816329 -45.8519921,-67.8167796 -45.8511701,-67.8158462 -45.8513121,-67.8150415 -45.8533148,-67.8138399 -45.8541293,-67.81497943 -45.85259887,-67.8185713 -45.8505798,-67.816962 -45.851073,-67.8161895 -45.8523658,-67.81800483 -45.85079524,-67.8223801 -45.8515886,-67.8209639 -45.8504751,-67.8196657 -45.8504079,-67.82163737 -45.8516816,-67.8244078 -45.8540994,-67.8225088 -45.8518801,-67.82322995 -45.85451391,-67.8277767 -45.8550036,-67.8251696 -45.8547271,-67.824676 -45.8544207,-67.82760578 -45.8552439,-67.8319716 -45.855437,-67.8292787 -45.855108200000004,-67.83154193 -45.85548135,-67.8371108 -45.8561767,-67.8326368 -45.8556313,-67.83653581 -45.85644197,-67.8438914 -45.8557508,-67.8414237 -45.8563262,-67.8377545 -45.8563187,-67.84359994 -45.85582912,-67.8480864 -45.8556163,-67.846477 -45.8561992,-67.8452325 -45.8556537,-67.84737753 -45.85568862,-67.851541 -45.8561394,-67.8511119 -45.8555416,-67.8497386 -45.8553249,-67.8490841 -45.8555341,-67.84992667 -45.85649082,-67.8511226 -45.8587172,-67.8489661 -45.8581942,-67.8504252 -45.8565952,-67.85051371 -45.8587379,-67.8547168 -45.8600622,-67.8545237 -45.8589862,-67.8537083 -45.858508,-67.852335 -45.8585529,-67.85325633 -45.86047853,-67.8585362 -45.8586425,-67.8567231 -45.8591431,-67.8550386 -45.8605852,-67.85800456 -45.85865306,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.86119926 -45.8582863,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86269634 -45.8576934,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86509618 -45.85797591,-67.8666258 -45.8579551,-67.8677523 -45.8588443,-67.8689218 -45.8588293,-67.8688896 -45.8591954,-67.86821501 -45.85959306,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86513556 -45.86046435,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.98715669 -45.86146692,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98206338 -45.86352335,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98026531 -45.86300386,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.97692655 -45.86298292,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97781889 -45.86412305,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97170451 -45.86764851,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.96898996 -45.86789944,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.9688479 -45.86924263,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.96992116 -45.87035971,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.9672039 -45.87497495,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.96572509 -45.87368099,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96214261 -45.87344787,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.95720623 -45.87256309,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95650202 -45.87386891,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95610675 -45.87170205,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95709848 -45.86769228,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2233,S2545,S2004,S2416</t>
   </si>
   <si>
     <t>Base,Linea 14,S278,Linea 15,S2250,Linea 16,S977,Linea 17,S245,Linea 1341,S2416,Linea 69,S154,Linea 71,S155,Linea 74,S156,Linea 75,S100,Linea 76,S2252,Linea 79,S2014,Linea 82,S2004,Linea 89,S2065,Linea 91,S2326,Linea 92,S2233;S2233,Linea 92,S2326,Linea 91,S2065,Linea 89,S2004,Linea 82,S2014,Linea 83,S2545;S2545,Linea 83,S2014,Linea 82,S2004;S2004,Linea 82,S2014,Linea 79,S2252,Linea 76,S100,Linea 75,S156,Linea 74,S155,Linea 71,S154,Linea 69,S2416;S2416,Linea 1341,S245,Linea 17,S977,Linea 16,S2250,Linea 15,S278,Linea 14,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9427254 -45.8635364,-67.9464859 -45.8623447,-67.9469097 -45.862016,-67.94569946 -45.86221924,-67.9469097 -45.8620944,-67.9481596 -45.8620048,-67.94727301 -45.86217176,-67.9483044 -45.861911400000004,-67.9473495 -45.8614183,-67.94655091 -45.86160389,-67.9479718 -45.8615453,-67.9493934 -45.8606973,-67.9489589 -45.8606599,-67.94780419 -45.86081977,-67.9494631 -45.8607197,-67.9496992 -45.8604582,-67.9489589 -45.8596363,-67.9496777 -45.8591282,-67.9500318 -45.8586351,-67.9503858 -45.8584632,-67.94942594 -45.85854239,-67.95038580000002 -45.8584109,-67.9492486 -45.8582839,-67.9486799 -45.8563934,-67.9455793 -45.8575815,-67.94451337 -45.85788474,-67.9455793 -45.8575815,-67.9449892 -45.8573947,-67.9450321 -45.8569464,-67.9437447 -45.8569987,-67.9429507 -45.8566475,-67.94127839 -45.85682198,-67.9418778 -45.8559601,-67.9390132 -45.8553324,-67.93784211 -45.85566073,-67.9390132 -45.8553324,-67.9377794 -45.8546898,-67.9357088 -45.8545104,-67.93449161 -45.85473418,-67.9352367 -45.8545328,-67.933563 -45.8546898,-67.9313636 -45.8564457,-67.93015362 -45.85669955,-67.9309988 -45.8565279,-67.9294109 -45.8566176,-67.9285955 -45.8575143,-67.92745639 -45.85783394,-67.9283702 -45.8576637,-67.9275548 -45.8572154,-67.9269218 -45.8575143,-67.9259026 -45.8575367,-67.9241967 -45.8567969,-67.92272998 -45.85731085,-67.9241967 -45.8567969,-67.924701 -45.8556761,-67.9241431 -45.854488,-67.92327551 -45.85450965,-67.9244971 -45.8543161,-67.9239607 -45.8526497,-67.9270506 -45.8518203,-67.9288852 -45.8523882,-67.9308057 -45.8510879,-67.9312563 -45.8523135,-67.93089091 -45.85239801,-67.9313636 -45.8522761,-67.9309022 -45.8511926,-67.9317391 -45.8517754,-67.9345393 -45.8509983,-67.9352582 -45.8516036,-67.93449334 -45.85185974;-67.93449334 -45.85185974,-67.9313636 -45.8522761,-67.9309022 -45.8511926,-67.9317391 -45.8517754,-67.9345393 -45.8509983,-67.9352582 -45.8516036,-67.93089091 -45.85239801,-67.9244971 -45.8543161,-67.9239607 -45.8526497,-67.9270506 -45.8518203,-67.9288852 -45.8523882,-67.9308057 -45.8510879,-67.9312563 -45.8523135,-67.92327551 -45.85450965,-67.9241967 -45.8567969,-67.924701 -45.8556761,-67.9241431 -45.854488,-67.92272998 -45.85731085,-67.9283702 -45.8576637,-67.9275548 -45.8572154,-67.9269218 -45.8575143,-67.9259026 -45.8575367,-67.9241967 -45.8567969,-67.92745639 -45.85783394,-67.9284239 -45.8577608,-67.9278553 -45.858792,-67.9272817 -45.85903741;-67.9272817 -45.85903741,-67.9284239 -45.8577608,-67.9278553 -45.858792,-67.92745639 -45.85783394,-67.9283702 -45.8576637,-67.9275548 -45.8572154,-67.9269218 -45.8575143,-67.9259026 -45.8575367,-67.9241967 -45.8567969,-67.92272998 -45.85731085;-67.92272998 -45.85731085,-67.9283702 -45.8576637,-67.9275548 -45.8572154,-67.9269218 -45.8575143,-67.9259026 -45.8575367,-67.9241967 -45.8567969,-67.92745639 -45.85783394,-67.9309988 -45.8565279,-67.9294109 -45.8566176,-67.9285955 -45.8575143,-67.93015362 -45.85669955,-67.9352367 -45.8545328,-67.933563 -45.8546898,-67.9313636 -45.8564457,-67.93449161 -45.85473418,-67.9390132 -45.8553324,-67.9377794 -45.8546898,-67.9357088 -45.8545104,-67.93784211 -45.85566073,-67.9418778 -45.8559601,-67.9390132 -45.8553324,-67.94127839 -45.85682198,-67.9455793 -45.8575815,-67.9449892 -45.8573947,-67.9450321 -45.8569464,-67.9437447 -45.8569987,-67.9429507 -45.8566475,-67.94451337 -45.85788474,-67.95038580000002 -45.8584109,-67.9492486 -45.8582839,-67.9486799 -45.8563934,-67.9455793 -45.8575815,-67.94942594 -45.85854239;-67.94942594 -45.85854239,-67.9494631 -45.8607197,-67.9496992 -45.8604582,-67.9489589 -45.8596363,-67.9496777 -45.8591282,-67.9500318 -45.8586351,-67.9503858 -45.8584632,-67.94780419 -45.86081977,-67.9479718 -45.8615453,-67.9493934 -45.8606973,-67.9489589 -45.8606599,-67.94655091 -45.86160389,-67.9483044 -45.861911400000004,-67.9473495 -45.8614183,-67.94727301 -45.86217176,-67.9469097 -45.8620944,-67.9481596 -45.8620048,-67.94569946 -45.86221924,-67.9427254 -45.8635364,-67.9464859 -45.8623447,-67.9469097 -45.862016,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2009,S2678,S1033</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 1211,S172,Linea 768,S2417,Linea 759,S402,Linea 760,S2468,Linea 763,S395,Linea 764,S338,Linea 773,S2407,Linea 850,S2056,Linea 849,S2716,Linea 853,S2504,Linea 854,S997,Linea 1836,S353,Linea 1361,S2006,Linea 1363,S2009;S2009,Linea 1365,S354,Linea 1421,S2255,Linea 568,S882,Linea 567,S522,Linea 566,S2273,Linea 615,S2634,Linea 614,S469,Linea 545,S439,Linea 538,S531,Linea 540,S533,Linea 536,S506,Linea 534,S470,Linea 645,S426,Linea 649,S2307,Linea 507,S427,Linea 512,S509,Linea 511,S2236,Linea 516,Q17,Linea 517,S2523,Linea 1887,S13,Linea 1886,S2,Linea 471,S2240,Linea 1593,Q16,Linea 613,S3,Linea 734,S295,Linea 735,S17,Linea 596,S2293,Linea 597,S4,Linea 598,S2324,Linea 600,S2196,Linea 599,S2689,Linea 605,S581,Linea 609,S2682,Linea 1623,S2678;S2678,Linea 1623,S2682,Linea 609,S581,Linea 605,S2689,Linea 599,S2196,Linea 600,S2324,Linea 598,S4,Linea 597,S2293,Linea 596,S17,Linea 735,S295,Linea 734,S3,Linea 613,Q16,Linea 1626,S2240,Linea 471,S2,Linea 1886,S13,Linea 1887,S2523,Linea 1888,S2606,Linea 526,S2614,Linea 451,S2122,Linea 439,S2635,Linea 420,S2040,Linea 418,S2007,Linea 378,S1028,Linea 416,S1036,Linea 376,S1033;S1033,Linea 376,S1036,Linea 416,S1028,Linea 379,S544,Linea 380,S1037,Linea 381,S2300,Linea 412,S2151,Linea 531,S773,Linea 546,S437,Linea 549,S529,Linea 551,S525,Linea 552,S2273,Linea 566,S522,Linea 567,S882,Linea 568,S2255,Linea 1421,S354,Linea 1365,S2009,Linea 1363,S2006,Linea 1361,S353,Linea 1836,S997,Linea 854,S2504,Linea 853,S2716,Linea 849,S2056,Linea 850,S2407,Linea 773,S338,Linea 764,S395,Linea 763,S2468,Linea 760,S402,Linea 759,S2417,Linea 768,S172,Linea 1211,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.95709848 -45.86769228,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95610675 -45.87170205,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95650202 -45.87386891,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95720623 -45.87256309,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.96214261 -45.87344787,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96572509 -45.87368099,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.9672039 -45.87497495,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.96992116 -45.87035971,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.9688479 -45.86924263,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.96898996 -45.86789944,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.97170451 -45.86764851,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97781889 -45.86412305,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97692655 -45.86298292,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.98026531 -45.86300386;-67.98026531 -45.86300386,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98206338 -45.86352335,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8701234 -45.8635663,-67.8698123 -45.86132490000001,-67.8679776 -45.8603237,-67.8670549 -45.8588966,-67.8654027 -45.859457,-67.8654563 -45.8601518,-67.8656709 -45.8602639,-67.86895092 -45.86422008,-67.8682029 -45.8666817,-67.8692436 -45.8661961,-67.8702307 -45.8647318,-67.8701663 -45.8642088,-67.86635342 -45.86702056,-67.8668725 -45.8688706,-67.8667974 -45.868646500000004,-67.8676665 -45.8677127,-67.867012 -45.86727940000001,-67.86653014 -45.86909111,-67.8665292 -45.8705589,-67.866143 -45.8710594,-67.8657889 -45.8704767,-67.8668725 -45.8688706,-67.86552841 -45.87071955,-67.8687286 -45.87223970000001,-67.8671408 -45.8717542,-67.8661752 -45.8712611,-67.8662395 -45.8705888,-67.86803091 -45.87230485,-67.8686213 -45.87223970000001,-67.8679776 -45.8725012,-67.867173 -45.87342,-67.86601994 -45.87390747,-67.8666043 -45.8740773,-67.8655958 -45.8758999,-67.8658319 -45.8761464,-67.86520975 -45.8764158,-67.8690398 -45.8759074,-67.8681815 -45.8748691,-67.8664434 -45.8762585,-67.86877282 -45.87598303,-67.8721726 -45.8748019,-67.868793 -45.8753024,-67.8683639 -45.8750633,-67.8691471 -45.8759522,-67.87226293 -45.87472228,-67.8772473 -45.875646,-67.87714 -45.874899,-67.8760457 -45.8739578,-67.8750265 -45.8733005,-67.8741574 -45.8732108,-67.8737283 -45.8741819,-67.87580898 -45.87623664,-67.8836632 -45.8741296,-67.884264 -45.8734723,-67.8839421 -45.8733229,-67.8833306 -45.8736515,-67.8822899 -45.87404,-67.8816032 -45.8749737,-67.8808522 -45.875153,-67.8791678 -45.8762809,-67.8782129 -45.8766021,-67.8774083 -45.8765572,-67.88196942 -45.87464989,-67.8803158 -45.8771847,-67.8813779 -45.8760792,-67.8823113 -45.875519,-67.8828478 -45.87486160000001,-67.87897854 -45.87766371,-67.8797901 -45.8776627,-67.8792536 -45.87817810000001,-67.8798115 -45.8793806,-67.87875862 -45.87975391,-67.8785026 -45.8788802,-67.8798115 -45.8793806,-67.87684672 -45.87887091,-67.8772688 -45.8789101,-67.8749835 -45.8790146,-67.87362100000001 -45.8797765,-67.8724445 -45.87988188,-67.8726017 -45.880389,-67.8697157 -45.8828462,-67.8706813 -45.8831001,-67.8686643 -45.8830254,-67.86703039 -45.88312685,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.87263059 -45.88283868,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.8758872 -45.88413516,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.87630061 -45.88642699,,-67.87597578 -45.88674947,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87931365 -45.88515467,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.88934482 -45.88367092,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88477851 -45.88530377,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88304639 -45.88588109,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88085052 -45.88709026,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.87661058 -45.88889945,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87484305 -45.89067788,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87813787 -45.88993585,-67.8789854 -45.8901127,-67.8777838 -45.8901052,-67.8751981 -45.8927935,-67.8739536 -45.8942571,-67.87230402 -45.89457162,-67.8732026 -45.8945633,-67.872076 -45.8946753,-67.8709388 -45.89427200000001,-67.8709924 -45.8932789,-67.86962065 -45.89326713,,-67.8703009 -45.89288745;-67.8703009 -45.89288745,,-67.86962065 -45.89326713,-67.8732026 -45.8945633,-67.872076 -45.8946753,-67.8709388 -45.89427200000001,-67.8709924 -45.8932789,-67.87230402 -45.89457162,-67.8789854 -45.8901127,-67.8777838 -45.8901052,-67.8751981 -45.8927935,-67.8739536 -45.8942571,-67.87813787 -45.88993585,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87484305 -45.89067788,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87661058 -45.88889945,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.88085052 -45.88709026,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88304639 -45.88588109,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88477851 -45.88530377,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88934482 -45.88367092,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.87931365 -45.88515467,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87597578 -45.88674947,,-67.87630061 -45.88642699,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.8758872 -45.88413516,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.87263059 -45.88283868,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.86703039 -45.88312685,-67.8685462 -45.8831151,-67.8700483 -45.8829059,-67.8648233 -45.8818603,-67.8628063 -45.8810537,-67.8621304 -45.8814645,-67.86071597 -45.88116865,-67.8614116 -45.8855274,-67.862978 -45.884788,-67.8635466 -45.8831599,-67.8632355 -45.8817483,-67.86391140000002 -45.8815093,-67.8628063 -45.8810537,-67.8623772 -45.8814346,-67.85908094 -45.88593849,-67.85825730000002 -45.8853855,-67.85964130000002 -45.8854228,-67.85655105 -45.88556448,-67.8571093 -45.8855572,-67.8559184 -45.8854378,-67.8555107 -45.884698400000005,-67.85493998 -45.88481908,-67.8556287 -45.8843698,-67.853719 -45.8831001,-67.8518629 -45.8825923,-67.8500605 -45.8812329,-67.8485758 -45.88086765,-67.8494382 -45.880628,-67.84873010000001 -45.8802396,-67.8461766 -45.8806653,-67.8457046 -45.880515900000006,-67.84518194 -45.88032275,-67.8455973 -45.8806504,-67.8449214 -45.8812852,-67.8420246 -45.8795972,-67.8425181 -45.87953,-67.84221298 -45.87973382,-67.842443 -45.8796122,-67.8389347 -45.8810612,-67.8383017 -45.8819499,-67.8395998 -45.8826445,-67.8392565 -45.8820246,-67.8403294 -45.8816064,-67.83977572 -45.88161766,-67.8418744 -45.8837275,-67.8411126 -45.8830703,-67.839793 -45.8826221,-67.8392565 -45.8819126,-67.8402436 -45.8815616,-67.8408227 -45.88408969;-67.8408227 -45.88408969,-67.8418744 -45.8837275,-67.8411126 -45.8830703,-67.839793 -45.8826221,-67.8392565 -45.8819126,-67.8402436 -45.8815616,-67.83977572 -45.88161766,-67.842443 -45.8796122,-67.8389347 -45.8810612,-67.8383017 -45.8819499,-67.8395998 -45.8826445,-67.8392565 -45.8820246,-67.8403294 -45.8816064,-67.84221298 -45.87973382,-67.842561 -45.8794628,-67.8420246 -45.8792462,-67.8431511 -45.8775283,-67.8462946 -45.877095,-67.8445137 -45.8768261,-67.84286672 -45.87711998,-67.8467989 -45.878081,-67.8463697 -45.8770502,-67.8443956 -45.8768859,-67.84627973 -45.87829114,-67.8467667 -45.8780212,-67.846477 -45.87698300000001,-67.8477967 -45.8764751,-67.84644226 -45.87649326,-67.847904 -45.8759074,-67.8490949 -45.8742491,-67.8510368 -45.8734349,-67.8488266 -45.8731585,-67.84711722 -45.87310355,-67.84873010000001 -45.87312860000001,-67.8543305 -45.8741595,-67.857635 -45.8744807,-67.857019 -45.87438052,-67.857635 -45.8744807,-67.8541696 -45.874152,-67.8588581 -45.8727103,-67.8593409 -45.8716048,-67.85882935 -45.87179542,-67.8593409 -45.8716048,-67.85971640000001 -45.8705365,-67.8614008 -45.870529,-67.861948 -45.8698268,-67.8630531 -45.8694832,-67.86235431 -45.86962035,-67.8639972 -45.8691171,-67.8657031 -45.8680713,-67.86498939 -45.86808329,-67.8668189 -45.8667639,-67.8664005 -45.866988,-67.8663254 -45.8676305,-67.86635342 -45.86702056,-67.8682029 -45.8666817,-67.8692436 -45.8661961,-67.8702307 -45.8647318,-67.8701663 -45.8642088,-67.86895092 -45.86422008,-67.8701234 -45.8635663,-67.8698123 -45.86132490000001,-67.8679776 -45.8603237,-67.8670549 -45.8588966,-67.8654027 -45.859457,-67.8654563 -45.8601518,-67.8656709 -45.8602639,-67.86513556 -45.86046435,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.98715669 -45.86146692,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98206338 -45.86352335,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98026531 -45.86300386,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.97692655 -45.86298292,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97781889 -45.86412305,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97170451 -45.86764851,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.96898996 -45.86789944,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.9688479 -45.86924263,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.96992116 -45.87035971,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.9672039 -45.87497495,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.96572509 -45.87368099,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96214261 -45.87344787,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.95720623 -45.87256309,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95650202 -45.87386891,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95610675 -45.87170205,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95709848 -45.86769228,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2556,S2578,S2321</t>
   </si>
   <si>
     <t>Base,Linea 1,S176,Linea 1506,S2447,Linea 2,S993,Linea 3,S329,Linea 4,S309,Linea 10,S2195,Linea 27,S2412,Linea 33,S308,Linea 34,S2032,Linea 42,S2569,Linea 46,S2199,Linea 1847,S2200,Linea 97,S356,Linea 143,S2017,Linea 144,S690,Linea 141,S538,Linea 104,S2206,Linea 105,S763,Linea 106,S719,Linea 108,S767,Linea 112,S555,Linea 1532,S2578,Linea 142,S556,Linea 1883,S2022,Linea 902,S2001,Linea 1849,S492,Linea 1885,S2556;S2556,Linea 1885,S492,Linea 1849,S2001,Linea 902,S2022,Linea 1883,S556,Linea 142,S2578;S2578,Linea 1821,S555,Linea 112,S767,Linea 108,S719,Linea 106,S763,Linea 105,S2206,Linea 104,S538,Linea 141,S690,Linea 144,S2017,Linea 143,S356,Linea 99,S551,Linea 100,S781,Linea 409,S2321;S2321,Linea 88,S2004,Linea 82,S2014,Linea 79,S2252,Linea 76,S100,Linea 75,S156,Linea 74,S155,Linea 71,S154,Linea 69,S2416,Linea 1341,S245,Linea 17,S977,Linea 16,S2250,Linea 15,S278,Linea 14,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.93822649 -45.86645361,,-67.93820898 -45.86621382,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.9397787 -45.86446671,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.94026881 -45.86394522,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94016816 -45.86304785,-67.9407942 -45.8630844,-67.9403758 -45.8621878,-67.9386914 -45.8624792,-67.93749455 -45.86270022,-67.9389811 -45.8623559,-67.9389596 -45.8618329,-67.9381979 -45.8610783,-67.9390669 -45.8607794,-67.93809539 -45.86091501,-67.9388309 -45.8607794,-67.938112 -45.8611007,-67.9377472 -45.860899,-67.9362881 -45.8614743,-67.9374897 -45.8619749,-67.93652197 -45.86222667,-67.9375219 -45.8620421,-67.9357517 -45.861085800000005,-67.9346144 -45.8614519,-67.93332777 -45.86169272,-67.9343569 -45.8614145,-67.9335523 -45.861549,-67.9334021 -45.8611381,-67.9309666 -45.8609214,-67.92973166 -45.86112334,-67.9307091 -45.86097370000001,-67.9287457 -45.8609588,-67.9288423 -45.860757,-67.92827234 -45.86082887,-67.9288423 -45.860757,-67.9286063 -45.8609812,-67.9269433 -45.8608168,-67.9254305 -45.8610559,-67.9256237 -45.8606898,-67.92472033 -45.86078317,-67.9253769 -45.8604208,-67.9236388 -45.8595317,-67.9233384 -45.8597857,-67.92204432 -45.86025045,-67.9235315 -45.8601219,-67.9222655 -45.8604731,-67.92116295 -45.86077528,-67.9219651 -45.8610335,-67.9157424 -45.8609887,-67.91412974 -45.86109479,-67.9153347 -45.8605702,-67.9157317 -45.8599725,-67.9146159 -45.859457,-67.91347499 -45.85938782,-67.9145408 -45.8594047,-67.9124916 -45.858777,-67.9112792 -45.8592776,-67.91058213 -45.85962973,-67.9112792 -45.8592776,-67.9102921 -45.8588293,-67.9105067 -45.8586425,-67.90964669 -45.85881191,-67.9102653 -45.8586986,-67.9081625 -45.8581195,-67.90707943 -45.8582017,-67.90773330000002 -45.8580522,-67.9073417 -45.8579177,-67.9068965 -45.8568567,-67.9053408 -45.8563822,-67.90400196 -45.85653031,-67.904284 -45.8564084,-67.9033184 -45.8552726,-67.9019022 -45.8551232,-67.90067511 -45.8549717,,-67.90022567 -45.85540767,-67.9008508 -45.8548093,-67.8990161 -45.8545403,-67.898823 -45.8538678,-67.8965485 -45.8545553,-67.89483427 -45.85484841,-67.887429 -45.855564,-67.8894138 -45.853808,-67.8932333 -45.8533447,-67.8969455 -45.8545851,-67.8963768 -45.8546599,-67.88581092 -45.85597227,-67.887429 -45.855564,-67.8882551 -45.8548691,-67.8894138 -45.853808,-67.8920853 -45.8535689,-67.8916454 -45.8538678,-67.8897357 -45.85395,-67.88910 -45.85436,-67.8875685 -45.8562589,-67.885799 -45.8571033,-67.88544 -45.8578281,-67.88523 -45.85794,-67.88402968 -45.85834964,-67.8814316 -45.8592926,-67.8808415 -45.8591357,-67.880863 -45.8587322,-67.8817642 -45.858239,-67.8850043 -45.8580522,-67.88077392 -45.85953999,-67.8820431 -45.8588966,-67.8808415 -45.8591357,-67.8813887 -45.8593822,-67.88161815 -45.85881773;-67.88161815 -45.85881773,-67.8820431 -45.8588966,-67.8808415 -45.8591357,-67.8813887 -45.8593822,-67.88077392 -45.85953999,-67.8814316 -45.8592926,-67.8808415 -45.8591357,-67.880863 -45.8587322,-67.8817642 -45.858239,-67.8850043 -45.8580522,-67.88402968 -45.85834964,-67.887429 -45.855564,-67.8882551 -45.8548691,-67.8894138 -45.853808,-67.8920853 -45.8535689,-67.8916454 -45.8538678,-67.8897357 -45.85395,-67.88910 -45.85436,-67.8875685 -45.8562589,-67.885799 -45.8571033,-67.88544 -45.8578281,-67.88523 -45.85794,-67.88581092 -45.85597227,-67.887429 -45.855564,-67.8894138 -45.853808,-67.8932333 -45.8533447,-67.8969455 -45.8545851,-67.8963768 -45.8546599,-67.89483427 -45.85484841,-67.9008508 -45.8548093,-67.8990161 -45.8545403,-67.898823 -45.8538678,-67.8965485 -45.8545553,-67.90022567 -45.85540767;-67.90022567 -45.85540767,,-67.90067511 -45.8549717,-67.904284 -45.8564084,-67.9033184 -45.8552726,-67.9019022 -45.8551232,-67.90400196 -45.85653031,-67.90773330000002 -45.8580522,-67.9073417 -45.8579177,-67.9068965 -45.8568567,-67.9053408 -45.8563822,-67.90707943 -45.8582017,-67.9102653 -45.8586986,-67.9081625 -45.8581195,-67.90964669 -45.85881191,-67.9112792 -45.8592776,-67.9102921 -45.8588293,-67.9105067 -45.8586425,-67.91058213 -45.85962973,-67.9145408 -45.8594047,-67.9124916 -45.858777,-67.9112792 -45.8592776,-67.91347499 -45.85938782,-67.9153347 -45.8605702,-67.9157317 -45.8599725,-67.9146159 -45.859457,-67.91412974 -45.86109479,-67.9219651 -45.8610335,-67.9157424 -45.8609887,-67.92116295 -45.86077528,-67.9235315 -45.8601219,-67.9222655 -45.8604731,-67.92204432 -45.86025045,-67.9237354 -45.8596662,-67.922287 -45.8586052,-67.9212356 -45.8589414,-67.92001872 -45.85910034,-67.9202163 -45.858963800000005,-67.9188108 -45.8570659,-67.918371 -45.8571108,-67.91707962 -45.85731555,-67.9179096 -45.8569314,-67.917974 -45.8555117,-67.9220295 -45.8569464,-67.92158978 -45.85720014;-67.92158978 -45.85720014,-67.9236388 -45.8571407,-67.9227161 -45.8570659,-67.92272998 -45.85731085,-67.9283702 -45.8576637,-67.9275548 -45.8572154,-67.9269218 -45.8575143,-67.9259026 -45.8575367,-67.9241967 -45.8567969,-67.92745639 -45.85783394,-67.9309988 -45.8565279,-67.9294109 -45.8566176,-67.9285955 -45.8575143,-67.93015362 -45.85669955,-67.9352367 -45.8545328,-67.933563 -45.8546898,-67.9313636 -45.8564457,-67.93449161 -45.85473418,-67.9390132 -45.8553324,-67.9377794 -45.8546898,-67.9357088 -45.8545104,-67.93784211 -45.85566073,-67.9418778 -45.8559601,-67.9390132 -45.8553324,-67.94127839 -45.85682198,-67.9455793 -45.8575815,-67.9449892 -45.8573947,-67.9450321 -45.8569464,-67.9437447 -45.8569987,-67.9429507 -45.8566475,-67.94451337 -45.85788474,-67.95038580000002 -45.8584109,-67.9492486 -45.8582839,-67.9486799 -45.8563934,-67.9455793 -45.8575815,-67.94942594 -45.85854239,-67.9494631 -45.8607197,-67.9496992 -45.8604582,-67.9489589 -45.8596363,-67.9496777 -45.8591282,-67.9500318 -45.8586351,-67.9503858 -45.8584632,-67.94780419 -45.86081977,-67.9479718 -45.8615453,-67.9493934 -45.8606973,-67.9489589 -45.8606599,-67.94655091 -45.86160389,-67.9483044 -45.861911400000004,-67.9473495 -45.8614183,-67.94727301 -45.86217176,-67.9469097 -45.8620944,-67.9481596 -45.8620048,-67.94569946 -45.86221924,-67.9427254 -45.8635364,-67.9464859 -45.8623447,-67.9469097 -45.862016,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2185,S2315,S2051,S2576</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185;S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 944,S56,Linea 940,S78,Linea 932,S645,Linea 931,S2111,Linea 930,S2110,Linea 736,S2167,Linea 1617,S2168,Linea 584,S849,Linea 582,S938,Linea 587,S2511,Linea 586,S948,Linea 585,S2662,Linea 1051,S911,Linea 1218,S2315;S2315,Linea 1218,S911,Linea 1051,S2662,Linea 585,S948,Linea 586,S2511,Linea 587,S938,Linea 581,S2443,Linea 578,S2132,Linea 579,S949,Linea 591,S2129,Linea 592,S2259,Linea 594,S17,Linea 735,S295,Linea 734,S3,Linea 613,Q16,Linea 1626,S2240,Linea 471,S2,Linea 1886,S13,Linea 1887,S2523,Linea 517,Q17,Linea 516,S2236,Linea 511,S509,Linea 512,S427,Linea 506,S420,Linea 509,S2051;S2051,Linea 509,S420,Linea 506,S427,Linea 512,S509,Linea 511,S2236,Linea 516,Q17,Linea 517,S2523,Linea 1888,S2606,Linea 526,S2614,Linea 525,S2461,Linea 454,S2594,Linea 438,S2120,Linea 434,S2668,Linea 435,S2105,Linea 432,S2632,Linea 431,S2121,Linea 424,S2576;S2576,Linea 424,S2121,Linea 431,S2632,Linea 432,S2105,Linea 435,S2668,Linea 434,S2120,Linea 438,S2594,Linea 454,S2461,Linea 525,S2614,Linea 526,S2606,Linea 1888,S2523,Linea 1887,S13,Linea 1886,S2,Linea 471,S2240,Linea 1593,Q16,Linea 613,S3,Linea 734,S295,Linea 735,S17,Linea 594,S2259,Linea 592,S2129,Linea 591,S949,Linea 579,S2132,Linea 578,S2443,Linea 581,S938,Linea 582,S849,Linea 584,S2168,Linea 1617,S2167,Linea 736,S2110,Linea 930,S2111,Linea 931,S645,Linea 932,S78,Linea 940,S56,Linea 944,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015;-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92260289 -45.87981886,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.91930941 -45.88137118,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91747464 -45.88372353,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91541483 -45.88231338,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.90970498 -45.88326091,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90591516 -45.88446218,,-67.90594775 -45.88423937,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90705336 -45.88840606,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90362098 -45.8874036,-67.9022241 -45.8892913,-67.9030609 -45.889239,-67.9032218 -45.8889477,-67.9028785 -45.8877678,-67.9034686 -45.8869165,-67.9039729 -45.8871629,-67.90098858 -45.88903898,-67.9052174 -45.8898887,-67.9046273 -45.8890523,-67.9033613 -45.8891643,-67.9021382 -45.8893659,-67.90475618 -45.89004619,-67.908082 -45.8906056,-67.9061723 -45.8899111,-67.90753763 -45.89070583,-67.9155815 -45.891315,-67.9156137 -45.8917929,-67.9101205 -45.891778,-67.9101098 -45.8913822,-67.9085004 -45.8909043,-67.91464614 -45.89123186,-67.9154849 -45.8913374,-67.9156995 -45.8918153,-67.9161823 -45.8920468,-67.9130065 -45.8949441,-67.9139829 -45.893137,-67.91314953 -45.89274698;-67.91314953 -45.89274698,-67.9154849 -45.8913374,-67.9156995 -45.8918153,-67.9161823 -45.8920468,-67.9130065 -45.8949441,-67.9139829 -45.893137,-67.91464614 -45.89123186,-67.9155815 -45.891315,-67.9156137 -45.8917929,-67.9101205 -45.891778,-67.9101098 -45.8913822,-67.9085004 -45.8909043,-67.90753763 -45.89070583,-67.908082 -45.8906056,-67.9061723 -45.8899111,-67.90475618 -45.89004619,-67.9052174 -45.8898887,-67.9046273 -45.8890523,-67.9033613 -45.8891643,-67.9021382 -45.8893659,-67.90098858 -45.88903898,-67.9022241 -45.8892913,-67.9030609 -45.889239,-67.9032218 -45.8889477,-67.9028785 -45.8877678,-67.9034686 -45.8869165,-67.9039729 -45.8871629,-67.90362098 -45.8874036,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90293219 -45.8836944,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.89811074 -45.88424629,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89478887 -45.88442779,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.88986813 -45.88509226,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88725199 -45.88498287,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88477851 -45.88530377,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88934482 -45.88367092,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.87931365 -45.88515467,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87597578 -45.88674947,,-67.87630061 -45.88642699,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.8758872 -45.88413516,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.87263059 -45.88283868,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.86703039 -45.88312685,-67.8726017 -45.880389,-67.8697157 -45.8828462,-67.8706813 -45.8831001,-67.8686643 -45.8830254,-67.8724445 -45.87988188,-67.8772688 -45.8789101,-67.8749835 -45.8790146,-67.87362100000001 -45.8797765,-67.87684672 -45.87887091,-67.8785026 -45.8788802,-67.8798115 -45.8793806,-67.87875862 -45.87975391,-67.8797901 -45.8776627,-67.8792536 -45.87817810000001,-67.8798115 -45.8793806,-67.87897854 -45.87766371,-67.8836739 -45.8759821,-67.8838027 -45.8758402,-67.883234 -45.875631,-67.8816783 -45.8762734,-67.8803587 -45.8772818,-67.88220216 -45.87628794,-67.8837168 -45.877461,-67.8835773 -45.8776627,-67.8827834 -45.8773191,-67.8828907 -45.8762136,-67.88305116 -45.8774157;-67.88305116 -45.8774157,-67.8837168 -45.877461,-67.8835773 -45.8776627,-67.8827834 -45.8773191,-67.8828907 -45.8762136,-67.88220216 -45.87628794,-67.8836739 -45.8759821,-67.8838027 -45.8758402,-67.883234 -45.875631,-67.8816783 -45.8762734,-67.8803587 -45.8772818,-67.87897854 -45.87766371,-67.8797901 -45.8776627,-67.8792536 -45.87817810000001,-67.8798115 -45.8793806,-67.87875862 -45.87975391,-67.8785026 -45.8788802,-67.8798115 -45.8793806,-67.87684672 -45.87887091,-67.8772688 -45.8789101,-67.8749835 -45.8790146,-67.87362100000001 -45.8797765,-67.8724445 -45.87988188,-67.8726017 -45.880389,-67.8697157 -45.8828462,-67.8706813 -45.8831001,-67.8686643 -45.8830254,-67.86703039 -45.88312685,-67.8685462 -45.8831151,-67.8700483 -45.8829059,-67.8648233 -45.8818603,-67.8628063 -45.8810537,-67.8621304 -45.8814645,-67.86071597 -45.88116865,-67.8614116 -45.8855274,-67.862978 -45.884788,-67.8635466 -45.8831599,-67.8632355 -45.8817483,-67.86391140000002 -45.8815093,-67.8628063 -45.8810537,-67.8623772 -45.8814346,-67.85908094 -45.88593849,-67.8609717 -45.8856767,-67.862817 -45.8848403,-67.8617656 -45.8854826,-67.8616369 -45.886192,-67.8618944 -45.8867671,-67.86045923 -45.88724171,-67.8618944 -45.8867671,-67.8616261 -45.8862443,-67.8603601 -45.88681940000001,-67.8594589 -45.8868119,-67.8584075 -45.8873347,-67.856369 -45.8871629,-67.8557789 -45.8865655,-67.85399644 -45.88640005,-67.8548133 -45.885968,-67.8544056 -45.8857215,-67.8542554 -45.8852884,-67.85284989 -45.88522411,-67.8535903 -45.8848851,-67.8530109 -45.8845938,-67.8524315 -45.8844893,-67.85093028 -45.88433862,-67.8516591 -45.8844445,-67.8505969 -45.8845789,-67.84921346 -45.88477072,-67.84983520000002 -45.8848851,-67.8485048 -45.8854826,-67.849406 -45.8856842,-67.84894709 -45.88576073,-67.848537 -45.8862742,-67.8485477 -45.8854079,-67.8494489 -45.8856319,-67.84708796 -45.88650563,-67.8469384 -45.8864833,-67.8456509 -45.8865206,-67.8438485 -45.8877379,-67.8427005 -45.8909267,-67.84140349 -45.89173196;-67.84140349 -45.89173196,-67.8469384 -45.8864833,-67.8456509 -45.8865206,-67.8438485 -45.8877379,-67.8427005 -45.8909267,-67.84708796 -45.88650563,-67.848537 -45.8862742,-67.8485477 -45.8854079,-67.8494489 -45.8856319,-67.84894709 -45.88576073,-67.84983520000002 -45.8848851,-67.8485048 -45.8854826,-67.849406 -45.8856842,-67.84921346 -45.88477072,-67.8516591 -45.8844445,-67.8505969 -45.8845789,-67.85093028 -45.88433862,-67.8535903 -45.8848851,-67.8530109 -45.8845938,-67.8524315 -45.8844893,-67.85284989 -45.88522411,-67.8548133 -45.885968,-67.8544056 -45.8857215,-67.8542554 -45.8852884,-67.85399644 -45.88640005,-67.8618944 -45.8867671,-67.8616261 -45.8862443,-67.8603601 -45.88681940000001,-67.8594589 -45.8868119,-67.8584075 -45.8873347,-67.856369 -45.8871629,-67.8557789 -45.8865655,-67.86045923 -45.88724171,-67.8609717 -45.8856767,-67.862817 -45.8848403,-67.8617656 -45.8854826,-67.8616369 -45.886192,-67.8618944 -45.8867671,-67.85908094 -45.88593849,-67.8614116 -45.8855274,-67.862978 -45.884788,-67.8635466 -45.8831599,-67.8632355 -45.8817483,-67.86391140000002 -45.8815093,-67.8628063 -45.8810537,-67.8623772 -45.8814346,-67.86071597 -45.88116865,-67.8685462 -45.8831151,-67.8700483 -45.8829059,-67.8648233 -45.8818603,-67.8628063 -45.8810537,-67.8621304 -45.8814645,-67.86703039 -45.88312685,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.87263059 -45.88283868,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.8758872 -45.88413516,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.87630061 -45.88642699,,-67.87597578 -45.88674947,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87931365 -45.88515467,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.88934482 -45.88367092,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88477851 -45.88530377,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88725199 -45.88498287,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88986813 -45.88509226,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.89478887 -45.88442779,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89811074 -45.88424629,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.90293219 -45.8836944,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90362098 -45.8874036,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90705336 -45.88840606,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90594775 -45.88423937,,-67.90591516 -45.88446218,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90970498 -45.88326091,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91930941 -45.88137118,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.92260289 -45.87981886,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>tarde</t>
   </si>
   <si>
@@ -88,1198 +106,1798 @@
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 1211,S172,Linea 768,S2417,Linea 759,S402,Linea 760,S2468,Linea 763,S395,Linea 764,S338,Linea 773,S2407,Linea 850,S2056,Linea 849,S2716,Linea 853,S2504,Linea 854,S997,Linea 1836,S353,Linea 1361,S2006,Linea 1363,S2009,Linea 1365,S354,Linea 1421,S2255,Linea 1373,S323,Linea 1372,S325,Linea 1371,S2091,Linea 1370,S2081;S2081,Linea 1370,S2091,Linea 1371,S325,Linea 1372,S323,Linea 1373,S2255,Linea 568,S882,Linea 567,S522,Linea 566,S2273,Linea 615,S2634,Linea 614,S469,Linea 545,S439,Linea 538,S531,Linea 540,S533,Linea 536,S506,Linea 534,S470,Linea 645,S426,Linea 649,S2307,Linea 507,S427,Linea 512,S509,Linea 511,S2236,Linea 516,Q17,Linea 517,S2523,Linea 1887,S13,Linea 1886,S2,Linea 471,S2240,Linea 1593,Q16,Linea 613,S3,Linea 734,S295,Linea 735,S17,Linea 596,S2293,Linea 597,S4,Linea 598,S2324,Linea 600,S2196,Linea 599,S2689,Linea 601,S2683,Linea 606,S2619,Linea 608,S2694,Linea 1336,S2711,Linea 1335,S2698,Linea 1772,S2702;S2702,Linea 1772,S2698,Linea 1335,S2711,Linea 1336,S2694;S2694,Linea 608,S2619,Linea 606,S2683,Linea 601,S2689,Linea 599,S2196,Linea 600,S2324,Linea 598,S4,Linea 597,S2293,Linea 596,S17,Linea 594,S2259,Linea 592,S2129,Linea 591,S949,Linea 579,S2132,Linea 578,S2443,Linea 581,S938,Linea 582,S849,Linea 584,S2168,Linea 1617,S2167,Linea 736,S2110,Linea 930,S2111,Linea 931,S645,Linea 932,S78,Linea 940,S56,Linea 944,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.95709848 -45.86769228,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95610675 -45.87170205,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95650202 -45.87386891,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95720623 -45.87256309,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.96214261 -45.87344787,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96572509 -45.87368099,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.9672039 -45.87497495,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.96992116 -45.87035971,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.9688479 -45.86924263,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.96898996 -45.86789944,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.97170451 -45.86764851,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97781889 -45.86412305,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97692655 -45.86298292,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.98026531 -45.86300386,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98206338 -45.86352335,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98715669 -45.86146692,-67.9928935 -45.8605404,-67.9914236 -45.8609588,-67.98931 -45.8614369,-67.9889023 -45.8613323,-67.99220337 -45.86057361,-67.9911339 -45.8618479,-67.9904687 -45.8619002,-67.9910696 -45.8615117,-67.9918849 -45.861295,-67.9930007 -45.8606151,-67.99023202 -45.86204363,-67.9886341 -45.8629088,-67.9906297 -45.8618479,-67.9911232 -45.8617956,-67.98677491 -45.86342245,-67.9859948 -45.8647094,-67.9874003 -45.863783,-67.98422803 -45.86529103;-67.98422803 -45.86529103,-67.9859948 -45.8647094,-67.9874003 -45.863783,-67.98677491 -45.86342245,-67.9886341 -45.8629088,-67.9906297 -45.8618479,-67.9911232 -45.8617956,-67.99023202 -45.86204363,-67.9911339 -45.8618479,-67.9904687 -45.8619002,-67.9910696 -45.8615117,-67.9918849 -45.861295,-67.9930007 -45.8606151,-67.99220337 -45.86057361,-67.9928935 -45.8605404,-67.9914236 -45.8609588,-67.98931 -45.8614369,-67.9889023 -45.8613323,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8701234 -45.8635663,-67.8698123 -45.86132490000001,-67.8679776 -45.8603237,-67.8670549 -45.8588966,-67.8654027 -45.859457,-67.8654563 -45.8601518,-67.8656709 -45.8602639,-67.86895092 -45.86422008,-67.8682029 -45.8666817,-67.8692436 -45.8661961,-67.8702307 -45.8647318,-67.8701663 -45.8642088,-67.86635342 -45.86702056,-67.8668725 -45.8688706,-67.8667974 -45.868646500000004,-67.8676665 -45.8677127,-67.867012 -45.86727940000001,-67.86653014 -45.86909111,-67.8665292 -45.8705589,-67.866143 -45.8710594,-67.8657889 -45.8704767,-67.8668725 -45.8688706,-67.86552841 -45.87071955,-67.8687286 -45.87223970000001,-67.8671408 -45.8717542,-67.8661752 -45.8712611,-67.8662395 -45.8705888,-67.86803091 -45.87230485,-67.8686213 -45.87223970000001,-67.8679776 -45.8725012,-67.867173 -45.87342,-67.86601994 -45.87390747,-67.8666043 -45.8740773,-67.8655958 -45.8758999,-67.8658319 -45.8761464,-67.86520975 -45.8764158,-67.8690398 -45.8759074,-67.8681815 -45.8748691,-67.8664434 -45.8762585,-67.86877282 -45.87598303,-67.8721726 -45.8748019,-67.868793 -45.8753024,-67.8683639 -45.8750633,-67.8691471 -45.8759522,-67.87226293 -45.87472228,-67.8772473 -45.875646,-67.87714 -45.874899,-67.8760457 -45.8739578,-67.8750265 -45.8733005,-67.8741574 -45.8732108,-67.8737283 -45.8741819,-67.87580898 -45.87623664,-67.8836632 -45.8741296,-67.884264 -45.8734723,-67.8839421 -45.8733229,-67.8833306 -45.8736515,-67.8822899 -45.87404,-67.8816032 -45.8749737,-67.8808522 -45.875153,-67.8791678 -45.8762809,-67.8782129 -45.8766021,-67.8774083 -45.8765572,-67.88196942 -45.87464989,-67.8803158 -45.8771847,-67.8813779 -45.8760792,-67.8823113 -45.875519,-67.8828478 -45.87486160000001,-67.87897854 -45.87766371,-67.8797901 -45.8776627,-67.8792536 -45.87817810000001,-67.8798115 -45.8793806,-67.87875862 -45.87975391,-67.8785026 -45.8788802,-67.8798115 -45.8793806,-67.87684672 -45.87887091,-67.8772688 -45.8789101,-67.8749835 -45.8790146,-67.87362100000001 -45.8797765,-67.8724445 -45.87988188,-67.8726017 -45.880389,-67.8697157 -45.8828462,-67.8706813 -45.8831001,-67.8686643 -45.8830254,-67.86703039 -45.88312685,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.87263059 -45.88283868,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.8758872 -45.88413516,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.87630061 -45.88642699,,-67.87597578 -45.88674947,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87931365 -45.88515467,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.88934482 -45.88367092,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88477851 -45.88530377,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88304639 -45.88588109,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88085052 -45.88709026,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.87661058 -45.88889945,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87484305 -45.89067788,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87813787 -45.88993585,-67.8788996 -45.8901426,-67.877934 -45.8900903,-67.8774834 -45.8904786,-67.8777945 -45.8925098,-67.8783524 -45.8919348,-67.87768072 -45.89180609,-67.8782558 -45.8919497,-67.8778267 -45.8923828,-67.8780413 -45.8938315,-67.8791893 -45.8953398,-67.87842608 -45.89585515,-67.8799939 -45.8961761,-67.8810668 -45.8968855,-67.881496 -45.8974007,-67.88049412 -45.89765426,-67.8816462 -45.8976545,-67.8819466 -45.8992972,-67.8823757 -45.8992374,-67.88283131 -45.8994995,-67.8778481 -45.8999691,-67.8795862 -45.8996556,-67.8816676 -45.8998198,-67.8823113 -45.899342,-67.87600509 -45.90013168,,-67.87638486 -45.90010492;-67.87638486 -45.90010492,,-67.87600509 -45.90013168,-67.8778481 -45.8999691,-67.8795862 -45.8996556,-67.8816676 -45.8998198,-67.8823113 -45.899342,-67.88283131 -45.8994995,-67.8816462 -45.8976545,-67.8819466 -45.8992972,-67.8823757 -45.8992374,-67.88049412 -45.89765426;-67.88049412 -45.89765426,-67.8799939 -45.8961761,-67.8810668 -45.8968855,-67.881496 -45.8974007,-67.87842608 -45.89585515,-67.8782558 -45.8919497,-67.8778267 -45.8923828,-67.8780413 -45.8938315,-67.8791893 -45.8953398,-67.87768072 -45.89180609,-67.8788996 -45.8901426,-67.877934 -45.8900903,-67.8774834 -45.8904786,-67.8777945 -45.8925098,-67.8783524 -45.8919348,-67.87813787 -45.88993585,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87484305 -45.89067788,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87661058 -45.88889945,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.88085052 -45.88709026,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88304639 -45.88588109,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88477851 -45.88530377,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88725199 -45.88498287,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88986813 -45.88509226,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.89478887 -45.88442779,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89811074 -45.88424629,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.90293219 -45.8836944,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90362098 -45.8874036,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90705336 -45.88840606,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90594775 -45.88423937,,-67.90591516 -45.88446218,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90970498 -45.88326091,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91930941 -45.88137118,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.92260289 -45.87981886,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2262,S2642,S949,S738</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 1211,S172,Linea 768,S2417,Linea 759,S402,Linea 760,S2468,Linea 763,S395,Linea 764,S338,Linea 773,S2407,Linea 850,S2056,Linea 849,S2716,Linea 853,S2504,Linea 854,S997,Linea 1836,S353,Linea 1361,S2006,Linea 1363,S2009,Linea 1365,S354,Linea 1421,S2255,Linea 568,S882,Linea 622,S523,Linea 621,E290,Linea 620,S2386,Linea 238,S958,Linea 626,S2560,Linea 627,S2262;S2262,Linea 628,S2445,Linea 662,S2720,Linea 632,S460,Linea 616,S469,Linea 545,S439,Linea 538,S531,Linea 540,S533,Linea 536,S506,Linea 534,S470,Linea 645,S426,Linea 649,S2307,Linea 507,S427,Linea 512,S509,Linea 511,S2236,Linea 516,Q17,Linea 517,S2523,Linea 469,S26,Linea 467,S2223,Linea 466,S2621,Linea 457,S2642;S2642,Linea 457,S2621,Linea 466,S2223,Linea 467,S26,Linea 469,S2523,Linea 1887,S13,Linea 1886,S2,Linea 471,S2240,Linea 1593,Q16,Linea 613,S3,Linea 734,S295,Linea 735,S17,Linea 594,S2259,Linea 592,S2129,Linea 591,S949;S949,Linea 579,S2132,Linea 578,S2443,Linea 581,S938,Linea 582,S849,Linea 584,S2168,Linea 1617,S2167,Linea 736,S2110,Linea 930,S2111,Linea 931,S645,Linea 1046,S928,Linea 1048,S840,Linea 1220,S826,Linea 1060,S828,Linea 1061,S801,Linea 1054,S760,Linea 1073,S794,Linea 1297,S759,Linea 1305,S805,Linea 1125,S822,Linea 1123,S821,Linea 1103,S738;S738,Linea 1103,S821,Linea 1123,S822,Linea 1125,S805,Linea 1305,S759,Linea 1297,S794,Linea 1073,S760,Linea 1221,S791,Linea 1076,S793,Linea 1078,S2667,Linea 1077,S944,Linea 1085,S115,Linea 1733,S927,Linea 1222,S33,Linea 1724,S2094,Linea 950,S31,Linea 949,S2146,Linea 964,S2147,Linea 946,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.95709848 -45.86769228,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95610675 -45.87170205,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95650202 -45.87386891,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95720623 -45.87256309,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.96214261 -45.87344787,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96572509 -45.87368099,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.9672039 -45.87497495,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.96992116 -45.87035971,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.9688479 -45.86924263,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.96898996 -45.86789944,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.97170451 -45.86764851,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97781889 -45.86412305,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97692655 -45.86298292,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.98026531 -45.86300386,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98206338 -45.86352335,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86821501 -45.85959306,-67.87273050000002 -45.8603909,-67.8713894 -45.86060760000001,-67.8696728 -45.8603312,-67.8687501 -45.8600248,-67.868396 -45.859329900000006,-67.8688145 -45.8588667,-67.8688037 -45.8592029,-67.87238238 -45.86053745,-67.8762281 -45.861026,-67.8764856 -45.8608841,-67.8761208 -45.8599501,-67.8737497 -45.8604133,-67.87444477 -45.86135588,-67.8761101 -45.86104100000001,-67.8766465 -45.8610185,-67.8767216 -45.8614071,-67.87598229 -45.86175617,-67.8765821 -45.8616835,-67.8769684 -45.861803,-67.877183 -45.8627295,-67.87624464 -45.86324951,-67.87849190000001 -45.8641416,-67.8785133 -45.863499,-67.8778052 -45.8630732,-67.87711554 -45.86436098;-67.87711554 -45.86436098,-67.8776658 -45.8646496,-67.876035 -45.8642312,-67.8759491 -45.8638278,-67.8749514 -45.864380600000004,-67.87319628 -45.86441938,-67.8740609 -45.8679218,-67.8740501 -45.8676828,-67.8730416 -45.867115,-67.8732347 -45.8667639,-67.8746724 -45.8662783,-67.8754556 -45.865591,-67.876035 -45.8638054,-67.8748977 -45.8643134,-67.8729107 -45.86822856,-67.8699839 -45.8693413,-67.8700376 -45.8699389,-67.8703916 -45.8701929,-67.8709173 -45.8699239,-67.8707349 -45.8692815,-67.8712177 -45.8686166,-67.8731596 -45.8681236,-67.86891343 -45.86940172,-67.8665292 -45.8704394,-67.8664756 -45.8701107,-67.8674197 -45.8697073,-67.8698659 -45.8700883,-67.8700376 -45.8699389,-67.8700268 -45.8692964,-67.86552841 -45.87071955,-67.8687286 -45.87223970000001,-67.8671408 -45.8717542,-67.8661752 -45.8712611,-67.8662395 -45.8705888,-67.86803091 -45.87230485,-67.8686213 -45.87223970000001,-67.8679776 -45.8725012,-67.867173 -45.87342,-67.86601994 -45.87390747,-67.8666043 -45.8740773,-67.8655958 -45.8758999,-67.8658319 -45.8761464,-67.86520975 -45.8764158,-67.8690398 -45.8759074,-67.8681815 -45.8748691,-67.8664434 -45.8762585,-67.86877282 -45.87598303,-67.8721726 -45.8748019,-67.868793 -45.8753024,-67.8683639 -45.8750633,-67.8691471 -45.8759522,-67.87226293 -45.87472228,-67.8772473 -45.875646,-67.87714 -45.874899,-67.8760457 -45.8739578,-67.8750265 -45.8733005,-67.8741574 -45.8732108,-67.8737283 -45.8741819,-67.87580898 -45.87623664,-67.8836632 -45.8741296,-67.884264 -45.8734723,-67.8839421 -45.8733229,-67.8833306 -45.8736515,-67.8822899 -45.87404,-67.8816032 -45.8749737,-67.8808522 -45.875153,-67.8791678 -45.8762809,-67.8782129 -45.8766021,-67.8774083 -45.8765572,-67.88196942 -45.87464989,-67.8803158 -45.8771847,-67.8813779 -45.8760792,-67.8823113 -45.875519,-67.8828478 -45.87486160000001,-67.87897854 -45.87766371,-67.8797901 -45.8776627,-67.8792536 -45.87817810000001,-67.8798115 -45.8793806,-67.87875862 -45.87975391,-67.8785026 -45.8788802,-67.8798115 -45.8793806,-67.87684672 -45.87887091,-67.8772688 -45.8789101,-67.8749835 -45.8790146,-67.87362100000001 -45.8797765,-67.8724445 -45.87988188,-67.8726017 -45.880389,-67.8697157 -45.8828462,-67.8706813 -45.8831001,-67.8686643 -45.8830254,-67.86703039 -45.88312685,-67.8685462 -45.8831151,-67.869308 -45.8829582,-67.8708422 -45.883018,-67.8705847 -45.8839366,-67.8693122 -45.8842458,-67.8672695 -45.88491500000001,-67.867409 -45.8861099,-67.8680742 -45.8863339,-67.8686106 -45.8860875,-67.8688896 -45.8849822,-67.870338 -45.8842577,-67.86589689 -45.88477956,-67.86739830000002 -45.8868567,-67.8667223 -45.8862667,-67.8672802 -45.8848552,-67.86685323 -45.88712476,-67.8674626 -45.88708080000001,-67.866658 -45.886864200000005,-67.8658855 -45.887125600000005,-67.8670657 -45.8886864,-67.86520231 -45.88917465;-67.86520231 -45.88917465,-67.8674626 -45.88708080000001,-67.866658 -45.886864200000005,-67.8658855 -45.887125600000005,-67.8670657 -45.8886864,-67.86685323 -45.88712476,-67.86739830000002 -45.8868567,-67.8667223 -45.8862667,-67.8672802 -45.8848552,-67.86589689 -45.88477956,-67.8672695 -45.88491500000001,-67.867409 -45.8861099,-67.8680742 -45.8863339,-67.8686106 -45.8860875,-67.8688896 -45.8849822,-67.870338 -45.8842577,-67.8693122 -45.8842458,-67.8685462 -45.8831151,-67.869308 -45.8829582,-67.8708422 -45.883018,-67.8705847 -45.8839366,-67.86703039 -45.88312685,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.87263059 -45.88283868,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.8758872 -45.88413516,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.87630061 -45.88642699,,-67.87597578 -45.88674947,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87931365 -45.88515467,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.88934482 -45.88367092,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88477851 -45.88530377,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88725199 -45.88498287,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88986813 -45.88509226,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.89478887 -45.88442779;-67.89478887 -45.88442779,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89811074 -45.88424629,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.90293219 -45.8836944,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90362098 -45.8874036,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90705336 -45.88840606,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90594775 -45.88423937,,-67.90591516 -45.88446218,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90970498 -45.88326091,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183924 -45.8832943,-67.9178345 -45.8833989,-67.9181349 -45.883832,-67.9182851 -45.8847656,-67.9179955 -45.8868492,-67.9182959 -45.887021,-67.918725 -45.8867895,-67.9189289 -45.8859232,-67.91833856 -45.88592331,-67.9201949 -45.8901426,-67.920785 -45.8896646,-67.9178774 -45.8882906,-67.9180706 -45.8870061,-67.9186499 -45.8868642,-67.918961 -45.8857962,-67.91840225 -45.89042054,-67.9177594 -45.8928831,-67.9196584 -45.8908744,-67.9194117 -45.8909267,-67.9188323 -45.8915241,-67.9170513 -45.8923754,-67.9181993 -45.8910014,-67.918961 -45.8905234,-67.91657701 -45.89351753,-67.9165363 -45.8956086,-67.9175019 -45.8947275,-67.9165041 -45.893712,-67.9164827 -45.892689,-67.9183388 -45.8916958,-67.9195189 -45.8908296,-67.9196799 -45.8909341,-67.9177058 -45.8929802,-67.91506756 -45.89602857,-67.9198515 -45.8952876,-67.9187465 -45.8950934,-67.9171157 -45.8950187,-67.9165041 -45.8955564,-67.91895387 -45.89557581,-67.9221904 -45.8981548,-67.9233706 -45.8984385,-67.9223728 -45.8974903,-67.9203773 -45.8967212,-67.9203129 -45.8957953,-67.92046749 -45.89809236,-67.9312027 -45.9008128,-67.9299688 -45.9015296,-67.9282737 -45.9003723,-67.9263103 -45.8994316,-67.9232204 -45.8984983,-67.9221046 -45.8981623,-67.93028301 -45.90068278,-67.9313636 -45.9007755,-67.9299688 -45.9015296,-67.9309559 -45.9024778,-67.931664 -45.9022687,-67.9323721 -45.9010144,-67.9335737 -45.900447,-67.9371786 -45.9012832,-67.9379082 -45.9021045,-67.9396677 -45.9026719,-67.941041 -45.9025674,-67.94048121 -45.90255833,-67.9506755 -45.9009696,-67.9479718 -45.9005665,-67.9449892 -45.9007008,-67.945075 -45.9032692,-67.9445601 -45.9035379,-67.9423714 -45.902642,-67.95037233 -45.90142031,-67.9506969 -45.9010816,-67.9497743 -45.9008576,-67.9498494 -45.8992001,-67.94838203 -45.89904174,-67.9498494 -45.8992001,-67.949506 -45.8996854,-67.9466414 -45.8986103,-67.9437232 -45.8985057,-67.9415774 -45.8979681,-67.9412556 -45.8976545,-67.9422104 -45.8972588,-67.94188659 -45.8972671,-67.942307 -45.8972439,-67.941395 -45.8969527,-67.9402256 -45.8963927,-67.9396248 -45.8958401,-67.93839722 -45.89565726;-67.93839722 -45.89565726,-67.942307 -45.8972439,-67.941395 -45.8969527,-67.9402256 -45.8963927,-67.9396248 -45.8958401,-67.94188659 -45.8972671,-67.9498494 -45.8992001,-67.949506 -45.8996854,-67.9466414 -45.8986103,-67.9437232 -45.8985057,-67.9415774 -45.8979681,-67.9412556 -45.8976545,-67.9422104 -45.8972588,-67.94838203 -45.89904174,-67.9506969 -45.9010816,-67.9497743 -45.9008576,-67.9498494 -45.8992001,-67.95037233 -45.90142031,-67.9506755 -45.9009696,-67.9479718 -45.9005665,-67.9449892 -45.9007008,-67.945075 -45.9032692,-67.9445601 -45.9035379,-67.9423714 -45.902642,-67.94048121 -45.90255833,-67.9313636 -45.9007755,-67.9299688 -45.9015296,-67.9309559 -45.9024778,-67.931664 -45.9022687,-67.9323721 -45.9010144,-67.9335737 -45.900447,-67.9371786 -45.9012832,-67.9379082 -45.9021045,-67.9396677 -45.9026719,-67.941041 -45.9025674,-67.93028301 -45.90068278,-67.9312027 -45.9008128,-67.9299688 -45.9015296,-67.9282737 -45.9003723,-67.9263103 -45.8994316,-67.9232204 -45.8984983,-67.9221046 -45.8981623,-67.92046749 -45.89809236,-67.9221904 -45.8981548,-67.9232204 -45.8984983,-67.9230487 -45.8980652,-67.9224908 -45.89755,-67.9236388 -45.8964449,-67.92261639 -45.89612501,-67.9235637 -45.895743,-67.9241538 -45.8953249,-67.9267287 -45.8949142,-67.9271579 -45.8944961,-67.9267287 -45.8942048,-67.9257309 -45.8936448,-67.9256558 -45.8930698,-67.9268682 -45.8923604,-67.9289711 -45.8934208,-67.9293036 -45.893361,-67.92819602 -45.89300211,-67.929368 -45.8925994,-67.9296148 -45.8919423,-67.9287994 -45.8913897,-67.9285097 -45.8910014,-67.9286277 -45.8901127,-67.92758265 -45.88993498,-67.9286492 -45.8892166,-67.9288638 -45.8878724,-67.9292393 -45.8876931,-67.92838162 -45.88770662,-67.929883 -45.8876782,-67.9306018 -45.8878724,-67.9317605 -45.8883727,-67.9326189 -45.888201,-67.93184093 -45.88869985,,-67.93195275 -45.88880085,-67.9325545 -45.8880964,-67.9324257 -45.8875363,-67.933048 -45.8868642,-67.9335093 -45.8836304,-67.93297197 -45.88384007,,-67.93288041 -45.88347512,-67.9369962 -45.8822636,-67.9367441 -45.8819686,-67.9343677 -45.8832719,-67.93623372 -45.88237227,-67.9369104 -45.8822487,-67.9367441 -45.8819686,-67.9385787 -45.881274,-67.938568 -45.8809641,-67.9379243 -45.8811844,-67.93588984 -45.88149225,-67.9380155 -45.8812404,-67.938627 -45.880852,-67.9384768 -45.8805682,-67.9371035 -45.8800827,-67.9358482 -45.8797093,-67.9335737 -45.8797616,-67.934432 -45.8794255,-67.9350007 -45.8792835,-67.9357088 -45.8792686,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2366,S860,S913,S2515,S2667,S2681</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 943,S167,Linea 946,S2147,Linea 966,S2465,Linea 968,S387,Linea 970,S316,Linea 969,S39,Linea 957,S36,Linea 1027,S2695,Linea 1026,S43,Linea 1088,S2707,Linea 1098,S42,Linea 1856,S2724,Linea 1092,S163,Linea 1854,S66,Linea 1152,S2658,Linea 1145,S844,Linea 1135,S914,Linea 1274,S2180,Linea 1275,S2486,Linea 1276,S2034,Linea 1281,S929,Linea 1280,S2366;S2366,Linea 1278,S2451,Linea 1283,S913,Linea 1285,S2286,Linea 1286,S832,Linea 1150,S47,Linea 1157,S80,Linea 1740,S860;S860,Linea 1740,S80,Linea 1157,S47,Linea 1150,S832,Linea 1286,S2286,Linea 1285,S913;S913,Linea 1284,S910,Linea 1282,S929,Linea 1281,S2034,Linea 1276,S2486,Linea 1275,S2180,Linea 1274,S914,Linea 1135,S844,Linea 1145,S2658,Linea 1151,S909,Linea 1146,S824,Linea 1144,S823,Linea 1139,S815,Linea 1129,S921,Linea 1273,S2055,Linea 1328,S778,Linea 1329,S834,Linea 1307,S839,Linea 1313,S725,Linea 1310,S744,Linea 1321,S747,Linea 1320,S2493,Linea 1325,S935,Linea 1257,S2515;S2515,Linea 1257,S935,Linea 1325,S2493,Linea 1320,S747,Linea 1321,S744,Linea 1310,S725,Linea 1313,S839,Linea 1307,S834,Linea 1306,S759,Linea 1297,S794,Linea 1073,S760,Linea 1221,S791,Linea 1076,S793,Linea 1078,S2667;S2667,Linea 1077,S944,Linea 1085,S115,Linea 1733,S927,Linea 1222,S33,Linea 1724,S2094,Linea 950,S31,Linea 949,S2146,Linea 947,S2721,Linea 963,S38,Linea 954,S2681;S2681,Linea 954,S38,Linea 963,S2721,Linea 947,S2146,Linea 964,S2147,Linea 946,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.93512028 -45.8793768,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.94258106 -45.87928487,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.9459034 -45.88040255,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.94607409 -45.88311995,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94628753 -45.88560005,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94746568 -45.88694764,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94972726 -45.88693813,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.95178221 -45.88666191,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95650174 -45.8868325,-67.9573059 -45.8868268,-67.956748 -45.8864908,-67.9563725 -45.8857215,-67.9556644 -45.8849971,-67.9546167 -45.88506443,-67.960428 -45.8852436,-67.9597843 -45.8853855,-67.9578102 -45.8852959,-67.9558897 -45.8849448,-67.95958113 -45.88533853,-67.9643977 -45.8867746,-67.9641402 -45.8867895,-67.9629064 -45.8855274,-67.9625845 -45.8842055,-67.9620588 -45.8840412,-67.9608893 -45.8848926,-67.96291589 -45.88644251,-67.9671872 -45.8881412,-67.9659748 -45.8870061,-67.9642153 -45.8869314,-67.9642582 -45.8866849,-67.96633372 -45.88873533,-67.9702985 -45.892002,-67.9693437 -45.8927189,-67.9695046 -45.8920393,-67.9694617 -45.8909565,-67.9689038 -45.8902247,-67.9675949 -45.8891494,-67.9695987 -45.89181892,-67.9699337 -45.8946379,-67.9693973 -45.8950411,-67.9688287 -45.894847,-67.9686248 -45.893936,-67.9694724 -45.8926591,-67.9702985 -45.892002,-67.96939983 -45.89469974,-67.9721761 -45.8962209,-67.9716182 -45.8947873,-67.9710388 -45.8947723,-67.97161551 -45.8965517,-67.9729271 -45.8958177,-67.9726696 -45.8949515,-67.97168684 -45.8946769,-67.9725194 -45.8940704,-67.9735279 -45.8935179,-67.97316911 -45.89352066,-67.9749441 -45.8933834,-67.9761243 -45.8929055,-67.9766607 -45.892353,-67.97648439 -45.89266109,-67.9806304 -45.8917854,-67.9784203 -45.8917854,-67.9782271 -45.8926517,-67.98023252 -45.89201679;-67.98023252 -45.89201679,-67.9825401 -45.8906205,-67.9820251 -45.8918004,-67.98197943 -45.89056257,-67.9825187 -45.8903218,-67.979182 -45.8900455,-67.97751751 -45.89013616,-67.9778516 -45.8901202,-67.977283 -45.8901052,-67.9767358 -45.889926,-67.97500117 -45.89011334,-67.9755127 -45.8898364,-67.9753196 -45.8896348,-67.9751372 -45.889239,-67.9736996 -45.8884922,-67.9752123 -45.8886192,-67.97417558 -45.88870119,-67.9752874 -45.8886341,-67.9738069 -45.8884922,-67.9698479 -45.8860651,-67.9702234 -45.8859307,-67.96952973 -45.8860392,-67.9738498 -45.8845789,-67.9717362 -45.8849299,-67.9701054 -45.8854378,-67.9703629 -45.8856618,-67.97329407 -45.88474005,,-67.97326725 -45.88463616;-67.97326725 -45.88463616,,-67.97329407 -45.88474005,-67.9738498 -45.8845789,-67.9717362 -45.8849299,-67.9701054 -45.8854378,-67.9703629 -45.8856618,-67.96952973 -45.8860392,-67.9752874 -45.8886341,-67.9738069 -45.8884922,-67.9698479 -45.8860651,-67.9702234 -45.8859307,-67.97417558 -45.88870119,-67.9755127 -45.8898364,-67.9753196 -45.8896348,-67.9751372 -45.889239,-67.9736996 -45.8884922,-67.9752123 -45.8886192,-67.97500117 -45.89011334,-67.9778516 -45.8901202,-67.977283 -45.8901052,-67.9767358 -45.889926,-67.97751751 -45.89013616;-67.97751751 -45.89013616,-67.9743755 -45.8910088,-67.9777122 -45.890165,-67.97300504 -45.89135,-67.9748368 -45.8912328,-67.9752231 -45.891427,-67.9759526 -45.8921289,-67.9767251 -45.8924575,-67.97648439 -45.89266109,-67.9749441 -45.8933834,-67.9761243 -45.8929055,-67.9766607 -45.892353,-67.97316911 -45.89352066,-67.9725194 -45.8940704,-67.9735279 -45.8935179,-67.97168684 -45.8946769,-67.9729271 -45.8958177,-67.9726696 -45.8949515,-67.97161551 -45.8965517,-67.9721761 -45.8962209,-67.9716182 -45.8947873,-67.9710388 -45.8947723,-67.96939983 -45.89469974,-67.9699337 -45.8946379,-67.9693973 -45.8950411,-67.9688287 -45.894847,-67.9686248 -45.893936,-67.9694724 -45.8926591,-67.9702985 -45.892002,-67.9695987 -45.89181892,-67.9702985 -45.892002,-67.9693437 -45.8927189,-67.9695046 -45.8920393,-67.9694617 -45.8909565,-67.9689038 -45.8902247,-67.9675949 -45.8891494,-67.96633372 -45.88873533,-67.9670262 -45.8881263,-67.9660714 -45.8869613,-67.9657602 -45.8876259,-67.9651165 -45.8877678,-67.9650307 -45.887947,-67.964462 -45.8880815,-67.96290254 -45.88863388,-67.9609108 -45.8902845,-67.9623485 -45.8909491,-67.9621017 -45.8899111,-67.962445 -45.8899634,-67.9637861 -45.8886864,-67.95958813 -45.89007642,-67.963196 -45.8927189,-67.9626918 -45.8927114,-67.9624236 -45.8909043,-67.9618871 -45.8908445,-67.9608786 -45.8903442,-67.96212496 -45.89267136,-67.9612112 -45.8971319,-67.9633784 -45.8962807,-67.9639149 -45.8957132,-67.9634535 -45.8934357,-67.9631853 -45.892801,-67.95956637 -45.89743693,-67.9642367 -45.8983564,-67.9643333 -45.8976993,-67.9650199 -45.8970721,-67.9652989 -45.8964076,-67.9613721 -45.8972065,-67.96354703 -45.89869944,-67.9693437 -45.9027914,-67.9659963 -45.8987297,-67.965138 -45.8986401,-67.96793825 -45.90348141,-67.9685926 -45.9034484,-67.9653096 -45.9044488,-67.9600525 -45.9049564,-67.9584861 -45.9041651,-67.9576707 -45.9040606,-67.95594313 -45.90408308,-67.9576707 -45.9040606,-67.9586577 -45.9041501,-67.9598594 -45.9049266,-67.9530573 -45.9053894,-67.9526496 -45.9059568,-67.9507613 -45.9066437,-67.9497957 -45.9073603,-67.9479933 -45.907644,-67.9448175 -45.9073753,-67.9420066 -45.9072707,-67.94070253 -45.90708056,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.93482704 -45.9074612,-67.922008 -45.9097193,-67.9201412 -45.9109884,-67.9196906 -45.9109585,-67.9200125 -45.9097492,-67.9210854 -45.909585,-67.9227591 -45.90851,-67.9267287 -45.9077933,-67.9317927 -45.9075544,-67.9344964 -45.9080023,-67.9353762 -45.9076142,-67.92132124 -45.90950332,-67.9221797 -45.9097492,-67.9201412 -45.9109884,-67.91924 -45.911063,-67.9191971 -45.9115109,-67.91938339 -45.91141146,-67.9150558 -45.9126903,-67.9162359 -45.9122126,-67.9164505 -45.9115408,-67.9181457 -45.910645,-67.9202914 -45.9111078,-67.91361731 -45.91301639,-67.9115582 -45.9126157,-67.9142189 -45.9121827,-67.9144764 -45.9124216,-67.91006671 -45.91285318,-67.9106355 -45.9125261,-67.9076529 -45.9123768,-67.9041553 -45.9118991,-67.9033184 -45.9115706,-67.9007006 -45.9119737,-67.8999066 -45.9124515,-67.89855752 -45.91238198,-67.8991771 -45.9121305,-67.8986728 -45.9117274,-67.8980076 -45.9113691,-67.8973746 -45.9114288,-67.8960335 -45.9121156,-67.89466992 -45.91293356;-67.89466992 -45.91293356,-67.8991771 -45.9121305,-67.8986728 -45.9117274,-67.8980076 -45.9113691,-67.8973746 -45.9114288,-67.8960335 -45.9121156,-67.89855752 -45.91238198,-67.9106355 -45.9125261,-67.9076529 -45.9123768,-67.9041553 -45.9118991,-67.9033184 -45.9115706,-67.9007006 -45.9119737,-67.8999066 -45.9124515,-67.91006671 -45.91285318,-67.9115582 -45.9126157,-67.9142189 -45.9121827,-67.9144764 -45.9124216,-67.91361731 -45.91301639,-67.9150558 -45.9126903,-67.9162359 -45.9122126,-67.9164505 -45.9115408,-67.9181457 -45.910645,-67.9202914 -45.9111078,-67.91938339 -45.91141146,-67.9221797 -45.9097492,-67.9201412 -45.9109884,-67.91924 -45.911063,-67.9191971 -45.9115109,-67.92132124 -45.90950332,-67.922008 -45.9097193,-67.9201412 -45.9109884,-67.9196906 -45.9109585,-67.9200125 -45.9097492,-67.9210854 -45.909585,-67.9227591 -45.90851,-67.9267287 -45.9077933,-67.9317927 -45.9075544,-67.9344964 -45.9080023,-67.9353762 -45.9076142,-67.93482704 -45.9074612,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.94070253 -45.90708056,-67.9417276 -45.9060912,-67.9426718 -45.9047623,-67.9416203 -45.9047773,-67.9445601 -45.9035379,-67.942543 -45.9026271,-67.94048121 -45.90255833,-67.9313636 -45.9007755,-67.9299688 -45.9015296,-67.9309559 -45.9024778,-67.931664 -45.9022687,-67.9323721 -45.9010144,-67.9335737 -45.900447,-67.9371786 -45.9012832,-67.9379082 -45.9021045,-67.9396677 -45.9026719,-67.941041 -45.9025674,-67.93028301 -45.90068278,-67.9312027 -45.9008128,-67.9299688 -45.9015296,-67.9282737 -45.9003723,-67.9263103 -45.8994316,-67.9232204 -45.8984983,-67.9221046 -45.8981623,-67.92046749 -45.89809236,-67.9221904 -45.8981548,-67.9232204 -45.8984983,-67.9230487 -45.8980652,-67.9224908 -45.89755,-67.9236388 -45.8964449,-67.92261639 -45.89612501,-67.9235637 -45.895743,-67.9241538 -45.8953249,-67.9267287 -45.8949142,-67.9271579 -45.8944961,-67.9267287 -45.8942048,-67.9257309 -45.8936448,-67.9256558 -45.8930698,-67.9268682 -45.8923604,-67.9289711 -45.8934208,-67.9293036 -45.893361,-67.92819602 -45.89300211,-67.929368 -45.8925994,-67.9296148 -45.8919423,-67.9287994 -45.8913897,-67.9285097 -45.8910014,-67.9286277 -45.8901127,-67.92758265 -45.88993498;-67.92758265 -45.88993498,-67.9286492 -45.8892166,-67.9288638 -45.8878724,-67.9292393 -45.8876931,-67.92838162 -45.88770662,-67.929883 -45.8876782,-67.9306018 -45.8878724,-67.9317605 -45.8883727,-67.9326189 -45.888201,-67.93184093 -45.88869985,,-67.93195275 -45.88880085,-67.9325545 -45.8880964,-67.9324257 -45.8875363,-67.933048 -45.8868642,-67.9335093 -45.8836304,-67.93297197 -45.88384007,,-67.93288041 -45.88347512,-67.9369962 -45.8822636,-67.9367441 -45.8819686,-67.9343677 -45.8832719,-67.93623372 -45.88237227,-67.9369104 -45.8822487,-67.9367441 -45.8819686,-67.9385787 -45.881274,-67.938568 -45.8809641,-67.9379243 -45.8811844,-67.93588984 -45.88149225,-67.9394478 -45.8815018,-67.9390669 -45.8813786,-67.9390454 -45.8810425,-67.9386485 -45.8811881,-67.938568 -45.8809641,-67.9379404 -45.8812105,-67.93895804 -45.88204116,-67.9404831 -45.883003,-67.9393351 -45.8816139,-67.9395604 -45.8815392,-67.93935418 -45.88340612,-67.9390776 -45.8859083,-67.9388952 -45.8849299,-67.9384875 -45.8844519,-67.9383051 -45.883832,-67.939024 -45.8833317,-67.9396892 -45.8836155,-67.9402363 -45.8833989,-67.93803519 -45.88653092;-67.93803519 -45.88653092,-67.9390776 -45.8859083,-67.9388952 -45.8849299,-67.9384875 -45.8844519,-67.9383051 -45.883832,-67.939024 -45.8833317,-67.9396892 -45.8836155,-67.9402363 -45.8833989,-67.93935418 -45.88340612,-67.9404831 -45.883003,-67.9393351 -45.8816139,-67.9395604 -45.8815392,-67.93895804 -45.88204116,-67.9394478 -45.8815018,-67.9390669 -45.8813786,-67.9390454 -45.8810425,-67.9386485 -45.8811881,-67.938568 -45.8809641,-67.9379404 -45.8812105,-67.93588984 -45.88149225,-67.9380155 -45.8812404,-67.938627 -45.880852,-67.9384768 -45.8805682,-67.9371035 -45.8800827,-67.9358482 -45.8797093,-67.9335737 -45.8797616,-67.934432 -45.8794255,-67.9350007 -45.8792835,-67.9357088 -45.8792686,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S855,S858,S1004,S885</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 1211,S172,Linea 768,S2417,Linea 759,S402,Linea 760,S2468,Linea 763,S395,Linea 764,S338,Linea 773,S2407,Linea 850,S2056,Linea 849,S2716,Linea 853,S2504,Linea 854,S997,Linea 1836,S353,Linea 1361,S2006,Linea 1363,S2009,Linea 1365,S354,Linea 1421,S2255,Linea 568,S882,Linea 622,S523,Linea 215,S788,Linea 216,S2676,Linea 217,S2396,Linea 240,S2395,Linea 243,S1005,Linea 397,S543,Linea 399,S2288,Linea 247,S2418,Linea 249,S611,Linea 250,E291,Linea 252,S853,Linea 254,S851,Linea 257,S591,Linea 258,S876,Linea 263,S886,Linea 264,S868,Linea 270,S869,Linea 278,S864,Linea 281,S850,Linea 1880,Q50,Linea 271,S858,Linea 268,S855;S855,Linea 268,S858;S858,Linea 271,Q50,Linea 1880,S850,Linea 280,S856,Linea 289,S884,Linea 290,S1027,Linea 291,S1007,Linea 293,S1025,Linea 298,S593,Linea 297,S1017,Linea 296,S1004;S1004,Linea 296,S1017,Linea 297,S593,Linea 298,S1025,Linea 293,S1007,Linea 1498,S1011,Linea 308,S895,Linea 300,S890,Linea 302,S883,Linea 287,S877,Linea 330,S885;S885,Linea 330,S877,Linea 331,S850,Linea 281,S864,Linea 278,S869,Linea 270,S868,Linea 264,S886,Linea 263,S876,Linea 258,S591,Linea 257,S851,Linea 254,S853,Linea 252,E291,Linea 250,S611,Linea 249,S2418,Linea 247,S2288,Linea 399,S543,Linea 397,S1005,Linea 243,S2395,Linea 240,S2396,Linea 217,S2676,Linea 216,S788,Linea 215,S523,Linea 622,S882,Linea 568,S2255,Linea 1421,S354,Linea 1365,S2009,Linea 1363,S2006,Linea 1361,S353,Linea 1836,S997,Linea 854,S2504,Linea 853,S2716,Linea 849,S2056,Linea 850,S2407,Linea 773,S338,Linea 764,S395,Linea 763,S2468,Linea 760,S402,Linea 759,S2417,Linea 768,S172,Linea 1211,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.95709848 -45.86769228,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95610675 -45.87170205,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95650202 -45.87386891,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95720623 -45.87256309,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.96214261 -45.87344787,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96572509 -45.87368099,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.9672039 -45.87497495,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.96992116 -45.87035971,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.9688479 -45.86924263,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.96898996 -45.86789944,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.97170451 -45.86764851,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97781889 -45.86412305,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97692655 -45.86298292,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.98026531 -45.86300386,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98206338 -45.86352335,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86821501 -45.85959306,-67.8666258 -45.8579551,-67.8677523 -45.8588443,-67.8689218 -45.8588293,-67.8688896 -45.8591954,-67.86509618 -45.85797591,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86269634 -45.8576934,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86119926 -45.8582863,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.85800456 -45.85865306,-67.8585362 -45.8586425,-67.8567231 -45.8591431,-67.8550386 -45.8605852,-67.85325633 -45.86047853,-67.8547168 -45.8600622,-67.8545237 -45.8589862,-67.8537083 -45.858508,-67.852335 -45.8585529,-67.85051371 -45.8587379,-67.8511226 -45.8587172,-67.8489661 -45.8581942,-67.8504252 -45.8565952,-67.84992667 -45.85649082,-67.851541 -45.8561394,-67.8511119 -45.8555416,-67.8497386 -45.8553249,-67.8490841 -45.8555341,-67.84737753 -45.85568862,-67.8480864 -45.8556163,-67.846477 -45.8561992,-67.8452325 -45.8556537,-67.84359994 -45.85582912,-67.8438914 -45.8557508,-67.8414237 -45.8563262,-67.8377545 -45.8563187,-67.83653581 -45.85644197,-67.8371108 -45.8561767,-67.8326368 -45.8556313,-67.83154193 -45.85548135,-67.8319716 -45.855437,-67.8292787 -45.855108200000004,-67.82760578 -45.8552439,-67.8277767 -45.8550036,-67.8251696 -45.8547271,-67.824676 -45.8544207,-67.82322995 -45.85451391,-67.8244078 -45.8540994,-67.8225088 -45.8518801,-67.82163737 -45.8516816,-67.8223801 -45.8515886,-67.8209639 -45.8504751,-67.8196657 -45.8504079,-67.81800483 -45.85079524,-67.8185713 -45.8505798,-67.816962 -45.851073,-67.8161895 -45.8523658,-67.81497943 -45.85259887,-67.816329 -45.8519921,-67.8167796 -45.8511701,-67.8158462 -45.8513121,-67.8150415 -45.8533148,-67.8138399 -45.8541293,-67.81217316 -45.85421245,-67.809999 -45.85395,-67.81053540000002 -45.8542265,-67.8125417 -45.8543386,-67.80813131 -45.85419968,-67.8064048 -45.853539,-67.8089046 -45.854361,-67.8103852 -45.8542265,-67.8098702 -45.8539126,-67.80441533 -45.8533642,-67.8110075 -45.8532999,-67.8095913 -45.8534045,-67.8081751 -45.8532849,-67.8063512 -45.8536436,-67.81033656 -45.85331184,-67.8119838 -45.8516783,-67.8118229 -45.8524256,-67.8138614 -45.8534792,-67.8134108 -45.8536361,-67.8115761 -45.85313550000001,-67.81172912 -45.8516909,-67.8122091 -45.8515064,-67.8108895 -45.8507965,-67.8091085 -45.8510879,-67.80727764 -45.85143246;-67.80727764 -45.85143246,-67.8122091 -45.8515064,-67.8108895 -45.8507965,-67.8091085 -45.8510879,-67.81172912 -45.8516909;-67.81172912 -45.8516909,-67.8119838 -45.8516783,-67.8118229 -45.8524256,-67.8138614 -45.8534792,-67.8134108 -45.8536361,-67.8115761 -45.85313550000001,-67.81033656 -45.85331184,-67.8110075 -45.8532999,-67.8095913 -45.8534045,-67.8081751 -45.8532849,-67.8063512 -45.8536436,-67.80441533 -45.8533642,-67.805289 -45.8529487,-67.8034651 -45.8522612,-67.8028214 -45.85306820000001,-67.8021669 -45.8529711,-67.80053473 -45.85338776,-67.8017056 -45.8526423,-67.8015232 -45.8523658,-67.79962420000001 -45.8525451,-67.7978754 -45.8519772,-67.7946138 -45.8521416,-67.79294152 -45.85225742,-67.7932727 -45.8519249,-67.790097 -45.851768,-67.7882087 -45.8523583,-67.7874362 -45.8529785,-67.78639604 -45.85350214,-67.7872217 -45.8538753,-67.7837884 -45.8561618,-67.7830803 -45.8561095,-67.78170238 -45.85610146,-67.7824903 -45.8564233,-67.7802157 -45.8580149,-67.7796257 -45.8571108,-67.7786064 -45.8565802,-67.7779841 -45.85664,-67.7787888 -45.8561394,-67.77831934 -45.85627828,-67.7786493 -45.8561767,-67.7760208 -45.8575666,-67.7736604 -45.8573723,-67.7729845 -45.8565877,-67.7733386 -45.8538528,-67.77191639 -45.85370252,-67.7767611 -45.8515811,-67.7748406 -45.85155120000001,-67.7744758 -45.8503855,-67.7750123 -45.8494887,-67.7702379 -45.8498848,-67.7723086 -45.8511776,-67.7737248 -45.8528216,-67.7731884 -45.8531878,-67.77612134 -45.8514783,-67.7803338 -45.8509385,-67.777555 -45.8505499,-67.7752268 -45.8494812,-67.77437930000002 -45.8504154,-67.7747762 -45.851484,-67.7768147 -45.8515139,-67.77982732 -45.85094494;-67.77982732 -45.85094494,-67.7803338 -45.8509385,-67.777555 -45.8505499,-67.7752268 -45.8494812,-67.77437930000002 -45.8504154,-67.7747762 -45.851484,-67.7768147 -45.8515139,-67.77612134 -45.8514783,-67.7767611 -45.8515811,-67.7748406 -45.85155120000001,-67.7744758 -45.8503855,-67.7750123 -45.8494887,-67.7702379 -45.8498848,-67.7723086 -45.8511776,-67.7737248 -45.8528216,-67.7731884 -45.8531878,-67.77191639 -45.85370252,-67.7786493 -45.8561767,-67.7760208 -45.8575666,-67.7736604 -45.8573723,-67.7729845 -45.8565877,-67.7733386 -45.8538528,-67.77831934 -45.85627828,-67.7824903 -45.8564233,-67.7802157 -45.8580149,-67.7796257 -45.8571108,-67.7786064 -45.8565802,-67.7779841 -45.85664,-67.7787888 -45.8561394,-67.78170238 -45.85610146,-67.7884984 -45.8575367,-67.7846575 -45.8568119,-67.7830803 -45.8561095,-67.78733078 -45.85824489,-67.7884984 -45.8575367,-67.7912343 -45.8565653,-67.79068399 -45.85671662,-67.7944744 -45.8548541,-67.794764 -45.8551755,-67.7924466 -45.8554519,-67.7921462 -45.8562515,-67.79352993 -45.85472019,-67.7944744 -45.8548541,-67.7952468 -45.855108200000004,-67.79841180000001 -45.8550858,-67.7985942 -45.8553996,-67.7970643 -45.85560927,-67.801491 -45.8553623,-67.8006971 -45.855168,-67.7993989 -45.855706,-67.7995384 -45.8553399,-67.7986372 -45.8555715,-67.80089696 -45.85587052,-67.8020167 -45.855975,-67.8003323 -45.857716,-67.79860937 -45.85802352;-67.79860937 -45.85802352,-67.8020167 -45.855975,-67.8003323 -45.857716,-67.80089696 -45.85587052,-67.8022742 -45.8555864,-67.8041196 -45.8551755,-67.8052676 -45.8539873,-67.8064048 -45.853539,-67.80441533 -45.8533642,-67.8064048 -45.853539,-67.8089046 -45.854361,-67.8103852 -45.8542265,-67.8098702 -45.8539126,-67.80813131 -45.85419968,-67.809999 -45.85395,-67.81053540000002 -45.8542265,-67.8125417 -45.8543386,-67.81217316 -45.85421245,-67.816329 -45.8519921,-67.8167796 -45.8511701,-67.8158462 -45.8513121,-67.8150415 -45.8533148,-67.8138399 -45.8541293,-67.81497943 -45.85259887,-67.8185713 -45.8505798,-67.816962 -45.851073,-67.8161895 -45.8523658,-67.81800483 -45.85079524,-67.8223801 -45.8515886,-67.8209639 -45.8504751,-67.8196657 -45.8504079,-67.82163737 -45.8516816,-67.8244078 -45.8540994,-67.8225088 -45.8518801,-67.82322995 -45.85451391,-67.8277767 -45.8550036,-67.8251696 -45.8547271,-67.824676 -45.8544207,-67.82760578 -45.8552439,-67.8319716 -45.855437,-67.8292787 -45.855108200000004,-67.83154193 -45.85548135,-67.8371108 -45.8561767,-67.8326368 -45.8556313,-67.83653581 -45.85644197,-67.8438914 -45.8557508,-67.8414237 -45.8563262,-67.8377545 -45.8563187,-67.84359994 -45.85582912,-67.8480864 -45.8556163,-67.846477 -45.8561992,-67.8452325 -45.8556537,-67.84737753 -45.85568862,-67.851541 -45.8561394,-67.8511119 -45.8555416,-67.8497386 -45.8553249,-67.8490841 -45.8555341,-67.84992667 -45.85649082,-67.8511226 -45.8587172,-67.8489661 -45.8581942,-67.8504252 -45.8565952,-67.85051371 -45.8587379,-67.8547168 -45.8600622,-67.8545237 -45.8589862,-67.8537083 -45.858508,-67.852335 -45.8585529,-67.85325633 -45.86047853,-67.8585362 -45.8586425,-67.8567231 -45.8591431,-67.8550386 -45.8605852,-67.85800456 -45.85865306,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.86119926 -45.8582863,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86269634 -45.8576934,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86509618 -45.85797591,-67.8666258 -45.8579551,-67.8677523 -45.8588443,-67.8689218 -45.8588293,-67.8688896 -45.8591954,-67.86821501 -45.85959306,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86513556 -45.86046435,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.98715669 -45.86146692,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98206338 -45.86352335,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98026531 -45.86300386,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.97692655 -45.86298292,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97781889 -45.86412305,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97170451 -45.86764851,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.96898996 -45.86789944,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.9688479 -45.86924263,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.96992116 -45.87035971,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.9672039 -45.87497495,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.96572509 -45.87368099,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96214261 -45.87344787,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.95720623 -45.87256309,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95650202 -45.87386891,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95610675 -45.87170205,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95709848 -45.86769228,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S444,S634</t>
   </si>
   <si>
     <t>Base,Linea 1,S176,Linea 1506,S2447,Linea 2,S993,Linea 3,S329,Linea 4,S309,Linea 6,S328,Linea 7,S2258,Linea 8,S326,Linea 52,S2253,Linea 57,S208,Linea 156,S2488,Linea 1548,S680,Linea 158,S246,Linea 161,S662,Linea 162,S678,Linea 164,S2510,Linea 167,S2478,Linea 168,S451,Linea 169,S691,Linea 170,S676,Linea 177,S640,Linea 1551,S444;S444,Linea 1551,S640,Linea 178,S637,Linea 183,S495,Linea 186,S635,Linea 1555,S2552,Linea 211,S622,Linea 912,S2387,Linea 1558,S634;S634,Linea 1558,S2387,Linea 912,S622,Linea 211,S2552,Linea 1563,S635,Linea 186,S495,Linea 183,S637,Linea 178,S640,Linea 177,S676,Linea 170,S691,Linea 169,S451,Linea 168,S2478,Linea 167,S2510,Linea 164,S678,Linea 162,S662,Linea 161,S246,Linea 158,S680,Linea 1549,S2488,Linea 156,S208,Linea 57,S2253,Linea 52,S326,Linea 8,S2258,Linea 7,S328,Linea 6,S309,Linea 4,S329,Linea 3,S993,Linea 2,S2447,Linea 1506,S176,Linea 1,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.93822649 -45.86645361,,-67.93820898 -45.86621382,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.9397787 -45.86446671,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.94026881 -45.86394522,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94016816 -45.86304785,-67.9407513 -45.863103100000004,-67.9403973 -45.8622551,-67.93757020000001 -45.8636746,-67.93638614 -45.8639203,-67.9374468 -45.8637643,-67.93648120000002 -45.8648999,-67.93542287 -45.86514387,-67.9364544 -45.8650082,-67.9343033 -45.8651128,-67.93322311 -45.86539389,-67.934196 -45.8650755,-67.9339492 -45.8648887,-67.9318678 -45.8652174,-67.93025624 -45.86524613,-67.92887450000002 -45.8655984,-67.929647 -45.8660093,-67.9311919 -45.8652622,-67.92761571 -45.86576064,-67.9284239 -45.8655835,-67.9270077 -45.8655162,-67.92568273 -45.86555172,,-67.92617947 -45.86596757,-67.9266429 -45.8657927,-67.9259992 -45.8665696,-67.92478129 -45.86687146,-67.9258382 -45.86658460000001,-67.9220402 -45.8663903,-67.92069068 -45.86664171,-67.9224908 -45.8663306,-67.9191971 -45.8656582,-67.91774956 -45.8661538,-67.9187572 -45.8661064,-67.9176843 -45.8663679,-67.9172981 -45.8656657,-67.91575239 -45.86551598,-67.9164934 -45.8652398,-67.9147875 -45.8642536,-67.9133606 -45.865322,-67.9120409 -45.8651352,-67.91093971 -45.86527418,-67.9122448 -45.8649709,-67.911129 -45.8644105,-67.9103887 -45.8645226,-67.90917641 -45.86476613,-67.9100668 -45.8647318,-67.9098523 -45.8659197,-67.9103565 -45.8661513,-67.90947109 -45.86641003,-67.9100454 -45.8663754,-67.9094982 -45.8663306,-67.909627 -45.86429100000001,-67.90869072 -45.86438156,-67.9108179 -45.86391,-67.9094768 -45.8638353,-67.9077816 -45.8657329,-67.9066443 -45.8662484,-67.90565529 -45.8665856,,-67.90629828 -45.866507;-67.90629828 -45.866507,,-67.90565529 -45.8665856,-67.906419 -45.86626330000001,-67.9050887 -45.8652025,-67.9043591 -45.864814,-67.90314798 -45.8648888,-67.9039943 -45.8644255,-67.9028034 -45.8637381,-67.8999174 -45.8635812,-67.89867893 -45.86374335,-67.8993487 -45.8636634,-67.8988981 -45.8636933,-67.89861920000001 -45.8635215,-67.8975525 -45.86346654,,-67.89779792 -45.86312838,-67.8962696 -45.8632899,-67.8974175 -45.8625203,-67.8984583 -45.8622177,-67.8946526 -45.86372426,-67.8942311 -45.8647841,-67.8944886 -45.8644778,-67.8944886 -45.8640444,-67.8955936 -45.8639772,-67.8958511 -45.8637307,-67.8924736 -45.86523062,,-67.89265327 -45.86524891;-67.89265327 -45.86524891,,-67.8924736 -45.86523062,-67.8942311 -45.8647841,-67.8944886 -45.8644778,-67.8944886 -45.8640444,-67.8955936 -45.8639772,-67.8958511 -45.8637307,-67.8946526 -45.86372426,-67.8962696 -45.8632899,-67.8974175 -45.8625203,-67.8984583 -45.8622177,-67.89779792 -45.86312838,,-67.8975525 -45.86346654,-67.8993487 -45.8636634,-67.8988981 -45.8636933,-67.89861920000001 -45.8635215,-67.89867893 -45.86374335,-67.9039943 -45.8644255,-67.9028034 -45.8637381,-67.8999174 -45.8635812,-67.90314798 -45.8648888,-67.906419 -45.86626330000001,-67.9050887 -45.8652025,-67.9043591 -45.864814,-67.90565529 -45.8665856,-67.9108179 -45.86391,-67.9094768 -45.8638353,-67.9077816 -45.8657329,-67.9066443 -45.8662484,-67.90869072 -45.86438156,-67.9100454 -45.8663754,-67.9094982 -45.8663306,-67.909627 -45.86429100000001,-67.90947109 -45.86641003,-67.9100668 -45.8647318,-67.9098523 -45.8659197,-67.9103565 -45.8661513,-67.90917641 -45.86476613,-67.9122448 -45.8649709,-67.911129 -45.8644105,-67.9103887 -45.8645226,-67.91093971 -45.86527418,-67.9164934 -45.8652398,-67.9147875 -45.8642536,-67.9133606 -45.865322,-67.9120409 -45.8651352,-67.91575239 -45.86551598,-67.9187572 -45.8661064,-67.9176843 -45.8663679,-67.9172981 -45.8656657,-67.91774956 -45.8661538,-67.9224908 -45.8663306,-67.9191971 -45.8656582,-67.92069068 -45.86664171,-67.9258382 -45.86658460000001,-67.9220402 -45.8663903,-67.92478129 -45.86687146,-67.9266429 -45.8657927,-67.9259992 -45.8665696,-67.92617947 -45.86596757,,-67.92568273 -45.86555172,-67.9284239 -45.8655835,-67.9270077 -45.8655162,-67.92761571 -45.86576064,-67.92887450000002 -45.8655984,-67.929647 -45.8660093,-67.9311919 -45.8652622,-67.93025624 -45.86524613,-67.934196 -45.8650755,-67.9339492 -45.8648887,-67.9318678 -45.8652174,-67.93322311 -45.86539389,-67.9364544 -45.8650082,-67.9343033 -45.8651128,-67.93542287 -45.86514387,-67.9374468 -45.8637643,-67.93648120000002 -45.8648999,-67.93638614 -45.8639203,-67.9407513 -45.863103100000004,-67.9403973 -45.8622551,-67.93757020000001 -45.8636746,-67.94016816 -45.86304785,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94026881 -45.86394522,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.9397787 -45.86446671,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.93820898 -45.86621382,,-67.93822649 -45.86645361,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S872,S2044,S2314,S2160,S977</t>
   </si>
   <si>
     <t>Base,Linea 14,S278,Linea 15,S2250,Linea 16,S977,Linea 17,S245,Linea 1340,S186,Linea 901,S539,Linea 1408,S2376,Linea 1346,S190,Linea 1395,S232,Linea 1348,S2314,Linea 1347,S643,Linea 1350,S291,Linea 1351,S292,Linea 1403,S872;S872,Linea 1403,S292,Linea 1351,S291,Linea 1356,S290,Linea 891,S2061,Linea 877,S2190,Linea 867,S2044;S2044,Linea 867,S2190,Linea 877,S2061,Linea 891,S290,Linea 892,S643,Linea 1347,S2314;S2314,Linea 1348,S232,Linea 1395,S190,Linea 1346,S2376,Linea 896,S413,Linea 1692,S2155,Linea 1345,S2247,Linea 1685,S2226,Linea 879,S971,Linea 897,S2160;S2160,Linea 897,S971,Linea 1394,S539,Linea 901,S186,Linea 1340,S245,Linea 17,S977;S977,Linea 16,S2250,Linea 15,S278,Linea 14,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9427254 -45.8635364,-67.9464859 -45.8623447,-67.9469097 -45.862016,-67.94569946 -45.86221924,-67.9469097 -45.8620944,-67.9481596 -45.8620048,-67.94727301 -45.86217176,-67.9483044 -45.861911400000004,-67.9473495 -45.8614183,-67.94655091 -45.86160389,-67.9479718 -45.8615453,-67.9493934 -45.8606973,-67.9489589 -45.8606599,-67.94780419 -45.86081977,-67.9549134 -45.858239,-67.9527032 -45.8590684,-67.9493666 -45.8607794,-67.9491198 -45.8606898,-67.9539623 -45.85805836,-67.9549778 -45.85820170000001,-67.9571986 -45.85672970000001,-67.9579175 -45.8564981,-67.9585719 -45.8567521,-67.95773843 -45.85672753,-67.9586148 -45.8568044,-67.9579926 -45.8564383,-67.9605138 -45.8553847,-67.9615545 -45.8546374,-67.963078 -45.8525451,-67.9633892 -45.8522836,-67.9675841 -45.8512224,-67.9699767 -45.8512598,-67.9700732 -45.8515064,-67.9697835 -45.8517381,-67.96836168 -45.85192469,-67.9697835 -45.8517381,-67.9700947 -45.8517082,-67.9702342 -45.8514018,-67.9710817 -45.8516335,-67.97135 -45.8516633,-67.97067338 -45.85178783,-67.9748797 -45.8534568,-67.9738176 -45.8522612,-67.9730666 -45.8517007,-67.9728305 -45.8516858,-67.9720902 -45.8515438,-67.97404757 -45.85313584,-67.9750836 -45.8543983,-67.9752016 -45.8534194,-67.97353981 -45.85482131,-67.9721439 -45.8564532,-67.9723585 -45.855833,-67.9728305 -45.8549363,-67.9739249 -45.8544805,-67.9741395 -45.8540023,-67.9740536 -45.853539,-67.9744184 -45.8538977,-67.9746437 -45.8541517,-67.9750943 -45.8540247,-67.9749548 -45.854488,-67.97079424 -45.85669528,-67.9761672 -45.8586351,-67.9759634 -45.858508,-67.9757595 -45.8578206,-67.9751909 -45.8575143,-67.9723477 -45.8568567,-67.9721653 -45.8565802,-67.97543611 -45.85876585,-67.9762101 -45.8587172,-67.9768431 -45.8590385,-67.9774976 -45.8593075,-67.9783773 -45.8600024,-67.9787743 -45.859569,-67.97805617 -45.85962835,-67.9796112 -45.8591954,-67.9805982 -45.8590086,-67.9837096 -45.8569987,-67.9826903 -45.8567521,-67.9826152 -45.8569837,-67.9819822 -45.8570884,-67.9810381 -45.8569015,-67.97973452 -45.85686561;-67.97973452 -45.85686561,-67.9796112 -45.8591954,-67.9805982 -45.8590086,-67.9837096 -45.8569987,-67.9826903 -45.8567521,-67.9826152 -45.8569837,-67.9819822 -45.8570884,-67.9810381 -45.8569015,-67.97805617 -45.85962835,-67.9762101 -45.8587172,-67.9768431 -45.8590385,-67.9774976 -45.8593075,-67.9783773 -45.8600024,-67.9787743 -45.859569,-67.97543611 -45.85876585,-67.9759312 -45.8585902,-67.9752445 -45.8581942,-67.9735923 -45.8586276,-67.9730344 -45.8589638,-67.9731739 -45.8570958,-67.9715323 -45.8586948,-67.97062811 -45.85914674,-67.97135 -45.8605329,-67.9716933 -45.8600771,-67.9713929 -45.8591282,-67.96999638 -45.86075838,-67.9688287 -45.8612875,-67.9708672 -45.860772,-67.9674538 -45.86158535,-67.9682064 -45.8628939,-67.968421 -45.8615714,-67.96738506 -45.86316959;-67.96738506 -45.86316959,-67.9682064 -45.8628939,-67.968421 -45.8615714,-67.9674538 -45.86158535,-67.9688287 -45.8612875,-67.9708672 -45.860772,-67.96999638 -45.86075838,-67.97135 -45.8605329,-67.9716933 -45.8600771,-67.9713929 -45.8591282,-67.97062811 -45.85914674,-67.9716182 -45.8586425,-67.9730558 -45.8570659,-67.9720259 -45.8565877,-67.97079424 -45.85669528,-67.9721439 -45.8564532,-67.9723585 -45.855833,-67.9728305 -45.8549363,-67.9739249 -45.8544805,-67.9741395 -45.8540023,-67.9740536 -45.853539,-67.9744184 -45.8538977,-67.9746437 -45.8541517,-67.9750943 -45.8540247,-67.9749548 -45.854488,-67.97353981 -45.85482131;-67.97353981 -45.85482131,-67.9750836 -45.8543983,-67.9752016 -45.8534194,-67.97404757 -45.85313584,-67.9748797 -45.8534568,-67.9738176 -45.8522612,-67.9730666 -45.8517007,-67.9728305 -45.8516858,-67.9720902 -45.8515438,-67.97067338 -45.85178783,-67.9697835 -45.8517381,-67.9700947 -45.8517082,-67.9702342 -45.8514018,-67.9710817 -45.8516335,-67.97135 -45.8516633,-67.96836168 -45.85192469,-67.9657495 -45.8527319,-67.9690433 -45.8515438,-67.96454201 -45.85308005,,-67.96402882 -45.85314926,-67.9651701 -45.8532326,-67.9648376 -45.8537034,-67.961694 -45.85531,-67.9612434 -45.8559825,-67.96127805 -45.85636175,,-67.96103638 -45.85651367,-67.9626489 -45.8575591,-67.9621768 -45.8566998,-67.96207279 -45.85789473,-67.9637325 -45.8577459,-67.9642367 -45.8578505,-67.9642689 -45.8583885,-67.963078 -45.8585603,-67.9614151 -45.8585603,-67.95977833 -45.85857686;-67.95977833 -45.85857686,-67.9637325 -45.8577459,-67.9642367 -45.8578505,-67.9642689 -45.8583885,-67.963078 -45.8585603,-67.9614151 -45.8585603,-67.96207279 -45.85789473,-67.9637325 -45.8577459,-67.9643655 -45.8579476,-67.9642689 -45.8583885,-67.9623485 -45.8582017,-67.9617047 -45.8578879,-67.960825 -45.8571257,-67.9587221 -45.8568418,-67.95773843 -45.85672753,-67.9549778 -45.85820170000001,-67.9571986 -45.85672970000001,-67.9579175 -45.8564981,-67.9585719 -45.8567521,-67.9539623 -45.85805836,-67.9549134 -45.858239,-67.9527032 -45.8590684,-67.9493666 -45.8607794,-67.9491198 -45.8606898,-67.94780419 -45.86081977,-67.9479718 -45.8615453,-67.9493934 -45.8606973,-67.9489589 -45.8606599,-67.94655091 -45.86160389;-67.94655091 -45.86160389,-67.9483044 -45.861911400000004,-67.9473495 -45.8614183,-67.94727301 -45.86217176,-67.9469097 -45.8620944,-67.9481596 -45.8620048,-67.94569946 -45.86221924,-67.9427254 -45.8635364,-67.9464859 -45.8623447,-67.9469097 -45.862016,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2695,S908,S2446,S2540,S2630</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 943,S167,Linea 946,S2147,Linea 966,S2465,Linea 968,S387,Linea 970,S316,Linea 969,S39,Linea 957,S36,Linea 1027,S2695;S2695,Linea 1026,S43,Linea 1088,S2707,Linea 1098,S42,Linea 1853,S2723,Linea 1118,S841,Linea 1113,S2194,Linea 1110,S803,Linea 1138,S815,Linea 1129,S921,Linea 1273,S2055,Linea 1272,S908;S908,Linea 1272,S2055,Linea 1273,S921,Linea 1129,S815,Linea 1138,S803,Linea 1110,S2194,Linea 1113,S841,Linea 1118,S2723,Linea 1853,S42,Linea 1098,S2707,Linea 1088,S43,Linea 1026,S2695,Linea 1027,S36,Linea 957,S39,Linea 969,S316,Linea 970,S387,Linea 968,S2465,Linea 1715,S546,Linea 1212,S962,Linea 1008,S315,Linea 45,S2446;S2446,Linea 793,S2520,Linea 794,S260,Linea 775,S2540;S2540,Linea 775,S260,Linea 794,S2520,Linea 935,S315,Linea 746,S2572,Linea 745,S999,Linea 744,S2529,Linea 791,S2630;S2630,Linea 791,S2529,Linea 744,S999,Linea 745,S2572,Linea 747,S381,Linea 748,S377,Linea 740,S980,Linea 741,S2421,Linea 1842,S370,Linea 752,S2408,Linea 754,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.93512028 -45.8793768,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.94258106 -45.87928487,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.9459034 -45.88040255,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.94607409 -45.88311995,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94628753 -45.88560005,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94746568 -45.88694764;-67.94746568 -45.88694764,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94972726 -45.88693813,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.95178221 -45.88666191,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95650174 -45.8868325,-67.9563618 -45.8869613,-67.9570055 -45.8870583,-67.9568553 -45.8866028,-67.957381 -45.8868268,-67.95495587 -45.8875866,-67.9576063 -45.8896124,-67.9577136 -45.888888,-67.9572308 -45.8876483,-67.9565012 -45.8869986,-67.95602222 -45.88970885,-67.958647 -45.8921289,-67.9580784 -45.8917854,-67.958411 -45.8907699,-67.9588509 -45.8902397,-67.9578209 -45.8896422,-67.95792371 -45.89252328,-67.958411 -45.8946678,-67.9585934 -45.8938464,-67.9590118 -45.8934581,-67.9594839 -45.8932714,-67.9597199 -45.892913,-67.9595053 -45.8926741,-67.95753705 -45.89518861,-67.9602778 -45.8973559,-67.959677 -45.8974604,-67.9590976 -45.897326,-67.9587114 -45.8968257,-67.95928 -45.896094,-67.9591405 -45.8953548,-67.95956637 -45.89743693,-67.9642367 -45.8983564,-67.9643333 -45.8976993,-67.9650199 -45.8970721,-67.9652989 -45.8964076,-67.9613721 -45.8972065,-67.96354703 -45.89869944,-67.9693437 -45.9027914,-67.9659963 -45.8987297,-67.965138 -45.8986401,-67.96793825 -45.90348141,-67.970438 -45.9058075,-67.9690218 -45.9036126,-67.96980563 -45.90670646;-67.96980563 -45.90670646,-67.970438 -45.9058075,-67.9690218 -45.9036126,-67.96793825 -45.90348141,-67.9693437 -45.9027914,-67.9659963 -45.8987297,-67.965138 -45.8986401,-67.96354703 -45.89869944,-67.9642367 -45.8983564,-67.9643333 -45.8976993,-67.9650199 -45.8970721,-67.9652989 -45.8964076,-67.9613721 -45.8972065,-67.95956637 -45.89743693,-67.9602778 -45.8973559,-67.959677 -45.8974604,-67.9590976 -45.897326,-67.9587114 -45.8968257,-67.95928 -45.896094,-67.9591405 -45.8953548,-67.95753705 -45.89518861,-67.958411 -45.8946678,-67.9585934 -45.8938464,-67.9590118 -45.8934581,-67.9594839 -45.8932714,-67.9597199 -45.892913,-67.9595053 -45.8926741,-67.95792371 -45.89252328,-67.958647 -45.8921289,-67.9580784 -45.8917854,-67.958411 -45.8907699,-67.9588509 -45.8902397,-67.9578209 -45.8896422,-67.95602222 -45.88970885,-67.9576063 -45.8896124,-67.9577136 -45.888888,-67.9572308 -45.8876483,-67.9565012 -45.8869986,-67.95495587 -45.8875866,-67.9563618 -45.8869613,-67.9570055 -45.8870583,-67.9568553 -45.8866028,-67.957381 -45.8868268,-67.95650174 -45.8868325,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95178221 -45.88666191,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.94972726 -45.88693813,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94746568 -45.88694764,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94628753 -45.88560005,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94607409 -45.88311995,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.9459034 -45.88040255,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.94258106 -45.87928487,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.93938002 -45.87863178,,-67.93921257 -45.87804782,-67.9512119 -45.8788877,-67.952435 -45.8787607,-67.9518127 -45.8800454,-67.9474354 -45.8786785,-67.9441524 -45.8779764,-67.9427791 -45.8776328,-67.940805 -45.8776926,-67.94944114 -45.87896309,-67.9534543 -45.8773565,-67.9526925 -45.87711,-67.9530144 -45.8775731,-67.9524779 -45.878813,-67.9512334 -45.8789325,-67.95259842 -45.87763583,-67.9540229 -45.8774984,-67.9559112 -45.8773639,-67.9570377 -45.8767664,-67.9581749 -45.8755115,-67.9592478 -45.87404,-67.960149 -45.8733229,-67.961179 -45.8736441,-67.9631639 -45.8743836,-67.9648268 -45.8746973,-67.96414173 -45.87523514;-67.96414173 -45.87523514,-67.9649234 -45.8746674,-67.9647088 -45.874473200000004,-67.96326040000001 -45.8743313,-67.9616296 -45.8739877,-67.9603851 -45.8732855,-67.9597843 -45.8735544,-67.9585505 -45.8749065,-67.9576385 -45.8754667,-67.95608568 -45.8759708,-67.9669082 -45.8749812,-67.9658675 -45.873868200000004,-67.9650843 -45.8737113,-67.9633462 -45.8741744,-67.9616296 -45.8739877,-67.9602456 -45.873278,-67.9584754 -45.8748915,-67.957499 -45.8754293,-67.96587392 -45.87543336,-67.968936 -45.876467600000005,-67.9687858 -45.8766021,-67.9677987 -45.8763033,-67.9669404 -45.8754816,-67.96782021 -45.87637267;-67.96782021 -45.87637267,-67.968936 -45.876467600000005,-67.9687858 -45.8766021,-67.9677987 -45.8763033,-67.9669404 -45.8754816,-67.96587392 -45.87543336,-67.9669082 -45.8749812,-67.9658675 -45.873868200000004,-67.9650843 -45.8737113,-67.9633462 -45.8741744,-67.9616296 -45.8739877,-67.9602456 -45.873278,-67.9584754 -45.8748915,-67.957499 -45.8754293,-67.95608568 -45.8759708,-67.9539478 -45.8775432,-67.9560077 -45.8773266,-67.9570484 -45.8767328,-67.9579389 -45.8758215,-67.9585665 -45.8748691,-67.9575956 -45.8754443,-67.95259842 -45.87763583,-67.9521346 -45.8759746,-67.9517162 -45.8759074,-67.9513943 -45.8758999,-67.9525959 -45.87702780000001,-67.95337920000001 -45.8774162,-67.95155064 -45.87647635,-67.9521239 -45.8742491,-67.9518771 -45.875885,-67.9521346 -45.8759746,-67.95131727 -45.87411285,-67.9523921 -45.8742192,-67.953068 -45.8750334,-67.9540443 -45.8756908,-67.95347139 -45.87628758,-67.9545808 -45.876206200000006,-67.9548597 -45.8766021,-67.9553211 -45.8767066,-67.95502272 -45.87715106;-67.95502272 -45.87715106,-67.9545808 -45.876206200000006,-67.9548597 -45.8766021,-67.9553211 -45.8767066,-67.95347139 -45.87628758,-67.9523921 -45.8742192,-67.953068 -45.8750334,-67.9540443 -45.8756908,-67.95131727 -45.87411285,-67.9521239 -45.8742491,-67.9518771 -45.875885,-67.9521346 -45.8759746,-67.95155064 -45.87647635,-67.9521346 -45.8759746,-67.951448 -45.8759597,-67.9509008 -45.8738383,-67.94983615 -45.87396079,-67.9508579 -45.8736739,-67.9509115 -45.8721426,-67.94974928 -45.87213834,-67.9510081 -45.87218,-67.9515123 -45.8715599,-67.9518449 -45.870925,-67.95082673 -45.87123588,-67.9518449 -45.870925,-67.9516733 -45.8706037,-67.9509866 -45.870275,-67.95089010000001 -45.8697222,-67.9517484 -45.8700734,-67.9526281 -45.8699912,-67.95188123 -45.87007275,-67.9526013 -45.869965,-67.9517484 -45.8700734,-67.9508901 -45.8697222,-67.9511476 -45.8693039,-67.95011093 -45.86936834,-67.9511476 -45.8693039,-67.95089010000001 -45.8697222,-67.9506433 -45.8681011,-67.9512978 -45.867892,-67.95075242 -45.86791677,-67.9513514 -45.867951700000006,-67.9506004 -45.8681534,-67.9493558 -45.8665622,-67.9490876 -45.8664576,-67.9492164 -45.8668461,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2179,S2493,S755</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 943,S167,Linea 946,S2147,Linea 966,S2465,Linea 968,S387,Linea 970,S316,Linea 969,S39,Linea 957,S36,Linea 1027,S2695,Linea 1026,S43,Linea 1088,S2707,Linea 1098,S42,Linea 1853,S2723,Linea 1118,S841,Linea 1113,S2194,Linea 1110,S803,Linea 1138,S815,Linea 1129,S921,Linea 1130,S2179;S2179,Linea 1130,S921,Linea 1273,S2055,Linea 1328,S778,Linea 1329,S834,Linea 1307,S839,Linea 1313,S725,Linea 1310,S744,Linea 1321,S747,Linea 1320,S2493;S2493,Linea 1320,S747,Linea 1324,S752,Linea 1244,S753,Linea 1323,S755;S755,Linea 1323,S753,Linea 1244,S752,Linea 1324,S747,Linea 1321,S744,Linea 1310,S725,Linea 1313,S839,Linea 1307,S834,Linea 1306,S759,Linea 1297,S794,Linea 1073,S760,Linea 1221,S791,Linea 1076,S793,Linea 1078,S2667,Linea 1077,S944,Linea 1085,S115,Linea 1733,S927,Linea 1222,S33,Linea 1724,S2094,Linea 950,S31,Linea 949,S2146,Linea 964,S2147,Linea 946,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.93512028 -45.8793768,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.94258106 -45.87928487,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.9459034 -45.88040255,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.94607409 -45.88311995,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94628753 -45.88560005,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94746568 -45.88694764,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94972726 -45.88693813,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.95178221 -45.88666191,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95650174 -45.8868325,-67.9563618 -45.8869613,-67.9570055 -45.8870583,-67.9568553 -45.8866028,-67.957381 -45.8868268,-67.95495587 -45.8875866,-67.9576063 -45.8896124,-67.9577136 -45.888888,-67.9572308 -45.8876483,-67.9565012 -45.8869986,-67.95602222 -45.88970885,-67.958647 -45.8921289,-67.9580784 -45.8917854,-67.958411 -45.8907699,-67.9588509 -45.8902397,-67.9578209 -45.8896422,-67.95792371 -45.89252328,-67.958411 -45.8946678,-67.9585934 -45.8938464,-67.9590118 -45.8934581,-67.9594839 -45.8932714,-67.9597199 -45.892913,-67.9595053 -45.8926741,-67.95753705 -45.89518861,-67.9602778 -45.8973559,-67.959677 -45.8974604,-67.9590976 -45.897326,-67.9587114 -45.8968257,-67.95928 -45.896094,-67.9591405 -45.8953548,-67.95956637 -45.89743693,-67.9642367 -45.8983564,-67.9643333 -45.8976993,-67.9650199 -45.8970721,-67.9652989 -45.8964076,-67.9613721 -45.8972065,-67.96354703 -45.89869944,-67.9681742 -45.8981175,-67.967155 -45.8982145,-67.966522 -45.8986401,-67.965138 -45.8986401,-67.96764913 -45.89786174;-67.96764913 -45.89786174,-67.9681742 -45.8981175,-67.967155 -45.8982145,-67.966522 -45.8986401,-67.965138 -45.8986401,-67.96354703 -45.89869944,-67.9693437 -45.9027914,-67.9659963 -45.8987297,-67.965138 -45.8986401,-67.96793825 -45.90348141,-67.9685926 -45.9034484,-67.9653096 -45.9044488,-67.9600525 -45.9049564,-67.9584861 -45.9041651,-67.9576707 -45.9040606,-67.95594313 -45.90408308,-67.9576707 -45.9040606,-67.9586577 -45.9041501,-67.9598594 -45.9049266,-67.9530573 -45.9053894,-67.9526496 -45.9059568,-67.9507613 -45.9066437,-67.9497957 -45.9073603,-67.9479933 -45.907644,-67.9448175 -45.9073753,-67.9420066 -45.9072707,-67.94070253 -45.90708056,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.93482704 -45.9074612,-67.922008 -45.9097193,-67.9201412 -45.9109884,-67.9196906 -45.9109585,-67.9200125 -45.9097492,-67.9210854 -45.909585,-67.9227591 -45.90851,-67.9267287 -45.9077933,-67.9317927 -45.9075544,-67.9344964 -45.9080023,-67.9353762 -45.9076142,-67.92132124 -45.90950332,-67.9221797 -45.9097492,-67.9201412 -45.9109884,-67.91924 -45.911063,-67.9191971 -45.9115109,-67.91938339 -45.91141146,-67.9150558 -45.9126903,-67.9162359 -45.9122126,-67.9164505 -45.9115408,-67.9181457 -45.910645,-67.9202914 -45.9111078,-67.91361731 -45.91301639,-67.9115582 -45.9126157,-67.9142189 -45.9121827,-67.9144764 -45.9124216,-67.91006671 -45.91285318;-67.91006671 -45.91285318,-67.9115582 -45.9126157,-67.9142189 -45.9121827,-67.9144764 -45.9124216,-67.91361731 -45.91301639,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.9049706 -45.9149894,-67.9050565 -45.9146311,-67.908597 -45.9143027,-67.9105282 -45.9135114,-67.9126954 -45.9130636,-67.9141974 -45.9123171,-67.90949828 -45.91775832,-67.9105067 -45.9207068,-67.9081678 -45.9205276,-67.9078245 -45.9200798,-67.9065156 -45.9195574,-67.9081035 -45.9191991,-67.9097772 -45.9180049,-67.91006087 -45.92075561,-67.9186392 -45.925737,-67.9181242 -45.9258713,-67.9160213 -45.924319,-67.9144335 -45.9239011,-67.9125881 -45.9236324,-67.911365 -45.9232891,-67.908361 -45.9205575,-67.9107213 -45.9206172,-67.91781996 -45.92567691;-67.91781996 -45.92567691,-67.9186392 -45.925737,-67.9181242 -45.9258713,-67.9160213 -45.924319,-67.9144335 -45.9239011,-67.9125881 -45.9236324,-67.911365 -45.9232891,-67.908361 -45.9205575,-67.9107213 -45.9206172,-67.91006087 -45.92075561,-67.9105067 -45.9207068,-67.9081678 -45.9205276,-67.9078245 -45.9200798,-67.9065156 -45.9195574,-67.9081035 -45.9191991,-67.9097772 -45.9180049,-67.90949828 -45.91775832,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.9049706 -45.9149894,-67.9050565 -45.9146311,-67.908597 -45.9143027,-67.9105282 -45.9135114,-67.9126954 -45.9130636,-67.9141974 -45.9123171,-67.91361731 -45.91301639,-67.9150558 -45.9126903,-67.9162359 -45.9122126,-67.9164505 -45.9115408,-67.9181457 -45.910645,-67.9202914 -45.9111078,-67.91938339 -45.91141146,-67.9221797 -45.9097492,-67.9201412 -45.9109884,-67.91924 -45.911063,-67.9191971 -45.9115109,-67.92132124 -45.90950332,-67.922008 -45.9097193,-67.9201412 -45.9109884,-67.9196906 -45.9109585,-67.9200125 -45.9097492,-67.9210854 -45.909585,-67.9227591 -45.90851,-67.9267287 -45.9077933,-67.9317927 -45.9075544,-67.9344964 -45.9080023,-67.9353762 -45.9076142,-67.93482704 -45.9074612,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.94070253 -45.90708056,-67.9417276 -45.9060912,-67.9426718 -45.9047623,-67.9416203 -45.9047773,-67.9445601 -45.9035379,-67.942543 -45.9026271,-67.94048121 -45.90255833,-67.9313636 -45.9007755,-67.9299688 -45.9015296,-67.9309559 -45.9024778,-67.931664 -45.9022687,-67.9323721 -45.9010144,-67.9335737 -45.900447,-67.9371786 -45.9012832,-67.9379082 -45.9021045,-67.9396677 -45.9026719,-67.941041 -45.9025674,-67.93028301 -45.90068278,-67.9312027 -45.9008128,-67.9299688 -45.9015296,-67.9282737 -45.9003723,-67.9263103 -45.8994316,-67.9232204 -45.8984983,-67.9221046 -45.8981623,-67.92046749 -45.89809236,-67.9221904 -45.8981548,-67.9232204 -45.8984983,-67.9230487 -45.8980652,-67.9224908 -45.89755,-67.9236388 -45.8964449,-67.92261639 -45.89612501,-67.9235637 -45.895743,-67.9241538 -45.8953249,-67.9267287 -45.8949142,-67.9271579 -45.8944961,-67.9267287 -45.8942048,-67.9257309 -45.8936448,-67.9256558 -45.8930698,-67.9268682 -45.8923604,-67.9289711 -45.8934208,-67.9293036 -45.893361,-67.92819602 -45.89300211,-67.929368 -45.8925994,-67.9296148 -45.8919423,-67.9287994 -45.8913897,-67.9285097 -45.8910014,-67.9286277 -45.8901127,-67.92758265 -45.88993498,-67.9286492 -45.8892166,-67.9288638 -45.8878724,-67.9292393 -45.8876931,-67.92838162 -45.88770662,-67.929883 -45.8876782,-67.9306018 -45.8878724,-67.9317605 -45.8883727,-67.9326189 -45.888201,-67.93184093 -45.88869985,,-67.93195275 -45.88880085,-67.9325545 -45.8880964,-67.9324257 -45.8875363,-67.933048 -45.8868642,-67.9335093 -45.8836304,-67.93297197 -45.88384007,,-67.93288041 -45.88347512,-67.9369962 -45.8822636,-67.9367441 -45.8819686,-67.9343677 -45.8832719,-67.93623372 -45.88237227,-67.9369104 -45.8822487,-67.9367441 -45.8819686,-67.9385787 -45.881274,-67.938568 -45.8809641,-67.9379243 -45.8811844,-67.93588984 -45.88149225,-67.9380155 -45.8812404,-67.938627 -45.880852,-67.9384768 -45.8805682,-67.9371035 -45.8800827,-67.9358482 -45.8797093,-67.9335737 -45.8797616,-67.934432 -45.8794255,-67.9350007 -45.8792835,-67.9357088 -45.8792686,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2460,S2656,S2679,S904,S2666</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 754,S2408,Linea 752,S370,Linea 1842,S2421,Linea 741,S980,Linea 740,S377,Linea 748,S381,Linea 747,S2572,Linea 746,S315,Linea 790,S2546,Linea 792,S2503,Linea 782,S2547,Linea 785,S2460;S2460,Linea 785,S2547,Linea 782,S2503,Linea 792,S2546,Linea 790,S315,Linea 1008,S962,Linea 1212,S546,Linea 1753,S2465,Linea 968,S387,Linea 970,S316,Linea 969,S39,Linea 957,S36,Linea 1025,S2725,Linea 958,S37,Linea 959,S2680,Linea 956,S2666,Linea 955,S2656;S2656,Linea 1033,S904,Linea 1084,S736,Linea 1032,S926,Linea 1031,S902,Linea 1865,S2679;S2679,Linea 1865,S902,Linea 1031,S926,Linea 1032,S736,Linea 1084,S904;S904,Linea 1033,S2656,Linea 955,S2666;S2666,Linea 956,S2680,Linea 959,S37,Linea 958,S2725,Linea 1025,S36,Linea 957,S39,Linea 969,S316,Linea 970,S387,Linea 968,S2465,Linea 966,S2147,Linea 946,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9513514 -45.867951700000006,-67.9506004 -45.8681534,-67.9493558 -45.8665622,-67.9490876 -45.8664576,-67.9492164 -45.8668461,-67.95075242 -45.86791677,-67.9511476 -45.8693039,-67.95089010000001 -45.8697222,-67.9506433 -45.8681011,-67.9512978 -45.867892,-67.95011093 -45.86936834,-67.9526013 -45.869965,-67.9517484 -45.8700734,-67.9508901 -45.8697222,-67.9511476 -45.8693039,-67.95188123 -45.87007275,-67.9518449 -45.870925,-67.9516733 -45.8706037,-67.9509866 -45.870275,-67.95089010000001 -45.8697222,-67.9517484 -45.8700734,-67.9526281 -45.8699912,-67.95082673 -45.87123588,-67.9510081 -45.87218,-67.9515123 -45.8715599,-67.9518449 -45.870925,-67.94974928 -45.87213834,-67.9508579 -45.8736739,-67.9509115 -45.8721426,-67.94983615 -45.87396079,-67.9521346 -45.8759746,-67.951448 -45.8759597,-67.9509008 -45.8738383,-67.95155064 -45.87647635,-67.9521346 -45.8759746,-67.9517162 -45.8759074,-67.9513943 -45.8758999,-67.9525959 -45.87702780000001,-67.95337920000001 -45.8774162,-67.95259842 -45.87763583,-67.95394780000001 -45.8775432,-67.9556751 -45.8774162,-67.9568982 -45.8769083,-67.9582715 -45.8767813,-67.95749384 -45.8768117,-67.9582286 -45.8768411,-67.9568982 -45.8769083,-67.9591405 -45.8758775,-67.95866674 -45.87595626,-67.9605675 -45.8757281,-67.9607499 -45.8763556,-67.960943 -45.8763182,-67.96020228 -45.87662649,-67.9618549 -45.8754667,-67.9605675 -45.8757281,-67.9612454 -45.87560985;-67.9612454 -45.87560985,-67.9618549 -45.8754667,-67.9605675 -45.8757281,-67.96020228 -45.87662649,-67.9605675 -45.8757281,-67.9607499 -45.8763556,-67.960943 -45.8763182,-67.95866674 -45.87595626,-67.9582286 -45.8768411,-67.9568982 -45.8769083,-67.9591405 -45.8758775,-67.95749384 -45.8768117,-67.95394780000001 -45.8775432,-67.9556751 -45.8774162,-67.9568982 -45.8769083,-67.9582715 -45.8767813,-67.95259842 -45.87763583,-67.9534543 -45.8773565,-67.9526925 -45.87711,-67.9530144 -45.8775731,-67.9524779 -45.878813,-67.9512334 -45.8789325,-67.94944114 -45.87896309,-67.9512119 -45.8788877,-67.952435 -45.8787607,-67.9518127 -45.8800454,-67.9474354 -45.8786785,-67.9441524 -45.8779764,-67.9427791 -45.8776328,-67.940805 -45.8776926,-67.93921257 -45.87804782,,-67.93938002 -45.87863178,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.94258106 -45.87928487,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.9459034 -45.88040255,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.94607409 -45.88311995,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94628753 -45.88560005,-67.9471672 -45.8852884,-67.9470921 -45.8848627,-67.9461265 -45.8845565,-67.94483649 -45.8845247,-67.9459763 -45.8845415,-67.9446459 -45.8841607,-67.9436696 -45.8842353,-67.94255555 -45.88454697,-67.9423177 -45.8861323,-67.9425859 -45.8852137,-67.9431438 -45.8846088,-67.9432619 -45.8842802,-67.94198922 -45.88653728,-67.9414594 -45.88785,-67.9417813 -45.8871554,-67.9419315 -45.8865879,-67.9423285 -45.8863414,-67.93992923 -45.88854577,-67.9410625 -45.888776,-67.9401827 -45.8890747,-67.9375863 -45.8886341,-67.93581454 -45.88863383;-67.93581454 -45.88863383,-67.9351616 -45.890628,-67.9353011 -45.8903069,-67.9351509 -45.889702,-67.9356337 -45.8888283,-67.9361594 -45.8882682,-67.9367387 -45.8882607,-67.93404442 -45.8909633,-67.9365563 -45.8934955,-67.9363203 -45.8936,-67.935344 -45.8928831,-67.935226 -45.8911432,-67.9360062 -45.89335158,-67.9386914 -45.8911283,-67.9384661 -45.8920468,-67.9380691 -45.8922111,-67.9374146 -45.8931968,-67.93808121 -45.89103139,-67.9441845 -45.8944512,-67.9437339 -45.8940256,-67.9429615 -45.8935179,-67.9420388 -45.8926442,-67.9392278 -45.8921737,-67.9386055 -45.8919721,-67.9388738 -45.8911059,-67.94342733 -45.89494583,-67.9441738 -45.8946081,-67.9435945 -45.8938464,-67.9422426 -45.892801,-67.9410195 -45.8932192,-67.94030264 -45.89356218;-67.94030264 -45.89356218,-67.9441738 -45.8946081,-67.9435945 -45.8938464,-67.9422426 -45.892801,-67.9410195 -45.8932192,-67.94342733 -45.89494583,-67.9441845 -45.8944512,-67.9437339 -45.8940256,-67.9429615 -45.8935179,-67.9420388 -45.8926442,-67.9392278 -45.8921737,-67.9386055 -45.8919721,-67.9388738 -45.8911059,-67.93808121 -45.89103139,-67.9386914 -45.8911283,-67.9384661 -45.8920468,-67.9380691 -45.8922111,-67.9374146 -45.8931968,-67.9360062 -45.89335158,-67.9365563 -45.8934955,-67.9363203 -45.8936,-67.935344 -45.8928831,-67.935226 -45.8911432,-67.93404442 -45.8909633;-67.93404442 -45.8909633,-67.9351616 -45.890628,-67.9353011 -45.8903069,-67.9351509 -45.889702,-67.9356337 -45.8888283,-67.9361594 -45.8882682,-67.9367387 -45.8882607,-67.93581454 -45.88863383,-67.9410625 -45.888776,-67.9401827 -45.8890747,-67.9375863 -45.8886341,-67.93992923 -45.88854577;-67.93992923 -45.88854577,-67.9414594 -45.88785,-67.9417813 -45.8871554,-67.9419315 -45.8865879,-67.9423285 -45.8863414,-67.94198922 -45.88653728,-67.9423177 -45.8861323,-67.9425859 -45.8852137,-67.9431438 -45.8846088,-67.9432619 -45.8842802,-67.94255555 -45.88454697,-67.9459763 -45.8845415,-67.9446459 -45.8841607,-67.9436696 -45.8842353,-67.94483649 -45.8845247,-67.9471672 -45.8852884,-67.9470921 -45.8848627,-67.9461265 -45.8845565,-67.94628753 -45.88560005,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94607409 -45.88311995,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.9459034 -45.88040255,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.94258106 -45.87928487,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S989,S2457</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 944,S56,Linea 939,S989;S989,Linea 939,S56,Linea 944,S229,Linea 943,S167,Linea 946,S2147,Linea 966,S2465,Linea 968,S387,Linea 970,S316,Linea 969,S39,Linea 957,S36,Linea 1027,S2695,Linea 1026,S43,Linea 1088,S2707,Linea 1090,S2457;S2457,Linea 1090,S2707,Linea 1088,S43,Linea 1026,S2695,Linea 1027,S36,Linea 957,S39,Linea 969,S316,Linea 970,S387,Linea 968,S2465,Linea 966,S2147,Linea 946,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92260289 -45.87981886,-67.9241753 -45.8796943,-67.9245615 -45.8798587,-67.926954 -45.8792014,-67.9268253 -45.8787383,-67.9270506 -45.8779615,-67.9269862 -45.8778121,-67.92528362 -45.8779844;-67.92528362 -45.8779844,-67.9241753 -45.8796943,-67.9245615 -45.8798587,-67.926954 -45.8792014,-67.9268253 -45.8787383,-67.9270506 -45.8779615,-67.9269862 -45.8778121,-67.92260289 -45.87981886,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.93512028 -45.8793768,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.94258106 -45.87928487,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.9459034 -45.88040255,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.94607409 -45.88311995,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94628753 -45.88560005,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94746568 -45.88694764,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94972726 -45.88693813,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.95178221 -45.88666191,-67.952832 -45.8866028,-67.9515767 -45.8861547,-67.9514158 -45.8859157,-67.950815 -45.8855647,-67.9502463 -45.8848776,-67.9522634 -45.8836379,-67.9526711 -45.8833914,-67.9532182 -45.8833317,-67.95269672 -45.88342498;-67.95269672 -45.88342498,-67.952832 -45.8866028,-67.9515767 -45.8861547,-67.9514158 -45.8859157,-67.950815 -45.8855647,-67.9502463 -45.8848776,-67.9522634 -45.8836379,-67.9526711 -45.8833914,-67.9532182 -45.8833317,-67.95178221 -45.88666191,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.94972726 -45.88693813,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94746568 -45.88694764,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94628753 -45.88560005,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94607409 -45.88311995,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.9459034 -45.88040255,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.94258106 -45.87928487,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2096,S2560,S2651,S2010</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 1211,S172,Linea 768,S2417,Linea 759,S402,Linea 760,S2468,Linea 763,S395,Linea 764,S338,Linea 773,S2407,Linea 850,S2056,Linea 849,S2716,Linea 853,S2504,Linea 854,S997,Linea 1836,S353,Linea 1361,S2006,Linea 1363,S2009,Linea 1365,S354,Linea 1421,S2255,Linea 568,S882,Linea 567,S522,Linea 566,S2273,Linea 552,S525,Linea 551,S529,Linea 549,S437,Linea 546,S773,Linea 531,S2151,Linea 415,S774,Linea 414,S722,Linea 413,S710,Linea 393,S709,Linea 392,S687,Linea 370,S613,Linea 369,S721,Linea 368,Planta La Petiza,Linea 367,S1035,Linea 372,S1026,Linea 374,S1015,Linea 373,S1006,Linea 353,S1042,Linea 355,S514,Linea 351,S2096;S2096,Linea 351,S514,Linea 355,S1042,Linea 353,S1006,Linea 373,S1015,Linea 374,S1026,Linea 372,S1035,Linea 367,Planta La Petiza,Linea 368,S721,Linea 369,S613,Linea 370,S687,Linea 392,S709,Linea 393,S710,Linea 413,S722,Linea 414,S774,Linea 415,S2151,Linea 531,S773,Linea 546,S437,Linea 549,S529,Linea 551,S525,Linea 552,S2273,Linea 615,S2634,Linea 614,S469,Linea 616,S460,Linea 632,S2720,Linea 662,S2445,Linea 628,S2262,Linea 627,S2560;S2560,Linea 627,S2262,Linea 628,S2445,Linea 662,S2720,Linea 632,S460,Linea 616,S469,Linea 545,S439,Linea 538,S531,Linea 540,S533,Linea 536,S506,Linea 534,S470,Linea 645,S426,Linea 649,S2307,Linea 507,S427,Linea 512,S509,Linea 511,S2236,Linea 516,Q17,Linea 517,S2523,Linea 469,S26,Linea 467,S2223,Linea 466,S2621,Linea 457,S2642,Linea 450,S2645,Linea 449,S2660,Linea 1863,S2669,Linea 1864,S2651;S2651,Linea 1864,S2669,Linea 1863,S2660,Linea 449,S2645,Linea 450,S2642,Linea 457,S2621,Linea 466,S2223,Linea 467,S26,Linea 469,S2523,Linea 1887,S13,Linea 1886,S2,Linea 471,S2240,Linea 1593,Q16,Linea 613,S3,Linea 734,S295,Linea 735,S17,Linea 594,S2259,Linea 592,S2129,Linea 591,S949,Linea 579,S2132,Linea 578,S2443,Linea 581,S938,Linea 582,S849,Linea 584,S2168,Linea 1617,S2167,Linea 736,S2110,Linea 930,S2111,Linea 931,S645,Linea 932,S78,Linea 940,S56,Linea 944,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base,Linea 19,S159,Linea 21,S2010;S2010,Linea 21,S159,Linea 19,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.95709848 -45.86769228,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95610675 -45.87170205,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95650202 -45.87386891,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95720623 -45.87256309,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.96214261 -45.87344787,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96572509 -45.87368099,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.9672039 -45.87497495,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.96992116 -45.87035971,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.9688479 -45.86924263,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.96898996 -45.86789944,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.97170451 -45.86764851,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97781889 -45.86412305,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97692655 -45.86298292,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.98026531 -45.86300386,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98206338 -45.86352335,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8701234 -45.8635663,-67.8698123 -45.86132490000001,-67.8679776 -45.8603237,-67.8670549 -45.8588966,-67.8654027 -45.859457,-67.8654563 -45.8601518,-67.8656709 -45.8602639,-67.86895092 -45.86422008,-67.8682029 -45.8666817,-67.8692436 -45.8661961,-67.8702307 -45.8647318,-67.8701663 -45.8642088,-67.86635342 -45.86702056,-67.8668189 -45.8667639,-67.8664005 -45.866988,-67.8663254 -45.8676305,-67.86498939 -45.86808329,-67.8639972 -45.8691171,-67.8657031 -45.8680713,-67.86235431 -45.86962035,-67.8593409 -45.8716048,-67.85971640000001 -45.8705365,-67.8614008 -45.870529,-67.861948 -45.8698268,-67.8630531 -45.8694832,-67.85882935 -45.87179542,-67.857635 -45.8744807,-67.8541696 -45.874152,-67.8588581 -45.8727103,-67.8593409 -45.8716048,-67.857019 -45.87438052,-67.84873010000001 -45.87312860000001,-67.8543305 -45.8741595,-67.857635 -45.8744807,-67.84711722 -45.87310355,-67.8489339 -45.8731324,-67.8501302 -45.8733565,-67.8485316 -45.8736739,-67.8459191 -45.8729942,-67.84549 -45.8723406,-67.8449106 -45.8726842,-67.84336962 -45.87289033,-67.8464448 -45.8713396,-67.8465736 -45.871657000000006,-67.84484620000002 -45.8726692,-67.84458226 -45.87132178,-67.8433174 -45.8702414,-67.8424054 -45.8705701,-67.8442401 -45.8712014,-67.8457582 -45.8705029,-67.8468794 -45.8714778,-67.8465736 -45.871657000000006,-67.8464073 -45.8713396,-67.84266503 -45.8702826,-67.8403401 -45.8715002,-67.8396213 -45.8713059,-67.8401256 -45.8706859,-67.8424323 -45.8705216,-67.8432369 -45.8702153,-67.83999726 -45.87142467,-67.8404045 -45.871440400000004,-67.8396642 -45.8713657,-67.8393745 -45.8705216,-67.8371751 -45.8699314,-67.8344822 -45.8697969,-67.8345251 -45.8700584,-67.8363597 -45.8707606,-67.83598551 -45.8713908,-67.8363276 -45.8710445,-67.8348899 -45.87091,-67.8336024 -45.8710221,-67.83204724 -45.87132308,-67.8347504 -45.8724041,-67.8345788 -45.8717915,-67.8335381 -45.8712686,-67.8339131 -45.87269245,-67.8368962 -45.8743761,-67.8363168 -45.8740101,-67.8365743 -45.8734723,-67.8358126 -45.8726879,-67.8366923 -45.875026,-67.8369284 -45.8751679,-67.8384304 -45.875317300000006,-67.83709911 -45.87528907,-67.8404582 -45.876744,-67.8387737 -45.8754144,-67.83972408 -45.87683377,-67.8388381 -45.8793059,-67.8380656 -45.8795375,-67.8406405 -45.8772519,-67.8405118 -45.8769083,-67.8383257 -45.87925524,-67.8388596 -45.8793582,-67.8365421 -45.8801649,-67.8342998 -45.88042630000001,-67.8343749 -45.8798736,-67.83402097 -45.87975218,-67.8369606 -45.8813898,-67.8369713 -45.880247,-67.8353834 -45.8801051,-67.8342998 -45.88042630000001,-67.8344929 -45.8798512,-67.83577147 -45.88194228,-67.8369606 -45.8841158,-67.8364992 -45.8833615,-67.8356302 -45.8809865,-67.834847 -45.880247,-67.8365421 -45.8801649,-67.8370464 -45.881345,-67.83638415 -45.88416747,-67.8369606 -45.8841158,-67.8303623 -45.882726700000006,-67.8300083 -45.8820022,-67.8309417 -45.8814346,-67.832315 -45.8817334,-67.83197793 -45.88195242;-67.83197793 -45.88195242,-67.8369606 -45.8841158,-67.8303623 -45.882726700000006,-67.8300083 -45.8820022,-67.8309417 -45.8814346,-67.832315 -45.8817334,-67.83638415 -45.88416747,-67.8369606 -45.8841158,-67.8364992 -45.8833615,-67.8356302 -45.8809865,-67.834847 -45.880247,-67.8365421 -45.8801649,-67.8370464 -45.881345,-67.83577147 -45.88194228,-67.8369606 -45.8813898,-67.8369713 -45.880247,-67.8353834 -45.8801051,-67.8342998 -45.88042630000001,-67.8344929 -45.8798512,-67.83402097 -45.87975218,-67.8388596 -45.8793582,-67.8365421 -45.8801649,-67.8342998 -45.88042630000001,-67.8343749 -45.8798736,-67.8383257 -45.87925524,-67.8388381 -45.8793059,-67.8380656 -45.8795375,-67.8406405 -45.8772519,-67.8405118 -45.8769083,-67.83972408 -45.87683377,-67.8404582 -45.876744,-67.8387737 -45.8754144,-67.83709911 -45.87528907,-67.8369284 -45.8751679,-67.8384304 -45.875317300000006,-67.8366923 -45.875026,-67.8368962 -45.8743761,-67.8363168 -45.8740101,-67.8365743 -45.8734723,-67.8358126 -45.8726879,-67.8339131 -45.87269245,-67.8347504 -45.8724041,-67.8345788 -45.8717915,-67.8335381 -45.8712686,-67.83204724 -45.87132308,-67.8363276 -45.8710445,-67.8348899 -45.87091,-67.8336024 -45.8710221,-67.83598551 -45.8713908,-67.8404045 -45.871440400000004,-67.8396642 -45.8713657,-67.8393745 -45.8705216,-67.8371751 -45.8699314,-67.8344822 -45.8697969,-67.8345251 -45.8700584,-67.8363597 -45.8707606,-67.83999726 -45.87142467,-67.8403401 -45.8715002,-67.8396213 -45.8713059,-67.8401256 -45.8706859,-67.8424323 -45.8705216,-67.8432369 -45.8702153,-67.84266503 -45.8702826,-67.8433174 -45.8702414,-67.8424054 -45.8705701,-67.8442401 -45.8712014,-67.8457582 -45.8705029,-67.8468794 -45.8714778,-67.8465736 -45.871657000000006,-67.8464073 -45.8713396,-67.84458226 -45.87132178,-67.8464448 -45.8713396,-67.8465736 -45.871657000000006,-67.84484620000002 -45.8726692,-67.84336962 -45.87289033,-67.8489339 -45.8731324,-67.8501302 -45.8733565,-67.8485316 -45.8736739,-67.8459191 -45.8729942,-67.84549 -45.8723406,-67.8449106 -45.8726842,-67.84711722 -45.87310355,-67.84873010000001 -45.87312860000001,-67.8543305 -45.8741595,-67.857635 -45.8744807,-67.857019 -45.87438052,-67.857635 -45.8744807,-67.8541696 -45.874152,-67.8588581 -45.8727103,-67.8593409 -45.8716048,-67.85882935 -45.87179542,-67.8593409 -45.8716048,-67.85971640000001 -45.8705365,-67.8614008 -45.870529,-67.861948 -45.8698268,-67.8630531 -45.8694832,-67.86235431 -45.86962035,-67.8639972 -45.8691171,-67.8657031 -45.8680713,-67.86498939 -45.86808329,-67.8668189 -45.8667639,-67.8664005 -45.866988,-67.8663254 -45.8676305,-67.86635342 -45.86702056,-67.8668725 -45.8688706,-67.8667974 -45.868646500000004,-67.8676665 -45.8677127,-67.867012 -45.86727940000001,-67.86653014 -45.86909111,-67.8665292 -45.8705589,-67.866143 -45.8710594,-67.8657889 -45.8704767,-67.8668725 -45.8688706,-67.86552841 -45.87071955,-67.8665292 -45.8704394,-67.8664756 -45.8701107,-67.8674197 -45.8697073,-67.8698659 -45.8700883,-67.8700376 -45.8699389,-67.8700268 -45.8692964,-67.86891343 -45.86940172,-67.8699839 -45.8693413,-67.8700376 -45.8699389,-67.8703916 -45.8701929,-67.8709173 -45.8699239,-67.8707349 -45.8692815,-67.8712177 -45.8686166,-67.8731596 -45.8681236,-67.8729107 -45.86822856,-67.8740609 -45.8679218,-67.8740501 -45.8676828,-67.8730416 -45.867115,-67.8732347 -45.8667639,-67.8746724 -45.8662783,-67.8754556 -45.865591,-67.876035 -45.8638054,-67.8748977 -45.8643134,-67.87319628 -45.86441938,-67.8776658 -45.8646496,-67.876035 -45.8642312,-67.8759491 -45.8638278,-67.8749514 -45.864380600000004,-67.87711554 -45.86436098,-67.87849190000001 -45.8641416,-67.8785133 -45.863499,-67.8778052 -45.8630732,-67.87624464 -45.86324951;-67.87624464 -45.86324951,-67.87849190000001 -45.8641416,-67.8785133 -45.863499,-67.8778052 -45.8630732,-67.87711554 -45.86436098,-67.8776658 -45.8646496,-67.876035 -45.8642312,-67.8759491 -45.8638278,-67.8749514 -45.864380600000004,-67.87319628 -45.86441938,-67.8740609 -45.8679218,-67.8740501 -45.8676828,-67.8730416 -45.867115,-67.8732347 -45.8667639,-67.8746724 -45.8662783,-67.8754556 -45.865591,-67.876035 -45.8638054,-67.8748977 -45.8643134,-67.8729107 -45.86822856,-67.8699839 -45.8693413,-67.8700376 -45.8699389,-67.8703916 -45.8701929,-67.8709173 -45.8699239,-67.8707349 -45.8692815,-67.8712177 -45.8686166,-67.8731596 -45.8681236,-67.86891343 -45.86940172,-67.8665292 -45.8704394,-67.8664756 -45.8701107,-67.8674197 -45.8697073,-67.8698659 -45.8700883,-67.8700376 -45.8699389,-67.8700268 -45.8692964,-67.86552841 -45.87071955,-67.8687286 -45.87223970000001,-67.8671408 -45.8717542,-67.8661752 -45.8712611,-67.8662395 -45.8705888,-67.86803091 -45.87230485,-67.8686213 -45.87223970000001,-67.8679776 -45.8725012,-67.867173 -45.87342,-67.86601994 -45.87390747,-67.8666043 -45.8740773,-67.8655958 -45.8758999,-67.8658319 -45.8761464,-67.86520975 -45.8764158,-67.8690398 -45.8759074,-67.8681815 -45.8748691,-67.8664434 -45.8762585,-67.86877282 -45.87598303,-67.8721726 -45.8748019,-67.868793 -45.8753024,-67.8683639 -45.8750633,-67.8691471 -45.8759522,-67.87226293 -45.87472228,-67.8772473 -45.875646,-67.87714 -45.874899,-67.8760457 -45.8739578,-67.8750265 -45.8733005,-67.8741574 -45.8732108,-67.8737283 -45.8741819,-67.87580898 -45.87623664,-67.8836632 -45.8741296,-67.884264 -45.8734723,-67.8839421 -45.8733229,-67.8833306 -45.8736515,-67.8822899 -45.87404,-67.8816032 -45.8749737,-67.8808522 -45.875153,-67.8791678 -45.8762809,-67.8782129 -45.8766021,-67.8774083 -45.8765572,-67.88196942 -45.87464989,-67.8803158 -45.8771847,-67.8813779 -45.8760792,-67.8823113 -45.875519,-67.8828478 -45.87486160000001,-67.87897854 -45.87766371,-67.8797901 -45.8776627,-67.8792536 -45.87817810000001,-67.8798115 -45.8793806,-67.87875862 -45.87975391,-67.8785026 -45.8788802,-67.8798115 -45.8793806,-67.87684672 -45.87887091,-67.8772688 -45.8789101,-67.8749835 -45.8790146,-67.87362100000001 -45.8797765,-67.8724445 -45.87988188,-67.8726017 -45.880389,-67.8697157 -45.8828462,-67.8706813 -45.8831001,-67.8686643 -45.8830254,-67.86703039 -45.88312685,-67.8685462 -45.8831151,-67.869308 -45.8829582,-67.8708422 -45.883018,-67.8705847 -45.8839366,-67.8693122 -45.8842458,-67.8672695 -45.88491500000001,-67.867409 -45.8861099,-67.8680742 -45.8863339,-67.8686106 -45.8860875,-67.8688896 -45.8849822,-67.870338 -45.8842577,-67.86589689 -45.88477956,-67.86739830000002 -45.8868567,-67.8667223 -45.8862667,-67.8672802 -45.8848552,-67.86685323 -45.88712476,-67.8674626 -45.88708080000001,-67.866658 -45.886864200000005,-67.8658855 -45.887125600000005,-67.8670657 -45.8886864,-67.86520231 -45.88917465,-67.8652418 -45.8907101,-67.8656602 -45.890351700000004,-67.8659928 -45.88941820000001,-67.86328043 -45.89089136,-67.8640401 -45.8909939,-67.8672266 -45.8915539,-67.86687975 -45.89168688,-67.8672266 -45.8915539,-67.8653598 -45.8912776,-67.8647375 -45.8920692,-67.8620982 -45.8918004,-67.8619695 -45.8921737,-67.86151916 -45.89254163,-67.8617334 -45.8922185,-67.8619051 -45.8917108,-67.8603172 -45.8915465,-67.8574204 -45.891666,-67.8577852 -45.8919348,-67.85772472 -45.89223385;-67.85772472 -45.89223385,-67.8617334 -45.8922185,-67.8619051 -45.8917108,-67.8603172 -45.8915465,-67.8574204 -45.891666,-67.8577852 -45.8919348,-67.86151916 -45.89254163,-67.8672266 -45.8915539,-67.8653598 -45.8912776,-67.8647375 -45.8920692,-67.8620982 -45.8918004,-67.8619695 -45.8921737,-67.86687975 -45.89168688,-67.8640401 -45.8909939,-67.8672266 -45.8915539,-67.86328043 -45.89089136,-67.8652418 -45.8907101,-67.8656602 -45.890351700000004,-67.8659928 -45.88941820000001,-67.86520231 -45.88917465,-67.8674626 -45.88708080000001,-67.866658 -45.886864200000005,-67.8658855 -45.887125600000005,-67.8670657 -45.8886864,-67.86685323 -45.88712476,-67.86739830000002 -45.8868567,-67.8667223 -45.8862667,-67.8672802 -45.8848552,-67.86589689 -45.88477956,-67.8672695 -45.88491500000001,-67.867409 -45.8861099,-67.8680742 -45.8863339,-67.8686106 -45.8860875,-67.8688896 -45.8849822,-67.870338 -45.8842577,-67.8693122 -45.8842458,-67.8685462 -45.8831151,-67.869308 -45.8829582,-67.8708422 -45.883018,-67.8705847 -45.8839366,-67.86703039 -45.88312685,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.87263059 -45.88283868,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.8758872 -45.88413516,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.87630061 -45.88642699,,-67.87597578 -45.88674947,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87931365 -45.88515467,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.88934482 -45.88367092,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88477851 -45.88530377,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88725199 -45.88498287,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88986813 -45.88509226,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.89478887 -45.88442779,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89811074 -45.88424629,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.90293219 -45.8836944,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90362098 -45.8874036,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90705336 -45.88840606,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90594775 -45.88423937,,-67.90591516 -45.88446218,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90970498 -45.88326091,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91930941 -45.88137118,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.92260289 -45.87981886,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472,-67.9452789 -45.8642312,-67.9498494 -45.8625128,-67.9518986 -45.8627818,-67.95083587 -45.86305697,-67.95192 -45.8629761,-67.9497743 -45.8637232,-67.9510617 -45.8642985,-67.952714 -45.8635738,-67.95161951 -45.86368341;-67.95161951 -45.86368341,-67.95192 -45.8629761,-67.9497743 -45.8637232,-67.9510617 -45.8642985,-67.952714 -45.8635738,-67.95083587 -45.86305697,-67.9452789 -45.8642312,-67.9498494 -45.8625128,-67.9518986 -45.8627818,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2660,S2614,S2652,S2406,S969</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 944,S56,Linea 940,S78,Linea 932,S645,Linea 931,S2111,Linea 930,S2110,Linea 736,S2167,Linea 1617,S2168,Linea 584,S849,Linea 582,S938,Linea 581,S2443,Linea 578,S2132,Linea 579,S949,Linea 591,S2129,Linea 592,S2259,Linea 594,S17,Linea 735,S295,Linea 734,S3,Linea 613,Q16,Linea 1626,S2240,Linea 471,S2,Linea 1886,S13,Linea 1887,S2523,Linea 469,S26,Linea 467,S2223,Linea 466,S2621,Linea 457,S2642,Linea 450,S2645,Linea 449,S2660;S2660,Linea 449,S2645,Linea 448,S2652,Linea 447,S2638,Linea 446,S2620,Linea 441,S2595,Linea 442,S2594,Linea 454,S2461,Linea 525,S2614;S2614,Linea 525,S2461,Linea 454,S2594,Linea 442,S2595,Linea 441,S2620,Linea 446,S2638,Linea 447,S2652;S2652,Linea 448,S2645,Linea 450,S2642,Linea 457,S2621,Linea 466,S2223,Linea 467,S26,Linea 469,S2523,Linea 517,Q17,Linea 516,S2236,Linea 511,S509,Linea 512,S427,Linea 507,S2307,Linea 649,S426,Linea 645,S470,Linea 534,S506,Linea 536,S533,Linea 540,S531,Linea 538,S439,Linea 545,S469,Linea 614,S2634,Linea 615,S2273,Linea 566,S522,Linea 567,S882,Linea 568,S2255,Linea 1373,S323,Linea 1372,S325,Linea 1371,S2091,Linea 1370,S2081,Linea 1426,S2087,Linea 1427,S2406;S2406,Linea 1832,S285,Linea 830,S249,Linea 1678,S2548,Linea 1833,S339,Linea 1834,S312,Linea 839,S287,Linea 805,S198,Linea 1828,S2095,Linea 797,S2189,Linea 1292,S1,Linea 1293,S2116,Linea 1295,S59,Linea 1017,S315,Linea 746,S2572,Linea 747,S381,Linea 749,S969;S969,Linea 35,S2450,Linea 981,S1203,Linea 982,S360,Linea 977,S2230,Linea 976,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92260289 -45.87981886,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.91930941 -45.88137118,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91747464 -45.88372353,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91541483 -45.88231338,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.90970498 -45.88326091,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90591516 -45.88446218,,-67.90594775 -45.88423937,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90705336 -45.88840606,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90362098 -45.8874036,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90293219 -45.8836944,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.89811074 -45.88424629,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89478887 -45.88442779,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.88986813 -45.88509226,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88725199 -45.88498287,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88477851 -45.88530377,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88934482 -45.88367092,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.87931365 -45.88515467,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87597578 -45.88674947,,-67.87630061 -45.88642699,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.8758872 -45.88413516,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.87263059 -45.88283868,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.86703039 -45.88312685,-67.8685462 -45.8831151,-67.869308 -45.8829582,-67.8708422 -45.883018,-67.8705847 -45.8839366,-67.8693122 -45.8842458,-67.8672695 -45.88491500000001,-67.867409 -45.8861099,-67.8680742 -45.8863339,-67.8686106 -45.8860875,-67.8688896 -45.8849822,-67.870338 -45.8842577,-67.86589689 -45.88477956,-67.86739830000002 -45.8868567,-67.8667223 -45.8862667,-67.8672802 -45.8848552,-67.86685323 -45.88712476,-67.8674626 -45.88708080000001,-67.866658 -45.886864200000005,-67.8658855 -45.887125600000005,-67.8670657 -45.8886864,-67.86520231 -45.88917465,-67.8652418 -45.8907101,-67.8656602 -45.890351700000004,-67.8659928 -45.88941820000001,-67.86328043 -45.89089136,-67.8640401 -45.8909939,-67.8672266 -45.8915539,-67.86687975 -45.89168688;-67.86687975 -45.89168688,-67.8640401 -45.8909939,-67.8672266 -45.8915539,-67.86328043 -45.89089136,-67.86183 -45.8907101,-67.8635895 -45.8906578,-67.85994544 -45.89074459,-67.8583002 -45.8906802,-67.8604245 -45.8905832,-67.85652652 -45.89043864,-67.8569698 -45.8905682,-67.8562617 -45.8905682,-67.8551674 -45.8886042,-67.8555107 -45.8875214,-67.8557789 -45.88838020000001,-67.85537987 -45.88855243,-67.8570557 -45.8887461,-67.8588152 -45.88891790000001,-67.85821176 -45.88888764,-67.8587294 -45.8888955,-67.8575063 -45.8884847,-67.8558004 -45.8866177,-67.85399644 -45.88640005,-67.8618944 -45.8867671,-67.8616261 -45.8862443,-67.8603601 -45.88681940000001,-67.8594589 -45.8868119,-67.8584075 -45.8873347,-67.856369 -45.8871629,-67.8557789 -45.8865655,-67.86045923 -45.88724171,-67.8609717 -45.8856767,-67.862817 -45.8848403,-67.8617656 -45.8854826,-67.8616369 -45.886192,-67.8618944 -45.8867671,-67.85908094 -45.88593849;-67.85908094 -45.88593849,-67.8609717 -45.8856767,-67.862817 -45.8848403,-67.8617656 -45.8854826,-67.8616369 -45.886192,-67.8618944 -45.8867671,-67.86045923 -45.88724171,-67.8618944 -45.8867671,-67.8616261 -45.8862443,-67.8603601 -45.88681940000001,-67.8594589 -45.8868119,-67.8584075 -45.8873347,-67.856369 -45.8871629,-67.8557789 -45.8865655,-67.85399644 -45.88640005,-67.8587294 -45.8888955,-67.8575063 -45.8884847,-67.8558004 -45.8866177,-67.85821176 -45.88888764,-67.8570557 -45.8887461,-67.8588152 -45.88891790000001,-67.85537987 -45.88855243,-67.8569698 -45.8905682,-67.8562617 -45.8905682,-67.8551674 -45.8886042,-67.8555107 -45.8875214,-67.8557789 -45.88838020000001,-67.85652652 -45.89043864,-67.8583002 -45.8906802,-67.8604245 -45.8905832,-67.85994544 -45.89074459;-67.85994544 -45.89074459,-67.86183 -45.8907101,-67.8635895 -45.8906578,-67.86328043 -45.89089136,-67.8652418 -45.8907101,-67.8656602 -45.890351700000004,-67.8659928 -45.88941820000001,-67.86520231 -45.88917465,-67.8674626 -45.88708080000001,-67.866658 -45.886864200000005,-67.8658855 -45.887125600000005,-67.8670657 -45.8886864,-67.86685323 -45.88712476,-67.86739830000002 -45.8868567,-67.8667223 -45.8862667,-67.8672802 -45.8848552,-67.86589689 -45.88477956,-67.8672695 -45.88491500000001,-67.867409 -45.8861099,-67.8680742 -45.8863339,-67.8686106 -45.8860875,-67.8688896 -45.8849822,-67.870338 -45.8842577,-67.8693122 -45.8842458,-67.8685462 -45.8831151,-67.869308 -45.8829582,-67.8708422 -45.883018,-67.8705847 -45.8839366,-67.86703039 -45.88312685,-67.8726017 -45.880389,-67.8697157 -45.8828462,-67.8706813 -45.8831001,-67.8686643 -45.8830254,-67.8724445 -45.87988188,-67.8772688 -45.8789101,-67.8749835 -45.8790146,-67.87362100000001 -45.8797765,-67.87684672 -45.87887091,-67.8785026 -45.8788802,-67.8798115 -45.8793806,-67.87875862 -45.87975391,-67.8797901 -45.8776627,-67.8792536 -45.87817810000001,-67.8798115 -45.8793806,-67.87897854 -45.87766371,-67.8803158 -45.8771847,-67.8813779 -45.8760792,-67.8823113 -45.875519,-67.8828478 -45.87486160000001,-67.88196942 -45.87464989,-67.8836632 -45.8741296,-67.884264 -45.8734723,-67.8839421 -45.8733229,-67.8833306 -45.8736515,-67.8822899 -45.87404,-67.8816032 -45.8749737,-67.8808522 -45.875153,-67.8791678 -45.8762809,-67.8782129 -45.8766021,-67.8774083 -45.8765572,-67.87580898 -45.87623664,-67.8772473 -45.875646,-67.87714 -45.874899,-67.8760457 -45.8739578,-67.8750265 -45.8733005,-67.8741574 -45.8732108,-67.8737283 -45.8741819,-67.87226293 -45.87472228,-67.8721726 -45.8748019,-67.868793 -45.8753024,-67.8683639 -45.8750633,-67.8691471 -45.8759522,-67.86877282 -45.87598303,-67.8690398 -45.8759074,-67.8681815 -45.8748691,-67.8664434 -45.8762585,-67.86520975 -45.8764158,-67.8666043 -45.8740773,-67.8655958 -45.8758999,-67.8658319 -45.8761464,-67.86601994 -45.87390747,-67.8686213 -45.87223970000001,-67.8679776 -45.8725012,-67.867173 -45.87342,-67.86803091 -45.87230485,-67.8687286 -45.87223970000001,-67.8671408 -45.8717542,-67.8661752 -45.8712611,-67.8662395 -45.8705888,-67.86552841 -45.87071955,-67.8665292 -45.8705589,-67.866143 -45.8710594,-67.8657889 -45.8704767,-67.8668725 -45.8688706,-67.86653014 -45.86909111,-67.8668725 -45.8688706,-67.8667974 -45.868646500000004,-67.8676665 -45.8677127,-67.867012 -45.86727940000001,-67.86635342 -45.86702056,-67.8682029 -45.8666817,-67.8692436 -45.8661961,-67.8702307 -45.8647318,-67.8701663 -45.8642088,-67.86895092 -45.86422008,-67.8701234 -45.8635663,-67.8698123 -45.86132490000001,-67.8679776 -45.8603237,-67.8670549 -45.8588966,-67.8654027 -45.859457,-67.8654563 -45.8601518,-67.8656709 -45.8602639,-67.86513556 -45.86046435,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.98715669 -45.86146692,-67.9928935 -45.8605404,-67.9914236 -45.8609588,-67.98931 -45.8614369,-67.9889023 -45.8613323,-67.99220337 -45.86057361,-67.9911339 -45.8618479,-67.9904687 -45.8619002,-67.9910696 -45.8615117,-67.9918849 -45.861295,-67.9930007 -45.8606151,-67.99023202 -45.86204363,-67.9886341 -45.8629088,-67.9906297 -45.8618479,-67.9911232 -45.8617956,-67.98677491 -45.86342245,-67.9859948 -45.8647094,-67.9874003 -45.863783,-67.98422803 -45.86529103,-67.9920459 -45.8642163,-67.9910159 -45.864672,-67.9903078 -45.8650157,-67.9890847 -45.8656208,-67.9855978 -45.8654415,-67.9855227 -45.865322,-67.99158422 -45.86437969,-67.9929578 -45.8671225,-67.9928398 -45.8662783,-67.9924321 -45.8655835,-67.9919815 -45.8652548,-67.992121 -45.8648663,-67.9910159 -45.864672,-67.9918528 -45.8642238,-67.99174523 -45.8677107;-67.99174523 -45.8677107,-67.9929042 -45.8670777,-67.9928398 -45.8661064,-67.9924321 -45.8655835,-67.9918849 -45.8652398,-67.9909408 -45.867115,-67.9902434 -45.8675334,-67.98895281 -45.86742251,-67.9901361 -45.8674661,-67.9900289 -45.8678098,-67.9882801 -45.8686838,-67.9882801 -45.8691246,-67.9875398 -45.8692665,-67.98621539 -45.86906201,,-67.98595749 -45.86942688,-67.9875398 -45.8692665,-67.988205 -45.8691993,-67.9883659 -45.8686465,-67.9866493 -45.8686017,-67.9853296 -45.8685195,-67.9839349 -45.868766,-67.9830122 -45.8690947,-67.9832804 -45.8686614,-67.9841065 -45.8682057,-67.98364252 -45.86827111,-67.9807377 -45.8716645,-67.9809952 -45.8709175,-67.9819071 -45.8698567,-67.9830122 -45.8690947,-67.9832804 -45.8686614,-67.9840744 -45.8683402,-67.97987219 -45.87199291,-67.9799759 -45.8737337,-67.9795146 -45.8726879,-67.9809093 -45.8709474,-67.980845 -45.8716421,-67.97905112 -45.87422359,-67.9801047 -45.8737412,-67.9795146 -45.8726879,-67.9791605 -45.8735694,-67.9792249 -45.8748467,-67.9793966 -45.8748467,-67.9797721 -45.8758476,-67.9800725 -45.876012,-67.97932522 -45.87631183,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9756951 -45.8784321,-67.9790318 -45.877588,-67.9792678 -45.8765199,-67.9792786 -45.8747272,-67.9798257 -45.8760045,-67.9801154 -45.8760643,-67.9757414 -45.87911165,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9755771 -45.8785142,-67.9742253 -45.8787756,-67.974236 -45.878222900000004,-67.97210325 -45.8786421,-67.9739785 -45.8781632,-67.9745579 -45.8782677,-67.9740644 -45.8788802,-67.9710174 -45.8792537,-67.96993071 -45.87922522,-67.9708028 -45.8792686,-67.9686999 -45.8795524,-67.9682064 -45.8792238,-67.96661757 -45.87943084,-67.967391 -45.8796271,-67.9660606 -45.879657,-67.9619408 -45.879179,-67.959795 -45.8789997,-67.9602242 -45.8794852,-67.95937836 -45.87978501,-67.9538298 -45.8776104,-67.9575419 -45.8788205,-67.9596341 -45.8789624,-67.9602242 -45.8794852,-67.95259842 -45.87763583,-67.9521346 -45.8759746,-67.9517162 -45.8759074,-67.9513943 -45.8758999,-67.9525959 -45.87702780000001,-67.95337920000001 -45.8774162,-67.95155064 -45.87647635,-67.9521346 -45.8759746,-67.951448 -45.8759597,-67.9509008 -45.8738383,-67.94983615 -45.87396079,-67.9508579 -45.8736739,-67.9500961 -45.8727925,-67.9492593 -45.8721949,-67.9478645 -45.8717542,-67.9469955 -45.8717467,-67.9473388 -45.8721426,-67.948637 -45.8727253,-67.94783094 -45.87286777;-67.94783094 -45.87286777,-67.9468453 -45.8713059,-67.9463303 -45.8714703,-67.9469955 -45.8717467,-67.9473495 -45.8720903,-67.9485619 -45.8727701,-67.9462724 -45.87137334,-67.9468346 -45.8712312,-67.9461801 -45.8714553,-67.9452574 -45.8710968,-67.9466307 -45.8704618,-67.94569058 -45.87050836,-67.9438949 -45.8700584,-67.9444742 -45.8707756,-67.9451823 -45.8710893,-67.946341 -45.870671,-67.94277872 -45.87009226,-67.9421461 -45.8691918,-67.9418027 -45.8693487,-67.941159 -45.8692068,-67.9424894 -45.8699912,-67.9436159 -45.8698567,-67.94121642 -45.86914222,-67.9388952 -45.8675782,-67.941159 -45.8692068,-67.9419637 -45.8693413,-67.9421461 -45.8692815,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2677,S2507</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 944,S56,Linea 940,S78,Linea 932,S645,Linea 931,S2111,Linea 930,S2110,Linea 736,S2167,Linea 1617,S2168,Linea 584,S849,Linea 582,S938,Linea 581,S2443,Linea 578,S2132,Linea 579,S949,Linea 591,S2129,Linea 592,S2259,Linea 594,S17,Linea 596,S2293,Linea 597,S4,Linea 598,S2324,Linea 600,S2196,Linea 602,S2677;S2677,Linea 602,S2196,Linea 599,S2689,Linea 601,S2683,Linea 606,S2619,Linea 608,S2694,Linea 1336,S2711,Linea 1335,S2698,Linea 1334,S2718,Linea 1333,S2717,Linea 1330,S924,Linea 1337,S925,Linea 1260,S2657,Linea 1247,S2627,Linea 1246,S2640,Linea 1326,S752,Linea 1244,S753,Linea 1240,S2449,Linea 1239,S2507;S2507,Linea 1239,S2449,Linea 1240,S753,Linea 1244,S752,Linea 1324,S747,Linea 1321,S744,Linea 1310,S725,Linea 1313,S839,Linea 1307,S834,Linea 1306,S759,Linea 1297,S794,Linea 1073,S760,Linea 1221,S791,Linea 1076,S793,Linea 1078,S2667,Linea 1077,S944,Linea 1085,S115,Linea 1733,S927,Linea 1222,S33,Linea 1724,S2094,Linea 950,S31,Linea 949,S2146,Linea 964,S2147,Linea 946,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92260289 -45.87981886,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.91930941 -45.88137118,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91747464 -45.88372353,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91541483 -45.88231338,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.90970498 -45.88326091,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90591516 -45.88446218,,-67.90594775 -45.88423937,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90705336 -45.88840606,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90362098 -45.8874036,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90293219 -45.8836944,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.89811074 -45.88424629,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89478887 -45.88442779,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.88986813 -45.88509226,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88725199 -45.88498287,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88477851 -45.88530377,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88304639 -45.88588109,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88085052 -45.88709026,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.87661058 -45.88889945,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87484305 -45.89067788,-67.8756487 -45.8907699,-67.8751016 -45.891875,-67.87350417 -45.89236821;-67.87350417 -45.89236821,-67.8756487 -45.8907699,-67.8751016 -45.891875,-67.87484305 -45.89067788,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87813787 -45.88993585,-67.8788996 -45.8901426,-67.877934 -45.8900903,-67.8774834 -45.8904786,-67.8777945 -45.8925098,-67.8783524 -45.8919348,-67.87768072 -45.89180609,-67.8782558 -45.8919497,-67.8778267 -45.8923828,-67.8780413 -45.8938315,-67.8791893 -45.8953398,-67.87842608 -45.89585515,-67.8799939 -45.8961761,-67.8810668 -45.8968855,-67.881496 -45.8974007,-67.88049412 -45.89765426,-67.8816462 -45.8976545,-67.8819466 -45.8992972,-67.8823757 -45.8992374,-67.88283131 -45.8994995,-67.8778481 -45.8999691,-67.8795862 -45.8996556,-67.8816676 -45.8998198,-67.8823113 -45.899342,-67.87600509 -45.90013168,-67.875402 -45.9018954,-67.8762174 -45.9018506,-67.8767323 -45.9016117,-67.8774405 -45.9009995,-67.8778481 -45.8999691,-67.87401 -45.90242679,-67.8778911 -45.9022389,-67.8772688 -45.9023733,-67.8762174 -45.9020895,-67.8762174 -45.9018506,-67.875402 -45.9018954,-67.87749311 -45.90223614,-67.8877831 -45.9058523,-67.8869033 -45.9059867,-67.8840923 -45.9048668,-67.8834271 -45.9042397,-67.8832769 -45.9030601,-67.8820109 -45.9031497,-67.8811312 -45.903299,-67.8780627 -45.9027018,-67.8772688 -45.9023733,-67.8778911 -45.9022389,-67.88690397 -45.90593083,-67.8887486 -45.9139369,-67.8892422 -45.9133771,-67.889092 -45.9088982,-67.8895211 -45.9081964,-67.8884697 -45.9068527,-67.8891134 -45.9060464,-67.8899932 -45.905494,-67.890079 -45.9049863,-67.8895855 -45.9049415,-67.8884912 -45.9054641,-67.88780562 -45.91450171,-67.892257 -45.917781,-67.8922355 -45.9171241,-67.8925788 -45.9166017,-67.8926325 -45.9163553,-67.8917956 -45.9155044,-67.8909266 -45.914855,-67.8902507 -45.9144445,-67.8900683 -45.9137279,-67.8889096 -45.913601,-67.888813 -45.9138473,-67.89164408 -45.91850265,-67.895422 -45.9189901,-67.8929543 -45.9186468,-67.8948966 -45.91911867,-67.8951859 -45.9189752,-67.8956151 -45.9181094,-67.8975034 -45.9169749,-67.8979325 -45.9163329,-67.8972459 -45.916945,-67.8964305 -45.9169151,-67.8960013 -45.9166017,-67.89415644 -45.91643339,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.90527 -45.9149745,-67.9052067 -45.9146162,-67.9025245 -45.9141235,-67.90171 -45.9145565,-67.89907 -45.9147953,-67.8979325 -45.9163329,-67.8972459 -45.916945,-67.8961945 -45.916945,-67.896 -45.9166,-67.90949828 -45.91775832,-67.9105067 -45.9207068,-67.9081678 -45.9205276,-67.9078245 -45.9200798,-67.9065156 -45.9195574,-67.9081035 -45.9191991,-67.9097772 -45.9180049,-67.91006087 -45.92075561,-67.9102921 -45.920662,-67.908361 -45.9205575,-67.9075885 -45.9200201,-67.9060221 -45.9194977,-67.9027176 -45.9217367,-67.90106153 -45.92208325,-67.898984 -45.9215725,-67.9012799 -45.9215277,-67.9016232 -45.9217367,-67.8972875 -45.92186977;-67.8972875 -45.92186977,-67.898984 -45.9215725,-67.9012799 -45.9215277,-67.9016232 -45.9217367,-67.90106153 -45.92208325,-67.9102921 -45.920662,-67.908361 -45.9205575,-67.9075885 -45.9200201,-67.9060221 -45.9194977,-67.9027176 -45.9217367,-67.91006087 -45.92075561,-67.9105067 -45.9207068,-67.9081678 -45.9205276,-67.9078245 -45.9200798,-67.9065156 -45.9195574,-67.9081035 -45.9191991,-67.9097772 -45.9180049,-67.90949828 -45.91775832,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.9049706 -45.9149894,-67.9050565 -45.9146311,-67.908597 -45.9143027,-67.9105282 -45.9135114,-67.9126954 -45.9130636,-67.9141974 -45.9123171,-67.91361731 -45.91301639,-67.9150558 -45.9126903,-67.9162359 -45.9122126,-67.9164505 -45.9115408,-67.9181457 -45.910645,-67.9202914 -45.9111078,-67.91938339 -45.91141146,-67.9221797 -45.9097492,-67.9201412 -45.9109884,-67.91924 -45.911063,-67.9191971 -45.9115109,-67.92132124 -45.90950332,-67.922008 -45.9097193,-67.9201412 -45.9109884,-67.9196906 -45.9109585,-67.9200125 -45.9097492,-67.9210854 -45.909585,-67.9227591 -45.90851,-67.9267287 -45.9077933,-67.9317927 -45.9075544,-67.9344964 -45.9080023,-67.9353762 -45.9076142,-67.93482704 -45.9074612,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.94070253 -45.90708056,-67.9417276 -45.9060912,-67.9426718 -45.9047623,-67.9416203 -45.9047773,-67.9445601 -45.9035379,-67.942543 -45.9026271,-67.94048121 -45.90255833,-67.9313636 -45.9007755,-67.9299688 -45.9015296,-67.9309559 -45.9024778,-67.931664 -45.9022687,-67.9323721 -45.9010144,-67.9335737 -45.900447,-67.9371786 -45.9012832,-67.9379082 -45.9021045,-67.9396677 -45.9026719,-67.941041 -45.9025674,-67.93028301 -45.90068278,-67.9312027 -45.9008128,-67.9299688 -45.9015296,-67.9282737 -45.9003723,-67.9263103 -45.8994316,-67.9232204 -45.8984983,-67.9221046 -45.8981623,-67.92046749 -45.89809236,-67.9221904 -45.8981548,-67.9232204 -45.8984983,-67.9230487 -45.8980652,-67.9224908 -45.89755,-67.9236388 -45.8964449,-67.92261639 -45.89612501,-67.9235637 -45.895743,-67.9241538 -45.8953249,-67.9267287 -45.8949142,-67.9271579 -45.8944961,-67.9267287 -45.8942048,-67.9257309 -45.8936448,-67.9256558 -45.8930698,-67.9268682 -45.8923604,-67.9289711 -45.8934208,-67.9293036 -45.893361,-67.92819602 -45.89300211,-67.929368 -45.8925994,-67.9296148 -45.8919423,-67.9287994 -45.8913897,-67.9285097 -45.8910014,-67.9286277 -45.8901127,-67.92758265 -45.88993498,-67.9286492 -45.8892166,-67.9288638 -45.8878724,-67.9292393 -45.8876931,-67.92838162 -45.88770662,-67.929883 -45.8876782,-67.9306018 -45.8878724,-67.9317605 -45.8883727,-67.9326189 -45.888201,-67.93184093 -45.88869985,,-67.93195275 -45.88880085,-67.9325545 -45.8880964,-67.9324257 -45.8875363,-67.933048 -45.8868642,-67.9335093 -45.8836304,-67.93297197 -45.88384007,,-67.93288041 -45.88347512,-67.9369962 -45.8822636,-67.9367441 -45.8819686,-67.9343677 -45.8832719,-67.93623372 -45.88237227,-67.9369104 -45.8822487,-67.9367441 -45.8819686,-67.9385787 -45.881274,-67.938568 -45.8809641,-67.9379243 -45.8811844,-67.93588984 -45.88149225,-67.9380155 -45.8812404,-67.938627 -45.880852,-67.9384768 -45.8805682,-67.9371035 -45.8800827,-67.9358482 -45.8797093,-67.9335737 -45.8797616,-67.934432 -45.8794255,-67.9350007 -45.8792835,-67.9357088 -45.8792686,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S801,S2221,S946,S2432</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 944,S56,Linea 940,S78,Linea 932,S645,Linea 1046,S928,Linea 1048,S840,Linea 1220,S826,Linea 1060,S828,Linea 1061,S801;S801,Linea 1054,S760,Linea 1073,S794,Linea 1297,S759,Linea 1306,S834,Linea 1307,S839,Linea 1313,S725,Linea 1310,S744,Linea 1321,S747,Linea 1324,S752,Linea 1326,S2640,Linea 1246,S2627,Linea 1247,S2657,Linea 1260,S925,Linea 1251,S946,Linea 1250,S2221;S2221,Linea 1250,S946;S946,Linea 1251,S925,Linea 1260,S2657,Linea 1247,S2627,Linea 1246,S2640,Linea 1326,S752,Linea 1324,S747,Linea 1321,S744,Linea 1310,S725,Linea 1313,S839,Linea 1307,S834,Linea 1329,S778,Linea 1328,S2055,Linea 1273,S921,Linea 1129,S815,Linea 1139,S823,Linea 1144,S824,Linea 1146,S909,Linea 1151,S2658,Linea 1145,S844,Linea 1135,S914,Linea 1274,S2180,Linea 1275,S2486,Linea 1276,S2034,Linea 1281,S929,Linea 1279,S2432;S2432,Linea 1279,S929,Linea 1281,S2034,Linea 1276,S2486,Linea 1275,S2180,Linea 1274,S914,Linea 1135,S844,Linea 1145,S2658,Linea 1152,S66,Linea 1854,S163,Linea 1092,S2724,Linea 1856,S42,Linea 1098,S2707,Linea 1088,S43,Linea 1026,S2695,Linea 1027,S36,Linea 957,S39,Linea 969,S316,Linea 970,S387,Linea 968,S2465,Linea 966,S2147,Linea 946,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92260289 -45.87981886,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.91930941 -45.88137118,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91747464 -45.88372353,-67.9183924 -45.8832943,-67.9178345 -45.8833989,-67.9181349 -45.883832,-67.9182851 -45.8847656,-67.9179955 -45.8868492,-67.9182959 -45.887021,-67.918725 -45.8867895,-67.9189289 -45.8859232,-67.91833856 -45.88592331,-67.9201949 -45.8901426,-67.920785 -45.8896646,-67.9178774 -45.8882906,-67.9180706 -45.8870061,-67.9186499 -45.8868642,-67.918961 -45.8857962,-67.91840225 -45.89042054,-67.9177594 -45.8928831,-67.9196584 -45.8908744,-67.9194117 -45.8909267,-67.9188323 -45.8915241,-67.9170513 -45.8923754,-67.9181993 -45.8910014,-67.918961 -45.8905234,-67.91657701 -45.89351753,-67.9165363 -45.8956086,-67.9175019 -45.8947275,-67.9165041 -45.893712,-67.9164827 -45.892689,-67.9183388 -45.8916958,-67.9195189 -45.8908296,-67.9196799 -45.8909341,-67.9177058 -45.8929802,-67.91506756 -45.89602857,-67.9198515 -45.8952876,-67.9187465 -45.8950934,-67.9171157 -45.8950187,-67.9165041 -45.8955564,-67.91895387 -45.89557581;-67.91895387 -45.89557581,-67.9221904 -45.8981548,-67.9233706 -45.8984385,-67.9223728 -45.8974903,-67.9203773 -45.8967212,-67.9203129 -45.8957953,-67.92046749 -45.89809236,-67.9312027 -45.9008128,-67.9299688 -45.9015296,-67.9282737 -45.9003723,-67.9263103 -45.8994316,-67.9232204 -45.8984983,-67.9221046 -45.8981623,-67.93028301 -45.90068278,-67.9313636 -45.9007755,-67.9299688 -45.9015296,-67.9309559 -45.9024778,-67.931664 -45.9022687,-67.9323721 -45.9010144,-67.9335737 -45.900447,-67.9371786 -45.9012832,-67.9379082 -45.9021045,-67.9396677 -45.9026719,-67.941041 -45.9025674,-67.94048121 -45.90255833,-67.9417276 -45.9060912,-67.9426718 -45.9047623,-67.9416203 -45.9047773,-67.9445601 -45.9035379,-67.942543 -45.9026271,-67.94070253 -45.90708056,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.93482704 -45.9074612,-67.922008 -45.9097193,-67.9201412 -45.9109884,-67.9196906 -45.9109585,-67.9200125 -45.9097492,-67.9210854 -45.909585,-67.9227591 -45.90851,-67.9267287 -45.9077933,-67.9317927 -45.9075544,-67.9344964 -45.9080023,-67.9353762 -45.9076142,-67.92132124 -45.90950332,-67.9221797 -45.9097492,-67.9201412 -45.9109884,-67.91924 -45.911063,-67.9191971 -45.9115109,-67.91938339 -45.91141146,-67.9150558 -45.9126903,-67.9162359 -45.9122126,-67.9164505 -45.9115408,-67.9181457 -45.910645,-67.9202914 -45.9111078,-67.91361731 -45.91301639,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.9049706 -45.9149894,-67.9050565 -45.9146311,-67.908597 -45.9143027,-67.9105282 -45.9135114,-67.9126954 -45.9130636,-67.9141974 -45.9123171,-67.90949828 -45.91775832,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.90527 -45.9149745,-67.9052067 -45.9146162,-67.9025245 -45.9141235,-67.90171 -45.9145565,-67.89907 -45.9147953,-67.8979325 -45.9163329,-67.8972459 -45.916945,-67.8961945 -45.916945,-67.896 -45.9166,-67.89415644 -45.91643339,-67.8951859 -45.9189752,-67.8956151 -45.9181094,-67.8975034 -45.9169749,-67.8979325 -45.9163329,-67.8972459 -45.916945,-67.8964305 -45.9169151,-67.8960013 -45.9166017,-67.8948966 -45.91911867,-67.895422 -45.9189901,-67.8929543 -45.9186468,-67.89164408 -45.91850265,-67.892257 -45.917781,-67.8922355 -45.9171241,-67.8925788 -45.9166017,-67.8926325 -45.9163553,-67.8917956 -45.9155044,-67.8909266 -45.914855,-67.8902507 -45.9144445,-67.8900683 -45.9137279,-67.8889096 -45.913601,-67.888813 -45.9138473,-67.88780562 -45.91450171,-67.8846073 -45.9123171,-67.8879547 -45.9129889,-67.8887486 -45.9136607,-67.88302674 -45.91253107,-67.8890276 -45.9167659,-67.8884053 -45.9153477,-67.8880405 -45.9137055,-67.8874612 -45.9131382,-67.8845859 -45.9125112,-67.88832586 -45.91746828;-67.88832586 -45.91746828,-67.8890276 -45.9167659,-67.8884053 -45.9153477,-67.8880405 -45.9137055,-67.8874612 -45.9131382,-67.8845859 -45.9125112,-67.88302674 -45.91253107;-67.88302674 -45.91253107,-67.8846073 -45.9123171,-67.8879547 -45.9129889,-67.8887486 -45.9136607,-67.88780562 -45.91450171,-67.892257 -45.917781,-67.8922355 -45.9171241,-67.8925788 -45.9166017,-67.8926325 -45.9163553,-67.8917956 -45.9155044,-67.8909266 -45.914855,-67.8902507 -45.9144445,-67.8900683 -45.9137279,-67.8889096 -45.913601,-67.888813 -45.9138473,-67.89164408 -45.91850265,-67.895422 -45.9189901,-67.8929543 -45.9186468,-67.8948966 -45.91911867,-67.8951859 -45.9189752,-67.8956151 -45.9181094,-67.8975034 -45.9169749,-67.8979325 -45.9163329,-67.8972459 -45.916945,-67.8964305 -45.9169151,-67.8960013 -45.9166017,-67.89415644 -45.91643339,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.90527 -45.9149745,-67.9052067 -45.9146162,-67.9025245 -45.9141235,-67.90171 -45.9145565,-67.89907 -45.9147953,-67.8979325 -45.9163329,-67.8972459 -45.916945,-67.8961945 -45.916945,-67.896 -45.9166,-67.90949828 -45.91775832,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.9049706 -45.9149894,-67.9050565 -45.9146311,-67.908597 -45.9143027,-67.9105282 -45.9135114,-67.9126954 -45.9130636,-67.9141974 -45.9123171,-67.91361731 -45.91301639,-67.9150558 -45.9126903,-67.9162359 -45.9122126,-67.9164505 -45.9115408,-67.9181457 -45.910645,-67.9202914 -45.9111078,-67.91938339 -45.91141146,-67.9221797 -45.9097492,-67.9201412 -45.9109884,-67.91924 -45.911063,-67.9191971 -45.9115109,-67.92132124 -45.90950332,-67.922008 -45.9097193,-67.9201412 -45.9109884,-67.9196906 -45.9109585,-67.9200125 -45.9097492,-67.9210854 -45.909585,-67.9227591 -45.90851,-67.9267287 -45.9077933,-67.9317927 -45.9075544,-67.9344964 -45.9080023,-67.9353762 -45.9076142,-67.93482704 -45.9074612,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.94070253 -45.90708056,-67.9576707 -45.9040606,-67.9586577 -45.9041501,-67.9598594 -45.9049266,-67.9530573 -45.9053894,-67.9526496 -45.9059568,-67.9507613 -45.9066437,-67.9497957 -45.9073603,-67.9479933 -45.907644,-67.9448175 -45.9073753,-67.9420066 -45.9072707,-67.95594313 -45.90408308,-67.9685926 -45.9034484,-67.9653096 -45.9044488,-67.9600525 -45.9049564,-67.9584861 -45.9041651,-67.9576707 -45.9040606,-67.96793825 -45.90348141,-67.9693437 -45.9027914,-67.9659963 -45.8987297,-67.965138 -45.8986401,-67.96354703 -45.89869944,-67.9642367 -45.8983564,-67.9643333 -45.8976993,-67.9650199 -45.8970721,-67.9652989 -45.8964076,-67.9613721 -45.8972065,-67.95956637 -45.89743693,-67.9612112 -45.8971319,-67.9633784 -45.8962807,-67.9639149 -45.8957132,-67.9634535 -45.8934357,-67.9631853 -45.892801,-67.96212496 -45.89267136,-67.963196 -45.8927189,-67.9626918 -45.8927114,-67.9624236 -45.8909043,-67.9618871 -45.8908445,-67.9608786 -45.8903442,-67.95958813 -45.89007642,-67.9609108 -45.8902845,-67.9623485 -45.8909491,-67.9621017 -45.8899111,-67.962445 -45.8899634,-67.9637861 -45.8886864,-67.96290254 -45.88863388,-67.9670262 -45.8881263,-67.9660714 -45.8869613,-67.9657602 -45.8876259,-67.9651165 -45.8877678,-67.9650307 -45.887947,-67.964462 -45.8880815,-67.96633372 -45.88873533,-67.9702985 -45.892002,-67.9693437 -45.8927189,-67.9695046 -45.8920393,-67.9694617 -45.8909565,-67.9689038 -45.8902247,-67.9675949 -45.8891494,-67.9695987 -45.89181892,-67.9699337 -45.8946379,-67.9693973 -45.8950411,-67.9688287 -45.894847,-67.9686248 -45.893936,-67.9694724 -45.8926591,-67.9702985 -45.892002,-67.96939983 -45.89469974,-67.9721761 -45.8962209,-67.9716182 -45.8947873,-67.9710388 -45.8947723,-67.97161551 -45.8965517,-67.9729271 -45.8958177,-67.9726696 -45.8949515,-67.97168684 -45.8946769,-67.9725194 -45.8940704,-67.9735279 -45.8935179,-67.97316911 -45.89352066,-67.9749441 -45.8933834,-67.9761243 -45.8929055,-67.9766607 -45.892353,-67.97648439 -45.89266109,-67.9793 -45.8940107,-67.9789138 -45.8935925,-67.9785919 -45.8927711,-67.9782271 -45.8926517,-67.97886335 -45.8939859;-67.97886335 -45.8939859,-67.9793 -45.8940107,-67.9789138 -45.8935925,-67.9785919 -45.8927711,-67.9782271 -45.8926517,-67.97648439 -45.89266109,-67.9749441 -45.8933834,-67.9761243 -45.8929055,-67.9766607 -45.892353,-67.97316911 -45.89352066,-67.9725194 -45.8940704,-67.9735279 -45.8935179,-67.97168684 -45.8946769,-67.9729271 -45.8958177,-67.9726696 -45.8949515,-67.97161551 -45.8965517,-67.9721761 -45.8962209,-67.9716182 -45.8947873,-67.9710388 -45.8947723,-67.96939983 -45.89469974,-67.9699337 -45.8946379,-67.9693973 -45.8950411,-67.9688287 -45.894847,-67.9686248 -45.893936,-67.9694724 -45.8926591,-67.9702985 -45.892002,-67.9695987 -45.89181892,-67.9702985 -45.892002,-67.9693437 -45.8927189,-67.9695046 -45.8920393,-67.9694617 -45.8909565,-67.9689038 -45.8902247,-67.9675949 -45.8891494,-67.96633372 -45.88873533,-67.9671872 -45.8881412,-67.9659748 -45.8870061,-67.9642153 -45.8869314,-67.9642582 -45.8866849,-67.96291589 -45.88644251,-67.9643977 -45.8867746,-67.9641402 -45.8867895,-67.9629064 -45.8855274,-67.9625845 -45.8842055,-67.9620588 -45.8840412,-67.9608893 -45.8848926,-67.95958113 -45.88533853,-67.960428 -45.8852436,-67.9597843 -45.8853855,-67.9578102 -45.8852959,-67.9558897 -45.8849448,-67.9546167 -45.88506443,-67.9573059 -45.8868268,-67.956748 -45.8864908,-67.9563725 -45.8857215,-67.9556644 -45.8849971,-67.95650174 -45.8868325,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95178221 -45.88666191,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.94972726 -45.88693813,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94746568 -45.88694764,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94628753 -45.88560005,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94607409 -45.88311995,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.9459034 -45.88040255,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.94258106 -45.87928487,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2384,S2478,S2559</t>
   </si>
   <si>
     <t>Base,Linea 1,S176,Linea 1506,S2447,Linea 2,S993,Linea 3,S329,Linea 4,S309,Linea 10,S2195,Linea 27,S2412,Linea 33,S308,Linea 34,S2032,Linea 42,S2569,Linea 46,S2199,Linea 1847,S2200,Linea 97,S356,Linea 143,S2017,Linea 144,S690,Linea 141,S538,Linea 104,S2206,Linea 105,S763,Linea 106,S719,Linea 108,S767,Linea 112,S555,Linea 1532,S2578,Linea 142,S556,Linea 1883,S2022,Linea 902,S2001,Linea 1849,S492,Linea 1885,S2556,Linea 234,S2384;S2384,Linea 234,S2556,Linea 1885,S492,Linea 1849,S2001,Linea 902,S2022,Linea 1883,S556,Linea 142,S2578,Linea 1821,S555,Linea 112,S767,Linea 108,S719,Linea 106,S763,Linea 105,S2206,Linea 104,S538,Linea 141,S690,Linea 144,S2017,Linea 145,S378,Linea 147,S2609,Linea 150,S550,Linea 151,S2482,Linea 163,S2510,Linea 167,S2478;S2478,Linea 168,S451,Linea 169,S691,Linea 170,S676,Linea 177,S640,Linea 178,S637,Linea 183,S495,Linea 186,S635,Linea 1555,S2552,Linea 211,S622,Linea 210,S633,Linea 127,S501,Linea 925,S789,Linea 923,Planta Norte,Linea 924,S505,Linea 1213,S2239,Linea 919,S2559;S2559,Linea 919,S2239,Linea 1213,S505,Linea 924,Planta Norte,Linea 923,S789,Linea 925,S501,Linea 127,S633,Linea 210,S622,Linea 211,S2552,Linea 1563,S635,Linea 186,S495,Linea 183,S637,Linea 178,S640,Linea 177,S676,Linea 170,S691,Linea 169,S451,Linea 168,S2478,Linea 167,S2510,Linea 164,S678,Linea 162,S662,Linea 161,S246,Linea 158,S680,Linea 1549,S2488,Linea 156,S208,Linea 57,S2253,Linea 52,S326,Linea 8,S2258,Linea 7,S328,Linea 6,S309,Linea 4,S329,Linea 3,S993,Linea 2,S2447,Linea 1506,S176,Linea 1,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.93822649 -45.86645361,,-67.93820898 -45.86621382,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.9397787 -45.86446671,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.94026881 -45.86394522,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94016816 -45.86304785,-67.9407942 -45.8630844,-67.9403758 -45.8621878,-67.9386914 -45.8624792,-67.93749455 -45.86270022,-67.9389811 -45.8623559,-67.9389596 -45.8618329,-67.9381979 -45.8610783,-67.9390669 -45.8607794,-67.93809539 -45.86091501,-67.9388309 -45.8607794,-67.938112 -45.8611007,-67.9377472 -45.860899,-67.9362881 -45.8614743,-67.9374897 -45.8619749,-67.93652197 -45.86222667,-67.9375219 -45.8620421,-67.9357517 -45.861085800000005,-67.9346144 -45.8614519,-67.93332777 -45.86169272,-67.9343569 -45.8614145,-67.9335523 -45.861549,-67.9334021 -45.8611381,-67.9309666 -45.8609214,-67.92973166 -45.86112334,-67.9307091 -45.86097370000001,-67.9287457 -45.8609588,-67.9288423 -45.860757,-67.92827234 -45.86082887,-67.9288423 -45.860757,-67.9286063 -45.8609812,-67.9269433 -45.8608168,-67.9254305 -45.8610559,-67.9256237 -45.8606898,-67.92472033 -45.86078317,-67.9253769 -45.8604208,-67.9236388 -45.8595317,-67.9233384 -45.8597857,-67.92204432 -45.86025045,-67.9235315 -45.8601219,-67.9222655 -45.8604731,-67.92116295 -45.86077528,-67.9219651 -45.8610335,-67.9157424 -45.8609887,-67.91412974 -45.86109479,-67.9153347 -45.8605702,-67.9157317 -45.8599725,-67.9146159 -45.859457,-67.91347499 -45.85938782,-67.9145408 -45.8594047,-67.9124916 -45.858777,-67.9112792 -45.8592776,-67.91058213 -45.85962973,-67.9112792 -45.8592776,-67.9102921 -45.8588293,-67.9105067 -45.8586425,-67.90964669 -45.85881191,-67.9102653 -45.8586986,-67.9081625 -45.8581195,-67.90707943 -45.8582017,-67.90773330000002 -45.8580522,-67.9073417 -45.8579177,-67.9068965 -45.8568567,-67.9053408 -45.8563822,-67.90400196 -45.85653031,-67.904284 -45.8564084,-67.9033184 -45.8552726,-67.9019022 -45.8551232,-67.90067511 -45.8549717,,-67.90022567 -45.85540767,-67.9008508 -45.8548093,-67.8990161 -45.8545403,-67.898823 -45.8538678,-67.8965485 -45.8545553,-67.89483427 -45.85484841,-67.887429 -45.855564,-67.8894138 -45.853808,-67.8932333 -45.8533447,-67.8969455 -45.8545851,-67.8963768 -45.8546599,-67.88581092 -45.85597227,-67.887429 -45.855564,-67.8882551 -45.8548691,-67.8894138 -45.853808,-67.8920853 -45.8535689,-67.8916454 -45.8538678,-67.8897357 -45.85395,-67.88910 -45.85436,-67.8875685 -45.8562589,-67.885799 -45.8571033,-67.88544 -45.8578281,-67.88523 -45.85794,-67.88402968 -45.85834964,-67.8814316 -45.8592926,-67.8808415 -45.8591357,-67.880863 -45.8587322,-67.8817642 -45.858239,-67.8850043 -45.8580522,-67.88077392 -45.85953999,-67.8820431 -45.8588966,-67.8808415 -45.8591357,-67.8813887 -45.8593822,-67.88161815 -45.85881773,-67.8819573 -45.8589713,-67.8808415 -45.8591357,-67.880863 -45.8587322,-67.8817642 -45.858239,-67.880466 -45.8582689,-67.8791356 -45.85732,-67.87737119 -45.8572649;-67.87737119 -45.8572649,-67.8819573 -45.8589713,-67.8808415 -45.8591357,-67.880863 -45.8587322,-67.8817642 -45.858239,-67.880466 -45.8582689,-67.8791356 -45.85732,-67.88161815 -45.85881773,-67.8820431 -45.8588966,-67.8808415 -45.8591357,-67.8813887 -45.8593822,-67.88077392 -45.85953999,-67.8814316 -45.8592926,-67.8808415 -45.8591357,-67.880863 -45.8587322,-67.8817642 -45.858239,-67.8850043 -45.8580522,-67.88402968 -45.85834964,-67.887429 -45.855564,-67.8882551 -45.8548691,-67.8894138 -45.853808,-67.8920853 -45.8535689,-67.8916454 -45.8538678,-67.8897357 -45.85395,-67.88910 -45.85436,-67.8875685 -45.8562589,-67.885799 -45.8571033,-67.88544 -45.8578281,-67.88523 -45.85794,-67.88581092 -45.85597227,-67.887429 -45.855564,-67.8894138 -45.853808,-67.8932333 -45.8533447,-67.8969455 -45.8545851,-67.8963768 -45.8546599,-67.89483427 -45.85484841,-67.9008508 -45.8548093,-67.8990161 -45.8545403,-67.898823 -45.8538678,-67.8965485 -45.8545553,-67.90022567 -45.85540767,,-67.90067511 -45.8549717,-67.904284 -45.8564084,-67.9033184 -45.8552726,-67.9019022 -45.8551232,-67.90400196 -45.85653031,-67.90773330000002 -45.8580522,-67.9073417 -45.8579177,-67.9068965 -45.8568567,-67.9053408 -45.8563822,-67.90707943 -45.8582017,-67.9102653 -45.8586986,-67.9081625 -45.8581195,-67.90964669 -45.85881191,-67.9112792 -45.8592776,-67.9102921 -45.8588293,-67.9105067 -45.8586425,-67.91058213 -45.85962973,-67.9145408 -45.8594047,-67.9124916 -45.858777,-67.9112792 -45.8592776,-67.91347499 -45.85938782,-67.9153347 -45.8605702,-67.9157317 -45.8599725,-67.9146159 -45.859457,-67.91412974 -45.86109479,-67.9219651 -45.8610335,-67.9157424 -45.8609887,-67.92116295 -45.86077528,-67.9222012 -45.8610335,-67.9194975 -45.8620496,-67.91863427 -45.86235477,-67.9196048 -45.8623709,-67.9195297 -45.8639025,-67.91830981 -45.86407906,-67.9195297 -45.8639025,-67.9203665 -45.8649335,-67.9209244 -45.864687,-67.9208171 -45.8640743,-67.92012334 -45.86396532,-67.920903 -45.864119200000005,-67.92119260000001 -45.8646197,-67.9214394 -45.8648887,-67.92009355 -45.86527701,-67.92151450000001 -45.8648214,-67.9209244 -45.864687,-67.9176092 -45.8656881,-67.9171693 -45.8655984,-67.91575239 -45.86551598,-67.9164934 -45.8652398,-67.9147875 -45.8642536,-67.9133606 -45.865322,-67.9120409 -45.8651352,-67.91093971 -45.86527418;-67.91093971 -45.86527418,-67.9122448 -45.8649709,-67.911129 -45.8644105,-67.9103887 -45.8645226,-67.90917641 -45.86476613,-67.9100668 -45.8647318,-67.9098523 -45.8659197,-67.9103565 -45.8661513,-67.90947109 -45.86641003,-67.9100454 -45.8663754,-67.9094982 -45.8663306,-67.909627 -45.86429100000001,-67.90869072 -45.86438156,-67.9108179 -45.86391,-67.9094768 -45.8638353,-67.9077816 -45.8657329,-67.9066443 -45.8662484,-67.90565529 -45.8665856,-67.906419 -45.86626330000001,-67.9050887 -45.8652025,-67.9043591 -45.864814,-67.90314798 -45.8648888,-67.9039943 -45.8644255,-67.9028034 -45.8637381,-67.8999174 -45.8635812,-67.89867893 -45.86374335,-67.8993487 -45.8636634,-67.8988981 -45.8636933,-67.89861920000001 -45.8635215,-67.8975525 -45.86346654,,-67.89779792 -45.86312838,-67.8962696 -45.8632899,-67.8974175 -45.8625203,-67.8984583 -45.8622177,-67.8946526 -45.86372426,-67.8961945 -45.8632674,-67.8952932 -45.8629985,-67.8948426 -45.8620347,-67.89369378 -45.862107,-67.8961086 -45.8601668,-67.8949714 -45.8618927,-67.89506126 -45.86022417,-67.8960952 -45.8598436,-67.8959692 -45.8585678,-67.8961945 -45.8583138,-67.8955936 -45.8581419,-67.8949177 -45.8572976,-67.8950787 -45.8562589,-67.894907 -45.8558629,-67.8937376 -45.8558928,-67.8932869 -45.8566101,-67.8928149 -45.8568492,-67.8926003 -45.8566998,-67.89119881 -45.85678635,-67.8915596 -45.8569165,-67.8910661 -45.8570435,-67.8905296 -45.8572453,-67.889328 -45.8585753,-67.8896499 -45.8581793,-67.890197 -45.8571108,-67.88793012 -45.85896742,-67.8874397 -45.861564,-67.8883946 -45.8610484,-67.8891027 -45.8595242,-67.8897572 -45.8589414,-67.889607 -45.8582764,-67.8858912 -45.86209946,-67.8864205 -45.8626398,-67.8868496 -45.8621841,-67.88514566 -45.86306402;-67.88514566 -45.86306402,-67.8864205 -45.8626398,-67.8868496 -45.8621841,-67.8858912 -45.86209946,-67.8874397 -45.861564,-67.8883946 -45.8610484,-67.8891027 -45.8595242,-67.8897572 -45.8589414,-67.889607 -45.8582764,-67.88793012 -45.85896742,-67.889328 -45.8585753,-67.8896499 -45.8581793,-67.890197 -45.8571108,-67.8905296 -45.8572453,-67.8915596 -45.8569165,-67.8910661 -45.8570435,-67.89119881 -45.85678635,-67.8960952 -45.8598436,-67.8959692 -45.8585678,-67.8961945 -45.8583138,-67.8955936 -45.8581419,-67.8949177 -45.8572976,-67.8950787 -45.8562589,-67.894907 -45.8558629,-67.8937376 -45.8558928,-67.8932869 -45.8566101,-67.8928149 -45.8568492,-67.8926003 -45.8566998,-67.89506126 -45.86022417,-67.8961086 -45.8601668,-67.8949714 -45.8618927,-67.89369378 -45.862107,-67.8961945 -45.8632674,-67.8952932 -45.8629985,-67.8948426 -45.8620347,-67.8946526 -45.86372426,-67.8962696 -45.8632899,-67.8974175 -45.8625203,-67.8984583 -45.8622177,-67.89779792 -45.86312838,,-67.8975525 -45.86346654,-67.8993487 -45.8636634,-67.8988981 -45.8636933,-67.89861920000001 -45.8635215,-67.89867893 -45.86374335,-67.9039943 -45.8644255,-67.9028034 -45.8637381,-67.8999174 -45.8635812,-67.90314798 -45.8648888,-67.906419 -45.86626330000001,-67.9050887 -45.8652025,-67.9043591 -45.864814,-67.90565529 -45.8665856,-67.9108179 -45.86391,-67.9094768 -45.8638353,-67.9077816 -45.8657329,-67.9066443 -45.8662484,-67.90869072 -45.86438156,-67.9100454 -45.8663754,-67.9094982 -45.8663306,-67.909627 -45.86429100000001,-67.90947109 -45.86641003,-67.9100668 -45.8647318,-67.9098523 -45.8659197,-67.9103565 -45.8661513,-67.90917641 -45.86476613,-67.9122448 -45.8649709,-67.911129 -45.8644105,-67.9103887 -45.8645226,-67.91093971 -45.86527418,-67.9164934 -45.8652398,-67.9147875 -45.8642536,-67.9133606 -45.865322,-67.9120409 -45.8651352,-67.91575239 -45.86551598,-67.9187572 -45.8661064,-67.9176843 -45.8663679,-67.9172981 -45.8656657,-67.91774956 -45.8661538,-67.9224908 -45.8663306,-67.9191971 -45.8656582,-67.92069068 -45.86664171,-67.9258382 -45.86658460000001,-67.9220402 -45.8663903,-67.92478129 -45.86687146,-67.9266429 -45.8657927,-67.9259992 -45.8665696,-67.92617947 -45.86596757,,-67.92568273 -45.86555172,-67.9284239 -45.8655835,-67.9270077 -45.8655162,-67.92761571 -45.86576064,-67.92887450000002 -45.8655984,-67.929647 -45.8660093,-67.9311919 -45.8652622,-67.93025624 -45.86524613,-67.934196 -45.8650755,-67.9339492 -45.8648887,-67.9318678 -45.8652174,-67.93322311 -45.86539389,-67.9364544 -45.8650082,-67.9343033 -45.8651128,-67.93542287 -45.86514387,-67.9374468 -45.8637643,-67.93648120000002 -45.8648999,-67.93638614 -45.8639203,-67.9407513 -45.863103100000004,-67.9403973 -45.8622551,-67.93757020000001 -45.8636746,-67.94016816 -45.86304785,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94026881 -45.86394522,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.9397787 -45.86446671,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.93820898 -45.86621382,,-67.93822649 -45.86645361,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2037,S2565</t>
   </si>
   <si>
     <t>Base,Linea 14,S278,Linea 15,S2250,Linea 16,S977,Linea 17,S245,Linea 1340,S186,Linea 901,S539,Linea 1408,S2376,Linea 1346,S190,Linea 1395,S232,Linea 1348,S2314,Linea 1347,S643,Linea 1350,S291,Linea 1351,S292,Linea 1352,S117,Linea 1353,S293,Linea 1355,S231,Linea 890,S2565,Linea 1837,S2037;S2037,Linea 1837,S2565;S2565,Linea 890,S231,Linea 1355,S293,Linea 1353,S117,Linea 1352,S292,Linea 1351,S291,Linea 1350,S643,Linea 1347,S2314,Linea 1348,S232,Linea 1395,S190,Linea 1346,S2376,Linea 1408,S539,Linea 901,S186,Linea 1340,S245,Linea 17,S977,Linea 16,S2250,Linea 15,S278,Linea 14,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9427254 -45.8635364,-67.9464859 -45.8623447,-67.9469097 -45.862016,-67.94569946 -45.86221924,-67.9469097 -45.8620944,-67.9481596 -45.8620048,-67.94727301 -45.86217176,-67.9483044 -45.861911400000004,-67.9473495 -45.8614183,-67.94655091 -45.86160389,-67.9479718 -45.8615453,-67.9493934 -45.8606973,-67.9489589 -45.8606599,-67.94780419 -45.86081977,-67.9549134 -45.858239,-67.9527032 -45.8590684,-67.9493666 -45.8607794,-67.9491198 -45.8606898,-67.9539623 -45.85805836,-67.9549778 -45.85820170000001,-67.9571986 -45.85672970000001,-67.9579175 -45.8564981,-67.9585719 -45.8567521,-67.95773843 -45.85672753,-67.9586148 -45.8568044,-67.9579926 -45.8564383,-67.9605138 -45.8553847,-67.9615545 -45.8546374,-67.963078 -45.8525451,-67.9633892 -45.8522836,-67.9675841 -45.8512224,-67.9699767 -45.8512598,-67.9700732 -45.8515064,-67.9697835 -45.8517381,-67.96836168 -45.85192469,-67.9697835 -45.8517381,-67.9700947 -45.8517082,-67.9702342 -45.8514018,-67.9710817 -45.8516335,-67.97135 -45.8516633,-67.97067338 -45.85178783,-67.9748797 -45.8534568,-67.9738176 -45.8522612,-67.9730666 -45.8517007,-67.9728305 -45.8516858,-67.9720902 -45.8515438,-67.97404757 -45.85313584,-67.9750836 -45.8543983,-67.9752016 -45.8534194,-67.97353981 -45.85482131,-67.9721439 -45.8564532,-67.9723585 -45.855833,-67.9728305 -45.8549363,-67.9739249 -45.8544805,-67.9741395 -45.8540023,-67.9740536 -45.853539,-67.9744184 -45.8538977,-67.9746437 -45.8541517,-67.9750943 -45.8540247,-67.9749548 -45.854488,-67.97079424 -45.85669528,-67.9761672 -45.8586351,-67.9759634 -45.858508,-67.9757595 -45.8578206,-67.9751909 -45.8575143,-67.9723477 -45.8568567,-67.9721653 -45.8565802,-67.97543611 -45.85876585,-67.9762101 -45.8587172,-67.9768431 -45.8590385,-67.9774976 -45.8593075,-67.9783773 -45.8600024,-67.9787743 -45.859569,-67.97805617 -45.85962835,-67.9787743 -45.859569,-67.9784095 -45.8600622,-67.9786134 -45.860249,-67.9797721 -45.8603909,-67.9814243 -45.8607346,-67.98085648 -45.8609192,-67.9814565 -45.8608243,-67.9794395 -45.8610634,-67.97806312 -45.86131529,-67.9787314 -45.8612128,-67.9781628 -45.8612053,-67.9774868 -45.8607794,-67.9767251 -45.8597259,-67.9755342 -45.8596288,-67.9744506 -45.8598903,-67.9743111 -45.8601967,-67.9733455 -45.8602788,-67.9734099 -45.8608317,-67.9735816 -45.8606898,-67.97275807 -45.86073448,-67.9727018 -45.8616387,-67.973367 -45.8612352,-67.9735816 -45.8606898,-67.97103212 -45.86191282,-67.9706204 -45.8640967,-67.9705024 -45.8634169,-67.9697621 -45.8628117,-67.9696226 -45.8622215,-67.9705238 -45.8617881,-67.9714894 -45.8617732,-67.9697519 -45.86484806;-67.9697519 -45.86484806,-67.9706204 -45.8640967,-67.9705024 -45.8634169,-67.9697621 -45.8628117,-67.9696226 -45.8622215,-67.9705238 -45.8617881,-67.9714894 -45.8617732,-67.97103212 -45.86191282;-67.97103212 -45.86191282,-67.9727018 -45.8616387,-67.973367 -45.8612352,-67.9735816 -45.8606898,-67.97275807 -45.86073448,-67.9787314 -45.8612128,-67.9781628 -45.8612053,-67.9774868 -45.8607794,-67.9767251 -45.8597259,-67.9755342 -45.8596288,-67.9744506 -45.8598903,-67.9743111 -45.8601967,-67.9733455 -45.8602788,-67.9734099 -45.8608317,-67.9735816 -45.8606898,-67.97806312 -45.86131529,-67.9814565 -45.8608243,-67.9794395 -45.8610634,-67.98085648 -45.8609192,-67.9787743 -45.859569,-67.9784095 -45.8600622,-67.9786134 -45.860249,-67.9797721 -45.8603909,-67.9814243 -45.8607346,-67.97805617 -45.85962835,-67.9762101 -45.8587172,-67.9768431 -45.8590385,-67.9774976 -45.8593075,-67.9783773 -45.8600024,-67.9787743 -45.859569,-67.97543611 -45.85876585,-67.9761672 -45.8586351,-67.9759634 -45.858508,-67.9757595 -45.8578206,-67.9751909 -45.8575143,-67.9723477 -45.8568567,-67.9721653 -45.8565802,-67.97079424 -45.85669528,-67.9721439 -45.8564532,-67.9723585 -45.855833,-67.9728305 -45.8549363,-67.9739249 -45.8544805,-67.9741395 -45.8540023,-67.9740536 -45.853539,-67.9744184 -45.8538977,-67.9746437 -45.8541517,-67.9750943 -45.8540247,-67.9749548 -45.854488,-67.97353981 -45.85482131,-67.9750836 -45.8543983,-67.9752016 -45.8534194,-67.97404757 -45.85313584,-67.9748797 -45.8534568,-67.9738176 -45.8522612,-67.9730666 -45.8517007,-67.9728305 -45.8516858,-67.9720902 -45.8515438,-67.97067338 -45.85178783,-67.9697835 -45.8517381,-67.9700947 -45.8517082,-67.9702342 -45.8514018,-67.9710817 -45.8516335,-67.97135 -45.8516633,-67.96836168 -45.85192469,-67.9586148 -45.8568044,-67.9579926 -45.8564383,-67.9605138 -45.8553847,-67.9615545 -45.8546374,-67.963078 -45.8525451,-67.9633892 -45.8522836,-67.9675841 -45.8512224,-67.9699767 -45.8512598,-67.9700732 -45.8515064,-67.9697835 -45.8517381,-67.95773843 -45.85672753,-67.9549778 -45.85820170000001,-67.9571986 -45.85672970000001,-67.9579175 -45.8564981,-67.9585719 -45.8567521,-67.9539623 -45.85805836,-67.9549134 -45.858239,-67.9527032 -45.8590684,-67.9493666 -45.8607794,-67.9491198 -45.8606898,-67.94780419 -45.86081977,-67.9479718 -45.8615453,-67.9493934 -45.8606973,-67.9489589 -45.8606599,-67.94655091 -45.86160389,-67.9483044 -45.861911400000004,-67.9473495 -45.8614183,-67.94727301 -45.86217176,-67.9469097 -45.8620944,-67.9481596 -45.8620048,-67.94569946 -45.86221924,-67.9427254 -45.8635364,-67.9464859 -45.8623447,-67.9469097 -45.862016,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S315,S2344,S758,S937,S744</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 754,S2408,Linea 752,S370,Linea 1842,S2421,Linea 741,S980,Linea 740,S377,Linea 748,S381,Linea 747,S2572,Linea 746,S315;S315,Linea 1008,S962,Linea 1212,S546,Linea 1753,S2465,Linea 968,S387,Linea 970,S316,Linea 969,S39,Linea 957,S36,Linea 1027,S2695,Linea 1026,S43,Linea 1088,S2707,Linea 1098,S42,Linea 1853,S2723,Linea 1118,S841,Linea 1113,S2194,Linea 1110,S803,Linea 1138,S815,Linea 1139,S823,Linea 1143,S2380,Linea 1142,S847,Linea 1136,S2344;S2344,Linea 1136,S847,Linea 1133,S848,Linea 1131,S921,Linea 1273,S2055,Linea 1328,S778,Linea 1127,S758;S758,Linea 1126,S805,Linea 1305,S759,Linea 1297,S794,Linea 1073,S760,Linea 1062,S827,Linea 1071,S724,Linea 1070,S787,Linea 1067,S808,Linea 1052,S577,Linea 589,S932,Linea 588,S2511,Linea 586,S948,Linea 585,S2662,Linea 1050,S937;S937,Linea 1050,S2662,Linea 585,S948,Linea 586,S2511,Linea 588,S932,Linea 589,S577,Linea 1052,S808,Linea 1067,S787,Linea 1070,S724,Linea 1071,S827,Linea 1062,S760,Linea 1073,S794,Linea 1297,S759,Linea 1306,S834,Linea 1307,S839,Linea 1313,S725,Linea 1310,S744;S744,Linea 1310,S725,Linea 1313,S839,Linea 1307,S834,Linea 1306,S759,Linea 1297,S794,Linea 1073,S760,Linea 1221,S791,Linea 1076,S793,Linea 1078,S2667,Linea 1077,S944,Linea 1085,S115,Linea 1733,S927,Linea 1222,S33,Linea 1724,S2094,Linea 950,S31,Linea 949,S2146,Linea 964,S2147,Linea 946,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9513514 -45.867951700000006,-67.9506004 -45.8681534,-67.9493558 -45.8665622,-67.9490876 -45.8664576,-67.9492164 -45.8668461,-67.95075242 -45.86791677,-67.9511476 -45.8693039,-67.95089010000001 -45.8697222,-67.9506433 -45.8681011,-67.9512978 -45.867892,-67.95011093 -45.86936834,-67.9526013 -45.869965,-67.9517484 -45.8700734,-67.9508901 -45.8697222,-67.9511476 -45.8693039,-67.95188123 -45.87007275,-67.9518449 -45.870925,-67.9516733 -45.8706037,-67.9509866 -45.870275,-67.95089010000001 -45.8697222,-67.9517484 -45.8700734,-67.9526281 -45.8699912,-67.95082673 -45.87123588,-67.9510081 -45.87218,-67.9515123 -45.8715599,-67.9518449 -45.870925,-67.94974928 -45.87213834,-67.9508579 -45.8736739,-67.9509115 -45.8721426,-67.94983615 -45.87396079,-67.9521346 -45.8759746,-67.951448 -45.8759597,-67.9509008 -45.8738383,-67.95155064 -45.87647635,-67.9521346 -45.8759746,-67.9517162 -45.8759074,-67.9513943 -45.8758999,-67.9525959 -45.87702780000001,-67.95337920000001 -45.8774162,-67.95259842 -45.87763583;-67.95259842 -45.87763583,-67.9534543 -45.8773565,-67.9526925 -45.87711,-67.9530144 -45.8775731,-67.9524779 -45.878813,-67.9512334 -45.8789325,-67.94944114 -45.87896309,-67.9512119 -45.8788877,-67.952435 -45.8787607,-67.9518127 -45.8800454,-67.9474354 -45.8786785,-67.9441524 -45.8779764,-67.9427791 -45.8776328,-67.940805 -45.8776926,-67.93921257 -45.87804782,,-67.93938002 -45.87863178,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.94258106 -45.87928487,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.9459034 -45.88040255,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.94607409 -45.88311995,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94628753 -45.88560005,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94746568 -45.88694764,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94972726 -45.88693813,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.95178221 -45.88666191,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95650174 -45.8868325,-67.9563618 -45.8869613,-67.9570055 -45.8870583,-67.9568553 -45.8866028,-67.957381 -45.8868268,-67.95495587 -45.8875866,-67.9576063 -45.8896124,-67.9577136 -45.888888,-67.9572308 -45.8876483,-67.9565012 -45.8869986,-67.95602222 -45.88970885,-67.958647 -45.8921289,-67.9580784 -45.8917854,-67.958411 -45.8907699,-67.9588509 -45.8902397,-67.9578209 -45.8896422,-67.95792371 -45.89252328,-67.958411 -45.8946678,-67.9585934 -45.8938464,-67.9590118 -45.8934581,-67.9594839 -45.8932714,-67.9597199 -45.892913,-67.9595053 -45.8926741,-67.95753705 -45.89518861,-67.9602778 -45.8973559,-67.959677 -45.8974604,-67.9590976 -45.897326,-67.9587114 -45.8968257,-67.95928 -45.896094,-67.9591405 -45.8953548,-67.95956637 -45.89743693,-67.9612112 -45.8971319,-67.9633784 -45.8962807,-67.9639149 -45.8957132,-67.9634535 -45.8934357,-67.9631853 -45.892801,-67.96212496 -45.89267136,-67.9636359 -45.8920916,-67.9636359 -45.890964,-67.96267485 -45.89061558,-67.9667902 -45.8928309,-67.9665112 -45.8926517,-67.9661894 -45.8920169,-67.965138 -45.8917033,-67.964741 -45.8917481,-67.9635823 -45.8909043,-67.96564342 -45.89329615,-67.9649234 -45.8939808,-67.9661894 -45.8928234,-67.9669297 -45.8928981,-67.96375293 -45.89458506;-67.96375293 -45.89458506,-67.9649234 -45.8939808,-67.9661894 -45.8928234,-67.9669297 -45.8928981,-67.96564342 -45.89329615,-67.9662001 -45.8964449,-67.9652131 -45.8977815,-67.9650414 -45.897662,-67.9655886 -45.8962657,-67.966125 -45.8954817,-67.9668546 -45.8937568,-67.96531388 -45.89614529,-67.9662001 -45.8964449,-67.9653203 -45.8977964,-67.9651058 -45.8977217,-67.9655027 -45.8963628,-67.9647303 -45.8972513,-67.9640865 -45.8983937,-67.96354703 -45.89869944,-67.9693437 -45.9027914,-67.9659963 -45.8987297,-67.965138 -45.8986401,-67.96793825 -45.90348141,-67.9685926 -45.9034484,-67.9653096 -45.9044488,-67.9600525 -45.9049564,-67.9584861 -45.9041651,-67.9576707 -45.9040606,-67.95594313 -45.90408308,-67.9577565 -45.9038664,-67.9585826 -45.9036126,-67.9585826 -45.9031348,-67.9576492 -45.90253,-67.9561365 -45.9021343,-67.9558575 -45.9012832,-67.95417314 -45.90131869;-67.95417314 -45.90131869,-67.9519415 -45.9014251,-67.9524672 -45.9015595,-67.9527569 -45.9020821,-67.9535294 -45.9024554,-67.9558897 -45.9024703,-67.956233 -45.9022389,-67.9559326 -45.9014549,-67.9556215 -45.9012309,-67.95037233 -45.90142031,-67.9506755 -45.9009696,-67.9479718 -45.9005665,-67.9449892 -45.9007008,-67.945075 -45.9032692,-67.9445601 -45.9035379,-67.9423714 -45.902642,-67.94048121 -45.90255833,-67.9313636 -45.9007755,-67.9299688 -45.9015296,-67.9309559 -45.9024778,-67.931664 -45.9022687,-67.9323721 -45.9010144,-67.9335737 -45.900447,-67.9371786 -45.9012832,-67.9379082 -45.9021045,-67.9396677 -45.9026719,-67.941041 -45.9025674,-67.93028301 -45.90068278,-67.9312027 -45.9008128,-67.9299688 -45.9015296,-67.9282737 -45.9003723,-67.9263103 -45.8994316,-67.9232204 -45.8984983,-67.9221046 -45.8981623,-67.92046749 -45.89809236,-67.9196155 -45.9003499,-67.9192078 -45.9000214,-67.9200554 -45.8997825,-67.9231131 -45.8985207,-67.9222226 -45.8982295,-67.91900661 -45.90044035,-67.9163861 -45.9059195,-67.9159999 -45.9055014,-67.9150128 -45.9052252,-67.9152274 -45.9042696,-67.9163969 -45.9024479,-67.9179418 -45.9021418,-67.9190683 -45.9011936,-67.9189825 -45.9003723,-67.9191971 -45.9000886,-67.9196155 -45.9003499,-67.91573771 -45.90642661,-67.9164612 -45.9058822,-67.9158711 -45.905479,-67.9148841 -45.9052252,-67.9124272 -45.9007456,-67.9111719 -45.9011339,-67.9084682 -45.9027914,-67.9066489 -45.9028322,-67.9084682 -45.9027914,-67.9096591 -45.9021717,-67.9111719 -45.9011339,-67.9123199 -45.9007083,-67.9114294 -45.8999766,-67.9097021 -45.9003425,-67.9089189 -45.9008875,-67.9101956 -45.899678,-67.90953741 -45.89946636,-67.9101956 -45.899678,-67.9090798 -45.9005739,-67.9091763 -45.9006934,-67.9097128 -45.9003873,-67.9113436 -45.8999841,-67.9123521 -45.9008128,-67.9124165 -45.9004769,-67.9120195 -45.899566,-67.9120624 -45.8986177,-67.9110324 -45.8972513,-67.9111183 -45.8939286,-67.9095676 -45.89358013,-67.9100668 -45.8930624,-67.90882230000001 -45.8924799,-67.9064727 -45.8916734,-67.9044127 -45.8911507,-67.9037046 -45.8911806,-67.90201018 -45.89143448,-67.9020846 -45.8894257,-67.9013014 -45.8899484,-67.8996277 -45.8906877,-67.899971 -45.8910611,-67.9025245 -45.8912403,-67.90098858 -45.88903898,-67.9052174 -45.8898887,-67.9046273 -45.8890523,-67.9033613 -45.8891643,-67.9021382 -45.8893659,-67.90475618 -45.89004619,-67.908082 -45.8906056,-67.9061723 -45.8899111,-67.90753763 -45.89070583,-67.9088008 -45.8909117,-67.9101098 -45.8913822,-67.9100025 -45.891763,-67.9117191 -45.8917406,-67.9115689 -45.8913971,-67.911129 -45.8908445,-67.9124701 -45.8893286,-67.9118619 -45.88916575;-67.9118619 -45.88916575,-67.9088008 -45.8909117,-67.9101098 -45.8913822,-67.9100025 -45.891763,-67.9117191 -45.8917406,-67.9115689 -45.8913971,-67.911129 -45.8908445,-67.9124701 -45.8893286,-67.90753763 -45.89070583,-67.908082 -45.8906056,-67.9061723 -45.8899111,-67.90475618 -45.89004619,-67.9052174 -45.8898887,-67.9046273 -45.8890523,-67.9033613 -45.8891643,-67.9021382 -45.8893659,-67.90098858 -45.88903898,-67.9020846 -45.8894257,-67.9013014 -45.8899484,-67.8996277 -45.8906877,-67.899971 -45.8910611,-67.9025245 -45.8912403,-67.90201018 -45.89143448,-67.9100668 -45.8930624,-67.90882230000001 -45.8924799,-67.9064727 -45.8916734,-67.9044127 -45.8911507,-67.9037046 -45.8911806,-67.9095676 -45.89358013,-67.9101956 -45.899678,-67.9090798 -45.9005739,-67.9091763 -45.9006934,-67.9097128 -45.9003873,-67.9113436 -45.8999841,-67.9123521 -45.9008128,-67.9124165 -45.9004769,-67.9120195 -45.899566,-67.9120624 -45.8986177,-67.9110324 -45.8972513,-67.9111183 -45.8939286,-67.90953741 -45.89946636,-67.9084682 -45.9027914,-67.9096591 -45.9021717,-67.9111719 -45.9011339,-67.9123199 -45.9007083,-67.9114294 -45.8999766,-67.9097021 -45.9003425,-67.9089189 -45.9008875,-67.9101956 -45.899678,-67.9066489 -45.9028322,-67.9164612 -45.9058822,-67.9158711 -45.905479,-67.9148841 -45.9052252,-67.9124272 -45.9007456,-67.9111719 -45.9011339,-67.9084682 -45.9027914,-67.91573771 -45.90642661,-67.9163861 -45.9059195,-67.9159999 -45.9055014,-67.9150128 -45.9052252,-67.9152274 -45.9042696,-67.9163969 -45.9024479,-67.9179418 -45.9021418,-67.9190683 -45.9011936,-67.9189825 -45.9003723,-67.9191971 -45.9000886,-67.9196155 -45.9003499,-67.91900661 -45.90044035,-67.9196155 -45.9003499,-67.9192078 -45.9000214,-67.9200554 -45.8997825,-67.9231131 -45.8985207,-67.9222226 -45.8982295,-67.92046749 -45.89809236,-67.9312027 -45.9008128,-67.9299688 -45.9015296,-67.9282737 -45.9003723,-67.9263103 -45.8994316,-67.9232204 -45.8984983,-67.9221046 -45.8981623,-67.93028301 -45.90068278,-67.9313636 -45.9007755,-67.9299688 -45.9015296,-67.9309559 -45.9024778,-67.931664 -45.9022687,-67.9323721 -45.9010144,-67.9335737 -45.900447,-67.9371786 -45.9012832,-67.9379082 -45.9021045,-67.9396677 -45.9026719,-67.941041 -45.9025674,-67.94048121 -45.90255833,-67.9417276 -45.9060912,-67.9426718 -45.9047623,-67.9416203 -45.9047773,-67.9445601 -45.9035379,-67.942543 -45.9026271,-67.94070253 -45.90708056,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.93482704 -45.9074612,-67.922008 -45.9097193,-67.9201412 -45.9109884,-67.9196906 -45.9109585,-67.9200125 -45.9097492,-67.9210854 -45.909585,-67.9227591 -45.90851,-67.9267287 -45.9077933,-67.9317927 -45.9075544,-67.9344964 -45.9080023,-67.9353762 -45.9076142,-67.92132124 -45.90950332,-67.9221797 -45.9097492,-67.9201412 -45.9109884,-67.91924 -45.911063,-67.9191971 -45.9115109,-67.91938339 -45.91141146;-67.91938339 -45.91141146,-67.9221797 -45.9097492,-67.9201412 -45.9109884,-67.91924 -45.911063,-67.9191971 -45.9115109,-67.92132124 -45.90950332,-67.922008 -45.9097193,-67.9201412 -45.9109884,-67.9196906 -45.9109585,-67.9200125 -45.9097492,-67.9210854 -45.909585,-67.9227591 -45.90851,-67.9267287 -45.9077933,-67.9317927 -45.9075544,-67.9344964 -45.9080023,-67.9353762 -45.9076142,-67.93482704 -45.9074612,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.94070253 -45.90708056,-67.9417276 -45.9060912,-67.9426718 -45.9047623,-67.9416203 -45.9047773,-67.9445601 -45.9035379,-67.942543 -45.9026271,-67.94048121 -45.90255833,-67.9313636 -45.9007755,-67.9299688 -45.9015296,-67.9309559 -45.9024778,-67.931664 -45.9022687,-67.9323721 -45.9010144,-67.9335737 -45.900447,-67.9371786 -45.9012832,-67.9379082 -45.9021045,-67.9396677 -45.9026719,-67.941041 -45.9025674,-67.93028301 -45.90068278,-67.9312027 -45.9008128,-67.9299688 -45.9015296,-67.9282737 -45.9003723,-67.9263103 -45.8994316,-67.9232204 -45.8984983,-67.9221046 -45.8981623,-67.92046749 -45.89809236,-67.9221904 -45.8981548,-67.9232204 -45.8984983,-67.9230487 -45.8980652,-67.9224908 -45.89755,-67.9236388 -45.8964449,-67.92261639 -45.89612501,-67.9235637 -45.895743,-67.9241538 -45.8953249,-67.9267287 -45.8949142,-67.9271579 -45.8944961,-67.9267287 -45.8942048,-67.9257309 -45.8936448,-67.9256558 -45.8930698,-67.9268682 -45.8923604,-67.9289711 -45.8934208,-67.9293036 -45.893361,-67.92819602 -45.89300211,-67.929368 -45.8925994,-67.9296148 -45.8919423,-67.9287994 -45.8913897,-67.9285097 -45.8910014,-67.9286277 -45.8901127,-67.92758265 -45.88993498,-67.9286492 -45.8892166,-67.9288638 -45.8878724,-67.9292393 -45.8876931,-67.92838162 -45.88770662,-67.929883 -45.8876782,-67.9306018 -45.8878724,-67.9317605 -45.8883727,-67.9326189 -45.888201,-67.93184093 -45.88869985,,-67.93195275 -45.88880085,-67.9325545 -45.8880964,-67.9324257 -45.8875363,-67.933048 -45.8868642,-67.9335093 -45.8836304,-67.93297197 -45.88384007,,-67.93288041 -45.88347512,-67.9369962 -45.8822636,-67.9367441 -45.8819686,-67.9343677 -45.8832719,-67.93623372 -45.88237227,-67.9369104 -45.8822487,-67.9367441 -45.8819686,-67.9385787 -45.881274,-67.938568 -45.8809641,-67.9379243 -45.8811844,-67.93588984 -45.88149225,-67.9380155 -45.8812404,-67.938627 -45.880852,-67.9384768 -45.8805682,-67.9371035 -45.8800827,-67.9358482 -45.8797093,-67.9335737 -45.8797616,-67.934432 -45.8794255,-67.9350007 -45.8792835,-67.9357088 -45.8792686,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S450,S504</t>
   </si>
   <si>
     <t>Base,Linea 1,S176,Linea 1506,S2447,Linea 2,S993,Linea 3,S329,Linea 4,S309,Linea 6,S328,Linea 7,S2258,Linea 8,S326,Linea 52,S2253,Linea 57,S208,Linea 156,S2488,Linea 1548,S680,Linea 158,S246,Linea 161,S662,Linea 162,S678,Linea 164,S2510,Linea 167,S2478,Linea 168,S451,Linea 169,S691,Linea 172,S450;S450,Linea 172,S691,Linea 170,S676,Linea 177,S640,Linea 178,S637,Linea 183,S495,Linea 186,S635,Linea 1555,S2552,Linea 211,S622,Linea 912,S2387,Linea 205,S632,Linea 203,S430,Linea 910,S2029,Linea 909,S494,Linea 908,S630,Linea 907,S504;S504,Linea 907,S630,Linea 908,S494,Linea 909,S2029,Linea 910,S430,Linea 203,S632,Linea 205,S2387,Linea 912,S622,Linea 211,S2552,Linea 1563,S635,Linea 186,S495,Linea 183,S637,Linea 178,S640,Linea 177,S676,Linea 170,S691,Linea 169,S451,Linea 168,S2478,Linea 167,S2510,Linea 164,S678,Linea 162,S662,Linea 161,S246,Linea 158,S680,Linea 1549,S2488,Linea 156,S208,Linea 57,S2253,Linea 52,S326,Linea 8,S2258,Linea 7,S328,Linea 6,S309,Linea 4,S329,Linea 3,S993,Linea 2,S2447,Linea 1506,S176,Linea 1,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.93822649 -45.86645361,,-67.93820898 -45.86621382,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.9397787 -45.86446671,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.94026881 -45.86394522,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94016816 -45.86304785,-67.9407513 -45.863103100000004,-67.9403973 -45.8622551,-67.93757020000001 -45.8636746,-67.93638614 -45.8639203,-67.9374468 -45.8637643,-67.93648120000002 -45.8648999,-67.93542287 -45.86514387,-67.9364544 -45.8650082,-67.9343033 -45.8651128,-67.93322311 -45.86539389,-67.934196 -45.8650755,-67.9339492 -45.8648887,-67.9318678 -45.8652174,-67.93025624 -45.86524613,-67.92887450000002 -45.8655984,-67.929647 -45.8660093,-67.9311919 -45.8652622,-67.92761571 -45.86576064,-67.9284239 -45.8655835,-67.9270077 -45.8655162,-67.92568273 -45.86555172,,-67.92617947 -45.86596757,-67.9266429 -45.8657927,-67.9259992 -45.8665696,-67.92478129 -45.86687146,-67.9258382 -45.86658460000001,-67.9220402 -45.8663903,-67.92069068 -45.86664171,-67.9224908 -45.8663306,-67.9191971 -45.8656582,-67.91774956 -45.8661538,-67.9187572 -45.8661064,-67.9176843 -45.8663679,-67.9172981 -45.8656657,-67.91575239 -45.86551598,-67.9164934 -45.8652398,-67.9147875 -45.8642536,-67.9133606 -45.865322,-67.9120409 -45.8651352,-67.91093971 -45.86527418,-67.9122448 -45.8649709,-67.911129 -45.8644105,-67.9103887 -45.8645226,-67.90917641 -45.86476613,-67.9100668 -45.8647318,-67.9098523 -45.8659197,-67.9103565 -45.8661513,-67.90947109 -45.86641003,-67.911644 -45.8674213,-67.9121912 -45.8666145,-67.9106033 -45.8662932,-67.91006247 -45.86780539;-67.91006247 -45.86780539,-67.911644 -45.8674213,-67.9121912 -45.8666145,-67.9106033 -45.8662932,-67.90947109 -45.86641003,-67.9100454 -45.8663754,-67.9094982 -45.8663306,-67.909627 -45.86429100000001,-67.90869072 -45.86438156,-67.9108179 -45.86391,-67.9094768 -45.8638353,-67.9077816 -45.8657329,-67.9066443 -45.8662484,-67.90565529 -45.8665856,-67.906419 -45.86626330000001,-67.9050887 -45.8652025,-67.9043591 -45.864814,-67.90314798 -45.8648888,-67.9039943 -45.8644255,-67.9028034 -45.8637381,-67.8999174 -45.8635812,-67.89867893 -45.86374335,-67.8993487 -45.8636634,-67.8988981 -45.8636933,-67.89861920000001 -45.8635215,-67.8975525 -45.86346654,,-67.89779792 -45.86312838,-67.8962696 -45.8632899,-67.8974175 -45.8625203,-67.8984583 -45.8622177,-67.8946526 -45.86372426,-67.8942311 -45.8647841,-67.8944886 -45.8644778,-67.8944886 -45.8640444,-67.8955936 -45.8639772,-67.8958511 -45.8637307,-67.8924736 -45.86523062,-67.8914094 -45.8658749,-67.893244 -45.8652249,-67.88982897 -45.86617984,-67.8926647 -45.8667714,-67.8914416 -45.865972,-67.89194102 -45.86726393,-67.8928256 -45.8669955,-67.8921926 -45.8666742,-67.8873646 -45.8660616,-67.8857768 -45.8654266,-67.8854012 -45.8646272,-67.88472455 -45.86475921,-67.885648 -45.8640295,-67.884264 -45.8643059,-67.8840923 -45.8646421,-67.8845537 -45.8652697,-67.8857446 -45.8653743,-67.8853691 -45.8647617,-67.88474587 -45.86417589,-67.8877938 -45.8628715,-67.8873003 -45.8630657,-67.8865063 -45.863768,-67.8859699 -45.8639324,-67.88728748 -45.86292961,-67.8896391 -45.8628117,-67.8891349 -45.8629835,-67.8883517 -45.862864,-67.88841236 -45.8628748;-67.88841236 -45.8628748,-67.8896391 -45.8628117,-67.8891349 -45.8629835,-67.8883517 -45.862864,-67.88728748 -45.86292961,-67.8877938 -45.8628715,-67.8873003 -45.8630657,-67.8865063 -45.863768,-67.8859699 -45.8639324,-67.88474587 -45.86417589,-67.885648 -45.8640295,-67.884264 -45.8643059,-67.8840923 -45.8646421,-67.8845537 -45.8652697,-67.8857446 -45.8653743,-67.8853691 -45.8647617,-67.88472455 -45.86475921,-67.8928256 -45.8669955,-67.8921926 -45.8666742,-67.8873646 -45.8660616,-67.8857768 -45.8654266,-67.8854012 -45.8646272,-67.89194102 -45.86726393,-67.8926647 -45.8667714,-67.8914416 -45.865972,-67.88982897 -45.86617984,-67.8914094 -45.8658749,-67.893244 -45.8652249,-67.8924736 -45.86523062,-67.8942311 -45.8647841,-67.8944886 -45.8644778,-67.8944886 -45.8640444,-67.8955936 -45.8639772,-67.8958511 -45.8637307,-67.8946526 -45.86372426,-67.8962696 -45.8632899,-67.8974175 -45.8625203,-67.8984583 -45.8622177,-67.89779792 -45.86312838,,-67.8975525 -45.86346654,-67.8993487 -45.8636634,-67.8988981 -45.8636933,-67.89861920000001 -45.8635215,-67.89867893 -45.86374335,-67.9039943 -45.8644255,-67.9028034 -45.8637381,-67.8999174 -45.8635812,-67.90314798 -45.8648888,-67.906419 -45.86626330000001,-67.9050887 -45.8652025,-67.9043591 -45.864814,-67.90565529 -45.8665856,-67.9108179 -45.86391,-67.9094768 -45.8638353,-67.9077816 -45.8657329,-67.9066443 -45.8662484,-67.90869072 -45.86438156,-67.9100454 -45.8663754,-67.9094982 -45.8663306,-67.909627 -45.86429100000001,-67.90947109 -45.86641003,-67.9100668 -45.8647318,-67.9098523 -45.8659197,-67.9103565 -45.8661513,-67.90917641 -45.86476613,-67.9122448 -45.8649709,-67.911129 -45.8644105,-67.9103887 -45.8645226,-67.91093971 -45.86527418,-67.9164934 -45.8652398,-67.9147875 -45.8642536,-67.9133606 -45.865322,-67.9120409 -45.8651352,-67.91575239 -45.86551598,-67.9187572 -45.8661064,-67.9176843 -45.8663679,-67.9172981 -45.8656657,-67.91774956 -45.8661538,-67.9224908 -45.8663306,-67.9191971 -45.8656582,-67.92069068 -45.86664171,-67.9258382 -45.86658460000001,-67.9220402 -45.8663903,-67.92478129 -45.86687146,-67.9266429 -45.8657927,-67.9259992 -45.8665696,-67.92617947 -45.86596757,,-67.92568273 -45.86555172,-67.9284239 -45.8655835,-67.9270077 -45.8655162,-67.92761571 -45.86576064,-67.92887450000002 -45.8655984,-67.929647 -45.8660093,-67.9311919 -45.8652622,-67.93025624 -45.86524613,-67.934196 -45.8650755,-67.9339492 -45.8648887,-67.9318678 -45.8652174,-67.93322311 -45.86539389,-67.9364544 -45.8650082,-67.9343033 -45.8651128,-67.93542287 -45.86514387,-67.9374468 -45.8637643,-67.93648120000002 -45.8648999,-67.93638614 -45.8639203,-67.9407513 -45.863103100000004,-67.9403973 -45.8622551,-67.93757020000001 -45.8636746,-67.94016816 -45.86304785,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94026881 -45.86394522,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.9397787 -45.86446671,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.93820898 -45.86621382,,-67.93822649 -45.86645361,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2394,S2456</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 1211,S172,Linea 768,S2417,Linea 759,S402,Linea 760,S2468,Linea 763,S395,Linea 764,S338,Linea 773,S2407,Linea 850,S2056,Linea 849,S2716,Linea 853,S2504,Linea 854,S997,Linea 1836,S353,Linea 1361,S2006,Linea 1363,S2009,Linea 1365,S354,Linea 1421,S2255,Linea 568,S882,Linea 622,S523,Linea 621,E290,Linea 620,S2386,Linea 238,S958,Linea 618,S484,Linea 1859,S2394;S2394,Linea 1859,S484,Linea 618,S958,Linea 238,S2386,Linea 236,S487,Linea 228,S2038,Linea 227,S2456;S2456,Linea 227,S2038,Linea 228,S487,Linea 230,S1041,Linea 1848,S492,Linea 1849,S2001,Linea 902,S2022,Linea 1883,S556,Linea 142,S2578,Linea 1821,S555,Linea 112,S767,Linea 108,S719,Linea 106,S763,Linea 105,S2206,Linea 104,S538,Linea 141,S690,Linea 144,S2017,Linea 143,S356,Linea 97,S2200,Linea 1847,S2199,Linea 46,S2569,Linea 42,S2032,Linea 34,S308,Linea 33,S2412,Linea 27,S2195,Linea 10,S309,Linea 4,S329,Linea 3,S993,Linea 2,S2447,Linea 1506,S176,Linea 1,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.95709848 -45.86769228,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95610675 -45.87170205,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95650202 -45.87386891,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95720623 -45.87256309,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.96214261 -45.87344787,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96572509 -45.87368099,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.9672039 -45.87497495,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.96992116 -45.87035971,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.9688479 -45.86924263,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.96898996 -45.86789944,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.97170451 -45.86764851,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97781889 -45.86412305,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97692655 -45.86298292,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.98026531 -45.86300386,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98206338 -45.86352335,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86821501 -45.85959306,-67.87273050000002 -45.8603909,-67.8713894 -45.86060760000001,-67.8696728 -45.8603312,-67.8687501 -45.8600248,-67.868396 -45.859329900000006,-67.8688145 -45.8588667,-67.8688037 -45.8592029,-67.87238238 -45.86053745,-67.8762281 -45.861026,-67.8764856 -45.8608841,-67.8761208 -45.8599501,-67.8737497 -45.8604133,-67.87444477 -45.86135588,-67.8761101 -45.86104100000001,-67.8766465 -45.8610185,-67.8767216 -45.8614071,-67.87598229 -45.86175617,-67.8765821 -45.8616835,-67.8765392 -45.8625801,-67.8756702 -45.8635887,-67.8746188 -45.8632151,-67.8734815 -45.8629387,-67.87214197 -45.86308448,,-67.87179317 -45.86271981;-67.87179317 -45.86271981,,-67.87214197 -45.86308448,-67.8765821 -45.8616835,-67.8765392 -45.8625801,-67.8756702 -45.8635887,-67.8746188 -45.8632151,-67.8734815 -45.8629387,-67.87598229 -45.86175617,-67.8761101 -45.86104100000001,-67.8766465 -45.8610185,-67.8767216 -45.8614071,-67.87444477 -45.86135588,-67.8759491 -45.8590983,-67.8764319 -45.8599501,-67.87655 -45.8609588,-67.8760779 -45.8611231,-67.87446619 -45.85953534,-67.875917 -45.8590236,-67.876507 -45.8586575,-67.8763676 -45.8580597,-67.87463577 -45.85800361,-67.8743291 -45.8564159,-67.8760457 -45.8568941,-67.8756917 -45.8576936,-67.87242565 -45.85686269;-67.87242565 -45.85686269,-67.8743291 -45.8564159,-67.8760457 -45.8568941,-67.8756917 -45.8576936,-67.87463577 -45.85800361,-67.875917 -45.8590236,-67.876507 -45.8586575,-67.8763676 -45.8580597,-67.87446619 -45.85953534,-67.875917 -45.8590236,-67.8765607 -45.8587098,-67.8784597 -45.8588443,-67.87771797 -45.85914466,-67.8790283 -45.8588293,-67.880466 -45.8587397,-67.8813028 -45.8593598,-67.88077392 -45.85953999,-67.8814316 -45.8592926,-67.8808415 -45.8591357,-67.880863 -45.8587322,-67.8817642 -45.858239,-67.8850043 -45.8580522,-67.88402968 -45.85834964,-67.887429 -45.855564,-67.8882551 -45.8548691,-67.8894138 -45.853808,-67.8920853 -45.8535689,-67.8916454 -45.8538678,-67.8897357 -45.85395,-67.88910 -45.85436,-67.8875685 -45.8562589,-67.885799 -45.8571033,-67.88544 -45.8578281,-67.88523 -45.85794,-67.88581092 -45.85597227,-67.887429 -45.855564,-67.8894138 -45.853808,-67.8932333 -45.8533447,-67.8969455 -45.8545851,-67.8963768 -45.8546599,-67.89483427 -45.85484841,-67.9008508 -45.8548093,-67.8990161 -45.8545403,-67.898823 -45.8538678,-67.8965485 -45.8545553,-67.90022567 -45.85540767,,-67.90067511 -45.8549717,-67.904284 -45.8564084,-67.9033184 -45.8552726,-67.9019022 -45.8551232,-67.90400196 -45.85653031,-67.90773330000002 -45.8580522,-67.9073417 -45.8579177,-67.9068965 -45.8568567,-67.9053408 -45.8563822,-67.90707943 -45.8582017,-67.9102653 -45.8586986,-67.9081625 -45.8581195,-67.90964669 -45.85881191,-67.9112792 -45.8592776,-67.9102921 -45.8588293,-67.9105067 -45.8586425,-67.91058213 -45.85962973,-67.9145408 -45.8594047,-67.9124916 -45.858777,-67.9112792 -45.8592776,-67.91347499 -45.85938782,-67.9153347 -45.8605702,-67.9157317 -45.8599725,-67.9146159 -45.859457,-67.91412974 -45.86109479,-67.9219651 -45.8610335,-67.9157424 -45.8609887,-67.92116295 -45.86077528,-67.9235315 -45.8601219,-67.9222655 -45.8604731,-67.92204432 -45.86025045,-67.9253769 -45.8604208,-67.9236388 -45.8595317,-67.9233384 -45.8597857,-67.92472033 -45.86078317,-67.9288423 -45.860757,-67.9286063 -45.8609812,-67.9269433 -45.8608168,-67.9254305 -45.8610559,-67.9256237 -45.8606898,-67.92827234 -45.86082887,-67.9307091 -45.86097370000001,-67.9287457 -45.8609588,-67.9288423 -45.860757,-67.92973166 -45.86112334,-67.9343569 -45.8614145,-67.9335523 -45.861549,-67.9334021 -45.8611381,-67.9309666 -45.8609214,-67.93332777 -45.86169272,-67.9375219 -45.8620421,-67.9357517 -45.861085800000005,-67.9346144 -45.8614519,-67.93652197 -45.86222667,-67.9388309 -45.8607794,-67.938112 -45.8611007,-67.9377472 -45.860899,-67.9362881 -45.8614743,-67.9374897 -45.8619749,-67.93809539 -45.86091501,-67.9389811 -45.8623559,-67.9389596 -45.8618329,-67.9381979 -45.8610783,-67.9390669 -45.8607794,-67.93749455 -45.86270022,-67.9407942 -45.8630844,-67.9403758 -45.8621878,-67.9386914 -45.8624792,-67.94016816 -45.86304785,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94026881 -45.86394522,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.9397787 -45.86446671,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.93820898 -45.86621382,,-67.93822649 -45.86645361,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2277,S2530,S241</t>
   </si>
   <si>
     <t>Base,Linea 1,S176,Linea 1506,S2447,Linea 2,S993,Linea 3,S329,Linea 4,S309,Linea 6,S328,Linea 7,S2258,Linea 8,S326,Linea 52,S2253,Linea 55,S254,Linea 60,S234,Linea 987,S271,Linea 989,S950,Linea 729,S379,Linea 727,S578,Linea 1651,S2454,Linea 722,S986,Linea 720,S2349,Linea 719,S250,Linea 716,S2277;S2277,Linea 716,S250,Linea 717,S2334,Linea 934,S2111,Linea 930,S2110,Linea 736,S2167,Linea 1617,S2168,Linea 584,S849,Linea 582,S938,Linea 581,S2443,Linea 578,S2132,Linea 579,S949,Linea 591,S2129,Linea 592,S2259,Linea 594,S17,Linea 735,S295,Linea 734,S3,Linea 613,Q16,Linea 1626,S2240,Linea 471,S2,Linea 1886,S13,Linea 474,S2530;S2530,Linea 474,S13,Linea 1886,S2,Linea 471,S2240,Linea 1593,Q16,Linea 613,S3,Linea 734,S295,Linea 735,S17,Linea 594,S2259,Linea 592,S2129,Linea 591,S949,Linea 579,S2132,Linea 578,S2443,Linea 581,S938,Linea 582,S849,Linea 584,S2168,Linea 1617,S2167,Linea 736,S2110,Linea 930,S2111,Linea 931,S645,Linea 932,S78,Linea 940,S56,Linea 944,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base,Linea 14,S278,Linea 15,S2250,Linea 16,S977,Linea 17,S245,Linea 1340,S186,Linea 901,S539,Linea 1408,S2376,Linea 1346,S190,Linea 1395,S232,Linea 1348,S2314,Linea 1347,S643,Linea 1350,S291,Linea 1351,S292,Linea 1352,S117,Linea 1353,S293,Linea 1354,S241;S241,Linea 1354,S293,Linea 1353,S117,Linea 1352,S292,Linea 1351,S291,Linea 1350,S643,Linea 1347,S2314,Linea 1348,S232,Linea 1395,S190,Linea 1346,S2376,Linea 1408,S539,Linea 901,S186,Linea 1340,S245,Linea 17,S977,Linea 16,S2250,Linea 15,S278,Linea 14,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.93822649 -45.86645361,,-67.93820898 -45.86621382,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.9397787 -45.86446671,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.94026881 -45.86394522,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94016816 -45.86304785,-67.9407513 -45.863103100000004,-67.9403973 -45.8622551,-67.93757020000001 -45.8636746,-67.93638614 -45.8639203,-67.9374468 -45.8637643,-67.93648120000002 -45.8648999,-67.93542287 -45.86514387,-67.9364544 -45.8650082,-67.9343033 -45.8651128,-67.93322311 -45.86539389,-67.934196 -45.8650755,-67.9339492 -45.8648887,-67.9318678 -45.8652174,-67.93025624 -45.86524613,-67.9317927 -45.8665099,-67.9313958 -45.8663156,-67.9318678 -45.8652174,-67.93029002 -45.86668754,-67.9312563 -45.8666892,-67.9306877 -45.8669805,-67.9292071 -45.866338,-67.9283273 -45.867257,-67.92759808 -45.86788307,-67.9271686 -45.8677052,-67.926718 -45.8677948,-67.925849 -45.8687063,-67.92477777 -45.86902425,-67.9239607 -45.87091,-67.9254735 -45.8690648,-67.92270363 -45.87121385,-67.9235101 -45.8711267,-67.9226303 -45.8711043,-67.9216754 -45.8713134,-67.92053462 -45.87127057,-67.9206347 -45.8733602,-67.9204845 -45.8732108,-67.9220188 -45.8711565,-67.91979942 -45.8736741,,-67.91957453 -45.87370778,-67.9194653 -45.874084800000006,-67.9204845 -45.8732108,-67.9206347 -45.8733602,-67.91777485 -45.87443865,-67.9123628 -45.8789922,-67.9139936 -45.8782154,-67.9156995 -45.8769755,-67.9165149 -45.8759447,-67.9189503 -45.874689800000006,-67.91076944 -45.87927096,-67.9128349 -45.8790819,-67.91394 -45.8782827,-67.9123628 -45.8789922,-67.91191949 -45.87938061,-67.9140365 -45.879418,-67.9132962 -45.8793806,-67.9129636 -45.879291,-67.91353665 -45.87940202;-67.91353665 -45.87940202,-67.9140365 -45.879418,-67.9132962 -45.8793806,-67.9129636 -45.879291,-67.91191949 -45.87938061,-67.9129636 -45.879291,-67.9124808 -45.8793284,-67.9120302 -45.8802545,-67.9124165 -45.8806728,-67.9129958 -45.8809193,-67.91214619 -45.88124859,-67.9166651 -45.8823159,-67.9169762 -45.8821367,-67.9166543 -45.8815466,-67.913146 -45.8824205,-67.9128242 -45.8814645,-67.91541483 -45.88231338,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.90970498 -45.88326091,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90591516 -45.88446218,,-67.90594775 -45.88423937,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90705336 -45.88840606,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90362098 -45.8874036,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90293219 -45.8836944,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.89811074 -45.88424629,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89478887 -45.88442779,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.88986813 -45.88509226,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88725199 -45.88498287,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88477851 -45.88530377,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88934482 -45.88367092,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.87931365 -45.88515467,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87597578 -45.88674947,,-67.87630061 -45.88642699,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.8758872 -45.88413516,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.87263059 -45.88283868,-67.8734708 -45.8823084,-67.8726876 -45.8822636,-67.87121461 -45.8823951;-67.87121461 -45.8823951,-67.8734708 -45.8823084,-67.8726876 -45.8822636,-67.87263059 -45.88283868,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.8758872 -45.88413516,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.87630061 -45.88642699,,-67.87597578 -45.88674947,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87931365 -45.88515467,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.88934482 -45.88367092,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88477851 -45.88530377,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88725199 -45.88498287,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88986813 -45.88509226,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.89478887 -45.88442779,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89811074 -45.88424629,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.90293219 -45.8836944,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90362098 -45.8874036,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90705336 -45.88840606,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90594775 -45.88423937,,-67.90591516 -45.88446218,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90970498 -45.88326091,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91930941 -45.88137118,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.92260289 -45.87981886,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472,-67.9427254 -45.8635364,-67.9464859 -45.8623447,-67.9469097 -45.862016,-67.94569946 -45.86221924,-67.9469097 -45.8620944,-67.9481596 -45.8620048,-67.94727301 -45.86217176,-67.9483044 -45.861911400000004,-67.9473495 -45.8614183,-67.94655091 -45.86160389,-67.9479718 -45.8615453,-67.9493934 -45.8606973,-67.9489589 -45.8606599,-67.94780419 -45.86081977,-67.9549134 -45.858239,-67.9527032 -45.8590684,-67.9493666 -45.8607794,-67.9491198 -45.8606898,-67.9539623 -45.85805836,-67.9549778 -45.85820170000001,-67.9571986 -45.85672970000001,-67.9579175 -45.8564981,-67.9585719 -45.8567521,-67.95773843 -45.85672753,-67.9586148 -45.8568044,-67.9579926 -45.8564383,-67.9605138 -45.8553847,-67.9615545 -45.8546374,-67.963078 -45.8525451,-67.9633892 -45.8522836,-67.9675841 -45.8512224,-67.9699767 -45.8512598,-67.9700732 -45.8515064,-67.9697835 -45.8517381,-67.96836168 -45.85192469,-67.9697835 -45.8517381,-67.9700947 -45.8517082,-67.9702342 -45.8514018,-67.9710817 -45.8516335,-67.97135 -45.8516633,-67.97067338 -45.85178783,-67.9748797 -45.8534568,-67.9738176 -45.8522612,-67.9730666 -45.8517007,-67.9728305 -45.8516858,-67.9720902 -45.8515438,-67.97404757 -45.85313584,-67.9750836 -45.8543983,-67.9752016 -45.8534194,-67.97353981 -45.85482131,-67.9721439 -45.8564532,-67.9723585 -45.855833,-67.9728305 -45.8549363,-67.9739249 -45.8544805,-67.9741395 -45.8540023,-67.9740536 -45.853539,-67.9744184 -45.8538977,-67.9746437 -45.8541517,-67.9750943 -45.8540247,-67.9749548 -45.854488,-67.97079424 -45.85669528,-67.9761672 -45.8586351,-67.9759634 -45.858508,-67.9757595 -45.8578206,-67.9751909 -45.8575143,-67.9723477 -45.8568567,-67.9721653 -45.8565802,-67.97543611 -45.85876585,-67.9762101 -45.8587172,-67.9768431 -45.8590385,-67.9774976 -45.8593075,-67.9783773 -45.8600024,-67.9787743 -45.859569,-67.97805617 -45.85962835,-67.9787743 -45.859569,-67.9784095 -45.8600622,-67.9786134 -45.860249,-67.9797721 -45.8603909,-67.9814243 -45.8607346,-67.98085648 -45.8609192,-67.9814565 -45.8608243,-67.9794395 -45.8610634,-67.97806312 -45.86131529,-67.9787099 -45.8612726,-67.9784203 -45.8614145,-67.9773581 -45.8614743,-67.9770362 -45.8612875,-67.97584426 -45.86120753;-67.97584426 -45.86120753,-67.9787099 -45.8612726,-67.9784203 -45.8614145,-67.9773581 -45.8614743,-67.9770362 -45.8612875,-67.97806312 -45.86131529,-67.9814565 -45.8608243,-67.9794395 -45.8610634,-67.98085648 -45.8609192,-67.9787743 -45.859569,-67.9784095 -45.8600622,-67.9786134 -45.860249,-67.9797721 -45.8603909,-67.9814243 -45.8607346,-67.97805617 -45.85962835,-67.9762101 -45.8587172,-67.9768431 -45.8590385,-67.9774976 -45.8593075,-67.9783773 -45.8600024,-67.9787743 -45.859569,-67.97543611 -45.85876585,-67.9761672 -45.8586351,-67.9759634 -45.858508,-67.9757595 -45.8578206,-67.9751909 -45.8575143,-67.9723477 -45.8568567,-67.9721653 -45.8565802,-67.97079424 -45.85669528,-67.9721439 -45.8564532,-67.9723585 -45.855833,-67.9728305 -45.8549363,-67.9739249 -45.8544805,-67.9741395 -45.8540023,-67.9740536 -45.853539,-67.9744184 -45.8538977,-67.9746437 -45.8541517,-67.9750943 -45.8540247,-67.9749548 -45.854488,-67.97353981 -45.85482131,-67.9750836 -45.8543983,-67.9752016 -45.8534194,-67.97404757 -45.85313584,-67.9748797 -45.8534568,-67.9738176 -45.8522612,-67.9730666 -45.8517007,-67.9728305 -45.8516858,-67.9720902 -45.8515438,-67.97067338 -45.85178783,-67.9697835 -45.8517381,-67.9700947 -45.8517082,-67.9702342 -45.8514018,-67.9710817 -45.8516335,-67.97135 -45.8516633,-67.96836168 -45.85192469,-67.9586148 -45.8568044,-67.9579926 -45.8564383,-67.9605138 -45.8553847,-67.9615545 -45.8546374,-67.963078 -45.8525451,-67.9633892 -45.8522836,-67.9675841 -45.8512224,-67.9699767 -45.8512598,-67.9700732 -45.8515064,-67.9697835 -45.8517381,-67.95773843 -45.85672753,-67.9549778 -45.85820170000001,-67.9571986 -45.85672970000001,-67.9579175 -45.8564981,-67.9585719 -45.8567521,-67.9539623 -45.85805836,-67.9549134 -45.858239,-67.9527032 -45.8590684,-67.9493666 -45.8607794,-67.9491198 -45.8606898,-67.94780419 -45.86081977,-67.9479718 -45.8615453,-67.9493934 -45.8606973,-67.9489589 -45.8606599,-67.94655091 -45.86160389,-67.9483044 -45.861911400000004,-67.9473495 -45.8614183,-67.94727301 -45.86217176,-67.9469097 -45.8620944,-67.9481596 -45.8620048,-67.94569946 -45.86221924,-67.9427254 -45.8635364,-67.9464859 -45.8623447,-67.9469097 -45.862016,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S888,S2256,S707,S2290</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 1211,S172,Linea 768,S2417,Linea 759,S402,Linea 760,S2468,Linea 763,S395,Linea 764,S338,Linea 773,S2407,Linea 850,S2056,Linea 849,S2716,Linea 853,S2504,Linea 854,S997,Linea 1836,S353,Linea 1361,S2006,Linea 1363,S2009,Linea 1365,S354,Linea 1421,S2255,Linea 568,S882,Linea 622,S523,Linea 215,S788,Linea 216,S2676,Linea 217,S2396,Linea 240,S2395,Linea 243,S1005,Linea 397,S543,Linea 399,S2288,Linea 247,S2418,Linea 249,S611,Linea 250,E291,Linea 252,S853,Linea 254,S851,Linea 257,S591,Linea 258,S876,Linea 263,S886,Linea 264,S868,Linea 270,S869,Linea 278,S864,Linea 277,S2582,Linea 275,S2279,Linea 274,S892,Linea 272,S888;S888,Linea 272,S892,Linea 340,S594,Linea 260,S616,Linea 315,S2440,Linea 314,S2496,Linea 1497,S707,Linea 317,S2256;S2256,Linea 317,S707;S707,Linea 365,S613,Linea 370,S687,Linea 392,S709,Linea 393,S710,Linea 413,S722,Linea 414,S774,Linea 415,S2151,Linea 531,S773,Linea 546,S437,Linea 549,S529,Linea 551,S525,Linea 552,S2273,Linea 615,S2634,Linea 614,S469,Linea 616,S460,Linea 632,S2720,Linea 634,S458,Linea 660,S683,Linea 659,S2265,Linea 664,S2444,Linea 667,S2290;S2290,Linea 667,S2444,Linea 664,S2265,Linea 665,S489,Linea 629,S2077,Linea 631,S629,Linea 905,S783,Linea 1214,Planta Norte,Linea 923,S789,Linea 925,S501,Linea 127,S633,Linea 210,S622,Linea 211,S2552,Linea 1563,S635,Linea 186,S495,Linea 183,S637,Linea 178,S640,Linea 177,S676,Linea 170,S691,Linea 169,S451,Linea 168,S2478,Linea 167,S2510,Linea 164,S678,Linea 162,S662,Linea 161,S246,Linea 158,S680,Linea 1549,S2488,Linea 156,S208,Linea 57,S2253,Linea 52,S326,Linea 8,S2258,Linea 7,S328,Linea 6,S309,Linea 4,S329,Linea 3,S993,Linea 2,S2447,Linea 1506,S176,Linea 1,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.95709848 -45.86769228,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95610675 -45.87170205,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95650202 -45.87386891,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95720623 -45.87256309,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.96214261 -45.87344787,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96572509 -45.87368099,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.9672039 -45.87497495,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.96992116 -45.87035971,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.9688479 -45.86924263,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.96898996 -45.86789944,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.97170451 -45.86764851,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97781889 -45.86412305,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97692655 -45.86298292,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.98026531 -45.86300386,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98206338 -45.86352335,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86821501 -45.85959306,-67.8666258 -45.8579551,-67.8677523 -45.8588443,-67.8689218 -45.8588293,-67.8688896 -45.8591954,-67.86509618 -45.85797591,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86269634 -45.8576934,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86119926 -45.8582863,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.85800456 -45.85865306,-67.8585362 -45.8586425,-67.8567231 -45.8591431,-67.8550386 -45.8605852,-67.85325633 -45.86047853,-67.8547168 -45.8600622,-67.8545237 -45.8589862,-67.8537083 -45.858508,-67.852335 -45.8585529,-67.85051371 -45.8587379,-67.8511226 -45.8587172,-67.8489661 -45.8581942,-67.8504252 -45.8565952,-67.84992667 -45.85649082,-67.851541 -45.8561394,-67.8511119 -45.8555416,-67.8497386 -45.8553249,-67.8490841 -45.8555341,-67.84737753 -45.85568862,-67.8480864 -45.8556163,-67.846477 -45.8561992,-67.8452325 -45.8556537,-67.84359994 -45.85582912,-67.8438914 -45.8557508,-67.8414237 -45.8563262,-67.8377545 -45.8563187,-67.83653581 -45.85644197,-67.8371108 -45.8561767,-67.8326368 -45.8556313,-67.83154193 -45.85548135,-67.8319716 -45.855437,-67.8292787 -45.855108200000004,-67.82760578 -45.8552439,-67.8277767 -45.8550036,-67.8251696 -45.8547271,-67.824676 -45.8544207,-67.82322995 -45.85451391,-67.8244078 -45.8540994,-67.8225088 -45.8518801,-67.82163737 -45.8516816,-67.8223801 -45.8515886,-67.8209639 -45.8504751,-67.8196657 -45.8504079,-67.81800483 -45.85079524,-67.8185713 -45.8505798,-67.816962 -45.851073,-67.8161895 -45.8523658,-67.81497943 -45.85259887,-67.816329 -45.8519921,-67.8167796 -45.8511701,-67.8158462 -45.8513121,-67.8150415 -45.8533148,-67.8138399 -45.8541293,-67.81217316 -45.85421245,-67.809999 -45.85395,-67.81053540000002 -45.8542265,-67.8125417 -45.8543386,-67.80813131 -45.85419968,-67.8093982 -45.8548467,-67.8103423 -45.8545851,-67.808851 -45.8544506,-67.8103101 -45.854219,-67.8097093 -45.8539126,-67.8072436 -45.85498762,-67.8098595 -45.8560647,-67.809999 -45.8550036,-67.8090441 -45.8548691,-67.80907829 -45.8565264,-67.8125632 -45.8568492,-67.810396 -45.8571033,-67.8101599 -45.8566923,-67.81224182 -45.85671416,-67.8138828 -45.856371,-67.8149986 -45.8564981,-67.816329 -45.8556985,-67.81537995 -45.85550384;-67.81537995 -45.85550384,-67.8138828 -45.856371,-67.8149986 -45.8564981,-67.816329 -45.8556985,-67.81224182 -45.85671416,-67.8138077 -45.8564532,-67.814548 -45.8566699,-67.813561 -45.8597484,-67.8137219 -45.8605777,-67.81282229 -45.86107452,-67.8186142 -45.8634617,-67.8183568 -45.8624605,-67.8160179 -45.8615565,-67.8143764 -45.8610559,-67.81720169 -45.86444747,-67.8182173 -45.868004,-67.8160286 -45.8663455,-67.8181314 -45.8648065,-67.8182173 -45.864545,-67.81633269 -45.86814359,-67.819097 -45.8668461,-67.8186357 -45.8670552,-67.8192151 -45.868385,-67.81829240000002 -45.8680713,-67.8187144 -45.86699435,-67.8260922 -45.8716048,-67.8258884 -45.8718886,-67.8219509 -45.871657,-67.8194082 -45.8687287,-67.8185391 -45.8670926,-67.8190756 -45.8667788,-67.82435527 -45.87146335,-67.8233564 -45.8708503,-67.8244293 -45.8708652,-67.8251266 -45.8711117,-67.82148856 -45.87077309;-67.82148856 -45.87077309,-67.8233564 -45.8708503,-67.8244293 -45.8708652,-67.8251266 -45.8711117,-67.82435527 -45.87146335;-67.82435527 -45.87146335,-67.8326046 -45.8712686,-67.8287637 -45.8718438,-67.8266931 -45.8718811,-67.8259957 -45.8715076,-67.83204724 -45.87132308,-67.8363276 -45.8710445,-67.8348899 -45.87091,-67.8336024 -45.8710221,-67.83598551 -45.8713908,-67.8404045 -45.871440400000004,-67.8396642 -45.8713657,-67.8393745 -45.8705216,-67.8371751 -45.8699314,-67.8344822 -45.8697969,-67.8345251 -45.8700584,-67.8363597 -45.8707606,-67.83999726 -45.87142467,-67.8403401 -45.8715002,-67.8396213 -45.8713059,-67.8401256 -45.8706859,-67.8424323 -45.8705216,-67.8432369 -45.8702153,-67.84266503 -45.8702826,-67.8433174 -45.8702414,-67.8424054 -45.8705701,-67.8442401 -45.8712014,-67.8457582 -45.8705029,-67.8468794 -45.8714778,-67.8465736 -45.871657000000006,-67.8464073 -45.8713396,-67.84458226 -45.87132178,-67.8464448 -45.8713396,-67.8465736 -45.871657000000006,-67.84484620000002 -45.8726692,-67.84336962 -45.87289033,-67.8489339 -45.8731324,-67.8501302 -45.8733565,-67.8485316 -45.8736739,-67.8459191 -45.8729942,-67.84549 -45.8723406,-67.8449106 -45.8726842,-67.84711722 -45.87310355,-67.84873010000001 -45.87312860000001,-67.8543305 -45.8741595,-67.857635 -45.8744807,-67.857019 -45.87438052,-67.857635 -45.8744807,-67.8541696 -45.874152,-67.8588581 -45.8727103,-67.8593409 -45.8716048,-67.85882935 -45.87179542,-67.8593409 -45.8716048,-67.85971640000001 -45.8705365,-67.8614008 -45.870529,-67.861948 -45.8698268,-67.8630531 -45.8694832,-67.86235431 -45.86962035,-67.8639972 -45.8691171,-67.8657031 -45.8680713,-67.86498939 -45.86808329,-67.8668189 -45.8667639,-67.8664005 -45.866988,-67.8663254 -45.8676305,-67.86635342 -45.86702056,-67.8668725 -45.8688706,-67.8667974 -45.868646500000004,-67.8676665 -45.8677127,-67.867012 -45.86727940000001,-67.86653014 -45.86909111,-67.8665292 -45.8705589,-67.866143 -45.8710594,-67.8657889 -45.8704767,-67.8668725 -45.8688706,-67.86552841 -45.87071955,-67.8665292 -45.8704394,-67.8664756 -45.8701107,-67.8674197 -45.8697073,-67.8698659 -45.8700883,-67.8700376 -45.8699389,-67.8700268 -45.8692964,-67.86891343 -45.86940172,-67.8699839 -45.8693413,-67.8700376 -45.8699389,-67.8703916 -45.8701929,-67.8709173 -45.8699239,-67.8707349 -45.8692815,-67.8712177 -45.8686166,-67.8731596 -45.8681236,-67.8729107 -45.86822856,-67.8735942 -45.8680488,-67.8724301 -45.8682281,-67.8724086 -45.8686689,-67.8764427 -45.8695952,-67.87545792 -45.87007243,-67.8773439 -45.8681385,-67.878288 -45.8679816,-67.8767216 -45.8696102,-67.87529512 -45.86884053,-67.8773224 -45.8682132,-67.8784168 -45.867951700000006,-67.8792751 -45.866988,-67.87841593 -45.86693979,-67.881968 -45.8668087,-67.881099 -45.866046700000005,-67.879715 -45.8662036,-67.88072073 -45.86731686,-67.8823006 -45.8672345,-67.8820753 -45.8679144,-67.8836095 -45.867608100000005,-67.8840494 -45.8677052,-67.88291817 -45.86822032;-67.88291817 -45.86822032,-67.8823006 -45.8672345,-67.8820753 -45.8679144,-67.8836095 -45.867608100000005,-67.8840494 -45.8677052,-67.88072073 -45.86731686,-67.881968 -45.8668087,-67.881099 -45.866046700000005,-67.879715 -45.8662036,-67.87841593 -45.86693979,-67.8794253 -45.8652025,-67.8813779 -45.8643508,-67.8805947 -45.8648065,-67.8801227 -45.8652622,-67.8801119 -45.8658151,-67.8798544 -45.8661513,-67.87816911 -45.86559299,-67.8800154 -45.8627071,-67.880863 -45.8635887,-67.8814101 -45.8638502,-67.881496 -45.8643508,-67.8795862 -45.8651352,-67.87889297 -45.8626014,-67.8809917 -45.8619301,-67.8822792 -45.8616611,-67.8835666 -45.8617507,-67.8845859 -45.8612277,-67.8843284 -45.8612427,-67.88286864 -45.86153258,-67.8855836 -45.8605329,-67.8847253 -45.8611754,-67.8843284 -45.8612427,-67.88485253 -45.86038085,-67.8862917 -45.8600846,-67.8869355 -45.8600547,-67.8873861 -45.8596438,-67.8876221 -45.8588667,-67.8886843 -45.8579999,-67.8905296 -45.8572453,-67.8915596 -45.8569165,-67.8910661 -45.8570435,-67.89119881 -45.85678635,-67.8960952 -45.8598436,-67.8959692 -45.8585678,-67.8961945 -45.8583138,-67.8955936 -45.8581419,-67.8949177 -45.8572976,-67.8950787 -45.8562589,-67.894907 -45.8558629,-67.8937376 -45.8558928,-67.8932869 -45.8566101,-67.8928149 -45.8568492,-67.8926003 -45.8566998,-67.89506126 -45.86022417,-67.8961086 -45.8601668,-67.8949714 -45.8618927,-67.89369378 -45.862107,-67.8961945 -45.8632674,-67.8952932 -45.8629985,-67.8948426 -45.8620347,-67.8946526 -45.86372426,-67.8962696 -45.8632899,-67.8974175 -45.8625203,-67.8984583 -45.8622177,-67.89779792 -45.86312838,,-67.8975525 -45.86346654,-67.8993487 -45.8636634,-67.8988981 -45.8636933,-67.89861920000001 -45.8635215,-67.89867893 -45.86374335,-67.9039943 -45.8644255,-67.9028034 -45.8637381,-67.8999174 -45.8635812,-67.90314798 -45.8648888,-67.906419 -45.86626330000001,-67.9050887 -45.8652025,-67.9043591 -45.864814,-67.90565529 -45.8665856,-67.9108179 -45.86391,-67.9094768 -45.8638353,-67.9077816 -45.8657329,-67.9066443 -45.8662484,-67.90869072 -45.86438156,-67.9100454 -45.8663754,-67.9094982 -45.8663306,-67.909627 -45.86429100000001,-67.90947109 -45.86641003,-67.9100668 -45.8647318,-67.9098523 -45.8659197,-67.9103565 -45.8661513,-67.90917641 -45.86476613,-67.9122448 -45.8649709,-67.911129 -45.8644105,-67.9103887 -45.8645226,-67.91093971 -45.86527418,-67.9164934 -45.8652398,-67.9147875 -45.8642536,-67.9133606 -45.865322,-67.9120409 -45.8651352,-67.91575239 -45.86551598,-67.9187572 -45.8661064,-67.9176843 -45.8663679,-67.9172981 -45.8656657,-67.91774956 -45.8661538,-67.9224908 -45.8663306,-67.9191971 -45.8656582,-67.92069068 -45.86664171,-67.9258382 -45.86658460000001,-67.9220402 -45.8663903,-67.92478129 -45.86687146,-67.9266429 -45.8657927,-67.9259992 -45.8665696,-67.92617947 -45.86596757,,-67.92568273 -45.86555172,-67.9284239 -45.8655835,-67.9270077 -45.8655162,-67.92761571 -45.86576064,-67.92887450000002 -45.8655984,-67.929647 -45.8660093,-67.9311919 -45.8652622,-67.93025624 -45.86524613,-67.934196 -45.8650755,-67.9339492 -45.8648887,-67.9318678 -45.8652174,-67.93322311 -45.86539389,-67.9364544 -45.8650082,-67.9343033 -45.8651128,-67.93542287 -45.86514387,-67.9374468 -45.8637643,-67.93648120000002 -45.8648999,-67.93638614 -45.8639203,-67.9407513 -45.863103100000004,-67.9403973 -45.8622551,-67.93757020000001 -45.8636746,-67.94016816 -45.86304785,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94026881 -45.86394522,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.9397787 -45.86446671,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.93820898 -45.86621382,,-67.93822649 -45.86645361,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2632,S2057,S2645,S2646,S2637</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 944,S56,Linea 940,S78,Linea 932,S645,Linea 931,S2111,Linea 930,S2110,Linea 736,S2167,Linea 1617,S2168,Linea 584,S849,Linea 582,S938,Linea 581,S2443,Linea 578,S2132,Linea 579,S949,Linea 591,S2129,Linea 592,S2259,Linea 594,S17,Linea 735,S295,Linea 734,S3,Linea 613,Q16,Linea 1626,S2240,Linea 471,S2,Linea 1886,S13,Linea 1887,S2523,Linea 1888,S2606,Linea 526,S2614,Linea 525,S2461,Linea 454,S2594,Linea 438,S2120,Linea 434,S2668,Linea 435,S2105,Linea 432,S2632;S2632,Linea 433,S2040,Linea 418,S2007,Linea 378,S1028,Linea 379,S544,Linea 380,S1037,Linea 383,S2057;S2057,Linea 383,S1037,Linea 380,S544,Linea 379,S1028,Linea 378,S2007,Linea 418,S2040,Linea 433,S2632,Linea 432,S2105,Linea 436,S2617,Linea 440,S2620,Linea 446,S2638,Linea 447,S2652,Linea 448,S2645;S2645,Linea 448,S2652,Linea 447,S2638,Linea 446,S2620,Linea 443,S2646;S2646,Linea 443,S2620,Linea 440,S2617,Linea 437,S2637;S2637,Linea 437,S2617,Linea 440,S2620,Linea 446,S2638,Linea 447,S2652,Linea 448,S2645,Linea 450,S2642,Linea 457,S2621,Linea 466,S2223,Linea 467,S26,Linea 469,S2523,Linea 1887,S13,Linea 1886,S2,Linea 471,S2240,Linea 1593,Q16,Linea 613,S3,Linea 734,S295,Linea 735,S17,Linea 594,S2259,Linea 592,S2129,Linea 591,S949,Linea 579,S2132,Linea 578,S2443,Linea 581,S938,Linea 582,S849,Linea 584,S2168,Linea 1617,S2167,Linea 736,S2110,Linea 930,S2111,Linea 931,S645,Linea 932,S78,Linea 940,S56,Linea 944,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92260289 -45.87981886,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.91930941 -45.88137118,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91747464 -45.88372353,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91541483 -45.88231338,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.90970498 -45.88326091,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90591516 -45.88446218,,-67.90594775 -45.88423937,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90705336 -45.88840606,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90362098 -45.8874036,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90293219 -45.8836944,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.89811074 -45.88424629,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89478887 -45.88442779,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.88986813 -45.88509226,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88725199 -45.88498287,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88477851 -45.88530377,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88934482 -45.88367092,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.87931365 -45.88515467,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87597578 -45.88674947,,-67.87630061 -45.88642699,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.8758872 -45.88413516,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.87263059 -45.88283868,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.86703039 -45.88312685,-67.8685462 -45.8831151,-67.8700483 -45.8829059,-67.8648233 -45.8818603,-67.8628063 -45.8810537,-67.8621304 -45.8814645,-67.86071597 -45.88116865,-67.8614116 -45.8855274,-67.862978 -45.884788,-67.8635466 -45.8831599,-67.8632355 -45.8817483,-67.86391140000002 -45.8815093,-67.8628063 -45.8810537,-67.8623772 -45.8814346,-67.85908094 -45.88593849,-67.8609717 -45.8856767,-67.862817 -45.8848403,-67.8617656 -45.8854826,-67.8616369 -45.886192,-67.8618944 -45.8867671,-67.86045923 -45.88724171,-67.8618944 -45.8867671,-67.8616261 -45.8862443,-67.8603601 -45.88681940000001,-67.8594589 -45.8868119,-67.8584075 -45.8873347,-67.856369 -45.8871629,-67.8557789 -45.8865655,-67.85399644 -45.88640005,-67.8548133 -45.885968,-67.8544056 -45.8857215,-67.8542554 -45.8852884,-67.85284989 -45.88522411,-67.8535903 -45.8848851,-67.8530109 -45.8845938,-67.8524315 -45.8844893,-67.85093028 -45.88433862,-67.8516591 -45.8844445,-67.8505969 -45.8845789,-67.84921346 -45.88477072,-67.84983520000002 -45.8848851,-67.8485048 -45.8854826,-67.849406 -45.8856842,-67.84894709 -45.88576073;-67.84894709 -45.88576073,-67.8493631 -45.8856319,-67.8480864 -45.8853183,-67.8494918 -45.8833541,-67.849642 -45.8827043,-67.8493738 -45.8815317,-67.8484726 -45.8806578,-67.8487837 -45.8803516,-67.8495455 -45.8807549,-67.8485758 -45.88086765,-67.8494382 -45.880628,-67.84873010000001 -45.8802396,-67.8461766 -45.8806653,-67.8457046 -45.880515900000006,-67.84518194 -45.88032275,-67.8455973 -45.8806504,-67.8449214 -45.8812852,-67.8420246 -45.8795972,-67.8425181 -45.87953,-67.84221298 -45.87973382,-67.842561 -45.8794628,-67.8420246 -45.8792462,-67.8431511 -45.8775283,-67.8462946 -45.877095,-67.8445137 -45.8768261,-67.84286672 -45.87711998,-67.8467989 -45.878081,-67.8463697 -45.8770502,-67.8443956 -45.8768859,-67.84627973 -45.87829114,-67.8467345 -45.87813330000001,-67.8463697 -45.8770502,-67.8451788 -45.8768261,-67.84484620000002 -45.8755264,-67.8427005 -45.8748318,-67.84082989 -45.87475713;-67.84082989 -45.87475713,-67.8467345 -45.87813330000001,-67.8463697 -45.8770502,-67.8451788 -45.8768261,-67.84484620000002 -45.8755264,-67.8427005 -45.8748318,-67.84627973 -45.87829114,-67.8467989 -45.878081,-67.8463697 -45.8770502,-67.8443956 -45.8768859,-67.84286672 -45.87711998,-67.842561 -45.8794628,-67.8420246 -45.8792462,-67.8431511 -45.8775283,-67.8462946 -45.877095,-67.8445137 -45.8768261,-67.84221298 -45.87973382,-67.8455973 -45.8806504,-67.8449214 -45.8812852,-67.8420246 -45.8795972,-67.8425181 -45.87953,-67.84518194 -45.88032275,-67.8494382 -45.880628,-67.84873010000001 -45.8802396,-67.8461766 -45.8806653,-67.8457046 -45.880515900000006,-67.8485758 -45.88086765,-67.8493631 -45.8856319,-67.8480864 -45.8853183,-67.8494918 -45.8833541,-67.849642 -45.8827043,-67.8493738 -45.8815317,-67.8484726 -45.8806578,-67.8487837 -45.8803516,-67.8495455 -45.8807549,-67.84894709 -45.88576073,-67.84983520000002 -45.8848851,-67.8485048 -45.8854826,-67.849406 -45.8856842,-67.84921346 -45.88477072,-67.8525496 -45.8855871,-67.8516698 -45.8851988,-67.8510153 -45.885027,-67.84983520000002 -45.8848851,-67.85159293 -45.88612644,-67.8530109 -45.886319,-67.8539872 -45.8868567,-67.8555858 -45.8874168,-67.8559721 -45.8882756,-67.85537987 -45.88855243,-67.8569698 -45.8905682,-67.8562617 -45.8905682,-67.8551674 -45.8886042,-67.8555107 -45.8875214,-67.8557789 -45.88838020000001,-67.85652652 -45.89043864,-67.8583002 -45.8906802,-67.8604245 -45.8905832,-67.85994544 -45.89074459,-67.86183 -45.8907101,-67.8635895 -45.8906578,-67.86328043 -45.89089136;-67.86328043 -45.89089136,-67.86183 -45.8907101,-67.8635895 -45.8906578,-67.85994544 -45.89074459,-67.8583002 -45.8906802,-67.8604245 -45.8905832,-67.85652652 -45.89043864,-67.8569698 -45.8905682,-67.8562617 -45.8905682,-67.8551674 -45.8886042,-67.8555107 -45.8875214,-67.8557789 -45.88838020000001,-67.85537987 -45.88855243,-67.8558648 -45.8883652,-67.8555107 -45.8875214,-67.8540516 -45.8893734,-67.85313424 -45.8900104;-67.85313424 -45.8900104,-67.8558648 -45.8883652,-67.8555107 -45.8875214,-67.8540516 -45.8893734,-67.85537987 -45.88855243,-67.8530109 -45.886319,-67.8539872 -45.8868567,-67.8555858 -45.8874168,-67.8559721 -45.8882756,-67.85159293 -45.88612644,-67.8525496 -45.8855871,-67.851584 -45.885251,-67.8524101 -45.8868119,-67.8533113 -45.8874616,-67.85259134 -45.88819644;-67.85259134 -45.88819644,-67.8525496 -45.8855871,-67.851584 -45.885251,-67.8524101 -45.8868119,-67.8533113 -45.8874616,-67.85159293 -45.88612644,-67.8530109 -45.886319,-67.8539872 -45.8868567,-67.8555858 -45.8874168,-67.8559721 -45.8882756,-67.85537987 -45.88855243,-67.8569698 -45.8905682,-67.8562617 -45.8905682,-67.8551674 -45.8886042,-67.8555107 -45.8875214,-67.8557789 -45.88838020000001,-67.85652652 -45.89043864,-67.8583002 -45.8906802,-67.8604245 -45.8905832,-67.85994544 -45.89074459,-67.86183 -45.8907101,-67.8635895 -45.8906578,-67.86328043 -45.89089136,-67.8652418 -45.8907101,-67.8656602 -45.890351700000004,-67.8659928 -45.88941820000001,-67.86520231 -45.88917465,-67.8674626 -45.88708080000001,-67.866658 -45.886864200000005,-67.8658855 -45.887125600000005,-67.8670657 -45.8886864,-67.86685323 -45.88712476,-67.86739830000002 -45.8868567,-67.8667223 -45.8862667,-67.8672802 -45.8848552,-67.86589689 -45.88477956,-67.8672695 -45.88491500000001,-67.867409 -45.8861099,-67.8680742 -45.8863339,-67.8686106 -45.8860875,-67.8688896 -45.8849822,-67.870338 -45.8842577,-67.8693122 -45.8842458,-67.8685462 -45.8831151,-67.869308 -45.8829582,-67.8708422 -45.883018,-67.8705847 -45.8839366,-67.86703039 -45.88312685,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.87263059 -45.88283868,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.8758872 -45.88413516,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.87630061 -45.88642699,,-67.87597578 -45.88674947,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87931365 -45.88515467,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.88934482 -45.88367092,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88477851 -45.88530377,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88725199 -45.88498287,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88986813 -45.88509226,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.89478887 -45.88442779,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89811074 -45.88424629,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.90293219 -45.8836944,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90362098 -45.8874036,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90705336 -45.88840606,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90594775 -45.88423937,,-67.90591516 -45.88446218,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90970498 -45.88326091,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91930941 -45.88137118,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.92260289 -45.87981886,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2689,S2703,S581,S2698,S2663,S2099,S938</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 944,S56,Linea 940,S78,Linea 932,S645,Linea 931,S2111,Linea 930,S2110,Linea 736,S2167,Linea 1617,S2168,Linea 584,S849,Linea 582,S938,Linea 581,S2443,Linea 578,S2132,Linea 579,S949,Linea 591,S2129,Linea 592,S2259,Linea 594,S17,Linea 596,S2293,Linea 597,S4,Linea 598,S2324,Linea 600,S2196,Linea 599,S2689;S2689,Linea 605,S581,Linea 610,S2688,Linea 1869,S2693,Linea 1870,S2703;S2703,Linea 1870,S2693,Linea 1869,S2688,Linea 610,S581;S581,Linea 605,S2689,Linea 601,S2683,Linea 606,S2619,Linea 608,S2694,Linea 1336,S2711,Linea 1335,S2698;S2698,Linea 1335,S2711,Linea 1336,S2694,Linea 608,S2619,Linea 606,S2683,Linea 603,S2663;S2663,Linea 603,S2683,Linea 601,S2689,Linea 599,S2196,Linea 1664,S2099;S2099,Linea 1664,S2196,Linea 600,S2324,Linea 598,S4,Linea 597,S2293,Linea 596,S17,Linea 594,S2259,Linea 592,S2129,Linea 591,S949,Linea 579,S2132,Linea 578,S2443,Linea 581,S938;S938,Linea 582,S849,Linea 584,S2168,Linea 1617,S2167,Linea 736,S2110,Linea 930,S2111,Linea 931,S645,Linea 932,S78,Linea 940,S56,Linea 944,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92260289 -45.87981886,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.91930941 -45.88137118,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91747464 -45.88372353,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91541483 -45.88231338,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.90970498 -45.88326091,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90591516 -45.88446218,,-67.90594775 -45.88423937,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90705336 -45.88840606,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90362098 -45.8874036,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90293219 -45.8836944,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.89811074 -45.88424629,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89478887 -45.88442779,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.88986813 -45.88509226,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88725199 -45.88498287,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88477851 -45.88530377,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88304639 -45.88588109,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88085052 -45.88709026,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.87661058 -45.88889945,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87484305 -45.89067788,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87813787 -45.88993585;-67.87813787 -45.88993585,-67.8789854 -45.8901127,-67.8777838 -45.8901052,-67.8751981 -45.8927935,-67.8739536 -45.8942571,-67.87230402 -45.89457162,-67.8727734 -45.8946678,-67.8694153 -45.8954742,-67.8682566 -45.89504860000001,-67.86797017 -45.89505687,-67.8685999 -45.895295,-67.8667116 -45.8956833,-67.8646088 -45.8956833,-67.86301998 -45.89560501,-67.8636646 -45.8957132,-67.8630209 -45.8961014,-67.8661537 -45.8966391,-67.86618307 -45.89684928;-67.86618307 -45.89684928,-67.8636646 -45.8957132,-67.8630209 -45.8961014,-67.8661537 -45.8966391,-67.86301998 -45.89560501,-67.8685999 -45.895295,-67.8667116 -45.8956833,-67.8646088 -45.8956833,-67.86797017 -45.89505687,-67.8727734 -45.8946678,-67.8694153 -45.8954742,-67.8682566 -45.89504860000001,-67.87230402 -45.89457162;-67.87230402 -45.89457162,-67.8789854 -45.8901127,-67.8777838 -45.8901052,-67.8751981 -45.8927935,-67.8739536 -45.8942571,-67.87813787 -45.88993585,-67.8788996 -45.8901426,-67.877934 -45.8900903,-67.8774834 -45.8904786,-67.8777945 -45.8925098,-67.8783524 -45.8919348,-67.87768072 -45.89180609,-67.8782558 -45.8919497,-67.8778267 -45.8923828,-67.8780413 -45.8938315,-67.8791893 -45.8953398,-67.87842608 -45.89585515,-67.8799939 -45.8961761,-67.8810668 -45.8968855,-67.881496 -45.8974007,-67.88049412 -45.89765426,-67.8816462 -45.8976545,-67.8819466 -45.8992972,-67.8823757 -45.8992374,-67.88283131 -45.8994995,-67.8778481 -45.8999691,-67.8795862 -45.8996556,-67.8816676 -45.8998198,-67.8823113 -45.899342,-67.87600509 -45.90013168;-67.87600509 -45.90013168,-67.8778481 -45.8999691,-67.8795862 -45.8996556,-67.8816676 -45.8998198,-67.8823113 -45.899342,-67.88283131 -45.8994995,-67.8816462 -45.8976545,-67.8819466 -45.8992972,-67.8823757 -45.8992374,-67.88049412 -45.89765426,-67.8799939 -45.8961761,-67.8810668 -45.8968855,-67.881496 -45.8974007,-67.87842608 -45.89585515,-67.8782558 -45.8919497,-67.8778267 -45.8923828,-67.8780413 -45.8938315,-67.8791893 -45.8953398,-67.87768072 -45.89180609,-67.877419 -45.893361,-67.8777194 -45.8924724,-67.8782558 -45.8919497,-67.87597121 -45.89385401;-67.87597121 -45.89385401,-67.877419 -45.893361,-67.8777194 -45.8924724,-67.8782558 -45.8919497,-67.87768072 -45.89180609,-67.8788996 -45.8901426,-67.877934 -45.8900903,-67.8774834 -45.8904786,-67.8777945 -45.8925098,-67.8783524 -45.8919348,-67.87813787 -45.88993585,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87484305 -45.89067788,,-67.98553301 -45.8737875;-67.98553301 -45.8737875,,-67.87484305 -45.89067788,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87661058 -45.88889945,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.88085052 -45.88709026,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88304639 -45.88588109,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88477851 -45.88530377,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88725199 -45.88498287,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88986813 -45.88509226,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.89478887 -45.88442779,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89811074 -45.88424629,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.90293219 -45.8836944,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90362098 -45.8874036;-67.90362098 -45.8874036,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90705336 -45.88840606,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90594775 -45.88423937,,-67.90591516 -45.88446218,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90970498 -45.88326091,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91930941 -45.88137118,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.92260289 -45.87981886,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2216,S2105,S2659,S2655,S2713</t>
   </si>
   <si>
     <t>Base,Linea 1,S176,Linea 1506,S2447,Linea 2,S993,Linea 3,S329,Linea 4,S309,Linea 6,S328,Linea 7,S2258,Linea 8,S326,Linea 52,S2253,Linea 57,S208,Linea 1876,S2216;S2216,Linea 1876,S208,Linea 156,S2488,Linea 1548,S680,Linea 158,S246,Linea 159,S667,Linea 704,S2336,Linea 730,S379,Linea 727,S578,Linea 1651,S2454,Linea 722,S986,Linea 720,S2349,Linea 719,S250,Linea 717,S2334,Linea 934,S2111,Linea 930,S2110,Linea 736,S2167,Linea 1617,S2168,Linea 584,S849,Linea 582,S938,Linea 581,S2443,Linea 578,S2132,Linea 579,S949,Linea 591,S2129,Linea 592,S2259,Linea 594,S17,Linea 735,S295,Linea 734,S3,Linea 613,Q16,Linea 1626,S2240,Linea 471,S2,Linea 1886,S13,Linea 1887,S2523,Linea 1888,S2606,Linea 526,S2614,Linea 525,S2461,Linea 454,S2594,Linea 438,S2120,Linea 434,S2668,Linea 435,S2105;S2105,Linea 432,S2632,Linea 431,S2121,Linea 430,S2659;S2659,Linea 430,S2121,Linea 431,S2632,Linea 433,S2040,Linea 418,S2007,Linea 378,S1028,Linea 416,S1036,Linea 376,S1033,Linea 1496,S1020,Linea 350,S2470,Linea 348,S2655;S2655,Linea 348,S2470,Linea 350,S1020,Linea 1496,S1033,Linea 376,S1036,Linea 416,S1028,Linea 378,S2007,Linea 418,S2040,Linea 420,S2635,Linea 439,S2122,Linea 451,S2614,Linea 526,S2606,Linea 1888,S2523,Linea 1887,S13,Linea 1886,S2,Linea 471,S2240,Linea 1593,Q16,Linea 613,S3,Linea 734,S295,Linea 735,S17,Linea 596,S2293,Linea 597,S4,Linea 598,S2324,Linea 600,S2196,Linea 599,S2689,Linea 605,S581,Linea 610,S2688,Linea 1869,S2693,Linea 1870,S2703,Linea 1873,S2713;S2713,Linea 1873,S2703,Linea 1870,S2693,Linea 1869,S2688,Linea 610,S581,Linea 605,S2689,Linea 599,S2196,Linea 600,S2324,Linea 598,S4,Linea 597,S2293,Linea 596,S17,Linea 594,S2259,Linea 592,S2129,Linea 591,S949,Linea 579,S2132,Linea 578,S2443,Linea 581,S938,Linea 582,S849,Linea 584,S2168,Linea 1617,S2167,Linea 736,S2110,Linea 930,S2111,Linea 931,S645,Linea 932,S78,Linea 940,S56,Linea 944,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.93822649 -45.86645361,,-67.93820898 -45.86621382,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.9397787 -45.86446671,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.94026881 -45.86394522,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94016816 -45.86304785,-67.9407513 -45.863103100000004,-67.9403973 -45.8622551,-67.93757020000001 -45.8636746,-67.93638614 -45.8639203,-67.9374468 -45.8637643,-67.93648120000002 -45.8648999,-67.93542287 -45.86514387,-67.9364544 -45.8650082,-67.9343033 -45.8651128,-67.93322311 -45.86539389,-67.934196 -45.8650755,-67.9339492 -45.8648887,-67.9318678 -45.8652174,-67.93025624 -45.86524613,-67.92887450000002 -45.8655984,-67.929647 -45.8660093,-67.9311919 -45.8652622,-67.92761571 -45.86576064,-67.9267931 -45.86391,-67.9258704 -45.8645525,-67.9281235 -45.8654938,-67.92562891 -45.86384385;-67.92562891 -45.86384385,-67.9267931 -45.86391,-67.9258704 -45.8645525,-67.9281235 -45.8654938,-67.92761571 -45.86576064,-67.9284239 -45.8655835,-67.9270077 -45.8655162,-67.92568273 -45.86555172,,-67.92617947 -45.86596757,-67.9266429 -45.8657927,-67.9259992 -45.8665696,-67.92478129 -45.86687146,-67.925849 -45.8667938,-67.9245508 -45.8671822,-67.92313135 -45.86736612,-67.9247117 -45.8672271,-67.9251409 -45.8672644,-67.9242826 -45.8677948,-67.9240143 -45.8689378,-67.9238534 -45.8689528,-67.92209124 -45.86928836,-67.9217505 -45.8712238,-67.9221582 -45.8710893,-67.9240143 -45.8689901,-67.9237783 -45.8690051,-67.92053462 -45.87127057,-67.9206347 -45.8733602,-67.9204845 -45.8732108,-67.9220188 -45.8711565,-67.91979942 -45.8736741,,-67.91957453 -45.87370778,-67.9194653 -45.874084800000006,-67.9204845 -45.8732108,-67.9206347 -45.8733602,-67.91777485 -45.87443865,-67.9123628 -45.8789922,-67.9139936 -45.8782154,-67.9156995 -45.8769755,-67.9165149 -45.8759447,-67.9189503 -45.874689800000006,-67.91076944 -45.87927096,-67.9128349 -45.8790819,-67.91394 -45.8782827,-67.9123628 -45.8789922,-67.91191949 -45.87938061,-67.9129636 -45.879291,-67.9124808 -45.8793284,-67.9120302 -45.8802545,-67.9124165 -45.8806728,-67.9129958 -45.8809193,-67.91214619 -45.88124859,-67.9166651 -45.8823159,-67.9169762 -45.8821367,-67.9166543 -45.8815466,-67.913146 -45.8824205,-67.9128242 -45.8814645,-67.91541483 -45.88231338,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.90970498 -45.88326091,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90591516 -45.88446218,,-67.90594775 -45.88423937,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90705336 -45.88840606,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90362098 -45.8874036,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90293219 -45.8836944,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.89811074 -45.88424629,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89478887 -45.88442779,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.88986813 -45.88509226,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88725199 -45.88498287,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88477851 -45.88530377,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88934482 -45.88367092,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.87931365 -45.88515467,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87597578 -45.88674947,,-67.87630061 -45.88642699,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.8758872 -45.88413516,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.87263059 -45.88283868,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.86703039 -45.88312685,-67.8685462 -45.8831151,-67.8700483 -45.8829059,-67.8648233 -45.8818603,-67.8628063 -45.8810537,-67.8621304 -45.8814645,-67.86071597 -45.88116865,-67.8614116 -45.8855274,-67.862978 -45.884788,-67.8635466 -45.8831599,-67.8632355 -45.8817483,-67.86391140000002 -45.8815093,-67.8628063 -45.8810537,-67.8623772 -45.8814346,-67.85908094 -45.88593849,-67.8609717 -45.8856767,-67.862817 -45.8848403,-67.8617656 -45.8854826,-67.8616369 -45.886192,-67.8618944 -45.8867671,-67.86045923 -45.88724171,-67.8618944 -45.8867671,-67.8616261 -45.8862443,-67.8603601 -45.88681940000001,-67.8594589 -45.8868119,-67.8584075 -45.8873347,-67.856369 -45.8871629,-67.8557789 -45.8865655,-67.85399644 -45.88640005,-67.8548133 -45.885968,-67.8544056 -45.8857215,-67.8542554 -45.8852884,-67.85284989 -45.88522411,-67.8535903 -45.8848851,-67.8530109 -45.8845938,-67.8524315 -45.8844893,-67.85093028 -45.88433862,-67.8516591 -45.8844445,-67.8505969 -45.8845789,-67.84921346 -45.88477072;-67.84921346 -45.88477072,-67.84983520000002 -45.8848851,-67.8485048 -45.8854826,-67.849406 -45.8856842,-67.84894709 -45.88576073,-67.848537 -45.8862742,-67.8485477 -45.8854079,-67.8494489 -45.8856319,-67.84708796 -45.88650563,-67.8500605 -45.887484,-67.8466702 -45.8865729,-67.8469384 -45.8864833,-67.84957451 -45.88786751;-67.84957451 -45.88786751,-67.8500605 -45.887484,-67.8466702 -45.8865729,-67.8469384 -45.8864833,-67.84708796 -45.88650563,-67.848537 -45.8862742,-67.8485477 -45.8854079,-67.8494489 -45.8856319,-67.84894709 -45.88576073,-67.8493631 -45.8856319,-67.8480864 -45.8853183,-67.8494918 -45.8833541,-67.849642 -45.8827043,-67.8493738 -45.8815317,-67.8484726 -45.8806578,-67.8487837 -45.8803516,-67.8495455 -45.8807549,-67.8485758 -45.88086765,-67.8494382 -45.880628,-67.84873010000001 -45.8802396,-67.8461766 -45.8806653,-67.8457046 -45.880515900000006,-67.84518194 -45.88032275,-67.8455973 -45.8806504,-67.8449214 -45.8812852,-67.8420246 -45.8795972,-67.8425181 -45.87953,-67.84221298 -45.87973382,-67.842443 -45.8796122,-67.8389347 -45.8810612,-67.8383017 -45.8819499,-67.8395998 -45.8826445,-67.8392565 -45.8820246,-67.8403294 -45.8816064,-67.83977572 -45.88161766,-67.8418744 -45.8837275,-67.8411126 -45.8830703,-67.839793 -45.8826221,-67.8392565 -45.8819126,-67.8402436 -45.8815616,-67.8408227 -45.88408969,-67.8419 -45.8843,-67.84199 -45.88554,-67.8396535 -45.88699,-67.83912 -45.88937,-67.83802 -45.8905,-67.83603 -45.89096,-67.83455 -45.89131,-67.8337097 -45.8907848,-67.83354 -45.88813,-67.82783 -45.88844,-67.824097 -45.88562,-67.82332 -45.88365,-67.8221127 -45.88349304,-67.826339 -45.88047110000001,-67.8268003 -45.8811956,-67.8233886 -45.8829433,-67.82495492 -45.88019856,-67.8244615 -45.8810313,-67.8250515 -45.8799259,-67.8256953 -45.8798288,-67.82277878 -45.88156147;-67.82277878 -45.88156147,-67.8244615 -45.8810313,-67.8250515 -45.8799259,-67.8256953 -45.8798288,-67.82495492 -45.88019856,-67.826339 -45.88047110000001,-67.8268003 -45.8811956,-67.8233886 -45.8829433,-67.8221127 -45.88349304,-67.8419 -45.8843,-67.84199 -45.88554,-67.8396535 -45.88699,-67.83912 -45.88937,-67.83802 -45.8905,-67.83603 -45.89096,-67.83455 -45.89131,-67.8337097 -45.8907848,-67.83354 -45.88813,-67.82783 -45.88844,-67.824097 -45.88562,-67.82332 -45.88365,-67.8408227 -45.88408969,-67.8418744 -45.8837275,-67.8411126 -45.8830703,-67.839793 -45.8826221,-67.8392565 -45.8819126,-67.8402436 -45.8815616,-67.83977572 -45.88161766,-67.842443 -45.8796122,-67.8389347 -45.8810612,-67.8383017 -45.8819499,-67.8395998 -45.8826445,-67.8392565 -45.8820246,-67.8403294 -45.8816064,-67.84221298 -45.87973382,-67.8455973 -45.8806504,-67.8449214 -45.8812852,-67.8420246 -45.8795972,-67.8425181 -45.87953,-67.84518194 -45.88032275,-67.8494382 -45.880628,-67.84873010000001 -45.8802396,-67.8461766 -45.8806653,-67.8457046 -45.880515900000006,-67.8485758 -45.88086765,-67.8556287 -45.8843698,-67.853719 -45.8831001,-67.8518629 -45.8825923,-67.8500605 -45.8812329,-67.85493998 -45.88481908,-67.8571093 -45.8855572,-67.8559184 -45.8854378,-67.8555107 -45.884698400000005,-67.85655105 -45.88556448,-67.85825730000002 -45.8853855,-67.85964130000002 -45.8854228,-67.85908094 -45.88593849,-67.8614116 -45.8855274,-67.862978 -45.884788,-67.8635466 -45.8831599,-67.8632355 -45.8817483,-67.86391140000002 -45.8815093,-67.8628063 -45.8810537,-67.8623772 -45.8814346,-67.86071597 -45.88116865,-67.8685462 -45.8831151,-67.8700483 -45.8829059,-67.8648233 -45.8818603,-67.8628063 -45.8810537,-67.8621304 -45.8814645,-67.86703039 -45.88312685,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.87263059 -45.88283868,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.8758872 -45.88413516,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.87630061 -45.88642699,,-67.87597578 -45.88674947,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87931365 -45.88515467,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.88934482 -45.88367092,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88477851 -45.88530377,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88304639 -45.88588109,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88085052 -45.88709026,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.87661058 -45.88889945,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87484305 -45.89067788,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87813787 -45.88993585,-67.8789854 -45.8901127,-67.8777838 -45.8901052,-67.8751981 -45.8927935,-67.8739536 -45.8942571,-67.87230402 -45.89457162,-67.8727734 -45.8946678,-67.8694153 -45.8954742,-67.8682566 -45.89504860000001,-67.86797017 -45.89505687,-67.8685999 -45.895295,-67.8667116 -45.8956833,-67.8646088 -45.8956833,-67.86301998 -45.89560501,-67.8636646 -45.8957132,-67.8630209 -45.8961014,-67.8661537 -45.8966391,-67.86618307 -45.89684928,-67.8667545 -45.8970572,-67.8640938 -45.8981025,-67.8651237 -45.89867,-67.86456115 -45.89914262;-67.86456115 -45.89914262,-67.8667545 -45.8970572,-67.8640938 -45.8981025,-67.8651237 -45.89867,-67.86618307 -45.89684928,-67.8636646 -45.8957132,-67.8630209 -45.8961014,-67.8661537 -45.8966391,-67.86301998 -45.89560501,-67.8685999 -45.895295,-67.8667116 -45.8956833,-67.8646088 -45.8956833,-67.86797017 -45.89505687,-67.8727734 -45.8946678,-67.8694153 -45.8954742,-67.8682566 -45.89504860000001,-67.87230402 -45.89457162,-67.8789854 -45.8901127,-67.8777838 -45.8901052,-67.8751981 -45.8927935,-67.8739536 -45.8942571,-67.87813787 -45.88993585,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87484305 -45.89067788,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87661058 -45.88889945,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.88085052 -45.88709026,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88304639 -45.88588109,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88477851 -45.88530377,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88725199 -45.88498287,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88986813 -45.88509226,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.89478887 -45.88442779,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89811074 -45.88424629,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.90293219 -45.8836944,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90362098 -45.8874036,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90705336 -45.88840606,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90594775 -45.88423937,,-67.90591516 -45.88446218,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90970498 -45.88326091,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91930941 -45.88137118,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.92260289 -45.87981886,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S851,S2207,S2487,S498</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 1211,S172,Linea 768,S2417,Linea 759,S402,Linea 760,S2468,Linea 763,S395,Linea 764,S338,Linea 773,S2407,Linea 850,S2056,Linea 849,S2716,Linea 853,S2504,Linea 854,S997,Linea 1836,S353,Linea 1361,S2006,Linea 1363,S2009,Linea 1365,S354,Linea 1421,S2255,Linea 568,S882,Linea 622,S523,Linea 215,S788,Linea 216,S2676,Linea 217,S2396,Linea 240,S2395,Linea 243,S1005,Linea 397,S543,Linea 399,S2288,Linea 247,S2418,Linea 249,S611,Linea 250,E291,Linea 252,S853,Linea 254,S851;S851,Linea 257,S591,Linea 258,S876,Linea 263,S886,Linea 264,S868,Linea 270,S869,Linea 278,S864,Linea 277,S2582,Linea 275,S2279,Linea 274,S892,Linea 340,S594,Linea 260,S616,Linea 315,S2440,Linea 312,S2426,Linea 321,S588,Linea 320,S2207;S2207,Linea 322,S734,Linea 323,S762,Linea 324,S2487;S2487,Linea 324,S762,Linea 323,S734,Linea 322,S2207,Linea 320,S588,Linea 321,S2426,Linea 312,S2440,Linea 315,S616,Linea 260,S594,Linea 340,S892,Linea 274,S2279,Linea 275,S2582,Linea 277,S864,Linea 278,S869,Linea 270,S868,Linea 264,S886,Linea 263,S876,Linea 258,S591,Linea 257,S851,Linea 254,S853,Linea 252,E291,Linea 250,S611,Linea 249,S2418,Linea 247,S2288,Linea 399,S543,Linea 397,S1005,Linea 243,S2395,Linea 240,S2396,Linea 217,S2676,Linea 216,S788,Linea 214,S2458,Linea 220,S2054,Linea 226,S2291,Linea 229,S487,Linea 230,S1041,Linea 1848,S492,Linea 1849,S2001,Linea 902,S2022,Linea 1883,S556,Linea 142,S2578,Linea 1821,S555,Linea 112,S767,Linea 115,S498;S498,Linea 115,S767,Linea 108,S719,Linea 106,S763,Linea 105,S2206,Linea 104,S538,Linea 141,S690,Linea 144,S2017,Linea 143,S356,Linea 97,S2200,Linea 1847,S2199,Linea 46,S2569,Linea 42,S2032,Linea 34,S308,Linea 33,S2412,Linea 27,S2195,Linea 10,S309,Linea 4,S329,Linea 3,S993,Linea 2,S2447,Linea 1506,S176,Linea 1,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.95709848 -45.86769228,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95610675 -45.87170205,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95650202 -45.87386891,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95720623 -45.87256309,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.96214261 -45.87344787,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96572509 -45.87368099,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.9672039 -45.87497495,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.96992116 -45.87035971,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.9688479 -45.86924263,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.96898996 -45.86789944,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.97170451 -45.86764851,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97781889 -45.86412305,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97692655 -45.86298292,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.98026531 -45.86300386,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98206338 -45.86352335,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86821501 -45.85959306,-67.8666258 -45.8579551,-67.8677523 -45.8588443,-67.8689218 -45.8588293,-67.8688896 -45.8591954,-67.86509618 -45.85797591,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86269634 -45.8576934,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86119926 -45.8582863,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.85800456 -45.85865306,-67.8585362 -45.8586425,-67.8567231 -45.8591431,-67.8550386 -45.8605852,-67.85325633 -45.86047853,-67.8547168 -45.8600622,-67.8545237 -45.8589862,-67.8537083 -45.858508,-67.852335 -45.8585529,-67.85051371 -45.8587379,-67.8511226 -45.8587172,-67.8489661 -45.8581942,-67.8504252 -45.8565952,-67.84992667 -45.85649082,-67.851541 -45.8561394,-67.8511119 -45.8555416,-67.8497386 -45.8553249,-67.8490841 -45.8555341,-67.84737753 -45.85568862,-67.8480864 -45.8556163,-67.846477 -45.8561992,-67.8452325 -45.8556537,-67.84359994 -45.85582912,-67.8438914 -45.8557508,-67.8414237 -45.8563262,-67.8377545 -45.8563187,-67.83653581 -45.85644197,-67.8371108 -45.8561767,-67.8326368 -45.8556313,-67.83154193 -45.85548135,-67.8319716 -45.855437,-67.8292787 -45.855108200000004,-67.82760578 -45.8552439;-67.82760578 -45.8552439,-67.8277767 -45.8550036,-67.8251696 -45.8547271,-67.824676 -45.8544207,-67.82322995 -45.85451391,-67.8244078 -45.8540994,-67.8225088 -45.8518801,-67.82163737 -45.8516816,-67.8223801 -45.8515886,-67.8209639 -45.8504751,-67.8196657 -45.8504079,-67.81800483 -45.85079524,-67.8185713 -45.8505798,-67.816962 -45.851073,-67.8161895 -45.8523658,-67.81497943 -45.85259887,-67.816329 -45.8519921,-67.8167796 -45.8511701,-67.8158462 -45.8513121,-67.8150415 -45.8533148,-67.8138399 -45.8541293,-67.81217316 -45.85421245,-67.809999 -45.85395,-67.81053540000002 -45.8542265,-67.8125417 -45.8543386,-67.80813131 -45.85419968,-67.8093982 -45.8548467,-67.8103423 -45.8545851,-67.808851 -45.8544506,-67.8103101 -45.854219,-67.8097093 -45.8539126,-67.8072436 -45.85498762,-67.8098595 -45.8560647,-67.809999 -45.8550036,-67.8090441 -45.8548691,-67.80907829 -45.8565264,-67.8125632 -45.8568492,-67.810396 -45.8571033,-67.8101599 -45.8566923,-67.81224182 -45.85671416,-67.8138077 -45.8564532,-67.814548 -45.8566699,-67.813561 -45.8597484,-67.8137219 -45.8605777,-67.81282229 -45.86107452,-67.8186142 -45.8634617,-67.8183568 -45.8624605,-67.8160179 -45.8615565,-67.8143764 -45.8610559,-67.81720169 -45.86444747,-67.8182173 -45.868004,-67.8160286 -45.8663455,-67.8181314 -45.8648065,-67.8182173 -45.864545,-67.81633269 -45.86814359,-67.8222084 -45.867638,-67.8207171 -45.86819080000001,-67.8187966 -45.8682506,-67.81829240000002 -45.8680713,-67.82151826 -45.86746063,-67.8236783 -45.8675633,-67.8205454 -45.8682207,-67.8219295 -45.8676529,-67.82310921 -45.86764419,-67.8240538 -45.8675707,-67.8247404 -45.8675782,-67.82420567 -45.8676006;-67.82420567 -45.8676006,-67.8260171 -45.8673092,-67.8273904 -45.8671897,-67.8286672 -45.8675334,-67.82802493 -45.86737435,-67.8295791 -45.8671673,-67.8291285 -45.8657628,-67.8280771 -45.86528460000001,-67.82626659 -45.86542128,-67.8280449 -45.8651352,-67.8276157 -45.8646197,-67.8262317 -45.8647766,-67.8248799 -45.8653145,-67.82303608 -45.86543176;-67.82303608 -45.86543176,-67.8280449 -45.8651352,-67.8276157 -45.8646197,-67.8262317 -45.8647766,-67.8248799 -45.8653145,-67.82626659 -45.86542128,-67.8295791 -45.8671673,-67.8291285 -45.8657628,-67.8280771 -45.86528460000001,-67.82802493 -45.86737435,-67.8260171 -45.8673092,-67.8273904 -45.8671897,-67.8286672 -45.8675334,-67.82420567 -45.8676006,-67.8240538 -45.8675707,-67.8247404 -45.8675782,-67.82310921 -45.86764419,-67.8236783 -45.8675633,-67.8205454 -45.8682207,-67.8219295 -45.8676529,-67.82151826 -45.86746063,-67.8222084 -45.867638,-67.8207171 -45.86819080000001,-67.8187966 -45.8682506,-67.81829240000002 -45.8680713,-67.81633269 -45.86814359,-67.8182173 -45.868004,-67.8160286 -45.8663455,-67.8181314 -45.8648065,-67.8182173 -45.864545,-67.81720169 -45.86444747,-67.8186142 -45.8634617,-67.8183568 -45.8624605,-67.8160179 -45.8615565,-67.8143764 -45.8610559,-67.81282229 -45.86107452,-67.8138077 -45.8564532,-67.814548 -45.8566699,-67.813561 -45.8597484,-67.8137219 -45.8605777,-67.81224182 -45.85671416,-67.8125632 -45.8568492,-67.810396 -45.8571033,-67.8101599 -45.8566923,-67.80907829 -45.8565264,-67.8098595 -45.8560647,-67.809999 -45.8550036,-67.8090441 -45.8548691,-67.8072436 -45.85498762,-67.8093982 -45.8548467,-67.8103423 -45.8545851,-67.808851 -45.8544506,-67.8103101 -45.854219,-67.8097093 -45.8539126,-67.80813131 -45.85419968,-67.809999 -45.85395,-67.81053540000002 -45.8542265,-67.8125417 -45.8543386,-67.81217316 -45.85421245,-67.816329 -45.8519921,-67.8167796 -45.8511701,-67.8158462 -45.8513121,-67.8150415 -45.8533148,-67.8138399 -45.8541293,-67.81497943 -45.85259887,-67.8185713 -45.8505798,-67.816962 -45.851073,-67.8161895 -45.8523658,-67.81800483 -45.85079524,-67.8223801 -45.8515886,-67.8209639 -45.8504751,-67.8196657 -45.8504079,-67.82163737 -45.8516816,-67.8244078 -45.8540994,-67.8225088 -45.8518801,-67.82322995 -45.85451391,-67.8277767 -45.8550036,-67.8251696 -45.8547271,-67.824676 -45.8544207,-67.82760578 -45.8552439,-67.8319716 -45.855437,-67.8292787 -45.855108200000004,-67.83154193 -45.85548135,-67.8371108 -45.8561767,-67.8326368 -45.8556313,-67.83653581 -45.85644197,-67.8438914 -45.8557508,-67.8414237 -45.8563262,-67.8377545 -45.8563187,-67.84359994 -45.85582912,-67.8480864 -45.8556163,-67.846477 -45.8561992,-67.8452325 -45.8556537,-67.84737753 -45.85568862,-67.851541 -45.8561394,-67.8511119 -45.8555416,-67.8497386 -45.8553249,-67.8490841 -45.8555341,-67.84992667 -45.85649082,-67.8511226 -45.8587172,-67.8489661 -45.8581942,-67.8504252 -45.8565952,-67.85051371 -45.8587379,-67.8547168 -45.8600622,-67.8545237 -45.8589862,-67.8537083 -45.858508,-67.852335 -45.8585529,-67.85325633 -45.86047853,-67.8585362 -45.8586425,-67.8567231 -45.8591431,-67.8550386 -45.8605852,-67.85800456 -45.85865306,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.86119926 -45.8582863,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86269634 -45.8576934,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86509618 -45.85797591,-67.8666365 -45.8577982,-67.8680527 -45.857716,-67.86752908 -45.85773082,-67.8694689 -45.8577534,-67.8703272 -45.8578879,-67.8705525 -45.8574694,-67.8710139 -45.8575441,-67.87029294 -45.85782787,-67.8721619 -45.8576637,-67.8734279 -45.8573798,-67.8740823 -45.8579103,-67.87227986 -45.85836679,-67.8758311 -45.8590012,-67.8755307 -45.858777,-67.8718829 -45.8588144,-67.8721619 -45.8576637,-67.8733528 -45.857462,-67.8739536 -45.8579028,-67.87446619 -45.85953534,-67.875917 -45.8590236,-67.8765607 -45.8587098,-67.8784597 -45.8588443,-67.87771797 -45.85914466,-67.8790283 -45.8588293,-67.880466 -45.8587397,-67.8813028 -45.8593598,-67.88077392 -45.85953999,-67.8814316 -45.8592926,-67.8808415 -45.8591357,-67.880863 -45.8587322,-67.8817642 -45.858239,-67.8850043 -45.8580522,-67.88402968 -45.85834964,-67.887429 -45.855564,-67.8882551 -45.8548691,-67.8894138 -45.853808,-67.8920853 -45.8535689,-67.8916454 -45.8538678,-67.8897357 -45.85395,-67.88910 -45.85436,-67.8875685 -45.8562589,-67.885799 -45.8571033,-67.88544 -45.8578281,-67.88523 -45.85794,-67.88581092 -45.85597227,-67.887429 -45.855564,-67.8894138 -45.853808,-67.8932333 -45.8533447,-67.8969455 -45.8545851,-67.8963768 -45.8546599,-67.89483427 -45.85484841,-67.9008508 -45.8548093,-67.8990161 -45.8545403,-67.898823 -45.8538678,-67.8965485 -45.8545553,-67.90022567 -45.85540767,,-67.90067511 -45.8549717,-67.904284 -45.8564084,-67.9033184 -45.8552726,-67.9019022 -45.8551232,-67.90400196 -45.85653031,,-67.90333441 -45.85910192;-67.90333441 -45.85910192,,-67.90400196 -45.85653031,-67.90773330000002 -45.8580522,-67.9073417 -45.8579177,-67.9068965 -45.8568567,-67.9053408 -45.8563822,-67.90707943 -45.8582017,-67.9102653 -45.8586986,-67.9081625 -45.8581195,-67.90964669 -45.85881191,-67.9112792 -45.8592776,-67.9102921 -45.8588293,-67.9105067 -45.8586425,-67.91058213 -45.85962973,-67.9145408 -45.8594047,-67.9124916 -45.858777,-67.9112792 -45.8592776,-67.91347499 -45.85938782,-67.9153347 -45.8605702,-67.9157317 -45.8599725,-67.9146159 -45.859457,-67.91412974 -45.86109479,-67.9219651 -45.8610335,-67.9157424 -45.8609887,-67.92116295 -45.86077528,-67.9235315 -45.8601219,-67.9222655 -45.8604731,-67.92204432 -45.86025045,-67.9253769 -45.8604208,-67.9236388 -45.8595317,-67.9233384 -45.8597857,-67.92472033 -45.86078317,-67.9288423 -45.860757,-67.9286063 -45.8609812,-67.9269433 -45.8608168,-67.9254305 -45.8610559,-67.9256237 -45.8606898,-67.92827234 -45.86082887,-67.9307091 -45.86097370000001,-67.9287457 -45.8609588,-67.9288423 -45.860757,-67.92973166 -45.86112334,-67.9343569 -45.8614145,-67.9335523 -45.861549,-67.9334021 -45.8611381,-67.9309666 -45.8609214,-67.93332777 -45.86169272,-67.9375219 -45.8620421,-67.9357517 -45.861085800000005,-67.9346144 -45.8614519,-67.93652197 -45.86222667,-67.9388309 -45.8607794,-67.938112 -45.8611007,-67.9377472 -45.860899,-67.9362881 -45.8614743,-67.9374897 -45.8619749,-67.93809539 -45.86091501,-67.9389811 -45.8623559,-67.9389596 -45.8618329,-67.9381979 -45.8610783,-67.9390669 -45.8607794,-67.93749455 -45.86270022,-67.9407942 -45.8630844,-67.9403758 -45.8621878,-67.9386914 -45.8624792,-67.94016816 -45.86304785,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94026881 -45.86394522,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.9397787 -45.86446671,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.93820898 -45.86621382,,-67.93822649 -45.86645361,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2484,S973,S2704,S2688,S2710</t>
   </si>
   <si>
     <t>Base,Linea 14,S278,Linea 15,S2250,Linea 16,S977,Linea 1512,S2484;S2484,Linea 1512,S977,Linea 16,S2250,Linea 15,S278,Linea 14,Base,Linea 984,S2185,Linea 1718,S101,Linea 1719,S973;S973,Linea 1719,S101,Linea 1718,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 944,S56,Linea 940,S78,Linea 932,S645,Linea 931,S2111,Linea 930,S2110,Linea 736,S2167,Linea 1617,S2168,Linea 584,S849,Linea 582,S938,Linea 581,S2443,Linea 578,S2132,Linea 579,S949,Linea 591,S2129,Linea 592,S2259,Linea 594,S17,Linea 596,S2293,Linea 597,S4,Linea 598,S2324,Linea 600,S2196,Linea 599,S2689,Linea 605,S581,Linea 610,S2688,Linea 611,S2685,Linea 612,S2699,Linea 1624,S2704;S2704,Linea 1624,S2699,Linea 612,S2685,Linea 611,S2688;S2688,Linea 1869,S2693,Linea 1870,S2703,Linea 1873,S2713,Linea 1874,S2710;S2710,Linea 1874,S2713,Linea 1873,S2703,Linea 1870,S2693,Linea 1869,S2688,Linea 610,S581,Linea 605,S2689,Linea 599,S2196,Linea 600,S2324,Linea 598,S4,Linea 597,S2293,Linea 596,S17,Linea 594,S2259,Linea 592,S2129,Linea 591,S949,Linea 579,S2132,Linea 578,S2443,Linea 581,S938,Linea 582,S849,Linea 584,S2168,Linea 1617,S2167,Linea 736,S2110,Linea 930,S2111,Linea 931,S645,Linea 932,S78,Linea 940,S56,Linea 944,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9427254 -45.8635364,-67.9464859 -45.8623447,-67.9469097 -45.862016,-67.94569946 -45.86221924,-67.9469097 -45.8620944,-67.9481596 -45.8620048,-67.94727301 -45.86217176,-67.9483044 -45.861911400000004,-67.9473495 -45.8614183,-67.94655091 -45.86160389,,-67.94614101 -45.86156482;-67.94614101 -45.86156482,,-67.94655091 -45.86160389,-67.9483044 -45.861911400000004,-67.9473495 -45.8614183,-67.94727301 -45.86217176,-67.9469097 -45.8620944,-67.9481596 -45.8620048,-67.94569946 -45.86221924,-67.9427254 -45.8635364,-67.9464859 -45.8623447,-67.9469097 -45.862016,-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,,-67.93504928 -45.86995948,,-67.93505 -45.86998225;-67.93505 -45.86998225,,-67.93504928 -45.86995948,,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92260289 -45.87981886,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.91930941 -45.88137118,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91747464 -45.88372353,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91541483 -45.88231338,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.90970498 -45.88326091,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90591516 -45.88446218,,-67.90594775 -45.88423937,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90705336 -45.88840606,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90362098 -45.8874036,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90293219 -45.8836944,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.89811074 -45.88424629,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89478887 -45.88442779,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.88986813 -45.88509226,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88725199 -45.88498287,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88477851 -45.88530377,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88304639 -45.88588109,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88085052 -45.88709026,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.87661058 -45.88889945,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87484305 -45.89067788,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87813787 -45.88993585,-67.8789854 -45.8901127,-67.8777838 -45.8901052,-67.8751981 -45.8927935,-67.8739536 -45.8942571,-67.87230402 -45.89457162,-67.8727734 -45.8946678,-67.8694153 -45.8954742,-67.8682566 -45.89504860000001,-67.86797017 -45.89505687,-67.86816 -45.8950113,-67.8676021 -45.8944886,-67.866143 -45.8944961,-67.86504739 -45.89456671,-67.8660572 -45.8945035,-67.8649414 -45.8945185,-67.8640723 -45.8941302,-67.8626239 -45.893936,-67.8611112 -45.8934058,-67.8592336 -45.8931445,-67.8576779 -45.8937045,-67.8559321 -45.89402021,,-67.85521863 -45.89409907;-67.85521863 -45.89409907,,-67.8559321 -45.89402021,-67.8660572 -45.8945035,-67.8649414 -45.8945185,-67.8640723 -45.8941302,-67.8626239 -45.893936,-67.8611112 -45.8934058,-67.8592336 -45.8931445,-67.8576779 -45.8937045,-67.86504739 -45.89456671,-67.86816 -45.8950113,-67.8676021 -45.8944886,-67.866143 -45.8944961,-67.86797017 -45.89505687;-67.86797017 -45.89505687,-67.8685999 -45.895295,-67.8667116 -45.8956833,-67.8646088 -45.8956833,-67.86301998 -45.89560501,-67.8636646 -45.8957132,-67.8630209 -45.8961014,-67.8661537 -45.8966391,-67.86618307 -45.89684928,-67.8667545 -45.8970572,-67.8640938 -45.8981025,-67.8651237 -45.89867,-67.86456115 -45.89914262,-67.8660679 -45.8992972,-67.8682137 -45.8998049,-67.86778786 -45.90024848;-67.86778786 -45.90024848,-67.8660679 -45.8992972,-67.8682137 -45.8998049,-67.86456115 -45.89914262,-67.8667545 -45.8970572,-67.8640938 -45.8981025,-67.8651237 -45.89867,-67.86618307 -45.89684928,-67.8636646 -45.8957132,-67.8630209 -45.8961014,-67.8661537 -45.8966391,-67.86301998 -45.89560501,-67.8685999 -45.895295,-67.8667116 -45.8956833,-67.8646088 -45.8956833,-67.86797017 -45.89505687,-67.8727734 -45.8946678,-67.8694153 -45.8954742,-67.8682566 -45.89504860000001,-67.87230402 -45.89457162,-67.8789854 -45.8901127,-67.8777838 -45.8901052,-67.8751981 -45.8927935,-67.8739536 -45.8942571,-67.87813787 -45.88993585,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87484305 -45.89067788,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87661058 -45.88889945,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.88085052 -45.88709026,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88304639 -45.88588109,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88477851 -45.88530377,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88725199 -45.88498287,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88986813 -45.88509226,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.89478887 -45.88442779,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89811074 -45.88424629,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.90293219 -45.8836944,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90362098 -45.8874036,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90705336 -45.88840606,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90594775 -45.88423937,,-67.90591516 -45.88446218,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90970498 -45.88326091,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91930941 -45.88137118,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.92260289 -45.87981886,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S916,S2687,S2705,S2686,S2684</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 943,S167,Linea 946,S2147,Linea 966,S2465,Linea 968,S387,Linea 970,S316,Linea 969,S39,Linea 957,S36,Linea 1027,S2695,Linea 1026,S43,Linea 1088,S2707,Linea 1099,S916;S916,Linea 1099,S2707,Linea 1088,S43,Linea 1026,S2695,Linea 1027,S36,Linea 957,S39,Linea 969,S316,Linea 970,S387,Linea 968,S2465,Linea 966,S2147,Linea 946,S167,Linea 943,S229,Linea 944,S56,Linea 940,S78,Linea 932,S645,Linea 931,S2111,Linea 930,S2110,Linea 736,S2167,Linea 1617,S2168,Linea 584,S849,Linea 582,S938,Linea 587,S2511,Linea 588,S932,Linea 1339,S901,Linea 1338,S2687;S2687,Linea 1338,S901,Linea 1339,S932,Linea 588,S2511,Linea 587,S938,Linea 581,S2443,Linea 578,S2132,Linea 579,S949,Linea 591,S2129,Linea 592,S2259,Linea 594,S17,Linea 596,S2293,Linea 597,S4,Linea 598,S2324,Linea 600,S2196,Linea 599,S2689,Linea 605,S581,Linea 610,S2688,Linea 1869,S2693,Linea 1871,S2705;S2705,Linea 1871,S2693,Linea 1869,S2688,Linea 610,S581,Linea 1867,S2686;S2686,Linea 1867,S581,Linea 605,S2689,Linea 601,S2683,Linea 603,S2663,Linea 607,S2673,Linea 1866,S2684;S2684,Linea 1866,S2673,Linea 607,S2663,Linea 603,S2683,Linea 601,S2689,Linea 599,S2196,Linea 600,S2324,Linea 598,S4,Linea 597,S2293,Linea 596,S17,Linea 594,S2259,Linea 592,S2129,Linea 591,S949,Linea 579,S2132,Linea 578,S2443,Linea 581,S938,Linea 582,S849,Linea 584,S2168,Linea 1617,S2167,Linea 736,S2110,Linea 930,S2111,Linea 931,S645,Linea 932,S78,Linea 940,S56,Linea 944,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.93512028 -45.8793768,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.94258106 -45.87928487,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.9459034 -45.88040255,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.94607409 -45.88311995,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94628753 -45.88560005,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94746568 -45.88694764,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94972726 -45.88693813,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.95178221 -45.88666191,-67.9531646 -45.88667,-67.9533255 -45.8870733,-67.9523599 -45.8875064,-67.9523385 -45.888074,-67.9529393 -45.8886416,-67.95220821 -45.8890951;-67.95220821 -45.8890951,-67.9531646 -45.88667,-67.9533255 -45.8870733,-67.9523599 -45.8875064,-67.9523385 -45.888074,-67.9529393 -45.8886416,-67.95178221 -45.88666191,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.94972726 -45.88693813,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94746568 -45.88694764,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94628753 -45.88560005,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94607409 -45.88311995,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.9459034 -45.88040255,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.94258106 -45.87928487,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92260289 -45.87981886,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.91930941 -45.88137118,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91747464 -45.88372353,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91541483 -45.88231338,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.90970498 -45.88326091,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90591516 -45.88446218,,-67.90594775 -45.88423937,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90705336 -45.88840606,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90362098 -45.8874036,-67.9022241 -45.8892913,-67.9030609 -45.889239,-67.9032218 -45.8889477,-67.9028785 -45.8877678,-67.9034686 -45.8869165,-67.9039729 -45.8871629,-67.90098858 -45.88903898,-67.9020846 -45.8894257,-67.9013014 -45.8899484,-67.8996277 -45.8906877,-67.899971 -45.8910611,-67.9025245 -45.8912403,-67.90201018 -45.89143448,-67.88692 -45.8969,-67.88699 -45.8967,-67.88813 -45.89656,-67.89097 -45.89695,-67.89245 -45.89689,-67.89426 -45.89522,-67.895143 -45.89461,-67.8961408 -45.8936821,-67.9025245 -45.8916958,-67.905325 -45.89145,-67.90461 -45.89114,-67.90381 -45.89112,-67.88552167 -45.89738087,-67.8830731 -45.8952726,-67.8847253 -45.8956385,-67.8855407 -45.8952726,-67.8875041 -45.895855,-67.8877079 -45.8965569,-67.8870857 -45.8966764,-67.8869247 -45.8969004,-67.88155956 -45.89544783;-67.88155956 -45.89544783,-67.8830731 -45.8952726,-67.8847253 -45.8956385,-67.8855407 -45.8952726,-67.8875041 -45.895855,-67.8877079 -45.8965569,-67.8870857 -45.8966764,-67.8869247 -45.8969004,-67.88552167 -45.89738087,-67.88692 -45.8969,-67.88699 -45.8967,-67.88813 -45.89656,-67.89097 -45.89695,-67.89245 -45.89689,-67.89426 -45.89522,-67.895143 -45.89461,-67.8961408 -45.8936821,-67.9025245 -45.8916958,-67.905325 -45.89145,-67.90461 -45.89114,-67.90381 -45.89112,-67.90201018 -45.89143448,-67.9020846 -45.8894257,-67.9013014 -45.8899484,-67.8996277 -45.8906877,-67.899971 -45.8910611,-67.9025245 -45.8912403,-67.90098858 -45.88903898,-67.9022241 -45.8892913,-67.9030609 -45.889239,-67.9032218 -45.8889477,-67.9028785 -45.8877678,-67.9034686 -45.8869165,-67.9039729 -45.8871629,-67.90362098 -45.8874036,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90293219 -45.8836944,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.89811074 -45.88424629,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89478887 -45.88442779,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.88986813 -45.88509226,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88725199 -45.88498287,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88477851 -45.88530377,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88304639 -45.88588109,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88085052 -45.88709026,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.87661058 -45.88889945,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87484305 -45.89067788,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87813787 -45.88993585,-67.8789854 -45.8901127,-67.8777838 -45.8901052,-67.8751981 -45.8927935,-67.8739536 -45.8942571,-67.87230402 -45.89457162,-67.8727734 -45.8946678,-67.8694153 -45.8954742,-67.8682566 -45.89504860000001,-67.86797017 -45.89505687,-67.8685999 -45.895295,-67.8667116 -45.8956833,-67.8646088 -45.8956833,-67.86301998 -45.89560501,-67.8636646 -45.8957132,-67.8625917 -45.8959521,-67.8602743 -45.8948769,-67.85948859 -45.89472907;-67.85948859 -45.89472907,-67.8636646 -45.8957132,-67.8625917 -45.8959521,-67.8602743 -45.8948769,-67.86301998 -45.89560501,-67.8685999 -45.895295,-67.8667116 -45.8956833,-67.8646088 -45.8956833,-67.86797017 -45.89505687,-67.8727734 -45.8946678,-67.8694153 -45.8954742,-67.8682566 -45.89504860000001,-67.87230402 -45.89457162,-67.8727734 -45.8946678,-67.8698874 -45.8956236,-67.8718185 -45.8958326,-67.87162467 -45.89615328;-67.87162467 -45.89615328,-67.8727734 -45.8946678,-67.8698874 -45.8956236,-67.8718185 -45.8958326,-67.87230402 -45.89457162,-67.8789854 -45.8901127,-67.8777838 -45.8901052,-67.8751981 -45.8927935,-67.8739536 -45.8942571,-67.87813787 -45.88993585,-67.8788996 -45.8901426,-67.877934 -45.8900903,-67.8774834 -45.8904786,-67.8777945 -45.8925098,-67.8783524 -45.8919348,-67.87768072 -45.89180609,-67.877419 -45.893361,-67.8777194 -45.8924724,-67.8782558 -45.8919497,-67.87597121 -45.89385401,-67.8765607 -45.8939958,-67.8749728 -45.8950561,-67.8745329 -45.895832600000006,-67.8753376 -45.896079,-67.87484942 -45.89595746,-67.8758526 -45.8962209,-67.8745222 -45.8968183,-67.87714 -45.8974753,-67.87660436 -45.89789111;-67.87660436 -45.89789111,-67.8758526 -45.8962209,-67.8745222 -45.8968183,-67.87714 -45.8974753,-67.87484942 -45.89595746,-67.8765607 -45.8939958,-67.8749728 -45.8950561,-67.8745329 -45.895832600000006,-67.8753376 -45.896079,-67.87597121 -45.89385401,-67.877419 -45.893361,-67.8777194 -45.8924724,-67.8782558 -45.8919497,-67.87768072 -45.89180609,-67.8788996 -45.8901426,-67.877934 -45.8900903,-67.8774834 -45.8904786,-67.8777945 -45.8925098,-67.8783524 -45.8919348,-67.87813787 -45.88993585,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87484305 -45.89067788,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87661058 -45.88889945,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.88085052 -45.88709026,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88304639 -45.88588109,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88477851 -45.88530377,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88725199 -45.88498287,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88986813 -45.88509226,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.89478887 -45.88442779,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89811074 -45.88424629,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.90293219 -45.8836944,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90362098 -45.8874036,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90705336 -45.88840606,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90594775 -45.88423937,,-67.90591516 -45.88446218,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90970498 -45.88326091,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91930941 -45.88137118,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.92260289 -45.87981886,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2467,S2463,S942,S2707,S844,S2672</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 943,S167,Linea 946,S2147,Linea 966,S2465,Linea 968,S387,Linea 970,S316,Linea 969,S39,Linea 957,S36,Linea 1027,S2695,Linea 1026,S43,Linea 1088,S2707,Linea 1098,S42,Linea 1853,S2723,Linea 1118,S841,Linea 1112,S2467;S2467,Linea 1112,S841,Linea 1118,S2723,Linea 1853,S42,Linea 1098,S2707,Linea 1099,S916,Linea 1102,S2463;S2463,Linea 1100,S942;S942,Linea 1028,S2695,Linea 1026,S43,Linea 1088,S2707;S2707,Linea 1098,S42,Linea 1856,S2724,Linea 1092,S163,Linea 1854,S66,Linea 1152,S2658,Linea 1145,S844;S844,Linea 1135,S914,Linea 1274,S2180,Linea 1275,S2486,Linea 1276,S2034,Linea 1281,S929,Linea 1282,S910,Linea 1147,S2672;S2672,Linea 1148,S806,Linea 1149,S832,Linea 1150,S47,Linea 1153,S65,Linea 1154,S63,Linea 1156,S66,Linea 1854,S163,Linea 1092,S2724,Linea 1856,S42,Linea 1098,S2707,Linea 1088,S43,Linea 1026,S2695,Linea 1027,S36,Linea 957,S39,Linea 969,S316,Linea 970,S387,Linea 968,S2465,Linea 966,S2147,Linea 946,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.93512028 -45.8793768,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.94258106 -45.87928487,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.9459034 -45.88040255,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.94607409 -45.88311995,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94628753 -45.88560005,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94746568 -45.88694764,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94972726 -45.88693813,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.95178221 -45.88666191,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95650174 -45.8868325,-67.9563618 -45.8869613,-67.9570055 -45.8870583,-67.9568553 -45.8866028,-67.957381 -45.8868268,-67.95495587 -45.8875866,-67.9576063 -45.8896124,-67.9577136 -45.888888,-67.9572308 -45.8876483,-67.9565012 -45.8869986,-67.95602222 -45.88970885,-67.9555678 -45.8902546,-67.9566729 -45.8896124,-67.95416096 -45.89058835;-67.95416096 -45.89058835,-67.9555678 -45.8902546,-67.9566729 -45.8896124,-67.95602222 -45.88970885,-67.9576063 -45.8896124,-67.9577136 -45.888888,-67.9572308 -45.8876483,-67.9565012 -45.8869986,-67.95495587 -45.8875866,-67.9563618 -45.8869613,-67.9570055 -45.8870583,-67.9568553 -45.8866028,-67.957381 -45.8868268,-67.95650174 -45.8868325,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95178221 -45.88666191,-67.9531646 -45.88667,-67.9533255 -45.8870733,-67.9523599 -45.8875064,-67.9523385 -45.888074,-67.9529393 -45.8886416,-67.95220821 -45.8890951,-67.953701 -45.8891792,-67.9537976 -45.8898588,-67.9529715 -45.8906056,-67.9515767 -45.8903293,-67.9498279 -45.8905906,-67.9490983 -45.8910462,-67.94741116 -45.89163645;-67.94741116 -45.89163645,-67.9492593 -45.8893958,-67.9482508 -45.8911806,-67.94851142 -45.88940859;-67.94851142 -45.88940859,-67.948696 -45.886909,-67.9494202 -45.887484,-67.9491949 -45.8880889,-67.9491842 -45.8890224,-67.94746568 -45.88694764,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94972726 -45.88693813,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.95178221 -45.88666191;-67.95178221 -45.88666191,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95650174 -45.8868325,-67.9573059 -45.8868268,-67.956748 -45.8864908,-67.9563725 -45.8857215,-67.9556644 -45.8849971,-67.9546167 -45.88506443,-67.960428 -45.8852436,-67.9597843 -45.8853855,-67.9578102 -45.8852959,-67.9558897 -45.8849448,-67.95958113 -45.88533853,-67.9643977 -45.8867746,-67.9641402 -45.8867895,-67.9629064 -45.8855274,-67.9625845 -45.8842055,-67.9620588 -45.8840412,-67.9608893 -45.8848926,-67.96291589 -45.88644251,-67.9671872 -45.8881412,-67.9659748 -45.8870061,-67.9642153 -45.8869314,-67.9642582 -45.8866849,-67.96633372 -45.88873533,-67.9702985 -45.892002,-67.9693437 -45.8927189,-67.9695046 -45.8920393,-67.9694617 -45.8909565,-67.9689038 -45.8902247,-67.9675949 -45.8891494,-67.9695987 -45.89181892;-67.9695987 -45.89181892,-67.9699337 -45.8946379,-67.9693973 -45.8950411,-67.9688287 -45.894847,-67.9686248 -45.893936,-67.9694724 -45.8926591,-67.9702985 -45.892002,-67.96939983 -45.89469974,-67.9721761 -45.8962209,-67.9716182 -45.8947873,-67.9710388 -45.8947723,-67.97161551 -45.8965517,-67.9729271 -45.8958177,-67.9726696 -45.8949515,-67.97168684 -45.8946769,-67.9725194 -45.8940704,-67.9735279 -45.8935179,-67.97316911 -45.89352066,-67.9749441 -45.8933834,-67.9761243 -45.8929055,-67.9766607 -45.892353,-67.97648439 -45.89266109,-67.9748368 -45.8912328,-67.9752231 -45.891427,-67.9759526 -45.8921289,-67.9767251 -45.8924575,-67.97300504 -45.89135,-67.9741609 -45.8913075,-67.9732168 -45.8912627,-67.9721975 -45.8896198,-67.9726803 -45.8893958,-67.97210028 -45.88946166;-67.97210028 -45.88946166,-67.9726589 -45.8893435,-67.9721224 -45.889478,-67.9718435 -45.8887909,-67.9712427 -45.8890149,-67.96941864 -45.88923867,-67.9752123 -45.8886192,-67.9738176 -45.8885743,-67.972852 -45.8880068,-67.9716182 -45.8889776,-67.9710495 -45.8890672,-67.97417558 -45.88870119,-67.9752874 -45.8886341,-67.9738069 -45.8884922,-67.9698479 -45.8860651,-67.9702234 -45.8859307,-67.96952973 -45.8860392,-67.9702342 -45.8858709,-67.9697192 -45.8860352,-67.9691613 -45.8857589,-67.96828667 -45.88589528,-67.9689896 -45.8855572,-67.9684317 -45.8850942,-67.9680133 -45.8843399,-67.9672301 -45.8837872,-67.9670477 -45.8843548,-67.96615149 -45.88487087,-67.9642582 -45.8866849,-67.9660714 -45.8869613,-67.9663503 -45.8865505,-67.9662859 -45.88549,-67.9665112 -45.8837798,-67.9671657 -45.8837275,-67.9670477 -45.8843548,-67.96291589 -45.88644251,-67.9643977 -45.8867746,-67.9641402 -45.8867895,-67.9629064 -45.8855274,-67.9625845 -45.8842055,-67.9620588 -45.8840412,-67.9608893 -45.8848926,-67.95958113 -45.88533853,-67.960428 -45.8852436,-67.9597843 -45.8853855,-67.9578102 -45.8852959,-67.9558897 -45.8849448,-67.9546167 -45.88506443,-67.9573059 -45.8868268,-67.956748 -45.8864908,-67.9563725 -45.8857215,-67.9556644 -45.8849971,-67.95650174 -45.8868325,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95178221 -45.88666191,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.94972726 -45.88693813,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94746568 -45.88694764,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94628753 -45.88560005,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94607409 -45.88311995,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.9459034 -45.88040255,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.94258106 -45.87928487,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2435,S2317,S2084</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 944,S56,Linea 940,S78,Linea 932,S645,Linea 931,S2111,Linea 933,S210,Linea 1707,S2435;S2435,Linea 1707,S210,Linea 933,S2111,Linea 931,S645,Linea 932,S78,Linea 940,S56,Linea 944,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 1211,S172,Linea 768,S2417,Linea 759,S402,Linea 760,S2468,Linea 763,S395,Linea 764,S338,Linea 773,S2407,Linea 774,S2317;S2317,Linea 774,S2407,Linea 850,S2056,Linea 849,S2716,Linea 853,S2504,Linea 854,S997,Linea 859,S330,Linea 1358,S983,Linea 1357,S363,Linea 843,S119,Linea 842,S978,Linea 841,S957,Linea 840,S287,Linea 805,S198,Linea 1828,S2095,Linea 865,S134,Linea 1683,S967,Linea 863,S336,Linea 868,S2084;S2084,Linea 868,S336,Linea 863,S967,Linea 1683,S134,Linea 865,S2095,Linea 797,S2189,Linea 1292,S1,Linea 1293,S2116,Linea 1295,S59,Linea 1017,S315,Linea 746,S2572,Linea 747,S381,Linea 748,S377,Linea 740,S980,Linea 741,S2421,Linea 1842,S370,Linea 752,S2408,Linea 754,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92260289 -45.87981886,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.91930941 -45.88137118,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91747464 -45.88372353,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91541483 -45.88231338,-67.9170835 -45.8822711,-67.9166543 -45.8815466,-67.916429 -45.8804562,-67.91569194 -45.88029914,,-67.91549706 -45.88009996;-67.91549706 -45.88009996,,-67.91569194 -45.88029914,-67.9170835 -45.8822711,-67.9166543 -45.8815466,-67.916429 -45.8804562,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91930941 -45.88137118,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.92260289 -45.87981886,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.95709848 -45.86769228,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95610675 -45.87170205,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95650202 -45.87386891,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95720623 -45.87256309,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.96214261 -45.87344787,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96572509 -45.87368099,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.9672039 -45.87497495,-67.9705024 -45.8745479,-67.9698265 -45.8742641,-67.9688072 -45.8745629,-67.96981728 -45.87481078;-67.96981728 -45.87481078,-67.9705024 -45.8745479,-67.9698265 -45.8742641,-67.9688072 -45.8745629,-67.9672039 -45.87497495,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.96992116 -45.87035971,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.9688479 -45.86924263,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.96898996 -45.86789944,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.97170451 -45.86764851,-67.9732597 -45.8674138,-67.9739678 -45.8674661,-67.9742575 -45.8672345,-67.9737854 -45.8666444,-67.9743755 -45.8664576,-67.9735065 -45.8661812,-67.9728949 -45.8655461,-67.97157481 -45.86531756,-67.9780984 -45.8649709,-67.9776263 -45.8648289,-67.9768217 -45.8650007,-67.9760063 -45.86583,-67.9748476 -45.8665622,-67.9738605 -45.866353,-67.9728091 -45.865591,-67.97746123 -45.86525028,-67.9770362 -45.8661886,-67.9775405 -45.8660019,-67.9780447 -45.8660616,-67.9790211 -45.8666444,-67.9791498 -45.8664875,-67.9789352 -45.8662036,-67.978828 -45.8655685,-67.9785597 -45.8651502,-67.97572674 -45.86647737,-67.9788494 -45.8686091,-67.9777122 -45.8662932,-67.9771221 -45.8662409,-67.97752558 -45.86902372,-67.9788065 -45.8706037,-67.9790211 -45.8702228,-67.978828 -45.868893,-67.9773795 -45.87092197,-67.9761887 -45.8726132,-67.9763067 -45.8720604,-67.9778838 -45.8710893,-67.97564136 -45.8729339,-67.9800725 -45.873800900000006,-67.9795146 -45.8726879,-67.9796112 -45.8723816,-67.9792464 -45.872165,-67.9787529 -45.8722173,-67.9783773 -45.8729942,-67.9778409 -45.873195900000006,-67.9771113 -45.8730315,-67.97905112 -45.87422359,-67.9801047 -45.8737412,-67.9795146 -45.8726879,-67.9791605 -45.8735694,-67.9792249 -45.8748467,-67.9793966 -45.8748467,-67.9797721 -45.8758476,-67.9800725 -45.876012,-67.97932522 -45.87631183,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9756951 -45.8784321,-67.9790318 -45.877588,-67.9792678 -45.8765199,-67.9792786 -45.8747272,-67.9798257 -45.8760045,-67.9801154 -45.8760643,-67.9757414 -45.87911165,-67.9681206 -45.8652323,-67.9681742 -45.8649709,-67.9665112 -45.8645301,-67.96624300000002 -45.8629312,-67.966944 -45.86563196,,-67.96619834 -45.86562036,-67.9679811 -45.8652398,-67.9681528 -45.8650381,-67.9671121 -45.864746700000005,-67.9631639 -45.8636559,-67.9641831 -45.8642536,-67.96323333 -45.86473674,-67.9641831 -45.8642536,-67.96308880000001 -45.8635812,-67.9604924 -45.8626473,-67.9621124 -45.8619973,-67.96158281 -45.8618607;-67.96158281 -45.8618607,-67.9641831 -45.8642536,-67.96308880000001 -45.8635812,-67.9604924 -45.8626473,-67.9621124 -45.8619973,-67.96323333 -45.86473674,-67.9679811 -45.8652398,-67.9681528 -45.8650381,-67.9671121 -45.864746700000005,-67.9631639 -45.8636559,-67.9641831 -45.8642536,-67.96619834 -45.86562036,,-67.966944 -45.86563196,-67.9681206 -45.8652323,-67.9681742 -45.8649709,-67.9665112 -45.8645301,-67.96624300000002 -45.8629312,-67.9757414 -45.87911165,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9755771 -45.8785142,-67.9742253 -45.8787756,-67.974236 -45.878222900000004,-67.97210325 -45.8786421,-67.9739785 -45.8781632,-67.9745579 -45.8782677,-67.9740644 -45.8788802,-67.9710174 -45.8792537,-67.96993071 -45.87922522,-67.9708028 -45.8792686,-67.9686999 -45.8795524,-67.9682064 -45.8792238,-67.96661757 -45.87943084,-67.967391 -45.8796271,-67.9660606 -45.879657,-67.9619408 -45.879179,-67.959795 -45.8789997,-67.9602242 -45.8794852,-67.95937836 -45.87978501,-67.9538298 -45.8776104,-67.9575419 -45.8788205,-67.9596341 -45.8789624,-67.9602242 -45.8794852,-67.95259842 -45.87763583,-67.9521346 -45.8759746,-67.9517162 -45.8759074,-67.9513943 -45.8758999,-67.9525959 -45.87702780000001,-67.95337920000001 -45.8774162,-67.95155064 -45.87647635,-67.9521346 -45.8759746,-67.951448 -45.8759597,-67.9509008 -45.8738383,-67.94983615 -45.87396079,-67.9508579 -45.8736739,-67.9509115 -45.8721426,-67.94974928 -45.87213834,-67.9510081 -45.87218,-67.9515123 -45.8715599,-67.9518449 -45.870925,-67.95082673 -45.87123588,-67.9518449 -45.870925,-67.9516733 -45.8706037,-67.9509866 -45.870275,-67.95089010000001 -45.8697222,-67.9517484 -45.8700734,-67.9526281 -45.8699912,-67.95188123 -45.87007275,-67.9526013 -45.869965,-67.9517484 -45.8700734,-67.9508901 -45.8697222,-67.9511476 -45.8693039,-67.95011093 -45.86936834,-67.9511476 -45.8693039,-67.95089010000001 -45.8697222,-67.9506433 -45.8681011,-67.9512978 -45.867892,-67.95075242 -45.86791677,-67.9513514 -45.867951700000006,-67.9506004 -45.8681534,-67.9493558 -45.8665622,-67.9490876 -45.8664576,-67.9492164 -45.8668461,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2525,S2348,S353</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 1211,S172,Linea 768,S2417,Linea 759,S402,Linea 760,S2468,Linea 763,S395,Linea 764,S338,Linea 773,S2407,Linea 850,S2056,Linea 849,S2716,Linea 853,S2504,Linea 854,S997,Linea 1836,S353,Linea 1361,S2006,Linea 1363,S2009,Linea 1365,S354,Linea 1421,S2255,Linea 568,S882,Linea 567,S522,Linea 566,S2273,Linea 552,S525,Linea 551,S529,Linea 553,S524,Linea 554,S2525;S2525,Linea 554,S524,Linea 553,S529,Linea 551,S525,Linea 552,S2273,Linea 615,S2634,Linea 614,S469,Linea 545,S439,Linea 538,S531,Linea 540,S533,Linea 536,S506,Linea 534,S470,Linea 645,S426,Linea 649,S2307,Linea 650,S455,Linea 502,S398,Linea 500,S2348;S2348,Linea 500,S398,Linea 502,S455,Linea 650,S2307,Linea 649,S426,Linea 645,S470,Linea 534,S506,Linea 536,S533,Linea 540,S531,Linea 538,S439,Linea 545,S469,Linea 614,S2634,Linea 615,S2273,Linea 566,S522,Linea 567,S882,Linea 568,S2255,Linea 1421,S354,Linea 1365,S2009,Linea 1363,S2006,Linea 1361,S353;S353,Linea 1836,S997,Linea 854,S2504,Linea 853,S2716,Linea 849,S2056,Linea 850,S2407,Linea 773,S338,Linea 764,S395,Linea 763,S2468,Linea 760,S402,Linea 759,S2417,Linea 768,S172,Linea 1211,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.95709848 -45.86769228,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95610675 -45.87170205,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95650202 -45.87386891,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95720623 -45.87256309,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.96214261 -45.87344787,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96572509 -45.87368099,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.9672039 -45.87497495,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.96992116 -45.87035971,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.9688479 -45.86924263,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.96898996 -45.86789944,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.97170451 -45.86764851,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97781889 -45.86412305,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97692655 -45.86298292,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.98026531 -45.86300386,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98206338 -45.86352335,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8701234 -45.8635663,-67.8698123 -45.86132490000001,-67.8679776 -45.8603237,-67.8670549 -45.8588966,-67.8654027 -45.859457,-67.8654563 -45.8601518,-67.8656709 -45.8602639,-67.86895092 -45.86422008,-67.8682029 -45.8666817,-67.8692436 -45.8661961,-67.8702307 -45.8647318,-67.8701663 -45.8642088,-67.86635342 -45.86702056,-67.8668189 -45.8667639,-67.8664005 -45.866988,-67.8663254 -45.8676305,-67.86498939 -45.86808329,-67.8639972 -45.8691171,-67.8657031 -45.8680713,-67.86235431 -45.86962035,-67.8640509 -45.869035,-67.8651345 -45.867384,-67.8649521 -45.8657329,-67.8658748 -45.8655237,-67.86542164 -45.86561862,-67.8659713 -45.8654266,-67.8650701 -45.8654864,-67.864598 -45.8658599,-67.86331328 -45.86669187;-67.86331328 -45.86669187,-67.8659713 -45.8654266,-67.8650701 -45.8654864,-67.864598 -45.8658599,-67.86542164 -45.86561862,-67.8640509 -45.869035,-67.8651345 -45.867384,-67.8649521 -45.8657329,-67.8658748 -45.8655237,-67.86235431 -45.86962035,-67.8639972 -45.8691171,-67.8657031 -45.8680713,-67.86498939 -45.86808329,-67.8668189 -45.8667639,-67.8664005 -45.866988,-67.8663254 -45.8676305,-67.86635342 -45.86702056,-67.8668725 -45.8688706,-67.8667974 -45.868646500000004,-67.8676665 -45.8677127,-67.867012 -45.86727940000001,-67.86653014 -45.86909111,-67.8665292 -45.8705589,-67.866143 -45.8710594,-67.8657889 -45.8704767,-67.8668725 -45.8688706,-67.86552841 -45.87071955,-67.8687286 -45.87223970000001,-67.8671408 -45.8717542,-67.8661752 -45.8712611,-67.8662395 -45.8705888,-67.86803091 -45.87230485,-67.8686213 -45.87223970000001,-67.8679776 -45.8725012,-67.867173 -45.87342,-67.86601994 -45.87390747,-67.8666043 -45.8740773,-67.8655958 -45.8758999,-67.8658319 -45.8761464,-67.86520975 -45.8764158,-67.8690398 -45.8759074,-67.8681815 -45.8748691,-67.8664434 -45.8762585,-67.86877282 -45.87598303,-67.8721726 -45.8748019,-67.868793 -45.8753024,-67.8683639 -45.8750633,-67.8691471 -45.8759522,-67.87226293 -45.87472228,-67.8772473 -45.875646,-67.87714 -45.874899,-67.8760457 -45.8739578,-67.8750265 -45.8733005,-67.8741574 -45.8732108,-67.8737283 -45.8741819,-67.87580898 -45.87623664,-67.8836632 -45.8741296,-67.884264 -45.8734723,-67.8839421 -45.8733229,-67.8833306 -45.8736515,-67.8822899 -45.87404,-67.8816032 -45.8749737,-67.8808522 -45.875153,-67.8791678 -45.8762809,-67.8782129 -45.8766021,-67.8774083 -45.8765572,-67.88196942 -45.87464989,-67.8855407 -45.8747869,-67.8848219 -45.8745703,-67.8843713 -45.8743089,-67.8840923 -45.8735395,-67.8836632 -45.8741296,-67.88511415 -45.8749264,-67.88980010000002 -45.8758999,-67.8896391 -45.8754592,-67.8868389 -45.87464500000001,-67.8887044 -45.87631529,-67.88980010000002 -45.8758999,-67.8903151 -45.875578700000005,-67.89009239 -45.87601642;-67.89009239 -45.87601642,-67.88980010000002 -45.8758999,-67.8903151 -45.875578700000005,-67.8887044 -45.87631529,-67.88980010000002 -45.8758999,-67.8896391 -45.8754592,-67.8868389 -45.87464500000001,-67.88511415 -45.8749264,-67.8855407 -45.8747869,-67.8848219 -45.8745703,-67.8843713 -45.8743089,-67.8840923 -45.8735395,-67.8836632 -45.8741296,-67.88196942 -45.87464989,-67.8836632 -45.8741296,-67.884264 -45.8734723,-67.8839421 -45.8733229,-67.8833306 -45.8736515,-67.8822899 -45.87404,-67.8816032 -45.8749737,-67.8808522 -45.875153,-67.8791678 -45.8762809,-67.8782129 -45.8766021,-67.8774083 -45.8765572,-67.87580898 -45.87623664,-67.8772473 -45.875646,-67.87714 -45.874899,-67.8760457 -45.8739578,-67.8750265 -45.8733005,-67.8741574 -45.8732108,-67.8737283 -45.8741819,-67.87226293 -45.87472228,-67.8721726 -45.8748019,-67.868793 -45.8753024,-67.8683639 -45.8750633,-67.8691471 -45.8759522,-67.86877282 -45.87598303,-67.8690398 -45.8759074,-67.8681815 -45.8748691,-67.8664434 -45.8762585,-67.86520975 -45.8764158,-67.8666043 -45.8740773,-67.8655958 -45.8758999,-67.8658319 -45.8761464,-67.86601994 -45.87390747,-67.8686213 -45.87223970000001,-67.8679776 -45.8725012,-67.867173 -45.87342,-67.86803091 -45.87230485,-67.8687286 -45.87223970000001,-67.8671408 -45.8717542,-67.8661752 -45.8712611,-67.8662395 -45.8705888,-67.86552841 -45.87071955,-67.8665292 -45.8705589,-67.866143 -45.8710594,-67.8657889 -45.8704767,-67.8668725 -45.8688706,-67.86653014 -45.86909111,-67.8668725 -45.8688706,-67.8667974 -45.868646500000004,-67.8676665 -45.8677127,-67.867012 -45.86727940000001,-67.86635342 -45.86702056,-67.8682029 -45.8666817,-67.8692436 -45.8661961,-67.8702307 -45.8647318,-67.8701663 -45.8642088,-67.86895092 -45.86422008,-67.8701234 -45.8635663,-67.8698123 -45.86132490000001,-67.8679776 -45.8603237,-67.8670549 -45.8588966,-67.8654027 -45.859457,-67.8654563 -45.8601518,-67.8656709 -45.8602639,-67.86513556 -45.86046435,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.98715669 -45.86146692,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98206338 -45.86352335,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98026531 -45.86300386,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.97692655 -45.86298292,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97781889 -45.86412305;-67.97781889 -45.86412305,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97170451 -45.86764851,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.96898996 -45.86789944,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.9688479 -45.86924263,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.96992116 -45.87035971,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.9672039 -45.87497495,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.96572509 -45.87368099,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96214261 -45.87344787,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.95720623 -45.87256309,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95650202 -45.87386891,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95610675 -45.87170205,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95709848 -45.86769228,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2019,S2510,S740,S2499</t>
   </si>
   <si>
     <t>Base,Linea 1,S176,Linea 1506,S2447,Linea 2,S993,Linea 3,S329,Linea 4,S309,Linea 6,S328,Linea 7,S2258,Linea 8,S326,Linea 52,S2253,Linea 57,S208,Linea 156,S2488,Linea 1548,S680,Linea 158,S246,Linea 161,S662,Linea 162,S678,Linea 164,S2510,Linea 167,S2478,Linea 168,S451,Linea 169,S691,Linea 170,S676,Linea 177,S640,Linea 178,S637,Linea 183,S495,Linea 186,S635,Linea 1555,S2552,Linea 211,S622,Linea 912,S2387,Linea 205,S632,Linea 676,S431,Linea 1638,S692,Linea 1215,S423,Linea 653,S2019;S2019,Linea 653,S423,Linea 1215,S692,Linea 1703,S431,Linea 676,S632,Linea 205,S2387,Linea 912,S622,Linea 211,S2552,Linea 1563,S635,Linea 186,S495,Linea 183,S637,Linea 178,S640,Linea 177,S676,Linea 170,S691,Linea 169,S451,Linea 168,S2478,Linea 167,S2510;S2510,Linea 164,S678,Linea 162,S662,Linea 161,S246,Linea 159,S667,Linea 704,S2336,Linea 730,S379,Linea 727,S578,Linea 1651,S2454,Linea 722,S986,Linea 720,S2349,Linea 719,S250,Linea 717,S2334,Linea 934,S2111,Linea 931,S645,Linea 1046,S928,Linea 1048,S840,Linea 1220,S826,Linea 1060,S828,Linea 1061,S801,Linea 1054,S760,Linea 1073,S794,Linea 1074,S740;S740,Linea 1074,S794,Linea 1073,S760,Linea 1221,S791,Linea 1076,S793,Linea 1079,S818,Linea 1080,S737,Linea 1083,S904,Linea 1033,S2656,Linea 955,S2666,Linea 956,S2680,Linea 959,S37,Linea 1024,S2695,Linea 1026,S43,Linea 1088,S2707,Linea 1098,S42,Linea 1856,S2724,Linea 1092,S163,Linea 1854,S66,Linea 1152,S2658,Linea 1145,S844,Linea 1135,S914,Linea 1274,S2180,Linea 1275,S2486,Linea 1276,S2034,Linea 1281,S929,Linea 1280,S2366,Linea 1277,S2499;S2499,Linea 1277,S2366,Linea 1280,S929,Linea 1281,S2034,Linea 1276,S2486,Linea 1275,S2180,Linea 1274,S914,Linea 1135,S844,Linea 1145,S2658,Linea 1152,S66,Linea 1854,S163,Linea 1092,S2724,Linea 1856,S42,Linea 1098,S2707,Linea 1088,S43,Linea 1026,S2695,Linea 1027,S36,Linea 957,S39,Linea 969,S316,Linea 970,S387,Linea 968,S2465,Linea 966,S2147,Linea 946,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.93822649 -45.86645361,,-67.93820898 -45.86621382,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.9397787 -45.86446671,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.94026881 -45.86394522,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94016816 -45.86304785,-67.9407513 -45.863103100000004,-67.9403973 -45.8622551,-67.93757020000001 -45.8636746,-67.93638614 -45.8639203,-67.9374468 -45.8637643,-67.93648120000002 -45.8648999,-67.93542287 -45.86514387,-67.9364544 -45.8650082,-67.9343033 -45.8651128,-67.93322311 -45.86539389,-67.934196 -45.8650755,-67.9339492 -45.8648887,-67.9318678 -45.8652174,-67.93025624 -45.86524613,-67.92887450000002 -45.8655984,-67.929647 -45.8660093,-67.9311919 -45.8652622,-67.92761571 -45.86576064,-67.9284239 -45.8655835,-67.9270077 -45.8655162,-67.92568273 -45.86555172,,-67.92617947 -45.86596757,-67.9266429 -45.8657927,-67.9259992 -45.8665696,-67.92478129 -45.86687146,-67.9258382 -45.86658460000001,-67.9220402 -45.8663903,-67.92069068 -45.86664171,-67.9224908 -45.8663306,-67.9191971 -45.8656582,-67.91774956 -45.8661538,-67.9187572 -45.8661064,-67.9176843 -45.8663679,-67.9172981 -45.8656657,-67.91575239 -45.86551598,-67.9164934 -45.8652398,-67.9147875 -45.8642536,-67.9133606 -45.865322,-67.9120409 -45.8651352,-67.91093971 -45.86527418,-67.9122448 -45.8649709,-67.911129 -45.8644105,-67.9103887 -45.8645226,-67.90917641 -45.86476613,-67.9100668 -45.8647318,-67.9098523 -45.8659197,-67.9103565 -45.8661513,-67.90947109 -45.86641003,-67.9100454 -45.8663754,-67.9094982 -45.8663306,-67.909627 -45.86429100000001,-67.90869072 -45.86438156,-67.9108179 -45.86391,-67.9094768 -45.8638353,-67.9077816 -45.8657329,-67.9066443 -45.8662484,-67.90565529 -45.8665856,-67.906419 -45.86626330000001,-67.9050887 -45.8652025,-67.9043591 -45.864814,-67.90314798 -45.8648888,-67.9039943 -45.8644255,-67.9028034 -45.8637381,-67.8999174 -45.8635812,-67.89867893 -45.86374335,-67.8993487 -45.8636634,-67.8988981 -45.8636933,-67.89861920000001 -45.8635215,-67.8975525 -45.86346654,,-67.89779792 -45.86312838,-67.8962696 -45.8632899,-67.8974175 -45.8625203,-67.8984583 -45.8622177,-67.8946526 -45.86372426,-67.8942311 -45.8647841,-67.8944886 -45.8644778,-67.8944886 -45.8640444,-67.8955936 -45.8639772,-67.8958511 -45.8637307,-67.8924736 -45.86523062,-67.8914094 -45.8658749,-67.893244 -45.8652249,-67.88982897 -45.86617984,-67.8899288 -45.8678098,-67.8895211 -45.8675184,-67.8886414 -45.8671001,-67.8869569 -45.8665398,-67.8880835 -45.86621850000001,-67.8924072 -45.8666593,-67.8915596 -45.865957,-67.88880717 -45.86815467,,-67.88877281 -45.86858617,-67.8896284 -45.868654,-67.8885341 -45.8711117,-67.889092 -45.8708652,-67.88842641 -45.87090404,-67.8895426 -45.8722024,-67.888298 -45.8715525,-67.8881264 -45.8713806,-67.8885341 -45.8711117,-67.8891778 -45.8709175,-67.88809317 -45.872722;-67.88809317 -45.872722,-67.8895426 -45.8722024,-67.888298 -45.8715525,-67.8881264 -45.8713806,-67.8885341 -45.8711117,-67.8891778 -45.8709175,-67.88842641 -45.87090404,-67.8896284 -45.868654,-67.8885341 -45.8711117,-67.889092 -45.8708652,-67.88877281 -45.86858617,,-67.88880717 -45.86815467,-67.8899288 -45.8678098,-67.8895211 -45.8675184,-67.8886414 -45.8671001,-67.8869569 -45.8665398,-67.8880835 -45.86621850000001,-67.8924072 -45.8666593,-67.8915596 -45.865957,-67.88982897 -45.86617984,-67.8914094 -45.8658749,-67.893244 -45.8652249,-67.8924736 -45.86523062,-67.8942311 -45.8647841,-67.8944886 -45.8644778,-67.8944886 -45.8640444,-67.8955936 -45.8639772,-67.8958511 -45.8637307,-67.8946526 -45.86372426,-67.8962696 -45.8632899,-67.8974175 -45.8625203,-67.8984583 -45.8622177,-67.89779792 -45.86312838,,-67.8975525 -45.86346654,-67.8993487 -45.8636634,-67.8988981 -45.8636933,-67.89861920000001 -45.8635215,-67.89867893 -45.86374335,-67.9039943 -45.8644255,-67.9028034 -45.8637381,-67.8999174 -45.8635812,-67.90314798 -45.8648888,-67.906419 -45.86626330000001,-67.9050887 -45.8652025,-67.9043591 -45.864814,-67.90565529 -45.8665856,-67.9108179 -45.86391,-67.9094768 -45.8638353,-67.9077816 -45.8657329,-67.9066443 -45.8662484,-67.90869072 -45.86438156,-67.9100454 -45.8663754,-67.9094982 -45.8663306,-67.909627 -45.86429100000001,-67.90947109 -45.86641003,-67.9100668 -45.8647318,-67.9098523 -45.8659197,-67.9103565 -45.8661513,-67.90917641 -45.86476613,-67.9122448 -45.8649709,-67.911129 -45.8644105,-67.9103887 -45.8645226,-67.91093971 -45.86527418,-67.9164934 -45.8652398,-67.9147875 -45.8642536,-67.9133606 -45.865322,-67.9120409 -45.8651352,-67.91575239 -45.86551598;-67.91575239 -45.86551598,-67.9187572 -45.8661064,-67.9176843 -45.8663679,-67.9172981 -45.8656657,-67.91774956 -45.8661538,-67.9224908 -45.8663306,-67.9191971 -45.8656582,-67.92069068 -45.86664171,-67.9258382 -45.86658460000001,-67.9220402 -45.8663903,-67.92478129 -45.86687146,-67.925849 -45.8667938,-67.9245508 -45.8671822,-67.92313135 -45.86736612,-67.9247117 -45.8672271,-67.9251409 -45.8672644,-67.9242826 -45.8677948,-67.9240143 -45.8689378,-67.9238534 -45.8689528,-67.92209124 -45.86928836,-67.9217505 -45.8712238,-67.9221582 -45.8710893,-67.9240143 -45.8689901,-67.9237783 -45.8690051,-67.92053462 -45.87127057,-67.9206347 -45.8733602,-67.9204845 -45.8732108,-67.9220188 -45.8711565,-67.91979942 -45.8736741,,-67.91957453 -45.87370778,-67.9194653 -45.874084800000006,-67.9204845 -45.8732108,-67.9206347 -45.8733602,-67.91777485 -45.87443865,-67.9123628 -45.8789922,-67.9139936 -45.8782154,-67.9156995 -45.8769755,-67.9165149 -45.8759447,-67.9189503 -45.874689800000006,-67.91076944 -45.87927096,-67.9128349 -45.8790819,-67.91394 -45.8782827,-67.9123628 -45.8789922,-67.91191949 -45.87938061,-67.9129636 -45.879291,-67.9124808 -45.8793284,-67.9120302 -45.8802545,-67.9124165 -45.8806728,-67.9129958 -45.8809193,-67.91214619 -45.88124859,-67.9166651 -45.8823159,-67.9169762 -45.8821367,-67.9166543 -45.8815466,-67.913146 -45.8824205,-67.9128242 -45.8814645,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183924 -45.8832943,-67.9178345 -45.8833989,-67.9181349 -45.883832,-67.9182851 -45.8847656,-67.9179955 -45.8868492,-67.9182959 -45.887021,-67.918725 -45.8867895,-67.9189289 -45.8859232,-67.91833856 -45.88592331,-67.9201949 -45.8901426,-67.920785 -45.8896646,-67.9178774 -45.8882906,-67.9180706 -45.8870061,-67.9186499 -45.8868642,-67.918961 -45.8857962,-67.91840225 -45.89042054,-67.9177594 -45.8928831,-67.9196584 -45.8908744,-67.9194117 -45.8909267,-67.9188323 -45.8915241,-67.9170513 -45.8923754,-67.9181993 -45.8910014,-67.918961 -45.8905234,-67.91657701 -45.89351753,-67.9165363 -45.8956086,-67.9175019 -45.8947275,-67.9165041 -45.893712,-67.9164827 -45.892689,-67.9183388 -45.8916958,-67.9195189 -45.8908296,-67.9196799 -45.8909341,-67.9177058 -45.8929802,-67.91506756 -45.89602857,-67.9198515 -45.8952876,-67.9187465 -45.8950934,-67.9171157 -45.8950187,-67.9165041 -45.8955564,-67.91895387 -45.89557581,-67.9221904 -45.8981548,-67.9233706 -45.8984385,-67.9223728 -45.8974903,-67.9203773 -45.8967212,-67.9203129 -45.8957953,-67.92046749 -45.89809236,-67.9312027 -45.9008128,-67.9299688 -45.9015296,-67.9282737 -45.9003723,-67.9263103 -45.8994316,-67.9232204 -45.8984983,-67.9221046 -45.8981623,-67.93028301 -45.90068278,-67.9292071 -45.8980727,-67.9297006 -45.8983415,-67.9303551 -45.8987073,-67.9325438 -45.8992524,-67.932812 -45.8995137,-67.9300761 -45.8999542,-67.9277909 -45.900111,-67.9299474 -45.9014624,-67.9311705 -45.9009398,-67.92757118 -45.89816726;-67.92757118 -45.89816726,-67.9292071 -45.8980727,-67.9297006 -45.8983415,-67.9303551 -45.8987073,-67.9325438 -45.8992524,-67.932812 -45.8995137,-67.9300761 -45.8999542,-67.9277909 -45.900111,-67.9299474 -45.9014624,-67.9311705 -45.9009398,-67.93028301 -45.90068278,-67.9312027 -45.9008128,-67.9299688 -45.9015296,-67.9282737 -45.9003723,-67.9263103 -45.8994316,-67.9232204 -45.8984983,-67.9221046 -45.8981623,-67.92046749 -45.89809236,-67.9221904 -45.8981548,-67.9232204 -45.8984983,-67.9230487 -45.8980652,-67.9224908 -45.89755,-67.9236388 -45.8964449,-67.92261639 -45.89612501,-67.9235637 -45.895743,-67.9241538 -45.8953249,-67.9267287 -45.8949142,-67.9271579 -45.8944961,-67.9267287 -45.8942048,-67.9257309 -45.8936448,-67.9256558 -45.8930698,-67.9268682 -45.8923604,-67.9289711 -45.8934208,-67.9293036 -45.893361,-67.92819602 -45.89300211,-67.9292285 -45.8926143,-67.9297435 -45.8916137,-67.930634 -45.8913523,-67.9310846 -45.8915241,-67.9320288 -45.8924127,-67.9322755 -45.8923231,-67.9316425 -45.8910014,-67.93002857 -45.89099999,-67.9326725 -45.8927039,-67.9321253 -45.8924276,-67.9320502 -45.8919796,-67.9315674 -45.8910163,-67.93203261 -45.89325144,-67.9325116 -45.8927189,-67.9321575 -45.8923754,-67.9320073 -45.8911582,-67.9324365 -45.8909939,-67.9336274 -45.8912403,-67.9348075 -45.8908669,-67.93404442 -45.8909633,-67.9351616 -45.890628,-67.9353011 -45.8903069,-67.9351509 -45.889702,-67.9356337 -45.8888283,-67.9361594 -45.8882682,-67.9367387 -45.8882607,-67.93581454 -45.88863383,-67.9410625 -45.888776,-67.9401827 -45.8890747,-67.9375863 -45.8886341,-67.93992923 -45.88854577,-67.9414594 -45.88785,-67.9417813 -45.8871554,-67.9419315 -45.8865879,-67.9423285 -45.8863414,-67.94198922 -45.88653728,-67.9423177 -45.8861323,-67.9425859 -45.8852137,-67.9431438 -45.8846088,-67.9432619 -45.8842802,-67.94255555 -45.88454697,-67.9484117 -45.88667,-67.947489 -45.8864908,-67.9468238 -45.8864609,-67.9463196 -45.8856021,-67.9456758 -45.8850643,-67.945118 -45.8847581,-67.9446459 -45.8841607,-67.9440129 -45.8842652,-67.94746568 -45.88694764,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94972726 -45.88693813,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.95178221 -45.88666191,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95650174 -45.8868325,-67.9573059 -45.8868268,-67.956748 -45.8864908,-67.9563725 -45.8857215,-67.9556644 -45.8849971,-67.9546167 -45.88506443,-67.960428 -45.8852436,-67.9597843 -45.8853855,-67.9578102 -45.8852959,-67.9558897 -45.8849448,-67.95958113 -45.88533853,-67.9643977 -45.8867746,-67.9641402 -45.8867895,-67.9629064 -45.8855274,-67.9625845 -45.8842055,-67.9620588 -45.8840412,-67.9608893 -45.8848926,-67.96291589 -45.88644251,-67.9671872 -45.8881412,-67.9659748 -45.8870061,-67.9642153 -45.8869314,-67.9642582 -45.8866849,-67.96633372 -45.88873533,-67.9702985 -45.892002,-67.9693437 -45.8927189,-67.9695046 -45.8920393,-67.9694617 -45.8909565,-67.9689038 -45.8902247,-67.9675949 -45.8891494,-67.9695987 -45.89181892,-67.9699337 -45.8946379,-67.9693973 -45.8950411,-67.9688287 -45.894847,-67.9686248 -45.893936,-67.9694724 -45.8926591,-67.9702985 -45.892002,-67.96939983 -45.89469974,-67.9721761 -45.8962209,-67.9716182 -45.8947873,-67.9710388 -45.8947723,-67.97161551 -45.8965517,-67.9729271 -45.8958177,-67.9726696 -45.8949515,-67.97168684 -45.8946769,-67.9725194 -45.8940704,-67.9735279 -45.8935179,-67.97316911 -45.89352066,-67.9749441 -45.8933834,-67.9761243 -45.8929055,-67.9766607 -45.892353,-67.97648439 -45.89266109,-67.9806304 -45.8917854,-67.9784203 -45.8917854,-67.9782271 -45.8926517,-67.98023252 -45.89201679,-67.984364 -45.8918302,-67.9820251 -45.8918004,-67.98373313 -45.89220254;-67.98373313 -45.89220254,-67.984364 -45.8918302,-67.9820251 -45.8918004,-67.98023252 -45.89201679,-67.9806304 -45.8917854,-67.9784203 -45.8917854,-67.9782271 -45.8926517,-67.97648439 -45.89266109,-67.9749441 -45.8933834,-67.9761243 -45.8929055,-67.9766607 -45.892353,-67.97316911 -45.89352066,-67.9725194 -45.8940704,-67.9735279 -45.8935179,-67.97168684 -45.8946769,-67.9729271 -45.8958177,-67.9726696 -45.8949515,-67.97161551 -45.8965517,-67.9721761 -45.8962209,-67.9716182 -45.8947873,-67.9710388 -45.8947723,-67.96939983 -45.89469974,-67.9699337 -45.8946379,-67.9693973 -45.8950411,-67.9688287 -45.894847,-67.9686248 -45.893936,-67.9694724 -45.8926591,-67.9702985 -45.892002,-67.9695987 -45.89181892,-67.9702985 -45.892002,-67.9693437 -45.8927189,-67.9695046 -45.8920393,-67.9694617 -45.8909565,-67.9689038 -45.8902247,-67.9675949 -45.8891494,-67.96633372 -45.88873533,-67.9671872 -45.8881412,-67.9659748 -45.8870061,-67.9642153 -45.8869314,-67.9642582 -45.8866849,-67.96291589 -45.88644251,-67.9643977 -45.8867746,-67.9641402 -45.8867895,-67.9629064 -45.8855274,-67.9625845 -45.8842055,-67.9620588 -45.8840412,-67.9608893 -45.8848926,-67.95958113 -45.88533853,-67.960428 -45.8852436,-67.9597843 -45.8853855,-67.9578102 -45.8852959,-67.9558897 -45.8849448,-67.9546167 -45.88506443,-67.9573059 -45.8868268,-67.956748 -45.8864908,-67.9563725 -45.8857215,-67.9556644 -45.8849971,-67.95650174 -45.8868325,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95178221 -45.88666191,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.94972726 -45.88693813,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94746568 -45.88694764,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94628753 -45.88560005,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94607409 -45.88311995,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.9459034 -45.88040255,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.94258106 -45.87928487,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2447,S846,S919,S2628,S803,S2194</t>
   </si>
   <si>
     <t>Base,Linea 1,S176,Linea 1506,S2447;S2447,Linea 1506,S176,Linea 1,Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 943,S167,Linea 946,S2147,Linea 966,S2465,Linea 968,S387,Linea 970,S316,Linea 969,S39,Linea 957,S36,Linea 1027,S2695,Linea 1026,S43,Linea 1088,S2707,Linea 1098,S42,Linea 1853,S2723,Linea 1118,S841,Linea 1112,S2467,Linea 1224,S846;S846,Linea 1107,S919;S919,Linea 1107,S846,Linea 1223,S804,Linea 1111,S803,Linea 1138,S815,Linea 1129,S921,Linea 1273,S2055,Linea 1272,S908,Linea 1271,S597,Linea 1270,S2628;S2628,Linea 1270,S597,Linea 1271,S908,Linea 1272,S2055,Linea 1273,S921,Linea 1129,S815,Linea 1138,S803;S803,Linea 1110,S2194;S2194,Linea 1113,S841,Linea 1118,S2723,Linea 1853,S42,Linea 1098,S2707,Linea 1088,S43,Linea 1026,S2695,Linea 1027,S36,Linea 957,S39,Linea 969,S316,Linea 970,S387,Linea 968,S2465,Linea 966,S2147,Linea 946,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.93822649 -45.86645361,,-67.93820898 -45.86621382;-67.93820898 -45.86621382,,-67.93822649 -45.86645361,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.93512028 -45.8793768,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.94258106 -45.87928487,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.9459034 -45.88040255,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.94607409 -45.88311995,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94628753 -45.88560005,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94746568 -45.88694764,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94972726 -45.88693813,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.95178221 -45.88666191,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95650174 -45.8868325,-67.9563618 -45.8869613,-67.9570055 -45.8870583,-67.9568553 -45.8866028,-67.957381 -45.8868268,-67.95495587 -45.8875866,-67.9576063 -45.8896124,-67.9577136 -45.888888,-67.9572308 -45.8876483,-67.9565012 -45.8869986,-67.95602222 -45.88970885,-67.9555678 -45.8902546,-67.9566729 -45.8896124,-67.95416096 -45.89058835,-67.9546666 -45.8908595,-67.9532504 -45.8922185,-67.9515231 -45.8917406,-67.95045121 -45.89176951;-67.95045121 -45.89176951,-67.9449463 -45.892353,-67.9449999 -45.8927189,-67.9458153 -45.8930848,-67.9470813 -45.8933088,-67.9488838 -45.8925919,-67.9495275 -45.8921961,-67.950021 -45.8916212,-67.9507613 -45.8914718,-67.9513192 -45.8916436,-67.94414165 -45.89228087;-67.94414165 -45.89228087,-67.9449463 -45.892353,-67.9449999 -45.8927189,-67.9458153 -45.8930848,-67.9470813 -45.8933088,-67.9488838 -45.8925919,-67.9495275 -45.8921961,-67.950021 -45.8916212,-67.9507613 -45.8914718,-67.9513192 -45.8916436,-67.95045121 -45.89176951,-67.9549241 -45.8925098,-67.9545915 -45.8926666,-67.9532933 -45.8921588,-67.9515231 -45.8917406,-67.95418299 -45.89226319,-67.9583359 -45.8946379,-67.9581213 -45.8934282,-67.958293 -45.8929951,-67.9576492 -45.8922484,-67.9574883 -45.8911432,-67.9567587 -45.8908221,-67.9557824 -45.8912104,-67.9554927 -45.8916958,-67.95753705 -45.89518861,-67.9602778 -45.8973559,-67.959677 -45.8974604,-67.9590976 -45.897326,-67.9587114 -45.8968257,-67.95928 -45.896094,-67.9591405 -45.8953548,-67.95956637 -45.89743693,-67.9642367 -45.8983564,-67.9643333 -45.8976993,-67.9650199 -45.8970721,-67.9652989 -45.8964076,-67.9613721 -45.8972065,-67.96354703 -45.89869944,-67.9693437 -45.9027914,-67.9659963 -45.8987297,-67.965138 -45.8986401,-67.96793825 -45.90348141,-67.970438 -45.9058075,-67.9690218 -45.9036126,-67.96980563 -45.90670646,-67.9705238 -45.9066735,-67.9697728 -45.9068527,-67.9681849 -45.9083607,-67.9670477 -45.9085548,-67.9651165 -45.9093461,-67.9646015 -45.9095999,-67.9632926 -45.9097492,-67.9626489 -45.9100179,-67.9595375 -45.9096447,-67.9576575 -45.90959388,-67.9533577 -45.9118095,-67.9582071 -45.9103464,-67.960031 -45.9096148,-67.9595375 -45.9095402,-67.95174739 -45.91238069;-67.95174739 -45.91238069,-67.9533577 -45.9118095,-67.9582071 -45.9103464,-67.960031 -45.9096148,-67.9595375 -45.9095402,-67.9576575 -45.90959388,-67.9705238 -45.9066735,-67.9697728 -45.9068527,-67.9681849 -45.9083607,-67.9670477 -45.9085548,-67.9651165 -45.9093461,-67.9646015 -45.9095999,-67.9632926 -45.9097492,-67.9626489 -45.9100179,-67.9595375 -45.9096447,-67.96980563 -45.90670646,-67.970438 -45.9058075,-67.9690218 -45.9036126,-67.96793825 -45.90348141,-67.9693437 -45.9027914,-67.9659963 -45.8987297,-67.965138 -45.8986401,-67.96354703 -45.89869944,-67.9642367 -45.8983564,-67.9643333 -45.8976993,-67.9650199 -45.8970721,-67.9652989 -45.8964076,-67.9613721 -45.8972065,-67.95956637 -45.89743693,-67.9602778 -45.8973559,-67.959677 -45.8974604,-67.9590976 -45.897326,-67.9587114 -45.8968257,-67.95928 -45.896094,-67.9591405 -45.8953548,-67.95753705 -45.89518861;-67.95753705 -45.89518861,-67.958411 -45.8946678,-67.9585934 -45.8938464,-67.9590118 -45.8934581,-67.9594839 -45.8932714,-67.9597199 -45.892913,-67.9595053 -45.8926741,-67.95792371 -45.89252328;-67.95792371 -45.89252328,-67.958647 -45.8921289,-67.9580784 -45.8917854,-67.958411 -45.8907699,-67.9588509 -45.8902397,-67.9578209 -45.8896422,-67.95602222 -45.88970885,-67.9576063 -45.8896124,-67.9577136 -45.888888,-67.9572308 -45.8876483,-67.9565012 -45.8869986,-67.95495587 -45.8875866,-67.9563618 -45.8869613,-67.9570055 -45.8870583,-67.9568553 -45.8866028,-67.957381 -45.8868268,-67.95650174 -45.8868325,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95178221 -45.88666191,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.94972726 -45.88693813,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94746568 -45.88694764,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94628753 -45.88560005,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94607409 -45.88311995,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.9459034 -45.88040255,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.94258106 -45.87928487,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2520,S2365,S2528,S2285,S2058</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 754,S2408,Linea 752,S370,Linea 1842,S2421,Linea 741,S980,Linea 740,S377,Linea 748,S381,Linea 747,S2572,Linea 746,S315,Linea 935,S2520;S2520,Linea 935,S315,Linea 1017,S59,Linea 1295,S2116,Linea 1293,S1,Linea 1292,S2189,Linea 797,S2095,Linea 1825,S2479,Linea 795,S189,Linea 1826,S18,Linea 1177,S2243,Linea 807,S205,Linea 1181,S2139,Linea 1180,S8,Linea 1183,S223,Linea 1191,S2365;S2365,Linea 1186,S203,Linea 1187,S2586,Linea 1192,S2584,Linea 1205,S138,Linea 1208,S2101,Linea 1462,S183,Linea 1829,S2135,Linea 1814,S2541,Linea 1459,S206,Linea 826,S715,Linea 827,S2356,Linea 1456,S151,Linea 1489,S2304,Linea 1461,S984,Linea 1447,S2093,Linea 1440,S2089,Linea 1438,S257,Linea 1437,S2074,Linea 1442,S2092,Linea 1446,S374,Linea 1453,S2616,Linea 1452,S2528;S2528,Linea 1452,S2616,Linea 1830,S2319,Linea 1414,S2285;S2285,Linea 1414,S2319,Linea 1835,S2092,Linea 1442,S2074,Linea 1437,S257,Linea 1438,S2089,Linea 1440,S2093,Linea 1447,S984,Linea 1461,S2304,Linea 1489,S151,Linea 1456,S2356,Linea 827,S715,Linea 826,S206,Linea 1459,S2541,Linea 1794,S2135,Linea 1829,S183,Linea 1462,S2101,Linea 1208,S138,Linea 1490,S2080,Linea 1804,S184,Linea 1206,S194,Linea 820,S2177,Linea 815,S2242,Linea 821,S2441,Linea 823,S2406,Linea 1427,S2087,Linea 1426,S2081,Linea 1370,S2091,Linea 1371,S325,Linea 1423,S2058;S2058,Linea 1423,S325,Linea 1372,S323,Linea 1373,S2255,Linea 1421,S354,Linea 1365,S2009,Linea 1363,S2006,Linea 1361,S353,Linea 1836,S997,Linea 854,S2504,Linea 853,S2716,Linea 849,S2056,Linea 850,S2407,Linea 773,S338,Linea 764,S395,Linea 763,S2468,Linea 760,S402,Linea 759,S2417,Linea 768,S172,Linea 1211,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9513514 -45.867951700000006,-67.9506004 -45.8681534,-67.9493558 -45.8665622,-67.9490876 -45.8664576,-67.9492164 -45.8668461,-67.95075242 -45.86791677,-67.9511476 -45.8693039,-67.95089010000001 -45.8697222,-67.9506433 -45.8681011,-67.9512978 -45.867892,-67.95011093 -45.86936834,-67.9526013 -45.869965,-67.9517484 -45.8700734,-67.9508901 -45.8697222,-67.9511476 -45.8693039,-67.95188123 -45.87007275,-67.9518449 -45.870925,-67.9516733 -45.8706037,-67.9509866 -45.870275,-67.95089010000001 -45.8697222,-67.9517484 -45.8700734,-67.9526281 -45.8699912,-67.95082673 -45.87123588,-67.9510081 -45.87218,-67.9515123 -45.8715599,-67.9518449 -45.870925,-67.94974928 -45.87213834,-67.9508579 -45.8736739,-67.9509115 -45.8721426,-67.94983615 -45.87396079,-67.9521346 -45.8759746,-67.951448 -45.8759597,-67.9509008 -45.8738383,-67.95155064 -45.87647635,-67.9521346 -45.8759746,-67.9517162 -45.8759074,-67.9513943 -45.8758999,-67.9525959 -45.87702780000001,-67.95337920000001 -45.8774162,-67.95259842 -45.87763583,-67.9539478 -45.8775432,-67.9560077 -45.8773266,-67.9570484 -45.8767328,-67.9579389 -45.8758215,-67.9585665 -45.8748691,-67.9575956 -45.8754443,-67.95608568 -45.8759708;-67.95608568 -45.8759708,-67.9539478 -45.8775432,-67.9560077 -45.8773266,-67.9570484 -45.8767328,-67.9579389 -45.8758215,-67.9585665 -45.8748691,-67.9575956 -45.8754443,-67.95259842 -45.87763583,-67.9538298 -45.8776104,-67.9575419 -45.8788205,-67.9596341 -45.8789624,-67.9602242 -45.8794852,-67.95937836 -45.87978501,-67.967391 -45.8796271,-67.9660606 -45.879657,-67.9619408 -45.879179,-67.959795 -45.8789997,-67.9602242 -45.8794852,-67.96661757 -45.87943084,-67.9708028 -45.8792686,-67.9686999 -45.8795524,-67.9682064 -45.8792238,-67.96993071 -45.87922522,-67.9739785 -45.8781632,-67.9745579 -45.8782677,-67.9740644 -45.8788802,-67.9710174 -45.8792537,-67.97210325 -45.8786421,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9755771 -45.8785142,-67.9742253 -45.8787756,-67.974236 -45.878222900000004,-67.9757414 -45.87911165,-67.9789352 -45.8795823,-67.9791069 -45.8776627,-67.9756737 -45.8784769,-67.9758239 -45.8787234,-67.9765105 -45.8789474,-67.97764389 -45.88001208,-67.9789352 -45.8795823,-67.9789889 -45.8790669,-67.9799759 -45.8791491,-67.97934342 -45.87920812,-67.9797721 -45.879179,-67.9789889 -45.8790669,-67.9792571 -45.8776403,-67.9831409 -45.876744,-67.9844499 -45.8766842,-67.9838705 -45.8772892,-67.98257485 -45.87765379,-67.9838705 -45.8772892,-67.9842675 -45.8766469,-67.9854584 -45.876617,-67.9846001 -45.8763854,-67.98281428 -45.87644776,-67.9865313 -45.8763033,-67.9853833 -45.8764975,-67.98469660000002 -45.8764303,-67.98563419 -45.87640922,-67.9896748 -45.8771548,-67.9892349 -45.8767216,-67.985158 -45.8765946,-67.9863167 -45.8762734,-67.98904006 -45.87741924,-67.9909623 -45.8768411,-67.9909086 -45.8766394,-67.9893529 -45.876729,-67.9896641 -45.8770726,-67.98995293 -45.87688436,-67.9932904 -45.8760792,-67.9926252 -45.8763556,-67.9912949 -45.8766319,-67.99230343 -45.87612978,-68.0007684 -45.8741147,-67.9944921 -45.8759223,-67.9942346 -45.8757953,-68.00013115 -45.87419939;-68.00013115 -45.87419939,-68.0015838 -45.8738084,-68.0021203 -45.8736067,-68.0017447 -45.8731436,-68.0009079 -45.8733901,-67.99900055 -45.87377745,-68.0009079 -45.8733901,-68.0017447 -45.8731436,-68.0013478 -45.8728149,-68.0005753 -45.8728074,-67.9998672 -45.8727327,-67.9986441 -45.8728074,-67.99707801 -45.87306235,-67.9984939 -45.8727327,-67.9986763 -45.8725609,-67.9987407 -45.872292,-67.99743076 -45.87213204,-68.0036652 -45.8703498,-68.0024529 -45.8706934,-68.0012727 -45.8709175,-68.0001891 -45.8713881,-67.9995775 -45.8718363,-68.00284674 -45.87040916,-68.0041587 -45.8700285,-68.0051243 -45.8686091,-68.00449906 -45.86852742,-68.0070448 -45.8686241,-68.0060685 -45.868385,-68.00620422 -45.86892139,-68.0070448 -45.8686241,-68.0067122 -45.8683028,-68.0066907 -45.8679293,-68.0047274 -45.8681086,-68.0029786 -45.8686316,-68.0021524 -45.8685344,-68.0022383 -45.8682132,-68.00126819 -45.86832361,,-68.00080119 -45.86808139,-67.9980218 -45.8692665,-68.0000389 -45.8684074,-68.0017662 -45.8680339,-67.99627751 -45.86960923,-67.9969811 -45.8694981,-67.9958439 -45.8695654,-67.99512510000001 -45.8693413,-67.99505 -45.8690499,-67.99439359 -45.86914058,-67.99505 -45.8690499,-67.9947495 -45.8687287,-67.9952323 -45.8676529,-67.99437986 -45.8677879,-67.9954576 -45.8672868,-67.9960907 -45.8666518,-67.9968202 -45.8663306,-67.99554948 -45.86642106,-67.9970026 -45.8663754,-68.0035257 -45.8657777,-68.003397 -45.8661662,-68.00288598 -45.86648631,-68.0048561 -45.8661961,-68.0066156 -45.864941,-68.00601835 -45.8652672,-68.0066907 -45.8648887,-68.0076134 -45.8646197,-68.0077314 -45.8640818,-68.0066907 -45.862595,-68.0065084 -45.8626847,-68.00524993 -45.86266209,-68.0066907 -45.862595,-68.0062294 -45.8616088,-68.0054569 -45.8608467,-68.004663 -45.8610185,-68.00290781 -45.86119572,-68.0032039 -45.861564,-68.0037832 -45.8611157,-68.0040193 -45.8610858,-68.00170055 -45.8618692,-68.0024529 -45.8617881,-68.0025601 -45.862341,-68.0002105 -45.8608467,-68.0004787 -45.8601219,-67.99931829 -45.86009184,-68.0074525 -45.859442,-68.0054677 -45.8582764,-68.0048132 -45.8581195,-68.0035686 -45.8582092,-68.0016375 -45.8587994,-68.0007148 -45.8595093,-68.00660247 -45.85987417,-68.0085039 -45.8608542,-68.0076885 -45.8600248,-68.00795638 -45.86120116,-68.0092764 -45.861153,-68.0112505 -45.8612053,-68.0125165 -45.8608841,-68.0140936 -45.8599053,-68.0144691 -45.860757,-68.0142117 -45.8610111,-68.0129057 -45.86088542,-68.0142868 -45.8609737,-68.0144262 -45.8605553,-68.0140936 -45.8599053,-68.0133533 -45.8599352,-68.0130315 -45.8598604,-68.0120766 -45.8601145,-68.0106323 -45.86038668;-68.0106323 -45.86038668,-68.0142868 -45.8609737,-68.0144262 -45.8605553,-68.0140936 -45.8599053,-68.0133533 -45.8599352,-68.0130315 -45.8598604,-68.0120766 -45.8601145,-68.0129057 -45.86088542,-68.01428 -45.86088,-68.01441 -45.86067,-68.013976 -45.85962,-68.01370 -45.85934,-68.01342 -45.85814,-68.01245 -45.8562,-68.01183 -45.85572,-68.00954 -45.85532,-68.00842 -45.85533,-68.0081391 -45.85491,-68.00715 -45.85452,-68.00533143 -45.85441605,-68.0071521 -45.8545179,-68.0081713 -45.855026,-68.0084181 -45.8553324,-68.0044699 -45.8552875,-68.00310693 -45.85560933;-68.00310693 -45.85560933,-68.0071521 -45.8545179,-68.0081713 -45.855026,-68.0084181 -45.8553324,-68.0044699 -45.8552875,-68.00533143 -45.85441605,-68.0073881 -45.8595317,-68.0048668 -45.8579775,-68.0083323 -45.8566475,-68.0111432 -45.8564831,-68.0119586 -45.855833,-68.0093408 -45.8553025,-68.0084181 -45.8553324,-68.0081391 -45.8549139,-68.0071521 -45.8545179,-68.00660247 -45.85987417,-68.0074525 -45.859442,-68.0054677 -45.8582764,-68.0048132 -45.8581195,-68.0035686 -45.8582092,-68.0016375 -45.8587994,-68.0007148 -45.8595093,-67.99931829 -45.86009184,-68.0024529 -45.8617881,-68.0025601 -45.862341,-68.0002105 -45.8608467,-68.0004787 -45.8601219,-68.00170055 -45.8618692,-68.0032039 -45.861564,-68.0037832 -45.8611157,-68.0040193 -45.8610858,-68.00290781 -45.86119572,-68.0066907 -45.862595,-68.0062294 -45.8616088,-68.0054569 -45.8608467,-68.004663 -45.8610185,-68.00524993 -45.86266209,-68.0066907 -45.8648887,-68.0076134 -45.8646197,-68.0077314 -45.8640818,-68.0066907 -45.862595,-68.0065084 -45.8626847,-68.00601835 -45.8652672,-68.0048561 -45.8661961,-68.0066156 -45.864941,-68.00288598 -45.86648631,-67.9970026 -45.8663754,-68.0035257 -45.8657777,-68.003397 -45.8661662,-67.99554948 -45.86642106,-67.9954576 -45.8672868,-67.9960907 -45.8666518,-67.9968202 -45.8663306,-67.99437986 -45.8677879,-67.99505 -45.8690499,-67.9947495 -45.8687287,-67.9952323 -45.8676529,-67.99439359 -45.86914058,-67.9969811 -45.8694981,-67.9958439 -45.8695654,-67.99512510000001 -45.8693413,-67.99505 -45.8690499,-67.99627751 -45.86960923,-67.9980218 -45.8692665,-68.0000389 -45.8684074,-68.0017662 -45.8680339,-68.00080119 -45.86808139,,-68.00126819 -45.86832361,-68.0070448 -45.8686241,-68.0067122 -45.8683028,-68.0066907 -45.8679293,-68.0047274 -45.8681086,-68.0029786 -45.8686316,-68.0021524 -45.8685344,-68.0022383 -45.8682132,-68.00620422 -45.86892139,-68.0070448 -45.8686241,-68.0060685 -45.868385,-68.00449906 -45.86852742,-68.0041587 -45.8700285,-68.0051243 -45.8686091,-68.00284674 -45.87040916,-68.0035579 -45.8703423,-68.0025816 -45.8706859,-68.0014014 -45.8705066,-67.99960904 -45.87080973,,-67.99921407 -45.87121751,-67.9971957 -45.8714031,-67.9989982 -45.8712611,-67.9998028 -45.8710071,-67.99553288 -45.87226112,-67.9929739 -45.8721949,-67.9927379 -45.872546,-67.993784 -45.8729494,-67.9957634 -45.8725273,-67.9964232 -45.8722024,-67.99156523 -45.87210921,-67.9930758 -45.87218,-67.992754 -45.8724788,-67.9914343 -45.8718886,-67.9915845 -45.8711565,-67.9912734 -45.8710071,-67.9900866 -45.8710699,-67.9910052 -45.8707457,-67.9910266 -45.8705664,-67.99163820000001 -45.8700883,-67.9915524 -45.8697073,-67.99024475 -45.86974641,-67.9914558 -45.8692516,-67.9914558 -45.8690499,-67.9925716 -45.8679293,-67.99174523 -45.8677107,-67.9929578 -45.8671225,-67.9928398 -45.8662783,-67.9924321 -45.8655835,-67.9919815 -45.8652548,-67.992121 -45.8648663,-67.9910159 -45.864672,-67.9918528 -45.8642238,-67.99158422 -45.86437969,-67.9920459 -45.8642163,-67.9910159 -45.864672,-67.9903078 -45.8650157,-67.9890847 -45.8656208,-67.9855978 -45.8654415,-67.9855227 -45.865322,-67.98422803 -45.86529103,-67.9859948 -45.8647094,-67.9874003 -45.863783,-67.98677491 -45.86342245,-67.9886341 -45.8629088,-67.9906297 -45.8618479,-67.9911232 -45.8617956,-67.99023202 -45.86204363,-67.9952538 -45.8605927,-67.9947281 -45.8608168,-67.9940629 -45.8615789,-67.9931509 -45.862087,-67.9937303 -45.8615714,-67.9916918 -45.8619226,-67.99496681 -45.86045139;-67.99496681 -45.86045139,-67.9952538 -45.8605927,-67.9947281 -45.8608168,-67.9940629 -45.8615789,-67.9931509 -45.862087,-67.9937303 -45.8615714,-67.9916918 -45.8619226,-67.99023202 -45.86204363,-67.9911339 -45.8618479,-67.9904687 -45.8619002,-67.9910696 -45.8615117,-67.9918849 -45.861295,-67.9930007 -45.8606151,-67.99220337 -45.86057361,-67.9928935 -45.8605404,-67.9914236 -45.8609588,-67.98931 -45.8614369,-67.9889023 -45.8613323,-67.98715669 -45.86146692,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98206338 -45.86352335,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98026531 -45.86300386,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.97692655 -45.86298292,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97781889 -45.86412305,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97170451 -45.86764851,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.96898996 -45.86789944,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.9688479 -45.86924263,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.96992116 -45.87035971,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.9672039 -45.87497495,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.96572509 -45.87368099,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96214261 -45.87344787,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.95720623 -45.87256309,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95650202 -45.87386891,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95610675 -45.87170205,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95709848 -45.86769228,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2306,S2042,S2517</t>
   </si>
   <si>
     <t>Base,Linea 1,S176,Linea 1506,S2447,Linea 2,S993,Linea 3,S329,Linea 4,S309,Linea 6,S328,Linea 7,S2258,Linea 8,S326,Linea 52,S2253,Linea 55,S254,Linea 60,S234,Linea 987,S271,Linea 989,S950,Linea 729,S379,Linea 727,S578,Linea 1651,S2454,Linea 723,S2306;S2306,Linea 723,S2454,Linea 1650,S578,Linea 727,S379,Linea 729,S950,Linea 989,S271,Linea 987,S234,Linea 60,S254,Linea 55,S2253,Linea 52,S326,Linea 8,S2258,Linea 7,S328,Linea 6,S309,Linea 4,S329,Linea 3,S993,Linea 2,S2447,Linea 1506,S176,Linea 1,Base,Linea 14,S278,Linea 15,S2250,Linea 16,S977,Linea 17,S245,Linea 1340,S186,Linea 901,S539,Linea 1408,S2376,Linea 1346,S190,Linea 1395,S232,Linea 1348,S2314,Linea 1347,S643,Linea 888,S299,Linea 885,S2042;S2042,Linea 885,S299,Linea 888,S643,Linea 1347,S2314,Linea 1348,S232,Linea 1395,S190,Linea 1346,S2376,Linea 1408,S539,Linea 901,S186,Linea 1340,S245,Linea 17,S977,Linea 16,S2250,Linea 15,S278,Linea 14,Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 943,S167,Linea 946,S2147,Linea 966,S2465,Linea 968,S387,Linea 970,S316,Linea 969,S39,Linea 957,S36,Linea 1027,S2695,Linea 1026,S43,Linea 1088,S2707,Linea 1098,S42,Linea 1856,S2724,Linea 1092,S163,Linea 1854,S66,Linea 1156,S63,Linea 1857,S2148,Linea 1166,S81,Linea 1160,S20,Linea 1161,S2517;S2517,Linea 1161,S20,Linea 1160,S81,Linea 1166,S2148,Linea 1857,S63,Linea 1156,S66,Linea 1854,S163,Linea 1092,S2724,Linea 1856,S42,Linea 1098,S2707,Linea 1088,S43,Linea 1026,S2695,Linea 1027,S36,Linea 957,S39,Linea 969,S316,Linea 970,S387,Linea 968,S2465,Linea 966,S2147,Linea 946,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.93822649 -45.86645361,,-67.93820898 -45.86621382,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.9397787 -45.86446671,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.94026881 -45.86394522,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94016816 -45.86304785,-67.9407513 -45.863103100000004,-67.9403973 -45.8622551,-67.93757020000001 -45.8636746,-67.93638614 -45.8639203,-67.9374468 -45.8637643,-67.93648120000002 -45.8648999,-67.93542287 -45.86514387,-67.9364544 -45.8650082,-67.9343033 -45.8651128,-67.93322311 -45.86539389,-67.934196 -45.8650755,-67.9339492 -45.8648887,-67.9318678 -45.8652174,-67.93025624 -45.86524613,-67.9317927 -45.8665099,-67.9313958 -45.8663156,-67.9318678 -45.8652174,-67.93029002 -45.86668754,-67.9312563 -45.8666892,-67.9306877 -45.8669805,-67.9292071 -45.866338,-67.9283273 -45.867257,-67.92759808 -45.86788307,-67.9271686 -45.8677052,-67.926718 -45.8677948,-67.925849 -45.8687063,-67.92477777 -45.86902425,-67.9239607 -45.87091,-67.9254735 -45.8690648,-67.92270363 -45.87121385,-67.9235101 -45.8711267,-67.9226303 -45.8711043,-67.9216754 -45.8713134,-67.92053462 -45.87127057,-67.9206347 -45.8733602,-67.9204845 -45.8732108,-67.9220188 -45.8711565,-67.91979942 -45.8736741,,-67.91957453 -45.87370778,-67.9212248 -45.8733378,-67.9216969 -45.8732033,-67.9219866 -45.8726954,-67.92142151 -45.87273947;-67.92142151 -45.87273947,-67.9212248 -45.8733378,-67.9216969 -45.8732033,-67.9219866 -45.8726954,-67.91957453 -45.87370778,,-67.91979942 -45.8736741,-67.9206347 -45.8733602,-67.9204845 -45.8732108,-67.9220188 -45.8711565,-67.92053462 -45.87127057,-67.9235101 -45.8711267,-67.9226303 -45.8711043,-67.9216754 -45.8713134,-67.92270363 -45.87121385,-67.9239607 -45.87091,-67.9254735 -45.8690648,-67.92477777 -45.86902425,-67.9271686 -45.8677052,-67.926718 -45.8677948,-67.925849 -45.8687063,-67.92759808 -45.86788307,-67.9312563 -45.8666892,-67.9306877 -45.8669805,-67.9292071 -45.866338,-67.9283273 -45.867257,-67.93029002 -45.86668754,-67.9317927 -45.8665099,-67.9313958 -45.8663156,-67.9318678 -45.8652174,-67.93025624 -45.86524613,-67.934196 -45.8650755,-67.9339492 -45.8648887,-67.9318678 -45.8652174,-67.93322311 -45.86539389,-67.9364544 -45.8650082,-67.9343033 -45.8651128,-67.93542287 -45.86514387,-67.9374468 -45.8637643,-67.93648120000002 -45.8648999,-67.93638614 -45.8639203,-67.9407513 -45.863103100000004,-67.9403973 -45.8622551,-67.93757020000001 -45.8636746,-67.94016816 -45.86304785,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94026881 -45.86394522,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.9397787 -45.86446671,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.93820898 -45.86621382,,-67.93822649 -45.86645361,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.9400271 -45.8665472,-67.9427254 -45.8635364,-67.9464859 -45.8623447,-67.9469097 -45.862016,-67.94569946 -45.86221924,-67.9469097 -45.8620944,-67.9481596 -45.8620048,-67.94727301 -45.86217176,-67.9483044 -45.861911400000004,-67.9473495 -45.8614183,-67.94655091 -45.86160389,-67.9479718 -45.8615453,-67.9493934 -45.8606973,-67.9489589 -45.8606599,-67.94780419 -45.86081977,-67.9549134 -45.858239,-67.9527032 -45.8590684,-67.9493666 -45.8607794,-67.9491198 -45.8606898,-67.9539623 -45.85805836,-67.9549778 -45.85820170000001,-67.9571986 -45.85672970000001,-67.9579175 -45.8564981,-67.9585719 -45.8567521,-67.95773843 -45.85672753,-67.9586148 -45.8568044,-67.9579926 -45.8564383,-67.9605138 -45.8553847,-67.9615545 -45.8546374,-67.963078 -45.8525451,-67.9633892 -45.8522836,-67.9675841 -45.8512224,-67.9699767 -45.8512598,-67.9700732 -45.8515064,-67.9697835 -45.8517381,-67.96836168 -45.85192469,-67.9697835 -45.8517381,-67.9700947 -45.8517082,-67.9702342 -45.8514018,-67.9710817 -45.8516335,-67.97135 -45.8516633,-67.97067338 -45.85178783,-67.9748797 -45.8534568,-67.9738176 -45.8522612,-67.9730666 -45.8517007,-67.9728305 -45.8516858,-67.9720902 -45.8515438,-67.97404757 -45.85313584,-67.9750836 -45.8543983,-67.9752016 -45.8534194,-67.97353981 -45.85482131,-67.9721439 -45.8564532,-67.9723585 -45.855833,-67.9728305 -45.8549363,-67.9739249 -45.8544805,-67.9741395 -45.8540023,-67.9740536 -45.853539,-67.9744184 -45.8538977,-67.9746437 -45.8541517,-67.9750943 -45.8540247,-67.9749548 -45.854488,-67.97079424 -45.85669528,-67.9717469 -45.8565802,-67.9712749 -45.8564906,-67.9691505 -45.8556985,-67.9694617 -45.8555042,-67.96888425 -45.85562391,-67.96980500000001 -45.8555341,-67.9681528 -45.8556462,-67.966007 -45.8547122,-67.9648912 -45.8550335,-67.96313922 -45.85555735;-67.96313922 -45.85555735,-67.96980500000001 -45.8555341,-67.9681528 -45.8556462,-67.966007 -45.8547122,-67.9648912 -45.8550335,-67.96888425 -45.85562391,-67.9717469 -45.8565802,-67.9712749 -45.8564906,-67.9691505 -45.8556985,-67.9694617 -45.8555042,-67.97079424 -45.85669528,-67.9721439 -45.8564532,-67.9723585 -45.855833,-67.9728305 -45.8549363,-67.9739249 -45.8544805,-67.9741395 -45.8540023,-67.9740536 -45.853539,-67.9744184 -45.8538977,-67.9746437 -45.8541517,-67.9750943 -45.8540247,-67.9749548 -45.854488,-67.97353981 -45.85482131,-67.9750836 -45.8543983,-67.9752016 -45.8534194,-67.97404757 -45.85313584,-67.9748797 -45.8534568,-67.9738176 -45.8522612,-67.9730666 -45.8517007,-67.9728305 -45.8516858,-67.9720902 -45.8515438,-67.97067338 -45.85178783,-67.9697835 -45.8517381,-67.9700947 -45.8517082,-67.9702342 -45.8514018,-67.9710817 -45.8516335,-67.97135 -45.8516633,-67.96836168 -45.85192469,-67.9586148 -45.8568044,-67.9579926 -45.8564383,-67.9605138 -45.8553847,-67.9615545 -45.8546374,-67.963078 -45.8525451,-67.9633892 -45.8522836,-67.9675841 -45.8512224,-67.9699767 -45.8512598,-67.9700732 -45.8515064,-67.9697835 -45.8517381,-67.95773843 -45.85672753,-67.9549778 -45.85820170000001,-67.9571986 -45.85672970000001,-67.9579175 -45.8564981,-67.9585719 -45.8567521,-67.9539623 -45.85805836,-67.9549134 -45.858239,-67.9527032 -45.8590684,-67.9493666 -45.8607794,-67.9491198 -45.8606898,-67.94780419 -45.86081977,-67.9479718 -45.8615453,-67.9493934 -45.8606973,-67.9489589 -45.8606599,-67.94655091 -45.86160389,-67.9483044 -45.861911400000004,-67.9473495 -45.8614183,-67.94727301 -45.86217176,-67.9469097 -45.8620944,-67.9481596 -45.8620048,-67.94569946 -45.86221924,-67.9427254 -45.8635364,-67.9464859 -45.8623447,-67.9469097 -45.862016,-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.93512028 -45.8793768,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.94258106 -45.87928487,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.9459034 -45.88040255,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.94607409 -45.88311995,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94628753 -45.88560005,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94746568 -45.88694764,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94972726 -45.88693813,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.95178221 -45.88666191,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95650174 -45.8868325,-67.9573059 -45.8868268,-67.956748 -45.8864908,-67.9563725 -45.8857215,-67.9556644 -45.8849971,-67.9546167 -45.88506443,-67.960428 -45.8852436,-67.9597843 -45.8853855,-67.9578102 -45.8852959,-67.9558897 -45.8849448,-67.95958113 -45.88533853,-67.9643977 -45.8867746,-67.9641402 -45.8867895,-67.9629064 -45.8855274,-67.9625845 -45.8842055,-67.9620588 -45.8840412,-67.9608893 -45.8848926,-67.96291589 -45.88644251,-67.9642582 -45.8866849,-67.9660714 -45.8869613,-67.9663503 -45.8865505,-67.9662859 -45.88549,-67.9665112 -45.8837798,-67.9671657 -45.8837275,-67.9670477 -45.8843548,-67.96615149 -45.88487087,-67.9670584 -45.8844071,-67.9672515 -45.8836677,-67.9703629 -45.8832122,-67.96961317 -45.88291315,-67.9741502 -45.8819201,-67.9734421 -45.8820844,-67.9724014 -45.8825176,-67.9714251 -45.8825474,-67.97327478 -45.88212301,-67.9766285 -45.88254,-67.9760277 -45.8820396,-67.9747617 -45.8818006,-67.9745471 -45.8818454,-67.97565115 -45.88292201,-67.9766071 -45.8824279,-67.9764247 -45.8817184,-67.9768002 -45.8819051,-67.97621382 -45.88197066;-67.97621382 -45.88197066,-67.9766071 -45.8824279,-67.9764247 -45.8817184,-67.9768002 -45.8819051,-67.97565115 -45.88292201,-67.9766285 -45.88254,-67.9760277 -45.8820396,-67.9747617 -45.8818006,-67.9745471 -45.8818454,-67.97327478 -45.88212301,-67.9741502 -45.8819201,-67.9734421 -45.8820844,-67.9724014 -45.8825176,-67.9714251 -45.8825474,-67.96961317 -45.88291315,-67.9670584 -45.8844071,-67.9672515 -45.8836677,-67.9703629 -45.8832122,-67.96615149 -45.88487087,-67.9642582 -45.8866849,-67.9660714 -45.8869613,-67.9663503 -45.8865505,-67.9662859 -45.88549,-67.9665112 -45.8837798,-67.9671657 -45.8837275,-67.9670477 -45.8843548,-67.96291589 -45.88644251,-67.9643977 -45.8867746,-67.9641402 -45.8867895,-67.9629064 -45.8855274,-67.9625845 -45.8842055,-67.9620588 -45.8840412,-67.9608893 -45.8848926,-67.95958113 -45.88533853,-67.960428 -45.8852436,-67.9597843 -45.8853855,-67.9578102 -45.8852959,-67.9558897 -45.8849448,-67.9546167 -45.88506443,-67.9573059 -45.8868268,-67.956748 -45.8864908,-67.9563725 -45.8857215,-67.9556644 -45.8849971,-67.95650174 -45.8868325,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95178221 -45.88666191,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.94972726 -45.88693813,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94746568 -45.88694764,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94628753 -45.88560005,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94607409 -45.88311995,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.9459034 -45.88040255,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.94258106 -45.87928487,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S931,S754</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 944,S56,Linea 940,S78,Linea 932,S645,Linea 931,S2111,Linea 930,S2110,Linea 736,S2167,Linea 1617,S2168,Linea 584,S849,Linea 582,S938,Linea 587,S2511,Linea 588,S932,Linea 589,S577,Linea 1052,S808,Linea 1216,S786,Linea 1066,S931;S931,Linea 1066,S786,Linea 1216,S808,Linea 1067,S787,Linea 1070,S724,Linea 1071,S827,Linea 1062,S760,Linea 1073,S794,Linea 1297,S759,Linea 1306,S834,Linea 1307,S839,Linea 1313,S725,Linea 1310,S744,Linea 1321,S747,Linea 1324,S752,Linea 1244,S753,Linea 1323,S755,Linea 1235,S2534,Linea 1234,Q22,Linea 1758,S754;S754,Linea 1758,Q22,Linea 1234,S2534,Linea 1235,S755,Linea 1323,S753,Linea 1244,S752,Linea 1324,S747,Linea 1321,S744,Linea 1310,S725,Linea 1313,S839,Linea 1307,S834,Linea 1306,S759,Linea 1297,S794,Linea 1073,S760,Linea 1221,S791,Linea 1076,S793,Linea 1078,S2667,Linea 1077,S944,Linea 1085,S115,Linea 1733,S927,Linea 1222,S33,Linea 1724,S2094,Linea 950,S31,Linea 949,S2146,Linea 964,S2147,Linea 946,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92260289 -45.87981886,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.91930941 -45.88137118,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91747464 -45.88372353,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91541483 -45.88231338,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.90970498 -45.88326091,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90591516 -45.88446218,,-67.90594775 -45.88423937,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90705336 -45.88840606,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90362098 -45.8874036,-67.9022241 -45.8892913,-67.9030609 -45.889239,-67.9032218 -45.8889477,-67.9028785 -45.8877678,-67.9034686 -45.8869165,-67.9039729 -45.8871629,-67.90098858 -45.88903898,-67.9020846 -45.8894257,-67.9013014 -45.8899484,-67.8996277 -45.8906877,-67.899971 -45.8910611,-67.9025245 -45.8912403,-67.90201018 -45.89143448,-67.9100668 -45.8930624,-67.90882230000001 -45.8924799,-67.9064727 -45.8916734,-67.9044127 -45.8911507,-67.9037046 -45.8911806,-67.9095676 -45.89358013,-67.9101956 -45.899678,-67.9090798 -45.9005739,-67.9091763 -45.9006934,-67.9097128 -45.9003873,-67.9113436 -45.8999841,-67.9123521 -45.9008128,-67.9124165 -45.9004769,-67.9120195 -45.899566,-67.9120624 -45.8986177,-67.9110324 -45.8972513,-67.9111183 -45.8939286,-67.90953741 -45.89946636,-67.9101312 -45.899663,-67.9090261 -45.9007008,-67.9088652 -45.9010443,-67.9077709 -45.901328,-67.907331 -45.9009771,-67.9077816 -45.9005441,-67.9070628 -45.8999318,-67.90575154 -45.89995116,-67.9071593 -45.8999318,-67.9077816 -45.9005441,-67.9093266 -45.8992524,-67.9094017 -45.8982519,-67.9090691 -45.8980577,-67.9083502 -45.8984833,-67.9024601 -45.8979383,-67.9008722 -45.8967959,-67.9025567 -45.8975649,-67.9050457 -45.8975575,-67.9064405 -45.8970647,-67.9069877 -45.8965047,-67.9064941 -45.8957953,-67.9053569 -45.8954966,-67.9042304 -45.895407,-67.9022777 -45.8949814,-67.9017198 -45.8952876,-67.9019129 -45.8963628,-67.9025137 -45.896766,-67.9042196 -45.8966017,-67.90372312 -45.89680061;-67.90372312 -45.89680061,-67.9071593 -45.8999318,-67.9077816 -45.9005441,-67.9093266 -45.8992524,-67.9094017 -45.8982519,-67.9090691 -45.8980577,-67.9083502 -45.8984833,-67.9024601 -45.8979383,-67.9008722 -45.8967959,-67.9025567 -45.8975649,-67.9050457 -45.8975575,-67.9064405 -45.8970647,-67.9069877 -45.8965047,-67.9064941 -45.8957953,-67.9053569 -45.8954966,-67.9042304 -45.895407,-67.9022777 -45.8949814,-67.9017198 -45.8952876,-67.9019129 -45.8963628,-67.9025137 -45.896766,-67.9042196 -45.8966017,-67.90575154 -45.89995116,-67.9101312 -45.899663,-67.9090261 -45.9007008,-67.9088652 -45.9010443,-67.9077709 -45.901328,-67.907331 -45.9009771,-67.9077816 -45.9005441,-67.9070628 -45.8999318,-67.90953741 -45.89946636,-67.9084682 -45.9027914,-67.9096591 -45.9021717,-67.9111719 -45.9011339,-67.9123199 -45.9007083,-67.9114294 -45.8999766,-67.9097021 -45.9003425,-67.9089189 -45.9008875,-67.9101956 -45.899678,-67.9066489 -45.9028322,-67.9164612 -45.9058822,-67.9158711 -45.905479,-67.9148841 -45.9052252,-67.9124272 -45.9007456,-67.9111719 -45.9011339,-67.9084682 -45.9027914,-67.91573771 -45.90642661,-67.9163861 -45.9059195,-67.9159999 -45.9055014,-67.9150128 -45.9052252,-67.9152274 -45.9042696,-67.9163969 -45.9024479,-67.9179418 -45.9021418,-67.9190683 -45.9011936,-67.9189825 -45.9003723,-67.9191971 -45.9000886,-67.9196155 -45.9003499,-67.91900661 -45.90044035,-67.9196155 -45.9003499,-67.9192078 -45.9000214,-67.9200554 -45.8997825,-67.9231131 -45.8985207,-67.9222226 -45.8982295,-67.92046749 -45.89809236,-67.9312027 -45.9008128,-67.9299688 -45.9015296,-67.9282737 -45.9003723,-67.9263103 -45.8994316,-67.9232204 -45.8984983,-67.9221046 -45.8981623,-67.93028301 -45.90068278,-67.9313636 -45.9007755,-67.9299688 -45.9015296,-67.9309559 -45.9024778,-67.931664 -45.9022687,-67.9323721 -45.9010144,-67.9335737 -45.900447,-67.9371786 -45.9012832,-67.9379082 -45.9021045,-67.9396677 -45.9026719,-67.941041 -45.9025674,-67.94048121 -45.90255833,-67.9417276 -45.9060912,-67.9426718 -45.9047623,-67.9416203 -45.9047773,-67.9445601 -45.9035379,-67.942543 -45.9026271,-67.94070253 -45.90708056,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.93482704 -45.9074612,-67.922008 -45.9097193,-67.9201412 -45.9109884,-67.9196906 -45.9109585,-67.9200125 -45.9097492,-67.9210854 -45.909585,-67.9227591 -45.90851,-67.9267287 -45.9077933,-67.9317927 -45.9075544,-67.9344964 -45.9080023,-67.9353762 -45.9076142,-67.92132124 -45.90950332,-67.9221797 -45.9097492,-67.9201412 -45.9109884,-67.91924 -45.911063,-67.9191971 -45.9115109,-67.91938339 -45.91141146,-67.9150558 -45.9126903,-67.9162359 -45.9122126,-67.9164505 -45.9115408,-67.9181457 -45.910645,-67.9202914 -45.9111078,-67.91361731 -45.91301639,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.9049706 -45.9149894,-67.9050565 -45.9146311,-67.908597 -45.9143027,-67.9105282 -45.9135114,-67.9126954 -45.9130636,-67.9141974 -45.9123171,-67.90949828 -45.91775832,-67.9105067 -45.9207068,-67.9081678 -45.9205276,-67.9078245 -45.9200798,-67.9065156 -45.9195574,-67.9081035 -45.9191991,-67.9097772 -45.9180049,-67.91006087 -45.92075561,-67.9186392 -45.925737,-67.9181242 -45.9258713,-67.9160213 -45.924319,-67.9144335 -45.9239011,-67.9125881 -45.9236324,-67.911365 -45.9232891,-67.908361 -45.9205575,-67.9107213 -45.9206172,-67.91781996 -45.92567691,-67.9287672 -45.9270653,-67.927587 -45.9266922,-67.9265141 -45.9266325,-67.9261708 -45.9260206,-67.926321 -45.9254982,-67.9253769 -45.9248713,-67.9232097 -45.9249011,-67.922008 -45.9242593,-67.9200339 -45.9239458,-67.9162788 -45.9243787,-67.9181242 -45.9258713,-67.9186392 -45.925737,-67.92882882 -45.92622679,-67.9366422 -45.9271698,-67.9355264 -45.9268564,-67.9335093 -45.9267071,-67.9319644 -45.9271698,-67.9287672 -45.9270653,-67.93584321 -45.92709528,,-67.93676614 -45.92727049;-67.93676614 -45.92727049,,-67.93584321 -45.92709528,-67.9366422 -45.9271698,-67.9355264 -45.9268564,-67.9335093 -45.9267071,-67.9319644 -45.9271698,-67.9287672 -45.9270653,-67.92882882 -45.92622679,-67.9287672 -45.9270653,-67.927587 -45.9266922,-67.9265141 -45.9266325,-67.9261708 -45.9260206,-67.926321 -45.9254982,-67.9253769 -45.9248713,-67.9232097 -45.9249011,-67.922008 -45.9242593,-67.9200339 -45.9239458,-67.9162788 -45.9243787,-67.9181242 -45.9258713,-67.9186392 -45.925737,-67.91781996 -45.92567691,-67.9186392 -45.925737,-67.9181242 -45.9258713,-67.9160213 -45.924319,-67.9144335 -45.9239011,-67.9125881 -45.9236324,-67.911365 -45.9232891,-67.908361 -45.9205575,-67.9107213 -45.9206172,-67.91006087 -45.92075561,-67.9105067 -45.9207068,-67.9081678 -45.9205276,-67.9078245 -45.9200798,-67.9065156 -45.9195574,-67.9081035 -45.9191991,-67.9097772 -45.9180049,-67.90949828 -45.91775832,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.9049706 -45.9149894,-67.9050565 -45.9146311,-67.908597 -45.9143027,-67.9105282 -45.9135114,-67.9126954 -45.9130636,-67.9141974 -45.9123171,-67.91361731 -45.91301639,-67.9150558 -45.9126903,-67.9162359 -45.9122126,-67.9164505 -45.9115408,-67.9181457 -45.910645,-67.9202914 -45.9111078,-67.91938339 -45.91141146,-67.9221797 -45.9097492,-67.9201412 -45.9109884,-67.91924 -45.911063,-67.9191971 -45.9115109,-67.92132124 -45.90950332,-67.922008 -45.9097193,-67.9201412 -45.9109884,-67.9196906 -45.9109585,-67.9200125 -45.9097492,-67.9210854 -45.909585,-67.9227591 -45.90851,-67.9267287 -45.9077933,-67.9317927 -45.9075544,-67.9344964 -45.9080023,-67.9353762 -45.9076142,-67.93482704 -45.9074612,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.94070253 -45.90708056,-67.9417276 -45.9060912,-67.9426718 -45.9047623,-67.9416203 -45.9047773,-67.9445601 -45.9035379,-67.942543 -45.9026271,-67.94048121 -45.90255833,-67.9313636 -45.9007755,-67.9299688 -45.9015296,-67.9309559 -45.9024778,-67.931664 -45.9022687,-67.9323721 -45.9010144,-67.9335737 -45.900447,-67.9371786 -45.9012832,-67.9379082 -45.9021045,-67.9396677 -45.9026719,-67.941041 -45.9025674,-67.93028301 -45.90068278,-67.9312027 -45.9008128,-67.9299688 -45.9015296,-67.9282737 -45.9003723,-67.9263103 -45.8994316,-67.9232204 -45.8984983,-67.9221046 -45.8981623,-67.92046749 -45.89809236,-67.9221904 -45.8981548,-67.9232204 -45.8984983,-67.9230487 -45.8980652,-67.9224908 -45.89755,-67.9236388 -45.8964449,-67.92261639 -45.89612501,-67.9235637 -45.895743,-67.9241538 -45.8953249,-67.9267287 -45.8949142,-67.9271579 -45.8944961,-67.9267287 -45.8942048,-67.9257309 -45.8936448,-67.9256558 -45.8930698,-67.9268682 -45.8923604,-67.9289711 -45.8934208,-67.9293036 -45.893361,-67.92819602 -45.89300211,-67.929368 -45.8925994,-67.9296148 -45.8919423,-67.9287994 -45.8913897,-67.9285097 -45.8910014,-67.9286277 -45.8901127,-67.92758265 -45.88993498,-67.9286492 -45.8892166,-67.9288638 -45.8878724,-67.9292393 -45.8876931,-67.92838162 -45.88770662,-67.929883 -45.8876782,-67.9306018 -45.8878724,-67.9317605 -45.8883727,-67.9326189 -45.888201,-67.93184093 -45.88869985,,-67.93195275 -45.88880085,-67.9325545 -45.8880964,-67.9324257 -45.8875363,-67.933048 -45.8868642,-67.9335093 -45.8836304,-67.93297197 -45.88384007,,-67.93288041 -45.88347512,-67.9369962 -45.8822636,-67.9367441 -45.8819686,-67.9343677 -45.8832719,-67.93623372 -45.88237227,-67.9369104 -45.8822487,-67.9367441 -45.8819686,-67.9385787 -45.881274,-67.938568 -45.8809641,-67.9379243 -45.8811844,-67.93588984 -45.88149225,-67.9380155 -45.8812404,-67.938627 -45.880852,-67.9384768 -45.8805682,-67.9371035 -45.8800827,-67.9358482 -45.8797093,-67.9335737 -45.8797616,-67.934432 -45.8794255,-67.9350007 -45.8792835,-67.9357088 -45.8792686,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S845,S995,S2328</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 943,S167,Linea 1035,S158,Linea 1038,S45,Linea 1039,S168,Linea 1040,S52,Linea 1086,S845;S845,Linea 1086,S52,Linea 1040,S168,Linea 1039,S45,Linea 1038,S158,Linea 1035,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base,Linea 14,S278,Linea 15,S2250,Linea 16,S977,Linea 17,S245,Linea 1340,S186,Linea 901,S539,Linea 1394,S971,Linea 878,S2005B,Linea 873,S990,Linea 883,S995;S995,Linea 883,S990,Linea 873,S2005B,Linea 878,S971,Linea 1394,S539,Linea 901,S186,Linea 1340,S245,Linea 17,S977,Linea 16,S2250,Linea 15,S278,Linea 14,Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 944,S56,Linea 940,S78,Linea 932,S645,Linea 931,S2111,Linea 934,S2334,Linea 1648,S77,Linea 713,S236,Linea 1646,S2231,Linea 927,S2278,Linea 688,S2047,Linea 689,S440,Linea 687,S2359,Linea 1644,S2036,Linea 490,S397,Linea 685,S2328;S2328,Linea 685,S397,Linea 490,S2036,Linea 1599,S2359,Linea 687,S440,Linea 689,S2047,Linea 688,S2278,Linea 927,S2231,Linea 1649,S236,Linea 713,S77,Linea 1647,S2334,Linea 934,S2111,Linea 931,S645,Linea 932,S78,Linea 940,S56,Linea 944,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9309022 -45.8820844,-67.931546 -45.8802844,-67.9315138 -45.8799184,-67.9308915 -45.8797018,-67.92972985 -45.88255921,-67.9307413 -45.885378,-67.9301298 -45.8848478,-67.9305589 -45.8826669,-67.92968482 -45.88517223,-67.9306662 -45.8853705,-67.9301298 -45.8848478,-67.9301834 -45.8845415,-67.9296148 -45.8841457,-67.9283166 -45.8832794,-67.9278016 -45.8828089,-67.927072 -45.8829806,-67.9266322 -45.8833914,-67.9264498 -45.8840636,-67.9268146 -45.883959,-67.92608202 -45.88391758,-67.9273725 -45.8864012,-67.9273295 -45.8861696,-67.9265678 -45.8852062,-67.9264498 -45.8840636,-67.9268146 -45.883959,-67.92643307 -45.88670535,-67.9273081 -45.8864236,-67.9265678 -45.885266,-67.9253983 -45.8869463,-67.92471714 -45.8874919;-67.92471714 -45.8874919,-67.9273081 -45.8864236,-67.9265678 -45.885266,-67.9253983 -45.8869463,-67.92643307 -45.88670535,-67.9273725 -45.8864012,-67.9273295 -45.8861696,-67.9265678 -45.8852062,-67.9264498 -45.8840636,-67.9268146 -45.883959,-67.92608202 -45.88391758,-67.9306662 -45.8853705,-67.9301298 -45.8848478,-67.9301834 -45.8845415,-67.9296148 -45.8841457,-67.9283166 -45.8832794,-67.9278016 -45.8828089,-67.927072 -45.8829806,-67.9266322 -45.8833914,-67.9264498 -45.8840636,-67.9268146 -45.883959,-67.92968482 -45.88517223,-67.9307413 -45.885378,-67.9301298 -45.8848478,-67.9305589 -45.8826669,-67.92972985 -45.88255921,-67.9309022 -45.8820844,-67.931546 -45.8802844,-67.9315138 -45.8799184,-67.9308915 -45.8797018,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472,-67.9427254 -45.8635364,-67.9464859 -45.8623447,-67.9469097 -45.862016,-67.94569946 -45.86221924,-67.9469097 -45.8620944,-67.9481596 -45.8620048,-67.94727301 -45.86217176,-67.9483044 -45.861911400000004,-67.9473495 -45.8614183,-67.94655091 -45.86160389,-67.9479718 -45.8615453,-67.9493934 -45.8606973,-67.9489589 -45.8606599,-67.94780419 -45.86081977,-67.9549134 -45.858239,-67.9527032 -45.8590684,-67.9493666 -45.8607794,-67.9491198 -45.8606898,-67.9539623 -45.85805836,-67.9549778 -45.85820170000001,-67.9571986 -45.85672970000001,-67.9579175 -45.8564981,-67.9585719 -45.8567521,-67.95773843 -45.85672753,-67.9637325 -45.8577459,-67.9643655 -45.8579476,-67.9642689 -45.8583885,-67.9623485 -45.8582017,-67.9617047 -45.8578879,-67.960825 -45.8571257,-67.9587221 -45.8568418,-67.96207279 -45.85789473,-67.9669297 -45.8569464,-67.9656959 -45.8570435,-67.9637325 -45.8577459,NA,-67.9675949 -45.8587247,-67.9686892 -45.858239,-67.9689896 -45.8576114,-67.9686141 -45.8569912,-67.9681528 -45.856841800000005,-67.9661051 -45.85896591,-67.9667151 -45.8589862,-67.9657924 -45.8593374,-67.9640114 -45.8591431,-67.96225639 -45.85951472;-67.96225639 -45.85951472,-67.9667151 -45.8589862,-67.9657924 -45.8593374,-67.9640114 -45.8591431,-67.9661051 -45.85896591,-67.9675949 -45.8587247,-67.9686892 -45.858239,-67.9689896 -45.8576114,-67.9686141 -45.8569912,-67.9681528 -45.856841800000005,NA,-67.9669297 -45.8569464,-67.9656959 -45.8570435,-67.9637325 -45.8577459,-67.96207279 -45.85789473,-67.9637325 -45.8577459,-67.9643655 -45.8579476,-67.9642689 -45.8583885,-67.9623485 -45.8582017,-67.9617047 -45.8578879,-67.960825 -45.8571257,-67.9587221 -45.8568418,-67.95773843 -45.85672753,-67.9549778 -45.85820170000001,-67.9571986 -45.85672970000001,-67.9579175 -45.8564981,-67.9585719 -45.8567521,-67.9539623 -45.85805836,-67.9549134 -45.858239,-67.9527032 -45.8590684,-67.9493666 -45.8607794,-67.9491198 -45.8606898,-67.94780419 -45.86081977,-67.9479718 -45.8615453,-67.9493934 -45.8606973,-67.9489589 -45.8606599,-67.94655091 -45.86160389,-67.9483044 -45.861911400000004,-67.9473495 -45.8614183,-67.94727301 -45.86217176,-67.9469097 -45.8620944,-67.9481596 -45.8620048,-67.94569946 -45.86221924,-67.9427254 -45.8635364,-67.9464859 -45.8623447,-67.9469097 -45.862016,-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92260289 -45.87981886,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.91930941 -45.88137118,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91747464 -45.88372353,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9169762 -45.8821367,-67.9166543 -45.8815466,-67.913146 -45.8824205,-67.9128242 -45.8814645,-67.91214619 -45.88124859,,-67.91210808 -45.8814063,-67.9107428 -45.880501,-67.9119766 -45.880389,-67.9123414 -45.8806952,-67.9129958 -45.8809193,-67.90891537 -45.88072557,,-67.90902811 -45.88062544,-67.9108071 -45.880613,-67.9116762 -45.8803665,-67.9099488 -45.8795972,-67.9089832 -45.8795748,-67.908479 -45.879291,-67.9081464 -45.8778345,-67.9075241 -45.8768784,-67.9078567 -45.8763107,-67.9075456 -45.8753322,-67.9072452 -45.8752799,-67.9064727 -45.8764004,-67.90493501 -45.87690763,-67.9065692 -45.87642280000001,-67.9066443 -45.8758626,-67.9054427 -45.876363,-67.9050243 -45.8759149,-67.90388535 -45.87594679,-67.9027498 -45.8764153,-67.9023206 -45.8766319,-67.9053462 -45.8764079,-67.9049706 -45.8759672,-67.90200809 -45.87637167,-67.8998315 -45.8761838,-67.9001212 -45.8769457,-67.900883 -45.8771399,-67.9025674 -45.8764527,-67.89805175 -45.8762384,,-67.89781334 -45.87614703,-67.8996062 -45.8756758,-67.8981364 -45.8751081,-67.8992522 -45.8749438,-67.89863672 -45.87485225,-67.9000354 -45.874518,-67.9006147 -45.8744433,-67.9023528 -45.8744882,-67.90201967 -45.87467843;-67.90201967 -45.87467843,-67.9000354 -45.874518,-67.9006147 -45.8744433,-67.9023528 -45.8744882,-67.89863672 -45.87485225,-67.8996062 -45.8756758,-67.8981364 -45.8751081,-67.8992522 -45.8749438,-67.89781334 -45.87614703,,-67.89805175 -45.8762384,-67.8998315 -45.8761838,-67.9001212 -45.8769457,-67.900883 -45.8771399,-67.9025674 -45.8764527,-67.90200809 -45.87637167,-67.9027498 -45.8764153,-67.9023206 -45.8766319,-67.9053462 -45.8764079,-67.9049706 -45.8759672,-67.90388535 -45.87594679,-67.9065692 -45.87642280000001,-67.9066443 -45.8758626,-67.9054427 -45.876363,-67.9050243 -45.8759149,-67.90493501 -45.87690763,-67.9108071 -45.880613,-67.9116762 -45.8803665,-67.9099488 -45.8795972,-67.9089832 -45.8795748,-67.908479 -45.879291,-67.9081464 -45.8778345,-67.9075241 -45.8768784,-67.9078567 -45.8763107,-67.9075456 -45.8753322,-67.9072452 -45.8752799,-67.9064727 -45.8764004,-67.90902811 -45.88062544,,-67.90891537 -45.88072557,-67.9107428 -45.880501,-67.9119766 -45.880389,-67.9123414 -45.8806952,-67.9129958 -45.8809193,-67.91210808 -45.8814063,,-67.91214619 -45.88124859,-67.9166651 -45.8823159,-67.9169762 -45.8821367,-67.9166543 -45.8815466,-67.913146 -45.8824205,-67.9128242 -45.8814645,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91930941 -45.88137118,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.92260289 -45.87981886,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2020,S2367,S632</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 944,S56,Linea 940,S78,Linea 932,S645,Linea 931,S2111,Linea 934,S2334,Linea 1648,S77,Linea 713,S236,Linea 1646,S2231,Linea 927,S2278,Linea 686,S2025,Linea 706,S580,Linea 692,S2020;S2020,Linea 692,S580,Linea 706,S2025,Linea 686,S2278,Linea 688,S2047,Linea 689,S440,Linea 687,S2359,Linea 1644,S2036,Linea 490,S397,Linea 491,S991,Linea 1600,S2367;S2367,Linea 1600,S991,Linea 491,S397,Linea 494,S2351,Linea 495,S2035,Linea 679,S642,Linea 680,S2575,Linea 408,S430,Linea 203,S632;S632,Linea 205,S2387,Linea 912,S622,Linea 211,S2552,Linea 1563,S635,Linea 186,S495,Linea 183,S637,Linea 178,S640,Linea 177,S676,Linea 170,S691,Linea 169,S451,Linea 168,S2478,Linea 167,S2510,Linea 164,S678,Linea 162,S662,Linea 161,S246,Linea 158,S680,Linea 1549,S2488,Linea 156,S208,Linea 57,S2253,Linea 52,S326,Linea 8,S2258,Linea 7,S328,Linea 6,S309,Linea 4,S329,Linea 3,S993,Linea 2,S2447,Linea 1506,S176,Linea 1,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92260289 -45.87981886,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.91930941 -45.88137118,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91747464 -45.88372353,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9169762 -45.8821367,-67.9166543 -45.8815466,-67.913146 -45.8824205,-67.9128242 -45.8814645,-67.91214619 -45.88124859,,-67.91210808 -45.8814063,-67.9107428 -45.880501,-67.9119766 -45.880389,-67.9123414 -45.8806952,-67.9129958 -45.8809193,-67.90891537 -45.88072557,,-67.90902811 -45.88062544,-67.9108071 -45.880613,-67.9116762 -45.8803665,-67.9099488 -45.8795972,-67.9089832 -45.8795748,-67.908479 -45.879291,-67.9081464 -45.8778345,-67.9075241 -45.8768784,-67.9078567 -45.8763107,-67.9075456 -45.8753322,-67.9072452 -45.8752799,-67.9064727 -45.8764004,-67.90493501 -45.87690763,-67.9065907 -45.8763481,-67.9067516 -45.8757356,-67.9067945 -45.8747496,-67.90587404 -45.87465377,-67.9081142 -45.8724638,-67.9093158 -45.872419,-67.9095948 -45.873240700000004,-67.9077601 -45.874406,-67.906816 -45.8746824,-67.90662102 -45.87275785,-67.9048741 -45.8731884,-67.9062903 -45.8728896,-67.9075885 -45.8730689,-67.9087365 -45.87291200000001,-67.9096162 -45.8731436,-67.9096484 -45.8728597,-67.9093158 -45.872419,-67.9082108 -45.8724937,-67.90299782 -45.8733268;-67.90299782 -45.8733268,-67.9048741 -45.8731884,-67.9062903 -45.8728896,-67.9075885 -45.8730689,-67.9087365 -45.87291200000001,-67.9096162 -45.8731436,-67.9096484 -45.8728597,-67.9093158 -45.872419,-67.9082108 -45.8724937,-67.90662102 -45.87275785,-67.9081142 -45.8724638,-67.9093158 -45.872419,-67.9095948 -45.873240700000004,-67.9077601 -45.874406,-67.906816 -45.8746824,-67.90587404 -45.87465377,-67.9065907 -45.8763481,-67.9067516 -45.8757356,-67.9067945 -45.8747496,-67.90493501 -45.87690763,-67.9065692 -45.87642280000001,-67.9066443 -45.8758626,-67.9054427 -45.876363,-67.9050243 -45.8759149,-67.90388535 -45.87594679,-67.9027498 -45.8764153,-67.9023206 -45.8766319,-67.9053462 -45.8764079,-67.9049706 -45.8759672,-67.90200809 -45.87637167,-67.8998315 -45.8761838,-67.9001212 -45.8769457,-67.900883 -45.8771399,-67.9025674 -45.8764527,-67.89805175 -45.8762384,,-67.89781334 -45.87614703,-67.8996062 -45.8756758,-67.8981364 -45.8751081,-67.8992522 -45.8749438,-67.89863672 -45.87485225,-67.8996921 -45.8744209,-67.8999817 -45.8733453,-67.89956807 -45.87344883,,-67.899083 -45.87328051;-67.899083 -45.87328051,,-67.89956807 -45.87344883,-67.8996921 -45.8744209,-67.8999817 -45.8733453,-67.89863672 -45.87485225,-67.8992522 -45.8749438,-67.8973424 -45.8751455,-67.8966451 -45.875362100000004,-67.8955722 -45.8745031,-67.89489679 -45.87455424,-67.8954864 -45.8744359,-67.8949392 -45.8739429,-67.895143 -45.8733378,-67.8949499 -45.8727701,-67.89420174 -45.8725767,-67.8951538 -45.8720604,-67.8954649 -45.8713209,-67.8950679 -45.870671,-67.8955185 -45.8706112,-67.89468537 -45.87097799,-67.8955185 -45.8706112,-67.895025 -45.8705813,-67.8944993 -45.8697073,-67.89334262 -45.86982277,-67.8929329 -45.86721210000001,-67.894392 -45.8695056,-67.89194102 -45.86726393,-67.8926647 -45.8667714,-67.8914416 -45.865972,-67.88982897 -45.86617984;-67.88982897 -45.86617984,-67.8914094 -45.8658749,-67.893244 -45.8652249,-67.8924736 -45.86523062,-67.8942311 -45.8647841,-67.8944886 -45.8644778,-67.8944886 -45.8640444,-67.8955936 -45.8639772,-67.8958511 -45.8637307,-67.8946526 -45.86372426,-67.8962696 -45.8632899,-67.8974175 -45.8625203,-67.8984583 -45.8622177,-67.89779792 -45.86312838,,-67.8975525 -45.86346654,-67.8993487 -45.8636634,-67.8988981 -45.8636933,-67.89861920000001 -45.8635215,-67.89867893 -45.86374335,-67.9039943 -45.8644255,-67.9028034 -45.8637381,-67.8999174 -45.8635812,-67.90314798 -45.8648888,-67.906419 -45.86626330000001,-67.9050887 -45.8652025,-67.9043591 -45.864814,-67.90565529 -45.8665856,-67.9108179 -45.86391,-67.9094768 -45.8638353,-67.9077816 -45.8657329,-67.9066443 -45.8662484,-67.90869072 -45.86438156,-67.9100454 -45.8663754,-67.9094982 -45.8663306,-67.909627 -45.86429100000001,-67.90947109 -45.86641003,-67.9100668 -45.8647318,-67.9098523 -45.8659197,-67.9103565 -45.8661513,-67.90917641 -45.86476613,-67.9122448 -45.8649709,-67.911129 -45.8644105,-67.9103887 -45.8645226,-67.91093971 -45.86527418,-67.9164934 -45.8652398,-67.9147875 -45.8642536,-67.9133606 -45.865322,-67.9120409 -45.8651352,-67.91575239 -45.86551598,-67.9187572 -45.8661064,-67.9176843 -45.8663679,-67.9172981 -45.8656657,-67.91774956 -45.8661538,-67.9224908 -45.8663306,-67.9191971 -45.8656582,-67.92069068 -45.86664171,-67.9258382 -45.86658460000001,-67.9220402 -45.8663903,-67.92478129 -45.86687146,-67.9266429 -45.8657927,-67.9259992 -45.8665696,-67.92617947 -45.86596757,,-67.92568273 -45.86555172,-67.9284239 -45.8655835,-67.9270077 -45.8655162,-67.92761571 -45.86576064,-67.92887450000002 -45.8655984,-67.929647 -45.8660093,-67.9311919 -45.8652622,-67.93025624 -45.86524613,-67.934196 -45.8650755,-67.9339492 -45.8648887,-67.9318678 -45.8652174,-67.93322311 -45.86539389,-67.9364544 -45.8650082,-67.9343033 -45.8651128,-67.93542287 -45.86514387,-67.9374468 -45.8637643,-67.93648120000002 -45.8648999,-67.93638614 -45.8639203,-67.9407513 -45.863103100000004,-67.9403973 -45.8622551,-67.93757020000001 -45.8636746,-67.94016816 -45.86304785,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94026881 -45.86394522,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.9397787 -45.86446671,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.93820898 -45.86621382,,-67.93822649 -45.86645361,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S998,S2461,S966,S2316</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 1211,S172,Linea 768,S2417,Linea 759,S402,Linea 760,S2468,Linea 763,S395,Linea 764,S338,Linea 773,S2407,Linea 850,S2056,Linea 849,S2716,Linea 853,S2504,Linea 854,S997,Linea 859,S330,Linea 1358,S983,Linea 1357,S363,Linea 843,S119,Linea 845,S998;S998,Linea 845,S119,Linea 843,S363,Linea 1357,S983,Linea 1358,S330,Linea 859,S997,Linea 1836,S353,Linea 1361,S2006,Linea 1363,S2009,Linea 1365,S354,Linea 1421,S2255,Linea 568,S882,Linea 567,S522,Linea 566,S2273,Linea 552,S525,Linea 551,S529,Linea 549,S437,Linea 546,S773,Linea 531,S2151,Linea 412,S2300,Linea 381,S1037,Linea 380,S544,Linea 379,S1028,Linea 378,S2007,Linea 418,S2040,Linea 420,S2635,Linea 439,S2122,Linea 451,S2614,Linea 525,S2461;S2461,Linea 525,S2614,Linea 526,S2606,Linea 523,S2109,Linea 524,S2448,Linea 529,S434,Linea 528,S2124,Linea 530,S966;S966,Linea 530,S2124,Linea 528,S434,Linea 529,S2448,Linea 524,S2109,Linea 523,S2606,Linea 1888,S2523,Linea 1887,S13,Linea 1886,S2,Linea 471,S2240,Linea 1593,Q16,Linea 613,S3,Linea 734,S295,Linea 735,S17,Linea 594,S2259,Linea 592,S2129,Linea 591,S949,Linea 579,S2132,Linea 578,S2443,Linea 581,S938,Linea 582,S849,Linea 584,S2168,Linea 1617,S2167,Linea 736,S2110,Linea 930,S2111,Linea 931,S645,Linea 1046,S928,Linea 1048,S840,Linea 1220,S826,Linea 1060,S828,Linea 1061,S801,Linea 1054,S760,Linea 1221,S791,Linea 1059,S800,Linea 1055,S2316;S2316,Linea 1055,S800,Linea 1059,S791,Linea 1076,S793,Linea 1078,S2667,Linea 1077,S944,Linea 1085,S115,Linea 1733,S927,Linea 1222,S33,Linea 1724,S2094,Linea 950,S31,Linea 949,S2146,Linea 964,S2147,Linea 946,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.95709848 -45.86769228,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95610675 -45.87170205,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95650202 -45.87386891,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95720623 -45.87256309,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.96214261 -45.87344787,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96572509 -45.87368099,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.9672039 -45.87497495,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.96992116 -45.87035971,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.9688479 -45.86924263,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.96898996 -45.86789944,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.97170451 -45.86764851,-67.9732597 -45.8674138,-67.9739678 -45.8674661,-67.9742575 -45.8672345,-67.9737854 -45.8666444,-67.9743755 -45.8664576,-67.9735065 -45.8661812,-67.9728949 -45.8655461,-67.97157481 -45.86531756,-67.9780984 -45.8649709,-67.9776263 -45.8648289,-67.9768217 -45.8650007,-67.9760063 -45.86583,-67.9748476 -45.8665622,-67.9738605 -45.866353,-67.9728091 -45.865591,-67.97746123 -45.86525028,-67.9770362 -45.8661886,-67.9775405 -45.8660019,-67.9780447 -45.8660616,-67.9790211 -45.8666444,-67.9791498 -45.8664875,-67.9789352 -45.8662036,-67.978828 -45.8655685,-67.9785597 -45.8651502,-67.97572674 -45.86647737,-67.9788494 -45.8686091,-67.9777122 -45.8662932,-67.9771221 -45.8662409,-67.97752558 -45.86902372,-67.9785383 -45.8689528,-67.9771435 -45.870671,-67.9765534 -45.8706934,-67.9753625 -45.8703498,-67.9735183 -45.87030526;-67.9735183 -45.87030526,-67.9785383 -45.8689528,-67.9771435 -45.870671,-67.9765534 -45.8706934,-67.9753625 -45.8703498,-67.97752558 -45.86902372,-67.9788494 -45.8686091,-67.9777122 -45.8662932,-67.9771221 -45.8662409,-67.97572674 -45.86647737,-67.9770362 -45.8661886,-67.9775405 -45.8660019,-67.9780447 -45.8660616,-67.9790211 -45.8666444,-67.9791498 -45.8664875,-67.9789352 -45.8662036,-67.978828 -45.8655685,-67.9785597 -45.8651502,-67.97746123 -45.86525028,-67.9780984 -45.8649709,-67.9776263 -45.8648289,-67.9768217 -45.8650007,-67.9760063 -45.86583,-67.9748476 -45.8665622,-67.9738605 -45.866353,-67.9728091 -45.865591,-67.97157481 -45.86531756,-67.9732597 -45.8674138,-67.9739678 -45.8674661,-67.9742575 -45.8672345,-67.9737854 -45.8666444,-67.9743755 -45.8664576,-67.9735065 -45.8661812,-67.9728949 -45.8655461,-67.97170451 -45.86764851,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97781889 -45.86412305,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97692655 -45.86298292,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.98026531 -45.86300386,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98206338 -45.86352335,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8701234 -45.8635663,-67.8698123 -45.86132490000001,-67.8679776 -45.8603237,-67.8670549 -45.8588966,-67.8654027 -45.859457,-67.8654563 -45.8601518,-67.8656709 -45.8602639,-67.86895092 -45.86422008,-67.8682029 -45.8666817,-67.8692436 -45.8661961,-67.8702307 -45.8647318,-67.8701663 -45.8642088,-67.86635342 -45.86702056,-67.8668189 -45.8667639,-67.8664005 -45.866988,-67.8663254 -45.8676305,-67.86498939 -45.86808329,-67.8639972 -45.8691171,-67.8657031 -45.8680713,-67.86235431 -45.86962035,-67.8593409 -45.8716048,-67.85971640000001 -45.8705365,-67.8614008 -45.870529,-67.861948 -45.8698268,-67.8630531 -45.8694832,-67.85882935 -45.87179542,-67.857635 -45.8744807,-67.8541696 -45.874152,-67.8588581 -45.8727103,-67.8593409 -45.8716048,-67.857019 -45.87438052,-67.84873010000001 -45.87312860000001,-67.8543305 -45.8741595,-67.857635 -45.8744807,-67.84711722 -45.87310355,-67.847904 -45.8759074,-67.8490949 -45.8742491,-67.8510368 -45.8734349,-67.8488266 -45.8731585,-67.84644226 -45.87649326,-67.8467667 -45.8780212,-67.846477 -45.87698300000001,-67.8477967 -45.8764751,-67.84627973 -45.87829114,-67.8467989 -45.878081,-67.8463697 -45.8770502,-67.8443956 -45.8768859,-67.84286672 -45.87711998,-67.842561 -45.8794628,-67.8420246 -45.8792462,-67.8431511 -45.8775283,-67.8462946 -45.877095,-67.8445137 -45.8768261,-67.84221298 -45.87973382,-67.8455973 -45.8806504,-67.8449214 -45.8812852,-67.8420246 -45.8795972,-67.8425181 -45.87953,-67.84518194 -45.88032275,-67.8494382 -45.880628,-67.84873010000001 -45.8802396,-67.8461766 -45.8806653,-67.8457046 -45.880515900000006,-67.8485758 -45.88086765,-67.8556287 -45.8843698,-67.853719 -45.8831001,-67.8518629 -45.8825923,-67.8500605 -45.8812329,-67.85493998 -45.88481908,-67.8571093 -45.8855572,-67.8559184 -45.8854378,-67.8555107 -45.884698400000005,-67.85655105 -45.88556448,-67.85825730000002 -45.8853855,-67.85964130000002 -45.8854228,-67.85908094 -45.88593849,-67.8609717 -45.8856767,-67.862817 -45.8848403,-67.8617656 -45.8854826,-67.8616369 -45.886192,-67.8618944 -45.8867671,-67.86045923 -45.88724171;-67.86045923 -45.88724171,-67.8609717 -45.8856767,-67.862817 -45.8848403,-67.8617656 -45.8854826,-67.8616369 -45.886192,-67.8618944 -45.8867671,-67.85908094 -45.88593849,-67.8614116 -45.8855274,-67.862978 -45.884788,-67.8635466 -45.8831599,-67.8632355 -45.8817483,-67.86391140000002 -45.8815093,-67.8628063 -45.8810537,-67.8623772 -45.8814346,-67.86071597 -45.88116865,-67.8622806 -45.8814346,-67.8628922 -45.8810985,-67.8613365 -45.8799035,-67.8605962 -45.879896,-67.85926992 -45.88036306,-67.8608537 -45.8799333,-67.8613579 -45.8799707,-67.8611863 -45.8784545,-67.86092880000001 -45.8783424,-67.859516 -45.87831444,-67.8573883 -45.8816587,-67.8575063 -45.8811433,-67.8592443 -45.8804114,-67.8593087 -45.8795599,-67.8584397 -45.8786113,-67.8589547 -45.8770502,-67.8599954 -45.87787190000001,-67.85651325 -45.88220843,-67.8574526 -45.8818977,-67.8570664 -45.8807624,-67.8556824 -45.8812367,-67.8564656 -45.8801798,-67.855851 -45.88011934,-67.8564656 -45.8801798,-67.855736 -45.8808595,-67.8561974 -45.8788727,-67.8546631 -45.8788802,-67.85276267 -45.87922955;-67.85276267 -45.87922955,-67.8564656 -45.8801798,-67.855736 -45.8808595,-67.8561974 -45.8788727,-67.8546631 -45.8788802,-67.855851 -45.88011934,-67.8574526 -45.8818977,-67.8570664 -45.8807624,-67.8556824 -45.8812367,-67.8564656 -45.8801798,-67.85651325 -45.88220843,-67.8573883 -45.8816587,-67.8575063 -45.8811433,-67.8592443 -45.8804114,-67.8593087 -45.8795599,-67.8584397 -45.8786113,-67.8589547 -45.8770502,-67.8599954 -45.87787190000001,-67.859516 -45.87831444,-67.8608537 -45.8799333,-67.8613579 -45.8799707,-67.8611863 -45.8784545,-67.86092880000001 -45.8783424,-67.85926992 -45.88036306,-67.8622806 -45.8814346,-67.8628922 -45.8810985,-67.8613365 -45.8799035,-67.8605962 -45.879896,-67.86071597 -45.88116865,-67.8685462 -45.8831151,-67.8700483 -45.8829059,-67.8648233 -45.8818603,-67.8628063 -45.8810537,-67.8621304 -45.8814645,-67.86703039 -45.88312685,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.87263059 -45.88283868,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.8758872 -45.88413516,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.87630061 -45.88642699,,-67.87597578 -45.88674947,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87931365 -45.88515467,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.88934482 -45.88367092,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88477851 -45.88530377,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88725199 -45.88498287,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88986813 -45.88509226,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.89478887 -45.88442779,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89811074 -45.88424629,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.90293219 -45.8836944,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90362098 -45.8874036,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90705336 -45.88840606,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90594775 -45.88423937,,-67.90591516 -45.88446218,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90970498 -45.88326091,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183924 -45.8832943,-67.9178345 -45.8833989,-67.9181349 -45.883832,-67.9182851 -45.8847656,-67.9179955 -45.8868492,-67.9182959 -45.887021,-67.918725 -45.8867895,-67.9189289 -45.8859232,-67.91833856 -45.88592331,-67.9201949 -45.8901426,-67.920785 -45.8896646,-67.9178774 -45.8882906,-67.9180706 -45.8870061,-67.9186499 -45.8868642,-67.918961 -45.8857962,-67.91840225 -45.89042054,-67.9177594 -45.8928831,-67.9196584 -45.8908744,-67.9194117 -45.8909267,-67.9188323 -45.8915241,-67.9170513 -45.8923754,-67.9181993 -45.8910014,-67.918961 -45.8905234,-67.91657701 -45.89351753,-67.9165363 -45.8956086,-67.9175019 -45.8947275,-67.9165041 -45.893712,-67.9164827 -45.892689,-67.9183388 -45.8916958,-67.9195189 -45.8908296,-67.9196799 -45.8909341,-67.9177058 -45.8929802,-67.91506756 -45.89602857,-67.9198515 -45.8952876,-67.9187465 -45.8950934,-67.9171157 -45.8950187,-67.9165041 -45.8955564,-67.91895387 -45.89557581,-67.9221904 -45.8981548,-67.9233706 -45.8984385,-67.9223728 -45.8974903,-67.9203773 -45.8967212,-67.9203129 -45.8957953,-67.92046749 -45.89809236,-67.9221904 -45.8981548,-67.9232204 -45.8984983,-67.9230487 -45.8980652,-67.9224908 -45.89755,-67.9236388 -45.8964449,-67.92261639 -45.89612501,-67.9236388 -45.8957654,-67.9239929 -45.8954518,-67.9248619 -45.8951606,-67.9265141 -45.8948918,-67.9267073 -45.8945707,-67.9261279 -45.89416,-67.9250765 -45.8933685,-67.92384314 -45.89325701,-67.925173 -45.8927786,-67.9257953 -45.8919049,-67.92510847 -45.89172158;-67.92510847 -45.89172158,-67.925173 -45.8927786,-67.9257953 -45.8919049,-67.92384314 -45.89325701,-67.9236388 -45.8957654,-67.9239929 -45.8954518,-67.9248619 -45.8951606,-67.9265141 -45.8948918,-67.9267073 -45.8945707,-67.9261279 -45.89416,-67.9250765 -45.8933685,-67.92261639 -45.89612501,-67.9235637 -45.895743,-67.9241538 -45.8953249,-67.9267287 -45.8949142,-67.9271579 -45.8944961,-67.9267287 -45.8942048,-67.9257309 -45.8936448,-67.9256558 -45.8930698,-67.9268682 -45.8923604,-67.9289711 -45.8934208,-67.9293036 -45.893361,-67.92819602 -45.89300211,-67.929368 -45.8925994,-67.9296148 -45.8919423,-67.9287994 -45.8913897,-67.9285097 -45.8910014,-67.9286277 -45.8901127,-67.92758265 -45.88993498,-67.9286492 -45.8892166,-67.9288638 -45.8878724,-67.9292393 -45.8876931,-67.92838162 -45.88770662,-67.929883 -45.8876782,-67.9306018 -45.8878724,-67.9317605 -45.8883727,-67.9326189 -45.888201,-67.93184093 -45.88869985,,-67.93195275 -45.88880085,-67.9325545 -45.8880964,-67.9324257 -45.8875363,-67.933048 -45.8868642,-67.9335093 -45.8836304,-67.93297197 -45.88384007,,-67.93288041 -45.88347512,-67.9369962 -45.8822636,-67.9367441 -45.8819686,-67.9343677 -45.8832719,-67.93623372 -45.88237227,-67.9369104 -45.8822487,-67.9367441 -45.8819686,-67.9385787 -45.881274,-67.938568 -45.8809641,-67.9379243 -45.8811844,-67.93588984 -45.88149225,-67.9380155 -45.8812404,-67.938627 -45.880852,-67.9384768 -45.8805682,-67.9371035 -45.8800827,-67.9358482 -45.8797093,-67.9335737 -45.8797616,-67.934432 -45.8794255,-67.9350007 -45.8792835,-67.9357088 -45.8792686,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2343,S2028</t>
   </si>
   <si>
     <t>Base,Linea 1,S176,Linea 1506,S2447,Linea 2,S993,Linea 3,S329,Linea 4,S309,Linea 6,S328,Linea 7,S2258,Linea 8,S326,Linea 52,S2253,Linea 57,S208,Linea 156,S2488,Linea 1548,S680,Linea 158,S246,Linea 161,S662,Linea 162,S678,Linea 164,S2510,Linea 167,S2478,Linea 168,S451,Linea 169,S691,Linea 170,S676,Linea 177,S640,Linea 178,S637,Linea 183,S495,Linea 186,S635,Linea 1555,S2552,Linea 211,S622,Linea 210,S633,Linea 127,S501,Linea 925,S789,Linea 923,Planta Norte,Linea 1214,S783,Linea 905,S629,Linea 631,S2077,Linea 629,S489,Linea 665,S2265,Linea 659,S683,Linea 637,S458,Linea 638,S2343;S2343,Linea 638,S458,Linea 660,S683,Linea 659,S2265,Linea 665,S489,Linea 629,S2077,Linea 631,S629,Linea 905,S783,Linea 1214,Planta Norte,Linea 923,S789,Linea 925,S501,Linea 127,S633,Linea 210,S622,Linea 912,S2387,Linea 205,S632,Linea 203,S430,Linea 408,S2575,Linea 680,S642,Linea 679,S2035,Linea 495,S2351,Linea 494,S397,Linea 690,S2028;S2028,Linea 690,S397,Linea 490,S2036,Linea 1599,S2359,Linea 687,S440,Linea 689,S2047,Linea 688,S2278,Linea 927,S2231,Linea 1649,S236,Linea 713,S77,Linea 1647,S2334,Linea 934,S2111,Linea 931,S645,Linea 932,S78,Linea 940,S56,Linea 944,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.93822649 -45.86645361,,-67.93820898 -45.86621382,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.9397787 -45.86446671,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.94026881 -45.86394522,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94016816 -45.86304785,-67.9407513 -45.863103100000004,-67.9403973 -45.8622551,-67.93757020000001 -45.8636746,-67.93638614 -45.8639203,-67.9374468 -45.8637643,-67.93648120000002 -45.8648999,-67.93542287 -45.86514387,-67.9364544 -45.8650082,-67.9343033 -45.8651128,-67.93322311 -45.86539389,-67.934196 -45.8650755,-67.9339492 -45.8648887,-67.9318678 -45.8652174,-67.93025624 -45.86524613,-67.92887450000002 -45.8655984,-67.929647 -45.8660093,-67.9311919 -45.8652622,-67.92761571 -45.86576064,-67.9284239 -45.8655835,-67.9270077 -45.8655162,-67.92568273 -45.86555172,,-67.92617947 -45.86596757,-67.9266429 -45.8657927,-67.9259992 -45.8665696,-67.92478129 -45.86687146,-67.9258382 -45.86658460000001,-67.9220402 -45.8663903,-67.92069068 -45.86664171,-67.9224908 -45.8663306,-67.9191971 -45.8656582,-67.91774956 -45.8661538,-67.9187572 -45.8661064,-67.9176843 -45.8663679,-67.9172981 -45.8656657,-67.91575239 -45.86551598,-67.9164934 -45.8652398,-67.9147875 -45.8642536,-67.9133606 -45.865322,-67.9120409 -45.8651352,-67.91093971 -45.86527418,-67.9122448 -45.8649709,-67.911129 -45.8644105,-67.9103887 -45.8645226,-67.90917641 -45.86476613,-67.9100668 -45.8647318,-67.9098523 -45.8659197,-67.9103565 -45.8661513,-67.90947109 -45.86641003,-67.9100454 -45.8663754,-67.9094982 -45.8663306,-67.909627 -45.86429100000001,-67.90869072 -45.86438156,-67.9108179 -45.86391,-67.9094768 -45.8638353,-67.9077816 -45.8657329,-67.9066443 -45.8662484,-67.90565529 -45.8665856,-67.906419 -45.86626330000001,-67.9050887 -45.8652025,-67.9043591 -45.864814,-67.90314798 -45.8648888,-67.9039943 -45.8644255,-67.9028034 -45.8637381,-67.8999174 -45.8635812,-67.89867893 -45.86374335,-67.8993487 -45.8636634,-67.8988981 -45.8636933,-67.89861920000001 -45.8635215,-67.8975525 -45.86346654,,-67.89779792 -45.86312838,-67.8962696 -45.8632899,-67.8974175 -45.8625203,-67.8984583 -45.8622177,-67.8946526 -45.86372426,-67.8961945 -45.8632674,-67.8952932 -45.8629985,-67.8948426 -45.8620347,-67.89369378 -45.862107,-67.8961086 -45.8601668,-67.8949714 -45.8618927,-67.89506126 -45.86022417,-67.8960952 -45.8598436,-67.8959692 -45.8585678,-67.8961945 -45.8583138,-67.8955936 -45.8581419,-67.8949177 -45.8572976,-67.8950787 -45.8562589,-67.894907 -45.8558629,-67.8937376 -45.8558928,-67.8932869 -45.8566101,-67.8928149 -45.8568492,-67.8926003 -45.8566998,-67.89119881 -45.85678635,-67.8915596 -45.8569165,-67.8910661 -45.8570435,-67.8905296 -45.8572453,-67.8862917 -45.8600846,-67.8869355 -45.8600547,-67.8873861 -45.8596438,-67.8876221 -45.8588667,-67.8886843 -45.8579999,-67.88485253 -45.86038085,-67.8855836 -45.8605329,-67.8847253 -45.8611754,-67.8843284 -45.8612427,-67.88286864 -45.86153258,-67.8809917 -45.8619301,-67.8822792 -45.8616611,-67.8835666 -45.8617507,-67.8845859 -45.8612277,-67.8843284 -45.8612427,-67.87889297 -45.8626014,-67.8800154 -45.8627071,-67.880863 -45.8635887,-67.8814101 -45.8638502,-67.881496 -45.8643508,-67.8795862 -45.8651352,-67.87816911 -45.86559299,-67.8794253 -45.8652025,-67.8813779 -45.8643508,-67.8805947 -45.8648065,-67.8801227 -45.8652622,-67.8801119 -45.8658151,-67.8798544 -45.8661513,-67.87841593 -45.86693979,-67.8773224 -45.8682132,-67.8784168 -45.867951700000006,-67.8792751 -45.866988,-67.87529512 -45.86884053,-67.8755951 -45.8690125,-67.8751016 -45.8692815,-67.8764427 -45.8695952,-67.87545792 -45.87007243,-67.87638900000002 -45.8699314,-67.8751016 -45.8709026,-67.87327595 -45.87129886;-67.87327595 -45.87129886,-67.87638900000002 -45.8699314,-67.8751016 -45.8709026,-67.87545792 -45.87007243,-67.8773439 -45.8681385,-67.878288 -45.8679816,-67.8767216 -45.8696102,-67.87529512 -45.86884053,-67.8773224 -45.8682132,-67.8784168 -45.867951700000006,-67.8792751 -45.866988,-67.87841593 -45.86693979,-67.8794253 -45.8652025,-67.8813779 -45.8643508,-67.8805947 -45.8648065,-67.8801227 -45.8652622,-67.8801119 -45.8658151,-67.8798544 -45.8661513,-67.87816911 -45.86559299,-67.8800154 -45.8627071,-67.880863 -45.8635887,-67.8814101 -45.8638502,-67.881496 -45.8643508,-67.8795862 -45.8651352,-67.87889297 -45.8626014,-67.8809917 -45.8619301,-67.8822792 -45.8616611,-67.8835666 -45.8617507,-67.8845859 -45.8612277,-67.8843284 -45.8612427,-67.88286864 -45.86153258,-67.8855836 -45.8605329,-67.8847253 -45.8611754,-67.8843284 -45.8612427,-67.88485253 -45.86038085,-67.8862917 -45.8600846,-67.8869355 -45.8600547,-67.8873861 -45.8596438,-67.8876221 -45.8588667,-67.8886843 -45.8579999,-67.8905296 -45.8572453,-67.8915596 -45.8569165,-67.8910661 -45.8570435,-67.89119881 -45.85678635,-67.8960952 -45.8598436,-67.8959692 -45.8585678,-67.8961945 -45.8583138,-67.8955936 -45.8581419,-67.8949177 -45.8572976,-67.8950787 -45.8562589,-67.894907 -45.8558629,-67.8937376 -45.8558928,-67.8932869 -45.8566101,-67.8928149 -45.8568492,-67.8926003 -45.8566998,-67.89506126 -45.86022417,-67.8961086 -45.8601668,-67.8949714 -45.8618927,-67.89369378 -45.862107,-67.8961945 -45.8632674,-67.8952932 -45.8629985,-67.8948426 -45.8620347,-67.8946526 -45.86372426,-67.8942311 -45.8647841,-67.8944886 -45.8644778,-67.8944886 -45.8640444,-67.8955936 -45.8639772,-67.8958511 -45.8637307,-67.8924736 -45.86523062,-67.8914094 -45.8658749,-67.893244 -45.8652249,-67.88982897 -45.86617984,-67.8926647 -45.8667714,-67.8914416 -45.865972,-67.89194102 -45.86726393,-67.8929329 -45.86721210000001,-67.894392 -45.8695056,-67.89334262 -45.86982277,-67.8955185 -45.8706112,-67.895025 -45.8705813,-67.8944993 -45.8697073,-67.89468537 -45.87097799,-67.8951538 -45.8720604,-67.8954649 -45.8713209,-67.8950679 -45.870671,-67.8955185 -45.8706112,-67.89420174 -45.8725767,-67.8954864 -45.8744359,-67.8949392 -45.8739429,-67.895143 -45.8733378,-67.8949499 -45.8727701,-67.89489679 -45.87455424,-67.8992522 -45.8749438,-67.8973424 -45.8751455,-67.8966451 -45.875362100000004,-67.8955722 -45.8745031,-67.89863672 -45.87485225,-67.9000354 -45.874518,-67.9017198 -45.8745629,-67.9028571 -45.8752501,-67.9027605 -45.8753397,-67.90134205 -45.87570554;-67.90134205 -45.87570554,-67.9000354 -45.874518,-67.9017198 -45.8745629,-67.9028571 -45.8752501,-67.9027605 -45.8753397,-67.89863672 -45.87485225,-67.8996062 -45.8756758,-67.8981364 -45.8751081,-67.8992522 -45.8749438,-67.89781334 -45.87614703,,-67.89805175 -45.8762384,-67.8998315 -45.8761838,-67.9001212 -45.8769457,-67.900883 -45.8771399,-67.9025674 -45.8764527,-67.90200809 -45.87637167,-67.9027498 -45.8764153,-67.9023206 -45.8766319,-67.9053462 -45.8764079,-67.9049706 -45.8759672,-67.90388535 -45.87594679,-67.9065692 -45.87642280000001,-67.9066443 -45.8758626,-67.9054427 -45.876363,-67.9050243 -45.8759149,-67.90493501 -45.87690763,-67.9108071 -45.880613,-67.9116762 -45.8803665,-67.9099488 -45.8795972,-67.9089832 -45.8795748,-67.908479 -45.879291,-67.9081464 -45.8778345,-67.9075241 -45.8768784,-67.9078567 -45.8763107,-67.9075456 -45.8753322,-67.9072452 -45.8752799,-67.9064727 -45.8764004,-67.90902811 -45.88062544,,-67.90891537 -45.88072557,-67.9107428 -45.880501,-67.9119766 -45.880389,-67.9123414 -45.8806952,-67.9129958 -45.8809193,-67.91210808 -45.8814063,,-67.91214619 -45.88124859,-67.9166651 -45.8823159,-67.9169762 -45.8821367,-67.9166543 -45.8815466,-67.913146 -45.8824205,-67.9128242 -45.8814645,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91930941 -45.88137118,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.92260289 -45.87981886,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2294,S2192,S2302</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 1211,S172,Linea 768,S2417,Linea 759,S402,Linea 760,S2468,Linea 763,S395,Linea 764,S338,Linea 773,S2407,Linea 850,S2056,Linea 849,S2716,Linea 853,S2504,Linea 854,S997,Linea 1836,S353,Linea 1361,S2006,Linea 1363,S2009,Linea 1365,S354,Linea 1421,S2255,Linea 568,S882,Linea 622,S523,Linea 215,S788,Linea 216,S2676,Linea 217,S2396,Linea 240,S2395,Linea 242,S2294;S2294,Linea 242,S2395,Linea 240,S2396,Linea 217,S2676,Linea 216,S788,Linea 214,S2458,Linea 220,S2054,Linea 226,S2291,Linea 229,S487,Linea 230,S1041,Linea 1848,S492,Linea 1849,S2001,Linea 902,S2022,Linea 1883,S556,Linea 142,S2578,Linea 1821,S555,Linea 112,S767,Linea 108,S719,Linea 132,S302,Linea 1538,S696,Linea 1539,S2192;S2192,Linea 1539,S696,Linea 1538,S302,Linea 132,S719,Linea 108,S767,Linea 113,S2302;S2302,Linea 113,S767,Linea 108,S719,Linea 106,S763,Linea 105,S2206,Linea 104,S538,Linea 141,S690,Linea 144,S2017,Linea 143,S356,Linea 97,S2200,Linea 1847,S2199,Linea 46,S2569,Linea 42,S2032,Linea 34,S308,Linea 33,S2412,Linea 27,S2195,Linea 10,S309,Linea 4,S329,Linea 3,S993,Linea 2,S2447,Linea 1506,S176,Linea 1,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.95709848 -45.86769228,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95610675 -45.87170205,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95650202 -45.87386891,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95720623 -45.87256309,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.96214261 -45.87344787,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96572509 -45.87368099,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.9672039 -45.87497495,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.96992116 -45.87035971,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.9688479 -45.86924263,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.96898996 -45.86789944,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.97170451 -45.86764851,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97781889 -45.86412305,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97692655 -45.86298292,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.98026531 -45.86300386,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98206338 -45.86352335,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86821501 -45.85959306,-67.8666258 -45.8579551,-67.8677523 -45.8588443,-67.8689218 -45.8588293,-67.8688896 -45.8591954,-67.86509618 -45.85797591,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86269634 -45.8576934,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86119926 -45.8582863,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.85800456 -45.85865306,-67.8602314 -45.85924030000001,-67.8568411 -45.8591506,-67.8585362 -45.8586425,-67.85979998 -45.85959279;-67.85979998 -45.85959279,-67.8602314 -45.85924030000001,-67.8568411 -45.8591506,-67.8585362 -45.8586425,-67.85800456 -45.85865306,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.86119926 -45.8582863,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86269634 -45.8576934,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86509618 -45.85797591,-67.8666365 -45.8577982,-67.8680527 -45.857716,-67.86752908 -45.85773082,-67.8694689 -45.8577534,-67.8703272 -45.8578879,-67.8705525 -45.8574694,-67.8710139 -45.8575441,-67.87029294 -45.85782787,-67.8721619 -45.8576637,-67.8734279 -45.8573798,-67.8740823 -45.8579103,-67.87227986 -45.85836679,-67.8758311 -45.8590012,-67.8755307 -45.858777,-67.8718829 -45.8588144,-67.8721619 -45.8576637,-67.8733528 -45.857462,-67.8739536 -45.8579028,-67.87446619 -45.85953534,-67.875917 -45.8590236,-67.8765607 -45.8587098,-67.8784597 -45.8588443,-67.87771797 -45.85914466,-67.8790283 -45.8588293,-67.880466 -45.8587397,-67.8813028 -45.8593598,-67.88077392 -45.85953999,-67.8814316 -45.8592926,-67.8808415 -45.8591357,-67.880863 -45.8587322,-67.8817642 -45.858239,-67.8850043 -45.8580522,-67.88402968 -45.85834964,-67.887429 -45.855564,-67.8882551 -45.8548691,-67.8894138 -45.853808,-67.8920853 -45.8535689,-67.8916454 -45.8538678,-67.8897357 -45.85395,-67.88910 -45.85436,-67.8875685 -45.8562589,-67.885799 -45.8571033,-67.88544 -45.8578281,-67.88523 -45.85794,-67.88581092 -45.85597227,-67.887429 -45.855564,-67.8894138 -45.853808,-67.8932333 -45.8533447,-67.8969455 -45.8545851,-67.8963768 -45.8546599,-67.89483427 -45.85484841,-67.9008508 -45.8548093,-67.8990161 -45.8545403,-67.898823 -45.8538678,-67.8965485 -45.8545553,-67.90022567 -45.85540767,,-67.90067511 -45.8549717,-67.904284 -45.8564084,-67.9033184 -45.8552726,-67.9019022 -45.8551232,-67.90400196 -45.85653031,-67.90773330000002 -45.8580522,-67.9073417 -45.8579177,-67.9068965 -45.8568567,-67.9053408 -45.8563822,-67.90707943 -45.8582017,-67.9079533 -45.8582615,-67.9074919 -45.8604283,-67.90669842 -45.86068564,,-67.90616229 -45.86044696,,-67.90690597 -45.86062114;-67.90690597 -45.86062114,,-67.90616229 -45.86044696,,-67.90669842 -45.86068564,-67.9079533 -45.8582615,-67.9074919 -45.8604283,-67.90707943 -45.8582017,-67.90773330000002 -45.8580522,-67.9073417 -45.8579177,-67.9068965 -45.8568567,-67.9053408 -45.8563822,-67.90400196 -45.85653031,-67.9045093 -45.8564233,-67.9023314 -45.8567073,-67.90107375 -45.85681401;-67.90107375 -45.85681401,-67.9045093 -45.8564233,-67.9023314 -45.8567073,-67.90400196 -45.85653031,-67.90773330000002 -45.8580522,-67.9073417 -45.8579177,-67.9068965 -45.8568567,-67.9053408 -45.8563822,-67.90707943 -45.8582017,-67.9102653 -45.8586986,-67.9081625 -45.8581195,-67.90964669 -45.85881191,-67.9112792 -45.8592776,-67.9102921 -45.8588293,-67.9105067 -45.8586425,-67.91058213 -45.85962973,-67.9145408 -45.8594047,-67.9124916 -45.858777,-67.9112792 -45.8592776,-67.91347499 -45.85938782,-67.9153347 -45.8605702,-67.9157317 -45.8599725,-67.9146159 -45.859457,-67.91412974 -45.86109479,-67.9219651 -45.8610335,-67.9157424 -45.8609887,-67.92116295 -45.86077528,-67.9235315 -45.8601219,-67.9222655 -45.8604731,-67.92204432 -45.86025045,-67.9253769 -45.8604208,-67.9236388 -45.8595317,-67.9233384 -45.8597857,-67.92472033 -45.86078317,-67.9288423 -45.860757,-67.9286063 -45.8609812,-67.9269433 -45.8608168,-67.9254305 -45.8610559,-67.9256237 -45.8606898,-67.92827234 -45.86082887,-67.9307091 -45.86097370000001,-67.9287457 -45.8609588,-67.9288423 -45.860757,-67.92973166 -45.86112334,-67.9343569 -45.8614145,-67.9335523 -45.861549,-67.9334021 -45.8611381,-67.9309666 -45.8609214,-67.93332777 -45.86169272,-67.9375219 -45.8620421,-67.9357517 -45.861085800000005,-67.9346144 -45.8614519,-67.93652197 -45.86222667,-67.9388309 -45.8607794,-67.938112 -45.8611007,-67.9377472 -45.860899,-67.9362881 -45.8614743,-67.9374897 -45.8619749,-67.93809539 -45.86091501,-67.9389811 -45.8623559,-67.9389596 -45.8618329,-67.9381979 -45.8610783,-67.9390669 -45.8607794,-67.93749455 -45.86270022,-67.9407942 -45.8630844,-67.9403758 -45.8621878,-67.9386914 -45.8624792,-67.94016816 -45.86304785,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94026881 -45.86394522,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.9397787 -45.86446671,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.93820898 -45.86621382,,-67.93822649 -45.86645361,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S999,S2433,S2524,S2673</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 754,S2408,Linea 752,S370,Linea 1842,S2421,Linea 741,S980,Linea 740,S377,Linea 748,S381,Linea 747,S2572,Linea 745,S999;S999,Linea 745,S2572,Linea 746,S315,Linea 1008,S962,Linea 1212,S546,Linea 1753,S2465,Linea 968,S387,Linea 970,S316,Linea 969,S39,Linea 957,S36,Linea 1027,S2695,Linea 1026,S43,Linea 1088,S2707,Linea 1098,S42,Linea 1856,S2724,Linea 1092,S163,Linea 1854,S66,Linea 1152,S2658,Linea 1145,S844,Linea 1135,S914,Linea 1134,S2433;S2433,Linea 1134,S914,Linea 1135,S844,Linea 1145,S2658,Linea 1151,S909,Linea 1146,S824,Linea 1144,S823,Linea 1139,S815,Linea 1129,S921,Linea 1273,S2055,Linea 1328,S778,Linea 1329,S834,Linea 1307,S839,Linea 1313,S725,Linea 1310,S744,Linea 1321,S747,Linea 1324,S752,Linea 1244,S753,Linea 1323,S755,Linea 1236,S2648,Linea 1237,S2644,Linea 1238,S2524;S2524,Linea 1238,S2644,Linea 1237,S2648,Linea 1236,S755,Linea 1323,S753,Linea 1244,S752,Linea 1326,S2640,Linea 1246,S2627,Linea 1247,S2657,Linea 1260,S925,Linea 1337,S924,Linea 1330,S2717,Linea 1333,S2718,Linea 1334,S2698,Linea 1335,S2711,Linea 1336,S2694,Linea 608,S2619,Linea 606,S2683,Linea 603,S2663,Linea 607,S2673;S2673,Linea 607,S2663,Linea 603,S2683,Linea 601,S2689,Linea 599,S2196,Linea 600,S2324,Linea 598,S4,Linea 597,S2293,Linea 596,S17,Linea 594,S2259,Linea 592,S2129,Linea 591,S949,Linea 579,S2132,Linea 578,S2443,Linea 581,S938,Linea 582,S849,Linea 584,S2168,Linea 1617,S2167,Linea 736,S2110,Linea 930,S2111,Linea 931,S645,Linea 932,S78,Linea 940,S56,Linea 944,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9513514 -45.867951700000006,-67.9506004 -45.8681534,-67.9493558 -45.8665622,-67.9490876 -45.8664576,-67.9492164 -45.8668461,-67.95075242 -45.86791677,-67.9511476 -45.8693039,-67.95089010000001 -45.8697222,-67.9506433 -45.8681011,-67.9512978 -45.867892,-67.95011093 -45.86936834,-67.9526013 -45.869965,-67.9517484 -45.8700734,-67.9508901 -45.8697222,-67.9511476 -45.8693039,-67.95188123 -45.87007275,-67.9518449 -45.870925,-67.9516733 -45.8706037,-67.9509866 -45.870275,-67.95089010000001 -45.8697222,-67.9517484 -45.8700734,-67.9526281 -45.8699912,-67.95082673 -45.87123588,-67.9510081 -45.87218,-67.9515123 -45.8715599,-67.9518449 -45.870925,-67.94974928 -45.87213834,-67.9508579 -45.8736739,-67.9509115 -45.8721426,-67.94983615 -45.87396079,-67.9521346 -45.8759746,-67.951448 -45.8759597,-67.9509008 -45.8738383,-67.95155064 -45.87647635,-67.9521239 -45.8742491,-67.9518771 -45.875885,-67.9521346 -45.8759746,-67.95131727 -45.87411285;-67.95131727 -45.87411285,-67.9521239 -45.8742491,-67.9518771 -45.875885,-67.9521346 -45.8759746,-67.95155064 -45.87647635,-67.9521346 -45.8759746,-67.9517162 -45.8759074,-67.9513943 -45.8758999,-67.9525959 -45.87702780000001,-67.95337920000001 -45.8774162,-67.95259842 -45.87763583,-67.9534543 -45.8773565,-67.9526925 -45.87711,-67.9530144 -45.8775731,-67.9524779 -45.878813,-67.9512334 -45.8789325,-67.94944114 -45.87896309,-67.9512119 -45.8788877,-67.952435 -45.8787607,-67.9518127 -45.8800454,-67.9474354 -45.8786785,-67.9441524 -45.8779764,-67.9427791 -45.8776328,-67.940805 -45.8776926,-67.93921257 -45.87804782,,-67.93938002 -45.87863178,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.94258106 -45.87928487,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.9459034 -45.88040255,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.94607409 -45.88311995,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94628753 -45.88560005,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94746568 -45.88694764,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94972726 -45.88693813,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.95178221 -45.88666191,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95650174 -45.8868325,-67.9573059 -45.8868268,-67.956748 -45.8864908,-67.9563725 -45.8857215,-67.9556644 -45.8849971,-67.9546167 -45.88506443,-67.960428 -45.8852436,-67.9597843 -45.8853855,-67.9578102 -45.8852959,-67.9558897 -45.8849448,-67.95958113 -45.88533853,-67.9643977 -45.8867746,-67.9641402 -45.8867895,-67.9629064 -45.8855274,-67.9625845 -45.8842055,-67.9620588 -45.8840412,-67.9608893 -45.8848926,-67.96291589 -45.88644251,-67.9671872 -45.8881412,-67.9659748 -45.8870061,-67.9642153 -45.8869314,-67.9642582 -45.8866849,-67.96633372 -45.88873533,-67.9702985 -45.892002,-67.9693437 -45.8927189,-67.9695046 -45.8920393,-67.9694617 -45.8909565,-67.9689038 -45.8902247,-67.9675949 -45.8891494,-67.9695987 -45.89181892,-67.9699337 -45.8946379,-67.9693973 -45.8950411,-67.9688287 -45.894847,-67.9686248 -45.893936,-67.9694724 -45.8926591,-67.9702985 -45.892002,-67.96939983 -45.89469974,-67.9698801 -45.8941675,-67.9696119 -45.8937568,-67.9699659 -45.8935029,-67.96948958 -45.89363794;-67.96948958 -45.89363794,-67.9698801 -45.8941675,-67.9696119 -45.8937568,-67.9699659 -45.8935029,-67.96939983 -45.89469974,-67.9699337 -45.8946379,-67.9693973 -45.8950411,-67.9688287 -45.894847,-67.9686248 -45.893936,-67.9694724 -45.8926591,-67.9702985 -45.892002,-67.9695987 -45.89181892,-67.9702985 -45.892002,-67.9693437 -45.8927189,-67.9695046 -45.8920393,-67.9694617 -45.8909565,-67.9689038 -45.8902247,-67.9675949 -45.8891494,-67.96633372 -45.88873533,-67.9670262 -45.8881263,-67.9660714 -45.8869613,-67.9657602 -45.8876259,-67.9651165 -45.8877678,-67.9650307 -45.887947,-67.964462 -45.8880815,-67.96290254 -45.88863388,-67.9609108 -45.8902845,-67.9623485 -45.8909491,-67.9621017 -45.8899111,-67.962445 -45.8899634,-67.9637861 -45.8886864,-67.95958813 -45.89007642,-67.963196 -45.8927189,-67.9626918 -45.8927114,-67.9624236 -45.8909043,-67.9618871 -45.8908445,-67.9608786 -45.8903442,-67.96212496 -45.89267136,-67.9612112 -45.8971319,-67.9633784 -45.8962807,-67.9639149 -45.8957132,-67.9634535 -45.8934357,-67.9631853 -45.892801,-67.95956637 -45.89743693,-67.9642367 -45.8983564,-67.9643333 -45.8976993,-67.9650199 -45.8970721,-67.9652989 -45.8964076,-67.9613721 -45.8972065,-67.96354703 -45.89869944,-67.9693437 -45.9027914,-67.9659963 -45.8987297,-67.965138 -45.8986401,-67.96793825 -45.90348141,-67.9685926 -45.9034484,-67.9653096 -45.9044488,-67.9600525 -45.9049564,-67.9584861 -45.9041651,-67.9576707 -45.9040606,-67.95594313 -45.90408308,-67.9576707 -45.9040606,-67.9586577 -45.9041501,-67.9598594 -45.9049266,-67.9530573 -45.9053894,-67.9526496 -45.9059568,-67.9507613 -45.9066437,-67.9497957 -45.9073603,-67.9479933 -45.907644,-67.9448175 -45.9073753,-67.9420066 -45.9072707,-67.94070253 -45.90708056,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.93482704 -45.9074612,-67.922008 -45.9097193,-67.9201412 -45.9109884,-67.9196906 -45.9109585,-67.9200125 -45.9097492,-67.9210854 -45.909585,-67.9227591 -45.90851,-67.9267287 -45.9077933,-67.9317927 -45.9075544,-67.9344964 -45.9080023,-67.9353762 -45.9076142,-67.92132124 -45.90950332,-67.9221797 -45.9097492,-67.9201412 -45.9109884,-67.91924 -45.911063,-67.9191971 -45.9115109,-67.91938339 -45.91141146,-67.9150558 -45.9126903,-67.9162359 -45.9122126,-67.9164505 -45.9115408,-67.9181457 -45.910645,-67.9202914 -45.9111078,-67.91361731 -45.91301639,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.9049706 -45.9149894,-67.9050565 -45.9146311,-67.908597 -45.9143027,-67.9105282 -45.9135114,-67.9126954 -45.9130636,-67.9141974 -45.9123171,-67.90949828 -45.91775832,-67.9105067 -45.9207068,-67.9081678 -45.9205276,-67.9078245 -45.9200798,-67.9065156 -45.9195574,-67.9081035 -45.9191991,-67.9097772 -45.9180049,-67.91006087 -45.92075561,-67.9186392 -45.925737,-67.9181242 -45.9258713,-67.9160213 -45.924319,-67.9144335 -45.9239011,-67.9125881 -45.9236324,-67.911365 -45.9232891,-67.908361 -45.9205575,-67.9107213 -45.9206172,-67.91781996 -45.92567691,-67.9183388 -45.9258713,-67.9167509 -45.9248116,-67.9175448 -45.9264683,-67.9174805 -45.9272444,-67.9163647 -45.9281549,-67.9153562 -45.9282295,-67.9142404 -45.9287071,-67.9133177 -45.9295131,-67.9126954 -45.9289758,-67.912631 -45.9280206,-67.9141116 -45.9273489,-67.9158497 -45.9268415,-67.9161072 -45.9264235,-67.9158711 -45.9259907,-67.91406535 -45.92603076,-67.9160428 -45.9260952,-67.9158497 -45.9268415,-67.9124379 -45.928125,-67.9126954 -45.9289758,-67.9133177 -45.9295131,-67.9122019 -45.9304384,-67.9106355 -45.9306175,-67.9069018 -45.9297071,-67.9082537 -45.9278265,-67.90777463 -45.92772469,-67.9082537 -45.9278265,-67.9069018 -45.9297071,-67.9044557 -45.9301399,-67.9031253 -45.9268564,-67.9025245 -45.9264086,-67.90071017 -45.92674612;-67.90071017 -45.92674612,-67.9082537 -45.9278265,-67.9069018 -45.9297071,-67.9044557 -45.9301399,-67.9031253 -45.9268564,-67.9025245 -45.9264086,-67.90777463 -45.92772469,-67.9160428 -45.9260952,-67.9158497 -45.9268415,-67.9124379 -45.928125,-67.9126954 -45.9289758,-67.9133177 -45.9295131,-67.9122019 -45.9304384,-67.9106355 -45.9306175,-67.9069018 -45.9297071,-67.9082537 -45.9278265,-67.91406535 -45.92603076,-67.9183388 -45.9258713,-67.9167509 -45.9248116,-67.9175448 -45.9264683,-67.9174805 -45.9272444,-67.9163647 -45.9281549,-67.9153562 -45.9282295,-67.9142404 -45.9287071,-67.9133177 -45.9295131,-67.9126954 -45.9289758,-67.912631 -45.9280206,-67.9141116 -45.9273489,-67.9158497 -45.9268415,-67.9161072 -45.9264235,-67.9158711 -45.9259907,-67.91781996 -45.92567691,-67.9186392 -45.925737,-67.9181242 -45.9258713,-67.9160213 -45.924319,-67.9144335 -45.9239011,-67.9125881 -45.9236324,-67.911365 -45.9232891,-67.908361 -45.9205575,-67.9107213 -45.9206172,-67.91006087 -45.92075561,-67.9105067 -45.9207068,-67.9081678 -45.9205276,-67.9078245 -45.9200798,-67.9065156 -45.9195574,-67.9081035 -45.9191991,-67.9097772 -45.9180049,-67.90949828 -45.91775832,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.90527 -45.9149745,-67.9052067 -45.9146162,-67.9025245 -45.9141235,-67.90171 -45.9145565,-67.89907 -45.9147953,-67.8979325 -45.9163329,-67.8972459 -45.916945,-67.8961945 -45.916945,-67.896 -45.9166,-67.89415644 -45.91643339,-67.8951859 -45.9189752,-67.8956151 -45.9181094,-67.8975034 -45.9169749,-67.8979325 -45.9163329,-67.8972459 -45.916945,-67.8964305 -45.9169151,-67.8960013 -45.9166017,-67.8948966 -45.91911867,-67.895422 -45.9189901,-67.8929543 -45.9186468,-67.89164408 -45.91850265,-67.892257 -45.917781,-67.8922355 -45.9171241,-67.8925788 -45.9166017,-67.8926325 -45.9163553,-67.8917956 -45.9155044,-67.8909266 -45.914855,-67.8902507 -45.9144445,-67.8900683 -45.9137279,-67.8889096 -45.913601,-67.888813 -45.9138473,-67.88780562 -45.91450171,-67.8887486 -45.9139369,-67.8892422 -45.9133771,-67.889092 -45.9088982,-67.8895211 -45.9081964,-67.8884697 -45.9068527,-67.8891134 -45.9060464,-67.8899932 -45.905494,-67.890079 -45.9049863,-67.8895855 -45.9049415,-67.8884912 -45.9054641,-67.88690397 -45.90593083,-67.8877831 -45.9058523,-67.8869033 -45.9059867,-67.8840923 -45.9048668,-67.8834271 -45.9042397,-67.8832769 -45.9030601,-67.8820109 -45.9031497,-67.8811312 -45.903299,-67.8780627 -45.9027018,-67.8772688 -45.9023733,-67.8778911 -45.9022389,-67.87749311 -45.90223614,-67.8778911 -45.9022389,-67.8772688 -45.9023733,-67.8762174 -45.9020895,-67.8762174 -45.9018506,-67.875402 -45.9018954,-67.87401 -45.90242679,-67.875402 -45.9018954,-67.8762174 -45.9018506,-67.8767323 -45.9016117,-67.8774405 -45.9009995,-67.8778481 -45.8999691,-67.87600509 -45.90013168,-67.8778481 -45.8999691,-67.8795862 -45.8996556,-67.8816676 -45.8998198,-67.8823113 -45.899342,-67.88283131 -45.8994995,-67.8816462 -45.8976545,-67.8819466 -45.8992972,-67.8823757 -45.8992374,-67.88049412 -45.89765426,-67.8799939 -45.8961761,-67.8810668 -45.8968855,-67.881496 -45.8974007,-67.87842608 -45.89585515,-67.8782558 -45.8919497,-67.8778267 -45.8923828,-67.8780413 -45.8938315,-67.8791893 -45.8953398,-67.87768072 -45.89180609,-67.877419 -45.893361,-67.8777194 -45.8924724,-67.8782558 -45.8919497,-67.87597121 -45.89385401,-67.8765607 -45.8939958,-67.8749728 -45.8950561,-67.8745329 -45.895832600000006,-67.8753376 -45.896079,-67.87484942 -45.89595746;-67.87484942 -45.89595746,-67.8765607 -45.8939958,-67.8749728 -45.8950561,-67.8745329 -45.895832600000006,-67.8753376 -45.896079,-67.87597121 -45.89385401,-67.877419 -45.893361,-67.8777194 -45.8924724,-67.8782558 -45.8919497,-67.87768072 -45.89180609,-67.8788996 -45.8901426,-67.877934 -45.8900903,-67.8774834 -45.8904786,-67.8777945 -45.8925098,-67.8783524 -45.8919348,-67.87813787 -45.88993585,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87484305 -45.89067788,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87661058 -45.88889945,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.88085052 -45.88709026,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88304639 -45.88588109,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88477851 -45.88530377,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88725199 -45.88498287,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88986813 -45.88509226,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.89478887 -45.88442779,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89811074 -45.88424629,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.90293219 -45.8836944,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90362098 -45.8874036,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90705336 -45.88840606,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90594775 -45.88423937,,-67.90591516 -45.88446218,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90970498 -45.88326091,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91930941 -45.88137118,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.92260289 -45.87981886,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2685,S2104,S2414,S935</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 944,S56,Linea 940,S78,Linea 932,S645,Linea 931,S2111,Linea 930,S2110,Linea 736,S2167,Linea 1617,S2168,Linea 584,S849,Linea 582,S938,Linea 581,S2443,Linea 578,S2132,Linea 579,S949,Linea 591,S2129,Linea 592,S2259,Linea 594,S17,Linea 596,S2293,Linea 597,S4,Linea 598,S2324,Linea 600,S2196,Linea 599,S2689,Linea 605,S581,Linea 610,S2688,Linea 611,S2685;S2685,Linea 611,S2688,Linea 610,S581,Linea 605,S2689,Linea 599,S2196,Linea 600,S2324,Linea 598,S4,Linea 597,S2293,Linea 596,S17,Linea 735,S295,Linea 734,S3,Linea 613,Q16,Linea 1626,S2240,Linea 471,S2,Linea 1886,S13,Linea 1887,S2523,Linea 517,Q17,Linea 516,S2236,Linea 511,S509,Linea 512,S427,Linea 507,S2307,Linea 649,S426,Linea 645,S470,Linea 534,S506,Linea 536,S533,Linea 540,S531,Linea 538,S439,Linea 545,S469,Linea 614,S2634,Linea 615,S2273,Linea 566,S522,Linea 567,S882,Linea 568,S2255,Linea 1373,S323,Linea 1372,S325,Linea 1371,S2091,Linea 1370,S2081,Linea 1426,S2087,Linea 1427,S2406,Linea 823,S2441,Linea 821,S2242,Linea 815,S2177,Linea 820,S194,Linea 1206,S184,Linea 1804,S2080,Linea 1490,S138,Linea 1208,S2101,Linea 1462,S183,Linea 1473,S148,Linea 1474,S2429,Linea 1476,S207,Linea 1475,S243,Linea 1482,S2104;S2104,Linea 1482,S243,Linea 1475,S207,Linea 1476,S2429,Linea 1474,S148,Linea 1473,S183,Linea 1462,S2101,Linea 1208,S138,Linea 1490,S2080,Linea 1804,S184,Linea 1206,S194,Linea 820,S2177,Linea 815,S2242,Linea 821,S2441,Linea 823,S2406,Linea 1832,S285,Linea 830,S249,Linea 833,S2414;S2414,Linea 833,S249,Linea 1678,S2548,Linea 1833,S339,Linea 1834,S312,Linea 839,S287,Linea 805,S198,Linea 1828,S2095,Linea 797,S2189,Linea 1292,S1,Linea 1293,S2116,Linea 1295,S59,Linea 1017,S315,Linea 1008,S962,Linea 1212,S546,Linea 1753,S2465,Linea 966,S2147,Linea 964,S2146,Linea 949,S31,Linea 950,S2094,Linea 1711,S33,Linea 1222,S927,Linea 1754,S115,Linea 1085,S944,Linea 1077,S2667,Linea 1078,S793,Linea 1076,S791,Linea 1221,S760,Linea 1073,S794,Linea 1297,S759,Linea 1306,S834,Linea 1307,S839,Linea 1313,S725,Linea 1310,S744,Linea 1321,S747,Linea 1320,S2493,Linea 1325,S935;S935,Linea 1325,S2493,Linea 1320,S747,Linea 1321,S744,Linea 1310,S725,Linea 1313,S839,Linea 1307,S834,Linea 1306,S759,Linea 1297,S794,Linea 1073,S760,Linea 1221,S791,Linea 1076,S793,Linea 1078,S2667,Linea 1077,S944,Linea 1085,S115,Linea 1733,S927,Linea 1222,S33,Linea 1724,S2094,Linea 950,S31,Linea 949,S2146,Linea 964,S2147,Linea 946,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92260289 -45.87981886,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.91930941 -45.88137118,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91747464 -45.88372353,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91541483 -45.88231338,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.90970498 -45.88326091,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90591516 -45.88446218,,-67.90594775 -45.88423937,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90705336 -45.88840606,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90362098 -45.8874036,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90293219 -45.8836944,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.89811074 -45.88424629,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89478887 -45.88442779,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.88986813 -45.88509226,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88725199 -45.88498287,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88477851 -45.88530377,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88304639 -45.88588109,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88085052 -45.88709026,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.87661058 -45.88889945,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87484305 -45.89067788,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87813787 -45.88993585,-67.8789854 -45.8901127,-67.8777838 -45.8901052,-67.8751981 -45.8927935,-67.8739536 -45.8942571,-67.87230402 -45.89457162,-67.8727734 -45.8946678,-67.8694153 -45.8954742,-67.8682566 -45.89504860000001,-67.86797017 -45.89505687,-67.86816 -45.8950113,-67.8676021 -45.8944886,-67.866143 -45.8944961,-67.86504739 -45.89456671;-67.86504739 -45.89456671,-67.86816 -45.8950113,-67.8676021 -45.8944886,-67.866143 -45.8944961,-67.86797017 -45.89505687,-67.8727734 -45.8946678,-67.8694153 -45.8954742,-67.8682566 -45.89504860000001,-67.87230402 -45.89457162,-67.8789854 -45.8901127,-67.8777838 -45.8901052,-67.8751981 -45.8927935,-67.8739536 -45.8942571,-67.87813787 -45.88993585,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87484305 -45.89067788,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87661058 -45.88889945,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.88085052 -45.88709026,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88304639 -45.88588109,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88477851 -45.88530377,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88934482 -45.88367092,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.87931365 -45.88515467,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87597578 -45.88674947,,-67.87630061 -45.88642699,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.8758872 -45.88413516,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.87263059 -45.88283868,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.86703039 -45.88312685,-67.8726017 -45.880389,-67.8697157 -45.8828462,-67.8706813 -45.8831001,-67.8686643 -45.8830254,-67.8724445 -45.87988188,-67.8772688 -45.8789101,-67.8749835 -45.8790146,-67.87362100000001 -45.8797765,-67.87684672 -45.87887091,-67.8785026 -45.8788802,-67.8798115 -45.8793806,-67.87875862 -45.87975391,-67.8797901 -45.8776627,-67.8792536 -45.87817810000001,-67.8798115 -45.8793806,-67.87897854 -45.87766371,-67.8803158 -45.8771847,-67.8813779 -45.8760792,-67.8823113 -45.875519,-67.8828478 -45.87486160000001,-67.88196942 -45.87464989,-67.8836632 -45.8741296,-67.884264 -45.8734723,-67.8839421 -45.8733229,-67.8833306 -45.8736515,-67.8822899 -45.87404,-67.8816032 -45.8749737,-67.8808522 -45.875153,-67.8791678 -45.8762809,-67.8782129 -45.8766021,-67.8774083 -45.8765572,-67.87580898 -45.87623664,-67.8772473 -45.875646,-67.87714 -45.874899,-67.8760457 -45.8739578,-67.8750265 -45.8733005,-67.8741574 -45.8732108,-67.8737283 -45.8741819,-67.87226293 -45.87472228,-67.8721726 -45.8748019,-67.868793 -45.8753024,-67.8683639 -45.8750633,-67.8691471 -45.8759522,-67.86877282 -45.87598303,-67.8690398 -45.8759074,-67.8681815 -45.8748691,-67.8664434 -45.8762585,-67.86520975 -45.8764158,-67.8666043 -45.8740773,-67.8655958 -45.8758999,-67.8658319 -45.8761464,-67.86601994 -45.87390747,-67.8686213 -45.87223970000001,-67.8679776 -45.8725012,-67.867173 -45.87342,-67.86803091 -45.87230485,-67.8687286 -45.87223970000001,-67.8671408 -45.8717542,-67.8661752 -45.8712611,-67.8662395 -45.8705888,-67.86552841 -45.87071955,-67.8665292 -45.8705589,-67.866143 -45.8710594,-67.8657889 -45.8704767,-67.8668725 -45.8688706,-67.86653014 -45.86909111,-67.8668725 -45.8688706,-67.8667974 -45.868646500000004,-67.8676665 -45.8677127,-67.867012 -45.86727940000001,-67.86635342 -45.86702056,-67.8682029 -45.8666817,-67.8692436 -45.8661961,-67.8702307 -45.8647318,-67.8701663 -45.8642088,-67.86895092 -45.86422008,-67.8701234 -45.8635663,-67.8698123 -45.86132490000001,-67.8679776 -45.8603237,-67.8670549 -45.8588966,-67.8654027 -45.859457,-67.8654563 -45.8601518,-67.8656709 -45.8602639,-67.86513556 -45.86046435,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.98715669 -45.86146692,-67.9928935 -45.8605404,-67.9914236 -45.8609588,-67.98931 -45.8614369,-67.9889023 -45.8613323,-67.99220337 -45.86057361,-67.9911339 -45.8618479,-67.9904687 -45.8619002,-67.9910696 -45.8615117,-67.9918849 -45.861295,-67.9930007 -45.8606151,-67.99023202 -45.86204363,-67.9886341 -45.8629088,-67.9906297 -45.8618479,-67.9911232 -45.8617956,-67.98677491 -45.86342245,-67.9859948 -45.8647094,-67.9874003 -45.863783,-67.98422803 -45.86529103,-67.9920459 -45.8642163,-67.9910159 -45.864672,-67.9903078 -45.8650157,-67.9890847 -45.8656208,-67.9855978 -45.8654415,-67.9855227 -45.865322,-67.99158422 -45.86437969,-67.9929578 -45.8671225,-67.9928398 -45.8662783,-67.9924321 -45.8655835,-67.9919815 -45.8652548,-67.992121 -45.8648663,-67.9910159 -45.864672,-67.9918528 -45.8642238,-67.99174523 -45.8677107,-67.9914558 -45.8692516,-67.9914558 -45.8690499,-67.9925716 -45.8679293,-67.99024475 -45.86974641,-67.9910052 -45.8707457,-67.9910266 -45.8705664,-67.99163820000001 -45.8700883,-67.9915524 -45.8697073,-67.9900866 -45.8710699,-67.9930758 -45.87218,-67.992754 -45.8724788,-67.9914343 -45.8718886,-67.9915845 -45.8711565,-67.9912734 -45.8710071,-67.99156523 -45.87210921,-67.9929739 -45.8721949,-67.9927379 -45.872546,-67.993784 -45.8729494,-67.9957634 -45.8725273,-67.9964232 -45.8722024,-67.99553288 -45.87226112,-67.9971957 -45.8714031,-67.9989982 -45.8712611,-67.9998028 -45.8710071,-67.99921407 -45.87121751,,-67.99960904 -45.87080973,-68.0035579 -45.8703423,-68.0025816 -45.8706859,-68.0014014 -45.8705066,-68.00284674 -45.87040916,-68.0041587 -45.8700285,-68.0051243 -45.8686091,-68.00449906 -45.86852742,-68.0070448 -45.8686241,-68.0060685 -45.868385,-68.00620422 -45.86892139,-68.0131066 -45.8689005,-68.0126238 -45.8687212,-68.0113363 -45.868385,-68.01036 -45.8679741,-68.0097055 -45.8679816,-68.0074954 -45.8686166,-68.01223482 -45.86912312,-68.0136108 -45.8697596,-68.012892 -45.8698418,-68.0106711 -45.8695579,-68.0112398 -45.869416,-68.0126882 -45.8689677,-68.01323141 -45.86984796,-68.0170333 -45.8699613,-68.0162179 -45.8701854,-68.0148554 -45.8699837,-68.01624065 -45.87002946,-68.0173981 -45.8697447,-68.018117 -45.8693263,-68.019619 -45.8685942,-68.01888103 -45.86869015,-68.0200803 -45.8683477,-68.0205953 -45.867877,-68.0235457 -45.8671822,-68.0237496 -45.867765,-68.02227322 -45.8681232;-68.02227322 -45.8681232,-68.0200803 -45.8683477,-68.0205953 -45.867877,-68.0235457 -45.8671822,-68.0237496 -45.867765,-68.01888103 -45.86869015,-68.0173981 -45.8697447,-68.018117 -45.8693263,-68.019619 -45.8685942,-68.01624065 -45.87002946,-68.0170333 -45.8699613,-68.0162179 -45.8701854,-68.0148554 -45.8699837,-68.01323141 -45.86984796,-68.0136108 -45.8697596,-68.012892 -45.8698418,-68.0106711 -45.8695579,-68.0112398 -45.869416,-68.0126882 -45.8689677,-68.01223482 -45.86912312,-68.0131066 -45.8689005,-68.0126238 -45.8687212,-68.0113363 -45.868385,-68.01036 -45.8679741,-68.0097055 -45.8679816,-68.0074954 -45.8686166,-68.00620422 -45.86892139,-68.0070448 -45.8686241,-68.0060685 -45.868385,-68.00449906 -45.86852742,-68.0041587 -45.8700285,-68.0051243 -45.8686091,-68.00284674 -45.87040916,-68.0035579 -45.8703423,-68.0025816 -45.8706859,-68.0014014 -45.8705066,-67.99960904 -45.87080973,,-67.99921407 -45.87121751,-67.9971957 -45.8714031,-67.9989982 -45.8712611,-67.9998028 -45.8710071,-67.99553288 -45.87226112,-67.9929739 -45.8721949,-67.9927379 -45.872546,-67.993784 -45.8729494,-67.9957634 -45.8725273,-67.9964232 -45.8722024,-67.99156523 -45.87210921,-67.9930758 -45.87218,-67.992754 -45.8724788,-67.9914343 -45.8718886,-67.9915845 -45.8711565,-67.9912734 -45.8710071,-67.9900866 -45.8710699,-67.9910052 -45.8707457,-67.9910266 -45.8705664,-67.99163820000001 -45.8700883,-67.9915524 -45.8697073,-67.99024475 -45.86974641,-67.9914558 -45.8692516,-67.9914558 -45.8690499,-67.9925716 -45.8679293,-67.99174523 -45.8677107,-67.9929042 -45.8670777,-67.9928398 -45.8661064,-67.9924321 -45.8655835,-67.9918849 -45.8652398,-67.9909408 -45.867115,-67.9902434 -45.8675334,-67.98895281 -45.86742251,-67.9901361 -45.8674661,-67.9900289 -45.8678098,-67.9882801 -45.8686838,-67.9882801 -45.8691246,-67.9875398 -45.8692665,-67.98621539 -45.86906201,-67.9865098 -45.8688407,-67.9868531 -45.868893,-67.98529724 -45.86913902;-67.98529724 -45.86913902,-67.9865098 -45.8688407,-67.9868531 -45.868893,-67.98621539 -45.86906201,,-67.98595749 -45.86942688,-67.9875398 -45.8692665,-67.988205 -45.8691993,-67.9883659 -45.8686465,-67.9866493 -45.8686017,-67.9853296 -45.8685195,-67.9839349 -45.868766,-67.9830122 -45.8690947,-67.9832804 -45.8686614,-67.9841065 -45.8682057,-67.98364252 -45.86827111,-67.9807377 -45.8716645,-67.9809952 -45.8709175,-67.9819071 -45.8698567,-67.9830122 -45.8690947,-67.9832804 -45.8686614,-67.9840744 -45.8683402,-67.97987219 -45.87199291,-67.9799759 -45.8737337,-67.9795146 -45.8726879,-67.9809093 -45.8709474,-67.980845 -45.8716421,-67.97905112 -45.87422359,-67.9801047 -45.8737412,-67.9795146 -45.8726879,-67.9791605 -45.8735694,-67.9792249 -45.8748467,-67.9793966 -45.8748467,-67.9797721 -45.8758476,-67.9800725 -45.876012,-67.97932522 -45.87631183,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9756951 -45.8784321,-67.9790318 -45.877588,-67.9792678 -45.8765199,-67.9792786 -45.8747272,-67.9798257 -45.8760045,-67.9801154 -45.8760643,-67.9757414 -45.87911165,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9755771 -45.8785142,-67.9742253 -45.8787756,-67.974236 -45.878222900000004,-67.97210325 -45.8786421,-67.9739785 -45.8781632,-67.9745579 -45.8782677,-67.9740644 -45.8788802,-67.9710174 -45.8792537,-67.96993071 -45.87922522,-67.9708028 -45.8792686,-67.9686999 -45.8795524,-67.9682064 -45.8792238,-67.96661757 -45.87943084,-67.967391 -45.8796271,-67.9660606 -45.879657,-67.9619408 -45.879179,-67.959795 -45.8789997,-67.9602242 -45.8794852,-67.95937836 -45.87978501,-67.9538298 -45.8776104,-67.9575419 -45.8788205,-67.9596341 -45.8789624,-67.9602242 -45.8794852,-67.95259842 -45.87763583,-67.9534543 -45.8773565,-67.9526925 -45.87711,-67.9530144 -45.8775731,-67.9524779 -45.878813,-67.9512334 -45.8789325,-67.94944114 -45.87896309,-67.9512119 -45.8788877,-67.952435 -45.8787607,-67.9518127 -45.8800454,-67.9474354 -45.8786785,-67.9441524 -45.8779764,-67.9427791 -45.8776328,-67.940805 -45.8776926,-67.93921257 -45.87804782,,-67.93938002 -45.87863178,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93512028 -45.8793768,-67.9380155 -45.8812404,-67.938627 -45.880852,-67.9384768 -45.8805682,-67.9371035 -45.8800827,-67.9358482 -45.8797093,-67.9335737 -45.8797616,-67.934432 -45.8794255,-67.9350007 -45.8792835,-67.9357088 -45.8792686,-67.93588984 -45.88149225,-67.9369104 -45.8822487,-67.9367441 -45.8819686,-67.9385787 -45.881274,-67.938568 -45.8809641,-67.9379243 -45.8811844,-67.93623372 -45.88237227,-67.9369962 -45.8822636,-67.9367441 -45.8819686,-67.9343677 -45.8832719,-67.93288041 -45.88347512,,-67.93297197 -45.88384007,-67.9325545 -45.8880964,-67.9324257 -45.8875363,-67.933048 -45.8868642,-67.9335093 -45.8836304,-67.93195275 -45.88880085,,-67.93184093 -45.88869985,-67.929883 -45.8876782,-67.9306018 -45.8878724,-67.9317605 -45.8883727,-67.9326189 -45.888201,-67.92838162 -45.88770662,-67.9286492 -45.8892166,-67.9288638 -45.8878724,-67.9292393 -45.8876931,-67.92758265 -45.88993498,-67.929368 -45.8925994,-67.9296148 -45.8919423,-67.9287994 -45.8913897,-67.9285097 -45.8910014,-67.9286277 -45.8901127,-67.92819602 -45.89300211,-67.9235637 -45.895743,-67.9241538 -45.8953249,-67.9267287 -45.8949142,-67.9271579 -45.8944961,-67.9267287 -45.8942048,-67.9257309 -45.8936448,-67.9256558 -45.8930698,-67.9268682 -45.8923604,-67.9289711 -45.8934208,-67.9293036 -45.893361,-67.92261639 -45.89612501,-67.9221904 -45.8981548,-67.9232204 -45.8984983,-67.9230487 -45.8980652,-67.9224908 -45.89755,-67.9236388 -45.8964449,-67.92046749 -45.89809236,-67.9312027 -45.9008128,-67.9299688 -45.9015296,-67.9282737 -45.9003723,-67.9263103 -45.8994316,-67.9232204 -45.8984983,-67.9221046 -45.8981623,-67.93028301 -45.90068278,-67.9313636 -45.9007755,-67.9299688 -45.9015296,-67.9309559 -45.9024778,-67.931664 -45.9022687,-67.9323721 -45.9010144,-67.9335737 -45.900447,-67.9371786 -45.9012832,-67.9379082 -45.9021045,-67.9396677 -45.9026719,-67.941041 -45.9025674,-67.94048121 -45.90255833,-67.9417276 -45.9060912,-67.9426718 -45.9047623,-67.9416203 -45.9047773,-67.9445601 -45.9035379,-67.942543 -45.9026271,-67.94070253 -45.90708056,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.93482704 -45.9074612,-67.922008 -45.9097193,-67.9201412 -45.9109884,-67.9196906 -45.9109585,-67.9200125 -45.9097492,-67.9210854 -45.909585,-67.9227591 -45.90851,-67.9267287 -45.9077933,-67.9317927 -45.9075544,-67.9344964 -45.9080023,-67.9353762 -45.9076142,-67.92132124 -45.90950332,-67.9221797 -45.9097492,-67.9201412 -45.9109884,-67.91924 -45.911063,-67.9191971 -45.9115109,-67.91938339 -45.91141146,-67.9150558 -45.9126903,-67.9162359 -45.9122126,-67.9164505 -45.9115408,-67.9181457 -45.910645,-67.9202914 -45.9111078,-67.91361731 -45.91301639,-67.9115582 -45.9126157,-67.9142189 -45.9121827,-67.9144764 -45.9124216,-67.91006671 -45.91285318,-67.9106355 -45.9125261,-67.9076529 -45.9123768,-67.9041553 -45.9118991,-67.9033184 -45.9115706,-67.9007006 -45.9119737,-67.8999066 -45.9124515,-67.89855752 -45.91238198;-67.89855752 -45.91238198,-67.9106355 -45.9125261,-67.9076529 -45.9123768,-67.9041553 -45.9118991,-67.9033184 -45.9115706,-67.9007006 -45.9119737,-67.8999066 -45.9124515,-67.91006671 -45.91285318,-67.9115582 -45.9126157,-67.9142189 -45.9121827,-67.9144764 -45.9124216,-67.91361731 -45.91301639,-67.9150558 -45.9126903,-67.9162359 -45.9122126,-67.9164505 -45.9115408,-67.9181457 -45.910645,-67.9202914 -45.9111078,-67.91938339 -45.91141146,-67.9221797 -45.9097492,-67.9201412 -45.9109884,-67.91924 -45.911063,-67.9191971 -45.9115109,-67.92132124 -45.90950332,-67.922008 -45.9097193,-67.9201412 -45.9109884,-67.9196906 -45.9109585,-67.9200125 -45.9097492,-67.9210854 -45.909585,-67.9227591 -45.90851,-67.9267287 -45.9077933,-67.9317927 -45.9075544,-67.9344964 -45.9080023,-67.9353762 -45.9076142,-67.93482704 -45.9074612,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.94070253 -45.90708056,-67.9417276 -45.9060912,-67.9426718 -45.9047623,-67.9416203 -45.9047773,-67.9445601 -45.9035379,-67.942543 -45.9026271,-67.94048121 -45.90255833,-67.9313636 -45.9007755,-67.9299688 -45.9015296,-67.9309559 -45.9024778,-67.931664 -45.9022687,-67.9323721 -45.9010144,-67.9335737 -45.900447,-67.9371786 -45.9012832,-67.9379082 -45.9021045,-67.9396677 -45.9026719,-67.941041 -45.9025674,-67.93028301 -45.90068278,-67.9312027 -45.9008128,-67.9299688 -45.9015296,-67.9282737 -45.9003723,-67.9263103 -45.8994316,-67.9232204 -45.8984983,-67.9221046 -45.8981623,-67.92046749 -45.89809236,-67.9221904 -45.8981548,-67.9232204 -45.8984983,-67.9230487 -45.8980652,-67.9224908 -45.89755,-67.9236388 -45.8964449,-67.92261639 -45.89612501,-67.9235637 -45.895743,-67.9241538 -45.8953249,-67.9267287 -45.8949142,-67.9271579 -45.8944961,-67.9267287 -45.8942048,-67.9257309 -45.8936448,-67.9256558 -45.8930698,-67.9268682 -45.8923604,-67.9289711 -45.8934208,-67.9293036 -45.893361,-67.92819602 -45.89300211,-67.929368 -45.8925994,-67.9296148 -45.8919423,-67.9287994 -45.8913897,-67.9285097 -45.8910014,-67.9286277 -45.8901127,-67.92758265 -45.88993498,-67.9286492 -45.8892166,-67.9288638 -45.8878724,-67.9292393 -45.8876931,-67.92838162 -45.88770662,-67.929883 -45.8876782,-67.9306018 -45.8878724,-67.9317605 -45.8883727,-67.9326189 -45.888201,-67.93184093 -45.88869985,,-67.93195275 -45.88880085,-67.9325545 -45.8880964,-67.9324257 -45.8875363,-67.933048 -45.8868642,-67.9335093 -45.8836304,-67.93297197 -45.88384007,,-67.93288041 -45.88347512,-67.9369962 -45.8822636,-67.9367441 -45.8819686,-67.9343677 -45.8832719,-67.93623372 -45.88237227,-67.9369104 -45.8822487,-67.9367441 -45.8819686,-67.9385787 -45.881274,-67.938568 -45.8809641,-67.9379243 -45.8811844,-67.93588984 -45.88149225,-67.9380155 -45.8812404,-67.938627 -45.880852,-67.9384768 -45.8805682,-67.9371035 -45.8800827,-67.9358482 -45.8797093,-67.9335737 -45.8797616,-67.934432 -45.8794255,-67.9350007 -45.8792835,-67.9357088 -45.8792686,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S841,S2345</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 943,S167,Linea 946,S2147,Linea 966,S2465,Linea 968,S387,Linea 970,S316,Linea 969,S39,Linea 957,S36,Linea 1027,S2695,Linea 1026,S43,Linea 1088,S2707,Linea 1098,S42,Linea 1853,S2723,Linea 1118,S841;S841,Linea 1114,S2345;S2345,Linea 1114,S841,Linea 1118,S2723,Linea 1853,S42,Linea 1098,S2707,Linea 1088,S43,Linea 1026,S2695,Linea 1027,S36,Linea 957,S39,Linea 969,S316,Linea 970,S387,Linea 968,S2465,Linea 966,S2147,Linea 946,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.93512028 -45.8793768,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.94258106 -45.87928487,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.9459034 -45.88040255,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.94607409 -45.88311995,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94628753 -45.88560005,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94746568 -45.88694764,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94972726 -45.88693813,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.95178221 -45.88666191,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95650174 -45.8868325,-67.9563618 -45.8869613,-67.9570055 -45.8870583,-67.9568553 -45.8866028,-67.957381 -45.8868268,-67.95495587 -45.8875866,-67.9576063 -45.8896124,-67.9577136 -45.888888,-67.9572308 -45.8876483,-67.9565012 -45.8869986,-67.95602222 -45.88970885;-67.95602222 -45.88970885,-67.9610395 -45.8924351,-67.9590547 -45.8915988,-67.9585397 -45.8910014,-67.9589152 -45.8901575,-67.9578102 -45.8897468,-67.95993517 -45.89286656;-67.95993517 -45.89286656,-67.9610395 -45.8924351,-67.9590547 -45.8915988,-67.9585397 -45.8910014,-67.9589152 -45.8901575,-67.9578102 -45.8897468,-67.95602222 -45.88970885,-67.9576063 -45.8896124,-67.9577136 -45.888888,-67.9572308 -45.8876483,-67.9565012 -45.8869986,-67.95495587 -45.8875866,-67.9563618 -45.8869613,-67.9570055 -45.8870583,-67.9568553 -45.8866028,-67.957381 -45.8868268,-67.95650174 -45.8868325,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95178221 -45.88666191,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.94972726 -45.88693813,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94746568 -45.88694764,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94628753 -45.88560005,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94607409 -45.88311995,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.9459034 -45.88040255,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.94258106 -45.87928487,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2286,S452,S1201</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 943,S167,Linea 946,S2147,Linea 966,S2465,Linea 968,S387,Linea 970,S316,Linea 969,S39,Linea 957,S36,Linea 1027,S2695,Linea 1026,S43,Linea 1088,S2707,Linea 1098,S42,Linea 1856,S2724,Linea 1092,S163,Linea 1854,S66,Linea 1156,S63,Linea 1154,S65,Linea 1153,S47,Linea 1150,S832,Linea 1286,S2286;S2286,Linea 1286,S832,Linea 1150,S47,Linea 1153,S65,Linea 1154,S63,Linea 1156,S66,Linea 1854,S163,Linea 1092,S2724,Linea 1856,S42,Linea 1098,S2707,Linea 1088,S43,Linea 1026,S2695,Linea 1027,S36,Linea 957,S39,Linea 969,S316,Linea 970,S387,Linea 968,S2465,Linea 966,S2147,Linea 946,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base,Linea 1,S176,Linea 1506,S2447,Linea 2,S993,Linea 3,S329,Linea 4,S309,Linea 10,S2195,Linea 27,S2412,Linea 33,S308,Linea 34,S2032,Linea 42,S2569,Linea 46,S2199,Linea 1847,S2200,Linea 97,S356,Linea 143,S2017,Linea 144,S690,Linea 141,S538,Linea 104,S2206,Linea 105,S763,Linea 106,S719,Linea 108,S767,Linea 115,S498,Linea 129,S2389,Linea 128,S772,Linea 130,S496,Linea 135,S2390,Linea 136,S452;S452,Linea 136,S2390,Linea 135,S496,Linea 130,S772,Linea 128,S2389,Linea 129,S498,Linea 115,S767,Linea 108,S719,Linea 106,S763,Linea 105,S2206,Linea 104,S538,Linea 141,S690,Linea 144,S2017,Linea 143,S356,Linea 97,S2200,Linea 86,S549,Linea 85,S2227,Linea 78,S558,Linea 77,S100,Linea 75,S156,Linea 74,S155,Linea 71,S154,Linea 69,S2416,Linea 1341,S245,Linea 17,S977,Linea 18,S1201;S1201,Linea 18,S977,Linea 16,S2250,Linea 15,S278,Linea 14,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.93512028 -45.8793768,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.94258106 -45.87928487,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.9459034 -45.88040255,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.94607409 -45.88311995,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94628753 -45.88560005,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94746568 -45.88694764,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94972726 -45.88693813,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.95178221 -45.88666191,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95650174 -45.8868325,-67.9573059 -45.8868268,-67.956748 -45.8864908,-67.9563725 -45.8857215,-67.9556644 -45.8849971,-67.9546167 -45.88506443,-67.960428 -45.8852436,-67.9597843 -45.8853855,-67.9578102 -45.8852959,-67.9558897 -45.8849448,-67.95958113 -45.88533853,-67.9643977 -45.8867746,-67.9641402 -45.8867895,-67.9629064 -45.8855274,-67.9625845 -45.8842055,-67.9620588 -45.8840412,-67.9608893 -45.8848926,-67.96291589 -45.88644251,-67.9642582 -45.8866849,-67.9660714 -45.8869613,-67.9663503 -45.8865505,-67.9662859 -45.88549,-67.9665112 -45.8837798,-67.9671657 -45.8837275,-67.9670477 -45.8843548,-67.96615149 -45.88487087,-67.9689896 -45.8855572,-67.9684317 -45.8850942,-67.9680133 -45.8843399,-67.9672301 -45.8837872,-67.9670477 -45.8843548,-67.96828667 -45.88589528,-67.9702342 -45.8858709,-67.9697192 -45.8860352,-67.9691613 -45.8857589,-67.96952973 -45.8860392,-67.9752874 -45.8886341,-67.9738069 -45.8884922,-67.9698479 -45.8860651,-67.9702234 -45.8859307,-67.97417558 -45.88870119,-67.9755127 -45.8898364,-67.9753196 -45.8896348,-67.9751372 -45.889239,-67.9736996 -45.8884922,-67.9752123 -45.8886192,-67.97500117 -45.89011334;-67.97500117 -45.89011334,-67.9755127 -45.8898364,-67.9753196 -45.8896348,-67.9751372 -45.889239,-67.9736996 -45.8884922,-67.9752123 -45.8886192,-67.97417558 -45.88870119,-67.9752874 -45.8886341,-67.9738069 -45.8884922,-67.9698479 -45.8860651,-67.9702234 -45.8859307,-67.96952973 -45.8860392,-67.9702342 -45.8858709,-67.9697192 -45.8860352,-67.9691613 -45.8857589,-67.96828667 -45.88589528,-67.9689896 -45.8855572,-67.9684317 -45.8850942,-67.9680133 -45.8843399,-67.9672301 -45.8837872,-67.9670477 -45.8843548,-67.96615149 -45.88487087,-67.9642582 -45.8866849,-67.9660714 -45.8869613,-67.9663503 -45.8865505,-67.9662859 -45.88549,-67.9665112 -45.8837798,-67.9671657 -45.8837275,-67.9670477 -45.8843548,-67.96291589 -45.88644251,-67.9643977 -45.8867746,-67.9641402 -45.8867895,-67.9629064 -45.8855274,-67.9625845 -45.8842055,-67.9620588 -45.8840412,-67.9608893 -45.8848926,-67.95958113 -45.88533853,-67.960428 -45.8852436,-67.9597843 -45.8853855,-67.9578102 -45.8852959,-67.9558897 -45.8849448,-67.9546167 -45.88506443,-67.9573059 -45.8868268,-67.956748 -45.8864908,-67.9563725 -45.8857215,-67.9556644 -45.8849971,-67.95650174 -45.8868325,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95178221 -45.88666191,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.94972726 -45.88693813,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94746568 -45.88694764,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94628753 -45.88560005,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94607409 -45.88311995,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.9459034 -45.88040255,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.94258106 -45.87928487,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.93822649 -45.86645361,,-67.93820898 -45.86621382,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.9397787 -45.86446671,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.94026881 -45.86394522,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94016816 -45.86304785,-67.9407942 -45.8630844,-67.9403758 -45.8621878,-67.9386914 -45.8624792,-67.93749455 -45.86270022,-67.9389811 -45.8623559,-67.9389596 -45.8618329,-67.9381979 -45.8610783,-67.9390669 -45.8607794,-67.93809539 -45.86091501,-67.9388309 -45.8607794,-67.938112 -45.8611007,-67.9377472 -45.860899,-67.9362881 -45.8614743,-67.9374897 -45.8619749,-67.93652197 -45.86222667,-67.9375219 -45.8620421,-67.9357517 -45.861085800000005,-67.9346144 -45.8614519,-67.93332777 -45.86169272,-67.9343569 -45.8614145,-67.9335523 -45.861549,-67.9334021 -45.8611381,-67.9309666 -45.8609214,-67.92973166 -45.86112334,-67.9307091 -45.86097370000001,-67.9287457 -45.8609588,-67.9288423 -45.860757,-67.92827234 -45.86082887,-67.9288423 -45.860757,-67.9286063 -45.8609812,-67.9269433 -45.8608168,-67.9254305 -45.8610559,-67.9256237 -45.8606898,-67.92472033 -45.86078317,-67.9253769 -45.8604208,-67.9236388 -45.8595317,-67.9233384 -45.8597857,-67.92204432 -45.86025045,-67.9235315 -45.8601219,-67.9222655 -45.8604731,-67.92116295 -45.86077528,-67.9219651 -45.8610335,-67.9157424 -45.8609887,-67.91412974 -45.86109479,-67.9153347 -45.8605702,-67.9157317 -45.8599725,-67.9146159 -45.859457,-67.91347499 -45.85938782,-67.9145408 -45.8594047,-67.9124916 -45.858777,-67.9112792 -45.8592776,-67.91058213 -45.85962973,-67.9112792 -45.8592776,-67.9102921 -45.8588293,-67.9105067 -45.8586425,-67.90964669 -45.85881191,-67.9102653 -45.8586986,-67.9081625 -45.8581195,-67.90707943 -45.8582017,-67.90773330000002 -45.8580522,-67.9073417 -45.8579177,-67.9068965 -45.8568567,-67.9053408 -45.8563822,-67.90400196 -45.85653031,,-67.90333441 -45.85910192,-67.9030502 -45.8613174,-67.9044557 -45.8590236,-67.90205676 -45.86168943,-67.9020095 -45.8600547,-67.9041553 -45.8591282,-67.9030502 -45.8613174,-67.90079758 -45.860041,-67.9025352 -45.8597782,-67.9034257 -45.8594794,-67.9021811 -45.8617657,-67.90063766 -45.86227487,-67.9014838 -45.8622364,-67.9013121 -45.862722,-67.9019237 -45.8627594,-67.90094134 -45.86284774,-67.902385 -45.8628117,-67.9039085 -45.86340190000001,-67.9065263 -45.8638427,-67.90551413 -45.86397475;-67.90551413 -45.86397475,-67.902385 -45.8628117,-67.9039085 -45.86340190000001,-67.9065263 -45.8638427,-67.90094134 -45.86284774,-67.9014838 -45.8622364,-67.9013121 -45.862722,-67.9019237 -45.8627594,-67.90063766 -45.86227487,-67.9025352 -45.8597782,-67.9034257 -45.8594794,-67.9021811 -45.8617657,-67.90079758 -45.860041,-67.9020095 -45.8600547,-67.9041553 -45.8591282,-67.9030502 -45.8613174,-67.90205676 -45.86168943,-67.9030502 -45.8613174,-67.9044557 -45.8590236,-67.90333441 -45.85910192,,-67.90400196 -45.85653031,-67.90773330000002 -45.8580522,-67.9073417 -45.8579177,-67.9068965 -45.8568567,-67.9053408 -45.8563822,-67.90707943 -45.8582017,-67.9102653 -45.8586986,-67.9081625 -45.8581195,-67.90964669 -45.85881191,-67.9112792 -45.8592776,-67.9102921 -45.8588293,-67.9105067 -45.8586425,-67.91058213 -45.85962973,-67.9145408 -45.8594047,-67.9124916 -45.858777,-67.9112792 -45.8592776,-67.91347499 -45.85938782,-67.9153347 -45.8605702,-67.9157317 -45.8599725,-67.9146159 -45.859457,-67.91412974 -45.86109479,-67.9219651 -45.8610335,-67.9157424 -45.8609887,-67.92116295 -45.86077528,-67.9235315 -45.8601219,-67.9222655 -45.8604731,-67.92204432 -45.86025045,-67.9253769 -45.8604208,-67.9236388 -45.8595317,-67.9233384 -45.8597857,-67.92472033 -45.86078317,-67.9274476 -45.8598455,-67.9277694 -45.8609139,-67.9253554 -45.8608542,-67.92650257 -45.85998033,-67.930795 -45.8589115,-67.9290783 -45.859442,-67.9272544 -45.8596288,-67.9275012 -45.8597558,-67.92996431 -45.85892348,-67.9338741 -45.8553324,-67.9329085 -45.85672970000001,-67.9318249 -45.8585902,-67.9328218 -45.85546946,-67.9352367 -45.8546599,-67.9346144 -45.8547794,-67.9340136 -45.8552128,-67.93449161 -45.85473418,-67.9390132 -45.8553324,-67.9377794 -45.8546898,-67.9357088 -45.8545104,-67.93784211 -45.85566073,-67.9418778 -45.8559601,-67.9390132 -45.8553324,-67.94127839 -45.85682198,-67.9455793 -45.8575815,-67.9449892 -45.8573947,-67.9450321 -45.8569464,-67.9437447 -45.8569987,-67.9429507 -45.8566475,-67.94451337 -45.85788474,-67.95038580000002 -45.8584109,-67.9492486 -45.8582839,-67.9486799 -45.8563934,-67.9455793 -45.8575815,-67.94942594 -45.85854239,-67.9494631 -45.8607197,-67.9496992 -45.8604582,-67.9489589 -45.8596363,-67.9496777 -45.8591282,-67.9500318 -45.8586351,-67.9503858 -45.8584632,-67.94780419 -45.86081977,-67.9479718 -45.8615453,-67.9493934 -45.8606973,-67.9489589 -45.8606599,-67.94655091 -45.86160389,-67.9477841 -45.861549,-67.9509008 -45.8613996,-67.94986397 -45.86139841;-67.94986397 -45.86139841,-67.9477841 -45.861549,-67.9509008 -45.8613996,-67.94655091 -45.86160389,-67.9483044 -45.861911400000004,-67.9473495 -45.8614183,-67.94727301 -45.86217176,-67.9469097 -45.8620944,-67.9481596 -45.8620048,-67.94569946 -45.86221924,-67.9427254 -45.8635364,-67.9464859 -45.8623447,-67.9469097 -45.862016,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2209,S881</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 1211,S172,Linea 768,S2417,Linea 759,S402,Linea 760,S2468,Linea 763,S395,Linea 764,S338,Linea 773,S2407,Linea 850,S2056,Linea 849,S2716,Linea 853,S2504,Linea 854,S997,Linea 1836,S353,Linea 1361,S2006,Linea 1363,S2009,Linea 1365,S354,Linea 1421,S2255,Linea 568,S882,Linea 622,S523,Linea 621,E290,Linea 620,S2386,Linea 237,S2209;S2209,Linea 237,S2386,Linea 620,E290,Linea 621,S523,Linea 215,S788,Linea 216,S2676,Linea 217,S2396,Linea 240,S2395,Linea 242,S2294,Linea 572,S874,Linea 573,S2501,Linea 574,S881;S881,Linea 574,S2501,Linea 573,S874,Linea 572,S2294,Linea 242,S2395,Linea 240,S2396,Linea 217,S2676,Linea 216,S788,Linea 215,S523,Linea 622,S882,Linea 568,S2255,Linea 1421,S354,Linea 1365,S2009,Linea 1363,S2006,Linea 1361,S353,Linea 1836,S997,Linea 854,S2504,Linea 853,S2716,Linea 849,S2056,Linea 850,S2407,Linea 773,S338,Linea 764,S395,Linea 763,S2468,Linea 760,S402,Linea 759,S2417,Linea 768,S172,Linea 1211,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.95709848 -45.86769228,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95610675 -45.87170205,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95650202 -45.87386891,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95720623 -45.87256309,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.96214261 -45.87344787,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96572509 -45.87368099,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.9672039 -45.87497495,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.96992116 -45.87035971,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.9688479 -45.86924263,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.96898996 -45.86789944,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.97170451 -45.86764851,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97781889 -45.86412305,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97692655 -45.86298292,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.98026531 -45.86300386,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98206338 -45.86352335,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86821501 -45.85959306,-67.87273050000002 -45.8603909,-67.8713894 -45.86060760000001,-67.8696728 -45.8603312,-67.8687501 -45.8600248,-67.868396 -45.859329900000006,-67.8688145 -45.8588667,-67.8688037 -45.8592029,-67.87238238 -45.86053745,-67.8762281 -45.861026,-67.8764856 -45.8608841,-67.8761208 -45.8599501,-67.8737497 -45.8604133,-67.87444477 -45.86135588,-67.8763461 -45.8610185,-67.8791785 -45.859636300000005,-67.8791463 -45.8601892,-67.87734368 -45.86061501;-67.87734368 -45.86061501,-67.8763461 -45.8610185,-67.8791785 -45.859636300000005,-67.8791463 -45.8601892,-67.87444477 -45.86135588,-67.8762281 -45.861026,-67.8764856 -45.8608841,-67.8761208 -45.8599501,-67.8737497 -45.8604133,-67.87238238 -45.86053745,-67.87273050000002 -45.8603909,-67.8713894 -45.86060760000001,-67.8696728 -45.8603312,-67.8687501 -45.8600248,-67.868396 -45.859329900000006,-67.8688145 -45.8588667,-67.8688037 -45.8592029,-67.86821501 -45.85959306,-67.8666258 -45.8579551,-67.8677523 -45.8588443,-67.8689218 -45.8588293,-67.8688896 -45.8591954,-67.86509618 -45.85797591,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86269634 -45.8576934,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86119926 -45.8582863,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.85800456 -45.85865306,-67.8602314 -45.85924030000001,-67.8568411 -45.8591506,-67.8585362 -45.8586425,-67.85979998 -45.85959279,-67.8623772 -45.8601145,-67.8619158 -45.8597185,-67.86181930000001 -45.8591954,-67.8608966 -45.8592179,-67.8613425 -45.86055445,-67.8623772 -45.8601145,-67.8618085 -45.8597185,-67.8601241 -45.8605852,-67.85862453 -45.86123384,-67.860285 -45.8606225,-67.8606606 -45.8601892,-67.8585577 -45.86128,-67.8585577 -45.8624232,-67.85692916 -45.86285007;-67.85692916 -45.86285007,-67.860285 -45.8606225,-67.8606606 -45.8601892,-67.8585577 -45.86128,-67.8585577 -45.8624232,-67.85862453 -45.86123384,-67.8623772 -45.8601145,-67.8618085 -45.8597185,-67.8601241 -45.8605852,-67.8613425 -45.86055445,-67.8623772 -45.8601145,-67.8619158 -45.8597185,-67.86181930000001 -45.8591954,-67.8608966 -45.8592179,-67.85979998 -45.85959279,-67.8602314 -45.85924030000001,-67.8568411 -45.8591506,-67.8585362 -45.8586425,-67.85800456 -45.85865306,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.86119926 -45.8582863,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86269634 -45.8576934,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86509618 -45.85797591,-67.8666258 -45.8579551,-67.8677523 -45.8588443,-67.8689218 -45.8588293,-67.8688896 -45.8591954,-67.86821501 -45.85959306,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86513556 -45.86046435,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.98715669 -45.86146692,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98206338 -45.86352335,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98026531 -45.86300386,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.97692655 -45.86298292,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97781889 -45.86412305,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97170451 -45.86764851,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.96898996 -45.86789944,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.9688479 -45.86924263,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.96992116 -45.87035971,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.9672039 -45.87497495,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.96572509 -45.87368099,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96214261 -45.87344787,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.95720623 -45.87256309,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95650202 -45.87386891,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95610675 -45.87170205,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95709848 -45.86769228,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2439,S2437,S2649,S906,S761</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 1211,S172,Linea 768,S2417,Linea 759,S402,Linea 760,S2468,Linea 763,S395,Linea 764,S338,Linea 773,S2407,Linea 850,S2056,Linea 849,S2716,Linea 853,S2504,Linea 854,S997,Linea 1836,S353,Linea 1361,S2006,Linea 1363,S2009,Linea 1365,S354,Linea 1421,S2255,Linea 568,S882,Linea 567,S522,Linea 566,S2273,Linea 615,S2634,Linea 614,S469,Linea 545,S439,Linea 538,S531,Linea 537,S2439;S2439,Linea 537,S531,Linea 540,S533,Linea 536,S506,Linea 534,S470,Linea 645,S426,Linea 649,S2307,Linea 507,S427,Linea 513,S508,Linea 515,S2437;S2437,Linea 515,S508,Linea 513,S427,Linea 512,S509,Linea 511,S2236,Linea 516,Q17,Linea 517,S2523,Linea 1887,S13,Linea 1886,S2,Linea 471,S2240,Linea 465,S2284,Linea 464,S2649;S2649,Linea 464,S2284,Linea 465,S2240,Linea 1593,Q16,Linea 613,S3,Linea 734,S295,Linea 735,S17,Linea 594,S2259,Linea 592,S2129,Linea 591,S949,Linea 579,S2132,Linea 578,S2443,Linea 581,S938,Linea 587,S2511,Linea 586,S948,Linea 585,S2662,Linea 1051,S911,Linea 1218,S2315,Linea 1217,S906;S906,Linea 1217,S2315,Linea 1218,S911,Linea 1051,S2662,Linea 585,S948,Linea 586,S2511,Linea 588,S932,Linea 589,S577,Linea 1052,S808,Linea 1067,S787,Linea 1068,S761;S761,Linea 1068,S787,Linea 1067,S808,Linea 1052,S577,Linea 589,S932,Linea 588,S2511,Linea 587,S938,Linea 582,S849,Linea 584,S2168,Linea 1617,S2167,Linea 736,S2110,Linea 930,S2111,Linea 931,S645,Linea 932,S78,Linea 940,S56,Linea 944,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.95709848 -45.86769228,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95610675 -45.87170205,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95650202 -45.87386891,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95720623 -45.87256309,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.96214261 -45.87344787,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96572509 -45.87368099,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.9672039 -45.87497495,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.96992116 -45.87035971,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.9688479 -45.86924263,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.96898996 -45.86789944,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.97170451 -45.86764851,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97781889 -45.86412305,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97692655 -45.86298292,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.98026531 -45.86300386,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98206338 -45.86352335,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8701234 -45.8635663,-67.8698123 -45.86132490000001,-67.8679776 -45.8603237,-67.8670549 -45.8588966,-67.8654027 -45.859457,-67.8654563 -45.8601518,-67.8656709 -45.8602639,-67.86895092 -45.86422008,-67.8682029 -45.8666817,-67.8692436 -45.8661961,-67.8702307 -45.8647318,-67.8701663 -45.8642088,-67.86635342 -45.86702056,-67.8668725 -45.8688706,-67.8667974 -45.868646500000004,-67.8676665 -45.8677127,-67.867012 -45.86727940000001,-67.86653014 -45.86909111,-67.8665292 -45.8705589,-67.866143 -45.8710594,-67.8657889 -45.8704767,-67.8668725 -45.8688706,-67.86552841 -45.87071955,-67.8687286 -45.87223970000001,-67.8671408 -45.8717542,-67.8661752 -45.8712611,-67.8662395 -45.8705888,-67.86803091 -45.87230485,-67.8686213 -45.87223970000001,-67.8679776 -45.8725012,-67.867173 -45.87342,-67.86601994 -45.87390747,-67.8661001 -45.8724788,-67.8660786 -45.8739279,-67.8666043 -45.8740773,-67.86537325 -45.87244509;-67.86537325 -45.87244509,-67.8661001 -45.8724788,-67.8660786 -45.8739279,-67.8666043 -45.8740773,-67.86601994 -45.87390747,-67.8666043 -45.8740773,-67.8655958 -45.8758999,-67.8658319 -45.8761464,-67.86520975 -45.8764158,-67.8690398 -45.8759074,-67.8681815 -45.8748691,-67.8664434 -45.8762585,-67.86877282 -45.87598303,-67.8721726 -45.8748019,-67.868793 -45.8753024,-67.8683639 -45.8750633,-67.8691471 -45.8759522,-67.87226293 -45.87472228,-67.8772473 -45.875646,-67.87714 -45.874899,-67.8760457 -45.8739578,-67.8750265 -45.8733005,-67.8741574 -45.8732108,-67.8737283 -45.8741819,-67.87580898 -45.87623664,-67.8836632 -45.8741296,-67.884264 -45.8734723,-67.8839421 -45.8733229,-67.8833306 -45.8736515,-67.8822899 -45.87404,-67.8816032 -45.8749737,-67.8808522 -45.875153,-67.8791678 -45.8762809,-67.8782129 -45.8766021,-67.8774083 -45.8765572,-67.88196942 -45.87464989,-67.8803158 -45.8771847,-67.8813779 -45.8760792,-67.8823113 -45.875519,-67.8828478 -45.87486160000001,-67.87897854 -45.87766371,-67.8797901 -45.8776627,-67.8789961 -45.8782677,-67.8770435 -45.8780959,-67.87551597 -45.87817057,-67.8762603 -45.8779017,-67.8751016 -45.8782379,-67.8734457 -45.87858353;-67.8734457 -45.87858353,-67.8762603 -45.8779017,-67.8751016 -45.8782379,-67.87551597 -45.87817057,-67.8797901 -45.8776627,-67.8789961 -45.8782677,-67.8770435 -45.8780959,-67.87897854 -45.87766371,-67.8797901 -45.8776627,-67.8792536 -45.87817810000001,-67.8798115 -45.8793806,-67.87875862 -45.87975391,-67.8785026 -45.8788802,-67.8798115 -45.8793806,-67.87684672 -45.87887091,-67.8772688 -45.8789101,-67.8749835 -45.8790146,-67.87362100000001 -45.8797765,-67.8724445 -45.87988188,-67.8726017 -45.880389,-67.8697157 -45.8828462,-67.8706813 -45.8831001,-67.8686643 -45.8830254,-67.86703039 -45.88312685,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.87263059 -45.88283868,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.8758872 -45.88413516,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.87630061 -45.88642699,-67.8769255 -45.8868343,-67.8757453 -45.887708100000005,-67.87378622 -45.88828128,-67.8745329 -45.88833540000001,-67.8730309 -45.88891790000001,-67.87112696 -45.88890334;-67.87112696 -45.88890334,-67.8745329 -45.88833540000001,-67.8730309 -45.88891790000001,-67.87378622 -45.88828128,-67.8769255 -45.8868343,-67.8757453 -45.887708100000005,-67.87630061 -45.88642699,,-67.87597578 -45.88674947,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87931365 -45.88515467,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.88934482 -45.88367092,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88477851 -45.88530377,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88725199 -45.88498287,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88986813 -45.88509226,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.89478887 -45.88442779,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89811074 -45.88424629,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.90293219 -45.8836944,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90362098 -45.8874036,-67.9022241 -45.8892913,-67.9030609 -45.889239,-67.9032218 -45.8889477,-67.9028785 -45.8877678,-67.9034686 -45.8869165,-67.9039729 -45.8871629,-67.90098858 -45.88903898,-67.9052174 -45.8898887,-67.9046273 -45.8890523,-67.9033613 -45.8891643,-67.9021382 -45.8893659,-67.90475618 -45.89004619,-67.908082 -45.8906056,-67.9061723 -45.8899111,-67.90753763 -45.89070583,-67.9155815 -45.891315,-67.9156137 -45.8917929,-67.9101205 -45.891778,-67.9101098 -45.8913822,-67.9085004 -45.8909043,-67.91464614 -45.89123186,-67.9154849 -45.8913374,-67.9156995 -45.8918153,-67.9161823 -45.8920468,-67.9130065 -45.8949441,-67.9139829 -45.893137,-67.91314953 -45.89274698,-67.9123414 -45.8967361,-67.9125881 -45.8958401,-67.913264 -45.8944587,-67.9140687 -45.8931669,-67.91162615 -45.89729001;-67.91162615 -45.89729001,-67.9123414 -45.8967361,-67.9125881 -45.8958401,-67.913264 -45.8944587,-67.9140687 -45.8931669,-67.91314953 -45.89274698,-67.9154849 -45.8913374,-67.9156995 -45.8918153,-67.9161823 -45.8920468,-67.9130065 -45.8949441,-67.9139829 -45.893137,-67.91464614 -45.89123186,-67.9155815 -45.891315,-67.9156137 -45.8917929,-67.9101205 -45.891778,-67.9101098 -45.8913822,-67.9085004 -45.8909043,-67.90753763 -45.89070583,-67.908082 -45.8906056,-67.9061723 -45.8899111,-67.90475618 -45.89004619,-67.9052174 -45.8898887,-67.9046273 -45.8890523,-67.9033613 -45.8891643,-67.9021382 -45.8893659,-67.90098858 -45.88903898,-67.9020846 -45.8894257,-67.9013014 -45.8899484,-67.8996277 -45.8906877,-67.899971 -45.8910611,-67.9025245 -45.8912403,-67.90201018 -45.89143448,-67.9100668 -45.8930624,-67.90882230000001 -45.8924799,-67.9064727 -45.8916734,-67.9044127 -45.8911507,-67.9037046 -45.8911806,-67.9095676 -45.89358013,-67.9101956 -45.899678,-67.9090798 -45.9005739,-67.9091763 -45.9006934,-67.9097128 -45.9003873,-67.9113436 -45.8999841,-67.9123521 -45.9008128,-67.9124165 -45.9004769,-67.9120195 -45.899566,-67.9120624 -45.8986177,-67.9110324 -45.8972513,-67.9111183 -45.8939286,-67.90953741 -45.89946636,-67.9084682 -45.9027914,-67.9096591 -45.9021717,-67.9111719 -45.9011339,-67.9123199 -45.9007083,-67.9114294 -45.8999766,-67.9097021 -45.9003425,-67.9089189 -45.9008875,-67.9101956 -45.899678,-67.9066489 -45.9028322,-67.9045951 -45.9018208,-67.906301 -45.9022986,-67.9085219 -45.9021269,-67.9110646 -45.9011414,-67.9084682 -45.9028809,-67.90307567 -45.90165448;-67.90307567 -45.90165448,-67.9045951 -45.9018208,-67.906301 -45.9022986,-67.9085219 -45.9021269,-67.9110646 -45.9011414,-67.9084682 -45.9028809,-67.9066489 -45.9028322,-67.9084682 -45.9027914,-67.9096591 -45.9021717,-67.9111719 -45.9011339,-67.9123199 -45.9007083,-67.9114294 -45.8999766,-67.9097021 -45.9003425,-67.9089189 -45.9008875,-67.9101956 -45.899678,-67.90953741 -45.89946636,-67.9101956 -45.899678,-67.9090798 -45.9005739,-67.9091763 -45.9006934,-67.9097128 -45.9003873,-67.9113436 -45.8999841,-67.9123521 -45.9008128,-67.9124165 -45.9004769,-67.9120195 -45.899566,-67.9120624 -45.8986177,-67.9110324 -45.8972513,-67.9111183 -45.8939286,-67.9095676 -45.89358013,-67.9100668 -45.8930624,-67.90882230000001 -45.8924799,-67.9064727 -45.8916734,-67.9044127 -45.8911507,-67.9037046 -45.8911806,-67.90201018 -45.89143448,-67.9020846 -45.8894257,-67.9013014 -45.8899484,-67.8996277 -45.8906877,-67.899971 -45.8910611,-67.9025245 -45.8912403,-67.90098858 -45.88903898,-67.9022241 -45.8892913,-67.9030609 -45.889239,-67.9032218 -45.8889477,-67.9028785 -45.8877678,-67.9034686 -45.8869165,-67.9039729 -45.8871629,-67.90362098 -45.8874036,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90705336 -45.88840606,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90594775 -45.88423937,,-67.90591516 -45.88446218,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90970498 -45.88326091,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91930941 -45.88137118,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.92260289 -45.87981886,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2146,S2693,S924,S839</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 943,S167,Linea 946,S2147,Linea 964,S2146;S2146,Linea 964,S2147,Linea 946,S167,Linea 943,S229,Linea 944,S56,Linea 940,S78,Linea 932,S645,Linea 931,S2111,Linea 930,S2110,Linea 736,S2167,Linea 1617,S2168,Linea 584,S849,Linea 582,S938,Linea 581,S2443,Linea 578,S2132,Linea 579,S949,Linea 591,S2129,Linea 592,S2259,Linea 594,S17,Linea 596,S2293,Linea 597,S4,Linea 598,S2324,Linea 600,S2196,Linea 599,S2689,Linea 605,S581,Linea 610,S2688,Linea 1869,S2693;S2693,Linea 1869,S2688,Linea 610,S581,Linea 605,S2689,Linea 601,S2683,Linea 606,S2619,Linea 608,S2694,Linea 1336,S2711,Linea 1335,S2698,Linea 1334,S2718,Linea 1333,S2717,Linea 1330,S924;S924,Linea 1337,S925,Linea 1260,S2657,Linea 1247,S2627,Linea 1246,S2640,Linea 1326,S752,Linea 1324,S747,Linea 1321,S744,Linea 1310,S725,Linea 1313,S839;S839,Linea 1307,S834,Linea 1306,S759,Linea 1297,S794,Linea 1073,S760,Linea 1221,S791,Linea 1076,S793,Linea 1078,S2667,Linea 1077,S944,Linea 1085,S115,Linea 1733,S927,Linea 1222,S33,Linea 1724,S2094,Linea 950,S31,Linea 949,S2146,Linea 964,S2147,Linea 946,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.93512028 -45.8793768,-67.9380155 -45.8812404,-67.938627 -45.880852,-67.9384768 -45.8805682,-67.9371035 -45.8800827,-67.9358482 -45.8797093,-67.9335737 -45.8797616,-67.934432 -45.8794255,-67.9350007 -45.8792835,-67.9357088 -45.8792686,-67.93588984 -45.88149225;-67.93588984 -45.88149225,-67.9380155 -45.8812404,-67.938627 -45.880852,-67.9384768 -45.8805682,-67.9371035 -45.8800827,-67.9358482 -45.8797093,-67.9335737 -45.8797616,-67.934432 -45.8794255,-67.9350007 -45.8792835,-67.9357088 -45.8792686,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92260289 -45.87981886,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.91930941 -45.88137118,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91747464 -45.88372353,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91541483 -45.88231338,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.90970498 -45.88326091,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90591516 -45.88446218,,-67.90594775 -45.88423937,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90705336 -45.88840606,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90362098 -45.8874036,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90293219 -45.8836944,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.89811074 -45.88424629,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89478887 -45.88442779,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.88986813 -45.88509226,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88725199 -45.88498287,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88477851 -45.88530377,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88304639 -45.88588109,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88085052 -45.88709026,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.87661058 -45.88889945,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87484305 -45.89067788,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87813787 -45.88993585,-67.8789854 -45.8901127,-67.8777838 -45.8901052,-67.8751981 -45.8927935,-67.8739536 -45.8942571,-67.87230402 -45.89457162,-67.8727734 -45.8946678,-67.8694153 -45.8954742,-67.8682566 -45.89504860000001,-67.86797017 -45.89505687,-67.8685999 -45.895295,-67.8667116 -45.8956833,-67.8646088 -45.8956833,-67.86301998 -45.89560501;-67.86301998 -45.89560501,-67.8685999 -45.895295,-67.8667116 -45.8956833,-67.8646088 -45.8956833,-67.86797017 -45.89505687,-67.8727734 -45.8946678,-67.8694153 -45.8954742,-67.8682566 -45.89504860000001,-67.87230402 -45.89457162,-67.8789854 -45.8901127,-67.8777838 -45.8901052,-67.8751981 -45.8927935,-67.8739536 -45.8942571,-67.87813787 -45.88993585,-67.8788996 -45.8901426,-67.877934 -45.8900903,-67.8774834 -45.8904786,-67.8777945 -45.8925098,-67.8783524 -45.8919348,-67.87768072 -45.89180609,-67.8782558 -45.8919497,-67.8778267 -45.8923828,-67.8780413 -45.8938315,-67.8791893 -45.8953398,-67.87842608 -45.89585515,-67.8799939 -45.8961761,-67.8810668 -45.8968855,-67.881496 -45.8974007,-67.88049412 -45.89765426,-67.8816462 -45.8976545,-67.8819466 -45.8992972,-67.8823757 -45.8992374,-67.88283131 -45.8994995,-67.8778481 -45.8999691,-67.8795862 -45.8996556,-67.8816676 -45.8998198,-67.8823113 -45.899342,-67.87600509 -45.90013168,-67.875402 -45.9018954,-67.8762174 -45.9018506,-67.8767323 -45.9016117,-67.8774405 -45.9009995,-67.8778481 -45.8999691,-67.87401 -45.90242679,-67.8778911 -45.9022389,-67.8772688 -45.9023733,-67.8762174 -45.9020895,-67.8762174 -45.9018506,-67.875402 -45.9018954,-67.87749311 -45.90223614,-67.8877831 -45.9058523,-67.8869033 -45.9059867,-67.8840923 -45.9048668,-67.8834271 -45.9042397,-67.8832769 -45.9030601,-67.8820109 -45.9031497,-67.8811312 -45.903299,-67.8780627 -45.9027018,-67.8772688 -45.9023733,-67.8778911 -45.9022389,-67.88690397 -45.90593083;-67.88690397 -45.90593083,-67.8887486 -45.9139369,-67.8892422 -45.9133771,-67.889092 -45.9088982,-67.8895211 -45.9081964,-67.8884697 -45.9068527,-67.8891134 -45.9060464,-67.8899932 -45.905494,-67.890079 -45.9049863,-67.8895855 -45.9049415,-67.8884912 -45.9054641,-67.88780562 -45.91450171,-67.892257 -45.917781,-67.8922355 -45.9171241,-67.8925788 -45.9166017,-67.8926325 -45.9163553,-67.8917956 -45.9155044,-67.8909266 -45.914855,-67.8902507 -45.9144445,-67.8900683 -45.9137279,-67.8889096 -45.913601,-67.888813 -45.9138473,-67.89164408 -45.91850265,-67.895422 -45.9189901,-67.8929543 -45.9186468,-67.8948966 -45.91911867,-67.8951859 -45.9189752,-67.8956151 -45.9181094,-67.8975034 -45.9169749,-67.8979325 -45.9163329,-67.8972459 -45.916945,-67.8964305 -45.9169151,-67.8960013 -45.9166017,-67.89415644 -45.91643339,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.90527 -45.9149745,-67.9052067 -45.9146162,-67.9025245 -45.9141235,-67.90171 -45.9145565,-67.89907 -45.9147953,-67.8979325 -45.9163329,-67.8972459 -45.916945,-67.8961945 -45.916945,-67.896 -45.9166,-67.90949828 -45.91775832,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.9049706 -45.9149894,-67.9050565 -45.9146311,-67.908597 -45.9143027,-67.9105282 -45.9135114,-67.9126954 -45.9130636,-67.9141974 -45.9123171,-67.91361731 -45.91301639,-67.9150558 -45.9126903,-67.9162359 -45.9122126,-67.9164505 -45.9115408,-67.9181457 -45.910645,-67.9202914 -45.9111078,-67.91938339 -45.91141146,-67.9221797 -45.9097492,-67.9201412 -45.9109884,-67.91924 -45.911063,-67.9191971 -45.9115109,-67.92132124 -45.90950332,-67.922008 -45.9097193,-67.9201412 -45.9109884,-67.9196906 -45.9109585,-67.9200125 -45.9097492,-67.9210854 -45.909585,-67.9227591 -45.90851,-67.9267287 -45.9077933,-67.9317927 -45.9075544,-67.9344964 -45.9080023,-67.9353762 -45.9076142,-67.93482704 -45.9074612;-67.93482704 -45.9074612,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.94070253 -45.90708056,-67.9417276 -45.9060912,-67.9426718 -45.9047623,-67.9416203 -45.9047773,-67.9445601 -45.9035379,-67.942543 -45.9026271,-67.94048121 -45.90255833,-67.9313636 -45.9007755,-67.9299688 -45.9015296,-67.9309559 -45.9024778,-67.931664 -45.9022687,-67.9323721 -45.9010144,-67.9335737 -45.900447,-67.9371786 -45.9012832,-67.9379082 -45.9021045,-67.9396677 -45.9026719,-67.941041 -45.9025674,-67.93028301 -45.90068278,-67.9312027 -45.9008128,-67.9299688 -45.9015296,-67.9282737 -45.9003723,-67.9263103 -45.8994316,-67.9232204 -45.8984983,-67.9221046 -45.8981623,-67.92046749 -45.89809236,-67.9221904 -45.8981548,-67.9232204 -45.8984983,-67.9230487 -45.8980652,-67.9224908 -45.89755,-67.9236388 -45.8964449,-67.92261639 -45.89612501,-67.9235637 -45.895743,-67.9241538 -45.8953249,-67.9267287 -45.8949142,-67.9271579 -45.8944961,-67.9267287 -45.8942048,-67.9257309 -45.8936448,-67.9256558 -45.8930698,-67.9268682 -45.8923604,-67.9289711 -45.8934208,-67.9293036 -45.893361,-67.92819602 -45.89300211,-67.929368 -45.8925994,-67.9296148 -45.8919423,-67.9287994 -45.8913897,-67.9285097 -45.8910014,-67.9286277 -45.8901127,-67.92758265 -45.88993498,-67.9286492 -45.8892166,-67.9288638 -45.8878724,-67.9292393 -45.8876931,-67.92838162 -45.88770662,-67.929883 -45.8876782,-67.9306018 -45.8878724,-67.9317605 -45.8883727,-67.9326189 -45.888201,-67.93184093 -45.88869985,,-67.93195275 -45.88880085,-67.9325545 -45.8880964,-67.9324257 -45.8875363,-67.933048 -45.8868642,-67.9335093 -45.8836304,-67.93297197 -45.88384007,,-67.93288041 -45.88347512,-67.9369962 -45.8822636,-67.9367441 -45.8819686,-67.9343677 -45.8832719,-67.93623372 -45.88237227,-67.9369104 -45.8822487,-67.9367441 -45.8819686,-67.9385787 -45.881274,-67.938568 -45.8809641,-67.9379243 -45.8811844,-67.93588984 -45.88149225,-67.9380155 -45.8812404,-67.938627 -45.880852,-67.9384768 -45.8805682,-67.9371035 -45.8800827,-67.9358482 -45.8797093,-67.9335737 -45.8797616,-67.934432 -45.8794255,-67.9350007 -45.8792835,-67.9357088 -45.8792686,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S920,S915,S2047,S2368,S950</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 943,S167,Linea 946,S2147,Linea 964,S2146,Linea 949,S31,Linea 950,S2094,Linea 1711,S33,Linea 1222,S927,Linea 1754,S115,Linea 1085,S944,Linea 1077,S2667,Linea 1078,S793,Linea 1076,S791,Linea 1221,S760,Linea 1073,S794,Linea 1297,S759,Linea 1306,S834,Linea 1307,S839,Linea 1313,S725,Linea 1310,S744,Linea 1311,S2379,Linea 1302,S2519,Linea 1303,S2310,Linea 1768,S748,Linea 1263,S757,Linea 1262,S2629,Linea 1232,S812,Linea 1261,S2287,Linea 1229,S756,Linea 1226,S920;S920,Linea 1226,S756,Linea 1229,S2287,Linea 1261,S812,Linea 1232,S2629,Linea 1262,S757,Linea 1263,S748,Linea 1762,S2310,Linea 1303,S2519,Linea 1302,S2379,Linea 1311,S744,Linea 1310,S725,Linea 1313,S839,Linea 1307,S834,Linea 1306,S759,Linea 1297,S794,Linea 1073,S760,Linea 1054,S801,Linea 1061,S828,Linea 1060,S826,Linea 1220,S840,Linea 1049,S915;S915,Linea 1049,S840,Linea 1048,S928,Linea 1046,S645,Linea 931,S2111,Linea 934,S2334,Linea 1648,S77,Linea 713,S236,Linea 1646,S2231,Linea 927,S2278,Linea 688,S2047;S2047,Linea 688,S2278,Linea 684,S2368;S2368,Linea 684,S2278,Linea 927,S2231,Linea 718,S250,Linea 719,S2349,Linea 720,S986,Linea 722,S2454,Linea 1650,S578,Linea 727,S379,Linea 729,S950;S950,Linea 989,S271,Linea 987,S234,Linea 60,S254,Linea 55,S2253,Linea 52,S326,Linea 8,S2258,Linea 7,S328,Linea 6,S309,Linea 4,S329,Linea 3,S993,Linea 2,S2447,Linea 1506,S176,Linea 1,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.93512028 -45.8793768,-67.9380155 -45.8812404,-67.938627 -45.880852,-67.9384768 -45.8805682,-67.9371035 -45.8800827,-67.9358482 -45.8797093,-67.9335737 -45.8797616,-67.934432 -45.8794255,-67.9350007 -45.8792835,-67.9357088 -45.8792686,-67.93588984 -45.88149225,-67.9369104 -45.8822487,-67.9367441 -45.8819686,-67.9385787 -45.881274,-67.938568 -45.8809641,-67.9379243 -45.8811844,-67.93623372 -45.88237227,-67.9369962 -45.8822636,-67.9367441 -45.8819686,-67.9343677 -45.8832719,-67.93288041 -45.88347512,,-67.93297197 -45.88384007,-67.9325545 -45.8880964,-67.9324257 -45.8875363,-67.933048 -45.8868642,-67.9335093 -45.8836304,-67.93195275 -45.88880085,,-67.93184093 -45.88869985,-67.929883 -45.8876782,-67.9306018 -45.8878724,-67.9317605 -45.8883727,-67.9326189 -45.888201,-67.92838162 -45.88770662,-67.9286492 -45.8892166,-67.9288638 -45.8878724,-67.9292393 -45.8876931,-67.92758265 -45.88993498,-67.929368 -45.8925994,-67.9296148 -45.8919423,-67.9287994 -45.8913897,-67.9285097 -45.8910014,-67.9286277 -45.8901127,-67.92819602 -45.89300211,-67.9235637 -45.895743,-67.9241538 -45.8953249,-67.9267287 -45.8949142,-67.9271579 -45.8944961,-67.9267287 -45.8942048,-67.9257309 -45.8936448,-67.9256558 -45.8930698,-67.9268682 -45.8923604,-67.9289711 -45.8934208,-67.9293036 -45.893361,-67.92261639 -45.89612501,-67.9221904 -45.8981548,-67.9232204 -45.8984983,-67.9230487 -45.8980652,-67.9224908 -45.89755,-67.9236388 -45.8964449,-67.92046749 -45.89809236,-67.9312027 -45.9008128,-67.9299688 -45.9015296,-67.9282737 -45.9003723,-67.9263103 -45.8994316,-67.9232204 -45.8984983,-67.9221046 -45.8981623,-67.93028301 -45.90068278,-67.9313636 -45.9007755,-67.9299688 -45.9015296,-67.9309559 -45.9024778,-67.931664 -45.9022687,-67.9323721 -45.9010144,-67.9335737 -45.900447,-67.9371786 -45.9012832,-67.9379082 -45.9021045,-67.9396677 -45.9026719,-67.941041 -45.9025674,-67.94048121 -45.90255833,-67.9417276 -45.9060912,-67.9426718 -45.9047623,-67.9416203 -45.9047773,-67.9445601 -45.9035379,-67.942543 -45.9026271,-67.94070253 -45.90708056,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.93482704 -45.9074612,-67.922008 -45.9097193,-67.9201412 -45.9109884,-67.9196906 -45.9109585,-67.9200125 -45.9097492,-67.9210854 -45.909585,-67.9227591 -45.90851,-67.9267287 -45.9077933,-67.9317927 -45.9075544,-67.9344964 -45.9080023,-67.9353762 -45.9076142,-67.92132124 -45.90950332,-67.9221797 -45.9097492,-67.9201412 -45.9109884,-67.91924 -45.911063,-67.9191971 -45.9115109,-67.91938339 -45.91141146,-67.9191971 -45.9115109,-67.9193473 -45.9122574,-67.9206347 -45.9121827,-67.9237676 -45.911287,-67.92339949 -45.91107871,-67.9250765 -45.911063,-67.9249692 -45.9120036,-67.9233384 -45.9123171,-67.92178415 -45.91276334,-67.9231882 -45.9122723,-67.9249692 -45.9120036,-67.9255915 -45.9130038,-67.9226518 -45.9145117,-67.9209566 -45.9155119,-67.9190469 -45.9157209,-67.9196262 -45.9152282,-67.9198102 -45.91487479,,-67.91936766 -45.91518342,-67.9294324 -45.9165121,-67.930162 -45.916945,-67.9304409 -45.9174227,-67.9261708 -45.9179004,-67.9190469 -45.9157209,-67.9196262 -45.9152282,-67.92776392 -45.91634643,-67.9315567 -45.9216173,-67.9323292 -45.9215277,-67.9268146 -45.9178258,-67.9294968 -45.9176466,-67.9304409 -45.9174227,-67.9300117 -45.9168704,-67.9294324 -45.9165121,-67.92974857 -45.92193359,-67.9378974 -45.9205575,-67.9375219 -45.920244,-67.9376721 -45.9193932,-67.9373181 -45.9201097,-67.9375005 -45.9207814,-67.9381657 -45.9214382,-67.9378438 -45.9222592,-67.9378653 -45.9235428,-67.9352689 -45.9230204,-67.9323292 -45.9215277,-67.9315567 -45.9216173,-67.93749101 -45.92107433,-67.9473066 -45.9191991,-67.9491735 -45.9182736,-67.9488516 -45.9169151,-67.9491198 -45.9161986,-67.9481864 -45.9168405,-67.9482937 -45.9178556,-67.947135 -45.9184079,-67.94559 -45.9178407,-67.9453111 -45.9174227,-67.9465771 -45.9168554,-67.9420924 -45.9173033,-67.9408264 -45.9169002,-67.9406118 -45.9177959,-67.9378867 -45.9191842,-67.9375434 -45.9200649,-67.9378974 -45.9205575,-67.94586231 -45.91962676,-67.9510295 -45.9188259,-67.949667 -45.9168704,-67.9491198 -45.9161986,-67.9486799 -45.916833,-67.9491198 -45.9181243,-67.9471564 -45.9191543,-67.95055552 -45.91916669,-67.9587436 -45.920871,-67.9575205 -45.9200947,-67.9542375 -45.9190946,-67.9514909 -45.9187513,-67.95749776 -45.92122866;-67.95749776 -45.92122866,-67.9587436 -45.920871,-67.9575205 -45.9200947,-67.9542375 -45.9190946,-67.9514909 -45.9187513,-67.95055552 -45.91916669,-67.9510295 -45.9188259,-67.949667 -45.9168704,-67.9491198 -45.9161986,-67.9486799 -45.916833,-67.9491198 -45.9181243,-67.9471564 -45.9191543,-67.94586231 -45.91962676,-67.9473066 -45.9191991,-67.9491735 -45.9182736,-67.9488516 -45.9169151,-67.9491198 -45.9161986,-67.9481864 -45.9168405,-67.9482937 -45.9178556,-67.947135 -45.9184079,-67.94559 -45.9178407,-67.9453111 -45.9174227,-67.9465771 -45.9168554,-67.9420924 -45.9173033,-67.9408264 -45.9169002,-67.9406118 -45.9177959,-67.9378867 -45.9191842,-67.9375434 -45.9200649,-67.9378974 -45.9205575,-67.93749101 -45.92107433,-67.9378974 -45.9205575,-67.9375219 -45.920244,-67.9376721 -45.9193932,-67.9373181 -45.9201097,-67.9375005 -45.9207814,-67.9381657 -45.9214382,-67.9378438 -45.9222592,-67.9378653 -45.9235428,-67.9352689 -45.9230204,-67.9323292 -45.9215277,-67.9315567 -45.9216173,-67.92974857 -45.92193359,-67.9315567 -45.9216173,-67.9323292 -45.9215277,-67.9268146 -45.9178258,-67.9294968 -45.9176466,-67.9304409 -45.9174227,-67.9300117 -45.9168704,-67.9294324 -45.9165121,-67.92776392 -45.91634643,-67.9294324 -45.9165121,-67.930162 -45.916945,-67.9304409 -45.9174227,-67.9261708 -45.9179004,-67.9190469 -45.9157209,-67.9196262 -45.9152282,-67.91936766 -45.91518342,,-67.9198102 -45.91487479,-67.9231882 -45.9122723,-67.9249692 -45.9120036,-67.9255915 -45.9130038,-67.9226518 -45.9145117,-67.9209566 -45.9155119,-67.9190469 -45.9157209,-67.9196262 -45.9152282,-67.92178415 -45.91276334,-67.9250765 -45.911063,-67.9249692 -45.9120036,-67.9233384 -45.9123171,-67.92339949 -45.91107871,-67.9191971 -45.9115109,-67.9193473 -45.9122574,-67.9206347 -45.9121827,-67.9237676 -45.911287,-67.91938339 -45.91141146,-67.9221797 -45.9097492,-67.9201412 -45.9109884,-67.91924 -45.911063,-67.9191971 -45.9115109,-67.92132124 -45.90950332,-67.922008 -45.9097193,-67.9201412 -45.9109884,-67.9196906 -45.9109585,-67.9200125 -45.9097492,-67.9210854 -45.909585,-67.9227591 -45.90851,-67.9267287 -45.9077933,-67.9317927 -45.9075544,-67.9344964 -45.9080023,-67.9353762 -45.9076142,-67.93482704 -45.9074612,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.94070253 -45.90708056,-67.9417276 -45.9060912,-67.9426718 -45.9047623,-67.9416203 -45.9047773,-67.9445601 -45.9035379,-67.942543 -45.9026271,-67.94048121 -45.90255833,-67.9313636 -45.9007755,-67.9299688 -45.9015296,-67.9309559 -45.9024778,-67.931664 -45.9022687,-67.9323721 -45.9010144,-67.9335737 -45.900447,-67.9371786 -45.9012832,-67.9379082 -45.9021045,-67.9396677 -45.9026719,-67.941041 -45.9025674,-67.93028301 -45.90068278,-67.9312027 -45.9008128,-67.9299688 -45.9015296,-67.9282737 -45.9003723,-67.9263103 -45.8994316,-67.9232204 -45.8984983,-67.9221046 -45.8981623,-67.92046749 -45.89809236,-67.9221904 -45.8981548,-67.9233706 -45.8984385,-67.9223728 -45.8974903,-67.9203773 -45.8967212,-67.9203129 -45.8957953,-67.91895387 -45.89557581,-67.9198515 -45.8952876,-67.9187465 -45.8950934,-67.9171157 -45.8950187,-67.9165041 -45.8955564,-67.91506756 -45.89602857,-67.9165363 -45.8956086,-67.9175019 -45.8947275,-67.9165041 -45.893712,-67.9164827 -45.892689,-67.9183388 -45.8916958,-67.9195189 -45.8908296,-67.9196799 -45.8909341,-67.9177058 -45.8929802,-67.91657701 -45.89351753,-67.9177594 -45.8928831,-67.9196584 -45.8908744,-67.9194117 -45.8909267,-67.9188323 -45.8915241,-67.9170513 -45.8923754,-67.9181993 -45.8910014,-67.918961 -45.8905234,-67.91840225 -45.89042054,-67.9200876 -45.8901874,-67.9206669 -45.8896646,-67.9178774 -45.8882906,-67.9172873 -45.8905981,-67.9169333 -45.8902621,-67.9169869 -45.889239,-67.9164076 -45.8886266,-67.91497939 -45.88844903;-67.91497939 -45.88844903,-67.9200876 -45.8901874,-67.9206669 -45.8896646,-67.9178774 -45.8882906,-67.9172873 -45.8905981,-67.9169333 -45.8902621,-67.9169869 -45.889239,-67.9164076 -45.8886266,-67.91840225 -45.89042054,-67.9201949 -45.8901426,-67.920785 -45.8896646,-67.9178774 -45.8882906,-67.9180706 -45.8870061,-67.9186499 -45.8868642,-67.918961 -45.8857962,-67.91833856 -45.88592331,-67.9183924 -45.8832943,-67.9178345 -45.8833989,-67.9181349 -45.883832,-67.9182851 -45.8847656,-67.9179955 -45.8868492,-67.9182959 -45.887021,-67.918725 -45.8867895,-67.9189289 -45.8859232,-67.91747464 -45.88372353,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9169762 -45.8821367,-67.9166543 -45.8815466,-67.913146 -45.8824205,-67.9128242 -45.8814645,-67.91214619 -45.88124859,,-67.91210808 -45.8814063,-67.9107428 -45.880501,-67.9119766 -45.880389,-67.9123414 -45.8806952,-67.9129958 -45.8809193,-67.90891537 -45.88072557,,-67.90902811 -45.88062544,-67.9108071 -45.880613,-67.9116762 -45.8803665,-67.9099488 -45.8795972,-67.9089832 -45.8795748,-67.908479 -45.879291,-67.9081464 -45.8778345,-67.9075241 -45.8768784,-67.9078567 -45.8763107,-67.9075456 -45.8753322,-67.9072452 -45.8752799,-67.9064727 -45.8764004,-67.90493501 -45.87690763,-67.9065692 -45.87642280000001,-67.9066443 -45.8758626,-67.9054427 -45.876363,-67.9050243 -45.8759149,-67.90388535 -45.87594679;-67.90388535 -45.87594679,-67.9065692 -45.87642280000001,-67.9066443 -45.8758626,-67.9054427 -45.876363,-67.9050243 -45.8759149,-67.90493501 -45.87690763,-67.9034686 -45.8779764,-67.9054427 -45.8768411,-67.90157634 -45.87835903;-67.90157634 -45.87835903,-67.9034686 -45.8779764,-67.9054427 -45.8768411,-67.90493501 -45.87690763,-67.9108071 -45.880613,-67.9116762 -45.8803665,-67.9099488 -45.8795972,-67.9089832 -45.8795748,-67.908479 -45.879291,-67.9081464 -45.8778345,-67.9075241 -45.8768784,-67.9078567 -45.8763107,-67.9075456 -45.8753322,-67.9072452 -45.8752799,-67.9064727 -45.8764004,-67.90902811 -45.88062544,-67.9128456 -45.8792537,-67.9124808 -45.8793284,-67.9119766 -45.880389,-67.9108071 -45.880613,-67.91191949 -45.87938061,-67.9128349 -45.8790819,-67.91394 -45.8782827,-67.9123628 -45.8789922,-67.91076944 -45.87927096,-67.9123628 -45.8789922,-67.9139936 -45.8782154,-67.9156995 -45.8769755,-67.9165149 -45.8759447,-67.9189503 -45.874689800000006,-67.91777485 -45.87443865,-67.9194653 -45.874084800000006,-67.9204845 -45.8732108,-67.9206347 -45.8733602,-67.91957453 -45.87370778,,-67.91979942 -45.8736741,-67.9206347 -45.8733602,-67.9204845 -45.8732108,-67.9220188 -45.8711565,-67.92053462 -45.87127057,-67.9235101 -45.8711267,-67.9226303 -45.8711043,-67.9216754 -45.8713134,-67.92270363 -45.87121385;-67.92270363 -45.87121385,-67.9239607 -45.87091,-67.9254735 -45.8690648,-67.92477777 -45.86902425,-67.9271686 -45.8677052,-67.926718 -45.8677948,-67.925849 -45.8687063,-67.92759808 -45.86788307,-67.9312563 -45.8666892,-67.9306877 -45.8669805,-67.9292071 -45.866338,-67.9283273 -45.867257,-67.93029002 -45.86668754,-67.9317927 -45.8665099,-67.9313958 -45.8663156,-67.9318678 -45.8652174,-67.93025624 -45.86524613,-67.934196 -45.8650755,-67.9339492 -45.8648887,-67.9318678 -45.8652174,-67.93322311 -45.86539389,-67.9364544 -45.8650082,-67.9343033 -45.8651128,-67.93542287 -45.86514387,-67.9374468 -45.8637643,-67.93648120000002 -45.8648999,-67.93638614 -45.8639203,-67.9407513 -45.863103100000004,-67.9403973 -45.8622551,-67.93757020000001 -45.8636746,-67.94016816 -45.86304785,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94026881 -45.86394522,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.9397787 -45.86446671,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.93820898 -45.86621382,,-67.93822649 -45.86645361,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S513,S2388,S2002,S965</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 944,S56,Linea 940,S78,Linea 932,S645,Linea 931,S2111,Linea 930,S2110,Linea 736,S2167,Linea 1617,S2168,Linea 584,S849,Linea 582,S938,Linea 581,S2443,Linea 578,S2132,Linea 579,S949,Linea 591,S2129,Linea 592,S2259,Linea 594,S17,Linea 735,S295,Linea 734,S3,Linea 613,Q16,Linea 1626,S2240,Linea 471,S2,Linea 1886,S13,Linea 1887,S2523,Linea 517,Q17,Linea 516,S2236,Linea 511,S509,Linea 512,S427,Linea 506,S420,Linea 505,S418,Linea 484,S2297,Linea 1598,S417,Linea 483,S513;S513,Linea 483,S417,Linea 1598,S2297,Linea 484,S418,Linea 505,S420,Linea 506,S427,Linea 507,S2307,Linea 649,S426,Linea 645,S470,Linea 534,S506,Linea 536,S533,Linea 540,S531,Linea 538,S439,Linea 545,S469,Linea 616,S460,Linea 632,S2720,Linea 634,S458,Linea 660,S683,Linea 659,S2265,Linea 665,S489,Linea 629,S2077,Linea 631,S629,Linea 905,S783,Linea 1214,Planta Norte,Linea 923,S789,Linea 922,S502,Linea 916,S2197,Linea 1701,S2388;S2388,Linea 1701,S2197,Linea 915,S2191,Linea 914,S622,Linea 211,S2552,Linea 1563,S635,Linea 186,S495,Linea 183,S637,Linea 178,S640,Linea 177,S676,Linea 170,S691,Linea 169,S451,Linea 168,S2478,Linea 167,S2510,Linea 164,S678,Linea 162,S662,Linea 161,S246,Linea 158,S680,Linea 1549,S2488,Linea 156,S208,Linea 57,S2253,Linea 52,S326,Linea 8,S2258,Linea 7,S328,Linea 6,S309,Linea 4,S329,Linea 3,S993,Linea 2,S2447,Linea 1506,S176,Linea 1,Base,Linea 14,S278,Linea 15,S2250,Linea 16,S977,Linea 17,S245,Linea 1340,S186,Linea 901,S539,Linea 1408,S2376,Linea 1346,S190,Linea 1395,S232,Linea 1348,S2314,Linea 1347,S643,Linea 1350,S291,Linea 1351,S292,Linea 1352,S117,Linea 1353,S293,Linea 1355,S231,Linea 890,S2565,Linea 876,S220,Linea 861,S235,Linea 856,S365,Linea 1210,S2002;S2002,Linea 1210,S365,Linea 856,S235,Linea 861,S220,Linea 876,S2565,Linea 890,S231,Linea 1355,S293,Linea 1353,S117,Linea 1352,S292,Linea 1351,S291,Linea 1350,S643,Linea 1347,S2314,Linea 1348,S232,Linea 1395,S190,Linea 1346,S2376,Linea 1408,S539,Linea 901,S186,Linea 1340,S245,Linea 17,S977,Linea 16,S2250,Linea 15,S278,Linea 14,Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 754,S2408,Linea 752,S370,Linea 1842,S2421,Linea 741,S980,Linea 740,S377,Linea 748,S381,Linea 747,S2572,Linea 745,S999,Linea 742,S965;S965,Linea 742,S999,Linea 745,S2572,Linea 747,S381,Linea 748,S377,Linea 740,S980,Linea 741,S2421,Linea 1842,S370,Linea 752,S2408,Linea 754,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92260289 -45.87981886,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.91930941 -45.88137118,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91747464 -45.88372353,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91541483 -45.88231338,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.90970498 -45.88326091,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90591516 -45.88446218,,-67.90594775 -45.88423937,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90705336 -45.88840606,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90362098 -45.8874036,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90293219 -45.8836944,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.89811074 -45.88424629,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89478887 -45.88442779,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.88986813 -45.88509226,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88725199 -45.88498287,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88477851 -45.88530377,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88934482 -45.88367092,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.87931365 -45.88515467,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87597578 -45.88674947,,-67.87630061 -45.88642699,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.8758872 -45.88413516,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.87263059 -45.88283868,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.86703039 -45.88312685,-67.8726017 -45.880389,-67.8697157 -45.8828462,-67.8706813 -45.8831001,-67.8686643 -45.8830254,-67.8724445 -45.87988188,-67.8772688 -45.8789101,-67.8749835 -45.8790146,-67.87362100000001 -45.8797765,-67.87684672 -45.87887091,-67.8785026 -45.8788802,-67.8798115 -45.8793806,-67.87875862 -45.87975391,-67.8797901 -45.8776627,-67.8792536 -45.87817810000001,-67.8798115 -45.8793806,-67.87897854 -45.87766371,-67.8836739 -45.8759821,-67.8838027 -45.8758402,-67.883234 -45.875631,-67.8816783 -45.8762734,-67.8803587 -45.8772818,-67.88220216 -45.87628794,-67.8856909 -45.8773042,-67.88382410000001 -45.8758999,-67.8835773 -45.8759821,-67.88515558 -45.87764642,-67.8892422 -45.878559,-67.8872895 -45.87787190000001,-67.8866029 -45.8774162,-67.88880073 -45.87886841,,-67.88853976 -45.87880407,-67.8923535 -45.879694300000004,-67.8905511 -45.8789325,-67.89202466 -45.88006668;-67.89202466 -45.88006668,-67.8923535 -45.879694300000004,-67.8905511 -45.8789325,-67.88853976 -45.87880407,,-67.88880073 -45.87886841,-67.8892422 -45.878559,-67.8872895 -45.87787190000001,-67.8866029 -45.8774162,-67.88515558 -45.87764642,-67.8856909 -45.8773042,-67.88382410000001 -45.8758999,-67.8835773 -45.8759821,-67.88220216 -45.87628794,-67.8836739 -45.8759821,-67.8838027 -45.8758402,-67.883234 -45.875631,-67.8816783 -45.8762734,-67.8803587 -45.8772818,-67.87897854 -45.87766371,-67.8803158 -45.8771847,-67.8813779 -45.8760792,-67.8823113 -45.875519,-67.8828478 -45.87486160000001,-67.88196942 -45.87464989,-67.8836632 -45.8741296,-67.884264 -45.8734723,-67.8839421 -45.8733229,-67.8833306 -45.8736515,-67.8822899 -45.87404,-67.8816032 -45.8749737,-67.8808522 -45.875153,-67.8791678 -45.8762809,-67.8782129 -45.8766021,-67.8774083 -45.8765572,-67.87580898 -45.87623664,-67.8772473 -45.875646,-67.87714 -45.874899,-67.8760457 -45.8739578,-67.8750265 -45.8733005,-67.8741574 -45.8732108,-67.8737283 -45.8741819,-67.87226293 -45.87472228,-67.8721726 -45.8748019,-67.868793 -45.8753024,-67.8683639 -45.8750633,-67.8691471 -45.8759522,-67.86877282 -45.87598303,-67.8690398 -45.8759074,-67.8681815 -45.8748691,-67.8664434 -45.8762585,-67.86520975 -45.8764158,-67.8666043 -45.8740773,-67.8655958 -45.8758999,-67.8658319 -45.8761464,-67.86601994 -45.87390747,-67.8686213 -45.87223970000001,-67.8679776 -45.8725012,-67.867173 -45.87342,-67.86803091 -45.87230485,-67.8687286 -45.87223970000001,-67.8671408 -45.8717542,-67.8661752 -45.8712611,-67.8662395 -45.8705888,-67.86552841 -45.87071955,-67.8665292 -45.8704394,-67.8664756 -45.8701107,-67.8674197 -45.8697073,-67.8698659 -45.8700883,-67.8700376 -45.8699389,-67.8700268 -45.8692964,-67.86891343 -45.86940172,-67.8699839 -45.8693413,-67.8700376 -45.8699389,-67.8703916 -45.8701929,-67.8709173 -45.8699239,-67.8707349 -45.8692815,-67.8712177 -45.8686166,-67.8731596 -45.8681236,-67.8729107 -45.86822856,-67.8735942 -45.8680488,-67.8724301 -45.8682281,-67.8724086 -45.8686689,-67.8764427 -45.8695952,-67.87545792 -45.87007243,-67.8773439 -45.8681385,-67.878288 -45.8679816,-67.8767216 -45.8696102,-67.87529512 -45.86884053,-67.8773224 -45.8682132,-67.8784168 -45.867951700000006,-67.8792751 -45.866988,-67.87841593 -45.86693979,-67.8794253 -45.8652025,-67.8813779 -45.8643508,-67.8805947 -45.8648065,-67.8801227 -45.8652622,-67.8801119 -45.8658151,-67.8798544 -45.8661513,-67.87816911 -45.86559299,-67.8800154 -45.8627071,-67.880863 -45.8635887,-67.8814101 -45.8638502,-67.881496 -45.8643508,-67.8795862 -45.8651352,-67.87889297 -45.8626014,-67.8809917 -45.8619301,-67.8822792 -45.8616611,-67.8835666 -45.8617507,-67.8845859 -45.8612277,-67.8843284 -45.8612427,-67.88286864 -45.86153258,-67.8855836 -45.8605329,-67.8847253 -45.8611754,-67.8843284 -45.8612427,-67.88485253 -45.86038085,-67.8862917 -45.8600846,-67.8869355 -45.8600547,-67.8873861 -45.8596438,-67.8876221 -45.8588667,-67.8886843 -45.8579999,-67.8905296 -45.8572453,-67.8915596 -45.8569165,-67.8910661 -45.8570435,-67.89119881 -45.85678635,-67.892493 -45.8607271,-67.8927398 -45.8607346,-67.8933835 -45.8598081,-67.8937054 -45.8590236,-67.8939092 -45.8579925,-67.8937912 -45.8574844,-67.8941989 -45.8566849,-67.8936088 -45.8564383,-67.8929114 -45.8567745,-67.8926003 -45.8566998,-67.89112374 -45.86105529,-67.8922999 -45.8618479,-67.8926861 -45.8618553,-67.8926969 -45.8608019,-67.892493 -45.8607271,-67.89062946 -45.86210121,,-67.89073352 -45.8622881;-67.89073352 -45.8622881,,-67.89062946 -45.86210121,-67.8931367 -45.8638427,-67.892611 -45.8618778,-67.8922999 -45.8618479,-67.89177843 -45.86436433,-67.8957546 -45.8637157,-67.8955936 -45.8639772,-67.894392 -45.8641192,-67.8938127 -45.8632973,-67.8930938 -45.8633795,-67.8930295 -45.8638502,-67.8946526 -45.86372426,-67.8962696 -45.8632899,-67.8974175 -45.8625203,-67.8984583 -45.8622177,-67.89779792 -45.86312838,,-67.8975525 -45.86346654,-67.8993487 -45.8636634,-67.8988981 -45.8636933,-67.89861920000001 -45.8635215,-67.89867893 -45.86374335,-67.9039943 -45.8644255,-67.9028034 -45.8637381,-67.8999174 -45.8635812,-67.90314798 -45.8648888,-67.906419 -45.86626330000001,-67.9050887 -45.8652025,-67.9043591 -45.864814,-67.90565529 -45.8665856,-67.9108179 -45.86391,-67.9094768 -45.8638353,-67.9077816 -45.8657329,-67.9066443 -45.8662484,-67.90869072 -45.86438156,-67.9100454 -45.8663754,-67.9094982 -45.8663306,-67.909627 -45.86429100000001,-67.90947109 -45.86641003,-67.9100668 -45.8647318,-67.9098523 -45.8659197,-67.9103565 -45.8661513,-67.90917641 -45.86476613,-67.9122448 -45.8649709,-67.911129 -45.8644105,-67.9103887 -45.8645226,-67.91093971 -45.86527418,-67.9164934 -45.8652398,-67.9147875 -45.8642536,-67.9133606 -45.865322,-67.9120409 -45.8651352,-67.91575239 -45.86551598,-67.9187572 -45.8661064,-67.9176843 -45.8663679,-67.9172981 -45.8656657,-67.91774956 -45.8661538,-67.9224908 -45.8663306,-67.9191971 -45.8656582,-67.92069068 -45.86664171,-67.9258382 -45.86658460000001,-67.9220402 -45.8663903,-67.92478129 -45.86687146,-67.9266429 -45.8657927,-67.9259992 -45.8665696,-67.92617947 -45.86596757,,-67.92568273 -45.86555172,-67.9284239 -45.8655835,-67.9270077 -45.8655162,-67.92761571 -45.86576064,-67.92887450000002 -45.8655984,-67.929647 -45.8660093,-67.9311919 -45.8652622,-67.93025624 -45.86524613,-67.934196 -45.8650755,-67.9339492 -45.8648887,-67.9318678 -45.8652174,-67.93322311 -45.86539389,-67.9364544 -45.8650082,-67.9343033 -45.8651128,-67.93542287 -45.86514387,-67.9374468 -45.8637643,-67.93648120000002 -45.8648999,-67.93638614 -45.8639203,-67.9407513 -45.863103100000004,-67.9403973 -45.8622551,-67.93757020000001 -45.8636746,-67.94016816 -45.86304785,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94026881 -45.86394522,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.9397787 -45.86446671,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.93820898 -45.86621382,,-67.93822649 -45.86645361,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.9400271 -45.8665472,-67.9427254 -45.8635364,-67.9464859 -45.8623447,-67.9469097 -45.862016,-67.94569946 -45.86221924,-67.9469097 -45.8620944,-67.9481596 -45.8620048,-67.94727301 -45.86217176,-67.9483044 -45.861911400000004,-67.9473495 -45.8614183,-67.94655091 -45.86160389,-67.9479718 -45.8615453,-67.9493934 -45.8606973,-67.9489589 -45.8606599,-67.94780419 -45.86081977,-67.9549134 -45.858239,-67.9527032 -45.8590684,-67.9493666 -45.8607794,-67.9491198 -45.8606898,-67.9539623 -45.85805836,-67.9549778 -45.85820170000001,-67.9571986 -45.85672970000001,-67.9579175 -45.8564981,-67.9585719 -45.8567521,-67.95773843 -45.85672753,-67.9586148 -45.8568044,-67.9579926 -45.8564383,-67.9605138 -45.8553847,-67.9615545 -45.8546374,-67.963078 -45.8525451,-67.9633892 -45.8522836,-67.9675841 -45.8512224,-67.9699767 -45.8512598,-67.9700732 -45.8515064,-67.9697835 -45.8517381,-67.96836168 -45.85192469,-67.9697835 -45.8517381,-67.9700947 -45.8517082,-67.9702342 -45.8514018,-67.9710817 -45.8516335,-67.97135 -45.8516633,-67.97067338 -45.85178783,-67.9748797 -45.8534568,-67.9738176 -45.8522612,-67.9730666 -45.8517007,-67.9728305 -45.8516858,-67.9720902 -45.8515438,-67.97404757 -45.85313584,-67.9750836 -45.8543983,-67.9752016 -45.8534194,-67.97353981 -45.85482131,-67.9721439 -45.8564532,-67.9723585 -45.855833,-67.9728305 -45.8549363,-67.9739249 -45.8544805,-67.9741395 -45.8540023,-67.9740536 -45.853539,-67.9744184 -45.8538977,-67.9746437 -45.8541517,-67.9750943 -45.8540247,-67.9749548 -45.854488,-67.97079424 -45.85669528,-67.9761672 -45.8586351,-67.9759634 -45.858508,-67.9757595 -45.8578206,-67.9751909 -45.8575143,-67.9723477 -45.8568567,-67.9721653 -45.8565802,-67.97543611 -45.85876585,-67.9762101 -45.8587172,-67.9768431 -45.8590385,-67.9774976 -45.8593075,-67.9783773 -45.8600024,-67.9787743 -45.859569,-67.97805617 -45.85962835,-67.9787743 -45.859569,-67.9784095 -45.8600622,-67.9786134 -45.860249,-67.9797721 -45.8603909,-67.9814243 -45.8607346,-67.98085648 -45.8609192,-67.9814565 -45.8608243,-67.9794395 -45.8610634,-67.97806312 -45.86131529,-67.9787314 -45.8612128,-67.9781628 -45.8612053,-67.9774868 -45.8607794,-67.9767251 -45.8597259,-67.9755342 -45.8596288,-67.9744506 -45.8598903,-67.9743111 -45.8601967,-67.9733455 -45.8602788,-67.9734099 -45.8608317,-67.9735816 -45.8606898,-67.97275807 -45.86073448,-67.9727018 -45.8616387,-67.973367 -45.8612352,-67.9735816 -45.8606898,-67.97103212 -45.86191282,-67.9705346 -45.8620944,-67.97189710000002 -45.861818,-67.96929873 -45.86235432,-67.9688179 -45.8673466,-67.9708242 -45.8668236,-67.9720795 -45.8663978,-67.9723263 -45.865576,-67.9716289 -45.8644778,-67.9715002 -45.8637307,-67.9703414 -45.8627146,-67.9702663 -45.8623036,-67.96760714 -45.86770099,-67.9684639 -45.8677052,-67.9677773 -45.8678994,-67.9665112 -45.8679218,-67.9654062 -45.8674885,-67.9641616 -45.8664725,-67.96276308 -45.86655556,-67.9634213 -45.8661513,-67.9616404 -45.8655387,-67.96031 -45.8656881,-67.960031 -45.8653594,-67.95937016 -45.86539571;-67.95937016 -45.86539571,-67.9634213 -45.8661513,-67.9616404 -45.8655387,-67.96031 -45.8656881,-67.960031 -45.8653594,-67.96276308 -45.86655556,-67.9684639 -45.8677052,-67.9677773 -45.8678994,-67.9665112 -45.8679218,-67.9654062 -45.8674885,-67.9641616 -45.8664725,-67.96760714 -45.86770099,-67.9688179 -45.8673466,-67.9708242 -45.8668236,-67.9720795 -45.8663978,-67.9723263 -45.865576,-67.9716289 -45.8644778,-67.9715002 -45.8637307,-67.9703414 -45.8627146,-67.9702663 -45.8623036,-67.96929873 -45.86235432,-67.9705346 -45.8620944,-67.97189710000002 -45.861818,-67.97103212 -45.86191282,-67.9727018 -45.8616387,-67.973367 -45.8612352,-67.9735816 -45.8606898,-67.97275807 -45.86073448,-67.9787314 -45.8612128,-67.9781628 -45.8612053,-67.9774868 -45.8607794,-67.9767251 -45.8597259,-67.9755342 -45.8596288,-67.9744506 -45.8598903,-67.9743111 -45.8601967,-67.9733455 -45.8602788,-67.9734099 -45.8608317,-67.9735816 -45.8606898,-67.97806312 -45.86131529,-67.9814565 -45.8608243,-67.9794395 -45.8610634,-67.98085648 -45.8609192,-67.9787743 -45.859569,-67.9784095 -45.8600622,-67.9786134 -45.860249,-67.9797721 -45.8603909,-67.9814243 -45.8607346,-67.97805617 -45.85962835,-67.9762101 -45.8587172,-67.9768431 -45.8590385,-67.9774976 -45.8593075,-67.9783773 -45.8600024,-67.9787743 -45.859569,-67.97543611 -45.85876585,-67.9761672 -45.8586351,-67.9759634 -45.858508,-67.9757595 -45.8578206,-67.9751909 -45.8575143,-67.9723477 -45.8568567,-67.9721653 -45.8565802,-67.97079424 -45.85669528,-67.9721439 -45.8564532,-67.9723585 -45.855833,-67.9728305 -45.8549363,-67.9739249 -45.8544805,-67.9741395 -45.8540023,-67.9740536 -45.853539,-67.9744184 -45.8538977,-67.9746437 -45.8541517,-67.9750943 -45.8540247,-67.9749548 -45.854488,-67.97353981 -45.85482131,-67.9750836 -45.8543983,-67.9752016 -45.8534194,-67.97404757 -45.85313584,-67.9748797 -45.8534568,-67.9738176 -45.8522612,-67.9730666 -45.8517007,-67.9728305 -45.8516858,-67.9720902 -45.8515438,-67.97067338 -45.85178783,-67.9697835 -45.8517381,-67.9700947 -45.8517082,-67.9702342 -45.8514018,-67.9710817 -45.8516335,-67.97135 -45.8516633,-67.96836168 -45.85192469,-67.9586148 -45.8568044,-67.9579926 -45.8564383,-67.9605138 -45.8553847,-67.9615545 -45.8546374,-67.963078 -45.8525451,-67.9633892 -45.8522836,-67.9675841 -45.8512224,-67.9699767 -45.8512598,-67.9700732 -45.8515064,-67.9697835 -45.8517381,-67.95773843 -45.85672753,-67.9549778 -45.85820170000001,-67.9571986 -45.85672970000001,-67.9579175 -45.8564981,-67.9585719 -45.8567521,-67.9539623 -45.85805836,-67.9549134 -45.858239,-67.9527032 -45.8590684,-67.9493666 -45.8607794,-67.9491198 -45.8606898,-67.94780419 -45.86081977,-67.9479718 -45.8615453,-67.9493934 -45.8606973,-67.9489589 -45.8606599,-67.94655091 -45.86160389,-67.9483044 -45.861911400000004,-67.9473495 -45.8614183,-67.94727301 -45.86217176,-67.9469097 -45.8620944,-67.9481596 -45.8620048,-67.94569946 -45.86221924,-67.9427254 -45.8635364,-67.9464859 -45.8623447,-67.9469097 -45.862016,-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9513514 -45.867951700000006,-67.9506004 -45.8681534,-67.9493558 -45.8665622,-67.9490876 -45.8664576,-67.9492164 -45.8668461,-67.95075242 -45.86791677,-67.9511476 -45.8693039,-67.95089010000001 -45.8697222,-67.9506433 -45.8681011,-67.9512978 -45.867892,-67.95011093 -45.86936834,-67.9526013 -45.869965,-67.9517484 -45.8700734,-67.9508901 -45.8697222,-67.9511476 -45.8693039,-67.95188123 -45.87007275,-67.9518449 -45.870925,-67.9516733 -45.8706037,-67.9509866 -45.870275,-67.95089010000001 -45.8697222,-67.9517484 -45.8700734,-67.9526281 -45.8699912,-67.95082673 -45.87123588,-67.9510081 -45.87218,-67.9515123 -45.8715599,-67.9518449 -45.870925,-67.94974928 -45.87213834,-67.9508579 -45.8736739,-67.9509115 -45.8721426,-67.94983615 -45.87396079,-67.9521346 -45.8759746,-67.951448 -45.8759597,-67.9509008 -45.8738383,-67.95155064 -45.87647635,-67.9521239 -45.8742491,-67.9518771 -45.875885,-67.9521346 -45.8759746,-67.95131727 -45.87411285,-67.9531217 -45.8736665,-67.9552889 -45.8727253,-67.95436473 -45.87255367;-67.95436473 -45.87255367,-67.9531217 -45.8736665,-67.9552889 -45.8727253,-67.95131727 -45.87411285,-67.9521239 -45.8742491,-67.9518771 -45.875885,-67.9521346 -45.8759746,-67.95155064 -45.87647635,-67.9521346 -45.8759746,-67.951448 -45.8759597,-67.9509008 -45.8738383,-67.94983615 -45.87396079,-67.9508579 -45.8736739,-67.9509115 -45.8721426,-67.94974928 -45.87213834,-67.9510081 -45.87218,-67.9515123 -45.8715599,-67.9518449 -45.870925,-67.95082673 -45.87123588,-67.9518449 -45.870925,-67.9516733 -45.8706037,-67.9509866 -45.870275,-67.95089010000001 -45.8697222,-67.9517484 -45.8700734,-67.9526281 -45.8699912,-67.95188123 -45.87007275,-67.9526013 -45.869965,-67.9517484 -45.8700734,-67.9508901 -45.8697222,-67.9511476 -45.8693039,-67.95011093 -45.86936834,-67.9511476 -45.8693039,-67.95089010000001 -45.8697222,-67.9506433 -45.8681011,-67.9512978 -45.867892,-67.95075242 -45.86791677,-67.9513514 -45.867951700000006,-67.9506004 -45.8681534,-67.9493558 -45.8665622,-67.9490876 -45.8664576,-67.9492164 -45.8668461,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2087,S2654</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 1211,S172,Linea 768,S2417,Linea 759,S402,Linea 760,S2468,Linea 763,S395,Linea 764,S338,Linea 773,S2407,Linea 850,S2056,Linea 849,S2716,Linea 853,S2504,Linea 854,S997,Linea 1836,S353,Linea 1361,S2006,Linea 1363,S2009,Linea 1365,S354,Linea 1421,S2255,Linea 1373,S323,Linea 1372,S325,Linea 1371,S2091,Linea 1370,S2081,Linea 1426,S2087;S2087,Linea 1426,S2081,Linea 1370,S2091,Linea 1371,S325,Linea 1372,S323,Linea 1373,S2255,Linea 568,S882,Linea 567,S522,Linea 566,S2273,Linea 552,S525,Linea 551,S529,Linea 549,S437,Linea 546,S773,Linea 531,S2151,Linea 412,S2300,Linea 381,S1037,Linea 380,S544,Linea 379,S1028,Linea 378,S2007,Linea 419,S2654;S2654,Linea 419,S2007,Linea 378,S1028,Linea 379,S544,Linea 380,S1037,Linea 381,S2300,Linea 412,S2151,Linea 531,S773,Linea 546,S437,Linea 549,S529,Linea 551,S525,Linea 552,S2273,Linea 566,S522,Linea 567,S882,Linea 568,S2255,Linea 1421,S354,Linea 1365,S2009,Linea 1363,S2006,Linea 1361,S353,Linea 1836,S997,Linea 854,S2504,Linea 853,S2716,Linea 849,S2056,Linea 850,S2407,Linea 773,S338,Linea 764,S395,Linea 763,S2468,Linea 760,S402,Linea 759,S2417,Linea 768,S172,Linea 1211,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.95709848 -45.86769228,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95610675 -45.87170205,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95650202 -45.87386891,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95720623 -45.87256309,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.96214261 -45.87344787,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96572509 -45.87368099,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.9672039 -45.87497495,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.96992116 -45.87035971,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.9688479 -45.86924263,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.96898996 -45.86789944,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.97170451 -45.86764851,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97781889 -45.86412305,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97692655 -45.86298292,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.98026531 -45.86300386,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98206338 -45.86352335,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98715669 -45.86146692,-67.9928935 -45.8605404,-67.9914236 -45.8609588,-67.98931 -45.8614369,-67.9889023 -45.8613323,-67.99220337 -45.86057361,-67.9911339 -45.8618479,-67.9904687 -45.8619002,-67.9910696 -45.8615117,-67.9918849 -45.861295,-67.9930007 -45.8606151,-67.99023202 -45.86204363,-67.9886341 -45.8629088,-67.9906297 -45.8618479,-67.9911232 -45.8617956,-67.98677491 -45.86342245,-67.9859948 -45.8647094,-67.9874003 -45.863783,-67.98422803 -45.86529103,-67.9920459 -45.8642163,-67.9910159 -45.864672,-67.9903078 -45.8650157,-67.9890847 -45.8656208,-67.9855978 -45.8654415,-67.9855227 -45.865322,-67.99158422 -45.86437969;-67.99158422 -45.86437969,-67.9920459 -45.8642163,-67.9910159 -45.864672,-67.9903078 -45.8650157,-67.9890847 -45.8656208,-67.9855978 -45.8654415,-67.9855227 -45.865322,-67.98422803 -45.86529103,-67.9859948 -45.8647094,-67.9874003 -45.863783,-67.98677491 -45.86342245,-67.9886341 -45.8629088,-67.9906297 -45.8618479,-67.9911232 -45.8617956,-67.99023202 -45.86204363,-67.9911339 -45.8618479,-67.9904687 -45.8619002,-67.9910696 -45.8615117,-67.9918849 -45.861295,-67.9930007 -45.8606151,-67.99220337 -45.86057361,-67.9928935 -45.8605404,-67.9914236 -45.8609588,-67.98931 -45.8614369,-67.9889023 -45.8613323,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8701234 -45.8635663,-67.8698123 -45.86132490000001,-67.8679776 -45.8603237,-67.8670549 -45.8588966,-67.8654027 -45.859457,-67.8654563 -45.8601518,-67.8656709 -45.8602639,-67.86895092 -45.86422008,-67.8682029 -45.8666817,-67.8692436 -45.8661961,-67.8702307 -45.8647318,-67.8701663 -45.8642088,-67.86635342 -45.86702056,-67.8668189 -45.8667639,-67.8664005 -45.866988,-67.8663254 -45.8676305,-67.86498939 -45.86808329,-67.8639972 -45.8691171,-67.8657031 -45.8680713,-67.86235431 -45.86962035,-67.8593409 -45.8716048,-67.85971640000001 -45.8705365,-67.8614008 -45.870529,-67.861948 -45.8698268,-67.8630531 -45.8694832,-67.85882935 -45.87179542,-67.857635 -45.8744807,-67.8541696 -45.874152,-67.8588581 -45.8727103,-67.8593409 -45.8716048,-67.857019 -45.87438052,-67.84873010000001 -45.87312860000001,-67.8543305 -45.8741595,-67.857635 -45.8744807,-67.84711722 -45.87310355,-67.847904 -45.8759074,-67.8490949 -45.8742491,-67.8510368 -45.8734349,-67.8488266 -45.8731585,-67.84644226 -45.87649326,-67.8467667 -45.8780212,-67.846477 -45.87698300000001,-67.8477967 -45.8764751,-67.84627973 -45.87829114,-67.8467989 -45.878081,-67.8463697 -45.8770502,-67.8443956 -45.8768859,-67.84286672 -45.87711998,-67.842561 -45.8794628,-67.8420246 -45.8792462,-67.8431511 -45.8775283,-67.8462946 -45.877095,-67.8445137 -45.8768261,-67.84221298 -45.87973382,-67.8455973 -45.8806504,-67.8449214 -45.8812852,-67.8420246 -45.8795972,-67.8425181 -45.87953,-67.84518194 -45.88032275,-67.8467023 -45.8799558,-67.849052 -45.8790819,-67.84840449 -45.87890923;-67.84840449 -45.87890923,-67.8467023 -45.8799558,-67.849052 -45.8790819,-67.84518194 -45.88032275,-67.8455973 -45.8806504,-67.8449214 -45.8812852,-67.8420246 -45.8795972,-67.8425181 -45.87953,-67.84221298 -45.87973382,-67.842561 -45.8794628,-67.8420246 -45.8792462,-67.8431511 -45.8775283,-67.8462946 -45.877095,-67.8445137 -45.8768261,-67.84286672 -45.87711998,-67.8467989 -45.878081,-67.8463697 -45.8770502,-67.8443956 -45.8768859,-67.84627973 -45.87829114,-67.8467667 -45.8780212,-67.846477 -45.87698300000001,-67.8477967 -45.8764751,-67.84644226 -45.87649326,-67.847904 -45.8759074,-67.8490949 -45.8742491,-67.8510368 -45.8734349,-67.8488266 -45.8731585,-67.84711722 -45.87310355,-67.84873010000001 -45.87312860000001,-67.8543305 -45.8741595,-67.857635 -45.8744807,-67.857019 -45.87438052,-67.857635 -45.8744807,-67.8541696 -45.874152,-67.8588581 -45.8727103,-67.8593409 -45.8716048,-67.85882935 -45.87179542,-67.8593409 -45.8716048,-67.85971640000001 -45.8705365,-67.8614008 -45.870529,-67.861948 -45.8698268,-67.8630531 -45.8694832,-67.86235431 -45.86962035,-67.8639972 -45.8691171,-67.8657031 -45.8680713,-67.86498939 -45.86808329,-67.8668189 -45.8667639,-67.8664005 -45.866988,-67.8663254 -45.8676305,-67.86635342 -45.86702056,-67.8682029 -45.8666817,-67.8692436 -45.8661961,-67.8702307 -45.8647318,-67.8701663 -45.8642088,-67.86895092 -45.86422008,-67.8701234 -45.8635663,-67.8698123 -45.86132490000001,-67.8679776 -45.8603237,-67.8670549 -45.8588966,-67.8654027 -45.859457,-67.8654563 -45.8601518,-67.8656709 -45.8602639,-67.86513556 -45.86046435,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.98715669 -45.86146692,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98206338 -45.86352335,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98026531 -45.86300386,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.97692655 -45.86298292,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97781889 -45.86412305,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97170451 -45.86764851,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.96898996 -45.86789944,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.9688479 -45.86924263,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.96992116 -45.87035971,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.9672039 -45.87497495,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.96572509 -45.87368099,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96214261 -45.87344787,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.95720623 -45.87256309,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95650202 -45.87386891,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95610675 -45.87170205,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95709848 -45.86769228,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2678,S925,S2505,S2650,S2690</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 944,S56,Linea 940,S78,Linea 932,S645,Linea 931,S2111,Linea 930,S2110,Linea 736,S2167,Linea 1617,S2168,Linea 584,S849,Linea 582,S938,Linea 581,S2443,Linea 578,S2132,Linea 579,S949,Linea 591,S2129,Linea 592,S2259,Linea 594,S17,Linea 596,S2293,Linea 597,S4,Linea 598,S2324,Linea 600,S2196,Linea 599,S2689,Linea 605,S581,Linea 609,S2682,Linea 1623,S2678;S2678,Linea 1623,S2682,Linea 609,S581,Linea 605,S2689,Linea 601,S2683,Linea 606,S2619,Linea 608,S2694,Linea 1336,S2711,Linea 1335,S2698,Linea 1334,S2718,Linea 1333,S2717,Linea 1330,S924,Linea 1337,S925;S925,Linea 1260,S2657,Linea 1247,S2627,Linea 1246,S2640,Linea 1326,S752,Linea 1324,S747,Linea 1321,S744,Linea 1311,S2379,Linea 1301,S903,Linea 1267,S2505;S2505,Linea 1267,S903,Linea 1301,S2379,Linea 1311,S744,Linea 1321,S747,Linea 1324,S752,Linea 1244,S753,Linea 1323,S755,Linea 1236,S2648,Linea 1237,S2644,Linea 1238,S2524,Linea 1861,S2650;S2650,Linea 1861,S2524,Linea 1238,S2644,Linea 1237,S2648,Linea 1236,S755,Linea 1323,S753,Linea 1244,S752,Linea 1326,S2640,Linea 1246,S2627,Linea 1247,S2657,Linea 1260,S925,Linea 1337,S924,Linea 1331,S2690;S2690,Linea 1332,S2717,Linea 1333,S2718,Linea 1334,S2698,Linea 1335,S2711,Linea 1336,S2694,Linea 608,S2619,Linea 606,S2683,Linea 601,S2689,Linea 599,S2196,Linea 600,S2324,Linea 598,S4,Linea 597,S2293,Linea 596,S17,Linea 594,S2259,Linea 592,S2129,Linea 591,S949,Linea 579,S2132,Linea 578,S2443,Linea 581,S938,Linea 582,S849,Linea 584,S2168,Linea 1617,S2167,Linea 736,S2110,Linea 930,S2111,Linea 931,S645,Linea 932,S78,Linea 940,S56,Linea 944,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92260289 -45.87981886,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.91930941 -45.88137118,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91747464 -45.88372353,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91541483 -45.88231338,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.90970498 -45.88326091,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90591516 -45.88446218,,-67.90594775 -45.88423937,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90705336 -45.88840606,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90362098 -45.8874036,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90293219 -45.8836944,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.89811074 -45.88424629,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89478887 -45.88442779,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.88986813 -45.88509226,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88725199 -45.88498287,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88477851 -45.88530377,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88304639 -45.88588109,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88085052 -45.88709026,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.87661058 -45.88889945,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87484305 -45.89067788,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87813787 -45.88993585,-67.8789854 -45.8901127,-67.8777838 -45.8901052,-67.8751981 -45.8927935,-67.8739536 -45.8942571,-67.87230402 -45.89457162,-67.8732026 -45.8945633,-67.872076 -45.8946753,-67.8709388 -45.89427200000001,-67.8709924 -45.8932789,-67.86962065 -45.89326713,,-67.8703009 -45.89288745;-67.8703009 -45.89288745,,-67.86962065 -45.89326713,-67.8732026 -45.8945633,-67.872076 -45.8946753,-67.8709388 -45.89427200000001,-67.8709924 -45.8932789,-67.87230402 -45.89457162,-67.8789854 -45.8901127,-67.8777838 -45.8901052,-67.8751981 -45.8927935,-67.8739536 -45.8942571,-67.87813787 -45.88993585,-67.8788996 -45.8901426,-67.877934 -45.8900903,-67.8774834 -45.8904786,-67.8777945 -45.8925098,-67.8783524 -45.8919348,-67.87768072 -45.89180609,-67.8782558 -45.8919497,-67.8778267 -45.8923828,-67.8780413 -45.8938315,-67.8791893 -45.8953398,-67.87842608 -45.89585515,-67.8799939 -45.8961761,-67.8810668 -45.8968855,-67.881496 -45.8974007,-67.88049412 -45.89765426,-67.8816462 -45.8976545,-67.8819466 -45.8992972,-67.8823757 -45.8992374,-67.88283131 -45.8994995,-67.8778481 -45.8999691,-67.8795862 -45.8996556,-67.8816676 -45.8998198,-67.8823113 -45.899342,-67.87600509 -45.90013168,-67.875402 -45.9018954,-67.8762174 -45.9018506,-67.8767323 -45.9016117,-67.8774405 -45.9009995,-67.8778481 -45.8999691,-67.87401 -45.90242679,-67.8778911 -45.9022389,-67.8772688 -45.9023733,-67.8762174 -45.9020895,-67.8762174 -45.9018506,-67.875402 -45.9018954,-67.87749311 -45.90223614,-67.8877831 -45.9058523,-67.8869033 -45.9059867,-67.8840923 -45.9048668,-67.8834271 -45.9042397,-67.8832769 -45.9030601,-67.8820109 -45.9031497,-67.8811312 -45.903299,-67.8780627 -45.9027018,-67.8772688 -45.9023733,-67.8778911 -45.9022389,-67.88690397 -45.90593083,-67.8887486 -45.9139369,-67.8892422 -45.9133771,-67.889092 -45.9088982,-67.8895211 -45.9081964,-67.8884697 -45.9068527,-67.8891134 -45.9060464,-67.8899932 -45.905494,-67.890079 -45.9049863,-67.8895855 -45.9049415,-67.8884912 -45.9054641,-67.88780562 -45.91450171;-67.88780562 -45.91450171,-67.892257 -45.917781,-67.8922355 -45.9171241,-67.8925788 -45.9166017,-67.8926325 -45.9163553,-67.8917956 -45.9155044,-67.8909266 -45.914855,-67.8902507 -45.9144445,-67.8900683 -45.9137279,-67.8889096 -45.913601,-67.888813 -45.9138473,-67.89164408 -45.91850265,-67.895422 -45.9189901,-67.8929543 -45.9186468,-67.8948966 -45.91911867,-67.8951859 -45.9189752,-67.8956151 -45.9181094,-67.8975034 -45.9169749,-67.8979325 -45.9163329,-67.8972459 -45.916945,-67.8964305 -45.9169151,-67.8960013 -45.9166017,-67.89415644 -45.91643339,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.90527 -45.9149745,-67.9052067 -45.9146162,-67.9025245 -45.9141235,-67.90171 -45.9145565,-67.89907 -45.9147953,-67.8979325 -45.9163329,-67.8972459 -45.916945,-67.8961945 -45.916945,-67.896 -45.9166,-67.90949828 -45.91775832,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.9049706 -45.9149894,-67.9050565 -45.9146311,-67.908597 -45.9143027,-67.9105282 -45.9135114,-67.9126954 -45.9130636,-67.9141974 -45.9123171,-67.91361731 -45.91301639,-67.9150558 -45.9126903,-67.9162359 -45.9122126,-67.9164505 -45.9115408,-67.9181457 -45.910645,-67.9202914 -45.9111078,-67.91938339 -45.91141146,-67.9191971 -45.9115109,-67.9193473 -45.9122574,-67.9206347 -45.9121827,-67.9237676 -45.911287,-67.92339949 -45.91107871,-67.9308486 -45.9099433,-67.9312348 -45.9102419,-67.9297328 -45.910421,-67.9279304 -45.9103613,-67.9261494 -45.9116303,-67.9255915 -45.9130038,-67.924819 -45.9119737,-67.9250765 -45.911063,-67.92909659 -45.90983142,-67.9287028 -45.9107794,-67.9314494 -45.9103464,-67.9308486 -45.9099433,-67.92696483 -45.91132509;-67.92696483 -45.91132509,-67.9287028 -45.9107794,-67.9314494 -45.9103464,-67.9308486 -45.9099433,-67.92909659 -45.90983142,-67.9308486 -45.9099433,-67.9312348 -45.9102419,-67.9297328 -45.910421,-67.9279304 -45.9103613,-67.9261494 -45.9116303,-67.9255915 -45.9130038,-67.924819 -45.9119737,-67.9250765 -45.911063,-67.92339949 -45.91107871,-67.9191971 -45.9115109,-67.9193473 -45.9122574,-67.9206347 -45.9121827,-67.9237676 -45.911287,-67.91938339 -45.91141146,-67.9150558 -45.9126903,-67.9162359 -45.9122126,-67.9164505 -45.9115408,-67.9181457 -45.910645,-67.9202914 -45.9111078,-67.91361731 -45.91301639,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.9049706 -45.9149894,-67.9050565 -45.9146311,-67.908597 -45.9143027,-67.9105282 -45.9135114,-67.9126954 -45.9130636,-67.9141974 -45.9123171,-67.90949828 -45.91775832,-67.9105067 -45.9207068,-67.9081678 -45.9205276,-67.9078245 -45.9200798,-67.9065156 -45.9195574,-67.9081035 -45.9191991,-67.9097772 -45.9180049,-67.91006087 -45.92075561,-67.9186392 -45.925737,-67.9181242 -45.9258713,-67.9160213 -45.924319,-67.9144335 -45.9239011,-67.9125881 -45.9236324,-67.911365 -45.9232891,-67.908361 -45.9205575,-67.9107213 -45.9206172,-67.91781996 -45.92567691,-67.9183388 -45.9258713,-67.9167509 -45.9248116,-67.9175448 -45.9264683,-67.9174805 -45.9272444,-67.9163647 -45.9281549,-67.9153562 -45.9282295,-67.9142404 -45.9287071,-67.9133177 -45.9295131,-67.9126954 -45.9289758,-67.912631 -45.9280206,-67.9141116 -45.9273489,-67.9158497 -45.9268415,-67.9161072 -45.9264235,-67.9158711 -45.9259907,-67.91406535 -45.92603076,-67.9160428 -45.9260952,-67.9158497 -45.9268415,-67.9124379 -45.928125,-67.9126954 -45.9289758,-67.9133177 -45.9295131,-67.9122019 -45.9304384,-67.9106355 -45.9306175,-67.9069018 -45.9297071,-67.9082537 -45.9278265,-67.90777463 -45.92772469,-67.9082537 -45.9278265,-67.9069018 -45.9297071,-67.9044557 -45.9301399,-67.9031253 -45.9268564,-67.9025245 -45.9264086,-67.90071017 -45.92674612,-67.9025245 -45.9264086,-67.9055715 -45.9264683,-67.90418073 -45.92703668;-67.90418073 -45.92703668,-67.9025245 -45.9264086,-67.9055715 -45.9264683,-67.90071017 -45.92674612,-67.9082537 -45.9278265,-67.9069018 -45.9297071,-67.9044557 -45.9301399,-67.9031253 -45.9268564,-67.9025245 -45.9264086,-67.90777463 -45.92772469,-67.9160428 -45.9260952,-67.9158497 -45.9268415,-67.9124379 -45.928125,-67.9126954 -45.9289758,-67.9133177 -45.9295131,-67.9122019 -45.9304384,-67.9106355 -45.9306175,-67.9069018 -45.9297071,-67.9082537 -45.9278265,-67.91406535 -45.92603076,-67.9183388 -45.9258713,-67.9167509 -45.9248116,-67.9175448 -45.9264683,-67.9174805 -45.9272444,-67.9163647 -45.9281549,-67.9153562 -45.9282295,-67.9142404 -45.9287071,-67.9133177 -45.9295131,-67.9126954 -45.9289758,-67.912631 -45.9280206,-67.9141116 -45.9273489,-67.9158497 -45.9268415,-67.9161072 -45.9264235,-67.9158711 -45.9259907,-67.91781996 -45.92567691,-67.9186392 -45.925737,-67.9181242 -45.9258713,-67.9160213 -45.924319,-67.9144335 -45.9239011,-67.9125881 -45.9236324,-67.911365 -45.9232891,-67.908361 -45.9205575,-67.9107213 -45.9206172,-67.91006087 -45.92075561,-67.9105067 -45.9207068,-67.9081678 -45.9205276,-67.9078245 -45.9200798,-67.9065156 -45.9195574,-67.9081035 -45.9191991,-67.9097772 -45.9180049,-67.90949828 -45.91775832,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.90527 -45.9149745,-67.9052067 -45.9146162,-67.9025245 -45.9141235,-67.90171 -45.9145565,-67.89907 -45.9147953,-67.8979325 -45.9163329,-67.8972459 -45.916945,-67.8961945 -45.916945,-67.896 -45.9166,-67.89415644 -45.91643339,-67.8951859 -45.9189752,-67.8956151 -45.9181094,-67.8975034 -45.9169749,-67.8979325 -45.9163329,-67.8972459 -45.916945,-67.8964305 -45.9169151,-67.8960013 -45.9166017,-67.8948966 -45.91911867,-67.895422 -45.9189901,-67.8929543 -45.9186468,-67.89164408 -45.91850265,-67.892257 -45.917781,-67.8922355 -45.9171241,-67.8925788 -45.9166017,-67.8926325 -45.9163553,-67.8917956 -45.9155044,-67.8909266 -45.914855,-67.8902507 -45.9144445,-67.8900683 -45.9137279,-67.8889096 -45.913601,-67.888813 -45.9138473,-67.88780562 -45.91450171,-67.8887486 -45.9139369,-67.8892422 -45.9133771,-67.889092 -45.9088982,-67.8895211 -45.9081964,-67.8884697 -45.9068527,-67.8891134 -45.9060464,-67.8899932 -45.905494,-67.890079 -45.9049863,-67.8895855 -45.9049415,-67.8884912 -45.9054641,-67.88690397 -45.90593083,-67.8873324 -45.9059718,-67.8863239 -45.9058523,-67.8840923 -45.9048668,-67.8834271 -45.9042397,-67.8832769 -45.9030601,-67.8815603 -45.9032542,-67.8792 -45.9030004,-67.8801656 -45.9023882,-67.8811741 -45.9021194,-67.88126058 -45.90229604;-67.88126058 -45.90229604,-67.8811741 -45.9021194,-67.8801656 -45.9024927,-67.8792 -45.9030004,-67.8772688 -45.9023733,-67.8778696 -45.9023733,-67.87749311 -45.90223614,-67.8778911 -45.9022389,-67.8772688 -45.9023733,-67.8762174 -45.9020895,-67.8762174 -45.9018506,-67.875402 -45.9018954,-67.87401 -45.90242679,-67.875402 -45.9018954,-67.8762174 -45.9018506,-67.8767323 -45.9016117,-67.8774405 -45.9009995,-67.8778481 -45.8999691,-67.87600509 -45.90013168,-67.8778481 -45.8999691,-67.8795862 -45.8996556,-67.8816676 -45.8998198,-67.8823113 -45.899342,-67.88283131 -45.8994995,-67.8816462 -45.8976545,-67.8819466 -45.8992972,-67.8823757 -45.8992374,-67.88049412 -45.89765426,-67.8799939 -45.8961761,-67.8810668 -45.8968855,-67.881496 -45.8974007,-67.87842608 -45.89585515,-67.8782558 -45.8919497,-67.8778267 -45.8923828,-67.8780413 -45.8938315,-67.8791893 -45.8953398,-67.87768072 -45.89180609,-67.8788996 -45.8901426,-67.877934 -45.8900903,-67.8774834 -45.8904786,-67.8777945 -45.8925098,-67.8783524 -45.8919348,-67.87813787 -45.88993585,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87484305 -45.89067788,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87661058 -45.88889945,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.88085052 -45.88709026,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88304639 -45.88588109,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88477851 -45.88530377,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88725199 -45.88498287,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88986813 -45.88509226,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.89478887 -45.88442779,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89811074 -45.88424629,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.90293219 -45.8836944,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90362098 -45.8874036,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90705336 -45.88840606,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90594775 -45.88423937,,-67.90591516 -45.88446218,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90970498 -45.88326091,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91930941 -45.88137118,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.92260289 -45.87981886,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2303,S1033</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 944,S56,Linea 940,S78,Linea 932,S645,Linea 931,S2111,Linea 930,S2110,Linea 736,S2167,Linea 1617,S2168,Linea 584,S849,Linea 582,S938,Linea 581,S2443,Linea 578,S2132,Linea 579,S949,Linea 591,S2129,Linea 592,S2259,Linea 594,S17,Linea 735,S295,Linea 734,S3,Linea 613,Q16,Linea 1626,S2240,Linea 471,S2,Linea 1886,S13,Linea 1887,S2523,Linea 517,Q17,Linea 516,S2236,Linea 511,S509,Linea 512,S427,Linea 506,S420,Linea 505,S418,Linea 485,S2303;S2303,Linea 485,S418,Linea 505,S420,Linea 506,S427,Linea 512,S509,Linea 511,S2236,Linea 516,Q17,Linea 517,S2523,Linea 1888,S2606,Linea 526,S2614,Linea 451,S2122,Linea 439,S2635,Linea 420,S2040,Linea 418,S2007,Linea 378,S1028,Linea 416,S1036,Linea 376,S1033;S1033,Linea 376,S1036,Linea 416,S1028,Linea 379,S544,Linea 380,S1037,Linea 381,S2300,Linea 412,S2151,Linea 531,S773,Linea 546,S437,Linea 549,S529,Linea 551,S525,Linea 552,S2273,Linea 566,S522,Linea 567,S882,Linea 568,S2255,Linea 1421,S354,Linea 1365,S2009,Linea 1363,S2006,Linea 1361,S353,Linea 1836,S997,Linea 854,S2504,Linea 853,S2716,Linea 849,S2056,Linea 850,S2407,Linea 773,S338,Linea 764,S395,Linea 763,S2468,Linea 760,S402,Linea 759,S2417,Linea 768,S172,Linea 1211,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92260289 -45.87981886,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.91930941 -45.88137118,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91747464 -45.88372353,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91541483 -45.88231338,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.90970498 -45.88326091,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90591516 -45.88446218,,-67.90594775 -45.88423937,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90705336 -45.88840606,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90362098 -45.8874036,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90293219 -45.8836944,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.89811074 -45.88424629,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89478887 -45.88442779,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.88986813 -45.88509226,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88725199 -45.88498287,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88477851 -45.88530377,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88934482 -45.88367092,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.87931365 -45.88515467,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87597578 -45.88674947,,-67.87630061 -45.88642699,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.8758872 -45.88413516,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.87263059 -45.88283868,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.86703039 -45.88312685,-67.8726017 -45.880389,-67.8697157 -45.8828462,-67.8706813 -45.8831001,-67.8686643 -45.8830254,-67.8724445 -45.87988188,-67.8772688 -45.8789101,-67.8749835 -45.8790146,-67.87362100000001 -45.8797765,-67.87684672 -45.87887091,-67.8785026 -45.8788802,-67.8798115 -45.8793806,-67.87875862 -45.87975391,-67.8797901 -45.8776627,-67.8792536 -45.87817810000001,-67.8798115 -45.8793806,-67.87897854 -45.87766371,-67.8836739 -45.8759821,-67.8838027 -45.8758402,-67.883234 -45.875631,-67.8816783 -45.8762734,-67.8803587 -45.8772818,-67.88220216 -45.87628794,-67.8856909 -45.8773042,-67.88382410000001 -45.8758999,-67.8835773 -45.8759821,-67.88515558 -45.87764642,-67.8866458 -45.877476,-67.8866458 -45.8780437,-67.8858411 -45.8780212,-67.8857124 -45.8785142,-67.88533919 -45.87880887;-67.88533919 -45.87880887,-67.8866458 -45.877476,-67.8866458 -45.8780437,-67.8858411 -45.8780212,-67.8857124 -45.8785142,-67.88515558 -45.87764642,-67.8856909 -45.8773042,-67.88382410000001 -45.8758999,-67.8835773 -45.8759821,-67.88220216 -45.87628794,-67.8836739 -45.8759821,-67.8838027 -45.8758402,-67.883234 -45.875631,-67.8816783 -45.8762734,-67.8803587 -45.8772818,-67.87897854 -45.87766371,-67.8797901 -45.8776627,-67.8792536 -45.87817810000001,-67.8798115 -45.8793806,-67.87875862 -45.87975391,-67.8785026 -45.8788802,-67.8798115 -45.8793806,-67.87684672 -45.87887091,-67.8772688 -45.8789101,-67.8749835 -45.8790146,-67.87362100000001 -45.8797765,-67.8724445 -45.87988188,-67.8726017 -45.880389,-67.8697157 -45.8828462,-67.8706813 -45.8831001,-67.8686643 -45.8830254,-67.86703039 -45.88312685,-67.8685462 -45.8831151,-67.8700483 -45.8829059,-67.8648233 -45.8818603,-67.8628063 -45.8810537,-67.8621304 -45.8814645,-67.86071597 -45.88116865,-67.8614116 -45.8855274,-67.862978 -45.884788,-67.8635466 -45.8831599,-67.8632355 -45.8817483,-67.86391140000002 -45.8815093,-67.8628063 -45.8810537,-67.8623772 -45.8814346,-67.85908094 -45.88593849,-67.85825730000002 -45.8853855,-67.85964130000002 -45.8854228,-67.85655105 -45.88556448,-67.8571093 -45.8855572,-67.8559184 -45.8854378,-67.8555107 -45.884698400000005,-67.85493998 -45.88481908,-67.8556287 -45.8843698,-67.853719 -45.8831001,-67.8518629 -45.8825923,-67.8500605 -45.8812329,-67.8485758 -45.88086765,-67.8494382 -45.880628,-67.84873010000001 -45.8802396,-67.8461766 -45.8806653,-67.8457046 -45.880515900000006,-67.84518194 -45.88032275,-67.8455973 -45.8806504,-67.8449214 -45.8812852,-67.8420246 -45.8795972,-67.8425181 -45.87953,-67.84221298 -45.87973382,-67.842443 -45.8796122,-67.8389347 -45.8810612,-67.8383017 -45.8819499,-67.8395998 -45.8826445,-67.8392565 -45.8820246,-67.8403294 -45.8816064,-67.83977572 -45.88161766,-67.8418744 -45.8837275,-67.8411126 -45.8830703,-67.839793 -45.8826221,-67.8392565 -45.8819126,-67.8402436 -45.8815616,-67.8408227 -45.88408969;-67.8408227 -45.88408969,-67.8418744 -45.8837275,-67.8411126 -45.8830703,-67.839793 -45.8826221,-67.8392565 -45.8819126,-67.8402436 -45.8815616,-67.83977572 -45.88161766,-67.842443 -45.8796122,-67.8389347 -45.8810612,-67.8383017 -45.8819499,-67.8395998 -45.8826445,-67.8392565 -45.8820246,-67.8403294 -45.8816064,-67.84221298 -45.87973382,-67.842561 -45.8794628,-67.8420246 -45.8792462,-67.8431511 -45.8775283,-67.8462946 -45.877095,-67.8445137 -45.8768261,-67.84286672 -45.87711998,-67.8467989 -45.878081,-67.8463697 -45.8770502,-67.8443956 -45.8768859,-67.84627973 -45.87829114,-67.8467667 -45.8780212,-67.846477 -45.87698300000001,-67.8477967 -45.8764751,-67.84644226 -45.87649326,-67.847904 -45.8759074,-67.8490949 -45.8742491,-67.8510368 -45.8734349,-67.8488266 -45.8731585,-67.84711722 -45.87310355,-67.84873010000001 -45.87312860000001,-67.8543305 -45.8741595,-67.857635 -45.8744807,-67.857019 -45.87438052,-67.857635 -45.8744807,-67.8541696 -45.874152,-67.8588581 -45.8727103,-67.8593409 -45.8716048,-67.85882935 -45.87179542,-67.8593409 -45.8716048,-67.85971640000001 -45.8705365,-67.8614008 -45.870529,-67.861948 -45.8698268,-67.8630531 -45.8694832,-67.86235431 -45.86962035,-67.8639972 -45.8691171,-67.8657031 -45.8680713,-67.86498939 -45.86808329,-67.8668189 -45.8667639,-67.8664005 -45.866988,-67.8663254 -45.8676305,-67.86635342 -45.86702056,-67.8682029 -45.8666817,-67.8692436 -45.8661961,-67.8702307 -45.8647318,-67.8701663 -45.8642088,-67.86895092 -45.86422008,-67.8701234 -45.8635663,-67.8698123 -45.86132490000001,-67.8679776 -45.8603237,-67.8670549 -45.8588966,-67.8654027 -45.859457,-67.8654563 -45.8601518,-67.8656709 -45.8602639,-67.86513556 -45.86046435,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.98715669 -45.86146692,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98206338 -45.86352335,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98026531 -45.86300386,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.97692655 -45.86298292,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97781889 -45.86412305,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97170451 -45.86764851,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.96898996 -45.86789944,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.9688479 -45.86924263,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.96992116 -45.87035971,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.9672039 -45.87497495,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.96572509 -45.87368099,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96214261 -45.87344787,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.95720623 -45.87256309,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95650202 -45.87386891,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95610675 -45.87170205,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95709848 -45.86769228,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2021,S2668,S2669,S2500,S2289,S2407</t>
   </si>
   <si>
     <t>Base,Linea 976,S2230,Linea 977,S360,Linea 983,S2232,Linea 1021,S2021;S2021,Linea 1021,S2232,Linea 983,S360,Linea 977,S2230,Linea 976,Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 944,S56,Linea 940,S78,Linea 932,S645,Linea 931,S2111,Linea 930,S2110,Linea 736,S2167,Linea 1617,S2168,Linea 584,S849,Linea 582,S938,Linea 581,S2443,Linea 578,S2132,Linea 579,S949,Linea 591,S2129,Linea 592,S2259,Linea 594,S17,Linea 735,S295,Linea 734,S3,Linea 613,Q16,Linea 1626,S2240,Linea 471,S2,Linea 1886,S13,Linea 1887,S2523,Linea 1888,S2606,Linea 526,S2614,Linea 525,S2461,Linea 454,S2594,Linea 438,S2120,Linea 434,S2668;S2668,Linea 435,S2105,Linea 436,S2617,Linea 440,S2620,Linea 446,S2638,Linea 447,S2652,Linea 448,S2645,Linea 449,S2660,Linea 1863,S2669;S2669,Linea 1863,S2660,Linea 449,S2645,Linea 448,S2652,Linea 447,S2638,Linea 446,S2620,Linea 440,S2617,Linea 436,S2105,Linea 432,S2632,Linea 431,S2121,Linea 424,S2576,Linea 429,S2641,Linea 428,S2500;S2500,Linea 428,S2641,Linea 429,S2576,Linea 424,S2121,Linea 431,S2632,Linea 433,S2040,Linea 418,S2007,Linea 378,S1028,Linea 379,S544,Linea 380,S1037,Linea 381,S2300,Linea 412,S2151,Linea 531,S773,Linea 546,S437,Linea 549,S529,Linea 551,S525,Linea 552,S2273,Linea 566,S522,Linea 567,S882,Linea 568,S2255,Linea 1421,S354,Linea 1365,S2009,Linea 1688,S2289;S2289,Linea 1688,S2009,Linea 1363,S2006,Linea 1361,S353,Linea 1836,S997,Linea 854,S2504,Linea 853,S2716,Linea 849,S2056,Linea 850,S2407;S2407,Linea 773,S338,Linea 764,S395,Linea 763,S2468,Linea 760,S402,Linea 759,S2417,Linea 768,S172,Linea 1211,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9388952 -45.8675782,-67.941159 -45.8692068,-67.9419637 -45.8693413,-67.9421461 -45.8692815,-67.94121642 -45.86914222,-67.9421461 -45.8691918,-67.9418027 -45.8693487,-67.941159 -45.8692068,-67.9424894 -45.8699912,-67.9436159 -45.8698567,-67.94277872 -45.87009226,-67.9438949 -45.8700584,-67.9443777 -45.8707457,-67.9432297 -45.8702825,-67.9431975 -45.8705739,-67.9433692 -45.8709175,-67.94248451 -45.87146009,-67.9433692 -45.8709175,-67.9431653 -45.8707233,-67.9422212 -45.8717691,-67.9418242 -45.8716795,-67.94042654 -45.87182779;-67.94042654 -45.87182779,-67.9433692 -45.8709175,-67.9431653 -45.8707233,-67.9422212 -45.8717691,-67.9418242 -45.8716795,-67.94248451 -45.87146009,-67.9438949 -45.8700584,-67.9443777 -45.8707457,-67.9432297 -45.8702825,-67.9431975 -45.8705739,-67.9433692 -45.8709175,-67.94277872 -45.87009226,-67.9421461 -45.8691918,-67.9418027 -45.8693487,-67.941159 -45.8692068,-67.9424894 -45.8699912,-67.9436159 -45.8698567,-67.94121642 -45.86914222,-67.9388952 -45.8675782,-67.941159 -45.8692068,-67.9419637 -45.8693413,-67.9421461 -45.8692815,-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92260289 -45.87981886,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.91930941 -45.88137118,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91747464 -45.88372353,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91541483 -45.88231338,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.90970498 -45.88326091,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90591516 -45.88446218,,-67.90594775 -45.88423937,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90705336 -45.88840606,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90362098 -45.8874036,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90293219 -45.8836944,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.89811074 -45.88424629,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89478887 -45.88442779,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.88986813 -45.88509226,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88725199 -45.88498287,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88477851 -45.88530377,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88934482 -45.88367092,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.87931365 -45.88515467,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87597578 -45.88674947,,-67.87630061 -45.88642699,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.8758872 -45.88413516,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.87263059 -45.88283868,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.86703039 -45.88312685,-67.8685462 -45.8831151,-67.8700483 -45.8829059,-67.8648233 -45.8818603,-67.8628063 -45.8810537,-67.8621304 -45.8814645,-67.86071597 -45.88116865,-67.8614116 -45.8855274,-67.862978 -45.884788,-67.8635466 -45.8831599,-67.8632355 -45.8817483,-67.86391140000002 -45.8815093,-67.8628063 -45.8810537,-67.8623772 -45.8814346,-67.85908094 -45.88593849,-67.8609717 -45.8856767,-67.862817 -45.8848403,-67.8617656 -45.8854826,-67.8616369 -45.886192,-67.8618944 -45.8867671,-67.86045923 -45.88724171,-67.8618944 -45.8867671,-67.8616261 -45.8862443,-67.8603601 -45.88681940000001,-67.8594589 -45.8868119,-67.8584075 -45.8873347,-67.856369 -45.8871629,-67.8557789 -45.8865655,-67.85399644 -45.88640005,-67.8548133 -45.885968,-67.8544056 -45.8857215,-67.8542554 -45.8852884,-67.85284989 -45.88522411,-67.8535903 -45.8848851,-67.8530109 -45.8845938,-67.8524315 -45.8844893,-67.85093028 -45.88433862;-67.85093028 -45.88433862,-67.8516591 -45.8844445,-67.8505969 -45.8845789,-67.84921346 -45.88477072,-67.8525496 -45.8855871,-67.8516698 -45.8851988,-67.8510153 -45.885027,-67.84983520000002 -45.8848851,-67.85159293 -45.88612644,-67.8530109 -45.886319,-67.8539872 -45.8868567,-67.8555858 -45.8874168,-67.8559721 -45.8882756,-67.85537987 -45.88855243,-67.8569698 -45.8905682,-67.8562617 -45.8905682,-67.8551674 -45.8886042,-67.8555107 -45.8875214,-67.8557789 -45.88838020000001,-67.85652652 -45.89043864,-67.8583002 -45.8906802,-67.8604245 -45.8905832,-67.85994544 -45.89074459,-67.86183 -45.8907101,-67.8635895 -45.8906578,-67.86328043 -45.89089136,-67.8640401 -45.8909939,-67.8672266 -45.8915539,-67.86687975 -45.89168688,-67.8672266 -45.8915539,-67.8653598 -45.8912776,-67.8647375 -45.8920692,-67.8620982 -45.8918004,-67.8619695 -45.8921737,-67.86151916 -45.89254163;-67.86151916 -45.89254163,-67.8672266 -45.8915539,-67.8653598 -45.8912776,-67.8647375 -45.8920692,-67.8620982 -45.8918004,-67.8619695 -45.8921737,-67.86687975 -45.89168688,-67.8640401 -45.8909939,-67.8672266 -45.8915539,-67.86328043 -45.89089136,-67.86183 -45.8907101,-67.8635895 -45.8906578,-67.85994544 -45.89074459,-67.8583002 -45.8906802,-67.8604245 -45.8905832,-67.85652652 -45.89043864,-67.8569698 -45.8905682,-67.8562617 -45.8905682,-67.8551674 -45.8886042,-67.8555107 -45.8875214,-67.8557789 -45.88838020000001,-67.85537987 -45.88855243,-67.8530109 -45.886319,-67.8539872 -45.8868567,-67.8555858 -45.8874168,-67.8559721 -45.8882756,-67.85159293 -45.88612644,-67.8525496 -45.8855871,-67.8516698 -45.8851988,-67.8510153 -45.885027,-67.84983520000002 -45.8848851,-67.84921346 -45.88477072,-67.84983520000002 -45.8848851,-67.8485048 -45.8854826,-67.849406 -45.8856842,-67.84894709 -45.88576073,-67.848537 -45.8862742,-67.8485477 -45.8854079,-67.8494489 -45.8856319,-67.84708796 -45.88650563,-67.8469384 -45.8864833,-67.8456509 -45.8865206,-67.8438485 -45.8877379,-67.8427005 -45.8909267,-67.84140349 -45.89173196,-67.8426254 -45.8909864,-67.8430116 -45.88967960000001,-67.8451467 -45.8898812,-67.84470942 -45.89025472,-67.8454471 -45.8916361,-67.8446209 -45.8900978,-67.8430331 -45.889814,-67.845093 -45.8899484,-67.84371933 -45.8921183;-67.84371933 -45.8921183,-67.8454471 -45.8916361,-67.8446209 -45.8900978,-67.8430331 -45.889814,-67.845093 -45.8899484,-67.84470942 -45.89025472,-67.8426254 -45.8909864,-67.8430116 -45.88967960000001,-67.8451467 -45.8898812,-67.84140349 -45.89173196,-67.8469384 -45.8864833,-67.8456509 -45.8865206,-67.8438485 -45.8877379,-67.8427005 -45.8909267,-67.84708796 -45.88650563,-67.848537 -45.8862742,-67.8485477 -45.8854079,-67.8494489 -45.8856319,-67.84894709 -45.88576073,-67.8493631 -45.8856319,-67.8480864 -45.8853183,-67.8494918 -45.8833541,-67.849642 -45.8827043,-67.8493738 -45.8815317,-67.8484726 -45.8806578,-67.8487837 -45.8803516,-67.8495455 -45.8807549,-67.8485758 -45.88086765,-67.8494382 -45.880628,-67.84873010000001 -45.8802396,-67.8461766 -45.8806653,-67.8457046 -45.880515900000006,-67.84518194 -45.88032275,-67.8455973 -45.8806504,-67.8449214 -45.8812852,-67.8420246 -45.8795972,-67.8425181 -45.87953,-67.84221298 -45.87973382,-67.842561 -45.8794628,-67.8420246 -45.8792462,-67.8431511 -45.8775283,-67.8462946 -45.877095,-67.8445137 -45.8768261,-67.84286672 -45.87711998,-67.8467989 -45.878081,-67.8463697 -45.8770502,-67.8443956 -45.8768859,-67.84627973 -45.87829114,-67.8467667 -45.8780212,-67.846477 -45.87698300000001,-67.8477967 -45.8764751,-67.84644226 -45.87649326,-67.847904 -45.8759074,-67.8490949 -45.8742491,-67.8510368 -45.8734349,-67.8488266 -45.8731585,-67.84711722 -45.87310355,-67.84873010000001 -45.87312860000001,-67.8543305 -45.8741595,-67.857635 -45.8744807,-67.857019 -45.87438052,-67.857635 -45.8744807,-67.8541696 -45.874152,-67.8588581 -45.8727103,-67.8593409 -45.8716048,-67.85882935 -45.87179542,-67.8593409 -45.8716048,-67.85971640000001 -45.8705365,-67.8614008 -45.870529,-67.861948 -45.8698268,-67.8630531 -45.8694832,-67.86235431 -45.86962035,-67.8639972 -45.8691171,-67.8657031 -45.8680713,-67.86498939 -45.86808329,-67.8668189 -45.8667639,-67.8664005 -45.866988,-67.8663254 -45.8676305,-67.86635342 -45.86702056,-67.8682029 -45.8666817,-67.8692436 -45.8661961,-67.8702307 -45.8647318,-67.8701663 -45.8642088,-67.86895092 -45.86422008,-67.8701234 -45.8635663,-67.8698123 -45.86132490000001,-67.8679776 -45.8603237,-67.8670549 -45.8588966,-67.8654027 -45.859457,-67.8654563 -45.8601518,-67.8656709 -45.8602639,-67.86513556 -45.86046435,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.98715669 -45.86146692,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98206338 -45.86352335,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98026531 -45.86300386,,-67.96977407 -45.85827673;-67.96977407 -45.85827673,,-67.98026531 -45.86300386,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.97692655 -45.86298292,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97781889 -45.86412305,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97170451 -45.86764851,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.96898996 -45.86789944,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.9688479 -45.86924263,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.96992116 -45.87035971,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.9672039 -45.87497495;-67.9672039 -45.87497495,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.96572509 -45.87368099,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96214261 -45.87344787,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.95720623 -45.87256309,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95650202 -45.87386891,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95610675 -45.87170205,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95709848 -45.86769228,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S900,S2156,S2476,S2441</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 1211,S172,Linea 768,S2417,Linea 759,S402,Linea 760,S2468,Linea 763,S395,Linea 764,S338,Linea 773,S2407,Linea 850,S2056,Linea 849,S2716,Linea 853,S2504,Linea 854,S997,Linea 1836,S353,Linea 1361,S2006,Linea 1363,S2009,Linea 1365,S354,Linea 1421,S2255,Linea 568,S882,Linea 622,S523,Linea 215,S788,Linea 216,S2676,Linea 217,S2396,Linea 240,S2395,Linea 243,S1005,Linea 397,S543,Linea 399,S2288,Linea 247,S2418,Linea 249,S611,Linea 250,E291,Linea 252,S853,Linea 254,S851,Linea 257,S591,Linea 258,S876,Linea 263,S886,Linea 264,S868,Linea 270,S869,Linea 278,S864,Linea 277,S2582,Linea 275,S2279,Linea 1571,S879,Linea 332,S1001,Linea 1881,S900;S900,Linea 1881,S1001,Linea 332,S879,Linea 1578,S2279,Linea 275,S2582,Linea 277,S864,Linea 278,S869,Linea 270,S868,Linea 264,S886,Linea 263,S876,Linea 258,S591,Linea 257,S851,Linea 254,S853,Linea 252,E291,Linea 250,S611,Linea 249,S2418,Linea 247,S2288,Linea 399,S543,Linea 397,S1005,Linea 243,S2395,Linea 240,S2396,Linea 217,S2676,Linea 216,S788,Linea 215,S523,Linea 622,S882,Linea 567,S522,Linea 566,S2273,Linea 615,S2634,Linea 614,S469,Linea 545,S439,Linea 538,S531,Linea 540,S533,Linea 536,S506,Linea 534,S470,Linea 645,S426,Linea 649,S2307,Linea 507,S427,Linea 506,S420,Linea 505,S418,Linea 485,S2303,Linea 481,S2156;S2156,Linea 481,S2303,Linea 485,S418,Linea 505,S420,Linea 506,S427,Linea 507,S2307,Linea 649,S426,Linea 645,S470,Linea 534,S506,Linea 536,S533,Linea 540,S531,Linea 538,S439,Linea 545,S469,Linea 614,S2634,Linea 615,S2273,Linea 566,S522,Linea 567,S882,Linea 622,S523,Linea 215,S788,Linea 216,S2676,Linea 217,S2396,Linea 240,S2395,Linea 243,S1005,Linea 397,S543,Linea 399,S2288,Linea 247,S2418,Linea 249,S611,Linea 250,E291,Linea 252,S853,Linea 254,S851,Linea 257,S591,Linea 259,S2476;S2476,Linea 259,S591,Linea 257,S851,Linea 254,S853,Linea 252,E291,Linea 250,S611,Linea 249,S2418,Linea 247,S2288,Linea 399,S543,Linea 397,S1005,Linea 243,S2395,Linea 240,S2396,Linea 217,S2676,Linea 216,S788,Linea 215,S523,Linea 622,S882,Linea 568,S2255,Linea 1373,S323,Linea 1372,S325,Linea 1371,S2091,Linea 1370,S2081,Linea 1426,S2087,Linea 1427,S2406,Linea 823,S2441;S2441,Linea 823,S2406,Linea 1832,S285,Linea 830,S249,Linea 1678,S2548,Linea 1833,S339,Linea 1834,S312,Linea 839,S287,Linea 805,S198,Linea 1828,S2095,Linea 797,S2189,Linea 1292,S1,Linea 1293,S2116,Linea 1295,S59,Linea 1017,S315,Linea 746,S2572,Linea 747,S381,Linea 748,S377,Linea 740,S980,Linea 741,S2421,Linea 1842,S370,Linea 752,S2408,Linea 754,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.95709848 -45.86769228,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95610675 -45.87170205,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95650202 -45.87386891,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95720623 -45.87256309,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.96214261 -45.87344787,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96572509 -45.87368099,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.9672039 -45.87497495,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.96992116 -45.87035971,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.9688479 -45.86924263,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.96898996 -45.86789944,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.97170451 -45.86764851,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97781889 -45.86412305,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97692655 -45.86298292,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.98026531 -45.86300386,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98206338 -45.86352335,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86821501 -45.85959306,-67.8666258 -45.8579551,-67.8677523 -45.8588443,-67.8689218 -45.8588293,-67.8688896 -45.8591954,-67.86509618 -45.85797591,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86269634 -45.8576934,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86119926 -45.8582863,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.85800456 -45.85865306,-67.8585362 -45.8586425,-67.8567231 -45.8591431,-67.8550386 -45.8605852,-67.85325633 -45.86047853,-67.8547168 -45.8600622,-67.8545237 -45.8589862,-67.8537083 -45.858508,-67.852335 -45.8585529,-67.85051371 -45.8587379,-67.8511226 -45.8587172,-67.8489661 -45.8581942,-67.8504252 -45.8565952,-67.84992667 -45.85649082,-67.851541 -45.8561394,-67.8511119 -45.8555416,-67.8497386 -45.8553249,-67.8490841 -45.8555341,-67.84737753 -45.85568862,-67.8480864 -45.8556163,-67.846477 -45.8561992,-67.8452325 -45.8556537,-67.84359994 -45.85582912,-67.8438914 -45.8557508,-67.8414237 -45.8563262,-67.8377545 -45.8563187,-67.83653581 -45.85644197,-67.8371108 -45.8561767,-67.8326368 -45.8556313,-67.83154193 -45.85548135,-67.8319716 -45.855437,-67.8292787 -45.855108200000004,-67.82760578 -45.8552439,-67.8277767 -45.8550036,-67.8251696 -45.8547271,-67.824676 -45.8544207,-67.82322995 -45.85451391,-67.8244078 -45.8540994,-67.8225088 -45.8518801,-67.82163737 -45.8516816,-67.8223801 -45.8515886,-67.8209639 -45.8504751,-67.8196657 -45.8504079,-67.81800483 -45.85079524,-67.8185713 -45.8505798,-67.816962 -45.851073,-67.8161895 -45.8523658,-67.81497943 -45.85259887,-67.816329 -45.8519921,-67.8167796 -45.8511701,-67.8158462 -45.8513121,-67.8150415 -45.8533148,-67.8138399 -45.8541293,-67.81217316 -45.85421245,-67.809999 -45.85395,-67.81053540000002 -45.8542265,-67.8125417 -45.8543386,-67.80813131 -45.85419968,-67.8093982 -45.8548467,-67.8103423 -45.8545851,-67.808851 -45.8544506,-67.8103101 -45.854219,-67.8097093 -45.8539126,-67.8072436 -45.85498762,-67.8098595 -45.8560647,-67.809999 -45.8550036,-67.8090441 -45.8548691,-67.80907829 -45.8565264,,-67.80847992 -45.85663136,-67.8079927 -45.8589788,-67.8088081 -45.8589563,-67.8109431 -45.8570659,-67.8101277 -45.85677450000001,-67.80665538 -45.85865673,-67.8114688 -45.8591357,-67.8116298 -45.8604955,-67.8098059 -45.8582465,-67.8087223 -45.8590049,-67.807923 -45.8590273,-67.81049477 -45.85888588;-67.81049477 -45.85888588,-67.8114688 -45.8591357,-67.8116298 -45.8604955,-67.8098059 -45.8582465,-67.8087223 -45.8590049,-67.807923 -45.8590273,-67.80665538 -45.85865673,-67.8079927 -45.8589788,-67.8088081 -45.8589563,-67.8109431 -45.8570659,-67.8101277 -45.85677450000001,-67.80847992 -45.85663136,,-67.80907829 -45.8565264,-67.8098595 -45.8560647,-67.809999 -45.8550036,-67.8090441 -45.8548691,-67.8072436 -45.85498762,-67.8093982 -45.8548467,-67.8103423 -45.8545851,-67.808851 -45.8544506,-67.8103101 -45.854219,-67.8097093 -45.8539126,-67.80813131 -45.85419968,-67.809999 -45.85395,-67.81053540000002 -45.8542265,-67.8125417 -45.8543386,-67.81217316 -45.85421245,-67.816329 -45.8519921,-67.8167796 -45.8511701,-67.8158462 -45.8513121,-67.8150415 -45.8533148,-67.8138399 -45.8541293,-67.81497943 -45.85259887,-67.8185713 -45.8505798,-67.816962 -45.851073,-67.8161895 -45.8523658,-67.81800483 -45.85079524,-67.8223801 -45.8515886,-67.8209639 -45.8504751,-67.8196657 -45.8504079,-67.82163737 -45.8516816,-67.8244078 -45.8540994,-67.8225088 -45.8518801,-67.82322995 -45.85451391,-67.8277767 -45.8550036,-67.8251696 -45.8547271,-67.824676 -45.8544207,-67.82760578 -45.8552439,-67.8319716 -45.855437,-67.8292787 -45.855108200000004,-67.83154193 -45.85548135,-67.8371108 -45.8561767,-67.8326368 -45.8556313,-67.83653581 -45.85644197,-67.8438914 -45.8557508,-67.8414237 -45.8563262,-67.8377545 -45.8563187,-67.84359994 -45.85582912,-67.8480864 -45.8556163,-67.846477 -45.8561992,-67.8452325 -45.8556537,-67.84737753 -45.85568862,-67.851541 -45.8561394,-67.8511119 -45.8555416,-67.8497386 -45.8553249,-67.8490841 -45.8555341,-67.84992667 -45.85649082,-67.8511226 -45.8587172,-67.8489661 -45.8581942,-67.8504252 -45.8565952,-67.85051371 -45.8587379,-67.8547168 -45.8600622,-67.8545237 -45.8589862,-67.8537083 -45.858508,-67.852335 -45.8585529,-67.85325633 -45.86047853,-67.8585362 -45.8586425,-67.8567231 -45.8591431,-67.8550386 -45.8605852,-67.85800456 -45.85865306,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.86119926 -45.8582863,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86269634 -45.8576934,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86509618 -45.85797591,-67.8666258 -45.8579551,-67.8677523 -45.8588443,-67.8689218 -45.8588293,-67.8688896 -45.8591954,-67.86821501 -45.85959306,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86513556 -45.86046435,-67.8701234 -45.8635663,-67.8698123 -45.86132490000001,-67.8679776 -45.8603237,-67.8670549 -45.8588966,-67.8654027 -45.859457,-67.8654563 -45.8601518,-67.8656709 -45.8602639,-67.86895092 -45.86422008,-67.8682029 -45.8666817,-67.8692436 -45.8661961,-67.8702307 -45.8647318,-67.8701663 -45.8642088,-67.86635342 -45.86702056,-67.8668725 -45.8688706,-67.8667974 -45.868646500000004,-67.8676665 -45.8677127,-67.867012 -45.86727940000001,-67.86653014 -45.86909111,-67.8665292 -45.8705589,-67.866143 -45.8710594,-67.8657889 -45.8704767,-67.8668725 -45.8688706,-67.86552841 -45.87071955,-67.8687286 -45.87223970000001,-67.8671408 -45.8717542,-67.8661752 -45.8712611,-67.8662395 -45.8705888,-67.86803091 -45.87230485,-67.8686213 -45.87223970000001,-67.8679776 -45.8725012,-67.867173 -45.87342,-67.86601994 -45.87390747,-67.8666043 -45.8740773,-67.8655958 -45.8758999,-67.8658319 -45.8761464,-67.86520975 -45.8764158,-67.8690398 -45.8759074,-67.8681815 -45.8748691,-67.8664434 -45.8762585,-67.86877282 -45.87598303,-67.8721726 -45.8748019,-67.868793 -45.8753024,-67.8683639 -45.8750633,-67.8691471 -45.8759522,-67.87226293 -45.87472228,-67.8772473 -45.875646,-67.87714 -45.874899,-67.8760457 -45.8739578,-67.8750265 -45.8733005,-67.8741574 -45.8732108,-67.8737283 -45.8741819,-67.87580898 -45.87623664,-67.8836632 -45.8741296,-67.884264 -45.8734723,-67.8839421 -45.8733229,-67.8833306 -45.8736515,-67.8822899 -45.87404,-67.8816032 -45.8749737,-67.8808522 -45.875153,-67.8791678 -45.8762809,-67.8782129 -45.8766021,-67.8774083 -45.8765572,-67.88196942 -45.87464989,-67.8803158 -45.8771847,-67.8813779 -45.8760792,-67.8823113 -45.875519,-67.8828478 -45.87486160000001,-67.87897854 -45.87766371,-67.8836739 -45.8759821,-67.8838027 -45.8758402,-67.883234 -45.875631,-67.8816783 -45.8762734,-67.8803587 -45.8772818,-67.88220216 -45.87628794,-67.8856909 -45.8773042,-67.88382410000001 -45.8758999,-67.8835773 -45.8759821,-67.88515558 -45.87764642,-67.8866458 -45.877476,-67.8866458 -45.8780437,-67.8858411 -45.8780212,-67.8857124 -45.8785142,-67.88533919 -45.87880887,-67.8864312 -45.8790146,-67.8847039 -45.8811657,-67.8828692 -45.8823084,-67.8824294 -45.8835632,-67.881732 -45.8839964,-67.87992186 -45.88445386;-67.87992186 -45.88445386,-67.8864312 -45.8790146,-67.8847039 -45.8811657,-67.8828692 -45.8823084,-67.8824294 -45.8835632,-67.881732 -45.8839964,-67.88533919 -45.87880887,-67.8866458 -45.877476,-67.8866458 -45.8780437,-67.8858411 -45.8780212,-67.8857124 -45.8785142,-67.88515558 -45.87764642,-67.8856909 -45.8773042,-67.88382410000001 -45.8758999,-67.8835773 -45.8759821,-67.88220216 -45.87628794,-67.8836739 -45.8759821,-67.8838027 -45.8758402,-67.883234 -45.875631,-67.8816783 -45.8762734,-67.8803587 -45.8772818,-67.87897854 -45.87766371,-67.8803158 -45.8771847,-67.8813779 -45.8760792,-67.8823113 -45.875519,-67.8828478 -45.87486160000001,-67.88196942 -45.87464989,-67.8836632 -45.8741296,-67.884264 -45.8734723,-67.8839421 -45.8733229,-67.8833306 -45.8736515,-67.8822899 -45.87404,-67.8816032 -45.8749737,-67.8808522 -45.875153,-67.8791678 -45.8762809,-67.8782129 -45.8766021,-67.8774083 -45.8765572,-67.87580898 -45.87623664,-67.8772473 -45.875646,-67.87714 -45.874899,-67.8760457 -45.8739578,-67.8750265 -45.8733005,-67.8741574 -45.8732108,-67.8737283 -45.8741819,-67.87226293 -45.87472228,-67.8721726 -45.8748019,-67.868793 -45.8753024,-67.8683639 -45.8750633,-67.8691471 -45.8759522,-67.86877282 -45.87598303,-67.8690398 -45.8759074,-67.8681815 -45.8748691,-67.8664434 -45.8762585,-67.86520975 -45.8764158,-67.8666043 -45.8740773,-67.8655958 -45.8758999,-67.8658319 -45.8761464,-67.86601994 -45.87390747,-67.8686213 -45.87223970000001,-67.8679776 -45.8725012,-67.867173 -45.87342,-67.86803091 -45.87230485,-67.8687286 -45.87223970000001,-67.8671408 -45.8717542,-67.8661752 -45.8712611,-67.8662395 -45.8705888,-67.86552841 -45.87071955,-67.8665292 -45.8705589,-67.866143 -45.8710594,-67.8657889 -45.8704767,-67.8668725 -45.8688706,-67.86653014 -45.86909111,-67.8668725 -45.8688706,-67.8667974 -45.868646500000004,-67.8676665 -45.8677127,-67.867012 -45.86727940000001,-67.86635342 -45.86702056,-67.8682029 -45.8666817,-67.8692436 -45.8661961,-67.8702307 -45.8647318,-67.8701663 -45.8642088,-67.86895092 -45.86422008,-67.8701234 -45.8635663,-67.8698123 -45.86132490000001,-67.8679776 -45.8603237,-67.8670549 -45.8588966,-67.8654027 -45.859457,-67.8654563 -45.8601518,-67.8656709 -45.8602639,-67.86513556 -45.86046435,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86821501 -45.85959306,-67.8666258 -45.8579551,-67.8677523 -45.8588443,-67.8689218 -45.8588293,-67.8688896 -45.8591954,-67.86509618 -45.85797591,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86269634 -45.8576934,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86119926 -45.8582863,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.85800456 -45.85865306,-67.8585362 -45.8586425,-67.8567231 -45.8591431,-67.8550386 -45.8605852,-67.85325633 -45.86047853,-67.8547168 -45.8600622,-67.8545237 -45.8589862,-67.8537083 -45.858508,-67.852335 -45.8585529,-67.85051371 -45.8587379,-67.8511226 -45.8587172,-67.8489661 -45.8581942,-67.8504252 -45.8565952,-67.84992667 -45.85649082,-67.851541 -45.8561394,-67.8511119 -45.8555416,-67.8497386 -45.8553249,-67.8490841 -45.8555341,-67.84737753 -45.85568862,-67.8480864 -45.8556163,-67.846477 -45.8561992,-67.8452325 -45.8556537,-67.84359994 -45.85582912,-67.8438914 -45.8557508,-67.8414237 -45.8563262,-67.8377545 -45.8563187,-67.83653581 -45.85644197,-67.8371108 -45.8561767,-67.8326368 -45.8556313,-67.83154193 -45.85548135,-67.8319716 -45.855437,-67.8292787 -45.855108200000004,-67.82760578 -45.8552439,-67.8277767 -45.8550036,-67.8251696 -45.8547271,-67.824676 -45.8544207,-67.82322995 -45.85451391,-67.824043 -45.8544731,-67.8235924 -45.8545553,-67.8224766 -45.8545702,-67.82073586 -45.8548351;-67.82073586 -45.8548351,-67.824043 -45.8544731,-67.8235924 -45.8545553,-67.8224766 -45.8545702,-67.82322995 -45.85451391,-67.8277767 -45.8550036,-67.8251696 -45.8547271,-67.824676 -45.8544207,-67.82760578 -45.8552439,-67.8319716 -45.855437,-67.8292787 -45.855108200000004,-67.83154193 -45.85548135,-67.8371108 -45.8561767,-67.8326368 -45.8556313,-67.83653581 -45.85644197,-67.8438914 -45.8557508,-67.8414237 -45.8563262,-67.8377545 -45.8563187,-67.84359994 -45.85582912,-67.8480864 -45.8556163,-67.846477 -45.8561992,-67.8452325 -45.8556537,-67.84737753 -45.85568862,-67.851541 -45.8561394,-67.8511119 -45.8555416,-67.8497386 -45.8553249,-67.8490841 -45.8555341,-67.84992667 -45.85649082,-67.8511226 -45.8587172,-67.8489661 -45.8581942,-67.8504252 -45.8565952,-67.85051371 -45.8587379,-67.8547168 -45.8600622,-67.8545237 -45.8589862,-67.8537083 -45.858508,-67.852335 -45.8585529,-67.85325633 -45.86047853,-67.8585362 -45.8586425,-67.8567231 -45.8591431,-67.8550386 -45.8605852,-67.85800456 -45.85865306,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.86119926 -45.8582863,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86269634 -45.8576934,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86509618 -45.85797591,-67.8666258 -45.8579551,-67.8677523 -45.8588443,-67.8689218 -45.8588293,-67.8688896 -45.8591954,-67.86821501 -45.85959306,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86513556 -45.86046435,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.98715669 -45.86146692,-67.9928935 -45.8605404,-67.9914236 -45.8609588,-67.98931 -45.8614369,-67.9889023 -45.8613323,-67.99220337 -45.86057361,-67.9911339 -45.8618479,-67.9904687 -45.8619002,-67.9910696 -45.8615117,-67.9918849 -45.861295,-67.9930007 -45.8606151,-67.99023202 -45.86204363,-67.9886341 -45.8629088,-67.9906297 -45.8618479,-67.9911232 -45.8617956,-67.98677491 -45.86342245,-67.9859948 -45.8647094,-67.9874003 -45.863783,-67.98422803 -45.86529103,-67.9920459 -45.8642163,-67.9910159 -45.864672,-67.9903078 -45.8650157,-67.9890847 -45.8656208,-67.9855978 -45.8654415,-67.9855227 -45.865322,-67.99158422 -45.86437969,-67.9929578 -45.8671225,-67.9928398 -45.8662783,-67.9924321 -45.8655835,-67.9919815 -45.8652548,-67.992121 -45.8648663,-67.9910159 -45.864672,-67.9918528 -45.8642238,-67.99174523 -45.8677107,-67.9914558 -45.8692516,-67.9914558 -45.8690499,-67.9925716 -45.8679293,-67.99024475 -45.86974641;-67.99024475 -45.86974641,-67.9914558 -45.8692516,-67.9914558 -45.8690499,-67.9925716 -45.8679293,-67.99174523 -45.8677107,-67.9929042 -45.8670777,-67.9928398 -45.8661064,-67.9924321 -45.8655835,-67.9918849 -45.8652398,-67.9909408 -45.867115,-67.9902434 -45.8675334,-67.98895281 -45.86742251,-67.9901361 -45.8674661,-67.9900289 -45.8678098,-67.9882801 -45.8686838,-67.9882801 -45.8691246,-67.9875398 -45.8692665,-67.98621539 -45.86906201,,-67.98595749 -45.86942688,-67.9875398 -45.8692665,-67.988205 -45.8691993,-67.9883659 -45.8686465,-67.9866493 -45.8686017,-67.9853296 -45.8685195,-67.9839349 -45.868766,-67.9830122 -45.8690947,-67.9832804 -45.8686614,-67.9841065 -45.8682057,-67.98364252 -45.86827111,-67.9807377 -45.8716645,-67.9809952 -45.8709175,-67.9819071 -45.8698567,-67.9830122 -45.8690947,-67.9832804 -45.8686614,-67.9840744 -45.8683402,-67.97987219 -45.87199291,-67.9799759 -45.8737337,-67.9795146 -45.8726879,-67.9809093 -45.8709474,-67.980845 -45.8716421,-67.97905112 -45.87422359,-67.9801047 -45.8737412,-67.9795146 -45.8726879,-67.9791605 -45.8735694,-67.9792249 -45.8748467,-67.9793966 -45.8748467,-67.9797721 -45.8758476,-67.9800725 -45.876012,-67.97932522 -45.87631183,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9756951 -45.8784321,-67.9790318 -45.877588,-67.9792678 -45.8765199,-67.9792786 -45.8747272,-67.9798257 -45.8760045,-67.9801154 -45.8760643,-67.9757414 -45.87911165,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9755771 -45.8785142,-67.9742253 -45.8787756,-67.974236 -45.878222900000004,-67.97210325 -45.8786421,-67.9739785 -45.8781632,-67.9745579 -45.8782677,-67.9740644 -45.8788802,-67.9710174 -45.8792537,-67.96993071 -45.87922522,-67.9708028 -45.8792686,-67.9686999 -45.8795524,-67.9682064 -45.8792238,-67.96661757 -45.87943084,-67.967391 -45.8796271,-67.9660606 -45.879657,-67.9619408 -45.879179,-67.959795 -45.8789997,-67.9602242 -45.8794852,-67.95937836 -45.87978501,-67.9538298 -45.8776104,-67.9575419 -45.8788205,-67.9596341 -45.8789624,-67.9602242 -45.8794852,-67.95259842 -45.87763583,-67.9521346 -45.8759746,-67.9517162 -45.8759074,-67.9513943 -45.8758999,-67.9525959 -45.87702780000001,-67.95337920000001 -45.8774162,-67.95155064 -45.87647635,-67.9521346 -45.8759746,-67.951448 -45.8759597,-67.9509008 -45.8738383,-67.94983615 -45.87396079,-67.9508579 -45.8736739,-67.9509115 -45.8721426,-67.94974928 -45.87213834,-67.9510081 -45.87218,-67.9515123 -45.8715599,-67.9518449 -45.870925,-67.95082673 -45.87123588,-67.9518449 -45.870925,-67.9516733 -45.8706037,-67.9509866 -45.870275,-67.95089010000001 -45.8697222,-67.9517484 -45.8700734,-67.9526281 -45.8699912,-67.95188123 -45.87007275,-67.9526013 -45.869965,-67.9517484 -45.8700734,-67.9508901 -45.8697222,-67.9511476 -45.8693039,-67.95011093 -45.86936834,-67.9511476 -45.8693039,-67.95089010000001 -45.8697222,-67.9506433 -45.8681011,-67.9512978 -45.867892,-67.95075242 -45.86791677,-67.9513514 -45.867951700000006,-67.9506004 -45.8681534,-67.9493558 -45.8665622,-67.9490876 -45.8664576,-67.9492164 -45.8668461,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2208,S2215,S2692</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 944,S56,Linea 940,S78,Linea 932,S645,Linea 931,S2111,Linea 933,S210,Linea 1707,S2435,Linea 1708,S2208;S2208,Linea 1708,S2435,Linea 1707,S210,Linea 933,S2111,Linea 931,S645,Linea 1046,S928,Linea 1048,S840,Linea 1220,S826,Linea 1060,S828,Linea 1061,S801,Linea 1054,S760,Linea 1073,S794,Linea 1297,S759,Linea 1306,S834,Linea 1307,S839,Linea 1300,TS1,Linea 1269,S842,Linea 1268,S912,Linea 1230,S2215;S2215,Linea 1230,S912,Linea 1850,S802,Linea 1266,S903,Linea 1301,S2379,Linea 1311,S744,Linea 1321,S747,Linea 1324,S752,Linea 1244,S753,Linea 1241,S2292,Linea 1242,S2692;S2692,Linea 1242,S2292,Linea 1241,S753,Linea 1244,S752,Linea 1324,S747,Linea 1321,S744,Linea 1310,S725,Linea 1313,S839,Linea 1307,S834,Linea 1306,S759,Linea 1297,S794,Linea 1073,S760,Linea 1221,S791,Linea 1076,S793,Linea 1078,S2667,Linea 1077,S944,Linea 1085,S115,Linea 1733,S927,Linea 1222,S33,Linea 1724,S2094,Linea 950,S31,Linea 949,S2146,Linea 964,S2147,Linea 946,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92260289 -45.87981886,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.91930941 -45.88137118,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91747464 -45.88372353,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91541483 -45.88231338,-67.9170835 -45.8822711,-67.9166543 -45.8815466,-67.916429 -45.8804562,-67.91569194 -45.88029914,,-67.91549706 -45.88009996,,-67.91527195 -45.88036892;-67.91527195 -45.88036892,,-67.91549706 -45.88009996,,-67.91569194 -45.88029914,-67.9170835 -45.8822711,-67.9166543 -45.8815466,-67.916429 -45.8804562,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183924 -45.8832943,-67.9178345 -45.8833989,-67.9181349 -45.883832,-67.9182851 -45.8847656,-67.9179955 -45.8868492,-67.9182959 -45.887021,-67.918725 -45.8867895,-67.9189289 -45.8859232,-67.91833856 -45.88592331,-67.9201949 -45.8901426,-67.920785 -45.8896646,-67.9178774 -45.8882906,-67.9180706 -45.8870061,-67.9186499 -45.8868642,-67.918961 -45.8857962,-67.91840225 -45.89042054,-67.9177594 -45.8928831,-67.9196584 -45.8908744,-67.9194117 -45.8909267,-67.9188323 -45.8915241,-67.9170513 -45.8923754,-67.9181993 -45.8910014,-67.918961 -45.8905234,-67.91657701 -45.89351753,-67.9165363 -45.8956086,-67.9175019 -45.8947275,-67.9165041 -45.893712,-67.9164827 -45.892689,-67.9183388 -45.8916958,-67.9195189 -45.8908296,-67.9196799 -45.8909341,-67.9177058 -45.8929802,-67.91506756 -45.89602857,-67.9198515 -45.8952876,-67.9187465 -45.8950934,-67.9171157 -45.8950187,-67.9165041 -45.8955564,-67.91895387 -45.89557581,-67.9221904 -45.8981548,-67.9233706 -45.8984385,-67.9223728 -45.8974903,-67.9203773 -45.8967212,-67.9203129 -45.8957953,-67.92046749 -45.89809236,-67.9312027 -45.9008128,-67.9299688 -45.9015296,-67.9282737 -45.9003723,-67.9263103 -45.8994316,-67.9232204 -45.8984983,-67.9221046 -45.8981623,-67.93028301 -45.90068278,-67.9313636 -45.9007755,-67.9299688 -45.9015296,-67.9309559 -45.9024778,-67.931664 -45.9022687,-67.9323721 -45.9010144,-67.9335737 -45.900447,-67.9371786 -45.9012832,-67.9379082 -45.9021045,-67.9396677 -45.9026719,-67.941041 -45.9025674,-67.94048121 -45.90255833,-67.9417276 -45.9060912,-67.9426718 -45.9047623,-67.9416203 -45.9047773,-67.9445601 -45.9035379,-67.942543 -45.9026271,-67.94070253 -45.90708056,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.93482704 -45.9074612,-67.937994 -45.9086444,-67.9371142 -45.9083457,-67.9353976 -45.9082412,-67.9346466 -45.907853,-67.9353762 -45.9076142,NA,-67.9432511 -45.9099433,-67.9437232 -45.9109734,-67.9452038 -45.9116154,-67.9434228 -45.911287,-67.9401827 -45.9100179,-67.9391742 -45.9089579,-67.94205735 -45.90980155,-67.9382944 -45.9130934,-67.9395604 -45.9136906,-67.9405904 -45.9131382,-67.9431438 -45.9124664,-67.9441524 -45.9118692,-67.9452038 -45.9116154,-67.9438734 -45.9110779,-67.9432511 -45.9099433,-67.93665996 -45.91286222,-67.9528105 -45.9161613,-67.9515123 -45.9160642,-67.9499567 -45.9146834,-67.9483688 -45.915176,-67.9474139 -45.9164972,-67.9465771 -45.9168554,-67.9461694 -45.9163329,-67.9441094 -45.9159747,-67.9418564 -45.9156761,-67.9395819 -45.9148998,-67.9391098 -45.9138847,-67.9391956 -45.913392,-67.9384017 -45.9129591,-67.95232956 -45.91635992;-67.95232956 -45.91635992,-67.9528105 -45.9161613,-67.9515123 -45.9160642,-67.9499567 -45.9146834,-67.9483688 -45.915176,-67.9474139 -45.9164972,-67.9465771 -45.9168554,-67.9461694 -45.9163329,-67.9441094 -45.9159747,-67.9418564 -45.9156761,-67.9395819 -45.9148998,-67.9391098 -45.9138847,-67.9391956 -45.913392,-67.9384017 -45.9129591,-67.93665996 -45.91286222,-67.9371786 -45.9124813,-67.9369533 -45.9118916,-67.9363096 -45.9101747,-67.935183 -45.9100179,-67.9330123 -45.90989279,-67.93396 -45.910003,-67.9332089 -45.9102269,-67.9314494 -45.9103464,-67.9311919 -45.9100478,-67.9308486 -45.9099433,-67.92909659 -45.90983142,-67.9308486 -45.9099433,-67.9312348 -45.9102419,-67.9297328 -45.910421,-67.9279304 -45.9103613,-67.9261494 -45.9116303,-67.9255915 -45.9130038,-67.924819 -45.9119737,-67.9250765 -45.911063,-67.92339949 -45.91107871,-67.9191971 -45.9115109,-67.9193473 -45.9122574,-67.9206347 -45.9121827,-67.9237676 -45.911287,-67.91938339 -45.91141146,-67.9150558 -45.9126903,-67.9162359 -45.9122126,-67.9164505 -45.9115408,-67.9181457 -45.910645,-67.9202914 -45.9111078,-67.91361731 -45.91301639,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.9049706 -45.9149894,-67.9050565 -45.9146311,-67.908597 -45.9143027,-67.9105282 -45.9135114,-67.9126954 -45.9130636,-67.9141974 -45.9123171,-67.90949828 -45.91775832,-67.9105067 -45.9207068,-67.9081678 -45.9205276,-67.9078245 -45.9200798,-67.9065156 -45.9195574,-67.9081035 -45.9191991,-67.9097772 -45.9180049,-67.91006087 -45.92075561,-67.9009366 -45.9240205,-67.9032111 -45.9240951,-67.9045844 -45.9234831,-67.9111075 -45.9230055,-67.908361 -45.9205575,-67.9102921 -45.920662,-67.89923257 -45.9242339,-67.9032755 -45.9242593,-67.9009366 -45.9240205,-67.90260909 -45.92466322;-67.90260909 -45.92466322,-67.9032755 -45.9242593,-67.9009366 -45.9240205,-67.89923257 -45.9242339,-67.9009366 -45.9240205,-67.9032111 -45.9240951,-67.9045844 -45.9234831,-67.9111075 -45.9230055,-67.908361 -45.9205575,-67.9102921 -45.920662,-67.91006087 -45.92075561,-67.9105067 -45.9207068,-67.9081678 -45.9205276,-67.9078245 -45.9200798,-67.9065156 -45.9195574,-67.9081035 -45.9191991,-67.9097772 -45.9180049,-67.90949828 -45.91775832,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.9049706 -45.9149894,-67.9050565 -45.9146311,-67.908597 -45.9143027,-67.9105282 -45.9135114,-67.9126954 -45.9130636,-67.9141974 -45.9123171,-67.91361731 -45.91301639,-67.9150558 -45.9126903,-67.9162359 -45.9122126,-67.9164505 -45.9115408,-67.9181457 -45.910645,-67.9202914 -45.9111078,-67.91938339 -45.91141146,-67.9221797 -45.9097492,-67.9201412 -45.9109884,-67.91924 -45.911063,-67.9191971 -45.9115109,-67.92132124 -45.90950332,-67.922008 -45.9097193,-67.9201412 -45.9109884,-67.9196906 -45.9109585,-67.9200125 -45.9097492,-67.9210854 -45.909585,-67.9227591 -45.90851,-67.9267287 -45.9077933,-67.9317927 -45.9075544,-67.9344964 -45.9080023,-67.9353762 -45.9076142,-67.93482704 -45.9074612,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.94070253 -45.90708056,-67.9417276 -45.9060912,-67.9426718 -45.9047623,-67.9416203 -45.9047773,-67.9445601 -45.9035379,-67.942543 -45.9026271,-67.94048121 -45.90255833,-67.9313636 -45.9007755,-67.9299688 -45.9015296,-67.9309559 -45.9024778,-67.931664 -45.9022687,-67.9323721 -45.9010144,-67.9335737 -45.900447,-67.9371786 -45.9012832,-67.9379082 -45.9021045,-67.9396677 -45.9026719,-67.941041 -45.9025674,-67.93028301 -45.90068278,-67.9312027 -45.9008128,-67.9299688 -45.9015296,-67.9282737 -45.9003723,-67.9263103 -45.8994316,-67.9232204 -45.8984983,-67.9221046 -45.8981623,-67.92046749 -45.89809236,-67.9221904 -45.8981548,-67.9232204 -45.8984983,-67.9230487 -45.8980652,-67.9224908 -45.89755,-67.9236388 -45.8964449,-67.92261639 -45.89612501,-67.9235637 -45.895743,-67.9241538 -45.8953249,-67.9267287 -45.8949142,-67.9271579 -45.8944961,-67.9267287 -45.8942048,-67.9257309 -45.8936448,-67.9256558 -45.8930698,-67.9268682 -45.8923604,-67.9289711 -45.8934208,-67.9293036 -45.893361,-67.92819602 -45.89300211,-67.929368 -45.8925994,-67.9296148 -45.8919423,-67.9287994 -45.8913897,-67.9285097 -45.8910014,-67.9286277 -45.8901127,-67.92758265 -45.88993498,-67.9286492 -45.8892166,-67.9288638 -45.8878724,-67.9292393 -45.8876931,-67.92838162 -45.88770662,-67.929883 -45.8876782,-67.9306018 -45.8878724,-67.9317605 -45.8883727,-67.9326189 -45.888201,-67.93184093 -45.88869985,,-67.93195275 -45.88880085,-67.9325545 -45.8880964,-67.9324257 -45.8875363,-67.933048 -45.8868642,-67.9335093 -45.8836304,-67.93297197 -45.88384007,,-67.93288041 -45.88347512,-67.9369962 -45.8822636,-67.9367441 -45.8819686,-67.9343677 -45.8832719,-67.93623372 -45.88237227,-67.9369104 -45.8822487,-67.9367441 -45.8819686,-67.9385787 -45.881274,-67.938568 -45.8809641,-67.9379243 -45.8811844,-67.93588984 -45.88149225,-67.9380155 -45.8812404,-67.938627 -45.880852,-67.9384768 -45.8805682,-67.9371035 -45.8800827,-67.9358482 -45.8797093,-67.9335737 -45.8797616,-67.934432 -45.8794255,-67.9350007 -45.8792835,-67.9357088 -45.8792686,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2196,S2674,S2315,S849,S2706,S2185</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 944,S56,Linea 940,S78,Linea 932,S645,Linea 931,S2111,Linea 930,S2110,Linea 736,S2167,Linea 1617,S2168,Linea 584,S849,Linea 582,S938,Linea 581,S2443,Linea 578,S2132,Linea 579,S949,Linea 591,S2129,Linea 592,S2259,Linea 594,S17,Linea 596,S2293,Linea 597,S4,Linea 598,S2324,Linea 600,S2196;S2196,Linea 599,S2689,Linea 601,S2683,Linea 606,S2619,Linea 604,S2674;S2674,Linea 604,S2619,Linea 606,S2683,Linea 601,S2689,Linea 599,S2196,Linea 600,S2324,Linea 598,S4,Linea 597,S2293,Linea 596,S17,Linea 594,S2259,Linea 592,S2129,Linea 591,S949,Linea 579,S2132,Linea 578,S2443,Linea 581,S938,Linea 587,S2511,Linea 586,S948,Linea 585,S2662,Linea 1051,S911,Linea 1218,S2315;S2315,Linea 1218,S911,Linea 1051,S2662,Linea 585,S948,Linea 586,S2511,Linea 587,S938,Linea 582,S849;S849,Linea 584,S2168,Linea 1617,S2167,Linea 736,S2110,Linea 930,S2111,Linea 931,S645,Linea 932,S78,Linea 940,S56,Linea 944,S229,Linea 943,S167,Linea 946,S2147,Linea 964,S2146,Linea 947,S2721,Linea 963,S38,Linea 953,S136,Linea 952,S2706;S2706,Linea 952,S136,Linea 953,S38,Linea 963,S2721,Linea 947,S2146,Linea 964,S2147,Linea 946,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185;S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92260289 -45.87981886,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.91930941 -45.88137118,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91747464 -45.88372353,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91541483 -45.88231338,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.90970498 -45.88326091,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90591516 -45.88446218,,-67.90594775 -45.88423937,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90705336 -45.88840606,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90362098 -45.8874036,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90293219 -45.8836944,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.89811074 -45.88424629,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89478887 -45.88442779,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.88986813 -45.88509226,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88725199 -45.88498287,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88477851 -45.88530377,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88304639 -45.88588109,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88085052 -45.88709026,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.87661058 -45.88889945,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87484305 -45.89067788;-67.87484305 -45.89067788,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87813787 -45.88993585,-67.8788996 -45.8901426,-67.877934 -45.8900903,-67.8774834 -45.8904786,-67.8777945 -45.8925098,-67.8783524 -45.8919348,-67.87768072 -45.89180609,-67.8782558 -45.8919497,-67.8778267 -45.8923828,-67.8780413 -45.8938315,-67.8791893 -45.8953398,-67.87842608 -45.89585515,-67.8803694 -45.8936299,-67.8794038 -45.8940256,-67.8790176 -45.8951009,-67.8792751 -45.8953174,-67.8799303 -45.89359628;-67.8799303 -45.89359628,-67.8803694 -45.8936299,-67.8794038 -45.8940256,-67.8790176 -45.8951009,-67.8792751 -45.8953174,-67.87842608 -45.89585515,-67.8782558 -45.8919497,-67.8778267 -45.8923828,-67.8780413 -45.8938315,-67.8791893 -45.8953398,-67.87768072 -45.89180609,-67.8788996 -45.8901426,-67.877934 -45.8900903,-67.8774834 -45.8904786,-67.8777945 -45.8925098,-67.8783524 -45.8919348,-67.87813787 -45.88993585,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87484305 -45.89067788,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87661058 -45.88889945,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.88085052 -45.88709026,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88304639 -45.88588109,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88477851 -45.88530377,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88725199 -45.88498287,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88986813 -45.88509226,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.89478887 -45.88442779,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89811074 -45.88424629,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.90293219 -45.8836944,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90362098 -45.8874036,-67.9022241 -45.8892913,-67.9030609 -45.889239,-67.9032218 -45.8889477,-67.9028785 -45.8877678,-67.9034686 -45.8869165,-67.9039729 -45.8871629,-67.90098858 -45.88903898,-67.9052174 -45.8898887,-67.9046273 -45.8890523,-67.9033613 -45.8891643,-67.9021382 -45.8893659,-67.90475618 -45.89004619,-67.908082 -45.8906056,-67.9061723 -45.8899111,-67.90753763 -45.89070583,-67.9155815 -45.891315,-67.9156137 -45.8917929,-67.9101205 -45.891778,-67.9101098 -45.8913822,-67.9085004 -45.8909043,-67.91464614 -45.89123186,-67.9154849 -45.8913374,-67.9156995 -45.8918153,-67.9161823 -45.8920468,-67.9130065 -45.8949441,-67.9139829 -45.893137,-67.91314953 -45.89274698;-67.91314953 -45.89274698,-67.9154849 -45.8913374,-67.9156995 -45.8918153,-67.9161823 -45.8920468,-67.9130065 -45.8949441,-67.9139829 -45.893137,-67.91464614 -45.89123186,-67.9155815 -45.891315,-67.9156137 -45.8917929,-67.9101205 -45.891778,-67.9101098 -45.8913822,-67.9085004 -45.8909043,-67.90753763 -45.89070583,-67.908082 -45.8906056,-67.9061723 -45.8899111,-67.90475618 -45.89004619,-67.9052174 -45.8898887,-67.9046273 -45.8890523,-67.9033613 -45.8891643,-67.9021382 -45.8893659,-67.90098858 -45.88903898,-67.9022241 -45.8892913,-67.9030609 -45.889239,-67.9032218 -45.8889477,-67.9028785 -45.8877678,-67.9034686 -45.8869165,-67.9039729 -45.8871629,-67.90362098 -45.8874036,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90705336 -45.88840606;-67.90705336 -45.88840606,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90594775 -45.88423937,,-67.90591516 -45.88446218,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90970498 -45.88326091,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91930941 -45.88137118,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.92260289 -45.87981886,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.93512028 -45.8793768,-67.9380155 -45.8812404,-67.938627 -45.880852,-67.9384768 -45.8805682,-67.9371035 -45.8800827,-67.9358482 -45.8797093,-67.9335737 -45.8797616,-67.934432 -45.8794255,-67.9350007 -45.8792835,-67.9357088 -45.8792686,-67.93588984 -45.88149225,-67.9394478 -45.8815018,-67.9390669 -45.8813786,-67.9390454 -45.8810425,-67.9386485 -45.8811881,-67.938568 -45.8809641,-67.9379404 -45.8812105,-67.93895804 -45.88204116,-67.9404831 -45.883003,-67.9393351 -45.8816139,-67.9395604 -45.8815392,-67.93935418 -45.88340612,-67.937361 -45.8846162,-67.9377794 -45.883735,-67.9390776 -45.8830777,-67.9391098 -45.8833615,-67.9396677 -45.8835632,-67.9402363 -45.8833989,-67.936352 -45.88515172,-67.937361 -45.8846162,-67.9372966 -45.8833914,-67.93588554 -45.8836543;-67.93588554 -45.8836543,-67.937361 -45.8846162,-67.9372966 -45.8833914,-67.936352 -45.88515172,-67.937361 -45.8846162,-67.9377794 -45.883735,-67.9390776 -45.8830777,-67.9391098 -45.8833615,-67.9396677 -45.8835632,-67.9402363 -45.8833989,-67.93935418 -45.88340612,-67.9404831 -45.883003,-67.9393351 -45.8816139,-67.9395604 -45.8815392,-67.93895804 -45.88204116,-67.9394478 -45.8815018,-67.9390669 -45.8813786,-67.9390454 -45.8810425,-67.9386485 -45.8811881,-67.938568 -45.8809641,-67.9379404 -45.8812105,-67.93588984 -45.88149225,-67.9380155 -45.8812404,-67.938627 -45.880852,-67.9384768 -45.8805682,-67.9371035 -45.8800827,-67.9358482 -45.8797093,-67.9335737 -45.8797616,-67.934432 -45.8794255,-67.9350007 -45.8792835,-67.9357088 -45.8792686,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015;-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2422,S790,S2470,S857,S2172</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 1211,S172,Linea 768,S2417,Linea 759,S402,Linea 760,S2468,Linea 1844,S403,Linea 762,S2422;S2422,Linea 762,S403,Linea 1844,S2468,Linea 763,S395,Linea 764,S338,Linea 773,S2407,Linea 850,S2056,Linea 849,S2716,Linea 853,S2504,Linea 854,S997,Linea 1836,S353,Linea 1361,S2006,Linea 1363,S2009,Linea 1365,S354,Linea 1421,S2255,Linea 568,S882,Linea 567,S522,Linea 566,S2273,Linea 552,S525,Linea 551,S529,Linea 549,S437,Linea 546,S773,Linea 531,S2151,Linea 415,S774,Linea 414,S722,Linea 413,S710,Linea 393,S709,Linea 392,S687,Linea 370,S613,Linea 369,S721,Linea 368,Planta La Petiza,Linea 366,S1039,Linea 361,S790;S790,Linea 342,S1029,Linea 349,S2470;S2470,Linea 349,S1029,Linea 342,S790,Linea 361,S1039,Linea 366,Planta La Petiza,Linea 368,S721,Linea 369,S613,Linea 365,S707,Linea 1497,S2496,Linea 314,S2440,Linea 315,S616,Linea 260,S594,Linea 340,S892,Linea 274,S2279,Linea 275,S2582,Linea 276,S873,Linea 279,S850,Linea 280,S856,Linea 283,S857;S857,Linea 283,S856,Linea 286,S883,Linea 302,S890,Linea 300,S895,Linea 308,S1011,Linea 305,S1013,Linea 303,S2172;S2172,Linea 303,S1013,Linea 305,S1011,Linea 308,S895,Linea 300,S890,Linea 302,S883,Linea 286,S856,Linea 280,S850,Linea 281,S864,Linea 278,S869,Linea 270,S868,Linea 264,S886,Linea 263,S876,Linea 258,S591,Linea 257,S851,Linea 254,S853,Linea 252,E291,Linea 250,S611,Linea 249,S2418,Linea 247,S2288,Linea 399,S543,Linea 397,S1005,Linea 243,S2395,Linea 240,S2396,Linea 217,S2676,Linea 216,S788,Linea 215,S523,Linea 622,S882,Linea 568,S2255,Linea 1421,S354,Linea 1365,S2009,Linea 1363,S2006,Linea 1361,S353,Linea 1836,S997,Linea 854,S2504,Linea 853,S2716,Linea 849,S2056,Linea 850,S2407,Linea 773,S338,Linea 764,S395,Linea 763,S2468,Linea 760,S402,Linea 759,S2417,Linea 768,S172,Linea 1211,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.95709848 -45.86769228,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95610675 -45.87170205,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95650202 -45.87386891,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95720623 -45.87256309,-67.9578531 -45.8725273,-67.9577994 -45.8722659,-67.9585719 -45.8716197,-67.9589689 -45.871291,-67.9592746 -45.8712275,-67.958393 -45.87134586,-67.9597306 -45.8712088,-67.9617476 -45.871029500000006,-67.96108026 -45.87118338;-67.96108026 -45.87118338,-67.9597306 -45.8712088,-67.9617476 -45.871029500000006,-67.958393 -45.87134586,-67.9578531 -45.8725273,-67.9577994 -45.8722659,-67.9585719 -45.8716197,-67.9589689 -45.871291,-67.9592746 -45.8712275,-67.95720623 -45.87256309,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.96214261 -45.87344787,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96572509 -45.87368099,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.9672039 -45.87497495,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.96992116 -45.87035971,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.9688479 -45.86924263,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.96898996 -45.86789944,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.97170451 -45.86764851,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97781889 -45.86412305,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97692655 -45.86298292,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.98026531 -45.86300386,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98206338 -45.86352335,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8701234 -45.8635663,-67.8698123 -45.86132490000001,-67.8679776 -45.8603237,-67.8670549 -45.8588966,-67.8654027 -45.859457,-67.8654563 -45.8601518,-67.8656709 -45.8602639,-67.86895092 -45.86422008,-67.8682029 -45.8666817,-67.8692436 -45.8661961,-67.8702307 -45.8647318,-67.8701663 -45.8642088,-67.86635342 -45.86702056,-67.8668189 -45.8667639,-67.8664005 -45.866988,-67.8663254 -45.8676305,-67.86498939 -45.86808329,-67.8639972 -45.8691171,-67.8657031 -45.8680713,-67.86235431 -45.86962035,-67.8593409 -45.8716048,-67.85971640000001 -45.8705365,-67.8614008 -45.870529,-67.861948 -45.8698268,-67.8630531 -45.8694832,-67.85882935 -45.87179542,-67.857635 -45.8744807,-67.8541696 -45.874152,-67.8588581 -45.8727103,-67.8593409 -45.8716048,-67.857019 -45.87438052,-67.84873010000001 -45.87312860000001,-67.8543305 -45.8741595,-67.857635 -45.8744807,-67.84711722 -45.87310355,-67.8489339 -45.8731324,-67.8501302 -45.8733565,-67.8485316 -45.8736739,-67.8459191 -45.8729942,-67.84549 -45.8723406,-67.8449106 -45.8726842,-67.84336962 -45.87289033,-67.8464448 -45.8713396,-67.8465736 -45.871657000000006,-67.84484620000002 -45.8726692,-67.84458226 -45.87132178,-67.8433174 -45.8702414,-67.8424054 -45.8705701,-67.8442401 -45.8712014,-67.8457582 -45.8705029,-67.8468794 -45.8714778,-67.8465736 -45.871657000000006,-67.8464073 -45.8713396,-67.84266503 -45.8702826,-67.8403401 -45.8715002,-67.8396213 -45.8713059,-67.8401256 -45.8706859,-67.8424323 -45.8705216,-67.8432369 -45.8702153,-67.83999726 -45.87142467,-67.8404045 -45.871440400000004,-67.8396642 -45.8713657,-67.8393745 -45.8705216,-67.8371751 -45.8699314,-67.8344822 -45.8697969,-67.8345251 -45.8700584,-67.8363597 -45.8707606,-67.83598551 -45.8713908,-67.8363276 -45.8710445,-67.8348899 -45.87091,-67.8336024 -45.8710221,-67.83204724 -45.87132308,-67.8347504 -45.8724041,-67.8345788 -45.8717915,-67.8335381 -45.8712686,-67.8339131 -45.87269245,-67.8368962 -45.8743761,-67.8363168 -45.8740101,-67.8365743 -45.8734723,-67.8358126 -45.8726879,-67.8366923 -45.875026,-67.8362739 -45.8749812,-67.8353405 -45.875362100000004,-67.8336787 -45.87548722,-67.8340852 -45.8751231,-67.8342354 -45.8742566,-67.8322077 -45.8732855,-67.8288817 -45.8737262,-67.82716871 -45.873948;-67.82716871 -45.873948,-67.821511 -45.878081,-67.8234959 -45.8768037,-67.8260922 -45.8734274,-67.8288066 -45.8736889,-67.82018891 -45.8787842,-67.826339 -45.88047110000001,-67.8268754 -45.8811284,-67.8273153 -45.8802321,-67.8244936 -45.8781408,-67.8228843 -45.8780212,-67.8223586 -45.8783947,-67.8233027 -45.8768411,-67.8215861 -45.8781258,-67.82495492 -45.88019856;-67.82495492 -45.88019856,-67.826339 -45.88047110000001,-67.8268754 -45.8811284,-67.8273153 -45.8802321,-67.8244936 -45.8781408,-67.8228843 -45.8780212,-67.8223586 -45.8783947,-67.8233027 -45.8768411,-67.8215861 -45.8781258,-67.82018891 -45.8787842,-67.821511 -45.878081,-67.8234959 -45.8768037,-67.8260922 -45.8734274,-67.8288066 -45.8736889,-67.82716871 -45.873948,-67.8340852 -45.8751231,-67.8342354 -45.8742566,-67.8322077 -45.8732855,-67.8288817 -45.8737262,-67.8336787 -45.87548722,-67.8362739 -45.8749812,-67.8353405 -45.875362100000004,-67.8366923 -45.875026,-67.8368962 -45.8743761,-67.8363168 -45.8740101,-67.8365743 -45.8734723,-67.8358126 -45.8726879,-67.8339131 -45.87269245,-67.8347504 -45.8724041,-67.8345788 -45.8717915,-67.8335381 -45.8712686,-67.83204724 -45.87132308,-67.8326046 -45.8712686,-67.8287637 -45.8718438,-67.8266931 -45.8718811,-67.8259957 -45.8715076,-67.82435527 -45.87146335,-67.8260922 -45.8716048,-67.8258884 -45.8718886,-67.8219509 -45.871657,-67.8194082 -45.8687287,-67.8185391 -45.8670926,-67.8190756 -45.8667788,-67.8187144 -45.86699435,-67.819097 -45.8668461,-67.8186357 -45.8670552,-67.8192151 -45.868385,-67.81829240000002 -45.8680713,-67.81633269 -45.86814359,-67.8182173 -45.868004,-67.8160286 -45.8663455,-67.8181314 -45.8648065,-67.8182173 -45.864545,-67.81720169 -45.86444747,-67.8186142 -45.8634617,-67.8183568 -45.8624605,-67.8160179 -45.8615565,-67.8143764 -45.8610559,-67.81282229 -45.86107452,-67.8138077 -45.8564532,-67.814548 -45.8566699,-67.813561 -45.8597484,-67.8137219 -45.8605777,-67.81224182 -45.85671416,-67.8125632 -45.8568492,-67.810396 -45.8571033,-67.8101599 -45.8566923,-67.80907829 -45.8565264,-67.8098595 -45.8560647,-67.809999 -45.8550036,-67.8090441 -45.8548691,-67.8072436 -45.85498762,-67.807982 -45.8550559,-67.8067052 -45.8553548,-67.80486959 -45.85565241,-67.8067052 -45.8553548,-67.8072202 -45.8551381,-67.8064048 -45.853539,-67.80441533 -45.8533642,-67.805289 -45.8529487,-67.8034651 -45.8522612,-67.8028214 -45.85306820000001,-67.8021669 -45.8529711,-67.80053473 -45.85338776,-67.8040767 -45.8510805,-67.8027248 -45.8530309,-67.8023279 -45.8529561,-67.80300362 -45.85086721;-67.80300362 -45.85086721,-67.8040767 -45.8510805,-67.8027248 -45.8530309,-67.8023279 -45.8529561,-67.80053473 -45.85338776,-67.8014696 -45.8535315,-67.799592 -45.8552801,-67.7985406 -45.8554818,-67.7970643 -45.85560927,-67.7944744 -45.8548541,-67.7952468 -45.855108200000004,-67.79841180000001 -45.8550858,-67.7985942 -45.8553996,-67.79352993 -45.85472019,-67.7944744 -45.8548541,-67.794764 -45.8551755,-67.7924466 -45.8554519,-67.7921462 -45.8562515,-67.79068399 -45.85671662,-67.7884984 -45.8575367,-67.7912343 -45.8565653,-67.78733078 -45.85824489,-67.7862132 -45.8584258,-67.7890134 -45.8589713,-67.7900219 -45.8586276,-67.788595 -45.8585155,-67.784266 -45.85856607,-67.7824259 -45.8594121,-67.7837563 -45.8592702,-67.7851295 -45.8585379,-67.78070545 -45.85980557;-67.78070545 -45.85980557,-67.7824259 -45.8594121,-67.7837563 -45.8592702,-67.7851295 -45.8585379,-67.784266 -45.85856607,-67.7862132 -45.8584258,-67.7890134 -45.8589713,-67.7900219 -45.8586276,-67.788595 -45.8585155,-67.78733078 -45.85824489,-67.7884984 -45.8575367,-67.7912343 -45.8565653,-67.79068399 -45.85671662,-67.7944744 -45.8548541,-67.794764 -45.8551755,-67.7924466 -45.8554519,-67.7921462 -45.8562515,-67.79352993 -45.85472019,-67.7944744 -45.8548541,-67.7952468 -45.855108200000004,-67.79841180000001 -45.8550858,-67.7985942 -45.8553996,-67.7970643 -45.85560927,-67.8014696 -45.8535315,-67.799592 -45.8552801,-67.7985406 -45.8554818,-67.80053473 -45.85338776,-67.805289 -45.8529487,-67.8034651 -45.8522612,-67.8028214 -45.85306820000001,-67.8021669 -45.8529711,-67.80441533 -45.8533642,-67.8064048 -45.853539,-67.8089046 -45.854361,-67.8103852 -45.8542265,-67.8098702 -45.8539126,-67.80813131 -45.85419968,-67.809999 -45.85395,-67.81053540000002 -45.8542265,-67.8125417 -45.8543386,-67.81217316 -45.85421245,-67.816329 -45.8519921,-67.8167796 -45.8511701,-67.8158462 -45.8513121,-67.8150415 -45.8533148,-67.8138399 -45.8541293,-67.81497943 -45.85259887,-67.8185713 -45.8505798,-67.816962 -45.851073,-67.8161895 -45.8523658,-67.81800483 -45.85079524,-67.8223801 -45.8515886,-67.8209639 -45.8504751,-67.8196657 -45.8504079,-67.82163737 -45.8516816,-67.8244078 -45.8540994,-67.8225088 -45.8518801,-67.82322995 -45.85451391,-67.8277767 -45.8550036,-67.8251696 -45.8547271,-67.824676 -45.8544207,-67.82760578 -45.8552439,-67.8319716 -45.855437,-67.8292787 -45.855108200000004,-67.83154193 -45.85548135,-67.8371108 -45.8561767,-67.8326368 -45.8556313,-67.83653581 -45.85644197,-67.8438914 -45.8557508,-67.8414237 -45.8563262,-67.8377545 -45.8563187,-67.84359994 -45.85582912,-67.8480864 -45.8556163,-67.846477 -45.8561992,-67.8452325 -45.8556537,-67.84737753 -45.85568862,-67.851541 -45.8561394,-67.8511119 -45.8555416,-67.8497386 -45.8553249,-67.8490841 -45.8555341,-67.84992667 -45.85649082,-67.8511226 -45.8587172,-67.8489661 -45.8581942,-67.8504252 -45.8565952,-67.85051371 -45.8587379,-67.8547168 -45.8600622,-67.8545237 -45.8589862,-67.8537083 -45.858508,-67.852335 -45.8585529,-67.85325633 -45.86047853,-67.8585362 -45.8586425,-67.8567231 -45.8591431,-67.8550386 -45.8605852,-67.85800456 -45.85865306,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.86119926 -45.8582863,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86269634 -45.8576934,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86509618 -45.85797591,-67.8666258 -45.8579551,-67.8677523 -45.8588443,-67.8689218 -45.8588293,-67.8688896 -45.8591954,-67.86821501 -45.85959306,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86513556 -45.86046435,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.98715669 -45.86146692,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98206338 -45.86352335,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98026531 -45.86300386,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.97692655 -45.86298292,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97781889 -45.86412305,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97170451 -45.86764851,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.96898996 -45.86789944,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.9688479 -45.86924263,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.96992116 -45.87035971,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.9672039 -45.87497495,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.96572509 -45.87368099,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96214261 -45.87344787,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.95720623 -45.87256309,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95650202 -45.87386891,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95610675 -45.87170205,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95709848 -45.86769228,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S337,S2506,S2644,S2648</t>
   </si>
   <si>
     <t>Base,Linea 14,S278,Linea 15,S2250,Linea 16,S977,Linea 17,S245,Linea 1340,S186,Linea 901,S539,Linea 1408,S2376,Linea 1346,S190,Linea 1395,S232,Linea 1396,S2125,Linea 1397,S272,Linea 1838,S304,Linea 1400,S337;S337,Linea 1400,S304,Linea 1838,S272,Linea 1397,S2125,Linea 1396,S232,Linea 1395,S190,Linea 1346,S2376,Linea 1408,S539,Linea 901,S186,Linea 1340,S245,Linea 17,S977,Linea 16,S2250,Linea 15,S278,Linea 14,Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 943,S167,Linea 946,S2147,Linea 964,S2146,Linea 949,S31,Linea 950,S2094,Linea 1711,S33,Linea 1222,S927,Linea 1754,S115,Linea 1085,S944,Linea 1077,S2667,Linea 1078,S793,Linea 1076,S791,Linea 1063,S2506;S2506,Linea 1063,S791,Linea 1221,S760,Linea 1073,S794,Linea 1297,S759,Linea 1306,S834,Linea 1307,S839,Linea 1313,S725,Linea 1310,S744,Linea 1321,S747,Linea 1324,S752,Linea 1244,S753,Linea 1323,S755,Linea 1236,S2648,Linea 1237,S2644;S2644,Linea 1237,S2648;S2648,Linea 1236,S755,Linea 1323,S753,Linea 1244,S752,Linea 1324,S747,Linea 1321,S744,Linea 1310,S725,Linea 1313,S839,Linea 1307,S834,Linea 1306,S759,Linea 1297,S794,Linea 1073,S760,Linea 1221,S791,Linea 1076,S793,Linea 1078,S2667,Linea 1077,S944,Linea 1085,S115,Linea 1733,S927,Linea 1222,S33,Linea 1724,S2094,Linea 950,S31,Linea 949,S2146,Linea 964,S2147,Linea 946,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9427254 -45.8635364,-67.9464859 -45.8623447,-67.9469097 -45.862016,-67.94569946 -45.86221924,-67.9469097 -45.8620944,-67.9481596 -45.8620048,-67.94727301 -45.86217176,-67.9483044 -45.861911400000004,-67.9473495 -45.8614183,-67.94655091 -45.86160389,-67.9479718 -45.8615453,-67.9493934 -45.8606973,-67.9489589 -45.8606599,-67.94780419 -45.86081977,-67.9549134 -45.858239,-67.9527032 -45.8590684,-67.9493666 -45.8607794,-67.9491198 -45.8606898,-67.9539623 -45.85805836,-67.9549778 -45.85820170000001,-67.9571986 -45.85672970000001,-67.9579175 -45.8564981,-67.9585719 -45.8567521,-67.95773843 -45.85672753,-67.9586148 -45.8568044,-67.9579926 -45.8564383,-67.9605138 -45.8553847,-67.9615545 -45.8546374,-67.963078 -45.8525451,-67.9633892 -45.8522836,-67.9675841 -45.8512224,-67.9699767 -45.8512598,-67.9700732 -45.8515064,-67.9697835 -45.8517381,-67.96836168 -45.85192469,-67.9697835 -45.8517381,-67.9700947 -45.8517082,-67.9702342 -45.8514018,-67.9710817 -45.8516335,-67.97135 -45.8516633,-67.97067338 -45.85178783,-67.9748797 -45.8534568,-67.9738176 -45.8522612,-67.9730666 -45.8517007,-67.9728305 -45.8516858,-67.9720902 -45.8515438,-67.97404757 -45.85313584,-67.9747403 -45.8533821,-67.9737854 -45.8521267,-67.9758561 -45.8519548,-67.9769397 -45.8521042,-67.9775941 -45.8524031,-67.97708143 -45.85269116,-67.9816282 -45.8521939,-67.9812098 -45.8524031,-67.9798794 -45.8525526,-67.9790747 -45.8522462,-67.9770684 -45.8520893,-67.9774868 -45.8524256,-67.98073146 -45.85218722,-67.9812849 -45.8543311,-67.9821217 -45.8545851,-67.9830444 -45.8534792,-67.9832697 -45.8527095,-67.9828513 -45.8519996,-67.9814351 -45.8523359,-67.9816818 -45.8521416,-67.97991539 -45.85426196,-67.9839563 -45.855026,-67.9837525 -45.8546374,-67.9831088 -45.8549513,-67.9826152 -45.8550185,-67.9821646 -45.8546748,-67.9815531 -45.8544581,-67.9812849 -45.8543311,-67.98265584 -45.85532812;-67.98265584 -45.85532812,-67.9839563 -45.855026,-67.9837525 -45.8546374,-67.9831088 -45.8549513,-67.9826152 -45.8550185,-67.9821646 -45.8546748,-67.9815531 -45.8544581,-67.9812849 -45.8543311,-67.97991539 -45.85426196,-67.9812849 -45.8543311,-67.9821217 -45.8545851,-67.9830444 -45.8534792,-67.9832697 -45.8527095,-67.9828513 -45.8519996,-67.9814351 -45.8523359,-67.9816818 -45.8521416,-67.98073146 -45.85218722,-67.9816282 -45.8521939,-67.9812098 -45.8524031,-67.9798794 -45.8525526,-67.9790747 -45.8522462,-67.9770684 -45.8520893,-67.9774868 -45.8524256,-67.97708143 -45.85269116,-67.9747403 -45.8533821,-67.9737854 -45.8521267,-67.9758561 -45.8519548,-67.9769397 -45.8521042,-67.9775941 -45.8524031,-67.97404757 -45.85313584,-67.9748797 -45.8534568,-67.9738176 -45.8522612,-67.9730666 -45.8517007,-67.9728305 -45.8516858,-67.9720902 -45.8515438,-67.97067338 -45.85178783,-67.9697835 -45.8517381,-67.9700947 -45.8517082,-67.9702342 -45.8514018,-67.9710817 -45.8516335,-67.97135 -45.8516633,-67.96836168 -45.85192469,-67.9586148 -45.8568044,-67.9579926 -45.8564383,-67.9605138 -45.8553847,-67.9615545 -45.8546374,-67.963078 -45.8525451,-67.9633892 -45.8522836,-67.9675841 -45.8512224,-67.9699767 -45.8512598,-67.9700732 -45.8515064,-67.9697835 -45.8517381,-67.95773843 -45.85672753,-67.9549778 -45.85820170000001,-67.9571986 -45.85672970000001,-67.9579175 -45.8564981,-67.9585719 -45.8567521,-67.9539623 -45.85805836,-67.9549134 -45.858239,-67.9527032 -45.8590684,-67.9493666 -45.8607794,-67.9491198 -45.8606898,-67.94780419 -45.86081977,-67.9479718 -45.8615453,-67.9493934 -45.8606973,-67.9489589 -45.8606599,-67.94655091 -45.86160389,-67.9483044 -45.861911400000004,-67.9473495 -45.8614183,-67.94727301 -45.86217176,-67.9469097 -45.8620944,-67.9481596 -45.8620048,-67.94569946 -45.86221924,-67.9427254 -45.8635364,-67.9464859 -45.8623447,-67.9469097 -45.862016,-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.93512028 -45.8793768,-67.9380155 -45.8812404,-67.938627 -45.880852,-67.9384768 -45.8805682,-67.9371035 -45.8800827,-67.9358482 -45.8797093,-67.9335737 -45.8797616,-67.934432 -45.8794255,-67.9350007 -45.8792835,-67.9357088 -45.8792686,-67.93588984 -45.88149225,-67.9369104 -45.8822487,-67.9367441 -45.8819686,-67.9385787 -45.881274,-67.938568 -45.8809641,-67.9379243 -45.8811844,-67.93623372 -45.88237227,-67.9369962 -45.8822636,-67.9367441 -45.8819686,-67.9343677 -45.8832719,-67.93288041 -45.88347512,,-67.93297197 -45.88384007,-67.9325545 -45.8880964,-67.9324257 -45.8875363,-67.933048 -45.8868642,-67.9335093 -45.8836304,-67.93195275 -45.88880085,,-67.93184093 -45.88869985,-67.929883 -45.8876782,-67.9306018 -45.8878724,-67.9317605 -45.8883727,-67.9326189 -45.888201,-67.92838162 -45.88770662,-67.9286492 -45.8892166,-67.9288638 -45.8878724,-67.9292393 -45.8876931,-67.92758265 -45.88993498,-67.929368 -45.8925994,-67.9296148 -45.8919423,-67.9287994 -45.8913897,-67.9285097 -45.8910014,-67.9286277 -45.8901127,-67.92819602 -45.89300211,-67.9235637 -45.895743,-67.9241538 -45.8953249,-67.9267287 -45.8949142,-67.9271579 -45.8944961,-67.9267287 -45.8942048,-67.9257309 -45.8936448,-67.9256558 -45.8930698,-67.9268682 -45.8923604,-67.9289711 -45.8934208,-67.9293036 -45.893361,-67.92261639 -45.89612501,-67.9247761 -45.8977964,-67.9243469 -45.8973633,-67.9243791 -45.8961313,-67.9234135 -45.8969676,-67.9229736 -45.897214,-67.9236066 -45.8963628,-67.92440714 -45.89809857;-67.92440714 -45.89809857,-67.9247761 -45.8977964,-67.9243469 -45.8973633,-67.9243791 -45.8961313,-67.9234135 -45.8969676,-67.9229736 -45.897214,-67.9236066 -45.8963628,-67.92261639 -45.89612501,-67.9221904 -45.8981548,-67.9232204 -45.8984983,-67.9230487 -45.8980652,-67.9224908 -45.89755,-67.9236388 -45.8964449,-67.92046749 -45.89809236,-67.9312027 -45.9008128,-67.9299688 -45.9015296,-67.9282737 -45.9003723,-67.9263103 -45.8994316,-67.9232204 -45.8984983,-67.9221046 -45.8981623,-67.93028301 -45.90068278,-67.9313636 -45.9007755,-67.9299688 -45.9015296,-67.9309559 -45.9024778,-67.931664 -45.9022687,-67.9323721 -45.9010144,-67.9335737 -45.900447,-67.9371786 -45.9012832,-67.9379082 -45.9021045,-67.9396677 -45.9026719,-67.941041 -45.9025674,-67.94048121 -45.90255833,-67.9417276 -45.9060912,-67.9426718 -45.9047623,-67.9416203 -45.9047773,-67.9445601 -45.9035379,-67.942543 -45.9026271,-67.94070253 -45.90708056,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.93482704 -45.9074612,-67.922008 -45.9097193,-67.9201412 -45.9109884,-67.9196906 -45.9109585,-67.9200125 -45.9097492,-67.9210854 -45.909585,-67.9227591 -45.90851,-67.9267287 -45.9077933,-67.9317927 -45.9075544,-67.9344964 -45.9080023,-67.9353762 -45.9076142,-67.92132124 -45.90950332,-67.9221797 -45.9097492,-67.9201412 -45.9109884,-67.91924 -45.911063,-67.9191971 -45.9115109,-67.91938339 -45.91141146,-67.9150558 -45.9126903,-67.9162359 -45.9122126,-67.9164505 -45.9115408,-67.9181457 -45.910645,-67.9202914 -45.9111078,-67.91361731 -45.91301639,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.9049706 -45.9149894,-67.9050565 -45.9146311,-67.908597 -45.9143027,-67.9105282 -45.9135114,-67.9126954 -45.9130636,-67.9141974 -45.9123171,-67.90949828 -45.91775832,-67.9105067 -45.9207068,-67.9081678 -45.9205276,-67.9078245 -45.9200798,-67.9065156 -45.9195574,-67.9081035 -45.9191991,-67.9097772 -45.9180049,-67.91006087 -45.92075561,-67.9186392 -45.925737,-67.9181242 -45.9258713,-67.9160213 -45.924319,-67.9144335 -45.9239011,-67.9125881 -45.9236324,-67.911365 -45.9232891,-67.908361 -45.9205575,-67.9107213 -45.9206172,-67.91781996 -45.92567691,-67.9183388 -45.9258713,-67.9167509 -45.9248116,-67.9175448 -45.9264683,-67.9174805 -45.9272444,-67.9163647 -45.9281549,-67.9153562 -45.9282295,-67.9142404 -45.9287071,-67.9133177 -45.9295131,-67.9126954 -45.9289758,-67.912631 -45.9280206,-67.9141116 -45.9273489,-67.9158497 -45.9268415,-67.9161072 -45.9264235,-67.9158711 -45.9259907,-67.91406535 -45.92603076,-67.9160428 -45.9260952,-67.9158497 -45.9268415,-67.9124379 -45.928125,-67.9126954 -45.9289758,-67.9133177 -45.9295131,-67.9122019 -45.9304384,-67.9106355 -45.9306175,-67.9069018 -45.9297071,-67.9082537 -45.9278265,-67.90777463 -45.92772469;-67.90777463 -45.92772469,-67.9160428 -45.9260952,-67.9158497 -45.9268415,-67.9124379 -45.928125,-67.9126954 -45.9289758,-67.9133177 -45.9295131,-67.9122019 -45.9304384,-67.9106355 -45.9306175,-67.9069018 -45.9297071,-67.9082537 -45.9278265,-67.91406535 -45.92603076;-67.91406535 -45.92603076,-67.9183388 -45.9258713,-67.9167509 -45.9248116,-67.9175448 -45.9264683,-67.9174805 -45.9272444,-67.9163647 -45.9281549,-67.9153562 -45.9282295,-67.9142404 -45.9287071,-67.9133177 -45.9295131,-67.9126954 -45.9289758,-67.912631 -45.9280206,-67.9141116 -45.9273489,-67.9158497 -45.9268415,-67.9161072 -45.9264235,-67.9158711 -45.9259907,-67.91781996 -45.92567691,-67.9186392 -45.925737,-67.9181242 -45.9258713,-67.9160213 -45.924319,-67.9144335 -45.9239011,-67.9125881 -45.9236324,-67.911365 -45.9232891,-67.908361 -45.9205575,-67.9107213 -45.9206172,-67.91006087 -45.92075561,-67.9105067 -45.9207068,-67.9081678 -45.9205276,-67.9078245 -45.9200798,-67.9065156 -45.9195574,-67.9081035 -45.9191991,-67.9097772 -45.9180049,-67.90949828 -45.91775832,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.9049706 -45.9149894,-67.9050565 -45.9146311,-67.908597 -45.9143027,-67.9105282 -45.9135114,-67.9126954 -45.9130636,-67.9141974 -45.9123171,-67.91361731 -45.91301639,-67.9150558 -45.9126903,-67.9162359 -45.9122126,-67.9164505 -45.9115408,-67.9181457 -45.910645,-67.9202914 -45.9111078,-67.91938339 -45.91141146,-67.9221797 -45.9097492,-67.9201412 -45.9109884,-67.91924 -45.911063,-67.9191971 -45.9115109,-67.92132124 -45.90950332,-67.922008 -45.9097193,-67.9201412 -45.9109884,-67.9196906 -45.9109585,-67.9200125 -45.9097492,-67.9210854 -45.909585,-67.9227591 -45.90851,-67.9267287 -45.9077933,-67.9317927 -45.9075544,-67.9344964 -45.9080023,-67.9353762 -45.9076142,-67.93482704 -45.9074612,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.94070253 -45.90708056,-67.9417276 -45.9060912,-67.9426718 -45.9047623,-67.9416203 -45.9047773,-67.9445601 -45.9035379,-67.942543 -45.9026271,-67.94048121 -45.90255833,-67.9313636 -45.9007755,-67.9299688 -45.9015296,-67.9309559 -45.9024778,-67.931664 -45.9022687,-67.9323721 -45.9010144,-67.9335737 -45.900447,-67.9371786 -45.9012832,-67.9379082 -45.9021045,-67.9396677 -45.9026719,-67.941041 -45.9025674,-67.93028301 -45.90068278,-67.9312027 -45.9008128,-67.9299688 -45.9015296,-67.9282737 -45.9003723,-67.9263103 -45.8994316,-67.9232204 -45.8984983,-67.9221046 -45.8981623,-67.92046749 -45.89809236,-67.9221904 -45.8981548,-67.9232204 -45.8984983,-67.9230487 -45.8980652,-67.9224908 -45.89755,-67.9236388 -45.8964449,-67.92261639 -45.89612501,-67.9235637 -45.895743,-67.9241538 -45.8953249,-67.9267287 -45.8949142,-67.9271579 -45.8944961,-67.9267287 -45.8942048,-67.9257309 -45.8936448,-67.9256558 -45.8930698,-67.9268682 -45.8923604,-67.9289711 -45.8934208,-67.9293036 -45.893361,-67.92819602 -45.89300211,-67.929368 -45.8925994,-67.9296148 -45.8919423,-67.9287994 -45.8913897,-67.9285097 -45.8910014,-67.9286277 -45.8901127,-67.92758265 -45.88993498,-67.9286492 -45.8892166,-67.9288638 -45.8878724,-67.9292393 -45.8876931,-67.92838162 -45.88770662,-67.929883 -45.8876782,-67.9306018 -45.8878724,-67.9317605 -45.8883727,-67.9326189 -45.888201,-67.93184093 -45.88869985,,-67.93195275 -45.88880085,-67.9325545 -45.8880964,-67.9324257 -45.8875363,-67.933048 -45.8868642,-67.9335093 -45.8836304,-67.93297197 -45.88384007,,-67.93288041 -45.88347512,-67.9369962 -45.8822636,-67.9367441 -45.8819686,-67.9343677 -45.8832719,-67.93623372 -45.88237227,-67.9369104 -45.8822487,-67.9367441 -45.8819686,-67.9385787 -45.881274,-67.938568 -45.8809641,-67.9379243 -45.8811844,-67.93588984 -45.88149225,-67.9380155 -45.8812404,-67.938627 -45.880852,-67.9384768 -45.8805682,-67.9371035 -45.8800827,-67.9358482 -45.8797093,-67.9335737 -45.8797616,-67.934432 -45.8794255,-67.9350007 -45.8792835,-67.9357088 -45.8792686,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2152,S2406,S2143,S287,S2141</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 754,S2408,Linea 752,S370,Linea 1842,S2421,Linea 741,S980,Linea 740,S377,Linea 748,S381,Linea 747,S2572,Linea 746,S315,Linea 1017,S59,Linea 1295,S2116,Linea 1293,S1,Linea 1292,S2189,Linea 797,S2095,Linea 1825,S2479,Linea 795,S189,Linea 1826,S18,Linea 1177,S2243,Linea 807,S205,Linea 1181,S2139,Linea 1180,S8,Linea 1183,S223,Linea 1189,S224,Linea 1190,S203,Linea 1187,S2586,Linea 1192,S2584,Linea 1205,S138,Linea 1208,S2101,Linea 1462,S183,Linea 1829,S2135,Linea 1814,S2541,Linea 1459,S206,Linea 826,S715,Linea 827,S2356,Linea 1456,S151,Linea 1489,S2304,Linea 1461,S984,Linea 1447,S2093,Linea 1440,S2089,Linea 1438,S257,Linea 1437,S2074,Linea 1431,S2152;S2152,Linea 1431,S2074,Linea 1437,S257,Linea 1438,S2089,Linea 1440,S2093,Linea 1447,S984,Linea 1461,S2304,Linea 1489,S151,Linea 1456,S2356,Linea 827,S715,Linea 826,S206,Linea 1459,S2541,Linea 1794,S2135,Linea 1829,S183,Linea 1462,S2101,Linea 1208,S138,Linea 1490,S2080,Linea 1804,S184,Linea 1206,S194,Linea 820,S2177,Linea 815,S2242,Linea 821,S2441,Linea 823,S2406;S2406,Linea 1832,S285,Linea 830,S249,Linea 1678,S2548,Linea 1833,S339,Linea 1834,S312,Linea 839,S287,Linea 840,S957,Linea 804,S9,Linea 1659,S2143;S2143,Linea 1659,S9,Linea 804,S957,Linea 840,S287;S287,Linea 806,S2141;S2141,Linea 806,S287,Linea 805,S198,Linea 1828,S2095,Linea 797,S2189,Linea 1292,S1,Linea 1293,S2116,Linea 1295,S59,Linea 1017,S315,Linea 746,S2572,Linea 747,S381,Linea 748,S377,Linea 740,S980,Linea 741,S2421,Linea 1842,S370,Linea 752,S2408,Linea 754,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9513514 -45.867951700000006,-67.9506004 -45.8681534,-67.9493558 -45.8665622,-67.9490876 -45.8664576,-67.9492164 -45.8668461,-67.95075242 -45.86791677,-67.9511476 -45.8693039,-67.95089010000001 -45.8697222,-67.9506433 -45.8681011,-67.9512978 -45.867892,-67.95011093 -45.86936834,-67.9526013 -45.869965,-67.9517484 -45.8700734,-67.9508901 -45.8697222,-67.9511476 -45.8693039,-67.95188123 -45.87007275,-67.9518449 -45.870925,-67.9516733 -45.8706037,-67.9509866 -45.870275,-67.95089010000001 -45.8697222,-67.9517484 -45.8700734,-67.9526281 -45.8699912,-67.95082673 -45.87123588,-67.9510081 -45.87218,-67.9515123 -45.8715599,-67.9518449 -45.870925,-67.94974928 -45.87213834,-67.9508579 -45.8736739,-67.9509115 -45.8721426,-67.94983615 -45.87396079,-67.9521346 -45.8759746,-67.951448 -45.8759597,-67.9509008 -45.8738383,-67.95155064 -45.87647635,-67.9521346 -45.8759746,-67.9517162 -45.8759074,-67.9513943 -45.8758999,-67.9525959 -45.87702780000001,-67.95337920000001 -45.8774162,-67.95259842 -45.87763583,-67.9538298 -45.8776104,-67.9575419 -45.8788205,-67.9596341 -45.8789624,-67.9602242 -45.8794852,-67.95937836 -45.87978501,-67.967391 -45.8796271,-67.9660606 -45.879657,-67.9619408 -45.879179,-67.959795 -45.8789997,-67.9602242 -45.8794852,-67.96661757 -45.87943084,-67.9708028 -45.8792686,-67.9686999 -45.8795524,-67.9682064 -45.8792238,-67.96993071 -45.87922522,-67.9739785 -45.8781632,-67.9745579 -45.8782677,-67.9740644 -45.8788802,-67.9710174 -45.8792537,-67.97210325 -45.8786421,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9755771 -45.8785142,-67.9742253 -45.8787756,-67.974236 -45.878222900000004,-67.9757414 -45.87911165,-67.9789352 -45.8795823,-67.9791069 -45.8776627,-67.9756737 -45.8784769,-67.9758239 -45.8787234,-67.9765105 -45.8789474,-67.97764389 -45.88001208,-67.9789352 -45.8795823,-67.9789889 -45.8790669,-67.9799759 -45.8791491,-67.97934342 -45.87920812,-67.9797721 -45.879179,-67.9789889 -45.8790669,-67.9792571 -45.8776403,-67.9831409 -45.876744,-67.9844499 -45.8766842,-67.9838705 -45.8772892,-67.98257485 -45.87765379,-67.9838705 -45.8772892,-67.9842675 -45.8766469,-67.9854584 -45.876617,-67.9846001 -45.8763854,-67.98281428 -45.87644776,-67.9865313 -45.8763033,-67.9853833 -45.8764975,-67.98469660000002 -45.8764303,-67.98563419 -45.87640922,-67.9896748 -45.8771548,-67.9892349 -45.8767216,-67.985158 -45.8765946,-67.9863167 -45.8762734,-67.98904006 -45.87741924,-67.9909623 -45.8768411,-67.9909086 -45.8766394,-67.9893529 -45.876729,-67.9896641 -45.8770726,-67.98995293 -45.87688436,-67.9932904 -45.8760792,-67.9926252 -45.8763556,-67.9912949 -45.8766319,-67.99230343 -45.87612978,-67.9940093 -45.875758,-67.9942882 -45.875646,-67.9944921 -45.8759223,-67.9952216 -45.8756385,-67.9962945 -45.874899,-67.99575168 -45.87505796,-67.9970562 -45.8749065,-67.998054 -45.8746002,-67.9989874 -45.8742865,-67.9998994 -45.8736889,-67.99900055 -45.87377745,-68.0009079 -45.8733901,-68.0017447 -45.8731436,-68.0013478 -45.8728149,-68.0005753 -45.8728074,-67.9998672 -45.8727327,-67.9986441 -45.8728074,-67.99707801 -45.87306235,-67.9984939 -45.8727327,-67.9986763 -45.8725609,-67.9987407 -45.872292,-67.99743076 -45.87213204,-68.0036652 -45.8703498,-68.0024529 -45.8706934,-68.0012727 -45.8709175,-68.0001891 -45.8713881,-67.9995775 -45.8718363,-68.00284674 -45.87040916,-68.0041587 -45.8700285,-68.0051243 -45.8686091,-68.00449906 -45.86852742,-68.0070448 -45.8686241,-68.0060685 -45.868385,-68.00620422 -45.86892139,-68.0070448 -45.8686241,-68.0067122 -45.8683028,-68.0066907 -45.8679293,-68.0047274 -45.8681086,-68.0029786 -45.8686316,-68.0021524 -45.8685344,-68.0022383 -45.8682132,-68.00126819 -45.86832361,,-68.00080119 -45.86808139,-67.9980218 -45.8692665,-68.0000389 -45.8684074,-68.0017662 -45.8680339,-67.99627751 -45.86960923,-67.9969811 -45.8694981,-67.9958439 -45.8695654,-67.99512510000001 -45.8693413,-67.99505 -45.8690499,-67.99439359 -45.86914058,-67.99505 -45.8690499,-67.9947495 -45.8687287,-67.9952323 -45.8676529,-67.99437986 -45.8677879,-67.9954576 -45.8672868,-67.9960907 -45.8666518,-67.9968202 -45.8663306,-67.99554948 -45.86642106,-67.9970026 -45.8663754,-68.0035257 -45.8657777,-68.003397 -45.8661662,-68.00288598 -45.86648631,-68.0048561 -45.8661961,-68.0066156 -45.864941,-68.00601835 -45.8652672,-68.0066907 -45.8648887,-68.0076134 -45.8646197,-68.0077314 -45.8640818,-68.0066907 -45.862595,-68.0065084 -45.8626847,-68.00524993 -45.86266209,-68.0066907 -45.862595,-68.0062294 -45.8616088,-68.0054569 -45.8608467,-68.004663 -45.8610185,-68.00290781 -45.86119572,-68.0032039 -45.861564,-68.0037832 -45.8611157,-68.0040193 -45.8610858,-68.00170055 -45.8618692,-68.0024529 -45.8617881,-68.0025601 -45.862341,-68.0002105 -45.8608467,-68.0004787 -45.8601219,-67.99931829 -45.86009184,-67.9994917 -45.8615789,-68.0002105 -45.8608467,-68.0004895 -45.8600099,-67.99771431 -45.86216142;-67.99771431 -45.86216142,-67.9994917 -45.8615789,-68.0002105 -45.8608467,-68.0004895 -45.8600099,-67.99931829 -45.86009184,-68.0024529 -45.8617881,-68.0025601 -45.862341,-68.0002105 -45.8608467,-68.0004787 -45.8601219,-68.00170055 -45.8618692,-68.0032039 -45.861564,-68.0037832 -45.8611157,-68.0040193 -45.8610858,-68.00290781 -45.86119572,-68.0066907 -45.862595,-68.0062294 -45.8616088,-68.0054569 -45.8608467,-68.004663 -45.8610185,-68.00524993 -45.86266209,-68.0066907 -45.8648887,-68.0076134 -45.8646197,-68.0077314 -45.8640818,-68.0066907 -45.862595,-68.0065084 -45.8626847,-68.00601835 -45.8652672,-68.0048561 -45.8661961,-68.0066156 -45.864941,-68.00288598 -45.86648631,-67.9970026 -45.8663754,-68.0035257 -45.8657777,-68.003397 -45.8661662,-67.99554948 -45.86642106,-67.9954576 -45.8672868,-67.9960907 -45.8666518,-67.9968202 -45.8663306,-67.99437986 -45.8677879,-67.99505 -45.8690499,-67.9947495 -45.8687287,-67.9952323 -45.8676529,-67.99439359 -45.86914058,-67.9969811 -45.8694981,-67.9958439 -45.8695654,-67.99512510000001 -45.8693413,-67.99505 -45.8690499,-67.99627751 -45.86960923,-67.9980218 -45.8692665,-68.0000389 -45.8684074,-68.0017662 -45.8680339,-68.00080119 -45.86808139,,-68.00126819 -45.86832361,-68.0070448 -45.8686241,-68.0067122 -45.8683028,-68.0066907 -45.8679293,-68.0047274 -45.8681086,-68.0029786 -45.8686316,-68.0021524 -45.8685344,-68.0022383 -45.8682132,-68.00620422 -45.86892139,-68.0070448 -45.8686241,-68.0060685 -45.868385,-68.00449906 -45.86852742,-68.0041587 -45.8700285,-68.0051243 -45.8686091,-68.00284674 -45.87040916,-68.0035579 -45.8703423,-68.0025816 -45.8706859,-68.0014014 -45.8705066,-67.99960904 -45.87080973,,-67.99921407 -45.87121751,-67.9971957 -45.8714031,-67.9989982 -45.8712611,-67.9998028 -45.8710071,-67.99553288 -45.87226112,-67.9929739 -45.8721949,-67.9927379 -45.872546,-67.993784 -45.8729494,-67.9957634 -45.8725273,-67.9964232 -45.8722024,-67.99156523 -45.87210921,-67.9930758 -45.87218,-67.992754 -45.8724788,-67.9914343 -45.8718886,-67.9915845 -45.8711565,-67.9912734 -45.8710071,-67.9900866 -45.8710699,-67.9910052 -45.8707457,-67.9910266 -45.8705664,-67.99163820000001 -45.8700883,-67.9915524 -45.8697073,-67.99024475 -45.86974641,-67.9914558 -45.8692516,-67.9914558 -45.8690499,-67.9925716 -45.8679293,-67.99174523 -45.8677107;-67.99174523 -45.8677107,-67.9929042 -45.8670777,-67.9928398 -45.8661064,-67.9924321 -45.8655835,-67.9918849 -45.8652398,-67.9909408 -45.867115,-67.9902434 -45.8675334,-67.98895281 -45.86742251,-67.9901361 -45.8674661,-67.9900289 -45.8678098,-67.9882801 -45.8686838,-67.9882801 -45.8691246,-67.9875398 -45.8692665,-67.98621539 -45.86906201,,-67.98595749 -45.86942688,-67.9875398 -45.8692665,-67.988205 -45.8691993,-67.9883659 -45.8686465,-67.9866493 -45.8686017,-67.9853296 -45.8685195,-67.9839349 -45.868766,-67.9830122 -45.8690947,-67.9832804 -45.8686614,-67.9841065 -45.8682057,-67.98364252 -45.86827111,-67.9807377 -45.8716645,-67.9809952 -45.8709175,-67.9819071 -45.8698567,-67.9830122 -45.8690947,-67.9832804 -45.8686614,-67.9840744 -45.8683402,-67.97987219 -45.87199291,-67.9799759 -45.8737337,-67.9795146 -45.8726879,-67.9809093 -45.8709474,-67.980845 -45.8716421,-67.97905112 -45.87422359,-67.9800725 -45.873800900000006,-67.9795146 -45.8726879,-67.9796112 -45.8723816,-67.9792464 -45.872165,-67.9787529 -45.8722173,-67.9783773 -45.8729942,-67.9778409 -45.873195900000006,-67.9771113 -45.8730315,-67.97564136 -45.8729339,-67.977519 -45.8745479,-67.9775083 -45.8737262,-67.9769719 -45.8730166,-67.97664473 -45.87540708,,-67.97634703 -45.87537427;-67.97634703 -45.87537427,,-67.97664473 -45.87540708,-67.977519 -45.8745479,-67.9775083 -45.8737262,-67.9769719 -45.8730166,-67.97564136 -45.8729339,-67.9800725 -45.873800900000006,-67.9795146 -45.8726879,-67.9796112 -45.8723816,-67.9792464 -45.872165,-67.9787529 -45.8722173,-67.9783773 -45.8729942,-67.9778409 -45.873195900000006,-67.9771113 -45.8730315,-67.97905112 -45.87422359;-67.97905112 -45.87422359,-67.9832268 -45.8749662,-67.9826152 -45.8755115,-67.9815102 -45.8758476,-67.9808342 -45.875578700000005,-67.9800081 -45.8743388,-67.98216983 -45.87482855;-67.98216983 -45.87482855,-67.9832268 -45.8749662,-67.9826152 -45.8755115,-67.9815102 -45.8758476,-67.9808342 -45.875578700000005,-67.9800081 -45.8743388,-67.97905112 -45.87422359,-67.9801047 -45.8737412,-67.9795146 -45.8726879,-67.9791605 -45.8735694,-67.9792249 -45.8748467,-67.9793966 -45.8748467,-67.9797721 -45.8758476,-67.9800725 -45.876012,-67.97932522 -45.87631183,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9756951 -45.8784321,-67.9790318 -45.877588,-67.9792678 -45.8765199,-67.9792786 -45.8747272,-67.9798257 -45.8760045,-67.9801154 -45.8760643,-67.9757414 -45.87911165,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9755771 -45.8785142,-67.9742253 -45.8787756,-67.974236 -45.878222900000004,-67.97210325 -45.8786421,-67.9739785 -45.8781632,-67.9745579 -45.8782677,-67.9740644 -45.8788802,-67.9710174 -45.8792537,-67.96993071 -45.87922522,-67.9708028 -45.8792686,-67.9686999 -45.8795524,-67.9682064 -45.8792238,-67.96661757 -45.87943084,-67.967391 -45.8796271,-67.9660606 -45.879657,-67.9619408 -45.879179,-67.959795 -45.8789997,-67.9602242 -45.8794852,-67.95937836 -45.87978501,-67.9538298 -45.8776104,-67.9575419 -45.8788205,-67.9596341 -45.8789624,-67.9602242 -45.8794852,-67.95259842 -45.87763583,-67.9521346 -45.8759746,-67.9517162 -45.8759074,-67.9513943 -45.8758999,-67.9525959 -45.87702780000001,-67.95337920000001 -45.8774162,-67.95155064 -45.87647635,-67.9521346 -45.8759746,-67.951448 -45.8759597,-67.9509008 -45.8738383,-67.94983615 -45.87396079,-67.9508579 -45.8736739,-67.9509115 -45.8721426,-67.94974928 -45.87213834,-67.9510081 -45.87218,-67.9515123 -45.8715599,-67.9518449 -45.870925,-67.95082673 -45.87123588,-67.9518449 -45.870925,-67.9516733 -45.8706037,-67.9509866 -45.870275,-67.95089010000001 -45.8697222,-67.9517484 -45.8700734,-67.9526281 -45.8699912,-67.95188123 -45.87007275,-67.9526013 -45.869965,-67.9517484 -45.8700734,-67.9508901 -45.8697222,-67.9511476 -45.8693039,-67.95011093 -45.86936834,-67.9511476 -45.8693039,-67.95089010000001 -45.8697222,-67.9506433 -45.8681011,-67.9512978 -45.867892,-67.95075242 -45.86791677,-67.9513514 -45.867951700000006,-67.9506004 -45.8681534,-67.9493558 -45.8665622,-67.9490876 -45.8664576,-67.9492164 -45.8668461,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2297,S2258,S2662,S2594</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 944,S56,Linea 940,S78,Linea 932,S645,Linea 931,S2111,Linea 930,S2110,Linea 736,S2167,Linea 1617,S2168,Linea 584,S849,Linea 582,S938,Linea 581,S2443,Linea 578,S2132,Linea 579,S949,Linea 591,S2129,Linea 592,S2259,Linea 594,S17,Linea 735,S295,Linea 734,S3,Linea 613,Q16,Linea 1626,S2240,Linea 471,S2,Linea 1886,S13,Linea 1887,S2523,Linea 517,Q17,Linea 516,S2236,Linea 511,S509,Linea 512,S427,Linea 506,S420,Linea 505,S418,Linea 484,S2297;S2297,Linea 484,S418,Linea 505,S420,Linea 506,S427,Linea 512,S509,Linea 511,S2236,Linea 516,Q17,Linea 517,S2523,Linea 1887,S13,Linea 1886,S2,Linea 471,S2240,Linea 1593,Q16,Linea 613,S3,Linea 734,S295,Linea 735,S17,Linea 594,S2259,Linea 592,S2129,Linea 591,S949,Linea 579,S2132,Linea 578,S2443,Linea 581,S938,Linea 582,S849,Linea 584,S2168,Linea 1617,S2167,Linea 736,S2110,Linea 930,S2111,Linea 934,S2334,Linea 717,S250,Linea 719,S2349,Linea 720,S986,Linea 722,S2454,Linea 1650,S578,Linea 727,S379,Linea 729,S950,Linea 989,S271,Linea 987,S234,Linea 60,S254,Linea 55,S2253,Linea 52,S326,Linea 8,S2258;S2258,Linea 8,S326,Linea 52,S2253,Linea 55,S254,Linea 60,S234,Linea 987,S271,Linea 989,S950,Linea 729,S379,Linea 727,S578,Linea 1651,S2454,Linea 722,S986,Linea 720,S2349,Linea 719,S250,Linea 717,S2334,Linea 934,S2111,Linea 930,S2110,Linea 736,S2167,Linea 1617,S2168,Linea 584,S849,Linea 582,S938,Linea 587,S2511,Linea 586,S948,Linea 585,S2662;S2662,Linea 585,S948,Linea 586,S2511,Linea 587,S938,Linea 581,S2443,Linea 578,S2132,Linea 579,S949,Linea 591,S2129,Linea 592,S2259,Linea 594,S17,Linea 735,S295,Linea 734,S3,Linea 613,Q16,Linea 1626,S2240,Linea 471,S2,Linea 1886,S13,Linea 1887,S2523,Linea 1888,S2606,Linea 526,S2614,Linea 525,S2461,Linea 454,S2594;S2594,Linea 454,S2461,Linea 525,S2614,Linea 526,S2606,Linea 1888,S2523,Linea 1887,S13,Linea 1886,S2,Linea 471,S2240,Linea 1593,Q16,Linea 613,S3,Linea 734,S295,Linea 735,S17,Linea 594,S2259,Linea 592,S2129,Linea 591,S949,Linea 579,S2132,Linea 578,S2443,Linea 581,S938,Linea 582,S849,Linea 584,S2168,Linea 1617,S2167,Linea 736,S2110,Linea 930,S2111,Linea 931,S645,Linea 932,S78,Linea 940,S56,Linea 944,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92260289 -45.87981886,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.91930941 -45.88137118,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91747464 -45.88372353,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91541483 -45.88231338,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.90970498 -45.88326091,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90591516 -45.88446218,,-67.90594775 -45.88423937,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90705336 -45.88840606,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90362098 -45.8874036,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90293219 -45.8836944,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.89811074 -45.88424629,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89478887 -45.88442779,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.88986813 -45.88509226,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88725199 -45.88498287,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88477851 -45.88530377,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88934482 -45.88367092,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.87931365 -45.88515467,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87597578 -45.88674947,,-67.87630061 -45.88642699,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.8758872 -45.88413516,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.87263059 -45.88283868,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.86703039 -45.88312685,-67.8726017 -45.880389,-67.8697157 -45.8828462,-67.8706813 -45.8831001,-67.8686643 -45.8830254,-67.8724445 -45.87988188,-67.8772688 -45.8789101,-67.8749835 -45.8790146,-67.87362100000001 -45.8797765,-67.87684672 -45.87887091,-67.8785026 -45.8788802,-67.8798115 -45.8793806,-67.87875862 -45.87975391,-67.8797901 -45.8776627,-67.8792536 -45.87817810000001,-67.8798115 -45.8793806,-67.87897854 -45.87766371,-67.8836739 -45.8759821,-67.8838027 -45.8758402,-67.883234 -45.875631,-67.8816783 -45.8762734,-67.8803587 -45.8772818,-67.88220216 -45.87628794,-67.8856909 -45.8773042,-67.88382410000001 -45.8758999,-67.8835773 -45.8759821,-67.88515558 -45.87764642,-67.8892422 -45.878559,-67.8872895 -45.87787190000001,-67.8866029 -45.8774162,-67.88880073 -45.87886841;-67.88880073 -45.87886841,-67.8892422 -45.878559,-67.8872895 -45.87787190000001,-67.8866029 -45.8774162,-67.88515558 -45.87764642,-67.8856909 -45.8773042,-67.88382410000001 -45.8758999,-67.8835773 -45.8759821,-67.88220216 -45.87628794,-67.8836739 -45.8759821,-67.8838027 -45.8758402,-67.883234 -45.875631,-67.8816783 -45.8762734,-67.8803587 -45.8772818,-67.87897854 -45.87766371,-67.8797901 -45.8776627,-67.8792536 -45.87817810000001,-67.8798115 -45.8793806,-67.87875862 -45.87975391,-67.8785026 -45.8788802,-67.8798115 -45.8793806,-67.87684672 -45.87887091,-67.8772688 -45.8789101,-67.8749835 -45.8790146,-67.87362100000001 -45.8797765,-67.8724445 -45.87988188,-67.8726017 -45.880389,-67.8697157 -45.8828462,-67.8706813 -45.8831001,-67.8686643 -45.8830254,-67.86703039 -45.88312685,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.87263059 -45.88283868,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.8758872 -45.88413516,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.87630061 -45.88642699,,-67.87597578 -45.88674947,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87931365 -45.88515467,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.88934482 -45.88367092,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88477851 -45.88530377,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88725199 -45.88498287,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88986813 -45.88509226,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.89478887 -45.88442779,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89811074 -45.88424629,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.90293219 -45.8836944,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90362098 -45.8874036,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90705336 -45.88840606,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90594775 -45.88423937,,-67.90591516 -45.88446218,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90970498 -45.88326091,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9169762 -45.8821367,-67.9166543 -45.8815466,-67.913146 -45.8824205,-67.9128242 -45.8814645,-67.91214619 -45.88124859,-67.9129636 -45.879291,-67.9124808 -45.8793284,-67.9120302 -45.8802545,-67.9124165 -45.8806728,-67.9129958 -45.8809193,-67.91191949 -45.87938061,-67.9128349 -45.8790819,-67.91394 -45.8782827,-67.9123628 -45.8789922,-67.91076944 -45.87927096,-67.9123628 -45.8789922,-67.9139936 -45.8782154,-67.9156995 -45.8769755,-67.9165149 -45.8759447,-67.9189503 -45.874689800000006,-67.91777485 -45.87443865,-67.9194653 -45.874084800000006,-67.9204845 -45.8732108,-67.9206347 -45.8733602,-67.91957453 -45.87370778,,-67.91979942 -45.8736741,-67.9206347 -45.8733602,-67.9204845 -45.8732108,-67.9220188 -45.8711565,-67.92053462 -45.87127057,-67.9235101 -45.8711267,-67.9226303 -45.8711043,-67.9216754 -45.8713134,-67.92270363 -45.87121385,-67.9239607 -45.87091,-67.9254735 -45.8690648,-67.92477777 -45.86902425,-67.9271686 -45.8677052,-67.926718 -45.8677948,-67.925849 -45.8687063,-67.92759808 -45.86788307,-67.9312563 -45.8666892,-67.9306877 -45.8669805,-67.9292071 -45.866338,-67.9283273 -45.867257,-67.93029002 -45.86668754,-67.9317927 -45.8665099,-67.9313958 -45.8663156,-67.9318678 -45.8652174,-67.93025624 -45.86524613,-67.934196 -45.8650755,-67.9339492 -45.8648887,-67.9318678 -45.8652174,-67.93322311 -45.86539389,-67.9364544 -45.8650082,-67.9343033 -45.8651128,-67.93542287 -45.86514387;-67.93542287 -45.86514387,-67.9364544 -45.8650082,-67.9343033 -45.8651128,-67.93322311 -45.86539389,-67.934196 -45.8650755,-67.9339492 -45.8648887,-67.9318678 -45.8652174,-67.93025624 -45.86524613,-67.9317927 -45.8665099,-67.9313958 -45.8663156,-67.9318678 -45.8652174,-67.93029002 -45.86668754,-67.9312563 -45.8666892,-67.9306877 -45.8669805,-67.9292071 -45.866338,-67.9283273 -45.867257,-67.92759808 -45.86788307,-67.9271686 -45.8677052,-67.926718 -45.8677948,-67.925849 -45.8687063,-67.92477777 -45.86902425,-67.9239607 -45.87091,-67.9254735 -45.8690648,-67.92270363 -45.87121385,-67.9235101 -45.8711267,-67.9226303 -45.8711043,-67.9216754 -45.8713134,-67.92053462 -45.87127057,-67.9206347 -45.8733602,-67.9204845 -45.8732108,-67.9220188 -45.8711565,-67.91979942 -45.8736741,,-67.91957453 -45.87370778,-67.9194653 -45.874084800000006,-67.9204845 -45.8732108,-67.9206347 -45.8733602,-67.91777485 -45.87443865,-67.9123628 -45.8789922,-67.9139936 -45.8782154,-67.9156995 -45.8769755,-67.9165149 -45.8759447,-67.9189503 -45.874689800000006,-67.91076944 -45.87927096,-67.9128349 -45.8790819,-67.91394 -45.8782827,-67.9123628 -45.8789922,-67.91191949 -45.87938061,-67.9129636 -45.879291,-67.9124808 -45.8793284,-67.9120302 -45.8802545,-67.9124165 -45.8806728,-67.9129958 -45.8809193,-67.91214619 -45.88124859,-67.9166651 -45.8823159,-67.9169762 -45.8821367,-67.9166543 -45.8815466,-67.913146 -45.8824205,-67.9128242 -45.8814645,-67.91541483 -45.88231338,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.90970498 -45.88326091,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90591516 -45.88446218,,-67.90594775 -45.88423937,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90705336 -45.88840606,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90362098 -45.8874036,-67.9022241 -45.8892913,-67.9030609 -45.889239,-67.9032218 -45.8889477,-67.9028785 -45.8877678,-67.9034686 -45.8869165,-67.9039729 -45.8871629,-67.90098858 -45.88903898,-67.9052174 -45.8898887,-67.9046273 -45.8890523,-67.9033613 -45.8891643,-67.9021382 -45.8893659,-67.90475618 -45.89004619,-67.908082 -45.8906056,-67.9061723 -45.8899111,-67.90753763 -45.89070583;-67.90753763 -45.89070583,-67.908082 -45.8906056,-67.9061723 -45.8899111,-67.90475618 -45.89004619,-67.9052174 -45.8898887,-67.9046273 -45.8890523,-67.9033613 -45.8891643,-67.9021382 -45.8893659,-67.90098858 -45.88903898,-67.9022241 -45.8892913,-67.9030609 -45.889239,-67.9032218 -45.8889477,-67.9028785 -45.8877678,-67.9034686 -45.8869165,-67.9039729 -45.8871629,-67.90362098 -45.8874036,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90293219 -45.8836944,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.89811074 -45.88424629,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89478887 -45.88442779,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.88986813 -45.88509226,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88725199 -45.88498287,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88477851 -45.88530377,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88934482 -45.88367092,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.87931365 -45.88515467,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87597578 -45.88674947,,-67.87630061 -45.88642699,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.8758872 -45.88413516,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.87263059 -45.88283868,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.86703039 -45.88312685,-67.8685462 -45.8831151,-67.8700483 -45.8829059,-67.8648233 -45.8818603,-67.8628063 -45.8810537,-67.8621304 -45.8814645,-67.86071597 -45.88116865,-67.8614116 -45.8855274,-67.862978 -45.884788,-67.8635466 -45.8831599,-67.8632355 -45.8817483,-67.86391140000002 -45.8815093,-67.8628063 -45.8810537,-67.8623772 -45.8814346,-67.85908094 -45.88593849,-67.8609717 -45.8856767,-67.862817 -45.8848403,-67.8617656 -45.8854826,-67.8616369 -45.886192,-67.8618944 -45.8867671,-67.86045923 -45.88724171,-67.8618944 -45.8867671,-67.8616261 -45.8862443,-67.8603601 -45.88681940000001,-67.8594589 -45.8868119,-67.8584075 -45.8873347,-67.856369 -45.8871629,-67.8557789 -45.8865655,-67.85399644 -45.88640005;-67.85399644 -45.88640005,-67.8618944 -45.8867671,-67.8616261 -45.8862443,-67.8603601 -45.88681940000001,-67.8594589 -45.8868119,-67.8584075 -45.8873347,-67.856369 -45.8871629,-67.8557789 -45.8865655,-67.86045923 -45.88724171,-67.8609717 -45.8856767,-67.862817 -45.8848403,-67.8617656 -45.8854826,-67.8616369 -45.886192,-67.8618944 -45.8867671,-67.85908094 -45.88593849,-67.8614116 -45.8855274,-67.862978 -45.884788,-67.8635466 -45.8831599,-67.8632355 -45.8817483,-67.86391140000002 -45.8815093,-67.8628063 -45.8810537,-67.8623772 -45.8814346,-67.86071597 -45.88116865,-67.8685462 -45.8831151,-67.8700483 -45.8829059,-67.8648233 -45.8818603,-67.8628063 -45.8810537,-67.8621304 -45.8814645,-67.86703039 -45.88312685,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.87263059 -45.88283868,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.8758872 -45.88413516,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.87630061 -45.88642699,,-67.87597578 -45.88674947,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87931365 -45.88515467,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.88934482 -45.88367092,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88477851 -45.88530377,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88725199 -45.88498287,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88986813 -45.88509226,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.89478887 -45.88442779,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89811074 -45.88424629,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.90293219 -45.8836944,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90362098 -45.8874036,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90705336 -45.88840606,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90594775 -45.88423937,,-67.90591516 -45.88446218,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90970498 -45.88326091,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91930941 -45.88137118,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.92260289 -45.87981886,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S847,S2379,S811,S2699</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 943,S167,Linea 946,S2147,Linea 966,S2465,Linea 968,S387,Linea 970,S316,Linea 969,S39,Linea 957,S36,Linea 1027,S2695,Linea 1026,S43,Linea 1088,S2707,Linea 1098,S42,Linea 1853,S2723,Linea 1118,S841,Linea 1113,S2194,Linea 1110,S803,Linea 1138,S815,Linea 1139,S823,Linea 1143,S2380,Linea 1142,S847;S847,Linea 1133,S848,Linea 1131,S921,Linea 1273,S2055,Linea 1328,S778,Linea 1329,S834,Linea 1307,S839,Linea 1313,S725,Linea 1310,S744,Linea 1311,S2379;S2379,Linea 1302,S2519,Linea 1303,S2310,Linea 1768,S748,Linea 1263,S757,Linea 1262,S2629,Linea 1232,S812,Linea 1231,S811;S811,Linea 1233,Q22,Linea 1234,S2534,Linea 1235,S755,Linea 1323,S753,Linea 1244,S752,Linea 1326,S2640,Linea 1246,S2627,Linea 1247,S2657,Linea 1260,S925,Linea 1337,S924,Linea 1330,S2717,Linea 1333,S2718,Linea 1334,S2698,Linea 1335,S2711,Linea 1336,S2694,Linea 608,S2619,Linea 606,S2683,Linea 601,S2689,Linea 605,S581,Linea 610,S2688,Linea 611,S2685,Linea 612,S2699;S2699,Linea 612,S2685,Linea 611,S2688,Linea 610,S581,Linea 605,S2689,Linea 599,S2196,Linea 600,S2324,Linea 598,S4,Linea 597,S2293,Linea 596,S17,Linea 594,S2259,Linea 592,S2129,Linea 591,S949,Linea 579,S2132,Linea 578,S2443,Linea 581,S938,Linea 582,S849,Linea 584,S2168,Linea 1617,S2167,Linea 736,S2110,Linea 930,S2111,Linea 931,S645,Linea 932,S78,Linea 940,S56,Linea 944,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.93512028 -45.8793768,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.94258106 -45.87928487,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.9459034 -45.88040255,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.94607409 -45.88311995,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94628753 -45.88560005,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94746568 -45.88694764,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94972726 -45.88693813,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.95178221 -45.88666191,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95650174 -45.8868325,-67.9563618 -45.8869613,-67.9570055 -45.8870583,-67.9568553 -45.8866028,-67.957381 -45.8868268,-67.95495587 -45.8875866,-67.9576063 -45.8896124,-67.9577136 -45.888888,-67.9572308 -45.8876483,-67.9565012 -45.8869986,-67.95602222 -45.88970885,-67.958647 -45.8921289,-67.9580784 -45.8917854,-67.958411 -45.8907699,-67.9588509 -45.8902397,-67.9578209 -45.8896422,-67.95792371 -45.89252328,-67.958411 -45.8946678,-67.9585934 -45.8938464,-67.9590118 -45.8934581,-67.9594839 -45.8932714,-67.9597199 -45.892913,-67.9595053 -45.8926741,-67.95753705 -45.89518861,-67.9602778 -45.8973559,-67.959677 -45.8974604,-67.9590976 -45.897326,-67.9587114 -45.8968257,-67.95928 -45.896094,-67.9591405 -45.8953548,-67.95956637 -45.89743693,-67.9612112 -45.8971319,-67.9633784 -45.8962807,-67.9639149 -45.8957132,-67.9634535 -45.8934357,-67.9631853 -45.892801,-67.96212496 -45.89267136,-67.9636359 -45.8920916,-67.9636359 -45.890964,-67.96267485 -45.89061558,-67.9667902 -45.8928309,-67.9665112 -45.8926517,-67.9661894 -45.8920169,-67.965138 -45.8917033,-67.964741 -45.8917481,-67.9635823 -45.8909043,-67.96564342 -45.89329615;-67.96564342 -45.89329615,-67.9662001 -45.8964449,-67.9652131 -45.8977815,-67.9650414 -45.897662,-67.9655886 -45.8962657,-67.966125 -45.8954817,-67.9668546 -45.8937568,-67.96531388 -45.89614529,-67.9662001 -45.8964449,-67.9653203 -45.8977964,-67.9651058 -45.8977217,-67.9655027 -45.8963628,-67.9647303 -45.8972513,-67.9640865 -45.8983937,-67.96354703 -45.89869944,-67.9693437 -45.9027914,-67.9659963 -45.8987297,-67.965138 -45.8986401,-67.96793825 -45.90348141,-67.9685926 -45.9034484,-67.9653096 -45.9044488,-67.9600525 -45.9049564,-67.9584861 -45.9041651,-67.9576707 -45.9040606,-67.95594313 -45.90408308,-67.9576707 -45.9040606,-67.9586577 -45.9041501,-67.9598594 -45.9049266,-67.9530573 -45.9053894,-67.9526496 -45.9059568,-67.9507613 -45.9066437,-67.9497957 -45.9073603,-67.9479933 -45.907644,-67.9448175 -45.9073753,-67.9420066 -45.9072707,-67.94070253 -45.90708056,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.93482704 -45.9074612,-67.922008 -45.9097193,-67.9201412 -45.9109884,-67.9196906 -45.9109585,-67.9200125 -45.9097492,-67.9210854 -45.909585,-67.9227591 -45.90851,-67.9267287 -45.9077933,-67.9317927 -45.9075544,-67.9344964 -45.9080023,-67.9353762 -45.9076142,-67.92132124 -45.90950332,-67.9221797 -45.9097492,-67.9201412 -45.9109884,-67.91924 -45.911063,-67.9191971 -45.9115109,-67.91938339 -45.91141146,-67.9191971 -45.9115109,-67.9193473 -45.9122574,-67.9206347 -45.9121827,-67.9237676 -45.911287,-67.92339949 -45.91107871;-67.92339949 -45.91107871,-67.9250765 -45.911063,-67.9249692 -45.9120036,-67.9233384 -45.9123171,-67.92178415 -45.91276334,-67.9231882 -45.9122723,-67.9249692 -45.9120036,-67.9255915 -45.9130038,-67.9226518 -45.9145117,-67.9209566 -45.9155119,-67.9190469 -45.9157209,-67.9196262 -45.9152282,-67.9198102 -45.91487479,,-67.91936766 -45.91518342,-67.9294324 -45.9165121,-67.930162 -45.916945,-67.9304409 -45.9174227,-67.9261708 -45.9179004,-67.9190469 -45.9157209,-67.9196262 -45.9152282,-67.92776392 -45.91634643,-67.9315567 -45.9216173,-67.9323292 -45.9215277,-67.9268146 -45.9178258,-67.9294968 -45.9176466,-67.9304409 -45.9174227,-67.9300117 -45.9168704,-67.9294324 -45.9165121,-67.92974857 -45.92193359,-67.9378974 -45.9205575,-67.9375219 -45.920244,-67.9376721 -45.9193932,-67.9373181 -45.9201097,-67.9375005 -45.9207814,-67.9381657 -45.9214382,-67.9378438 -45.9222592,-67.9378653 -45.9235428,-67.9352689 -45.9230204,-67.9323292 -45.9215277,-67.9315567 -45.9216173,-67.93749101 -45.92107433,-67.9437661 -45.9226174,-67.9421139 -45.9226995,-67.9384983 -45.9223039,-67.9381764 -45.9219979,-67.9380584 -45.9212964,-67.9374897 -45.9206471,-67.9373181 -45.9201097,-67.9376721 -45.9193932,-67.9375219 -45.920244,-67.9378974 -45.9205575,-67.9433277 -45.92278492;-67.9433277 -45.92278492,-67.9435515 -45.9227219,-67.9384983 -45.9223039,-67.9381764 -45.9219979,-67.9378438 -45.9222592,-67.9378438 -45.9241399,-67.9368353 -45.9265728,-67.93584321 -45.92709528,-67.9366422 -45.9271698,-67.9355264 -45.9268564,-67.9335093 -45.9267071,-67.9319644 -45.9271698,-67.9287672 -45.9270653,-67.92882882 -45.92622679,-67.9287672 -45.9270653,-67.927587 -45.9266922,-67.9265141 -45.9266325,-67.9261708 -45.9260206,-67.926321 -45.9254982,-67.9253769 -45.9248713,-67.9232097 -45.9249011,-67.922008 -45.9242593,-67.9200339 -45.9239458,-67.9162788 -45.9243787,-67.9181242 -45.9258713,-67.9186392 -45.925737,-67.91781996 -45.92567691,-67.9186392 -45.925737,-67.9181242 -45.9258713,-67.9160213 -45.924319,-67.9144335 -45.9239011,-67.9125881 -45.9236324,-67.911365 -45.9232891,-67.908361 -45.9205575,-67.9107213 -45.9206172,-67.91006087 -45.92075561,-67.9105067 -45.9207068,-67.9081678 -45.9205276,-67.9078245 -45.9200798,-67.9065156 -45.9195574,-67.9081035 -45.9191991,-67.9097772 -45.9180049,-67.90949828 -45.91775832,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.90527 -45.9149745,-67.9052067 -45.9146162,-67.9025245 -45.9141235,-67.90171 -45.9145565,-67.89907 -45.9147953,-67.8979325 -45.9163329,-67.8972459 -45.916945,-67.8961945 -45.916945,-67.896 -45.9166,-67.89415644 -45.91643339,-67.8951859 -45.9189752,-67.8956151 -45.9181094,-67.8975034 -45.9169749,-67.8979325 -45.9163329,-67.8972459 -45.916945,-67.8964305 -45.9169151,-67.8960013 -45.9166017,-67.8948966 -45.91911867,-67.895422 -45.9189901,-67.8929543 -45.9186468,-67.89164408 -45.91850265,-67.892257 -45.917781,-67.8922355 -45.9171241,-67.8925788 -45.9166017,-67.8926325 -45.9163553,-67.8917956 -45.9155044,-67.8909266 -45.914855,-67.8902507 -45.9144445,-67.8900683 -45.9137279,-67.8889096 -45.913601,-67.888813 -45.9138473,-67.88780562 -45.91450171,-67.8887486 -45.9139369,-67.8892422 -45.9133771,-67.889092 -45.9088982,-67.8895211 -45.9081964,-67.8884697 -45.9068527,-67.8891134 -45.9060464,-67.8899932 -45.905494,-67.890079 -45.9049863,-67.8895855 -45.9049415,-67.8884912 -45.9054641,-67.88690397 -45.90593083,-67.8877831 -45.9058523,-67.8869033 -45.9059867,-67.8840923 -45.9048668,-67.8834271 -45.9042397,-67.8832769 -45.9030601,-67.8820109 -45.9031497,-67.8811312 -45.903299,-67.8780627 -45.9027018,-67.8772688 -45.9023733,-67.8778911 -45.9022389,-67.87749311 -45.90223614,-67.8778911 -45.9022389,-67.8772688 -45.9023733,-67.8762174 -45.9020895,-67.8762174 -45.9018506,-67.875402 -45.9018954,-67.87401 -45.90242679,-67.875402 -45.9018954,-67.8762174 -45.9018506,-67.8767323 -45.9016117,-67.8774405 -45.9009995,-67.8778481 -45.8999691,-67.87600509 -45.90013168,-67.8778481 -45.8999691,-67.8795862 -45.8996556,-67.8816676 -45.8998198,-67.8823113 -45.899342,-67.88283131 -45.8994995,-67.8816462 -45.8976545,-67.8819466 -45.8992972,-67.8823757 -45.8992374,-67.88049412 -45.89765426,-67.8799939 -45.8961761,-67.8810668 -45.8968855,-67.881496 -45.8974007,-67.87842608 -45.89585515,-67.8782558 -45.8919497,-67.8778267 -45.8923828,-67.8780413 -45.8938315,-67.8791893 -45.8953398,-67.87768072 -45.89180609,-67.8788996 -45.8901426,-67.877934 -45.8900903,-67.8774834 -45.8904786,-67.8777945 -45.8925098,-67.8783524 -45.8919348,-67.87813787 -45.88993585,-67.8789854 -45.8901127,-67.8777838 -45.8901052,-67.8751981 -45.8927935,-67.8739536 -45.8942571,-67.87230402 -45.89457162,-67.8727734 -45.8946678,-67.8694153 -45.8954742,-67.8682566 -45.89504860000001,-67.86797017 -45.89505687,-67.86816 -45.8950113,-67.8676021 -45.8944886,-67.866143 -45.8944961,-67.86504739 -45.89456671,-67.8660572 -45.8945035,-67.8649414 -45.8945185,-67.8640723 -45.8941302,-67.8626239 -45.893936,-67.8611112 -45.8934058,-67.8592336 -45.8931445,-67.8576779 -45.8937045,-67.8559321 -45.89402021;-67.8559321 -45.89402021,-67.8660572 -45.8945035,-67.8649414 -45.8945185,-67.8640723 -45.8941302,-67.8626239 -45.893936,-67.8611112 -45.8934058,-67.8592336 -45.8931445,-67.8576779 -45.8937045,-67.86504739 -45.89456671,-67.86816 -45.8950113,-67.8676021 -45.8944886,-67.866143 -45.8944961,-67.86797017 -45.89505687,-67.8727734 -45.8946678,-67.8694153 -45.8954742,-67.8682566 -45.89504860000001,-67.87230402 -45.89457162,-67.8789854 -45.8901127,-67.8777838 -45.8901052,-67.8751981 -45.8927935,-67.8739536 -45.8942571,-67.87813787 -45.88993585,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87484305 -45.89067788,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87661058 -45.88889945,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.88085052 -45.88709026,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88304639 -45.88588109,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88477851 -45.88530377,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88725199 -45.88498287,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88986813 -45.88509226,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.89478887 -45.88442779,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89811074 -45.88424629,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.90293219 -45.8836944,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90362098 -45.8874036,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90705336 -45.88840606,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90594775 -45.88423937,,-67.90591516 -45.88446218,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90970498 -45.88326091,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91930941 -45.88137118,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.92260289 -45.87981886,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S961,S981,S2593,S2571</t>
   </si>
   <si>
     <t>Base,Linea 13,S961;S961,Linea 13,Base,Linea 1,S176,Linea 1506,S2447,Linea 2,S993,Linea 3,S329,Linea 4,S309,Linea 6,S328,Linea 7,S2258,Linea 8,S326,Linea 52,S2253,Linea 55,S254,Linea 54,S270,Linea 59,S981;S981,Linea 59,S270,Linea 54,S254,Linea 56,S208,Linea 1876,S2216,Linea 1877,S2411,Linea 87,S2200,Linea 97,S356,Linea 143,S2017,Linea 144,S690,Linea 141,S538,Linea 104,S2206,Linea 105,S763,Linea 106,S719,Linea 108,S767,Linea 112,S555,Linea 1532,S2578,Linea 142,S556,Linea 1883,S2022,Linea 902,S2001,Linea 232,S2027,Linea 231,S2593;S2593,Linea 231,S2027,Linea 232,S2001,Linea 902,S2022,Linea 1883,S556,Linea 142,S2578,Linea 1821,S555,Linea 112,S767,Linea 108,S719,Linea 106,S763,Linea 105,S2206,Linea 104,S538,Linea 141,S690,Linea 144,S2017,Linea 143,S356,Linea 97,S2200,Linea 1847,S2199,Linea 46,S2569,Linea 42,S2032,Linea 34,S308,Linea 33,S2412,Linea 31,S282,Linea 32,S2571;S2571,Linea 32,S282,Linea 28,S309,Linea 4,S329,Linea 3,S993,Linea 2,S2447,Linea 1506,S176,Linea 1,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9427254 -45.8635364,-67.9445654 -45.863047,-67.94562220000002 -45.8635738,-67.94453448 -45.86385281;-67.94453448 -45.86385281,-67.9427254 -45.8635364,-67.9445654 -45.863047,-67.94562220000002 -45.8635738,-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.93822649 -45.86645361,,-67.93820898 -45.86621382,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.9397787 -45.86446671,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.94026881 -45.86394522,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94016816 -45.86304785,-67.9407513 -45.863103100000004,-67.9403973 -45.8622551,-67.93757020000001 -45.8636746,-67.93638614 -45.8639203,-67.9374468 -45.8637643,-67.93648120000002 -45.8648999,-67.93542287 -45.86514387,-67.9364544 -45.8650082,-67.9343033 -45.8651128,-67.93322311 -45.86539389,-67.934196 -45.8650755,-67.9339492 -45.8648887,-67.9318678 -45.8652174,-67.93025624 -45.86524613,-67.9317927 -45.8665099,-67.9313958 -45.8663156,-67.9318678 -45.8652174,-67.93029002 -45.86668754,-67.9313529 -45.8667714,-67.9330587 -45.867608100000005,-67.9338741 -45.8675633,-67.93326477 -45.86771282,-67.9346037 -45.8674587,-67.9359341 -45.8661886,-67.93491943 -45.86627952;-67.93491943 -45.86627952,-67.9346037 -45.8674587,-67.9359341 -45.8661886,-67.93326477 -45.86771282,-67.9313529 -45.8667714,-67.9330587 -45.867608100000005,-67.9338741 -45.8675633,-67.93029002 -45.86668754,-67.9313958 -45.8666145,-67.9308701 -45.8667265,-67.9287565 -45.86563580000001,-67.92761571 -45.86576064,-67.9267931 -45.86391,-67.9258704 -45.8645525,-67.9281235 -45.8654938,-67.92562891 -45.86384385,-67.9267287 -45.8641042,-67.9260421 -45.8645525,-67.9272652 -45.8648663,-67.9282737 -45.8628789,-67.9276514 -45.8618479,-67.9260095 -45.86162722,-67.9257202 -45.8606599,-67.9255271 -45.861085800000005,-67.9269326 -45.8609513,-67.9270506 -45.8613025,-67.92472033 -45.86078317,-67.9253769 -45.8604208,-67.9236388 -45.8595317,-67.9233384 -45.8597857,-67.92204432 -45.86025045,-67.9235315 -45.8601219,-67.9222655 -45.8604731,-67.92116295 -45.86077528,-67.9219651 -45.8610335,-67.9157424 -45.8609887,-67.91412974 -45.86109479,-67.9153347 -45.8605702,-67.9157317 -45.8599725,-67.9146159 -45.859457,-67.91347499 -45.85938782,-67.9145408 -45.8594047,-67.9124916 -45.858777,-67.9112792 -45.8592776,-67.91058213 -45.85962973,-67.9112792 -45.8592776,-67.9102921 -45.8588293,-67.9105067 -45.8586425,-67.90964669 -45.85881191,-67.9102653 -45.8586986,-67.9081625 -45.8581195,-67.90707943 -45.8582017,-67.90773330000002 -45.8580522,-67.9073417 -45.8579177,-67.9068965 -45.8568567,-67.9053408 -45.8563822,-67.90400196 -45.85653031,-67.904284 -45.8564084,-67.9033184 -45.8552726,-67.9019022 -45.8551232,-67.90067511 -45.8549717,,-67.90022567 -45.85540767,-67.9008508 -45.8548093,-67.8990161 -45.8545403,-67.898823 -45.8538678,-67.8965485 -45.8545553,-67.89483427 -45.85484841,-67.887429 -45.855564,-67.8894138 -45.853808,-67.8932333 -45.8533447,-67.8969455 -45.8545851,-67.8963768 -45.8546599,-67.88581092 -45.85597227,-67.887429 -45.855564,-67.8882551 -45.8548691,-67.8894138 -45.853808,-67.8920853 -45.8535689,-67.8916454 -45.8538678,-67.8897357 -45.85395,-67.88910 -45.85436,-67.8875685 -45.8562589,-67.885799 -45.8571033,-67.88544 -45.8578281,-67.88523 -45.85794,-67.88402968 -45.85834964,-67.8850043 -45.8580522,-67.8858519 -45.8571556,-67.8847897 -45.8575666,-67.8816998 -45.856909,-67.88007662 -45.85706707,-67.8804874 -45.8568642,-67.8787923 -45.8561469,-67.8767753 -45.8558554,-67.87507141 -45.85623923;-67.87507141 -45.85623923,-67.8804874 -45.8568642,-67.8787923 -45.8561469,-67.8767753 -45.8558554,-67.88007662 -45.85706707,-67.8850043 -45.8580522,-67.8858519 -45.8571556,-67.8847897 -45.8575666,-67.8816998 -45.856909,-67.88402968 -45.85834964,-67.887429 -45.855564,-67.8882551 -45.8548691,-67.8894138 -45.853808,-67.8920853 -45.8535689,-67.8916454 -45.8538678,-67.8897357 -45.85395,-67.88910 -45.85436,-67.8875685 -45.8562589,-67.885799 -45.8571033,-67.88544 -45.8578281,-67.88523 -45.85794,-67.88581092 -45.85597227,-67.887429 -45.855564,-67.8894138 -45.853808,-67.8932333 -45.8533447,-67.8969455 -45.8545851,-67.8963768 -45.8546599,-67.89483427 -45.85484841,-67.9008508 -45.8548093,-67.8990161 -45.8545403,-67.898823 -45.8538678,-67.8965485 -45.8545553,-67.90022567 -45.85540767,,-67.90067511 -45.8549717,-67.904284 -45.8564084,-67.9033184 -45.8552726,-67.9019022 -45.8551232,-67.90400196 -45.85653031,-67.90773330000002 -45.8580522,-67.9073417 -45.8579177,-67.9068965 -45.8568567,-67.9053408 -45.8563822,-67.90707943 -45.8582017,-67.9102653 -45.8586986,-67.9081625 -45.8581195,-67.90964669 -45.85881191,-67.9112792 -45.8592776,-67.9102921 -45.8588293,-67.9105067 -45.8586425,-67.91058213 -45.85962973,-67.9145408 -45.8594047,-67.9124916 -45.858777,-67.9112792 -45.8592776,-67.91347499 -45.85938782,-67.9153347 -45.8605702,-67.9157317 -45.8599725,-67.9146159 -45.859457,-67.91412974 -45.86109479,-67.9219651 -45.8610335,-67.9157424 -45.8609887,-67.92116295 -45.86077528,-67.9235315 -45.8601219,-67.9222655 -45.8604731,-67.92204432 -45.86025045,-67.9253769 -45.8604208,-67.9236388 -45.8595317,-67.9233384 -45.8597857,-67.92472033 -45.86078317,-67.9288423 -45.860757,-67.9286063 -45.8609812,-67.9269433 -45.8608168,-67.9254305 -45.8610559,-67.9256237 -45.8606898,-67.92827234 -45.86082887,-67.9307091 -45.86097370000001,-67.9287457 -45.8609588,-67.9288423 -45.860757,-67.92973166 -45.86112334,-67.9343569 -45.8614145,-67.9335523 -45.861549,-67.9334021 -45.8611381,-67.9309666 -45.8609214,-67.93332777 -45.86169272,-67.9375219 -45.8620421,-67.9357517 -45.861085800000005,-67.9346144 -45.8614519,-67.93652197 -45.86222667,-67.9388309 -45.8607794,-67.938112 -45.8611007,-67.9377472 -45.860899,-67.9362881 -45.8614743,-67.9374897 -45.8619749,-67.93809539 -45.86091501,-67.9404509 -45.8607122,-67.93858410000001 -45.8598305,-67.9376185 -45.8606001,-67.9381227 -45.8610185,-67.9388309 -45.8607794,-67.93965509 -45.86091672,-67.9406118 -45.8607346,-67.9402256 -45.8595616,-67.9415345 -45.8588592,-67.94031229 -45.85896585;-67.94031229 -45.85896585,-67.9406118 -45.8607346,-67.9402256 -45.8595616,-67.9415345 -45.8588592,-67.93965509 -45.86091672,-67.94085860000001 -45.8628677,-67.9404294 -45.860772,-67.94016816 -45.86304785,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94026881 -45.86394522,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.9397787 -45.86446671,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.93820898 -45.86621382,,-67.93822649 -45.86645361,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2647,S2652,S2620,S624</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 944,S56,Linea 940,S78,Linea 932,S645,Linea 931,S2111,Linea 930,S2110,Linea 736,S2167,Linea 1617,S2168,Linea 584,S849,Linea 582,S938,Linea 581,S2443,Linea 578,S2132,Linea 579,S949,Linea 591,S2129,Linea 592,S2259,Linea 594,S17,Linea 735,S295,Linea 734,S3,Linea 613,Q16,Linea 1626,S2240,Linea 471,S2,Linea 1886,S13,Linea 1887,S2523,Linea 469,S26,Linea 467,S2223,Linea 466,S2621,Linea 463,S2375,Linea 462,S2647;S2647,Linea 462,S2375,Linea 463,S2621,Linea 457,S2642,Linea 450,S2645,Linea 448,S2652;S2652,Linea 447,S2638,Linea 446,S2620;S2620,Linea 446,S2638,Linea 447,S2652,Linea 448,S2645,Linea 450,S2642,Linea 457,S2621,Linea 466,S2223,Linea 467,S26,Linea 469,S2523,Linea 1887,S13,Linea 1886,S2,Linea 471,S2240,Linea 1593,Q16,Linea 613,S3,Linea 734,S295,Linea 735,S17,Linea 594,S2259,Linea 592,S2129,Linea 591,S949,Linea 579,S2132,Linea 578,S2443,Linea 581,S938,Linea 582,S849,Linea 584,S2168,Linea 1617,S2167,Linea 736,S2110,Linea 930,S2111,Linea 934,S2334,Linea 1648,S77,Linea 713,S236,Linea 1646,S2231,Linea 927,S2278,Linea 688,S2047,Linea 689,S440,Linea 687,S2359,Linea 1644,S2036,Linea 490,S397,Linea 492,S2013,Linea 493,S401,Linea 681,S697,Linea 194,S625,Linea 189,S624;S624,Linea 189,S625,Linea 193,S2527,Linea 682,S442,Linea 406,S516,Linea 185,S638,Linea 180,S640,Linea 177,S676,Linea 170,S691,Linea 169,S451,Linea 168,S2478,Linea 167,S2510,Linea 164,S678,Linea 162,S662,Linea 161,S246,Linea 158,S680,Linea 1549,S2488,Linea 156,S208,Linea 57,S2253,Linea 52,S326,Linea 8,S2258,Linea 7,S328,Linea 6,S309,Linea 4,S329,Linea 3,S993,Linea 2,S2447,Linea 1506,S176,Linea 1,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92260289 -45.87981886,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.91930941 -45.88137118,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91747464 -45.88372353,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91541483 -45.88231338,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.90970498 -45.88326091,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90591516 -45.88446218,,-67.90594775 -45.88423937,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90705336 -45.88840606,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90362098 -45.8874036,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90293219 -45.8836944,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.89811074 -45.88424629,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89478887 -45.88442779,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.88986813 -45.88509226,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88725199 -45.88498287,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88477851 -45.88530377,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88934482 -45.88367092,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.87931365 -45.88515467,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87597578 -45.88674947,,-67.87630061 -45.88642699,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.8758872 -45.88413516,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.87263059 -45.88283868,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.86703039 -45.88312685,-67.8685462 -45.8831151,-67.869308 -45.8829582,-67.8708422 -45.883018,-67.8705847 -45.8839366,-67.8693122 -45.8842458,-67.8672695 -45.88491500000001,-67.867409 -45.8861099,-67.8680742 -45.8863339,-67.8686106 -45.8860875,-67.8688896 -45.8849822,-67.870338 -45.8842577,-67.86589689 -45.88477956,-67.86739830000002 -45.8868567,-67.8667223 -45.8862667,-67.8672802 -45.8848552,-67.86685323 -45.88712476,-67.8694582 -45.8876409,-67.8695869 -45.887372,-67.8687179 -45.8869837,-67.86795859 -45.88799202,-67.8701127 -45.8886117,-67.869705 -45.8873869,-67.8693724 -45.88761850000001,-67.86819029 -45.88904792;-67.86819029 -45.88904792,-67.8701127 -45.8886117,-67.869705 -45.8873869,-67.8693724 -45.88761850000001,-67.86795859 -45.88799202,-67.8694582 -45.8876409,-67.8695869 -45.887372,-67.8687179 -45.8869837,-67.86685323 -45.88712476,-67.8674626 -45.88708080000001,-67.866658 -45.886864200000005,-67.8658855 -45.887125600000005,-67.8670657 -45.8886864,-67.86520231 -45.88917465,-67.8652418 -45.8907101,-67.8656602 -45.890351700000004,-67.8659928 -45.88941820000001,-67.86328043 -45.89089136,-67.86183 -45.8907101,-67.8635895 -45.8906578,-67.85994544 -45.89074459;-67.85994544 -45.89074459,-67.8583002 -45.8906802,-67.8604245 -45.8905832,-67.85652652 -45.89043864,-67.8569698 -45.8905682,-67.8562617 -45.8905682,-67.8551674 -45.8886042,-67.8555107 -45.8875214,-67.8557789 -45.88838020000001,-67.85537987 -45.88855243;-67.85537987 -45.88855243,-67.8569698 -45.8905682,-67.8562617 -45.8905682,-67.8551674 -45.8886042,-67.8555107 -45.8875214,-67.8557789 -45.88838020000001,-67.85652652 -45.89043864,-67.8583002 -45.8906802,-67.8604245 -45.8905832,-67.85994544 -45.89074459,-67.86183 -45.8907101,-67.8635895 -45.8906578,-67.86328043 -45.89089136,-67.8652418 -45.8907101,-67.8656602 -45.890351700000004,-67.8659928 -45.88941820000001,-67.86520231 -45.88917465,-67.8674626 -45.88708080000001,-67.866658 -45.886864200000005,-67.8658855 -45.887125600000005,-67.8670657 -45.8886864,-67.86685323 -45.88712476,-67.86739830000002 -45.8868567,-67.8667223 -45.8862667,-67.8672802 -45.8848552,-67.86589689 -45.88477956,-67.8672695 -45.88491500000001,-67.867409 -45.8861099,-67.8680742 -45.8863339,-67.8686106 -45.8860875,-67.8688896 -45.8849822,-67.870338 -45.8842577,-67.8693122 -45.8842458,-67.8685462 -45.8831151,-67.869308 -45.8829582,-67.8708422 -45.883018,-67.8705847 -45.8839366,-67.86703039 -45.88312685,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.87263059 -45.88283868,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.8758872 -45.88413516,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.87630061 -45.88642699,,-67.87597578 -45.88674947,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87931365 -45.88515467,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.88934482 -45.88367092,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88477851 -45.88530377,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88725199 -45.88498287,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88986813 -45.88509226,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.89478887 -45.88442779,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89811074 -45.88424629,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.90293219 -45.8836944,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90362098 -45.8874036,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90705336 -45.88840606,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90594775 -45.88423937,,-67.90591516 -45.88446218,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90970498 -45.88326091,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9169762 -45.8821367,-67.9166543 -45.8815466,-67.913146 -45.8824205,-67.9128242 -45.8814645,-67.91214619 -45.88124859,,-67.91210808 -45.8814063,-67.9107428 -45.880501,-67.9119766 -45.880389,-67.9123414 -45.8806952,-67.9129958 -45.8809193,-67.90891537 -45.88072557,,-67.90902811 -45.88062544,-67.9108071 -45.880613,-67.9116762 -45.8803665,-67.9099488 -45.8795972,-67.9089832 -45.8795748,-67.908479 -45.879291,-67.9081464 -45.8778345,-67.9075241 -45.8768784,-67.9078567 -45.8763107,-67.9075456 -45.8753322,-67.9072452 -45.8752799,-67.9064727 -45.8764004,-67.90493501 -45.87690763,-67.9065692 -45.87642280000001,-67.9066443 -45.8758626,-67.9054427 -45.876363,-67.9050243 -45.8759149,-67.90388535 -45.87594679,-67.9027498 -45.8764153,-67.9023206 -45.8766319,-67.9053462 -45.8764079,-67.9049706 -45.8759672,-67.90200809 -45.87637167,-67.8998315 -45.8761838,-67.9001212 -45.8769457,-67.900883 -45.8771399,-67.9025674 -45.8764527,-67.89805175 -45.8762384,,-67.89781334 -45.87614703,-67.8996062 -45.8756758,-67.8981364 -45.8751081,-67.8992522 -45.8749438,-67.89863672 -45.87485225,-67.8992522 -45.8749438,-67.8973424 -45.8751455,-67.8970528 -45.8743089,-67.89611117 -45.87416671,-67.8968275 -45.8739055,-67.8966451 -45.8731809,-67.895268 -45.8734552,-67.8968167 -45.8732108,-67.8973424 -45.8716645,-67.8965807 -45.8705066,-67.89683820000002 -45.8692143,-67.8963447 -45.8685942,-67.89593684 -45.869071,-67.8971064 -45.8687063,-67.897085 -45.8680787,-67.8974926 -45.8676155,-67.89633441 -45.86762629,-67.9010761 -45.8657478,-67.9006255 -45.8656731,-67.8978789 -45.8672495,-67.90019361 -45.86598642;-67.90019361 -45.86598642,-67.9010761 -45.8657478,-67.9006255 -45.8656731,-67.8978789 -45.8672495,-67.89633441 -45.86762629,-67.8979433 -45.8688258,-67.8980505 -45.8673541,-67.89665012 -45.86917164,-67.8970957 -45.8693338,-67.8969562 -45.8699688,-67.8972459 -45.8707905,-67.898823 -45.87161220000001,-67.89860307 -45.87190083,-67.8994882 -45.8693338,-67.8977072 -45.8699986,-67.8991663 -45.8716197,-67.89914372 -45.86914198,-67.903533 -45.8667116,-67.9017627 -45.8675035,-67.9002507 -45.8689297,-67.90238643 -45.86679139,-67.9061723 -45.8665771,-67.905035 -45.8664202,-67.9036188 -45.866734,-67.90565529 -45.8665856,-67.9108179 -45.86391,-67.9094768 -45.8638353,-67.9077816 -45.8657329,-67.9066443 -45.8662484,-67.90869072 -45.86438156,-67.9100454 -45.8663754,-67.9094982 -45.8663306,-67.909627 -45.86429100000001,-67.90947109 -45.86641003,-67.9100668 -45.8647318,-67.9098523 -45.8659197,-67.9103565 -45.8661513,-67.90917641 -45.86476613,-67.9122448 -45.8649709,-67.911129 -45.8644105,-67.9103887 -45.8645226,-67.91093971 -45.86527418,-67.9164934 -45.8652398,-67.9147875 -45.8642536,-67.9133606 -45.865322,-67.9120409 -45.8651352,-67.91575239 -45.86551598,-67.9187572 -45.8661064,-67.9176843 -45.8663679,-67.9172981 -45.8656657,-67.91774956 -45.8661538,-67.9224908 -45.8663306,-67.9191971 -45.8656582,-67.92069068 -45.86664171,-67.9258382 -45.86658460000001,-67.9220402 -45.8663903,-67.92478129 -45.86687146,-67.9266429 -45.8657927,-67.9259992 -45.8665696,-67.92617947 -45.86596757,,-67.92568273 -45.86555172,-67.9284239 -45.8655835,-67.9270077 -45.8655162,-67.92761571 -45.86576064,-67.92887450000002 -45.8655984,-67.929647 -45.8660093,-67.9311919 -45.8652622,-67.93025624 -45.86524613,-67.934196 -45.8650755,-67.9339492 -45.8648887,-67.9318678 -45.8652174,-67.93322311 -45.86539389,-67.9364544 -45.8650082,-67.9343033 -45.8651128,-67.93542287 -45.86514387,-67.9374468 -45.8637643,-67.93648120000002 -45.8648999,-67.93638614 -45.8639203,-67.9407513 -45.863103100000004,-67.9403973 -45.8622551,-67.93757020000001 -45.8636746,-67.94016816 -45.86304785,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94026881 -45.86394522,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.9397787 -45.86446671,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.93820898 -45.86621382,,-67.93822649 -45.86645361,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2695,S945,S963,S784</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 943,S167,Linea 946,S2147,Linea 966,S2465,Linea 968,S387,Linea 970,S316,Linea 969,S39,Linea 957,S36,Linea 1027,S2695;S2695,Linea 1027,S36,Linea 957,S39,Linea 969,S316,Linea 970,S387,Linea 968,S2465,Linea 966,S2147,Linea 946,S167,Linea 943,S229,Linea 944,S56,Linea 940,S78,Linea 932,S645,Linea 1046,S928,Linea 1041,S58,Linea 1727,S945;S945,Linea 1727,S58,Linea 1041,S928,Linea 1046,S645,Linea 931,S2111,Linea 934,S2334,Linea 1648,S77,Linea 713,S236,Linea 1646,S2231,Linea 708,S963;S963,Linea 707,S2039,Linea 709,S2046,Linea 710,S982,Linea 712,S567,Linea 700,S677,Linea 175,S661,Linea 174,S2601,Linea 173,S691,Linea 170,S676,Linea 177,S640,Linea 178,S637,Linea 183,S495,Linea 186,S635,Linea 1555,S2552,Linea 211,S622,Linea 210,S633,Linea 127,S501,Linea 925,S789,Linea 923,Planta Norte,Linea 1214,S783,Linea 905,S629,Linea 631,S2077,Linea 629,S489,Linea 665,S2265,Linea 659,S683,Linea 637,S458,Linea 634,S2720,Linea 632,S460,Linea 616,S469,Linea 614,S2634,Linea 615,S2273,Linea 552,S525,Linea 551,S529,Linea 549,S437,Linea 546,S773,Linea 531,S2151,Linea 415,S774,Linea 414,S722,Linea 413,S710,Linea 402,S2150,Linea 405,S784;S784,Linea 405,S2150,Linea 402,S710,Linea 413,S722,Linea 414,S774,Linea 415,S2151,Linea 531,S773,Linea 546,S437,Linea 549,S529,Linea 551,S525,Linea 552,S2273,Linea 566,S522,Linea 567,S882,Linea 568,S2255,Linea 1421,S354,Linea 1365,S2009,Linea 1363,S2006,Linea 1361,S353,Linea 1836,S997,Linea 854,S2504,Linea 853,S2716,Linea 849,S2056,Linea 850,S2407,Linea 773,S338,Linea 764,S395,Linea 763,S2468,Linea 760,S402,Linea 759,S2417,Linea 768,S172,Linea 1211,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.93512028 -45.8793768,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.94258106 -45.87928487,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.9459034 -45.88040255,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.94607409 -45.88311995,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94628753 -45.88560005,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94746568 -45.88694764;-67.94746568 -45.88694764,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94628753 -45.88560005,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94607409 -45.88311995,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.9459034 -45.88040255,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.94258106 -45.87928487,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92260289 -45.87981886,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.91930941 -45.88137118,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91747464 -45.88372353,-67.9183924 -45.8832943,-67.9178345 -45.8833989,-67.9181349 -45.883832,-67.9182851 -45.8847656,-67.9179955 -45.8868492,-67.9182959 -45.887021,-67.918725 -45.8867895,-67.9189289 -45.8859232,-67.91833856 -45.88592331,-67.9233921 -45.8855124,-67.9230702 -45.8860053,-67.9223835 -45.8861323,-67.9201627 -45.8858186,-67.92270003 -45.88530946,,-67.92210109 -45.88545145;-67.92210109 -45.88545145,,-67.92270003 -45.88530946,-67.9233921 -45.8855124,-67.9230702 -45.8860053,-67.9223835 -45.8861323,-67.9201627 -45.8858186,-67.91833856 -45.88592331,-67.9183924 -45.8832943,-67.9178345 -45.8833989,-67.9181349 -45.883832,-67.9182851 -45.8847656,-67.9179955 -45.8868492,-67.9182959 -45.887021,-67.918725 -45.8867895,-67.9189289 -45.8859232,-67.91747464 -45.88372353,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9169762 -45.8821367,-67.9166543 -45.8815466,-67.913146 -45.8824205,-67.9128242 -45.8814645,-67.91214619 -45.88124859,,-67.91210808 -45.8814063,-67.9107428 -45.880501,-67.9119766 -45.880389,-67.9123414 -45.8806952,-67.9129958 -45.8809193,-67.90891537 -45.88072557,,-67.90902811 -45.88062544,-67.9128993 -45.8770876,-67.9123092 -45.8779241,-67.9113972 -45.8784843,-67.9096162 -45.8795599,-67.9116762 -45.8803665,-67.9107749 -45.88068770000001,-67.91188203 -45.87683257;-67.91188203 -45.87683257,-67.915163 -45.8739802,-67.9151952 -45.8744657,-67.9132426 -45.8763929,-67.91362407 -45.87400466,-67.9147124 -45.8735918,-67.9146481 -45.8732631,-67.9134893 -45.874167,-67.91213626 -45.87472176,-67.9133713 -45.8748243,-67.9129314 -45.8751081,-67.9124272 -45.8746824,-67.9126096 -45.8741968,-67.9134893 -45.8732108,-67.9135108 -45.8728149,-67.9132533 -45.8730091,-67.91185362 -45.87334554,-67.9137897 -45.8706112,-67.913307 -45.8712462,-67.9130816 -45.8716496,-67.9134786 -45.8724265,-67.9134142 -45.87308380000001,-67.91316355 -45.8704339,-67.912792 -45.8681833,-67.9137361 -45.8680638,-67.9160964 -45.8689304,-67.9145193 -45.8701256,-67.91127227 -45.86860891,-67.914927 -45.8677874,-67.912792 -45.8681833,-67.9143801 -45.8679855,-67.9147553 -45.8672868,-67.9154098 -45.8676977,-67.9130059 -45.86729039,-67.9110271 -45.86621850000001,-67.9131621 -45.8664613,-67.9139614 -45.8669058,-67.90947109 -45.86641003,-67.9100454 -45.8663754,-67.9094982 -45.8663306,-67.909627 -45.86429100000001,-67.90869072 -45.86438156,-67.9108179 -45.86391,-67.9094768 -45.8638353,-67.9077816 -45.8657329,-67.9066443 -45.8662484,-67.90565529 -45.8665856,-67.906419 -45.86626330000001,-67.9050887 -45.8652025,-67.9043591 -45.864814,-67.90314798 -45.8648888,-67.9039943 -45.8644255,-67.9028034 -45.8637381,-67.8999174 -45.8635812,-67.89867893 -45.86374335,-67.8993487 -45.8636634,-67.8988981 -45.8636933,-67.89861920000001 -45.8635215,-67.8975525 -45.86346654,,-67.89779792 -45.86312838,-67.8962696 -45.8632899,-67.8974175 -45.8625203,-67.8984583 -45.8622177,-67.8946526 -45.86372426,-67.8961945 -45.8632674,-67.8952932 -45.8629985,-67.8948426 -45.8620347,-67.89369378 -45.862107,-67.8961086 -45.8601668,-67.8949714 -45.8618927,-67.89506126 -45.86022417,-67.8960952 -45.8598436,-67.8959692 -45.8585678,-67.8961945 -45.8583138,-67.8955936 -45.8581419,-67.8949177 -45.8572976,-67.8950787 -45.8562589,-67.894907 -45.8558629,-67.8937376 -45.8558928,-67.8932869 -45.8566101,-67.8928149 -45.8568492,-67.8926003 -45.8566998,-67.89119881 -45.85678635,-67.8915596 -45.8569165,-67.8910661 -45.8570435,-67.8905296 -45.8572453,-67.8862917 -45.8600846,-67.8869355 -45.8600547,-67.8873861 -45.8596438,-67.8876221 -45.8588667,-67.8886843 -45.8579999,-67.88485253 -45.86038085,-67.8855836 -45.8605329,-67.8847253 -45.8611754,-67.8843284 -45.8612427,-67.88286864 -45.86153258,-67.8809917 -45.8619301,-67.8822792 -45.8616611,-67.8835666 -45.8617507,-67.8845859 -45.8612277,-67.8843284 -45.8612427,-67.87889297 -45.8626014,-67.8800154 -45.8627071,-67.880863 -45.8635887,-67.8814101 -45.8638502,-67.881496 -45.8643508,-67.8795862 -45.8651352,-67.87816911 -45.86559299,-67.8794253 -45.8652025,-67.8813779 -45.8643508,-67.8805947 -45.8648065,-67.8801227 -45.8652622,-67.8801119 -45.8658151,-67.8798544 -45.8661513,-67.87841593 -45.86693979,-67.8773224 -45.8682132,-67.8784168 -45.867951700000006,-67.8792751 -45.866988,-67.87529512 -45.86884053,-67.8755951 -45.8690125,-67.8751016 -45.8692815,-67.8764427 -45.8695952,-67.87545792 -45.87007243,-67.8735942 -45.8680488,-67.8724301 -45.8682281,-67.8724086 -45.8686689,-67.8764427 -45.8695952,-67.8729107 -45.86822856,-67.8699839 -45.8693413,-67.8700376 -45.8699389,-67.8703916 -45.8701929,-67.8709173 -45.8699239,-67.8707349 -45.8692815,-67.8712177 -45.8686166,-67.8731596 -45.8681236,-67.86891343 -45.86940172,-67.8665292 -45.8704394,-67.8664756 -45.8701107,-67.8674197 -45.8697073,-67.8698659 -45.8700883,-67.8700376 -45.8699389,-67.8700268 -45.8692964,-67.86552841 -45.87071955,-67.8665292 -45.8705589,-67.866143 -45.8710594,-67.8657889 -45.8704767,-67.8668725 -45.8688706,-67.86653014 -45.86909111,-67.8668725 -45.8688706,-67.8667974 -45.868646500000004,-67.8676665 -45.8677127,-67.867012 -45.86727940000001,-67.86635342 -45.86702056,-67.8668189 -45.8667639,-67.8664005 -45.866988,-67.8663254 -45.8676305,-67.86498939 -45.86808329,-67.8639972 -45.8691171,-67.8657031 -45.8680713,-67.86235431 -45.86962035,-67.8593409 -45.8716048,-67.85971640000001 -45.8705365,-67.8614008 -45.870529,-67.861948 -45.8698268,-67.8630531 -45.8694832,-67.85882935 -45.87179542,-67.857635 -45.8744807,-67.8541696 -45.874152,-67.8588581 -45.8727103,-67.8593409 -45.8716048,-67.857019 -45.87438052,-67.84873010000001 -45.87312860000001,-67.8543305 -45.8741595,-67.857635 -45.8744807,-67.84711722 -45.87310355,-67.8489339 -45.8731324,-67.8501302 -45.8733565,-67.8485316 -45.8736739,-67.8459191 -45.8729942,-67.84549 -45.8723406,-67.8449106 -45.8726842,-67.84336962 -45.87289033,-67.8464448 -45.8713396,-67.8465736 -45.871657000000006,-67.84484620000002 -45.8726692,-67.84458226 -45.87132178,-67.8433174 -45.8702414,-67.8424054 -45.8705701,-67.8442401 -45.8712014,-67.8457582 -45.8705029,-67.8468794 -45.8714778,-67.8465736 -45.871657000000006,-67.8464073 -45.8713396,-67.84266503 -45.8702826,-67.8432369 -45.868004,-67.8457797 -45.8688706,-67.8430974 -45.8688034,-67.84118770000002 -45.8704842,-67.843312 -45.8702825,-67.84141979 -45.86801361,-67.8478396 -45.8688557,-67.8458226 -45.8688034,-67.8432369 -45.868004,-67.84740418 -45.86920331;-67.84740418 -45.86920331,-67.8478396 -45.8688557,-67.8458226 -45.8688034,-67.8432369 -45.868004,-67.84141979 -45.86801361,-67.8432369 -45.868004,-67.8457797 -45.8688706,-67.8430974 -45.8688034,-67.84118770000002 -45.8704842,-67.843312 -45.8702825,-67.84266503 -45.8702826,-67.8433174 -45.8702414,-67.8424054 -45.8705701,-67.8442401 -45.8712014,-67.8457582 -45.8705029,-67.8468794 -45.8714778,-67.8465736 -45.871657000000006,-67.8464073 -45.8713396,-67.84458226 -45.87132178,-67.8464448 -45.8713396,-67.8465736 -45.871657000000006,-67.84484620000002 -45.8726692,-67.84336962 -45.87289033,-67.8489339 -45.8731324,-67.8501302 -45.8733565,-67.8485316 -45.8736739,-67.8459191 -45.8729942,-67.84549 -45.8723406,-67.8449106 -45.8726842,-67.84711722 -45.87310355,-67.84873010000001 -45.87312860000001,-67.8543305 -45.8741595,-67.857635 -45.8744807,-67.857019 -45.87438052,-67.857635 -45.8744807,-67.8541696 -45.874152,-67.8588581 -45.8727103,-67.8593409 -45.8716048,-67.85882935 -45.87179542,-67.8593409 -45.8716048,-67.85971640000001 -45.8705365,-67.8614008 -45.870529,-67.861948 -45.8698268,-67.8630531 -45.8694832,-67.86235431 -45.86962035,-67.8639972 -45.8691171,-67.8657031 -45.8680713,-67.86498939 -45.86808329,-67.8668189 -45.8667639,-67.8664005 -45.866988,-67.8663254 -45.8676305,-67.86635342 -45.86702056,-67.8682029 -45.8666817,-67.8692436 -45.8661961,-67.8702307 -45.8647318,-67.8701663 -45.8642088,-67.86895092 -45.86422008,-67.8701234 -45.8635663,-67.8698123 -45.86132490000001,-67.8679776 -45.8603237,-67.8670549 -45.8588966,-67.8654027 -45.859457,-67.8654563 -45.8601518,-67.8656709 -45.8602639,-67.86513556 -45.86046435,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.98715669 -45.86146692,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98206338 -45.86352335,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98026531 -45.86300386,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.97692655 -45.86298292,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97781889 -45.86412305,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97170451 -45.86764851,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.96898996 -45.86789944,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.9688479 -45.86924263,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.96992116 -45.87035971,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.9672039 -45.87497495,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.96572509 -45.87368099,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96214261 -45.87344787,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.95720623 -45.87256309,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95650202 -45.87386891,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95610675 -45.87170205,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95709848 -45.86769228,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2597,S2501,S2332</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 754,S2408,Linea 752,S370,Linea 1842,S2421,Linea 741,S980,Linea 740,S377,Linea 748,S381,Linea 747,S2572,Linea 746,S315,Linea 1017,S59,Linea 1295,S2116,Linea 1293,S1,Linea 1292,S2189,Linea 797,S2095,Linea 1825,S2479,Linea 795,S189,Linea 1826,S18,Linea 1177,S2243,Linea 807,S205,Linea 1181,S2139,Linea 1180,S8,Linea 1183,S223,Linea 1191,S2365,Linea 1195,S2622,Linea 1197,S127,Linea 1201,S197,Linea 1467,S2429,Linea 1476,S207,Linea 1475,S243,Linea 1482,S2104,Linea 1481,S2597;S2597,Linea 1481,S2104,Linea 1482,S243,Linea 1475,S207,Linea 1476,S2429,Linea 1474,S148,Linea 1473,S183,Linea 1462,S2101,Linea 1208,S138,Linea 1490,S2080,Linea 1804,S184,Linea 1206,S194,Linea 820,S2177,Linea 815,S2242,Linea 821,S2441,Linea 823,S2406,Linea 1427,S2087,Linea 1426,S2081,Linea 1370,S2091,Linea 1371,S325,Linea 1372,S323,Linea 1373,S2255,Linea 568,S882,Linea 622,S523,Linea 215,S788,Linea 216,S2676,Linea 217,S2396,Linea 240,S2395,Linea 242,S2294,Linea 572,S874,Linea 573,S2501;S2501,Linea 573,S874,Linea 571,S2485,Linea 570,S875,Linea 564,S2525,Linea 554,S524,Linea 553,S529,Linea 551,S525,Linea 552,S2273,Linea 615,S2634,Linea 614,S469,Linea 616,S460,Linea 632,S2720,Linea 634,S458,Linea 660,S683,Linea 659,S2265,Linea 665,S489,Linea 629,S2077,Linea 631,S629,Linea 905,S783,Linea 1214,Planta Norte,Linea 923,S789,Linea 925,S501,Linea 127,S633,Linea 210,S622,Linea 912,S2387,Linea 205,S632,Linea 676,S431,Linea 1638,S692,Linea 1215,S423,Linea 653,S2019,Linea 654,S2332;S2332,Linea 654,S2019,Linea 653,S423,Linea 1215,S692,Linea 1703,S431,Linea 676,S632,Linea 205,S2387,Linea 912,S622,Linea 211,S2552,Linea 1563,S635,Linea 186,S495,Linea 183,S637,Linea 178,S640,Linea 177,S676,Linea 170,S691,Linea 169,S451,Linea 168,S2478,Linea 167,S2510,Linea 164,S678,Linea 162,S662,Linea 161,S246,Linea 158,S680,Linea 1549,S2488,Linea 156,S208,Linea 57,S2253,Linea 52,S326,Linea 8,S2258,Linea 7,S328,Linea 6,S309,Linea 4,S329,Linea 3,S993,Linea 2,S2447,Linea 1506,S176,Linea 1,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9513514 -45.867951700000006,-67.9506004 -45.8681534,-67.9493558 -45.8665622,-67.9490876 -45.8664576,-67.9492164 -45.8668461,-67.95075242 -45.86791677,-67.9511476 -45.8693039,-67.95089010000001 -45.8697222,-67.9506433 -45.8681011,-67.9512978 -45.867892,-67.95011093 -45.86936834,-67.9526013 -45.869965,-67.9517484 -45.8700734,-67.9508901 -45.8697222,-67.9511476 -45.8693039,-67.95188123 -45.87007275,-67.9518449 -45.870925,-67.9516733 -45.8706037,-67.9509866 -45.870275,-67.95089010000001 -45.8697222,-67.9517484 -45.8700734,-67.9526281 -45.8699912,-67.95082673 -45.87123588,-67.9510081 -45.87218,-67.9515123 -45.8715599,-67.9518449 -45.870925,-67.94974928 -45.87213834,-67.9508579 -45.8736739,-67.9509115 -45.8721426,-67.94983615 -45.87396079,-67.9521346 -45.8759746,-67.951448 -45.8759597,-67.9509008 -45.8738383,-67.95155064 -45.87647635,-67.9521346 -45.8759746,-67.9517162 -45.8759074,-67.9513943 -45.8758999,-67.9525959 -45.87702780000001,-67.95337920000001 -45.8774162,-67.95259842 -45.87763583,-67.9538298 -45.8776104,-67.9575419 -45.8788205,-67.9596341 -45.8789624,-67.9602242 -45.8794852,-67.95937836 -45.87978501,-67.967391 -45.8796271,-67.9660606 -45.879657,-67.9619408 -45.879179,-67.959795 -45.8789997,-67.9602242 -45.8794852,-67.96661757 -45.87943084,-67.9708028 -45.8792686,-67.9686999 -45.8795524,-67.9682064 -45.8792238,-67.96993071 -45.87922522,-67.9739785 -45.8781632,-67.9745579 -45.8782677,-67.9740644 -45.8788802,-67.9710174 -45.8792537,-67.97210325 -45.8786421,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9755771 -45.8785142,-67.9742253 -45.8787756,-67.974236 -45.878222900000004,-67.9757414 -45.87911165,-67.9789352 -45.8795823,-67.9791069 -45.8776627,-67.9756737 -45.8784769,-67.9758239 -45.8787234,-67.9765105 -45.8789474,-67.97764389 -45.88001208,-67.9789352 -45.8795823,-67.9789889 -45.8790669,-67.9799759 -45.8791491,-67.97934342 -45.87920812,-67.9797721 -45.879179,-67.9789889 -45.8790669,-67.9792571 -45.8776403,-67.9831409 -45.876744,-67.9844499 -45.8766842,-67.9838705 -45.8772892,-67.98257485 -45.87765379,-67.9838705 -45.8772892,-67.9842675 -45.8766469,-67.9854584 -45.876617,-67.9846001 -45.8763854,-67.98281428 -45.87644776,-67.9865313 -45.8763033,-67.9853833 -45.8764975,-67.98469660000002 -45.8764303,-67.98563419 -45.87640922,-67.9896748 -45.8771548,-67.9892349 -45.8767216,-67.985158 -45.8765946,-67.9863167 -45.8762734,-67.98904006 -45.87741924,-67.9909623 -45.8768411,-67.9909086 -45.8766394,-67.9893529 -45.876729,-67.9896641 -45.8770726,-67.98995293 -45.87688436,-67.9932904 -45.8760792,-67.9926252 -45.8763556,-67.9912949 -45.8766319,-67.99230343 -45.87612978,-68.0007684 -45.8741147,-67.9944921 -45.8759223,-67.9942346 -45.8757953,-68.00013115 -45.87419939,-68.0041802 -45.8731137,-68.0035472 -45.8731286,-68.0014122 -45.8739055,-68.00353282 -45.873189,-68.0046093 -45.8728523,-68.0045557 -45.8727178,-68.0070448 -45.8717766,-68.00605381 -45.87173811,-68.0100918 -45.8701854,-68.0091584 -45.8701107,-68.0076241 -45.8713582,-68.00929547 -45.87031042,-68.0112183 -45.870163,-68.0137074 -45.8697596,-68.01323141 -45.86984796,-68.0170333 -45.8699613,-68.0162179 -45.8701854,-68.0148554 -45.8699837,-68.01624065 -45.87002946,-68.0173981 -45.8697447,-68.018117 -45.8693263,-68.019619 -45.8685942,-68.01888103 -45.86869015,-68.0200803 -45.8683477,-68.0205953 -45.867877,-68.0235457 -45.8671822,-68.0237496 -45.867765,-68.02227322 -45.8681232,-68.0183744 -45.871052,-68.0195653 -45.8706187,-68.020606 -45.8698343,-68.0231166 -45.8688856,-68.0237281 -45.8683701,-68.0236638 -45.8680862,-68.01664295 -45.87109696;-68.01664295 -45.87109696,-68.0183744 -45.871052,-68.0195653 -45.8706187,-68.020606 -45.8698343,-68.0231166 -45.8688856,-68.0237281 -45.8683701,-68.0236638 -45.8680862,-68.02227322 -45.8681232,-68.0200803 -45.8683477,-68.0205953 -45.867877,-68.0235457 -45.8671822,-68.0237496 -45.867765,-68.01888103 -45.86869015,-68.0173981 -45.8697447,-68.018117 -45.8693263,-68.019619 -45.8685942,-68.01624065 -45.87002946,-68.0170333 -45.8699613,-68.0162179 -45.8701854,-68.0148554 -45.8699837,-68.01323141 -45.86984796,-68.0136108 -45.8697596,-68.012892 -45.8698418,-68.0106711 -45.8695579,-68.0112398 -45.869416,-68.0126882 -45.8689677,-68.01223482 -45.86912312,-68.0131066 -45.8689005,-68.0126238 -45.8687212,-68.0113363 -45.868385,-68.01036 -45.8679741,-68.0097055 -45.8679816,-68.0074954 -45.8686166,-68.00620422 -45.86892139,-68.0070448 -45.8686241,-68.0060685 -45.868385,-68.00449906 -45.86852742,-68.0041587 -45.8700285,-68.0051243 -45.8686091,-68.00284674 -45.87040916,-68.0035579 -45.8703423,-68.0025816 -45.8706859,-68.0014014 -45.8705066,-67.99960904 -45.87080973,,-67.99921407 -45.87121751,-67.9971957 -45.8714031,-67.9989982 -45.8712611,-67.9998028 -45.8710071,-67.99553288 -45.87226112,-67.9929739 -45.8721949,-67.9927379 -45.872546,-67.993784 -45.8729494,-67.9957634 -45.8725273,-67.9964232 -45.8722024,-67.99156523 -45.87210921,-67.9930758 -45.87218,-67.992754 -45.8724788,-67.9914343 -45.8718886,-67.9915845 -45.8711565,-67.9912734 -45.8710071,-67.9900866 -45.8710699,-67.9910052 -45.8707457,-67.9910266 -45.8705664,-67.99163820000001 -45.8700883,-67.9915524 -45.8697073,-67.99024475 -45.86974641,-67.9914558 -45.8692516,-67.9914558 -45.8690499,-67.9925716 -45.8679293,-67.99174523 -45.8677107,-67.9929578 -45.8671225,-67.9928398 -45.8662783,-67.9924321 -45.8655835,-67.9919815 -45.8652548,-67.992121 -45.8648663,-67.9910159 -45.864672,-67.9918528 -45.8642238,-67.99158422 -45.86437969,-67.9920459 -45.8642163,-67.9910159 -45.864672,-67.9903078 -45.8650157,-67.9890847 -45.8656208,-67.9855978 -45.8654415,-67.9855227 -45.865322,-67.98422803 -45.86529103,-67.9859948 -45.8647094,-67.9874003 -45.863783,-67.98677491 -45.86342245,-67.9886341 -45.8629088,-67.9906297 -45.8618479,-67.9911232 -45.8617956,-67.99023202 -45.86204363,-67.9911339 -45.8618479,-67.9904687 -45.8619002,-67.9910696 -45.8615117,-67.9918849 -45.861295,-67.9930007 -45.8606151,-67.99220337 -45.86057361,-67.9928935 -45.8605404,-67.9914236 -45.8609588,-67.98931 -45.8614369,-67.9889023 -45.8613323,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86821501 -45.85959306,-67.8666258 -45.8579551,-67.8677523 -45.8588443,-67.8689218 -45.8588293,-67.8688896 -45.8591954,-67.86509618 -45.85797591,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86269634 -45.8576934,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86119926 -45.8582863,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.85800456 -45.85865306,-67.8602314 -45.85924030000001,-67.8568411 -45.8591506,-67.8585362 -45.8586425,-67.85979998 -45.85959279,-67.8623772 -45.8601145,-67.8619158 -45.8597185,-67.86181930000001 -45.8591954,-67.8608966 -45.8592179,-67.8613425 -45.86055445,-67.8623772 -45.8601145,-67.8618085 -45.8597185,-67.8601241 -45.8605852,-67.85862453 -45.86123384;-67.85862453 -45.86123384,-67.8623772 -45.8601145,-67.8618085 -45.8597185,-67.8601241 -45.8605852,-67.8613425 -45.86055445,-67.8632784 -45.8615042,-67.863096 -45.86128,-67.8622055 -45.8610559,-67.861948 -45.8605105,-67.86252974 -45.86187269,-67.8653276 -45.8635663,-67.8648341 -45.8637904,-67.8645015 -45.8630059,-67.8653491 -45.8606898,-67.8640616 -45.8614295,-67.864423 -45.86337238,-67.8639328 -45.8659271,-67.8645658 -45.8647542,-67.8655207 -45.8635513,-67.86331328 -45.86669187,-67.8659713 -45.8654266,-67.8650701 -45.8654864,-67.864598 -45.8658599,-67.86542164 -45.86561862,-67.8640509 -45.869035,-67.8651345 -45.867384,-67.8649521 -45.8657329,-67.8658748 -45.8655237,-67.86235431 -45.86962035,-67.8639972 -45.8691171,-67.8657031 -45.8680713,-67.86498939 -45.86808329,-67.8668189 -45.8667639,-67.8664005 -45.866988,-67.8663254 -45.8676305,-67.86635342 -45.86702056,-67.8668725 -45.8688706,-67.8667974 -45.868646500000004,-67.8676665 -45.8677127,-67.867012 -45.86727940000001,-67.86653014 -45.86909111,-67.8665292 -45.8705589,-67.866143 -45.8710594,-67.8657889 -45.8704767,-67.8668725 -45.8688706,-67.86552841 -45.87071955,-67.8665292 -45.8704394,-67.8664756 -45.8701107,-67.8674197 -45.8697073,-67.8698659 -45.8700883,-67.8700376 -45.8699389,-67.8700268 -45.8692964,-67.86891343 -45.86940172,-67.8699839 -45.8693413,-67.8700376 -45.8699389,-67.8703916 -45.8701929,-67.8709173 -45.8699239,-67.8707349 -45.8692815,-67.8712177 -45.8686166,-67.8731596 -45.8681236,-67.8729107 -45.86822856,-67.8735942 -45.8680488,-67.8724301 -45.8682281,-67.8724086 -45.8686689,-67.8764427 -45.8695952,-67.87545792 -45.87007243,-67.8773439 -45.8681385,-67.878288 -45.8679816,-67.8767216 -45.8696102,-67.87529512 -45.86884053,-67.8773224 -45.8682132,-67.8784168 -45.867951700000006,-67.8792751 -45.866988,-67.87841593 -45.86693979,-67.8794253 -45.8652025,-67.8813779 -45.8643508,-67.8805947 -45.8648065,-67.8801227 -45.8652622,-67.8801119 -45.8658151,-67.8798544 -45.8661513,-67.87816911 -45.86559299,-67.8800154 -45.8627071,-67.880863 -45.8635887,-67.8814101 -45.8638502,-67.881496 -45.8643508,-67.8795862 -45.8651352,-67.87889297 -45.8626014,-67.8809917 -45.8619301,-67.8822792 -45.8616611,-67.8835666 -45.8617507,-67.8845859 -45.8612277,-67.8843284 -45.8612427,-67.88286864 -45.86153258,-67.8855836 -45.8605329,-67.8847253 -45.8611754,-67.8843284 -45.8612427,-67.88485253 -45.86038085,-67.8862917 -45.8600846,-67.8869355 -45.8600547,-67.8873861 -45.8596438,-67.8876221 -45.8588667,-67.8886843 -45.8579999,-67.8905296 -45.8572453,-67.8915596 -45.8569165,-67.8910661 -45.8570435,-67.89119881 -45.85678635,-67.8960952 -45.8598436,-67.8959692 -45.8585678,-67.8961945 -45.8583138,-67.8955936 -45.8581419,-67.8949177 -45.8572976,-67.8950787 -45.8562589,-67.894907 -45.8558629,-67.8937376 -45.8558928,-67.8932869 -45.8566101,-67.8928149 -45.8568492,-67.8926003 -45.8566998,-67.89506126 -45.86022417,-67.8961086 -45.8601668,-67.8949714 -45.8618927,-67.89369378 -45.862107,-67.8961945 -45.8632674,-67.8952932 -45.8629985,-67.8948426 -45.8620347,-67.8946526 -45.86372426,-67.8942311 -45.8647841,-67.8944886 -45.8644778,-67.8944886 -45.8640444,-67.8955936 -45.8639772,-67.8958511 -45.8637307,-67.8924736 -45.86523062,-67.8914094 -45.8658749,-67.893244 -45.8652249,-67.88982897 -45.86617984,-67.8899288 -45.8678098,-67.8895211 -45.8675184,-67.8886414 -45.8671001,-67.8869569 -45.8665398,-67.8880835 -45.86621850000001,-67.8924072 -45.8666593,-67.8915596 -45.865957,-67.88880717 -45.86815467,,-67.88877281 -45.86858617,-67.8896284 -45.868654,-67.8885341 -45.8711117,-67.889092 -45.8708652,-67.88842641 -45.87090404,-67.8895426 -45.8722024,-67.888298 -45.8715525,-67.8881264 -45.8713806,-67.8885341 -45.8711117,-67.8891778 -45.8709175,-67.88809317 -45.872722,-67.888577 -45.8727551,-67.887826 -45.8726879,-67.8874612 -45.8724265,-67.8859162 -45.87245630000001,-67.88421848 -45.87259067;-67.88421848 -45.87259067,-67.888577 -45.8727551,-67.887826 -45.8726879,-67.8874612 -45.8724265,-67.8859162 -45.87245630000001,-67.88809317 -45.872722,-67.8895426 -45.8722024,-67.888298 -45.8715525,-67.8881264 -45.8713806,-67.8885341 -45.8711117,-67.8891778 -45.8709175,-67.88842641 -45.87090404,-67.8896284 -45.868654,-67.8885341 -45.8711117,-67.889092 -45.8708652,-67.88877281 -45.86858617,,-67.88880717 -45.86815467,-67.8899288 -45.8678098,-67.8895211 -45.8675184,-67.8886414 -45.8671001,-67.8869569 -45.8665398,-67.8880835 -45.86621850000001,-67.8924072 -45.8666593,-67.8915596 -45.865957,-67.88982897 -45.86617984,-67.8914094 -45.8658749,-67.893244 -45.8652249,-67.8924736 -45.86523062,-67.8942311 -45.8647841,-67.8944886 -45.8644778,-67.8944886 -45.8640444,-67.8955936 -45.8639772,-67.8958511 -45.8637307,-67.8946526 -45.86372426,-67.8962696 -45.8632899,-67.8974175 -45.8625203,-67.8984583 -45.8622177,-67.89779792 -45.86312838,,-67.8975525 -45.86346654,-67.8993487 -45.8636634,-67.8988981 -45.8636933,-67.89861920000001 -45.8635215,-67.89867893 -45.86374335,-67.9039943 -45.8644255,-67.9028034 -45.8637381,-67.8999174 -45.8635812,-67.90314798 -45.8648888,-67.906419 -45.86626330000001,-67.9050887 -45.8652025,-67.9043591 -45.864814,-67.90565529 -45.8665856,-67.9108179 -45.86391,-67.9094768 -45.8638353,-67.9077816 -45.8657329,-67.9066443 -45.8662484,-67.90869072 -45.86438156,-67.9100454 -45.8663754,-67.9094982 -45.8663306,-67.909627 -45.86429100000001,-67.90947109 -45.86641003,-67.9100668 -45.8647318,-67.9098523 -45.8659197,-67.9103565 -45.8661513,-67.90917641 -45.86476613,-67.9122448 -45.8649709,-67.911129 -45.8644105,-67.9103887 -45.8645226,-67.91093971 -45.86527418,-67.9164934 -45.8652398,-67.9147875 -45.8642536,-67.9133606 -45.865322,-67.9120409 -45.8651352,-67.91575239 -45.86551598,-67.9187572 -45.8661064,-67.9176843 -45.8663679,-67.9172981 -45.8656657,-67.91774956 -45.8661538,-67.9224908 -45.8663306,-67.9191971 -45.8656582,-67.92069068 -45.86664171,-67.9258382 -45.86658460000001,-67.9220402 -45.8663903,-67.92478129 -45.86687146,-67.9266429 -45.8657927,-67.9259992 -45.8665696,-67.92617947 -45.86596757,,-67.92568273 -45.86555172,-67.9284239 -45.8655835,-67.9270077 -45.8655162,-67.92761571 -45.86576064,-67.92887450000002 -45.8655984,-67.929647 -45.8660093,-67.9311919 -45.8652622,-67.93025624 -45.86524613,-67.934196 -45.8650755,-67.9339492 -45.8648887,-67.9318678 -45.8652174,-67.93322311 -45.86539389,-67.9364544 -45.8650082,-67.9343033 -45.8651128,-67.93542287 -45.86514387,-67.9374468 -45.8637643,-67.93648120000002 -45.8648999,-67.93638614 -45.8639203,-67.9407513 -45.863103100000004,-67.9403973 -45.8622551,-67.93757020000001 -45.8636746,-67.94016816 -45.86304785,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94026881 -45.86394522,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.9397787 -45.86446671,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.93820898 -45.86621382,,-67.93822649 -45.86645361,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2564,S2550,S2081,S2010</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 943,S167,Linea 946,S2147,Linea 966,S2465,Linea 968,S387,Linea 970,S316,Linea 969,S39,Linea 957,S36,Linea 1027,S2695,Linea 1026,S43,Linea 1088,S2707,Linea 1098,S42,Linea 1093,S34,Linea 1094,S29,Linea 1096,S2564;S2564,Linea 1096,S29,Linea 1094,S34,Linea 1093,S42,Linea 1098,S2707,Linea 1088,S43,Linea 1026,S2695,Linea 1027,S36,Linea 957,S39,Linea 969,S316,Linea 970,S387,Linea 968,S2465,Linea 1715,S546,Linea 1212,S962,Linea 1008,S315,Linea 790,S2546,Linea 792,S2503,Linea 782,S2547,Linea 785,S2460,Linea 784,S345,Linea 1658,S2550;S2550,Linea 1658,S345,Linea 784,S2460,Linea 785,S2547,Linea 782,S2503,Linea 792,S2546,Linea 790,S315,Linea 1017,S59,Linea 1295,S2116,Linea 1293,S1,Linea 1292,S2189,Linea 797,S2095,Linea 1828,S198,Linea 805,S287,Linea 839,S312,Linea 1834,S339,Linea 1833,S2548,Linea 1678,S249,Linea 830,S285,Linea 1832,S2406,Linea 1427,S2087,Linea 1426,S2081;S2081,Linea 1370,S2091,Linea 1371,S325,Linea 1372,S323,Linea 1373,S2255,Linea 1421,S354,Linea 1365,S2009,Linea 1363,S2006,Linea 1361,S353,Linea 1836,S997,Linea 854,S2504,Linea 853,S2716,Linea 849,S2056,Linea 850,S2407,Linea 773,S338,Linea 764,S395,Linea 763,S2468,Linea 760,S402,Linea 759,S2417,Linea 768,S172,Linea 1211,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base,Linea 19,S159,Linea 21,S2010;S2010,Linea 21,S159,Linea 19,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.93512028 -45.8793768,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.94258106 -45.87928487,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.9459034 -45.88040255,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.94607409 -45.88311995,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94628753 -45.88560005,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94746568 -45.88694764,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94972726 -45.88693813,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.95178221 -45.88666191,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95650174 -45.8868325,-67.9572201 -45.886797,-67.9568553 -45.8863339,-67.9577565 -45.8853929,-67.9572201 -45.8847357,-67.9574776 -45.8842727,-67.95630644 -45.88424642,-67.9573381 -45.8842279,-67.9571986 -45.8848253,-67.9566514 -45.8846162,-67.9557717 -45.8837574,-67.9548705 -45.8829881,-67.9542482 -45.8827267,-67.95285891 -45.88298809,-67.9536474 -45.8826894,-67.9525745 -45.8824205,-67.95095172 -45.88235468;-67.95095172 -45.88235468,-67.9536474 -45.8826894,-67.9525745 -45.8824205,-67.95285891 -45.88298809,-67.9573381 -45.8842279,-67.9571986 -45.8848253,-67.9566514 -45.8846162,-67.9557717 -45.8837574,-67.9548705 -45.8829881,-67.9542482 -45.8827267,-67.95630644 -45.88424642,-67.9572201 -45.886797,-67.9568553 -45.8863339,-67.9577565 -45.8853929,-67.9572201 -45.8847357,-67.9574776 -45.8842727,-67.95650174 -45.8868325,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95178221 -45.88666191,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.94972726 -45.88693813,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94746568 -45.88694764,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94628753 -45.88560005,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94607409 -45.88311995,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.9459034 -45.88040255,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.94258106 -45.87928487,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.93938002 -45.87863178,,-67.93921257 -45.87804782,-67.9512119 -45.8788877,-67.952435 -45.8787607,-67.9518127 -45.8800454,-67.9474354 -45.8786785,-67.9441524 -45.8779764,-67.9427791 -45.8776328,-67.940805 -45.8776926,-67.94944114 -45.87896309,-67.9534543 -45.8773565,-67.9526925 -45.87711,-67.9530144 -45.8775731,-67.9524779 -45.878813,-67.9512334 -45.8789325,-67.95259842 -45.87763583,-67.95394780000001 -45.8775432,-67.9556751 -45.8774162,-67.9568982 -45.8769083,-67.9582715 -45.8767813,-67.95749384 -45.8768117,-67.9582286 -45.8768411,-67.9568982 -45.8769083,-67.9591405 -45.8758775,-67.95866674 -45.87595626,-67.9605675 -45.8757281,-67.9607499 -45.8763556,-67.960943 -45.8763182,-67.96020228 -45.87662649,-67.9618549 -45.8754667,-67.9605675 -45.8757281,-67.9612454 -45.87560985,-67.963239 -45.8758775,-67.9627669 -45.8756161,-67.96258505 -45.87617321,,-67.96260538 -45.87628504;-67.96260538 -45.87628504,,-67.96258505 -45.87617321,-67.963239 -45.8758775,-67.9627669 -45.8756161,-67.9612454 -45.87560985,-67.9618549 -45.8754667,-67.9605675 -45.8757281,-67.96020228 -45.87662649,-67.9605675 -45.8757281,-67.9607499 -45.8763556,-67.960943 -45.8763182,-67.95866674 -45.87595626,-67.9582286 -45.8768411,-67.9568982 -45.8769083,-67.9591405 -45.8758775,-67.95749384 -45.8768117,-67.95394780000001 -45.8775432,-67.9556751 -45.8774162,-67.9568982 -45.8769083,-67.9582715 -45.8767813,-67.95259842 -45.87763583,-67.9538298 -45.8776104,-67.9575419 -45.8788205,-67.9596341 -45.8789624,-67.9602242 -45.8794852,-67.95937836 -45.87978501,-67.967391 -45.8796271,-67.9660606 -45.879657,-67.9619408 -45.879179,-67.959795 -45.8789997,-67.9602242 -45.8794852,-67.96661757 -45.87943084,-67.9708028 -45.8792686,-67.9686999 -45.8795524,-67.9682064 -45.8792238,-67.96993071 -45.87922522,-67.9739785 -45.8781632,-67.9745579 -45.8782677,-67.9740644 -45.8788802,-67.9710174 -45.8792537,-67.97210325 -45.8786421,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9755771 -45.8785142,-67.9742253 -45.8787756,-67.974236 -45.878222900000004,-67.9757414 -45.87911165,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9756951 -45.8784321,-67.9790318 -45.877588,-67.9792678 -45.8765199,-67.9792786 -45.8747272,-67.9798257 -45.8760045,-67.9801154 -45.8760643,-67.97932522 -45.87631183,-67.9801047 -45.8737412,-67.9795146 -45.8726879,-67.9791605 -45.8735694,-67.9792249 -45.8748467,-67.9793966 -45.8748467,-67.9797721 -45.8758476,-67.9800725 -45.876012,-67.97905112 -45.87422359,-67.9799759 -45.8737337,-67.9795146 -45.8726879,-67.9809093 -45.8709474,-67.980845 -45.8716421,-67.97987219 -45.87199291,-67.9807377 -45.8716645,-67.9809952 -45.8709175,-67.9819071 -45.8698567,-67.9830122 -45.8690947,-67.9832804 -45.8686614,-67.9840744 -45.8683402,-67.98364252 -45.86827111,-67.9875398 -45.8692665,-67.988205 -45.8691993,-67.9883659 -45.8686465,-67.9866493 -45.8686017,-67.9853296 -45.8685195,-67.9839349 -45.868766,-67.9830122 -45.8690947,-67.9832804 -45.8686614,-67.9841065 -45.8682057,-67.98595749 -45.86942688,,-67.98621539 -45.86906201,-67.9901361 -45.8674661,-67.9900289 -45.8678098,-67.9882801 -45.8686838,-67.9882801 -45.8691246,-67.9875398 -45.8692665,-67.98895281 -45.86742251,-67.9929042 -45.8670777,-67.9928398 -45.8661064,-67.9924321 -45.8655835,-67.9918849 -45.8652398,-67.9909408 -45.867115,-67.9902434 -45.8675334,-67.99174523 -45.8677107,-67.9929578 -45.8671225,-67.9928398 -45.8662783,-67.9924321 -45.8655835,-67.9919815 -45.8652548,-67.992121 -45.8648663,-67.9910159 -45.864672,-67.9918528 -45.8642238,-67.99158422 -45.86437969,-67.9920459 -45.8642163,-67.9910159 -45.864672,-67.9903078 -45.8650157,-67.9890847 -45.8656208,-67.9855978 -45.8654415,-67.9855227 -45.865322,-67.98422803 -45.86529103;-67.98422803 -45.86529103,-67.9859948 -45.8647094,-67.9874003 -45.863783,-67.98677491 -45.86342245,-67.9886341 -45.8629088,-67.9906297 -45.8618479,-67.9911232 -45.8617956,-67.99023202 -45.86204363,-67.9911339 -45.8618479,-67.9904687 -45.8619002,-67.9910696 -45.8615117,-67.9918849 -45.861295,-67.9930007 -45.8606151,-67.99220337 -45.86057361,-67.9928935 -45.8605404,-67.9914236 -45.8609588,-67.98931 -45.8614369,-67.9889023 -45.8613323,-67.98715669 -45.86146692,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98206338 -45.86352335,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98026531 -45.86300386,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.97692655 -45.86298292,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97781889 -45.86412305,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97170451 -45.86764851,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.96898996 -45.86789944,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.9688479 -45.86924263,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.96992116 -45.87035971,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.9672039 -45.87497495,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.96572509 -45.87368099,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96214261 -45.87344787,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.95720623 -45.87256309,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95650202 -45.87386891,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95610675 -45.87170205,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95709848 -45.86769228,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472,-67.9452789 -45.8642312,-67.9498494 -45.8625128,-67.9518986 -45.8627818,-67.95083587 -45.86305697,-67.95192 -45.8629761,-67.9497743 -45.8637232,-67.9510617 -45.8642985,-67.952714 -45.8635738,-67.95161951 -45.86368341;-67.95161951 -45.86368341,-67.95192 -45.8629761,-67.9497743 -45.8637232,-67.9510617 -45.8642985,-67.952714 -45.8635738,-67.95083587 -45.86305697,-67.9452789 -45.8642312,-67.9498494 -45.8625128,-67.9518986 -45.8627818,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S832,S2180,S778,S738,S2666</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 943,S167,Linea 946,S2147,Linea 966,S2465,Linea 968,S387,Linea 970,S316,Linea 969,S39,Linea 957,S36,Linea 1027,S2695,Linea 1026,S43,Linea 1088,S2707,Linea 1098,S42,Linea 1856,S2724,Linea 1092,S163,Linea 1854,S66,Linea 1156,S63,Linea 1154,S65,Linea 1153,S47,Linea 1150,S832;S832,Linea 1286,S2286,Linea 1285,S913,Linea 1284,S910,Linea 1282,S929,Linea 1281,S2034,Linea 1276,S2486,Linea 1275,S2180;S2180,Linea 1274,S914,Linea 1135,S844,Linea 1145,S2658,Linea 1151,S909,Linea 1146,S824,Linea 1144,S823,Linea 1139,S815,Linea 1129,S921,Linea 1273,S2055,Linea 1328,S778;S778,Linea 1127,S758,Linea 1126,S805,Linea 1125,S822,Linea 1123,S821,Linea 1103,S738;S738,Linea 1103,S821,Linea 1123,S822,Linea 1125,S805,Linea 1305,S759,Linea 1297,S794,Linea 1073,S760,Linea 1221,S791,Linea 1076,S793,Linea 1079,S818,Linea 1080,S737,Linea 1083,S904,Linea 1033,S2656,Linea 955,S2666;S2666,Linea 956,S2680,Linea 959,S37,Linea 958,S2725,Linea 1025,S36,Linea 957,S39,Linea 969,S316,Linea 970,S387,Linea 968,S2465,Linea 966,S2147,Linea 946,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.93512028 -45.8793768,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.94258106 -45.87928487,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.9459034 -45.88040255,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.94607409 -45.88311995,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94628753 -45.88560005,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94746568 -45.88694764,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94972726 -45.88693813,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.95178221 -45.88666191,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95650174 -45.8868325,-67.9573059 -45.8868268,-67.956748 -45.8864908,-67.9563725 -45.8857215,-67.9556644 -45.8849971,-67.9546167 -45.88506443,-67.960428 -45.8852436,-67.9597843 -45.8853855,-67.9578102 -45.8852959,-67.9558897 -45.8849448,-67.95958113 -45.88533853,-67.9643977 -45.8867746,-67.9641402 -45.8867895,-67.9629064 -45.8855274,-67.9625845 -45.8842055,-67.9620588 -45.8840412,-67.9608893 -45.8848926,-67.96291589 -45.88644251,-67.9642582 -45.8866849,-67.9660714 -45.8869613,-67.9663503 -45.8865505,-67.9662859 -45.88549,-67.9665112 -45.8837798,-67.9671657 -45.8837275,-67.9670477 -45.8843548,-67.96615149 -45.88487087,-67.9689896 -45.8855572,-67.9684317 -45.8850942,-67.9680133 -45.8843399,-67.9672301 -45.8837872,-67.9670477 -45.8843548,-67.96828667 -45.88589528,-67.9702342 -45.8858709,-67.9697192 -45.8860352,-67.9691613 -45.8857589,-67.96952973 -45.8860392,-67.9752874 -45.8886341,-67.9738069 -45.8884922,-67.9698479 -45.8860651,-67.9702234 -45.8859307,-67.97417558 -45.88870119;-67.97417558 -45.88870119,-67.9755127 -45.8898364,-67.9753196 -45.8896348,-67.9751372 -45.889239,-67.9736996 -45.8884922,-67.9752123 -45.8886192,-67.97500117 -45.89011334,-67.9778516 -45.8901202,-67.977283 -45.8901052,-67.9767358 -45.889926,-67.97751751 -45.89013616,-67.9743755 -45.8910088,-67.9777122 -45.890165,-67.97300504 -45.89135,-67.9748368 -45.8912328,-67.9752231 -45.891427,-67.9759526 -45.8921289,-67.9767251 -45.8924575,-67.97648439 -45.89266109,-67.9749441 -45.8933834,-67.9761243 -45.8929055,-67.9766607 -45.892353,-67.97316911 -45.89352066,-67.9725194 -45.8940704,-67.9735279 -45.8935179,-67.97168684 -45.8946769,-67.9729271 -45.8958177,-67.9726696 -45.8949515,-67.97161551 -45.8965517;-67.97161551 -45.8965517,-67.9721761 -45.8962209,-67.9716182 -45.8947873,-67.9710388 -45.8947723,-67.96939983 -45.89469974,-67.9699337 -45.8946379,-67.9693973 -45.8950411,-67.9688287 -45.894847,-67.9686248 -45.893936,-67.9694724 -45.8926591,-67.9702985 -45.892002,-67.9695987 -45.89181892,-67.9702985 -45.892002,-67.9693437 -45.8927189,-67.9695046 -45.8920393,-67.9694617 -45.8909565,-67.9689038 -45.8902247,-67.9675949 -45.8891494,-67.96633372 -45.88873533,-67.9670262 -45.8881263,-67.9660714 -45.8869613,-67.9657602 -45.8876259,-67.9651165 -45.8877678,-67.9650307 -45.887947,-67.964462 -45.8880815,-67.96290254 -45.88863388,-67.9609108 -45.8902845,-67.9623485 -45.8909491,-67.9621017 -45.8899111,-67.962445 -45.8899634,-67.9637861 -45.8886864,-67.95958813 -45.89007642,-67.963196 -45.8927189,-67.9626918 -45.8927114,-67.9624236 -45.8909043,-67.9618871 -45.8908445,-67.9608786 -45.8903442,-67.96212496 -45.89267136,-67.9612112 -45.8971319,-67.9633784 -45.8962807,-67.9639149 -45.8957132,-67.9634535 -45.8934357,-67.9631853 -45.892801,-67.95956637 -45.89743693,-67.9642367 -45.8983564,-67.9643333 -45.8976993,-67.9650199 -45.8970721,-67.9652989 -45.8964076,-67.9613721 -45.8972065,-67.96354703 -45.89869944,-67.9693437 -45.9027914,-67.9659963 -45.8987297,-67.965138 -45.8986401,-67.96793825 -45.90348141,-67.9685926 -45.9034484,-67.9653096 -45.9044488,-67.9600525 -45.9049564,-67.9584861 -45.9041651,-67.9576707 -45.9040606,-67.95594313 -45.90408308;-67.95594313 -45.90408308,-67.9577565 -45.9038664,-67.9585826 -45.9036126,-67.9585826 -45.9031348,-67.9576492 -45.90253,-67.9561365 -45.9021343,-67.9558575 -45.9012832,-67.95417314 -45.90131869,-67.9519415 -45.9014251,-67.9524672 -45.9015595,-67.9527569 -45.9020821,-67.9535294 -45.9024554,-67.9558897 -45.9024703,-67.956233 -45.9022389,-67.9559326 -45.9014549,-67.9556215 -45.9012309,-67.95037233 -45.90142031,-67.9506969 -45.9010816,-67.9497743 -45.9008576,-67.9498494 -45.8992001,-67.94838203 -45.89904174,-67.9498494 -45.8992001,-67.949506 -45.8996854,-67.9466414 -45.8986103,-67.9437232 -45.8985057,-67.9415774 -45.8979681,-67.9412556 -45.8976545,-67.9422104 -45.8972588,-67.94188659 -45.8972671,-67.942307 -45.8972439,-67.941395 -45.8969527,-67.9402256 -45.8963927,-67.9396248 -45.8958401,-67.93839722 -45.89565726;-67.93839722 -45.89565726,-67.942307 -45.8972439,-67.941395 -45.8969527,-67.9402256 -45.8963927,-67.9396248 -45.8958401,-67.94188659 -45.8972671,-67.9498494 -45.8992001,-67.949506 -45.8996854,-67.9466414 -45.8986103,-67.9437232 -45.8985057,-67.9415774 -45.8979681,-67.9412556 -45.8976545,-67.9422104 -45.8972588,-67.94838203 -45.89904174,-67.9506969 -45.9010816,-67.9497743 -45.9008576,-67.9498494 -45.8992001,-67.95037233 -45.90142031,-67.9506755 -45.9009696,-67.9479718 -45.9005665,-67.9449892 -45.9007008,-67.945075 -45.9032692,-67.9445601 -45.9035379,-67.9423714 -45.902642,-67.94048121 -45.90255833,-67.9313636 -45.9007755,-67.9299688 -45.9015296,-67.9309559 -45.9024778,-67.931664 -45.9022687,-67.9323721 -45.9010144,-67.9335737 -45.900447,-67.9371786 -45.9012832,-67.9379082 -45.9021045,-67.9396677 -45.9026719,-67.941041 -45.9025674,-67.93028301 -45.90068278,-67.9312027 -45.9008128,-67.9299688 -45.9015296,-67.9282737 -45.9003723,-67.9263103 -45.8994316,-67.9232204 -45.8984983,-67.9221046 -45.8981623,-67.92046749 -45.89809236,-67.9221904 -45.8981548,-67.9232204 -45.8984983,-67.9230487 -45.8980652,-67.9224908 -45.89755,-67.9236388 -45.8964449,-67.92261639 -45.89612501,-67.9235637 -45.895743,-67.9241538 -45.8953249,-67.9267287 -45.8949142,-67.9271579 -45.8944961,-67.9267287 -45.8942048,-67.9257309 -45.8936448,-67.9256558 -45.8930698,-67.9268682 -45.8923604,-67.9289711 -45.8934208,-67.9293036 -45.893361,-67.92819602 -45.89300211,-67.9292285 -45.8926143,-67.9297435 -45.8916137,-67.930634 -45.8913523,-67.9310846 -45.8915241,-67.9320288 -45.8924127,-67.9322755 -45.8923231,-67.9316425 -45.8910014,-67.93002857 -45.89099999,-67.9326725 -45.8927039,-67.9321253 -45.8924276,-67.9320502 -45.8919796,-67.9315674 -45.8910163,-67.93203261 -45.89325144,-67.9325116 -45.8927189,-67.9321575 -45.8923754,-67.9320073 -45.8911582,-67.9324365 -45.8909939,-67.9336274 -45.8912403,-67.9348075 -45.8908669,-67.93404442 -45.8909633,-67.9351616 -45.890628,-67.9353011 -45.8903069,-67.9351509 -45.889702,-67.9356337 -45.8888283,-67.9361594 -45.8882682,-67.9367387 -45.8882607,-67.93581454 -45.88863383,-67.9410625 -45.888776,-67.9401827 -45.8890747,-67.9375863 -45.8886341,-67.93992923 -45.88854577;-67.93992923 -45.88854577,-67.9414594 -45.88785,-67.9417813 -45.8871554,-67.9419315 -45.8865879,-67.9423285 -45.8863414,-67.94198922 -45.88653728,-67.9423177 -45.8861323,-67.9425859 -45.8852137,-67.9431438 -45.8846088,-67.9432619 -45.8842802,-67.94255555 -45.88454697,-67.9459763 -45.8845415,-67.9446459 -45.8841607,-67.9436696 -45.8842353,-67.94483649 -45.8845247,-67.9471672 -45.8852884,-67.9470921 -45.8848627,-67.9461265 -45.8845565,-67.94628753 -45.88560005,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94607409 -45.88311995,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.9459034 -45.88040255,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.94258106 -45.87928487,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S944,S801,S779,S908,S2460</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 943,S167,Linea 946,S2147,Linea 964,S2146,Linea 949,S31,Linea 950,S2094,Linea 1711,S33,Linea 1222,S927,Linea 1754,S115,Linea 1085,S944;S944,Linea 1077,S2667,Linea 1078,S793,Linea 1076,S791,Linea 1221,S760,Linea 1054,S801;S801,Linea 1054,S760,Linea 1073,S794,Linea 1297,S759,Linea 1305,S805,Linea 1126,S758,Linea 1127,S778,Linea 1128,S779;S779,Linea 1128,S778,Linea 1328,S2055,Linea 1272,S908;S908,Linea 1272,S2055,Linea 1273,S921,Linea 1129,S815,Linea 1138,S803,Linea 1110,S2194,Linea 1113,S841,Linea 1118,S2723,Linea 1853,S42,Linea 1098,S2707,Linea 1088,S43,Linea 1026,S2695,Linea 1027,S36,Linea 957,S39,Linea 969,S316,Linea 970,S387,Linea 968,S2465,Linea 1715,S546,Linea 1212,S962,Linea 1008,S315,Linea 790,S2546,Linea 792,S2503,Linea 782,S2547,Linea 785,S2460;S2460,Linea 785,S2547,Linea 782,S2503,Linea 792,S2546,Linea 790,S315,Linea 746,S2572,Linea 747,S381,Linea 748,S377,Linea 740,S980,Linea 741,S2421,Linea 1842,S370,Linea 752,S2408,Linea 754,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.93512028 -45.8793768,-67.9380155 -45.8812404,-67.938627 -45.880852,-67.9384768 -45.8805682,-67.9371035 -45.8800827,-67.9358482 -45.8797093,-67.9335737 -45.8797616,-67.934432 -45.8794255,-67.9350007 -45.8792835,-67.9357088 -45.8792686,-67.93588984 -45.88149225,-67.9369104 -45.8822487,-67.9367441 -45.8819686,-67.9385787 -45.881274,-67.938568 -45.8809641,-67.9379243 -45.8811844,-67.93623372 -45.88237227,-67.9369962 -45.8822636,-67.9367441 -45.8819686,-67.9343677 -45.8832719,-67.93288041 -45.88347512,,-67.93297197 -45.88384007,-67.9325545 -45.8880964,-67.9324257 -45.8875363,-67.933048 -45.8868642,-67.9335093 -45.8836304,-67.93195275 -45.88880085,,-67.93184093 -45.88869985,-67.929883 -45.8876782,-67.9306018 -45.8878724,-67.9317605 -45.8883727,-67.9326189 -45.888201,-67.92838162 -45.88770662;-67.92838162 -45.88770662,-67.9286492 -45.8892166,-67.9288638 -45.8878724,-67.9292393 -45.8876931,-67.92758265 -45.88993498,-67.929368 -45.8925994,-67.9296148 -45.8919423,-67.9287994 -45.8913897,-67.9285097 -45.8910014,-67.9286277 -45.8901127,-67.92819602 -45.89300211,-67.9235637 -45.895743,-67.9241538 -45.8953249,-67.9267287 -45.8949142,-67.9271579 -45.8944961,-67.9267287 -45.8942048,-67.9257309 -45.8936448,-67.9256558 -45.8930698,-67.9268682 -45.8923604,-67.9289711 -45.8934208,-67.9293036 -45.893361,-67.92261639 -45.89612501,-67.9221904 -45.8981548,-67.9232204 -45.8984983,-67.9230487 -45.8980652,-67.9224908 -45.89755,-67.9236388 -45.8964449,-67.92046749 -45.89809236,-67.9221904 -45.8981548,-67.9233706 -45.8984385,-67.9223728 -45.8974903,-67.9203773 -45.8967212,-67.9203129 -45.8957953,-67.91895387 -45.89557581;-67.91895387 -45.89557581,-67.9221904 -45.8981548,-67.9233706 -45.8984385,-67.9223728 -45.8974903,-67.9203773 -45.8967212,-67.9203129 -45.8957953,-67.92046749 -45.89809236,-67.9312027 -45.9008128,-67.9299688 -45.9015296,-67.9282737 -45.9003723,-67.9263103 -45.8994316,-67.9232204 -45.8984983,-67.9221046 -45.8981623,-67.93028301 -45.90068278,-67.9313636 -45.9007755,-67.9299688 -45.9015296,-67.9309559 -45.9024778,-67.931664 -45.9022687,-67.9323721 -45.9010144,-67.9335737 -45.900447,-67.9371786 -45.9012832,-67.9379082 -45.9021045,-67.9396677 -45.9026719,-67.941041 -45.9025674,-67.94048121 -45.90255833,-67.9506755 -45.9009696,-67.9479718 -45.9005665,-67.9449892 -45.9007008,-67.945075 -45.9032692,-67.9445601 -45.9035379,-67.9423714 -45.902642,-67.95037233 -45.90142031,-67.9519415 -45.9014251,-67.9524672 -45.9015595,-67.9527569 -45.9020821,-67.9535294 -45.9024554,-67.9558897 -45.9024703,-67.956233 -45.9022389,-67.9559326 -45.9014549,-67.9556215 -45.9012309,-67.95417314 -45.90131869,-67.9577565 -45.9038664,-67.9585826 -45.9036126,-67.9585826 -45.9031348,-67.9576492 -45.90253,-67.9561365 -45.9021343,-67.9558575 -45.9012832,-67.95594313 -45.90408308,-67.9576921 -45.9039411,-67.9583466 -45.9038888,-67.959516 -45.9036873,-67.9611468 -45.9030079,-67.9597306 -45.9022762,-67.9588938 -45.9019029,-67.9587328 -45.9013728,-67.95803039 -45.90137444;-67.95803039 -45.90137444,-67.9576921 -45.9039411,-67.9583466 -45.9038888,-67.959516 -45.9036873,-67.9611468 -45.9030079,-67.9597306 -45.9022762,-67.9588938 -45.9019029,-67.9587328 -45.9013728,-67.95594313 -45.90408308,-67.9685926 -45.9034484,-67.9653096 -45.9044488,-67.9600525 -45.9049564,-67.9584861 -45.9041651,-67.9576707 -45.9040606,-67.96793825 -45.90348141,-67.970438 -45.9058075,-67.9690218 -45.9036126,-67.96980563 -45.90670646;-67.96980563 -45.90670646,-67.970438 -45.9058075,-67.9690218 -45.9036126,-67.96793825 -45.90348141,-67.9693437 -45.9027914,-67.9659963 -45.8987297,-67.965138 -45.8986401,-67.96354703 -45.89869944,-67.9642367 -45.8983564,-67.9643333 -45.8976993,-67.9650199 -45.8970721,-67.9652989 -45.8964076,-67.9613721 -45.8972065,-67.95956637 -45.89743693,-67.9602778 -45.8973559,-67.959677 -45.8974604,-67.9590976 -45.897326,-67.9587114 -45.8968257,-67.95928 -45.896094,-67.9591405 -45.8953548,-67.95753705 -45.89518861,-67.958411 -45.8946678,-67.9585934 -45.8938464,-67.9590118 -45.8934581,-67.9594839 -45.8932714,-67.9597199 -45.892913,-67.9595053 -45.8926741,-67.95792371 -45.89252328,-67.958647 -45.8921289,-67.9580784 -45.8917854,-67.958411 -45.8907699,-67.9588509 -45.8902397,-67.9578209 -45.8896422,-67.95602222 -45.88970885,-67.9576063 -45.8896124,-67.9577136 -45.888888,-67.9572308 -45.8876483,-67.9565012 -45.8869986,-67.95495587 -45.8875866,-67.9563618 -45.8869613,-67.9570055 -45.8870583,-67.9568553 -45.8866028,-67.957381 -45.8868268,-67.95650174 -45.8868325,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95178221 -45.88666191,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.94972726 -45.88693813,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94746568 -45.88694764,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94628753 -45.88560005,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94607409 -45.88311995,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.9459034 -45.88040255,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.94258106 -45.87928487,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.93938002 -45.87863178,,-67.93921257 -45.87804782,-67.9512119 -45.8788877,-67.952435 -45.8787607,-67.9518127 -45.8800454,-67.9474354 -45.8786785,-67.9441524 -45.8779764,-67.9427791 -45.8776328,-67.940805 -45.8776926,-67.94944114 -45.87896309,-67.9534543 -45.8773565,-67.9526925 -45.87711,-67.9530144 -45.8775731,-67.9524779 -45.878813,-67.9512334 -45.8789325,-67.95259842 -45.87763583,-67.95394780000001 -45.8775432,-67.9556751 -45.8774162,-67.9568982 -45.8769083,-67.9582715 -45.8767813,-67.95749384 -45.8768117,-67.9582286 -45.8768411,-67.9568982 -45.8769083,-67.9591405 -45.8758775,-67.95866674 -45.87595626,-67.9605675 -45.8757281,-67.9607499 -45.8763556,-67.960943 -45.8763182,-67.96020228 -45.87662649,-67.9618549 -45.8754667,-67.9605675 -45.8757281,-67.9612454 -45.87560985;-67.9612454 -45.87560985,-67.9618549 -45.8754667,-67.9605675 -45.8757281,-67.96020228 -45.87662649,-67.9605675 -45.8757281,-67.9607499 -45.8763556,-67.960943 -45.8763182,-67.95866674 -45.87595626,-67.9582286 -45.8768411,-67.9568982 -45.8769083,-67.9591405 -45.8758775,-67.95749384 -45.8768117,-67.95394780000001 -45.8775432,-67.9556751 -45.8774162,-67.9568982 -45.8769083,-67.9582715 -45.8767813,-67.95259842 -45.87763583,-67.9521346 -45.8759746,-67.9517162 -45.8759074,-67.9513943 -45.8758999,-67.9525959 -45.87702780000001,-67.95337920000001 -45.8774162,-67.95155064 -45.87647635,-67.9521346 -45.8759746,-67.951448 -45.8759597,-67.9509008 -45.8738383,-67.94983615 -45.87396079,-67.9508579 -45.8736739,-67.9509115 -45.8721426,-67.94974928 -45.87213834,-67.9510081 -45.87218,-67.9515123 -45.8715599,-67.9518449 -45.870925,-67.95082673 -45.87123588,-67.9518449 -45.870925,-67.9516733 -45.8706037,-67.9509866 -45.870275,-67.95089010000001 -45.8697222,-67.9517484 -45.8700734,-67.9526281 -45.8699912,-67.95188123 -45.87007275,-67.9526013 -45.869965,-67.9517484 -45.8700734,-67.9508901 -45.8697222,-67.9511476 -45.8693039,-67.95011093 -45.86936834,-67.9511476 -45.8693039,-67.95089010000001 -45.8697222,-67.9506433 -45.8681011,-67.9512978 -45.867892,-67.95075242 -45.86791677,-67.9513514 -45.867951700000006,-67.9506004 -45.8681534,-67.9493558 -45.8665622,-67.9490876 -45.8664576,-67.9492164 -45.8668461,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2702,S2694,S2691,S2290,S2077,S2004</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 944,S56,Linea 940,S78,Linea 932,S645,Linea 931,S2111,Linea 930,S2110,Linea 736,S2167,Linea 1617,S2168,Linea 584,S849,Linea 582,S938,Linea 581,S2443,Linea 578,S2132,Linea 579,S949,Linea 591,S2129,Linea 592,S2259,Linea 594,S17,Linea 596,S2293,Linea 597,S4,Linea 598,S2324,Linea 600,S2196,Linea 599,S2689,Linea 601,S2683,Linea 606,S2619,Linea 608,S2694,Linea 1336,S2711,Linea 1335,S2698,Linea 1772,S2702;S2702,Linea 1772,S2698,Linea 1335,S2711,Linea 1336,S2694;S2694,Linea 608,S2619,Linea 606,S2683,Linea 603,S2663,Linea 607,S2673,Linea 1866,S2684,Linea 1868,S2691;S2691,Linea 1868,S2684,Linea 1866,S2673,Linea 607,S2663,Linea 603,S2683,Linea 601,S2689,Linea 599,S2196,Linea 600,S2324,Linea 598,S4,Linea 597,S2293,Linea 596,S17,Linea 735,S295,Linea 734,S3,Linea 613,Q16,Linea 1626,S2240,Linea 471,S2,Linea 1886,S13,Linea 1887,S2523,Linea 517,Q17,Linea 516,S2236,Linea 511,S509,Linea 512,S427,Linea 507,S2307,Linea 649,S426,Linea 645,S470,Linea 534,S506,Linea 536,S533,Linea 540,S531,Linea 538,S439,Linea 545,S469,Linea 616,S460,Linea 632,S2720,Linea 634,S458,Linea 660,S683,Linea 659,S2265,Linea 664,S2444,Linea 667,S2290;S2290,Linea 667,S2444,Linea 664,S2265,Linea 665,S489,Linea 629,S2077;S2077,Linea 631,S629,Linea 905,S783,Linea 1214,Planta Norte,Linea 923,S789,Linea 925,S501,Linea 127,S633,Linea 210,S622,Linea 211,S2552,Linea 1563,S635,Linea 186,S495,Linea 183,S637,Linea 178,S640,Linea 177,S676,Linea 170,S691,Linea 169,S451,Linea 168,S2478,Linea 167,S2510,Linea 163,S2482,Linea 151,S550,Linea 150,S2609,Linea 147,S378,Linea 140,S2203,Linea 101,S781,Linea 409,S2321,Linea 88,S2004;S2004,Linea 82,S2014,Linea 79,S2252,Linea 76,S100,Linea 75,S156,Linea 74,S155,Linea 71,S154,Linea 69,S2416,Linea 1341,S245,Linea 17,S977,Linea 16,S2250,Linea 15,S278,Linea 14,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92260289 -45.87981886,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.91930941 -45.88137118,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91747464 -45.88372353,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91541483 -45.88231338,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.90970498 -45.88326091,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90591516 -45.88446218,,-67.90594775 -45.88423937,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90705336 -45.88840606,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90362098 -45.8874036,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90293219 -45.8836944,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.89811074 -45.88424629,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89478887 -45.88442779,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.88986813 -45.88509226,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88725199 -45.88498287,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88477851 -45.88530377,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88304639 -45.88588109,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88085052 -45.88709026,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.87661058 -45.88889945,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87484305 -45.89067788,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87813787 -45.88993585,-67.8788996 -45.8901426,-67.877934 -45.8900903,-67.8774834 -45.8904786,-67.8777945 -45.8925098,-67.8783524 -45.8919348,-67.87768072 -45.89180609,-67.8782558 -45.8919497,-67.8778267 -45.8923828,-67.8780413 -45.8938315,-67.8791893 -45.8953398,-67.87842608 -45.89585515,-67.8799939 -45.8961761,-67.8810668 -45.8968855,-67.881496 -45.8974007,-67.88049412 -45.89765426,-67.8816462 -45.8976545,-67.8819466 -45.8992972,-67.8823757 -45.8992374,-67.88283131 -45.8994995,-67.8778481 -45.8999691,-67.8795862 -45.8996556,-67.8816676 -45.8998198,-67.8823113 -45.899342,-67.87600509 -45.90013168,,-67.87638486 -45.90010492;-67.87638486 -45.90010492,,-67.87600509 -45.90013168,-67.8778481 -45.8999691,-67.8795862 -45.8996556,-67.8816676 -45.8998198,-67.8823113 -45.899342,-67.88283131 -45.8994995,-67.8816462 -45.8976545,-67.8819466 -45.8992972,-67.8823757 -45.8992374,-67.88049412 -45.89765426;-67.88049412 -45.89765426,-67.8799939 -45.8961761,-67.8810668 -45.8968855,-67.881496 -45.8974007,-67.87842608 -45.89585515,-67.8782558 -45.8919497,-67.8778267 -45.8923828,-67.8780413 -45.8938315,-67.8791893 -45.8953398,-67.87768072 -45.89180609,-67.877419 -45.893361,-67.8777194 -45.8924724,-67.8782558 -45.8919497,-67.87597121 -45.89385401,-67.8765607 -45.8939958,-67.8749728 -45.8950561,-67.8745329 -45.895832600000006,-67.8753376 -45.896079,-67.87484942 -45.89595746,-67.8758526 -45.8962209,-67.8745222 -45.8968183,-67.87714 -45.8974753,-67.87660436 -45.89789111,-67.8773117 -45.8978935,-67.8737068 -45.8977441,-67.8735352 -45.8983713,-67.87284534 -45.89882294;-67.87284534 -45.89882294,-67.8773117 -45.8978935,-67.8737068 -45.8977441,-67.8735352 -45.8983713,-67.87660436 -45.89789111,-67.8758526 -45.8962209,-67.8745222 -45.8968183,-67.87714 -45.8974753,-67.87484942 -45.89595746,-67.8765607 -45.8939958,-67.8749728 -45.8950561,-67.8745329 -45.895832600000006,-67.8753376 -45.896079,-67.87597121 -45.89385401,-67.877419 -45.893361,-67.8777194 -45.8924724,-67.8782558 -45.8919497,-67.87768072 -45.89180609,-67.8788996 -45.8901426,-67.877934 -45.8900903,-67.8774834 -45.8904786,-67.8777945 -45.8925098,-67.8783524 -45.8919348,-67.87813787 -45.88993585,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87484305 -45.89067788,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87661058 -45.88889945,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.88085052 -45.88709026,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88304639 -45.88588109,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88477851 -45.88530377,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88934482 -45.88367092,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.87931365 -45.88515467,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87597578 -45.88674947,,-67.87630061 -45.88642699,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.8758872 -45.88413516,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.87263059 -45.88283868,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.86703039 -45.88312685,-67.8726017 -45.880389,-67.8697157 -45.8828462,-67.8706813 -45.8831001,-67.8686643 -45.8830254,-67.8724445 -45.87988188,-67.8772688 -45.8789101,-67.8749835 -45.8790146,-67.87362100000001 -45.8797765,-67.87684672 -45.87887091,-67.8785026 -45.8788802,-67.8798115 -45.8793806,-67.87875862 -45.87975391,-67.8797901 -45.8776627,-67.8792536 -45.87817810000001,-67.8798115 -45.8793806,-67.87897854 -45.87766371,-67.8803158 -45.8771847,-67.8813779 -45.8760792,-67.8823113 -45.875519,-67.8828478 -45.87486160000001,-67.88196942 -45.87464989,-67.8836632 -45.8741296,-67.884264 -45.8734723,-67.8839421 -45.8733229,-67.8833306 -45.8736515,-67.8822899 -45.87404,-67.8816032 -45.8749737,-67.8808522 -45.875153,-67.8791678 -45.8762809,-67.8782129 -45.8766021,-67.8774083 -45.8765572,-67.87580898 -45.87623664,-67.8772473 -45.875646,-67.87714 -45.874899,-67.8760457 -45.8739578,-67.8750265 -45.8733005,-67.8741574 -45.8732108,-67.8737283 -45.8741819,-67.87226293 -45.87472228,-67.8721726 -45.8748019,-67.868793 -45.8753024,-67.8683639 -45.8750633,-67.8691471 -45.8759522,-67.86877282 -45.87598303,-67.8690398 -45.8759074,-67.8681815 -45.8748691,-67.8664434 -45.8762585,-67.86520975 -45.8764158,-67.8666043 -45.8740773,-67.8655958 -45.8758999,-67.8658319 -45.8761464,-67.86601994 -45.87390747,-67.8686213 -45.87223970000001,-67.8679776 -45.8725012,-67.867173 -45.87342,-67.86803091 -45.87230485,-67.8687286 -45.87223970000001,-67.8671408 -45.8717542,-67.8661752 -45.8712611,-67.8662395 -45.8705888,-67.86552841 -45.87071955,-67.8665292 -45.8704394,-67.8664756 -45.8701107,-67.8674197 -45.8697073,-67.8698659 -45.8700883,-67.8700376 -45.8699389,-67.8700268 -45.8692964,-67.86891343 -45.86940172,-67.8699839 -45.8693413,-67.8700376 -45.8699389,-67.8703916 -45.8701929,-67.8709173 -45.8699239,-67.8707349 -45.8692815,-67.8712177 -45.8686166,-67.8731596 -45.8681236,-67.8729107 -45.86822856,-67.8735942 -45.8680488,-67.8724301 -45.8682281,-67.8724086 -45.8686689,-67.8764427 -45.8695952,-67.87545792 -45.87007243,-67.8773439 -45.8681385,-67.878288 -45.8679816,-67.8767216 -45.8696102,-67.87529512 -45.86884053,-67.8773224 -45.8682132,-67.8784168 -45.867951700000006,-67.8792751 -45.866988,-67.87841593 -45.86693979,-67.881968 -45.8668087,-67.881099 -45.866046700000005,-67.879715 -45.8662036,-67.88072073 -45.86731686,-67.8823006 -45.8672345,-67.8820753 -45.8679144,-67.8836095 -45.867608100000005,-67.8840494 -45.8677052,-67.88291817 -45.86822032;-67.88291817 -45.86822032,-67.8823006 -45.8672345,-67.8820753 -45.8679144,-67.8836095 -45.867608100000005,-67.8840494 -45.8677052,-67.88072073 -45.86731686,-67.881968 -45.8668087,-67.881099 -45.866046700000005,-67.879715 -45.8662036,-67.87841593 -45.86693979,-67.8794253 -45.8652025,-67.8813779 -45.8643508,-67.8805947 -45.8648065,-67.8801227 -45.8652622,-67.8801119 -45.8658151,-67.8798544 -45.8661513,-67.87816911 -45.86559299,-67.8800154 -45.8627071,-67.880863 -45.8635887,-67.8814101 -45.8638502,-67.881496 -45.8643508,-67.8795862 -45.8651352,-67.87889297 -45.8626014;-67.87889297 -45.8626014,-67.8809917 -45.8619301,-67.8822792 -45.8616611,-67.8835666 -45.8617507,-67.8845859 -45.8612277,-67.8843284 -45.8612427,-67.88286864 -45.86153258,-67.8855836 -45.8605329,-67.8847253 -45.8611754,-67.8843284 -45.8612427,-67.88485253 -45.86038085,-67.8862917 -45.8600846,-67.8869355 -45.8600547,-67.8873861 -45.8596438,-67.8876221 -45.8588667,-67.8886843 -45.8579999,-67.8905296 -45.8572453,-67.8915596 -45.8569165,-67.8910661 -45.8570435,-67.89119881 -45.85678635,-67.8960952 -45.8598436,-67.8959692 -45.8585678,-67.8961945 -45.8583138,-67.8955936 -45.8581419,-67.8949177 -45.8572976,-67.8950787 -45.8562589,-67.894907 -45.8558629,-67.8937376 -45.8558928,-67.8932869 -45.8566101,-67.8928149 -45.8568492,-67.8926003 -45.8566998,-67.89506126 -45.86022417,-67.8961086 -45.8601668,-67.8949714 -45.8618927,-67.89369378 -45.862107,-67.8961945 -45.8632674,-67.8952932 -45.8629985,-67.8948426 -45.8620347,-67.8946526 -45.86372426,-67.8962696 -45.8632899,-67.8974175 -45.8625203,-67.8984583 -45.8622177,-67.89779792 -45.86312838,,-67.8975525 -45.86346654,-67.8993487 -45.8636634,-67.8988981 -45.8636933,-67.89861920000001 -45.8635215,-67.89867893 -45.86374335,-67.9039943 -45.8644255,-67.9028034 -45.8637381,-67.8999174 -45.8635812,-67.90314798 -45.8648888,-67.906419 -45.86626330000001,-67.9050887 -45.8652025,-67.9043591 -45.864814,-67.90565529 -45.8665856,-67.9108179 -45.86391,-67.9094768 -45.8638353,-67.9077816 -45.8657329,-67.9066443 -45.8662484,-67.90869072 -45.86438156,-67.9100454 -45.8663754,-67.9094982 -45.8663306,-67.909627 -45.86429100000001,-67.90947109 -45.86641003,-67.9100668 -45.8647318,-67.9098523 -45.8659197,-67.9103565 -45.8661513,-67.90917641 -45.86476613,-67.9122448 -45.8649709,-67.911129 -45.8644105,-67.9103887 -45.8645226,-67.91093971 -45.86527418,-67.9164934 -45.8652398,-67.9147875 -45.8642536,-67.9133606 -45.865322,-67.9120409 -45.8651352,-67.91575239 -45.86551598,-67.92151450000001 -45.8648214,-67.9209244 -45.864687,-67.9176092 -45.8656881,-67.9171693 -45.8655984,-67.92009355 -45.86527701,-67.920903 -45.864119200000005,-67.92119260000001 -45.8646197,-67.9214394 -45.8648887,-67.92012334 -45.86396532,-67.9195297 -45.8639025,-67.9203665 -45.8649335,-67.9209244 -45.864687,-67.9208171 -45.8640743,-67.91830981 -45.86407906,-67.9196048 -45.8623709,-67.9195297 -45.8639025,-67.91863427 -45.86235477,-67.9186606 -45.8599277,-67.9196692 -45.8609364,-67.9196477 -45.86190760000001,-67.91710731 -45.85967629,-67.9182637 -45.857462,-67.9179955 -45.8590535,-67.91707962 -45.85731555,-67.9179096 -45.8569314,-67.917974 -45.8555117,-67.9220295 -45.8569464,-67.92158978 -45.85720014,-67.9236388 -45.8571407,-67.9227161 -45.8570659,-67.92272998 -45.85731085;-67.92272998 -45.85731085,-67.9283702 -45.8576637,-67.9275548 -45.8572154,-67.9269218 -45.8575143,-67.9259026 -45.8575367,-67.9241967 -45.8567969,-67.92745639 -45.85783394,-67.9309988 -45.8565279,-67.9294109 -45.8566176,-67.9285955 -45.8575143,-67.93015362 -45.85669955,-67.9352367 -45.8545328,-67.933563 -45.8546898,-67.9313636 -45.8564457,-67.93449161 -45.85473418,-67.9390132 -45.8553324,-67.9377794 -45.8546898,-67.9357088 -45.8545104,-67.93784211 -45.85566073,-67.9418778 -45.8559601,-67.9390132 -45.8553324,-67.94127839 -45.85682198,-67.9455793 -45.8575815,-67.9449892 -45.8573947,-67.9450321 -45.8569464,-67.9437447 -45.8569987,-67.9429507 -45.8566475,-67.94451337 -45.85788474,-67.95038580000002 -45.8584109,-67.9492486 -45.8582839,-67.9486799 -45.8563934,-67.9455793 -45.8575815,-67.94942594 -45.85854239,-67.9494631 -45.8607197,-67.9496992 -45.8604582,-67.9489589 -45.8596363,-67.9496777 -45.8591282,-67.9500318 -45.8586351,-67.9503858 -45.8584632,-67.94780419 -45.86081977,-67.9479718 -45.8615453,-67.9493934 -45.8606973,-67.9489589 -45.8606599,-67.94655091 -45.86160389,-67.9483044 -45.861911400000004,-67.9473495 -45.8614183,-67.94727301 -45.86217176,-67.9469097 -45.8620944,-67.9481596 -45.8620048,-67.94569946 -45.86221924,-67.9427254 -45.8635364,-67.9464859 -45.8623447,-67.9469097 -45.862016,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S806,S2451,S2140</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 943,S167,Linea 946,S2147,Linea 966,S2465,Linea 968,S387,Linea 970,S316,Linea 969,S39,Linea 957,S36,Linea 1027,S2695,Linea 1026,S43,Linea 1088,S2707,Linea 1098,S42,Linea 1856,S2724,Linea 1092,S163,Linea 1854,S66,Linea 1156,S63,Linea 1154,S65,Linea 1153,S47,Linea 1150,S832,Linea 1149,S806;S806,Linea 1148,S2672,Linea 1147,S910,Linea 1284,S913,Linea 1283,S2451;S2451,Linea 1283,S913,Linea 1285,S2286,Linea 1286,S832,Linea 1150,S47,Linea 1153,S65,Linea 1154,S63,Linea 1156,S66,Linea 1854,S163,Linea 1092,S2724,Linea 1856,S42,Linea 1098,S2707,Linea 1088,S43,Linea 1026,S2695,Linea 1027,S36,Linea 957,S39,Linea 969,S316,Linea 970,S387,Linea 968,S2465,Linea 1715,S546,Linea 1212,S962,Linea 1008,S315,Linea 1017,S59,Linea 1295,S2116,Linea 1293,S1,Linea 1292,S2189,Linea 797,S2095,Linea 1825,S2479,Linea 795,S189,Linea 1826,S18,Linea 1177,S2243,Linea 808,S2140;S2140,Linea 808,S2243,Linea 1177,S18,Linea 1826,S189,Linea 795,S2479,Linea 1825,S2095,Linea 797,S2189,Linea 1292,S1,Linea 1293,S2116,Linea 1295,S59,Linea 1017,S315,Linea 746,S2572,Linea 747,S381,Linea 748,S377,Linea 740,S980,Linea 741,S2421,Linea 1842,S370,Linea 752,S2408,Linea 754,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.93512028 -45.8793768,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.94258106 -45.87928487,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.9459034 -45.88040255,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.94607409 -45.88311995,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94628753 -45.88560005,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94746568 -45.88694764,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94972726 -45.88693813,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.95178221 -45.88666191,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95650174 -45.8868325,-67.9573059 -45.8868268,-67.956748 -45.8864908,-67.9563725 -45.8857215,-67.9556644 -45.8849971,-67.9546167 -45.88506443,-67.960428 -45.8852436,-67.9597843 -45.8853855,-67.9578102 -45.8852959,-67.9558897 -45.8849448,-67.95958113 -45.88533853,-67.9643977 -45.8867746,-67.9641402 -45.8867895,-67.9629064 -45.8855274,-67.9625845 -45.8842055,-67.9620588 -45.8840412,-67.9608893 -45.8848926,-67.96291589 -45.88644251,-67.9642582 -45.8866849,-67.9660714 -45.8869613,-67.9663503 -45.8865505,-67.9662859 -45.88549,-67.9665112 -45.8837798,-67.9671657 -45.8837275,-67.9670477 -45.8843548,-67.96615149 -45.88487087,-67.9689896 -45.8855572,-67.9684317 -45.8850942,-67.9680133 -45.8843399,-67.9672301 -45.8837872,-67.9670477 -45.8843548,-67.96828667 -45.88589528,-67.9702342 -45.8858709,-67.9697192 -45.8860352,-67.9691613 -45.8857589,-67.96952973 -45.8860392,-67.9752874 -45.8886341,-67.9738069 -45.8884922,-67.9698479 -45.8860651,-67.9702234 -45.8859307,-67.97417558 -45.88870119,-67.9752123 -45.8886192,-67.9738176 -45.8885743,-67.972852 -45.8880068,-67.9716182 -45.8889776,-67.9710495 -45.8890672,-67.96941864 -45.88923867;-67.96941864 -45.88923867,-67.9726589 -45.8893435,-67.9721224 -45.889478,-67.9718435 -45.8887909,-67.9712427 -45.8890149,-67.97210028 -45.88946166,-67.9741609 -45.8913075,-67.9732168 -45.8912627,-67.9721975 -45.8896198,-67.9726803 -45.8893958,-67.97300504 -45.89135,-67.9743755 -45.8910088,-67.9777122 -45.890165,-67.97751751 -45.89013616,-67.9825187 -45.8903218,-67.979182 -45.8900455,-67.98197943 -45.89056257;-67.98197943 -45.89056257,-67.9825187 -45.8903218,-67.979182 -45.8900455,-67.97751751 -45.89013616,-67.9778516 -45.8901202,-67.977283 -45.8901052,-67.9767358 -45.889926,-67.97500117 -45.89011334,-67.9755127 -45.8898364,-67.9753196 -45.8896348,-67.9751372 -45.889239,-67.9736996 -45.8884922,-67.9752123 -45.8886192,-67.97417558 -45.88870119,-67.9752874 -45.8886341,-67.9738069 -45.8884922,-67.9698479 -45.8860651,-67.9702234 -45.8859307,-67.96952973 -45.8860392,-67.9702342 -45.8858709,-67.9697192 -45.8860352,-67.9691613 -45.8857589,-67.96828667 -45.88589528,-67.9689896 -45.8855572,-67.9684317 -45.8850942,-67.9680133 -45.8843399,-67.9672301 -45.8837872,-67.9670477 -45.8843548,-67.96615149 -45.88487087,-67.9642582 -45.8866849,-67.9660714 -45.8869613,-67.9663503 -45.8865505,-67.9662859 -45.88549,-67.9665112 -45.8837798,-67.9671657 -45.8837275,-67.9670477 -45.8843548,-67.96291589 -45.88644251,-67.9643977 -45.8867746,-67.9641402 -45.8867895,-67.9629064 -45.8855274,-67.9625845 -45.8842055,-67.9620588 -45.8840412,-67.9608893 -45.8848926,-67.95958113 -45.88533853,-67.960428 -45.8852436,-67.9597843 -45.8853855,-67.9578102 -45.8852959,-67.9558897 -45.8849448,-67.9546167 -45.88506443,-67.9573059 -45.8868268,-67.956748 -45.8864908,-67.9563725 -45.8857215,-67.9556644 -45.8849971,-67.95650174 -45.8868325,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95178221 -45.88666191,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.94972726 -45.88693813,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94746568 -45.88694764,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94628753 -45.88560005,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94607409 -45.88311995,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.9459034 -45.88040255,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.94258106 -45.87928487,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.93938002 -45.87863178,,-67.93921257 -45.87804782,-67.9512119 -45.8788877,-67.952435 -45.8787607,-67.9518127 -45.8800454,-67.9474354 -45.8786785,-67.9441524 -45.8779764,-67.9427791 -45.8776328,-67.940805 -45.8776926,-67.94944114 -45.87896309,-67.9534543 -45.8773565,-67.9526925 -45.87711,-67.9530144 -45.8775731,-67.9524779 -45.878813,-67.9512334 -45.8789325,-67.95259842 -45.87763583,-67.9538298 -45.8776104,-67.9575419 -45.8788205,-67.9596341 -45.8789624,-67.9602242 -45.8794852,-67.95937836 -45.87978501,-67.967391 -45.8796271,-67.9660606 -45.879657,-67.9619408 -45.879179,-67.959795 -45.8789997,-67.9602242 -45.8794852,-67.96661757 -45.87943084,-67.9708028 -45.8792686,-67.9686999 -45.8795524,-67.9682064 -45.8792238,-67.96993071 -45.87922522,-67.9739785 -45.8781632,-67.9745579 -45.8782677,-67.9740644 -45.8788802,-67.9710174 -45.8792537,-67.97210325 -45.8786421,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9755771 -45.8785142,-67.9742253 -45.8787756,-67.974236 -45.878222900000004,-67.9757414 -45.87911165,-67.9789352 -45.8795823,-67.9791069 -45.8776627,-67.9756737 -45.8784769,-67.9758239 -45.8787234,-67.9765105 -45.8789474,-67.97764389 -45.88001208,-67.9789352 -45.8795823,-67.9789889 -45.8790669,-67.9799759 -45.8791491,-67.97934342 -45.87920812,-67.9797721 -45.879179,-67.9789889 -45.8790669,-67.9792571 -45.8776403,-67.9831409 -45.876744,-67.9844499 -45.8766842,-67.9838705 -45.8772892,-67.98257485 -45.87765379,-67.9838705 -45.8772892,-67.9842675 -45.8766469,-67.9854584 -45.876617,-67.9846001 -45.8763854,-67.98281428 -45.87644776,-67.9865313 -45.875578700000005,-67.9854369 -45.8754517,-67.9845679 -45.8750857,-67.98401 -45.8753098,-67.9841065 -45.8756534,-67.9853833 -45.8764975,-67.98469660000002 -45.8764303,-67.98591945 -45.87583057;-67.98591945 -45.87583057,-67.9865313 -45.875578700000005,-67.9854369 -45.8754517,-67.9845679 -45.8750857,-67.98401 -45.8753098,-67.9841065 -45.8756534,-67.9853833 -45.8764975,-67.98469660000002 -45.8764303,-67.98281428 -45.87644776,-67.9838705 -45.8772892,-67.9842675 -45.8766469,-67.9854584 -45.876617,-67.9846001 -45.8763854,-67.98257485 -45.87765379,-67.9797721 -45.879179,-67.9789889 -45.8790669,-67.9792571 -45.8776403,-67.9831409 -45.876744,-67.9844499 -45.8766842,-67.9838705 -45.8772892,-67.97934342 -45.87920812,-67.9789352 -45.8795823,-67.9789889 -45.8790669,-67.9799759 -45.8791491,-67.97764389 -45.88001208,-67.9789352 -45.8795823,-67.9791069 -45.8776627,-67.9756737 -45.8784769,-67.9758239 -45.8787234,-67.9765105 -45.8789474,-67.9757414 -45.87911165,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9755771 -45.8785142,-67.9742253 -45.8787756,-67.974236 -45.878222900000004,-67.97210325 -45.8786421,-67.9739785 -45.8781632,-67.9745579 -45.8782677,-67.9740644 -45.8788802,-67.9710174 -45.8792537,-67.96993071 -45.87922522,-67.9708028 -45.8792686,-67.9686999 -45.8795524,-67.9682064 -45.8792238,-67.96661757 -45.87943084,-67.967391 -45.8796271,-67.9660606 -45.879657,-67.9619408 -45.879179,-67.959795 -45.8789997,-67.9602242 -45.8794852,-67.95937836 -45.87978501,-67.9538298 -45.8776104,-67.9575419 -45.8788205,-67.9596341 -45.8789624,-67.9602242 -45.8794852,-67.95259842 -45.87763583,-67.9521346 -45.8759746,-67.9517162 -45.8759074,-67.9513943 -45.8758999,-67.9525959 -45.87702780000001,-67.95337920000001 -45.8774162,-67.95155064 -45.87647635,-67.9521346 -45.8759746,-67.951448 -45.8759597,-67.9509008 -45.8738383,-67.94983615 -45.87396079,-67.9508579 -45.8736739,-67.9509115 -45.8721426,-67.94974928 -45.87213834,-67.9510081 -45.87218,-67.9515123 -45.8715599,-67.9518449 -45.870925,-67.95082673 -45.87123588,-67.9518449 -45.870925,-67.9516733 -45.8706037,-67.9509866 -45.870275,-67.95089010000001 -45.8697222,-67.9517484 -45.8700734,-67.9526281 -45.8699912,-67.95188123 -45.87007275,-67.9526013 -45.869965,-67.9517484 -45.8700734,-67.9508901 -45.8697222,-67.9511476 -45.8693039,-67.95011093 -45.86936834,-67.9511476 -45.8693039,-67.95089010000001 -45.8697222,-67.9506433 -45.8681011,-67.9512978 -45.867892,-67.95075242 -45.86791677,-67.9513514 -45.867951700000006,-67.9506004 -45.8681534,-67.9493558 -45.8665622,-67.9490876 -45.8664576,-67.9492164 -45.8668461,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S618,S892,S2655,S949</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 1211,S172,Linea 768,S2417,Linea 759,S402,Linea 760,S2468,Linea 763,S395,Linea 764,S338,Linea 773,S2407,Linea 850,S2056,Linea 849,S2716,Linea 853,S2504,Linea 854,S997,Linea 1836,S353,Linea 1361,S2006,Linea 1363,S2009,Linea 1365,S354,Linea 1421,S2255,Linea 568,S882,Linea 622,S523,Linea 215,S788,Linea 216,S2676,Linea 219,S618;S618,Linea 218,S2396,Linea 240,S2395,Linea 243,S1005,Linea 397,S543,Linea 399,S2288,Linea 247,S2418,Linea 249,S611,Linea 250,E291,Linea 252,S853,Linea 254,S851,Linea 257,S591,Linea 258,S876,Linea 263,S886,Linea 264,S868,Linea 270,S869,Linea 278,S864,Linea 277,S2582,Linea 275,S2279,Linea 274,S892;S892,Linea 340,S594,Linea 260,S616,Linea 315,S2440,Linea 314,S2496,Linea 1497,S707,Linea 365,S613,Linea 369,S721,Linea 368,Planta La Petiza,Linea 366,S1039,Linea 361,S790,Linea 342,S1029,Linea 349,S2470,Linea 348,S2655;S2655,Linea 348,S2470,Linea 350,S1020,Linea 1496,S1033,Linea 376,S1036,Linea 416,S1028,Linea 378,S2007,Linea 418,S2040,Linea 420,S2635,Linea 439,S2122,Linea 451,S2614,Linea 526,S2606,Linea 1888,S2523,Linea 1887,S13,Linea 1886,S2,Linea 471,S2240,Linea 1593,Q16,Linea 613,S3,Linea 734,S295,Linea 735,S17,Linea 594,S2259,Linea 592,S2129,Linea 591,S949;S949,Linea 579,S2132,Linea 578,S2443,Linea 581,S938,Linea 582,S849,Linea 584,S2168,Linea 1617,S2167,Linea 736,S2110,Linea 930,S2111,Linea 931,S645,Linea 932,S78,Linea 940,S56,Linea 944,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.95709848 -45.86769228,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95610675 -45.87170205,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95650202 -45.87386891,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95720623 -45.87256309,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.96214261 -45.87344787,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96572509 -45.87368099,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.9672039 -45.87497495,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.96992116 -45.87035971,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.9688479 -45.86924263,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.96898996 -45.86789944,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.97170451 -45.86764851,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97781889 -45.86412305,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97692655 -45.86298292,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.98026531 -45.86300386,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98206338 -45.86352335,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86821501 -45.85959306,-67.8666258 -45.8579551,-67.8677523 -45.8588443,-67.8689218 -45.8588293,-67.8688896 -45.8591954,-67.86509618 -45.85797591,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86269634 -45.8576934,-67.8630531 -45.8577608,-67.8614652 -45.8569165,-67.86075305 -45.85668169;-67.86075305 -45.85668169,-67.8618944 -45.8580074,-67.8614438 -45.8568642,-67.86119926 -45.8582863,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.85800456 -45.85865306,-67.8585362 -45.8586425,-67.8567231 -45.8591431,-67.8550386 -45.8605852,-67.85325633 -45.86047853,-67.8547168 -45.8600622,-67.8545237 -45.8589862,-67.8537083 -45.858508,-67.852335 -45.8585529,-67.85051371 -45.8587379,-67.8511226 -45.8587172,-67.8489661 -45.8581942,-67.8504252 -45.8565952,-67.84992667 -45.85649082,-67.851541 -45.8561394,-67.8511119 -45.8555416,-67.8497386 -45.8553249,-67.8490841 -45.8555341,-67.84737753 -45.85568862,-67.8480864 -45.8556163,-67.846477 -45.8561992,-67.8452325 -45.8556537,-67.84359994 -45.85582912,-67.8438914 -45.8557508,-67.8414237 -45.8563262,-67.8377545 -45.8563187,-67.83653581 -45.85644197,-67.8371108 -45.8561767,-67.8326368 -45.8556313,-67.83154193 -45.85548135,-67.8319716 -45.855437,-67.8292787 -45.855108200000004,-67.82760578 -45.8552439,-67.8277767 -45.8550036,-67.8251696 -45.8547271,-67.824676 -45.8544207,-67.82322995 -45.85451391,-67.8244078 -45.8540994,-67.8225088 -45.8518801,-67.82163737 -45.8516816,-67.8223801 -45.8515886,-67.8209639 -45.8504751,-67.8196657 -45.8504079,-67.81800483 -45.85079524,-67.8185713 -45.8505798,-67.816962 -45.851073,-67.8161895 -45.8523658,-67.81497943 -45.85259887,-67.816329 -45.8519921,-67.8167796 -45.8511701,-67.8158462 -45.8513121,-67.8150415 -45.8533148,-67.8138399 -45.8541293,-67.81217316 -45.85421245,-67.809999 -45.85395,-67.81053540000002 -45.8542265,-67.8125417 -45.8543386,-67.80813131 -45.85419968,-67.8093982 -45.8548467,-67.8103423 -45.8545851,-67.808851 -45.8544506,-67.8103101 -45.854219,-67.8097093 -45.8539126,-67.8072436 -45.85498762,-67.8098595 -45.8560647,-67.809999 -45.8550036,-67.8090441 -45.8548691,-67.80907829 -45.8565264,-67.8125632 -45.8568492,-67.810396 -45.8571033,-67.8101599 -45.8566923,-67.81224182 -45.85671416;-67.81224182 -45.85671416,-67.8138077 -45.8564532,-67.814548 -45.8566699,-67.813561 -45.8597484,-67.8137219 -45.8605777,-67.81282229 -45.86107452,-67.8186142 -45.8634617,-67.8183568 -45.8624605,-67.8160179 -45.8615565,-67.8143764 -45.8610559,-67.81720169 -45.86444747,-67.8182173 -45.868004,-67.8160286 -45.8663455,-67.8181314 -45.8648065,-67.8182173 -45.864545,-67.81633269 -45.86814359,-67.819097 -45.8668461,-67.8186357 -45.8670552,-67.8192151 -45.868385,-67.81829240000002 -45.8680713,-67.8187144 -45.86699435,-67.8260922 -45.8716048,-67.8258884 -45.8718886,-67.8219509 -45.871657,-67.8194082 -45.8687287,-67.8185391 -45.8670926,-67.8190756 -45.8667788,-67.82435527 -45.87146335,-67.8326046 -45.8712686,-67.8287637 -45.8718438,-67.8266931 -45.8718811,-67.8259957 -45.8715076,-67.83204724 -45.87132308,-67.8347504 -45.8724041,-67.8345788 -45.8717915,-67.8335381 -45.8712686,-67.8339131 -45.87269245,-67.8368962 -45.8743761,-67.8363168 -45.8740101,-67.8365743 -45.8734723,-67.8358126 -45.8726879,-67.8366923 -45.875026,-67.8362739 -45.8749812,-67.8353405 -45.875362100000004,-67.8336787 -45.87548722,-67.8340852 -45.8751231,-67.8342354 -45.8742566,-67.8322077 -45.8732855,-67.8288817 -45.8737262,-67.82716871 -45.873948,-67.821511 -45.878081,-67.8234959 -45.8768037,-67.8260922 -45.8734274,-67.8288066 -45.8736889,-67.82018891 -45.8787842,-67.826339 -45.88047110000001,-67.8268754 -45.8811284,-67.8273153 -45.8802321,-67.8244936 -45.8781408,-67.8228843 -45.8780212,-67.8223586 -45.8783947,-67.8233027 -45.8768411,-67.8215861 -45.8781258,-67.82495492 -45.88019856,-67.8244615 -45.8810313,-67.8250515 -45.8799259,-67.8256953 -45.8798288,-67.82277878 -45.88156147;-67.82277878 -45.88156147,-67.8244615 -45.8810313,-67.8250515 -45.8799259,-67.8256953 -45.8798288,-67.82495492 -45.88019856,-67.826339 -45.88047110000001,-67.8268003 -45.8811956,-67.8233886 -45.8829433,-67.8221127 -45.88349304,-67.8419 -45.8843,-67.84199 -45.88554,-67.8396535 -45.88699,-67.83912 -45.88937,-67.83802 -45.8905,-67.83603 -45.89096,-67.83455 -45.89131,-67.8337097 -45.8907848,-67.83354 -45.88813,-67.82783 -45.88844,-67.824097 -45.88562,-67.82332 -45.88365,-67.8408227 -45.88408969,-67.8418744 -45.8837275,-67.8411126 -45.8830703,-67.839793 -45.8826221,-67.8392565 -45.8819126,-67.8402436 -45.8815616,-67.83977572 -45.88161766,-67.842443 -45.8796122,-67.8389347 -45.8810612,-67.8383017 -45.8819499,-67.8395998 -45.8826445,-67.8392565 -45.8820246,-67.8403294 -45.8816064,-67.84221298 -45.87973382,-67.8455973 -45.8806504,-67.8449214 -45.8812852,-67.8420246 -45.8795972,-67.8425181 -45.87953,-67.84518194 -45.88032275,-67.8494382 -45.880628,-67.84873010000001 -45.8802396,-67.8461766 -45.8806653,-67.8457046 -45.880515900000006,-67.8485758 -45.88086765,-67.8556287 -45.8843698,-67.853719 -45.8831001,-67.8518629 -45.8825923,-67.8500605 -45.8812329,-67.85493998 -45.88481908,-67.8571093 -45.8855572,-67.8559184 -45.8854378,-67.8555107 -45.884698400000005,-67.85655105 -45.88556448,-67.85825730000002 -45.8853855,-67.85964130000002 -45.8854228,-67.85908094 -45.88593849,-67.8614116 -45.8855274,-67.862978 -45.884788,-67.8635466 -45.8831599,-67.8632355 -45.8817483,-67.86391140000002 -45.8815093,-67.8628063 -45.8810537,-67.8623772 -45.8814346,-67.86071597 -45.88116865,-67.8685462 -45.8831151,-67.8700483 -45.8829059,-67.8648233 -45.8818603,-67.8628063 -45.8810537,-67.8621304 -45.8814645,-67.86703039 -45.88312685,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.87263059 -45.88283868,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.8758872 -45.88413516,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.87630061 -45.88642699,,-67.87597578 -45.88674947,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87931365 -45.88515467,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.88934482 -45.88367092,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88477851 -45.88530377,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88725199 -45.88498287,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88986813 -45.88509226,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.89478887 -45.88442779;-67.89478887 -45.88442779,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89811074 -45.88424629,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.90293219 -45.8836944,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90362098 -45.8874036,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90705336 -45.88840606,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90594775 -45.88423937,,-67.90591516 -45.88446218,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90970498 -45.88326091,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91930941 -45.88137118,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.92260289 -45.87981886,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2680,S2034,S2486</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 943,S167,Linea 946,S2147,Linea 966,S2465,Linea 968,S387,Linea 970,S316,Linea 969,S39,Linea 957,S36,Linea 1025,S2725,Linea 958,S37,Linea 959,S2680;S2680,Linea 959,S37,Linea 1024,S2695,Linea 1026,S43,Linea 1088,S2707,Linea 1098,S42,Linea 1856,S2724,Linea 1092,S163,Linea 1854,S66,Linea 1152,S2658,Linea 1145,S844,Linea 1135,S914,Linea 1274,S2180,Linea 1275,S2486,Linea 1276,S2034;S2034,Linea 1276,S2486;S2486,Linea 1275,S2180,Linea 1274,S914,Linea 1135,S844,Linea 1145,S2658,Linea 1152,S66,Linea 1854,S163,Linea 1092,S2724,Linea 1856,S42,Linea 1098,S2707,Linea 1088,S43,Linea 1026,S2695,Linea 1027,S36,Linea 957,S39,Linea 969,S316,Linea 970,S387,Linea 968,S2465,Linea 966,S2147,Linea 946,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.93512028 -45.8793768,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.94258106 -45.87928487,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.9459034 -45.88040255,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.94607409 -45.88311995,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94628753 -45.88560005,-67.9471672 -45.8852884,-67.9470921 -45.8848627,-67.9461265 -45.8845565,-67.94483649 -45.8845247,-67.9459763 -45.8845415,-67.9446459 -45.8841607,-67.9436696 -45.8842353,-67.94255555 -45.88454697,-67.9423177 -45.8861323,-67.9425859 -45.8852137,-67.9431438 -45.8846088,-67.9432619 -45.8842802,-67.94198922 -45.88653728;-67.94198922 -45.88653728,-67.9423177 -45.8861323,-67.9425859 -45.8852137,-67.9431438 -45.8846088,-67.9432619 -45.8842802,-67.94255555 -45.88454697,-67.9484117 -45.88667,-67.947489 -45.8864908,-67.9468238 -45.8864609,-67.9463196 -45.8856021,-67.9456758 -45.8850643,-67.945118 -45.8847581,-67.9446459 -45.8841607,-67.9440129 -45.8842652,-67.94746568 -45.88694764,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94972726 -45.88693813,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.95178221 -45.88666191,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95650174 -45.8868325,-67.9573059 -45.8868268,-67.956748 -45.8864908,-67.9563725 -45.8857215,-67.9556644 -45.8849971,-67.9546167 -45.88506443,-67.960428 -45.8852436,-67.9597843 -45.8853855,-67.9578102 -45.8852959,-67.9558897 -45.8849448,-67.95958113 -45.88533853,-67.9643977 -45.8867746,-67.9641402 -45.8867895,-67.9629064 -45.8855274,-67.9625845 -45.8842055,-67.9620588 -45.8840412,-67.9608893 -45.8848926,-67.96291589 -45.88644251,-67.9671872 -45.8881412,-67.9659748 -45.8870061,-67.9642153 -45.8869314,-67.9642582 -45.8866849,-67.96633372 -45.88873533,-67.9702985 -45.892002,-67.9693437 -45.8927189,-67.9695046 -45.8920393,-67.9694617 -45.8909565,-67.9689038 -45.8902247,-67.9675949 -45.8891494,-67.9695987 -45.89181892,-67.9699337 -45.8946379,-67.9693973 -45.8950411,-67.9688287 -45.894847,-67.9686248 -45.893936,-67.9694724 -45.8926591,-67.9702985 -45.892002,-67.96939983 -45.89469974,-67.9721761 -45.8962209,-67.9716182 -45.8947873,-67.9710388 -45.8947723,-67.97161551 -45.8965517,-67.9729271 -45.8958177,-67.9726696 -45.8949515,-67.97168684 -45.8946769,-67.9725194 -45.8940704,-67.9735279 -45.8935179,-67.97316911 -45.89352066;-67.97316911 -45.89352066,-67.9725194 -45.8940704,-67.9735279 -45.8935179,-67.97168684 -45.8946769;-67.97168684 -45.8946769,-67.9729271 -45.8958177,-67.9726696 -45.8949515,-67.97161551 -45.8965517,-67.9721761 -45.8962209,-67.9716182 -45.8947873,-67.9710388 -45.8947723,-67.96939983 -45.89469974,-67.9699337 -45.8946379,-67.9693973 -45.8950411,-67.9688287 -45.894847,-67.9686248 -45.893936,-67.9694724 -45.8926591,-67.9702985 -45.892002,-67.9695987 -45.89181892,-67.9702985 -45.892002,-67.9693437 -45.8927189,-67.9695046 -45.8920393,-67.9694617 -45.8909565,-67.9689038 -45.8902247,-67.9675949 -45.8891494,-67.96633372 -45.88873533,-67.9671872 -45.8881412,-67.9659748 -45.8870061,-67.9642153 -45.8869314,-67.9642582 -45.8866849,-67.96291589 -45.88644251,-67.9643977 -45.8867746,-67.9641402 -45.8867895,-67.9629064 -45.8855274,-67.9625845 -45.8842055,-67.9620588 -45.8840412,-67.9608893 -45.8848926,-67.95958113 -45.88533853,-67.960428 -45.8852436,-67.9597843 -45.8853855,-67.9578102 -45.8852959,-67.9558897 -45.8849448,-67.9546167 -45.88506443,-67.9573059 -45.8868268,-67.956748 -45.8864908,-67.9563725 -45.8857215,-67.9556644 -45.8849971,-67.95650174 -45.8868325,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95178221 -45.88666191,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.94972726 -45.88693813,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94746568 -45.88694764,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94628753 -45.88560005,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94607409 -45.88311995,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.9459034 -45.88040255,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.94258106 -45.87928487,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2490,S676,S2233,S2044</t>
   </si>
   <si>
     <t>Base,Linea 1,S176,Linea 1506,S2447,Linea 2,S993,Linea 3,S329,Linea 4,S309,Linea 6,S328,Linea 7,S2258,Linea 8,S326,Linea 52,S2253,Linea 57,S208,Linea 156,S2488,Linea 1548,S680,Linea 158,S246,Linea 161,S662,Linea 162,S678,Linea 164,S2510,Linea 167,S2478,Linea 168,S451,Linea 169,S691,Linea 170,S676,Linea 177,S640,Linea 178,S637,Linea 183,S495,Linea 186,S635,Linea 1555,S2552,Linea 211,S622,Linea 210,S633,Linea 127,S501,Linea 925,S789,Linea 923,Planta Norte,Linea 1214,S783,Linea 903,S2521,Linea 1694,S2490;S2490,Linea 1694,S2521,Linea 903,S783,Linea 1214,Planta Norte,Linea 923,S789,Linea 925,S501,Linea 127,S633,Linea 210,S622,Linea 211,S2552,Linea 1563,S635,Linea 186,S495,Linea 183,S637,Linea 178,S640,Linea 177,S676;S676,Linea 170,S691,Linea 169,S451,Linea 168,S2478,Linea 167,S2510,Linea 163,S2482,Linea 151,S550,Linea 150,S2609,Linea 147,S378,Linea 140,S2203,Linea 101,S781,Linea 409,S2321,Linea 88,S2004,Linea 89,S2065,Linea 91,S2326,Linea 92,S2233;S2233,Linea 92,S2326,Linea 91,S2065,Linea 89,S2004,Linea 82,S2014,Linea 79,S2252,Linea 76,S100,Linea 75,S156,Linea 74,S155,Linea 71,S154,Linea 69,S2416,Linea 1341,S245,Linea 1340,S186,Linea 901,S539,Linea 1408,S2376,Linea 1346,S190,Linea 1395,S232,Linea 1348,S2314,Linea 1347,S643,Linea 892,S290,Linea 891,S2061,Linea 877,S2190,Linea 867,S2044;S2044,Linea 867,S2190,Linea 877,S2061,Linea 891,S290,Linea 892,S643,Linea 1347,S2314,Linea 1348,S232,Linea 1395,S190,Linea 1346,S2376,Linea 1408,S539,Linea 901,S186,Linea 1340,S245,Linea 17,S977,Linea 16,S2250,Linea 15,S278,Linea 14,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.93822649 -45.86645361,,-67.93820898 -45.86621382,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.9397787 -45.86446671,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.94026881 -45.86394522,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94016816 -45.86304785,-67.9407513 -45.863103100000004,-67.9403973 -45.8622551,-67.93757020000001 -45.8636746,-67.93638614 -45.8639203,-67.9374468 -45.8637643,-67.93648120000002 -45.8648999,-67.93542287 -45.86514387,-67.9364544 -45.8650082,-67.9343033 -45.8651128,-67.93322311 -45.86539389,-67.934196 -45.8650755,-67.9339492 -45.8648887,-67.9318678 -45.8652174,-67.93025624 -45.86524613,-67.92887450000002 -45.8655984,-67.929647 -45.8660093,-67.9311919 -45.8652622,-67.92761571 -45.86576064,-67.9284239 -45.8655835,-67.9270077 -45.8655162,-67.92568273 -45.86555172,,-67.92617947 -45.86596757,-67.9266429 -45.8657927,-67.9259992 -45.8665696,-67.92478129 -45.86687146,-67.9258382 -45.86658460000001,-67.9220402 -45.8663903,-67.92069068 -45.86664171,-67.9224908 -45.8663306,-67.9191971 -45.8656582,-67.91774956 -45.8661538,-67.9187572 -45.8661064,-67.9176843 -45.8663679,-67.9172981 -45.8656657,-67.91575239 -45.86551598,-67.9164934 -45.8652398,-67.9147875 -45.8642536,-67.9133606 -45.865322,-67.9120409 -45.8651352,-67.91093971 -45.86527418,-67.9122448 -45.8649709,-67.911129 -45.8644105,-67.9103887 -45.8645226,-67.90917641 -45.86476613,-67.9100668 -45.8647318,-67.9098523 -45.8659197,-67.9103565 -45.8661513,-67.90947109 -45.86641003,-67.9100454 -45.8663754,-67.9094982 -45.8663306,-67.909627 -45.86429100000001,-67.90869072 -45.86438156,-67.9108179 -45.86391,-67.9094768 -45.8638353,-67.9077816 -45.8657329,-67.9066443 -45.8662484,-67.90565529 -45.8665856,-67.906419 -45.86626330000001,-67.9050887 -45.8652025,-67.9043591 -45.864814,-67.90314798 -45.8648888,-67.9039943 -45.8644255,-67.9028034 -45.8637381,-67.8999174 -45.8635812,-67.89867893 -45.86374335,-67.8993487 -45.8636634,-67.8988981 -45.8636933,-67.89861920000001 -45.8635215,-67.8975525 -45.86346654,,-67.89779792 -45.86312838,-67.8962696 -45.8632899,-67.8974175 -45.8625203,-67.8984583 -45.8622177,-67.8946526 -45.86372426,-67.8961945 -45.8632674,-67.8952932 -45.8629985,-67.8948426 -45.8620347,-67.89369378 -45.862107,-67.8961086 -45.8601668,-67.8949714 -45.8618927,-67.89506126 -45.86022417,-67.8960952 -45.8598436,-67.8959692 -45.8585678,-67.8961945 -45.8583138,-67.8955936 -45.8581419,-67.8949177 -45.8572976,-67.8950787 -45.8562589,-67.894907 -45.8558629,-67.8937376 -45.8558928,-67.8932869 -45.8566101,-67.8928149 -45.8568492,-67.8926003 -45.8566998,-67.89119881 -45.85678635,-67.8915596 -45.8569165,-67.8910661 -45.8570435,-67.8905296 -45.8572453,-67.8862917 -45.8600846,-67.8869355 -45.8600547,-67.8873861 -45.8596438,-67.8876221 -45.8588667,-67.8886843 -45.8579999,-67.88485253 -45.86038085,-67.8861415 -45.8600696,-67.8866887 -45.8595317,-67.8869033 -45.8586351,-67.88574793 -45.85866319,,-67.88589584 -45.85818603;-67.88589584 -45.85818603,,-67.88574793 -45.85866319,-67.8861415 -45.8600696,-67.8866887 -45.8595317,-67.8869033 -45.8586351,-67.88485253 -45.86038085,-67.8862917 -45.8600846,-67.8869355 -45.8600547,-67.8873861 -45.8596438,-67.8876221 -45.8588667,-67.8886843 -45.8579999,-67.8905296 -45.8572453,-67.8915596 -45.8569165,-67.8910661 -45.8570435,-67.89119881 -45.85678635,-67.8960952 -45.8598436,-67.8959692 -45.8585678,-67.8961945 -45.8583138,-67.8955936 -45.8581419,-67.8949177 -45.8572976,-67.8950787 -45.8562589,-67.894907 -45.8558629,-67.8937376 -45.8558928,-67.8932869 -45.8566101,-67.8928149 -45.8568492,-67.8926003 -45.8566998,-67.89506126 -45.86022417,-67.8961086 -45.8601668,-67.8949714 -45.8618927,-67.89369378 -45.862107,-67.8961945 -45.8632674,-67.8952932 -45.8629985,-67.8948426 -45.8620347,-67.8946526 -45.86372426,-67.8962696 -45.8632899,-67.8974175 -45.8625203,-67.8984583 -45.8622177,-67.89779792 -45.86312838,,-67.8975525 -45.86346654,-67.8993487 -45.8636634,-67.8988981 -45.8636933,-67.89861920000001 -45.8635215,-67.89867893 -45.86374335,-67.9039943 -45.8644255,-67.9028034 -45.8637381,-67.8999174 -45.8635812,-67.90314798 -45.8648888,-67.906419 -45.86626330000001,-67.9050887 -45.8652025,-67.9043591 -45.864814,-67.90565529 -45.8665856,-67.9108179 -45.86391,-67.9094768 -45.8638353,-67.9077816 -45.8657329,-67.9066443 -45.8662484,-67.90869072 -45.86438156;-67.90869072 -45.86438156,-67.9100454 -45.8663754,-67.9094982 -45.8663306,-67.909627 -45.86429100000001,-67.90947109 -45.86641003,-67.9100668 -45.8647318,-67.9098523 -45.8659197,-67.9103565 -45.8661513,-67.90917641 -45.86476613,-67.9122448 -45.8649709,-67.911129 -45.8644105,-67.9103887 -45.8645226,-67.91093971 -45.86527418,-67.9164934 -45.8652398,-67.9147875 -45.8642536,-67.9133606 -45.865322,-67.9120409 -45.8651352,-67.91575239 -45.86551598,-67.92151450000001 -45.8648214,-67.9209244 -45.864687,-67.9176092 -45.8656881,-67.9171693 -45.8655984,-67.92009355 -45.86527701,-67.920903 -45.864119200000005,-67.92119260000001 -45.8646197,-67.9214394 -45.8648887,-67.92012334 -45.86396532,-67.9195297 -45.8639025,-67.9203665 -45.8649335,-67.9209244 -45.864687,-67.9208171 -45.8640743,-67.91830981 -45.86407906,-67.9196048 -45.8623709,-67.9195297 -45.8639025,-67.91863427 -45.86235477,-67.9186606 -45.8599277,-67.9196692 -45.8609364,-67.9196477 -45.86190760000001,-67.91710731 -45.85967629,-67.9182637 -45.857462,-67.9179955 -45.8590535,-67.91707962 -45.85731555,-67.9179096 -45.8569314,-67.917974 -45.8555117,-67.9220295 -45.8569464,-67.92158978 -45.85720014,-67.9236388 -45.8571407,-67.9227161 -45.8570659,-67.92272998 -45.85731085,-67.9241967 -45.8567969,-67.924701 -45.8556761,-67.9241431 -45.854488,-67.92327551 -45.85450965,-67.9244971 -45.8543161,-67.9239607 -45.8526497,-67.9270506 -45.8518203,-67.9288852 -45.8523882,-67.9308057 -45.8510879,-67.9312563 -45.8523135,-67.93089091 -45.85239801,-67.9313636 -45.8522761,-67.9309022 -45.8511926,-67.9317391 -45.8517754,-67.9345393 -45.8509983,-67.9352582 -45.8516036,-67.93449334 -45.85185974;-67.93449334 -45.85185974,-67.9313636 -45.8522761,-67.9309022 -45.8511926,-67.9317391 -45.8517754,-67.9345393 -45.8509983,-67.9352582 -45.8516036,-67.93089091 -45.85239801,-67.9244971 -45.8543161,-67.9239607 -45.8526497,-67.9270506 -45.8518203,-67.9288852 -45.8523882,-67.9308057 -45.8510879,-67.9312563 -45.8523135,-67.92327551 -45.85450965,-67.9241967 -45.8567969,-67.924701 -45.8556761,-67.9241431 -45.854488,-67.92272998 -45.85731085,-67.9283702 -45.8576637,-67.9275548 -45.8572154,-67.9269218 -45.8575143,-67.9259026 -45.8575367,-67.9241967 -45.8567969,-67.92745639 -45.85783394,-67.9309988 -45.8565279,-67.9294109 -45.8566176,-67.9285955 -45.8575143,-67.93015362 -45.85669955,-67.9352367 -45.8545328,-67.933563 -45.8546898,-67.9313636 -45.8564457,-67.93449161 -45.85473418,-67.9390132 -45.8553324,-67.9377794 -45.8546898,-67.9357088 -45.8545104,-67.93784211 -45.85566073,-67.9418778 -45.8559601,-67.9390132 -45.8553324,-67.94127839 -45.85682198,-67.9455793 -45.8575815,-67.9449892 -45.8573947,-67.9450321 -45.8569464,-67.9437447 -45.8569987,-67.9429507 -45.8566475,-67.94451337 -45.85788474,-67.95038580000002 -45.8584109,-67.9492486 -45.8582839,-67.9486799 -45.8563934,-67.9455793 -45.8575815,-67.94942594 -45.85854239,-67.9494631 -45.8607197,-67.9496992 -45.8604582,-67.9489589 -45.8596363,-67.9496777 -45.8591282,-67.9500318 -45.8586351,-67.9503858 -45.8584632,-67.94780419 -45.86081977,-67.9549134 -45.858239,-67.9527032 -45.8590684,-67.9493666 -45.8607794,-67.9491198 -45.8606898,-67.9539623 -45.85805836,-67.9549778 -45.85820170000001,-67.9571986 -45.85672970000001,-67.9579175 -45.8564981,-67.9585719 -45.8567521,-67.95773843 -45.85672753,-67.9586148 -45.8568044,-67.9579926 -45.8564383,-67.9605138 -45.8553847,-67.9615545 -45.8546374,-67.963078 -45.8525451,-67.9633892 -45.8522836,-67.9675841 -45.8512224,-67.9699767 -45.8512598,-67.9700732 -45.8515064,-67.9697835 -45.8517381,-67.96836168 -45.85192469,-67.9697835 -45.8517381,-67.9700947 -45.8517082,-67.9702342 -45.8514018,-67.9710817 -45.8516335,-67.97135 -45.8516633,-67.97067338 -45.85178783,-67.9748797 -45.8534568,-67.9738176 -45.8522612,-67.9730666 -45.8517007,-67.9728305 -45.8516858,-67.9720902 -45.8515438,-67.97404757 -45.85313584,-67.9750836 -45.8543983,-67.9752016 -45.8534194,-67.97353981 -45.85482131,-67.9721439 -45.8564532,-67.9723585 -45.855833,-67.9728305 -45.8549363,-67.9739249 -45.8544805,-67.9741395 -45.8540023,-67.9740536 -45.853539,-67.9744184 -45.8538977,-67.9746437 -45.8541517,-67.9750943 -45.8540247,-67.9749548 -45.854488,-67.97079424 -45.85669528,-67.9716182 -45.8586425,-67.9730558 -45.8570659,-67.9720259 -45.8565877,-67.97062811 -45.85914674,-67.97135 -45.8605329,-67.9716933 -45.8600771,-67.9713929 -45.8591282,-67.96999638 -45.86075838,-67.9688287 -45.8612875,-67.9708672 -45.860772,-67.9674538 -45.86158535,-67.9682064 -45.8628939,-67.968421 -45.8615714,-67.96738506 -45.86316959;-67.96738506 -45.86316959,-67.9682064 -45.8628939,-67.968421 -45.8615714,-67.9674538 -45.86158535,-67.9688287 -45.8612875,-67.9708672 -45.860772,-67.96999638 -45.86075838,-67.97135 -45.8605329,-67.9716933 -45.8600771,-67.9713929 -45.8591282,-67.97062811 -45.85914674,-67.9716182 -45.8586425,-67.9730558 -45.8570659,-67.9720259 -45.8565877,-67.97079424 -45.85669528,-67.9721439 -45.8564532,-67.9723585 -45.855833,-67.9728305 -45.8549363,-67.9739249 -45.8544805,-67.9741395 -45.8540023,-67.9740536 -45.853539,-67.9744184 -45.8538977,-67.9746437 -45.8541517,-67.9750943 -45.8540247,-67.9749548 -45.854488,-67.97353981 -45.85482131,-67.9750836 -45.8543983,-67.9752016 -45.8534194,-67.97404757 -45.85313584,-67.9748797 -45.8534568,-67.9738176 -45.8522612,-67.9730666 -45.8517007,-67.9728305 -45.8516858,-67.9720902 -45.8515438,-67.97067338 -45.85178783,-67.9697835 -45.8517381,-67.9700947 -45.8517082,-67.9702342 -45.8514018,-67.9710817 -45.8516335,-67.97135 -45.8516633,-67.96836168 -45.85192469,-67.9586148 -45.8568044,-67.9579926 -45.8564383,-67.9605138 -45.8553847,-67.9615545 -45.8546374,-67.963078 -45.8525451,-67.9633892 -45.8522836,-67.9675841 -45.8512224,-67.9699767 -45.8512598,-67.9700732 -45.8515064,-67.9697835 -45.8517381,-67.95773843 -45.85672753,-67.9549778 -45.85820170000001,-67.9571986 -45.85672970000001,-67.9579175 -45.8564981,-67.9585719 -45.8567521,-67.9539623 -45.85805836,-67.9549134 -45.858239,-67.9527032 -45.8590684,-67.9493666 -45.8607794,-67.9491198 -45.8606898,-67.94780419 -45.86081977,-67.9479718 -45.8615453,-67.9493934 -45.8606973,-67.9489589 -45.8606599,-67.94655091 -45.86160389,-67.9483044 -45.861911400000004,-67.9473495 -45.8614183,-67.94727301 -45.86217176,-67.9469097 -45.8620944,-67.9481596 -45.8620048,-67.94569946 -45.86221924,-67.9427254 -45.8635364,-67.9464859 -45.8623447,-67.9469097 -45.862016,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2544,S2456,S2578,S2200</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 1211,S172,Linea 768,S2417,Linea 759,S402,Linea 760,S2468,Linea 763,S395,Linea 764,S338,Linea 773,S2407,Linea 850,S2056,Linea 849,S2716,Linea 853,S2504,Linea 854,S997,Linea 1836,S353,Linea 1361,S2006,Linea 1363,S2009,Linea 1365,S354,Linea 1421,S2255,Linea 568,S882,Linea 622,S523,Linea 221,S2458,Linea 220,S2054,Linea 222,S2544;S2544,Linea 222,S2054,Linea 226,S2291,Linea 229,S487,Linea 228,S2038,Linea 227,S2456;S2456,Linea 227,S2038,Linea 228,S487,Linea 230,S1041,Linea 1848,S492,Linea 1849,S2001,Linea 902,S2022,Linea 1883,S556,Linea 142,S2578;S2578,Linea 1821,S555,Linea 112,S767,Linea 108,S719,Linea 106,S763,Linea 105,S2206,Linea 104,S538,Linea 141,S690,Linea 144,S2017,Linea 143,S356,Linea 97,S2200;S2200,Linea 1847,S2199,Linea 46,S2569,Linea 42,S2032,Linea 34,S308,Linea 33,S2412,Linea 27,S2195,Linea 10,S309,Linea 4,S329,Linea 3,S993,Linea 2,S2447,Linea 1506,S176,Linea 1,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.95709848 -45.86769228,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95610675 -45.87170205,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95650202 -45.87386891,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95720623 -45.87256309,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.96214261 -45.87344787,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96572509 -45.87368099,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.9672039 -45.87497495,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.96992116 -45.87035971,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.9688479 -45.86924263,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.96898996 -45.86789944,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.97170451 -45.86764851,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97781889 -45.86412305,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97692655 -45.86298292,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.98026531 -45.86300386,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98206338 -45.86352335,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86821501 -45.85959306,-67.8694689 -45.8577534,-67.8702736 -45.8579402,-67.8698766 -45.8584483,-67.8689003 -45.8587696,-67.86752908 -45.85773082,-67.8694689 -45.8577534,-67.8703272 -45.8578879,-67.8705525 -45.8574694,-67.8710139 -45.8575441,-67.87029294 -45.85782787,-67.8710139 -45.8575441,-67.8706169 -45.8573573,-67.8709602 -45.8560348,-67.86919632 -45.85619455;-67.86919632 -45.85619455,-67.8710139 -45.8575441,-67.8706169 -45.8573573,-67.8709602 -45.8560348,-67.87029294 -45.85782787,-67.8721619 -45.8576637,-67.8734279 -45.8573798,-67.8740823 -45.8579103,-67.87227986 -45.85836679,-67.8758311 -45.8590012,-67.8755307 -45.858777,-67.8718829 -45.8588144,-67.8721619 -45.8576637,-67.8733528 -45.857462,-67.8739536 -45.8579028,-67.87446619 -45.85953534,-67.875917 -45.8590236,-67.876507 -45.8586575,-67.8763676 -45.8580597,-67.87463577 -45.85800361,-67.8743291 -45.8564159,-67.8760457 -45.8568941,-67.8756917 -45.8576936,-67.87242565 -45.85686269;-67.87242565 -45.85686269,-67.8743291 -45.8564159,-67.8760457 -45.8568941,-67.8756917 -45.8576936,-67.87463577 -45.85800361,-67.875917 -45.8590236,-67.876507 -45.8586575,-67.8763676 -45.8580597,-67.87446619 -45.85953534,-67.875917 -45.8590236,-67.8765607 -45.8587098,-67.8784597 -45.8588443,-67.87771797 -45.85914466,-67.8790283 -45.8588293,-67.880466 -45.8587397,-67.8813028 -45.8593598,-67.88077392 -45.85953999,-67.8814316 -45.8592926,-67.8808415 -45.8591357,-67.880863 -45.8587322,-67.8817642 -45.858239,-67.8850043 -45.8580522,-67.88402968 -45.85834964,-67.887429 -45.855564,-67.8882551 -45.8548691,-67.8894138 -45.853808,-67.8920853 -45.8535689,-67.8916454 -45.8538678,-67.8897357 -45.85395,-67.88910 -45.85436,-67.8875685 -45.8562589,-67.885799 -45.8571033,-67.88544 -45.8578281,-67.88523 -45.85794,-67.88581092 -45.85597227,-67.887429 -45.855564,-67.8894138 -45.853808,-67.8932333 -45.8533447,-67.8969455 -45.8545851,-67.8963768 -45.8546599,-67.89483427 -45.85484841,-67.9008508 -45.8548093,-67.8990161 -45.8545403,-67.898823 -45.8538678,-67.8965485 -45.8545553,-67.90022567 -45.85540767;-67.90022567 -45.85540767,,-67.90067511 -45.8549717,-67.904284 -45.8564084,-67.9033184 -45.8552726,-67.9019022 -45.8551232,-67.90400196 -45.85653031,-67.90773330000002 -45.8580522,-67.9073417 -45.8579177,-67.9068965 -45.8568567,-67.9053408 -45.8563822,-67.90707943 -45.8582017,-67.9102653 -45.8586986,-67.9081625 -45.8581195,-67.90964669 -45.85881191,-67.9112792 -45.8592776,-67.9102921 -45.8588293,-67.9105067 -45.8586425,-67.91058213 -45.85962973,-67.9145408 -45.8594047,-67.9124916 -45.858777,-67.9112792 -45.8592776,-67.91347499 -45.85938782,-67.9153347 -45.8605702,-67.9157317 -45.8599725,-67.9146159 -45.859457,-67.91412974 -45.86109479,-67.9219651 -45.8610335,-67.9157424 -45.8609887,-67.92116295 -45.86077528,-67.9235315 -45.8601219,-67.9222655 -45.8604731,-67.92204432 -45.86025045,-67.9253769 -45.8604208,-67.9236388 -45.8595317,-67.9233384 -45.8597857,-67.92472033 -45.86078317;-67.92472033 -45.86078317,-67.9288423 -45.860757,-67.9286063 -45.8609812,-67.9269433 -45.8608168,-67.9254305 -45.8610559,-67.9256237 -45.8606898,-67.92827234 -45.86082887,-67.9307091 -45.86097370000001,-67.9287457 -45.8609588,-67.9288423 -45.860757,-67.92973166 -45.86112334,-67.9343569 -45.8614145,-67.9335523 -45.861549,-67.9334021 -45.8611381,-67.9309666 -45.8609214,-67.93332777 -45.86169272,-67.9375219 -45.8620421,-67.9357517 -45.861085800000005,-67.9346144 -45.8614519,-67.93652197 -45.86222667,-67.9388309 -45.8607794,-67.938112 -45.8611007,-67.9377472 -45.860899,-67.9362881 -45.8614743,-67.9374897 -45.8619749,-67.93809539 -45.86091501,-67.9389811 -45.8623559,-67.9389596 -45.8618329,-67.9381979 -45.8610783,-67.9390669 -45.8607794,-67.93749455 -45.86270022,-67.9407942 -45.8630844,-67.9403758 -45.8621878,-67.9386914 -45.8624792,-67.94016816 -45.86304785,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94026881 -45.86394522,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.9397787 -45.86446671,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.93820898 -45.86621382,,-67.93822649 -45.86645361,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2369,S2436,S967</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 754,S2408,Linea 752,S370,Linea 1842,S2421,Linea 741,S980,Linea 740,S377,Linea 748,S381,Linea 747,S2572,Linea 746,S315,Linea 1017,S59,Linea 1295,S2116,Linea 1293,S1,Linea 1292,S2189,Linea 797,S2095,Linea 1825,S2479,Linea 795,S189,Linea 1826,S18,Linea 1177,S2243,Linea 807,S205,Linea 1181,S2139,Linea 1180,S8,Linea 1183,S223,Linea 1189,S224,Linea 1190,S203,Linea 1187,S2586,Linea 1192,S2584,Linea 1205,S138,Linea 1208,S2101,Linea 1462,S183,Linea 1829,S2135,Linea 1814,S2541,Linea 1459,S206,Linea 826,S715,Linea 827,S2356,Linea 1456,S151,Linea 1489,S2304,Linea 1461,S984,Linea 1447,S2093,Linea 1791,S373,Linea 1432,S2329,Linea 698,S2369;S2369,Linea 698,S2329,Linea 1432,S373,Linea 1791,S2093,Linea 1447,S984,Linea 1461,S2304,Linea 1489,S151,Linea 1456,S2356,Linea 827,S715,Linea 826,S206,Linea 1459,S2541,Linea 1794,S2135,Linea 1829,S183,Linea 1462,S2101,Linea 1208,S138,Linea 1205,S2584,Linea 1192,S2586,Linea 1187,S203,Linea 1190,S224,Linea 1189,S223,Linea 1183,S8,Linea 1180,S2139,Linea 1181,S205,Linea 807,S2243,Linea 1177,S18,Linea 1826,S189,Linea 795,S2479,Linea 1825,S2095,Linea 797,S2189,Linea 1292,S1,Linea 1293,S2116,Linea 1295,S59,Linea 1017,S315,Linea 746,S2572,Linea 747,S381,Linea 748,S377,Linea 740,S980,Linea 741,S2421,Linea 1842,S370,Linea 752,S2408,Linea 754,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base,Linea 14,S278,Linea 15,S2250,Linea 16,S977,Linea 17,S245,Linea 1340,S186,Linea 901,S539,Linea 1408,S2376,Linea 1346,S190,Linea 1395,S232,Linea 1348,S2314,Linea 1347,S643,Linea 1350,S291,Linea 1351,S292,Linea 1352,S117,Linea 1353,S293,Linea 1355,S231,Linea 890,S2565,Linea 1837,S2037,Linea 860,S2220,Linea 858,S2436;S2436,Linea 858,S2220,Linea 860,S2037,Linea 1837,S2565,Linea 890,S231,Linea 1355,S293,Linea 1353,S117,Linea 1352,S292,Linea 1351,S291,Linea 1350,S643,Linea 1347,S2314,Linea 1348,S232,Linea 1395,S190,Linea 1346,S2376,Linea 1408,S539,Linea 901,S186,Linea 1340,S245,Linea 17,S977,Linea 16,S2250,Linea 15,S278,Linea 14,Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 754,S2408,Linea 752,S370,Linea 1842,S2421,Linea 741,S980,Linea 740,S377,Linea 748,S381,Linea 747,S2572,Linea 746,S315,Linea 1017,S59,Linea 1295,S2116,Linea 1293,S1,Linea 1292,S2189,Linea 797,S2095,Linea 865,S134,Linea 1683,S967;S967,Linea 1683,S134,Linea 865,S2095,Linea 797,S2189,Linea 1292,S1,Linea 1293,S2116,Linea 1295,S59,Linea 1017,S315,Linea 746,S2572,Linea 747,S381,Linea 748,S377,Linea 740,S980,Linea 741,S2421,Linea 1842,S370,Linea 752,S2408,Linea 754,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9513514 -45.867951700000006,-67.9506004 -45.8681534,-67.9493558 -45.8665622,-67.9490876 -45.8664576,-67.9492164 -45.8668461,-67.95075242 -45.86791677,-67.9511476 -45.8693039,-67.95089010000001 -45.8697222,-67.9506433 -45.8681011,-67.9512978 -45.867892,-67.95011093 -45.86936834,-67.9526013 -45.869965,-67.9517484 -45.8700734,-67.9508901 -45.8697222,-67.9511476 -45.8693039,-67.95188123 -45.87007275,-67.9518449 -45.870925,-67.9516733 -45.8706037,-67.9509866 -45.870275,-67.95089010000001 -45.8697222,-67.9517484 -45.8700734,-67.9526281 -45.8699912,-67.95082673 -45.87123588,-67.9510081 -45.87218,-67.9515123 -45.8715599,-67.9518449 -45.870925,-67.94974928 -45.87213834,-67.9508579 -45.8736739,-67.9509115 -45.8721426,-67.94983615 -45.87396079,-67.9521346 -45.8759746,-67.951448 -45.8759597,-67.9509008 -45.8738383,-67.95155064 -45.87647635,-67.9521346 -45.8759746,-67.9517162 -45.8759074,-67.9513943 -45.8758999,-67.9525959 -45.87702780000001,-67.95337920000001 -45.8774162,-67.95259842 -45.87763583,-67.9538298 -45.8776104,-67.9575419 -45.8788205,-67.9596341 -45.8789624,-67.9602242 -45.8794852,-67.95937836 -45.87978501,-67.967391 -45.8796271,-67.9660606 -45.879657,-67.9619408 -45.879179,-67.959795 -45.8789997,-67.9602242 -45.8794852,-67.96661757 -45.87943084,-67.9708028 -45.8792686,-67.9686999 -45.8795524,-67.9682064 -45.8792238,-67.96993071 -45.87922522,-67.9739785 -45.8781632,-67.9745579 -45.8782677,-67.9740644 -45.8788802,-67.9710174 -45.8792537,-67.97210325 -45.8786421,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9755771 -45.8785142,-67.9742253 -45.8787756,-67.974236 -45.878222900000004,-67.9757414 -45.87911165,-67.9789352 -45.8795823,-67.9791069 -45.8776627,-67.9756737 -45.8784769,-67.9758239 -45.8787234,-67.9765105 -45.8789474,-67.97764389 -45.88001208,-67.9789352 -45.8795823,-67.9789889 -45.8790669,-67.9799759 -45.8791491,-67.97934342 -45.87920812,-67.9797721 -45.879179,-67.9789889 -45.8790669,-67.9792571 -45.8776403,-67.9831409 -45.876744,-67.9844499 -45.8766842,-67.9838705 -45.8772892,-67.98257485 -45.87765379,-67.9838705 -45.8772892,-67.9842675 -45.8766469,-67.9854584 -45.876617,-67.9846001 -45.8763854,-67.98281428 -45.87644776,-67.9865313 -45.8763033,-67.9853833 -45.8764975,-67.98469660000002 -45.8764303,-67.98563419 -45.87640922,-67.9896748 -45.8771548,-67.9892349 -45.8767216,-67.985158 -45.8765946,-67.9863167 -45.8762734,-67.98904006 -45.87741924,-67.9909623 -45.8768411,-67.9909086 -45.8766394,-67.9893529 -45.876729,-67.9896641 -45.8770726,-67.98995293 -45.87688436,-67.9932904 -45.8760792,-67.9926252 -45.8763556,-67.9912949 -45.8766319,-67.99230343 -45.87612978,-67.9940093 -45.875758,-67.9942882 -45.875646,-67.9944921 -45.8759223,-67.9952216 -45.8756385,-67.9962945 -45.874899,-67.99575168 -45.87505796,-67.9970562 -45.8749065,-67.998054 -45.8746002,-67.9989874 -45.8742865,-67.9998994 -45.8736889,-67.99900055 -45.87377745,-68.0009079 -45.8733901,-68.0017447 -45.8731436,-68.0013478 -45.8728149,-68.0005753 -45.8728074,-67.9998672 -45.8727327,-67.9986441 -45.8728074,-67.99707801 -45.87306235,-67.9984939 -45.8727327,-67.9986763 -45.8725609,-67.9987407 -45.872292,-67.99743076 -45.87213204,-68.0036652 -45.8703498,-68.0024529 -45.8706934,-68.0012727 -45.8709175,-68.0001891 -45.8713881,-67.9995775 -45.8718363,-68.00284674 -45.87040916,-68.0041587 -45.8700285,-68.0051243 -45.8686091,-68.00449906 -45.86852742,-68.0070448 -45.8686241,-68.0060685 -45.868385,-68.00620422 -45.86892139,-68.0070448 -45.8686241,-68.0067122 -45.8683028,-68.0066907 -45.8679293,-68.0047274 -45.8681086,-68.0029786 -45.8686316,-68.0021524 -45.8685344,-68.0022383 -45.8682132,-68.00126819 -45.86832361,,-68.00080119 -45.86808139,-67.9980218 -45.8692665,-68.0000389 -45.8684074,-68.0017662 -45.8680339,-67.99627751 -45.86960923,-67.9969811 -45.8694981,-67.9958439 -45.8695654,-67.99512510000001 -45.8693413,-67.99505 -45.8690499,-67.99439359 -45.86914058,-67.99505 -45.8690499,-67.9947495 -45.8687287,-67.9952323 -45.8676529,-67.99437986 -45.8677879,-67.9954576 -45.8672868,-67.9960907 -45.8666518,-67.9968202 -45.8663306,-67.99554948 -45.86642106,-67.9970026 -45.8663754,-68.0035257 -45.8657777,-68.003397 -45.8661662,-68.00288598 -45.86648631,-68.0048561 -45.8661961,-68.0066156 -45.864941,-68.00601835 -45.8652672,-68.0066907 -45.8648887,-68.0076134 -45.8646197,-68.0077314 -45.8640818,-68.0066907 -45.862595,-68.0065084 -45.8626847,-68.00524993 -45.86266209,,-68.00518813 -45.86312362,-68.0063689 -45.8627071,-68.0042124 -45.8630807,-68.00295033 -45.86344176,-67.9061294 -45.8712014,-67.9068482 -45.871037,-67.9080069 -45.871029500000006,-67.90749935 -45.87117618;-67.90749935 -45.87117618,-67.9061294 -45.8712014,-67.9068482 -45.871037,-67.9080069 -45.871029500000006,-68.00295033 -45.86344176,-68.0063689 -45.8627071,-68.0042124 -45.8630807,-68.00518813 -45.86312362,,-68.00524993 -45.86266209,-68.0066907 -45.8648887,-68.0076134 -45.8646197,-68.0077314 -45.8640818,-68.0066907 -45.862595,-68.0065084 -45.8626847,-68.00601835 -45.8652672,-68.0048561 -45.8661961,-68.0066156 -45.864941,-68.00288598 -45.86648631,-67.9970026 -45.8663754,-68.0035257 -45.8657777,-68.003397 -45.8661662,-67.99554948 -45.86642106,-67.9954576 -45.8672868,-67.9960907 -45.8666518,-67.9968202 -45.8663306,-67.99437986 -45.8677879,-67.99505 -45.8690499,-67.9947495 -45.8687287,-67.9952323 -45.8676529,-67.99439359 -45.86914058,-67.9969811 -45.8694981,-67.9958439 -45.8695654,-67.99512510000001 -45.8693413,-67.99505 -45.8690499,-67.99627751 -45.86960923,-67.9980218 -45.8692665,-68.0000389 -45.8684074,-68.0017662 -45.8680339,-68.00080119 -45.86808139,,-68.00126819 -45.86832361,-68.0070448 -45.8686241,-68.0067122 -45.8683028,-68.0066907 -45.8679293,-68.0047274 -45.8681086,-68.0029786 -45.8686316,-68.0021524 -45.8685344,-68.0022383 -45.8682132,-68.00620422 -45.86892139,-68.0070448 -45.8686241,-68.0060685 -45.868385,-68.00449906 -45.86852742,-68.0041587 -45.8700285,-68.0051243 -45.8686091,-68.00284674 -45.87040916,-68.0036652 -45.8703498,-68.0024529 -45.8706934,-68.0012727 -45.8709175,-68.0001891 -45.8713881,-67.9995775 -45.8718363,-67.99743076 -45.87213204,-67.9984939 -45.8727327,-67.9986763 -45.8725609,-67.9987407 -45.872292,-67.99707801 -45.87306235,-68.0009079 -45.8733901,-68.0017447 -45.8731436,-68.0013478 -45.8728149,-68.0005753 -45.8728074,-67.9998672 -45.8727327,-67.9986441 -45.8728074,-67.99900055 -45.87377745,-67.9970562 -45.8749065,-67.998054 -45.8746002,-67.9989874 -45.8742865,-67.9998994 -45.8736889,-67.99575168 -45.87505796,-67.9940093 -45.875758,-67.9942882 -45.875646,-67.9944921 -45.8759223,-67.9952216 -45.8756385,-67.9962945 -45.874899,-67.99230343 -45.87612978,-67.9932904 -45.8760792,-67.9926252 -45.8763556,-67.9912949 -45.8766319,-67.98995293 -45.87688436,-67.9909623 -45.8768411,-67.9909086 -45.8766394,-67.9893529 -45.876729,-67.9896641 -45.8770726,-67.98904006 -45.87741924,-67.9896748 -45.8771548,-67.9892349 -45.8767216,-67.985158 -45.8765946,-67.9863167 -45.8762734,-67.98563419 -45.87640922,-67.9865313 -45.8763033,-67.9853833 -45.8764975,-67.98469660000002 -45.8764303,-67.98281428 -45.87644776,-67.9838705 -45.8772892,-67.9842675 -45.8766469,-67.9854584 -45.876617,-67.9846001 -45.8763854,-67.98257485 -45.87765379,-67.9797721 -45.879179,-67.9789889 -45.8790669,-67.9792571 -45.8776403,-67.9831409 -45.876744,-67.9844499 -45.8766842,-67.9838705 -45.8772892,-67.97934342 -45.87920812,-67.9789352 -45.8795823,-67.9789889 -45.8790669,-67.9799759 -45.8791491,-67.97764389 -45.88001208,-67.9789352 -45.8795823,-67.9791069 -45.8776627,-67.9756737 -45.8784769,-67.9758239 -45.8787234,-67.9765105 -45.8789474,-67.9757414 -45.87911165,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9755771 -45.8785142,-67.9742253 -45.8787756,-67.974236 -45.878222900000004,-67.97210325 -45.8786421,-67.9739785 -45.8781632,-67.9745579 -45.8782677,-67.9740644 -45.8788802,-67.9710174 -45.8792537,-67.96993071 -45.87922522,-67.9708028 -45.8792686,-67.9686999 -45.8795524,-67.9682064 -45.8792238,-67.96661757 -45.87943084,-67.967391 -45.8796271,-67.9660606 -45.879657,-67.9619408 -45.879179,-67.959795 -45.8789997,-67.9602242 -45.8794852,-67.95937836 -45.87978501,-67.9538298 -45.8776104,-67.9575419 -45.8788205,-67.9596341 -45.8789624,-67.9602242 -45.8794852,-67.95259842 -45.87763583,-67.9521346 -45.8759746,-67.9517162 -45.8759074,-67.9513943 -45.8758999,-67.9525959 -45.87702780000001,-67.95337920000001 -45.8774162,-67.95155064 -45.87647635,-67.9521346 -45.8759746,-67.951448 -45.8759597,-67.9509008 -45.8738383,-67.94983615 -45.87396079,-67.9508579 -45.8736739,-67.9509115 -45.8721426,-67.94974928 -45.87213834,-67.9510081 -45.87218,-67.9515123 -45.8715599,-67.9518449 -45.870925,-67.95082673 -45.87123588,-67.9518449 -45.870925,-67.9516733 -45.8706037,-67.9509866 -45.870275,-67.95089010000001 -45.8697222,-67.9517484 -45.8700734,-67.9526281 -45.8699912,-67.95188123 -45.87007275,-67.9526013 -45.869965,-67.9517484 -45.8700734,-67.9508901 -45.8697222,-67.9511476 -45.8693039,-67.95011093 -45.86936834,-67.9511476 -45.8693039,-67.95089010000001 -45.8697222,-67.9506433 -45.8681011,-67.9512978 -45.867892,-67.95075242 -45.86791677,-67.9513514 -45.867951700000006,-67.9506004 -45.8681534,-67.9493558 -45.8665622,-67.9490876 -45.8664576,-67.9492164 -45.8668461,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472,-67.9427254 -45.8635364,-67.9464859 -45.8623447,-67.9469097 -45.862016,-67.94569946 -45.86221924,-67.9469097 -45.8620944,-67.9481596 -45.8620048,-67.94727301 -45.86217176,-67.9483044 -45.861911400000004,-67.9473495 -45.8614183,-67.94655091 -45.86160389,-67.9479718 -45.8615453,-67.9493934 -45.8606973,-67.9489589 -45.8606599,-67.94780419 -45.86081977,-67.9549134 -45.858239,-67.9527032 -45.8590684,-67.9493666 -45.8607794,-67.9491198 -45.8606898,-67.9539623 -45.85805836,-67.9549778 -45.85820170000001,-67.9571986 -45.85672970000001,-67.9579175 -45.8564981,-67.9585719 -45.8567521,-67.95773843 -45.85672753,-67.9586148 -45.8568044,-67.9579926 -45.8564383,-67.9605138 -45.8553847,-67.9615545 -45.8546374,-67.963078 -45.8525451,-67.9633892 -45.8522836,-67.9675841 -45.8512224,-67.9699767 -45.8512598,-67.9700732 -45.8515064,-67.9697835 -45.8517381,-67.96836168 -45.85192469,-67.9697835 -45.8517381,-67.9700947 -45.8517082,-67.9702342 -45.8514018,-67.9710817 -45.8516335,-67.97135 -45.8516633,-67.97067338 -45.85178783,-67.9748797 -45.8534568,-67.9738176 -45.8522612,-67.9730666 -45.8517007,-67.9728305 -45.8516858,-67.9720902 -45.8515438,-67.97404757 -45.85313584,-67.9750836 -45.8543983,-67.9752016 -45.8534194,-67.97353981 -45.85482131,-67.9721439 -45.8564532,-67.9723585 -45.855833,-67.9728305 -45.8549363,-67.9739249 -45.8544805,-67.9741395 -45.8540023,-67.9740536 -45.853539,-67.9744184 -45.8538977,-67.9746437 -45.8541517,-67.9750943 -45.8540247,-67.9749548 -45.854488,-67.97079424 -45.85669528,-67.9761672 -45.8586351,-67.9759634 -45.858508,-67.9757595 -45.8578206,-67.9751909 -45.8575143,-67.9723477 -45.8568567,-67.9721653 -45.8565802,-67.97543611 -45.85876585,-67.9762101 -45.8587172,-67.9768431 -45.8590385,-67.9774976 -45.8593075,-67.9783773 -45.8600024,-67.9787743 -45.859569,-67.97805617 -45.85962835,-67.9787743 -45.859569,-67.9784095 -45.8600622,-67.9786134 -45.860249,-67.9797721 -45.8603909,-67.9814243 -45.8607346,-67.98085648 -45.8609192,-67.9814565 -45.8608243,-67.9794395 -45.8610634,-67.97806312 -45.86131529,-67.9787314 -45.8612128,-67.9781628 -45.8612053,-67.9774868 -45.8607794,-67.9767251 -45.8597259,-67.9755342 -45.8596288,-67.9744506 -45.8598903,-67.9743111 -45.8601967,-67.9733455 -45.8602788,-67.9734099 -45.8608317,-67.9735816 -45.8606898,-67.97275807 -45.86073448,-67.9727018 -45.8616387,-67.973367 -45.8612352,-67.9735816 -45.8606898,-67.97103212 -45.86191282,-67.9706204 -45.8640967,-67.9705024 -45.8634169,-67.9697621 -45.8628117,-67.9696226 -45.8622215,-67.9705238 -45.8617881,-67.9714894 -45.8617732,-67.9697519 -45.86484806,-67.9701805 -45.8660766,-67.9706526 -45.8654864,-67.9707384 -45.8650979,-67.96868281 -45.86655436,-67.969451 -45.8664725,-67.967788 -45.8671075,-67.9667258 -45.8672943,-67.9657495 -45.866861,-67.9644191 -45.8654191,-67.9645479 -45.86535190000001,-67.9657495 -45.86621850000001,-67.96510786 -45.86668966;-67.96510786 -45.86668966,-67.969451 -45.8664725,-67.967788 -45.8671075,-67.9667258 -45.8672943,-67.9657495 -45.866861,-67.9644191 -45.8654191,-67.9645479 -45.86535190000001,-67.9657495 -45.86621850000001,-67.96868281 -45.86655436,-67.9701805 -45.8660766,-67.9706526 -45.8654864,-67.9707384 -45.8650979,-67.9697519 -45.86484806,-67.9706204 -45.8640967,-67.9705024 -45.8634169,-67.9697621 -45.8628117,-67.9696226 -45.8622215,-67.9705238 -45.8617881,-67.9714894 -45.8617732,-67.97103212 -45.86191282,-67.9727018 -45.8616387,-67.973367 -45.8612352,-67.9735816 -45.8606898,-67.97275807 -45.86073448,-67.9787314 -45.8612128,-67.9781628 -45.8612053,-67.9774868 -45.8607794,-67.9767251 -45.8597259,-67.9755342 -45.8596288,-67.9744506 -45.8598903,-67.9743111 -45.8601967,-67.9733455 -45.8602788,-67.9734099 -45.8608317,-67.9735816 -45.8606898,-67.97806312 -45.86131529,-67.9814565 -45.8608243,-67.9794395 -45.8610634,-67.98085648 -45.8609192,-67.9787743 -45.859569,-67.9784095 -45.8600622,-67.9786134 -45.860249,-67.9797721 -45.8603909,-67.9814243 -45.8607346,-67.97805617 -45.85962835,-67.9762101 -45.8587172,-67.9768431 -45.8590385,-67.9774976 -45.8593075,-67.9783773 -45.8600024,-67.9787743 -45.859569,-67.97543611 -45.85876585,-67.9761672 -45.8586351,-67.9759634 -45.858508,-67.9757595 -45.8578206,-67.9751909 -45.8575143,-67.9723477 -45.8568567,-67.9721653 -45.8565802,-67.97079424 -45.85669528,-67.9721439 -45.8564532,-67.9723585 -45.855833,-67.9728305 -45.8549363,-67.9739249 -45.8544805,-67.9741395 -45.8540023,-67.9740536 -45.853539,-67.9744184 -45.8538977,-67.9746437 -45.8541517,-67.9750943 -45.8540247,-67.9749548 -45.854488,-67.97353981 -45.85482131,-67.9750836 -45.8543983,-67.9752016 -45.8534194,-67.97404757 -45.85313584,-67.9748797 -45.8534568,-67.9738176 -45.8522612,-67.9730666 -45.8517007,-67.9728305 -45.8516858,-67.9720902 -45.8515438,-67.97067338 -45.85178783,-67.9697835 -45.8517381,-67.9700947 -45.8517082,-67.9702342 -45.8514018,-67.9710817 -45.8516335,-67.97135 -45.8516633,-67.96836168 -45.85192469,-67.9586148 -45.8568044,-67.9579926 -45.8564383,-67.9605138 -45.8553847,-67.9615545 -45.8546374,-67.963078 -45.8525451,-67.9633892 -45.8522836,-67.9675841 -45.8512224,-67.9699767 -45.8512598,-67.9700732 -45.8515064,-67.9697835 -45.8517381,-67.95773843 -45.85672753,-67.9549778 -45.85820170000001,-67.9571986 -45.85672970000001,-67.9579175 -45.8564981,-67.9585719 -45.8567521,-67.9539623 -45.85805836,-67.9549134 -45.858239,-67.9527032 -45.8590684,-67.9493666 -45.8607794,-67.9491198 -45.8606898,-67.94780419 -45.86081977,-67.9479718 -45.8615453,-67.9493934 -45.8606973,-67.9489589 -45.8606599,-67.94655091 -45.86160389,-67.9483044 -45.861911400000004,-67.9473495 -45.8614183,-67.94727301 -45.86217176,-67.9469097 -45.8620944,-67.9481596 -45.8620048,-67.94569946 -45.86221924,-67.9427254 -45.8635364,-67.9464859 -45.8623447,-67.9469097 -45.862016,-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9513514 -45.867951700000006,-67.9506004 -45.8681534,-67.9493558 -45.8665622,-67.9490876 -45.8664576,-67.9492164 -45.8668461,-67.95075242 -45.86791677,-67.9511476 -45.8693039,-67.95089010000001 -45.8697222,-67.9506433 -45.8681011,-67.9512978 -45.867892,-67.95011093 -45.86936834,-67.9526013 -45.869965,-67.9517484 -45.8700734,-67.9508901 -45.8697222,-67.9511476 -45.8693039,-67.95188123 -45.87007275,-67.9518449 -45.870925,-67.9516733 -45.8706037,-67.9509866 -45.870275,-67.95089010000001 -45.8697222,-67.9517484 -45.8700734,-67.9526281 -45.8699912,-67.95082673 -45.87123588,-67.9510081 -45.87218,-67.9515123 -45.8715599,-67.9518449 -45.870925,-67.94974928 -45.87213834,-67.9508579 -45.8736739,-67.9509115 -45.8721426,-67.94983615 -45.87396079,-67.9521346 -45.8759746,-67.951448 -45.8759597,-67.9509008 -45.8738383,-67.95155064 -45.87647635,-67.9521346 -45.8759746,-67.9517162 -45.8759074,-67.9513943 -45.8758999,-67.9525959 -45.87702780000001,-67.95337920000001 -45.8774162,-67.95259842 -45.87763583,-67.9538298 -45.8776104,-67.9575419 -45.8788205,-67.9596341 -45.8789624,-67.9602242 -45.8794852,-67.95937836 -45.87978501,-67.967391 -45.8796271,-67.9660606 -45.879657,-67.9619408 -45.879179,-67.959795 -45.8789997,-67.9602242 -45.8794852,-67.96661757 -45.87943084,-67.9708028 -45.8792686,-67.9686999 -45.8795524,-67.9682064 -45.8792238,-67.96993071 -45.87922522,-67.9739785 -45.8781632,-67.9745579 -45.8782677,-67.9740644 -45.8788802,-67.9710174 -45.8792537,-67.97210325 -45.8786421,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9755771 -45.8785142,-67.9742253 -45.8787756,-67.974236 -45.878222900000004,-67.9757414 -45.87911165,-67.9681206 -45.8652323,-67.9681742 -45.8649709,-67.9665112 -45.8645301,-67.96624300000002 -45.8629312,-67.966944 -45.86563196,,-67.96619834 -45.86562036;-67.96619834 -45.86562036,,-67.966944 -45.86563196,-67.9681206 -45.8652323,-67.9681742 -45.8649709,-67.9665112 -45.8645301,-67.96624300000002 -45.8629312,-67.9757414 -45.87911165,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9755771 -45.8785142,-67.9742253 -45.8787756,-67.974236 -45.878222900000004,-67.97210325 -45.8786421,-67.9739785 -45.8781632,-67.9745579 -45.8782677,-67.9740644 -45.8788802,-67.9710174 -45.8792537,-67.96993071 -45.87922522,-67.9708028 -45.8792686,-67.9686999 -45.8795524,-67.9682064 -45.8792238,-67.96661757 -45.87943084,-67.967391 -45.8796271,-67.9660606 -45.879657,-67.9619408 -45.879179,-67.959795 -45.8789997,-67.9602242 -45.8794852,-67.95937836 -45.87978501,-67.9538298 -45.8776104,-67.9575419 -45.8788205,-67.9596341 -45.8789624,-67.9602242 -45.8794852,-67.95259842 -45.87763583,-67.9521346 -45.8759746,-67.9517162 -45.8759074,-67.9513943 -45.8758999,-67.9525959 -45.87702780000001,-67.95337920000001 -45.8774162,-67.95155064 -45.87647635,-67.9521346 -45.8759746,-67.951448 -45.8759597,-67.9509008 -45.8738383,-67.94983615 -45.87396079,-67.9508579 -45.8736739,-67.9509115 -45.8721426,-67.94974928 -45.87213834,-67.9510081 -45.87218,-67.9515123 -45.8715599,-67.9518449 -45.870925,-67.95082673 -45.87123588,-67.9518449 -45.870925,-67.9516733 -45.8706037,-67.9509866 -45.870275,-67.95089010000001 -45.8697222,-67.9517484 -45.8700734,-67.9526281 -45.8699912,-67.95188123 -45.87007275,-67.9526013 -45.869965,-67.9517484 -45.8700734,-67.9508901 -45.8697222,-67.9511476 -45.8693039,-67.95011093 -45.86936834,-67.9511476 -45.8693039,-67.95089010000001 -45.8697222,-67.9506433 -45.8681011,-67.9512978 -45.867892,-67.95075242 -45.86791677,-67.9513514 -45.867951700000006,-67.9506004 -45.8681534,-67.9493558 -45.8665622,-67.9490876 -45.8664576,-67.9492164 -45.8668461,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2687,S1009,S2496,S1004,S2009</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 944,S56,Linea 940,S78,Linea 932,S645,Linea 931,S2111,Linea 930,S2110,Linea 736,S2167,Linea 1617,S2168,Linea 584,S849,Linea 582,S938,Linea 587,S2511,Linea 588,S932,Linea 1339,S901,Linea 1338,S2687;S2687,Linea 1338,S901,Linea 1339,S932,Linea 588,S2511,Linea 587,S938,Linea 581,S2443,Linea 578,S2132,Linea 579,S949,Linea 591,S2129,Linea 592,S2259,Linea 594,S17,Linea 735,S295,Linea 734,S3,Linea 613,Q16,Linea 1626,S2240,Linea 471,S2,Linea 1886,S13,Linea 1887,S2523,Linea 1888,S2606,Linea 523,S2109,Linea 524,S2448,Linea 529,S434,Linea 528,S2124,Linea 530,S966,Linea 421,S2011,Linea 382,S2300,Linea 412,S2151,Linea 415,S774,Linea 414,S722,Linea 413,S710,Linea 393,S709,Linea 392,S687,Linea 370,S613,Linea 365,S707,Linea 1497,S2496,Linea 314,S2440,Linea 311,S1009;S1009,Linea 311,S2440,Linea 314,S2496;S2496,Linea 314,S2440,Linea 315,S616,Linea 260,S594,Linea 340,S892,Linea 274,S2279,Linea 275,S2582,Linea 276,S873,Linea 279,S850,Linea 280,S856,Linea 289,S884,Linea 290,S1027,Linea 291,S1007,Linea 293,S1025,Linea 298,S593,Linea 297,S1017,Linea 296,S1004;S1004,Linea 296,S1017,Linea 297,S593,Linea 298,S1025,Linea 293,S1007,Linea 291,S1027,Linea 290,S884,Linea 289,S856,Linea 280,S850,Linea 281,S864,Linea 278,S869,Linea 270,S868,Linea 264,S886,Linea 263,S876,Linea 258,S591,Linea 257,S851,Linea 254,S853,Linea 252,E291,Linea 250,S611,Linea 249,S2418,Linea 247,S2288,Linea 399,S543,Linea 397,S1005,Linea 243,S2395,Linea 240,S2396,Linea 217,S2676,Linea 216,S788,Linea 215,S523,Linea 622,S882,Linea 568,S2255,Linea 1421,S354,Linea 1365,S2009;S2009,Linea 1363,S2006,Linea 1361,S353,Linea 1836,S997,Linea 854,S2504,Linea 853,S2716,Linea 849,S2056,Linea 850,S2407,Linea 773,S338,Linea 764,S395,Linea 763,S2468,Linea 760,S402,Linea 759,S2417,Linea 768,S172,Linea 1211,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92260289 -45.87981886,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.91930941 -45.88137118,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91747464 -45.88372353,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91541483 -45.88231338,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.90970498 -45.88326091,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90591516 -45.88446218,,-67.90594775 -45.88423937,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90705336 -45.88840606,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90362098 -45.8874036,-67.9022241 -45.8892913,-67.9030609 -45.889239,-67.9032218 -45.8889477,-67.9028785 -45.8877678,-67.9034686 -45.8869165,-67.9039729 -45.8871629,-67.90098858 -45.88903898,-67.9020846 -45.8894257,-67.9013014 -45.8899484,-67.8996277 -45.8906877,-67.899971 -45.8910611,-67.9025245 -45.8912403,-67.90201018 -45.89143448,-67.88692 -45.8969,-67.88699 -45.8967,-67.88813 -45.89656,-67.89097 -45.89695,-67.89245 -45.89689,-67.89426 -45.89522,-67.895143 -45.89461,-67.8961408 -45.8936821,-67.9025245 -45.8916958,-67.905325 -45.89145,-67.90461 -45.89114,-67.90381 -45.89112,-67.88552167 -45.89738087,-67.8830731 -45.8952726,-67.8847253 -45.8956385,-67.8855407 -45.8952726,-67.8875041 -45.895855,-67.8877079 -45.8965569,-67.8870857 -45.8966764,-67.8869247 -45.8969004,-67.88155956 -45.89544783;-67.88155956 -45.89544783,-67.8830731 -45.8952726,-67.8847253 -45.8956385,-67.8855407 -45.8952726,-67.8875041 -45.895855,-67.8877079 -45.8965569,-67.8870857 -45.8966764,-67.8869247 -45.8969004,-67.88552167 -45.89738087,-67.88692 -45.8969,-67.88699 -45.8967,-67.88813 -45.89656,-67.89097 -45.89695,-67.89245 -45.89689,-67.89426 -45.89522,-67.895143 -45.89461,-67.8961408 -45.8936821,-67.9025245 -45.8916958,-67.905325 -45.89145,-67.90461 -45.89114,-67.90381 -45.89112,-67.90201018 -45.89143448,-67.9020846 -45.8894257,-67.9013014 -45.8899484,-67.8996277 -45.8906877,-67.899971 -45.8910611,-67.9025245 -45.8912403,-67.90098858 -45.88903898,-67.9022241 -45.8892913,-67.9030609 -45.889239,-67.9032218 -45.8889477,-67.9028785 -45.8877678,-67.9034686 -45.8869165,-67.9039729 -45.8871629,-67.90362098 -45.8874036,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90293219 -45.8836944,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.89811074 -45.88424629,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89478887 -45.88442779,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.88986813 -45.88509226,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88725199 -45.88498287,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88477851 -45.88530377,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88934482 -45.88367092,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.87931365 -45.88515467,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87597578 -45.88674947,,-67.87630061 -45.88642699,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.8758872 -45.88413516,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.87263059 -45.88283868,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.86703039 -45.88312685,-67.8685462 -45.8831151,-67.8700483 -45.8829059,-67.8648233 -45.8818603,-67.8628063 -45.8810537,-67.8621304 -45.8814645,-67.86071597 -45.88116865,-67.8622806 -45.8814346,-67.8628922 -45.8810985,-67.8613365 -45.8799035,-67.8605962 -45.879896,-67.85926992 -45.88036306,-67.8608537 -45.8799333,-67.8613579 -45.8799707,-67.8611863 -45.8784545,-67.86092880000001 -45.8783424,-67.859516 -45.87831444,-67.8573883 -45.8816587,-67.8575063 -45.8811433,-67.8592443 -45.8804114,-67.8593087 -45.8795599,-67.8584397 -45.8786113,-67.8589547 -45.8770502,-67.8599954 -45.87787190000001,-67.85651325 -45.88220843,-67.8574526 -45.8818977,-67.8570664 -45.8807624,-67.8556824 -45.8812367,-67.8564656 -45.8801798,-67.855851 -45.88011934,-67.8564656 -45.8801798,-67.855736 -45.8808595,-67.8561974 -45.8788727,-67.8546631 -45.8788802,-67.85276267 -45.87922955,-67.8534776 -45.8786225,-67.852689 -45.8781818,-67.8508437 -45.8775395,-67.84953817 -45.87734102,-67.8503072 -45.877095,-67.8495133 -45.8766394,-67.8481615 -45.87637800000001,-67.84644226 -45.87649326,-67.847904 -45.8759074,-67.8490949 -45.8742491,-67.8510368 -45.8734349,-67.8488266 -45.8731585,-67.84711722 -45.87310355,-67.8489339 -45.8731324,-67.8501302 -45.8733565,-67.8485316 -45.8736739,-67.8459191 -45.8729942,-67.84549 -45.8723406,-67.8449106 -45.8726842,-67.84336962 -45.87289033,-67.8464448 -45.8713396,-67.8465736 -45.871657000000006,-67.84484620000002 -45.8726692,-67.84458226 -45.87132178,-67.8433174 -45.8702414,-67.8424054 -45.8705701,-67.8442401 -45.8712014,-67.8457582 -45.8705029,-67.8468794 -45.8714778,-67.8465736 -45.871657000000006,-67.8464073 -45.8713396,-67.84266503 -45.8702826,-67.8403401 -45.8715002,-67.8396213 -45.8713059,-67.8401256 -45.8706859,-67.8424323 -45.8705216,-67.8432369 -45.8702153,-67.83999726 -45.87142467,-67.8404045 -45.871440400000004,-67.8396642 -45.8713657,-67.8393745 -45.8705216,-67.8371751 -45.8699314,-67.8344822 -45.8697969,-67.8345251 -45.8700584,-67.8363597 -45.8707606,-67.83598551 -45.8713908,-67.8363276 -45.8710445,-67.8348899 -45.87091,-67.8336024 -45.8710221,-67.83204724 -45.87132308,-67.8326046 -45.8712686,-67.8287637 -45.8718438,-67.8266931 -45.8718811,-67.8259957 -45.8715076,-67.82435527 -45.87146335,-67.8260922 -45.8716048,-67.8258884 -45.8718886,-67.8219509 -45.871657,-67.8194082 -45.8687287,-67.8185391 -45.8670926,-67.8190756 -45.8667788,-67.8187144 -45.86699435,-67.819097 -45.8668461,-67.8186357 -45.8670552,-67.8192151 -45.868385,-67.81829240000002 -45.8680713,-67.81633269 -45.86814359,-67.8182173 -45.868004,-67.8163826 -45.8667415,-67.8134429 -45.8668909,-67.81175633 -45.86687163;-67.81175633 -45.86687163,-67.8182173 -45.868004,-67.8163826 -45.8667415,-67.8134429 -45.8668909,-67.81633269 -45.86814359,-67.819097 -45.8668461,-67.8186357 -45.8670552,-67.8192151 -45.868385,-67.81829240000002 -45.8680713,-67.8187144 -45.86699435;-67.8187144 -45.86699435,-67.819097 -45.8668461,-67.8186357 -45.8670552,-67.8192151 -45.868385,-67.81829240000002 -45.8680713,-67.81633269 -45.86814359,-67.8182173 -45.868004,-67.8160286 -45.8663455,-67.8181314 -45.8648065,-67.8182173 -45.864545,-67.81720169 -45.86444747,-67.8186142 -45.8634617,-67.8183568 -45.8624605,-67.8160179 -45.8615565,-67.8143764 -45.8610559,-67.81282229 -45.86107452,-67.8138077 -45.8564532,-67.814548 -45.8566699,-67.813561 -45.8597484,-67.8137219 -45.8605777,-67.81224182 -45.85671416,-67.8125632 -45.8568492,-67.810396 -45.8571033,-67.8101599 -45.8566923,-67.80907829 -45.8565264,-67.8098595 -45.8560647,-67.809999 -45.8550036,-67.8090441 -45.8548691,-67.8072436 -45.85498762,-67.807982 -45.8550559,-67.8067052 -45.8553548,-67.80486959 -45.85565241,-67.8067052 -45.8553548,-67.8072202 -45.8551381,-67.8064048 -45.853539,-67.80441533 -45.8533642,-67.805289 -45.8529487,-67.8034651 -45.8522612,-67.8028214 -45.85306820000001,-67.8021669 -45.8529711,-67.80053473 -45.85338776,-67.8017056 -45.8526423,-67.8015232 -45.8523658,-67.79962420000001 -45.8525451,-67.7978754 -45.8519772,-67.7946138 -45.8521416,-67.79294152 -45.85225742,-67.7932727 -45.8519249,-67.790097 -45.851768,-67.7882087 -45.8523583,-67.7874362 -45.8529785,-67.78639604 -45.85350214,-67.7872217 -45.8538753,-67.7837884 -45.8561618,-67.7830803 -45.8561095,-67.78170238 -45.85610146,-67.7824903 -45.8564233,-67.7802157 -45.8580149,-67.7796257 -45.8571108,-67.7786064 -45.8565802,-67.7779841 -45.85664,-67.7787888 -45.8561394,-67.77831934 -45.85627828,-67.7786493 -45.8561767,-67.7760208 -45.8575666,-67.7736604 -45.8573723,-67.7729845 -45.8565877,-67.7733386 -45.8538528,-67.77191639 -45.85370252,-67.7767611 -45.8515811,-67.7748406 -45.85155120000001,-67.7744758 -45.8503855,-67.7750123 -45.8494887,-67.7702379 -45.8498848,-67.7723086 -45.8511776,-67.7737248 -45.8528216,-67.7731884 -45.8531878,-67.77612134 -45.8514783,-67.7803338 -45.8509385,-67.777555 -45.8505499,-67.7752268 -45.8494812,-67.77437930000002 -45.8504154,-67.7747762 -45.851484,-67.7768147 -45.8515139,-67.77982732 -45.85094494;-67.77982732 -45.85094494,-67.7803338 -45.8509385,-67.777555 -45.8505499,-67.7752268 -45.8494812,-67.77437930000002 -45.8504154,-67.7747762 -45.851484,-67.7768147 -45.8515139,-67.77612134 -45.8514783,-67.7767611 -45.8515811,-67.7748406 -45.85155120000001,-67.7744758 -45.8503855,-67.7750123 -45.8494887,-67.7702379 -45.8498848,-67.7723086 -45.8511776,-67.7737248 -45.8528216,-67.7731884 -45.8531878,-67.77191639 -45.85370252,-67.7786493 -45.8561767,-67.7760208 -45.8575666,-67.7736604 -45.8573723,-67.7729845 -45.8565877,-67.7733386 -45.8538528,-67.77831934 -45.85627828,-67.7824903 -45.8564233,-67.7802157 -45.8580149,-67.7796257 -45.8571108,-67.7786064 -45.8565802,-67.7779841 -45.85664,-67.7787888 -45.8561394,-67.78170238 -45.85610146,-67.7872217 -45.8538753,-67.7837884 -45.8561618,-67.7830803 -45.8561095,-67.78639604 -45.85350214,-67.7932727 -45.8519249,-67.790097 -45.851768,-67.7882087 -45.8523583,-67.7874362 -45.8529785,-67.79294152 -45.85225742,-67.8017056 -45.8526423,-67.8015232 -45.8523658,-67.79962420000001 -45.8525451,-67.7978754 -45.8519772,-67.7946138 -45.8521416,-67.80053473 -45.85338776,-67.805289 -45.8529487,-67.8034651 -45.8522612,-67.8028214 -45.85306820000001,-67.8021669 -45.8529711,-67.80441533 -45.8533642,-67.8064048 -45.853539,-67.8089046 -45.854361,-67.8103852 -45.8542265,-67.8098702 -45.8539126,-67.80813131 -45.85419968,-67.809999 -45.85395,-67.81053540000002 -45.8542265,-67.8125417 -45.8543386,-67.81217316 -45.85421245,-67.816329 -45.8519921,-67.8167796 -45.8511701,-67.8158462 -45.8513121,-67.8150415 -45.8533148,-67.8138399 -45.8541293,-67.81497943 -45.85259887,-67.8185713 -45.8505798,-67.816962 -45.851073,-67.8161895 -45.8523658,-67.81800483 -45.85079524,-67.8223801 -45.8515886,-67.8209639 -45.8504751,-67.8196657 -45.8504079,-67.82163737 -45.8516816,-67.8244078 -45.8540994,-67.8225088 -45.8518801,-67.82322995 -45.85451391,-67.8277767 -45.8550036,-67.8251696 -45.8547271,-67.824676 -45.8544207,-67.82760578 -45.8552439,-67.8319716 -45.855437,-67.8292787 -45.855108200000004,-67.83154193 -45.85548135,-67.8371108 -45.8561767,-67.8326368 -45.8556313,-67.83653581 -45.85644197,-67.8438914 -45.8557508,-67.8414237 -45.8563262,-67.8377545 -45.8563187,-67.84359994 -45.85582912,-67.8480864 -45.8556163,-67.846477 -45.8561992,-67.8452325 -45.8556537,-67.84737753 -45.85568862,-67.851541 -45.8561394,-67.8511119 -45.8555416,-67.8497386 -45.8553249,-67.8490841 -45.8555341,-67.84992667 -45.85649082,-67.8511226 -45.8587172,-67.8489661 -45.8581942,-67.8504252 -45.8565952,-67.85051371 -45.8587379,-67.8547168 -45.8600622,-67.8545237 -45.8589862,-67.8537083 -45.858508,-67.852335 -45.8585529,-67.85325633 -45.86047853,-67.8585362 -45.8586425,-67.8567231 -45.8591431,-67.8550386 -45.8605852,-67.85800456 -45.85865306,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.86119926 -45.8582863,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86269634 -45.8576934,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86509618 -45.85797591,-67.8666258 -45.8579551,-67.8677523 -45.8588443,-67.8689218 -45.8588293,-67.8688896 -45.8591954,-67.86821501 -45.85959306,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86513556 -45.86046435,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.98715669 -45.86146692,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98206338 -45.86352335,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98026531 -45.86300386;-67.98026531 -45.86300386,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.97692655 -45.86298292,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97781889 -45.86412305,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97170451 -45.86764851,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.96898996 -45.86789944,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.9688479 -45.86924263,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.96992116 -45.87035971,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.9672039 -45.87497495,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.96572509 -45.87368099,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96214261 -45.87344787,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.95720623 -45.87256309,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95650202 -45.87386891,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95610675 -45.87170205,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95709848 -45.86769228,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2236,S2651,S2642</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 944,S56,Linea 940,S78,Linea 932,S645,Linea 931,S2111,Linea 930,S2110,Linea 736,S2167,Linea 1617,S2168,Linea 584,S849,Linea 582,S938,Linea 581,S2443,Linea 578,S2132,Linea 579,S949,Linea 591,S2129,Linea 592,S2259,Linea 594,S17,Linea 735,S295,Linea 734,S3,Linea 613,Q16,Linea 1626,S2240,Linea 471,S2,Linea 1886,S13,Linea 1887,S2523,Linea 517,Q17,Linea 516,S2236;S2236,Linea 516,Q17,Linea 517,S2523,Linea 469,S26,Linea 467,S2223,Linea 466,S2621,Linea 457,S2642,Linea 450,S2645,Linea 449,S2660,Linea 1863,S2669,Linea 1864,S2651;S2651,Linea 1864,S2669,Linea 1863,S2660,Linea 449,S2645,Linea 450,S2642;S2642,Linea 457,S2621,Linea 466,S2223,Linea 467,S26,Linea 469,S2523,Linea 1887,S13,Linea 1886,S2,Linea 471,S2240,Linea 1593,Q16,Linea 613,S3,Linea 734,S295,Linea 735,S17,Linea 594,S2259,Linea 592,S2129,Linea 591,S949,Linea 579,S2132,Linea 578,S2443,Linea 581,S938,Linea 582,S849,Linea 584,S2168,Linea 1617,S2167,Linea 736,S2110,Linea 930,S2111,Linea 931,S645,Linea 932,S78,Linea 940,S56,Linea 944,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92260289 -45.87981886,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.91930941 -45.88137118,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91747464 -45.88372353,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91541483 -45.88231338,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.90970498 -45.88326091,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90591516 -45.88446218,,-67.90594775 -45.88423937,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90705336 -45.88840606,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90362098 -45.8874036,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90293219 -45.8836944,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.89811074 -45.88424629,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89478887 -45.88442779,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.88986813 -45.88509226,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88725199 -45.88498287,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88477851 -45.88530377,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88934482 -45.88367092,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.87931365 -45.88515467,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87597578 -45.88674947,,-67.87630061 -45.88642699,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.8758872 -45.88413516,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.87263059 -45.88283868,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.86703039 -45.88312685,-67.8726017 -45.880389,-67.8697157 -45.8828462,-67.8706813 -45.8831001,-67.8686643 -45.8830254,-67.8724445 -45.87988188,-67.8772688 -45.8789101,-67.8749835 -45.8790146,-67.87362100000001 -45.8797765,-67.87684672 -45.87887091;-67.87684672 -45.87887091,-67.8772688 -45.8789101,-67.8749835 -45.8790146,-67.87362100000001 -45.8797765,-67.8724445 -45.87988188,-67.8726017 -45.880389,-67.8697157 -45.8828462,-67.8706813 -45.8831001,-67.8686643 -45.8830254,-67.86703039 -45.88312685,-67.8685462 -45.8831151,-67.869308 -45.8829582,-67.8708422 -45.883018,-67.8705847 -45.8839366,-67.8693122 -45.8842458,-67.8672695 -45.88491500000001,-67.867409 -45.8861099,-67.8680742 -45.8863339,-67.8686106 -45.8860875,-67.8688896 -45.8849822,-67.870338 -45.8842577,-67.86589689 -45.88477956,-67.86739830000002 -45.8868567,-67.8667223 -45.8862667,-67.8672802 -45.8848552,-67.86685323 -45.88712476,-67.8674626 -45.88708080000001,-67.866658 -45.886864200000005,-67.8658855 -45.887125600000005,-67.8670657 -45.8886864,-67.86520231 -45.88917465,-67.8652418 -45.8907101,-67.8656602 -45.890351700000004,-67.8659928 -45.88941820000001,-67.86328043 -45.89089136,-67.8640401 -45.8909939,-67.8672266 -45.8915539,-67.86687975 -45.89168688,-67.8672266 -45.8915539,-67.8653598 -45.8912776,-67.8647375 -45.8920692,-67.8620982 -45.8918004,-67.8619695 -45.8921737,-67.86151916 -45.89254163,-67.8617334 -45.8922185,-67.8619051 -45.8917108,-67.8603172 -45.8915465,-67.8574204 -45.891666,-67.8577852 -45.8919348,-67.85772472 -45.89223385;-67.85772472 -45.89223385,-67.8617334 -45.8922185,-67.8619051 -45.8917108,-67.8603172 -45.8915465,-67.8574204 -45.891666,-67.8577852 -45.8919348,-67.86151916 -45.89254163,-67.8672266 -45.8915539,-67.8653598 -45.8912776,-67.8647375 -45.8920692,-67.8620982 -45.8918004,-67.8619695 -45.8921737,-67.86687975 -45.89168688,-67.8640401 -45.8909939,-67.8672266 -45.8915539,-67.86328043 -45.89089136,-67.8652418 -45.8907101,-67.8656602 -45.890351700000004,-67.8659928 -45.88941820000001,-67.86520231 -45.88917465;-67.86520231 -45.88917465,-67.8674626 -45.88708080000001,-67.866658 -45.886864200000005,-67.8658855 -45.887125600000005,-67.8670657 -45.8886864,-67.86685323 -45.88712476,-67.86739830000002 -45.8868567,-67.8667223 -45.8862667,-67.8672802 -45.8848552,-67.86589689 -45.88477956,-67.8672695 -45.88491500000001,-67.867409 -45.8861099,-67.8680742 -45.8863339,-67.8686106 -45.8860875,-67.8688896 -45.8849822,-67.870338 -45.8842577,-67.8693122 -45.8842458,-67.8685462 -45.8831151,-67.869308 -45.8829582,-67.8708422 -45.883018,-67.8705847 -45.8839366,-67.86703039 -45.88312685,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.87263059 -45.88283868,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.8758872 -45.88413516,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.87630061 -45.88642699,,-67.87597578 -45.88674947,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87931365 -45.88515467,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.88934482 -45.88367092,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88477851 -45.88530377,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88725199 -45.88498287,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88986813 -45.88509226,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.89478887 -45.88442779,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89811074 -45.88424629,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.90293219 -45.8836944,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90362098 -45.8874036,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90705336 -45.88840606,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90594775 -45.88423937,,-67.90591516 -45.88446218,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90970498 -45.88326091,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91930941 -45.88137118,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.92260289 -45.87981886,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2416,S2037,S2370,S872,S2314,S2160</t>
   </si>
   <si>
     <t>Base,Linea 14,S278,Linea 15,S2250,Linea 16,S977,Linea 17,S245,Linea 1341,S2416;S2416,Linea 1341,S245,Linea 1340,S186,Linea 901,S539,Linea 1408,S2376,Linea 1346,S190,Linea 1395,S232,Linea 1348,S2314,Linea 1347,S643,Linea 1350,S291,Linea 1351,S292,Linea 1352,S117,Linea 1353,S293,Linea 1355,S231,Linea 890,S2565,Linea 1837,S2037;S2037,Linea 1837,S2565,Linea 890,S231,Linea 1355,S293,Linea 1353,S117,Linea 1352,S292,Linea 1378,S317,Linea 1391,S2370;S2370,Linea 1391,S317,Linea 1378,S292,Linea 1403,S872;S872,Linea 1403,S292,Linea 1351,S291,Linea 1350,S643,Linea 1347,S2314;S2314,Linea 1348,S232,Linea 1395,S190,Linea 1346,S2376,Linea 896,S413,Linea 1692,S2155,Linea 1345,S2247,Linea 1685,S2226,Linea 879,S971,Linea 897,S2160;S2160,Linea 897,S971,Linea 1394,S539,Linea 901,S186,Linea 1340,S245,Linea 17,S977,Linea 16,S2250,Linea 15,S278,Linea 14,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9427254 -45.8635364,-67.9464859 -45.8623447,-67.9469097 -45.862016,-67.94569946 -45.86221924,-67.9469097 -45.8620944,-67.9481596 -45.8620048,-67.94727301 -45.86217176,-67.9483044 -45.861911400000004,-67.9473495 -45.8614183,-67.94655091 -45.86160389,-67.9479718 -45.8615453,-67.9493934 -45.8606973,-67.9489589 -45.8606599,-67.94780419 -45.86081977,-67.9494631 -45.8607197,-67.9496992 -45.8604582,-67.9489589 -45.8596363,-67.9496777 -45.8591282,-67.9500318 -45.8586351,-67.9503858 -45.8584632,-67.94942594 -45.85854239;-67.94942594 -45.85854239,-67.9494631 -45.8607197,-67.9496992 -45.8604582,-67.9489589 -45.8596363,-67.9496777 -45.8591282,-67.9500318 -45.8586351,-67.9503858 -45.8584632,-67.94780419 -45.86081977,-67.9549134 -45.858239,-67.9527032 -45.8590684,-67.9493666 -45.8607794,-67.9491198 -45.8606898,-67.9539623 -45.85805836,-67.9549778 -45.85820170000001,-67.9571986 -45.85672970000001,-67.9579175 -45.8564981,-67.9585719 -45.8567521,-67.95773843 -45.85672753,-67.9586148 -45.8568044,-67.9579926 -45.8564383,-67.9605138 -45.8553847,-67.9615545 -45.8546374,-67.963078 -45.8525451,-67.9633892 -45.8522836,-67.9675841 -45.8512224,-67.9699767 -45.8512598,-67.9700732 -45.8515064,-67.9697835 -45.8517381,-67.96836168 -45.85192469,-67.9697835 -45.8517381,-67.9700947 -45.8517082,-67.9702342 -45.8514018,-67.9710817 -45.8516335,-67.97135 -45.8516633,-67.97067338 -45.85178783,-67.9748797 -45.8534568,-67.9738176 -45.8522612,-67.9730666 -45.8517007,-67.9728305 -45.8516858,-67.9720902 -45.8515438,-67.97404757 -45.85313584,-67.9750836 -45.8543983,-67.9752016 -45.8534194,-67.97353981 -45.85482131,-67.9721439 -45.8564532,-67.9723585 -45.855833,-67.9728305 -45.8549363,-67.9739249 -45.8544805,-67.9741395 -45.8540023,-67.9740536 -45.853539,-67.9744184 -45.8538977,-67.9746437 -45.8541517,-67.9750943 -45.8540247,-67.9749548 -45.854488,-67.97079424 -45.85669528,-67.9761672 -45.8586351,-67.9759634 -45.858508,-67.9757595 -45.8578206,-67.9751909 -45.8575143,-67.9723477 -45.8568567,-67.9721653 -45.8565802,-67.97543611 -45.85876585,-67.9762101 -45.8587172,-67.9768431 -45.8590385,-67.9774976 -45.8593075,-67.9783773 -45.8600024,-67.9787743 -45.859569,-67.97805617 -45.85962835,-67.9787743 -45.859569,-67.9784095 -45.8600622,-67.9786134 -45.860249,-67.9797721 -45.8603909,-67.9814243 -45.8607346,-67.98085648 -45.8609192,-67.9814565 -45.8608243,-67.9794395 -45.8610634,-67.97806312 -45.86131529,-67.9787314 -45.8612128,-67.9781628 -45.8612053,-67.9774868 -45.8607794,-67.9767251 -45.8597259,-67.9755342 -45.8596288,-67.9744506 -45.8598903,-67.9743111 -45.8601967,-67.9733455 -45.8602788,-67.9734099 -45.8608317,-67.9735816 -45.8606898,-67.97275807 -45.86073448,-67.9727018 -45.8616387,-67.973367 -45.8612352,-67.9735816 -45.8606898,-67.97103212 -45.86191282,-67.9706204 -45.8640967,-67.9705024 -45.8634169,-67.9697621 -45.8628117,-67.9696226 -45.8622215,-67.9705238 -45.8617881,-67.9714894 -45.8617732,-67.9697519 -45.86484806;-67.9697519 -45.86484806,-67.9706204 -45.8640967,-67.9705024 -45.8634169,-67.9697621 -45.8628117,-67.9696226 -45.8622215,-67.9705238 -45.8617881,-67.9714894 -45.8617732,-67.97103212 -45.86191282,-67.9727018 -45.8616387,-67.973367 -45.8612352,-67.9735816 -45.8606898,-67.97275807 -45.86073448,-67.9787314 -45.8612128,-67.9781628 -45.8612053,-67.9774868 -45.8607794,-67.9767251 -45.8597259,-67.9755342 -45.8596288,-67.9744506 -45.8598903,-67.9743111 -45.8601967,-67.9733455 -45.8602788,-67.9734099 -45.8608317,-67.9735816 -45.8606898,-67.97806312 -45.86131529,-67.9814565 -45.8608243,-67.9794395 -45.8610634,-67.98085648 -45.8609192,-67.9787743 -45.859569,-67.9784095 -45.8600622,-67.9786134 -45.860249,-67.9797721 -45.8603909,-67.9814243 -45.8607346,-67.97805617 -45.85962835,-67.9819286 -45.8586874,-67.981596 -45.8589638,-67.981596 -45.859584,-67.9814029 -45.8601593,-67.9798687 -45.8604656,-67.9786563 -45.8601967,-67.9783773 -45.8600024,-67.9787743 -45.859569,-67.98136482 -45.85869227,-67.9865742 -45.8579626,-67.9858339 -45.8582764,-67.9838169 -45.8583661,-67.9827332 -45.8584258,-67.98563539 -45.85778804;-67.98563539 -45.85778804,-67.9865742 -45.8579626,-67.9858339 -45.8582764,-67.9838169 -45.8583661,-67.9827332 -45.8584258,-67.98136482 -45.85869227,-67.9819286 -45.8586874,-67.981596 -45.8589638,-67.981596 -45.859584,-67.9814029 -45.8601593,-67.9798687 -45.8604656,-67.9786563 -45.8601967,-67.9783773 -45.8600024,-67.9787743 -45.859569,-67.97805617 -45.85962835,-67.9796112 -45.8591954,-67.9805982 -45.8590086,-67.9837096 -45.8569987,-67.9826903 -45.8567521,-67.9826152 -45.8569837,-67.9819822 -45.8570884,-67.9810381 -45.8569015,-67.97973452 -45.85686561;-67.97973452 -45.85686561,-67.9796112 -45.8591954,-67.9805982 -45.8590086,-67.9837096 -45.8569987,-67.9826903 -45.8567521,-67.9826152 -45.8569837,-67.9819822 -45.8570884,-67.9810381 -45.8569015,-67.97805617 -45.85962835,-67.9762101 -45.8587172,-67.9768431 -45.8590385,-67.9774976 -45.8593075,-67.9783773 -45.8600024,-67.9787743 -45.859569,-67.97543611 -45.85876585,-67.9761672 -45.8586351,-67.9759634 -45.858508,-67.9757595 -45.8578206,-67.9751909 -45.8575143,-67.9723477 -45.8568567,-67.9721653 -45.8565802,-67.97079424 -45.85669528,-67.9721439 -45.8564532,-67.9723585 -45.855833,-67.9728305 -45.8549363,-67.9739249 -45.8544805,-67.9741395 -45.8540023,-67.9740536 -45.853539,-67.9744184 -45.8538977,-67.9746437 -45.8541517,-67.9750943 -45.8540247,-67.9749548 -45.854488,-67.97353981 -45.85482131;-67.97353981 -45.85482131,-67.9750836 -45.8543983,-67.9752016 -45.8534194,-67.97404757 -45.85313584,-67.9748797 -45.8534568,-67.9738176 -45.8522612,-67.9730666 -45.8517007,-67.9728305 -45.8516858,-67.9720902 -45.8515438,-67.97067338 -45.85178783,-67.9697835 -45.8517381,-67.9700947 -45.8517082,-67.9702342 -45.8514018,-67.9710817 -45.8516335,-67.97135 -45.8516633,-67.96836168 -45.85192469,-67.9657495 -45.8527319,-67.9690433 -45.8515438,-67.96454201 -45.85308005,,-67.96402882 -45.85314926,-67.9651701 -45.8532326,-67.9648376 -45.8537034,-67.961694 -45.85531,-67.9612434 -45.8559825,-67.96127805 -45.85636175,,-67.96103638 -45.85651367,-67.9626489 -45.8575591,-67.9621768 -45.8566998,-67.96207279 -45.85789473,-67.9637325 -45.8577459,-67.9642367 -45.8578505,-67.9642689 -45.8583885,-67.963078 -45.8585603,-67.9614151 -45.8585603,-67.95977833 -45.85857686;-67.95977833 -45.85857686,-67.9637325 -45.8577459,-67.9642367 -45.8578505,-67.9642689 -45.8583885,-67.963078 -45.8585603,-67.9614151 -45.8585603,-67.96207279 -45.85789473,-67.9637325 -45.8577459,-67.9643655 -45.8579476,-67.9642689 -45.8583885,-67.9623485 -45.8582017,-67.9617047 -45.8578879,-67.960825 -45.8571257,-67.9587221 -45.8568418,-67.95773843 -45.85672753,-67.9549778 -45.85820170000001,-67.9571986 -45.85672970000001,-67.9579175 -45.8564981,-67.9585719 -45.8567521,-67.9539623 -45.85805836,-67.9549134 -45.858239,-67.9527032 -45.8590684,-67.9493666 -45.8607794,-67.9491198 -45.8606898,-67.94780419 -45.86081977,-67.9479718 -45.8615453,-67.9493934 -45.8606973,-67.9489589 -45.8606599,-67.94655091 -45.86160389,-67.9483044 -45.861911400000004,-67.9473495 -45.8614183,-67.94727301 -45.86217176,-67.9469097 -45.8620944,-67.9481596 -45.8620048,-67.94569946 -45.86221924,-67.9427254 -45.8635364,-67.9464859 -45.8623447,-67.9469097 -45.862016,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2389,S953</t>
   </si>
   <si>
     <t>Base,Linea 1,S176,Linea 1506,S2447,Linea 2,S993,Linea 3,S329,Linea 4,S309,Linea 10,S2195,Linea 27,S2412,Linea 33,S308,Linea 34,S2032,Linea 42,S2569,Linea 46,S2199,Linea 1847,S2200,Linea 97,S356,Linea 143,S2017,Linea 144,S690,Linea 141,S538,Linea 104,S2206,Linea 105,S763,Linea 106,S719,Linea 108,S767,Linea 115,S498,Linea 129,S2389;S2389,Linea 129,S498,Linea 115,S767,Linea 108,S719,Linea 106,S763,Linea 105,S2206,Linea 104,S538,Linea 141,S690,Linea 144,S2017,Linea 143,S356,Linea 97,S2200,Linea 1847,S2199,Linea 46,S2569,Linea 42,S2032,Linea 34,S308,Linea 33,S2412,Linea 27,S2195,Linea 10,S309,Linea 4,S329,Linea 3,S993,Linea 2,S2447,Linea 1506,S176,Linea 1,Base,Linea 984,S2185,Linea 985,S310,Linea 986,S951,Linea 996,S255,Linea 997,S953;S953,Linea 997,S255,Linea 996,S951,Linea 986,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.93822649 -45.86645361,,-67.93820898 -45.86621382,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.9397787 -45.86446671,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.94026881 -45.86394522,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94016816 -45.86304785,-67.9407942 -45.8630844,-67.9403758 -45.8621878,-67.9386914 -45.8624792,-67.93749455 -45.86270022,-67.9389811 -45.8623559,-67.9389596 -45.8618329,-67.9381979 -45.8610783,-67.9390669 -45.8607794,-67.93809539 -45.86091501,-67.9388309 -45.8607794,-67.938112 -45.8611007,-67.9377472 -45.860899,-67.9362881 -45.8614743,-67.9374897 -45.8619749,-67.93652197 -45.86222667,-67.9375219 -45.8620421,-67.9357517 -45.861085800000005,-67.9346144 -45.8614519,-67.93332777 -45.86169272,-67.9343569 -45.8614145,-67.9335523 -45.861549,-67.9334021 -45.8611381,-67.9309666 -45.8609214,-67.92973166 -45.86112334,-67.9307091 -45.86097370000001,-67.9287457 -45.8609588,-67.9288423 -45.860757,-67.92827234 -45.86082887,-67.9288423 -45.860757,-67.9286063 -45.8609812,-67.9269433 -45.8608168,-67.9254305 -45.8610559,-67.9256237 -45.8606898,-67.92472033 -45.86078317,-67.9253769 -45.8604208,-67.9236388 -45.8595317,-67.9233384 -45.8597857,-67.92204432 -45.86025045,-67.9235315 -45.8601219,-67.9222655 -45.8604731,-67.92116295 -45.86077528,-67.9219651 -45.8610335,-67.9157424 -45.8609887,-67.91412974 -45.86109479,-67.9153347 -45.8605702,-67.9157317 -45.8599725,-67.9146159 -45.859457,-67.91347499 -45.85938782,-67.9145408 -45.8594047,-67.9124916 -45.858777,-67.9112792 -45.8592776,-67.91058213 -45.85962973,-67.9112792 -45.8592776,-67.9102921 -45.8588293,-67.9105067 -45.8586425,-67.90964669 -45.85881191,-67.9102653 -45.8586986,-67.9081625 -45.8581195,-67.90707943 -45.8582017,-67.90773330000002 -45.8580522,-67.9073417 -45.8579177,-67.9068965 -45.8568567,-67.9053408 -45.8563822,-67.90400196 -45.85653031,,-67.90333441 -45.85910192,-67.9030502 -45.8613174,-67.9044557 -45.8590236,-67.90205676 -45.86168943;-67.90205676 -45.86168943,-67.9030502 -45.8613174,-67.9044557 -45.8590236,-67.90333441 -45.85910192,,-67.90400196 -45.85653031,-67.90773330000002 -45.8580522,-67.9073417 -45.8579177,-67.9068965 -45.8568567,-67.9053408 -45.8563822,-67.90707943 -45.8582017,-67.9102653 -45.8586986,-67.9081625 -45.8581195,-67.90964669 -45.85881191,-67.9112792 -45.8592776,-67.9102921 -45.8588293,-67.9105067 -45.8586425,-67.91058213 -45.85962973,-67.9145408 -45.8594047,-67.9124916 -45.858777,-67.9112792 -45.8592776,-67.91347499 -45.85938782,-67.9153347 -45.8605702,-67.9157317 -45.8599725,-67.9146159 -45.859457,-67.91412974 -45.86109479,-67.9219651 -45.8610335,-67.9157424 -45.8609887,-67.92116295 -45.86077528,-67.9235315 -45.8601219,-67.9222655 -45.8604731,-67.92204432 -45.86025045,-67.9253769 -45.8604208,-67.9236388 -45.8595317,-67.9233384 -45.8597857,-67.92472033 -45.86078317,-67.9288423 -45.860757,-67.9286063 -45.8609812,-67.9269433 -45.8608168,-67.9254305 -45.8610559,-67.9256237 -45.8606898,-67.92827234 -45.86082887,-67.9307091 -45.86097370000001,-67.9287457 -45.8609588,-67.9288423 -45.860757,-67.92973166 -45.86112334,-67.9343569 -45.8614145,-67.9335523 -45.861549,-67.9334021 -45.8611381,-67.9309666 -45.8609214,-67.93332777 -45.86169272,-67.9375219 -45.8620421,-67.9357517 -45.861085800000005,-67.9346144 -45.8614519,-67.93652197 -45.86222667,-67.9388309 -45.8607794,-67.938112 -45.8611007,-67.9377472 -45.860899,-67.9362881 -45.8614743,-67.9374897 -45.8619749,-67.93809539 -45.86091501,-67.9389811 -45.8623559,-67.9389596 -45.8618329,-67.9381979 -45.8610783,-67.9390669 -45.8607794,-67.93749455 -45.86270022,-67.9407942 -45.8630844,-67.9403758 -45.8621878,-67.9386914 -45.8624792,-67.94016816 -45.86304785,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94026881 -45.86394522,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.9397787 -45.86446671,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.93820898 -45.86621382,,-67.93822649 -45.86645361,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.934829 -45.8699464,-67.9352367 -45.8689827,-67.9338956 -45.8684298,-67.9331553 -45.8691993,-67.9323077 -45.8697148,-67.9319537 -45.8703348,-67.9324794 -45.8705739,-67.93187364 -45.8708609,-67.9326403 -45.8707009,-67.9319537 -45.8703348,-67.931664 -45.8708503,-67.9311275 -45.8713582,-67.9311597 -45.8717019,-67.9314923 -45.8717243,-67.93045899 -45.87199061,-67.9310846 -45.8724489,-67.9311812 -45.8718139,-67.9314172 -45.8718438,-67.92978725 -45.87284116;-67.92978725 -45.87284116,-67.9310846 -45.8724489,-67.9311812 -45.8718139,-67.9314172 -45.8718438,-67.93045899 -45.87199061,-67.9326403 -45.8707009,-67.9319537 -45.8703348,-67.931664 -45.8708503,-67.9311275 -45.8713582,-67.9311597 -45.8717019,-67.9314923 -45.8717243,-67.93187364 -45.8708609,-67.934829 -45.8699464,-67.9352367 -45.8689827,-67.9338956 -45.8684298,-67.9331553 -45.8691993,-67.9323077 -45.8697148,-67.9319537 -45.8703348,-67.9324794 -45.8705739,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2319,S2123,S2228,S2637,S948</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 754,S2408,Linea 752,S370,Linea 1842,S2421,Linea 741,S980,Linea 740,S377,Linea 748,S381,Linea 747,S2572,Linea 746,S315,Linea 1017,S59,Linea 1295,S2116,Linea 1293,S1,Linea 1292,S2189,Linea 797,S2095,Linea 1825,S2479,Linea 795,S189,Linea 1826,S18,Linea 1177,S2243,Linea 807,S205,Linea 1181,S2139,Linea 1180,S8,Linea 1183,S223,Linea 1189,S224,Linea 1190,S203,Linea 1187,S2586,Linea 1192,S2584,Linea 1205,S138,Linea 1208,S2101,Linea 1462,S183,Linea 1829,S2135,Linea 1814,S2541,Linea 1459,S206,Linea 826,S715,Linea 827,S2356,Linea 1456,S151,Linea 1489,S2304,Linea 1461,S984,Linea 1447,S2093,Linea 1440,S2089,Linea 1438,S257,Linea 1437,S2074,Linea 1442,S2092,Linea 1835,S2319;S2319,Linea 1835,S2092,Linea 1442,S2074,Linea 1437,S257,Linea 1438,S2089,Linea 1440,S2093,Linea 1447,S984,Linea 1461,S2304,Linea 1489,S151,Linea 1456,S2356,Linea 827,S715,Linea 826,S206,Linea 1459,S2541,Linea 1794,S2135,Linea 1829,S183,Linea 1462,S2101,Linea 1208,S138,Linea 1490,S2080,Linea 1804,S184,Linea 1206,S194,Linea 820,S2177,Linea 815,S2242,Linea 821,S2441,Linea 823,S2406,Linea 1427,S2087,Linea 1426,S2081,Linea 1370,S2091,Linea 1371,S325,Linea 1372,S323,Linea 1373,S2255,Linea 568,S882,Linea 567,S522,Linea 566,S2273,Linea 552,S525,Linea 551,S529,Linea 549,S437,Linea 546,S773,Linea 531,S2151,Linea 412,S2300,Linea 382,S2011,Linea 421,S966,Linea 530,S2124,Linea 528,S434,Linea 529,S2448,Linea 524,S2109,Linea 521,S2123;S2123,Linea 519,S2228;S2228,Linea 519,S2123,Linea 521,S2109,Linea 523,S2606,Linea 526,S2614,Linea 525,S2461,Linea 454,S2594,Linea 438,S2120,Linea 434,S2668,Linea 435,S2105,Linea 436,S2617,Linea 437,S2637;S2637,Linea 437,S2617,Linea 440,S2620,Linea 446,S2638,Linea 447,S2652,Linea 448,S2645,Linea 450,S2642,Linea 457,S2621,Linea 466,S2223,Linea 467,S26,Linea 469,S2523,Linea 1887,S13,Linea 1886,S2,Linea 471,S2240,Linea 1593,Q16,Linea 613,S3,Linea 734,S295,Linea 735,S17,Linea 594,S2259,Linea 592,S2129,Linea 591,S949,Linea 579,S2132,Linea 578,S2443,Linea 581,S938,Linea 587,S2511,Linea 586,S948;S948,Linea 586,S2511,Linea 587,S938,Linea 582,S849,Linea 584,S2168,Linea 1617,S2167,Linea 736,S2110,Linea 930,S2111,Linea 931,S645,Linea 932,S78,Linea 940,S56,Linea 944,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9513514 -45.867951700000006,-67.9506004 -45.8681534,-67.9493558 -45.8665622,-67.9490876 -45.8664576,-67.9492164 -45.8668461,-67.95075242 -45.86791677,-67.9511476 -45.8693039,-67.95089010000001 -45.8697222,-67.9506433 -45.8681011,-67.9512978 -45.867892,-67.95011093 -45.86936834,-67.9526013 -45.869965,-67.9517484 -45.8700734,-67.9508901 -45.8697222,-67.9511476 -45.8693039,-67.95188123 -45.87007275,-67.9518449 -45.870925,-67.9516733 -45.8706037,-67.9509866 -45.870275,-67.95089010000001 -45.8697222,-67.9517484 -45.8700734,-67.9526281 -45.8699912,-67.95082673 -45.87123588,-67.9510081 -45.87218,-67.9515123 -45.8715599,-67.9518449 -45.870925,-67.94974928 -45.87213834,-67.9508579 -45.8736739,-67.9509115 -45.8721426,-67.94983615 -45.87396079,-67.9521346 -45.8759746,-67.951448 -45.8759597,-67.9509008 -45.8738383,-67.95155064 -45.87647635,-67.9521346 -45.8759746,-67.9517162 -45.8759074,-67.9513943 -45.8758999,-67.9525959 -45.87702780000001,-67.95337920000001 -45.8774162,-67.95259842 -45.87763583,-67.9538298 -45.8776104,-67.9575419 -45.8788205,-67.9596341 -45.8789624,-67.9602242 -45.8794852,-67.95937836 -45.87978501,-67.967391 -45.8796271,-67.9660606 -45.879657,-67.9619408 -45.879179,-67.959795 -45.8789997,-67.9602242 -45.8794852,-67.96661757 -45.87943084,-67.9708028 -45.8792686,-67.9686999 -45.8795524,-67.9682064 -45.8792238,-67.96993071 -45.87922522,-67.9739785 -45.8781632,-67.9745579 -45.8782677,-67.9740644 -45.8788802,-67.9710174 -45.8792537,-67.97210325 -45.8786421,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9755771 -45.8785142,-67.9742253 -45.8787756,-67.974236 -45.878222900000004,-67.9757414 -45.87911165,-67.9789352 -45.8795823,-67.9791069 -45.8776627,-67.9756737 -45.8784769,-67.9758239 -45.8787234,-67.9765105 -45.8789474,-67.97764389 -45.88001208,-67.9789352 -45.8795823,-67.9789889 -45.8790669,-67.9799759 -45.8791491,-67.97934342 -45.87920812,-67.9797721 -45.879179,-67.9789889 -45.8790669,-67.9792571 -45.8776403,-67.9831409 -45.876744,-67.9844499 -45.8766842,-67.9838705 -45.8772892,-67.98257485 -45.87765379,-67.9838705 -45.8772892,-67.9842675 -45.8766469,-67.9854584 -45.876617,-67.9846001 -45.8763854,-67.98281428 -45.87644776,-67.9865313 -45.8763033,-67.9853833 -45.8764975,-67.98469660000002 -45.8764303,-67.98563419 -45.87640922,-67.9896748 -45.8771548,-67.9892349 -45.8767216,-67.985158 -45.8765946,-67.9863167 -45.8762734,-67.98904006 -45.87741924,-67.9909623 -45.8768411,-67.9909086 -45.8766394,-67.9893529 -45.876729,-67.9896641 -45.8770726,-67.98995293 -45.87688436,-67.9932904 -45.8760792,-67.9926252 -45.8763556,-67.9912949 -45.8766319,-67.99230343 -45.87612978,-67.9940093 -45.875758,-67.9942882 -45.875646,-67.9944921 -45.8759223,-67.9952216 -45.8756385,-67.9962945 -45.874899,-67.99575168 -45.87505796,-67.9970562 -45.8749065,-67.998054 -45.8746002,-67.9989874 -45.8742865,-67.9998994 -45.8736889,-67.99900055 -45.87377745,-68.0009079 -45.8733901,-68.0017447 -45.8731436,-68.0013478 -45.8728149,-68.0005753 -45.8728074,-67.9998672 -45.8727327,-67.9986441 -45.8728074,-67.99707801 -45.87306235,-67.9984939 -45.8727327,-67.9986763 -45.8725609,-67.9987407 -45.872292,-67.99743076 -45.87213204,-68.0036652 -45.8703498,-68.0024529 -45.8706934,-68.0012727 -45.8709175,-68.0001891 -45.8713881,-67.9995775 -45.8718363,-68.00284674 -45.87040916,-68.0041587 -45.8700285,-68.0051243 -45.8686091,-68.00449906 -45.86852742,-68.0070448 -45.8686241,-68.0060685 -45.868385,-68.00620422 -45.86892139,-68.0070448 -45.8686241,-68.0067122 -45.8683028,-68.0066907 -45.8679293,-68.0047274 -45.8681086,-68.0029786 -45.8686316,-68.0021524 -45.8685344,-68.0022383 -45.8682132,-68.00126819 -45.86832361,,-68.00080119 -45.86808139,-67.9980218 -45.8692665,-68.0000389 -45.8684074,-68.0017662 -45.8680339,-67.99627751 -45.86960923,-67.9969811 -45.8694981,-67.9958439 -45.8695654,-67.99512510000001 -45.8693413,-67.99505 -45.8690499,-67.99439359 -45.86914058,-67.99505 -45.8690499,-67.9947495 -45.8687287,-67.9952323 -45.8676529,-67.99437986 -45.8677879,-67.9954576 -45.8672868,-67.9960907 -45.8666518,-67.9968202 -45.8663306,-67.99554948 -45.86642106,-67.9970026 -45.8663754,-68.0035257 -45.8657777,-68.003397 -45.8661662,-68.00288598 -45.86648631,-68.0048561 -45.8661961,-68.0066156 -45.864941,-68.00601835 -45.8652672,-68.0066907 -45.8648887,-68.0076134 -45.8646197,-68.0077314 -45.8640818,-68.0066907 -45.862595,-68.0065084 -45.8626847,-68.00524993 -45.86266209,-68.0066907 -45.862595,-68.0062294 -45.8616088,-68.0054569 -45.8608467,-68.004663 -45.8610185,-68.00290781 -45.86119572,-68.0032039 -45.861564,-68.0037832 -45.8611157,-68.0040193 -45.8610858,-68.00170055 -45.8618692,-68.0024529 -45.8617881,-68.0025601 -45.862341,-68.0002105 -45.8608467,-68.0004787 -45.8601219,-67.99931829 -45.86009184,-68.0074525 -45.859442,-68.0054677 -45.8582764,-68.0048132 -45.8581195,-68.0035686 -45.8582092,-68.0016375 -45.8587994,-68.0007148 -45.8595093,-68.00660247 -45.85987417,-68.0073881 -45.8595317,-68.0048668 -45.8579775,-68.0083323 -45.8566475,-68.0111432 -45.8564831,-68.0119586 -45.855833,-68.0093408 -45.8553025,-68.0084181 -45.8553324,-68.0081391 -45.8549139,-68.0071521 -45.8545179,-68.00533143 -45.85441605;-68.00533143 -45.85441605,-68.0073881 -45.8595317,-68.0048668 -45.8579775,-68.0083323 -45.8566475,-68.0111432 -45.8564831,-68.0119586 -45.855833,-68.0093408 -45.8553025,-68.0084181 -45.8553324,-68.0081391 -45.8549139,-68.0071521 -45.8545179,-68.00660247 -45.85987417,-68.0074525 -45.859442,-68.0054677 -45.8582764,-68.0048132 -45.8581195,-68.0035686 -45.8582092,-68.0016375 -45.8587994,-68.0007148 -45.8595093,-67.99931829 -45.86009184,-68.0024529 -45.8617881,-68.0025601 -45.862341,-68.0002105 -45.8608467,-68.0004787 -45.8601219,-68.00170055 -45.8618692,-68.0032039 -45.861564,-68.0037832 -45.8611157,-68.0040193 -45.8610858,-68.00290781 -45.86119572,-68.0066907 -45.862595,-68.0062294 -45.8616088,-68.0054569 -45.8608467,-68.004663 -45.8610185,-68.00524993 -45.86266209,-68.0066907 -45.8648887,-68.0076134 -45.8646197,-68.0077314 -45.8640818,-68.0066907 -45.862595,-68.0065084 -45.8626847,-68.00601835 -45.8652672,-68.0048561 -45.8661961,-68.0066156 -45.864941,-68.00288598 -45.86648631,-67.9970026 -45.8663754,-68.0035257 -45.8657777,-68.003397 -45.8661662,-67.99554948 -45.86642106,-67.9954576 -45.8672868,-67.9960907 -45.8666518,-67.9968202 -45.8663306,-67.99437986 -45.8677879,-67.99505 -45.8690499,-67.9947495 -45.8687287,-67.9952323 -45.8676529,-67.99439359 -45.86914058,-67.9969811 -45.8694981,-67.9958439 -45.8695654,-67.99512510000001 -45.8693413,-67.99505 -45.8690499,-67.99627751 -45.86960923,-67.9980218 -45.8692665,-68.0000389 -45.8684074,-68.0017662 -45.8680339,-68.00080119 -45.86808139,,-68.00126819 -45.86832361,-68.0070448 -45.8686241,-68.0067122 -45.8683028,-68.0066907 -45.8679293,-68.0047274 -45.8681086,-68.0029786 -45.8686316,-68.0021524 -45.8685344,-68.0022383 -45.8682132,-68.00620422 -45.86892139,-68.0070448 -45.8686241,-68.0060685 -45.868385,-68.00449906 -45.86852742,-68.0041587 -45.8700285,-68.0051243 -45.8686091,-68.00284674 -45.87040916,-68.0035579 -45.8703423,-68.0025816 -45.8706859,-68.0014014 -45.8705066,-67.99960904 -45.87080973,,-67.99921407 -45.87121751,-67.9971957 -45.8714031,-67.9989982 -45.8712611,-67.9998028 -45.8710071,-67.99553288 -45.87226112,-67.9929739 -45.8721949,-67.9927379 -45.872546,-67.993784 -45.8729494,-67.9957634 -45.8725273,-67.9964232 -45.8722024,-67.99156523 -45.87210921,-67.9930758 -45.87218,-67.992754 -45.8724788,-67.9914343 -45.8718886,-67.9915845 -45.8711565,-67.9912734 -45.8710071,-67.9900866 -45.8710699,-67.9910052 -45.8707457,-67.9910266 -45.8705664,-67.99163820000001 -45.8700883,-67.9915524 -45.8697073,-67.99024475 -45.86974641,-67.9914558 -45.8692516,-67.9914558 -45.8690499,-67.9925716 -45.8679293,-67.99174523 -45.8677107,-67.9929578 -45.8671225,-67.9928398 -45.8662783,-67.9924321 -45.8655835,-67.9919815 -45.8652548,-67.992121 -45.8648663,-67.9910159 -45.864672,-67.9918528 -45.8642238,-67.99158422 -45.86437969,-67.9920459 -45.8642163,-67.9910159 -45.864672,-67.9903078 -45.8650157,-67.9890847 -45.8656208,-67.9855978 -45.8654415,-67.9855227 -45.865322,-67.98422803 -45.86529103,-67.9859948 -45.8647094,-67.9874003 -45.863783,-67.98677491 -45.86342245,-67.9886341 -45.8629088,-67.9906297 -45.8618479,-67.9911232 -45.8617956,-67.99023202 -45.86204363,-67.9911339 -45.8618479,-67.9904687 -45.8619002,-67.9910696 -45.8615117,-67.9918849 -45.861295,-67.9930007 -45.8606151,-67.99220337 -45.86057361,-67.9928935 -45.8605404,-67.9914236 -45.8609588,-67.98931 -45.8614369,-67.9889023 -45.8613323,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8701234 -45.8635663,-67.8698123 -45.86132490000001,-67.8679776 -45.8603237,-67.8670549 -45.8588966,-67.8654027 -45.859457,-67.8654563 -45.8601518,-67.8656709 -45.8602639,-67.86895092 -45.86422008,-67.8682029 -45.8666817,-67.8692436 -45.8661961,-67.8702307 -45.8647318,-67.8701663 -45.8642088,-67.86635342 -45.86702056,-67.8668189 -45.8667639,-67.8664005 -45.866988,-67.8663254 -45.8676305,-67.86498939 -45.86808329,-67.8639972 -45.8691171,-67.8657031 -45.8680713,-67.86235431 -45.86962035,-67.8593409 -45.8716048,-67.85971640000001 -45.8705365,-67.8614008 -45.870529,-67.861948 -45.8698268,-67.8630531 -45.8694832,-67.85882935 -45.87179542,-67.857635 -45.8744807,-67.8541696 -45.874152,-67.8588581 -45.8727103,-67.8593409 -45.8716048,-67.857019 -45.87438052,-67.84873010000001 -45.87312860000001,-67.8543305 -45.8741595,-67.857635 -45.8744807,-67.84711722 -45.87310355,-67.847904 -45.8759074,-67.8490949 -45.8742491,-67.8510368 -45.8734349,-67.8488266 -45.8731585,-67.84644226 -45.87649326,-67.8503072 -45.877095,-67.8495133 -45.8766394,-67.8481615 -45.87637800000001,-67.84953817 -45.87734102,-67.8534776 -45.8786225,-67.852689 -45.8781818,-67.8508437 -45.8775395,-67.85276267 -45.87922955,-67.8564656 -45.8801798,-67.855736 -45.8808595,-67.8561974 -45.8788727,-67.8546631 -45.8788802,-67.855851 -45.88011934,-67.8574526 -45.8818977,-67.8570664 -45.8807624,-67.8556824 -45.8812367,-67.8564656 -45.8801798,-67.85651325 -45.88220843,-67.8573883 -45.8816587,-67.8575063 -45.8811433,-67.8592443 -45.8804114,-67.8593087 -45.8795599,-67.8584397 -45.8786113,-67.8589547 -45.8770502,-67.8599954 -45.87787190000001,-67.859516 -45.87831444,-67.8608537 -45.8799333,-67.8613579 -45.8799707,-67.8611863 -45.8784545,-67.86092880000001 -45.8783424,-67.85926992 -45.88036306,-67.8633642 -45.8805981,-67.8613579 -45.8799707,-67.8608108 -45.8798811,-67.86269956 -45.88077691;-67.86269956 -45.88077691,-67.8661644 -45.8809417,-67.8650057 -45.8806205,-67.8644371 -45.8807923,-67.86568201 -45.88111505;-67.86568201 -45.88111505,-67.8661644 -45.8809417,-67.8650057 -45.8806205,-67.8644371 -45.8807923,-67.86269956 -45.88077691,-67.8633642 -45.8805981,-67.8613579 -45.8799707,-67.8608108 -45.8798811,-67.85926992 -45.88036306,-67.8622806 -45.8814346,-67.8628922 -45.8810985,-67.8613365 -45.8799035,-67.8605962 -45.879896,-67.86071597 -45.88116865,-67.8614116 -45.8855274,-67.862978 -45.884788,-67.8635466 -45.8831599,-67.8632355 -45.8817483,-67.86391140000002 -45.8815093,-67.8628063 -45.8810537,-67.8623772 -45.8814346,-67.85908094 -45.88593849,-67.8609717 -45.8856767,-67.862817 -45.8848403,-67.8617656 -45.8854826,-67.8616369 -45.886192,-67.8618944 -45.8867671,-67.86045923 -45.88724171,-67.8618944 -45.8867671,-67.8616261 -45.8862443,-67.8603601 -45.88681940000001,-67.8594589 -45.8868119,-67.8584075 -45.8873347,-67.856369 -45.8871629,-67.8557789 -45.8865655,-67.85399644 -45.88640005,-67.8548133 -45.885968,-67.8544056 -45.8857215,-67.8542554 -45.8852884,-67.85284989 -45.88522411,-67.8535903 -45.8848851,-67.8530109 -45.8845938,-67.8524315 -45.8844893,-67.85093028 -45.88433862,-67.8516591 -45.8844445,-67.8505969 -45.8845789,-67.84921346 -45.88477072,-67.8525496 -45.8855871,-67.8516698 -45.8851988,-67.8510153 -45.885027,-67.84983520000002 -45.8848851,-67.85159293 -45.88612644,-67.8525496 -45.8855871,-67.851584 -45.885251,-67.8524101 -45.8868119,-67.8533113 -45.8874616,-67.85259134 -45.88819644;-67.85259134 -45.88819644,-67.8525496 -45.8855871,-67.851584 -45.885251,-67.8524101 -45.8868119,-67.8533113 -45.8874616,-67.85159293 -45.88612644,-67.8530109 -45.886319,-67.8539872 -45.8868567,-67.8555858 -45.8874168,-67.8559721 -45.8882756,-67.85537987 -45.88855243,-67.8569698 -45.8905682,-67.8562617 -45.8905682,-67.8551674 -45.8886042,-67.8555107 -45.8875214,-67.8557789 -45.88838020000001,-67.85652652 -45.89043864,-67.8583002 -45.8906802,-67.8604245 -45.8905832,-67.85994544 -45.89074459,-67.86183 -45.8907101,-67.8635895 -45.8906578,-67.86328043 -45.89089136,-67.8652418 -45.8907101,-67.8656602 -45.890351700000004,-67.8659928 -45.88941820000001,-67.86520231 -45.88917465,-67.8674626 -45.88708080000001,-67.866658 -45.886864200000005,-67.8658855 -45.887125600000005,-67.8670657 -45.8886864,-67.86685323 -45.88712476,-67.86739830000002 -45.8868567,-67.8667223 -45.8862667,-67.8672802 -45.8848552,-67.86589689 -45.88477956,-67.8672695 -45.88491500000001,-67.867409 -45.8861099,-67.8680742 -45.8863339,-67.8686106 -45.8860875,-67.8688896 -45.8849822,-67.870338 -45.8842577,-67.8693122 -45.8842458,-67.8685462 -45.8831151,-67.869308 -45.8829582,-67.8708422 -45.883018,-67.8705847 -45.8839366,-67.86703039 -45.88312685,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.87263059 -45.88283868,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.8758872 -45.88413516,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.87630061 -45.88642699,,-67.87597578 -45.88674947,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87931365 -45.88515467,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.88934482 -45.88367092,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88477851 -45.88530377,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88725199 -45.88498287,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88986813 -45.88509226,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.89478887 -45.88442779,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89811074 -45.88424629,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.90293219 -45.8836944,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90362098 -45.8874036,-67.9022241 -45.8892913,-67.9030609 -45.889239,-67.9032218 -45.8889477,-67.9028785 -45.8877678,-67.9034686 -45.8869165,-67.9039729 -45.8871629,-67.90098858 -45.88903898,-67.9052174 -45.8898887,-67.9046273 -45.8890523,-67.9033613 -45.8891643,-67.9021382 -45.8893659,-67.90475618 -45.89004619;-67.90475618 -45.89004619,-67.9052174 -45.8898887,-67.9046273 -45.8890523,-67.9033613 -45.8891643,-67.9021382 -45.8893659,-67.90098858 -45.88903898,-67.9022241 -45.8892913,-67.9030609 -45.889239,-67.9032218 -45.8889477,-67.9028785 -45.8877678,-67.9034686 -45.8869165,-67.9039729 -45.8871629,-67.90362098 -45.8874036,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90705336 -45.88840606,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90594775 -45.88423937,,-67.90591516 -45.88446218,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90970498 -45.88326091,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91930941 -45.88137118,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.92260289 -45.87981886,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S921,S830,S822,S2640,S755,S2656</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 943,S167,Linea 946,S2147,Linea 966,S2465,Linea 968,S387,Linea 970,S316,Linea 969,S39,Linea 957,S36,Linea 1027,S2695,Linea 1026,S43,Linea 1088,S2707,Linea 1098,S42,Linea 1853,S2723,Linea 1118,S841,Linea 1113,S2194,Linea 1110,S803,Linea 1138,S815,Linea 1129,S921;S921,Linea 1273,S2055,Linea 1328,S778,Linea 1127,S758,Linea 1298,S830;S830,Linea 1298,S758,Linea 1126,S805,Linea 1125,S822;S822,Linea 1125,S805,Linea 1305,S759,Linea 1306,S834,Linea 1307,S839,Linea 1313,S725,Linea 1310,S744,Linea 1321,S747,Linea 1324,S752,Linea 1326,S2640;S2640,Linea 1326,S752,Linea 1244,S753,Linea 1323,S755;S755,Linea 1323,S753,Linea 1244,S752,Linea 1324,S747,Linea 1321,S744,Linea 1310,S725,Linea 1313,S839,Linea 1307,S834,Linea 1306,S759,Linea 1297,S794,Linea 1073,S760,Linea 1221,S791,Linea 1076,S793,Linea 1079,S818,Linea 1080,S737,Linea 1083,S904,Linea 1033,S2656;S2656,Linea 955,S2666,Linea 956,S2680,Linea 959,S37,Linea 958,S2725,Linea 1025,S36,Linea 957,S39,Linea 969,S316,Linea 970,S387,Linea 968,S2465,Linea 966,S2147,Linea 946,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.93512028 -45.8793768,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.94258106 -45.87928487,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.9459034 -45.88040255,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.94607409 -45.88311995,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94628753 -45.88560005,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94746568 -45.88694764,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94972726 -45.88693813,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.95178221 -45.88666191,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95650174 -45.8868325,-67.9563618 -45.8869613,-67.9570055 -45.8870583,-67.9568553 -45.8866028,-67.957381 -45.8868268,-67.95495587 -45.8875866,-67.9576063 -45.8896124,-67.9577136 -45.888888,-67.9572308 -45.8876483,-67.9565012 -45.8869986,-67.95602222 -45.88970885,-67.958647 -45.8921289,-67.9580784 -45.8917854,-67.958411 -45.8907699,-67.9588509 -45.8902397,-67.9578209 -45.8896422,-67.95792371 -45.89252328,-67.958411 -45.8946678,-67.9585934 -45.8938464,-67.9590118 -45.8934581,-67.9594839 -45.8932714,-67.9597199 -45.892913,-67.9595053 -45.8926741,-67.95753705 -45.89518861,-67.9602778 -45.8973559,-67.959677 -45.8974604,-67.9590976 -45.897326,-67.9587114 -45.8968257,-67.95928 -45.896094,-67.9591405 -45.8953548,-67.95956637 -45.89743693,-67.9642367 -45.8983564,-67.9643333 -45.8976993,-67.9650199 -45.8970721,-67.9652989 -45.8964076,-67.9613721 -45.8972065,-67.96354703 -45.89869944;-67.96354703 -45.89869944,-67.9693437 -45.9027914,-67.9659963 -45.8987297,-67.965138 -45.8986401,-67.96793825 -45.90348141,-67.9685926 -45.9034484,-67.9653096 -45.9044488,-67.9600525 -45.9049564,-67.9584861 -45.9041651,-67.9576707 -45.9040606,-67.95594313 -45.90408308,-67.9577565 -45.9038664,-67.9585826 -45.9036126,-67.9585826 -45.9031348,-67.9576492 -45.90253,-67.9561365 -45.9021343,-67.9558575 -45.9012832,-67.95417314 -45.90131869,-67.9489374 -45.903299,-67.9498816 -45.9036126,-67.9506969 -45.9043144,-67.9538083 -45.903299,-67.9553103 -45.9025524,-67.9560614 -45.9025524,-67.955997 -45.9012981,-67.94716669 -45.90342424;-67.94716669 -45.90342424,-67.9489374 -45.903299,-67.9498816 -45.9036126,-67.9506969 -45.9043144,-67.9538083 -45.903299,-67.9553103 -45.9025524,-67.9560614 -45.9025524,-67.955997 -45.9012981,-67.95417314 -45.90131869,-67.9519415 -45.9014251,-67.9524672 -45.9015595,-67.9527569 -45.9020821,-67.9535294 -45.9024554,-67.9558897 -45.9024703,-67.956233 -45.9022389,-67.9559326 -45.9014549,-67.9556215 -45.9012309,-67.95037233 -45.90142031,-67.9506969 -45.9010816,-67.9497743 -45.9008576,-67.9498494 -45.8992001,-67.94838203 -45.89904174;-67.94838203 -45.89904174,-67.9506969 -45.9010816,-67.9497743 -45.9008576,-67.9498494 -45.8992001,-67.95037233 -45.90142031,-67.9506755 -45.9009696,-67.9479718 -45.9005665,-67.9449892 -45.9007008,-67.945075 -45.9032692,-67.9445601 -45.9035379,-67.9423714 -45.902642,-67.94048121 -45.90255833,-67.9417276 -45.9060912,-67.9426718 -45.9047623,-67.9416203 -45.9047773,-67.9445601 -45.9035379,-67.942543 -45.9026271,-67.94070253 -45.90708056,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.93482704 -45.9074612,-67.922008 -45.9097193,-67.9201412 -45.9109884,-67.9196906 -45.9109585,-67.9200125 -45.9097492,-67.9210854 -45.909585,-67.9227591 -45.90851,-67.9267287 -45.9077933,-67.9317927 -45.9075544,-67.9344964 -45.9080023,-67.9353762 -45.9076142,-67.92132124 -45.90950332,-67.9221797 -45.9097492,-67.9201412 -45.9109884,-67.91924 -45.911063,-67.9191971 -45.9115109,-67.91938339 -45.91141146,-67.9150558 -45.9126903,-67.9162359 -45.9122126,-67.9164505 -45.9115408,-67.9181457 -45.910645,-67.9202914 -45.9111078,-67.91361731 -45.91301639,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.9049706 -45.9149894,-67.9050565 -45.9146311,-67.908597 -45.9143027,-67.9105282 -45.9135114,-67.9126954 -45.9130636,-67.9141974 -45.9123171,-67.90949828 -45.91775832,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.90527 -45.9149745,-67.9052067 -45.9146162,-67.9025245 -45.9141235,-67.90171 -45.9145565,-67.89907 -45.9147953,-67.8979325 -45.9163329,-67.8972459 -45.916945,-67.8961945 -45.916945,-67.896 -45.9166,-67.89415644 -45.91643339;-67.89415644 -45.91643339,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.90527 -45.9149745,-67.9052067 -45.9146162,-67.9025245 -45.9141235,-67.90171 -45.9145565,-67.89907 -45.9147953,-67.8979325 -45.9163329,-67.8972459 -45.916945,-67.8961945 -45.916945,-67.896 -45.9166,-67.90949828 -45.91775832,-67.9105067 -45.9207068,-67.9081678 -45.9205276,-67.9078245 -45.9200798,-67.9065156 -45.9195574,-67.9081035 -45.9191991,-67.9097772 -45.9180049,-67.91006087 -45.92075561,-67.9186392 -45.925737,-67.9181242 -45.9258713,-67.9160213 -45.924319,-67.9144335 -45.9239011,-67.9125881 -45.9236324,-67.911365 -45.9232891,-67.908361 -45.9205575,-67.9107213 -45.9206172,-67.91781996 -45.92567691;-67.91781996 -45.92567691,-67.9186392 -45.925737,-67.9181242 -45.9258713,-67.9160213 -45.924319,-67.9144335 -45.9239011,-67.9125881 -45.9236324,-67.911365 -45.9232891,-67.908361 -45.9205575,-67.9107213 -45.9206172,-67.91006087 -45.92075561,-67.9105067 -45.9207068,-67.9081678 -45.9205276,-67.9078245 -45.9200798,-67.9065156 -45.9195574,-67.9081035 -45.9191991,-67.9097772 -45.9180049,-67.90949828 -45.91775832,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.9049706 -45.9149894,-67.9050565 -45.9146311,-67.908597 -45.9143027,-67.9105282 -45.9135114,-67.9126954 -45.9130636,-67.9141974 -45.9123171,-67.91361731 -45.91301639,-67.9150558 -45.9126903,-67.9162359 -45.9122126,-67.9164505 -45.9115408,-67.9181457 -45.910645,-67.9202914 -45.9111078,-67.91938339 -45.91141146,-67.9221797 -45.9097492,-67.9201412 -45.9109884,-67.91924 -45.911063,-67.9191971 -45.9115109,-67.92132124 -45.90950332,-67.922008 -45.9097193,-67.9201412 -45.9109884,-67.9196906 -45.9109585,-67.9200125 -45.9097492,-67.9210854 -45.909585,-67.9227591 -45.90851,-67.9267287 -45.9077933,-67.9317927 -45.9075544,-67.9344964 -45.9080023,-67.9353762 -45.9076142,-67.93482704 -45.9074612,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.94070253 -45.90708056,-67.9417276 -45.9060912,-67.9426718 -45.9047623,-67.9416203 -45.9047773,-67.9445601 -45.9035379,-67.942543 -45.9026271,-67.94048121 -45.90255833,-67.9313636 -45.9007755,-67.9299688 -45.9015296,-67.9309559 -45.9024778,-67.931664 -45.9022687,-67.9323721 -45.9010144,-67.9335737 -45.900447,-67.9371786 -45.9012832,-67.9379082 -45.9021045,-67.9396677 -45.9026719,-67.941041 -45.9025674,-67.93028301 -45.90068278,-67.9312027 -45.9008128,-67.9299688 -45.9015296,-67.9282737 -45.9003723,-67.9263103 -45.8994316,-67.9232204 -45.8984983,-67.9221046 -45.8981623,-67.92046749 -45.89809236,-67.9221904 -45.8981548,-67.9232204 -45.8984983,-67.9230487 -45.8980652,-67.9224908 -45.89755,-67.9236388 -45.8964449,-67.92261639 -45.89612501,-67.9235637 -45.895743,-67.9241538 -45.8953249,-67.9267287 -45.8949142,-67.9271579 -45.8944961,-67.9267287 -45.8942048,-67.9257309 -45.8936448,-67.9256558 -45.8930698,-67.9268682 -45.8923604,-67.9289711 -45.8934208,-67.9293036 -45.893361,-67.92819602 -45.89300211,-67.9292285 -45.8926143,-67.9297435 -45.8916137,-67.930634 -45.8913523,-67.9310846 -45.8915241,-67.9320288 -45.8924127,-67.9322755 -45.8923231,-67.9316425 -45.8910014,-67.93002857 -45.89099999,-67.9326725 -45.8927039,-67.9321253 -45.8924276,-67.9320502 -45.8919796,-67.9315674 -45.8910163,-67.93203261 -45.89325144,-67.9325116 -45.8927189,-67.9321575 -45.8923754,-67.9320073 -45.8911582,-67.9324365 -45.8909939,-67.9336274 -45.8912403,-67.9348075 -45.8908669,-67.93404442 -45.8909633,-67.9351616 -45.890628,-67.9353011 -45.8903069,-67.9351509 -45.889702,-67.9356337 -45.8888283,-67.9361594 -45.8882682,-67.9367387 -45.8882607,-67.93581454 -45.88863383;-67.93581454 -45.88863383,-67.9410625 -45.888776,-67.9401827 -45.8890747,-67.9375863 -45.8886341,-67.93992923 -45.88854577,-67.9414594 -45.88785,-67.9417813 -45.8871554,-67.9419315 -45.8865879,-67.9423285 -45.8863414,-67.94198922 -45.88653728,-67.9423177 -45.8861323,-67.9425859 -45.8852137,-67.9431438 -45.8846088,-67.9432619 -45.8842802,-67.94255555 -45.88454697,-67.9459763 -45.8845415,-67.9446459 -45.8841607,-67.9436696 -45.8842353,-67.94483649 -45.8845247,-67.9471672 -45.8852884,-67.9470921 -45.8848627,-67.9461265 -45.8845565,-67.94628753 -45.88560005,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94607409 -45.88311995,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.9459034 -45.88040255,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.94258106 -45.87928487,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2643,S2122,S510,S2262,S424</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 944,S56,Linea 940,S78,Linea 932,S645,Linea 931,S2111,Linea 930,S2110,Linea 736,S2167,Linea 1617,S2168,Linea 584,S849,Linea 582,S938,Linea 581,S2443,Linea 578,S2132,Linea 579,S949,Linea 591,S2129,Linea 592,S2259,Linea 594,S17,Linea 735,S295,Linea 734,S3,Linea 613,Q16,Linea 1626,S2240,Linea 471,S2,Linea 1886,S13,Linea 1887,S2523,Linea 469,S26,Linea 467,S2223,Linea 466,S2621,Linea 461,S2643;S2643,Linea 461,S2621,Linea 466,S2223,Linea 467,S26,Linea 469,S2523,Linea 1888,S2606,Linea 526,S2614,Linea 451,S2122;S2122,Linea 451,S2614,Linea 526,S2606,Linea 1888,S2523,Linea 517,Q17,Linea 516,S2236,Linea 511,S509,Linea 512,S427,Linea 506,S420,Linea 505,S418,Linea 485,S2303,Linea 481,S2156,Linea 478,S510;S510,Linea 478,S2156,Linea 481,S2303,Linea 485,S418,Linea 505,S420,Linea 506,S427,Linea 507,S2307,Linea 649,S426,Linea 645,S470,Linea 534,S506,Linea 536,S533,Linea 540,S531,Linea 538,S439,Linea 545,S469,Linea 616,S460,Linea 632,S2720,Linea 662,S2445,Linea 628,S2262;S2262,Linea 628,S2445,Linea 662,S2720,Linea 634,S458,Linea 660,S683,Linea 659,S2265,Linea 665,S489,Linea 629,S2077,Linea 631,S629,Linea 905,S783,Linea 1214,Planta Norte,Linea 923,S789,Linea 925,S501,Linea 127,S633,Linea 210,S622,Linea 912,S2387,Linea 205,S632,Linea 203,S430,Linea 408,S2575,Linea 680,S642,Linea 679,S2035,Linea 495,S2351,Linea 494,S397,Linea 490,S2036,Linea 1599,S2359,Linea 687,S440,Linea 689,S2047,Linea 688,S2278,Linea 686,S2025,Linea 1823,S424;S424,Linea 1823,S2025,Linea 686,S2278,Linea 927,S2231,Linea 1649,S236,Linea 713,S77,Linea 1647,S2334,Linea 934,S2111,Linea 931,S645,Linea 932,S78,Linea 940,S56,Linea 944,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92260289 -45.87981886,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.91930941 -45.88137118,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91747464 -45.88372353,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91541483 -45.88231338,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.90970498 -45.88326091,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90591516 -45.88446218,,-67.90594775 -45.88423937,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90705336 -45.88840606,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90362098 -45.8874036,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90293219 -45.8836944,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.89811074 -45.88424629,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89478887 -45.88442779,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.88986813 -45.88509226,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88725199 -45.88498287,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88477851 -45.88530377,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88934482 -45.88367092,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.87931365 -45.88515467,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87597578 -45.88674947,,-67.87630061 -45.88642699,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.8758872 -45.88413516,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.87263059 -45.88283868,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.86703039 -45.88312685,-67.8685462 -45.8831151,-67.869308 -45.8829582,-67.8708422 -45.883018,-67.8705847 -45.8839366,-67.8693122 -45.8842458,-67.8672695 -45.88491500000001,-67.867409 -45.8861099,-67.8680742 -45.8863339,-67.8686106 -45.8860875,-67.8688896 -45.8849822,-67.870338 -45.8842577,-67.86589689 -45.88477956,-67.86739830000002 -45.8868567,-67.8667223 -45.8862667,-67.8672802 -45.8848552,-67.86685323 -45.88712476,-67.8704238 -45.8871032,-67.8687179 -45.8869837,-67.8698153 -45.88712675;-67.8698153 -45.88712675,-67.8704238 -45.8871032,-67.8687179 -45.8869837,-67.86685323 -45.88712476,-67.86739830000002 -45.8868567,-67.8667223 -45.8862667,-67.8672802 -45.8848552,-67.86589689 -45.88477956,-67.8672695 -45.88491500000001,-67.867409 -45.8861099,-67.8680742 -45.8863339,-67.8686106 -45.8860875,-67.8688896 -45.8849822,-67.870338 -45.8842577,-67.8693122 -45.8842458,-67.8685462 -45.8831151,-67.869308 -45.8829582,-67.8708422 -45.883018,-67.8705847 -45.8839366,-67.86703039 -45.88312685,-67.8685462 -45.8831151,-67.8700483 -45.8829059,-67.8648233 -45.8818603,-67.8628063 -45.8810537,-67.8621304 -45.8814645,-67.86071597 -45.88116865,-67.8614116 -45.8855274,-67.862978 -45.884788,-67.8635466 -45.8831599,-67.8632355 -45.8817483,-67.86391140000002 -45.8815093,-67.8628063 -45.8810537,-67.8623772 -45.8814346,-67.85908094 -45.88593849,-67.85825730000002 -45.8853855,-67.85964130000002 -45.8854228,-67.85655105 -45.88556448;-67.85655105 -45.88556448,-67.85825730000002 -45.8853855,-67.85964130000002 -45.8854228,-67.85908094 -45.88593849,-67.8614116 -45.8855274,-67.862978 -45.884788,-67.8635466 -45.8831599,-67.8632355 -45.8817483,-67.86391140000002 -45.8815093,-67.8628063 -45.8810537,-67.8623772 -45.8814346,-67.86071597 -45.88116865,-67.8685462 -45.8831151,-67.8700483 -45.8829059,-67.8648233 -45.8818603,-67.8628063 -45.8810537,-67.8621304 -45.8814645,-67.86703039 -45.88312685,-67.8726017 -45.880389,-67.8697157 -45.8828462,-67.8706813 -45.8831001,-67.8686643 -45.8830254,-67.8724445 -45.87988188,-67.8772688 -45.8789101,-67.8749835 -45.8790146,-67.87362100000001 -45.8797765,-67.87684672 -45.87887091,-67.8785026 -45.8788802,-67.8798115 -45.8793806,-67.87875862 -45.87975391,-67.8797901 -45.8776627,-67.8792536 -45.87817810000001,-67.8798115 -45.8793806,-67.87897854 -45.87766371,-67.8836739 -45.8759821,-67.8838027 -45.8758402,-67.883234 -45.875631,-67.8816783 -45.8762734,-67.8803587 -45.8772818,-67.88220216 -45.87628794,-67.8856909 -45.8773042,-67.88382410000001 -45.8758999,-67.8835773 -45.8759821,-67.88515558 -45.87764642,-67.8866458 -45.877476,-67.8866458 -45.8780437,-67.8858411 -45.8780212,-67.8857124 -45.8785142,-67.88533919 -45.87880887,-67.8864312 -45.8790146,-67.8847039 -45.8811657,-67.8828692 -45.8823084,-67.8824294 -45.8835632,-67.881732 -45.8839964,-67.87992186 -45.88445386,-67.881732 -45.8839964,-67.8825152 -45.883593100000006,-67.8827727 -45.8823981,-67.8807878 -45.8819649,-67.8819788 -45.8813674,-67.88159325 -45.88135603;-67.88159325 -45.88135603,-67.881732 -45.8839964,-67.8825152 -45.883593100000006,-67.8827727 -45.8823981,-67.8807878 -45.8819649,-67.8819788 -45.8813674,-67.87992186 -45.88445386,-67.8864312 -45.8790146,-67.8847039 -45.8811657,-67.8828692 -45.8823084,-67.8824294 -45.8835632,-67.881732 -45.8839964,-67.88533919 -45.87880887,-67.8866458 -45.877476,-67.8866458 -45.8780437,-67.8858411 -45.8780212,-67.8857124 -45.8785142,-67.88515558 -45.87764642,-67.8856909 -45.8773042,-67.88382410000001 -45.8758999,-67.8835773 -45.8759821,-67.88220216 -45.87628794,-67.8836739 -45.8759821,-67.8838027 -45.8758402,-67.883234 -45.875631,-67.8816783 -45.8762734,-67.8803587 -45.8772818,-67.87897854 -45.87766371,-67.8803158 -45.8771847,-67.8813779 -45.8760792,-67.8823113 -45.875519,-67.8828478 -45.87486160000001,-67.88196942 -45.87464989,-67.8836632 -45.8741296,-67.884264 -45.8734723,-67.8839421 -45.8733229,-67.8833306 -45.8736515,-67.8822899 -45.87404,-67.8816032 -45.8749737,-67.8808522 -45.875153,-67.8791678 -45.8762809,-67.8782129 -45.8766021,-67.8774083 -45.8765572,-67.87580898 -45.87623664,-67.8772473 -45.875646,-67.87714 -45.874899,-67.8760457 -45.8739578,-67.8750265 -45.8733005,-67.8741574 -45.8732108,-67.8737283 -45.8741819,-67.87226293 -45.87472228,-67.8721726 -45.8748019,-67.868793 -45.8753024,-67.8683639 -45.8750633,-67.8691471 -45.8759522,-67.86877282 -45.87598303,-67.8690398 -45.8759074,-67.8681815 -45.8748691,-67.8664434 -45.8762585,-67.86520975 -45.8764158,-67.8666043 -45.8740773,-67.8655958 -45.8758999,-67.8658319 -45.8761464,-67.86601994 -45.87390747,-67.8686213 -45.87223970000001,-67.8679776 -45.8725012,-67.867173 -45.87342,-67.86803091 -45.87230485,-67.8687286 -45.87223970000001,-67.8671408 -45.8717542,-67.8661752 -45.8712611,-67.8662395 -45.8705888,-67.86552841 -45.87071955,-67.8665292 -45.8704394,-67.8664756 -45.8701107,-67.8674197 -45.8697073,-67.8698659 -45.8700883,-67.8700376 -45.8699389,-67.8700268 -45.8692964,-67.86891343 -45.86940172,-67.8699839 -45.8693413,-67.8700376 -45.8699389,-67.8703916 -45.8701929,-67.8709173 -45.8699239,-67.8707349 -45.8692815,-67.8712177 -45.8686166,-67.8731596 -45.8681236,-67.8729107 -45.86822856,-67.8740609 -45.8679218,-67.8740501 -45.8676828,-67.8730416 -45.867115,-67.8732347 -45.8667639,-67.8746724 -45.8662783,-67.8754556 -45.865591,-67.876035 -45.8638054,-67.8748977 -45.8643134,-67.87319628 -45.86441938,-67.8776658 -45.8646496,-67.876035 -45.8642312,-67.8759491 -45.8638278,-67.8749514 -45.864380600000004,-67.87711554 -45.86436098;-67.87711554 -45.86436098,-67.8776658 -45.8646496,-67.876035 -45.8642312,-67.8759491 -45.8638278,-67.8749514 -45.864380600000004,-67.87319628 -45.86441938,-67.8740609 -45.8679218,-67.8740501 -45.8676828,-67.8730416 -45.867115,-67.8732347 -45.8667639,-67.8746724 -45.8662783,-67.8754556 -45.865591,-67.876035 -45.8638054,-67.8748977 -45.8643134,-67.8729107 -45.86822856,-67.8735942 -45.8680488,-67.8724301 -45.8682281,-67.8724086 -45.8686689,-67.8764427 -45.8695952,-67.87545792 -45.87007243,-67.8773439 -45.8681385,-67.878288 -45.8679816,-67.8767216 -45.8696102,-67.87529512 -45.86884053,-67.8773224 -45.8682132,-67.8784168 -45.867951700000006,-67.8792751 -45.866988,-67.87841593 -45.86693979,-67.8794253 -45.8652025,-67.8813779 -45.8643508,-67.8805947 -45.8648065,-67.8801227 -45.8652622,-67.8801119 -45.8658151,-67.8798544 -45.8661513,-67.87816911 -45.86559299,-67.8800154 -45.8627071,-67.880863 -45.8635887,-67.8814101 -45.8638502,-67.881496 -45.8643508,-67.8795862 -45.8651352,-67.87889297 -45.8626014,-67.8809917 -45.8619301,-67.8822792 -45.8616611,-67.8835666 -45.8617507,-67.8845859 -45.8612277,-67.8843284 -45.8612427,-67.88286864 -45.86153258,-67.8855836 -45.8605329,-67.8847253 -45.8611754,-67.8843284 -45.8612427,-67.88485253 -45.86038085,-67.8862917 -45.8600846,-67.8869355 -45.8600547,-67.8873861 -45.8596438,-67.8876221 -45.8588667,-67.8886843 -45.8579999,-67.8905296 -45.8572453,-67.8915596 -45.8569165,-67.8910661 -45.8570435,-67.89119881 -45.85678635,-67.8960952 -45.8598436,-67.8959692 -45.8585678,-67.8961945 -45.8583138,-67.8955936 -45.8581419,-67.8949177 -45.8572976,-67.8950787 -45.8562589,-67.894907 -45.8558629,-67.8937376 -45.8558928,-67.8932869 -45.8566101,-67.8928149 -45.8568492,-67.8926003 -45.8566998,-67.89506126 -45.86022417,-67.8961086 -45.8601668,-67.8949714 -45.8618927,-67.89369378 -45.862107,-67.8961945 -45.8632674,-67.8952932 -45.8629985,-67.8948426 -45.8620347,-67.8946526 -45.86372426,-67.8942311 -45.8647841,-67.8944886 -45.8644778,-67.8944886 -45.8640444,-67.8955936 -45.8639772,-67.8958511 -45.8637307,-67.8924736 -45.86523062,-67.8914094 -45.8658749,-67.893244 -45.8652249,-67.88982897 -45.86617984,-67.8926647 -45.8667714,-67.8914416 -45.865972,-67.89194102 -45.86726393,-67.8929329 -45.86721210000001,-67.894392 -45.8695056,-67.89334262 -45.86982277,-67.8955185 -45.8706112,-67.895025 -45.8705813,-67.8944993 -45.8697073,-67.89468537 -45.87097799,-67.8951538 -45.8720604,-67.8954649 -45.8713209,-67.8950679 -45.870671,-67.8955185 -45.8706112,-67.89420174 -45.8725767,-67.8954864 -45.8744359,-67.8949392 -45.8739429,-67.895143 -45.8733378,-67.8949499 -45.8727701,-67.89489679 -45.87455424,-67.8992522 -45.8749438,-67.8973424 -45.8751455,-67.8966451 -45.875362100000004,-67.8955722 -45.8745031,-67.89863672 -45.87485225,-67.8996062 -45.8756758,-67.8981364 -45.8751081,-67.8992522 -45.8749438,-67.89781334 -45.87614703,,-67.89805175 -45.8762384,-67.8998315 -45.8761838,-67.9001212 -45.8769457,-67.900883 -45.8771399,-67.9025674 -45.8764527,-67.90200809 -45.87637167,-67.9027498 -45.8764153,-67.9023206 -45.8766319,-67.9053462 -45.8764079,-67.9049706 -45.8759672,-67.90388535 -45.87594679,-67.9065692 -45.87642280000001,-67.9066443 -45.8758626,-67.9054427 -45.876363,-67.9050243 -45.8759149,-67.90493501 -45.87690763,-67.9065907 -45.8763481,-67.9067516 -45.8757356,-67.9067945 -45.8747496,-67.90587404 -45.87465377,,-67.90528029 -45.87486338;-67.90528029 -45.87486338,,-67.90587404 -45.87465377,-67.9065907 -45.8763481,-67.9067516 -45.8757356,-67.9067945 -45.8747496,-67.90493501 -45.87690763,-67.9108071 -45.880613,-67.9116762 -45.8803665,-67.9099488 -45.8795972,-67.9089832 -45.8795748,-67.908479 -45.879291,-67.9081464 -45.8778345,-67.9075241 -45.8768784,-67.9078567 -45.8763107,-67.9075456 -45.8753322,-67.9072452 -45.8752799,-67.9064727 -45.8764004,-67.90902811 -45.88062544,,-67.90891537 -45.88072557,-67.9107428 -45.880501,-67.9119766 -45.880389,-67.9123414 -45.8806952,-67.9129958 -45.8809193,-67.91210808 -45.8814063,,-67.91214619 -45.88124859,-67.9166651 -45.8823159,-67.9169762 -45.8821367,-67.9166543 -45.8815466,-67.913146 -45.8824205,-67.9128242 -45.8814645,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91930941 -45.88137118,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.92260289 -45.87981886,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S858,S2335,S2630</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 1211,S172,Linea 768,S2417,Linea 759,S402,Linea 760,S2468,Linea 763,S395,Linea 764,S338,Linea 773,S2407,Linea 850,S2056,Linea 849,S2716,Linea 853,S2504,Linea 854,S997,Linea 1836,S353,Linea 1361,S2006,Linea 1363,S2009,Linea 1365,S354,Linea 1421,S2255,Linea 568,S882,Linea 622,S523,Linea 215,S788,Linea 216,S2676,Linea 217,S2396,Linea 240,S2395,Linea 243,S1005,Linea 397,S543,Linea 399,S2288,Linea 247,S2418,Linea 249,S611,Linea 250,E291,Linea 252,S853,Linea 254,S851,Linea 257,S591,Linea 258,S876,Linea 263,S886,Linea 264,S868,Linea 270,S869,Linea 278,S864,Linea 281,S850,Linea 1880,Q50,Linea 271,S858;S858,Linea 267,S2335;S2335,Linea 267,S858,Linea 271,Q50,Linea 1880,S850,Linea 281,S864,Linea 278,S869,Linea 270,S868,Linea 264,S886,Linea 263,S876,Linea 258,S591,Linea 257,S851,Linea 254,S853,Linea 252,E291,Linea 250,S611,Linea 249,S2418,Linea 247,S2288,Linea 399,S543,Linea 397,S1005,Linea 243,S2395,Linea 240,S2396,Linea 217,S2676,Linea 216,S788,Linea 215,S523,Linea 622,S882,Linea 568,S2255,Linea 1421,S354,Linea 1365,S2009,Linea 1363,S2006,Linea 1361,S353,Linea 1836,S997,Linea 854,S2504,Linea 853,S2716,Linea 849,S2056,Linea 850,S2407,Linea 773,S338,Linea 764,S395,Linea 763,S2468,Linea 760,S402,Linea 759,S2417,Linea 768,S172,Linea 1211,S192,Linea 754,S2408,Linea 752,S370,Linea 1842,S2421,Linea 741,S980,Linea 740,S377,Linea 748,S381,Linea 747,S2572,Linea 745,S999,Linea 744,S2529,Linea 791,S2630;S2630,Linea 791,S2529,Linea 744,S999,Linea 745,S2572,Linea 747,S381,Linea 748,S377,Linea 740,S980,Linea 741,S2421,Linea 1842,S370,Linea 752,S2408,Linea 754,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.95709848 -45.86769228,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95610675 -45.87170205,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95650202 -45.87386891,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95720623 -45.87256309,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.96214261 -45.87344787,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96572509 -45.87368099,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.9672039 -45.87497495,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.96992116 -45.87035971,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.9688479 -45.86924263,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.96898996 -45.86789944,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.97170451 -45.86764851,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97781889 -45.86412305,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97692655 -45.86298292,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.98026531 -45.86300386,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98206338 -45.86352335,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86821501 -45.85959306,-67.8666258 -45.8579551,-67.8677523 -45.8588443,-67.8689218 -45.8588293,-67.8688896 -45.8591954,-67.86509618 -45.85797591,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86269634 -45.8576934,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86119926 -45.8582863,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.85800456 -45.85865306,-67.8585362 -45.8586425,-67.8567231 -45.8591431,-67.8550386 -45.8605852,-67.85325633 -45.86047853,-67.8547168 -45.8600622,-67.8545237 -45.8589862,-67.8537083 -45.858508,-67.852335 -45.8585529,-67.85051371 -45.8587379,-67.8511226 -45.8587172,-67.8489661 -45.8581942,-67.8504252 -45.8565952,-67.84992667 -45.85649082,-67.851541 -45.8561394,-67.8511119 -45.8555416,-67.8497386 -45.8553249,-67.8490841 -45.8555341,-67.84737753 -45.85568862,-67.8480864 -45.8556163,-67.846477 -45.8561992,-67.8452325 -45.8556537,-67.84359994 -45.85582912,-67.8438914 -45.8557508,-67.8414237 -45.8563262,-67.8377545 -45.8563187,-67.83653581 -45.85644197,-67.8371108 -45.8561767,-67.8326368 -45.8556313,-67.83154193 -45.85548135,-67.8319716 -45.855437,-67.8292787 -45.855108200000004,-67.82760578 -45.8552439,-67.8277767 -45.8550036,-67.8251696 -45.8547271,-67.824676 -45.8544207,-67.82322995 -45.85451391,-67.8244078 -45.8540994,-67.8225088 -45.8518801,-67.82163737 -45.8516816,-67.8223801 -45.8515886,-67.8209639 -45.8504751,-67.8196657 -45.8504079,-67.81800483 -45.85079524,-67.8185713 -45.8505798,-67.816962 -45.851073,-67.8161895 -45.8523658,-67.81497943 -45.85259887,-67.816329 -45.8519921,-67.8167796 -45.8511701,-67.8158462 -45.8513121,-67.8150415 -45.8533148,-67.8138399 -45.8541293,-67.81217316 -45.85421245,-67.809999 -45.85395,-67.81053540000002 -45.8542265,-67.8125417 -45.8543386,-67.80813131 -45.85419968,-67.8064048 -45.853539,-67.8089046 -45.854361,-67.8103852 -45.8542265,-67.8098702 -45.8539126,-67.80441533 -45.8533642,-67.8110075 -45.8532999,-67.8095913 -45.8534045,-67.8081751 -45.8532849,-67.8063512 -45.8536436,-67.81033656 -45.85331184,-67.8119838 -45.8516783,-67.8118229 -45.8524256,-67.8138614 -45.8534792,-67.8134108 -45.8536361,-67.8115761 -45.85313550000001,-67.81172912 -45.8516909;-67.81172912 -45.8516909,-67.8118765 -45.8513943,-67.8110504 -45.8507367,-67.80982730000001 -45.8504453,-67.8095698 -45.8499147,-67.80810998 -45.84984063;-67.80810998 -45.84984063,-67.8118765 -45.8513943,-67.8110504 -45.8507367,-67.80982730000001 -45.8504453,-67.8095698 -45.8499147,-67.81172912 -45.8516909,-67.8119838 -45.8516783,-67.8118229 -45.8524256,-67.8138614 -45.8534792,-67.8134108 -45.8536361,-67.8115761 -45.85313550000001,-67.81033656 -45.85331184,-67.8110075 -45.8532999,-67.8095913 -45.8534045,-67.8081751 -45.8532849,-67.8063512 -45.8536436,-67.80441533 -45.8533642,-67.8064048 -45.853539,-67.8089046 -45.854361,-67.8103852 -45.8542265,-67.8098702 -45.8539126,-67.80813131 -45.85419968,-67.809999 -45.85395,-67.81053540000002 -45.8542265,-67.8125417 -45.8543386,-67.81217316 -45.85421245,-67.816329 -45.8519921,-67.8167796 -45.8511701,-67.8158462 -45.8513121,-67.8150415 -45.8533148,-67.8138399 -45.8541293,-67.81497943 -45.85259887,-67.8185713 -45.8505798,-67.816962 -45.851073,-67.8161895 -45.8523658,-67.81800483 -45.85079524,-67.8223801 -45.8515886,-67.8209639 -45.8504751,-67.8196657 -45.8504079,-67.82163737 -45.8516816,-67.8244078 -45.8540994,-67.8225088 -45.8518801,-67.82322995 -45.85451391,-67.8277767 -45.8550036,-67.8251696 -45.8547271,-67.824676 -45.8544207,-67.82760578 -45.8552439,-67.8319716 -45.855437,-67.8292787 -45.855108200000004,-67.83154193 -45.85548135,-67.8371108 -45.8561767,-67.8326368 -45.8556313,-67.83653581 -45.85644197,-67.8438914 -45.8557508,-67.8414237 -45.8563262,-67.8377545 -45.8563187,-67.84359994 -45.85582912,-67.8480864 -45.8556163,-67.846477 -45.8561992,-67.8452325 -45.8556537,-67.84737753 -45.85568862,-67.851541 -45.8561394,-67.8511119 -45.8555416,-67.8497386 -45.8553249,-67.8490841 -45.8555341,-67.84992667 -45.85649082,-67.8511226 -45.8587172,-67.8489661 -45.8581942,-67.8504252 -45.8565952,-67.85051371 -45.8587379,-67.8547168 -45.8600622,-67.8545237 -45.8589862,-67.8537083 -45.858508,-67.852335 -45.8585529,-67.85325633 -45.86047853,-67.8585362 -45.8586425,-67.8567231 -45.8591431,-67.8550386 -45.8605852,-67.85800456 -45.85865306,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.86119926 -45.8582863,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86269634 -45.8576934,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86509618 -45.85797591,-67.8666258 -45.8579551,-67.8677523 -45.8588443,-67.8689218 -45.8588293,-67.8688896 -45.8591954,-67.86821501 -45.85959306,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86513556 -45.86046435,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.98715669 -45.86146692,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98206338 -45.86352335,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98026531 -45.86300386,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.97692655 -45.86298292,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97781889 -45.86412305,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97170451 -45.86764851,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.96898996 -45.86789944,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.9688479 -45.86924263,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.96992116 -45.87035971,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.9672039 -45.87497495,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.96572509 -45.87368099,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96214261 -45.87344787,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.95720623 -45.87256309,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95650202 -45.87386891,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95610675 -45.87170205,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95709848 -45.86769228,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.94827454 -45.86749255,-67.9513514 -45.867951700000006,-67.9506004 -45.8681534,-67.9493558 -45.8665622,-67.9490876 -45.8664576,-67.9492164 -45.8668461,-67.95075242 -45.86791677,-67.9511476 -45.8693039,-67.95089010000001 -45.8697222,-67.9506433 -45.8681011,-67.9512978 -45.867892,-67.95011093 -45.86936834,-67.9526013 -45.869965,-67.9517484 -45.8700734,-67.9508901 -45.8697222,-67.9511476 -45.8693039,-67.95188123 -45.87007275,-67.9518449 -45.870925,-67.9516733 -45.8706037,-67.9509866 -45.870275,-67.95089010000001 -45.8697222,-67.9517484 -45.8700734,-67.9526281 -45.8699912,-67.95082673 -45.87123588,-67.9510081 -45.87218,-67.9515123 -45.8715599,-67.9518449 -45.870925,-67.94974928 -45.87213834,-67.9508579 -45.8736739,-67.9509115 -45.8721426,-67.94983615 -45.87396079,-67.9521346 -45.8759746,-67.951448 -45.8759597,-67.9509008 -45.8738383,-67.95155064 -45.87647635,-67.9521239 -45.8742491,-67.9518771 -45.875885,-67.9521346 -45.8759746,-67.95131727 -45.87411285,-67.9523921 -45.8742192,-67.953068 -45.8750334,-67.9540443 -45.8756908,-67.95347139 -45.87628758,-67.9545808 -45.876206200000006,-67.9548597 -45.8766021,-67.9553211 -45.8767066,-67.95502272 -45.87715106;-67.95502272 -45.87715106,-67.9545808 -45.876206200000006,-67.9548597 -45.8766021,-67.9553211 -45.8767066,-67.95347139 -45.87628758,-67.9523921 -45.8742192,-67.953068 -45.8750334,-67.9540443 -45.8756908,-67.95131727 -45.87411285,-67.9521239 -45.8742491,-67.9518771 -45.875885,-67.9521346 -45.8759746,-67.95155064 -45.87647635,-67.9521346 -45.8759746,-67.951448 -45.8759597,-67.9509008 -45.8738383,-67.94983615 -45.87396079,-67.9508579 -45.8736739,-67.9509115 -45.8721426,-67.94974928 -45.87213834,-67.9510081 -45.87218,-67.9515123 -45.8715599,-67.9518449 -45.870925,-67.95082673 -45.87123588,-67.9518449 -45.870925,-67.9516733 -45.8706037,-67.9509866 -45.870275,-67.95089010000001 -45.8697222,-67.9517484 -45.8700734,-67.9526281 -45.8699912,-67.95188123 -45.87007275,-67.9526013 -45.869965,-67.9517484 -45.8700734,-67.9508901 -45.8697222,-67.9511476 -45.8693039,-67.95011093 -45.86936834,-67.9511476 -45.8693039,-67.95089010000001 -45.8697222,-67.9506433 -45.8681011,-67.9512978 -45.867892,-67.95075242 -45.86791677,-67.9513514 -45.867951700000006,-67.9506004 -45.8681534,-67.9493558 -45.8665622,-67.9490876 -45.8664576,-67.9492164 -45.8668461,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2495,S2095,S419,S1041,S2556,S2545</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 754,S2408,Linea 752,S370,Linea 1842,S2421,Linea 741,S980,Linea 740,S377,Linea 748,S381,Linea 747,S2572,Linea 746,S315,Linea 45,S2446,Linea 778,S2495;S2495,Linea 778,S2446,Linea 45,S315,Linea 1017,S59,Linea 1295,S2116,Linea 1293,S1,Linea 1292,S2189,Linea 797,S2095;S2095,Linea 1828,S198,Linea 805,S287,Linea 839,S312,Linea 1834,S339,Linea 1833,S2548,Linea 1678,S249,Linea 830,S285,Linea 1832,S2406,Linea 1427,S2087,Linea 1426,S2081,Linea 1370,S2091,Linea 1371,S325,Linea 1372,S323,Linea 1373,S2255,Linea 568,S882,Linea 567,S522,Linea 566,S2273,Linea 615,S2634,Linea 614,S469,Linea 545,S439,Linea 538,S531,Linea 540,S533,Linea 536,S506,Linea 534,S470,Linea 645,S426,Linea 649,S2307,Linea 650,S455,Linea 502,S398,Linea 498,S419;S419,Linea 498,S398,Linea 502,S455,Linea 650,S2307,Linea 649,S426,Linea 645,S470,Linea 534,S506,Linea 536,S533,Linea 540,S531,Linea 538,S439,Linea 545,S469,Linea 616,S460,Linea 632,S2720,Linea 662,S2445,Linea 628,S2262,Linea 627,S2560,Linea 626,S958,Linea 238,S2386,Linea 236,S487,Linea 230,S1041;S1041,Linea 1848,S492,Linea 1885,S2556;S2556,Linea 1885,S492,Linea 1849,S2001,Linea 902,S2022,Linea 1883,S556,Linea 142,S2578,Linea 1821,S555,Linea 112,S767,Linea 108,S719,Linea 106,S763,Linea 105,S2206,Linea 104,S538,Linea 141,S690,Linea 144,S2017,Linea 143,S356,Linea 97,S2200,Linea 86,S549,Linea 85,S2227,Linea 84,S2545;S2545,Linea 84,S2227,Linea 78,S558,Linea 77,S100,Linea 75,S156,Linea 74,S155,Linea 71,S154,Linea 69,S2416,Linea 1341,S245,Linea 17,S977,Linea 16,S2250,Linea 15,S278,Linea 14,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9513514 -45.867951700000006,-67.9506004 -45.8681534,-67.9493558 -45.8665622,-67.9490876 -45.8664576,-67.9492164 -45.8668461,-67.95075242 -45.86791677,-67.9511476 -45.8693039,-67.95089010000001 -45.8697222,-67.9506433 -45.8681011,-67.9512978 -45.867892,-67.95011093 -45.86936834,-67.9526013 -45.869965,-67.9517484 -45.8700734,-67.9508901 -45.8697222,-67.9511476 -45.8693039,-67.95188123 -45.87007275,-67.9518449 -45.870925,-67.9516733 -45.8706037,-67.9509866 -45.870275,-67.95089010000001 -45.8697222,-67.9517484 -45.8700734,-67.9526281 -45.8699912,-67.95082673 -45.87123588,-67.9510081 -45.87218,-67.9515123 -45.8715599,-67.9518449 -45.870925,-67.94974928 -45.87213834,-67.9508579 -45.8736739,-67.9509115 -45.8721426,-67.94983615 -45.87396079,-67.9521346 -45.8759746,-67.951448 -45.8759597,-67.9509008 -45.8738383,-67.95155064 -45.87647635,-67.9521346 -45.8759746,-67.9517162 -45.8759074,-67.9513943 -45.8758999,-67.9525959 -45.87702780000001,-67.95337920000001 -45.8774162,-67.95259842 -45.87763583,-67.9540229 -45.8774984,-67.9559112 -45.8773639,-67.9570377 -45.8767664,-67.9581749 -45.8755115,-67.9592478 -45.87404,-67.960149 -45.8733229,-67.961179 -45.8736441,-67.9631639 -45.8743836,-67.9648268 -45.8746973,-67.96414173 -45.87523514,-67.965728 -45.8759672,-67.9653203 -45.8753546,-67.96522239 -45.87643672;-67.96522239 -45.87643672,-67.965728 -45.8759672,-67.9653203 -45.8753546,-67.96414173 -45.87523514,-67.9540229 -45.8774984,-67.9559112 -45.8773639,-67.9570377 -45.8767664,-67.9581749 -45.8755115,-67.9592478 -45.87404,-67.960149 -45.8733229,-67.961179 -45.8736441,-67.9631639 -45.8743836,-67.9648268 -45.8746973,-67.95259842 -45.87763583,-67.9538298 -45.8776104,-67.9575419 -45.8788205,-67.9596341 -45.8789624,-67.9602242 -45.8794852,-67.95937836 -45.87978501,-67.967391 -45.8796271,-67.9660606 -45.879657,-67.9619408 -45.879179,-67.959795 -45.8789997,-67.9602242 -45.8794852,-67.96661757 -45.87943084,-67.9708028 -45.8792686,-67.9686999 -45.8795524,-67.9682064 -45.8792238,-67.96993071 -45.87922522,-67.9739785 -45.8781632,-67.9745579 -45.8782677,-67.9740644 -45.8788802,-67.9710174 -45.8792537,-67.97210325 -45.8786421,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9755771 -45.8785142,-67.9742253 -45.8787756,-67.974236 -45.878222900000004,-67.9757414 -45.87911165;-67.9757414 -45.87911165,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9756951 -45.8784321,-67.9790318 -45.877588,-67.9792678 -45.8765199,-67.9792786 -45.8747272,-67.9798257 -45.8760045,-67.9801154 -45.8760643,-67.97932522 -45.87631183,-67.9801047 -45.8737412,-67.9795146 -45.8726879,-67.9791605 -45.8735694,-67.9792249 -45.8748467,-67.9793966 -45.8748467,-67.9797721 -45.8758476,-67.9800725 -45.876012,-67.97905112 -45.87422359,-67.9799759 -45.8737337,-67.9795146 -45.8726879,-67.9809093 -45.8709474,-67.980845 -45.8716421,-67.97987219 -45.87199291,-67.9807377 -45.8716645,-67.9809952 -45.8709175,-67.9819071 -45.8698567,-67.9830122 -45.8690947,-67.9832804 -45.8686614,-67.9840744 -45.8683402,-67.98364252 -45.86827111,-67.9875398 -45.8692665,-67.988205 -45.8691993,-67.9883659 -45.8686465,-67.9866493 -45.8686017,-67.9853296 -45.8685195,-67.9839349 -45.868766,-67.9830122 -45.8690947,-67.9832804 -45.8686614,-67.9841065 -45.8682057,-67.98595749 -45.86942688,,-67.98621539 -45.86906201,-67.9901361 -45.8674661,-67.9900289 -45.8678098,-67.9882801 -45.8686838,-67.9882801 -45.8691246,-67.9875398 -45.8692665,-67.98895281 -45.86742251,-67.9929042 -45.8670777,-67.9928398 -45.8661064,-67.9924321 -45.8655835,-67.9918849 -45.8652398,-67.9909408 -45.867115,-67.9902434 -45.8675334,-67.99174523 -45.8677107,-67.9929578 -45.8671225,-67.9928398 -45.8662783,-67.9924321 -45.8655835,-67.9919815 -45.8652548,-67.992121 -45.8648663,-67.9910159 -45.864672,-67.9918528 -45.8642238,-67.99158422 -45.86437969,-67.9920459 -45.8642163,-67.9910159 -45.864672,-67.9903078 -45.8650157,-67.9890847 -45.8656208,-67.9855978 -45.8654415,-67.9855227 -45.865322,-67.98422803 -45.86529103,-67.9859948 -45.8647094,-67.9874003 -45.863783,-67.98677491 -45.86342245,-67.9886341 -45.8629088,-67.9906297 -45.8618479,-67.9911232 -45.8617956,-67.99023202 -45.86204363,-67.9911339 -45.8618479,-67.9904687 -45.8619002,-67.9910696 -45.8615117,-67.9918849 -45.861295,-67.9930007 -45.8606151,-67.99220337 -45.86057361,-67.9928935 -45.8605404,-67.9914236 -45.8609588,-67.98931 -45.8614369,-67.9889023 -45.8613323,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8701234 -45.8635663,-67.8698123 -45.86132490000001,-67.8679776 -45.8603237,-67.8670549 -45.8588966,-67.8654027 -45.859457,-67.8654563 -45.8601518,-67.8656709 -45.8602639,-67.86895092 -45.86422008,-67.8682029 -45.8666817,-67.8692436 -45.8661961,-67.8702307 -45.8647318,-67.8701663 -45.8642088,-67.86635342 -45.86702056,-67.8668725 -45.8688706,-67.8667974 -45.868646500000004,-67.8676665 -45.8677127,-67.867012 -45.86727940000001,-67.86653014 -45.86909111,-67.8665292 -45.8705589,-67.866143 -45.8710594,-67.8657889 -45.8704767,-67.8668725 -45.8688706,-67.86552841 -45.87071955,-67.8687286 -45.87223970000001,-67.8671408 -45.8717542,-67.8661752 -45.8712611,-67.8662395 -45.8705888,-67.86803091 -45.87230485,-67.8686213 -45.87223970000001,-67.8679776 -45.8725012,-67.867173 -45.87342,-67.86601994 -45.87390747,-67.8666043 -45.8740773,-67.8655958 -45.8758999,-67.8658319 -45.8761464,-67.86520975 -45.8764158,-67.8690398 -45.8759074,-67.8681815 -45.8748691,-67.8664434 -45.8762585,-67.86877282 -45.87598303,-67.8721726 -45.8748019,-67.868793 -45.8753024,-67.8683639 -45.8750633,-67.8691471 -45.8759522,-67.87226293 -45.87472228,-67.8772473 -45.875646,-67.87714 -45.874899,-67.8760457 -45.8739578,-67.8750265 -45.8733005,-67.8741574 -45.8732108,-67.8737283 -45.8741819,-67.87580898 -45.87623664,-67.8836632 -45.8741296,-67.884264 -45.8734723,-67.8839421 -45.8733229,-67.8833306 -45.8736515,-67.8822899 -45.87404,-67.8816032 -45.8749737,-67.8808522 -45.875153,-67.8791678 -45.8762809,-67.8782129 -45.8766021,-67.8774083 -45.8765572,-67.88196942 -45.87464989,-67.8855407 -45.8747869,-67.8848219 -45.8745703,-67.8843713 -45.8743089,-67.8840923 -45.8735395,-67.8836632 -45.8741296,-67.88511415 -45.8749264,-67.88980010000002 -45.8758999,-67.8896391 -45.8754592,-67.8868389 -45.87464500000001,-67.8887044 -45.87631529,-67.8926647 -45.877827,-67.8914523 -45.8771996,-67.8902185 -45.8770054,-67.8897464 -45.8764377,-67.89202706 -45.87769743;-67.89202706 -45.87769743,-67.8926647 -45.877827,-67.8914523 -45.8771996,-67.8902185 -45.8770054,-67.8897464 -45.8764377,-67.8887044 -45.87631529,-67.88980010000002 -45.8758999,-67.8896391 -45.8754592,-67.8868389 -45.87464500000001,-67.88511415 -45.8749264,-67.8855407 -45.8747869,-67.8848219 -45.8745703,-67.8843713 -45.8743089,-67.8840923 -45.8735395,-67.8836632 -45.8741296,-67.88196942 -45.87464989,-67.8836632 -45.8741296,-67.884264 -45.8734723,-67.8839421 -45.8733229,-67.8833306 -45.8736515,-67.8822899 -45.87404,-67.8816032 -45.8749737,-67.8808522 -45.875153,-67.8791678 -45.8762809,-67.8782129 -45.8766021,-67.8774083 -45.8765572,-67.87580898 -45.87623664,-67.8772473 -45.875646,-67.87714 -45.874899,-67.8760457 -45.8739578,-67.8750265 -45.8733005,-67.8741574 -45.8732108,-67.8737283 -45.8741819,-67.87226293 -45.87472228,-67.8721726 -45.8748019,-67.868793 -45.8753024,-67.8683639 -45.8750633,-67.8691471 -45.8759522,-67.86877282 -45.87598303,-67.8690398 -45.8759074,-67.8681815 -45.8748691,-67.8664434 -45.8762585,-67.86520975 -45.8764158,-67.8666043 -45.8740773,-67.8655958 -45.8758999,-67.8658319 -45.8761464,-67.86601994 -45.87390747,-67.8686213 -45.87223970000001,-67.8679776 -45.8725012,-67.867173 -45.87342,-67.86803091 -45.87230485,-67.8687286 -45.87223970000001,-67.8671408 -45.8717542,-67.8661752 -45.8712611,-67.8662395 -45.8705888,-67.86552841 -45.87071955,-67.8665292 -45.8704394,-67.8664756 -45.8701107,-67.8674197 -45.8697073,-67.8698659 -45.8700883,-67.8700376 -45.8699389,-67.8700268 -45.8692964,-67.86891343 -45.86940172,-67.8699839 -45.8693413,-67.8700376 -45.8699389,-67.8703916 -45.8701929,-67.8709173 -45.8699239,-67.8707349 -45.8692815,-67.8712177 -45.8686166,-67.8731596 -45.8681236,-67.8729107 -45.86822856,-67.8740609 -45.8679218,-67.8740501 -45.8676828,-67.8730416 -45.867115,-67.8732347 -45.8667639,-67.8746724 -45.8662783,-67.8754556 -45.865591,-67.876035 -45.8638054,-67.8748977 -45.8643134,-67.87319628 -45.86441938,-67.8776658 -45.8646496,-67.876035 -45.8642312,-67.8759491 -45.8638278,-67.8749514 -45.864380600000004,-67.87711554 -45.86436098,-67.87849190000001 -45.8641416,-67.8785133 -45.863499,-67.8778052 -45.8630732,-67.87624464 -45.86324951,-67.8765821 -45.8616835,-67.8769684 -45.861803,-67.877183 -45.8627295,-67.87598229 -45.86175617,-67.8761101 -45.86104100000001,-67.8766465 -45.8610185,-67.8767216 -45.8614071,-67.87444477 -45.86135588,-67.8759491 -45.8590983,-67.8764319 -45.8599501,-67.87655 -45.8609588,-67.8760779 -45.8611231,-67.87446619 -45.85953534,-67.875917 -45.8590236,-67.8765607 -45.8587098,-67.8784597 -45.8588443,-67.87771797 -45.85914466;-67.87771797 -45.85914466,-67.8790283 -45.8588293,-67.880466 -45.8587397,-67.8813028 -45.8593598,-67.88077392 -45.85953999,-67.8820431 -45.8588966,-67.8808415 -45.8591357,-67.8813887 -45.8593822,-67.88161815 -45.85881773;-67.88161815 -45.85881773,-67.8820431 -45.8588966,-67.8808415 -45.8591357,-67.8813887 -45.8593822,-67.88077392 -45.85953999,-67.8814316 -45.8592926,-67.8808415 -45.8591357,-67.880863 -45.8587322,-67.8817642 -45.858239,-67.8850043 -45.8580522,-67.88402968 -45.85834964,-67.887429 -45.855564,-67.8882551 -45.8548691,-67.8894138 -45.853808,-67.8920853 -45.8535689,-67.8916454 -45.8538678,-67.8897357 -45.85395,-67.88910 -45.85436,-67.8875685 -45.8562589,-67.885799 -45.8571033,-67.88544 -45.8578281,-67.88523 -45.85794,-67.88581092 -45.85597227,-67.887429 -45.855564,-67.8894138 -45.853808,-67.8932333 -45.8533447,-67.8969455 -45.8545851,-67.8963768 -45.8546599,-67.89483427 -45.85484841,-67.9008508 -45.8548093,-67.8990161 -45.8545403,-67.898823 -45.8538678,-67.8965485 -45.8545553,-67.90022567 -45.85540767,,-67.90067511 -45.8549717,-67.904284 -45.8564084,-67.9033184 -45.8552726,-67.9019022 -45.8551232,-67.90400196 -45.85653031,-67.90773330000002 -45.8580522,-67.9073417 -45.8579177,-67.9068965 -45.8568567,-67.9053408 -45.8563822,-67.90707943 -45.8582017,-67.9102653 -45.8586986,-67.9081625 -45.8581195,-67.90964669 -45.85881191,-67.9112792 -45.8592776,-67.9102921 -45.8588293,-67.9105067 -45.8586425,-67.91058213 -45.85962973,-67.9145408 -45.8594047,-67.9124916 -45.858777,-67.9112792 -45.8592776,-67.91347499 -45.85938782,-67.9153347 -45.8605702,-67.9157317 -45.8599725,-67.9146159 -45.859457,-67.91412974 -45.86109479,-67.9219651 -45.8610335,-67.9157424 -45.8609887,-67.92116295 -45.86077528,-67.9235315 -45.8601219,-67.9222655 -45.8604731,-67.92204432 -45.86025045,-67.9253769 -45.8604208,-67.9236388 -45.8595317,-67.9233384 -45.8597857,-67.92472033 -45.86078317,-67.9274476 -45.8598455,-67.9277694 -45.8609139,-67.9253554 -45.8608542,-67.92650257 -45.85998033,-67.930795 -45.8589115,-67.9290783 -45.859442,-67.9272544 -45.8596288,-67.9275012 -45.8597558,-67.92996431 -45.85892348,-67.9288638 -45.8589265,-67.9306984 -45.8588144,-67.9272817 -45.85903741;-67.9272817 -45.85903741,-67.9288638 -45.8589265,-67.9306984 -45.8588144,-67.92996431 -45.85892348,-67.9338741 -45.8553324,-67.9329085 -45.85672970000001,-67.9318249 -45.8585902,-67.9328218 -45.85546946,-67.9352367 -45.8546599,-67.9346144 -45.8547794,-67.9340136 -45.8552128,-67.93449161 -45.85473418,-67.9390132 -45.8553324,-67.9377794 -45.8546898,-67.9357088 -45.8545104,-67.93784211 -45.85566073,-67.9418778 -45.8559601,-67.9390132 -45.8553324,-67.94127839 -45.85682198,-67.9455793 -45.8575815,-67.9449892 -45.8573947,-67.9450321 -45.8569464,-67.9437447 -45.8569987,-67.9429507 -45.8566475,-67.94451337 -45.85788474,-67.95038580000002 -45.8584109,-67.9492486 -45.8582839,-67.9486799 -45.8563934,-67.9455793 -45.8575815,-67.94942594 -45.85854239,-67.9494631 -45.8607197,-67.9496992 -45.8604582,-67.9489589 -45.8596363,-67.9496777 -45.8591282,-67.9500318 -45.8586351,-67.9503858 -45.8584632,-67.94780419 -45.86081977,-67.9479718 -45.8615453,-67.9493934 -45.8606973,-67.9489589 -45.8606599,-67.94655091 -45.86160389,-67.9483044 -45.861911400000004,-67.9473495 -45.8614183,-67.94727301 -45.86217176,-67.9469097 -45.8620944,-67.9481596 -45.8620048,-67.94569946 -45.86221924,-67.9427254 -45.8635364,-67.9464859 -45.8623447,-67.9469097 -45.862016,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S865,S888,S498</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 1211,S172,Linea 768,S2417,Linea 759,S402,Linea 760,S2468,Linea 763,S395,Linea 764,S338,Linea 773,S2407,Linea 850,S2056,Linea 849,S2716,Linea 853,S2504,Linea 854,S997,Linea 1836,S353,Linea 1361,S2006,Linea 1363,S2009,Linea 1365,S354,Linea 1421,S2255,Linea 568,S882,Linea 622,S523,Linea 215,S788,Linea 216,S2676,Linea 217,S2396,Linea 240,S2395,Linea 243,S1005,Linea 397,S543,Linea 399,S2288,Linea 247,S2418,Linea 249,S611,Linea 250,E291,Linea 252,S853,Linea 254,S851,Linea 257,S591,Linea 258,S876,Linea 263,S886,Linea 264,S868,Linea 270,S869,Linea 278,S864,Linea 281,S850,Linea 280,S856,Linea 285,S865;S865,Linea 285,S856,Linea 280,S850,Linea 279,S873,Linea 276,S2582,Linea 275,S2279,Linea 274,S892,Linea 272,S888;S888,Linea 272,S892,Linea 274,S2279,Linea 275,S2582,Linea 277,S864,Linea 278,S869,Linea 270,S868,Linea 264,S886,Linea 263,S876,Linea 258,S591,Linea 257,S851,Linea 254,S853,Linea 252,E291,Linea 250,S611,Linea 249,S2418,Linea 247,S2288,Linea 399,S543,Linea 397,S1005,Linea 243,S2395,Linea 240,S2396,Linea 217,S2676,Linea 216,S788,Linea 214,S2458,Linea 220,S2054,Linea 226,S2291,Linea 229,S487,Linea 230,S1041,Linea 1848,S492,Linea 1849,S2001,Linea 902,S2022,Linea 1883,S556,Linea 142,S2578,Linea 1821,S555,Linea 112,S767,Linea 115,S498;S498,Linea 115,S767,Linea 108,S719,Linea 106,S763,Linea 105,S2206,Linea 104,S538,Linea 141,S690,Linea 144,S2017,Linea 143,S356,Linea 97,S2200,Linea 1847,S2199,Linea 46,S2569,Linea 42,S2032,Linea 34,S308,Linea 33,S2412,Linea 27,S2195,Linea 10,S309,Linea 4,S329,Linea 3,S993,Linea 2,S2447,Linea 1506,S176,Linea 1,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.95709848 -45.86769228,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95610675 -45.87170205,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95650202 -45.87386891,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95720623 -45.87256309,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.96214261 -45.87344787,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96572509 -45.87368099,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.9672039 -45.87497495,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.96992116 -45.87035971,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.9688479 -45.86924263,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.96898996 -45.86789944,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.97170451 -45.86764851,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97781889 -45.86412305,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97692655 -45.86298292,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.98026531 -45.86300386,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98206338 -45.86352335,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86821501 -45.85959306,-67.8666258 -45.8579551,-67.8677523 -45.8588443,-67.8689218 -45.8588293,-67.8688896 -45.8591954,-67.86509618 -45.85797591,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86269634 -45.8576934,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86119926 -45.8582863,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.85800456 -45.85865306,-67.8585362 -45.8586425,-67.8567231 -45.8591431,-67.8550386 -45.8605852,-67.85325633 -45.86047853,-67.8547168 -45.8600622,-67.8545237 -45.8589862,-67.8537083 -45.858508,-67.852335 -45.8585529,-67.85051371 -45.8587379,-67.8511226 -45.8587172,-67.8489661 -45.8581942,-67.8504252 -45.8565952,-67.84992667 -45.85649082,-67.851541 -45.8561394,-67.8511119 -45.8555416,-67.8497386 -45.8553249,-67.8490841 -45.8555341,-67.84737753 -45.85568862,-67.8480864 -45.8556163,-67.846477 -45.8561992,-67.8452325 -45.8556537,-67.84359994 -45.85582912,-67.8438914 -45.8557508,-67.8414237 -45.8563262,-67.8377545 -45.8563187,-67.83653581 -45.85644197,-67.8371108 -45.8561767,-67.8326368 -45.8556313,-67.83154193 -45.85548135,-67.8319716 -45.855437,-67.8292787 -45.855108200000004,-67.82760578 -45.8552439,-67.8277767 -45.8550036,-67.8251696 -45.8547271,-67.824676 -45.8544207,-67.82322995 -45.85451391,-67.8244078 -45.8540994,-67.8225088 -45.8518801,-67.82163737 -45.8516816,-67.8223801 -45.8515886,-67.8209639 -45.8504751,-67.8196657 -45.8504079,-67.81800483 -45.85079524,-67.8185713 -45.8505798,-67.816962 -45.851073,-67.8161895 -45.8523658,-67.81497943 -45.85259887,-67.816329 -45.8519921,-67.8167796 -45.8511701,-67.8158462 -45.8513121,-67.8150415 -45.8533148,-67.8138399 -45.8541293,-67.81217316 -45.85421245,-67.809999 -45.85395,-67.81053540000002 -45.8542265,-67.8125417 -45.8543386,-67.80813131 -45.85419968,-67.8064048 -45.853539,-67.8089046 -45.854361,-67.8103852 -45.8542265,-67.8098702 -45.8539126,-67.80441533 -45.8533642,-67.805289 -45.8529487,-67.8034651 -45.8522612,-67.8028214 -45.85306820000001,-67.8021669 -45.8529711,-67.80053473 -45.85338776,-67.8014696 -45.8535315,-67.7997422 -45.8537482,-67.7984655 -45.8529038,-67.79656279 -45.85297829;-67.79656279 -45.85297829,-67.8014696 -45.8535315,-67.7997422 -45.8537482,-67.7984655 -45.8529038,-67.80053473 -45.85338776,-67.805289 -45.8529487,-67.8034651 -45.8522612,-67.8028214 -45.85306820000001,-67.8021669 -45.8529711,-67.80441533 -45.8533642,-67.8067052 -45.8553548,-67.8072202 -45.8551381,-67.8064048 -45.853539,-67.80486959 -45.85565241,-67.807982 -45.8550559,-67.8067052 -45.8553548,-67.8072436 -45.85498762,-67.8098595 -45.8560647,-67.809999 -45.8550036,-67.8090441 -45.8548691,-67.80907829 -45.8565264,-67.8125632 -45.8568492,-67.810396 -45.8571033,-67.8101599 -45.8566923,-67.81224182 -45.85671416,-67.8138828 -45.856371,-67.8149986 -45.8564981,-67.816329 -45.8556985,-67.81537995 -45.85550384;-67.81537995 -45.85550384,-67.8138828 -45.856371,-67.8149986 -45.8564981,-67.816329 -45.8556985,-67.81224182 -45.85671416,-67.8125632 -45.8568492,-67.810396 -45.8571033,-67.8101599 -45.8566923,-67.80907829 -45.8565264,-67.8098595 -45.8560647,-67.809999 -45.8550036,-67.8090441 -45.8548691,-67.8072436 -45.85498762,-67.8093982 -45.8548467,-67.8103423 -45.8545851,-67.808851 -45.8544506,-67.8103101 -45.854219,-67.8097093 -45.8539126,-67.80813131 -45.85419968,-67.809999 -45.85395,-67.81053540000002 -45.8542265,-67.8125417 -45.8543386,-67.81217316 -45.85421245,-67.816329 -45.8519921,-67.8167796 -45.8511701,-67.8158462 -45.8513121,-67.8150415 -45.8533148,-67.8138399 -45.8541293,-67.81497943 -45.85259887,-67.8185713 -45.8505798,-67.816962 -45.851073,-67.8161895 -45.8523658,-67.81800483 -45.85079524,-67.8223801 -45.8515886,-67.8209639 -45.8504751,-67.8196657 -45.8504079,-67.82163737 -45.8516816,-67.8244078 -45.8540994,-67.8225088 -45.8518801,-67.82322995 -45.85451391,-67.8277767 -45.8550036,-67.8251696 -45.8547271,-67.824676 -45.8544207,-67.82760578 -45.8552439,-67.8319716 -45.855437,-67.8292787 -45.855108200000004,-67.83154193 -45.85548135,-67.8371108 -45.8561767,-67.8326368 -45.8556313,-67.83653581 -45.85644197,-67.8438914 -45.8557508,-67.8414237 -45.8563262,-67.8377545 -45.8563187,-67.84359994 -45.85582912,-67.8480864 -45.8556163,-67.846477 -45.8561992,-67.8452325 -45.8556537,-67.84737753 -45.85568862,-67.851541 -45.8561394,-67.8511119 -45.8555416,-67.8497386 -45.8553249,-67.8490841 -45.8555341,-67.84992667 -45.85649082,-67.8511226 -45.8587172,-67.8489661 -45.8581942,-67.8504252 -45.8565952,-67.85051371 -45.8587379,-67.8547168 -45.8600622,-67.8545237 -45.8589862,-67.8537083 -45.858508,-67.852335 -45.8585529,-67.85325633 -45.86047853,-67.8585362 -45.8586425,-67.8567231 -45.8591431,-67.8550386 -45.8605852,-67.85800456 -45.85865306,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.86119926 -45.8582863,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86269634 -45.8576934,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86509618 -45.85797591,-67.8666365 -45.8577982,-67.8680527 -45.857716,-67.86752908 -45.85773082,-67.8694689 -45.8577534,-67.8703272 -45.8578879,-67.8705525 -45.8574694,-67.8710139 -45.8575441,-67.87029294 -45.85782787,-67.8721619 -45.8576637,-67.8734279 -45.8573798,-67.8740823 -45.8579103,-67.87227986 -45.85836679,-67.8758311 -45.8590012,-67.8755307 -45.858777,-67.8718829 -45.8588144,-67.8721619 -45.8576637,-67.8733528 -45.857462,-67.8739536 -45.8579028,-67.87446619 -45.85953534,-67.875917 -45.8590236,-67.8765607 -45.8587098,-67.8784597 -45.8588443,-67.87771797 -45.85914466,-67.8790283 -45.8588293,-67.880466 -45.8587397,-67.8813028 -45.8593598,-67.88077392 -45.85953999,-67.8814316 -45.8592926,-67.8808415 -45.8591357,-67.880863 -45.8587322,-67.8817642 -45.858239,-67.8850043 -45.8580522,-67.88402968 -45.85834964,-67.887429 -45.855564,-67.8882551 -45.8548691,-67.8894138 -45.853808,-67.8920853 -45.8535689,-67.8916454 -45.8538678,-67.8897357 -45.85395,-67.88910 -45.85436,-67.8875685 -45.8562589,-67.885799 -45.8571033,-67.88544 -45.8578281,-67.88523 -45.85794,-67.88581092 -45.85597227,-67.887429 -45.855564,-67.8894138 -45.853808,-67.8932333 -45.8533447,-67.8969455 -45.8545851,-67.8963768 -45.8546599,-67.89483427 -45.85484841,-67.9008508 -45.8548093,-67.8990161 -45.8545403,-67.898823 -45.8538678,-67.8965485 -45.8545553,-67.90022567 -45.85540767,,-67.90067511 -45.8549717,-67.904284 -45.8564084,-67.9033184 -45.8552726,-67.9019022 -45.8551232,-67.90400196 -45.85653031,,-67.90333441 -45.85910192;-67.90333441 -45.85910192,,-67.90400196 -45.85653031,-67.90773330000002 -45.8580522,-67.9073417 -45.8579177,-67.9068965 -45.8568567,-67.9053408 -45.8563822,-67.90707943 -45.8582017,-67.9102653 -45.8586986,-67.9081625 -45.8581195,-67.90964669 -45.85881191,-67.9112792 -45.8592776,-67.9102921 -45.8588293,-67.9105067 -45.8586425,-67.91058213 -45.85962973,-67.9145408 -45.8594047,-67.9124916 -45.858777,-67.9112792 -45.8592776,-67.91347499 -45.85938782,-67.9153347 -45.8605702,-67.9157317 -45.8599725,-67.9146159 -45.859457,-67.91412974 -45.86109479,-67.9219651 -45.8610335,-67.9157424 -45.8609887,-67.92116295 -45.86077528,-67.9235315 -45.8601219,-67.9222655 -45.8604731,-67.92204432 -45.86025045,-67.9253769 -45.8604208,-67.9236388 -45.8595317,-67.9233384 -45.8597857,-67.92472033 -45.86078317,-67.9288423 -45.860757,-67.9286063 -45.8609812,-67.9269433 -45.8608168,-67.9254305 -45.8610559,-67.9256237 -45.8606898,-67.92827234 -45.86082887,-67.9307091 -45.86097370000001,-67.9287457 -45.8609588,-67.9288423 -45.860757,-67.92973166 -45.86112334,-67.9343569 -45.8614145,-67.9335523 -45.861549,-67.9334021 -45.8611381,-67.9309666 -45.8609214,-67.93332777 -45.86169272,-67.9375219 -45.8620421,-67.9357517 -45.861085800000005,-67.9346144 -45.8614519,-67.93652197 -45.86222667,-67.9388309 -45.8607794,-67.938112 -45.8611007,-67.9377472 -45.860899,-67.9362881 -45.8614743,-67.9374897 -45.8619749,-67.93809539 -45.86091501,-67.9389811 -45.8623559,-67.9389596 -45.8618329,-67.9381979 -45.8610783,-67.9390669 -45.8607794,-67.93749455 -45.86270022,-67.9407942 -45.8630844,-67.9403758 -45.8621878,-67.9386914 -45.8624792,-67.94016816 -45.86304785,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94026881 -45.86394522,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.9397787 -45.86446671,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.93820898 -45.86621382,,-67.93822649 -45.86645361,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2515,S2221,S946,S2698,S2663,S2713</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 943,S167,Linea 946,S2147,Linea 964,S2146,Linea 949,S31,Linea 950,S2094,Linea 1711,S33,Linea 1222,S927,Linea 1754,S115,Linea 1085,S944,Linea 1077,S2667,Linea 1078,S793,Linea 1076,S791,Linea 1221,S760,Linea 1073,S794,Linea 1297,S759,Linea 1306,S834,Linea 1307,S839,Linea 1313,S725,Linea 1310,S744,Linea 1321,S747,Linea 1320,S2493,Linea 1325,S935,Linea 1257,S2515;S2515,Linea 1257,S935,Linea 1325,S2493,Linea 1320,S747,Linea 1324,S752,Linea 1326,S2640,Linea 1246,S2627,Linea 1247,S2657,Linea 1260,S925,Linea 1251,S946,Linea 1250,S2221;S2221,Linea 1250,S946;S946,Linea 1251,S925,Linea 1337,S924,Linea 1330,S2717,Linea 1333,S2718,Linea 1334,S2698;S2698,Linea 1335,S2711,Linea 1336,S2694,Linea 608,S2619,Linea 606,S2683,Linea 603,S2663;S2663,Linea 603,S2683,Linea 601,S2689,Linea 605,S581,Linea 610,S2688,Linea 1869,S2693,Linea 1870,S2703,Linea 1873,S2713;S2713,Linea 1873,S2703,Linea 1870,S2693,Linea 1869,S2688,Linea 610,S581,Linea 605,S2689,Linea 599,S2196,Linea 600,S2324,Linea 598,S4,Linea 597,S2293,Linea 596,S17,Linea 594,S2259,Linea 592,S2129,Linea 591,S949,Linea 579,S2132,Linea 578,S2443,Linea 581,S938,Linea 582,S849,Linea 584,S2168,Linea 1617,S2167,Linea 736,S2110,Linea 930,S2111,Linea 931,S645,Linea 932,S78,Linea 940,S56,Linea 944,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.93512028 -45.8793768,-67.9380155 -45.8812404,-67.938627 -45.880852,-67.9384768 -45.8805682,-67.9371035 -45.8800827,-67.9358482 -45.8797093,-67.9335737 -45.8797616,-67.934432 -45.8794255,-67.9350007 -45.8792835,-67.9357088 -45.8792686,-67.93588984 -45.88149225,-67.9369104 -45.8822487,-67.9367441 -45.8819686,-67.9385787 -45.881274,-67.938568 -45.8809641,-67.9379243 -45.8811844,-67.93623372 -45.88237227,-67.9369962 -45.8822636,-67.9367441 -45.8819686,-67.9343677 -45.8832719,-67.93288041 -45.88347512,,-67.93297197 -45.88384007,-67.9325545 -45.8880964,-67.9324257 -45.8875363,-67.933048 -45.8868642,-67.9335093 -45.8836304,-67.93195275 -45.88880085,,-67.93184093 -45.88869985,-67.929883 -45.8876782,-67.9306018 -45.8878724,-67.9317605 -45.8883727,-67.9326189 -45.888201,-67.92838162 -45.88770662,-67.9286492 -45.8892166,-67.9288638 -45.8878724,-67.9292393 -45.8876931,-67.92758265 -45.88993498,-67.929368 -45.8925994,-67.9296148 -45.8919423,-67.9287994 -45.8913897,-67.9285097 -45.8910014,-67.9286277 -45.8901127,-67.92819602 -45.89300211,-67.9235637 -45.895743,-67.9241538 -45.8953249,-67.9267287 -45.8949142,-67.9271579 -45.8944961,-67.9267287 -45.8942048,-67.9257309 -45.8936448,-67.9256558 -45.8930698,-67.9268682 -45.8923604,-67.9289711 -45.8934208,-67.9293036 -45.893361,-67.92261639 -45.89612501,-67.9221904 -45.8981548,-67.9232204 -45.8984983,-67.9230487 -45.8980652,-67.9224908 -45.89755,-67.9236388 -45.8964449,-67.92046749 -45.89809236,-67.9312027 -45.9008128,-67.9299688 -45.9015296,-67.9282737 -45.9003723,-67.9263103 -45.8994316,-67.9232204 -45.8984983,-67.9221046 -45.8981623,-67.93028301 -45.90068278,-67.9313636 -45.9007755,-67.9299688 -45.9015296,-67.9309559 -45.9024778,-67.931664 -45.9022687,-67.9323721 -45.9010144,-67.9335737 -45.900447,-67.9371786 -45.9012832,-67.9379082 -45.9021045,-67.9396677 -45.9026719,-67.941041 -45.9025674,-67.94048121 -45.90255833,-67.9417276 -45.9060912,-67.9426718 -45.9047623,-67.9416203 -45.9047773,-67.9445601 -45.9035379,-67.942543 -45.9026271,-67.94070253 -45.90708056,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.93482704 -45.9074612,-67.922008 -45.9097193,-67.9201412 -45.9109884,-67.9196906 -45.9109585,-67.9200125 -45.9097492,-67.9210854 -45.909585,-67.9227591 -45.90851,-67.9267287 -45.9077933,-67.9317927 -45.9075544,-67.9344964 -45.9080023,-67.9353762 -45.9076142,-67.92132124 -45.90950332,-67.9221797 -45.9097492,-67.9201412 -45.9109884,-67.91924 -45.911063,-67.9191971 -45.9115109,-67.91938339 -45.91141146,-67.9150558 -45.9126903,-67.9162359 -45.9122126,-67.9164505 -45.9115408,-67.9181457 -45.910645,-67.9202914 -45.9111078,-67.91361731 -45.91301639,-67.9115582 -45.9126157,-67.9142189 -45.9121827,-67.9144764 -45.9124216,-67.91006671 -45.91285318,-67.9106355 -45.9125261,-67.9076529 -45.9123768,-67.9041553 -45.9118991,-67.9033184 -45.9115706,-67.9007006 -45.9119737,-67.8999066 -45.9124515,-67.89855752 -45.91238198,-67.8991771 -45.9121305,-67.8986728 -45.9117274,-67.8980076 -45.9113691,-67.8973746 -45.9114288,-67.8960335 -45.9121156,-67.89466992 -45.91293356;-67.89466992 -45.91293356,-67.8991771 -45.9121305,-67.8986728 -45.9117274,-67.8980076 -45.9113691,-67.8973746 -45.9114288,-67.8960335 -45.9121156,-67.89855752 -45.91238198,-67.9106355 -45.9125261,-67.9076529 -45.9123768,-67.9041553 -45.9118991,-67.9033184 -45.9115706,-67.9007006 -45.9119737,-67.8999066 -45.9124515,-67.91006671 -45.91285318,-67.9115582 -45.9126157,-67.9142189 -45.9121827,-67.9144764 -45.9124216,-67.91361731 -45.91301639,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.9049706 -45.9149894,-67.9050565 -45.9146311,-67.908597 -45.9143027,-67.9105282 -45.9135114,-67.9126954 -45.9130636,-67.9141974 -45.9123171,-67.90949828 -45.91775832,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.90527 -45.9149745,-67.9052067 -45.9146162,-67.9025245 -45.9141235,-67.90171 -45.9145565,-67.89907 -45.9147953,-67.8979325 -45.9163329,-67.8972459 -45.916945,-67.8961945 -45.916945,-67.896 -45.9166,-67.89415644 -45.91643339,-67.8951859 -45.9189752,-67.8956151 -45.9181094,-67.8975034 -45.9169749,-67.8979325 -45.9163329,-67.8972459 -45.916945,-67.8964305 -45.9169151,-67.8960013 -45.9166017,-67.8948966 -45.91911867,-67.895422 -45.9189901,-67.8929543 -45.9186468,-67.89164408 -45.91850265,-67.892257 -45.917781,-67.8922355 -45.9171241,-67.8925788 -45.9166017,-67.8926325 -45.9163553,-67.8917956 -45.9155044,-67.8909266 -45.914855,-67.8902507 -45.9144445,-67.8900683 -45.9137279,-67.8889096 -45.913601,-67.888813 -45.9138473,-67.88780562 -45.91450171,-67.8846073 -45.9123171,-67.8879547 -45.9129889,-67.8887486 -45.9136607,-67.88302674 -45.91253107,-67.8890276 -45.9167659,-67.8884053 -45.9153477,-67.8880405 -45.9137055,-67.8874612 -45.9131382,-67.8845859 -45.9125112,-67.88832586 -45.91746828;-67.88832586 -45.91746828,-67.8890276 -45.9167659,-67.8884053 -45.9153477,-67.8880405 -45.9137055,-67.8874612 -45.9131382,-67.8845859 -45.9125112,-67.88302674 -45.91253107;-67.88302674 -45.91253107,-67.8846073 -45.9123171,-67.8879547 -45.9129889,-67.8887486 -45.9136607,-67.88780562 -45.91450171,-67.8887486 -45.9139369,-67.8892422 -45.9133771,-67.889092 -45.9088982,-67.8895211 -45.9081964,-67.8884697 -45.9068527,-67.8891134 -45.9060464,-67.8899932 -45.905494,-67.890079 -45.9049863,-67.8895855 -45.9049415,-67.8884912 -45.9054641,-67.88690397 -45.90593083,-67.8877831 -45.9058523,-67.8869033 -45.9059867,-67.8840923 -45.9048668,-67.8834271 -45.9042397,-67.8832769 -45.9030601,-67.8820109 -45.9031497,-67.8811312 -45.903299,-67.8780627 -45.9027018,-67.8772688 -45.9023733,-67.8778911 -45.9022389,-67.87749311 -45.90223614,-67.8778911 -45.9022389,-67.8772688 -45.9023733,-67.8762174 -45.9020895,-67.8762174 -45.9018506,-67.875402 -45.9018954,-67.87401 -45.90242679,-67.875402 -45.9018954,-67.8762174 -45.9018506,-67.8767323 -45.9016117,-67.8774405 -45.9009995,-67.8778481 -45.8999691,-67.87600509 -45.90013168;-67.87600509 -45.90013168,-67.8778481 -45.8999691,-67.8795862 -45.8996556,-67.8816676 -45.8998198,-67.8823113 -45.899342,-67.88283131 -45.8994995,-67.8816462 -45.8976545,-67.8819466 -45.8992972,-67.8823757 -45.8992374,-67.88049412 -45.89765426,-67.8799939 -45.8961761,-67.8810668 -45.8968855,-67.881496 -45.8974007,-67.87842608 -45.89585515,-67.8782558 -45.8919497,-67.8778267 -45.8923828,-67.8780413 -45.8938315,-67.8791893 -45.8953398,-67.87768072 -45.89180609,-67.877419 -45.893361,-67.8777194 -45.8924724,-67.8782558 -45.8919497,-67.87597121 -45.89385401;-67.87597121 -45.89385401,-67.877419 -45.893361,-67.8777194 -45.8924724,-67.8782558 -45.8919497,-67.87768072 -45.89180609,-67.8788996 -45.8901426,-67.877934 -45.8900903,-67.8774834 -45.8904786,-67.8777945 -45.8925098,-67.8783524 -45.8919348,-67.87813787 -45.88993585,-67.8789854 -45.8901127,-67.8777838 -45.8901052,-67.8751981 -45.8927935,-67.8739536 -45.8942571,-67.87230402 -45.89457162,-67.8727734 -45.8946678,-67.8694153 -45.8954742,-67.8682566 -45.89504860000001,-67.86797017 -45.89505687,-67.8685999 -45.895295,-67.8667116 -45.8956833,-67.8646088 -45.8956833,-67.86301998 -45.89560501,-67.8636646 -45.8957132,-67.8630209 -45.8961014,-67.8661537 -45.8966391,-67.86618307 -45.89684928,-67.8667545 -45.8970572,-67.8640938 -45.8981025,-67.8651237 -45.89867,-67.86456115 -45.89914262;-67.86456115 -45.89914262,-67.8667545 -45.8970572,-67.8640938 -45.8981025,-67.8651237 -45.89867,-67.86618307 -45.89684928,-67.8636646 -45.8957132,-67.8630209 -45.8961014,-67.8661537 -45.8966391,-67.86301998 -45.89560501,-67.8685999 -45.895295,-67.8667116 -45.8956833,-67.8646088 -45.8956833,-67.86797017 -45.89505687,-67.8727734 -45.8946678,-67.8694153 -45.8954742,-67.8682566 -45.89504860000001,-67.87230402 -45.89457162,-67.8789854 -45.8901127,-67.8777838 -45.8901052,-67.8751981 -45.8927935,-67.8739536 -45.8942571,-67.87813787 -45.88993585,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87484305 -45.89067788,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87661058 -45.88889945,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.88085052 -45.88709026,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88304639 -45.88588109,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88477851 -45.88530377,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88725199 -45.88498287,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88986813 -45.88509226,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.89478887 -45.88442779,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89811074 -45.88424629,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.90293219 -45.8836944,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90362098 -45.8874036,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90705336 -45.88840606,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90594775 -45.88423937,,-67.90591516 -45.88446218,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90970498 -45.88326091,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91930941 -45.88137118,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.92260289 -45.87981886,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2465,S2658,S2433,S2366,S2432,S930,S835</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 943,S167,Linea 946,S2147,Linea 966,S2465;S2465,Linea 968,S387,Linea 970,S316,Linea 969,S39,Linea 957,S36,Linea 1027,S2695,Linea 1026,S43,Linea 1088,S2707,Linea 1098,S42,Linea 1856,S2724,Linea 1092,S163,Linea 1854,S66,Linea 1152,S2658;S2658,Linea 1145,S844,Linea 1135,S914,Linea 1134,S2433;S2433,Linea 1134,S914,Linea 1274,S2180,Linea 1275,S2486,Linea 1276,S2034,Linea 1281,S929,Linea 1280,S2366;S2366,Linea 1280,S929,Linea 1279,S2432;S2432,Linea 1279,S929,Linea 1282,S910,Linea 1284,S913,Linea 1285,S2286,Linea 1286,S832,Linea 1287,S54,Linea 1288,S907,Linea 1289,S930;S930,Linea 1290,S835;S835,Linea 1290,S930,Linea 1289,S907,Linea 1288,S54,Linea 1287,S832,Linea 1150,S47,Linea 1153,S65,Linea 1154,S63,Linea 1156,S66,Linea 1854,S163,Linea 1092,S2724,Linea 1856,S42,Linea 1098,S2707,Linea 1088,S43,Linea 1026,S2695,Linea 1027,S36,Linea 957,S39,Linea 969,S316,Linea 970,S387,Linea 968,S2465,Linea 966,S2147,Linea 946,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.93512028 -45.8793768,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93938002 -45.87863178;-67.93938002 -45.87863178,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.94258106 -45.87928487,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.9459034 -45.88040255,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.94607409 -45.88311995,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94628753 -45.88560005,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94746568 -45.88694764,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94972726 -45.88693813,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.95178221 -45.88666191,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95650174 -45.8868325,-67.9573059 -45.8868268,-67.956748 -45.8864908,-67.9563725 -45.8857215,-67.9556644 -45.8849971,-67.9546167 -45.88506443,-67.960428 -45.8852436,-67.9597843 -45.8853855,-67.9578102 -45.8852959,-67.9558897 -45.8849448,-67.95958113 -45.88533853,-67.9643977 -45.8867746,-67.9641402 -45.8867895,-67.9629064 -45.8855274,-67.9625845 -45.8842055,-67.9620588 -45.8840412,-67.9608893 -45.8848926,-67.96291589 -45.88644251,-67.9671872 -45.8881412,-67.9659748 -45.8870061,-67.9642153 -45.8869314,-67.9642582 -45.8866849,-67.96633372 -45.88873533;-67.96633372 -45.88873533,-67.9702985 -45.892002,-67.9693437 -45.8927189,-67.9695046 -45.8920393,-67.9694617 -45.8909565,-67.9689038 -45.8902247,-67.9675949 -45.8891494,-67.9695987 -45.89181892,-67.9699337 -45.8946379,-67.9693973 -45.8950411,-67.9688287 -45.894847,-67.9686248 -45.893936,-67.9694724 -45.8926591,-67.9702985 -45.892002,-67.96939983 -45.89469974,-67.9698801 -45.8941675,-67.9696119 -45.8937568,-67.9699659 -45.8935029,-67.96948958 -45.89363794;-67.96948958 -45.89363794,-67.9698801 -45.8941675,-67.9696119 -45.8937568,-67.9699659 -45.8935029,-67.96939983 -45.89469974,-67.9721761 -45.8962209,-67.9716182 -45.8947873,-67.9710388 -45.8947723,-67.97161551 -45.8965517,-67.9729271 -45.8958177,-67.9726696 -45.8949515,-67.97168684 -45.8946769,-67.9725194 -45.8940704,-67.9735279 -45.8935179,-67.97316911 -45.89352066,-67.9749441 -45.8933834,-67.9761243 -45.8929055,-67.9766607 -45.892353,-67.97648439 -45.89266109,-67.9806304 -45.8917854,-67.9784203 -45.8917854,-67.9782271 -45.8926517,-67.98023252 -45.89201679;-67.98023252 -45.89201679,-67.9806304 -45.8917854,-67.9784203 -45.8917854,-67.9782271 -45.8926517,-67.97648439 -45.89266109,-67.9793 -45.8940107,-67.9789138 -45.8935925,-67.9785919 -45.8927711,-67.9782271 -45.8926517,-67.97886335 -45.8939859;-67.97886335 -45.8939859,-67.9793 -45.8940107,-67.9789138 -45.8935925,-67.9785919 -45.8927711,-67.9782271 -45.8926517,-67.97648439 -45.89266109,-67.9748368 -45.8912328,-67.9752231 -45.891427,-67.9759526 -45.8921289,-67.9767251 -45.8924575,-67.97300504 -45.89135,-67.9743755 -45.8910088,-67.9777122 -45.890165,-67.97751751 -45.89013616,-67.9778516 -45.8901202,-67.977283 -45.8901052,-67.9767358 -45.889926,-67.97500117 -45.89011334,-67.9755127 -45.8898364,-67.9753196 -45.8896348,-67.9751372 -45.889239,-67.9736996 -45.8884922,-67.9752123 -45.8886192,-67.97417558 -45.88870119,-67.9753625 -45.8886192,-67.9764462 -45.8884623,-67.9771543 -45.8881561,-67.9769289 -45.888649,-67.97595558 -45.88889979,-67.9770148 -45.8886117,-67.9772186 -45.8879396,-67.9777443 -45.8870285,-67.97698555 -45.88678202,-67.98136 -45.8871704,-67.9796433 -45.8867148,-67.9789674 -45.8862518,-67.9784203 -45.8865057,-67.98086798 -45.88739413;-67.98086798 -45.88739413,-67.9825723 -45.8872002,-67.9846001 -45.8867148,-67.9850078 -45.8864385,-67.98442531 -45.88655141;-67.98442531 -45.88655141,-67.9825723 -45.8872002,-67.9846001 -45.8867148,-67.9850078 -45.8864385,-67.98086798 -45.88739413,-67.98136 -45.8871704,-67.9796433 -45.8867148,-67.9789674 -45.8862518,-67.9784203 -45.8865057,-67.97698555 -45.88678202,-67.9770148 -45.8886117,-67.9772186 -45.8879396,-67.9777443 -45.8870285,-67.97595558 -45.88889979,-67.9753625 -45.8886192,-67.9764462 -45.8884623,-67.9771543 -45.8881561,-67.9769289 -45.888649,-67.97417558 -45.88870119,-67.9752874 -45.8886341,-67.9738069 -45.8884922,-67.9698479 -45.8860651,-67.9702234 -45.8859307,-67.96952973 -45.8860392,-67.9702342 -45.8858709,-67.9697192 -45.8860352,-67.9691613 -45.8857589,-67.96828667 -45.88589528,-67.9689896 -45.8855572,-67.9684317 -45.8850942,-67.9680133 -45.8843399,-67.9672301 -45.8837872,-67.9670477 -45.8843548,-67.96615149 -45.88487087,-67.9642582 -45.8866849,-67.9660714 -45.8869613,-67.9663503 -45.8865505,-67.9662859 -45.88549,-67.9665112 -45.8837798,-67.9671657 -45.8837275,-67.9670477 -45.8843548,-67.96291589 -45.88644251,-67.9643977 -45.8867746,-67.9641402 -45.8867895,-67.9629064 -45.8855274,-67.9625845 -45.8842055,-67.9620588 -45.8840412,-67.9608893 -45.8848926,-67.95958113 -45.88533853,-67.960428 -45.8852436,-67.9597843 -45.8853855,-67.9578102 -45.8852959,-67.9558897 -45.8849448,-67.9546167 -45.88506443,-67.9573059 -45.8868268,-67.956748 -45.8864908,-67.9563725 -45.8857215,-67.9556644 -45.8849971,-67.95650174 -45.8868325,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95178221 -45.88666191,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.94972726 -45.88693813,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94746568 -45.88694764,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94628753 -45.88560005,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94607409 -45.88311995,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.9459034 -45.88040255,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.94258106 -45.87928487,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S1008,S909</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 1211,S172,Linea 768,S2417,Linea 759,S402,Linea 760,S2468,Linea 763,S395,Linea 764,S338,Linea 773,S2407,Linea 850,S2056,Linea 849,S2716,Linea 853,S2504,Linea 854,S997,Linea 1836,S353,Linea 1361,S2006,Linea 1363,S2009,Linea 1365,S354,Linea 1421,S2255,Linea 568,S882,Linea 622,S523,Linea 215,S788,Linea 216,S2676,Linea 217,S2396,Linea 240,S2395,Linea 243,S1005,Linea 397,S543,Linea 399,S2288,Linea 247,S2418,Linea 249,S611,Linea 250,E291,Linea 252,S853,Linea 254,S851,Linea 257,S591,Linea 258,S876,Linea 263,S886,Linea 264,S868,Linea 270,S869,Linea 278,S864,Linea 281,S850,Linea 280,S856,Linea 289,S884,Linea 290,S1027,Linea 291,S1007,Linea 293,S1025,Linea 292,S1008;S1008,Linea 292,S1025,Linea 293,S1007,Linea 291,S1027,Linea 290,S884,Linea 289,S856,Linea 280,S850,Linea 281,S864,Linea 278,S869,Linea 270,S868,Linea 264,S886,Linea 263,S876,Linea 258,S591,Linea 257,S851,Linea 254,S853,Linea 252,E291,Linea 250,S611,Linea 249,S2418,Linea 247,S2288,Linea 399,S543,Linea 397,S1005,Linea 243,S2395,Linea 240,S2396,Linea 217,S2676,Linea 216,S788,Linea 215,S523,Linea 622,S882,Linea 568,S2255,Linea 1421,S354,Linea 1365,S2009,Linea 1363,S2006,Linea 1361,S353,Linea 1836,S997,Linea 854,S2504,Linea 853,S2716,Linea 849,S2056,Linea 850,S2407,Linea 773,S338,Linea 764,S395,Linea 763,S2468,Linea 760,S402,Linea 759,S2417,Linea 768,S172,Linea 1211,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 943,S167,Linea 946,S2147,Linea 966,S2465,Linea 968,S387,Linea 970,S316,Linea 969,S39,Linea 957,S36,Linea 1027,S2695,Linea 1026,S43,Linea 1088,S2707,Linea 1098,S42,Linea 1856,S2724,Linea 1092,S163,Linea 1854,S66,Linea 1152,S2658,Linea 1151,S909;S909,Linea 1151,S2658,Linea 1152,S66,Linea 1854,S163,Linea 1092,S2724,Linea 1856,S42,Linea 1098,S2707,Linea 1088,S43,Linea 1026,S2695,Linea 1027,S36,Linea 957,S39,Linea 969,S316,Linea 970,S387,Linea 968,S2465,Linea 966,S2147,Linea 946,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.95709848 -45.86769228,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95610675 -45.87170205,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95650202 -45.87386891,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95720623 -45.87256309,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.96214261 -45.87344787,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96572509 -45.87368099,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.9672039 -45.87497495,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.96992116 -45.87035971,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.9688479 -45.86924263,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.96898996 -45.86789944,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.97170451 -45.86764851,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97781889 -45.86412305,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97692655 -45.86298292,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.98026531 -45.86300386,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98206338 -45.86352335,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86821501 -45.85959306,-67.8666258 -45.8579551,-67.8677523 -45.8588443,-67.8689218 -45.8588293,-67.8688896 -45.8591954,-67.86509618 -45.85797591,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86269634 -45.8576934,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86119926 -45.8582863,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.85800456 -45.85865306,-67.8585362 -45.8586425,-67.8567231 -45.8591431,-67.8550386 -45.8605852,-67.85325633 -45.86047853,-67.8547168 -45.8600622,-67.8545237 -45.8589862,-67.8537083 -45.858508,-67.852335 -45.8585529,-67.85051371 -45.8587379,-67.8511226 -45.8587172,-67.8489661 -45.8581942,-67.8504252 -45.8565952,-67.84992667 -45.85649082,-67.851541 -45.8561394,-67.8511119 -45.8555416,-67.8497386 -45.8553249,-67.8490841 -45.8555341,-67.84737753 -45.85568862,-67.8480864 -45.8556163,-67.846477 -45.8561992,-67.8452325 -45.8556537,-67.84359994 -45.85582912,-67.8438914 -45.8557508,-67.8414237 -45.8563262,-67.8377545 -45.8563187,-67.83653581 -45.85644197,-67.8371108 -45.8561767,-67.8326368 -45.8556313,-67.83154193 -45.85548135,-67.8319716 -45.855437,-67.8292787 -45.855108200000004,-67.82760578 -45.8552439,-67.8277767 -45.8550036,-67.8251696 -45.8547271,-67.824676 -45.8544207,-67.82322995 -45.85451391,-67.8244078 -45.8540994,-67.8225088 -45.8518801,-67.82163737 -45.8516816,-67.8223801 -45.8515886,-67.8209639 -45.8504751,-67.8196657 -45.8504079,-67.81800483 -45.85079524,-67.8185713 -45.8505798,-67.816962 -45.851073,-67.8161895 -45.8523658,-67.81497943 -45.85259887,-67.816329 -45.8519921,-67.8167796 -45.8511701,-67.8158462 -45.8513121,-67.8150415 -45.8533148,-67.8138399 -45.8541293,-67.81217316 -45.85421245,-67.809999 -45.85395,-67.81053540000002 -45.8542265,-67.8125417 -45.8543386,-67.80813131 -45.85419968,-67.8064048 -45.853539,-67.8089046 -45.854361,-67.8103852 -45.8542265,-67.8098702 -45.8539126,-67.80441533 -45.8533642,-67.805289 -45.8529487,-67.8034651 -45.8522612,-67.8028214 -45.85306820000001,-67.8021669 -45.8529711,-67.80053473 -45.85338776,-67.8017056 -45.8526423,-67.8015232 -45.8523658,-67.79962420000001 -45.8525451,-67.7978754 -45.8519772,-67.7946138 -45.8521416,-67.79294152 -45.85225742,-67.7932727 -45.8519249,-67.790097 -45.851768,-67.7882087 -45.8523583,-67.7874362 -45.8529785,-67.78639604 -45.85350214,-67.7872217 -45.8538753,-67.7837884 -45.8561618,-67.7830803 -45.8561095,-67.78170238 -45.85610146,-67.7824903 -45.8564233,-67.7802157 -45.8580149,-67.7796257 -45.8571108,-67.7786064 -45.8565802,-67.7779841 -45.85664,-67.7787888 -45.8561394,-67.77831934 -45.85627828,-67.7830482 -45.8531654,-67.7812994 -45.854204,-67.779969 -45.8559451,-67.78248056 -45.85294029;-67.78248056 -45.85294029,-67.7830482 -45.8531654,-67.7812994 -45.854204,-67.779969 -45.8559451,-67.77831934 -45.85627828,-67.7824903 -45.8564233,-67.7802157 -45.8580149,-67.7796257 -45.8571108,-67.7786064 -45.8565802,-67.7779841 -45.85664,-67.7787888 -45.8561394,-67.78170238 -45.85610146,-67.7872217 -45.8538753,-67.7837884 -45.8561618,-67.7830803 -45.8561095,-67.78639604 -45.85350214,-67.7932727 -45.8519249,-67.790097 -45.851768,-67.7882087 -45.8523583,-67.7874362 -45.8529785,-67.79294152 -45.85225742,-67.8017056 -45.8526423,-67.8015232 -45.8523658,-67.79962420000001 -45.8525451,-67.7978754 -45.8519772,-67.7946138 -45.8521416,-67.80053473 -45.85338776,-67.805289 -45.8529487,-67.8034651 -45.8522612,-67.8028214 -45.85306820000001,-67.8021669 -45.8529711,-67.80441533 -45.8533642,-67.8064048 -45.853539,-67.8089046 -45.854361,-67.8103852 -45.8542265,-67.8098702 -45.8539126,-67.80813131 -45.85419968,-67.809999 -45.85395,-67.81053540000002 -45.8542265,-67.8125417 -45.8543386,-67.81217316 -45.85421245,-67.816329 -45.8519921,-67.8167796 -45.8511701,-67.8158462 -45.8513121,-67.8150415 -45.8533148,-67.8138399 -45.8541293,-67.81497943 -45.85259887,-67.8185713 -45.8505798,-67.816962 -45.851073,-67.8161895 -45.8523658,-67.81800483 -45.85079524,-67.8223801 -45.8515886,-67.8209639 -45.8504751,-67.8196657 -45.8504079,-67.82163737 -45.8516816,-67.8244078 -45.8540994,-67.8225088 -45.8518801,-67.82322995 -45.85451391,-67.8277767 -45.8550036,-67.8251696 -45.8547271,-67.824676 -45.8544207,-67.82760578 -45.8552439,-67.8319716 -45.855437,-67.8292787 -45.855108200000004,-67.83154193 -45.85548135,-67.8371108 -45.8561767,-67.8326368 -45.8556313,-67.83653581 -45.85644197,-67.8438914 -45.8557508,-67.8414237 -45.8563262,-67.8377545 -45.8563187,-67.84359994 -45.85582912,-67.8480864 -45.8556163,-67.846477 -45.8561992,-67.8452325 -45.8556537,-67.84737753 -45.85568862,-67.851541 -45.8561394,-67.8511119 -45.8555416,-67.8497386 -45.8553249,-67.8490841 -45.8555341,-67.84992667 -45.85649082,-67.8511226 -45.8587172,-67.8489661 -45.8581942,-67.8504252 -45.8565952,-67.85051371 -45.8587379,-67.8547168 -45.8600622,-67.8545237 -45.8589862,-67.8537083 -45.858508,-67.852335 -45.8585529,-67.85325633 -45.86047853,-67.8585362 -45.8586425,-67.8567231 -45.8591431,-67.8550386 -45.8605852,-67.85800456 -45.85865306,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.86119926 -45.8582863,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86269634 -45.8576934,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86509618 -45.85797591,-67.8666258 -45.8579551,-67.8677523 -45.8588443,-67.8689218 -45.8588293,-67.8688896 -45.8591954,-67.86821501 -45.85959306,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86513556 -45.86046435,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.98715669 -45.86146692,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98206338 -45.86352335,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98026531 -45.86300386,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.97692655 -45.86298292,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97781889 -45.86412305,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97170451 -45.86764851,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.96898996 -45.86789944,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.9688479 -45.86924263,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.96992116 -45.87035971,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.9672039 -45.87497495,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.96572509 -45.87368099,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96214261 -45.87344787,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.95720623 -45.87256309,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95650202 -45.87386891,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95610675 -45.87170205,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95709848 -45.86769228,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.93512028 -45.8793768,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.94258106 -45.87928487,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.9459034 -45.88040255,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.94607409 -45.88311995,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94628753 -45.88560005,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94746568 -45.88694764,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94972726 -45.88693813,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.95178221 -45.88666191,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95650174 -45.8868325,-67.9573059 -45.8868268,-67.956748 -45.8864908,-67.9563725 -45.8857215,-67.9556644 -45.8849971,-67.9546167 -45.88506443,-67.960428 -45.8852436,-67.9597843 -45.8853855,-67.9578102 -45.8852959,-67.9558897 -45.8849448,-67.95958113 -45.88533853,-67.9643977 -45.8867746,-67.9641402 -45.8867895,-67.9629064 -45.8855274,-67.9625845 -45.8842055,-67.9620588 -45.8840412,-67.9608893 -45.8848926,-67.96291589 -45.88644251,-67.9671872 -45.8881412,-67.9659748 -45.8870061,-67.9642153 -45.8869314,-67.9642582 -45.8866849,-67.96633372 -45.88873533,-67.9670262 -45.8881263,-67.9660714 -45.8869613,-67.9657602 -45.8876259,-67.9651165 -45.8877678,-67.9650307 -45.887947,-67.964462 -45.8880815,-67.96290254 -45.88863388;-67.96290254 -45.88863388,-67.9670262 -45.8881263,-67.9660714 -45.8869613,-67.9657602 -45.8876259,-67.9651165 -45.8877678,-67.9650307 -45.887947,-67.964462 -45.8880815,-67.96633372 -45.88873533,-67.9671872 -45.8881412,-67.9659748 -45.8870061,-67.9642153 -45.8869314,-67.9642582 -45.8866849,-67.96291589 -45.88644251,-67.9643977 -45.8867746,-67.9641402 -45.8867895,-67.9629064 -45.8855274,-67.9625845 -45.8842055,-67.9620588 -45.8840412,-67.9608893 -45.8848926,-67.95958113 -45.88533853,-67.960428 -45.8852436,-67.9597843 -45.8853855,-67.9578102 -45.8852959,-67.9558897 -45.8849448,-67.9546167 -45.88506443,-67.9573059 -45.8868268,-67.956748 -45.8864908,-67.9563725 -45.8857215,-67.9556644 -45.8849971,-67.95650174 -45.8868325,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95178221 -45.88666191,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.94972726 -45.88693813,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94746568 -45.88694764,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94628753 -45.88560005,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94607409 -45.88311995,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.9459034 -45.88040255,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.94258106 -45.87928487,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S41,S2264,S2075,S706</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 943,S167,Linea 946,S2147,Linea 966,S2465,Linea 968,S387,Linea 970,S316,Linea 969,S39,Linea 957,S36,Linea 1027,S2695,Linea 1026,S43,Linea 1088,S2707,Linea 1098,S42,Linea 1856,S2724,Linea 1092,S163,Linea 1854,S66,Linea 1858,S61,Linea 1505,S60,Linea 1808,SXP2670,Linea 1296,S2113,Linea 1819,S50,Linea 1014,S41;S41,Linea 1014,S50,Linea 1819,S2113,Linea 1296,SXP2670,Linea 1808,S60,Linea 1505,S61,Linea 1858,S66,Linea 1854,S163,Linea 1092,S2724,Linea 1856,S42,Linea 1098,S2707,Linea 1088,S43,Linea 1026,S2695,Linea 1027,S36,Linea 957,S39,Linea 969,S316,Linea 970,S387,Linea 968,S2465,Linea 966,S2147,Linea 946,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 1211,S172,Linea 768,S2417,Linea 759,S402,Linea 760,S2468,Linea 763,S395,Linea 764,S338,Linea 773,S2407,Linea 850,S2056,Linea 849,S2716,Linea 853,S2504,Linea 854,S997,Linea 1836,S353,Linea 1361,S2006,Linea 1363,S2009,Linea 1365,S354,Linea 1421,S2255,Linea 568,S882,Linea 567,S522,Linea 566,S2273,Linea 552,S525,Linea 551,S529,Linea 549,S437,Linea 546,S773,Linea 531,S2151,Linea 415,S774,Linea 414,S722,Linea 413,S710,Linea 393,S709,Linea 392,S687,Linea 370,S613,Linea 369,S721,Linea 368,Planta La Petiza,Linea 367,S1035,Linea 372,S1026,Linea 374,S1015,Linea 373,S1006,Linea 358,S1024,Linea 356,S1034,Linea 357,S2264;S2264,Linea 345,S1023,Linea 344,S1018,Linea 346,S2518,Linea 347,S2075;S2075,Linea 347,S2518,Linea 346,S1018,Linea 344,S1023,Linea 354,S1006,Linea 373,S1015,Linea 374,S1026,Linea 372,S1035,Linea 367,Planta La Petiza,Linea 362,S706;S706,Linea 362,Planta La Petiza,Linea 368,S721,Linea 369,S613,Linea 370,S687,Linea 392,S709,Linea 393,S710,Linea 413,S722,Linea 414,S774,Linea 415,S2151,Linea 531,S773,Linea 546,S437,Linea 549,S529,Linea 551,S525,Linea 552,S2273,Linea 566,S522,Linea 567,S882,Linea 568,S2255,Linea 1421,S354,Linea 1365,S2009,Linea 1363,S2006,Linea 1361,S353,Linea 1836,S997,Linea 854,S2504,Linea 853,S2716,Linea 849,S2056,Linea 850,S2407,Linea 773,S338,Linea 764,S395,Linea 763,S2468,Linea 760,S402,Linea 759,S2417,Linea 768,S172,Linea 1211,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.93512028 -45.8793768,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.94258106 -45.87928487,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.9459034 -45.88040255,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.94607409 -45.88311995,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94628753 -45.88560005,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94746568 -45.88694764,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94972726 -45.88693813,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.95178221 -45.88666191,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95650174 -45.8868325,-67.9573059 -45.8868268,-67.956748 -45.8864908,-67.9563725 -45.8857215,-67.9556644 -45.8849971,-67.9546167 -45.88506443,-67.960428 -45.8852436,-67.9597843 -45.8853855,-67.9578102 -45.8852959,-67.9558897 -45.8849448,-67.95958113 -45.88533853,-67.9643977 -45.8867746,-67.9641402 -45.8867895,-67.9629064 -45.8855274,-67.9625845 -45.8842055,-67.9620588 -45.8840412,-67.9608893 -45.8848926,-67.96291589 -45.88644251,-67.9643333 -45.8867223,-67.9649127 -45.8864982,-67.9649878 -45.8851316,-67.9646873 -45.8835781,-67.9646981 -45.8825101,-67.9644513 -45.8818827,-67.9668546 -45.8822114,-67.96626762 -45.88229113,-67.9668546 -45.8821665,-67.9643869 -45.8818304,-67.9643548 -45.8816139,-67.9637325 -45.8815541,-67.9633892 -45.8809342,-67.96284278 -45.88109503,,NA,-67.9564691 -45.881106,-67.9562545 -45.8807027,-67.9636574 -45.8816139,-67.9634643 -45.8809267,-67.95567193 -45.88166569,,-67.95587565 -45.8814008,-67.9600096 -45.8822562,-67.9586792 -45.8818827,-67.9575849 -45.8812778,-67.9572201 -45.8810686,-67.9562652 -45.8809641,-67.9564691 -45.881106,-67.95934777 -45.88250641;-67.95934777 -45.88250641,-67.9600096 -45.8822562,-67.9586792 -45.8818827,-67.9575849 -45.8812778,-67.9572201 -45.8810686,-67.9562652 -45.8809641,-67.9564691 -45.881106,-67.95587565 -45.8814008,,-67.95567193 -45.88166569,-67.9564691 -45.881106,-67.9562545 -45.8807027,-67.9636574 -45.8816139,-67.9634643 -45.8809267,NA,,-67.96284278 -45.88109503,-67.9668546 -45.8821665,-67.9643869 -45.8818304,-67.9643548 -45.8816139,-67.9637325 -45.8815541,-67.9633892 -45.8809342,-67.96626762 -45.88229113,-67.9643333 -45.8867223,-67.9649127 -45.8864982,-67.9649878 -45.8851316,-67.9646873 -45.8835781,-67.9646981 -45.8825101,-67.9644513 -45.8818827,-67.9668546 -45.8822114,-67.96291589 -45.88644251,-67.9643977 -45.8867746,-67.9641402 -45.8867895,-67.9629064 -45.8855274,-67.9625845 -45.8842055,-67.9620588 -45.8840412,-67.9608893 -45.8848926,-67.95958113 -45.88533853,-67.960428 -45.8852436,-67.9597843 -45.8853855,-67.9578102 -45.8852959,-67.9558897 -45.8849448,-67.9546167 -45.88506443,-67.9573059 -45.8868268,-67.956748 -45.8864908,-67.9563725 -45.8857215,-67.9556644 -45.8849971,-67.95650174 -45.8868325,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95178221 -45.88666191,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.94972726 -45.88693813,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94746568 -45.88694764,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94628753 -45.88560005,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94607409 -45.88311995,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.9459034 -45.88040255,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.94258106 -45.87928487,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.95709848 -45.86769228,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95610675 -45.87170205,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95650202 -45.87386891,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95720623 -45.87256309,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.96214261 -45.87344787,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96572509 -45.87368099,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.9672039 -45.87497495,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.96992116 -45.87035971,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.9688479 -45.86924263,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.96898996 -45.86789944,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.97170451 -45.86764851,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97781889 -45.86412305,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97692655 -45.86298292,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.98026531 -45.86300386,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98206338 -45.86352335,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8701234 -45.8635663,-67.8698123 -45.86132490000001,-67.8679776 -45.8603237,-67.8670549 -45.8588966,-67.8654027 -45.859457,-67.8654563 -45.8601518,-67.8656709 -45.8602639,-67.86895092 -45.86422008,-67.8682029 -45.8666817,-67.8692436 -45.8661961,-67.8702307 -45.8647318,-67.8701663 -45.8642088,-67.86635342 -45.86702056,-67.8668189 -45.8667639,-67.8664005 -45.866988,-67.8663254 -45.8676305,-67.86498939 -45.86808329,-67.8639972 -45.8691171,-67.8657031 -45.8680713,-67.86235431 -45.86962035,-67.8593409 -45.8716048,-67.85971640000001 -45.8705365,-67.8614008 -45.870529,-67.861948 -45.8698268,-67.8630531 -45.8694832,-67.85882935 -45.87179542,-67.857635 -45.8744807,-67.8541696 -45.874152,-67.8588581 -45.8727103,-67.8593409 -45.8716048,-67.857019 -45.87438052,-67.84873010000001 -45.87312860000001,-67.8543305 -45.8741595,-67.857635 -45.8744807,-67.84711722 -45.87310355,-67.8489339 -45.8731324,-67.8501302 -45.8733565,-67.8485316 -45.8736739,-67.8459191 -45.8729942,-67.84549 -45.8723406,-67.8449106 -45.8726842,-67.84336962 -45.87289033,-67.8464448 -45.8713396,-67.8465736 -45.871657000000006,-67.84484620000002 -45.8726692,-67.84458226 -45.87132178,-67.8433174 -45.8702414,-67.8424054 -45.8705701,-67.8442401 -45.8712014,-67.8457582 -45.8705029,-67.8468794 -45.8714778,-67.8465736 -45.871657000000006,-67.8464073 -45.8713396,-67.84266503 -45.8702826,-67.8403401 -45.8715002,-67.8396213 -45.8713059,-67.8401256 -45.8706859,-67.8424323 -45.8705216,-67.8432369 -45.8702153,-67.83999726 -45.87142467,-67.8404045 -45.871440400000004,-67.8396642 -45.8713657,-67.8393745 -45.8705216,-67.8371751 -45.8699314,-67.8344822 -45.8697969,-67.8345251 -45.8700584,-67.8363597 -45.8707606,-67.83598551 -45.8713908,-67.8363276 -45.8710445,-67.8348899 -45.87091,-67.8336024 -45.8710221,-67.83204724 -45.87132308,-67.8347504 -45.8724041,-67.8345788 -45.8717915,-67.8335381 -45.8712686,-67.8339131 -45.87269245,-67.8368962 -45.8743761,-67.8363168 -45.8740101,-67.8365743 -45.8734723,-67.8358126 -45.8726879,-67.8366923 -45.875026,-67.8369284 -45.8751679,-67.8384304 -45.875317300000006,-67.83709911 -45.87528907,-67.8404582 -45.876744,-67.8387737 -45.8754144,-67.83972408 -45.87683377,-67.8388381 -45.8793059,-67.8380656 -45.8795375,-67.8406405 -45.8772519,-67.8405118 -45.8769083,-67.8383257 -45.87925524,-67.8388596 -45.8793582,-67.8365421 -45.8801649,-67.8342998 -45.88042630000001,-67.8343749 -45.8798736,-67.83402097 -45.87975218,-67.8357589 -45.8794553,-67.8374755 -45.877700100000006,-67.8373468 -45.8775656,-67.83580083 -45.87760123,-67.83642410000002 -45.8773117,-67.8357589 -45.877349,-67.8347933 -45.8779316,-67.83319238 -45.87800268,-67.8334415 -45.8779241,-67.8319824 -45.877588,-67.83004564 -45.87782593;-67.83004564 -45.87782593,-67.8308344 -45.8797018,-67.8306949 -45.8790819,-67.8334415 -45.8781258,-67.8319824 -45.877588,-67.83022822 -45.88021021,-67.8282809 -45.8789624,-67.8289354 -45.8793806,-67.83077000000002 -45.8797541,-67.82657673 -45.87879537,-67.8282809 -45.8789624,-67.8290534 -45.8802919,-67.8286672 -45.88047110000001,-67.82727683 -45.88061818,-67.8286564 -45.8805981,-67.8285921 -45.8817184,-67.82738854 -45.88198827;-67.82738854 -45.88198827,-67.8286564 -45.8805981,-67.8285921 -45.8817184,-67.82727683 -45.88061818,-67.8282809 -45.8789624,-67.8290534 -45.8802919,-67.8286672 -45.88047110000001,-67.82657673 -45.87879537,-67.8282809 -45.8789624,-67.8289354 -45.8793806,-67.83077000000002 -45.8797541,-67.83022822 -45.88021021,-67.8344929 -45.8798512,-67.834214 -45.88047110000001,-67.8320682 -45.880613,-67.8315103 -45.8803068,-67.83402097 -45.87975218,-67.8388596 -45.8793582,-67.8365421 -45.8801649,-67.8342998 -45.88042630000001,-67.8343749 -45.8798736,-67.8383257 -45.87925524,-67.8388381 -45.8793059,-67.8380656 -45.8795375,-67.8406405 -45.8772519,-67.8405118 -45.8769083,-67.83972408 -45.87683377,-67.8404582 -45.876744,-67.8387737 -45.8754144,-67.83709911 -45.87528907,-67.8369284 -45.8751679,-67.8384304 -45.875317300000006,-67.8366923 -45.875026,-67.835952 -45.87464500000001,-67.8341711 -45.8731585,-67.8321648 -45.8729195,-67.83053849 -45.87304743;-67.83053849 -45.87304743,-67.835952 -45.87464500000001,-67.8341711 -45.8731585,-67.8321648 -45.8729195,-67.8366923 -45.875026,-67.8368962 -45.8743761,-67.8363168 -45.8740101,-67.8365743 -45.8734723,-67.8358126 -45.8726879,-67.8339131 -45.87269245,-67.8347504 -45.8724041,-67.8345788 -45.8717915,-67.8335381 -45.8712686,-67.83204724 -45.87132308,-67.8363276 -45.8710445,-67.8348899 -45.87091,-67.8336024 -45.8710221,-67.83598551 -45.8713908,-67.8404045 -45.871440400000004,-67.8396642 -45.8713657,-67.8393745 -45.8705216,-67.8371751 -45.8699314,-67.8344822 -45.8697969,-67.8345251 -45.8700584,-67.8363597 -45.8707606,-67.83999726 -45.87142467,-67.8403401 -45.8715002,-67.8396213 -45.8713059,-67.8401256 -45.8706859,-67.8424323 -45.8705216,-67.8432369 -45.8702153,-67.84266503 -45.8702826,-67.8433174 -45.8702414,-67.8424054 -45.8705701,-67.8442401 -45.8712014,-67.8457582 -45.8705029,-67.8468794 -45.8714778,-67.8465736 -45.871657000000006,-67.8464073 -45.8713396,-67.84458226 -45.87132178,-67.8464448 -45.8713396,-67.8465736 -45.871657000000006,-67.84484620000002 -45.8726692,-67.84336962 -45.87289033,-67.8489339 -45.8731324,-67.8501302 -45.8733565,-67.8485316 -45.8736739,-67.8459191 -45.8729942,-67.84549 -45.8723406,-67.8449106 -45.8726842,-67.84711722 -45.87310355,-67.84873010000001 -45.87312860000001,-67.8543305 -45.8741595,-67.857635 -45.8744807,-67.857019 -45.87438052,-67.857635 -45.8744807,-67.8541696 -45.874152,-67.8588581 -45.8727103,-67.8593409 -45.8716048,-67.85882935 -45.87179542,-67.8593409 -45.8716048,-67.85971640000001 -45.8705365,-67.8614008 -45.870529,-67.861948 -45.8698268,-67.8630531 -45.8694832,-67.86235431 -45.86962035,-67.8639972 -45.8691171,-67.8657031 -45.8680713,-67.86498939 -45.86808329,-67.8668189 -45.8667639,-67.8664005 -45.866988,-67.8663254 -45.8676305,-67.86635342 -45.86702056,-67.8682029 -45.8666817,-67.8692436 -45.8661961,-67.8702307 -45.8647318,-67.8701663 -45.8642088,-67.86895092 -45.86422008,-67.8701234 -45.8635663,-67.8698123 -45.86132490000001,-67.8679776 -45.8603237,-67.8670549 -45.8588966,-67.8654027 -45.859457,-67.8654563 -45.8601518,-67.8656709 -45.8602639,-67.86513556 -45.86046435,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.98715669 -45.86146692,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98206338 -45.86352335,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98026531 -45.86300386,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.97692655 -45.86298292,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97781889 -45.86412305,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97170451 -45.86764851,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.96898996 -45.86789944,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.9688479 -45.86924263,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.96992116 -45.87035971,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.9672039 -45.87497495,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.96572509 -45.87368099,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96214261 -45.87344787,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.95720623 -45.87256309,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95650202 -45.87386891,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95610675 -45.87170205,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95709848 -45.86769228,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S679,S783</t>
   </si>
   <si>
     <t>Base,Linea 1,S176,Linea 1506,S2447,Linea 2,S993,Linea 3,S329,Linea 4,S309,Linea 10,S2195,Linea 27,S2412,Linea 33,S308,Linea 34,S2032,Linea 42,S2569,Linea 46,S2199,Linea 1847,S2200,Linea 97,S356,Linea 143,S2017,Linea 144,S690,Linea 141,S538,Linea 104,S2206,Linea 105,S763,Linea 106,S719,Linea 108,S767,Linea 115,S498,Linea 129,S2389,Linea 133,S693,Linea 134,S679;S679,Linea 134,S693,Linea 133,S2389,Linea 129,S498,Linea 115,S767,Linea 108,S719,Linea 106,S763,Linea 105,S2206,Linea 104,S538,Linea 141,S690,Linea 144,S2017,Linea 145,S378,Linea 147,S2609,Linea 150,S550,Linea 151,S2482,Linea 163,S2510,Linea 167,S2478,Linea 168,S451,Linea 169,S691,Linea 170,S676,Linea 177,S640,Linea 178,S637,Linea 183,S495,Linea 186,S635,Linea 1555,S2552,Linea 211,S622,Linea 210,S633,Linea 127,S501,Linea 925,S789,Linea 923,Planta Norte,Linea 1214,S783;S783,Linea 1214,Planta Norte,Linea 923,S789,Linea 925,S501,Linea 127,S633,Linea 210,S622,Linea 211,S2552,Linea 1563,S635,Linea 186,S495,Linea 183,S637,Linea 178,S640,Linea 177,S676,Linea 170,S691,Linea 169,S451,Linea 168,S2478,Linea 167,S2510,Linea 164,S678,Linea 162,S662,Linea 161,S246,Linea 158,S680,Linea 1549,S2488,Linea 156,S208,Linea 57,S2253,Linea 52,S326,Linea 8,S2258,Linea 7,S328,Linea 6,S309,Linea 4,S329,Linea 3,S993,Linea 2,S2447,Linea 1506,S176,Linea 1,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.93822649 -45.86645361,,-67.93820898 -45.86621382,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.9397787 -45.86446671,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.94026881 -45.86394522,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94016816 -45.86304785,-67.9407942 -45.8630844,-67.9403758 -45.8621878,-67.9386914 -45.8624792,-67.93749455 -45.86270022,-67.9389811 -45.8623559,-67.9389596 -45.8618329,-67.9381979 -45.8610783,-67.9390669 -45.8607794,-67.93809539 -45.86091501,-67.9388309 -45.8607794,-67.938112 -45.8611007,-67.9377472 -45.860899,-67.9362881 -45.8614743,-67.9374897 -45.8619749,-67.93652197 -45.86222667,-67.9375219 -45.8620421,-67.9357517 -45.861085800000005,-67.9346144 -45.8614519,-67.93332777 -45.86169272,-67.9343569 -45.8614145,-67.9335523 -45.861549,-67.9334021 -45.8611381,-67.9309666 -45.8609214,-67.92973166 -45.86112334,-67.9307091 -45.86097370000001,-67.9287457 -45.8609588,-67.9288423 -45.860757,-67.92827234 -45.86082887,-67.9288423 -45.860757,-67.9286063 -45.8609812,-67.9269433 -45.8608168,-67.9254305 -45.8610559,-67.9256237 -45.8606898,-67.92472033 -45.86078317,-67.9253769 -45.8604208,-67.9236388 -45.8595317,-67.9233384 -45.8597857,-67.92204432 -45.86025045,-67.9235315 -45.8601219,-67.9222655 -45.8604731,-67.92116295 -45.86077528,-67.9219651 -45.8610335,-67.9157424 -45.8609887,-67.91412974 -45.86109479,-67.9153347 -45.8605702,-67.9157317 -45.8599725,-67.9146159 -45.859457,-67.91347499 -45.85938782,-67.9145408 -45.8594047,-67.9124916 -45.858777,-67.9112792 -45.8592776,-67.91058213 -45.85962973,-67.9112792 -45.8592776,-67.9102921 -45.8588293,-67.9105067 -45.8586425,-67.90964669 -45.85881191,-67.9102653 -45.8586986,-67.9081625 -45.8581195,-67.90707943 -45.8582017,-67.90773330000002 -45.8580522,-67.9073417 -45.8579177,-67.9068965 -45.8568567,-67.9053408 -45.8563822,-67.90400196 -45.85653031,,-67.90333441 -45.85910192,-67.9030502 -45.8613174,-67.9044557 -45.8590236,-67.90205676 -45.86168943,-67.9030716 -45.8617209,-67.9028249 -45.8625427,-67.9043055 -45.8629013,-67.90319984 -45.86293935,-67.9044235 -45.8629088,-67.9052603 -45.8632077,-67.9067302 -45.8626996,-67.90593482 -45.8627285;-67.90593482 -45.8627285,-67.9044235 -45.8629088,-67.9052603 -45.8632077,-67.9067302 -45.8626996,-67.90319984 -45.86293935,-67.9030716 -45.8617209,-67.9028249 -45.8625427,-67.9043055 -45.8629013,-67.90205676 -45.86168943,-67.9030502 -45.8613174,-67.9044557 -45.8590236,-67.90333441 -45.85910192,,-67.90400196 -45.85653031,-67.90773330000002 -45.8580522,-67.9073417 -45.8579177,-67.9068965 -45.8568567,-67.9053408 -45.8563822,-67.90707943 -45.8582017,-67.9102653 -45.8586986,-67.9081625 -45.8581195,-67.90964669 -45.85881191,-67.9112792 -45.8592776,-67.9102921 -45.8588293,-67.9105067 -45.8586425,-67.91058213 -45.85962973,-67.9145408 -45.8594047,-67.9124916 -45.858777,-67.9112792 -45.8592776,-67.91347499 -45.85938782,-67.9153347 -45.8605702,-67.9157317 -45.8599725,-67.9146159 -45.859457,-67.91412974 -45.86109479,-67.9219651 -45.8610335,-67.9157424 -45.8609887,-67.92116295 -45.86077528,-67.9222012 -45.8610335,-67.9194975 -45.8620496,-67.91863427 -45.86235477,-67.9196048 -45.8623709,-67.9195297 -45.8639025,-67.91830981 -45.86407906,-67.9195297 -45.8639025,-67.9203665 -45.8649335,-67.9209244 -45.864687,-67.9208171 -45.8640743,-67.92012334 -45.86396532,-67.920903 -45.864119200000005,-67.92119260000001 -45.8646197,-67.9214394 -45.8648887,-67.92009355 -45.86527701,-67.92151450000001 -45.8648214,-67.9209244 -45.864687,-67.9176092 -45.8656881,-67.9171693 -45.8655984,-67.91575239 -45.86551598,-67.9164934 -45.8652398,-67.9147875 -45.8642536,-67.9133606 -45.865322,-67.9120409 -45.8651352,-67.91093971 -45.86527418,-67.9122448 -45.8649709,-67.911129 -45.8644105,-67.9103887 -45.8645226,-67.90917641 -45.86476613,-67.9100668 -45.8647318,-67.9098523 -45.8659197,-67.9103565 -45.8661513,-67.90947109 -45.86641003,-67.9100454 -45.8663754,-67.9094982 -45.8663306,-67.909627 -45.86429100000001,-67.90869072 -45.86438156,-67.9108179 -45.86391,-67.9094768 -45.8638353,-67.9077816 -45.8657329,-67.9066443 -45.8662484,-67.90565529 -45.8665856,-67.906419 -45.86626330000001,-67.9050887 -45.8652025,-67.9043591 -45.864814,-67.90314798 -45.8648888,-67.9039943 -45.8644255,-67.9028034 -45.8637381,-67.8999174 -45.8635812,-67.89867893 -45.86374335,-67.8993487 -45.8636634,-67.8988981 -45.8636933,-67.89861920000001 -45.8635215,-67.8975525 -45.86346654,,-67.89779792 -45.86312838,-67.8962696 -45.8632899,-67.8974175 -45.8625203,-67.8984583 -45.8622177,-67.8946526 -45.86372426,-67.8961945 -45.8632674,-67.8952932 -45.8629985,-67.8948426 -45.8620347,-67.89369378 -45.862107,-67.8961086 -45.8601668,-67.8949714 -45.8618927,-67.89506126 -45.86022417,-67.8960952 -45.8598436,-67.8959692 -45.8585678,-67.8961945 -45.8583138,-67.8955936 -45.8581419,-67.8949177 -45.8572976,-67.8950787 -45.8562589,-67.894907 -45.8558629,-67.8937376 -45.8558928,-67.8932869 -45.8566101,-67.8928149 -45.8568492,-67.8926003 -45.8566998,-67.89119881 -45.85678635,-67.8915596 -45.8569165,-67.8910661 -45.8570435,-67.8905296 -45.8572453,-67.8862917 -45.8600846,-67.8869355 -45.8600547,-67.8873861 -45.8596438,-67.8876221 -45.8588667,-67.8886843 -45.8579999,-67.88485253 -45.86038085;-67.88485253 -45.86038085,-67.8862917 -45.8600846,-67.8869355 -45.8600547,-67.8873861 -45.8596438,-67.8876221 -45.8588667,-67.8886843 -45.8579999,-67.8905296 -45.8572453,-67.8915596 -45.8569165,-67.8910661 -45.8570435,-67.89119881 -45.85678635,-67.8960952 -45.8598436,-67.8959692 -45.8585678,-67.8961945 -45.8583138,-67.8955936 -45.8581419,-67.8949177 -45.8572976,-67.8950787 -45.8562589,-67.894907 -45.8558629,-67.8937376 -45.8558928,-67.8932869 -45.8566101,-67.8928149 -45.8568492,-67.8926003 -45.8566998,-67.89506126 -45.86022417,-67.8961086 -45.8601668,-67.8949714 -45.8618927,-67.89369378 -45.862107,-67.8961945 -45.8632674,-67.8952932 -45.8629985,-67.8948426 -45.8620347,-67.8946526 -45.86372426,-67.8962696 -45.8632899,-67.8974175 -45.8625203,-67.8984583 -45.8622177,-67.89779792 -45.86312838,,-67.8975525 -45.86346654,-67.8993487 -45.8636634,-67.8988981 -45.8636933,-67.89861920000001 -45.8635215,-67.89867893 -45.86374335,-67.9039943 -45.8644255,-67.9028034 -45.8637381,-67.8999174 -45.8635812,-67.90314798 -45.8648888,-67.906419 -45.86626330000001,-67.9050887 -45.8652025,-67.9043591 -45.864814,-67.90565529 -45.8665856,-67.9108179 -45.86391,-67.9094768 -45.8638353,-67.9077816 -45.8657329,-67.9066443 -45.8662484,-67.90869072 -45.86438156,-67.9100454 -45.8663754,-67.9094982 -45.8663306,-67.909627 -45.86429100000001,-67.90947109 -45.86641003,-67.9100668 -45.8647318,-67.9098523 -45.8659197,-67.9103565 -45.8661513,-67.90917641 -45.86476613,-67.9122448 -45.8649709,-67.911129 -45.8644105,-67.9103887 -45.8645226,-67.91093971 -45.86527418,-67.9164934 -45.8652398,-67.9147875 -45.8642536,-67.9133606 -45.865322,-67.9120409 -45.8651352,-67.91575239 -45.86551598,-67.9187572 -45.8661064,-67.9176843 -45.8663679,-67.9172981 -45.8656657,-67.91774956 -45.8661538,-67.9224908 -45.8663306,-67.9191971 -45.8656582,-67.92069068 -45.86664171,-67.9258382 -45.86658460000001,-67.9220402 -45.8663903,-67.92478129 -45.86687146,-67.9266429 -45.8657927,-67.9259992 -45.8665696,-67.92617947 -45.86596757,,-67.92568273 -45.86555172,-67.9284239 -45.8655835,-67.9270077 -45.8655162,-67.92761571 -45.86576064,-67.92887450000002 -45.8655984,-67.929647 -45.8660093,-67.9311919 -45.8652622,-67.93025624 -45.86524613,-67.934196 -45.8650755,-67.9339492 -45.8648887,-67.9318678 -45.8652174,-67.93322311 -45.86539389,-67.9364544 -45.8650082,-67.9343033 -45.8651128,-67.93542287 -45.86514387,-67.9374468 -45.8637643,-67.93648120000002 -45.8648999,-67.93638614 -45.8639203,-67.9407513 -45.863103100000004,-67.9403973 -45.8622551,-67.93757020000001 -45.8636746,-67.94016816 -45.86304785,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94026881 -45.86394522,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.9397787 -45.86446671,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.93820898 -45.86621382,,-67.93822649 -45.86645361,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2056,S2676,S2426,S2487,S707</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 1211,S172,Linea 768,S2417,Linea 759,S402,Linea 760,S2468,Linea 763,S395,Linea 764,S338,Linea 773,S2407,Linea 850,S2056;S2056,Linea 849,S2716,Linea 853,S2504,Linea 854,S997,Linea 1836,S353,Linea 1361,S2006,Linea 1363,S2009,Linea 1365,S354,Linea 1421,S2255,Linea 568,S882,Linea 622,S523,Linea 215,S788,Linea 216,S2676;S2676,Linea 217,S2396,Linea 240,S2395,Linea 243,S1005,Linea 397,S543,Linea 399,S2288,Linea 247,S2418,Linea 249,S611,Linea 250,E291,Linea 252,S853,Linea 254,S851,Linea 257,S591,Linea 258,S876,Linea 263,S886,Linea 264,S868,Linea 270,S869,Linea 278,S864,Linea 277,S2582,Linea 275,S2279,Linea 274,S892,Linea 340,S594,Linea 260,S616,Linea 315,S2440,Linea 312,S2426;S2426,Linea 321,S588,Linea 320,S2207,Linea 322,S734,Linea 323,S762,Linea 324,S2487;S2487,Linea 324,S762,Linea 323,S734,Linea 322,S2207,Linea 320,S588,Linea 321,S2426,Linea 312,S2440,Linea 314,S2496,Linea 1497,S707;S707,Linea 365,S613,Linea 370,S687,Linea 392,S709,Linea 393,S710,Linea 413,S722,Linea 414,S774,Linea 415,S2151,Linea 531,S773,Linea 546,S437,Linea 549,S529,Linea 551,S525,Linea 552,S2273,Linea 566,S522,Linea 567,S882,Linea 568,S2255,Linea 1421,S354,Linea 1365,S2009,Linea 1363,S2006,Linea 1361,S353,Linea 1836,S997,Linea 854,S2504,Linea 853,S2716,Linea 849,S2056,Linea 850,S2407,Linea 773,S338,Linea 764,S395,Linea 763,S2468,Linea 760,S402,Linea 759,S2417,Linea 768,S172,Linea 1211,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.95709848 -45.86769228,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95610675 -45.87170205,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95650202 -45.87386891,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95720623 -45.87256309,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.96214261 -45.87344787,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96572509 -45.87368099,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.9672039 -45.87497495,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.96992116 -45.87035971;-67.96992116 -45.87035971,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.9688479 -45.86924263,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.96898996 -45.86789944,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.97170451 -45.86764851,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97781889 -45.86412305,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97692655 -45.86298292,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.98026531 -45.86300386,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98206338 -45.86352335,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86821501 -45.85959306,-67.8666258 -45.8579551,-67.8677523 -45.8588443,-67.8689218 -45.8588293,-67.8688896 -45.8591954,-67.86509618 -45.85797591,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86269634 -45.8576934;-67.86269634 -45.8576934,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86119926 -45.8582863,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.85800456 -45.85865306,-67.8585362 -45.8586425,-67.8567231 -45.8591431,-67.8550386 -45.8605852,-67.85325633 -45.86047853,-67.8547168 -45.8600622,-67.8545237 -45.8589862,-67.8537083 -45.858508,-67.852335 -45.8585529,-67.85051371 -45.8587379,-67.8511226 -45.8587172,-67.8489661 -45.8581942,-67.8504252 -45.8565952,-67.84992667 -45.85649082,-67.851541 -45.8561394,-67.8511119 -45.8555416,-67.8497386 -45.8553249,-67.8490841 -45.8555341,-67.84737753 -45.85568862,-67.8480864 -45.8556163,-67.846477 -45.8561992,-67.8452325 -45.8556537,-67.84359994 -45.85582912,-67.8438914 -45.8557508,-67.8414237 -45.8563262,-67.8377545 -45.8563187,-67.83653581 -45.85644197,-67.8371108 -45.8561767,-67.8326368 -45.8556313,-67.83154193 -45.85548135,-67.8319716 -45.855437,-67.8292787 -45.855108200000004,-67.82760578 -45.8552439,-67.8277767 -45.8550036,-67.8251696 -45.8547271,-67.824676 -45.8544207,-67.82322995 -45.85451391,-67.8244078 -45.8540994,-67.8225088 -45.8518801,-67.82163737 -45.8516816,-67.8223801 -45.8515886,-67.8209639 -45.8504751,-67.8196657 -45.8504079,-67.81800483 -45.85079524,-67.8185713 -45.8505798,-67.816962 -45.851073,-67.8161895 -45.8523658,-67.81497943 -45.85259887,-67.816329 -45.8519921,-67.8167796 -45.8511701,-67.8158462 -45.8513121,-67.8150415 -45.8533148,-67.8138399 -45.8541293,-67.81217316 -45.85421245,-67.809999 -45.85395,-67.81053540000002 -45.8542265,-67.8125417 -45.8543386,-67.80813131 -45.85419968,-67.8093982 -45.8548467,-67.8103423 -45.8545851,-67.808851 -45.8544506,-67.8103101 -45.854219,-67.8097093 -45.8539126,-67.8072436 -45.85498762,-67.8098595 -45.8560647,-67.809999 -45.8550036,-67.8090441 -45.8548691,-67.80907829 -45.8565264,-67.8125632 -45.8568492,-67.810396 -45.8571033,-67.8101599 -45.8566923,-67.81224182 -45.85671416,-67.8138077 -45.8564532,-67.814548 -45.8566699,-67.813561 -45.8597484,-67.8137219 -45.8605777,-67.81282229 -45.86107452,-67.8186142 -45.8634617,-67.8183568 -45.8624605,-67.8160179 -45.8615565,-67.8143764 -45.8610559,-67.81720169 -45.86444747,-67.8182173 -45.868004,-67.8160286 -45.8663455,-67.8181314 -45.8648065,-67.8182173 -45.864545,-67.81633269 -45.86814359,-67.8222084 -45.867638,-67.8207171 -45.86819080000001,-67.8187966 -45.8682506,-67.81829240000002 -45.8680713,-67.82151826 -45.86746063;-67.82151826 -45.86746063,-67.8236783 -45.8675633,-67.8205454 -45.8682207,-67.8219295 -45.8676529,-67.82310921 -45.86764419,-67.8240538 -45.8675707,-67.8247404 -45.8675782,-67.82420567 -45.8676006,-67.8260171 -45.8673092,-67.8273904 -45.8671897,-67.8286672 -45.8675334,-67.82802493 -45.86737435,-67.8295791 -45.8671673,-67.8291285 -45.8657628,-67.8280771 -45.86528460000001,-67.82626659 -45.86542128,-67.8280449 -45.8651352,-67.8276157 -45.8646197,-67.8262317 -45.8647766,-67.8248799 -45.8653145,-67.82303608 -45.86543176;-67.82303608 -45.86543176,-67.8280449 -45.8651352,-67.8276157 -45.8646197,-67.8262317 -45.8647766,-67.8248799 -45.8653145,-67.82626659 -45.86542128,-67.8295791 -45.8671673,-67.8291285 -45.8657628,-67.8280771 -45.86528460000001,-67.82802493 -45.86737435,-67.8260171 -45.8673092,-67.8273904 -45.8671897,-67.8286672 -45.8675334,-67.82420567 -45.8676006,-67.8240538 -45.8675707,-67.8247404 -45.8675782,-67.82310921 -45.86764419,-67.8236783 -45.8675633,-67.8205454 -45.8682207,-67.8219295 -45.8676529,-67.82151826 -45.86746063,-67.8222084 -45.867638,-67.8207171 -45.86819080000001,-67.8187966 -45.8682506,-67.81829240000002 -45.8680713,-67.81633269 -45.86814359,-67.819097 -45.8668461,-67.8186357 -45.8670552,-67.8192151 -45.868385,-67.81829240000002 -45.8680713,-67.8187144 -45.86699435,-67.8260922 -45.8716048,-67.8258884 -45.8718886,-67.8219509 -45.871657,-67.8194082 -45.8687287,-67.8185391 -45.8670926,-67.8190756 -45.8667788,-67.82435527 -45.87146335;-67.82435527 -45.87146335,-67.8326046 -45.8712686,-67.8287637 -45.8718438,-67.8266931 -45.8718811,-67.8259957 -45.8715076,-67.83204724 -45.87132308,-67.8363276 -45.8710445,-67.8348899 -45.87091,-67.8336024 -45.8710221,-67.83598551 -45.8713908,-67.8404045 -45.871440400000004,-67.8396642 -45.8713657,-67.8393745 -45.8705216,-67.8371751 -45.8699314,-67.8344822 -45.8697969,-67.8345251 -45.8700584,-67.8363597 -45.8707606,-67.83999726 -45.87142467,-67.8403401 -45.8715002,-67.8396213 -45.8713059,-67.8401256 -45.8706859,-67.8424323 -45.8705216,-67.8432369 -45.8702153,-67.84266503 -45.8702826,-67.8433174 -45.8702414,-67.8424054 -45.8705701,-67.8442401 -45.8712014,-67.8457582 -45.8705029,-67.8468794 -45.8714778,-67.8465736 -45.871657000000006,-67.8464073 -45.8713396,-67.84458226 -45.87132178,-67.8464448 -45.8713396,-67.8465736 -45.871657000000006,-67.84484620000002 -45.8726692,-67.84336962 -45.87289033,-67.8489339 -45.8731324,-67.8501302 -45.8733565,-67.8485316 -45.8736739,-67.8459191 -45.8729942,-67.84549 -45.8723406,-67.8449106 -45.8726842,-67.84711722 -45.87310355,-67.84873010000001 -45.87312860000001,-67.8543305 -45.8741595,-67.857635 -45.8744807,-67.857019 -45.87438052,-67.857635 -45.8744807,-67.8541696 -45.874152,-67.8588581 -45.8727103,-67.8593409 -45.8716048,-67.85882935 -45.87179542,-67.8593409 -45.8716048,-67.85971640000001 -45.8705365,-67.8614008 -45.870529,-67.861948 -45.8698268,-67.8630531 -45.8694832,-67.86235431 -45.86962035,-67.8639972 -45.8691171,-67.8657031 -45.8680713,-67.86498939 -45.86808329,-67.8668189 -45.8667639,-67.8664005 -45.866988,-67.8663254 -45.8676305,-67.86635342 -45.86702056,-67.8682029 -45.8666817,-67.8692436 -45.8661961,-67.8702307 -45.8647318,-67.8701663 -45.8642088,-67.86895092 -45.86422008,-67.8701234 -45.8635663,-67.8698123 -45.86132490000001,-67.8679776 -45.8603237,-67.8670549 -45.8588966,-67.8654027 -45.859457,-67.8654563 -45.8601518,-67.8656709 -45.8602639,-67.86513556 -45.86046435,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.98715669 -45.86146692,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98206338 -45.86352335,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98026531 -45.86300386,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.97692655 -45.86298292,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97781889 -45.86412305,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97170451 -45.86764851,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.96898996 -45.86789944,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.9688479 -45.86924263,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.96992116 -45.87035971,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.9672039 -45.87497495,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.96572509 -45.87368099,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96214261 -45.87344787,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.95720623 -45.87256309,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95650202 -45.87386891,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95610675 -45.87170205,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95709848 -45.86769228,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S744,S2507,S813,S2681</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 943,S167,Linea 946,S2147,Linea 964,S2146,Linea 949,S31,Linea 950,S2094,Linea 1711,S33,Linea 1222,S927,Linea 1754,S115,Linea 1085,S944,Linea 1077,S2667,Linea 1078,S793,Linea 1076,S791,Linea 1221,S760,Linea 1073,S794,Linea 1297,S759,Linea 1306,S834,Linea 1307,S839,Linea 1313,S725,Linea 1310,S744;S744,Linea 1321,S747,Linea 1324,S752,Linea 1244,S753,Linea 1240,S2449,Linea 1239,S2507;S2507,Linea 1239,S2449,Linea 1240,S753,Linea 1244,S752,Linea 1324,S747,Linea 1321,S744,Linea 1310,S725,Linea 1313,S839,Linea 1307,S834,Linea 1329,S778,Linea 1127,S758,Linea 1884,S814,Linea 1121,S810,Linea 1120,S813;S813,Linea 1120,S810,Linea 1121,S814,Linea 1884,S758,Linea 1127,S778,Linea 1328,S2055,Linea 1273,S921,Linea 1129,S815,Linea 1138,S803,Linea 1110,S2194,Linea 1113,S841,Linea 1118,S2723,Linea 1853,S42,Linea 1098,S2707,Linea 1088,S43,Linea 1026,S2695,Linea 1024,S37,Linea 1846,S2722,Linea 961,S2681;S2681,Linea 954,S38,Linea 963,S2721,Linea 947,S2146,Linea 964,S2147,Linea 946,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.93512028 -45.8793768,-67.9380155 -45.8812404,-67.938627 -45.880852,-67.9384768 -45.8805682,-67.9371035 -45.8800827,-67.9358482 -45.8797093,-67.9335737 -45.8797616,-67.934432 -45.8794255,-67.9350007 -45.8792835,-67.9357088 -45.8792686,-67.93588984 -45.88149225,-67.9369104 -45.8822487,-67.9367441 -45.8819686,-67.9385787 -45.881274,-67.938568 -45.8809641,-67.9379243 -45.8811844,-67.93623372 -45.88237227,-67.9369962 -45.8822636,-67.9367441 -45.8819686,-67.9343677 -45.8832719,-67.93288041 -45.88347512,,-67.93297197 -45.88384007,-67.9325545 -45.8880964,-67.9324257 -45.8875363,-67.933048 -45.8868642,-67.9335093 -45.8836304,-67.93195275 -45.88880085,,-67.93184093 -45.88869985,-67.929883 -45.8876782,-67.9306018 -45.8878724,-67.9317605 -45.8883727,-67.9326189 -45.888201,-67.92838162 -45.88770662,-67.9286492 -45.8892166,-67.9288638 -45.8878724,-67.9292393 -45.8876931,-67.92758265 -45.88993498,-67.929368 -45.8925994,-67.9296148 -45.8919423,-67.9287994 -45.8913897,-67.9285097 -45.8910014,-67.9286277 -45.8901127,-67.92819602 -45.89300211,-67.9235637 -45.895743,-67.9241538 -45.8953249,-67.9267287 -45.8949142,-67.9271579 -45.8944961,-67.9267287 -45.8942048,-67.9257309 -45.8936448,-67.9256558 -45.8930698,-67.9268682 -45.8923604,-67.9289711 -45.8934208,-67.9293036 -45.893361,-67.92261639 -45.89612501,-67.9221904 -45.8981548,-67.9232204 -45.8984983,-67.9230487 -45.8980652,-67.9224908 -45.89755,-67.9236388 -45.8964449,-67.92046749 -45.89809236,-67.9312027 -45.9008128,-67.9299688 -45.9015296,-67.9282737 -45.9003723,-67.9263103 -45.8994316,-67.9232204 -45.8984983,-67.9221046 -45.8981623,-67.93028301 -45.90068278,-67.9313636 -45.9007755,-67.9299688 -45.9015296,-67.9309559 -45.9024778,-67.931664 -45.9022687,-67.9323721 -45.9010144,-67.9335737 -45.900447,-67.9371786 -45.9012832,-67.9379082 -45.9021045,-67.9396677 -45.9026719,-67.941041 -45.9025674,-67.94048121 -45.90255833,-67.9417276 -45.9060912,-67.9426718 -45.9047623,-67.9416203 -45.9047773,-67.9445601 -45.9035379,-67.942543 -45.9026271,-67.94070253 -45.90708056,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.93482704 -45.9074612,-67.922008 -45.9097193,-67.9201412 -45.9109884,-67.9196906 -45.9109585,-67.9200125 -45.9097492,-67.9210854 -45.909585,-67.9227591 -45.90851,-67.9267287 -45.9077933,-67.9317927 -45.9075544,-67.9344964 -45.9080023,-67.9353762 -45.9076142,-67.92132124 -45.90950332,-67.9221797 -45.9097492,-67.9201412 -45.9109884,-67.91924 -45.911063,-67.9191971 -45.9115109,-67.91938339 -45.91141146;-67.91938339 -45.91141146,-67.9150558 -45.9126903,-67.9162359 -45.9122126,-67.9164505 -45.9115408,-67.9181457 -45.910645,-67.9202914 -45.9111078,-67.91361731 -45.91301639,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.9049706 -45.9149894,-67.9050565 -45.9146311,-67.908597 -45.9143027,-67.9105282 -45.9135114,-67.9126954 -45.9130636,-67.9141974 -45.9123171,-67.90949828 -45.91775832,-67.9105067 -45.9207068,-67.9081678 -45.9205276,-67.9078245 -45.9200798,-67.9065156 -45.9195574,-67.9081035 -45.9191991,-67.9097772 -45.9180049,-67.91006087 -45.92075561,-67.9102921 -45.920662,-67.908361 -45.9205575,-67.9075885 -45.9200201,-67.9060221 -45.9194977,-67.9027176 -45.9217367,-67.90106153 -45.92208325,-67.898984 -45.9215725,-67.9012799 -45.9215277,-67.9016232 -45.9217367,-67.8972875 -45.92186977;-67.8972875 -45.92186977,-67.898984 -45.9215725,-67.9012799 -45.9215277,-67.9016232 -45.9217367,-67.90106153 -45.92208325,-67.9102921 -45.920662,-67.908361 -45.9205575,-67.9075885 -45.9200201,-67.9060221 -45.9194977,-67.9027176 -45.9217367,-67.91006087 -45.92075561,-67.9105067 -45.9207068,-67.9081678 -45.9205276,-67.9078245 -45.9200798,-67.9065156 -45.9195574,-67.9081035 -45.9191991,-67.9097772 -45.9180049,-67.90949828 -45.91775832,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.9049706 -45.9149894,-67.9050565 -45.9146311,-67.908597 -45.9143027,-67.9105282 -45.9135114,-67.9126954 -45.9130636,-67.9141974 -45.9123171,-67.91361731 -45.91301639,-67.9150558 -45.9126903,-67.9162359 -45.9122126,-67.9164505 -45.9115408,-67.9181457 -45.910645,-67.9202914 -45.9111078,-67.91938339 -45.91141146,-67.9221797 -45.9097492,-67.9201412 -45.9109884,-67.91924 -45.911063,-67.9191971 -45.9115109,-67.92132124 -45.90950332,-67.922008 -45.9097193,-67.9201412 -45.9109884,-67.9196906 -45.9109585,-67.9200125 -45.9097492,-67.9210854 -45.909585,-67.9227591 -45.90851,-67.9267287 -45.9077933,-67.9317927 -45.9075544,-67.9344964 -45.9080023,-67.9353762 -45.9076142,-67.93482704 -45.9074612,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.94070253 -45.90708056,-67.9576707 -45.9040606,-67.9586577 -45.9041501,-67.9598594 -45.9049266,-67.9530573 -45.9053894,-67.9526496 -45.9059568,-67.9507613 -45.9066437,-67.9497957 -45.9073603,-67.9479933 -45.907644,-67.9448175 -45.9073753,-67.9420066 -45.9072707,-67.95594313 -45.90408308,-67.9577565 -45.9038664,-67.9585826 -45.9036126,-67.9585826 -45.9031348,-67.9576492 -45.90253,-67.9561365 -45.9021343,-67.9558575 -45.9012832,-67.95417314 -45.90131869,-67.9551601 -45.9008651,-67.9546666 -45.8996481,-67.9538405 -45.8990284,-67.95251927 -45.89886364,-67.9566944 -45.8986327,-67.9550421 -45.8986849,-67.9549778 -45.9007158,-67.9546666 -45.8996481,-67.953701 -45.898991,-67.95625453 -45.89884007,-67.9566944 -45.8986327,-67.9549992 -45.8986252,-67.9545057 -45.8976097,-67.9539156 -45.8971991,-67.953068 -45.8970721,-67.9531431 -45.8968855,-67.9546881 -45.8965943,-67.95408006 -45.89657201;-67.95408006 -45.89657201,-67.9566944 -45.8986327,-67.9549992 -45.8986252,-67.9545057 -45.8976097,-67.9539156 -45.8971991,-67.953068 -45.8970721,-67.9531431 -45.8968855,-67.9546881 -45.8965943,-67.95625453 -45.89884007,-67.9566944 -45.8986327,-67.9550421 -45.8986849,-67.9549778 -45.9007158,-67.9546666 -45.8996481,-67.953701 -45.898991,-67.95251927 -45.89886364,-67.9551601 -45.9008651,-67.9546666 -45.8996481,-67.9538405 -45.8990284,-67.95417314 -45.90131869,-67.9577565 -45.9038664,-67.9585826 -45.9036126,-67.9585826 -45.9031348,-67.9576492 -45.90253,-67.9561365 -45.9021343,-67.9558575 -45.9012832,-67.95594313 -45.90408308,-67.9685926 -45.9034484,-67.9653096 -45.9044488,-67.9600525 -45.9049564,-67.9584861 -45.9041651,-67.9576707 -45.9040606,-67.96793825 -45.90348141,-67.9693437 -45.9027914,-67.9659963 -45.8987297,-67.965138 -45.8986401,-67.96354703 -45.89869944,-67.9642367 -45.8983564,-67.9643333 -45.8976993,-67.9650199 -45.8970721,-67.9652989 -45.8964076,-67.9613721 -45.8972065,-67.95956637 -45.89743693,-67.9602778 -45.8973559,-67.959677 -45.8974604,-67.9590976 -45.897326,-67.9587114 -45.8968257,-67.95928 -45.896094,-67.9591405 -45.8953548,-67.95753705 -45.89518861,-67.958411 -45.8946678,-67.9585934 -45.8938464,-67.9590118 -45.8934581,-67.9594839 -45.8932714,-67.9597199 -45.892913,-67.9595053 -45.8926741,-67.95792371 -45.89252328,-67.958647 -45.8921289,-67.9580784 -45.8917854,-67.958411 -45.8907699,-67.9588509 -45.8902397,-67.9578209 -45.8896422,-67.95602222 -45.88970885,-67.9576063 -45.8896124,-67.9577136 -45.888888,-67.9572308 -45.8876483,-67.9565012 -45.8869986,-67.95495587 -45.8875866,-67.9563618 -45.8869613,-67.9570055 -45.8870583,-67.9568553 -45.8866028,-67.957381 -45.8868268,-67.95650174 -45.8868325,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95178221 -45.88666191,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.94972726 -45.88693813,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94746568 -45.88694764,-67.9484117 -45.88667,-67.947489 -45.8864908,-67.9468238 -45.8864609,-67.9463196 -45.8856021,-67.9456758 -45.8850643,-67.945118 -45.8847581,-67.9446459 -45.8841607,-67.9440129 -45.8842652,-67.94255555 -45.88454697,-67.9434013 -45.8843175,-67.9426825 -45.884086,-67.9423177 -45.8838843,-67.94191 -45.8839814,-67.9418349 -45.8844669,-67.9412127 -45.8843922,-67.94007097 -45.88448059,-67.9413199 -45.8842577,-67.94191 -45.884325,-67.9418242 -45.8848403,-67.9404724 -45.8852734,-67.9399681 -45.8854975,-67.9388416 -45.8850046,-67.9390776 -45.8859083,-67.93803519 -45.88653092;-67.93803519 -45.88653092,-67.9390776 -45.8859083,-67.9388952 -45.8849299,-67.9384875 -45.8844519,-67.9383051 -45.883832,-67.939024 -45.8833317,-67.9396892 -45.8836155,-67.9402363 -45.8833989,-67.93935418 -45.88340612,-67.9404831 -45.883003,-67.9393351 -45.8816139,-67.9395604 -45.8815392,-67.93895804 -45.88204116,-67.9394478 -45.8815018,-67.9390669 -45.8813786,-67.9390454 -45.8810425,-67.9386485 -45.8811881,-67.938568 -45.8809641,-67.9379404 -45.8812105,-67.93588984 -45.88149225,-67.9380155 -45.8812404,-67.938627 -45.880852,-67.9384768 -45.8805682,-67.9371035 -45.8800827,-67.9358482 -45.8797093,-67.9335737 -45.8797616,-67.934432 -45.8794255,-67.9350007 -45.8792835,-67.9357088 -45.8792686,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2614,S2688,S2703,S746,S859</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 944,S56,Linea 940,S78,Linea 932,S645,Linea 931,S2111,Linea 930,S2110,Linea 736,S2167,Linea 1617,S2168,Linea 584,S849,Linea 582,S938,Linea 581,S2443,Linea 578,S2132,Linea 579,S949,Linea 591,S2129,Linea 592,S2259,Linea 594,S17,Linea 735,S295,Linea 734,S3,Linea 613,Q16,Linea 1626,S2240,Linea 471,S2,Linea 1886,S13,Linea 1887,S2523,Linea 1888,S2606,Linea 526,S2614;S2614,Linea 526,S2606,Linea 1888,S2523,Linea 1887,S13,Linea 1886,S2,Linea 471,S2240,Linea 1593,Q16,Linea 613,S3,Linea 734,S295,Linea 735,S17,Linea 596,S2293,Linea 597,S4,Linea 598,S2324,Linea 600,S2196,Linea 599,S2689,Linea 605,S581,Linea 610,S2688;S2688,Linea 1869,S2693,Linea 1870,S2703;S2703,Linea 1870,S2693,Linea 1869,S2688,Linea 610,S581,Linea 605,S2689,Linea 601,S2683,Linea 606,S2619,Linea 608,S2694,Linea 1336,S2711,Linea 1335,S2698,Linea 1334,S2718,Linea 1333,S2717,Linea 1330,S924,Linea 1337,S925,Linea 1260,S2657,Linea 1247,S2627,Linea 1246,S2640,Linea 1326,S752,Linea 1324,S747,Linea 1318,S746;S746,Linea 1318,S747,Linea 1321,S744,Linea 1310,S725,Linea 1313,S839,Linea 1307,S834,Linea 1306,S759,Linea 1297,S794,Linea 1073,S760,Linea 1054,S801,Linea 1061,S828,Linea 1060,S826,Linea 1220,S840,Linea 1048,S928,Linea 1046,S645,Linea 932,S78,Linea 940,S56,Linea 1709,S859;S859,Linea 1709,S56,Linea 944,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92260289 -45.87981886,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.91930941 -45.88137118,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91747464 -45.88372353,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91541483 -45.88231338,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.90970498 -45.88326091,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90591516 -45.88446218,,-67.90594775 -45.88423937,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90705336 -45.88840606,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90362098 -45.8874036,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90293219 -45.8836944,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.89811074 -45.88424629,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89478887 -45.88442779,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.88986813 -45.88509226,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88725199 -45.88498287,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88477851 -45.88530377,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88934482 -45.88367092,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.87931365 -45.88515467,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87597578 -45.88674947,,-67.87630061 -45.88642699,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.8758872 -45.88413516,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.87263059 -45.88283868,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.86703039 -45.88312685,-67.8685462 -45.8831151,-67.8700483 -45.8829059,-67.8648233 -45.8818603,-67.8628063 -45.8810537,-67.8621304 -45.8814645,-67.86071597 -45.88116865,-67.8614116 -45.8855274,-67.862978 -45.884788,-67.8635466 -45.8831599,-67.8632355 -45.8817483,-67.86391140000002 -45.8815093,-67.8628063 -45.8810537,-67.8623772 -45.8814346,-67.85908094 -45.88593849;-67.85908094 -45.88593849,-67.8614116 -45.8855274,-67.862978 -45.884788,-67.8635466 -45.8831599,-67.8632355 -45.8817483,-67.86391140000002 -45.8815093,-67.8628063 -45.8810537,-67.8623772 -45.8814346,-67.86071597 -45.88116865,-67.8685462 -45.8831151,-67.8700483 -45.8829059,-67.8648233 -45.8818603,-67.8628063 -45.8810537,-67.8621304 -45.8814645,-67.86703039 -45.88312685,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.87263059 -45.88283868,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.8758872 -45.88413516,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.87630061 -45.88642699,,-67.87597578 -45.88674947,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87931365 -45.88515467,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.88934482 -45.88367092,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88477851 -45.88530377,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88304639 -45.88588109,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88085052 -45.88709026,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.87661058 -45.88889945,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87484305 -45.89067788,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87813787 -45.88993585,-67.8789854 -45.8901127,-67.8777838 -45.8901052,-67.8751981 -45.8927935,-67.8739536 -45.8942571,-67.87230402 -45.89457162,-67.8727734 -45.8946678,-67.8694153 -45.8954742,-67.8682566 -45.89504860000001,-67.86797017 -45.89505687;-67.86797017 -45.89505687,-67.8685999 -45.895295,-67.8667116 -45.8956833,-67.8646088 -45.8956833,-67.86301998 -45.89560501,-67.8636646 -45.8957132,-67.8630209 -45.8961014,-67.8661537 -45.8966391,-67.86618307 -45.89684928;-67.86618307 -45.89684928,-67.8636646 -45.8957132,-67.8630209 -45.8961014,-67.8661537 -45.8966391,-67.86301998 -45.89560501,-67.8685999 -45.895295,-67.8667116 -45.8956833,-67.8646088 -45.8956833,-67.86797017 -45.89505687,-67.8727734 -45.8946678,-67.8694153 -45.8954742,-67.8682566 -45.89504860000001,-67.87230402 -45.89457162,-67.8789854 -45.8901127,-67.8777838 -45.8901052,-67.8751981 -45.8927935,-67.8739536 -45.8942571,-67.87813787 -45.88993585,-67.8788996 -45.8901426,-67.877934 -45.8900903,-67.8774834 -45.8904786,-67.8777945 -45.8925098,-67.8783524 -45.8919348,-67.87768072 -45.89180609,-67.8782558 -45.8919497,-67.8778267 -45.8923828,-67.8780413 -45.8938315,-67.8791893 -45.8953398,-67.87842608 -45.89585515,-67.8799939 -45.8961761,-67.8810668 -45.8968855,-67.881496 -45.8974007,-67.88049412 -45.89765426,-67.8816462 -45.8976545,-67.8819466 -45.8992972,-67.8823757 -45.8992374,-67.88283131 -45.8994995,-67.8778481 -45.8999691,-67.8795862 -45.8996556,-67.8816676 -45.8998198,-67.8823113 -45.899342,-67.87600509 -45.90013168,-67.875402 -45.9018954,-67.8762174 -45.9018506,-67.8767323 -45.9016117,-67.8774405 -45.9009995,-67.8778481 -45.8999691,-67.87401 -45.90242679,-67.8778911 -45.9022389,-67.8772688 -45.9023733,-67.8762174 -45.9020895,-67.8762174 -45.9018506,-67.875402 -45.9018954,-67.87749311 -45.90223614,-67.8877831 -45.9058523,-67.8869033 -45.9059867,-67.8840923 -45.9048668,-67.8834271 -45.9042397,-67.8832769 -45.9030601,-67.8820109 -45.9031497,-67.8811312 -45.903299,-67.8780627 -45.9027018,-67.8772688 -45.9023733,-67.8778911 -45.9022389,-67.88690397 -45.90593083,-67.8887486 -45.9139369,-67.8892422 -45.9133771,-67.889092 -45.9088982,-67.8895211 -45.9081964,-67.8884697 -45.9068527,-67.8891134 -45.9060464,-67.8899932 -45.905494,-67.890079 -45.9049863,-67.8895855 -45.9049415,-67.8884912 -45.9054641,-67.88780562 -45.91450171,-67.892257 -45.917781,-67.8922355 -45.9171241,-67.8925788 -45.9166017,-67.8926325 -45.9163553,-67.8917956 -45.9155044,-67.8909266 -45.914855,-67.8902507 -45.9144445,-67.8900683 -45.9137279,-67.8889096 -45.913601,-67.888813 -45.9138473,-67.89164408 -45.91850265,-67.895422 -45.9189901,-67.8929543 -45.9186468,-67.8948966 -45.91911867,-67.8951859 -45.9189752,-67.8956151 -45.9181094,-67.8975034 -45.9169749,-67.8979325 -45.9163329,-67.8972459 -45.916945,-67.8964305 -45.9169151,-67.8960013 -45.9166017,-67.89415644 -45.91643339,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.90527 -45.9149745,-67.9052067 -45.9146162,-67.9025245 -45.9141235,-67.90171 -45.9145565,-67.89907 -45.9147953,-67.8979325 -45.9163329,-67.8972459 -45.916945,-67.8961945 -45.916945,-67.896 -45.9166,-67.90949828 -45.91775832,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.9049706 -45.9149894,-67.9050565 -45.9146311,-67.908597 -45.9143027,-67.9105282 -45.9135114,-67.9126954 -45.9130636,-67.9141974 -45.9123171,-67.91361731 -45.91301639,-67.9181457 -45.9134368,-67.9172659 -45.9143475,-67.9155493 -45.9147505,-67.9153347 -45.914437,-67.9160857 -45.9122425,-67.9150558 -45.9126903,-67.91754846 -45.91327537;-67.91754846 -45.91327537,-67.9181457 -45.9134368,-67.9172659 -45.9143475,-67.9155493 -45.9147505,-67.9153347 -45.914437,-67.9160857 -45.9122425,-67.9150558 -45.9126903,-67.91361731 -45.91301639,-67.9150558 -45.9126903,-67.9162359 -45.9122126,-67.9164505 -45.9115408,-67.9181457 -45.910645,-67.9202914 -45.9111078,-67.91938339 -45.91141146,-67.9221797 -45.9097492,-67.9201412 -45.9109884,-67.91924 -45.911063,-67.9191971 -45.9115109,-67.92132124 -45.90950332,-67.922008 -45.9097193,-67.9201412 -45.9109884,-67.9196906 -45.9109585,-67.9200125 -45.9097492,-67.9210854 -45.909585,-67.9227591 -45.90851,-67.9267287 -45.9077933,-67.9317927 -45.9075544,-67.9344964 -45.9080023,-67.9353762 -45.9076142,-67.93482704 -45.9074612,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.94070253 -45.90708056,-67.9417276 -45.9060912,-67.9426718 -45.9047623,-67.9416203 -45.9047773,-67.9445601 -45.9035379,-67.942543 -45.9026271,-67.94048121 -45.90255833,-67.9313636 -45.9007755,-67.9299688 -45.9015296,-67.9309559 -45.9024778,-67.931664 -45.9022687,-67.9323721 -45.9010144,-67.9335737 -45.900447,-67.9371786 -45.9012832,-67.9379082 -45.9021045,-67.9396677 -45.9026719,-67.941041 -45.9025674,-67.93028301 -45.90068278,-67.9312027 -45.9008128,-67.9299688 -45.9015296,-67.9282737 -45.9003723,-67.9263103 -45.8994316,-67.9232204 -45.8984983,-67.9221046 -45.8981623,-67.92046749 -45.89809236,-67.9221904 -45.8981548,-67.9233706 -45.8984385,-67.9223728 -45.8974903,-67.9203773 -45.8967212,-67.9203129 -45.8957953,-67.91895387 -45.89557581,-67.9198515 -45.8952876,-67.9187465 -45.8950934,-67.9171157 -45.8950187,-67.9165041 -45.8955564,-67.91506756 -45.89602857,-67.9165363 -45.8956086,-67.9175019 -45.8947275,-67.9165041 -45.893712,-67.9164827 -45.892689,-67.9183388 -45.8916958,-67.9195189 -45.8908296,-67.9196799 -45.8909341,-67.9177058 -45.8929802,-67.91657701 -45.89351753,-67.9177594 -45.8928831,-67.9196584 -45.8908744,-67.9194117 -45.8909267,-67.9188323 -45.8915241,-67.9170513 -45.8923754,-67.9181993 -45.8910014,-67.918961 -45.8905234,-67.91840225 -45.89042054,-67.9201949 -45.8901426,-67.920785 -45.8896646,-67.9178774 -45.8882906,-67.9180706 -45.8870061,-67.9186499 -45.8868642,-67.918961 -45.8857962,-67.91833856 -45.88592331,-67.9183924 -45.8832943,-67.9178345 -45.8833989,-67.9181349 -45.883832,-67.9182851 -45.8847656,-67.9179955 -45.8868492,-67.9182959 -45.887021,-67.918725 -45.8867895,-67.9189289 -45.8859232,-67.91747464 -45.88372353,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91930941 -45.88137118,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.92260289 -45.87981886,,-67.9226841 -45.8797625;-67.9226841 -45.8797625,,-67.92260289 -45.87981886,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2448,S2351,S933,S2181</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 944,S56,Linea 940,S78,Linea 932,S645,Linea 931,S2111,Linea 930,S2110,Linea 736,S2167,Linea 1617,S2168,Linea 584,S849,Linea 582,S938,Linea 581,S2443,Linea 578,S2132,Linea 579,S949,Linea 591,S2129,Linea 592,S2259,Linea 594,S17,Linea 735,S295,Linea 734,S3,Linea 613,Q16,Linea 1626,S2240,Linea 471,S2,Linea 1886,S13,Linea 1887,S2523,Linea 1888,S2606,Linea 523,S2109,Linea 524,S2448;S2448,Linea 524,S2109,Linea 523,S2606,Linea 1888,S2523,Linea 1887,S13,Linea 1886,S2,Linea 471,S2240,Linea 1593,Q16,Linea 613,S3,Linea 734,S295,Linea 735,S17,Linea 594,S2259,Linea 592,S2129,Linea 591,S949,Linea 579,S2132,Linea 578,S2443,Linea 581,S938,Linea 582,S849,Linea 584,S2168,Linea 1617,S2167,Linea 736,S2110,Linea 930,S2111,Linea 934,S2334,Linea 1648,S77,Linea 713,S236,Linea 1646,S2231,Linea 927,S2278,Linea 688,S2047,Linea 689,S440,Linea 687,S2359,Linea 1644,S2036,Linea 490,S397,Linea 494,S2351;S2351,Linea 494,S397,Linea 490,S2036,Linea 1599,S2359,Linea 687,S440,Linea 689,S2047,Linea 688,S2278,Linea 927,S2231,Linea 1649,S236,Linea 713,S77,Linea 1647,S2334,Linea 934,S2111,Linea 931,S645,Linea 932,S78,Linea 940,S56,Linea 944,S229,Linea 943,S167,Linea 946,S2147,Linea 966,S2465,Linea 968,S387,Linea 970,S316,Linea 969,S39,Linea 957,S36,Linea 1027,S2695,Linea 1026,S43,Linea 1088,S2707,Linea 1098,S42,Linea 1856,S2724,Linea 1092,S163,Linea 1854,S66,Linea 1156,S63,Linea 1154,S65,Linea 1153,S47,Linea 1150,S832,Linea 1287,S54,Linea 1288,S907,Linea 1493,S187,Linea 1806,S933;S933,Linea 1806,S187,Linea 1493,S907,Linea 1288,S54,Linea 1287,S832,Linea 1150,S47,Linea 1153,S65,Linea 1154,S63,Linea 1156,S66,Linea 1854,S163,Linea 1092,S2724,Linea 1856,S42,Linea 1098,S2707,Linea 1088,S43,Linea 1026,S2695,Linea 1027,S36,Linea 957,S39,Linea 969,S316,Linea 970,S387,Linea 968,S2465,Linea 966,S2147,Linea 946,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 1211,S172,Linea 768,S2417,Linea 759,S402,Linea 760,S2468,Linea 763,S395,Linea 764,S338,Linea 773,S2407,Linea 850,S2056,Linea 849,S2716,Linea 853,S2504,Linea 854,S997,Linea 1836,S353,Linea 1361,S2006,Linea 1363,S2009,Linea 1365,S354,Linea 1421,S2255,Linea 568,S882,Linea 567,S522,Linea 566,S2273,Linea 552,S525,Linea 551,S529,Linea 553,S524,Linea 554,S2525,Linea 555,S528,Linea 556,S2181;S2181,Linea 556,S528,Linea 555,S2525,Linea 554,S524,Linea 553,S529,Linea 551,S525,Linea 552,S2273,Linea 566,S522,Linea 567,S882,Linea 568,S2255,Linea 1421,S354,Linea 1365,S2009,Linea 1363,S2006,Linea 1361,S353,Linea 1836,S997,Linea 854,S2504,Linea 853,S2716,Linea 849,S2056,Linea 850,S2407,Linea 773,S338,Linea 764,S395,Linea 763,S2468,Linea 760,S402,Linea 759,S2417,Linea 768,S172,Linea 1211,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92260289 -45.87981886,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.91930941 -45.88137118,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91747464 -45.88372353,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91541483 -45.88231338,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.90970498 -45.88326091,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90591516 -45.88446218,,-67.90594775 -45.88423937,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90705336 -45.88840606,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90362098 -45.8874036,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90293219 -45.8836944,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.89811074 -45.88424629,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89478887 -45.88442779,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.88986813 -45.88509226,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88725199 -45.88498287,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88477851 -45.88530377,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88934482 -45.88367092,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.87931365 -45.88515467,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87597578 -45.88674947,,-67.87630061 -45.88642699,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.8758872 -45.88413516,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.87263059 -45.88283868,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.86703039 -45.88312685,-67.8685462 -45.8831151,-67.8700483 -45.8829059,-67.8648233 -45.8818603,-67.8628063 -45.8810537,-67.8621304 -45.8814645,-67.86071597 -45.88116865,-67.8622806 -45.8814346,-67.8628922 -45.8810985,-67.8613365 -45.8799035,-67.8605962 -45.879896,-67.85926992 -45.88036306,-67.8608537 -45.8799333,-67.8613579 -45.8799707,-67.8611863 -45.8784545,-67.86092880000001 -45.8783424,-67.859516 -45.87831444;-67.859516 -45.87831444,-67.8608537 -45.8799333,-67.8613579 -45.8799707,-67.8611863 -45.8784545,-67.86092880000001 -45.8783424,-67.85926992 -45.88036306,-67.8622806 -45.8814346,-67.8628922 -45.8810985,-67.8613365 -45.8799035,-67.8605962 -45.879896,-67.86071597 -45.88116865,-67.8685462 -45.8831151,-67.8700483 -45.8829059,-67.8648233 -45.8818603,-67.8628063 -45.8810537,-67.8621304 -45.8814645,-67.86703039 -45.88312685,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.87263059 -45.88283868,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.8758872 -45.88413516,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.87630061 -45.88642699,,-67.87597578 -45.88674947,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87931365 -45.88515467,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.88934482 -45.88367092,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88477851 -45.88530377,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88725199 -45.88498287,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88986813 -45.88509226,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.89478887 -45.88442779,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89811074 -45.88424629,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.90293219 -45.8836944,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90362098 -45.8874036,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90705336 -45.88840606,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90594775 -45.88423937,,-67.90591516 -45.88446218,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90970498 -45.88326091,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9169762 -45.8821367,-67.9166543 -45.8815466,-67.913146 -45.8824205,-67.9128242 -45.8814645,-67.91214619 -45.88124859,,-67.91210808 -45.8814063,-67.9107428 -45.880501,-67.9119766 -45.880389,-67.9123414 -45.8806952,-67.9129958 -45.8809193,-67.90891537 -45.88072557,,-67.90902811 -45.88062544,-67.9108071 -45.880613,-67.9116762 -45.8803665,-67.9099488 -45.8795972,-67.9089832 -45.8795748,-67.908479 -45.879291,-67.9081464 -45.8778345,-67.9075241 -45.8768784,-67.9078567 -45.8763107,-67.9075456 -45.8753322,-67.9072452 -45.8752799,-67.9064727 -45.8764004,-67.90493501 -45.87690763,-67.9065692 -45.87642280000001,-67.9066443 -45.8758626,-67.9054427 -45.876363,-67.9050243 -45.8759149,-67.90388535 -45.87594679,-67.9027498 -45.8764153,-67.9023206 -45.8766319,-67.9053462 -45.8764079,-67.9049706 -45.8759672,-67.90200809 -45.87637167,-67.8998315 -45.8761838,-67.9001212 -45.8769457,-67.900883 -45.8771399,-67.9025674 -45.8764527,-67.89805175 -45.8762384,,-67.89781334 -45.87614703,-67.8996062 -45.8756758,-67.8981364 -45.8751081,-67.8992522 -45.8749438,-67.89863672 -45.87485225,-67.8992522 -45.8749438,-67.8973424 -45.8751455,-67.8966451 -45.875362100000004,-67.8955722 -45.8745031,-67.89489679 -45.87455424;-67.89489679 -45.87455424,-67.8992522 -45.8749438,-67.8973424 -45.8751455,-67.8966451 -45.875362100000004,-67.8955722 -45.8745031,-67.89863672 -45.87485225,-67.8996062 -45.8756758,-67.8981364 -45.8751081,-67.8992522 -45.8749438,-67.89781334 -45.87614703,,-67.89805175 -45.8762384,-67.8998315 -45.8761838,-67.9001212 -45.8769457,-67.900883 -45.8771399,-67.9025674 -45.8764527,-67.90200809 -45.87637167,-67.9027498 -45.8764153,-67.9023206 -45.8766319,-67.9053462 -45.8764079,-67.9049706 -45.8759672,-67.90388535 -45.87594679,-67.9065692 -45.87642280000001,-67.9066443 -45.8758626,-67.9054427 -45.876363,-67.9050243 -45.8759149,-67.90493501 -45.87690763,-67.9108071 -45.880613,-67.9116762 -45.8803665,-67.9099488 -45.8795972,-67.9089832 -45.8795748,-67.908479 -45.879291,-67.9081464 -45.8778345,-67.9075241 -45.8768784,-67.9078567 -45.8763107,-67.9075456 -45.8753322,-67.9072452 -45.8752799,-67.9064727 -45.8764004,-67.90902811 -45.88062544,,-67.90891537 -45.88072557,-67.9107428 -45.880501,-67.9119766 -45.880389,-67.9123414 -45.8806952,-67.9129958 -45.8809193,-67.91210808 -45.8814063,,-67.91214619 -45.88124859,-67.9166651 -45.8823159,-67.9169762 -45.8821367,-67.9166543 -45.8815466,-67.913146 -45.8824205,-67.9128242 -45.8814645,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91930941 -45.88137118,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.92260289 -45.87981886,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.93512028 -45.8793768,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.94258106 -45.87928487,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.9459034 -45.88040255,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.94607409 -45.88311995,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94628753 -45.88560005,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94746568 -45.88694764,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94972726 -45.88693813,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.95178221 -45.88666191,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95650174 -45.8868325,-67.9573059 -45.8868268,-67.956748 -45.8864908,-67.9563725 -45.8857215,-67.9556644 -45.8849971,-67.9546167 -45.88506443,-67.960428 -45.8852436,-67.9597843 -45.8853855,-67.9578102 -45.8852959,-67.9558897 -45.8849448,-67.95958113 -45.88533853,-67.9643977 -45.8867746,-67.9641402 -45.8867895,-67.9629064 -45.8855274,-67.9625845 -45.8842055,-67.9620588 -45.8840412,-67.9608893 -45.8848926,-67.96291589 -45.88644251,-67.9642582 -45.8866849,-67.9660714 -45.8869613,-67.9663503 -45.8865505,-67.9662859 -45.88549,-67.9665112 -45.8837798,-67.9671657 -45.8837275,-67.9670477 -45.8843548,-67.96615149 -45.88487087,-67.9689896 -45.8855572,-67.9684317 -45.8850942,-67.9680133 -45.8843399,-67.9672301 -45.8837872,-67.9670477 -45.8843548,-67.96828667 -45.88589528,-67.9702342 -45.8858709,-67.9697192 -45.8860352,-67.9691613 -45.8857589,-67.96952973 -45.8860392,-67.9752874 -45.8886341,-67.9738069 -45.8884922,-67.9698479 -45.8860651,-67.9702234 -45.8859307,-67.97417558 -45.88870119,-67.9753625 -45.8886192,-67.9764462 -45.8884623,-67.9771543 -45.8881561,-67.9769289 -45.888649,-67.97595558 -45.88889979,-67.9770148 -45.8886117,-67.9772186 -45.8879396,-67.9777443 -45.8870285,-67.97698555 -45.88678202,-67.978431 -45.8864236,-67.9788816 -45.8861846,-67.9784632 -45.8858858,-67.9806626 -45.8847357,-67.98040649 -45.88457225,,-67.98007424 -45.88464396;-67.98007424 -45.88464396,,-67.98040649 -45.88457225,-67.978431 -45.8864236,-67.9788816 -45.8861846,-67.9784632 -45.8858858,-67.9806626 -45.8847357,-67.97698555 -45.88678202,-67.9770148 -45.8886117,-67.9772186 -45.8879396,-67.9777443 -45.8870285,-67.97595558 -45.88889979,-67.9753625 -45.8886192,-67.9764462 -45.8884623,-67.9771543 -45.8881561,-67.9769289 -45.888649,-67.97417558 -45.88870119,-67.9752874 -45.8886341,-67.9738069 -45.8884922,-67.9698479 -45.8860651,-67.9702234 -45.8859307,-67.96952973 -45.8860392,-67.9702342 -45.8858709,-67.9697192 -45.8860352,-67.9691613 -45.8857589,-67.96828667 -45.88589528,-67.9689896 -45.8855572,-67.9684317 -45.8850942,-67.9680133 -45.8843399,-67.9672301 -45.8837872,-67.9670477 -45.8843548,-67.96615149 -45.88487087,-67.9642582 -45.8866849,-67.9660714 -45.8869613,-67.9663503 -45.8865505,-67.9662859 -45.88549,-67.9665112 -45.8837798,-67.9671657 -45.8837275,-67.9670477 -45.8843548,-67.96291589 -45.88644251,-67.9643977 -45.8867746,-67.9641402 -45.8867895,-67.9629064 -45.8855274,-67.9625845 -45.8842055,-67.9620588 -45.8840412,-67.9608893 -45.8848926,-67.95958113 -45.88533853,-67.960428 -45.8852436,-67.9597843 -45.8853855,-67.9578102 -45.8852959,-67.9558897 -45.8849448,-67.9546167 -45.88506443,-67.9573059 -45.8868268,-67.956748 -45.8864908,-67.9563725 -45.8857215,-67.9556644 -45.8849971,-67.95650174 -45.8868325,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95178221 -45.88666191,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.94972726 -45.88693813,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94746568 -45.88694764,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94628753 -45.88560005,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94607409 -45.88311995,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.9459034 -45.88040255,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.94258106 -45.87928487,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.95709848 -45.86769228,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95610675 -45.87170205,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95650202 -45.87386891,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95720623 -45.87256309,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.96214261 -45.87344787,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96572509 -45.87368099,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.9672039 -45.87497495,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.96992116 -45.87035971,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.9688479 -45.86924263,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.96898996 -45.86789944,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.97170451 -45.86764851,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97781889 -45.86412305,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97692655 -45.86298292,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.98026531 -45.86300386,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98206338 -45.86352335,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8701234 -45.8635663,-67.8698123 -45.86132490000001,-67.8679776 -45.8603237,-67.8670549 -45.8588966,-67.8654027 -45.859457,-67.8654563 -45.8601518,-67.8656709 -45.8602639,-67.86895092 -45.86422008,-67.8682029 -45.8666817,-67.8692436 -45.8661961,-67.8702307 -45.8647318,-67.8701663 -45.8642088,-67.86635342 -45.86702056,-67.8668189 -45.8667639,-67.8664005 -45.866988,-67.8663254 -45.8676305,-67.86498939 -45.86808329,-67.8639972 -45.8691171,-67.8657031 -45.8680713,-67.86235431 -45.86962035,-67.8640509 -45.869035,-67.8651345 -45.867384,-67.8649521 -45.8657329,-67.8658748 -45.8655237,-67.86542164 -45.86561862,-67.8659713 -45.8654266,-67.8650701 -45.8654864,-67.864598 -45.8658599,-67.86331328 -45.86669187,-67.8642762 -45.866988,-67.8632355 -45.8676828,-67.86164041 -45.86812078,-67.8622591 -45.8680488,-67.8610682 -45.868273,-67.860167 -45.8680414,-67.8590083 -45.8671897,-67.8573239 -45.8674587,-67.8566694 -45.868885600000006,-67.85510089 -45.86964857;-67.85510089 -45.86964857,-67.8622591 -45.8680488,-67.8610682 -45.868273,-67.860167 -45.8680414,-67.8590083 -45.8671897,-67.8573239 -45.8674587,-67.8566694 -45.868885600000006,-67.86164041 -45.86812078,-67.8642762 -45.866988,-67.8632355 -45.8676828,-67.86331328 -45.86669187,-67.8659713 -45.8654266,-67.8650701 -45.8654864,-67.864598 -45.8658599,-67.86542164 -45.86561862,-67.8640509 -45.869035,-67.8651345 -45.867384,-67.8649521 -45.8657329,-67.8658748 -45.8655237,-67.86235431 -45.86962035,-67.8639972 -45.8691171,-67.8657031 -45.8680713,-67.86498939 -45.86808329,-67.8668189 -45.8667639,-67.8664005 -45.866988,-67.8663254 -45.8676305,-67.86635342 -45.86702056,-67.8682029 -45.8666817,-67.8692436 -45.8661961,-67.8702307 -45.8647318,-67.8701663 -45.8642088,-67.86895092 -45.86422008,-67.8701234 -45.8635663,-67.8698123 -45.86132490000001,-67.8679776 -45.8603237,-67.8670549 -45.8588966,-67.8654027 -45.859457,-67.8654563 -45.8601518,-67.8656709 -45.8602639,-67.86513556 -45.86046435,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.98715669 -45.86146692,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98206338 -45.86352335,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98026531 -45.86300386,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.97692655 -45.86298292,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97781889 -45.86412305,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97170451 -45.86764851,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.96898996 -45.86789944,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.9688479 -45.86924263,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.96992116 -45.87035971,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.9672039 -45.87497495,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.96572509 -45.87368099,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96214261 -45.87344787,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.95720623 -45.87256309,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95650202 -45.87386891,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95610675 -45.87170205,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95709848 -45.86769228,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2287,S2477,S2016</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 943,S167,Linea 946,S2147,Linea 964,S2146,Linea 949,S31,Linea 950,S2094,Linea 1711,S33,Linea 1222,S927,Linea 1754,S115,Linea 1085,S944,Linea 1077,S2667,Linea 1078,S793,Linea 1076,S791,Linea 1221,S760,Linea 1073,S794,Linea 1297,S759,Linea 1306,S834,Linea 1307,S839,Linea 1313,S725,Linea 1310,S744,Linea 1311,S2379,Linea 1302,S2519,Linea 1303,S2310,Linea 1768,S748,Linea 1263,S757,Linea 1262,S2629,Linea 1232,S812,Linea 1261,S2287;S2287,Linea 1261,S812,Linea 1232,S2629,Linea 1262,S757,Linea 1263,S748,Linea 1762,S2310,Linea 1303,S2519,Linea 1302,S2379,Linea 1311,S744,Linea 1310,S725,Linea 1313,S839,Linea 1307,S834,Linea 1306,S759,Linea 1297,S794,Linea 1073,S760,Linea 1221,S791,Linea 1076,S793,Linea 1078,S2667,Linea 1077,S944,Linea 1085,S115,Linea 1733,S927,Linea 1222,S33,Linea 1724,S2094,Linea 950,S31,Linea 949,S2146,Linea 964,S2147,Linea 966,S2465,Linea 1715,S546,Linea 1212,S962,Linea 1008,S315,Linea 1017,S59,Linea 1295,S2116,Linea 1293,S1,Linea 1292,S2189,Linea 797,S2095,Linea 1828,S198,Linea 805,S287,Linea 840,S957,Linea 804,S9,Linea 803,S2176,Linea 802,S313,Linea 800,S2477;S2477,Linea 800,S313,Linea 802,S2176,Linea 803,S9,Linea 804,S957,Linea 841,S978,Linea 842,S119,Linea 843,S363,Linea 1357,S983,Linea 1358,S330,Linea 859,S997,Linea 1836,S353,Linea 1361,S2006,Linea 1363,S2009,Linea 1365,S354,Linea 1421,S2255,Linea 568,S882,Linea 567,S522,Linea 566,S2273,Linea 615,S2634,Linea 614,S469,Linea 545,S439,Linea 538,S531,Linea 540,S533,Linea 536,S506,Linea 534,S470,Linea 645,S426,Linea 649,S2307,Linea 650,S455,Linea 502,S398,Linea 501,S2016;S2016,Linea 501,S398,Linea 502,S455,Linea 650,S2307,Linea 649,S426,Linea 645,S470,Linea 534,S506,Linea 536,S533,Linea 540,S531,Linea 538,S439,Linea 545,S469,Linea 614,S2634,Linea 615,S2273,Linea 566,S522,Linea 567,S882,Linea 568,S2255,Linea 1421,S354,Linea 1365,S2009,Linea 1363,S2006,Linea 1361,S353,Linea 1836,S997,Linea 854,S2504,Linea 853,S2716,Linea 849,S2056,Linea 850,S2407,Linea 773,S338,Linea 764,S395,Linea 763,S2468,Linea 760,S402,Linea 759,S2417,Linea 768,S172,Linea 1211,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.93512028 -45.8793768,-67.9380155 -45.8812404,-67.938627 -45.880852,-67.9384768 -45.8805682,-67.9371035 -45.8800827,-67.9358482 -45.8797093,-67.9335737 -45.8797616,-67.934432 -45.8794255,-67.9350007 -45.8792835,-67.9357088 -45.8792686,-67.93588984 -45.88149225,-67.9369104 -45.8822487,-67.9367441 -45.8819686,-67.9385787 -45.881274,-67.938568 -45.8809641,-67.9379243 -45.8811844,-67.93623372 -45.88237227,-67.9369962 -45.8822636,-67.9367441 -45.8819686,-67.9343677 -45.8832719,-67.93288041 -45.88347512,,-67.93297197 -45.88384007,-67.9325545 -45.8880964,-67.9324257 -45.8875363,-67.933048 -45.8868642,-67.9335093 -45.8836304,-67.93195275 -45.88880085,,-67.93184093 -45.88869985,-67.929883 -45.8876782,-67.9306018 -45.8878724,-67.9317605 -45.8883727,-67.9326189 -45.888201,-67.92838162 -45.88770662,-67.9286492 -45.8892166,-67.9288638 -45.8878724,-67.9292393 -45.8876931,-67.92758265 -45.88993498,-67.929368 -45.8925994,-67.9296148 -45.8919423,-67.9287994 -45.8913897,-67.9285097 -45.8910014,-67.9286277 -45.8901127,-67.92819602 -45.89300211,-67.9235637 -45.895743,-67.9241538 -45.8953249,-67.9267287 -45.8949142,-67.9271579 -45.8944961,-67.9267287 -45.8942048,-67.9257309 -45.8936448,-67.9256558 -45.8930698,-67.9268682 -45.8923604,-67.9289711 -45.8934208,-67.9293036 -45.893361,-67.92261639 -45.89612501,-67.9221904 -45.8981548,-67.9232204 -45.8984983,-67.9230487 -45.8980652,-67.9224908 -45.89755,-67.9236388 -45.8964449,-67.92046749 -45.89809236,-67.9312027 -45.9008128,-67.9299688 -45.9015296,-67.9282737 -45.9003723,-67.9263103 -45.8994316,-67.9232204 -45.8984983,-67.9221046 -45.8981623,-67.93028301 -45.90068278,-67.9313636 -45.9007755,-67.9299688 -45.9015296,-67.9309559 -45.9024778,-67.931664 -45.9022687,-67.9323721 -45.9010144,-67.9335737 -45.900447,-67.9371786 -45.9012832,-67.9379082 -45.9021045,-67.9396677 -45.9026719,-67.941041 -45.9025674,-67.94048121 -45.90255833,-67.9417276 -45.9060912,-67.9426718 -45.9047623,-67.9416203 -45.9047773,-67.9445601 -45.9035379,-67.942543 -45.9026271,-67.94070253 -45.90708056,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.93482704 -45.9074612,-67.922008 -45.9097193,-67.9201412 -45.9109884,-67.9196906 -45.9109585,-67.9200125 -45.9097492,-67.9210854 -45.909585,-67.9227591 -45.90851,-67.9267287 -45.9077933,-67.9317927 -45.9075544,-67.9344964 -45.9080023,-67.9353762 -45.9076142,-67.92132124 -45.90950332,-67.9221797 -45.9097492,-67.9201412 -45.9109884,-67.91924 -45.911063,-67.9191971 -45.9115109,-67.91938339 -45.91141146,-67.9191971 -45.9115109,-67.9193473 -45.9122574,-67.9206347 -45.9121827,-67.9237676 -45.911287,-67.92339949 -45.91107871,-67.9250765 -45.911063,-67.9249692 -45.9120036,-67.9233384 -45.9123171,-67.92178415 -45.91276334,-67.9231882 -45.9122723,-67.9249692 -45.9120036,-67.9255915 -45.9130038,-67.9226518 -45.9145117,-67.9209566 -45.9155119,-67.9190469 -45.9157209,-67.9196262 -45.9152282,-67.9198102 -45.91487479,,-67.91936766 -45.91518342,-67.9294324 -45.9165121,-67.930162 -45.916945,-67.9304409 -45.9174227,-67.9261708 -45.9179004,-67.9190469 -45.9157209,-67.9196262 -45.9152282,-67.92776392 -45.91634643,-67.9315567 -45.9216173,-67.9323292 -45.9215277,-67.9268146 -45.9178258,-67.9294968 -45.9176466,-67.9304409 -45.9174227,-67.9300117 -45.9168704,-67.9294324 -45.9165121,-67.92974857 -45.92193359,-67.9378974 -45.9205575,-67.9375219 -45.920244,-67.9376721 -45.9193932,-67.9373181 -45.9201097,-67.9375005 -45.9207814,-67.9381657 -45.9214382,-67.9378438 -45.9222592,-67.9378653 -45.9235428,-67.9352689 -45.9230204,-67.9323292 -45.9215277,-67.9315567 -45.9216173,-67.93749101 -45.92107433,-67.9473066 -45.9191991,-67.9491735 -45.9182736,-67.9488516 -45.9169151,-67.9491198 -45.9161986,-67.9481864 -45.9168405,-67.9482937 -45.9178556,-67.947135 -45.9184079,-67.94559 -45.9178407,-67.9453111 -45.9174227,-67.9465771 -45.9168554,-67.9420924 -45.9173033,-67.9408264 -45.9169002,-67.9406118 -45.9177959,-67.9378867 -45.9191842,-67.9375434 -45.9200649,-67.9378974 -45.9205575,-67.94586231 -45.91962676;-67.94586231 -45.91962676,-67.9473066 -45.9191991,-67.9491735 -45.9182736,-67.9488516 -45.9169151,-67.9491198 -45.9161986,-67.9481864 -45.9168405,-67.9482937 -45.9178556,-67.947135 -45.9184079,-67.94559 -45.9178407,-67.9453111 -45.9174227,-67.9465771 -45.9168554,-67.9420924 -45.9173033,-67.9408264 -45.9169002,-67.9406118 -45.9177959,-67.9378867 -45.9191842,-67.9375434 -45.9200649,-67.9378974 -45.9205575,-67.93749101 -45.92107433,-67.9378974 -45.9205575,-67.9375219 -45.920244,-67.9376721 -45.9193932,-67.9373181 -45.9201097,-67.9375005 -45.9207814,-67.9381657 -45.9214382,-67.9378438 -45.9222592,-67.9378653 -45.9235428,-67.9352689 -45.9230204,-67.9323292 -45.9215277,-67.9315567 -45.9216173,-67.92974857 -45.92193359,-67.9315567 -45.9216173,-67.9323292 -45.9215277,-67.9268146 -45.9178258,-67.9294968 -45.9176466,-67.9304409 -45.9174227,-67.9300117 -45.9168704,-67.9294324 -45.9165121,-67.92776392 -45.91634643,-67.9294324 -45.9165121,-67.930162 -45.916945,-67.9304409 -45.9174227,-67.9261708 -45.9179004,-67.9190469 -45.9157209,-67.9196262 -45.9152282,-67.91936766 -45.91518342,,-67.9198102 -45.91487479,-67.9231882 -45.9122723,-67.9249692 -45.9120036,-67.9255915 -45.9130038,-67.9226518 -45.9145117,-67.9209566 -45.9155119,-67.9190469 -45.9157209,-67.9196262 -45.9152282,-67.92178415 -45.91276334,-67.9250765 -45.911063,-67.9249692 -45.9120036,-67.9233384 -45.9123171,-67.92339949 -45.91107871,-67.9191971 -45.9115109,-67.9193473 -45.9122574,-67.9206347 -45.9121827,-67.9237676 -45.911287,-67.91938339 -45.91141146,-67.9221797 -45.9097492,-67.9201412 -45.9109884,-67.91924 -45.911063,-67.9191971 -45.9115109,-67.92132124 -45.90950332,-67.922008 -45.9097193,-67.9201412 -45.9109884,-67.9196906 -45.9109585,-67.9200125 -45.9097492,-67.9210854 -45.909585,-67.9227591 -45.90851,-67.9267287 -45.9077933,-67.9317927 -45.9075544,-67.9344964 -45.9080023,-67.9353762 -45.9076142,-67.93482704 -45.9074612,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.94070253 -45.90708056,-67.9417276 -45.9060912,-67.9426718 -45.9047623,-67.9416203 -45.9047773,-67.9445601 -45.9035379,-67.942543 -45.9026271,-67.94048121 -45.90255833,-67.9313636 -45.9007755,-67.9299688 -45.9015296,-67.9309559 -45.9024778,-67.931664 -45.9022687,-67.9323721 -45.9010144,-67.9335737 -45.900447,-67.9371786 -45.9012832,-67.9379082 -45.9021045,-67.9396677 -45.9026719,-67.941041 -45.9025674,-67.93028301 -45.90068278,-67.9312027 -45.9008128,-67.9299688 -45.9015296,-67.9282737 -45.9003723,-67.9263103 -45.8994316,-67.9232204 -45.8984983,-67.9221046 -45.8981623,-67.92046749 -45.89809236,-67.9221904 -45.8981548,-67.9232204 -45.8984983,-67.9230487 -45.8980652,-67.9224908 -45.89755,-67.9236388 -45.8964449,-67.92261639 -45.89612501,-67.9235637 -45.895743,-67.9241538 -45.8953249,-67.9267287 -45.8949142,-67.9271579 -45.8944961,-67.9267287 -45.8942048,-67.9257309 -45.8936448,-67.9256558 -45.8930698,-67.9268682 -45.8923604,-67.9289711 -45.8934208,-67.9293036 -45.893361,-67.92819602 -45.89300211,-67.929368 -45.8925994,-67.9296148 -45.8919423,-67.9287994 -45.8913897,-67.9285097 -45.8910014,-67.9286277 -45.8901127,-67.92758265 -45.88993498,-67.9286492 -45.8892166,-67.9288638 -45.8878724,-67.9292393 -45.8876931,-67.92838162 -45.88770662,-67.929883 -45.8876782,-67.9306018 -45.8878724,-67.9317605 -45.8883727,-67.9326189 -45.888201,-67.93184093 -45.88869985,,-67.93195275 -45.88880085,-67.9325545 -45.8880964,-67.9324257 -45.8875363,-67.933048 -45.8868642,-67.9335093 -45.8836304,-67.93297197 -45.88384007,,-67.93288041 -45.88347512,-67.9369962 -45.8822636,-67.9367441 -45.8819686,-67.9343677 -45.8832719,-67.93623372 -45.88237227,-67.9369104 -45.8822487,-67.9367441 -45.8819686,-67.9385787 -45.881274,-67.938568 -45.8809641,-67.9379243 -45.8811844,-67.93588984 -45.88149225,-67.9380155 -45.8812404,-67.938627 -45.880852,-67.9384768 -45.8805682,-67.9371035 -45.8800827,-67.9358482 -45.8797093,-67.9335737 -45.8797616,-67.934432 -45.8794255,-67.9350007 -45.8792835,-67.9357088 -45.8792686,-67.93512028 -45.8793768,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93938002 -45.87863178,,-67.93921257 -45.87804782,-67.9512119 -45.8788877,-67.952435 -45.8787607,-67.9518127 -45.8800454,-67.9474354 -45.8786785,-67.9441524 -45.8779764,-67.9427791 -45.8776328,-67.940805 -45.8776926,-67.94944114 -45.87896309,-67.9534543 -45.8773565,-67.9526925 -45.87711,-67.9530144 -45.8775731,-67.9524779 -45.878813,-67.9512334 -45.8789325,-67.95259842 -45.87763583,-67.9538298 -45.8776104,-67.9575419 -45.8788205,-67.9596341 -45.8789624,-67.9602242 -45.8794852,-67.95937836 -45.87978501,-67.967391 -45.8796271,-67.9660606 -45.879657,-67.9619408 -45.879179,-67.959795 -45.8789997,-67.9602242 -45.8794852,-67.96661757 -45.87943084,-67.9708028 -45.8792686,-67.9686999 -45.8795524,-67.9682064 -45.8792238,-67.96993071 -45.87922522,-67.9739785 -45.8781632,-67.9745579 -45.8782677,-67.9740644 -45.8788802,-67.9710174 -45.8792537,-67.97210325 -45.8786421,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9755771 -45.8785142,-67.9742253 -45.8787756,-67.974236 -45.878222900000004,-67.9757414 -45.87911165,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9756951 -45.8784321,-67.9790318 -45.877588,-67.9792678 -45.8765199,-67.9792786 -45.8747272,-67.9798257 -45.8760045,-67.9801154 -45.8760643,-67.97932522 -45.87631183,-67.9801047 -45.8737412,-67.9795146 -45.8726879,-67.9791605 -45.8735694,-67.9792249 -45.8748467,-67.9793966 -45.8748467,-67.9797721 -45.8758476,-67.9800725 -45.876012,-67.97905112 -45.87422359,-67.9800725 -45.873800900000006,-67.9795146 -45.8726879,-67.9796112 -45.8723816,-67.9792464 -45.872165,-67.9787529 -45.8722173,-67.9783773 -45.8729942,-67.9778409 -45.873195900000006,-67.9771113 -45.8730315,-67.97564136 -45.8729339,-67.977519 -45.8745479,-67.9775083 -45.8737262,-67.9769719 -45.8730166,-67.97664473 -45.87540708,-67.9752553 -45.8766842,-67.977401 -45.8762211,-67.9776049 -45.8757953,-67.9775298 -45.8753995,-67.97335438 -45.87681514,-67.9752016 -45.8765946,-67.9770792 -45.8757132,-67.974987 -45.875578700000005,-67.9743862 -45.87520520000001,-67.97291164 -45.87520301,-67.9725409 -45.8757132,-67.9730666 -45.8750185,-67.9739141 -45.8748392,-67.97095233 -45.87590105;-67.97095233 -45.87590105,-67.9725409 -45.8757132,-67.9730666 -45.8750185,-67.9739141 -45.8748392,-67.97291164 -45.87520301,-67.9752016 -45.8765946,-67.9770792 -45.8757132,-67.974987 -45.875578700000005,-67.9743862 -45.87520520000001,-67.97335438 -45.87681514,-67.9752553 -45.8766842,-67.977401 -45.8762211,-67.9776049 -45.8757953,-67.9775298 -45.8753995,-67.97664473 -45.87540708,-67.977519 -45.8745479,-67.9775083 -45.8737262,-67.9769719 -45.8730166,-67.97564136 -45.8729339,-67.9761887 -45.8726132,-67.9763067 -45.8720604,-67.9778838 -45.8710893,-67.9773795 -45.87092197,-67.9788065 -45.8706037,-67.9790211 -45.8702228,-67.978828 -45.868893,-67.97752558 -45.86902372,-67.9788494 -45.8686091,-67.9777122 -45.8662932,-67.9771221 -45.8662409,-67.97572674 -45.86647737,-67.9770362 -45.8661886,-67.9775405 -45.8660019,-67.9780447 -45.8660616,-67.9790211 -45.8666444,-67.9791498 -45.8664875,-67.9789352 -45.8662036,-67.978828 -45.8655685,-67.9785597 -45.8651502,-67.97746123 -45.86525028,-67.9780984 -45.8649709,-67.9776263 -45.8648289,-67.9768217 -45.8650007,-67.9760063 -45.86583,-67.9748476 -45.8665622,-67.9738605 -45.866353,-67.9728091 -45.865591,-67.97157481 -45.86531756,-67.9732597 -45.8674138,-67.9739678 -45.8674661,-67.9742575 -45.8672345,-67.9737854 -45.8666444,-67.9743755 -45.8664576,-67.9735065 -45.8661812,-67.9728949 -45.8655461,-67.97170451 -45.86764851,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97781889 -45.86412305,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97692655 -45.86298292,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.98026531 -45.86300386,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98206338 -45.86352335,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8701234 -45.8635663,-67.8698123 -45.86132490000001,-67.8679776 -45.8603237,-67.8670549 -45.8588966,-67.8654027 -45.859457,-67.8654563 -45.8601518,-67.8656709 -45.8602639,-67.86895092 -45.86422008,-67.8682029 -45.8666817,-67.8692436 -45.8661961,-67.8702307 -45.8647318,-67.8701663 -45.8642088,-67.86635342 -45.86702056,-67.8668725 -45.8688706,-67.8667974 -45.868646500000004,-67.8676665 -45.8677127,-67.867012 -45.86727940000001,-67.86653014 -45.86909111,-67.8665292 -45.8705589,-67.866143 -45.8710594,-67.8657889 -45.8704767,-67.8668725 -45.8688706,-67.86552841 -45.87071955,-67.8687286 -45.87223970000001,-67.8671408 -45.8717542,-67.8661752 -45.8712611,-67.8662395 -45.8705888,-67.86803091 -45.87230485,-67.8686213 -45.87223970000001,-67.8679776 -45.8725012,-67.867173 -45.87342,-67.86601994 -45.87390747,-67.8666043 -45.8740773,-67.8655958 -45.8758999,-67.8658319 -45.8761464,-67.86520975 -45.8764158,-67.8690398 -45.8759074,-67.8681815 -45.8748691,-67.8664434 -45.8762585,-67.86877282 -45.87598303,-67.8721726 -45.8748019,-67.868793 -45.8753024,-67.8683639 -45.8750633,-67.8691471 -45.8759522,-67.87226293 -45.87472228,-67.8772473 -45.875646,-67.87714 -45.874899,-67.8760457 -45.8739578,-67.8750265 -45.8733005,-67.8741574 -45.8732108,-67.8737283 -45.8741819,-67.87580898 -45.87623664,-67.8836632 -45.8741296,-67.884264 -45.8734723,-67.8839421 -45.8733229,-67.8833306 -45.8736515,-67.8822899 -45.87404,-67.8816032 -45.8749737,-67.8808522 -45.875153,-67.8791678 -45.8762809,-67.8782129 -45.8766021,-67.8774083 -45.8765572,-67.88196942 -45.87464989,-67.8855407 -45.8747869,-67.8848219 -45.8745703,-67.8843713 -45.8743089,-67.8840923 -45.8735395,-67.8836632 -45.8741296,-67.88511415 -45.8749264,-67.88980010000002 -45.8758999,-67.8896391 -45.8754592,-67.8868389 -45.87464500000001,-67.8887044 -45.87631529,-67.8897572 -45.8759746,-67.8899932 -45.8753472,-67.8922677 -45.8740773,-67.89162305 -45.87383375;-67.89162305 -45.87383375,-67.8897572 -45.8759746,-67.8899932 -45.8753472,-67.8922677 -45.8740773,-67.8887044 -45.87631529,-67.88980010000002 -45.8758999,-67.8896391 -45.8754592,-67.8868389 -45.87464500000001,-67.88511415 -45.8749264,-67.8855407 -45.8747869,-67.8848219 -45.8745703,-67.8843713 -45.8743089,-67.8840923 -45.8735395,-67.8836632 -45.8741296,-67.88196942 -45.87464989,-67.8836632 -45.8741296,-67.884264 -45.8734723,-67.8839421 -45.8733229,-67.8833306 -45.8736515,-67.8822899 -45.87404,-67.8816032 -45.8749737,-67.8808522 -45.875153,-67.8791678 -45.8762809,-67.8782129 -45.8766021,-67.8774083 -45.8765572,-67.87580898 -45.87623664,-67.8772473 -45.875646,-67.87714 -45.874899,-67.8760457 -45.8739578,-67.8750265 -45.8733005,-67.8741574 -45.8732108,-67.8737283 -45.8741819,-67.87226293 -45.87472228,-67.8721726 -45.8748019,-67.868793 -45.8753024,-67.8683639 -45.8750633,-67.8691471 -45.8759522,-67.86877282 -45.87598303,-67.8690398 -45.8759074,-67.8681815 -45.8748691,-67.8664434 -45.8762585,-67.86520975 -45.8764158,-67.8666043 -45.8740773,-67.8655958 -45.8758999,-67.8658319 -45.8761464,-67.86601994 -45.87390747,-67.8686213 -45.87223970000001,-67.8679776 -45.8725012,-67.867173 -45.87342,-67.86803091 -45.87230485,-67.8687286 -45.87223970000001,-67.8671408 -45.8717542,-67.8661752 -45.8712611,-67.8662395 -45.8705888,-67.86552841 -45.87071955,-67.8665292 -45.8705589,-67.866143 -45.8710594,-67.8657889 -45.8704767,-67.8668725 -45.8688706,-67.86653014 -45.86909111,-67.8668725 -45.8688706,-67.8667974 -45.868646500000004,-67.8676665 -45.8677127,-67.867012 -45.86727940000001,-67.86635342 -45.86702056,-67.8682029 -45.8666817,-67.8692436 -45.8661961,-67.8702307 -45.8647318,-67.8701663 -45.8642088,-67.86895092 -45.86422008,-67.8701234 -45.8635663,-67.8698123 -45.86132490000001,-67.8679776 -45.8603237,-67.8670549 -45.8588966,-67.8654027 -45.859457,-67.8654563 -45.8601518,-67.8656709 -45.8602639,-67.86513556 -45.86046435,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.98715669 -45.86146692,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98206338 -45.86352335,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98026531 -45.86300386,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.97692655 -45.86298292,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97781889 -45.86412305,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97170451 -45.86764851,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.96898996 -45.86789944,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.9688479 -45.86924263,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.96992116 -45.87035971,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.9672039 -45.87497495,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.96572509 -45.87368099,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96214261 -45.87344787,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.95720623 -45.87256309,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95650202 -45.87386891,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95610675 -45.87170205,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95709848 -45.86769228,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2446,S2463,S846,S841,S2467,S2298</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 754,S2408,Linea 752,S370,Linea 1842,S2421,Linea 741,S980,Linea 740,S377,Linea 748,S381,Linea 747,S2572,Linea 746,S315,Linea 45,S2446;S2446,Linea 45,S315,Linea 1008,S962,Linea 1212,S546,Linea 1753,S2465,Linea 968,S387,Linea 970,S316,Linea 969,S39,Linea 957,S36,Linea 1027,S2695,Linea 1028,S942,Linea 1100,S2463;S2463,Linea 1102,S916,Linea 1099,S2707,Linea 1098,S42,Linea 1853,S2723,Linea 1118,S841,Linea 1112,S2467,Linea 1224,S846;S846,Linea 1224,S2467,Linea 1112,S841;S841,Linea 1112,S2467;S2467,Linea 1112,S841,Linea 1115,S66,Linea 1152,S2658,Linea 1145,S844,Linea 1140,S2298;S2298,Linea 1140,S844,Linea 1145,S2658,Linea 1152,S66,Linea 1854,S163,Linea 1092,S2724,Linea 1856,S42,Linea 1098,S2707,Linea 1088,S43,Linea 1026,S2695,Linea 1027,S36,Linea 957,S39,Linea 969,S316,Linea 970,S387,Linea 968,S2465,Linea 966,S2147,Linea 946,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9513514 -45.867951700000006,-67.9506004 -45.8681534,-67.9493558 -45.8665622,-67.9490876 -45.8664576,-67.9492164 -45.8668461,-67.95075242 -45.86791677,-67.9511476 -45.8693039,-67.95089010000001 -45.8697222,-67.9506433 -45.8681011,-67.9512978 -45.867892,-67.95011093 -45.86936834,-67.9526013 -45.869965,-67.9517484 -45.8700734,-67.9508901 -45.8697222,-67.9511476 -45.8693039,-67.95188123 -45.87007275,-67.9518449 -45.870925,-67.9516733 -45.8706037,-67.9509866 -45.870275,-67.95089010000001 -45.8697222,-67.9517484 -45.8700734,-67.9526281 -45.8699912,-67.95082673 -45.87123588,-67.9510081 -45.87218,-67.9515123 -45.8715599,-67.9518449 -45.870925,-67.94974928 -45.87213834,-67.9508579 -45.8736739,-67.9509115 -45.8721426,-67.94983615 -45.87396079,-67.9521346 -45.8759746,-67.951448 -45.8759597,-67.9509008 -45.8738383,-67.95155064 -45.87647635,-67.9521346 -45.8759746,-67.9517162 -45.8759074,-67.9513943 -45.8758999,-67.9525959 -45.87702780000001,-67.95337920000001 -45.8774162,-67.95259842 -45.87763583,-67.9540229 -45.8774984,-67.9559112 -45.8773639,-67.9570377 -45.8767664,-67.9581749 -45.8755115,-67.9592478 -45.87404,-67.960149 -45.8733229,-67.961179 -45.8736441,-67.9631639 -45.8743836,-67.9648268 -45.8746973,-67.96414173 -45.87523514;-67.96414173 -45.87523514,-67.9540229 -45.8774984,-67.9559112 -45.8773639,-67.9570377 -45.8767664,-67.9581749 -45.8755115,-67.9592478 -45.87404,-67.960149 -45.8733229,-67.961179 -45.8736441,-67.9631639 -45.8743836,-67.9648268 -45.8746973,-67.95259842 -45.87763583,-67.9534543 -45.8773565,-67.9526925 -45.87711,-67.9530144 -45.8775731,-67.9524779 -45.878813,-67.9512334 -45.8789325,-67.94944114 -45.87896309,-67.9512119 -45.8788877,-67.952435 -45.8787607,-67.9518127 -45.8800454,-67.9474354 -45.8786785,-67.9441524 -45.8779764,-67.9427791 -45.8776328,-67.940805 -45.8776926,-67.93921257 -45.87804782,,-67.93938002 -45.87863178,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.94258106 -45.87928487,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.9459034 -45.88040255,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.94607409 -45.88311995,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94628753 -45.88560005,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94746568 -45.88694764,-67.948696 -45.886909,-67.9494202 -45.887484,-67.9491949 -45.8880889,-67.9491842 -45.8890224,-67.94851142 -45.88940859,-67.9492593 -45.8893958,-67.9482508 -45.8911806,-67.94741116 -45.89163645;-67.94741116 -45.89163645,-67.953701 -45.8891792,-67.9537976 -45.8898588,-67.9529715 -45.8906056,-67.9515767 -45.8903293,-67.9498279 -45.8905906,-67.9490983 -45.8910462,-67.95220821 -45.8890951,-67.9531646 -45.88667,-67.9533255 -45.8870733,-67.9523599 -45.8875064,-67.9523385 -45.888074,-67.9529393 -45.8886416,-67.95178221 -45.88666191,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95650174 -45.8868325,-67.9563618 -45.8869613,-67.9570055 -45.8870583,-67.9568553 -45.8866028,-67.957381 -45.8868268,-67.95495587 -45.8875866,-67.9576063 -45.8896124,-67.9577136 -45.888888,-67.9572308 -45.8876483,-67.9565012 -45.8869986,-67.95602222 -45.88970885,-67.9555678 -45.8902546,-67.9566729 -45.8896124,-67.95416096 -45.89058835,-67.9546666 -45.8908595,-67.9532504 -45.8922185,-67.9515231 -45.8917406,-67.95045121 -45.89176951;-67.95045121 -45.89176951,-67.9546666 -45.8908595,-67.9532504 -45.8922185,-67.9515231 -45.8917406,-67.95416096 -45.89058835,-67.9555678 -45.8902546,-67.9566729 -45.8896124,-67.95602222 -45.88970885;-67.95602222 -45.88970885,-67.9555678 -45.8902546,-67.9566729 -45.8896124,-67.95416096 -45.89058835;-67.95416096 -45.89058835,-67.9555678 -45.8902546,-67.9566729 -45.8896124,-67.95602222 -45.88970885,-67.9577458 -45.889687,-67.9589152 -45.8901575,-67.9578638 -45.8892315,-67.9582071 -45.8887536,-67.9595053 -45.8884474,-67.9607284 -45.889,-67.9613507 -45.8890224,-67.9625523 -45.8881561,-67.9630458 -45.8861696,-67.9629171 -45.8856469,-67.9631639 -45.8856543,-67.96399 -45.8867447,-67.9643333 -45.8867223,-67.96291589 -45.88644251,-67.9671872 -45.8881412,-67.9659748 -45.8870061,-67.9642153 -45.8869314,-67.9642582 -45.8866849,-67.96633372 -45.88873533,-67.9702985 -45.892002,-67.9693437 -45.8927189,-67.9695046 -45.8920393,-67.9694617 -45.8909565,-67.9689038 -45.8902247,-67.9675949 -45.8891494,-67.9695987 -45.89181892,-67.9702985 -45.892002,-67.969805 -45.8925695,-67.9693437 -45.8927189,-67.9691291 -45.8925844,-67.9689145 -45.8911731,-67.96747113 -45.89098947;-67.96747113 -45.89098947,-67.9702985 -45.892002,-67.969805 -45.8925695,-67.9693437 -45.8927189,-67.9691291 -45.8925844,-67.9689145 -45.8911731,-67.9695987 -45.89181892,-67.9702985 -45.892002,-67.9693437 -45.8927189,-67.9695046 -45.8920393,-67.9694617 -45.8909565,-67.9689038 -45.8902247,-67.9675949 -45.8891494,-67.96633372 -45.88873533,-67.9671872 -45.8881412,-67.9659748 -45.8870061,-67.9642153 -45.8869314,-67.9642582 -45.8866849,-67.96291589 -45.88644251,-67.9643977 -45.8867746,-67.9641402 -45.8867895,-67.9629064 -45.8855274,-67.9625845 -45.8842055,-67.9620588 -45.8840412,-67.9608893 -45.8848926,-67.95958113 -45.88533853,-67.960428 -45.8852436,-67.9597843 -45.8853855,-67.9578102 -45.8852959,-67.9558897 -45.8849448,-67.9546167 -45.88506443,-67.9573059 -45.8868268,-67.956748 -45.8864908,-67.9563725 -45.8857215,-67.9556644 -45.8849971,-67.95650174 -45.8868325,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95178221 -45.88666191,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.94972726 -45.88693813,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94746568 -45.88694764,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94628753 -45.88560005,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94607409 -45.88311995,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.9459034 -45.88040255,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.94258106 -45.87928487,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S942,S745,S2705,S2710,S2677,S2689</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 943,S167,Linea 946,S2147,Linea 966,S2465,Linea 968,S387,Linea 970,S316,Linea 969,S39,Linea 957,S36,Linea 1027,S2695,Linea 1028,S942;S942,Linea 1028,S2695,Linea 1026,S43,Linea 1088,S2707,Linea 1098,S42,Linea 1853,S2723,Linea 1118,S841,Linea 1113,S2194,Linea 1110,S803,Linea 1138,S815,Linea 1129,S921,Linea 1273,S2055,Linea 1328,S778,Linea 1329,S834,Linea 1307,S839,Linea 1313,S725,Linea 1310,S744,Linea 1321,S747,Linea 1319,S745;S745,Linea 1319,S747,Linea 1324,S752,Linea 1326,S2640,Linea 1246,S2627,Linea 1247,S2657,Linea 1260,S925,Linea 1337,S924,Linea 1330,S2717,Linea 1333,S2718,Linea 1334,S2698,Linea 1335,S2711,Linea 1336,S2694,Linea 608,S2619,Linea 606,S2683,Linea 601,S2689,Linea 605,S581,Linea 610,S2688,Linea 1869,S2693,Linea 1871,S2705;S2705,Linea 1871,S2693,Linea 1870,S2703,Linea 1873,S2713,Linea 1874,S2710;S2710,Linea 1874,S2713,Linea 1873,S2703,Linea 1870,S2693,Linea 1869,S2688,Linea 610,S581,Linea 605,S2689,Linea 599,S2196,Linea 602,S2677;S2677,Linea 602,S2196,Linea 599,S2689;S2689,Linea 599,S2196,Linea 600,S2324,Linea 598,S4,Linea 597,S2293,Linea 596,S17,Linea 594,S2259,Linea 592,S2129,Linea 591,S949,Linea 579,S2132,Linea 578,S2443,Linea 581,S938,Linea 582,S849,Linea 584,S2168,Linea 1617,S2167,Linea 736,S2110,Linea 930,S2111,Linea 931,S645,Linea 932,S78,Linea 940,S56,Linea 944,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.93512028 -45.8793768,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.94258106 -45.87928487,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.9459034 -45.88040255,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.94607409 -45.88311995,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94628753 -45.88560005,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94746568 -45.88694764,-67.948696 -45.886909,-67.9494202 -45.887484,-67.9491949 -45.8880889,-67.9491842 -45.8890224,-67.94851142 -45.88940859;-67.94851142 -45.88940859,-67.948696 -45.886909,-67.9494202 -45.887484,-67.9491949 -45.8880889,-67.9491842 -45.8890224,-67.94746568 -45.88694764,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94972726 -45.88693813,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.95178221 -45.88666191,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95650174 -45.8868325,-67.9563618 -45.8869613,-67.9570055 -45.8870583,-67.9568553 -45.8866028,-67.957381 -45.8868268,-67.95495587 -45.8875866,-67.9576063 -45.8896124,-67.9577136 -45.888888,-67.9572308 -45.8876483,-67.9565012 -45.8869986,-67.95602222 -45.88970885,-67.958647 -45.8921289,-67.9580784 -45.8917854,-67.958411 -45.8907699,-67.9588509 -45.8902397,-67.9578209 -45.8896422,-67.95792371 -45.89252328,-67.958411 -45.8946678,-67.9585934 -45.8938464,-67.9590118 -45.8934581,-67.9594839 -45.8932714,-67.9597199 -45.892913,-67.9595053 -45.8926741,-67.95753705 -45.89518861,-67.9602778 -45.8973559,-67.959677 -45.8974604,-67.9590976 -45.897326,-67.9587114 -45.8968257,-67.95928 -45.896094,-67.9591405 -45.8953548,-67.95956637 -45.89743693,-67.9642367 -45.8983564,-67.9643333 -45.8976993,-67.9650199 -45.8970721,-67.9652989 -45.8964076,-67.9613721 -45.8972065,-67.96354703 -45.89869944,-67.9693437 -45.9027914,-67.9659963 -45.8987297,-67.965138 -45.8986401,-67.96793825 -45.90348141,-67.9685926 -45.9034484,-67.9653096 -45.9044488,-67.9600525 -45.9049564,-67.9584861 -45.9041651,-67.9576707 -45.9040606,-67.95594313 -45.90408308,-67.9576707 -45.9040606,-67.9586577 -45.9041501,-67.9598594 -45.9049266,-67.9530573 -45.9053894,-67.9526496 -45.9059568,-67.9507613 -45.9066437,-67.9497957 -45.9073603,-67.9479933 -45.907644,-67.9448175 -45.9073753,-67.9420066 -45.9072707,-67.94070253 -45.90708056,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.93482704 -45.9074612,-67.922008 -45.9097193,-67.9201412 -45.9109884,-67.9196906 -45.9109585,-67.9200125 -45.9097492,-67.9210854 -45.909585,-67.9227591 -45.90851,-67.9267287 -45.9077933,-67.9317927 -45.9075544,-67.9344964 -45.9080023,-67.9353762 -45.9076142,-67.92132124 -45.90950332,-67.9221797 -45.9097492,-67.9201412 -45.9109884,-67.91924 -45.911063,-67.9191971 -45.9115109,-67.91938339 -45.91141146,-67.9150558 -45.9126903,-67.9162359 -45.9122126,-67.9164505 -45.9115408,-67.9181457 -45.910645,-67.9202914 -45.9111078,-67.91361731 -45.91301639,-67.9152703 -45.9126754,-67.9162359 -45.9122126,-67.9164505 -45.9115408,-67.9124379 -45.9113168,-67.9118156 -45.9111227,-67.91156522 -45.91091836;-67.91156522 -45.91091836,-67.9152703 -45.9126754,-67.9162359 -45.9122126,-67.9164505 -45.9115408,-67.9124379 -45.9113168,-67.9118156 -45.9111227,-67.91361731 -45.91301639,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.9049706 -45.9149894,-67.9050565 -45.9146311,-67.908597 -45.9143027,-67.9105282 -45.9135114,-67.9126954 -45.9130636,-67.9141974 -45.9123171,-67.90949828 -45.91775832,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.90527 -45.9149745,-67.9052067 -45.9146162,-67.9025245 -45.9141235,-67.90171 -45.9145565,-67.89907 -45.9147953,-67.8979325 -45.9163329,-67.8972459 -45.916945,-67.8961945 -45.916945,-67.896 -45.9166,-67.89415644 -45.91643339,-67.8951859 -45.9189752,-67.8956151 -45.9181094,-67.8975034 -45.9169749,-67.8979325 -45.9163329,-67.8972459 -45.916945,-67.8964305 -45.9169151,-67.8960013 -45.9166017,-67.8948966 -45.91911867,-67.895422 -45.9189901,-67.8929543 -45.9186468,-67.89164408 -45.91850265,-67.892257 -45.917781,-67.8922355 -45.9171241,-67.8925788 -45.9166017,-67.8926325 -45.9163553,-67.8917956 -45.9155044,-67.8909266 -45.914855,-67.8902507 -45.9144445,-67.8900683 -45.9137279,-67.8889096 -45.913601,-67.888813 -45.9138473,-67.88780562 -45.91450171,-67.8887486 -45.9139369,-67.8892422 -45.9133771,-67.889092 -45.9088982,-67.8895211 -45.9081964,-67.8884697 -45.9068527,-67.8891134 -45.9060464,-67.8899932 -45.905494,-67.890079 -45.9049863,-67.8895855 -45.9049415,-67.8884912 -45.9054641,-67.88690397 -45.90593083,-67.8877831 -45.9058523,-67.8869033 -45.9059867,-67.8840923 -45.9048668,-67.8834271 -45.9042397,-67.8832769 -45.9030601,-67.8820109 -45.9031497,-67.8811312 -45.903299,-67.8780627 -45.9027018,-67.8772688 -45.9023733,-67.8778911 -45.9022389,-67.87749311 -45.90223614,-67.8778911 -45.9022389,-67.8772688 -45.9023733,-67.8762174 -45.9020895,-67.8762174 -45.9018506,-67.875402 -45.9018954,-67.87401 -45.90242679,-67.875402 -45.9018954,-67.8762174 -45.9018506,-67.8767323 -45.9016117,-67.8774405 -45.9009995,-67.8778481 -45.8999691,-67.87600509 -45.90013168,-67.8778481 -45.8999691,-67.8795862 -45.8996556,-67.8816676 -45.8998198,-67.8823113 -45.899342,-67.88283131 -45.8994995,-67.8816462 -45.8976545,-67.8819466 -45.8992972,-67.8823757 -45.8992374,-67.88049412 -45.89765426,-67.8799939 -45.8961761,-67.8810668 -45.8968855,-67.881496 -45.8974007,-67.87842608 -45.89585515,-67.8782558 -45.8919497,-67.8778267 -45.8923828,-67.8780413 -45.8938315,-67.8791893 -45.8953398,-67.87768072 -45.89180609,-67.8788996 -45.8901426,-67.877934 -45.8900903,-67.8774834 -45.8904786,-67.8777945 -45.8925098,-67.8783524 -45.8919348,-67.87813787 -45.88993585,-67.8789854 -45.8901127,-67.8777838 -45.8901052,-67.8751981 -45.8927935,-67.8739536 -45.8942571,-67.87230402 -45.89457162,-67.8727734 -45.8946678,-67.8694153 -45.8954742,-67.8682566 -45.89504860000001,-67.86797017 -45.89505687,-67.8685999 -45.895295,-67.8667116 -45.8956833,-67.8646088 -45.8956833,-67.86301998 -45.89560501,-67.8636646 -45.8957132,-67.8625917 -45.8959521,-67.8602743 -45.8948769,-67.85948859 -45.89472907;-67.85948859 -45.89472907,-67.8636646 -45.8957132,-67.8625917 -45.8959521,-67.8602743 -45.8948769,-67.86301998 -45.89560501,-67.8636646 -45.8957132,-67.8630209 -45.8961014,-67.8661537 -45.8966391,-67.86618307 -45.89684928,-67.8667545 -45.8970572,-67.8640938 -45.8981025,-67.8651237 -45.89867,-67.86456115 -45.89914262,-67.8660679 -45.8992972,-67.8682137 -45.8998049,-67.86778786 -45.90024848;-67.86778786 -45.90024848,-67.8660679 -45.8992972,-67.8682137 -45.8998049,-67.86456115 -45.89914262,-67.8667545 -45.8970572,-67.8640938 -45.8981025,-67.8651237 -45.89867,-67.86618307 -45.89684928,-67.8636646 -45.8957132,-67.8630209 -45.8961014,-67.8661537 -45.8966391,-67.86301998 -45.89560501,-67.8685999 -45.895295,-67.8667116 -45.8956833,-67.8646088 -45.8956833,-67.86797017 -45.89505687,-67.8727734 -45.8946678,-67.8694153 -45.8954742,-67.8682566 -45.89504860000001,-67.87230402 -45.89457162,-67.8789854 -45.8901127,-67.8777838 -45.8901052,-67.8751981 -45.8927935,-67.8739536 -45.8942571,-67.87813787 -45.88993585,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87484305 -45.89067788,-67.8756487 -45.8907699,-67.8751016 -45.891875,-67.87350417 -45.89236821;-67.87350417 -45.89236821,-67.8756487 -45.8907699,-67.8751016 -45.891875,-67.87484305 -45.89067788,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87813787 -45.88993585;-67.87813787 -45.88993585,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87484305 -45.89067788,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87661058 -45.88889945,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.88085052 -45.88709026,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88304639 -45.88588109,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88477851 -45.88530377,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88725199 -45.88498287,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88986813 -45.88509226,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.89478887 -45.88442779,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89811074 -45.88424629,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.90293219 -45.8836944,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90362098 -45.8874036,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90705336 -45.88840606,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90594775 -45.88423937,,-67.90591516 -45.88446218,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90970498 -45.88326091,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91930941 -45.88137118,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.92260289 -45.87981886,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2679,S758,S2194,S2707</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 943,S167,Linea 946,S2147,Linea 966,S2465,Linea 968,S387,Linea 970,S316,Linea 969,S39,Linea 957,S36,Linea 1025,S2725,Linea 958,S37,Linea 959,S2680,Linea 956,S2666,Linea 955,S2656,Linea 1033,S904,Linea 1084,S736,Linea 1032,S926,Linea 1031,S902,Linea 1865,S2679;S2679,Linea 1865,S902,Linea 1104,S820,Linea 1108,S831,Linea 1109,S803,Linea 1138,S815,Linea 1129,S921,Linea 1273,S2055,Linea 1328,S778,Linea 1127,S758;S758,Linea 1127,S778,Linea 1328,S2055,Linea 1273,S921,Linea 1129,S815,Linea 1138,S803,Linea 1110,S2194;S2194,Linea 1113,S841,Linea 1118,S2723,Linea 1853,S42,Linea 1098,S2707;S2707,Linea 1088,S43,Linea 1026,S2695,Linea 1027,S36,Linea 957,S39,Linea 969,S316,Linea 970,S387,Linea 968,S2465,Linea 966,S2147,Linea 946,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.93512028 -45.8793768,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.94258106 -45.87928487,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.9459034 -45.88040255,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.94607409 -45.88311995,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94628753 -45.88560005,-67.9471672 -45.8852884,-67.9470921 -45.8848627,-67.9461265 -45.8845565,-67.94483649 -45.8845247,-67.9459763 -45.8845415,-67.9446459 -45.8841607,-67.9436696 -45.8842353,-67.94255555 -45.88454697,-67.9423177 -45.8861323,-67.9425859 -45.8852137,-67.9431438 -45.8846088,-67.9432619 -45.8842802,-67.94198922 -45.88653728,-67.9414594 -45.88785,-67.9417813 -45.8871554,-67.9419315 -45.8865879,-67.9423285 -45.8863414,-67.93992923 -45.88854577,-67.9410625 -45.888776,-67.9401827 -45.8890747,-67.9375863 -45.8886341,-67.93581454 -45.88863383,-67.9351616 -45.890628,-67.9353011 -45.8903069,-67.9351509 -45.889702,-67.9356337 -45.8888283,-67.9361594 -45.8882682,-67.9367387 -45.8882607,-67.93404442 -45.8909633,-67.9365563 -45.8934955,-67.9363203 -45.8936,-67.935344 -45.8928831,-67.935226 -45.8911432,-67.9360062 -45.89335158,-67.9386914 -45.8911283,-67.9384661 -45.8920468,-67.9380691 -45.8922111,-67.9374146 -45.8931968,-67.93808121 -45.89103139,-67.9441845 -45.8944512,-67.9437339 -45.8940256,-67.9429615 -45.8935179,-67.9420388 -45.8926442,-67.9392278 -45.8921737,-67.9386055 -45.8919721,-67.9388738 -45.8911059,-67.94342733 -45.89494583,-67.9441738 -45.8946081,-67.9435945 -45.8938464,-67.9422426 -45.892801,-67.9410195 -45.8932192,-67.94030264 -45.89356218;-67.94030264 -45.89356218,-67.9441738 -45.8946081,-67.9435945 -45.8938464,-67.9422426 -45.892801,-67.9410195 -45.8932192,-67.94342733 -45.89494583,-67.9444742 -45.8952204,-67.9448175 -45.8966465,-67.9453754 -45.8970423,-67.9465127 -45.8973708,-67.948122 -45.8975724,-67.9491735 -45.8979383,-67.9495811 -45.8977143,-67.9495168 -45.8971916,-67.948916 -45.89643,-67.9480469 -45.8964599,-67.94634029 -45.89666725,-67.9480469 -45.8964599,-67.9490232 -45.8964748,-67.9496241 -45.8946081,-67.9499245 -45.8939808,-67.9505253 -45.8936448,-67.9514372 -45.8936821,-67.9526389 -45.8943915,-67.95185094 -45.89446535,-67.9582393 -45.8946827,-67.9580355 -45.8936448,-67.9570484 -45.8930026,-67.9563832 -45.8929429,-67.9546344 -45.8936448,-67.9533792 -45.8943691,-67.95753705 -45.89518861,-67.9602778 -45.8973559,-67.959677 -45.8974604,-67.9590976 -45.897326,-67.9587114 -45.8968257,-67.95928 -45.896094,-67.9591405 -45.8953548,-67.95956637 -45.89743693,-67.9642367 -45.8983564,-67.9643333 -45.8976993,-67.9650199 -45.8970721,-67.9652989 -45.8964076,-67.9613721 -45.8972065,-67.96354703 -45.89869944,-67.9693437 -45.9027914,-67.9659963 -45.8987297,-67.965138 -45.8986401,-67.96793825 -45.90348141,-67.9685926 -45.9034484,-67.9653096 -45.9044488,-67.9600525 -45.9049564,-67.9584861 -45.9041651,-67.9576707 -45.9040606,-67.95594313 -45.90408308,-67.9577565 -45.9038664,-67.9585826 -45.9036126,-67.9585826 -45.9031348,-67.9576492 -45.90253,-67.9561365 -45.9021343,-67.9558575 -45.9012832,-67.95417314 -45.90131869;-67.95417314 -45.90131869,-67.9577565 -45.9038664,-67.9585826 -45.9036126,-67.9585826 -45.9031348,-67.9576492 -45.90253,-67.9561365 -45.9021343,-67.9558575 -45.9012832,-67.95594313 -45.90408308,-67.9685926 -45.9034484,-67.9653096 -45.9044488,-67.9600525 -45.9049564,-67.9584861 -45.9041651,-67.9576707 -45.9040606,-67.96793825 -45.90348141,-67.9693437 -45.9027914,-67.9659963 -45.8987297,-67.965138 -45.8986401,-67.96354703 -45.89869944,-67.9642367 -45.8983564,-67.9643333 -45.8976993,-67.9650199 -45.8970721,-67.9652989 -45.8964076,-67.9613721 -45.8972065,-67.95956637 -45.89743693,-67.9602778 -45.8973559,-67.959677 -45.8974604,-67.9590976 -45.897326,-67.9587114 -45.8968257,-67.95928 -45.896094,-67.9591405 -45.8953548,-67.95753705 -45.89518861,-67.958411 -45.8946678,-67.9585934 -45.8938464,-67.9590118 -45.8934581,-67.9594839 -45.8932714,-67.9597199 -45.892913,-67.9595053 -45.8926741,-67.95792371 -45.89252328;-67.95792371 -45.89252328,-67.958647 -45.8921289,-67.9580784 -45.8917854,-67.958411 -45.8907699,-67.9588509 -45.8902397,-67.9578209 -45.8896422,-67.95602222 -45.88970885,-67.9576063 -45.8896124,-67.9577136 -45.888888,-67.9572308 -45.8876483,-67.9565012 -45.8869986,-67.95495587 -45.8875866,-67.9563618 -45.8869613,-67.9570055 -45.8870583,-67.9568553 -45.8866028,-67.957381 -45.8868268,-67.95650174 -45.8868325,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95178221 -45.88666191;-67.95178221 -45.88666191,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.94972726 -45.88693813,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94746568 -45.88694764,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94628753 -45.88560005,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94607409 -45.88311995,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.9459034 -45.88040255,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.94258106 -45.87928487,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2659,S2632,S2020,S919,S2628</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 944,S56,Linea 940,S78,Linea 932,S645,Linea 931,S2111,Linea 930,S2110,Linea 736,S2167,Linea 1617,S2168,Linea 584,S849,Linea 582,S938,Linea 581,S2443,Linea 578,S2132,Linea 579,S949,Linea 591,S2129,Linea 592,S2259,Linea 594,S17,Linea 735,S295,Linea 734,S3,Linea 613,Q16,Linea 1626,S2240,Linea 471,S2,Linea 1886,S13,Linea 1887,S2523,Linea 1888,S2606,Linea 526,S2614,Linea 525,S2461,Linea 454,S2594,Linea 438,S2120,Linea 434,S2668,Linea 435,S2105,Linea 432,S2632,Linea 431,S2121,Linea 430,S2659;S2659,Linea 430,S2121,Linea 431,S2632;S2632,Linea 432,S2105,Linea 435,S2668,Linea 434,S2120,Linea 438,S2594,Linea 454,S2461,Linea 525,S2614,Linea 526,S2606,Linea 1888,S2523,Linea 1887,S13,Linea 1886,S2,Linea 471,S2240,Linea 1593,Q16,Linea 613,S3,Linea 734,S295,Linea 735,S17,Linea 594,S2259,Linea 592,S2129,Linea 591,S949,Linea 579,S2132,Linea 578,S2443,Linea 581,S938,Linea 582,S849,Linea 584,S2168,Linea 1617,S2167,Linea 736,S2110,Linea 930,S2111,Linea 934,S2334,Linea 1648,S77,Linea 713,S236,Linea 1646,S2231,Linea 927,S2278,Linea 686,S2025,Linea 706,S580,Linea 692,S2020;S2020,Linea 692,S580,Linea 706,S2025,Linea 686,S2278,Linea 927,S2231,Linea 1649,S236,Linea 713,S77,Linea 1647,S2334,Linea 934,S2111,Linea 931,S645,Linea 932,S78,Linea 940,S56,Linea 944,S229,Linea 943,S167,Linea 946,S2147,Linea 966,S2465,Linea 968,S387,Linea 970,S316,Linea 969,S39,Linea 957,S36,Linea 1027,S2695,Linea 1026,S43,Linea 1088,S2707,Linea 1098,S42,Linea 1853,S2723,Linea 1118,S841,Linea 1112,S2467,Linea 1224,S846,Linea 1107,S919;S919,Linea 1107,S846,Linea 1223,S804,Linea 1111,S803,Linea 1138,S815,Linea 1129,S921,Linea 1273,S2055,Linea 1272,S908,Linea 1271,S597,Linea 1270,S2628;S2628,Linea 1270,S597,Linea 1271,S908,Linea 1272,S2055,Linea 1273,S921,Linea 1129,S815,Linea 1138,S803,Linea 1110,S2194,Linea 1113,S841,Linea 1118,S2723,Linea 1853,S42,Linea 1098,S2707,Linea 1088,S43,Linea 1026,S2695,Linea 1027,S36,Linea 957,S39,Linea 969,S316,Linea 970,S387,Linea 968,S2465,Linea 966,S2147,Linea 946,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92260289 -45.87981886,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.91930941 -45.88137118,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91747464 -45.88372353,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91541483 -45.88231338,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.90970498 -45.88326091,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90591516 -45.88446218,,-67.90594775 -45.88423937,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90705336 -45.88840606,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90362098 -45.8874036,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90293219 -45.8836944,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.89811074 -45.88424629,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89478887 -45.88442779,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.88986813 -45.88509226,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88725199 -45.88498287,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88477851 -45.88530377,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88934482 -45.88367092,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.87931365 -45.88515467,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87597578 -45.88674947,,-67.87630061 -45.88642699,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.8758872 -45.88413516,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.87263059 -45.88283868,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.86703039 -45.88312685,-67.8685462 -45.8831151,-67.8700483 -45.8829059,-67.8648233 -45.8818603,-67.8628063 -45.8810537,-67.8621304 -45.8814645,-67.86071597 -45.88116865,-67.8614116 -45.8855274,-67.862978 -45.884788,-67.8635466 -45.8831599,-67.8632355 -45.8817483,-67.86391140000002 -45.8815093,-67.8628063 -45.8810537,-67.8623772 -45.8814346,-67.85908094 -45.88593849,-67.8609717 -45.8856767,-67.862817 -45.8848403,-67.8617656 -45.8854826,-67.8616369 -45.886192,-67.8618944 -45.8867671,-67.86045923 -45.88724171,-67.8618944 -45.8867671,-67.8616261 -45.8862443,-67.8603601 -45.88681940000001,-67.8594589 -45.8868119,-67.8584075 -45.8873347,-67.856369 -45.8871629,-67.8557789 -45.8865655,-67.85399644 -45.88640005,-67.8548133 -45.885968,-67.8544056 -45.8857215,-67.8542554 -45.8852884,-67.85284989 -45.88522411,-67.8535903 -45.8848851,-67.8530109 -45.8845938,-67.8524315 -45.8844893,-67.85093028 -45.88433862,-67.8516591 -45.8844445,-67.8505969 -45.8845789,-67.84921346 -45.88477072,-67.84983520000002 -45.8848851,-67.8485048 -45.8854826,-67.849406 -45.8856842,-67.84894709 -45.88576073,-67.848537 -45.8862742,-67.8485477 -45.8854079,-67.8494489 -45.8856319,-67.84708796 -45.88650563,-67.8500605 -45.887484,-67.8466702 -45.8865729,-67.8469384 -45.8864833,-67.84957451 -45.88786751;-67.84957451 -45.88786751,-67.8500605 -45.887484,-67.8466702 -45.8865729,-67.8469384 -45.8864833,-67.84708796 -45.88650563,-67.848537 -45.8862742,-67.8485477 -45.8854079,-67.8494489 -45.8856319,-67.84894709 -45.88576073;-67.84894709 -45.88576073,-67.84983520000002 -45.8848851,-67.8485048 -45.8854826,-67.849406 -45.8856842,-67.84921346 -45.88477072,-67.8516591 -45.8844445,-67.8505969 -45.8845789,-67.85093028 -45.88433862,-67.8535903 -45.8848851,-67.8530109 -45.8845938,-67.8524315 -45.8844893,-67.85284989 -45.88522411,-67.8548133 -45.885968,-67.8544056 -45.8857215,-67.8542554 -45.8852884,-67.85399644 -45.88640005,-67.8618944 -45.8867671,-67.8616261 -45.8862443,-67.8603601 -45.88681940000001,-67.8594589 -45.8868119,-67.8584075 -45.8873347,-67.856369 -45.8871629,-67.8557789 -45.8865655,-67.86045923 -45.88724171,-67.8609717 -45.8856767,-67.862817 -45.8848403,-67.8617656 -45.8854826,-67.8616369 -45.886192,-67.8618944 -45.8867671,-67.85908094 -45.88593849,-67.8614116 -45.8855274,-67.862978 -45.884788,-67.8635466 -45.8831599,-67.8632355 -45.8817483,-67.86391140000002 -45.8815093,-67.8628063 -45.8810537,-67.8623772 -45.8814346,-67.86071597 -45.88116865,-67.8685462 -45.8831151,-67.8700483 -45.8829059,-67.8648233 -45.8818603,-67.8628063 -45.8810537,-67.8621304 -45.8814645,-67.86703039 -45.88312685,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.87263059 -45.88283868,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.8758872 -45.88413516,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.87630061 -45.88642699,,-67.87597578 -45.88674947,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87931365 -45.88515467,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.88934482 -45.88367092,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88477851 -45.88530377,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88725199 -45.88498287,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88986813 -45.88509226,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.89478887 -45.88442779,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89811074 -45.88424629,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.90293219 -45.8836944,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90362098 -45.8874036,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90705336 -45.88840606,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90594775 -45.88423937,,-67.90591516 -45.88446218,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90970498 -45.88326091,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9169762 -45.8821367,-67.9166543 -45.8815466,-67.913146 -45.8824205,-67.9128242 -45.8814645,-67.91214619 -45.88124859,,-67.91210808 -45.8814063,-67.9107428 -45.880501,-67.9119766 -45.880389,-67.9123414 -45.8806952,-67.9129958 -45.8809193,-67.90891537 -45.88072557,,-67.90902811 -45.88062544,-67.9108071 -45.880613,-67.9116762 -45.8803665,-67.9099488 -45.8795972,-67.9089832 -45.8795748,-67.908479 -45.879291,-67.9081464 -45.8778345,-67.9075241 -45.8768784,-67.9078567 -45.8763107,-67.9075456 -45.8753322,-67.9072452 -45.8752799,-67.9064727 -45.8764004,-67.90493501 -45.87690763,-67.9065907 -45.8763481,-67.9067516 -45.8757356,-67.9067945 -45.8747496,-67.90587404 -45.87465377,-67.9081142 -45.8724638,-67.9093158 -45.872419,-67.9095948 -45.873240700000004,-67.9077601 -45.874406,-67.906816 -45.8746824,-67.90662102 -45.87275785,-67.9048741 -45.8731884,-67.9062903 -45.8728896,-67.9075885 -45.8730689,-67.9087365 -45.87291200000001,-67.9096162 -45.8731436,-67.9096484 -45.8728597,-67.9093158 -45.872419,-67.9082108 -45.8724937,-67.90299782 -45.8733268;-67.90299782 -45.8733268,-67.9048741 -45.8731884,-67.9062903 -45.8728896,-67.9075885 -45.8730689,-67.9087365 -45.87291200000001,-67.9096162 -45.8731436,-67.9096484 -45.8728597,-67.9093158 -45.872419,-67.9082108 -45.8724937,-67.90662102 -45.87275785,-67.9081142 -45.8724638,-67.9093158 -45.872419,-67.9095948 -45.873240700000004,-67.9077601 -45.874406,-67.906816 -45.8746824,-67.90587404 -45.87465377,-67.9065907 -45.8763481,-67.9067516 -45.8757356,-67.9067945 -45.8747496,-67.90493501 -45.87690763,-67.9108071 -45.880613,-67.9116762 -45.8803665,-67.9099488 -45.8795972,-67.9089832 -45.8795748,-67.908479 -45.879291,-67.9081464 -45.8778345,-67.9075241 -45.8768784,-67.9078567 -45.8763107,-67.9075456 -45.8753322,-67.9072452 -45.8752799,-67.9064727 -45.8764004,-67.90902811 -45.88062544,,-67.90891537 -45.88072557,-67.9107428 -45.880501,-67.9119766 -45.880389,-67.9123414 -45.8806952,-67.9129958 -45.8809193,-67.91210808 -45.8814063,,-67.91214619 -45.88124859,-67.9166651 -45.8823159,-67.9169762 -45.8821367,-67.9166543 -45.8815466,-67.913146 -45.8824205,-67.9128242 -45.8814645,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91930941 -45.88137118,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.92260289 -45.87981886,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.93512028 -45.8793768,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.94258106 -45.87928487,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.9459034 -45.88040255,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.94607409 -45.88311995,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94628753 -45.88560005,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94746568 -45.88694764,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94972726 -45.88693813,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.95178221 -45.88666191,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95650174 -45.8868325,-67.9563618 -45.8869613,-67.9570055 -45.8870583,-67.9568553 -45.8866028,-67.957381 -45.8868268,-67.95495587 -45.8875866,-67.9576063 -45.8896124,-67.9577136 -45.888888,-67.9572308 -45.8876483,-67.9565012 -45.8869986,-67.95602222 -45.88970885,-67.9555678 -45.8902546,-67.9566729 -45.8896124,-67.95416096 -45.89058835,-67.9546666 -45.8908595,-67.9532504 -45.8922185,-67.9515231 -45.8917406,-67.95045121 -45.89176951,-67.9449463 -45.892353,-67.9449999 -45.8927189,-67.9458153 -45.8930848,-67.9470813 -45.8933088,-67.9488838 -45.8925919,-67.9495275 -45.8921961,-67.950021 -45.8916212,-67.9507613 -45.8914718,-67.9513192 -45.8916436,-67.94414165 -45.89228087;-67.94414165 -45.89228087,-67.9449463 -45.892353,-67.9449999 -45.8927189,-67.9458153 -45.8930848,-67.9470813 -45.8933088,-67.9488838 -45.8925919,-67.9495275 -45.8921961,-67.950021 -45.8916212,-67.9507613 -45.8914718,-67.9513192 -45.8916436,-67.95045121 -45.89176951,-67.9549241 -45.8925098,-67.9545915 -45.8926666,-67.9532933 -45.8921588,-67.9515231 -45.8917406,-67.95418299 -45.89226319,-67.9583359 -45.8946379,-67.9581213 -45.8934282,-67.958293 -45.8929951,-67.9576492 -45.8922484,-67.9574883 -45.8911432,-67.9567587 -45.8908221,-67.9557824 -45.8912104,-67.9554927 -45.8916958,-67.95753705 -45.89518861,-67.9602778 -45.8973559,-67.959677 -45.8974604,-67.9590976 -45.897326,-67.9587114 -45.8968257,-67.95928 -45.896094,-67.9591405 -45.8953548,-67.95956637 -45.89743693,-67.9642367 -45.8983564,-67.9643333 -45.8976993,-67.9650199 -45.8970721,-67.9652989 -45.8964076,-67.9613721 -45.8972065,-67.96354703 -45.89869944,-67.9693437 -45.9027914,-67.9659963 -45.8987297,-67.965138 -45.8986401,-67.96793825 -45.90348141,-67.970438 -45.9058075,-67.9690218 -45.9036126,-67.96980563 -45.90670646,-67.9705238 -45.9066735,-67.9697728 -45.9068527,-67.9681849 -45.9083607,-67.9670477 -45.9085548,-67.9651165 -45.9093461,-67.9646015 -45.9095999,-67.9632926 -45.9097492,-67.9626489 -45.9100179,-67.9595375 -45.9096447,-67.9576575 -45.90959388,-67.9533577 -45.9118095,-67.9582071 -45.9103464,-67.960031 -45.9096148,-67.9595375 -45.9095402,-67.95174739 -45.91238069;-67.95174739 -45.91238069,-67.9533577 -45.9118095,-67.9582071 -45.9103464,-67.960031 -45.9096148,-67.9595375 -45.9095402,-67.9576575 -45.90959388,-67.9705238 -45.9066735,-67.9697728 -45.9068527,-67.9681849 -45.9083607,-67.9670477 -45.9085548,-67.9651165 -45.9093461,-67.9646015 -45.9095999,-67.9632926 -45.9097492,-67.9626489 -45.9100179,-67.9595375 -45.9096447,-67.96980563 -45.90670646,-67.970438 -45.9058075,-67.9690218 -45.9036126,-67.96793825 -45.90348141,-67.9693437 -45.9027914,-67.9659963 -45.8987297,-67.965138 -45.8986401,-67.96354703 -45.89869944,-67.9642367 -45.8983564,-67.9643333 -45.8976993,-67.9650199 -45.8970721,-67.9652989 -45.8964076,-67.9613721 -45.8972065,-67.95956637 -45.89743693,-67.9602778 -45.8973559,-67.959677 -45.8974604,-67.9590976 -45.897326,-67.9587114 -45.8968257,-67.95928 -45.896094,-67.9591405 -45.8953548,-67.95753705 -45.89518861,-67.958411 -45.8946678,-67.9585934 -45.8938464,-67.9590118 -45.8934581,-67.9594839 -45.8932714,-67.9597199 -45.892913,-67.9595053 -45.8926741,-67.95792371 -45.89252328,-67.958647 -45.8921289,-67.9580784 -45.8917854,-67.958411 -45.8907699,-67.9588509 -45.8902397,-67.9578209 -45.8896422,-67.95602222 -45.88970885,-67.9576063 -45.8896124,-67.9577136 -45.888888,-67.9572308 -45.8876483,-67.9565012 -45.8869986,-67.95495587 -45.8875866,-67.9563618 -45.8869613,-67.9570055 -45.8870583,-67.9568553 -45.8866028,-67.957381 -45.8868268,-67.95650174 -45.8868325,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95178221 -45.88666191,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.94972726 -45.88693813,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94746568 -45.88694764,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94628753 -45.88560005,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94607409 -45.88311995,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.9459034 -45.88040255,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.94258106 -45.87928487,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2581,S2551</t>
   </si>
   <si>
     <t>Base,Linea 1,S176,Linea 1506,S2447,Linea 2,S993,Linea 3,S329,Linea 4,S309,Linea 10,S2195,Linea 27,S2412,Linea 33,S308,Linea 34,S2032,Linea 42,S2569,Linea 46,S2199,Linea 1847,S2200,Linea 97,S356,Linea 143,S2017,Linea 144,S690,Linea 141,S538,Linea 104,S2206,Linea 105,S763,Linea 106,S719,Linea 132,S302,Linea 36,S358,Linea 37,S2224,Linea 1515,S2581;S2581,Linea 1515,S2224,Linea 37,S358,Linea 36,S302,Linea 132,S719,Linea 106,S763,Linea 105,S2206,Linea 104,S538,Linea 141,S690,Linea 144,S2017,Linea 143,S356,Linea 97,S2200,Linea 87,S2411,Linea 1877,S2216,Linea 1876,S208,Linea 156,S2488,Linea 1548,S680,Linea 158,S246,Linea 159,S667,Linea 704,S2336,Linea 730,S379,Linea 727,S578,Linea 1651,S2454,Linea 722,S986,Linea 720,S2349,Linea 719,S250,Linea 717,S2334,Linea 934,S2111,Linea 931,S645,Linea 1046,S928,Linea 1048,S840,Linea 1220,S826,Linea 1060,S828,Linea 1061,S801,Linea 1054,S760,Linea 1073,S794,Linea 1297,S759,Linea 1306,S834,Linea 1307,S839,Linea 1313,S725,Linea 1310,S744,Linea 1311,S2379,Linea 1302,S2519,Linea 1303,S2310,Linea 1768,S748,Linea 1263,S757,Linea 1262,S2629,Linea 1232,S812,Linea 1261,S2287,Linea 1229,S756,Linea 1227,S2551;S2551,Linea 1227,S756,Linea 1229,S2287,Linea 1261,S812,Linea 1232,S2629,Linea 1262,S757,Linea 1263,S748,Linea 1762,S2310,Linea 1303,S2519,Linea 1302,S2379,Linea 1311,S744,Linea 1310,S725,Linea 1313,S839,Linea 1307,S834,Linea 1306,S759,Linea 1297,S794,Linea 1073,S760,Linea 1221,S791,Linea 1076,S793,Linea 1078,S2667,Linea 1077,S944,Linea 1085,S115,Linea 1733,S927,Linea 1222,S33,Linea 1724,S2094,Linea 950,S31,Linea 949,S2146,Linea 964,S2147,Linea 946,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.93822649 -45.86645361,,-67.93820898 -45.86621382,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.9397787 -45.86446671,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.94026881 -45.86394522,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94016816 -45.86304785,-67.9407942 -45.8630844,-67.9403758 -45.8621878,-67.9386914 -45.8624792,-67.93749455 -45.86270022,-67.9389811 -45.8623559,-67.9389596 -45.8618329,-67.9381979 -45.8610783,-67.9390669 -45.8607794,-67.93809539 -45.86091501,-67.9388309 -45.8607794,-67.938112 -45.8611007,-67.9377472 -45.860899,-67.9362881 -45.8614743,-67.9374897 -45.8619749,-67.93652197 -45.86222667,-67.9375219 -45.8620421,-67.9357517 -45.861085800000005,-67.9346144 -45.8614519,-67.93332777 -45.86169272,-67.9343569 -45.8614145,-67.9335523 -45.861549,-67.9334021 -45.8611381,-67.9309666 -45.8609214,-67.92973166 -45.86112334,-67.9307091 -45.86097370000001,-67.9287457 -45.8609588,-67.9288423 -45.860757,-67.92827234 -45.86082887,-67.9288423 -45.860757,-67.9286063 -45.8609812,-67.9269433 -45.8608168,-67.9254305 -45.8610559,-67.9256237 -45.8606898,-67.92472033 -45.86078317,-67.9253769 -45.8604208,-67.9236388 -45.8595317,-67.9233384 -45.8597857,-67.92204432 -45.86025045,-67.9235315 -45.8601219,-67.9222655 -45.8604731,-67.92116295 -45.86077528,-67.9219651 -45.8610335,-67.9157424 -45.8609887,-67.91412974 -45.86109479,-67.9153347 -45.8605702,-67.9157317 -45.8599725,-67.9146159 -45.859457,-67.91347499 -45.85938782,-67.9145408 -45.8594047,-67.9124916 -45.858777,-67.9112792 -45.8592776,-67.91058213 -45.85962973,-67.9112792 -45.8592776,-67.9102921 -45.8588293,-67.9105067 -45.8586425,-67.90964669 -45.85881191,-67.9102653 -45.8586986,-67.9081625 -45.8581195,-67.90707943 -45.8582017,-67.9079533 -45.8582615,-67.9074919 -45.8604283,-67.90669842 -45.86068564,-67.934314 -45.8614668,-67.9336488 -45.8615341,-67.93349860000001 -45.8611979,-67.9346895 -45.8607645,-67.93353649 -45.86088532,-67.9348075 -45.8606001,-67.9353011 -45.8596736,-67.93453745 -45.8597358,,-67.93392737 -45.859992;-67.93392737 -45.859992,,-67.93453745 -45.8597358,-67.9348075 -45.8606001,-67.9353011 -45.8596736,-67.93353649 -45.86088532,-67.934314 -45.8614668,-67.9336488 -45.8615341,-67.93349860000001 -45.8611979,-67.9346895 -45.8607645,-67.90669842 -45.86068564,-67.9079533 -45.8582615,-67.9074919 -45.8604283,-67.90707943 -45.8582017,-67.9102653 -45.8586986,-67.9081625 -45.8581195,-67.90964669 -45.85881191,-67.9112792 -45.8592776,-67.9102921 -45.8588293,-67.9105067 -45.8586425,-67.91058213 -45.85962973,-67.9145408 -45.8594047,-67.9124916 -45.858777,-67.9112792 -45.8592776,-67.91347499 -45.85938782,-67.9153347 -45.8605702,-67.9157317 -45.8599725,-67.9146159 -45.859457,-67.91412974 -45.86109479,-67.9219651 -45.8610335,-67.9157424 -45.8609887,-67.92116295 -45.86077528,-67.9235315 -45.8601219,-67.9222655 -45.8604731,-67.92204432 -45.86025045,-67.9253769 -45.8604208,-67.9236388 -45.8595317,-67.9233384 -45.8597857,-67.92472033 -45.86078317,-67.9257202 -45.8606599,-67.9255271 -45.861085800000005,-67.9269326 -45.8609513,-67.9270506 -45.8613025,-67.9260095 -45.86162722,-67.9267287 -45.8641042,-67.9260421 -45.8645525,-67.9272652 -45.8648663,-67.9282737 -45.8628789,-67.9276514 -45.8618479,-67.92562891 -45.86384385,-67.9267931 -45.86391,-67.9258704 -45.8645525,-67.9281235 -45.8654938,-67.92761571 -45.86576064,-67.9284239 -45.8655835,-67.9270077 -45.8655162,-67.92568273 -45.86555172,,-67.92617947 -45.86596757,-67.9266429 -45.8657927,-67.9259992 -45.8665696,-67.92478129 -45.86687146,-67.925849 -45.8667938,-67.9245508 -45.8671822,-67.92313135 -45.86736612,-67.9247117 -45.8672271,-67.9251409 -45.8672644,-67.9242826 -45.8677948,-67.9240143 -45.8689378,-67.9238534 -45.8689528,-67.92209124 -45.86928836,-67.9217505 -45.8712238,-67.9221582 -45.8710893,-67.9240143 -45.8689901,-67.9237783 -45.8690051,-67.92053462 -45.87127057,-67.9206347 -45.8733602,-67.9204845 -45.8732108,-67.9220188 -45.8711565,-67.91979942 -45.8736741,,-67.91957453 -45.87370778,-67.9194653 -45.874084800000006,-67.9204845 -45.8732108,-67.9206347 -45.8733602,-67.91777485 -45.87443865,-67.9123628 -45.8789922,-67.9139936 -45.8782154,-67.9156995 -45.8769755,-67.9165149 -45.8759447,-67.9189503 -45.874689800000006,-67.91076944 -45.87927096,-67.9128349 -45.8790819,-67.91394 -45.8782827,-67.9123628 -45.8789922,-67.91191949 -45.87938061,-67.9129636 -45.879291,-67.9124808 -45.8793284,-67.9120302 -45.8802545,-67.9124165 -45.8806728,-67.9129958 -45.8809193,-67.91214619 -45.88124859,-67.9166651 -45.8823159,-67.9169762 -45.8821367,-67.9166543 -45.8815466,-67.913146 -45.8824205,-67.9128242 -45.8814645,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183924 -45.8832943,-67.9178345 -45.8833989,-67.9181349 -45.883832,-67.9182851 -45.8847656,-67.9179955 -45.8868492,-67.9182959 -45.887021,-67.918725 -45.8867895,-67.9189289 -45.8859232,-67.91833856 -45.88592331,-67.9201949 -45.8901426,-67.920785 -45.8896646,-67.9178774 -45.8882906,-67.9180706 -45.8870061,-67.9186499 -45.8868642,-67.918961 -45.8857962,-67.91840225 -45.89042054,-67.9177594 -45.8928831,-67.9196584 -45.8908744,-67.9194117 -45.8909267,-67.9188323 -45.8915241,-67.9170513 -45.8923754,-67.9181993 -45.8910014,-67.918961 -45.8905234,-67.91657701 -45.89351753,-67.9165363 -45.8956086,-67.9175019 -45.8947275,-67.9165041 -45.893712,-67.9164827 -45.892689,-67.9183388 -45.8916958,-67.9195189 -45.8908296,-67.9196799 -45.8909341,-67.9177058 -45.8929802,-67.91506756 -45.89602857,-67.9198515 -45.8952876,-67.9187465 -45.8950934,-67.9171157 -45.8950187,-67.9165041 -45.8955564,-67.91895387 -45.89557581,-67.9221904 -45.8981548,-67.9233706 -45.8984385,-67.9223728 -45.8974903,-67.9203773 -45.8967212,-67.9203129 -45.8957953,-67.92046749 -45.89809236,-67.9312027 -45.9008128,-67.9299688 -45.9015296,-67.9282737 -45.9003723,-67.9263103 -45.8994316,-67.9232204 -45.8984983,-67.9221046 -45.8981623,-67.93028301 -45.90068278,-67.9313636 -45.9007755,-67.9299688 -45.9015296,-67.9309559 -45.9024778,-67.931664 -45.9022687,-67.9323721 -45.9010144,-67.9335737 -45.900447,-67.9371786 -45.9012832,-67.9379082 -45.9021045,-67.9396677 -45.9026719,-67.941041 -45.9025674,-67.94048121 -45.90255833,-67.9417276 -45.9060912,-67.9426718 -45.9047623,-67.9416203 -45.9047773,-67.9445601 -45.9035379,-67.942543 -45.9026271,-67.94070253 -45.90708056,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.93482704 -45.9074612,-67.922008 -45.9097193,-67.9201412 -45.9109884,-67.9196906 -45.9109585,-67.9200125 -45.9097492,-67.9210854 -45.909585,-67.9227591 -45.90851,-67.9267287 -45.9077933,-67.9317927 -45.9075544,-67.9344964 -45.9080023,-67.9353762 -45.9076142,-67.92132124 -45.90950332,-67.9221797 -45.9097492,-67.9201412 -45.9109884,-67.91924 -45.911063,-67.9191971 -45.9115109,-67.91938339 -45.91141146,-67.9191971 -45.9115109,-67.9193473 -45.9122574,-67.9206347 -45.9121827,-67.9237676 -45.911287,-67.92339949 -45.91107871,-67.9250765 -45.911063,-67.9249692 -45.9120036,-67.9233384 -45.9123171,-67.92178415 -45.91276334,-67.9231882 -45.9122723,-67.9249692 -45.9120036,-67.9255915 -45.9130038,-67.9226518 -45.9145117,-67.9209566 -45.9155119,-67.9190469 -45.9157209,-67.9196262 -45.9152282,-67.9198102 -45.91487479,,-67.91936766 -45.91518342,-67.9294324 -45.9165121,-67.930162 -45.916945,-67.9304409 -45.9174227,-67.9261708 -45.9179004,-67.9190469 -45.9157209,-67.9196262 -45.9152282,-67.92776392 -45.91634643,-67.9315567 -45.9216173,-67.9323292 -45.9215277,-67.9268146 -45.9178258,-67.9294968 -45.9176466,-67.9304409 -45.9174227,-67.9300117 -45.9168704,-67.9294324 -45.9165121,-67.92974857 -45.92193359,-67.9378974 -45.9205575,-67.9375219 -45.920244,-67.9376721 -45.9193932,-67.9373181 -45.9201097,-67.9375005 -45.9207814,-67.9381657 -45.9214382,-67.9378438 -45.9222592,-67.9378653 -45.9235428,-67.9352689 -45.9230204,-67.9323292 -45.9215277,-67.9315567 -45.9216173,-67.93749101 -45.92107433,-67.9473066 -45.9191991,-67.9491735 -45.9182736,-67.9488516 -45.9169151,-67.9491198 -45.9161986,-67.9481864 -45.9168405,-67.9482937 -45.9178556,-67.947135 -45.9184079,-67.94559 -45.9178407,-67.9453111 -45.9174227,-67.9465771 -45.9168554,-67.9420924 -45.9173033,-67.9408264 -45.9169002,-67.9406118 -45.9177959,-67.9378867 -45.9191842,-67.9375434 -45.9200649,-67.9378974 -45.9205575,-67.94586231 -45.91962676,-67.9510295 -45.9188259,-67.949667 -45.9168704,-67.9491198 -45.9161986,-67.9486799 -45.916833,-67.9491198 -45.9181243,-67.9471564 -45.9191543,-67.95055552 -45.91916669,-67.958014 -45.9182139,-67.9570055 -45.9184677,-67.9553103 -45.9181691,-67.9540443 -45.919229,-67.95192 -45.9189752,-67.95789863 -45.9184072;-67.95789863 -45.9184072,-67.958014 -45.9182139,-67.9570055 -45.9184677,-67.9553103 -45.9181691,-67.9540443 -45.919229,-67.95192 -45.9189752,-67.95055552 -45.91916669,-67.9510295 -45.9188259,-67.949667 -45.9168704,-67.9491198 -45.9161986,-67.9486799 -45.916833,-67.9491198 -45.9181243,-67.9471564 -45.9191543,-67.94586231 -45.91962676,-67.9473066 -45.9191991,-67.9491735 -45.9182736,-67.9488516 -45.9169151,-67.9491198 -45.9161986,-67.9481864 -45.9168405,-67.9482937 -45.9178556,-67.947135 -45.9184079,-67.94559 -45.9178407,-67.9453111 -45.9174227,-67.9465771 -45.9168554,-67.9420924 -45.9173033,-67.9408264 -45.9169002,-67.9406118 -45.9177959,-67.9378867 -45.9191842,-67.9375434 -45.9200649,-67.9378974 -45.9205575,-67.93749101 -45.92107433,-67.9378974 -45.9205575,-67.9375219 -45.920244,-67.9376721 -45.9193932,-67.9373181 -45.9201097,-67.9375005 -45.9207814,-67.9381657 -45.9214382,-67.9378438 -45.9222592,-67.9378653 -45.9235428,-67.9352689 -45.9230204,-67.9323292 -45.9215277,-67.9315567 -45.9216173,-67.92974857 -45.92193359,-67.9315567 -45.9216173,-67.9323292 -45.9215277,-67.9268146 -45.9178258,-67.9294968 -45.9176466,-67.9304409 -45.9174227,-67.9300117 -45.9168704,-67.9294324 -45.9165121,-67.92776392 -45.91634643,-67.9294324 -45.9165121,-67.930162 -45.916945,-67.9304409 -45.9174227,-67.9261708 -45.9179004,-67.9190469 -45.9157209,-67.9196262 -45.9152282,-67.91936766 -45.91518342,,-67.9198102 -45.91487479,-67.9231882 -45.9122723,-67.9249692 -45.9120036,-67.9255915 -45.9130038,-67.9226518 -45.9145117,-67.9209566 -45.9155119,-67.9190469 -45.9157209,-67.9196262 -45.9152282,-67.92178415 -45.91276334,-67.9250765 -45.911063,-67.9249692 -45.9120036,-67.9233384 -45.9123171,-67.92339949 -45.91107871,-67.9191971 -45.9115109,-67.9193473 -45.9122574,-67.9206347 -45.9121827,-67.9237676 -45.911287,-67.91938339 -45.91141146,-67.9221797 -45.9097492,-67.9201412 -45.9109884,-67.91924 -45.911063,-67.9191971 -45.9115109,-67.92132124 -45.90950332,-67.922008 -45.9097193,-67.9201412 -45.9109884,-67.9196906 -45.9109585,-67.9200125 -45.9097492,-67.9210854 -45.909585,-67.9227591 -45.90851,-67.9267287 -45.9077933,-67.9317927 -45.9075544,-67.9344964 -45.9080023,-67.9353762 -45.9076142,-67.93482704 -45.9074612,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.94070253 -45.90708056,-67.9417276 -45.9060912,-67.9426718 -45.9047623,-67.9416203 -45.9047773,-67.9445601 -45.9035379,-67.942543 -45.9026271,-67.94048121 -45.90255833,-67.9313636 -45.9007755,-67.9299688 -45.9015296,-67.9309559 -45.9024778,-67.931664 -45.9022687,-67.9323721 -45.9010144,-67.9335737 -45.900447,-67.9371786 -45.9012832,-67.9379082 -45.9021045,-67.9396677 -45.9026719,-67.941041 -45.9025674,-67.93028301 -45.90068278,-67.9312027 -45.9008128,-67.9299688 -45.9015296,-67.9282737 -45.9003723,-67.9263103 -45.8994316,-67.9232204 -45.8984983,-67.9221046 -45.8981623,-67.92046749 -45.89809236,-67.9221904 -45.8981548,-67.9232204 -45.8984983,-67.9230487 -45.8980652,-67.9224908 -45.89755,-67.9236388 -45.8964449,-67.92261639 -45.89612501,-67.9235637 -45.895743,-67.9241538 -45.8953249,-67.9267287 -45.8949142,-67.9271579 -45.8944961,-67.9267287 -45.8942048,-67.9257309 -45.8936448,-67.9256558 -45.8930698,-67.9268682 -45.8923604,-67.9289711 -45.8934208,-67.9293036 -45.893361,-67.92819602 -45.89300211,-67.929368 -45.8925994,-67.9296148 -45.8919423,-67.9287994 -45.8913897,-67.9285097 -45.8910014,-67.9286277 -45.8901127,-67.92758265 -45.88993498,-67.9286492 -45.8892166,-67.9288638 -45.8878724,-67.9292393 -45.8876931,-67.92838162 -45.88770662,-67.929883 -45.8876782,-67.9306018 -45.8878724,-67.9317605 -45.8883727,-67.9326189 -45.888201,-67.93184093 -45.88869985,,-67.93195275 -45.88880085,-67.9325545 -45.8880964,-67.9324257 -45.8875363,-67.933048 -45.8868642,-67.9335093 -45.8836304,-67.93297197 -45.88384007,,-67.93288041 -45.88347512,-67.9369962 -45.8822636,-67.9367441 -45.8819686,-67.9343677 -45.8832719,-67.93623372 -45.88237227,-67.9369104 -45.8822487,-67.9367441 -45.8819686,-67.9385787 -45.881274,-67.938568 -45.8809641,-67.9379243 -45.8811844,-67.93588984 -45.88149225,-67.9380155 -45.8812404,-67.938627 -45.880852,-67.9384768 -45.8805682,-67.9371035 -45.8800827,-67.9358482 -45.8797093,-67.9335737 -45.8797616,-67.934432 -45.8794255,-67.9350007 -45.8792835,-67.9357088 -45.8792686,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2019,S2684,S2673</t>
   </si>
   <si>
     <t>Base,Linea 1,S176,Linea 1506,S2447,Linea 2,S993,Linea 3,S329,Linea 4,S309,Linea 6,S328,Linea 7,S2258,Linea 8,S326,Linea 52,S2253,Linea 57,S208,Linea 156,S2488,Linea 1548,S680,Linea 158,S246,Linea 161,S662,Linea 162,S678,Linea 164,S2510,Linea 167,S2478,Linea 168,S451,Linea 169,S691,Linea 170,S676,Linea 177,S640,Linea 178,S637,Linea 183,S495,Linea 186,S635,Linea 1555,S2552,Linea 211,S622,Linea 912,S2387,Linea 205,S632,Linea 676,S431,Linea 1638,S692,Linea 1215,S423,Linea 653,S2019;S2019,Linea 653,S423,Linea 1215,S692,Linea 1703,S431,Linea 676,S632,Linea 203,S430,Linea 408,S2575,Linea 680,S642,Linea 679,S2035,Linea 495,S2351,Linea 494,S397,Linea 490,S2036,Linea 1599,S2359,Linea 687,S440,Linea 689,S2047,Linea 688,S2278,Linea 927,S2231,Linea 1649,S236,Linea 713,S77,Linea 1647,S2334,Linea 934,S2111,Linea 930,S2110,Linea 736,S2167,Linea 1617,S2168,Linea 584,S849,Linea 582,S938,Linea 581,S2443,Linea 578,S2132,Linea 579,S949,Linea 591,S2129,Linea 592,S2259,Linea 594,S17,Linea 596,S2293,Linea 597,S4,Linea 598,S2324,Linea 600,S2196,Linea 599,S2689,Linea 601,S2683,Linea 603,S2663,Linea 607,S2673,Linea 1866,S2684;S2684,Linea 1866,S2673;S2673,Linea 607,S2663,Linea 603,S2683,Linea 601,S2689,Linea 599,S2196,Linea 600,S2324,Linea 598,S4,Linea 597,S2293,Linea 596,S17,Linea 594,S2259,Linea 592,S2129,Linea 591,S949,Linea 579,S2132,Linea 578,S2443,Linea 581,S938,Linea 582,S849,Linea 584,S2168,Linea 1617,S2167,Linea 736,S2110,Linea 930,S2111,Linea 931,S645,Linea 932,S78,Linea 940,S56,Linea 944,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.93822649 -45.86645361,,-67.93820898 -45.86621382,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.9397787 -45.86446671,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.94026881 -45.86394522,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94016816 -45.86304785,-67.9407513 -45.863103100000004,-67.9403973 -45.8622551,-67.93757020000001 -45.8636746,-67.93638614 -45.8639203,-67.9374468 -45.8637643,-67.93648120000002 -45.8648999,-67.93542287 -45.86514387,-67.9364544 -45.8650082,-67.9343033 -45.8651128,-67.93322311 -45.86539389,-67.934196 -45.8650755,-67.9339492 -45.8648887,-67.9318678 -45.8652174,-67.93025624 -45.86524613,-67.92887450000002 -45.8655984,-67.929647 -45.8660093,-67.9311919 -45.8652622,-67.92761571 -45.86576064,-67.9284239 -45.8655835,-67.9270077 -45.8655162,-67.92568273 -45.86555172,,-67.92617947 -45.86596757,-67.9266429 -45.8657927,-67.9259992 -45.8665696,-67.92478129 -45.86687146,-67.9258382 -45.86658460000001,-67.9220402 -45.8663903,-67.92069068 -45.86664171,-67.9224908 -45.8663306,-67.9191971 -45.8656582,-67.91774956 -45.8661538,-67.9187572 -45.8661064,-67.9176843 -45.8663679,-67.9172981 -45.8656657,-67.91575239 -45.86551598,-67.9164934 -45.8652398,-67.9147875 -45.8642536,-67.9133606 -45.865322,-67.9120409 -45.8651352,-67.91093971 -45.86527418,-67.9122448 -45.8649709,-67.911129 -45.8644105,-67.9103887 -45.8645226,-67.90917641 -45.86476613,-67.9100668 -45.8647318,-67.9098523 -45.8659197,-67.9103565 -45.8661513,-67.90947109 -45.86641003,-67.9100454 -45.8663754,-67.9094982 -45.8663306,-67.909627 -45.86429100000001,-67.90869072 -45.86438156,-67.9108179 -45.86391,-67.9094768 -45.8638353,-67.9077816 -45.8657329,-67.9066443 -45.8662484,-67.90565529 -45.8665856,-67.906419 -45.86626330000001,-67.9050887 -45.8652025,-67.9043591 -45.864814,-67.90314798 -45.8648888,-67.9039943 -45.8644255,-67.9028034 -45.8637381,-67.8999174 -45.8635812,-67.89867893 -45.86374335,-67.8993487 -45.8636634,-67.8988981 -45.8636933,-67.89861920000001 -45.8635215,-67.8975525 -45.86346654,,-67.89779792 -45.86312838,-67.8962696 -45.8632899,-67.8974175 -45.8625203,-67.8984583 -45.8622177,-67.8946526 -45.86372426,-67.8942311 -45.8647841,-67.8944886 -45.8644778,-67.8944886 -45.8640444,-67.8955936 -45.8639772,-67.8958511 -45.8637307,-67.8924736 -45.86523062,-67.8914094 -45.8658749,-67.893244 -45.8652249,-67.88982897 -45.86617984,-67.8899288 -45.8678098,-67.8895211 -45.8675184,-67.8886414 -45.8671001,-67.8869569 -45.8665398,-67.8880835 -45.86621850000001,-67.8924072 -45.8666593,-67.8915596 -45.865957,-67.88880717 -45.86815467,,-67.88877281 -45.86858617,-67.8896284 -45.868654,-67.8885341 -45.8711117,-67.889092 -45.8708652,-67.88842641 -45.87090404,-67.8895426 -45.8722024,-67.888298 -45.8715525,-67.8881264 -45.8713806,-67.8885341 -45.8711117,-67.8891778 -45.8709175,-67.88809317 -45.872722;-67.88809317 -45.872722,-67.8895426 -45.8722024,-67.888298 -45.8715525,-67.8881264 -45.8713806,-67.8885341 -45.8711117,-67.8891778 -45.8709175,-67.88842641 -45.87090404,-67.8896284 -45.868654,-67.8885341 -45.8711117,-67.889092 -45.8708652,-67.88877281 -45.86858617,,-67.88880717 -45.86815467,-67.8899288 -45.8678098,-67.8895211 -45.8675184,-67.8886414 -45.8671001,-67.8869569 -45.8665398,-67.8880835 -45.86621850000001,-67.8924072 -45.8666593,-67.8915596 -45.865957,-67.88982897 -45.86617984,-67.8926647 -45.8667714,-67.8914416 -45.865972,-67.89194102 -45.86726393,-67.8929329 -45.86721210000001,-67.894392 -45.8695056,-67.89334262 -45.86982277,-67.8955185 -45.8706112,-67.895025 -45.8705813,-67.8944993 -45.8697073,-67.89468537 -45.87097799,-67.8951538 -45.8720604,-67.8954649 -45.8713209,-67.8950679 -45.870671,-67.8955185 -45.8706112,-67.89420174 -45.8725767,-67.8954864 -45.8744359,-67.8949392 -45.8739429,-67.895143 -45.8733378,-67.8949499 -45.8727701,-67.89489679 -45.87455424,-67.8992522 -45.8749438,-67.8973424 -45.8751455,-67.8966451 -45.875362100000004,-67.8955722 -45.8745031,-67.89863672 -45.87485225,-67.8996062 -45.8756758,-67.8981364 -45.8751081,-67.8992522 -45.8749438,-67.89781334 -45.87614703,,-67.89805175 -45.8762384,-67.8998315 -45.8761838,-67.9001212 -45.8769457,-67.900883 -45.8771399,-67.9025674 -45.8764527,-67.90200809 -45.87637167,-67.9027498 -45.8764153,-67.9023206 -45.8766319,-67.9053462 -45.8764079,-67.9049706 -45.8759672,-67.90388535 -45.87594679,-67.9065692 -45.87642280000001,-67.9066443 -45.8758626,-67.9054427 -45.876363,-67.9050243 -45.8759149,-67.90493501 -45.87690763,-67.9108071 -45.880613,-67.9116762 -45.8803665,-67.9099488 -45.8795972,-67.9089832 -45.8795748,-67.908479 -45.879291,-67.9081464 -45.8778345,-67.9075241 -45.8768784,-67.9078567 -45.8763107,-67.9075456 -45.8753322,-67.9072452 -45.8752799,-67.9064727 -45.8764004,-67.90902811 -45.88062544,,-67.90891537 -45.88072557,-67.9107428 -45.880501,-67.9119766 -45.880389,-67.9123414 -45.8806952,-67.9129958 -45.8809193,-67.91210808 -45.8814063,,-67.91214619 -45.88124859,-67.9166651 -45.8823159,-67.9169762 -45.8821367,-67.9166543 -45.8815466,-67.913146 -45.8824205,-67.9128242 -45.8814645,-67.91541483 -45.88231338,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.90970498 -45.88326091,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90591516 -45.88446218,,-67.90594775 -45.88423937,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90705336 -45.88840606,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90362098 -45.8874036,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90293219 -45.8836944,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.89811074 -45.88424629,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89478887 -45.88442779,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.88986813 -45.88509226,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88725199 -45.88498287,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88477851 -45.88530377,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88304639 -45.88588109,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88085052 -45.88709026,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.87661058 -45.88889945,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87484305 -45.89067788,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87813787 -45.88993585,-67.8788996 -45.8901426,-67.877934 -45.8900903,-67.8774834 -45.8904786,-67.8777945 -45.8925098,-67.8783524 -45.8919348,-67.87768072 -45.89180609,-67.877419 -45.893361,-67.8777194 -45.8924724,-67.8782558 -45.8919497,-67.87597121 -45.89385401,-67.8765607 -45.8939958,-67.8749728 -45.8950561,-67.8745329 -45.895832600000006,-67.8753376 -45.896079,-67.87484942 -45.89595746,-67.8758526 -45.8962209,-67.8745222 -45.8968183,-67.87714 -45.8974753,-67.87660436 -45.89789111;-67.87660436 -45.89789111,-67.8758526 -45.8962209,-67.8745222 -45.8968183,-67.87714 -45.8974753,-67.87484942 -45.89595746;-67.87484942 -45.89595746,-67.8765607 -45.8939958,-67.8749728 -45.8950561,-67.8745329 -45.895832600000006,-67.8753376 -45.896079,-67.87597121 -45.89385401,-67.877419 -45.893361,-67.8777194 -45.8924724,-67.8782558 -45.8919497,-67.87768072 -45.89180609,-67.8788996 -45.8901426,-67.877934 -45.8900903,-67.8774834 -45.8904786,-67.8777945 -45.8925098,-67.8783524 -45.8919348,-67.87813787 -45.88993585,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87484305 -45.89067788,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87661058 -45.88889945,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.88085052 -45.88709026,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88304639 -45.88588109,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88477851 -45.88530377,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88725199 -45.88498287,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88986813 -45.88509226,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.89478887 -45.88442779,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89811074 -45.88424629,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.90293219 -45.8836944,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90362098 -45.8874036,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90705336 -45.88840606,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90594775 -45.88423937,,-67.90591516 -45.88446218,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90970498 -45.88326091,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91930941 -45.88137118,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.92260289 -45.87981886,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2356,S2285,S2560,S2057,S2256</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 754,S2408,Linea 752,S370,Linea 1842,S2421,Linea 741,S980,Linea 740,S377,Linea 748,S381,Linea 747,S2572,Linea 746,S315,Linea 1017,S59,Linea 1295,S2116,Linea 1293,S1,Linea 1292,S2189,Linea 797,S2095,Linea 1825,S2479,Linea 795,S189,Linea 1826,S18,Linea 1177,S2243,Linea 807,S205,Linea 1181,S2139,Linea 1180,S8,Linea 1183,S223,Linea 1189,S224,Linea 1190,S203,Linea 1187,S2586,Linea 1192,S2584,Linea 1205,S138,Linea 1208,S2101,Linea 1462,S183,Linea 1829,S2135,Linea 1814,S2541,Linea 1459,S206,Linea 826,S715,Linea 827,S2356;S2356,Linea 1456,S151,Linea 1489,S2304,Linea 1461,S984,Linea 1447,S2093,Linea 1440,S2089,Linea 1438,S257,Linea 1437,S2074,Linea 1442,S2092,Linea 1835,S2319,Linea 1414,S2285;S2285,Linea 1414,S2319,Linea 1835,S2092,Linea 1442,S2074,Linea 1437,S257,Linea 1438,S2089,Linea 1440,S2093,Linea 1447,S984,Linea 1461,S2304,Linea 1489,S151,Linea 1456,S2356,Linea 827,S715,Linea 826,S206,Linea 1459,S2541,Linea 1794,S2135,Linea 1829,S183,Linea 1462,S2101,Linea 1208,S138,Linea 1490,S2080,Linea 1804,S184,Linea 1206,S194,Linea 820,S2177,Linea 815,S2242,Linea 821,S2441,Linea 823,S2406,Linea 1427,S2087,Linea 1426,S2081,Linea 1370,S2091,Linea 1371,S325,Linea 1372,S323,Linea 1373,S2255,Linea 568,S882,Linea 622,S523,Linea 621,E290,Linea 620,S2386,Linea 238,S958,Linea 626,S2560;S2560,Linea 627,S2262,Linea 628,S2445,Linea 662,S2720,Linea 632,S460,Linea 616,S469,Linea 614,S2634,Linea 615,S2273,Linea 552,S525,Linea 551,S529,Linea 549,S437,Linea 546,S773,Linea 531,S2151,Linea 412,S2300,Linea 381,S1037,Linea 383,S2057;S2057,Linea 383,S1037,Linea 381,S2300,Linea 412,S2151,Linea 415,S774,Linea 414,S722,Linea 413,S710,Linea 393,S709,Linea 392,S687,Linea 370,S613,Linea 365,S707,Linea 317,S2256;S2256,Linea 317,S707,Linea 365,S613,Linea 370,S687,Linea 392,S709,Linea 393,S710,Linea 413,S722,Linea 414,S774,Linea 415,S2151,Linea 531,S773,Linea 546,S437,Linea 549,S529,Linea 551,S525,Linea 552,S2273,Linea 566,S522,Linea 567,S882,Linea 568,S2255,Linea 1421,S354,Linea 1365,S2009,Linea 1363,S2006,Linea 1361,S353,Linea 1836,S997,Linea 854,S2504,Linea 853,S2716,Linea 849,S2056,Linea 850,S2407,Linea 773,S338,Linea 764,S395,Linea 763,S2468,Linea 760,S402,Linea 759,S2417,Linea 768,S172,Linea 1211,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9513514 -45.867951700000006,-67.9506004 -45.8681534,-67.9493558 -45.8665622,-67.9490876 -45.8664576,-67.9492164 -45.8668461,-67.95075242 -45.86791677,-67.9511476 -45.8693039,-67.95089010000001 -45.8697222,-67.9506433 -45.8681011,-67.9512978 -45.867892,-67.95011093 -45.86936834,-67.9526013 -45.869965,-67.9517484 -45.8700734,-67.9508901 -45.8697222,-67.9511476 -45.8693039,-67.95188123 -45.87007275,-67.9518449 -45.870925,-67.9516733 -45.8706037,-67.9509866 -45.870275,-67.95089010000001 -45.8697222,-67.9517484 -45.8700734,-67.9526281 -45.8699912,-67.95082673 -45.87123588,-67.9510081 -45.87218,-67.9515123 -45.8715599,-67.9518449 -45.870925,-67.94974928 -45.87213834,-67.9508579 -45.8736739,-67.9509115 -45.8721426,-67.94983615 -45.87396079,-67.9521346 -45.8759746,-67.951448 -45.8759597,-67.9509008 -45.8738383,-67.95155064 -45.87647635,-67.9521346 -45.8759746,-67.9517162 -45.8759074,-67.9513943 -45.8758999,-67.9525959 -45.87702780000001,-67.95337920000001 -45.8774162,-67.95259842 -45.87763583,-67.9538298 -45.8776104,-67.9575419 -45.8788205,-67.9596341 -45.8789624,-67.9602242 -45.8794852,-67.95937836 -45.87978501,-67.967391 -45.8796271,-67.9660606 -45.879657,-67.9619408 -45.879179,-67.959795 -45.8789997,-67.9602242 -45.8794852,-67.96661757 -45.87943084,-67.9708028 -45.8792686,-67.9686999 -45.8795524,-67.9682064 -45.8792238,-67.96993071 -45.87922522,-67.9739785 -45.8781632,-67.9745579 -45.8782677,-67.9740644 -45.8788802,-67.9710174 -45.8792537,-67.97210325 -45.8786421,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9755771 -45.8785142,-67.9742253 -45.8787756,-67.974236 -45.878222900000004,-67.9757414 -45.87911165,-67.9789352 -45.8795823,-67.9791069 -45.8776627,-67.9756737 -45.8784769,-67.9758239 -45.8787234,-67.9765105 -45.8789474,-67.97764389 -45.88001208,-67.9789352 -45.8795823,-67.9789889 -45.8790669,-67.9799759 -45.8791491,-67.97934342 -45.87920812,-67.9797721 -45.879179,-67.9789889 -45.8790669,-67.9792571 -45.8776403,-67.9831409 -45.876744,-67.9844499 -45.8766842,-67.9838705 -45.8772892,-67.98257485 -45.87765379,-67.9838705 -45.8772892,-67.9842675 -45.8766469,-67.9854584 -45.876617,-67.9846001 -45.8763854,-67.98281428 -45.87644776,-67.9865313 -45.8763033,-67.9853833 -45.8764975,-67.98469660000002 -45.8764303,-67.98563419 -45.87640922,-67.9896748 -45.8771548,-67.9892349 -45.8767216,-67.985158 -45.8765946,-67.9863167 -45.8762734,-67.98904006 -45.87741924,-67.9909623 -45.8768411,-67.9909086 -45.8766394,-67.9893529 -45.876729,-67.9896641 -45.8770726,-67.98995293 -45.87688436,-67.9932904 -45.8760792,-67.9926252 -45.8763556,-67.9912949 -45.8766319,-67.99230343 -45.87612978,-67.9940093 -45.875758,-67.9942882 -45.875646,-67.9944921 -45.8759223,-67.9952216 -45.8756385,-67.9962945 -45.874899,-67.99575168 -45.87505796,-67.9970562 -45.8749065,-67.998054 -45.8746002,-67.9989874 -45.8742865,-67.9998994 -45.8736889,-67.99900055 -45.87377745,-68.0009079 -45.8733901,-68.0017447 -45.8731436,-68.0013478 -45.8728149,-68.0005753 -45.8728074,-67.9998672 -45.8727327,-67.9986441 -45.8728074,-67.99707801 -45.87306235,-67.9984939 -45.8727327,-67.9986763 -45.8725609,-67.9987407 -45.872292,-67.99743076 -45.87213204,-68.0036652 -45.8703498,-68.0024529 -45.8706934,-68.0012727 -45.8709175,-68.0001891 -45.8713881,-67.9995775 -45.8718363,-68.00284674 -45.87040916,-68.0041587 -45.8700285,-68.0051243 -45.8686091,-68.00449906 -45.86852742,-68.0070448 -45.8686241,-68.0060685 -45.868385,-68.00620422 -45.86892139,-68.0070448 -45.8686241,-68.0067122 -45.8683028,-68.0066907 -45.8679293,-68.0047274 -45.8681086,-68.0029786 -45.8686316,-68.0021524 -45.8685344,-68.0022383 -45.8682132,-68.00126819 -45.86832361,,-68.00080119 -45.86808139,-67.9980218 -45.8692665,-68.0000389 -45.8684074,-68.0017662 -45.8680339,-67.99627751 -45.86960923,-67.9969811 -45.8694981,-67.9958439 -45.8695654,-67.99512510000001 -45.8693413,-67.99505 -45.8690499,-67.99439359 -45.86914058,-67.99505 -45.8690499,-67.9947495 -45.8687287,-67.9952323 -45.8676529,-67.99437986 -45.8677879;-67.99437986 -45.8677879,-67.9954576 -45.8672868,-67.9960907 -45.8666518,-67.9968202 -45.8663306,-67.99554948 -45.86642106,-67.9970026 -45.8663754,-68.0035257 -45.8657777,-68.003397 -45.8661662,-68.00288598 -45.86648631,-68.0048561 -45.8661961,-68.0066156 -45.864941,-68.00601835 -45.8652672,-68.0066907 -45.8648887,-68.0076134 -45.8646197,-68.0077314 -45.8640818,-68.0066907 -45.862595,-68.0065084 -45.8626847,-68.00524993 -45.86266209,-68.0066907 -45.862595,-68.0062294 -45.8616088,-68.0054569 -45.8608467,-68.004663 -45.8610185,-68.00290781 -45.86119572,-68.0032039 -45.861564,-68.0037832 -45.8611157,-68.0040193 -45.8610858,-68.00170055 -45.8618692,-68.0024529 -45.8617881,-68.0025601 -45.862341,-68.0002105 -45.8608467,-68.0004787 -45.8601219,-67.99931829 -45.86009184,-68.0074525 -45.859442,-68.0054677 -45.8582764,-68.0048132 -45.8581195,-68.0035686 -45.8582092,-68.0016375 -45.8587994,-68.0007148 -45.8595093,-68.00660247 -45.85987417,-68.0073881 -45.8595317,-68.0048668 -45.8579775,-68.0083323 -45.8566475,-68.0111432 -45.8564831,-68.0119586 -45.855833,-68.0093408 -45.8553025,-68.0084181 -45.8553324,-68.0081391 -45.8549139,-68.0071521 -45.8545179,-68.00533143 -45.85441605,-68.0071521 -45.8545179,-68.0081713 -45.855026,-68.0084181 -45.8553324,-68.0044699 -45.8552875,-68.00310693 -45.85560933;-68.00310693 -45.85560933,-68.0071521 -45.8545179,-68.0081713 -45.855026,-68.0084181 -45.8553324,-68.0044699 -45.8552875,-68.00533143 -45.85441605,-68.0073881 -45.8595317,-68.0048668 -45.8579775,-68.0083323 -45.8566475,-68.0111432 -45.8564831,-68.0119586 -45.855833,-68.0093408 -45.8553025,-68.0084181 -45.8553324,-68.0081391 -45.8549139,-68.0071521 -45.8545179,-68.00660247 -45.85987417,-68.0074525 -45.859442,-68.0054677 -45.8582764,-68.0048132 -45.8581195,-68.0035686 -45.8582092,-68.0016375 -45.8587994,-68.0007148 -45.8595093,-67.99931829 -45.86009184,-68.0024529 -45.8617881,-68.0025601 -45.862341,-68.0002105 -45.8608467,-68.0004787 -45.8601219,-68.00170055 -45.8618692,-68.0032039 -45.861564,-68.0037832 -45.8611157,-68.0040193 -45.8610858,-68.00290781 -45.86119572,-68.0066907 -45.862595,-68.0062294 -45.8616088,-68.0054569 -45.8608467,-68.004663 -45.8610185,-68.00524993 -45.86266209,-68.0066907 -45.8648887,-68.0076134 -45.8646197,-68.0077314 -45.8640818,-68.0066907 -45.862595,-68.0065084 -45.8626847,-68.00601835 -45.8652672,-68.0048561 -45.8661961,-68.0066156 -45.864941,-68.00288598 -45.86648631,-67.9970026 -45.8663754,-68.0035257 -45.8657777,-68.003397 -45.8661662,-67.99554948 -45.86642106,-67.9954576 -45.8672868,-67.9960907 -45.8666518,-67.9968202 -45.8663306,-67.99437986 -45.8677879,-67.99505 -45.8690499,-67.9947495 -45.8687287,-67.9952323 -45.8676529,-67.99439359 -45.86914058,-67.9969811 -45.8694981,-67.9958439 -45.8695654,-67.99512510000001 -45.8693413,-67.99505 -45.8690499,-67.99627751 -45.86960923,-67.9980218 -45.8692665,-68.0000389 -45.8684074,-68.0017662 -45.8680339,-68.00080119 -45.86808139,,-68.00126819 -45.86832361,-68.0070448 -45.8686241,-68.0067122 -45.8683028,-68.0066907 -45.8679293,-68.0047274 -45.8681086,-68.0029786 -45.8686316,-68.0021524 -45.8685344,-68.0022383 -45.8682132,-68.00620422 -45.86892139,-68.0070448 -45.8686241,-68.0060685 -45.868385,-68.00449906 -45.86852742,-68.0041587 -45.8700285,-68.0051243 -45.8686091,-68.00284674 -45.87040916,-68.0035579 -45.8703423,-68.0025816 -45.8706859,-68.0014014 -45.8705066,-67.99960904 -45.87080973,,-67.99921407 -45.87121751,-67.9971957 -45.8714031,-67.9989982 -45.8712611,-67.9998028 -45.8710071,-67.99553288 -45.87226112,-67.9929739 -45.8721949,-67.9927379 -45.872546,-67.993784 -45.8729494,-67.9957634 -45.8725273,-67.9964232 -45.8722024,-67.99156523 -45.87210921,-67.9930758 -45.87218,-67.992754 -45.8724788,-67.9914343 -45.8718886,-67.9915845 -45.8711565,-67.9912734 -45.8710071,-67.9900866 -45.8710699,-67.9910052 -45.8707457,-67.9910266 -45.8705664,-67.99163820000001 -45.8700883,-67.9915524 -45.8697073,-67.99024475 -45.86974641,-67.9914558 -45.8692516,-67.9914558 -45.8690499,-67.9925716 -45.8679293,-67.99174523 -45.8677107,-67.9929578 -45.8671225,-67.9928398 -45.8662783,-67.9924321 -45.8655835,-67.9919815 -45.8652548,-67.992121 -45.8648663,-67.9910159 -45.864672,-67.9918528 -45.8642238,-67.99158422 -45.86437969,-67.9920459 -45.8642163,-67.9910159 -45.864672,-67.9903078 -45.8650157,-67.9890847 -45.8656208,-67.9855978 -45.8654415,-67.9855227 -45.865322,-67.98422803 -45.86529103,-67.9859948 -45.8647094,-67.9874003 -45.863783,-67.98677491 -45.86342245,-67.9886341 -45.8629088,-67.9906297 -45.8618479,-67.9911232 -45.8617956,-67.99023202 -45.86204363,-67.9911339 -45.8618479,-67.9904687 -45.8619002,-67.9910696 -45.8615117,-67.9918849 -45.861295,-67.9930007 -45.8606151,-67.99220337 -45.86057361,-67.9928935 -45.8605404,-67.9914236 -45.8609588,-67.98931 -45.8614369,-67.9889023 -45.8613323,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86821501 -45.85959306,-67.87273050000002 -45.8603909,-67.8713894 -45.86060760000001,-67.8696728 -45.8603312,-67.8687501 -45.8600248,-67.868396 -45.859329900000006,-67.8688145 -45.8588667,-67.8688037 -45.8592029,-67.87238238 -45.86053745,-67.8762281 -45.861026,-67.8764856 -45.8608841,-67.8761208 -45.8599501,-67.8737497 -45.8604133,-67.87444477 -45.86135588,-67.8761101 -45.86104100000001,-67.8766465 -45.8610185,-67.8767216 -45.8614071,-67.87598229 -45.86175617,-67.8765821 -45.8616835,-67.8769684 -45.861803,-67.877183 -45.8627295,-67.87624464 -45.86324951;-67.87624464 -45.86324951,-67.87849190000001 -45.8641416,-67.8785133 -45.863499,-67.8778052 -45.8630732,-67.87711554 -45.86436098,-67.8776658 -45.8646496,-67.876035 -45.8642312,-67.8759491 -45.8638278,-67.8749514 -45.864380600000004,-67.87319628 -45.86441938,-67.8740609 -45.8679218,-67.8740501 -45.8676828,-67.8730416 -45.867115,-67.8732347 -45.8667639,-67.8746724 -45.8662783,-67.8754556 -45.865591,-67.876035 -45.8638054,-67.8748977 -45.8643134,-67.8729107 -45.86822856,-67.8699839 -45.8693413,-67.8700376 -45.8699389,-67.8703916 -45.8701929,-67.8709173 -45.8699239,-67.8707349 -45.8692815,-67.8712177 -45.8686166,-67.8731596 -45.8681236,-67.86891343 -45.86940172,-67.8665292 -45.8704394,-67.8664756 -45.8701107,-67.8674197 -45.8697073,-67.8698659 -45.8700883,-67.8700376 -45.8699389,-67.8700268 -45.8692964,-67.86552841 -45.87071955,-67.8665292 -45.8705589,-67.866143 -45.8710594,-67.8657889 -45.8704767,-67.8668725 -45.8688706,-67.86653014 -45.86909111,-67.8668725 -45.8688706,-67.8667974 -45.868646500000004,-67.8676665 -45.8677127,-67.867012 -45.86727940000001,-67.86635342 -45.86702056,-67.8668189 -45.8667639,-67.8664005 -45.866988,-67.8663254 -45.8676305,-67.86498939 -45.86808329,-67.8639972 -45.8691171,-67.8657031 -45.8680713,-67.86235431 -45.86962035,-67.8593409 -45.8716048,-67.85971640000001 -45.8705365,-67.8614008 -45.870529,-67.861948 -45.8698268,-67.8630531 -45.8694832,-67.85882935 -45.87179542,-67.857635 -45.8744807,-67.8541696 -45.874152,-67.8588581 -45.8727103,-67.8593409 -45.8716048,-67.857019 -45.87438052,-67.84873010000001 -45.87312860000001,-67.8543305 -45.8741595,-67.857635 -45.8744807,-67.84711722 -45.87310355,-67.847904 -45.8759074,-67.8490949 -45.8742491,-67.8510368 -45.8734349,-67.8488266 -45.8731585,-67.84644226 -45.87649326,-67.8467667 -45.8780212,-67.846477 -45.87698300000001,-67.8477967 -45.8764751,-67.84627973 -45.87829114,-67.8467345 -45.87813330000001,-67.8463697 -45.8770502,-67.8451788 -45.8768261,-67.84484620000002 -45.8755264,-67.8427005 -45.8748318,-67.84082989 -45.87475713;-67.84082989 -45.87475713,-67.8467345 -45.87813330000001,-67.8463697 -45.8770502,-67.8451788 -45.8768261,-67.84484620000002 -45.8755264,-67.8427005 -45.8748318,-67.84627973 -45.87829114,-67.8467667 -45.8780212,-67.846477 -45.87698300000001,-67.8477967 -45.8764751,-67.84644226 -45.87649326,-67.847904 -45.8759074,-67.8490949 -45.8742491,-67.8510368 -45.8734349,-67.8488266 -45.8731585,-67.84711722 -45.87310355,-67.8489339 -45.8731324,-67.8501302 -45.8733565,-67.8485316 -45.8736739,-67.8459191 -45.8729942,-67.84549 -45.8723406,-67.8449106 -45.8726842,-67.84336962 -45.87289033,-67.8464448 -45.8713396,-67.8465736 -45.871657000000006,-67.84484620000002 -45.8726692,-67.84458226 -45.87132178,-67.8433174 -45.8702414,-67.8424054 -45.8705701,-67.8442401 -45.8712014,-67.8457582 -45.8705029,-67.8468794 -45.8714778,-67.8465736 -45.871657000000006,-67.8464073 -45.8713396,-67.84266503 -45.8702826,-67.8403401 -45.8715002,-67.8396213 -45.8713059,-67.8401256 -45.8706859,-67.8424323 -45.8705216,-67.8432369 -45.8702153,-67.83999726 -45.87142467,-67.8404045 -45.871440400000004,-67.8396642 -45.8713657,-67.8393745 -45.8705216,-67.8371751 -45.8699314,-67.8344822 -45.8697969,-67.8345251 -45.8700584,-67.8363597 -45.8707606,-67.83598551 -45.8713908,-67.8363276 -45.8710445,-67.8348899 -45.87091,-67.8336024 -45.8710221,-67.83204724 -45.87132308,-67.8326046 -45.8712686,-67.8287637 -45.8718438,-67.8266931 -45.8718811,-67.8259957 -45.8715076,-67.82435527 -45.87146335,-67.8233564 -45.8708503,-67.8244293 -45.8708652,-67.8251266 -45.8711117,-67.82148856 -45.87077309;-67.82148856 -45.87077309,-67.8233564 -45.8708503,-67.8244293 -45.8708652,-67.8251266 -45.8711117,-67.82435527 -45.87146335,-67.8326046 -45.8712686,-67.8287637 -45.8718438,-67.8266931 -45.8718811,-67.8259957 -45.8715076,-67.83204724 -45.87132308,-67.8363276 -45.8710445,-67.8348899 -45.87091,-67.8336024 -45.8710221,-67.83598551 -45.8713908,-67.8404045 -45.871440400000004,-67.8396642 -45.8713657,-67.8393745 -45.8705216,-67.8371751 -45.8699314,-67.8344822 -45.8697969,-67.8345251 -45.8700584,-67.8363597 -45.8707606,-67.83999726 -45.87142467,-67.8403401 -45.8715002,-67.8396213 -45.8713059,-67.8401256 -45.8706859,-67.8424323 -45.8705216,-67.8432369 -45.8702153,-67.84266503 -45.8702826,-67.8433174 -45.8702414,-67.8424054 -45.8705701,-67.8442401 -45.8712014,-67.8457582 -45.8705029,-67.8468794 -45.8714778,-67.8465736 -45.871657000000006,-67.8464073 -45.8713396,-67.84458226 -45.87132178,-67.8464448 -45.8713396,-67.8465736 -45.871657000000006,-67.84484620000002 -45.8726692,-67.84336962 -45.87289033,-67.8489339 -45.8731324,-67.8501302 -45.8733565,-67.8485316 -45.8736739,-67.8459191 -45.8729942,-67.84549 -45.8723406,-67.8449106 -45.8726842,-67.84711722 -45.87310355,-67.84873010000001 -45.87312860000001,-67.8543305 -45.8741595,-67.857635 -45.8744807,-67.857019 -45.87438052,-67.857635 -45.8744807,-67.8541696 -45.874152,-67.8588581 -45.8727103,-67.8593409 -45.8716048,-67.85882935 -45.87179542,-67.8593409 -45.8716048,-67.85971640000001 -45.8705365,-67.8614008 -45.870529,-67.861948 -45.8698268,-67.8630531 -45.8694832,-67.86235431 -45.86962035,-67.8639972 -45.8691171,-67.8657031 -45.8680713,-67.86498939 -45.86808329,-67.8668189 -45.8667639,-67.8664005 -45.866988,-67.8663254 -45.8676305,-67.86635342 -45.86702056,-67.8682029 -45.8666817,-67.8692436 -45.8661961,-67.8702307 -45.8647318,-67.8701663 -45.8642088,-67.86895092 -45.86422008,-67.8701234 -45.8635663,-67.8698123 -45.86132490000001,-67.8679776 -45.8603237,-67.8670549 -45.8588966,-67.8654027 -45.859457,-67.8654563 -45.8601518,-67.8656709 -45.8602639,-67.86513556 -45.86046435,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.98715669 -45.86146692,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98206338 -45.86352335,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98026531 -45.86300386,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.97692655 -45.86298292,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97781889 -45.86412305,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97170451 -45.86764851,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.96898996 -45.86789944,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.9688479 -45.86924263,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.96992116 -45.87035971,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.9672039 -45.87497495,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.96572509 -45.87368099,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96214261 -45.87344787,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.95720623 -45.87256309,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95650202 -45.87386891,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95610675 -45.87170205,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95709848 -45.86769228,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2375,S2660,S2624,S2668,S2500,S2646</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 944,S56,Linea 940,S78,Linea 932,S645,Linea 931,S2111,Linea 930,S2110,Linea 736,S2167,Linea 1617,S2168,Linea 584,S849,Linea 582,S938,Linea 581,S2443,Linea 578,S2132,Linea 579,S949,Linea 591,S2129,Linea 592,S2259,Linea 594,S17,Linea 735,S295,Linea 734,S3,Linea 613,Q16,Linea 1626,S2240,Linea 471,S2,Linea 1886,S13,Linea 1887,S2523,Linea 469,S26,Linea 467,S2223,Linea 466,S2621,Linea 463,S2375;S2375,Linea 463,S2621,Linea 457,S2642,Linea 450,S2645,Linea 449,S2660;S2660,Linea 449,S2645,Linea 448,S2652,Linea 447,S2638,Linea 446,S2620,Linea 441,S2595,Linea 444,S2624;S2624,Linea 444,S2595,Linea 442,S2594,Linea 438,S2120,Linea 434,S2668;S2668,Linea 435,S2105,Linea 432,S2632,Linea 431,S2121,Linea 424,S2576,Linea 429,S2641,Linea 428,S2500;S2500,Linea 428,S2641,Linea 429,S2576,Linea 424,S2121,Linea 431,S2632,Linea 432,S2105,Linea 436,S2617,Linea 440,S2620,Linea 443,S2646;S2646,Linea 443,S2620,Linea 446,S2638,Linea 447,S2652,Linea 448,S2645,Linea 450,S2642,Linea 457,S2621,Linea 466,S2223,Linea 467,S26,Linea 469,S2523,Linea 1887,S13,Linea 1886,S2,Linea 471,S2240,Linea 1593,Q16,Linea 613,S3,Linea 734,S295,Linea 735,S17,Linea 594,S2259,Linea 592,S2129,Linea 591,S949,Linea 579,S2132,Linea 578,S2443,Linea 581,S938,Linea 582,S849,Linea 584,S2168,Linea 1617,S2167,Linea 736,S2110,Linea 930,S2111,Linea 931,S645,Linea 932,S78,Linea 940,S56,Linea 944,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92260289 -45.87981886,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.91930941 -45.88137118,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91747464 -45.88372353,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91541483 -45.88231338,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.90970498 -45.88326091,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90591516 -45.88446218,,-67.90594775 -45.88423937,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90705336 -45.88840606,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90362098 -45.8874036,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90293219 -45.8836944,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.89811074 -45.88424629,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89478887 -45.88442779,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.88986813 -45.88509226,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88725199 -45.88498287,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88477851 -45.88530377,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88934482 -45.88367092,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.87931365 -45.88515467,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87597578 -45.88674947,,-67.87630061 -45.88642699,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.8758872 -45.88413516,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.87263059 -45.88283868,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.86703039 -45.88312685,-67.8685462 -45.8831151,-67.869308 -45.8829582,-67.8708422 -45.883018,-67.8705847 -45.8839366,-67.8693122 -45.8842458,-67.8672695 -45.88491500000001,-67.867409 -45.8861099,-67.8680742 -45.8863339,-67.8686106 -45.8860875,-67.8688896 -45.8849822,-67.870338 -45.8842577,-67.86589689 -45.88477956,-67.86739830000002 -45.8868567,-67.8667223 -45.8862667,-67.8672802 -45.8848552,-67.86685323 -45.88712476,-67.8694582 -45.8876409,-67.8695869 -45.887372,-67.8687179 -45.8869837,-67.86795859 -45.88799202;-67.86795859 -45.88799202,-67.8694582 -45.8876409,-67.8695869 -45.887372,-67.8687179 -45.8869837,-67.86685323 -45.88712476,-67.8674626 -45.88708080000001,-67.866658 -45.886864200000005,-67.8658855 -45.887125600000005,-67.8670657 -45.8886864,-67.86520231 -45.88917465,-67.8652418 -45.8907101,-67.8656602 -45.890351700000004,-67.8659928 -45.88941820000001,-67.86328043 -45.89089136,-67.8640401 -45.8909939,-67.8672266 -45.8915539,-67.86687975 -45.89168688;-67.86687975 -45.89168688,-67.8640401 -45.8909939,-67.8672266 -45.8915539,-67.86328043 -45.89089136,-67.86183 -45.8907101,-67.8635895 -45.8906578,-67.85994544 -45.89074459,-67.8583002 -45.8906802,-67.8604245 -45.8905832,-67.85652652 -45.89043864,-67.8569698 -45.8905682,-67.8562617 -45.8905682,-67.8551674 -45.8886042,-67.8555107 -45.8875214,-67.8557789 -45.88838020000001,-67.85537987 -45.88855243,-67.8570557 -45.8887461,-67.8588152 -45.88891790000001,-67.85821176 -45.88888764,-67.8587294 -45.8888955,-67.8575063 -45.8884847,-67.8571844 -45.8880441,-67.8625596 -45.8886864,-67.86188362 -45.88914946;-67.86188362 -45.88914946,-67.8587294 -45.8888955,-67.8575063 -45.8884847,-67.8571844 -45.8880441,-67.8625596 -45.8886864,-67.85821176 -45.88888764,-67.8587294 -45.8888955,-67.8575063 -45.8884847,-67.8558004 -45.8866177,-67.85399644 -45.88640005,-67.8548133 -45.885968,-67.8544056 -45.8857215,-67.8542554 -45.8852884,-67.85284989 -45.88522411,-67.8535903 -45.8848851,-67.8530109 -45.8845938,-67.8524315 -45.8844893,-67.85093028 -45.88433862;-67.85093028 -45.88433862,-67.8516591 -45.8844445,-67.8505969 -45.8845789,-67.84921346 -45.88477072,-67.84983520000002 -45.8848851,-67.8485048 -45.8854826,-67.849406 -45.8856842,-67.84894709 -45.88576073,-67.848537 -45.8862742,-67.8485477 -45.8854079,-67.8494489 -45.8856319,-67.84708796 -45.88650563,-67.8469384 -45.8864833,-67.8456509 -45.8865206,-67.8438485 -45.8877379,-67.8427005 -45.8909267,-67.84140349 -45.89173196,-67.8426254 -45.8909864,-67.8430116 -45.88967960000001,-67.8451467 -45.8898812,-67.84470942 -45.89025472,-67.8454471 -45.8916361,-67.8446209 -45.8900978,-67.8430331 -45.889814,-67.845093 -45.8899484,-67.84371933 -45.8921183;-67.84371933 -45.8921183,-67.8454471 -45.8916361,-67.8446209 -45.8900978,-67.8430331 -45.889814,-67.845093 -45.8899484,-67.84470942 -45.89025472,-67.8426254 -45.8909864,-67.8430116 -45.88967960000001,-67.8451467 -45.8898812,-67.84140349 -45.89173196,-67.8469384 -45.8864833,-67.8456509 -45.8865206,-67.8438485 -45.8877379,-67.8427005 -45.8909267,-67.84708796 -45.88650563,-67.848537 -45.8862742,-67.8485477 -45.8854079,-67.8494489 -45.8856319,-67.84894709 -45.88576073,-67.84983520000002 -45.8848851,-67.8485048 -45.8854826,-67.849406 -45.8856842,-67.84921346 -45.88477072,-67.8525496 -45.8855871,-67.8516698 -45.8851988,-67.8510153 -45.885027,-67.84983520000002 -45.8848851,-67.85159293 -45.88612644,-67.8530109 -45.886319,-67.8539872 -45.8868567,-67.8555858 -45.8874168,-67.8559721 -45.8882756,-67.85537987 -45.88855243,-67.8558648 -45.8883652,-67.8555107 -45.8875214,-67.8540516 -45.8893734,-67.85313424 -45.8900104;-67.85313424 -45.8900104,-67.8558648 -45.8883652,-67.8555107 -45.8875214,-67.8540516 -45.8893734,-67.85537987 -45.88855243,-67.8569698 -45.8905682,-67.8562617 -45.8905682,-67.8551674 -45.8886042,-67.8555107 -45.8875214,-67.8557789 -45.88838020000001,-67.85652652 -45.89043864,-67.8583002 -45.8906802,-67.8604245 -45.8905832,-67.85994544 -45.89074459,-67.86183 -45.8907101,-67.8635895 -45.8906578,-67.86328043 -45.89089136,-67.8652418 -45.8907101,-67.8656602 -45.890351700000004,-67.8659928 -45.88941820000001,-67.86520231 -45.88917465,-67.8674626 -45.88708080000001,-67.866658 -45.886864200000005,-67.8658855 -45.887125600000005,-67.8670657 -45.8886864,-67.86685323 -45.88712476,-67.86739830000002 -45.8868567,-67.8667223 -45.8862667,-67.8672802 -45.8848552,-67.86589689 -45.88477956,-67.8672695 -45.88491500000001,-67.867409 -45.8861099,-67.8680742 -45.8863339,-67.8686106 -45.8860875,-67.8688896 -45.8849822,-67.870338 -45.8842577,-67.8693122 -45.8842458,-67.8685462 -45.8831151,-67.869308 -45.8829582,-67.8708422 -45.883018,-67.8705847 -45.8839366,-67.86703039 -45.88312685,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.87263059 -45.88283868,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.8758872 -45.88413516,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.87630061 -45.88642699,,-67.87597578 -45.88674947,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87931365 -45.88515467,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.88934482 -45.88367092,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88477851 -45.88530377,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88725199 -45.88498287,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88986813 -45.88509226,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.89478887 -45.88442779,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89811074 -45.88424629,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.90293219 -45.8836944,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90362098 -45.8874036,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90705336 -45.88840606,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90594775 -45.88423937,,-67.90591516 -45.88446218,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90970498 -45.88326091,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91930941 -45.88137118,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.92260289 -45.87981886,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2587,S2604,S2645,S2686,S2510</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 1211,S172,Linea 768,S2417,Linea 759,S402,Linea 760,S2468,Linea 763,S395,Linea 764,S338,Linea 773,S2407,Linea 850,S2056,Linea 849,S2716,Linea 853,S2504,Linea 854,S997,Linea 1836,S353,Linea 1361,S2006,Linea 1363,S2009,Linea 1365,S354,Linea 1421,S2255,Linea 568,S882,Linea 622,S523,Linea 221,S2458,Linea 220,S2054,Linea 222,S2544,Linea 223,S2587;S2587,Linea 223,S2544,Linea 222,S2054,Linea 220,S2458,Linea 221,S523,Linea 622,S882,Linea 567,S522,Linea 566,S2273,Linea 552,S525,Linea 551,S529,Linea 549,S437,Linea 546,S773,Linea 531,S2151,Linea 412,S2300,Linea 382,S2011,Linea 422,S2604;S2604,Linea 423,S2124,Linea 528,S434,Linea 529,S2448,Linea 524,S2109,Linea 523,S2606,Linea 1888,S2523,Linea 469,S26,Linea 467,S2223,Linea 466,S2621,Linea 457,S2642,Linea 450,S2645;S2645,Linea 450,S2642,Linea 457,S2621,Linea 466,S2223,Linea 467,S26,Linea 469,S2523,Linea 1887,S13,Linea 1886,S2,Linea 471,S2240,Linea 1593,Q16,Linea 613,S3,Linea 734,S295,Linea 735,S17,Linea 596,S2293,Linea 597,S4,Linea 598,S2324,Linea 600,S2196,Linea 599,S2689,Linea 605,S581,Linea 1867,S2686;S2686,Linea 1867,S581,Linea 605,S2689,Linea 599,S2196,Linea 600,S2324,Linea 598,S4,Linea 597,S2293,Linea 596,S17,Linea 594,S2259,Linea 592,S2129,Linea 591,S949,Linea 579,S2132,Linea 578,S2443,Linea 581,S938,Linea 582,S849,Linea 584,S2168,Linea 1617,S2167,Linea 736,S2110,Linea 930,S2111,Linea 934,S2334,Linea 717,S250,Linea 719,S2349,Linea 720,S986,Linea 722,S2454,Linea 1650,S578,Linea 727,S379,Linea 730,S2336,Linea 704,S667,Linea 159,S246,Linea 161,S662,Linea 162,S678,Linea 164,S2510;S2510,Linea 164,S678,Linea 162,S662,Linea 161,S246,Linea 158,S680,Linea 1549,S2488,Linea 156,S208,Linea 57,S2253,Linea 52,S326,Linea 8,S2258,Linea 7,S328,Linea 6,S309,Linea 4,S329,Linea 3,S993,Linea 2,S2447,Linea 1506,S176,Linea 1,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.95709848 -45.86769228,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95610675 -45.87170205,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95650202 -45.87386891,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95720623 -45.87256309,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.96214261 -45.87344787,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96572509 -45.87368099,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.9672039 -45.87497495,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.96992116 -45.87035971,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.9688479 -45.86924263,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.96898996 -45.86789944,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.97170451 -45.86764851,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97781889 -45.86412305,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97692655 -45.86298292,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.98026531 -45.86300386,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98206338 -45.86352335,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86821501 -45.85959306,-67.8694689 -45.8577534,-67.8702736 -45.8579402,-67.8698766 -45.8584483,-67.8689003 -45.8587696,-67.86752908 -45.85773082,-67.8694689 -45.8577534,-67.8703272 -45.8578879,-67.8705525 -45.8574694,-67.8710139 -45.8575441,-67.87029294 -45.85782787,-67.8710139 -45.8575441,-67.8706169 -45.8573573,-67.8709602 -45.8560348,-67.86919632 -45.85619455,-67.8696942 -45.8557434,-67.86828880000002 -45.8556612,-67.86649364 -45.8559971;-67.86649364 -45.8559971,-67.8696942 -45.8557434,-67.86828880000002 -45.8556612,-67.86919632 -45.85619455,-67.8710139 -45.8575441,-67.8706169 -45.8573573,-67.8709602 -45.8560348,-67.87029294 -45.85782787,-67.8694689 -45.8577534,-67.8703272 -45.8578879,-67.8705525 -45.8574694,-67.8710139 -45.8575441,-67.86752908 -45.85773082,-67.8694689 -45.8577534,-67.8702736 -45.8579402,-67.8698766 -45.8584483,-67.8689003 -45.8587696,-67.86821501 -45.85959306,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86513556 -45.86046435,-67.8701234 -45.8635663,-67.8698123 -45.86132490000001,-67.8679776 -45.8603237,-67.8670549 -45.8588966,-67.8654027 -45.859457,-67.8654563 -45.8601518,-67.8656709 -45.8602639,-67.86895092 -45.86422008,-67.8682029 -45.8666817,-67.8692436 -45.8661961,-67.8702307 -45.8647318,-67.8701663 -45.8642088,-67.86635342 -45.86702056,-67.8668189 -45.8667639,-67.8664005 -45.866988,-67.8663254 -45.8676305,-67.86498939 -45.86808329,-67.8639972 -45.8691171,-67.8657031 -45.8680713,-67.86235431 -45.86962035,-67.8593409 -45.8716048,-67.85971640000001 -45.8705365,-67.8614008 -45.870529,-67.861948 -45.8698268,-67.8630531 -45.8694832,-67.85882935 -45.87179542,-67.857635 -45.8744807,-67.8541696 -45.874152,-67.8588581 -45.8727103,-67.8593409 -45.8716048,-67.857019 -45.87438052,-67.84873010000001 -45.87312860000001,-67.8543305 -45.8741595,-67.857635 -45.8744807,-67.84711722 -45.87310355,-67.847904 -45.8759074,-67.8490949 -45.8742491,-67.8510368 -45.8734349,-67.8488266 -45.8731585,-67.84644226 -45.87649326,-67.8503072 -45.877095,-67.8495133 -45.8766394,-67.8481615 -45.87637800000001,-67.84953817 -45.87734102,-67.8527158 -45.879586,-67.8528607 -45.878936200000005,-67.8513801 -45.8780735,-67.8490144 -45.877969,-67.8485101 -45.8775843,-67.8507954 -45.877532,-67.85112203 -45.88017373;-67.85112203 -45.88017373,-67.8507471 -45.87878310000001,-67.851643 -45.8793134,-67.8513211 -45.8804636,-67.8522384 -45.8811919,-67.8556824 -45.8812367,-67.856546 -45.8801873,-67.855851 -45.88011934,-67.8574526 -45.8818977,-67.8570664 -45.8807624,-67.8556824 -45.8812367,-67.8564656 -45.8801798,-67.85651325 -45.88220843,-67.8573883 -45.8816587,-67.8575063 -45.8811433,-67.8592443 -45.8804114,-67.8593087 -45.8795599,-67.8584397 -45.8786113,-67.8589547 -45.8770502,-67.8599954 -45.87787190000001,-67.859516 -45.87831444,-67.8608537 -45.8799333,-67.8613579 -45.8799707,-67.8611863 -45.8784545,-67.86092880000001 -45.8783424,-67.85926992 -45.88036306,-67.8622806 -45.8814346,-67.8628922 -45.8810985,-67.8613365 -45.8799035,-67.8605962 -45.879896,-67.86071597 -45.88116865,-67.8685462 -45.8831151,-67.8700483 -45.8829059,-67.8648233 -45.8818603,-67.8628063 -45.8810537,-67.8621304 -45.8814645,-67.86703039 -45.88312685,-67.8685462 -45.8831151,-67.869308 -45.8829582,-67.8708422 -45.883018,-67.8705847 -45.8839366,-67.8693122 -45.8842458,-67.8672695 -45.88491500000001,-67.867409 -45.8861099,-67.8680742 -45.8863339,-67.8686106 -45.8860875,-67.8688896 -45.8849822,-67.870338 -45.8842577,-67.86589689 -45.88477956,-67.86739830000002 -45.8868567,-67.8667223 -45.8862667,-67.8672802 -45.8848552,-67.86685323 -45.88712476,-67.8674626 -45.88708080000001,-67.866658 -45.886864200000005,-67.8658855 -45.887125600000005,-67.8670657 -45.8886864,-67.86520231 -45.88917465,-67.8652418 -45.8907101,-67.8656602 -45.890351700000004,-67.8659928 -45.88941820000001,-67.86328043 -45.89089136;-67.86328043 -45.89089136,-67.8652418 -45.8907101,-67.8656602 -45.890351700000004,-67.8659928 -45.88941820000001,-67.86520231 -45.88917465,-67.8674626 -45.88708080000001,-67.866658 -45.886864200000005,-67.8658855 -45.887125600000005,-67.8670657 -45.8886864,-67.86685323 -45.88712476,-67.86739830000002 -45.8868567,-67.8667223 -45.8862667,-67.8672802 -45.8848552,-67.86589689 -45.88477956,-67.8672695 -45.88491500000001,-67.867409 -45.8861099,-67.8680742 -45.8863339,-67.8686106 -45.8860875,-67.8688896 -45.8849822,-67.870338 -45.8842577,-67.8693122 -45.8842458,-67.8685462 -45.8831151,-67.869308 -45.8829582,-67.8708422 -45.883018,-67.8705847 -45.8839366,-67.86703039 -45.88312685,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.87263059 -45.88283868,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.8758872 -45.88413516,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.87630061 -45.88642699,,-67.87597578 -45.88674947,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87931365 -45.88515467,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.88934482 -45.88367092,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88477851 -45.88530377,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88304639 -45.88588109,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88085052 -45.88709026,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.87661058 -45.88889945,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87484305 -45.89067788,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87813787 -45.88993585,-67.8789854 -45.8901127,-67.8777838 -45.8901052,-67.8751981 -45.8927935,-67.8739536 -45.8942571,-67.87230402 -45.89457162,-67.8727734 -45.8946678,-67.8698874 -45.8956236,-67.8718185 -45.8958326,-67.87162467 -45.89615328;-67.87162467 -45.89615328,-67.8727734 -45.8946678,-67.8698874 -45.8956236,-67.8718185 -45.8958326,-67.87230402 -45.89457162,-67.8789854 -45.8901127,-67.8777838 -45.8901052,-67.8751981 -45.8927935,-67.8739536 -45.8942571,-67.87813787 -45.88993585,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87484305 -45.89067788,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87661058 -45.88889945,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.88085052 -45.88709026,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88304639 -45.88588109,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88477851 -45.88530377,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88725199 -45.88498287,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88986813 -45.88509226,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.89478887 -45.88442779,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89811074 -45.88424629,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.90293219 -45.8836944,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90362098 -45.8874036,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90705336 -45.88840606,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90594775 -45.88423937,,-67.90591516 -45.88446218,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90970498 -45.88326091,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9169762 -45.8821367,-67.9166543 -45.8815466,-67.913146 -45.8824205,-67.9128242 -45.8814645,-67.91214619 -45.88124859,-67.9129636 -45.879291,-67.9124808 -45.8793284,-67.9120302 -45.8802545,-67.9124165 -45.8806728,-67.9129958 -45.8809193,-67.91191949 -45.87938061,-67.9128349 -45.8790819,-67.91394 -45.8782827,-67.9123628 -45.8789922,-67.91076944 -45.87927096,-67.9123628 -45.8789922,-67.9139936 -45.8782154,-67.9156995 -45.8769755,-67.9165149 -45.8759447,-67.9189503 -45.874689800000006,-67.91777485 -45.87443865,-67.9194653 -45.874084800000006,-67.9204845 -45.8732108,-67.9206347 -45.8733602,-67.91957453 -45.87370778,,-67.91979942 -45.8736741,-67.9206347 -45.8733602,-67.9204845 -45.8732108,-67.9220188 -45.8711565,-67.92053462 -45.87127057,-67.9217505 -45.8712238,-67.9221582 -45.8710893,-67.9240143 -45.8689901,-67.9237783 -45.8690051,-67.92209124 -45.86928836,-67.9247117 -45.8672271,-67.9251409 -45.8672644,-67.9242826 -45.8677948,-67.9240143 -45.8689378,-67.9238534 -45.8689528,-67.92313135 -45.86736612,-67.925849 -45.8667938,-67.9245508 -45.8671822,-67.92478129 -45.86687146,-67.9258382 -45.86658460000001,-67.9220402 -45.8663903,-67.92069068 -45.86664171,-67.9224908 -45.8663306,-67.9191971 -45.8656582,-67.91774956 -45.8661538,-67.9187572 -45.8661064,-67.9176843 -45.8663679,-67.9172981 -45.8656657,-67.91575239 -45.86551598;-67.91575239 -45.86551598,-67.9187572 -45.8661064,-67.9176843 -45.8663679,-67.9172981 -45.8656657,-67.91774956 -45.8661538,-67.9224908 -45.8663306,-67.9191971 -45.8656582,-67.92069068 -45.86664171,-67.9258382 -45.86658460000001,-67.9220402 -45.8663903,-67.92478129 -45.86687146,-67.9266429 -45.8657927,-67.9259992 -45.8665696,-67.92617947 -45.86596757,,-67.92568273 -45.86555172,-67.9284239 -45.8655835,-67.9270077 -45.8655162,-67.92761571 -45.86576064,-67.92887450000002 -45.8655984,-67.929647 -45.8660093,-67.9311919 -45.8652622,-67.93025624 -45.86524613,-67.934196 -45.8650755,-67.9339492 -45.8648887,-67.9318678 -45.8652174,-67.93322311 -45.86539389,-67.9364544 -45.8650082,-67.9343033 -45.8651128,-67.93542287 -45.86514387,-67.9374468 -45.8637643,-67.93648120000002 -45.8648999,-67.93638614 -45.8639203,-67.9407513 -45.863103100000004,-67.9403973 -45.8622551,-67.93757020000001 -45.8636746,-67.94016816 -45.86304785,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94026881 -45.86394522,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.9397787 -45.86446671,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.93820898 -45.86621382,,-67.93822649 -45.86645361,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2522,S824,S2418</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 1211,S172,Linea 768,S2417,Linea 759,S402,Linea 760,S2468,Linea 763,S395,Linea 764,S338,Linea 773,S2407,Linea 850,S2056,Linea 849,S2716,Linea 853,S2504,Linea 854,S997,Linea 1836,S353,Linea 1361,S2006,Linea 1363,S2009,Linea 1365,S354,Linea 1421,S2255,Linea 568,S882,Linea 622,S523,Linea 215,S788,Linea 216,S2676,Linea 217,S2396,Linea 240,S2395,Linea 243,S1005,Linea 397,S543,Linea 399,S2288,Linea 247,S2418,Linea 249,S611,Linea 250,E291,Linea 252,S853,Linea 254,S851,Linea 257,S591,Linea 258,S876,Linea 263,S886,Linea 264,S868,Linea 270,S869,Linea 278,S864,Linea 277,S2582,Linea 275,S2279,Linea 274,S892,Linea 340,S594,Linea 260,S616,Linea 325,S2522;S2522,Linea 325,S616,Linea 260,S594,Linea 340,S892,Linea 274,S2279,Linea 275,S2582,Linea 277,S864,Linea 278,S869,Linea 270,S868,Linea 264,S886,Linea 263,S876,Linea 258,S591,Linea 257,S851,Linea 254,S853,Linea 252,E291,Linea 250,S611,Linea 249,S2418,Linea 247,S2288,Linea 399,S543,Linea 397,S1005,Linea 243,S2395,Linea 240,S2396,Linea 217,S2676,Linea 216,S788,Linea 215,S523,Linea 622,S882,Linea 568,S2255,Linea 1421,S354,Linea 1365,S2009,Linea 1363,S2006,Linea 1361,S353,Linea 1836,S997,Linea 854,S2504,Linea 853,S2716,Linea 849,S2056,Linea 850,S2407,Linea 773,S338,Linea 764,S395,Linea 763,S2468,Linea 760,S402,Linea 759,S2417,Linea 768,S172,Linea 1211,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 943,S167,Linea 946,S2147,Linea 966,S2465,Linea 968,S387,Linea 970,S316,Linea 969,S39,Linea 957,S36,Linea 1027,S2695,Linea 1026,S43,Linea 1088,S2707,Linea 1098,S42,Linea 1856,S2724,Linea 1092,S163,Linea 1854,S66,Linea 1152,S2658,Linea 1151,S909,Linea 1146,S824;S824,Linea 1146,S909,Linea 1151,S2658,Linea 1152,S66,Linea 1854,S163,Linea 1092,S2724,Linea 1856,S42,Linea 1098,S2707,Linea 1088,S43,Linea 1026,S2695,Linea 1027,S36,Linea 957,S39,Linea 969,S316,Linea 970,S387,Linea 968,S2465,Linea 966,S2147,Linea 946,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 1211,S172,Linea 768,S2417,Linea 759,S402,Linea 760,S2468,Linea 763,S395,Linea 764,S338,Linea 773,S2407,Linea 850,S2056,Linea 849,S2716,Linea 853,S2504,Linea 854,S997,Linea 1836,S353,Linea 1361,S2006,Linea 1363,S2009,Linea 1365,S354,Linea 1421,S2255,Linea 568,S882,Linea 622,S523,Linea 215,S788,Linea 216,S2676,Linea 217,S2396,Linea 240,S2395,Linea 243,S1005,Linea 397,S543,Linea 399,S2288,Linea 247,S2418;S2418,Linea 247,S2288,Linea 399,S543,Linea 397,S1005,Linea 243,S2395,Linea 240,S2396,Linea 217,S2676,Linea 216,S788,Linea 215,S523,Linea 622,S882,Linea 568,S2255,Linea 1421,S354,Linea 1365,S2009,Linea 1363,S2006,Linea 1361,S353,Linea 1836,S997,Linea 854,S2504,Linea 853,S2716,Linea 849,S2056,Linea 850,S2407,Linea 773,S338,Linea 764,S395,Linea 763,S2468,Linea 760,S402,Linea 759,S2417,Linea 768,S172,Linea 1211,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.95709848 -45.86769228,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95610675 -45.87170205,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95650202 -45.87386891,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95720623 -45.87256309,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.96214261 -45.87344787,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96572509 -45.87368099,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.9672039 -45.87497495,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.96992116 -45.87035971,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.9688479 -45.86924263,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.96898996 -45.86789944,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.97170451 -45.86764851,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97781889 -45.86412305,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97692655 -45.86298292,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.98026531 -45.86300386,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98206338 -45.86352335,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86821501 -45.85959306,-67.8666258 -45.8579551,-67.8677523 -45.8588443,-67.8689218 -45.8588293,-67.8688896 -45.8591954,-67.86509618 -45.85797591,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86269634 -45.8576934,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86119926 -45.8582863,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.85800456 -45.85865306,-67.8585362 -45.8586425,-67.8567231 -45.8591431,-67.8550386 -45.8605852,-67.85325633 -45.86047853,-67.8547168 -45.8600622,-67.8545237 -45.8589862,-67.8537083 -45.858508,-67.852335 -45.8585529,-67.85051371 -45.8587379,-67.8511226 -45.8587172,-67.8489661 -45.8581942,-67.8504252 -45.8565952,-67.84992667 -45.85649082,-67.851541 -45.8561394,-67.8511119 -45.8555416,-67.8497386 -45.8553249,-67.8490841 -45.8555341,-67.84737753 -45.85568862,-67.8480864 -45.8556163,-67.846477 -45.8561992,-67.8452325 -45.8556537,-67.84359994 -45.85582912,-67.8438914 -45.8557508,-67.8414237 -45.8563262,-67.8377545 -45.8563187,-67.83653581 -45.85644197,-67.8371108 -45.8561767,-67.8326368 -45.8556313,-67.83154193 -45.85548135,-67.8319716 -45.855437,-67.8292787 -45.855108200000004,-67.82760578 -45.8552439,-67.8277767 -45.8550036,-67.8251696 -45.8547271,-67.824676 -45.8544207,-67.82322995 -45.85451391,-67.8244078 -45.8540994,-67.8225088 -45.8518801,-67.82163737 -45.8516816,-67.8223801 -45.8515886,-67.8209639 -45.8504751,-67.8196657 -45.8504079,-67.81800483 -45.85079524,-67.8185713 -45.8505798,-67.816962 -45.851073,-67.8161895 -45.8523658,-67.81497943 -45.85259887,-67.816329 -45.8519921,-67.8167796 -45.8511701,-67.8158462 -45.8513121,-67.8150415 -45.8533148,-67.8138399 -45.8541293,-67.81217316 -45.85421245,-67.809999 -45.85395,-67.81053540000002 -45.8542265,-67.8125417 -45.8543386,-67.80813131 -45.85419968,-67.8093982 -45.8548467,-67.8103423 -45.8545851,-67.808851 -45.8544506,-67.8103101 -45.854219,-67.8097093 -45.8539126,-67.8072436 -45.85498762,-67.8098595 -45.8560647,-67.809999 -45.8550036,-67.8090441 -45.8548691,-67.80907829 -45.8565264,-67.8125632 -45.8568492,-67.810396 -45.8571033,-67.8101599 -45.8566923,-67.81224182 -45.85671416,-67.8138077 -45.8564532,-67.814548 -45.8566699,-67.813561 -45.8597484,-67.8137219 -45.8605777,-67.81282229 -45.86107452,-67.8186142 -45.8634617,-67.8183568 -45.8624605,-67.8160179 -45.8615565,-67.8143764 -45.8610559,-67.81720169 -45.86444747,-67.8219616 -45.8641789,-67.8248692 -45.8628565,-67.8246653 -45.8626025,-67.8189468 -45.8634916,-67.8188503 -45.8644778,-67.8182173 -45.8647617,-67.8182173 -45.864545,-67.82044095 -45.86465432;-67.82044095 -45.86465432,-67.8219616 -45.8641789,-67.8248692 -45.8628565,-67.8246653 -45.8626025,-67.8189468 -45.8634916,-67.8188503 -45.8644778,-67.8182173 -45.8647617,-67.8182173 -45.864545,-67.81720169 -45.86444747,-67.8186142 -45.8634617,-67.8183568 -45.8624605,-67.8160179 -45.8615565,-67.8143764 -45.8610559,-67.81282229 -45.86107452,-67.8138077 -45.8564532,-67.814548 -45.8566699,-67.813561 -45.8597484,-67.8137219 -45.8605777,-67.81224182 -45.85671416,-67.8125632 -45.8568492,-67.810396 -45.8571033,-67.8101599 -45.8566923,-67.80907829 -45.8565264,-67.8098595 -45.8560647,-67.809999 -45.8550036,-67.8090441 -45.8548691,-67.8072436 -45.85498762,-67.8093982 -45.8548467,-67.8103423 -45.8545851,-67.808851 -45.8544506,-67.8103101 -45.854219,-67.8097093 -45.8539126,-67.80813131 -45.85419968,-67.809999 -45.85395,-67.81053540000002 -45.8542265,-67.8125417 -45.8543386,-67.81217316 -45.85421245,-67.816329 -45.8519921,-67.8167796 -45.8511701,-67.8158462 -45.8513121,-67.8150415 -45.8533148,-67.8138399 -45.8541293,-67.81497943 -45.85259887,-67.8185713 -45.8505798,-67.816962 -45.851073,-67.8161895 -45.8523658,-67.81800483 -45.85079524,-67.8223801 -45.8515886,-67.8209639 -45.8504751,-67.8196657 -45.8504079,-67.82163737 -45.8516816,-67.8244078 -45.8540994,-67.8225088 -45.8518801,-67.82322995 -45.85451391,-67.8277767 -45.8550036,-67.8251696 -45.8547271,-67.824676 -45.8544207,-67.82760578 -45.8552439,-67.8319716 -45.855437,-67.8292787 -45.855108200000004,-67.83154193 -45.85548135,-67.8371108 -45.8561767,-67.8326368 -45.8556313,-67.83653581 -45.85644197,-67.8438914 -45.8557508,-67.8414237 -45.8563262,-67.8377545 -45.8563187,-67.84359994 -45.85582912,-67.8480864 -45.8556163,-67.846477 -45.8561992,-67.8452325 -45.8556537,-67.84737753 -45.85568862,-67.851541 -45.8561394,-67.8511119 -45.8555416,-67.8497386 -45.8553249,-67.8490841 -45.8555341,-67.84992667 -45.85649082,-67.8511226 -45.8587172,-67.8489661 -45.8581942,-67.8504252 -45.8565952,-67.85051371 -45.8587379,-67.8547168 -45.8600622,-67.8545237 -45.8589862,-67.8537083 -45.858508,-67.852335 -45.8585529,-67.85325633 -45.86047853,-67.8585362 -45.8586425,-67.8567231 -45.8591431,-67.8550386 -45.8605852,-67.85800456 -45.85865306,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.86119926 -45.8582863,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86269634 -45.8576934,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86509618 -45.85797591,-67.8666258 -45.8579551,-67.8677523 -45.8588443,-67.8689218 -45.8588293,-67.8688896 -45.8591954,-67.86821501 -45.85959306,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86513556 -45.86046435,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.98715669 -45.86146692,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98206338 -45.86352335,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98026531 -45.86300386,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.97692655 -45.86298292,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97781889 -45.86412305,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97170451 -45.86764851,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.96898996 -45.86789944,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.9688479 -45.86924263,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.96992116 -45.87035971,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.9672039 -45.87497495,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.96572509 -45.87368099,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96214261 -45.87344787,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.95720623 -45.87256309,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95650202 -45.87386891,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95610675 -45.87170205,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95709848 -45.86769228,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.93512028 -45.8793768,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.94258106 -45.87928487,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.9459034 -45.88040255,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.94607409 -45.88311995,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94628753 -45.88560005,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94746568 -45.88694764,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94972726 -45.88693813,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.95178221 -45.88666191,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95650174 -45.8868325,-67.9573059 -45.8868268,-67.956748 -45.8864908,-67.9563725 -45.8857215,-67.9556644 -45.8849971,-67.9546167 -45.88506443,-67.960428 -45.8852436,-67.9597843 -45.8853855,-67.9578102 -45.8852959,-67.9558897 -45.8849448,-67.95958113 -45.88533853,-67.9643977 -45.8867746,-67.9641402 -45.8867895,-67.9629064 -45.8855274,-67.9625845 -45.8842055,-67.9620588 -45.8840412,-67.9608893 -45.8848926,-67.96291589 -45.88644251,-67.9671872 -45.8881412,-67.9659748 -45.8870061,-67.9642153 -45.8869314,-67.9642582 -45.8866849,-67.96633372 -45.88873533,-67.9670262 -45.8881263,-67.9660714 -45.8869613,-67.9657602 -45.8876259,-67.9651165 -45.8877678,-67.9650307 -45.887947,-67.964462 -45.8880815,-67.96290254 -45.88863388,-67.9609108 -45.8902845,-67.9623485 -45.8909491,-67.9621017 -45.8899111,-67.962445 -45.8899634,-67.9637861 -45.8886864,-67.95958813 -45.89007642;-67.95958813 -45.89007642,-67.9609108 -45.8902845,-67.9623485 -45.8909491,-67.9621017 -45.8899111,-67.962445 -45.8899634,-67.9637861 -45.8886864,-67.96290254 -45.88863388,-67.9670262 -45.8881263,-67.9660714 -45.8869613,-67.9657602 -45.8876259,-67.9651165 -45.8877678,-67.9650307 -45.887947,-67.964462 -45.8880815,-67.96633372 -45.88873533,-67.9671872 -45.8881412,-67.9659748 -45.8870061,-67.9642153 -45.8869314,-67.9642582 -45.8866849,-67.96291589 -45.88644251,-67.9643977 -45.8867746,-67.9641402 -45.8867895,-67.9629064 -45.8855274,-67.9625845 -45.8842055,-67.9620588 -45.8840412,-67.9608893 -45.8848926,-67.95958113 -45.88533853,-67.960428 -45.8852436,-67.9597843 -45.8853855,-67.9578102 -45.8852959,-67.9558897 -45.8849448,-67.9546167 -45.88506443,-67.9573059 -45.8868268,-67.956748 -45.8864908,-67.9563725 -45.8857215,-67.9556644 -45.8849971,-67.95650174 -45.8868325,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95178221 -45.88666191,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.94972726 -45.88693813,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94746568 -45.88694764,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94628753 -45.88560005,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94607409 -45.88311995,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.9459034 -45.88040255,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.94258106 -45.87928487,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.95709848 -45.86769228,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95610675 -45.87170205,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95650202 -45.87386891,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95720623 -45.87256309,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.96214261 -45.87344787,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96572509 -45.87368099,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.9672039 -45.87497495,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.96992116 -45.87035971,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.9688479 -45.86924263,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.96898996 -45.86789944,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.97170451 -45.86764851,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97781889 -45.86412305,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97692655 -45.86298292,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.98026531 -45.86300386,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98206338 -45.86352335,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86821501 -45.85959306,-67.8666258 -45.8579551,-67.8677523 -45.8588443,-67.8689218 -45.8588293,-67.8688896 -45.8591954,-67.86509618 -45.85797591,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86269634 -45.8576934,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86119926 -45.8582863,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.85800456 -45.85865306,-67.8585362 -45.8586425,-67.8567231 -45.8591431,-67.8550386 -45.8605852,-67.85325633 -45.86047853,-67.8547168 -45.8600622,-67.8545237 -45.8589862,-67.8537083 -45.858508,-67.852335 -45.8585529,-67.85051371 -45.8587379,-67.8511226 -45.8587172,-67.8489661 -45.8581942,-67.8504252 -45.8565952,-67.84992667 -45.85649082,-67.851541 -45.8561394,-67.8511119 -45.8555416,-67.8497386 -45.8553249,-67.8490841 -45.8555341,-67.84737753 -45.85568862;-67.84737753 -45.85568862,-67.851541 -45.8561394,-67.8511119 -45.8555416,-67.8497386 -45.8553249,-67.8490841 -45.8555341,-67.84992667 -45.85649082,-67.8511226 -45.8587172,-67.8489661 -45.8581942,-67.8504252 -45.8565952,-67.85051371 -45.8587379,-67.8547168 -45.8600622,-67.8545237 -45.8589862,-67.8537083 -45.858508,-67.852335 -45.8585529,-67.85325633 -45.86047853,-67.8585362 -45.8586425,-67.8567231 -45.8591431,-67.8550386 -45.8605852,-67.85800456 -45.85865306,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.86119926 -45.8582863,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86269634 -45.8576934,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86509618 -45.85797591,-67.8666258 -45.8579551,-67.8677523 -45.8588443,-67.8689218 -45.8588293,-67.8688896 -45.8591954,-67.86821501 -45.85959306,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86513556 -45.86046435,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.98715669 -45.86146692,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98206338 -45.86352335,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98026531 -45.86300386,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.97692655 -45.86298292,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97781889 -45.86412305,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97170451 -45.86764851,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.96898996 -45.86789944,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.9688479 -45.86924263,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.96992116 -45.87035971,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.9672039 -45.87497495,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.96572509 -45.87368099,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96214261 -45.87344787,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.95720623 -45.87256309,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95650202 -45.87386891,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95610675 -45.87170205,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95709848 -45.86769228,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2685,S2704,S924,S2690</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 944,S56,Linea 940,S78,Linea 932,S645,Linea 931,S2111,Linea 930,S2110,Linea 736,S2167,Linea 1617,S2168,Linea 584,S849,Linea 582,S938,Linea 581,S2443,Linea 578,S2132,Linea 579,S949,Linea 591,S2129,Linea 592,S2259,Linea 594,S17,Linea 596,S2293,Linea 597,S4,Linea 598,S2324,Linea 600,S2196,Linea 599,S2689,Linea 605,S581,Linea 610,S2688,Linea 611,S2685;S2685,Linea 612,S2699,Linea 1624,S2704;S2704,Linea 1624,S2699,Linea 612,S2685,Linea 611,S2688,Linea 610,S581,Linea 605,S2689,Linea 601,S2683,Linea 606,S2619,Linea 608,S2694,Linea 1336,S2711,Linea 1335,S2698,Linea 1334,S2718,Linea 1333,S2717,Linea 1330,S924;S924,Linea 1331,S2690;S2690,Linea 1332,S2717,Linea 1333,S2718,Linea 1334,S2698,Linea 1335,S2711,Linea 1336,S2694,Linea 608,S2619,Linea 606,S2683,Linea 601,S2689,Linea 599,S2196,Linea 600,S2324,Linea 598,S4,Linea 597,S2293,Linea 596,S17,Linea 594,S2259,Linea 592,S2129,Linea 591,S949,Linea 579,S2132,Linea 578,S2443,Linea 581,S938,Linea 582,S849,Linea 584,S2168,Linea 1617,S2167,Linea 736,S2110,Linea 930,S2111,Linea 931,S645,Linea 932,S78,Linea 940,S56,Linea 944,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92260289 -45.87981886,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.91930941 -45.88137118,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91747464 -45.88372353,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91541483 -45.88231338,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.90970498 -45.88326091,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90591516 -45.88446218,,-67.90594775 -45.88423937,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90705336 -45.88840606,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90362098 -45.8874036,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90293219 -45.8836944,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.89811074 -45.88424629,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89478887 -45.88442779,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.88986813 -45.88509226,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88725199 -45.88498287,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88477851 -45.88530377,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88304639 -45.88588109,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88085052 -45.88709026,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.87661058 -45.88889945,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87484305 -45.89067788,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87813787 -45.88993585,-67.8789854 -45.8901127,-67.8777838 -45.8901052,-67.8751981 -45.8927935,-67.8739536 -45.8942571,-67.87230402 -45.89457162,-67.8727734 -45.8946678,-67.8694153 -45.8954742,-67.8682566 -45.89504860000001,-67.86797017 -45.89505687,-67.86816 -45.8950113,-67.8676021 -45.8944886,-67.866143 -45.8944961,-67.86504739 -45.89456671;-67.86504739 -45.89456671,-67.8660572 -45.8945035,-67.8649414 -45.8945185,-67.8640723 -45.8941302,-67.8626239 -45.893936,-67.8611112 -45.8934058,-67.8592336 -45.8931445,-67.8576779 -45.8937045,-67.8559321 -45.89402021,,-67.85521863 -45.89409907;-67.85521863 -45.89409907,,-67.8559321 -45.89402021,-67.8660572 -45.8945035,-67.8649414 -45.8945185,-67.8640723 -45.8941302,-67.8626239 -45.893936,-67.8611112 -45.8934058,-67.8592336 -45.8931445,-67.8576779 -45.8937045,-67.86504739 -45.89456671,-67.86816 -45.8950113,-67.8676021 -45.8944886,-67.866143 -45.8944961,-67.86797017 -45.89505687,-67.8727734 -45.8946678,-67.8694153 -45.8954742,-67.8682566 -45.89504860000001,-67.87230402 -45.89457162,-67.8789854 -45.8901127,-67.8777838 -45.8901052,-67.8751981 -45.8927935,-67.8739536 -45.8942571,-67.87813787 -45.88993585,-67.8788996 -45.8901426,-67.877934 -45.8900903,-67.8774834 -45.8904786,-67.8777945 -45.8925098,-67.8783524 -45.8919348,-67.87768072 -45.89180609,-67.8782558 -45.8919497,-67.8778267 -45.8923828,-67.8780413 -45.8938315,-67.8791893 -45.8953398,-67.87842608 -45.89585515,-67.8799939 -45.8961761,-67.8810668 -45.8968855,-67.881496 -45.8974007,-67.88049412 -45.89765426,-67.8816462 -45.8976545,-67.8819466 -45.8992972,-67.8823757 -45.8992374,-67.88283131 -45.8994995,-67.8778481 -45.8999691,-67.8795862 -45.8996556,-67.8816676 -45.8998198,-67.8823113 -45.899342,-67.87600509 -45.90013168,-67.875402 -45.9018954,-67.8762174 -45.9018506,-67.8767323 -45.9016117,-67.8774405 -45.9009995,-67.8778481 -45.8999691,-67.87401 -45.90242679,-67.8778911 -45.9022389,-67.8772688 -45.9023733,-67.8762174 -45.9020895,-67.8762174 -45.9018506,-67.875402 -45.9018954,-67.87749311 -45.90223614,-67.8877831 -45.9058523,-67.8869033 -45.9059867,-67.8840923 -45.9048668,-67.8834271 -45.9042397,-67.8832769 -45.9030601,-67.8820109 -45.9031497,-67.8811312 -45.903299,-67.8780627 -45.9027018,-67.8772688 -45.9023733,-67.8778911 -45.9022389,-67.88690397 -45.90593083;-67.88690397 -45.90593083,-67.8873324 -45.9059718,-67.8863239 -45.9058523,-67.8840923 -45.9048668,-67.8834271 -45.9042397,-67.8832769 -45.9030601,-67.8815603 -45.9032542,-67.8792 -45.9030004,-67.8801656 -45.9023882,-67.8811741 -45.9021194,-67.88126058 -45.90229604;-67.88126058 -45.90229604,-67.8811741 -45.9021194,-67.8801656 -45.9024927,-67.8792 -45.9030004,-67.8772688 -45.9023733,-67.8778696 -45.9023733,-67.87749311 -45.90223614,-67.8778911 -45.9022389,-67.8772688 -45.9023733,-67.8762174 -45.9020895,-67.8762174 -45.9018506,-67.875402 -45.9018954,-67.87401 -45.90242679,-67.875402 -45.9018954,-67.8762174 -45.9018506,-67.8767323 -45.9016117,-67.8774405 -45.9009995,-67.8778481 -45.8999691,-67.87600509 -45.90013168,-67.8778481 -45.8999691,-67.8795862 -45.8996556,-67.8816676 -45.8998198,-67.8823113 -45.899342,-67.88283131 -45.8994995,-67.8816462 -45.8976545,-67.8819466 -45.8992972,-67.8823757 -45.8992374,-67.88049412 -45.89765426,-67.8799939 -45.8961761,-67.8810668 -45.8968855,-67.881496 -45.8974007,-67.87842608 -45.89585515,-67.8782558 -45.8919497,-67.8778267 -45.8923828,-67.8780413 -45.8938315,-67.8791893 -45.8953398,-67.87768072 -45.89180609,-67.8788996 -45.8901426,-67.877934 -45.8900903,-67.8774834 -45.8904786,-67.8777945 -45.8925098,-67.8783524 -45.8919348,-67.87813787 -45.88993585,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87484305 -45.89067788,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87661058 -45.88889945,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.88085052 -45.88709026,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88304639 -45.88588109,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88477851 -45.88530377,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88725199 -45.88498287,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88986813 -45.88509226,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.89478887 -45.88442779,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89811074 -45.88424629,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.90293219 -45.8836944,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90362098 -45.8874036,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90705336 -45.88840606,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90594775 -45.88423937,,-67.90591516 -45.88446218,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90970498 -45.88326091,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91930941 -45.88137118,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.92260289 -45.87981886,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2442,S2035,S2367</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 754,S2408,Linea 752,S370,Linea 1842,S2421,Linea 741,S980,Linea 740,S377,Linea 748,S381,Linea 747,S2572,Linea 746,S315,Linea 1017,S59,Linea 1295,S2116,Linea 1293,S1,Linea 1292,S2189,Linea 797,S2095,Linea 1828,S198,Linea 805,S287,Linea 839,S312,Linea 1834,S339,Linea 1833,S2548,Linea 1678,S249,Linea 830,S285,Linea 1832,S2406,Linea 823,S2441,Linea 821,S2242,Linea 1831,S195,Linea 818,S2442;S2442,Linea 818,S195,Linea 1831,S2242,Linea 821,S2441,Linea 823,S2406,Linea 1427,S2087,Linea 1426,S2081,Linea 1370,S2091,Linea 1371,S325,Linea 1372,S323,Linea 1373,S2255,Linea 568,S882,Linea 622,S523,Linea 621,E290,Linea 620,S2386,Linea 238,S958,Linea 626,S2560,Linea 627,S2262,Linea 628,S2445,Linea 662,S2720,Linea 634,S458,Linea 660,S683,Linea 659,S2265,Linea 665,S489,Linea 629,S2077,Linea 631,S629,Linea 905,S783,Linea 1214,Planta Norte,Linea 923,S789,Linea 925,S501,Linea 127,S633,Linea 210,S622,Linea 912,S2387,Linea 205,S632,Linea 203,S430,Linea 408,S2575,Linea 680,S642,Linea 679,S2035;S2035,Linea 495,S2351,Linea 494,S397,Linea 491,S991,Linea 1600,S2367;S2367,Linea 1600,S991,Linea 491,S397,Linea 490,S2036,Linea 1599,S2359,Linea 687,S440,Linea 689,S2047,Linea 688,S2278,Linea 927,S2231,Linea 1649,S236,Linea 713,S77,Linea 1647,S2334,Linea 934,S2111,Linea 931,S645,Linea 932,S78,Linea 940,S56,Linea 944,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9513514 -45.867951700000006,-67.9506004 -45.8681534,-67.9493558 -45.8665622,-67.9490876 -45.8664576,-67.9492164 -45.8668461,-67.95075242 -45.86791677,-67.9511476 -45.8693039,-67.95089010000001 -45.8697222,-67.9506433 -45.8681011,-67.9512978 -45.867892,-67.95011093 -45.86936834,-67.9526013 -45.869965,-67.9517484 -45.8700734,-67.9508901 -45.8697222,-67.9511476 -45.8693039,-67.95188123 -45.87007275,-67.9518449 -45.870925,-67.9516733 -45.8706037,-67.9509866 -45.870275,-67.95089010000001 -45.8697222,-67.9517484 -45.8700734,-67.9526281 -45.8699912,-67.95082673 -45.87123588,-67.9510081 -45.87218,-67.9515123 -45.8715599,-67.9518449 -45.870925,-67.94974928 -45.87213834,-67.9508579 -45.8736739,-67.9509115 -45.8721426,-67.94983615 -45.87396079,-67.9521346 -45.8759746,-67.951448 -45.8759597,-67.9509008 -45.8738383,-67.95155064 -45.87647635,-67.9521346 -45.8759746,-67.9517162 -45.8759074,-67.9513943 -45.8758999,-67.9525959 -45.87702780000001,-67.95337920000001 -45.8774162,-67.95259842 -45.87763583,-67.9538298 -45.8776104,-67.9575419 -45.8788205,-67.9596341 -45.8789624,-67.9602242 -45.8794852,-67.95937836 -45.87978501,-67.967391 -45.8796271,-67.9660606 -45.879657,-67.9619408 -45.879179,-67.959795 -45.8789997,-67.9602242 -45.8794852,-67.96661757 -45.87943084,-67.9708028 -45.8792686,-67.9686999 -45.8795524,-67.9682064 -45.8792238,-67.96993071 -45.87922522,-67.9739785 -45.8781632,-67.9745579 -45.8782677,-67.9740644 -45.8788802,-67.9710174 -45.8792537,-67.97210325 -45.8786421,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9755771 -45.8785142,-67.9742253 -45.8787756,-67.974236 -45.878222900000004,-67.9757414 -45.87911165,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9756951 -45.8784321,-67.9790318 -45.877588,-67.9792678 -45.8765199,-67.9792786 -45.8747272,-67.9798257 -45.8760045,-67.9801154 -45.8760643,-67.97932522 -45.87631183,-67.9801047 -45.8737412,-67.9795146 -45.8726879,-67.9791605 -45.8735694,-67.9792249 -45.8748467,-67.9793966 -45.8748467,-67.9797721 -45.8758476,-67.9800725 -45.876012,-67.97905112 -45.87422359,-67.9799759 -45.8737337,-67.9795146 -45.8726879,-67.9809093 -45.8709474,-67.980845 -45.8716421,-67.97987219 -45.87199291,-67.9807377 -45.8716645,-67.9809952 -45.8709175,-67.9819071 -45.8698567,-67.9830122 -45.8690947,-67.9832804 -45.8686614,-67.9840744 -45.8683402,-67.98364252 -45.86827111,-67.9875398 -45.8692665,-67.988205 -45.8691993,-67.9883659 -45.8686465,-67.9866493 -45.8686017,-67.9853296 -45.8685195,-67.9839349 -45.868766,-67.9830122 -45.8690947,-67.9832804 -45.8686614,-67.9841065 -45.8682057,-67.98595749 -45.86942688,,-67.98621539 -45.86906201,-67.9901361 -45.8674661,-67.9900289 -45.8678098,-67.9882801 -45.8686838,-67.9882801 -45.8691246,-67.9875398 -45.8692665,-67.98895281 -45.86742251,-67.9929042 -45.8670777,-67.9928398 -45.8661064,-67.9924321 -45.8655835,-67.9918849 -45.8652398,-67.9909408 -45.867115,-67.9902434 -45.8675334,-67.99174523 -45.8677107,-67.9914558 -45.8692516,-67.9914558 -45.8690499,-67.9925716 -45.8679293,-67.99024475 -45.86974641,-67.9910052 -45.8707457,-67.9910266 -45.8705664,-67.99163820000001 -45.8700883,-67.9915524 -45.8697073,-67.9900866 -45.8710699,-67.9903615 -45.8718289,-67.9906189 -45.8717616,-67.9914665 -45.8719409,-67.9915845 -45.8711565,-67.9914451 -45.871037,-67.98943394 -45.8722328,-67.9905438 -45.871724300000004,-67.989943 -45.8713209,-67.9886019 -45.8709623,-67.9877007 -45.87093990000001,-67.9877007 -45.8708577,-67.9868367 -45.87077375;-67.9868367 -45.87077375,-67.9905438 -45.871724300000004,-67.989943 -45.8713209,-67.9886019 -45.8709623,-67.9877007 -45.87093990000001,-67.9877007 -45.8708577,-67.98943394 -45.8722328,-67.9903615 -45.8718289,-67.9906189 -45.8717616,-67.9914665 -45.8719409,-67.9915845 -45.8711565,-67.9914451 -45.871037,-67.9900866 -45.8710699,-67.9910052 -45.8707457,-67.9910266 -45.8705664,-67.99163820000001 -45.8700883,-67.9915524 -45.8697073,-67.99024475 -45.86974641,-67.9914558 -45.8692516,-67.9914558 -45.8690499,-67.9925716 -45.8679293,-67.99174523 -45.8677107,-67.9929578 -45.8671225,-67.9928398 -45.8662783,-67.9924321 -45.8655835,-67.9919815 -45.8652548,-67.992121 -45.8648663,-67.9910159 -45.864672,-67.9918528 -45.8642238,-67.99158422 -45.86437969,-67.9920459 -45.8642163,-67.9910159 -45.864672,-67.9903078 -45.8650157,-67.9890847 -45.8656208,-67.9855978 -45.8654415,-67.9855227 -45.865322,-67.98422803 -45.86529103,-67.9859948 -45.8647094,-67.9874003 -45.863783,-67.98677491 -45.86342245,-67.9886341 -45.8629088,-67.9906297 -45.8618479,-67.9911232 -45.8617956,-67.99023202 -45.86204363,-67.9911339 -45.8618479,-67.9904687 -45.8619002,-67.9910696 -45.8615117,-67.9918849 -45.861295,-67.9930007 -45.8606151,-67.99220337 -45.86057361,-67.9928935 -45.8605404,-67.9914236 -45.8609588,-67.98931 -45.8614369,-67.9889023 -45.8613323,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86821501 -45.85959306,-67.87273050000002 -45.8603909,-67.8713894 -45.86060760000001,-67.8696728 -45.8603312,-67.8687501 -45.8600248,-67.868396 -45.859329900000006,-67.8688145 -45.8588667,-67.8688037 -45.8592029,-67.87238238 -45.86053745,-67.8762281 -45.861026,-67.8764856 -45.8608841,-67.8761208 -45.8599501,-67.8737497 -45.8604133,-67.87444477 -45.86135588,-67.8761101 -45.86104100000001,-67.8766465 -45.8610185,-67.8767216 -45.8614071,-67.87598229 -45.86175617,-67.8765821 -45.8616835,-67.8769684 -45.861803,-67.877183 -45.8627295,-67.87624464 -45.86324951,-67.87849190000001 -45.8641416,-67.8785133 -45.863499,-67.8778052 -45.8630732,-67.87711554 -45.86436098,-67.8776658 -45.8646496,-67.876035 -45.8642312,-67.8759491 -45.8638278,-67.8749514 -45.864380600000004,-67.87319628 -45.86441938,-67.8740609 -45.8679218,-67.8740501 -45.8676828,-67.8730416 -45.867115,-67.8732347 -45.8667639,-67.8746724 -45.8662783,-67.8754556 -45.865591,-67.876035 -45.8638054,-67.8748977 -45.8643134,-67.8729107 -45.86822856,-67.8735942 -45.8680488,-67.8724301 -45.8682281,-67.8724086 -45.8686689,-67.8764427 -45.8695952,-67.87545792 -45.87007243,-67.8773439 -45.8681385,-67.878288 -45.8679816,-67.8767216 -45.8696102,-67.87529512 -45.86884053,-67.8773224 -45.8682132,-67.8784168 -45.867951700000006,-67.8792751 -45.866988,-67.87841593 -45.86693979,-67.8794253 -45.8652025,-67.8813779 -45.8643508,-67.8805947 -45.8648065,-67.8801227 -45.8652622,-67.8801119 -45.8658151,-67.8798544 -45.8661513,-67.87816911 -45.86559299,-67.8800154 -45.8627071,-67.880863 -45.8635887,-67.8814101 -45.8638502,-67.881496 -45.8643508,-67.8795862 -45.8651352,-67.87889297 -45.8626014,-67.8809917 -45.8619301,-67.8822792 -45.8616611,-67.8835666 -45.8617507,-67.8845859 -45.8612277,-67.8843284 -45.8612427,-67.88286864 -45.86153258,-67.8855836 -45.8605329,-67.8847253 -45.8611754,-67.8843284 -45.8612427,-67.88485253 -45.86038085,-67.8862917 -45.8600846,-67.8869355 -45.8600547,-67.8873861 -45.8596438,-67.8876221 -45.8588667,-67.8886843 -45.8579999,-67.8905296 -45.8572453,-67.8915596 -45.8569165,-67.8910661 -45.8570435,-67.89119881 -45.85678635,-67.8960952 -45.8598436,-67.8959692 -45.8585678,-67.8961945 -45.8583138,-67.8955936 -45.8581419,-67.8949177 -45.8572976,-67.8950787 -45.8562589,-67.894907 -45.8558629,-67.8937376 -45.8558928,-67.8932869 -45.8566101,-67.8928149 -45.8568492,-67.8926003 -45.8566998,-67.89506126 -45.86022417,-67.8961086 -45.8601668,-67.8949714 -45.8618927,-67.89369378 -45.862107,-67.8961945 -45.8632674,-67.8952932 -45.8629985,-67.8948426 -45.8620347,-67.8946526 -45.86372426,-67.8942311 -45.8647841,-67.8944886 -45.8644778,-67.8944886 -45.8640444,-67.8955936 -45.8639772,-67.8958511 -45.8637307,-67.8924736 -45.86523062,-67.8914094 -45.8658749,-67.893244 -45.8652249,-67.88982897 -45.86617984,-67.8926647 -45.8667714,-67.8914416 -45.865972,-67.89194102 -45.86726393,-67.8929329 -45.86721210000001,-67.894392 -45.8695056,-67.89334262 -45.86982277,-67.8955185 -45.8706112,-67.895025 -45.8705813,-67.8944993 -45.8697073,-67.89468537 -45.87097799,-67.8951538 -45.8720604,-67.8954649 -45.8713209,-67.8950679 -45.870671,-67.8955185 -45.8706112,-67.89420174 -45.8725767;-67.89420174 -45.8725767,-67.8954864 -45.8744359,-67.8949392 -45.8739429,-67.895143 -45.8733378,-67.8949499 -45.8727701,-67.89489679 -45.87455424,-67.8992522 -45.8749438,-67.8973424 -45.8751455,-67.8966451 -45.875362100000004,-67.8955722 -45.8745031,-67.89863672 -45.87485225,-67.8996921 -45.8744209,-67.8999817 -45.8733453,-67.89956807 -45.87344883,,-67.899083 -45.87328051;-67.899083 -45.87328051,,-67.89956807 -45.87344883,-67.8996921 -45.8744209,-67.8999817 -45.8733453,-67.89863672 -45.87485225,-67.8996062 -45.8756758,-67.8981364 -45.8751081,-67.8992522 -45.8749438,-67.89781334 -45.87614703,,-67.89805175 -45.8762384,-67.8998315 -45.8761838,-67.9001212 -45.8769457,-67.900883 -45.8771399,-67.9025674 -45.8764527,-67.90200809 -45.87637167,-67.9027498 -45.8764153,-67.9023206 -45.8766319,-67.9053462 -45.8764079,-67.9049706 -45.8759672,-67.90388535 -45.87594679,-67.9065692 -45.87642280000001,-67.9066443 -45.8758626,-67.9054427 -45.876363,-67.9050243 -45.8759149,-67.90493501 -45.87690763,-67.9108071 -45.880613,-67.9116762 -45.8803665,-67.9099488 -45.8795972,-67.9089832 -45.8795748,-67.908479 -45.879291,-67.9081464 -45.8778345,-67.9075241 -45.8768784,-67.9078567 -45.8763107,-67.9075456 -45.8753322,-67.9072452 -45.8752799,-67.9064727 -45.8764004,-67.90902811 -45.88062544,,-67.90891537 -45.88072557,-67.9107428 -45.880501,-67.9119766 -45.880389,-67.9123414 -45.8806952,-67.9129958 -45.8809193,-67.91210808 -45.8814063,,-67.91214619 -45.88124859,-67.9166651 -45.8823159,-67.9169762 -45.8821367,-67.9166543 -45.8815466,-67.913146 -45.8824205,-67.9128242 -45.8814645,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91930941 -45.88137118,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.92260289 -45.87981886,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2706,S847,S2644</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 943,S167,Linea 946,S2147,Linea 964,S2146,Linea 947,S2721,Linea 963,S38,Linea 953,S136,Linea 952,S2706;S2706,Linea 952,S136,Linea 953,S38,Linea 954,S2681,Linea 961,S2722,Linea 1846,S37,Linea 1024,S2695,Linea 1026,S43,Linea 1088,S2707,Linea 1098,S42,Linea 1853,S2723,Linea 1118,S841,Linea 1113,S2194,Linea 1110,S803,Linea 1138,S815,Linea 1139,S823,Linea 1143,S2380,Linea 1142,S847;S847,Linea 1133,S848,Linea 1131,S921,Linea 1273,S2055,Linea 1328,S778,Linea 1329,S834,Linea 1307,S839,Linea 1313,S725,Linea 1310,S744,Linea 1321,S747,Linea 1324,S752,Linea 1244,S753,Linea 1323,S755,Linea 1236,S2648,Linea 1237,S2644;S2644,Linea 1237,S2648,Linea 1236,S755,Linea 1323,S753,Linea 1244,S752,Linea 1324,S747,Linea 1321,S744,Linea 1310,S725,Linea 1313,S839,Linea 1307,S834,Linea 1306,S759,Linea 1297,S794,Linea 1073,S760,Linea 1221,S791,Linea 1076,S793,Linea 1078,S2667,Linea 1077,S944,Linea 1085,S115,Linea 1733,S927,Linea 1222,S33,Linea 1724,S2094,Linea 950,S31,Linea 949,S2146,Linea 964,S2147,Linea 946,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.93512028 -45.8793768,-67.9380155 -45.8812404,-67.938627 -45.880852,-67.9384768 -45.8805682,-67.9371035 -45.8800827,-67.9358482 -45.8797093,-67.9335737 -45.8797616,-67.934432 -45.8794255,-67.9350007 -45.8792835,-67.9357088 -45.8792686,-67.93588984 -45.88149225,-67.9394478 -45.8815018,-67.9390669 -45.8813786,-67.9390454 -45.8810425,-67.9386485 -45.8811881,-67.938568 -45.8809641,-67.9379404 -45.8812105,-67.93895804 -45.88204116,-67.9404831 -45.883003,-67.9393351 -45.8816139,-67.9395604 -45.8815392,-67.93935418 -45.88340612,-67.937361 -45.8846162,-67.9377794 -45.883735,-67.9390776 -45.8830777,-67.9391098 -45.8833615,-67.9396677 -45.8835632,-67.9402363 -45.8833989,-67.936352 -45.88515172,-67.937361 -45.8846162,-67.9372966 -45.8833914,-67.93588554 -45.8836543;-67.93588554 -45.8836543,-67.937361 -45.8846162,-67.9372966 -45.8833914,-67.936352 -45.88515172,-67.937361 -45.8846162,-67.9377794 -45.883735,-67.9390776 -45.8830777,-67.9391098 -45.8833615,-67.9396677 -45.8835632,-67.9402363 -45.8833989,-67.93935418 -45.88340612,-67.9390776 -45.8859083,-67.9388952 -45.8849299,-67.9384875 -45.8844519,-67.9383051 -45.883832,-67.939024 -45.8833317,-67.9396892 -45.8836155,-67.9402363 -45.8833989,-67.93803519 -45.88653092,-67.9413199 -45.8842577,-67.94191 -45.884325,-67.9418242 -45.8848403,-67.9404724 -45.8852734,-67.9399681 -45.8854975,-67.9388416 -45.8850046,-67.9390776 -45.8859083,-67.94007097 -45.88448059,-67.9434013 -45.8843175,-67.9426825 -45.884086,-67.9423177 -45.8838843,-67.94191 -45.8839814,-67.9418349 -45.8844669,-67.9412127 -45.8843922,-67.94255555 -45.88454697,-67.9484117 -45.88667,-67.947489 -45.8864908,-67.9468238 -45.8864609,-67.9463196 -45.8856021,-67.9456758 -45.8850643,-67.945118 -45.8847581,-67.9446459 -45.8841607,-67.9440129 -45.8842652,-67.94746568 -45.88694764,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94972726 -45.88693813,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.95178221 -45.88666191,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95650174 -45.8868325,-67.9563618 -45.8869613,-67.9570055 -45.8870583,-67.9568553 -45.8866028,-67.957381 -45.8868268,-67.95495587 -45.8875866,-67.9576063 -45.8896124,-67.9577136 -45.888888,-67.9572308 -45.8876483,-67.9565012 -45.8869986,-67.95602222 -45.88970885,-67.958647 -45.8921289,-67.9580784 -45.8917854,-67.958411 -45.8907699,-67.9588509 -45.8902397,-67.9578209 -45.8896422,-67.95792371 -45.89252328,-67.958411 -45.8946678,-67.9585934 -45.8938464,-67.9590118 -45.8934581,-67.9594839 -45.8932714,-67.9597199 -45.892913,-67.9595053 -45.8926741,-67.95753705 -45.89518861,-67.9602778 -45.8973559,-67.959677 -45.8974604,-67.9590976 -45.897326,-67.9587114 -45.8968257,-67.95928 -45.896094,-67.9591405 -45.8953548,-67.95956637 -45.89743693,-67.9612112 -45.8971319,-67.9633784 -45.8962807,-67.9639149 -45.8957132,-67.9634535 -45.8934357,-67.9631853 -45.892801,-67.96212496 -45.89267136,-67.9636359 -45.8920916,-67.9636359 -45.890964,-67.96267485 -45.89061558,-67.9667902 -45.8928309,-67.9665112 -45.8926517,-67.9661894 -45.8920169,-67.965138 -45.8917033,-67.964741 -45.8917481,-67.9635823 -45.8909043,-67.96564342 -45.89329615;-67.96564342 -45.89329615,-67.9662001 -45.8964449,-67.9652131 -45.8977815,-67.9650414 -45.897662,-67.9655886 -45.8962657,-67.966125 -45.8954817,-67.9668546 -45.8937568,-67.96531388 -45.89614529,-67.9662001 -45.8964449,-67.9653203 -45.8977964,-67.9651058 -45.8977217,-67.9655027 -45.8963628,-67.9647303 -45.8972513,-67.9640865 -45.8983937,-67.96354703 -45.89869944,-67.9693437 -45.9027914,-67.9659963 -45.8987297,-67.965138 -45.8986401,-67.96793825 -45.90348141,-67.9685926 -45.9034484,-67.9653096 -45.9044488,-67.9600525 -45.9049564,-67.9584861 -45.9041651,-67.9576707 -45.9040606,-67.95594313 -45.90408308,-67.9576707 -45.9040606,-67.9586577 -45.9041501,-67.9598594 -45.9049266,-67.9530573 -45.9053894,-67.9526496 -45.9059568,-67.9507613 -45.9066437,-67.9497957 -45.9073603,-67.9479933 -45.907644,-67.9448175 -45.9073753,-67.9420066 -45.9072707,-67.94070253 -45.90708056,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.93482704 -45.9074612,-67.922008 -45.9097193,-67.9201412 -45.9109884,-67.9196906 -45.9109585,-67.9200125 -45.9097492,-67.9210854 -45.909585,-67.9227591 -45.90851,-67.9267287 -45.9077933,-67.9317927 -45.9075544,-67.9344964 -45.9080023,-67.9353762 -45.9076142,-67.92132124 -45.90950332,-67.9221797 -45.9097492,-67.9201412 -45.9109884,-67.91924 -45.911063,-67.9191971 -45.9115109,-67.91938339 -45.91141146,-67.9150558 -45.9126903,-67.9162359 -45.9122126,-67.9164505 -45.9115408,-67.9181457 -45.910645,-67.9202914 -45.9111078,-67.91361731 -45.91301639,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.9049706 -45.9149894,-67.9050565 -45.9146311,-67.908597 -45.9143027,-67.9105282 -45.9135114,-67.9126954 -45.9130636,-67.9141974 -45.9123171,-67.90949828 -45.91775832,-67.9105067 -45.9207068,-67.9081678 -45.9205276,-67.9078245 -45.9200798,-67.9065156 -45.9195574,-67.9081035 -45.9191991,-67.9097772 -45.9180049,-67.91006087 -45.92075561,-67.9186392 -45.925737,-67.9181242 -45.9258713,-67.9160213 -45.924319,-67.9144335 -45.9239011,-67.9125881 -45.9236324,-67.911365 -45.9232891,-67.908361 -45.9205575,-67.9107213 -45.9206172,-67.91781996 -45.92567691,-67.9183388 -45.9258713,-67.9167509 -45.9248116,-67.9175448 -45.9264683,-67.9174805 -45.9272444,-67.9163647 -45.9281549,-67.9153562 -45.9282295,-67.9142404 -45.9287071,-67.9133177 -45.9295131,-67.9126954 -45.9289758,-67.912631 -45.9280206,-67.9141116 -45.9273489,-67.9158497 -45.9268415,-67.9161072 -45.9264235,-67.9158711 -45.9259907,-67.91406535 -45.92603076,-67.9160428 -45.9260952,-67.9158497 -45.9268415,-67.9124379 -45.928125,-67.9126954 -45.9289758,-67.9133177 -45.9295131,-67.9122019 -45.9304384,-67.9106355 -45.9306175,-67.9069018 -45.9297071,-67.9082537 -45.9278265,-67.90777463 -45.92772469;-67.90777463 -45.92772469,-67.9160428 -45.9260952,-67.9158497 -45.9268415,-67.9124379 -45.928125,-67.9126954 -45.9289758,-67.9133177 -45.9295131,-67.9122019 -45.9304384,-67.9106355 -45.9306175,-67.9069018 -45.9297071,-67.9082537 -45.9278265,-67.91406535 -45.92603076,-67.9183388 -45.9258713,-67.9167509 -45.9248116,-67.9175448 -45.9264683,-67.9174805 -45.9272444,-67.9163647 -45.9281549,-67.9153562 -45.9282295,-67.9142404 -45.9287071,-67.9133177 -45.9295131,-67.9126954 -45.9289758,-67.912631 -45.9280206,-67.9141116 -45.9273489,-67.9158497 -45.9268415,-67.9161072 -45.9264235,-67.9158711 -45.9259907,-67.91781996 -45.92567691,-67.9186392 -45.925737,-67.9181242 -45.9258713,-67.9160213 -45.924319,-67.9144335 -45.9239011,-67.9125881 -45.9236324,-67.911365 -45.9232891,-67.908361 -45.9205575,-67.9107213 -45.9206172,-67.91006087 -45.92075561,-67.9105067 -45.9207068,-67.9081678 -45.9205276,-67.9078245 -45.9200798,-67.9065156 -45.9195574,-67.9081035 -45.9191991,-67.9097772 -45.9180049,-67.90949828 -45.91775832,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.9049706 -45.9149894,-67.9050565 -45.9146311,-67.908597 -45.9143027,-67.9105282 -45.9135114,-67.9126954 -45.9130636,-67.9141974 -45.9123171,-67.91361731 -45.91301639,-67.9150558 -45.9126903,-67.9162359 -45.9122126,-67.9164505 -45.9115408,-67.9181457 -45.910645,-67.9202914 -45.9111078,-67.91938339 -45.91141146,-67.9221797 -45.9097492,-67.9201412 -45.9109884,-67.91924 -45.911063,-67.9191971 -45.9115109,-67.92132124 -45.90950332,-67.922008 -45.9097193,-67.9201412 -45.9109884,-67.9196906 -45.9109585,-67.9200125 -45.9097492,-67.9210854 -45.909585,-67.9227591 -45.90851,-67.9267287 -45.9077933,-67.9317927 -45.9075544,-67.9344964 -45.9080023,-67.9353762 -45.9076142,-67.93482704 -45.9074612,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.94070253 -45.90708056,-67.9417276 -45.9060912,-67.9426718 -45.9047623,-67.9416203 -45.9047773,-67.9445601 -45.9035379,-67.942543 -45.9026271,-67.94048121 -45.90255833,-67.9313636 -45.9007755,-67.9299688 -45.9015296,-67.9309559 -45.9024778,-67.931664 -45.9022687,-67.9323721 -45.9010144,-67.9335737 -45.900447,-67.9371786 -45.9012832,-67.9379082 -45.9021045,-67.9396677 -45.9026719,-67.941041 -45.9025674,-67.93028301 -45.90068278,-67.9312027 -45.9008128,-67.9299688 -45.9015296,-67.9282737 -45.9003723,-67.9263103 -45.8994316,-67.9232204 -45.8984983,-67.9221046 -45.8981623,-67.92046749 -45.89809236,-67.9221904 -45.8981548,-67.9232204 -45.8984983,-67.9230487 -45.8980652,-67.9224908 -45.89755,-67.9236388 -45.8964449,-67.92261639 -45.89612501,-67.9235637 -45.895743,-67.9241538 -45.8953249,-67.9267287 -45.8949142,-67.9271579 -45.8944961,-67.9267287 -45.8942048,-67.9257309 -45.8936448,-67.9256558 -45.8930698,-67.9268682 -45.8923604,-67.9289711 -45.8934208,-67.9293036 -45.893361,-67.92819602 -45.89300211,-67.929368 -45.8925994,-67.9296148 -45.8919423,-67.9287994 -45.8913897,-67.9285097 -45.8910014,-67.9286277 -45.8901127,-67.92758265 -45.88993498,-67.9286492 -45.8892166,-67.9288638 -45.8878724,-67.9292393 -45.8876931,-67.92838162 -45.88770662,-67.929883 -45.8876782,-67.9306018 -45.8878724,-67.9317605 -45.8883727,-67.9326189 -45.888201,-67.93184093 -45.88869985,,-67.93195275 -45.88880085,-67.9325545 -45.8880964,-67.9324257 -45.8875363,-67.933048 -45.8868642,-67.9335093 -45.8836304,-67.93297197 -45.88384007,,-67.93288041 -45.88347512,-67.9369962 -45.8822636,-67.9367441 -45.8819686,-67.9343677 -45.8832719,-67.93623372 -45.88237227,-67.9369104 -45.8822487,-67.9367441 -45.8819686,-67.9385787 -45.881274,-67.938568 -45.8809641,-67.9379243 -45.8811844,-67.93588984 -45.88149225,-67.9380155 -45.8812404,-67.938627 -45.880852,-67.9384768 -45.8805682,-67.9371035 -45.8800827,-67.9358482 -45.8797093,-67.9335737 -45.8797616,-67.934432 -45.8794255,-67.9350007 -45.8792835,-67.9357088 -45.8792686,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S825,S2060</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 944,S56,Linea 940,S78,Linea 932,S645,Linea 1046,S928,Linea 1048,S840,Linea 1058,S825;S825,Linea 1058,S840,Linea 1048,S928,Linea 1046,S645,Linea 932,S78,Linea 940,S56,Linea 944,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base,Linea 14,S278,Linea 15,S2250,Linea 16,S977,Linea 17,S245,Linea 1341,S2416,Linea 69,S154,Linea 70,S2060;S2060,Linea 70,S154,Linea 69,S2416,Linea 1341,S245,Linea 17,S977,Linea 16,S2250,Linea 15,S278,Linea 14,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92260289 -45.87981886,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.91930941 -45.88137118,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91747464 -45.88372353,-67.9183924 -45.8832943,-67.9178345 -45.8833989,-67.9181349 -45.883832,-67.9182851 -45.8847656,-67.9179955 -45.8868492,-67.9182959 -45.887021,-67.918725 -45.8867895,-67.9189289 -45.8859232,-67.91833856 -45.88592331,-67.9201949 -45.8901426,-67.920785 -45.8896646,-67.9178774 -45.8882906,-67.9180706 -45.8870061,-67.9186499 -45.8868642,-67.918961 -45.8857962,-67.91840225 -45.89042054,-67.9217613 -45.8923082,-67.9222977 -45.8918228,-67.9222763 -45.8910238,-67.921139 -45.8899783,-67.9201734 -45.8900156,-67.92052611 -45.89317192;-67.92052611 -45.89317192,-67.9217613 -45.8923082,-67.9222977 -45.8918228,-67.9222763 -45.8910238,-67.921139 -45.8899783,-67.9201734 -45.8900156,-67.91840225 -45.89042054,-67.9201949 -45.8901426,-67.920785 -45.8896646,-67.9178774 -45.8882906,-67.9180706 -45.8870061,-67.9186499 -45.8868642,-67.918961 -45.8857962,-67.91833856 -45.88592331,-67.9183924 -45.8832943,-67.9178345 -45.8833989,-67.9181349 -45.883832,-67.9182851 -45.8847656,-67.9179955 -45.8868492,-67.9182959 -45.887021,-67.918725 -45.8867895,-67.9189289 -45.8859232,-67.91747464 -45.88372353,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91930941 -45.88137118,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.92260289 -45.87981886,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472,-67.9427254 -45.8635364,-67.9464859 -45.8623447,-67.9469097 -45.862016,-67.94569946 -45.86221924,-67.9469097 -45.8620944,-67.9481596 -45.8620048,-67.94727301 -45.86217176,-67.9483044 -45.861911400000004,-67.9473495 -45.8614183,-67.94655091 -45.86160389,-67.9479718 -45.8615453,-67.9493934 -45.8606973,-67.9489589 -45.8606599,-67.94780419 -45.86081977,-67.9494631 -45.8607197,-67.9496992 -45.8604582,-67.9489589 -45.8596363,-67.9496777 -45.8591282,-67.9500318 -45.8586351,-67.9503858 -45.8584632,-67.94942594 -45.85854239,-67.95038580000002 -45.8584109,-67.9492486 -45.8582839,-67.9486799 -45.8563934,-67.9455793 -45.8575815,-67.94451337 -45.85788474,-67.9454827 -45.8575591,-67.9450428 -45.8573125,-67.9437983 -45.8579999,-67.9424357 -45.8576786,-67.94116334 -45.85759913;-67.94116334 -45.85759913,-67.9454827 -45.8575591,-67.9450428 -45.8573125,-67.9437983 -45.8579999,-67.9424357 -45.8576786,-67.94451337 -45.85788474,-67.95038580000002 -45.8584109,-67.9492486 -45.8582839,-67.9486799 -45.8563934,-67.9455793 -45.8575815,-67.94942594 -45.85854239,-67.9494631 -45.8607197,-67.9496992 -45.8604582,-67.9489589 -45.8596363,-67.9496777 -45.8591282,-67.9500318 -45.8586351,-67.9503858 -45.8584632,-67.94780419 -45.86081977,-67.9479718 -45.8615453,-67.9493934 -45.8606973,-67.9489589 -45.8606599,-67.94655091 -45.86160389,-67.9483044 -45.861911400000004,-67.9473495 -45.8614183,-67.94727301 -45.86217176,-67.9469097 -45.8620944,-67.9481596 -45.8620048,-67.94569946 -45.86221924,-67.9427254 -45.8635364,-67.9464859 -45.8623447,-67.9469097 -45.862016,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2462,S2305,S2083</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 754,S2408,Linea 752,S370,Linea 1842,S2421,Linea 741,S980,Linea 740,S377,Linea 748,S381,Linea 747,S2572,Linea 746,S315,Linea 1017,S59,Linea 1295,S2116,Linea 1293,S1,Linea 1292,S2189,Linea 797,S2095,Linea 1828,S198,Linea 805,S287,Linea 839,S312,Linea 1834,S339,Linea 1833,S2548,Linea 1678,S249,Linea 830,S285,Linea 1832,S2406,Linea 824,S2539,Linea 1676,S152,Linea 814,S2462;S2462,Linea 814,S152,Linea 1668,S2539,Linea 824,S2406,Linea 1832,S285,Linea 828,S2305;S2305,Linea 828,S285,Linea 1832,S2406,Linea 1427,S2087,Linea 1428,S2083;S2083,Linea 1428,S2087,Linea 1426,S2081,Linea 1370,S2091,Linea 1371,S325,Linea 1372,S323,Linea 1373,S2255,Linea 1421,S354,Linea 1365,S2009,Linea 1363,S2006,Linea 1361,S353,Linea 1836,S997,Linea 854,S2504,Linea 853,S2716,Linea 849,S2056,Linea 850,S2407,Linea 773,S338,Linea 764,S395,Linea 763,S2468,Linea 760,S402,Linea 759,S2417,Linea 768,S172,Linea 1211,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9513514 -45.867951700000006,-67.9506004 -45.8681534,-67.9493558 -45.8665622,-67.9490876 -45.8664576,-67.9492164 -45.8668461,-67.95075242 -45.86791677,-67.9511476 -45.8693039,-67.95089010000001 -45.8697222,-67.9506433 -45.8681011,-67.9512978 -45.867892,-67.95011093 -45.86936834,-67.9526013 -45.869965,-67.9517484 -45.8700734,-67.9508901 -45.8697222,-67.9511476 -45.8693039,-67.95188123 -45.87007275,-67.9518449 -45.870925,-67.9516733 -45.8706037,-67.9509866 -45.870275,-67.95089010000001 -45.8697222,-67.9517484 -45.8700734,-67.9526281 -45.8699912,-67.95082673 -45.87123588,-67.9510081 -45.87218,-67.9515123 -45.8715599,-67.9518449 -45.870925,-67.94974928 -45.87213834,-67.9508579 -45.8736739,-67.9509115 -45.8721426,-67.94983615 -45.87396079,-67.9521346 -45.8759746,-67.951448 -45.8759597,-67.9509008 -45.8738383,-67.95155064 -45.87647635,-67.9521346 -45.8759746,-67.9517162 -45.8759074,-67.9513943 -45.8758999,-67.9525959 -45.87702780000001,-67.95337920000001 -45.8774162,-67.95259842 -45.87763583,-67.9538298 -45.8776104,-67.9575419 -45.8788205,-67.9596341 -45.8789624,-67.9602242 -45.8794852,-67.95937836 -45.87978501,-67.967391 -45.8796271,-67.9660606 -45.879657,-67.9619408 -45.879179,-67.959795 -45.8789997,-67.9602242 -45.8794852,-67.96661757 -45.87943084,-67.9708028 -45.8792686,-67.9686999 -45.8795524,-67.9682064 -45.8792238,-67.96993071 -45.87922522,-67.9739785 -45.8781632,-67.9745579 -45.8782677,-67.9740644 -45.8788802,-67.9710174 -45.8792537,-67.97210325 -45.8786421,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9755771 -45.8785142,-67.9742253 -45.8787756,-67.974236 -45.878222900000004,-67.9757414 -45.87911165,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9756951 -45.8784321,-67.9790318 -45.877588,-67.9792678 -45.8765199,-67.9792786 -45.8747272,-67.9798257 -45.8760045,-67.9801154 -45.8760643,-67.97932522 -45.87631183,-67.9801047 -45.8737412,-67.9795146 -45.8726879,-67.9791605 -45.8735694,-67.9792249 -45.8748467,-67.9793966 -45.8748467,-67.9797721 -45.8758476,-67.9800725 -45.876012,-67.97905112 -45.87422359,-67.9799759 -45.8737337,-67.9795146 -45.8726879,-67.9809093 -45.8709474,-67.980845 -45.8716421,-67.97987219 -45.87199291,-67.9807377 -45.8716645,-67.9809952 -45.8709175,-67.9819071 -45.8698567,-67.9830122 -45.8690947,-67.9832804 -45.8686614,-67.9840744 -45.8683402,-67.98364252 -45.86827111,-67.9875398 -45.8692665,-67.988205 -45.8691993,-67.9883659 -45.8686465,-67.9866493 -45.8686017,-67.9853296 -45.8685195,-67.9839349 -45.868766,-67.9830122 -45.8690947,-67.9832804 -45.8686614,-67.9841065 -45.8682057,-67.98595749 -45.86942688,,-67.98621539 -45.86906201,-67.9901361 -45.8674661,-67.9900289 -45.8678098,-67.9882801 -45.8686838,-67.9882801 -45.8691246,-67.9875398 -45.8692665,-67.98895281 -45.86742251,-67.9929042 -45.8670777,-67.9928398 -45.8661064,-67.9924321 -45.8655835,-67.9918849 -45.8652398,-67.9909408 -45.867115,-67.9902434 -45.8675334,-67.99174523 -45.8677107,-67.99270030000001 -45.8680115,-67.9920244 -45.869162,-67.9932475 -45.8700435,-67.99256365 -45.87036853,,-67.99253557 -45.87053256,-67.9939556 -45.8721949,-67.9937088 -45.8706486,-67.99347074 -45.87229992;-67.99347074 -45.87229992,-67.9939556 -45.8721949,-67.9937088 -45.8706486,-67.99253557 -45.87053256,,-67.99256365 -45.87036853,-67.99270030000001 -45.8680115,-67.9920244 -45.869162,-67.9932475 -45.8700435,-67.99174523 -45.8677107,-67.9929042 -45.8670777,-67.9928398 -45.8661064,-67.9924321 -45.8655835,-67.9918849 -45.8652398,-67.9909408 -45.867115,-67.9902434 -45.8675334,-67.98895281 -45.86742251,-67.9889882 -45.8675184,-67.9901576 -45.8669507,-67.9907262 -45.8670702,-67.9901469 -45.8675259,-67.98732981 -45.86783242;-67.98732981 -45.86783242,-67.9889882 -45.8675184,-67.9901576 -45.8669507,-67.9907262 -45.8670702,-67.9901469 -45.8675259,-67.98895281 -45.86742251,-67.9929042 -45.8670777,-67.9928398 -45.8661064,-67.9924321 -45.8655835,-67.9918849 -45.8652398,-67.9909408 -45.867115,-67.9902434 -45.8675334,-67.99174523 -45.8677107,-67.9929578 -45.8671225,-67.9928398 -45.8662783,-67.9924321 -45.8655835,-67.9919815 -45.8652548,-67.992121 -45.8648663,-67.9910159 -45.864672,-67.9918528 -45.8642238,-67.99158422 -45.86437969,-67.9961872 -45.8633197,-67.9955757 -45.8643358,-67.9948568 -45.86456,-67.9938269 -45.8646123,-67.9918849 -45.8652398,-67.992121 -45.8648663,-67.9911447 -45.8646347,-67.9920459 -45.8642163,-67.99515095 -45.86288824;-67.99515095 -45.86288824,-67.9961872 -45.8633197,-67.9955757 -45.8643358,-67.9948568 -45.86456,-67.9938269 -45.8646123,-67.9918849 -45.8652398,-67.992121 -45.8648663,-67.9911447 -45.8646347,-67.9920459 -45.8642163,-67.99158422 -45.86437969,-67.9920459 -45.8642163,-67.9910159 -45.864672,-67.9903078 -45.8650157,-67.9890847 -45.8656208,-67.9855978 -45.8654415,-67.9855227 -45.865322,-67.98422803 -45.86529103,-67.9859948 -45.8647094,-67.9874003 -45.863783,-67.98677491 -45.86342245,-67.9886341 -45.8629088,-67.9906297 -45.8618479,-67.9911232 -45.8617956,-67.99023202 -45.86204363,-67.9911339 -45.8618479,-67.9904687 -45.8619002,-67.9910696 -45.8615117,-67.9918849 -45.861295,-67.9930007 -45.8606151,-67.99220337 -45.86057361,-67.9928935 -45.8605404,-67.9914236 -45.8609588,-67.98931 -45.8614369,-67.9889023 -45.8613323,-67.98715669 -45.86146692,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98206338 -45.86352335,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98026531 -45.86300386,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.97692655 -45.86298292,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97781889 -45.86412305,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97170451 -45.86764851,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.96898996 -45.86789944,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.9688479 -45.86924263,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.96992116 -45.87035971,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.9672039 -45.87497495,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.96572509 -45.87368099,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96214261 -45.87344787,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.95720623 -45.87256309,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95650202 -45.87386891,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95610675 -45.87170205,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95709848 -45.86769228,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S999,S2540,S2520</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 754,S2408,Linea 752,S370,Linea 1842,S2421,Linea 741,S980,Linea 740,S377,Linea 748,S381,Linea 747,S2572,Linea 745,S999;S999,Linea 745,S2572,Linea 746,S315,Linea 935,S2520,Linea 794,S260,Linea 775,S2540;S2540,Linea 775,S260,Linea 794,S2520;S2520,Linea 935,S315,Linea 746,S2572,Linea 747,S381,Linea 748,S377,Linea 740,S980,Linea 741,S2421,Linea 1842,S370,Linea 752,S2408,Linea 754,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9513514 -45.867951700000006,-67.9506004 -45.8681534,-67.9493558 -45.8665622,-67.9490876 -45.8664576,-67.9492164 -45.8668461,-67.95075242 -45.86791677,-67.9511476 -45.8693039,-67.95089010000001 -45.8697222,-67.9506433 -45.8681011,-67.9512978 -45.867892,-67.95011093 -45.86936834,-67.9526013 -45.869965,-67.9517484 -45.8700734,-67.9508901 -45.8697222,-67.9511476 -45.8693039,-67.95188123 -45.87007275,-67.9518449 -45.870925,-67.9516733 -45.8706037,-67.9509866 -45.870275,-67.95089010000001 -45.8697222,-67.9517484 -45.8700734,-67.9526281 -45.8699912,-67.95082673 -45.87123588,-67.9510081 -45.87218,-67.9515123 -45.8715599,-67.9518449 -45.870925,-67.94974928 -45.87213834,-67.9508579 -45.8736739,-67.9509115 -45.8721426,-67.94983615 -45.87396079,-67.9521346 -45.8759746,-67.951448 -45.8759597,-67.9509008 -45.8738383,-67.95155064 -45.87647635,-67.9521239 -45.8742491,-67.9518771 -45.875885,-67.9521346 -45.8759746,-67.95131727 -45.87411285;-67.95131727 -45.87411285,-67.9521239 -45.8742491,-67.9518771 -45.875885,-67.9521346 -45.8759746,-67.95155064 -45.87647635,-67.9521346 -45.8759746,-67.9517162 -45.8759074,-67.9513943 -45.8758999,-67.9525959 -45.87702780000001,-67.95337920000001 -45.8774162,-67.95259842 -45.87763583,-67.9539478 -45.8775432,-67.9560077 -45.8773266,-67.9570484 -45.8767328,-67.9579389 -45.8758215,-67.9585665 -45.8748691,-67.9575956 -45.8754443,-67.95608568 -45.8759708,-67.9669082 -45.8749812,-67.9658675 -45.873868200000004,-67.9650843 -45.8737113,-67.9633462 -45.8741744,-67.9616296 -45.8739877,-67.9602456 -45.873278,-67.9584754 -45.8748915,-67.957499 -45.8754293,-67.96587392 -45.87543336,-67.968936 -45.876467600000005,-67.9687858 -45.8766021,-67.9677987 -45.8763033,-67.9669404 -45.8754816,-67.96782021 -45.87637267;-67.96782021 -45.87637267,-67.968936 -45.876467600000005,-67.9687858 -45.8766021,-67.9677987 -45.8763033,-67.9669404 -45.8754816,-67.96587392 -45.87543336,-67.9669082 -45.8749812,-67.9658675 -45.873868200000004,-67.9650843 -45.8737113,-67.9633462 -45.8741744,-67.9616296 -45.8739877,-67.9602456 -45.873278,-67.9584754 -45.8748915,-67.957499 -45.8754293,-67.95608568 -45.8759708;-67.95608568 -45.8759708,-67.9539478 -45.8775432,-67.9560077 -45.8773266,-67.9570484 -45.8767328,-67.9579389 -45.8758215,-67.9585665 -45.8748691,-67.9575956 -45.8754443,-67.95259842 -45.87763583,-67.9521346 -45.8759746,-67.9517162 -45.8759074,-67.9513943 -45.8758999,-67.9525959 -45.87702780000001,-67.95337920000001 -45.8774162,-67.95155064 -45.87647635,-67.9521346 -45.8759746,-67.951448 -45.8759597,-67.9509008 -45.8738383,-67.94983615 -45.87396079,-67.9508579 -45.8736739,-67.9509115 -45.8721426,-67.94974928 -45.87213834,-67.9510081 -45.87218,-67.9515123 -45.8715599,-67.9518449 -45.870925,-67.95082673 -45.87123588,-67.9518449 -45.870925,-67.9516733 -45.8706037,-67.9509866 -45.870275,-67.95089010000001 -45.8697222,-67.9517484 -45.8700734,-67.9526281 -45.8699912,-67.95188123 -45.87007275,-67.9526013 -45.869965,-67.9517484 -45.8700734,-67.9508901 -45.8697222,-67.9511476 -45.8693039,-67.95011093 -45.86936834,-67.9511476 -45.8693039,-67.95089010000001 -45.8697222,-67.9506433 -45.8681011,-67.9512978 -45.867892,-67.95075242 -45.86791677,-67.9513514 -45.867951700000006,-67.9506004 -45.8681534,-67.9493558 -45.8665622,-67.9490876 -45.8664576,-67.9492164 -45.8668461,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2058,S2296,S849</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 1211,S172,Linea 768,S2417,Linea 759,S402,Linea 760,S2468,Linea 763,S395,Linea 764,S338,Linea 773,S2407,Linea 850,S2056,Linea 849,S2716,Linea 853,S2504,Linea 854,S997,Linea 1836,S353,Linea 1361,S2006,Linea 1363,S2009,Linea 1365,S354,Linea 1421,S2255,Linea 1373,S323,Linea 1372,S325,Linea 1423,S2058;S2058,Linea 1423,S325,Linea 1372,S323,Linea 1373,S2255,Linea 568,S882,Linea 567,S522,Linea 566,S2273,Linea 615,S2634,Linea 614,S469,Linea 545,S439,Linea 538,S531,Linea 540,S533,Linea 536,S506,Linea 534,S470,Linea 642,S2296;S2296,Linea 642,S470,Linea 645,S426,Linea 649,S2307,Linea 507,S427,Linea 512,S509,Linea 511,S2236,Linea 516,Q17,Linea 517,S2523,Linea 1887,S13,Linea 1886,S2,Linea 471,S2240,Linea 1593,Q16,Linea 613,S3,Linea 734,S295,Linea 735,S17,Linea 594,S2259,Linea 592,S2129,Linea 591,S949,Linea 579,S2132,Linea 578,S2443,Linea 581,S938,Linea 582,S849;S849,Linea 584,S2168,Linea 1617,S2167,Linea 736,S2110,Linea 930,S2111,Linea 931,S645,Linea 932,S78,Linea 940,S56,Linea 944,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.95709848 -45.86769228,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95610675 -45.87170205,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95650202 -45.87386891,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95720623 -45.87256309,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.96214261 -45.87344787,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96572509 -45.87368099,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.9672039 -45.87497495,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.96992116 -45.87035971,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.9688479 -45.86924263,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.96898996 -45.86789944,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.97170451 -45.86764851,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97781889 -45.86412305,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97692655 -45.86298292,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.98026531 -45.86300386,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98206338 -45.86352335,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98715669 -45.86146692,-67.9928935 -45.8605404,-67.9914236 -45.8609588,-67.98931 -45.8614369,-67.9889023 -45.8613323,-67.99220337 -45.86057361,-67.9911339 -45.8618479,-67.9904687 -45.8619002,-67.9910696 -45.8615117,-67.9918849 -45.861295,-67.9930007 -45.8606151,-67.99023202 -45.86204363,-67.9952538 -45.8605927,-67.9947281 -45.8608168,-67.9940629 -45.8615789,-67.9931509 -45.862087,-67.9937303 -45.8615714,-67.9916918 -45.8619226,-67.99496681 -45.86045139;-67.99496681 -45.86045139,-67.9952538 -45.8605927,-67.9947281 -45.8608168,-67.9940629 -45.8615789,-67.9931509 -45.862087,-67.9937303 -45.8615714,-67.9916918 -45.8619226,-67.99023202 -45.86204363,-67.9911339 -45.8618479,-67.9904687 -45.8619002,-67.9910696 -45.8615117,-67.9918849 -45.861295,-67.9930007 -45.8606151,-67.99220337 -45.86057361,-67.9928935 -45.8605404,-67.9914236 -45.8609588,-67.98931 -45.8614369,-67.9889023 -45.8613323,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8701234 -45.8635663,-67.8698123 -45.86132490000001,-67.8679776 -45.8603237,-67.8670549 -45.8588966,-67.8654027 -45.859457,-67.8654563 -45.8601518,-67.8656709 -45.8602639,-67.86895092 -45.86422008,-67.8682029 -45.8666817,-67.8692436 -45.8661961,-67.8702307 -45.8647318,-67.8701663 -45.8642088,-67.86635342 -45.86702056,-67.8668725 -45.8688706,-67.8667974 -45.868646500000004,-67.8676665 -45.8677127,-67.867012 -45.86727940000001,-67.86653014 -45.86909111,-67.8665292 -45.8705589,-67.866143 -45.8710594,-67.8657889 -45.8704767,-67.8668725 -45.8688706,-67.86552841 -45.87071955,-67.8687286 -45.87223970000001,-67.8671408 -45.8717542,-67.8661752 -45.8712611,-67.8662395 -45.8705888,-67.86803091 -45.87230485,-67.8686213 -45.87223970000001,-67.8679776 -45.8725012,-67.867173 -45.87342,-67.86601994 -45.87390747,-67.8666043 -45.8740773,-67.8655958 -45.8758999,-67.8658319 -45.8761464,-67.86520975 -45.8764158,-67.8690398 -45.8759074,-67.8681815 -45.8748691,-67.8664434 -45.8762585,-67.86877282 -45.87598303,-67.8721726 -45.8748019,-67.868793 -45.8753024,-67.8683639 -45.8750633,-67.8691471 -45.8759522,-67.87226293 -45.87472228,-67.8735888 -45.8741744,-67.8739643 -45.8739055,-67.8744149 -45.8726132,-67.8760242 -45.8715599,-67.87563056 -45.87167842;-67.87563056 -45.87167842,-67.8735888 -45.8741744,-67.8739643 -45.8739055,-67.8744149 -45.8726132,-67.8760242 -45.8715599,-67.87226293 -45.87472228,-67.8772473 -45.875646,-67.87714 -45.874899,-67.8760457 -45.8739578,-67.8750265 -45.8733005,-67.8741574 -45.8732108,-67.8737283 -45.8741819,-67.87580898 -45.87623664,-67.8836632 -45.8741296,-67.884264 -45.8734723,-67.8839421 -45.8733229,-67.8833306 -45.8736515,-67.8822899 -45.87404,-67.8816032 -45.8749737,-67.8808522 -45.875153,-67.8791678 -45.8762809,-67.8782129 -45.8766021,-67.8774083 -45.8765572,-67.88196942 -45.87464989,-67.8803158 -45.8771847,-67.8813779 -45.8760792,-67.8823113 -45.875519,-67.8828478 -45.87486160000001,-67.87897854 -45.87766371,-67.8797901 -45.8776627,-67.8792536 -45.87817810000001,-67.8798115 -45.8793806,-67.87875862 -45.87975391,-67.8785026 -45.8788802,-67.8798115 -45.8793806,-67.87684672 -45.87887091,-67.8772688 -45.8789101,-67.8749835 -45.8790146,-67.87362100000001 -45.8797765,-67.8724445 -45.87988188,-67.8726017 -45.880389,-67.8697157 -45.8828462,-67.8706813 -45.8831001,-67.8686643 -45.8830254,-67.86703039 -45.88312685,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.87263059 -45.88283868,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.8758872 -45.88413516,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.87630061 -45.88642699,,-67.87597578 -45.88674947,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87931365 -45.88515467,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.88934482 -45.88367092,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88477851 -45.88530377,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88725199 -45.88498287,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88986813 -45.88509226,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.89478887 -45.88442779,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89811074 -45.88424629,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.90293219 -45.8836944,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90362098 -45.8874036,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90705336 -45.88840606;-67.90705336 -45.88840606,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90594775 -45.88423937,,-67.90591516 -45.88446218,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90970498 -45.88326091,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91930941 -45.88137118,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.92260289 -45.87981886,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S863,S916,S803</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 943,S167,Linea 946,S2147,Linea 966,S2465,Linea 968,S387,Linea 1862,S863;S863,Linea 1862,S387,Linea 970,S316,Linea 969,S39,Linea 957,S36,Linea 1027,S2695,Linea 1026,S43,Linea 1088,S2707,Linea 1099,S916;S916,Linea 1099,S2707,Linea 1098,S42,Linea 1853,S2723,Linea 1118,S841,Linea 1113,S2194,Linea 1110,S803;S803,Linea 1110,S2194,Linea 1113,S841,Linea 1118,S2723,Linea 1853,S42,Linea 1098,S2707,Linea 1088,S43,Linea 1026,S2695,Linea 1027,S36,Linea 957,S39,Linea 969,S316,Linea 970,S387,Linea 968,S2465,Linea 966,S2147,Linea 946,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.93512028 -45.8793768,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.94258106 -45.87928487,,-67.94257964 -45.87928521;-67.94257964 -45.87928521,,-67.94258106 -45.87928487,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.9459034 -45.88040255,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.94607409 -45.88311995,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94628753 -45.88560005,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94746568 -45.88694764,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94972726 -45.88693813,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.95178221 -45.88666191,-67.9531646 -45.88667,-67.9533255 -45.8870733,-67.9523599 -45.8875064,-67.9523385 -45.888074,-67.9529393 -45.8886416,-67.95220821 -45.8890951;-67.95220821 -45.8890951,-67.9531646 -45.88667,-67.9533255 -45.8870733,-67.9523599 -45.8875064,-67.9523385 -45.888074,-67.9529393 -45.8886416,-67.95178221 -45.88666191,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95650174 -45.8868325,-67.9563618 -45.8869613,-67.9570055 -45.8870583,-67.9568553 -45.8866028,-67.957381 -45.8868268,-67.95495587 -45.8875866,-67.9576063 -45.8896124,-67.9577136 -45.888888,-67.9572308 -45.8876483,-67.9565012 -45.8869986,-67.95602222 -45.88970885,-67.958647 -45.8921289,-67.9580784 -45.8917854,-67.958411 -45.8907699,-67.9588509 -45.8902397,-67.9578209 -45.8896422,-67.95792371 -45.89252328,-67.958411 -45.8946678,-67.9585934 -45.8938464,-67.9590118 -45.8934581,-67.9594839 -45.8932714,-67.9597199 -45.892913,-67.9595053 -45.8926741,-67.95753705 -45.89518861;-67.95753705 -45.89518861,-67.958411 -45.8946678,-67.9585934 -45.8938464,-67.9590118 -45.8934581,-67.9594839 -45.8932714,-67.9597199 -45.892913,-67.9595053 -45.8926741,-67.95792371 -45.89252328,-67.958647 -45.8921289,-67.9580784 -45.8917854,-67.958411 -45.8907699,-67.9588509 -45.8902397,-67.9578209 -45.8896422,-67.95602222 -45.88970885,-67.9576063 -45.8896124,-67.9577136 -45.888888,-67.9572308 -45.8876483,-67.9565012 -45.8869986,-67.95495587 -45.8875866,-67.9563618 -45.8869613,-67.9570055 -45.8870583,-67.9568553 -45.8866028,-67.957381 -45.8868268,-67.95650174 -45.8868325,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95178221 -45.88666191,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.94972726 -45.88693813,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94746568 -45.88694764,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94628753 -45.88560005,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94607409 -45.88311995,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.9459034 -45.88040255,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.94258106 -45.87928487,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2438,S715</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 754,S2408,Linea 752,S370,Linea 1842,S2421,Linea 741,S980,Linea 740,S377,Linea 748,S381,Linea 747,S2572,Linea 746,S315,Linea 1017,S59,Linea 1295,S2116,Linea 1293,S1,Linea 1292,S2189,Linea 797,S2095,Linea 1825,S2479,Linea 795,S189,Linea 1826,S18,Linea 1177,S2243,Linea 807,S205,Linea 1181,S2139,Linea 1180,S8,Linea 1183,S223,Linea 1189,S224,Linea 1190,S203,Linea 1187,S2586,Linea 1192,S2584,Linea 1205,S138,Linea 1751,S2438;S2438,Linea 1803,S138,Linea 1208,S2101,Linea 1462,S183,Linea 1829,S2135,Linea 1814,S2541,Linea 1459,S206,Linea 826,S715;S715,Linea 826,S206,Linea 1459,S2541,Linea 1794,S2135,Linea 1829,S183,Linea 1462,S2101,Linea 1208,S138,Linea 1205,S2584,Linea 1192,S2586,Linea 1187,S203,Linea 1190,S224,Linea 1189,S223,Linea 1183,S8,Linea 1180,S2139,Linea 1181,S205,Linea 807,S2243,Linea 1177,S18,Linea 1826,S189,Linea 795,S2479,Linea 1825,S2095,Linea 797,S2189,Linea 1292,S1,Linea 1293,S2116,Linea 1295,S59,Linea 1017,S315,Linea 746,S2572,Linea 747,S381,Linea 748,S377,Linea 740,S980,Linea 741,S2421,Linea 1842,S370,Linea 752,S2408,Linea 754,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9513514 -45.867951700000006,-67.9506004 -45.8681534,-67.9493558 -45.8665622,-67.9490876 -45.8664576,-67.9492164 -45.8668461,-67.95075242 -45.86791677,-67.9511476 -45.8693039,-67.95089010000001 -45.8697222,-67.9506433 -45.8681011,-67.9512978 -45.867892,-67.95011093 -45.86936834,-67.9526013 -45.869965,-67.9517484 -45.8700734,-67.9508901 -45.8697222,-67.9511476 -45.8693039,-67.95188123 -45.87007275,-67.9518449 -45.870925,-67.9516733 -45.8706037,-67.9509866 -45.870275,-67.95089010000001 -45.8697222,-67.9517484 -45.8700734,-67.9526281 -45.8699912,-67.95082673 -45.87123588,-67.9510081 -45.87218,-67.9515123 -45.8715599,-67.9518449 -45.870925,-67.94974928 -45.87213834,-67.9508579 -45.8736739,-67.9509115 -45.8721426,-67.94983615 -45.87396079,-67.9521346 -45.8759746,-67.951448 -45.8759597,-67.9509008 -45.8738383,-67.95155064 -45.87647635,-67.9521346 -45.8759746,-67.9517162 -45.8759074,-67.9513943 -45.8758999,-67.9525959 -45.87702780000001,-67.95337920000001 -45.8774162,-67.95259842 -45.87763583,-67.9538298 -45.8776104,-67.9575419 -45.8788205,-67.9596341 -45.8789624,-67.9602242 -45.8794852,-67.95937836 -45.87978501,-67.967391 -45.8796271,-67.9660606 -45.879657,-67.9619408 -45.879179,-67.959795 -45.8789997,-67.9602242 -45.8794852,-67.96661757 -45.87943084,-67.9708028 -45.8792686,-67.9686999 -45.8795524,-67.9682064 -45.8792238,-67.96993071 -45.87922522,-67.9739785 -45.8781632,-67.9745579 -45.8782677,-67.9740644 -45.8788802,-67.9710174 -45.8792537,-67.97210325 -45.8786421,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9755771 -45.8785142,-67.9742253 -45.8787756,-67.974236 -45.878222900000004,-67.9757414 -45.87911165,-67.9789352 -45.8795823,-67.9791069 -45.8776627,-67.9756737 -45.8784769,-67.9758239 -45.8787234,-67.9765105 -45.8789474,-67.97764389 -45.88001208,-67.9789352 -45.8795823,-67.9789889 -45.8790669,-67.9799759 -45.8791491,-67.97934342 -45.87920812,-67.9797721 -45.879179,-67.9789889 -45.8790669,-67.9792571 -45.8776403,-67.9831409 -45.876744,-67.9844499 -45.8766842,-67.9838705 -45.8772892,-67.98257485 -45.87765379,-67.9838705 -45.8772892,-67.9842675 -45.8766469,-67.9854584 -45.876617,-67.9846001 -45.8763854,-67.98281428 -45.87644776,-67.9865313 -45.8763033,-67.9853833 -45.8764975,-67.98469660000002 -45.8764303,-67.98563419 -45.87640922,-67.9896748 -45.8771548,-67.9892349 -45.8767216,-67.985158 -45.8765946,-67.9863167 -45.8762734,-67.98904006 -45.87741924,-67.9909623 -45.8768411,-67.9909086 -45.8766394,-67.9893529 -45.876729,-67.9896641 -45.8770726,-67.98995293 -45.87688436,-67.9932904 -45.8760792,-67.9926252 -45.8763556,-67.9912949 -45.8766319,-67.99230343 -45.87612978,-67.9940093 -45.875758,-67.9942882 -45.875646,-67.9944921 -45.8759223,-67.9952216 -45.8756385,-67.9962945 -45.874899,-67.99575168 -45.87505796,-67.9970562 -45.8749065,-67.998054 -45.8746002,-67.9989874 -45.8742865,-67.9998994 -45.8736889,-67.99900055 -45.87377745,-68.0009079 -45.8733901,-68.0017447 -45.8731436,-68.0013478 -45.8728149,-68.0005753 -45.8728074,-67.9998672 -45.8727327,-67.9986441 -45.8728074,-67.99707801 -45.87306235,-67.9984939 -45.8727327,-67.9986763 -45.8725609,-67.9987407 -45.872292,-67.99743076 -45.87213204,-68.0036652 -45.8703498,-68.0024529 -45.8706934,-68.0012727 -45.8709175,-68.0001891 -45.8713881,-67.9995775 -45.8718363,-68.00284674 -45.87040916,,-68.00265219 -45.87027578;-68.00265219 -45.87027578,,-68.00284674 -45.87040916,-68.0041587 -45.8700285,-68.0051243 -45.8686091,-68.00449906 -45.86852742,-68.0070448 -45.8686241,-68.0060685 -45.868385,-68.00620422 -45.86892139,-68.0070448 -45.8686241,-68.0067122 -45.8683028,-68.0066907 -45.8679293,-68.0047274 -45.8681086,-68.0029786 -45.8686316,-68.0021524 -45.8685344,-68.0022383 -45.8682132,-68.00126819 -45.86832361,,-68.00080119 -45.86808139,-67.9980218 -45.8692665,-68.0000389 -45.8684074,-68.0017662 -45.8680339,-67.99627751 -45.86960923,-67.9969811 -45.8694981,-67.9958439 -45.8695654,-67.99512510000001 -45.8693413,-67.99505 -45.8690499,-67.99439359 -45.86914058;-67.99439359 -45.86914058,-67.9969811 -45.8694981,-67.9958439 -45.8695654,-67.99512510000001 -45.8693413,-67.99505 -45.8690499,-67.99627751 -45.86960923,-67.9980218 -45.8692665,-68.0000389 -45.8684074,-68.0017662 -45.8680339,-68.00080119 -45.86808139,,-68.00126819 -45.86832361,-68.0070448 -45.8686241,-68.0067122 -45.8683028,-68.0066907 -45.8679293,-68.0047274 -45.8681086,-68.0029786 -45.8686316,-68.0021524 -45.8685344,-68.0022383 -45.8682132,-68.00620422 -45.86892139,-68.0070448 -45.8686241,-68.0060685 -45.868385,-68.00449906 -45.86852742,-68.0041587 -45.8700285,-68.0051243 -45.8686091,-68.00284674 -45.87040916,-68.0036652 -45.8703498,-68.0024529 -45.8706934,-68.0012727 -45.8709175,-68.0001891 -45.8713881,-67.9995775 -45.8718363,-67.99743076 -45.87213204,-67.9984939 -45.8727327,-67.9986763 -45.8725609,-67.9987407 -45.872292,-67.99707801 -45.87306235,-68.0009079 -45.8733901,-68.0017447 -45.8731436,-68.0013478 -45.8728149,-68.0005753 -45.8728074,-67.9998672 -45.8727327,-67.9986441 -45.8728074,-67.99900055 -45.87377745,-67.9970562 -45.8749065,-67.998054 -45.8746002,-67.9989874 -45.8742865,-67.9998994 -45.8736889,-67.99575168 -45.87505796,-67.9940093 -45.875758,-67.9942882 -45.875646,-67.9944921 -45.8759223,-67.9952216 -45.8756385,-67.9962945 -45.874899,-67.99230343 -45.87612978,-67.9932904 -45.8760792,-67.9926252 -45.8763556,-67.9912949 -45.8766319,-67.98995293 -45.87688436,-67.9909623 -45.8768411,-67.9909086 -45.8766394,-67.9893529 -45.876729,-67.9896641 -45.8770726,-67.98904006 -45.87741924,-67.9896748 -45.8771548,-67.9892349 -45.8767216,-67.985158 -45.8765946,-67.9863167 -45.8762734,-67.98563419 -45.87640922,-67.9865313 -45.8763033,-67.9853833 -45.8764975,-67.98469660000002 -45.8764303,-67.98281428 -45.87644776,-67.9838705 -45.8772892,-67.9842675 -45.8766469,-67.9854584 -45.876617,-67.9846001 -45.8763854,-67.98257485 -45.87765379,-67.9797721 -45.879179,-67.9789889 -45.8790669,-67.9792571 -45.8776403,-67.9831409 -45.876744,-67.9844499 -45.8766842,-67.9838705 -45.8772892,-67.97934342 -45.87920812,-67.9789352 -45.8795823,-67.9789889 -45.8790669,-67.9799759 -45.8791491,-67.97764389 -45.88001208,-67.9789352 -45.8795823,-67.9791069 -45.8776627,-67.9756737 -45.8784769,-67.9758239 -45.8787234,-67.9765105 -45.8789474,-67.9757414 -45.87911165,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9755771 -45.8785142,-67.9742253 -45.8787756,-67.974236 -45.878222900000004,-67.97210325 -45.8786421,-67.9739785 -45.8781632,-67.9745579 -45.8782677,-67.9740644 -45.8788802,-67.9710174 -45.8792537,-67.96993071 -45.87922522,-67.9708028 -45.8792686,-67.9686999 -45.8795524,-67.9682064 -45.8792238,-67.96661757 -45.87943084,-67.967391 -45.8796271,-67.9660606 -45.879657,-67.9619408 -45.879179,-67.959795 -45.8789997,-67.9602242 -45.8794852,-67.95937836 -45.87978501,-67.9538298 -45.8776104,-67.9575419 -45.8788205,-67.9596341 -45.8789624,-67.9602242 -45.8794852,-67.95259842 -45.87763583,-67.9521346 -45.8759746,-67.9517162 -45.8759074,-67.9513943 -45.8758999,-67.9525959 -45.87702780000001,-67.95337920000001 -45.8774162,-67.95155064 -45.87647635,-67.9521346 -45.8759746,-67.951448 -45.8759597,-67.9509008 -45.8738383,-67.94983615 -45.87396079,-67.9508579 -45.8736739,-67.9509115 -45.8721426,-67.94974928 -45.87213834,-67.9510081 -45.87218,-67.9515123 -45.8715599,-67.9518449 -45.870925,-67.95082673 -45.87123588,-67.9518449 -45.870925,-67.9516733 -45.8706037,-67.9509866 -45.870275,-67.95089010000001 -45.8697222,-67.9517484 -45.8700734,-67.9526281 -45.8699912,-67.95188123 -45.87007275,-67.9526013 -45.869965,-67.9517484 -45.8700734,-67.9508901 -45.8697222,-67.9511476 -45.8693039,-67.95011093 -45.86936834,-67.9511476 -45.8693039,-67.95089010000001 -45.8697222,-67.9506433 -45.8681011,-67.9512978 -45.867892,-67.95075242 -45.86791677,-67.9513514 -45.867951700000006,-67.9506004 -45.8681534,-67.9493558 -45.8665622,-67.9490876 -45.8664576,-67.9492164 -45.8668461,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S993,S2011,S714</t>
   </si>
   <si>
     <t>Base,Linea 1,S176,Linea 1506,S2447,Linea 2,S993;S993,Linea 2,S2447,Linea 1506,S176,Linea 1,Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 1211,S172,Linea 768,S2417,Linea 759,S402,Linea 760,S2468,Linea 763,S395,Linea 764,S338,Linea 773,S2407,Linea 850,S2056,Linea 849,S2716,Linea 853,S2504,Linea 854,S997,Linea 1836,S353,Linea 1361,S2006,Linea 1363,S2009,Linea 1365,S354,Linea 1421,S2255,Linea 568,S882,Linea 567,S522,Linea 566,S2273,Linea 552,S525,Linea 551,S529,Linea 549,S437,Linea 546,S773,Linea 531,S2151,Linea 412,S2300,Linea 382,S2011;S2011,Linea 382,S2300,Linea 412,S2151,Linea 531,S773,Linea 546,S437,Linea 549,S529,Linea 553,S524,Linea 554,S2525,Linea 564,S875,Linea 570,S2485,Linea 571,S874,Linea 572,S2294,Linea 242,S2395,Linea 245,S714;S714,Linea 245,S2395,Linea 240,S2396,Linea 217,S2676,Linea 216,S788,Linea 215,S523,Linea 622,S882,Linea 568,S2255,Linea 1421,S354,Linea 1365,S2009,Linea 1363,S2006,Linea 1361,S353,Linea 1836,S997,Linea 854,S2504,Linea 853,S2716,Linea 849,S2056,Linea 850,S2407,Linea 773,S338,Linea 764,S395,Linea 763,S2468,Linea 760,S402,Linea 759,S2417,Linea 768,S172,Linea 1211,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.93822649 -45.86645361,,-67.93820898 -45.86621382,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.9397787 -45.86446671;-67.9397787 -45.86446671,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.93820898 -45.86621382,,-67.93822649 -45.86645361,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.95709848 -45.86769228,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95610675 -45.87170205,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95650202 -45.87386891,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95720623 -45.87256309,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.96214261 -45.87344787,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96572509 -45.87368099,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.9672039 -45.87497495,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.96992116 -45.87035971,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.9688479 -45.86924263,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.96898996 -45.86789944,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.97170451 -45.86764851,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97781889 -45.86412305,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97692655 -45.86298292,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.98026531 -45.86300386,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98206338 -45.86352335,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8701234 -45.8635663,-67.8698123 -45.86132490000001,-67.8679776 -45.8603237,-67.8670549 -45.8588966,-67.8654027 -45.859457,-67.8654563 -45.8601518,-67.8656709 -45.8602639,-67.86895092 -45.86422008,-67.8682029 -45.8666817,-67.8692436 -45.8661961,-67.8702307 -45.8647318,-67.8701663 -45.8642088,-67.86635342 -45.86702056,-67.8668189 -45.8667639,-67.8664005 -45.866988,-67.8663254 -45.8676305,-67.86498939 -45.86808329,-67.8639972 -45.8691171,-67.8657031 -45.8680713,-67.86235431 -45.86962035,-67.8593409 -45.8716048,-67.85971640000001 -45.8705365,-67.8614008 -45.870529,-67.861948 -45.8698268,-67.8630531 -45.8694832,-67.85882935 -45.87179542,-67.857635 -45.8744807,-67.8541696 -45.874152,-67.8588581 -45.8727103,-67.8593409 -45.8716048,-67.857019 -45.87438052,-67.84873010000001 -45.87312860000001,-67.8543305 -45.8741595,-67.857635 -45.8744807,-67.84711722 -45.87310355,-67.847904 -45.8759074,-67.8490949 -45.8742491,-67.8510368 -45.8734349,-67.8488266 -45.8731585,-67.84644226 -45.87649326,-67.8503072 -45.877095,-67.8495133 -45.8766394,-67.8481615 -45.87637800000001,-67.84953817 -45.87734102;-67.84953817 -45.87734102,-67.8503072 -45.877095,-67.8495133 -45.8766394,-67.8481615 -45.87637800000001,-67.84644226 -45.87649326,-67.847904 -45.8759074,-67.8490949 -45.8742491,-67.8510368 -45.8734349,-67.8488266 -45.8731585,-67.84711722 -45.87310355,-67.84873010000001 -45.87312860000001,-67.8543305 -45.8741595,-67.857635 -45.8744807,-67.857019 -45.87438052,-67.857635 -45.8744807,-67.8541696 -45.874152,-67.8588581 -45.8727103,-67.8593409 -45.8716048,-67.85882935 -45.87179542,-67.8593409 -45.8716048,-67.85971640000001 -45.8705365,-67.8614008 -45.870529,-67.861948 -45.8698268,-67.8630531 -45.8694832,-67.86235431 -45.86962035,-67.8640509 -45.869035,-67.8651345 -45.867384,-67.8649521 -45.8657329,-67.8658748 -45.8655237,-67.86542164 -45.86561862,-67.8659713 -45.8654266,-67.8650701 -45.8654864,-67.864598 -45.8658599,-67.86331328 -45.86669187,-67.8639328 -45.8659271,-67.8645658 -45.8647542,-67.8655207 -45.8635513,-67.864423 -45.86337238,-67.8653276 -45.8635663,-67.8648341 -45.8637904,-67.8645015 -45.8630059,-67.8653491 -45.8606898,-67.8640616 -45.8614295,-67.86252974 -45.86187269,-67.8632784 -45.8615042,-67.863096 -45.86128,-67.8622055 -45.8610559,-67.861948 -45.8605105,-67.8613425 -45.86055445,-67.8623772 -45.8601145,-67.8619158 -45.8597185,-67.86181930000001 -45.8591954,-67.8608966 -45.8592179,-67.85979998 -45.85959279,-67.8602314 -45.85924030000001,-67.8568411 -45.8591506,-67.8585362 -45.8586425,-67.85800456 -45.85865306,-67.8585362 -45.8586425,-67.8550065 -45.858381,-67.8544593 -45.8579701,-67.85311138 -45.85761476;-67.85311138 -45.85761476,-67.8585362 -45.8586425,-67.8550065 -45.858381,-67.8544593 -45.8579701,-67.85800456 -45.85865306,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.86119926 -45.8582863,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86269634 -45.8576934,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86509618 -45.85797591,-67.8666258 -45.8579551,-67.8677523 -45.8588443,-67.8689218 -45.8588293,-67.8688896 -45.8591954,-67.86821501 -45.85959306,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86513556 -45.86046435,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.98715669 -45.86146692,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98206338 -45.86352335,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98026531 -45.86300386,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.97692655 -45.86298292,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97781889 -45.86412305,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97170451 -45.86764851,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.96898996 -45.86789944,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.9688479 -45.86924263,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.96992116 -45.87035971,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.9672039 -45.87497495,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.96572509 -45.87368099,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96214261 -45.87344787,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.95720623 -45.87256309,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95650202 -45.87386891,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95610675 -45.87170205,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95709848 -45.86769228,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S738,S2524,S839,S832,S2180</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 943,S167,Linea 946,S2147,Linea 964,S2146,Linea 949,S31,Linea 950,S2094,Linea 1711,S33,Linea 1222,S927,Linea 1754,S115,Linea 1085,S944,Linea 1077,S2667,Linea 1078,S793,Linea 1076,S791,Linea 1221,S760,Linea 1073,S794,Linea 1297,S759,Linea 1305,S805,Linea 1125,S822,Linea 1123,S821,Linea 1103,S738;S738,Linea 1103,S821,Linea 1123,S822,Linea 1125,S805,Linea 1305,S759,Linea 1306,S834,Linea 1307,S839,Linea 1313,S725,Linea 1310,S744,Linea 1321,S747,Linea 1324,S752,Linea 1244,S753,Linea 1323,S755,Linea 1236,S2648,Linea 1237,S2644,Linea 1238,S2524;S2524,Linea 1238,S2644,Linea 1237,S2648,Linea 1236,S755,Linea 1323,S753,Linea 1244,S752,Linea 1324,S747,Linea 1321,S744,Linea 1310,S725,Linea 1313,S839;S839,Linea 1307,S834,Linea 1329,S778,Linea 1328,S2055,Linea 1273,S921,Linea 1129,S815,Linea 1138,S803,Linea 1110,S2194,Linea 1113,S841,Linea 1115,S66,Linea 1156,S63,Linea 1154,S65,Linea 1153,S47,Linea 1150,S832;S832,Linea 1286,S2286,Linea 1285,S913,Linea 1284,S910,Linea 1282,S929,Linea 1281,S2034,Linea 1276,S2486,Linea 1275,S2180;S2180,Linea 1274,S914,Linea 1135,S844,Linea 1145,S2658,Linea 1152,S66,Linea 1854,S163,Linea 1092,S2724,Linea 1856,S42,Linea 1098,S2707,Linea 1088,S43,Linea 1026,S2695,Linea 1027,S36,Linea 957,S39,Linea 969,S316,Linea 970,S387,Linea 968,S2465,Linea 966,S2147,Linea 946,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.93512028 -45.8793768,-67.9380155 -45.8812404,-67.938627 -45.880852,-67.9384768 -45.8805682,-67.9371035 -45.8800827,-67.9358482 -45.8797093,-67.9335737 -45.8797616,-67.934432 -45.8794255,-67.9350007 -45.8792835,-67.9357088 -45.8792686,-67.93588984 -45.88149225,-67.9369104 -45.8822487,-67.9367441 -45.8819686,-67.9385787 -45.881274,-67.938568 -45.8809641,-67.9379243 -45.8811844,-67.93623372 -45.88237227,-67.9369962 -45.8822636,-67.9367441 -45.8819686,-67.9343677 -45.8832719,-67.93288041 -45.88347512,,-67.93297197 -45.88384007,-67.9325545 -45.8880964,-67.9324257 -45.8875363,-67.933048 -45.8868642,-67.9335093 -45.8836304,-67.93195275 -45.88880085,,-67.93184093 -45.88869985,-67.929883 -45.8876782,-67.9306018 -45.8878724,-67.9317605 -45.8883727,-67.9326189 -45.888201,-67.92838162 -45.88770662,-67.9286492 -45.8892166,-67.9288638 -45.8878724,-67.9292393 -45.8876931,-67.92758265 -45.88993498,-67.929368 -45.8925994,-67.9296148 -45.8919423,-67.9287994 -45.8913897,-67.9285097 -45.8910014,-67.9286277 -45.8901127,-67.92819602 -45.89300211,-67.9235637 -45.895743,-67.9241538 -45.8953249,-67.9267287 -45.8949142,-67.9271579 -45.8944961,-67.9267287 -45.8942048,-67.9257309 -45.8936448,-67.9256558 -45.8930698,-67.9268682 -45.8923604,-67.9289711 -45.8934208,-67.9293036 -45.893361,-67.92261639 -45.89612501,-67.9221904 -45.8981548,-67.9232204 -45.8984983,-67.9230487 -45.8980652,-67.9224908 -45.89755,-67.9236388 -45.8964449,-67.92046749 -45.89809236,-67.9312027 -45.9008128,-67.9299688 -45.9015296,-67.9282737 -45.9003723,-67.9263103 -45.8994316,-67.9232204 -45.8984983,-67.9221046 -45.8981623,-67.93028301 -45.90068278,-67.9313636 -45.9007755,-67.9299688 -45.9015296,-67.9309559 -45.9024778,-67.931664 -45.9022687,-67.9323721 -45.9010144,-67.9335737 -45.900447,-67.9371786 -45.9012832,-67.9379082 -45.9021045,-67.9396677 -45.9026719,-67.941041 -45.9025674,-67.94048121 -45.90255833,-67.9506755 -45.9009696,-67.9479718 -45.9005665,-67.9449892 -45.9007008,-67.945075 -45.9032692,-67.9445601 -45.9035379,-67.9423714 -45.902642,-67.95037233 -45.90142031,-67.9506969 -45.9010816,-67.9497743 -45.9008576,-67.9498494 -45.8992001,-67.94838203 -45.89904174,-67.9498494 -45.8992001,-67.949506 -45.8996854,-67.9466414 -45.8986103,-67.9437232 -45.8985057,-67.9415774 -45.8979681,-67.9412556 -45.8976545,-67.9422104 -45.8972588,-67.94188659 -45.8972671,-67.942307 -45.8972439,-67.941395 -45.8969527,-67.9402256 -45.8963927,-67.9396248 -45.8958401,-67.93839722 -45.89565726;-67.93839722 -45.89565726,-67.942307 -45.8972439,-67.941395 -45.8969527,-67.9402256 -45.8963927,-67.9396248 -45.8958401,-67.94188659 -45.8972671,-67.9498494 -45.8992001,-67.949506 -45.8996854,-67.9466414 -45.8986103,-67.9437232 -45.8985057,-67.9415774 -45.8979681,-67.9412556 -45.8976545,-67.9422104 -45.8972588,-67.94838203 -45.89904174,-67.9506969 -45.9010816,-67.9497743 -45.9008576,-67.9498494 -45.8992001,-67.95037233 -45.90142031,-67.9506755 -45.9009696,-67.9479718 -45.9005665,-67.9449892 -45.9007008,-67.945075 -45.9032692,-67.9445601 -45.9035379,-67.9423714 -45.902642,-67.94048121 -45.90255833,-67.9417276 -45.9060912,-67.9426718 -45.9047623,-67.9416203 -45.9047773,-67.9445601 -45.9035379,-67.942543 -45.9026271,-67.94070253 -45.90708056,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.93482704 -45.9074612,-67.922008 -45.9097193,-67.9201412 -45.9109884,-67.9196906 -45.9109585,-67.9200125 -45.9097492,-67.9210854 -45.909585,-67.9227591 -45.90851,-67.9267287 -45.9077933,-67.9317927 -45.9075544,-67.9344964 -45.9080023,-67.9353762 -45.9076142,-67.92132124 -45.90950332,-67.9221797 -45.9097492,-67.9201412 -45.9109884,-67.91924 -45.911063,-67.9191971 -45.9115109,-67.91938339 -45.91141146,-67.9150558 -45.9126903,-67.9162359 -45.9122126,-67.9164505 -45.9115408,-67.9181457 -45.910645,-67.9202914 -45.9111078,-67.91361731 -45.91301639,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.9049706 -45.9149894,-67.9050565 -45.9146311,-67.908597 -45.9143027,-67.9105282 -45.9135114,-67.9126954 -45.9130636,-67.9141974 -45.9123171,-67.90949828 -45.91775832,-67.9105067 -45.9207068,-67.9081678 -45.9205276,-67.9078245 -45.9200798,-67.9065156 -45.9195574,-67.9081035 -45.9191991,-67.9097772 -45.9180049,-67.91006087 -45.92075561,-67.9186392 -45.925737,-67.9181242 -45.9258713,-67.9160213 -45.924319,-67.9144335 -45.9239011,-67.9125881 -45.9236324,-67.911365 -45.9232891,-67.908361 -45.9205575,-67.9107213 -45.9206172,-67.91781996 -45.92567691,-67.9183388 -45.9258713,-67.9167509 -45.9248116,-67.9175448 -45.9264683,-67.9174805 -45.9272444,-67.9163647 -45.9281549,-67.9153562 -45.9282295,-67.9142404 -45.9287071,-67.9133177 -45.9295131,-67.9126954 -45.9289758,-67.912631 -45.9280206,-67.9141116 -45.9273489,-67.9158497 -45.9268415,-67.9161072 -45.9264235,-67.9158711 -45.9259907,-67.91406535 -45.92603076,-67.9160428 -45.9260952,-67.9158497 -45.9268415,-67.9124379 -45.928125,-67.9126954 -45.9289758,-67.9133177 -45.9295131,-67.9122019 -45.9304384,-67.9106355 -45.9306175,-67.9069018 -45.9297071,-67.9082537 -45.9278265,-67.90777463 -45.92772469,-67.9082537 -45.9278265,-67.9069018 -45.9297071,-67.9044557 -45.9301399,-67.9031253 -45.9268564,-67.9025245 -45.9264086,-67.90071017 -45.92674612;-67.90071017 -45.92674612,-67.9082537 -45.9278265,-67.9069018 -45.9297071,-67.9044557 -45.9301399,-67.9031253 -45.9268564,-67.9025245 -45.9264086,-67.90777463 -45.92772469,-67.9160428 -45.9260952,-67.9158497 -45.9268415,-67.9124379 -45.928125,-67.9126954 -45.9289758,-67.9133177 -45.9295131,-67.9122019 -45.9304384,-67.9106355 -45.9306175,-67.9069018 -45.9297071,-67.9082537 -45.9278265,-67.91406535 -45.92603076,-67.9183388 -45.9258713,-67.9167509 -45.9248116,-67.9175448 -45.9264683,-67.9174805 -45.9272444,-67.9163647 -45.9281549,-67.9153562 -45.9282295,-67.9142404 -45.9287071,-67.9133177 -45.9295131,-67.9126954 -45.9289758,-67.912631 -45.9280206,-67.9141116 -45.9273489,-67.9158497 -45.9268415,-67.9161072 -45.9264235,-67.9158711 -45.9259907,-67.91781996 -45.92567691,-67.9186392 -45.925737,-67.9181242 -45.9258713,-67.9160213 -45.924319,-67.9144335 -45.9239011,-67.9125881 -45.9236324,-67.911365 -45.9232891,-67.908361 -45.9205575,-67.9107213 -45.9206172,-67.91006087 -45.92075561,-67.9105067 -45.9207068,-67.9081678 -45.9205276,-67.9078245 -45.9200798,-67.9065156 -45.9195574,-67.9081035 -45.9191991,-67.9097772 -45.9180049,-67.90949828 -45.91775832,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.9049706 -45.9149894,-67.9050565 -45.9146311,-67.908597 -45.9143027,-67.9105282 -45.9135114,-67.9126954 -45.9130636,-67.9141974 -45.9123171,-67.91361731 -45.91301639,-67.9150558 -45.9126903,-67.9162359 -45.9122126,-67.9164505 -45.9115408,-67.9181457 -45.910645,-67.9202914 -45.9111078,-67.91938339 -45.91141146,-67.9221797 -45.9097492,-67.9201412 -45.9109884,-67.91924 -45.911063,-67.9191971 -45.9115109,-67.92132124 -45.90950332,-67.922008 -45.9097193,-67.9201412 -45.9109884,-67.9196906 -45.9109585,-67.9200125 -45.9097492,-67.9210854 -45.909585,-67.9227591 -45.90851,-67.9267287 -45.9077933,-67.9317927 -45.9075544,-67.9344964 -45.9080023,-67.9353762 -45.9076142,-67.93482704 -45.9074612;-67.93482704 -45.9074612,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.94070253 -45.90708056,-67.9576707 -45.9040606,-67.9586577 -45.9041501,-67.9598594 -45.9049266,-67.9530573 -45.9053894,-67.9526496 -45.9059568,-67.9507613 -45.9066437,-67.9497957 -45.9073603,-67.9479933 -45.907644,-67.9448175 -45.9073753,-67.9420066 -45.9072707,-67.95594313 -45.90408308,-67.9685926 -45.9034484,-67.9653096 -45.9044488,-67.9600525 -45.9049564,-67.9584861 -45.9041651,-67.9576707 -45.9040606,-67.96793825 -45.90348141,-67.9693437 -45.9027914,-67.9659963 -45.8987297,-67.965138 -45.8986401,-67.96354703 -45.89869944,-67.9642367 -45.8983564,-67.9643333 -45.8976993,-67.9650199 -45.8970721,-67.9652989 -45.8964076,-67.9613721 -45.8972065,-67.95956637 -45.89743693,-67.9602778 -45.8973559,-67.959677 -45.8974604,-67.9590976 -45.897326,-67.9587114 -45.8968257,-67.95928 -45.896094,-67.9591405 -45.8953548,-67.95753705 -45.89518861,-67.958411 -45.8946678,-67.9585934 -45.8938464,-67.9590118 -45.8934581,-67.9594839 -45.8932714,-67.9597199 -45.892913,-67.9595053 -45.8926741,-67.95792371 -45.89252328,-67.958647 -45.8921289,-67.9580784 -45.8917854,-67.958411 -45.8907699,-67.9588509 -45.8902397,-67.9578209 -45.8896422,-67.95602222 -45.88970885,-67.9577458 -45.889687,-67.9589152 -45.8901575,-67.9578638 -45.8892315,-67.9582071 -45.8887536,-67.9595053 -45.8884474,-67.9607284 -45.889,-67.9613507 -45.8890224,-67.9625523 -45.8881561,-67.9630458 -45.8861696,-67.9629171 -45.8856469,-67.9631639 -45.8856543,-67.96399 -45.8867447,-67.9643333 -45.8867223,-67.96291589 -45.88644251,-67.9642582 -45.8866849,-67.9660714 -45.8869613,-67.9663503 -45.8865505,-67.9662859 -45.88549,-67.9665112 -45.8837798,-67.9671657 -45.8837275,-67.9670477 -45.8843548,-67.96615149 -45.88487087,-67.9689896 -45.8855572,-67.9684317 -45.8850942,-67.9680133 -45.8843399,-67.9672301 -45.8837872,-67.9670477 -45.8843548,-67.96828667 -45.88589528,-67.9702342 -45.8858709,-67.9697192 -45.8860352,-67.9691613 -45.8857589,-67.96952973 -45.8860392,-67.9752874 -45.8886341,-67.9738069 -45.8884922,-67.9698479 -45.8860651,-67.9702234 -45.8859307,-67.97417558 -45.88870119;-67.97417558 -45.88870119,-67.9755127 -45.8898364,-67.9753196 -45.8896348,-67.9751372 -45.889239,-67.9736996 -45.8884922,-67.9752123 -45.8886192,-67.97500117 -45.89011334,-67.9778516 -45.8901202,-67.977283 -45.8901052,-67.9767358 -45.889926,-67.97751751 -45.89013616,-67.9743755 -45.8910088,-67.9777122 -45.890165,-67.97300504 -45.89135,-67.9748368 -45.8912328,-67.9752231 -45.891427,-67.9759526 -45.8921289,-67.9767251 -45.8924575,-67.97648439 -45.89266109,-67.9749441 -45.8933834,-67.9761243 -45.8929055,-67.9766607 -45.892353,-67.97316911 -45.89352066,-67.9725194 -45.8940704,-67.9735279 -45.8935179,-67.97168684 -45.8946769,-67.9729271 -45.8958177,-67.9726696 -45.8949515,-67.97161551 -45.8965517;-67.97161551 -45.8965517,-67.9721761 -45.8962209,-67.9716182 -45.8947873,-67.9710388 -45.8947723,-67.96939983 -45.89469974,-67.9699337 -45.8946379,-67.9693973 -45.8950411,-67.9688287 -45.894847,-67.9686248 -45.893936,-67.9694724 -45.8926591,-67.9702985 -45.892002,-67.9695987 -45.89181892,-67.9702985 -45.892002,-67.9693437 -45.8927189,-67.9695046 -45.8920393,-67.9694617 -45.8909565,-67.9689038 -45.8902247,-67.9675949 -45.8891494,-67.96633372 -45.88873533,-67.9671872 -45.8881412,-67.9659748 -45.8870061,-67.9642153 -45.8869314,-67.9642582 -45.8866849,-67.96291589 -45.88644251,-67.9643977 -45.8867746,-67.9641402 -45.8867895,-67.9629064 -45.8855274,-67.9625845 -45.8842055,-67.9620588 -45.8840412,-67.9608893 -45.8848926,-67.95958113 -45.88533853,-67.960428 -45.8852436,-67.9597843 -45.8853855,-67.9578102 -45.8852959,-67.9558897 -45.8849448,-67.9546167 -45.88506443,-67.9573059 -45.8868268,-67.956748 -45.8864908,-67.9563725 -45.8857215,-67.9556644 -45.8849971,-67.95650174 -45.8868325,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95178221 -45.88666191,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.94972726 -45.88693813,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94746568 -45.88694764,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94628753 -45.88560005,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94607409 -45.88311995,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.9459034 -45.88040255,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.94258106 -45.87928487,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2407,S1034,S2280,S2003,S2317</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 1211,S172,Linea 768,S2417,Linea 759,S402,Linea 760,S2468,Linea 763,S395,Linea 764,S338,Linea 773,S2407;S2407,Linea 850,S2056,Linea 849,S2716,Linea 853,S2504,Linea 854,S997,Linea 1836,S353,Linea 1361,S2006,Linea 1363,S2009,Linea 1365,S354,Linea 1421,S2255,Linea 568,S882,Linea 567,S522,Linea 566,S2273,Linea 552,S525,Linea 551,S529,Linea 549,S437,Linea 546,S773,Linea 531,S2151,Linea 415,S774,Linea 414,S722,Linea 413,S710,Linea 393,S709,Linea 392,S687,Linea 370,S613,Linea 369,S721,Linea 368,Planta La Petiza,Linea 367,S1035,Linea 372,S1026,Linea 374,S1015,Linea 373,S1006,Linea 358,S1024,Linea 356,S1034;S1034,Linea 356,S1024,Linea 358,S1006,Linea 373,S1015,Linea 375,S2280;S2280,Linea 375,S1015,Linea 374,S1026,Linea 372,S1035,Linea 367,Planta La Petiza,Linea 368,S721,Linea 369,S613,Linea 370,S687,Linea 392,S709,Linea 393,S710,Linea 413,S722,Linea 414,S774,Linea 415,S2151,Linea 412,S2300,Linea 411,S2003;S2003,Linea 411,S2300,Linea 412,S2151,Linea 531,S773,Linea 546,S437,Linea 549,S529,Linea 551,S525,Linea 552,S2273,Linea 566,S522,Linea 567,S882,Linea 568,S2255,Linea 1421,S354,Linea 1365,S2009,Linea 1363,S2006,Linea 1361,S353,Linea 1836,S997,Linea 854,S2504,Linea 853,S2716,Linea 849,S2056,Linea 850,S2407,Linea 774,S2317;S2317,Linea 774,S2407,Linea 773,S338,Linea 764,S395,Linea 763,S2468,Linea 760,S402,Linea 759,S2417,Linea 768,S172,Linea 1211,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.95709848 -45.86769228,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95610675 -45.87170205,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95650202 -45.87386891,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95720623 -45.87256309,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.96214261 -45.87344787,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96572509 -45.87368099,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.9672039 -45.87497495;-67.9672039 -45.87497495,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.96992116 -45.87035971,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.9688479 -45.86924263,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.96898996 -45.86789944,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.97170451 -45.86764851,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97781889 -45.86412305,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97692655 -45.86298292,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.98026531 -45.86300386,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98206338 -45.86352335,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8701234 -45.8635663,-67.8698123 -45.86132490000001,-67.8679776 -45.8603237,-67.8670549 -45.8588966,-67.8654027 -45.859457,-67.8654563 -45.8601518,-67.8656709 -45.8602639,-67.86895092 -45.86422008,-67.8682029 -45.8666817,-67.8692436 -45.8661961,-67.8702307 -45.8647318,-67.8701663 -45.8642088,-67.86635342 -45.86702056,-67.8668189 -45.8667639,-67.8664005 -45.866988,-67.8663254 -45.8676305,-67.86498939 -45.86808329,-67.8639972 -45.8691171,-67.8657031 -45.8680713,-67.86235431 -45.86962035,-67.8593409 -45.8716048,-67.85971640000001 -45.8705365,-67.8614008 -45.870529,-67.861948 -45.8698268,-67.8630531 -45.8694832,-67.85882935 -45.87179542,-67.857635 -45.8744807,-67.8541696 -45.874152,-67.8588581 -45.8727103,-67.8593409 -45.8716048,-67.857019 -45.87438052,-67.84873010000001 -45.87312860000001,-67.8543305 -45.8741595,-67.857635 -45.8744807,-67.84711722 -45.87310355,-67.8489339 -45.8731324,-67.8501302 -45.8733565,-67.8485316 -45.8736739,-67.8459191 -45.8729942,-67.84549 -45.8723406,-67.8449106 -45.8726842,-67.84336962 -45.87289033,-67.8464448 -45.8713396,-67.8465736 -45.871657000000006,-67.84484620000002 -45.8726692,-67.84458226 -45.87132178,-67.8433174 -45.8702414,-67.8424054 -45.8705701,-67.8442401 -45.8712014,-67.8457582 -45.8705029,-67.8468794 -45.8714778,-67.8465736 -45.871657000000006,-67.8464073 -45.8713396,-67.84266503 -45.8702826,-67.8403401 -45.8715002,-67.8396213 -45.8713059,-67.8401256 -45.8706859,-67.8424323 -45.8705216,-67.8432369 -45.8702153,-67.83999726 -45.87142467,-67.8404045 -45.871440400000004,-67.8396642 -45.8713657,-67.8393745 -45.8705216,-67.8371751 -45.8699314,-67.8344822 -45.8697969,-67.8345251 -45.8700584,-67.8363597 -45.8707606,-67.83598551 -45.8713908,-67.8363276 -45.8710445,-67.8348899 -45.87091,-67.8336024 -45.8710221,-67.83204724 -45.87132308,-67.8347504 -45.8724041,-67.8345788 -45.8717915,-67.8335381 -45.8712686,-67.8339131 -45.87269245,-67.8368962 -45.8743761,-67.8363168 -45.8740101,-67.8365743 -45.8734723,-67.8358126 -45.8726879,-67.8366923 -45.875026,-67.8369284 -45.8751679,-67.8384304 -45.875317300000006,-67.83709911 -45.87528907,-67.8404582 -45.876744,-67.8387737 -45.8754144,-67.83972408 -45.87683377,-67.8388381 -45.8793059,-67.8380656 -45.8795375,-67.8406405 -45.8772519,-67.8405118 -45.8769083,-67.8383257 -45.87925524,-67.8388596 -45.8793582,-67.8365421 -45.8801649,-67.8342998 -45.88042630000001,-67.8343749 -45.8798736,-67.83402097 -45.87975218,-67.8357589 -45.8794553,-67.8374755 -45.877700100000006,-67.8373468 -45.8775656,-67.83580083 -45.87760123,-67.83642410000002 -45.8773117,-67.8357589 -45.877349,-67.8347933 -45.8779316,-67.83319238 -45.87800268;-67.83319238 -45.87800268,-67.83642410000002 -45.8773117,-67.8357589 -45.877349,-67.8347933 -45.8779316,-67.83580083 -45.87760123,-67.8357589 -45.8794553,-67.8374755 -45.877700100000006,-67.8373468 -45.8775656,-67.83402097 -45.87975218,-67.8388596 -45.8793582,-67.8365421 -45.8801649,-67.8342998 -45.88042630000001,-67.8343749 -45.8798736,-67.8383257 -45.87925524,-67.8400719 -45.8789325,-67.841295 -45.8786487,-67.8416598 -45.8782453,-67.84090038 -45.8779021;-67.84090038 -45.8779021,-67.8400719 -45.8789325,-67.841295 -45.8786487,-67.8416598 -45.8782453,-67.8383257 -45.87925524,-67.8388381 -45.8793059,-67.8380656 -45.8795375,-67.8406405 -45.8772519,-67.8405118 -45.8769083,-67.83972408 -45.87683377,-67.8404582 -45.876744,-67.8387737 -45.8754144,-67.83709911 -45.87528907,-67.8369284 -45.8751679,-67.8384304 -45.875317300000006,-67.8366923 -45.875026,-67.8368962 -45.8743761,-67.8363168 -45.8740101,-67.8365743 -45.8734723,-67.8358126 -45.8726879,-67.8339131 -45.87269245,-67.8347504 -45.8724041,-67.8345788 -45.8717915,-67.8335381 -45.8712686,-67.83204724 -45.87132308,-67.8363276 -45.8710445,-67.8348899 -45.87091,-67.8336024 -45.8710221,-67.83598551 -45.8713908,-67.8404045 -45.871440400000004,-67.8396642 -45.8713657,-67.8393745 -45.8705216,-67.8371751 -45.8699314,-67.8344822 -45.8697969,-67.8345251 -45.8700584,-67.8363597 -45.8707606,-67.83999726 -45.87142467,-67.8403401 -45.8715002,-67.8396213 -45.8713059,-67.8401256 -45.8706859,-67.8424323 -45.8705216,-67.8432369 -45.8702153,-67.84266503 -45.8702826,-67.8433174 -45.8702414,-67.8424054 -45.8705701,-67.8442401 -45.8712014,-67.8457582 -45.8705029,-67.8468794 -45.8714778,-67.8465736 -45.871657000000006,-67.8464073 -45.8713396,-67.84458226 -45.87132178,-67.8464448 -45.8713396,-67.8465736 -45.871657000000006,-67.84484620000002 -45.8726692,-67.84336962 -45.87289033,-67.8489339 -45.8731324,-67.8501302 -45.8733565,-67.8485316 -45.8736739,-67.8459191 -45.8729942,-67.84549 -45.8723406,-67.8449106 -45.8726842,-67.84711722 -45.87310355,-67.847904 -45.8759074,-67.8490949 -45.8742491,-67.8510368 -45.8734349,-67.8488266 -45.8731585,-67.84644226 -45.87649326,-67.847904 -45.8759074,-67.8480005 -45.8756161,-67.8463054 -45.8747421,-67.84474086 -45.87514762;-67.84474086 -45.87514762,-67.847904 -45.8759074,-67.8480005 -45.8756161,-67.8463054 -45.8747421,-67.84644226 -45.87649326,-67.847904 -45.8759074,-67.8490949 -45.8742491,-67.8510368 -45.8734349,-67.8488266 -45.8731585,-67.84711722 -45.87310355,-67.84873010000001 -45.87312860000001,-67.8543305 -45.8741595,-67.857635 -45.8744807,-67.857019 -45.87438052,-67.857635 -45.8744807,-67.8541696 -45.874152,-67.8588581 -45.8727103,-67.8593409 -45.8716048,-67.85882935 -45.87179542,-67.8593409 -45.8716048,-67.85971640000001 -45.8705365,-67.8614008 -45.870529,-67.861948 -45.8698268,-67.8630531 -45.8694832,-67.86235431 -45.86962035,-67.8639972 -45.8691171,-67.8657031 -45.8680713,-67.86498939 -45.86808329,-67.8668189 -45.8667639,-67.8664005 -45.866988,-67.8663254 -45.8676305,-67.86635342 -45.86702056,-67.8682029 -45.8666817,-67.8692436 -45.8661961,-67.8702307 -45.8647318,-67.8701663 -45.8642088,-67.86895092 -45.86422008,-67.8701234 -45.8635663,-67.8698123 -45.86132490000001,-67.8679776 -45.8603237,-67.8670549 -45.8588966,-67.8654027 -45.859457,-67.8654563 -45.8601518,-67.8656709 -45.8602639,-67.86513556 -45.86046435,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.98715669 -45.86146692,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98206338 -45.86352335,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98026531 -45.86300386,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.97692655 -45.86298292,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97781889 -45.86412305,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97170451 -45.86764851,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.96898996 -45.86789944,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.9688479 -45.86924263,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.96992116 -45.87035971,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.9672039 -45.87497495,-67.9705024 -45.8745479,-67.9698265 -45.8742641,-67.9688072 -45.8745629,-67.96981728 -45.87481078;-67.96981728 -45.87481078,-67.9705024 -45.8745479,-67.9698265 -45.8742641,-67.9688072 -45.8745629,-67.9672039 -45.87497495,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.96572509 -45.87368099,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96214261 -45.87344787,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.95720623 -45.87256309,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95650202 -45.87386891,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95610675 -45.87170205,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95709848 -45.86769228,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2185,S937,S906,S2315,S845,S168</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185;S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 944,S56,Linea 940,S78,Linea 932,S645,Linea 931,S2111,Linea 930,S2110,Linea 736,S2167,Linea 1617,S2168,Linea 584,S849,Linea 582,S938,Linea 587,S2511,Linea 586,S948,Linea 585,S2662,Linea 1050,S937;S937,Linea 1050,S2662,Linea 1051,S911,Linea 1218,S2315,Linea 1217,S906;S906,Linea 1217,S2315;S2315,Linea 1218,S911,Linea 1051,S2662,Linea 585,S948,Linea 586,S2511,Linea 587,S938,Linea 582,S849,Linea 584,S2168,Linea 1617,S2167,Linea 736,S2110,Linea 930,S2111,Linea 931,S645,Linea 932,S78,Linea 1043,S48,Linea 1042,S57,Linea 941,S46,Linea 1852,S168,Linea 1040,S52,Linea 1086,S845;S845,Linea 1086,S52,Linea 1040,S168;S168,Linea 1039,S45,Linea 1038,S158,Linea 1035,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015;-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92260289 -45.87981886,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.91930941 -45.88137118,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91747464 -45.88372353,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91541483 -45.88231338,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.90970498 -45.88326091,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90591516 -45.88446218,,-67.90594775 -45.88423937,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90705336 -45.88840606,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90362098 -45.8874036,-67.9022241 -45.8892913,-67.9030609 -45.889239,-67.9032218 -45.8889477,-67.9028785 -45.8877678,-67.9034686 -45.8869165,-67.9039729 -45.8871629,-67.90098858 -45.88903898,-67.9052174 -45.8898887,-67.9046273 -45.8890523,-67.9033613 -45.8891643,-67.9021382 -45.8893659,-67.90475618 -45.89004619,-67.908082 -45.8906056,-67.9061723 -45.8899111,-67.90753763 -45.89070583,-67.9088008 -45.8909117,-67.9101098 -45.8913822,-67.9100025 -45.891763,-67.9117191 -45.8917406,-67.9115689 -45.8913971,-67.911129 -45.8908445,-67.9124701 -45.8893286,-67.9118619 -45.88916575;-67.9118619 -45.88916575,-67.9088008 -45.8909117,-67.9101098 -45.8913822,-67.9100025 -45.891763,-67.9117191 -45.8917406,-67.9115689 -45.8913971,-67.911129 -45.8908445,-67.9124701 -45.8893286,-67.90753763 -45.89070583,-67.9155815 -45.891315,-67.9156137 -45.8917929,-67.9101205 -45.891778,-67.9101098 -45.8913822,-67.9085004 -45.8909043,-67.91464614 -45.89123186,-67.9154849 -45.8913374,-67.9156995 -45.8918153,-67.9161823 -45.8920468,-67.9130065 -45.8949441,-67.9139829 -45.893137,-67.91314953 -45.89274698,-67.9123414 -45.8967361,-67.9125881 -45.8958401,-67.913264 -45.8944587,-67.9140687 -45.8931669,-67.91162615 -45.89729001;-67.91162615 -45.89729001,-67.9123414 -45.8967361,-67.9125881 -45.8958401,-67.913264 -45.8944587,-67.9140687 -45.8931669,-67.91314953 -45.89274698;-67.91314953 -45.89274698,-67.9154849 -45.8913374,-67.9156995 -45.8918153,-67.9161823 -45.8920468,-67.9130065 -45.8949441,-67.9139829 -45.893137,-67.91464614 -45.89123186,-67.9155815 -45.891315,-67.9156137 -45.8917929,-67.9101205 -45.891778,-67.9101098 -45.8913822,-67.9085004 -45.8909043,-67.90753763 -45.89070583,-67.908082 -45.8906056,-67.9061723 -45.8899111,-67.90475618 -45.89004619,-67.9052174 -45.8898887,-67.9046273 -45.8890523,-67.9033613 -45.8891643,-67.9021382 -45.8893659,-67.90098858 -45.88903898,-67.9022241 -45.8892913,-67.9030609 -45.889239,-67.9032218 -45.8889477,-67.9028785 -45.8877678,-67.9034686 -45.8869165,-67.9039729 -45.8871629,-67.90362098 -45.8874036,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90705336 -45.88840606,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90594775 -45.88423937,,-67.90591516 -45.88446218,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90970498 -45.88326091,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91930941 -45.88137118,-67.9199052 -45.8837125,-67.9188645 -45.8826669,-67.9191864 -45.8815466,-67.9198301 -45.881457,-67.91902285 -45.88401169,-67.9238641 -45.8824055,-67.9235315 -45.8824279,-67.9226196 -45.8841831,-67.9213428 -45.8843847,-67.9205918 -45.884198,-67.9203773 -45.8840337,-67.9229362 -45.88248116,-67.9271579 -45.8812329,-67.9272652 -45.8815242,-67.9268789 -45.8817483,-67.9256773 -45.881808,-67.9241323 -45.8825624,-67.9234779 -45.8826296,-67.9235315 -45.8824279,-67.9238641 -45.8824055,-67.92604563 -45.88125368,-67.9273725 -45.8808371,-67.9279733 -45.8808371,-67.9285955 -45.8814794,-67.9291534 -45.881584,-67.9297328 -45.8811956,-67.9299903 -45.8814346,-67.9273295 -45.8829582,-67.9266322 -45.8833914,-67.9264498 -45.8840636,-67.9268146 -45.883959,-67.92608202 -45.88391758,-67.9273725 -45.8864012,-67.9273295 -45.8861696,-67.9265678 -45.8852062,-67.9264498 -45.8840636,-67.9268146 -45.883959,-67.92643307 -45.88670535,-67.9273081 -45.8864236,-67.9265678 -45.885266,-67.9253983 -45.8869463,-67.92471714 -45.8874919;-67.92471714 -45.8874919,-67.9273081 -45.8864236,-67.9265678 -45.885266,-67.9253983 -45.8869463,-67.92643307 -45.88670535,-67.9273725 -45.8864012,-67.9273295 -45.8861696,-67.9265678 -45.8852062,-67.9264498 -45.8840636,-67.9268146 -45.883959,-67.92608202 -45.88391758;-67.92608202 -45.88391758,-67.9306662 -45.8853705,-67.9301298 -45.8848478,-67.9301834 -45.8845415,-67.9296148 -45.8841457,-67.9283166 -45.8832794,-67.9278016 -45.8828089,-67.927072 -45.8829806,-67.9266322 -45.8833914,-67.9264498 -45.8840636,-67.9268146 -45.883959,-67.92968482 -45.88517223,-67.9307413 -45.885378,-67.9301298 -45.8848478,-67.9305589 -45.8826669,-67.92972985 -45.88255921,-67.9309022 -45.8820844,-67.931546 -45.8802844,-67.9315138 -45.8799184,-67.9308915 -45.8797018,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2205,S2184,S2431</t>
   </si>
   <si>
     <t>Base,Linea 1,S176,Linea 1506,S2447,Linea 2,S993,Linea 3,S329,Linea 4,S309,Linea 6,S328,Linea 7,S2258,Linea 8,S326,Linea 52,S2253,Linea 57,S208,Linea 157,S663,Linea 155,S2482,Linea 151,S550,Linea 150,S2609,Linea 147,S378,Linea 146,S2204,Linea 148,S665,Linea 1545,S2205;S2205,Linea 1545,S665,Linea 148,S2204,Linea 146,S378,Linea 145,S2017,Linea 143,S356,Linea 97,S2200,Linea 86,S549,Linea 85,S2227,Linea 78,S558,Linea 77,S100,Linea 75,S156,Linea 74,S155,Linea 71,S154,Linea 69,S2416,Linea 1341,S245,Linea 1340,S186,Linea 901,S539,Linea 1408,S2376,Linea 1346,S190,Linea 1395,S232,Linea 1775,S2184;S2184,Linea 1775,S232,Linea 1395,S190,Linea 1346,S2376,Linea 1408,S539,Linea 901,S186,Linea 1340,S245,Linea 17,S977,Linea 16,S2250,Linea 15,S278,Linea 14,Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 1211,S172,Linea 768,S2417,Linea 759,S402,Linea 760,S2468,Linea 763,S395,Linea 764,S338,Linea 773,S2407,Linea 850,S2056,Linea 849,S2716,Linea 853,S2504,Linea 854,S997,Linea 1836,S353,Linea 1361,S2006,Linea 1363,S2009,Linea 1365,S354,Linea 1421,S2255,Linea 568,S882,Linea 622,S523,Linea 215,S788,Linea 216,S2676,Linea 217,S2396,Linea 240,S2395,Linea 243,S1005,Linea 397,S543,Linea 399,S2288,Linea 247,S2418,Linea 249,S611,Linea 250,E291,Linea 252,S853,Linea 254,S851,Linea 257,S591,Linea 258,S876,Linea 263,S886,Linea 264,S868,Linea 270,S869,Linea 278,S864,Linea 277,S2582,Linea 275,S2279,Linea 274,S892,Linea 340,S594,Linea 260,S616,Linea 326,S2431;S2431,Linea 326,S616,Linea 260,S594,Linea 340,S892,Linea 274,S2279,Linea 275,S2582,Linea 277,S864,Linea 278,S869,Linea 270,S868,Linea 264,S886,Linea 263,S876,Linea 258,S591,Linea 257,S851,Linea 254,S853,Linea 252,E291,Linea 250,S611,Linea 249,S2418,Linea 247,S2288,Linea 399,S543,Linea 397,S1005,Linea 243,S2395,Linea 240,S2396,Linea 217,S2676,Linea 216,S788,Linea 215,S523,Linea 622,S882,Linea 568,S2255,Linea 1421,S354,Linea 1365,S2009,Linea 1363,S2006,Linea 1361,S353,Linea 1836,S997,Linea 854,S2504,Linea 853,S2716,Linea 849,S2056,Linea 850,S2407,Linea 773,S338,Linea 764,S395,Linea 763,S2468,Linea 760,S402,Linea 759,S2417,Linea 768,S172,Linea 1211,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.93822649 -45.86645361,,-67.93820898 -45.86621382,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.9397787 -45.86446671,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.94026881 -45.86394522,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94016816 -45.86304785,-67.9407513 -45.863103100000004,-67.9403973 -45.8622551,-67.93757020000001 -45.8636746,-67.93638614 -45.8639203,-67.9374468 -45.8637643,-67.93648120000002 -45.8648999,-67.93542287 -45.86514387,-67.9364544 -45.8650082,-67.9343033 -45.8651128,-67.93322311 -45.86539389,-67.934196 -45.8650755,-67.9339492 -45.8648887,-67.9318678 -45.8652174,-67.93025624 -45.86524613,-67.92887450000002 -45.8655984,-67.929647 -45.8660093,-67.9311919 -45.8652622,-67.92761571 -45.86576064,-67.92822 -45.8655835,-67.9257631 -45.8646496,-67.9248297 -45.8653668,-67.9234779 -45.8651726,-67.92316538 -45.86501695,-67.9237998 -45.8649111,-67.9216969 -45.86498580000001,-67.92009355 -45.86527701,-67.920903 -45.864119200000005,-67.92119260000001 -45.8646197,-67.9214394 -45.8648887,-67.92012334 -45.86396532,-67.9195297 -45.8639025,-67.9203665 -45.8649335,-67.9209244 -45.864687,-67.9208171 -45.8640743,-67.91830981 -45.86407906,-67.9196048 -45.8623709,-67.9195297 -45.8639025,-67.91863427 -45.86235477,-67.9194546 -45.86234100000001,-67.9182208 -45.863118,-67.918371 -45.8624979,-67.91757646 -45.86239315,-67.9182851 -45.8625352,-67.9178131 -45.863753100000004,-67.91631145 -45.86423466,,-67.91626521 -45.86408272;-67.91626521 -45.86408272,,-67.91631145 -45.86423466,-67.9182851 -45.8625352,-67.9178131 -45.863753100000004,-67.91757646 -45.86239315,-67.9194546 -45.86234100000001,-67.9182208 -45.863118,-67.918371 -45.8624979,-67.91863427 -45.86235477,-67.9222012 -45.8610335,-67.9194975 -45.8620496,-67.92116295 -45.86077528,-67.9235315 -45.8601219,-67.9222655 -45.8604731,-67.92204432 -45.86025045,-67.9253769 -45.8604208,-67.9236388 -45.8595317,-67.9233384 -45.8597857,-67.92472033 -45.86078317,-67.9274476 -45.8598455,-67.9277694 -45.8609139,-67.9253554 -45.8608542,-67.92650257 -45.85998033,-67.930795 -45.8589115,-67.9290783 -45.859442,-67.9272544 -45.8596288,-67.9275012 -45.8597558,-67.92996431 -45.85892348,-67.9338741 -45.8553324,-67.9329085 -45.85672970000001,-67.9318249 -45.8585902,-67.9328218 -45.85546946,-67.9352367 -45.8546599,-67.9346144 -45.8547794,-67.9340136 -45.8552128,-67.93449161 -45.85473418,-67.9390132 -45.8553324,-67.9377794 -45.8546898,-67.9357088 -45.8545104,-67.93784211 -45.85566073,-67.9418778 -45.8559601,-67.9390132 -45.8553324,-67.94127839 -45.85682198,-67.9455793 -45.8575815,-67.9449892 -45.8573947,-67.9450321 -45.8569464,-67.9437447 -45.8569987,-67.9429507 -45.8566475,-67.94451337 -45.85788474,-67.95038580000002 -45.8584109,-67.9492486 -45.8582839,-67.9486799 -45.8563934,-67.9455793 -45.8575815,-67.94942594 -45.85854239,-67.9494631 -45.8607197,-67.9496992 -45.8604582,-67.9489589 -45.8596363,-67.9496777 -45.8591282,-67.9500318 -45.8586351,-67.9503858 -45.8584632,-67.94780419 -45.86081977,-67.9549134 -45.858239,-67.9527032 -45.8590684,-67.9493666 -45.8607794,-67.9491198 -45.8606898,-67.9539623 -45.85805836,-67.9549778 -45.85820170000001,-67.9571986 -45.85672970000001,-67.9579175 -45.8564981,-67.9585719 -45.8567521,-67.95773843 -45.85672753,-67.9586148 -45.8568044,-67.9579926 -45.8564383,-67.9605138 -45.8553847,-67.9615545 -45.8546374,-67.963078 -45.8525451,-67.9633892 -45.8522836,-67.9675841 -45.8512224,-67.9699767 -45.8512598,-67.9700732 -45.8515064,-67.9697835 -45.8517381,-67.96836168 -45.85192469,-67.9697835 -45.8517381,-67.9700947 -45.8517082,-67.9702342 -45.8514018,-67.9710817 -45.8516335,-67.97135 -45.8516633,-67.97067338 -45.85178783,-67.9748797 -45.8534568,-67.9738176 -45.8522612,-67.9730666 -45.8517007,-67.9728305 -45.8516858,-67.9720902 -45.8515438,-67.97404757 -45.85313584,,-67.97397058 -45.85339515;-67.97397058 -45.85339515,,-67.97404757 -45.85313584,-67.9748797 -45.8534568,-67.9738176 -45.8522612,-67.9730666 -45.8517007,-67.9728305 -45.8516858,-67.9720902 -45.8515438,-67.97067338 -45.85178783,-67.9697835 -45.8517381,-67.9700947 -45.8517082,-67.9702342 -45.8514018,-67.9710817 -45.8516335,-67.97135 -45.8516633,-67.96836168 -45.85192469,-67.9586148 -45.8568044,-67.9579926 -45.8564383,-67.9605138 -45.8553847,-67.9615545 -45.8546374,-67.963078 -45.8525451,-67.9633892 -45.8522836,-67.9675841 -45.8512224,-67.9699767 -45.8512598,-67.9700732 -45.8515064,-67.9697835 -45.8517381,-67.95773843 -45.85672753,-67.9549778 -45.85820170000001,-67.9571986 -45.85672970000001,-67.9579175 -45.8564981,-67.9585719 -45.8567521,-67.9539623 -45.85805836,-67.9549134 -45.858239,-67.9527032 -45.8590684,-67.9493666 -45.8607794,-67.9491198 -45.8606898,-67.94780419 -45.86081977,-67.9479718 -45.8615453,-67.9493934 -45.8606973,-67.9489589 -45.8606599,-67.94655091 -45.86160389,-67.9483044 -45.861911400000004,-67.9473495 -45.8614183,-67.94727301 -45.86217176,-67.9469097 -45.8620944,-67.9481596 -45.8620048,-67.94569946 -45.86221924,-67.9427254 -45.8635364,-67.9464859 -45.8623447,-67.9469097 -45.862016,-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.95709848 -45.86769228,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95610675 -45.87170205,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95650202 -45.87386891,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95720623 -45.87256309,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.96214261 -45.87344787,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96572509 -45.87368099,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.9672039 -45.87497495,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.96992116 -45.87035971,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.9688479 -45.86924263,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.96898996 -45.86789944,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.97170451 -45.86764851,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97781889 -45.86412305,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97692655 -45.86298292,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.98026531 -45.86300386,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98206338 -45.86352335,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86821501 -45.85959306,-67.8666258 -45.8579551,-67.8677523 -45.8588443,-67.8689218 -45.8588293,-67.8688896 -45.8591954,-67.86509618 -45.85797591,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86269634 -45.8576934,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86119926 -45.8582863,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.85800456 -45.85865306,-67.8585362 -45.8586425,-67.8567231 -45.8591431,-67.8550386 -45.8605852,-67.85325633 -45.86047853,-67.8547168 -45.8600622,-67.8545237 -45.8589862,-67.8537083 -45.858508,-67.852335 -45.8585529,-67.85051371 -45.8587379,-67.8511226 -45.8587172,-67.8489661 -45.8581942,-67.8504252 -45.8565952,-67.84992667 -45.85649082,-67.851541 -45.8561394,-67.8511119 -45.8555416,-67.8497386 -45.8553249,-67.8490841 -45.8555341,-67.84737753 -45.85568862,-67.8480864 -45.8556163,-67.846477 -45.8561992,-67.8452325 -45.8556537,-67.84359994 -45.85582912,-67.8438914 -45.8557508,-67.8414237 -45.8563262,-67.8377545 -45.8563187,-67.83653581 -45.85644197,-67.8371108 -45.8561767,-67.8326368 -45.8556313,-67.83154193 -45.85548135,-67.8319716 -45.855437,-67.8292787 -45.855108200000004,-67.82760578 -45.8552439,-67.8277767 -45.8550036,-67.8251696 -45.8547271,-67.824676 -45.8544207,-67.82322995 -45.85451391,-67.8244078 -45.8540994,-67.8225088 -45.8518801,-67.82163737 -45.8516816,-67.8223801 -45.8515886,-67.8209639 -45.8504751,-67.8196657 -45.8504079,-67.81800483 -45.85079524,-67.8185713 -45.8505798,-67.816962 -45.851073,-67.8161895 -45.8523658,-67.81497943 -45.85259887,-67.816329 -45.8519921,-67.8167796 -45.8511701,-67.8158462 -45.8513121,-67.8150415 -45.8533148,-67.8138399 -45.8541293,-67.81217316 -45.85421245,-67.809999 -45.85395,-67.81053540000002 -45.8542265,-67.8125417 -45.8543386,-67.80813131 -45.85419968,-67.8093982 -45.8548467,-67.8103423 -45.8545851,-67.808851 -45.8544506,-67.8103101 -45.854219,-67.8097093 -45.8539126,-67.8072436 -45.85498762,-67.8098595 -45.8560647,-67.809999 -45.8550036,-67.8090441 -45.8548691,-67.80907829 -45.8565264,-67.8125632 -45.8568492,-67.810396 -45.8571033,-67.8101599 -45.8566923,-67.81224182 -45.85671416,-67.8138077 -45.8564532,-67.814548 -45.8566699,-67.813561 -45.8597484,-67.8137219 -45.8605777,-67.81282229 -45.86107452,-67.8186142 -45.8634617,-67.8183568 -45.8624605,-67.8160179 -45.8615565,-67.8143764 -45.8610559,-67.81720169 -45.86444747,-67.818743 -45.8634467,-67.8184748 -45.8625278,-67.8150737 -45.8617806,-67.81334205 -45.86189156;-67.81334205 -45.86189156,-67.818743 -45.8634467,-67.8184748 -45.8625278,-67.8150737 -45.8617806,-67.81720169 -45.86444747,-67.8186142 -45.8634617,-67.8183568 -45.8624605,-67.8160179 -45.8615565,-67.8143764 -45.8610559,-67.81282229 -45.86107452,-67.8138077 -45.8564532,-67.814548 -45.8566699,-67.813561 -45.8597484,-67.8137219 -45.8605777,-67.81224182 -45.85671416,-67.8125632 -45.8568492,-67.810396 -45.8571033,-67.8101599 -45.8566923,-67.80907829 -45.8565264,-67.8098595 -45.8560647,-67.809999 -45.8550036,-67.8090441 -45.8548691,-67.8072436 -45.85498762,-67.8093982 -45.8548467,-67.8103423 -45.8545851,-67.808851 -45.8544506,-67.8103101 -45.854219,-67.8097093 -45.8539126,-67.80813131 -45.85419968,-67.809999 -45.85395,-67.81053540000002 -45.8542265,-67.8125417 -45.8543386,-67.81217316 -45.85421245,-67.816329 -45.8519921,-67.8167796 -45.8511701,-67.8158462 -45.8513121,-67.8150415 -45.8533148,-67.8138399 -45.8541293,-67.81497943 -45.85259887,-67.8185713 -45.8505798,-67.816962 -45.851073,-67.8161895 -45.8523658,-67.81800483 -45.85079524,-67.8223801 -45.8515886,-67.8209639 -45.8504751,-67.8196657 -45.8504079,-67.82163737 -45.8516816,-67.8244078 -45.8540994,-67.8225088 -45.8518801,-67.82322995 -45.85451391,-67.8277767 -45.8550036,-67.8251696 -45.8547271,-67.824676 -45.8544207,-67.82760578 -45.8552439,-67.8319716 -45.855437,-67.8292787 -45.855108200000004,-67.83154193 -45.85548135,-67.8371108 -45.8561767,-67.8326368 -45.8556313,-67.83653581 -45.85644197,-67.8438914 -45.8557508,-67.8414237 -45.8563262,-67.8377545 -45.8563187,-67.84359994 -45.85582912,-67.8480864 -45.8556163,-67.846477 -45.8561992,-67.8452325 -45.8556537,-67.84737753 -45.85568862,-67.851541 -45.8561394,-67.8511119 -45.8555416,-67.8497386 -45.8553249,-67.8490841 -45.8555341,-67.84992667 -45.85649082,-67.8511226 -45.8587172,-67.8489661 -45.8581942,-67.8504252 -45.8565952,-67.85051371 -45.8587379,-67.8547168 -45.8600622,-67.8545237 -45.8589862,-67.8537083 -45.858508,-67.852335 -45.8585529,-67.85325633 -45.86047853,-67.8585362 -45.8586425,-67.8567231 -45.8591431,-67.8550386 -45.8605852,-67.85800456 -45.85865306,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.86119926 -45.8582863,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86269634 -45.8576934,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86509618 -45.85797591,-67.8666258 -45.8579551,-67.8677523 -45.8588443,-67.8689218 -45.8588293,-67.8688896 -45.8591954,-67.86821501 -45.85959306,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86513556 -45.86046435,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.98715669 -45.86146692,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98206338 -45.86352335,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98026531 -45.86300386,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.97692655 -45.86298292,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97781889 -45.86412305,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97170451 -45.86764851,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.96898996 -45.86789944,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.9688479 -45.86924263,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.96992116 -45.87035971,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.9672039 -45.87497495,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.96572509 -45.87368099,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96214261 -45.87344787,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.95720623 -45.87256309,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95650202 -45.87386891,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95610675 -45.87170205,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95709848 -45.86769228,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S677,S2527,S2485</t>
   </si>
   <si>
     <t>Base,Linea 1,S176,Linea 1506,S2447,Linea 2,S993,Linea 3,S329,Linea 4,S309,Linea 6,S328,Linea 7,S2258,Linea 8,S326,Linea 52,S2253,Linea 57,S208,Linea 156,S2488,Linea 1548,S680,Linea 158,S246,Linea 161,S662,Linea 701,S668,Linea 731,S567,Linea 700,S677;S677,Linea 175,S661,Linea 174,S2601,Linea 173,S691,Linea 170,S676,Linea 177,S640,Linea 180,S638,Linea 185,S516,Linea 406,S442,Linea 682,S2527;S2527,Linea 682,S442,Linea 406,S516,Linea 185,S638,Linea 181,S443,Linea 184,S637,Linea 183,S495,Linea 186,S635,Linea 1555,S2552,Linea 211,S622,Linea 210,S633,Linea 127,S501,Linea 925,S789,Linea 923,Planta Norte,Linea 1214,S783,Linea 905,S629,Linea 631,S2077,Linea 629,S489,Linea 665,S2265,Linea 659,S683,Linea 637,S458,Linea 634,S2720,Linea 632,S460,Linea 616,S469,Linea 614,S2634,Linea 615,S2273,Linea 552,S525,Linea 551,S529,Linea 553,S524,Linea 554,S2525,Linea 564,S875,Linea 570,S2485;S2485,Linea 571,S874,Linea 572,S2294,Linea 242,S2395,Linea 240,S2396,Linea 217,S2676,Linea 216,S788,Linea 215,S523,Linea 622,S882,Linea 568,S2255,Linea 1421,S354,Linea 1365,S2009,Linea 1363,S2006,Linea 1361,S353,Linea 1836,S997,Linea 854,S2504,Linea 853,S2716,Linea 849,S2056,Linea 850,S2407,Linea 773,S338,Linea 764,S395,Linea 763,S2468,Linea 760,S402,Linea 759,S2417,Linea 768,S172,Linea 1211,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.93822649 -45.86645361,,-67.93820898 -45.86621382,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.9397787 -45.86446671,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.94026881 -45.86394522,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94016816 -45.86304785,-67.9407513 -45.863103100000004,-67.9403973 -45.8622551,-67.93757020000001 -45.8636746,-67.93638614 -45.8639203,-67.9374468 -45.8637643,-67.93648120000002 -45.8648999,-67.93542287 -45.86514387,-67.9364544 -45.8650082,-67.9343033 -45.8651128,-67.93322311 -45.86539389,-67.934196 -45.8650755,-67.9339492 -45.8648887,-67.9318678 -45.8652174,-67.93025624 -45.86524613,-67.92887450000002 -45.8655984,-67.929647 -45.8660093,-67.9311919 -45.8652622,-67.92761571 -45.86576064,-67.9284239 -45.8655835,-67.9270077 -45.8655162,-67.92568273 -45.86555172,,-67.92617947 -45.86596757,-67.9266429 -45.8657927,-67.9259992 -45.8665696,-67.92478129 -45.86687146,-67.9258382 -45.86658460000001,-67.9220402 -45.8663903,-67.92069068 -45.86664171,-67.9220402 -45.8663903,-67.9233062 -45.8663605,-67.9220939 -45.86691330000001,-67.9212034 -45.8670029,-67.9194438 -45.8683551,-67.918725 -45.8684821,-67.91712918 -45.86851117,-67.9188001 -45.868512,-67.9194438 -45.8683551,-67.9187143 -45.868885600000006,-67.9161716 -45.8689378,-67.9146481 -45.87009580000001,-67.91316355 -45.8704339,-67.912792 -45.8681833,-67.9137361 -45.8680638,-67.9160964 -45.8689304,-67.9145193 -45.8701256,-67.91127227 -45.86860891;-67.91127227 -45.86860891,-67.914927 -45.8677874,-67.912792 -45.8681833,-67.9143801 -45.8679855,-67.9147553 -45.8672868,-67.9154098 -45.8676977,-67.9130059 -45.86729039,-67.9110271 -45.86621850000001,-67.9131621 -45.8664613,-67.9139614 -45.8669058,-67.90947109 -45.86641003,-67.9100454 -45.8663754,-67.9094982 -45.8663306,-67.909627 -45.86429100000001,-67.90869072 -45.86438156,-67.9108179 -45.86391,-67.9094768 -45.8638353,-67.9077816 -45.8657329,-67.9066443 -45.8662484,-67.90565529 -45.8665856,-67.9061723 -45.8665771,-67.905035 -45.8664202,-67.9036188 -45.866734,-67.90238643 -45.86679139,-67.903533 -45.8667116,-67.9017627 -45.8675035,-67.9002507 -45.8689297,-67.89914372 -45.86914198,-67.8994882 -45.8693338,-67.8977072 -45.8699986,-67.8991663 -45.8716197,-67.89860307 -45.87190083,-67.8970957 -45.8693338,-67.8969562 -45.8699688,-67.8972459 -45.8707905,-67.898823 -45.87161220000001,-67.89665012 -45.86917164;-67.89665012 -45.86917164,-67.8970957 -45.8693338,-67.8969562 -45.8699688,-67.8972459 -45.8707905,-67.898823 -45.87161220000001,-67.89860307 -45.87190083,-67.8994882 -45.8693338,-67.8977072 -45.8699986,-67.8991663 -45.8716197,-67.89914372 -45.86914198,-67.903533 -45.8667116,-67.9017627 -45.8675035,-67.9002507 -45.8689297,-67.90238643 -45.86679139,-67.903887 -45.8663231,-67.9039836 -45.8658524,-67.9035652 -45.86530710000001,-67.90241486 -45.86534688,-67.9038763 -45.8652174,-67.9047024 -45.865195,-67.9042947 -45.8648663,-67.90314798 -45.8648888,-67.9039943 -45.8644255,-67.9028034 -45.8637381,-67.8999174 -45.8635812,-67.89867893 -45.86374335,-67.8993487 -45.8636634,-67.8988981 -45.8636933,-67.89861920000001 -45.8635215,-67.8975525 -45.86346654,,-67.89779792 -45.86312838,-67.8962696 -45.8632899,-67.8974175 -45.8625203,-67.8984583 -45.8622177,-67.8946526 -45.86372426,-67.8961945 -45.8632674,-67.8952932 -45.8629985,-67.8948426 -45.8620347,-67.89369378 -45.862107,-67.8961086 -45.8601668,-67.8949714 -45.8618927,-67.89506126 -45.86022417,-67.8960952 -45.8598436,-67.8959692 -45.8585678,-67.8961945 -45.8583138,-67.8955936 -45.8581419,-67.8949177 -45.8572976,-67.8950787 -45.8562589,-67.894907 -45.8558629,-67.8937376 -45.8558928,-67.8932869 -45.8566101,-67.8928149 -45.8568492,-67.8926003 -45.8566998,-67.89119881 -45.85678635,-67.8915596 -45.8569165,-67.8910661 -45.8570435,-67.8905296 -45.8572453,-67.8862917 -45.8600846,-67.8869355 -45.8600547,-67.8873861 -45.8596438,-67.8876221 -45.8588667,-67.8886843 -45.8579999,-67.88485253 -45.86038085,-67.8855836 -45.8605329,-67.8847253 -45.8611754,-67.8843284 -45.8612427,-67.88286864 -45.86153258,-67.8809917 -45.8619301,-67.8822792 -45.8616611,-67.8835666 -45.8617507,-67.8845859 -45.8612277,-67.8843284 -45.8612427,-67.87889297 -45.8626014,-67.8800154 -45.8627071,-67.880863 -45.8635887,-67.8814101 -45.8638502,-67.881496 -45.8643508,-67.8795862 -45.8651352,-67.87816911 -45.86559299,-67.8794253 -45.8652025,-67.8813779 -45.8643508,-67.8805947 -45.8648065,-67.8801227 -45.8652622,-67.8801119 -45.8658151,-67.8798544 -45.8661513,-67.87841593 -45.86693979,-67.8773224 -45.8682132,-67.8784168 -45.867951700000006,-67.8792751 -45.866988,-67.87529512 -45.86884053,-67.8755951 -45.8690125,-67.8751016 -45.8692815,-67.8764427 -45.8695952,-67.87545792 -45.87007243,-67.8735942 -45.8680488,-67.8724301 -45.8682281,-67.8724086 -45.8686689,-67.8764427 -45.8695952,-67.8729107 -45.86822856,-67.8699839 -45.8693413,-67.8700376 -45.8699389,-67.8703916 -45.8701929,-67.8709173 -45.8699239,-67.8707349 -45.8692815,-67.8712177 -45.8686166,-67.8731596 -45.8681236,-67.86891343 -45.86940172,-67.8665292 -45.8704394,-67.8664756 -45.8701107,-67.8674197 -45.8697073,-67.8698659 -45.8700883,-67.8700376 -45.8699389,-67.8700268 -45.8692964,-67.86552841 -45.87071955,-67.8665292 -45.8705589,-67.866143 -45.8710594,-67.8657889 -45.8704767,-67.8668725 -45.8688706,-67.86653014 -45.86909111,-67.8668725 -45.8688706,-67.8667974 -45.868646500000004,-67.8676665 -45.8677127,-67.867012 -45.86727940000001,-67.86635342 -45.86702056,-67.8668189 -45.8667639,-67.8664005 -45.866988,-67.8663254 -45.8676305,-67.86498939 -45.86808329,-67.8639972 -45.8691171,-67.8657031 -45.8680713,-67.86235431 -45.86962035,-67.8640509 -45.869035,-67.8651345 -45.867384,-67.8649521 -45.8657329,-67.8658748 -45.8655237,-67.86542164 -45.86561862,-67.8659713 -45.8654266,-67.8650701 -45.8654864,-67.864598 -45.8658599,-67.86331328 -45.86669187,-67.8639328 -45.8659271,-67.8645658 -45.8647542,-67.8655207 -45.8635513,-67.864423 -45.86337238,-67.8653276 -45.8635663,-67.8648341 -45.8637904,-67.8645015 -45.8630059,-67.8653491 -45.8606898,-67.8640616 -45.8614295,-67.86252974 -45.86187269;-67.86252974 -45.86187269,-67.8632784 -45.8615042,-67.863096 -45.86128,-67.8622055 -45.8610559,-67.861948 -45.8605105,-67.8613425 -45.86055445,-67.8623772 -45.8601145,-67.8619158 -45.8597185,-67.86181930000001 -45.8591954,-67.8608966 -45.8592179,-67.85979998 -45.85959279,-67.8602314 -45.85924030000001,-67.8568411 -45.8591506,-67.8585362 -45.8586425,-67.85800456 -45.85865306,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.86119926 -45.8582863,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86269634 -45.8576934,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86509618 -45.85797591,-67.8666258 -45.8579551,-67.8677523 -45.8588443,-67.8689218 -45.8588293,-67.8688896 -45.8591954,-67.86821501 -45.85959306,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86513556 -45.86046435,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.98715669 -45.86146692,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98206338 -45.86352335,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98026531 -45.86300386,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.97692655 -45.86298292,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97781889 -45.86412305,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97170451 -45.86764851,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.96898996 -45.86789944,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.9688479 -45.86924263,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.96992116 -45.87035971,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.9672039 -45.87497495,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.96572509 -45.87368099,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96214261 -45.87344787,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.95720623 -45.87256309,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95650202 -45.87386891,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95610675 -45.87170205,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95709848 -45.86769228,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2039,S2435,S2079</t>
   </si>
   <si>
     <t>Base,Linea 1,S176,Linea 1506,S2447,Linea 2,S993,Linea 3,S329,Linea 4,S309,Linea 6,S328,Linea 7,S2258,Linea 8,S326,Linea 52,S2253,Linea 55,S254,Linea 60,S234,Linea 987,S271,Linea 989,S950,Linea 729,S379,Linea 727,S578,Linea 1651,S2454,Linea 723,S2306,Linea 724,S975,Linea 732,S2039;S2039,Linea 707,S963,Linea 708,S2231,Linea 1649,S236,Linea 713,S77,Linea 1647,S2334,Linea 934,S2111,Linea 933,S210,Linea 1707,S2435;S2435,Linea 1707,S210,Linea 933,S2111,Linea 931,S645,Linea 932,S78,Linea 940,S56,Linea 944,S229,Linea 943,S167,Linea 946,S2147,Linea 966,S2465,Linea 1715,S546,Linea 1212,S962,Linea 1008,S315,Linea 1017,S59,Linea 1295,S2116,Linea 1293,S1,Linea 1292,S2189,Linea 797,S2095,Linea 1825,S2479,Linea 1170,S79,Linea 1168,S188,Linea 1169,S2079;S2079,Linea 1169,S188,Linea 1168,S79,Linea 1170,S2479,Linea 1825,S2095,Linea 797,S2189,Linea 1292,S1,Linea 1293,S2116,Linea 1295,S59,Linea 1017,S315,Linea 746,S2572,Linea 747,S381,Linea 748,S377,Linea 740,S980,Linea 741,S2421,Linea 1842,S370,Linea 752,S2408,Linea 754,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.93822649 -45.86645361,,-67.93820898 -45.86621382,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.9397787 -45.86446671,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.94026881 -45.86394522,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94016816 -45.86304785,-67.9407513 -45.863103100000004,-67.9403973 -45.8622551,-67.93757020000001 -45.8636746,-67.93638614 -45.8639203,-67.9374468 -45.8637643,-67.93648120000002 -45.8648999,-67.93542287 -45.86514387,-67.9364544 -45.8650082,-67.9343033 -45.8651128,-67.93322311 -45.86539389,-67.934196 -45.8650755,-67.9339492 -45.8648887,-67.9318678 -45.8652174,-67.93025624 -45.86524613,-67.9317927 -45.8665099,-67.9313958 -45.8663156,-67.9318678 -45.8652174,-67.93029002 -45.86668754,-67.9312563 -45.8666892,-67.9306877 -45.8669805,-67.9292071 -45.866338,-67.9283273 -45.867257,-67.92759808 -45.86788307,-67.9271686 -45.8677052,-67.926718 -45.8677948,-67.925849 -45.8687063,-67.92477777 -45.86902425,-67.9239607 -45.87091,-67.9254735 -45.8690648,-67.92270363 -45.87121385,-67.9235101 -45.8711267,-67.9226303 -45.8711043,-67.9216754 -45.8713134,-67.92053462 -45.87127057,-67.9206347 -45.8733602,-67.9204845 -45.8732108,-67.9220188 -45.8711565,-67.91979942 -45.8736741,,-67.91957453 -45.87370778,-67.9212248 -45.8733378,-67.9216969 -45.8732033,-67.9219866 -45.8726954,-67.92142151 -45.87273947,-67.9221582 -45.8723966,-67.9212999 -45.8721351,-67.917105 -45.8727327,-67.91546223 -45.87287307,-67.9147124 -45.8735918,-67.9146481 -45.8732631,-67.9165041 -45.8723592,-67.917223 -45.8722696,-67.9172659 -45.8726356,-67.91362407 -45.87400466;-67.91362407 -45.87400466,-67.915163 -45.8739802,-67.9151952 -45.8744657,-67.9132426 -45.8763929,-67.91188203 -45.87683257,-67.9128993 -45.8770876,-67.9123092 -45.8779241,-67.9113972 -45.8784843,-67.9096162 -45.8795599,-67.9116762 -45.8803665,-67.9107749 -45.88068770000001,-67.90902811 -45.88062544,,-67.90891537 -45.88072557,-67.9107428 -45.880501,-67.9119766 -45.880389,-67.9123414 -45.8806952,-67.9129958 -45.8809193,-67.91210808 -45.8814063,,-67.91214619 -45.88124859,-67.9166651 -45.8823159,-67.9169762 -45.8821367,-67.9166543 -45.8815466,-67.913146 -45.8824205,-67.9128242 -45.8814645,-67.91541483 -45.88231338,-67.9170835 -45.8822711,-67.9166543 -45.8815466,-67.916429 -45.8804562,-67.91569194 -45.88029914,,-67.91549706 -45.88009996;-67.91549706 -45.88009996,,-67.91569194 -45.88029914,-67.9170835 -45.8822711,-67.9166543 -45.8815466,-67.916429 -45.8804562,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91930941 -45.88137118,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.92260289 -45.87981886,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.93512028 -45.8793768,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93938002 -45.87863178,,-67.93921257 -45.87804782,-67.9512119 -45.8788877,-67.952435 -45.8787607,-67.9518127 -45.8800454,-67.9474354 -45.8786785,-67.9441524 -45.8779764,-67.9427791 -45.8776328,-67.940805 -45.8776926,-67.94944114 -45.87896309,-67.9534543 -45.8773565,-67.9526925 -45.87711,-67.9530144 -45.8775731,-67.9524779 -45.878813,-67.9512334 -45.8789325,-67.95259842 -45.87763583,-67.9538298 -45.8776104,-67.9575419 -45.8788205,-67.9596341 -45.8789624,-67.9602242 -45.8794852,-67.95937836 -45.87978501,-67.967391 -45.8796271,-67.9660606 -45.879657,-67.9619408 -45.879179,-67.959795 -45.8789997,-67.9602242 -45.8794852,-67.96661757 -45.87943084,-67.9708028 -45.8792686,-67.9686999 -45.8795524,-67.9682064 -45.8792238,-67.96993071 -45.87922522,-67.9739785 -45.8781632,-67.9745579 -45.8782677,-67.9740644 -45.8788802,-67.9710174 -45.8792537,-67.97210325 -45.8786421,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9755771 -45.8785142,-67.9742253 -45.8787756,-67.974236 -45.878222900000004,-67.9757414 -45.87911165,-67.9789352 -45.8795823,-67.9791069 -45.8776627,-67.9756737 -45.8784769,-67.9758239 -45.8787234,-67.9765105 -45.8789474,-67.97764389 -45.88001208,-67.9836452 -45.880628,-67.9827011 -45.8809865,-67.9772079 -45.8809641,-67.9786885 -45.8806504,-67.9790211 -45.8800977,-67.98281025 -45.88038134,-67.9814887 -45.8817558,-67.9819179 -45.8816512,-67.9821432 -45.8813076,-67.9828405 -45.8810462,-67.9829264 -45.8808968,-67.9836452 -45.880628,-67.98000949 -45.88192468,-67.9813814 -45.881808,-67.9819071 -45.8817483,-67.9820681 -45.881345,-67.981478 -45.8815466,-67.980212 -45.881345,-67.9783578 -45.88149778;-67.9783578 -45.88149778,-67.9813814 -45.881808,-67.9819071 -45.8817483,-67.9820681 -45.881345,-67.981478 -45.8815466,-67.980212 -45.881345,-67.98000949 -45.88192468,-67.9814887 -45.8817558,-67.9819179 -45.8816512,-67.9821432 -45.8813076,-67.9828405 -45.8810462,-67.9829264 -45.8808968,-67.9836452 -45.880628,-67.98281025 -45.88038134,-67.9836452 -45.880628,-67.9827011 -45.8809865,-67.9772079 -45.8809641,-67.9786885 -45.8806504,-67.9790211 -45.8800977,-67.97764389 -45.88001208,-67.9789352 -45.8795823,-67.9791069 -45.8776627,-67.9756737 -45.8784769,-67.9758239 -45.8787234,-67.9765105 -45.8789474,-67.9757414 -45.87911165,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9755771 -45.8785142,-67.9742253 -45.8787756,-67.974236 -45.878222900000004,-67.97210325 -45.8786421,-67.9739785 -45.8781632,-67.9745579 -45.8782677,-67.9740644 -45.8788802,-67.9710174 -45.8792537,-67.96993071 -45.87922522,-67.9708028 -45.8792686,-67.9686999 -45.8795524,-67.9682064 -45.8792238,-67.96661757 -45.87943084,-67.967391 -45.8796271,-67.9660606 -45.879657,-67.9619408 -45.879179,-67.959795 -45.8789997,-67.9602242 -45.8794852,-67.95937836 -45.87978501,-67.9538298 -45.8776104,-67.9575419 -45.8788205,-67.9596341 -45.8789624,-67.9602242 -45.8794852,-67.95259842 -45.87763583,-67.9521346 -45.8759746,-67.9517162 -45.8759074,-67.9513943 -45.8758999,-67.9525959 -45.87702780000001,-67.95337920000001 -45.8774162,-67.95155064 -45.87647635,-67.9521346 -45.8759746,-67.951448 -45.8759597,-67.9509008 -45.8738383,-67.94983615 -45.87396079,-67.9508579 -45.8736739,-67.9509115 -45.8721426,-67.94974928 -45.87213834,-67.9510081 -45.87218,-67.9515123 -45.8715599,-67.9518449 -45.870925,-67.95082673 -45.87123588,-67.9518449 -45.870925,-67.9516733 -45.8706037,-67.9509866 -45.870275,-67.95089010000001 -45.8697222,-67.9517484 -45.8700734,-67.9526281 -45.8699912,-67.95188123 -45.87007275,-67.9526013 -45.869965,-67.9517484 -45.8700734,-67.9508901 -45.8697222,-67.9511476 -45.8693039,-67.95011093 -45.86936834,-67.9511476 -45.8693039,-67.95089010000001 -45.8697222,-67.9506433 -45.8681011,-67.9512978 -45.867892,-67.95075242 -45.86791677,-67.9513514 -45.867951700000006,-67.9506004 -45.8681534,-67.9493558 -45.8665622,-67.9490876 -45.8664576,-67.9492164 -45.8668461,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2321,S871,S2172,S2635,S2669</t>
   </si>
   <si>
     <t>Base,Linea 14,S278,Linea 15,S2250,Linea 16,S977,Linea 17,S245,Linea 1341,S2416,Linea 69,S154,Linea 71,S155,Linea 74,S156,Linea 75,S100,Linea 76,S2252,Linea 79,S2014,Linea 82,S2004,Linea 88,S2321;S2321,Linea 409,S781,Linea 100,S551,Linea 99,S356,Linea 143,S2017,Linea 144,S690,Linea 141,S538,Linea 104,S2206,Linea 105,S763,Linea 106,S719,Linea 108,S767,Linea 112,S555,Linea 1532,S2578,Linea 142,S556,Linea 1883,S2022,Linea 902,S2001,Linea 1849,S492,Linea 1848,S1041,Linea 230,S487,Linea 229,S2291,Linea 226,S2054,Linea 220,S2458,Linea 214,S788,Linea 216,S2676,Linea 217,S2396,Linea 240,S2395,Linea 243,S1005,Linea 397,S543,Linea 399,S2288,Linea 247,S2418,Linea 249,S611,Linea 250,E291,Linea 252,S853,Linea 254,S851,Linea 257,S591,Linea 258,S876,Linea 263,S886,Linea 264,S868,Linea 270,S869,Linea 278,S864,Linea 281,S850,Linea 280,S856,Linea 283,S857,Linea 282,S866,Linea 288,S871;S871,Linea 288,S866,Linea 282,S857,Linea 283,S856,Linea 286,S883,Linea 302,S890,Linea 300,S895,Linea 308,S1011,Linea 305,S1013,Linea 303,S2172;S2172,Linea 303,S1013,Linea 305,S1011,Linea 308,S895,Linea 300,S890,Linea 302,S883,Linea 286,S856,Linea 280,S850,Linea 279,S873,Linea 276,S2582,Linea 275,S2279,Linea 274,S892,Linea 340,S594,Linea 260,S616,Linea 315,S2440,Linea 314,S2496,Linea 1497,S707,Linea 365,S613,Linea 370,S687,Linea 392,S709,Linea 393,S710,Linea 413,S722,Linea 414,S774,Linea 415,S2151,Linea 412,S2300,Linea 381,S1037,Linea 380,S544,Linea 379,S1028,Linea 378,S2007,Linea 418,S2040,Linea 420,S2635;S2635,Linea 439,S2122,Linea 451,S2614,Linea 525,S2461,Linea 454,S2594,Linea 442,S2595,Linea 441,S2620,Linea 446,S2638,Linea 447,S2652,Linea 448,S2645,Linea 449,S2660,Linea 1863,S2669;S2669,Linea 1863,S2660,Linea 449,S2645,Linea 450,S2642,Linea 457,S2621,Linea 466,S2223,Linea 467,S26,Linea 469,S2523,Linea 1887,S13,Linea 1886,S2,Linea 471,S2240,Linea 1593,Q16,Linea 613,S3,Linea 734,S295,Linea 735,S17,Linea 594,S2259,Linea 592,S2129,Linea 591,S949,Linea 579,S2132,Linea 578,S2443,Linea 581,S938,Linea 582,S849,Linea 584,S2168,Linea 1617,S2167,Linea 736,S2110,Linea 930,S2111,Linea 931,S645,Linea 932,S78,Linea 940,S56,Linea 944,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9427254 -45.8635364,-67.9464859 -45.8623447,-67.9469097 -45.862016,-67.94569946 -45.86221924,-67.9469097 -45.8620944,-67.9481596 -45.8620048,-67.94727301 -45.86217176,-67.9483044 -45.861911400000004,-67.9473495 -45.8614183,-67.94655091 -45.86160389,-67.9479718 -45.8615453,-67.9493934 -45.8606973,-67.9489589 -45.8606599,-67.94780419 -45.86081977,-67.9494631 -45.8607197,-67.9496992 -45.8604582,-67.9489589 -45.8596363,-67.9496777 -45.8591282,-67.9500318 -45.8586351,-67.9503858 -45.8584632,-67.94942594 -45.85854239,-67.95038580000002 -45.8584109,-67.9492486 -45.8582839,-67.9486799 -45.8563934,-67.9455793 -45.8575815,-67.94451337 -45.85788474,-67.9455793 -45.8575815,-67.9449892 -45.8573947,-67.9450321 -45.8569464,-67.9437447 -45.8569987,-67.9429507 -45.8566475,-67.94127839 -45.85682198,-67.9418778 -45.8559601,-67.9390132 -45.8553324,-67.93784211 -45.85566073,-67.9390132 -45.8553324,-67.9377794 -45.8546898,-67.9357088 -45.8545104,-67.93449161 -45.85473418,-67.9352367 -45.8545328,-67.933563 -45.8546898,-67.9313636 -45.8564457,-67.93015362 -45.85669955,-67.9309988 -45.8565279,-67.9294109 -45.8566176,-67.9285955 -45.8575143,-67.92745639 -45.85783394,-67.9283702 -45.8576637,-67.9275548 -45.8572154,-67.9269218 -45.8575143,-67.9259026 -45.8575367,-67.9241967 -45.8567969,-67.92272998 -45.85731085,-67.9236388 -45.8571407,-67.9227161 -45.8570659,-67.92158978 -45.85720014;-67.92158978 -45.85720014,-67.9179096 -45.8569314,-67.917974 -45.8555117,-67.9220295 -45.8569464,-67.91707962 -45.85731555,-67.9202163 -45.858963800000005,-67.9188108 -45.8570659,-67.918371 -45.8571108,-67.92001872 -45.85910034,-67.9237354 -45.8596662,-67.922287 -45.8586052,-67.9212356 -45.8589414,-67.92204432 -45.86025045,-67.9235315 -45.8601219,-67.9222655 -45.8604731,-67.92116295 -45.86077528,-67.9219651 -45.8610335,-67.9157424 -45.8609887,-67.91412974 -45.86109479,-67.9153347 -45.8605702,-67.9157317 -45.8599725,-67.9146159 -45.859457,-67.91347499 -45.85938782,-67.9145408 -45.8594047,-67.9124916 -45.858777,-67.9112792 -45.8592776,-67.91058213 -45.85962973,-67.9112792 -45.8592776,-67.9102921 -45.8588293,-67.9105067 -45.8586425,-67.90964669 -45.85881191,-67.9102653 -45.8586986,-67.9081625 -45.8581195,-67.90707943 -45.8582017,-67.90773330000002 -45.8580522,-67.9073417 -45.8579177,-67.9068965 -45.8568567,-67.9053408 -45.8563822,-67.90400196 -45.85653031,-67.904284 -45.8564084,-67.9033184 -45.8552726,-67.9019022 -45.8551232,-67.90067511 -45.8549717,,-67.90022567 -45.85540767,-67.9008508 -45.8548093,-67.8990161 -45.8545403,-67.898823 -45.8538678,-67.8965485 -45.8545553,-67.89483427 -45.85484841,-67.887429 -45.855564,-67.8894138 -45.853808,-67.8932333 -45.8533447,-67.8969455 -45.8545851,-67.8963768 -45.8546599,-67.88581092 -45.85597227,-67.887429 -45.855564,-67.8882551 -45.8548691,-67.8894138 -45.853808,-67.8920853 -45.8535689,-67.8916454 -45.8538678,-67.8897357 -45.85395,-67.88910 -45.85436,-67.8875685 -45.8562589,-67.885799 -45.8571033,-67.88544 -45.8578281,-67.88523 -45.85794,-67.88402968 -45.85834964,-67.8814316 -45.8592926,-67.8808415 -45.8591357,-67.880863 -45.8587322,-67.8817642 -45.858239,-67.8850043 -45.8580522,-67.88077392 -45.85953999,-67.8790283 -45.8588293,-67.880466 -45.8587397,-67.8813028 -45.8593598,-67.87771797 -45.85914466,-67.875917 -45.8590236,-67.8765607 -45.8587098,-67.8784597 -45.8588443,-67.87446619 -45.85953534,-67.8758311 -45.8590012,-67.8755307 -45.858777,-67.8718829 -45.8588144,-67.8721619 -45.8576637,-67.8733528 -45.857462,-67.8739536 -45.8579028,-67.87227986 -45.85836679,-67.8721619 -45.8576637,-67.8734279 -45.8573798,-67.8740823 -45.8579103,-67.87029294 -45.85782787,-67.8694689 -45.8577534,-67.8703272 -45.8578879,-67.8705525 -45.8574694,-67.8710139 -45.8575441,-67.86752908 -45.85773082,-67.8666365 -45.8577982,-67.8680527 -45.857716,-67.86509618 -45.85797591,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86269634 -45.8576934,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86119926 -45.8582863,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.85800456 -45.85865306,-67.8585362 -45.8586425,-67.8567231 -45.8591431,-67.8550386 -45.8605852,-67.85325633 -45.86047853,-67.8547168 -45.8600622,-67.8545237 -45.8589862,-67.8537083 -45.858508,-67.852335 -45.8585529,-67.85051371 -45.8587379,-67.8511226 -45.8587172,-67.8489661 -45.8581942,-67.8504252 -45.8565952,-67.84992667 -45.85649082,-67.851541 -45.8561394,-67.8511119 -45.8555416,-67.8497386 -45.8553249,-67.8490841 -45.8555341,-67.84737753 -45.85568862,-67.8480864 -45.8556163,-67.846477 -45.8561992,-67.8452325 -45.8556537,-67.84359994 -45.85582912,-67.8438914 -45.8557508,-67.8414237 -45.8563262,-67.8377545 -45.8563187,-67.83653581 -45.85644197,-67.8371108 -45.8561767,-67.8326368 -45.8556313,-67.83154193 -45.85548135,-67.8319716 -45.855437,-67.8292787 -45.855108200000004,-67.82760578 -45.8552439,-67.8277767 -45.8550036,-67.8251696 -45.8547271,-67.824676 -45.8544207,-67.82322995 -45.85451391,-67.8244078 -45.8540994,-67.8225088 -45.8518801,-67.82163737 -45.8516816,-67.8223801 -45.8515886,-67.8209639 -45.8504751,-67.8196657 -45.8504079,-67.81800483 -45.85079524,-67.8185713 -45.8505798,-67.816962 -45.851073,-67.8161895 -45.8523658,-67.81497943 -45.85259887,-67.816329 -45.8519921,-67.8167796 -45.8511701,-67.8158462 -45.8513121,-67.8150415 -45.8533148,-67.8138399 -45.8541293,-67.81217316 -45.85421245,-67.809999 -45.85395,-67.81053540000002 -45.8542265,-67.8125417 -45.8543386,-67.80813131 -45.85419968,-67.8064048 -45.853539,-67.8089046 -45.854361,-67.8103852 -45.8542265,-67.8098702 -45.8539126,-67.80441533 -45.8533642,-67.805289 -45.8529487,-67.8034651 -45.8522612,-67.8028214 -45.85306820000001,-67.8021669 -45.8529711,-67.80053473 -45.85338776,-67.8040767 -45.8510805,-67.8027248 -45.8530309,-67.8023279 -45.8529561,-67.80300362 -45.85086721,-67.7998281 -45.8509609,-67.7995491 -45.8515811,-67.8006542 -45.8517979,-67.8019416 -45.8517306,-67.8034651 -45.8522612,-67.8040767 -45.8510805,-67.79929116 -45.85082718,-67.7998281 -45.8509609,-67.7995062 -45.8512748,-67.7991307 -45.8505872,-67.7971566 -45.8503332,-67.79555457 -45.85028232;-67.79555457 -45.85028232,-67.7998281 -45.8509609,-67.7995062 -45.8512748,-67.7991307 -45.8505872,-67.7971566 -45.8503332,-67.79929116 -45.85082718,-67.7998281 -45.8509609,-67.7995491 -45.8515811,-67.8006542 -45.8517979,-67.8019416 -45.8517306,-67.8034651 -45.8522612,-67.8040767 -45.8510805,-67.80300362 -45.85086721,-67.8040767 -45.8510805,-67.8027248 -45.8530309,-67.8023279 -45.8529561,-67.80053473 -45.85338776,-67.8014696 -45.8535315,-67.799592 -45.8552801,-67.7985406 -45.8554818,-67.7970643 -45.85560927,-67.7944744 -45.8548541,-67.7952468 -45.855108200000004,-67.79841180000001 -45.8550858,-67.7985942 -45.8553996,-67.79352993 -45.85472019,-67.7944744 -45.8548541,-67.794764 -45.8551755,-67.7924466 -45.8554519,-67.7921462 -45.8562515,-67.79068399 -45.85671662,-67.7884984 -45.8575367,-67.7912343 -45.8565653,-67.78733078 -45.85824489,-67.7862132 -45.8584258,-67.7890134 -45.8589713,-67.7900219 -45.8586276,-67.788595 -45.8585155,-67.784266 -45.85856607,-67.7824259 -45.8594121,-67.7837563 -45.8592702,-67.7851295 -45.8585379,-67.78070545 -45.85980557;-67.78070545 -45.85980557,-67.7824259 -45.8594121,-67.7837563 -45.8592702,-67.7851295 -45.8585379,-67.784266 -45.85856607,-67.7862132 -45.8584258,-67.7890134 -45.8589713,-67.7900219 -45.8586276,-67.788595 -45.8585155,-67.78733078 -45.85824489,-67.7884984 -45.8575367,-67.7912343 -45.8565653,-67.79068399 -45.85671662,-67.7944744 -45.8548541,-67.794764 -45.8551755,-67.7924466 -45.8554519,-67.7921462 -45.8562515,-67.79352993 -45.85472019,-67.7944744 -45.8548541,-67.7952468 -45.855108200000004,-67.79841180000001 -45.8550858,-67.7985942 -45.8553996,-67.7970643 -45.85560927,-67.8014696 -45.8535315,-67.799592 -45.8552801,-67.7985406 -45.8554818,-67.80053473 -45.85338776,-67.805289 -45.8529487,-67.8034651 -45.8522612,-67.8028214 -45.85306820000001,-67.8021669 -45.8529711,-67.80441533 -45.8533642,-67.8067052 -45.8553548,-67.8072202 -45.8551381,-67.8064048 -45.853539,-67.80486959 -45.85565241,-67.807982 -45.8550559,-67.8067052 -45.8553548,-67.8072436 -45.85498762,-67.8098595 -45.8560647,-67.809999 -45.8550036,-67.8090441 -45.8548691,-67.80907829 -45.8565264,-67.8125632 -45.8568492,-67.810396 -45.8571033,-67.8101599 -45.8566923,-67.81224182 -45.85671416,-67.8138077 -45.8564532,-67.814548 -45.8566699,-67.813561 -45.8597484,-67.8137219 -45.8605777,-67.81282229 -45.86107452,-67.8186142 -45.8634617,-67.8183568 -45.8624605,-67.8160179 -45.8615565,-67.8143764 -45.8610559,-67.81720169 -45.86444747,-67.8182173 -45.868004,-67.8160286 -45.8663455,-67.8181314 -45.8648065,-67.8182173 -45.864545,-67.81633269 -45.86814359,-67.819097 -45.8668461,-67.8186357 -45.8670552,-67.8192151 -45.868385,-67.81829240000002 -45.8680713,-67.8187144 -45.86699435,-67.8260922 -45.8716048,-67.8258884 -45.8718886,-67.8219509 -45.871657,-67.8194082 -45.8687287,-67.8185391 -45.8670926,-67.8190756 -45.8667788,-67.82435527 -45.87146335,-67.8326046 -45.8712686,-67.8287637 -45.8718438,-67.8266931 -45.8718811,-67.8259957 -45.8715076,-67.83204724 -45.87132308,-67.8363276 -45.8710445,-67.8348899 -45.87091,-67.8336024 -45.8710221,-67.83598551 -45.8713908,-67.8404045 -45.871440400000004,-67.8396642 -45.8713657,-67.8393745 -45.8705216,-67.8371751 -45.8699314,-67.8344822 -45.8697969,-67.8345251 -45.8700584,-67.8363597 -45.8707606,-67.83999726 -45.87142467,-67.8403401 -45.8715002,-67.8396213 -45.8713059,-67.8401256 -45.8706859,-67.8424323 -45.8705216,-67.8432369 -45.8702153,-67.84266503 -45.8702826,-67.8433174 -45.8702414,-67.8424054 -45.8705701,-67.8442401 -45.8712014,-67.8457582 -45.8705029,-67.8468794 -45.8714778,-67.8465736 -45.871657000000006,-67.8464073 -45.8713396,-67.84458226 -45.87132178,-67.8464448 -45.8713396,-67.8465736 -45.871657000000006,-67.84484620000002 -45.8726692,-67.84336962 -45.87289033,-67.8489339 -45.8731324,-67.8501302 -45.8733565,-67.8485316 -45.8736739,-67.8459191 -45.8729942,-67.84549 -45.8723406,-67.8449106 -45.8726842,-67.84711722 -45.87310355,-67.847904 -45.8759074,-67.8490949 -45.8742491,-67.8510368 -45.8734349,-67.8488266 -45.8731585,-67.84644226 -45.87649326,-67.8467667 -45.8780212,-67.846477 -45.87698300000001,-67.8477967 -45.8764751,-67.84627973 -45.87829114,-67.8467989 -45.878081,-67.8463697 -45.8770502,-67.8443956 -45.8768859,-67.84286672 -45.87711998,-67.842561 -45.8794628,-67.8420246 -45.8792462,-67.8431511 -45.8775283,-67.8462946 -45.877095,-67.8445137 -45.8768261,-67.84221298 -45.87973382,-67.8455973 -45.8806504,-67.8449214 -45.8812852,-67.8420246 -45.8795972,-67.8425181 -45.87953,-67.84518194 -45.88032275,-67.8494382 -45.880628,-67.84873010000001 -45.8802396,-67.8461766 -45.8806653,-67.8457046 -45.880515900000006,-67.8485758 -45.88086765,-67.8556287 -45.8843698,-67.853719 -45.8831001,-67.8518629 -45.8825923,-67.8500605 -45.8812329,-67.85493998 -45.88481908;-67.85493998 -45.88481908,-67.8571093 -45.8855572,-67.8559184 -45.8854378,-67.8555107 -45.884698400000005,-67.85655105 -45.88556448,-67.85825730000002 -45.8853855,-67.85964130000002 -45.8854228,-67.85908094 -45.88593849,-67.8609717 -45.8856767,-67.862817 -45.8848403,-67.8617656 -45.8854826,-67.8616369 -45.886192,-67.8618944 -45.8867671,-67.86045923 -45.88724171,-67.8618944 -45.8867671,-67.8616261 -45.8862443,-67.8603601 -45.88681940000001,-67.8594589 -45.8868119,-67.8584075 -45.8873347,-67.856369 -45.8871629,-67.8557789 -45.8865655,-67.85399644 -45.88640005,-67.8587294 -45.8888955,-67.8575063 -45.8884847,-67.8558004 -45.8866177,-67.85821176 -45.88888764,-67.8570557 -45.8887461,-67.8588152 -45.88891790000001,-67.85537987 -45.88855243,-67.8569698 -45.8905682,-67.8562617 -45.8905682,-67.8551674 -45.8886042,-67.8555107 -45.8875214,-67.8557789 -45.88838020000001,-67.85652652 -45.89043864,-67.8583002 -45.8906802,-67.8604245 -45.8905832,-67.85994544 -45.89074459,-67.86183 -45.8907101,-67.8635895 -45.8906578,-67.86328043 -45.89089136,-67.8640401 -45.8909939,-67.8672266 -45.8915539,-67.86687975 -45.89168688,-67.8672266 -45.8915539,-67.8653598 -45.8912776,-67.8647375 -45.8920692,-67.8620982 -45.8918004,-67.8619695 -45.8921737,-67.86151916 -45.89254163;-67.86151916 -45.89254163,-67.8672266 -45.8915539,-67.8653598 -45.8912776,-67.8647375 -45.8920692,-67.8620982 -45.8918004,-67.8619695 -45.8921737,-67.86687975 -45.89168688,-67.8640401 -45.8909939,-67.8672266 -45.8915539,-67.86328043 -45.89089136,-67.8652418 -45.8907101,-67.8656602 -45.890351700000004,-67.8659928 -45.88941820000001,-67.86520231 -45.88917465,-67.8674626 -45.88708080000001,-67.866658 -45.886864200000005,-67.8658855 -45.887125600000005,-67.8670657 -45.8886864,-67.86685323 -45.88712476,-67.86739830000002 -45.8868567,-67.8667223 -45.8862667,-67.8672802 -45.8848552,-67.86589689 -45.88477956,-67.8672695 -45.88491500000001,-67.867409 -45.8861099,-67.8680742 -45.8863339,-67.8686106 -45.8860875,-67.8688896 -45.8849822,-67.870338 -45.8842577,-67.8693122 -45.8842458,-67.8685462 -45.8831151,-67.869308 -45.8829582,-67.8708422 -45.883018,-67.8705847 -45.8839366,-67.86703039 -45.88312685,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.87263059 -45.88283868,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.8758872 -45.88413516,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.87630061 -45.88642699,,-67.87597578 -45.88674947,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87931365 -45.88515467,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.88934482 -45.88367092,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88477851 -45.88530377,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88725199 -45.88498287,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88986813 -45.88509226,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.89478887 -45.88442779,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89811074 -45.88424629,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.90293219 -45.8836944,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90362098 -45.8874036,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90705336 -45.88840606,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90594775 -45.88423937,,-67.90591516 -45.88446218,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90970498 -45.88326091,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91930941 -45.88137118,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.92260289 -45.87981886,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S913,S2672</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 943,S167,Linea 946,S2147,Linea 966,S2465,Linea 968,S387,Linea 970,S316,Linea 969,S39,Linea 957,S36,Linea 1027,S2695,Linea 1026,S43,Linea 1088,S2707,Linea 1098,S42,Linea 1856,S2724,Linea 1092,S163,Linea 1854,S66,Linea 1156,S63,Linea 1154,S65,Linea 1153,S47,Linea 1150,S832,Linea 1286,S2286,Linea 1285,S913;S913,Linea 1284,S910,Linea 1147,S2672;S2672,Linea 1148,S806,Linea 1149,S832,Linea 1150,S47,Linea 1153,S65,Linea 1154,S63,Linea 1156,S66,Linea 1854,S163,Linea 1092,S2724,Linea 1856,S42,Linea 1098,S2707,Linea 1088,S43,Linea 1026,S2695,Linea 1027,S36,Linea 957,S39,Linea 969,S316,Linea 970,S387,Linea 968,S2465,Linea 966,S2147,Linea 946,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.93512028 -45.8793768,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.94258106 -45.87928487,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.9459034 -45.88040255,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.94607409 -45.88311995,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94628753 -45.88560005,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94746568 -45.88694764,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94972726 -45.88693813,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.95178221 -45.88666191,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95650174 -45.8868325,-67.9573059 -45.8868268,-67.956748 -45.8864908,-67.9563725 -45.8857215,-67.9556644 -45.8849971,-67.9546167 -45.88506443,-67.960428 -45.8852436,-67.9597843 -45.8853855,-67.9578102 -45.8852959,-67.9558897 -45.8849448,-67.95958113 -45.88533853,-67.9643977 -45.8867746,-67.9641402 -45.8867895,-67.9629064 -45.8855274,-67.9625845 -45.8842055,-67.9620588 -45.8840412,-67.9608893 -45.8848926,-67.96291589 -45.88644251,-67.9642582 -45.8866849,-67.9660714 -45.8869613,-67.9663503 -45.8865505,-67.9662859 -45.88549,-67.9665112 -45.8837798,-67.9671657 -45.8837275,-67.9670477 -45.8843548,-67.96615149 -45.88487087,-67.9689896 -45.8855572,-67.9684317 -45.8850942,-67.9680133 -45.8843399,-67.9672301 -45.8837872,-67.9670477 -45.8843548,-67.96828667 -45.88589528,-67.9702342 -45.8858709,-67.9697192 -45.8860352,-67.9691613 -45.8857589,-67.96952973 -45.8860392,-67.9752874 -45.8886341,-67.9738069 -45.8884922,-67.9698479 -45.8860651,-67.9702234 -45.8859307,-67.97417558 -45.88870119,-67.9755127 -45.8898364,-67.9753196 -45.8896348,-67.9751372 -45.889239,-67.9736996 -45.8884922,-67.9752123 -45.8886192,-67.97500117 -45.89011334,-67.9778516 -45.8901202,-67.977283 -45.8901052,-67.9767358 -45.889926,-67.97751751 -45.89013616;-67.97751751 -45.89013616,-67.9743755 -45.8910088,-67.9777122 -45.890165,-67.97300504 -45.89135,-67.9741609 -45.8913075,-67.9732168 -45.8912627,-67.9721975 -45.8896198,-67.9726803 -45.8893958,-67.97210028 -45.88946166;-67.97210028 -45.88946166,-67.9726589 -45.8893435,-67.9721224 -45.889478,-67.9718435 -45.8887909,-67.9712427 -45.8890149,-67.96941864 -45.88923867,-67.9752123 -45.8886192,-67.9738176 -45.8885743,-67.972852 -45.8880068,-67.9716182 -45.8889776,-67.9710495 -45.8890672,-67.97417558 -45.88870119,-67.9752874 -45.8886341,-67.9738069 -45.8884922,-67.9698479 -45.8860651,-67.9702234 -45.8859307,-67.96952973 -45.8860392,-67.9702342 -45.8858709,-67.9697192 -45.8860352,-67.9691613 -45.8857589,-67.96828667 -45.88589528,-67.9689896 -45.8855572,-67.9684317 -45.8850942,-67.9680133 -45.8843399,-67.9672301 -45.8837872,-67.9670477 -45.8843548,-67.96615149 -45.88487087,-67.9642582 -45.8866849,-67.9660714 -45.8869613,-67.9663503 -45.8865505,-67.9662859 -45.88549,-67.9665112 -45.8837798,-67.9671657 -45.8837275,-67.9670477 -45.8843548,-67.96291589 -45.88644251,-67.9643977 -45.8867746,-67.9641402 -45.8867895,-67.9629064 -45.8855274,-67.9625845 -45.8842055,-67.9620588 -45.8840412,-67.9608893 -45.8848926,-67.95958113 -45.88533853,-67.960428 -45.8852436,-67.9597843 -45.8853855,-67.9578102 -45.8852959,-67.9558897 -45.8849448,-67.9546167 -45.88506443,-67.9573059 -45.8868268,-67.956748 -45.8864908,-67.9563725 -45.8857215,-67.9556644 -45.8849971,-67.95650174 -45.8868325,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95178221 -45.88666191,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.94972726 -45.88693813,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94746568 -45.88694764,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94628753 -45.88560005,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94607409 -45.88311995,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.9459034 -45.88040255,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.94258106 -45.87928487,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2281,S821,S2667</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 1211,S172,Linea 768,S2417,Linea 759,S402,Linea 760,S2468,Linea 763,S395,Linea 764,S338,Linea 773,S2407,Linea 850,S2056,Linea 849,S2716,Linea 853,S2504,Linea 854,S997,Linea 859,S330,Linea 1358,S983,Linea 1357,S363,Linea 843,S119,Linea 845,S998,Linea 846,S2281;S2281,Linea 846,S998,Linea 845,S119,Linea 842,S978,Linea 841,S957,Linea 840,S287,Linea 805,S198,Linea 1828,S2095,Linea 797,S2189,Linea 1292,S1,Linea 1293,S2116,Linea 1295,S59,Linea 1017,S315,Linea 1008,S962,Linea 1212,S546,Linea 1753,S2465,Linea 968,S387,Linea 970,S316,Linea 969,S39,Linea 957,S36,Linea 1027,S2695,Linea 1026,S43,Linea 1088,S2707,Linea 1098,S42,Linea 1853,S2723,Linea 1118,S841,Linea 1113,S2194,Linea 1110,S803,Linea 1138,S815,Linea 1129,S921,Linea 1273,S2055,Linea 1328,S778,Linea 1127,S758,Linea 1126,S805,Linea 1125,S822,Linea 1123,S821;S821,Linea 1123,S822,Linea 1125,S805,Linea 1305,S759,Linea 1297,S794,Linea 1073,S760,Linea 1221,S791,Linea 1076,S793,Linea 1078,S2667;S2667,Linea 1077,S944,Linea 1085,S115,Linea 1733,S927,Linea 1222,S33,Linea 1724,S2094,Linea 950,S31,Linea 949,S2146,Linea 964,S2147,Linea 946,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.95709848 -45.86769228,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95610675 -45.87170205,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95650202 -45.87386891,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95720623 -45.87256309,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.96214261 -45.87344787,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96572509 -45.87368099,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.9672039 -45.87497495,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.96992116 -45.87035971,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.9688479 -45.86924263,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.96898996 -45.86789944,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.97170451 -45.86764851,-67.9732597 -45.8674138,-67.9739678 -45.8674661,-67.9742575 -45.8672345,-67.9737854 -45.8666444,-67.9743755 -45.8664576,-67.9735065 -45.8661812,-67.9728949 -45.8655461,-67.97157481 -45.86531756,-67.9780984 -45.8649709,-67.9776263 -45.8648289,-67.9768217 -45.8650007,-67.9760063 -45.86583,-67.9748476 -45.8665622,-67.9738605 -45.866353,-67.9728091 -45.865591,-67.97746123 -45.86525028,-67.9770362 -45.8661886,-67.9775405 -45.8660019,-67.9780447 -45.8660616,-67.9790211 -45.8666444,-67.9791498 -45.8664875,-67.9789352 -45.8662036,-67.978828 -45.8655685,-67.9785597 -45.8651502,-67.97572674 -45.86647737,-67.9788494 -45.8686091,-67.9777122 -45.8662932,-67.9771221 -45.8662409,-67.97752558 -45.86902372,-67.9785383 -45.8689528,-67.9771435 -45.870671,-67.9765534 -45.8706934,-67.9753625 -45.8703498,-67.9735183 -45.87030526,-67.9754591 -45.8702153,-67.9761243 -45.8702377,-67.97676800000002 -45.8696774,-67.97574817 -45.86928588;-67.97574817 -45.86928588,-67.9754591 -45.8702153,-67.9761243 -45.8702377,-67.97676800000002 -45.8696774,-67.9735183 -45.87030526,-67.9785383 -45.8689528,-67.9771435 -45.870671,-67.9765534 -45.8706934,-67.9753625 -45.8703498,-67.97752558 -45.86902372,-67.9788065 -45.8706037,-67.9790211 -45.8702228,-67.978828 -45.868893,-67.9773795 -45.87092197,-67.9761887 -45.8726132,-67.9763067 -45.8720604,-67.9778838 -45.8710893,-67.97564136 -45.8729339,-67.9800725 -45.873800900000006,-67.9795146 -45.8726879,-67.9796112 -45.8723816,-67.9792464 -45.872165,-67.9787529 -45.8722173,-67.9783773 -45.8729942,-67.9778409 -45.873195900000006,-67.9771113 -45.8730315,-67.97905112 -45.87422359,-67.9801047 -45.8737412,-67.9795146 -45.8726879,-67.9791605 -45.8735694,-67.9792249 -45.8748467,-67.9793966 -45.8748467,-67.9797721 -45.8758476,-67.9800725 -45.876012,-67.97932522 -45.87631183,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9756951 -45.8784321,-67.9790318 -45.877588,-67.9792678 -45.8765199,-67.9792786 -45.8747272,-67.9798257 -45.8760045,-67.9801154 -45.8760643,-67.9757414 -45.87911165,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9755771 -45.8785142,-67.9742253 -45.8787756,-67.974236 -45.878222900000004,-67.97210325 -45.8786421,-67.9739785 -45.8781632,-67.9745579 -45.8782677,-67.9740644 -45.8788802,-67.9710174 -45.8792537,-67.96993071 -45.87922522,-67.9708028 -45.8792686,-67.9686999 -45.8795524,-67.9682064 -45.8792238,-67.96661757 -45.87943084,-67.967391 -45.8796271,-67.9660606 -45.879657,-67.9619408 -45.879179,-67.959795 -45.8789997,-67.9602242 -45.8794852,-67.95937836 -45.87978501,-67.9538298 -45.8776104,-67.9575419 -45.8788205,-67.9596341 -45.8789624,-67.9602242 -45.8794852,-67.95259842 -45.87763583,-67.9534543 -45.8773565,-67.9526925 -45.87711,-67.9530144 -45.8775731,-67.9524779 -45.878813,-67.9512334 -45.8789325,-67.94944114 -45.87896309,-67.9512119 -45.8788877,-67.952435 -45.8787607,-67.9518127 -45.8800454,-67.9474354 -45.8786785,-67.9441524 -45.8779764,-67.9427791 -45.8776328,-67.940805 -45.8776926,-67.93921257 -45.87804782,,-67.93938002 -45.87863178,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.94258106 -45.87928487,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.9459034 -45.88040255,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.94607409 -45.88311995,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94628753 -45.88560005,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94746568 -45.88694764,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94972726 -45.88693813,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.95178221 -45.88666191,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95650174 -45.8868325,-67.9563618 -45.8869613,-67.9570055 -45.8870583,-67.9568553 -45.8866028,-67.957381 -45.8868268,-67.95495587 -45.8875866,-67.9576063 -45.8896124,-67.9577136 -45.888888,-67.9572308 -45.8876483,-67.9565012 -45.8869986,-67.95602222 -45.88970885,-67.958647 -45.8921289,-67.9580784 -45.8917854,-67.958411 -45.8907699,-67.9588509 -45.8902397,-67.9578209 -45.8896422,-67.95792371 -45.89252328,-67.958411 -45.8946678,-67.9585934 -45.8938464,-67.9590118 -45.8934581,-67.9594839 -45.8932714,-67.9597199 -45.892913,-67.9595053 -45.8926741,-67.95753705 -45.89518861,-67.9602778 -45.8973559,-67.959677 -45.8974604,-67.9590976 -45.897326,-67.9587114 -45.8968257,-67.95928 -45.896094,-67.9591405 -45.8953548,-67.95956637 -45.89743693,-67.9642367 -45.8983564,-67.9643333 -45.8976993,-67.9650199 -45.8970721,-67.9652989 -45.8964076,-67.9613721 -45.8972065,-67.96354703 -45.89869944,-67.9693437 -45.9027914,-67.9659963 -45.8987297,-67.965138 -45.8986401,-67.96793825 -45.90348141,-67.9685926 -45.9034484,-67.9653096 -45.9044488,-67.9600525 -45.9049564,-67.9584861 -45.9041651,-67.9576707 -45.9040606,-67.95594313 -45.90408308,-67.9577565 -45.9038664,-67.9585826 -45.9036126,-67.9585826 -45.9031348,-67.9576492 -45.90253,-67.9561365 -45.9021343,-67.9558575 -45.9012832,-67.95417314 -45.90131869,-67.9519415 -45.9014251,-67.9524672 -45.9015595,-67.9527569 -45.9020821,-67.9535294 -45.9024554,-67.9558897 -45.9024703,-67.956233 -45.9022389,-67.9559326 -45.9014549,-67.9556215 -45.9012309,-67.95037233 -45.90142031,-67.9506969 -45.9010816,-67.9497743 -45.9008576,-67.9498494 -45.8992001,-67.94838203 -45.89904174,-67.9498494 -45.8992001,-67.949506 -45.8996854,-67.9466414 -45.8986103,-67.9437232 -45.8985057,-67.9415774 -45.8979681,-67.9412556 -45.8976545,-67.9422104 -45.8972588,-67.94188659 -45.8972671;-67.94188659 -45.8972671,-67.9498494 -45.8992001,-67.949506 -45.8996854,-67.9466414 -45.8986103,-67.9437232 -45.8985057,-67.9415774 -45.8979681,-67.9412556 -45.8976545,-67.9422104 -45.8972588,-67.94838203 -45.89904174,-67.9506969 -45.9010816,-67.9497743 -45.9008576,-67.9498494 -45.8992001,-67.95037233 -45.90142031,-67.9506755 -45.9009696,-67.9479718 -45.9005665,-67.9449892 -45.9007008,-67.945075 -45.9032692,-67.9445601 -45.9035379,-67.9423714 -45.902642,-67.94048121 -45.90255833,-67.9313636 -45.9007755,-67.9299688 -45.9015296,-67.9309559 -45.9024778,-67.931664 -45.9022687,-67.9323721 -45.9010144,-67.9335737 -45.900447,-67.9371786 -45.9012832,-67.9379082 -45.9021045,-67.9396677 -45.9026719,-67.941041 -45.9025674,-67.93028301 -45.90068278,-67.9312027 -45.9008128,-67.9299688 -45.9015296,-67.9282737 -45.9003723,-67.9263103 -45.8994316,-67.9232204 -45.8984983,-67.9221046 -45.8981623,-67.92046749 -45.89809236,-67.9221904 -45.8981548,-67.9232204 -45.8984983,-67.9230487 -45.8980652,-67.9224908 -45.89755,-67.9236388 -45.8964449,-67.92261639 -45.89612501,-67.9235637 -45.895743,-67.9241538 -45.8953249,-67.9267287 -45.8949142,-67.9271579 -45.8944961,-67.9267287 -45.8942048,-67.9257309 -45.8936448,-67.9256558 -45.8930698,-67.9268682 -45.8923604,-67.9289711 -45.8934208,-67.9293036 -45.893361,-67.92819602 -45.89300211,-67.929368 -45.8925994,-67.9296148 -45.8919423,-67.9287994 -45.8913897,-67.9285097 -45.8910014,-67.9286277 -45.8901127,-67.92758265 -45.88993498;-67.92758265 -45.88993498,-67.9286492 -45.8892166,-67.9288638 -45.8878724,-67.9292393 -45.8876931,-67.92838162 -45.88770662,-67.929883 -45.8876782,-67.9306018 -45.8878724,-67.9317605 -45.8883727,-67.9326189 -45.888201,-67.93184093 -45.88869985,,-67.93195275 -45.88880085,-67.9325545 -45.8880964,-67.9324257 -45.8875363,-67.933048 -45.8868642,-67.9335093 -45.8836304,-67.93297197 -45.88384007,,-67.93288041 -45.88347512,-67.9369962 -45.8822636,-67.9367441 -45.8819686,-67.9343677 -45.8832719,-67.93623372 -45.88237227,-67.9369104 -45.8822487,-67.9367441 -45.8819686,-67.9385787 -45.881274,-67.938568 -45.8809641,-67.9379243 -45.8811844,-67.93588984 -45.88149225,-67.9380155 -45.8812404,-67.938627 -45.880852,-67.9384768 -45.8805682,-67.9371035 -45.8800827,-67.9358482 -45.8797093,-67.9335737 -45.8797616,-67.934432 -45.8794255,-67.9350007 -45.8792835,-67.9357088 -45.8792686,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2291,S795,S2226</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 1211,S172,Linea 768,S2417,Linea 759,S402,Linea 760,S2468,Linea 763,S395,Linea 764,S338,Linea 773,S2407,Linea 850,S2056,Linea 849,S2716,Linea 853,S2504,Linea 854,S997,Linea 1836,S353,Linea 1361,S2006,Linea 1363,S2009,Linea 1365,S354,Linea 1421,S2255,Linea 568,S882,Linea 622,S523,Linea 221,S2458,Linea 220,S2054,Linea 226,S2291;S2291,Linea 226,S2054,Linea 220,S2458,Linea 214,S788,Linea 216,S2676,Linea 217,S2396,Linea 240,S2395,Linea 242,S2294,Linea 572,S874,Linea 571,S2485,Linea 569,S870,Linea 563,S527,Linea 560,S795;S795,Linea 560,S527,Linea 563,S870,Linea 569,S2485,Linea 571,S874,Linea 572,S2294,Linea 242,S2395,Linea 240,S2396,Linea 217,S2676,Linea 216,S788,Linea 215,S523,Linea 622,S882,Linea 568,S2255,Linea 1421,S354,Linea 1365,S2009,Linea 1363,S2006,Linea 1361,S353,Linea 1836,S997,Linea 854,S2504,Linea 853,S2716,Linea 849,S2056,Linea 850,S2407,Linea 773,S338,Linea 764,S395,Linea 763,S2468,Linea 760,S402,Linea 759,S2417,Linea 768,S172,Linea 1211,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base,Linea 14,S278,Linea 15,S2250,Linea 16,S977,Linea 17,S245,Linea 1340,S186,Linea 901,S539,Linea 1394,S971,Linea 879,S2226;S2226,Linea 879,S971,Linea 1394,S539,Linea 901,S186,Linea 1340,S245,Linea 17,S977,Linea 16,S2250,Linea 15,S278,Linea 14,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.95709848 -45.86769228,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95610675 -45.87170205,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95650202 -45.87386891,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95720623 -45.87256309,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.96214261 -45.87344787,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96572509 -45.87368099,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.9672039 -45.87497495,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.96992116 -45.87035971,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.9688479 -45.86924263,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.96898996 -45.86789944,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.97170451 -45.86764851,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97781889 -45.86412305,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97692655 -45.86298292,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.98026531 -45.86300386,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98206338 -45.86352335,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86821501 -45.85959306,-67.8694689 -45.8577534,-67.8702736 -45.8579402,-67.8698766 -45.8584483,-67.8689003 -45.8587696,-67.86752908 -45.85773082,-67.8694689 -45.8577534,-67.8703272 -45.8578879,-67.8705525 -45.8574694,-67.8710139 -45.8575441,-67.87029294 -45.85782787,-67.8721619 -45.8576637,-67.8734279 -45.8573798,-67.8740823 -45.8579103,-67.87227986 -45.85836679;-67.87227986 -45.85836679,-67.8721619 -45.8576637,-67.8734279 -45.8573798,-67.8740823 -45.8579103,-67.87029294 -45.85782787,-67.8694689 -45.8577534,-67.8703272 -45.8578879,-67.8705525 -45.8574694,-67.8710139 -45.8575441,-67.86752908 -45.85773082,-67.8666365 -45.8577982,-67.8680527 -45.857716,-67.86509618 -45.85797591,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86269634 -45.8576934,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86119926 -45.8582863,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.85800456 -45.85865306,-67.8602314 -45.85924030000001,-67.8568411 -45.8591506,-67.8585362 -45.8586425,-67.85979998 -45.85959279,-67.8623772 -45.8601145,-67.8619158 -45.8597185,-67.86181930000001 -45.8591954,-67.8608966 -45.8592179,-67.8613425 -45.86055445,-67.8632784 -45.8615042,-67.863096 -45.86128,-67.8622055 -45.8610559,-67.861948 -45.8605105,-67.86252974 -45.86187269,-67.8624094 -45.863118,-67.8626776 -45.8630433,-67.8629673 -45.8618852,-67.86065193 -45.86323966,-67.8602636 -45.865718,-67.861079 -45.8639473,-67.8626132 -45.863499,-67.8626776 -45.8631255,-67.8624094 -45.863118,-67.85866168 -45.86600634,-67.8526247 -45.8697596,-67.8538263 -45.8702526,-67.8549314 -45.8699538,-67.8559613 -45.868639,-67.8556073 -45.8677276,-67.8560793 -45.8663007,-67.8592122 -45.8657703,-67.85135619 -45.86956645;-67.85135619 -45.86956645,-67.8526247 -45.8697596,-67.8538263 -45.8702526,-67.8549314 -45.8699538,-67.8559613 -45.868639,-67.8556073 -45.8677276,-67.8560793 -45.8663007,-67.8592122 -45.8657703,-67.85866168 -45.86600634,-67.8602636 -45.865718,-67.861079 -45.8639473,-67.8626132 -45.863499,-67.8626776 -45.8631255,-67.8624094 -45.863118,-67.86065193 -45.86323966,-67.8624094 -45.863118,-67.8626776 -45.8630433,-67.8629673 -45.8618852,-67.86252974 -45.86187269,-67.8632784 -45.8615042,-67.863096 -45.86128,-67.8622055 -45.8610559,-67.861948 -45.8605105,-67.8613425 -45.86055445,-67.8623772 -45.8601145,-67.8619158 -45.8597185,-67.86181930000001 -45.8591954,-67.8608966 -45.8592179,-67.85979998 -45.85959279,-67.8602314 -45.85924030000001,-67.8568411 -45.8591506,-67.8585362 -45.8586425,-67.85800456 -45.85865306,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.86119926 -45.8582863,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86269634 -45.8576934,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86509618 -45.85797591,-67.8666258 -45.8579551,-67.8677523 -45.8588443,-67.8689218 -45.8588293,-67.8688896 -45.8591954,-67.86821501 -45.85959306,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86513556 -45.86046435,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.98715669 -45.86146692,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98206338 -45.86352335,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98026531 -45.86300386,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.97692655 -45.86298292,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97781889 -45.86412305,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97170451 -45.86764851,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.96898996 -45.86789944,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.9688479 -45.86924263,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.96992116 -45.87035971,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.9672039 -45.87497495,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.96572509 -45.87368099,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96214261 -45.87344787,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.95720623 -45.87256309,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95650202 -45.87386891,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95610675 -45.87170205,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95709848 -45.86769228,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472,-67.9427254 -45.8635364,-67.9464859 -45.8623447,-67.9469097 -45.862016,-67.94569946 -45.86221924,-67.9469097 -45.8620944,-67.9481596 -45.8620048,-67.94727301 -45.86217176,-67.9483044 -45.861911400000004,-67.9473495 -45.8614183,-67.94655091 -45.86160389,-67.9479718 -45.8615453,-67.9493934 -45.8606973,-67.9489589 -45.8606599,-67.94780419 -45.86081977,-67.9549134 -45.858239,-67.9527032 -45.8590684,-67.9493666 -45.8607794,-67.9491198 -45.8606898,-67.9539623 -45.85805836,-67.9549778 -45.85820170000001,-67.9571986 -45.85672970000001,-67.9579175 -45.8564981,-67.9585719 -45.8567521,-67.95773843 -45.85672753,-67.9637325 -45.8577459,-67.9643655 -45.8579476,-67.9642689 -45.8583885,-67.9623485 -45.8582017,-67.9617047 -45.8578879,-67.960825 -45.8571257,-67.9587221 -45.8568418,-67.96207279 -45.85789473,-67.9626489 -45.8575591,-67.9621768 -45.8566998,-67.96103638 -45.85651367;-67.96103638 -45.85651367,-67.9626489 -45.8575591,-67.9621768 -45.8566998,-67.96207279 -45.85789473,-67.9637325 -45.8577459,-67.9643655 -45.8579476,-67.9642689 -45.8583885,-67.9623485 -45.8582017,-67.9617047 -45.8578879,-67.960825 -45.8571257,-67.9587221 -45.8568418,-67.95773843 -45.85672753,-67.9549778 -45.85820170000001,-67.9571986 -45.85672970000001,-67.9579175 -45.8564981,-67.9585719 -45.8567521,-67.9539623 -45.85805836,-67.9549134 -45.858239,-67.9527032 -45.8590684,-67.9493666 -45.8607794,-67.9491198 -45.8606898,-67.94780419 -45.86081977,-67.9479718 -45.8615453,-67.9493934 -45.8606973,-67.9489589 -45.8606599,-67.94655091 -45.86160389,-67.9483044 -45.861911400000004,-67.9473495 -45.8614183,-67.94727301 -45.86217176,-67.9469097 -45.8620944,-67.9481596 -45.8620048,-67.94569946 -45.86221924,-67.9427254 -45.8635364,-67.9464859 -45.8623447,-67.9469097 -45.862016,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2678,S2595,S2120,S2528</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 944,S56,Linea 940,S78,Linea 932,S645,Linea 931,S2111,Linea 930,S2110,Linea 736,S2167,Linea 1617,S2168,Linea 584,S849,Linea 582,S938,Linea 581,S2443,Linea 578,S2132,Linea 579,S949,Linea 591,S2129,Linea 592,S2259,Linea 594,S17,Linea 596,S2293,Linea 597,S4,Linea 598,S2324,Linea 600,S2196,Linea 599,S2689,Linea 605,S581,Linea 609,S2682,Linea 1623,S2678;S2678,Linea 1623,S2682,Linea 609,S581,Linea 605,S2689,Linea 599,S2196,Linea 600,S2324,Linea 598,S4,Linea 597,S2293,Linea 596,S17,Linea 735,S295,Linea 734,S3,Linea 613,Q16,Linea 1626,S2240,Linea 471,S2,Linea 1886,S13,Linea 1887,S2523,Linea 469,S26,Linea 467,S2223,Linea 466,S2621,Linea 457,S2642,Linea 450,S2645,Linea 448,S2652,Linea 447,S2638,Linea 446,S2620,Linea 441,S2595;S2595,Linea 442,S2594,Linea 438,S2120;S2120,Linea 434,S2668,Linea 435,S2105,Linea 432,S2632,Linea 433,S2040,Linea 418,S2007,Linea 378,S1028,Linea 379,S544,Linea 380,S1037,Linea 381,S2300,Linea 412,S2151,Linea 531,S773,Linea 546,S437,Linea 549,S529,Linea 551,S525,Linea 552,S2273,Linea 566,S522,Linea 567,S882,Linea 568,S2255,Linea 1373,S323,Linea 1372,S325,Linea 1371,S2091,Linea 1370,S2081,Linea 1426,S2087,Linea 1427,S2406,Linea 823,S2441,Linea 821,S2242,Linea 815,S2177,Linea 820,S194,Linea 1206,S184,Linea 1804,S2080,Linea 1490,S138,Linea 1208,S2101,Linea 1462,S183,Linea 1829,S2135,Linea 1814,S2541,Linea 1459,S206,Linea 826,S715,Linea 827,S2356,Linea 1456,S151,Linea 1489,S2304,Linea 1461,S984,Linea 1447,S2093,Linea 1440,S2089,Linea 1438,S257,Linea 1437,S2074,Linea 1442,S2092,Linea 1446,S374,Linea 1453,S2616,Linea 1452,S2528;S2528,Linea 1452,S2616,Linea 1453,S374,Linea 1446,S2092,Linea 1442,S2074,Linea 1437,S257,Linea 1438,S2089,Linea 1440,S2093,Linea 1447,S984,Linea 1461,S2304,Linea 1489,S151,Linea 1456,S2356,Linea 827,S715,Linea 826,S206,Linea 1459,S2541,Linea 1794,S2135,Linea 1829,S183,Linea 1462,S2101,Linea 1208,S138,Linea 1205,S2584,Linea 1192,S2586,Linea 1187,S203,Linea 1190,S224,Linea 1189,S223,Linea 1183,S8,Linea 1180,S2139,Linea 1181,S205,Linea 807,S2243,Linea 1177,S18,Linea 1826,S189,Linea 795,S2479,Linea 1825,S2095,Linea 797,S2189,Linea 1292,S1,Linea 1293,S2116,Linea 1295,S59,Linea 1017,S315,Linea 746,S2572,Linea 747,S381,Linea 748,S377,Linea 740,S980,Linea 741,S2421,Linea 1842,S370,Linea 752,S2408,Linea 754,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92260289 -45.87981886,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.91930941 -45.88137118,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91747464 -45.88372353,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91541483 -45.88231338,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.90970498 -45.88326091,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90591516 -45.88446218,,-67.90594775 -45.88423937,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90705336 -45.88840606,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90362098 -45.8874036,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90293219 -45.8836944,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.89811074 -45.88424629,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89478887 -45.88442779,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.88986813 -45.88509226,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88725199 -45.88498287,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88477851 -45.88530377,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88304639 -45.88588109,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88085052 -45.88709026,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.87661058 -45.88889945,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87484305 -45.89067788,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87813787 -45.88993585,-67.8789854 -45.8901127,-67.8777838 -45.8901052,-67.8751981 -45.8927935,-67.8739536 -45.8942571,-67.87230402 -45.89457162,-67.8732026 -45.8945633,-67.872076 -45.8946753,-67.8709388 -45.89427200000001,-67.8709924 -45.8932789,-67.86962065 -45.89326713,,-67.8703009 -45.89288745;-67.8703009 -45.89288745,,-67.86962065 -45.89326713,-67.8732026 -45.8945633,-67.872076 -45.8946753,-67.8709388 -45.89427200000001,-67.8709924 -45.8932789,-67.87230402 -45.89457162,-67.8789854 -45.8901127,-67.8777838 -45.8901052,-67.8751981 -45.8927935,-67.8739536 -45.8942571,-67.87813787 -45.88993585,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87484305 -45.89067788,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87661058 -45.88889945,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.88085052 -45.88709026,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88304639 -45.88588109,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88477851 -45.88530377,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88934482 -45.88367092,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.87931365 -45.88515467,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87597578 -45.88674947,,-67.87630061 -45.88642699,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.8758872 -45.88413516,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.87263059 -45.88283868,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.86703039 -45.88312685,-67.8685462 -45.8831151,-67.869308 -45.8829582,-67.8708422 -45.883018,-67.8705847 -45.8839366,-67.8693122 -45.8842458,-67.8672695 -45.88491500000001,-67.867409 -45.8861099,-67.8680742 -45.8863339,-67.8686106 -45.8860875,-67.8688896 -45.8849822,-67.870338 -45.8842577,-67.86589689 -45.88477956,-67.86739830000002 -45.8868567,-67.8667223 -45.8862667,-67.8672802 -45.8848552,-67.86685323 -45.88712476,-67.8674626 -45.88708080000001,-67.866658 -45.886864200000005,-67.8658855 -45.887125600000005,-67.8670657 -45.8886864,-67.86520231 -45.88917465,-67.8652418 -45.8907101,-67.8656602 -45.890351700000004,-67.8659928 -45.88941820000001,-67.86328043 -45.89089136,-67.86183 -45.8907101,-67.8635895 -45.8906578,-67.85994544 -45.89074459,-67.8583002 -45.8906802,-67.8604245 -45.8905832,-67.85652652 -45.89043864,-67.8569698 -45.8905682,-67.8562617 -45.8905682,-67.8551674 -45.8886042,-67.8555107 -45.8875214,-67.8557789 -45.88838020000001,-67.85537987 -45.88855243,-67.8570557 -45.8887461,-67.8588152 -45.88891790000001,-67.85821176 -45.88888764;-67.85821176 -45.88888764,-67.8587294 -45.8888955,-67.8575063 -45.8884847,-67.8558004 -45.8866177,-67.85399644 -45.88640005,-67.8548133 -45.885968,-67.8544056 -45.8857215,-67.8542554 -45.8852884,-67.85284989 -45.88522411;-67.85284989 -45.88522411,-67.8535903 -45.8848851,-67.8530109 -45.8845938,-67.8524315 -45.8844893,-67.85093028 -45.88433862,-67.8516591 -45.8844445,-67.8505969 -45.8845789,-67.84921346 -45.88477072,-67.84983520000002 -45.8848851,-67.8485048 -45.8854826,-67.849406 -45.8856842,-67.84894709 -45.88576073,-67.8493631 -45.8856319,-67.8480864 -45.8853183,-67.8494918 -45.8833541,-67.849642 -45.8827043,-67.8493738 -45.8815317,-67.8484726 -45.8806578,-67.8487837 -45.8803516,-67.8495455 -45.8807549,-67.8485758 -45.88086765,-67.8494382 -45.880628,-67.84873010000001 -45.8802396,-67.8461766 -45.8806653,-67.8457046 -45.880515900000006,-67.84518194 -45.88032275,-67.8455973 -45.8806504,-67.8449214 -45.8812852,-67.8420246 -45.8795972,-67.8425181 -45.87953,-67.84221298 -45.87973382,-67.842561 -45.8794628,-67.8420246 -45.8792462,-67.8431511 -45.8775283,-67.8462946 -45.877095,-67.8445137 -45.8768261,-67.84286672 -45.87711998,-67.8467989 -45.878081,-67.8463697 -45.8770502,-67.8443956 -45.8768859,-67.84627973 -45.87829114,-67.8467667 -45.8780212,-67.846477 -45.87698300000001,-67.8477967 -45.8764751,-67.84644226 -45.87649326,-67.847904 -45.8759074,-67.8490949 -45.8742491,-67.8510368 -45.8734349,-67.8488266 -45.8731585,-67.84711722 -45.87310355,-67.84873010000001 -45.87312860000001,-67.8543305 -45.8741595,-67.857635 -45.8744807,-67.857019 -45.87438052,-67.857635 -45.8744807,-67.8541696 -45.874152,-67.8588581 -45.8727103,-67.8593409 -45.8716048,-67.85882935 -45.87179542,-67.8593409 -45.8716048,-67.85971640000001 -45.8705365,-67.8614008 -45.870529,-67.861948 -45.8698268,-67.8630531 -45.8694832,-67.86235431 -45.86962035,-67.8639972 -45.8691171,-67.8657031 -45.8680713,-67.86498939 -45.86808329,-67.8668189 -45.8667639,-67.8664005 -45.866988,-67.8663254 -45.8676305,-67.86635342 -45.86702056,-67.8682029 -45.8666817,-67.8692436 -45.8661961,-67.8702307 -45.8647318,-67.8701663 -45.8642088,-67.86895092 -45.86422008,-67.8701234 -45.8635663,-67.8698123 -45.86132490000001,-67.8679776 -45.8603237,-67.8670549 -45.8588966,-67.8654027 -45.859457,-67.8654563 -45.8601518,-67.8656709 -45.8602639,-67.86513556 -45.86046435,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.98715669 -45.86146692,-67.9928935 -45.8605404,-67.9914236 -45.8609588,-67.98931 -45.8614369,-67.9889023 -45.8613323,-67.99220337 -45.86057361,-67.9911339 -45.8618479,-67.9904687 -45.8619002,-67.9910696 -45.8615117,-67.9918849 -45.861295,-67.9930007 -45.8606151,-67.99023202 -45.86204363,-67.9886341 -45.8629088,-67.9906297 -45.8618479,-67.9911232 -45.8617956,-67.98677491 -45.86342245,-67.9859948 -45.8647094,-67.9874003 -45.863783,-67.98422803 -45.86529103,-67.9920459 -45.8642163,-67.9910159 -45.864672,-67.9903078 -45.8650157,-67.9890847 -45.8656208,-67.9855978 -45.8654415,-67.9855227 -45.865322,-67.99158422 -45.86437969,-67.9929578 -45.8671225,-67.9928398 -45.8662783,-67.9924321 -45.8655835,-67.9919815 -45.8652548,-67.992121 -45.8648663,-67.9910159 -45.864672,-67.9918528 -45.8642238,-67.99174523 -45.8677107,-67.9914558 -45.8692516,-67.9914558 -45.8690499,-67.9925716 -45.8679293,-67.99024475 -45.86974641,-67.9910052 -45.8707457,-67.9910266 -45.8705664,-67.99163820000001 -45.8700883,-67.9915524 -45.8697073,-67.9900866 -45.8710699,-67.9930758 -45.87218,-67.992754 -45.8724788,-67.9914343 -45.8718886,-67.9915845 -45.8711565,-67.9912734 -45.8710071,-67.99156523 -45.87210921,-67.9929739 -45.8721949,-67.9927379 -45.872546,-67.993784 -45.8729494,-67.9957634 -45.8725273,-67.9964232 -45.8722024,-67.99553288 -45.87226112,-67.9971957 -45.8714031,-67.9989982 -45.8712611,-67.9998028 -45.8710071,-67.99921407 -45.87121751,,-67.99960904 -45.87080973,-68.0035579 -45.8703423,-68.0025816 -45.8706859,-68.0014014 -45.8705066,-68.00284674 -45.87040916,-68.0041587 -45.8700285,-68.0051243 -45.8686091,-68.00449906 -45.86852742,-68.0070448 -45.8686241,-68.0060685 -45.868385,-68.00620422 -45.86892139,-68.0070448 -45.8686241,-68.0067122 -45.8683028,-68.0066907 -45.8679293,-68.0047274 -45.8681086,-68.0029786 -45.8686316,-68.0021524 -45.8685344,-68.0022383 -45.8682132,-68.00126819 -45.86832361,,-68.00080119 -45.86808139,-67.9980218 -45.8692665,-68.0000389 -45.8684074,-68.0017662 -45.8680339,-67.99627751 -45.86960923,-67.9969811 -45.8694981,-67.9958439 -45.8695654,-67.99512510000001 -45.8693413,-67.99505 -45.8690499,-67.99439359 -45.86914058,-67.99505 -45.8690499,-67.9947495 -45.8687287,-67.9952323 -45.8676529,-67.99437986 -45.8677879,-67.9954576 -45.8672868,-67.9960907 -45.8666518,-67.9968202 -45.8663306,-67.99554948 -45.86642106,-67.9970026 -45.8663754,-68.0035257 -45.8657777,-68.003397 -45.8661662,-68.00288598 -45.86648631,-68.0048561 -45.8661961,-68.0066156 -45.864941,-68.00601835 -45.8652672,-68.0066907 -45.8648887,-68.0076134 -45.8646197,-68.0077314 -45.8640818,-68.0066907 -45.862595,-68.0065084 -45.8626847,-68.00524993 -45.86266209,-68.0066907 -45.862595,-68.0062294 -45.8616088,-68.0054569 -45.8608467,-68.004663 -45.8610185,-68.00290781 -45.86119572,-68.0032039 -45.861564,-68.0037832 -45.8611157,-68.0040193 -45.8610858,-68.00170055 -45.8618692,-68.0024529 -45.8617881,-68.0025601 -45.862341,-68.0002105 -45.8608467,-68.0004787 -45.8601219,-67.99931829 -45.86009184,-68.0074525 -45.859442,-68.0054677 -45.8582764,-68.0048132 -45.8581195,-68.0035686 -45.8582092,-68.0016375 -45.8587994,-68.0007148 -45.8595093,-68.00660247 -45.85987417,-68.0085039 -45.8608542,-68.0076885 -45.8600248,-68.00795638 -45.86120116,-68.0092764 -45.861153,-68.0112505 -45.8612053,-68.0125165 -45.8608841,-68.0140936 -45.8599053,-68.0144691 -45.860757,-68.0142117 -45.8610111,-68.0129057 -45.86088542,-68.0142868 -45.8609737,-68.0144262 -45.8605553,-68.0140936 -45.8599053,-68.0133533 -45.8599352,-68.0130315 -45.8598604,-68.0120766 -45.8601145,-68.0106323 -45.86038668;-68.0106323 -45.86038668,-68.0142868 -45.8609737,-68.0144262 -45.8605553,-68.0140936 -45.8599053,-68.0133533 -45.8599352,-68.0130315 -45.8598604,-68.0120766 -45.8601145,-68.0129057 -45.86088542,-68.0092764 -45.861153,-68.0112505 -45.8612053,-68.0125165 -45.8608841,-68.0140936 -45.8599053,-68.0144691 -45.860757,-68.0142117 -45.8610111,-68.00795638 -45.86120116,-68.0085039 -45.8608542,-68.0076885 -45.8600248,-68.00660247 -45.85987417,-68.0074525 -45.859442,-68.0054677 -45.8582764,-68.0048132 -45.8581195,-68.0035686 -45.8582092,-68.0016375 -45.8587994,-68.0007148 -45.8595093,-67.99931829 -45.86009184,-68.0024529 -45.8617881,-68.0025601 -45.862341,-68.0002105 -45.8608467,-68.0004787 -45.8601219,-68.00170055 -45.8618692,-68.0032039 -45.861564,-68.0037832 -45.8611157,-68.0040193 -45.8610858,-68.00290781 -45.86119572,-68.0066907 -45.862595,-68.0062294 -45.8616088,-68.0054569 -45.8608467,-68.004663 -45.8610185,-68.00524993 -45.86266209,-68.0066907 -45.8648887,-68.0076134 -45.8646197,-68.0077314 -45.8640818,-68.0066907 -45.862595,-68.0065084 -45.8626847,-68.00601835 -45.8652672,-68.0048561 -45.8661961,-68.0066156 -45.864941,-68.00288598 -45.86648631,-67.9970026 -45.8663754,-68.0035257 -45.8657777,-68.003397 -45.8661662,-67.99554948 -45.86642106,-67.9954576 -45.8672868,-67.9960907 -45.8666518,-67.9968202 -45.8663306,-67.99437986 -45.8677879,-67.99505 -45.8690499,-67.9947495 -45.8687287,-67.9952323 -45.8676529,-67.99439359 -45.86914058,-67.9969811 -45.8694981,-67.9958439 -45.8695654,-67.99512510000001 -45.8693413,-67.99505 -45.8690499,-67.99627751 -45.86960923,-67.9980218 -45.8692665,-68.0000389 -45.8684074,-68.0017662 -45.8680339,-68.00080119 -45.86808139,,-68.00126819 -45.86832361,-68.0070448 -45.8686241,-68.0067122 -45.8683028,-68.0066907 -45.8679293,-68.0047274 -45.8681086,-68.0029786 -45.8686316,-68.0021524 -45.8685344,-68.0022383 -45.8682132,-68.00620422 -45.86892139,-68.0070448 -45.8686241,-68.0060685 -45.868385,-68.00449906 -45.86852742,-68.0041587 -45.8700285,-68.0051243 -45.8686091,-68.00284674 -45.87040916,-68.0036652 -45.8703498,-68.0024529 -45.8706934,-68.0012727 -45.8709175,-68.0001891 -45.8713881,-67.9995775 -45.8718363,-67.99743076 -45.87213204,-67.9984939 -45.8727327,-67.9986763 -45.8725609,-67.9987407 -45.872292,-67.99707801 -45.87306235,-68.0009079 -45.8733901,-68.0017447 -45.8731436,-68.0013478 -45.8728149,-68.0005753 -45.8728074,-67.9998672 -45.8727327,-67.9986441 -45.8728074,-67.99900055 -45.87377745,-67.9970562 -45.8749065,-67.998054 -45.8746002,-67.9989874 -45.8742865,-67.9998994 -45.8736889,-67.99575168 -45.87505796,-67.9940093 -45.875758,-67.9942882 -45.875646,-67.9944921 -45.8759223,-67.9952216 -45.8756385,-67.9962945 -45.874899,-67.99230343 -45.87612978,-67.9932904 -45.8760792,-67.9926252 -45.8763556,-67.9912949 -45.8766319,-67.98995293 -45.87688436,-67.9909623 -45.8768411,-67.9909086 -45.8766394,-67.9893529 -45.876729,-67.9896641 -45.8770726,-67.98904006 -45.87741924,-67.9896748 -45.8771548,-67.9892349 -45.8767216,-67.985158 -45.8765946,-67.9863167 -45.8762734,-67.98563419 -45.87640922,-67.9865313 -45.8763033,-67.9853833 -45.8764975,-67.98469660000002 -45.8764303,-67.98281428 -45.87644776,-67.9838705 -45.8772892,-67.9842675 -45.8766469,-67.9854584 -45.876617,-67.9846001 -45.8763854,-67.98257485 -45.87765379,-67.9797721 -45.879179,-67.9789889 -45.8790669,-67.9792571 -45.8776403,-67.9831409 -45.876744,-67.9844499 -45.8766842,-67.9838705 -45.8772892,-67.97934342 -45.87920812,-67.9789352 -45.8795823,-67.9789889 -45.8790669,-67.9799759 -45.8791491,-67.97764389 -45.88001208,-67.9789352 -45.8795823,-67.9791069 -45.8776627,-67.9756737 -45.8784769,-67.9758239 -45.8787234,-67.9765105 -45.8789474,-67.9757414 -45.87911165,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9755771 -45.8785142,-67.9742253 -45.8787756,-67.974236 -45.878222900000004,-67.97210325 -45.8786421,-67.9739785 -45.8781632,-67.9745579 -45.8782677,-67.9740644 -45.8788802,-67.9710174 -45.8792537,-67.96993071 -45.87922522,-67.9708028 -45.8792686,-67.9686999 -45.8795524,-67.9682064 -45.8792238,-67.96661757 -45.87943084,-67.967391 -45.8796271,-67.9660606 -45.879657,-67.9619408 -45.879179,-67.959795 -45.8789997,-67.9602242 -45.8794852,-67.95937836 -45.87978501,-67.9538298 -45.8776104,-67.9575419 -45.8788205,-67.9596341 -45.8789624,-67.9602242 -45.8794852,-67.95259842 -45.87763583,-67.9521346 -45.8759746,-67.9517162 -45.8759074,-67.9513943 -45.8758999,-67.9525959 -45.87702780000001,-67.95337920000001 -45.8774162,-67.95155064 -45.87647635,-67.9521346 -45.8759746,-67.951448 -45.8759597,-67.9509008 -45.8738383,-67.94983615 -45.87396079,-67.9508579 -45.8736739,-67.9509115 -45.8721426,-67.94974928 -45.87213834,-67.9510081 -45.87218,-67.9515123 -45.8715599,-67.9518449 -45.870925,-67.95082673 -45.87123588,-67.9518449 -45.870925,-67.9516733 -45.8706037,-67.9509866 -45.870275,-67.95089010000001 -45.8697222,-67.9517484 -45.8700734,-67.9526281 -45.8699912,-67.95188123 -45.87007275,-67.9526013 -45.869965,-67.9517484 -45.8700734,-67.9508901 -45.8697222,-67.9511476 -45.8693039,-67.95011093 -45.86936834,-67.9511476 -45.8693039,-67.95089010000001 -45.8697222,-67.9506433 -45.8681011,-67.9512978 -45.867892,-67.95075242 -45.86791677,-67.9513514 -45.867951700000006,-67.9506004 -45.8681534,-67.9493558 -45.8665622,-67.9490876 -45.8664576,-67.9492164 -45.8668461,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2651,S2693,S2576,S2694,S2511</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 944,S56,Linea 940,S78,Linea 932,S645,Linea 931,S2111,Linea 930,S2110,Linea 736,S2167,Linea 1617,S2168,Linea 584,S849,Linea 582,S938,Linea 581,S2443,Linea 578,S2132,Linea 579,S949,Linea 591,S2129,Linea 592,S2259,Linea 594,S17,Linea 735,S295,Linea 734,S3,Linea 613,Q16,Linea 1626,S2240,Linea 471,S2,Linea 1886,S13,Linea 1887,S2523,Linea 469,S26,Linea 467,S2223,Linea 466,S2621,Linea 457,S2642,Linea 450,S2645,Linea 449,S2660,Linea 1863,S2669,Linea 1864,S2651;S2651,Linea 1864,S2669,Linea 1863,S2660,Linea 449,S2645,Linea 450,S2642,Linea 457,S2621,Linea 466,S2223,Linea 467,S26,Linea 469,S2523,Linea 1887,S13,Linea 1886,S2,Linea 471,S2240,Linea 1593,Q16,Linea 613,S3,Linea 734,S295,Linea 735,S17,Linea 596,S2293,Linea 597,S4,Linea 598,S2324,Linea 600,S2196,Linea 599,S2689,Linea 605,S581,Linea 610,S2688,Linea 1869,S2693;S2693,Linea 1869,S2688,Linea 610,S581,Linea 605,S2689,Linea 599,S2196,Linea 600,S2324,Linea 598,S4,Linea 597,S2293,Linea 596,S17,Linea 735,S295,Linea 734,S3,Linea 613,Q16,Linea 1626,S2240,Linea 471,S2,Linea 1886,S13,Linea 1887,S2523,Linea 1888,S2606,Linea 526,S2614,Linea 525,S2461,Linea 454,S2594,Linea 438,S2120,Linea 434,S2668,Linea 435,S2105,Linea 432,S2632,Linea 431,S2121,Linea 424,S2576;S2576,Linea 424,S2121,Linea 431,S2632,Linea 432,S2105,Linea 435,S2668,Linea 434,S2120,Linea 438,S2594,Linea 454,S2461,Linea 525,S2614,Linea 526,S2606,Linea 1888,S2523,Linea 1887,S13,Linea 1886,S2,Linea 471,S2240,Linea 1593,Q16,Linea 613,S3,Linea 734,S295,Linea 735,S17,Linea 596,S2293,Linea 597,S4,Linea 598,S2324,Linea 600,S2196,Linea 599,S2689,Linea 601,S2683,Linea 606,S2619,Linea 608,S2694;S2694,Linea 608,S2619,Linea 606,S2683,Linea 601,S2689,Linea 599,S2196,Linea 600,S2324,Linea 598,S4,Linea 597,S2293,Linea 596,S17,Linea 594,S2259,Linea 592,S2129,Linea 591,S949,Linea 579,S2132,Linea 578,S2443,Linea 581,S938,Linea 587,S2511;S2511,Linea 587,S938,Linea 582,S849,Linea 584,S2168,Linea 1617,S2167,Linea 736,S2110,Linea 930,S2111,Linea 931,S645,Linea 932,S78,Linea 940,S56,Linea 944,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92260289 -45.87981886,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.91930941 -45.88137118,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91747464 -45.88372353,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91541483 -45.88231338,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.90970498 -45.88326091,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90591516 -45.88446218,,-67.90594775 -45.88423937,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90705336 -45.88840606,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90362098 -45.8874036,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90293219 -45.8836944,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.89811074 -45.88424629,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89478887 -45.88442779,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.88986813 -45.88509226,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88725199 -45.88498287,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88477851 -45.88530377,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88934482 -45.88367092,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.87931365 -45.88515467,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87597578 -45.88674947,,-67.87630061 -45.88642699,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.8758872 -45.88413516,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.87263059 -45.88283868,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.86703039 -45.88312685,-67.8685462 -45.8831151,-67.869308 -45.8829582,-67.8708422 -45.883018,-67.8705847 -45.8839366,-67.8693122 -45.8842458,-67.8672695 -45.88491500000001,-67.867409 -45.8861099,-67.8680742 -45.8863339,-67.8686106 -45.8860875,-67.8688896 -45.8849822,-67.870338 -45.8842577,-67.86589689 -45.88477956,-67.86739830000002 -45.8868567,-67.8667223 -45.8862667,-67.8672802 -45.8848552,-67.86685323 -45.88712476,-67.8674626 -45.88708080000001,-67.866658 -45.886864200000005,-67.8658855 -45.887125600000005,-67.8670657 -45.8886864,-67.86520231 -45.88917465,-67.8652418 -45.8907101,-67.8656602 -45.890351700000004,-67.8659928 -45.88941820000001,-67.86328043 -45.89089136,-67.8640401 -45.8909939,-67.8672266 -45.8915539,-67.86687975 -45.89168688,-67.8672266 -45.8915539,-67.8653598 -45.8912776,-67.8647375 -45.8920692,-67.8620982 -45.8918004,-67.8619695 -45.8921737,-67.86151916 -45.89254163,-67.8617334 -45.8922185,-67.8619051 -45.8917108,-67.8603172 -45.8915465,-67.8574204 -45.891666,-67.8577852 -45.8919348,-67.85772472 -45.89223385;-67.85772472 -45.89223385,-67.8617334 -45.8922185,-67.8619051 -45.8917108,-67.8603172 -45.8915465,-67.8574204 -45.891666,-67.8577852 -45.8919348,-67.86151916 -45.89254163,-67.8672266 -45.8915539,-67.8653598 -45.8912776,-67.8647375 -45.8920692,-67.8620982 -45.8918004,-67.8619695 -45.8921737,-67.86687975 -45.89168688,-67.8640401 -45.8909939,-67.8672266 -45.8915539,-67.86328043 -45.89089136,-67.8652418 -45.8907101,-67.8656602 -45.890351700000004,-67.8659928 -45.88941820000001,-67.86520231 -45.88917465,-67.8674626 -45.88708080000001,-67.866658 -45.886864200000005,-67.8658855 -45.887125600000005,-67.8670657 -45.8886864,-67.86685323 -45.88712476,-67.86739830000002 -45.8868567,-67.8667223 -45.8862667,-67.8672802 -45.8848552,-67.86589689 -45.88477956,-67.8672695 -45.88491500000001,-67.867409 -45.8861099,-67.8680742 -45.8863339,-67.8686106 -45.8860875,-67.8688896 -45.8849822,-67.870338 -45.8842577,-67.8693122 -45.8842458,-67.8685462 -45.8831151,-67.869308 -45.8829582,-67.8708422 -45.883018,-67.8705847 -45.8839366,-67.86703039 -45.88312685,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.87263059 -45.88283868,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.8758872 -45.88413516,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.87630061 -45.88642699,,-67.87597578 -45.88674947,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87931365 -45.88515467,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.88934482 -45.88367092,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88477851 -45.88530377,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88304639 -45.88588109,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88085052 -45.88709026,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.87661058 -45.88889945,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87484305 -45.89067788,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87813787 -45.88993585,-67.8789854 -45.8901127,-67.8777838 -45.8901052,-67.8751981 -45.8927935,-67.8739536 -45.8942571,-67.87230402 -45.89457162,-67.8727734 -45.8946678,-67.8694153 -45.8954742,-67.8682566 -45.89504860000001,-67.86797017 -45.89505687,-67.8685999 -45.895295,-67.8667116 -45.8956833,-67.8646088 -45.8956833,-67.86301998 -45.89560501;-67.86301998 -45.89560501,-67.8685999 -45.895295,-67.8667116 -45.8956833,-67.8646088 -45.8956833,-67.86797017 -45.89505687,-67.8727734 -45.8946678,-67.8694153 -45.8954742,-67.8682566 -45.89504860000001,-67.87230402 -45.89457162,-67.8789854 -45.8901127,-67.8777838 -45.8901052,-67.8751981 -45.8927935,-67.8739536 -45.8942571,-67.87813787 -45.88993585,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87484305 -45.89067788,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87661058 -45.88889945,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.88085052 -45.88709026,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88304639 -45.88588109,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88477851 -45.88530377,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88934482 -45.88367092,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.87931365 -45.88515467,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87597578 -45.88674947,,-67.87630061 -45.88642699,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.8758872 -45.88413516,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.87263059 -45.88283868,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.86703039 -45.88312685,-67.8685462 -45.8831151,-67.8700483 -45.8829059,-67.8648233 -45.8818603,-67.8628063 -45.8810537,-67.8621304 -45.8814645,-67.86071597 -45.88116865,-67.8614116 -45.8855274,-67.862978 -45.884788,-67.8635466 -45.8831599,-67.8632355 -45.8817483,-67.86391140000002 -45.8815093,-67.8628063 -45.8810537,-67.8623772 -45.8814346,-67.85908094 -45.88593849,-67.8609717 -45.8856767,-67.862817 -45.8848403,-67.8617656 -45.8854826,-67.8616369 -45.886192,-67.8618944 -45.8867671,-67.86045923 -45.88724171,-67.8618944 -45.8867671,-67.8616261 -45.8862443,-67.8603601 -45.88681940000001,-67.8594589 -45.8868119,-67.8584075 -45.8873347,-67.856369 -45.8871629,-67.8557789 -45.8865655,-67.85399644 -45.88640005,-67.8548133 -45.885968,-67.8544056 -45.8857215,-67.8542554 -45.8852884,-67.85284989 -45.88522411,-67.8535903 -45.8848851,-67.8530109 -45.8845938,-67.8524315 -45.8844893,-67.85093028 -45.88433862,-67.8516591 -45.8844445,-67.8505969 -45.8845789,-67.84921346 -45.88477072,-67.84983520000002 -45.8848851,-67.8485048 -45.8854826,-67.849406 -45.8856842,-67.84894709 -45.88576073,-67.848537 -45.8862742,-67.8485477 -45.8854079,-67.8494489 -45.8856319,-67.84708796 -45.88650563,-67.8469384 -45.8864833,-67.8456509 -45.8865206,-67.8438485 -45.8877379,-67.8427005 -45.8909267,-67.84140349 -45.89173196;-67.84140349 -45.89173196,-67.8469384 -45.8864833,-67.8456509 -45.8865206,-67.8438485 -45.8877379,-67.8427005 -45.8909267,-67.84708796 -45.88650563,-67.848537 -45.8862742,-67.8485477 -45.8854079,-67.8494489 -45.8856319,-67.84894709 -45.88576073,-67.84983520000002 -45.8848851,-67.8485048 -45.8854826,-67.849406 -45.8856842,-67.84921346 -45.88477072,-67.8516591 -45.8844445,-67.8505969 -45.8845789,-67.85093028 -45.88433862,-67.8535903 -45.8848851,-67.8530109 -45.8845938,-67.8524315 -45.8844893,-67.85284989 -45.88522411,-67.8548133 -45.885968,-67.8544056 -45.8857215,-67.8542554 -45.8852884,-67.85399644 -45.88640005,-67.8618944 -45.8867671,-67.8616261 -45.8862443,-67.8603601 -45.88681940000001,-67.8594589 -45.8868119,-67.8584075 -45.8873347,-67.856369 -45.8871629,-67.8557789 -45.8865655,-67.86045923 -45.88724171,-67.8609717 -45.8856767,-67.862817 -45.8848403,-67.8617656 -45.8854826,-67.8616369 -45.886192,-67.8618944 -45.8867671,-67.85908094 -45.88593849,-67.8614116 -45.8855274,-67.862978 -45.884788,-67.8635466 -45.8831599,-67.8632355 -45.8817483,-67.86391140000002 -45.8815093,-67.8628063 -45.8810537,-67.8623772 -45.8814346,-67.86071597 -45.88116865,-67.8685462 -45.8831151,-67.8700483 -45.8829059,-67.8648233 -45.8818603,-67.8628063 -45.8810537,-67.8621304 -45.8814645,-67.86703039 -45.88312685,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.87263059 -45.88283868,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.8758872 -45.88413516,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.87630061 -45.88642699,,-67.87597578 -45.88674947,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87931365 -45.88515467,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.88934482 -45.88367092,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88477851 -45.88530377,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88304639 -45.88588109,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88085052 -45.88709026,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.87661058 -45.88889945,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87484305 -45.89067788,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87813787 -45.88993585,-67.8788996 -45.8901426,-67.877934 -45.8900903,-67.8774834 -45.8904786,-67.8777945 -45.8925098,-67.8783524 -45.8919348,-67.87768072 -45.89180609,-67.8782558 -45.8919497,-67.8778267 -45.8923828,-67.8780413 -45.8938315,-67.8791893 -45.8953398,-67.87842608 -45.89585515,-67.8799939 -45.8961761,-67.8810668 -45.8968855,-67.881496 -45.8974007,-67.88049412 -45.89765426;-67.88049412 -45.89765426,-67.8799939 -45.8961761,-67.8810668 -45.8968855,-67.881496 -45.8974007,-67.87842608 -45.89585515,-67.8782558 -45.8919497,-67.8778267 -45.8923828,-67.8780413 -45.8938315,-67.8791893 -45.8953398,-67.87768072 -45.89180609,-67.8788996 -45.8901426,-67.877934 -45.8900903,-67.8774834 -45.8904786,-67.8777945 -45.8925098,-67.8783524 -45.8919348,-67.87813787 -45.88993585,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87484305 -45.89067788,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87661058 -45.88889945,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.88085052 -45.88709026,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88304639 -45.88588109,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88477851 -45.88530377,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88725199 -45.88498287,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88986813 -45.88509226,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.89478887 -45.88442779,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89811074 -45.88424629,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.90293219 -45.8836944,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90362098 -45.8874036,-67.9022241 -45.8892913,-67.9030609 -45.889239,-67.9032218 -45.8889477,-67.9028785 -45.8877678,-67.9034686 -45.8869165,-67.9039729 -45.8871629,-67.90098858 -45.88903898;-67.90098858 -45.88903898,-67.9022241 -45.8892913,-67.9030609 -45.889239,-67.9032218 -45.8889477,-67.9028785 -45.8877678,-67.9034686 -45.8869165,-67.9039729 -45.8871629,-67.90362098 -45.8874036,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90705336 -45.88840606,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90594775 -45.88423937,,-67.90591516 -45.88446218,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90970498 -45.88326091,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91930941 -45.88137118,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.92260289 -45.87981886,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S1004,S856,S2470,S2649</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 1211,S172,Linea 768,S2417,Linea 759,S402,Linea 760,S2468,Linea 763,S395,Linea 764,S338,Linea 773,S2407,Linea 850,S2056,Linea 849,S2716,Linea 853,S2504,Linea 854,S997,Linea 1836,S353,Linea 1361,S2006,Linea 1363,S2009,Linea 1365,S354,Linea 1421,S2255,Linea 568,S882,Linea 622,S523,Linea 215,S788,Linea 216,S2676,Linea 217,S2396,Linea 240,S2395,Linea 243,S1005,Linea 397,S543,Linea 399,S2288,Linea 247,S2418,Linea 249,S611,Linea 250,E291,Linea 252,S853,Linea 254,S851,Linea 257,S591,Linea 258,S876,Linea 263,S886,Linea 264,S868,Linea 270,S869,Linea 278,S864,Linea 281,S850,Linea 280,S856,Linea 289,S884,Linea 290,S1027,Linea 291,S1007,Linea 293,S1025,Linea 298,S593,Linea 297,S1017,Linea 296,S1004;S1004,Linea 296,S1017,Linea 297,S593,Linea 298,S1025,Linea 293,S1007,Linea 291,S1027,Linea 290,S884,Linea 289,S856;S856,Linea 280,S850,Linea 279,S873,Linea 276,S2582,Linea 275,S2279,Linea 274,S892,Linea 340,S594,Linea 260,S616,Linea 315,S2440,Linea 314,S2496,Linea 1497,S707,Linea 365,S613,Linea 369,S721,Linea 368,Planta La Petiza,Linea 366,S1039,Linea 361,S790,Linea 342,S1029,Linea 349,S2470;S2470,Linea 350,S1020,Linea 1496,S1033,Linea 376,S1036,Linea 416,S1028,Linea 378,S2007,Linea 418,S2040,Linea 420,S2635,Linea 439,S2122,Linea 451,S2614,Linea 526,S2606,Linea 1888,S2523,Linea 1887,S13,Linea 1886,S2,Linea 471,S2240,Linea 465,S2284,Linea 464,S2649;S2649,Linea 464,S2284,Linea 465,S2240,Linea 1593,Q16,Linea 613,S3,Linea 734,S295,Linea 735,S17,Linea 594,S2259,Linea 592,S2129,Linea 591,S949,Linea 579,S2132,Linea 578,S2443,Linea 581,S938,Linea 582,S849,Linea 584,S2168,Linea 1617,S2167,Linea 736,S2110,Linea 930,S2111,Linea 931,S645,Linea 932,S78,Linea 940,S56,Linea 944,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.95709848 -45.86769228,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95610675 -45.87170205,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95650202 -45.87386891,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95720623 -45.87256309,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.96214261 -45.87344787,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96572509 -45.87368099,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.9672039 -45.87497495,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.96992116 -45.87035971,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.9688479 -45.86924263,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.96898996 -45.86789944,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.97170451 -45.86764851,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97781889 -45.86412305,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97692655 -45.86298292,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.98026531 -45.86300386,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98206338 -45.86352335,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86821501 -45.85959306,-67.8666258 -45.8579551,-67.8677523 -45.8588443,-67.8689218 -45.8588293,-67.8688896 -45.8591954,-67.86509618 -45.85797591,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86269634 -45.8576934,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86119926 -45.8582863,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.85800456 -45.85865306,-67.8585362 -45.8586425,-67.8567231 -45.8591431,-67.8550386 -45.8605852,-67.85325633 -45.86047853,-67.8547168 -45.8600622,-67.8545237 -45.8589862,-67.8537083 -45.858508,-67.852335 -45.8585529,-67.85051371 -45.8587379,-67.8511226 -45.8587172,-67.8489661 -45.8581942,-67.8504252 -45.8565952,-67.84992667 -45.85649082,-67.851541 -45.8561394,-67.8511119 -45.8555416,-67.8497386 -45.8553249,-67.8490841 -45.8555341,-67.84737753 -45.85568862,-67.8480864 -45.8556163,-67.846477 -45.8561992,-67.8452325 -45.8556537,-67.84359994 -45.85582912,-67.8438914 -45.8557508,-67.8414237 -45.8563262,-67.8377545 -45.8563187,-67.83653581 -45.85644197,-67.8371108 -45.8561767,-67.8326368 -45.8556313,-67.83154193 -45.85548135,-67.8319716 -45.855437,-67.8292787 -45.855108200000004,-67.82760578 -45.8552439,-67.8277767 -45.8550036,-67.8251696 -45.8547271,-67.824676 -45.8544207,-67.82322995 -45.85451391,-67.8244078 -45.8540994,-67.8225088 -45.8518801,-67.82163737 -45.8516816,-67.8223801 -45.8515886,-67.8209639 -45.8504751,-67.8196657 -45.8504079,-67.81800483 -45.85079524,-67.8185713 -45.8505798,-67.816962 -45.851073,-67.8161895 -45.8523658,-67.81497943 -45.85259887,-67.816329 -45.8519921,-67.8167796 -45.8511701,-67.8158462 -45.8513121,-67.8150415 -45.8533148,-67.8138399 -45.8541293,-67.81217316 -45.85421245,-67.809999 -45.85395,-67.81053540000002 -45.8542265,-67.8125417 -45.8543386,-67.80813131 -45.85419968,-67.8064048 -45.853539,-67.8089046 -45.854361,-67.8103852 -45.8542265,-67.8098702 -45.8539126,-67.80441533 -45.8533642,-67.805289 -45.8529487,-67.8034651 -45.8522612,-67.8028214 -45.85306820000001,-67.8021669 -45.8529711,-67.80053473 -45.85338776,-67.8017056 -45.8526423,-67.8015232 -45.8523658,-67.79962420000001 -45.8525451,-67.7978754 -45.8519772,-67.7946138 -45.8521416,-67.79294152 -45.85225742,-67.7932727 -45.8519249,-67.790097 -45.851768,-67.7882087 -45.8523583,-67.7874362 -45.8529785,-67.78639604 -45.85350214,-67.7872217 -45.8538753,-67.7837884 -45.8561618,-67.7830803 -45.8561095,-67.78170238 -45.85610146,-67.7824903 -45.8564233,-67.7802157 -45.8580149,-67.7796257 -45.8571108,-67.7786064 -45.8565802,-67.7779841 -45.85664,-67.7787888 -45.8561394,-67.77831934 -45.85627828,-67.7786493 -45.8561767,-67.7760208 -45.8575666,-67.7736604 -45.8573723,-67.7729845 -45.8565877,-67.7733386 -45.8538528,-67.77191639 -45.85370252,-67.7767611 -45.8515811,-67.7748406 -45.85155120000001,-67.7744758 -45.8503855,-67.7750123 -45.8494887,-67.7702379 -45.8498848,-67.7723086 -45.8511776,-67.7737248 -45.8528216,-67.7731884 -45.8531878,-67.77612134 -45.8514783,-67.7803338 -45.8509385,-67.777555 -45.8505499,-67.7752268 -45.8494812,-67.77437930000002 -45.8504154,-67.7747762 -45.851484,-67.7768147 -45.8515139,-67.77982732 -45.85094494;-67.77982732 -45.85094494,-67.7803338 -45.8509385,-67.777555 -45.8505499,-67.7752268 -45.8494812,-67.77437930000002 -45.8504154,-67.7747762 -45.851484,-67.7768147 -45.8515139,-67.77612134 -45.8514783,-67.7767611 -45.8515811,-67.7748406 -45.85155120000001,-67.7744758 -45.8503855,-67.7750123 -45.8494887,-67.7702379 -45.8498848,-67.7723086 -45.8511776,-67.7737248 -45.8528216,-67.7731884 -45.8531878,-67.77191639 -45.85370252,-67.7786493 -45.8561767,-67.7760208 -45.8575666,-67.7736604 -45.8573723,-67.7729845 -45.8565877,-67.7733386 -45.8538528,-67.77831934 -45.85627828,-67.7824903 -45.8564233,-67.7802157 -45.8580149,-67.7796257 -45.8571108,-67.7786064 -45.8565802,-67.7779841 -45.85664,-67.7787888 -45.8561394,-67.78170238 -45.85610146,-67.7872217 -45.8538753,-67.7837884 -45.8561618,-67.7830803 -45.8561095,-67.78639604 -45.85350214,-67.7932727 -45.8519249,-67.790097 -45.851768,-67.7882087 -45.8523583,-67.7874362 -45.8529785,-67.79294152 -45.85225742,-67.8017056 -45.8526423,-67.8015232 -45.8523658,-67.79962420000001 -45.8525451,-67.7978754 -45.8519772,-67.7946138 -45.8521416,-67.80053473 -45.85338776;-67.80053473 -45.85338776,-67.805289 -45.8529487,-67.8034651 -45.8522612,-67.8028214 -45.85306820000001,-67.8021669 -45.8529711,-67.80441533 -45.8533642,-67.8067052 -45.8553548,-67.8072202 -45.8551381,-67.8064048 -45.853539,-67.80486959 -45.85565241,-67.807982 -45.8550559,-67.8067052 -45.8553548,-67.8072436 -45.85498762,-67.8098595 -45.8560647,-67.809999 -45.8550036,-67.8090441 -45.8548691,-67.80907829 -45.8565264,-67.8125632 -45.8568492,-67.810396 -45.8571033,-67.8101599 -45.8566923,-67.81224182 -45.85671416,-67.8138077 -45.8564532,-67.814548 -45.8566699,-67.813561 -45.8597484,-67.8137219 -45.8605777,-67.81282229 -45.86107452,-67.8186142 -45.8634617,-67.8183568 -45.8624605,-67.8160179 -45.8615565,-67.8143764 -45.8610559,-67.81720169 -45.86444747,-67.8182173 -45.868004,-67.8160286 -45.8663455,-67.8181314 -45.8648065,-67.8182173 -45.864545,-67.81633269 -45.86814359,-67.819097 -45.8668461,-67.8186357 -45.8670552,-67.8192151 -45.868385,-67.81829240000002 -45.8680713,-67.8187144 -45.86699435,-67.8260922 -45.8716048,-67.8258884 -45.8718886,-67.8219509 -45.871657,-67.8194082 -45.8687287,-67.8185391 -45.8670926,-67.8190756 -45.8667788,-67.82435527 -45.87146335,-67.8326046 -45.8712686,-67.8287637 -45.8718438,-67.8266931 -45.8718811,-67.8259957 -45.8715076,-67.83204724 -45.87132308,-67.8347504 -45.8724041,-67.8345788 -45.8717915,-67.8335381 -45.8712686,-67.8339131 -45.87269245,-67.8368962 -45.8743761,-67.8363168 -45.8740101,-67.8365743 -45.8734723,-67.8358126 -45.8726879,-67.8366923 -45.875026,-67.8362739 -45.8749812,-67.8353405 -45.875362100000004,-67.8336787 -45.87548722,-67.8340852 -45.8751231,-67.8342354 -45.8742566,-67.8322077 -45.8732855,-67.8288817 -45.8737262,-67.82716871 -45.873948,-67.821511 -45.878081,-67.8234959 -45.8768037,-67.8260922 -45.8734274,-67.8288066 -45.8736889,-67.82018891 -45.8787842,-67.826339 -45.88047110000001,-67.8268754 -45.8811284,-67.8273153 -45.8802321,-67.8244936 -45.8781408,-67.8228843 -45.8780212,-67.8223586 -45.8783947,-67.8233027 -45.8768411,-67.8215861 -45.8781258,-67.82495492 -45.88019856;-67.82495492 -45.88019856,-67.826339 -45.88047110000001,-67.8268003 -45.8811956,-67.8233886 -45.8829433,-67.8221127 -45.88349304,-67.8419 -45.8843,-67.84199 -45.88554,-67.8396535 -45.88699,-67.83912 -45.88937,-67.83802 -45.8905,-67.83603 -45.89096,-67.83455 -45.89131,-67.8337097 -45.8907848,-67.83354 -45.88813,-67.82783 -45.88844,-67.824097 -45.88562,-67.82332 -45.88365,-67.8408227 -45.88408969,-67.8418744 -45.8837275,-67.8411126 -45.8830703,-67.839793 -45.8826221,-67.8392565 -45.8819126,-67.8402436 -45.8815616,-67.83977572 -45.88161766,-67.842443 -45.8796122,-67.8389347 -45.8810612,-67.8383017 -45.8819499,-67.8395998 -45.8826445,-67.8392565 -45.8820246,-67.8403294 -45.8816064,-67.84221298 -45.87973382,-67.8455973 -45.8806504,-67.8449214 -45.8812852,-67.8420246 -45.8795972,-67.8425181 -45.87953,-67.84518194 -45.88032275,-67.8494382 -45.880628,-67.84873010000001 -45.8802396,-67.8461766 -45.8806653,-67.8457046 -45.880515900000006,-67.8485758 -45.88086765,-67.8556287 -45.8843698,-67.853719 -45.8831001,-67.8518629 -45.8825923,-67.8500605 -45.8812329,-67.85493998 -45.88481908,-67.8571093 -45.8855572,-67.8559184 -45.8854378,-67.8555107 -45.884698400000005,-67.85655105 -45.88556448,-67.85825730000002 -45.8853855,-67.85964130000002 -45.8854228,-67.85908094 -45.88593849,-67.8614116 -45.8855274,-67.862978 -45.884788,-67.8635466 -45.8831599,-67.8632355 -45.8817483,-67.86391140000002 -45.8815093,-67.8628063 -45.8810537,-67.8623772 -45.8814346,-67.86071597 -45.88116865,-67.8685462 -45.8831151,-67.8700483 -45.8829059,-67.8648233 -45.8818603,-67.8628063 -45.8810537,-67.8621304 -45.8814645,-67.86703039 -45.88312685,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.87263059 -45.88283868,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.8758872 -45.88413516,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.87630061 -45.88642699,-67.8769255 -45.8868343,-67.8757453 -45.887708100000005,-67.87378622 -45.88828128,-67.8745329 -45.88833540000001,-67.8730309 -45.88891790000001,-67.87112696 -45.88890334;-67.87112696 -45.88890334,-67.8745329 -45.88833540000001,-67.8730309 -45.88891790000001,-67.87378622 -45.88828128,-67.8769255 -45.8868343,-67.8757453 -45.887708100000005,-67.87630061 -45.88642699,,-67.87597578 -45.88674947,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87931365 -45.88515467,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.88934482 -45.88367092,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88477851 -45.88530377,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88725199 -45.88498287,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88986813 -45.88509226,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.89478887 -45.88442779,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89811074 -45.88424629,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.90293219 -45.8836944,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90362098 -45.8874036,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90705336 -45.88840606,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90594775 -45.88423937,,-67.90591516 -45.88446218,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90970498 -45.88326091,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91930941 -45.88137118,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.92260289 -45.87981886,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2081,S2414,S2062,S2647,S2652,S2699</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 1211,S172,Linea 768,S2417,Linea 759,S402,Linea 760,S2468,Linea 763,S395,Linea 764,S338,Linea 773,S2407,Linea 850,S2056,Linea 849,S2716,Linea 853,S2504,Linea 854,S997,Linea 1836,S353,Linea 1361,S2006,Linea 1363,S2009,Linea 1365,S354,Linea 1421,S2255,Linea 1373,S323,Linea 1372,S325,Linea 1371,S2091,Linea 1370,S2081;S2081,Linea 1426,S2087,Linea 1427,S2406,Linea 1832,S285,Linea 830,S249,Linea 833,S2414;S2414,Linea 833,S249,Linea 830,S285,Linea 1832,S2406,Linea 1427,S2087,Linea 1426,S2081,Linea 1369,S2062;S2062,Linea 1369,S2081,Linea 1370,S2091,Linea 1371,S325,Linea 1372,S323,Linea 1373,S2255,Linea 568,S882,Linea 567,S522,Linea 566,S2273,Linea 615,S2634,Linea 614,S469,Linea 545,S439,Linea 538,S531,Linea 540,S533,Linea 536,S506,Linea 534,S470,Linea 645,S426,Linea 649,S2307,Linea 507,S427,Linea 512,S509,Linea 511,S2236,Linea 516,Q17,Linea 517,S2523,Linea 469,S26,Linea 467,S2223,Linea 466,S2621,Linea 463,S2375,Linea 462,S2647;S2647,Linea 462,S2375,Linea 463,S2621,Linea 457,S2642,Linea 450,S2645,Linea 448,S2652;S2652,Linea 448,S2645,Linea 450,S2642,Linea 457,S2621,Linea 466,S2223,Linea 467,S26,Linea 469,S2523,Linea 1887,S13,Linea 1886,S2,Linea 471,S2240,Linea 1593,Q16,Linea 613,S3,Linea 734,S295,Linea 735,S17,Linea 596,S2293,Linea 597,S4,Linea 598,S2324,Linea 600,S2196,Linea 599,S2689,Linea 605,S581,Linea 610,S2688,Linea 611,S2685,Linea 612,S2699;S2699,Linea 612,S2685,Linea 611,S2688,Linea 610,S581,Linea 605,S2689,Linea 599,S2196,Linea 600,S2324,Linea 598,S4,Linea 597,S2293,Linea 596,S17,Linea 594,S2259,Linea 592,S2129,Linea 591,S949,Linea 579,S2132,Linea 578,S2443,Linea 581,S938,Linea 582,S849,Linea 584,S2168,Linea 1617,S2167,Linea 736,S2110,Linea 930,S2111,Linea 931,S645,Linea 932,S78,Linea 940,S56,Linea 944,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.95709848 -45.86769228,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95610675 -45.87170205,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95650202 -45.87386891,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95720623 -45.87256309,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.96214261 -45.87344787,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96572509 -45.87368099,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.9672039 -45.87497495,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.96992116 -45.87035971,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.9688479 -45.86924263,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.96898996 -45.86789944,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.97170451 -45.86764851,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97781889 -45.86412305,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97692655 -45.86298292,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.98026531 -45.86300386,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98206338 -45.86352335,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98715669 -45.86146692,-67.9928935 -45.8605404,-67.9914236 -45.8609588,-67.98931 -45.8614369,-67.9889023 -45.8613323,-67.99220337 -45.86057361,-67.9911339 -45.8618479,-67.9904687 -45.8619002,-67.9910696 -45.8615117,-67.9918849 -45.861295,-67.9930007 -45.8606151,-67.99023202 -45.86204363,-67.9886341 -45.8629088,-67.9906297 -45.8618479,-67.9911232 -45.8617956,-67.98677491 -45.86342245,-67.9859948 -45.8647094,-67.9874003 -45.863783,-67.98422803 -45.86529103;-67.98422803 -45.86529103,-67.9920459 -45.8642163,-67.9910159 -45.864672,-67.9903078 -45.8650157,-67.9890847 -45.8656208,-67.9855978 -45.8654415,-67.9855227 -45.865322,-67.99158422 -45.86437969,-67.9929578 -45.8671225,-67.9928398 -45.8662783,-67.9924321 -45.8655835,-67.9919815 -45.8652548,-67.992121 -45.8648663,-67.9910159 -45.864672,-67.9918528 -45.8642238,-67.99174523 -45.8677107,-67.9929042 -45.8670777,-67.9928398 -45.8661064,-67.9924321 -45.8655835,-67.9918849 -45.8652398,-67.9909408 -45.867115,-67.9902434 -45.8675334,-67.98895281 -45.86742251,-67.9901361 -45.8674661,-67.9900289 -45.8678098,-67.9882801 -45.8686838,-67.9882801 -45.8691246,-67.9875398 -45.8692665,-67.98621539 -45.86906201,-67.9865098 -45.8688407,-67.9868531 -45.868893,-67.98529724 -45.86913902;-67.98529724 -45.86913902,-67.9865098 -45.8688407,-67.9868531 -45.868893,-67.98621539 -45.86906201,-67.9901361 -45.8674661,-67.9900289 -45.8678098,-67.9882801 -45.8686838,-67.9882801 -45.8691246,-67.9875398 -45.8692665,-67.98895281 -45.86742251,-67.9929042 -45.8670777,-67.9928398 -45.8661064,-67.9924321 -45.8655835,-67.9918849 -45.8652398,-67.9909408 -45.867115,-67.9902434 -45.8675334,-67.99174523 -45.8677107,-67.9929578 -45.8671225,-67.9928398 -45.8662783,-67.9924321 -45.8655835,-67.9919815 -45.8652548,-67.992121 -45.8648663,-67.9910159 -45.864672,-67.9918528 -45.8642238,-67.99158422 -45.86437969,-67.9920459 -45.8642163,-67.9910159 -45.864672,-67.9903078 -45.8650157,-67.9890847 -45.8656208,-67.9855978 -45.8654415,-67.9855227 -45.865322,-67.98422803 -45.86529103,-67.9889023 -45.8650979,-67.9886663 -45.8652174,-67.9866278 -45.865322,-67.9865313 -45.8654042,-67.9855978 -45.8654864,-67.9854262 -45.8652622,-67.98809621 -45.86492869;-67.98809621 -45.86492869,-67.9889023 -45.8650979,-67.9886663 -45.8652174,-67.9866278 -45.865322,-67.9865313 -45.8654042,-67.9855978 -45.8654864,-67.9854262 -45.8652622,-67.98422803 -45.86529103,-67.9859948 -45.8647094,-67.9874003 -45.863783,-67.98677491 -45.86342245,-67.9886341 -45.8629088,-67.9906297 -45.8618479,-67.9911232 -45.8617956,-67.99023202 -45.86204363,-67.9911339 -45.8618479,-67.9904687 -45.8619002,-67.9910696 -45.8615117,-67.9918849 -45.861295,-67.9930007 -45.8606151,-67.99220337 -45.86057361,-67.9928935 -45.8605404,-67.9914236 -45.8609588,-67.98931 -45.8614369,-67.9889023 -45.8613323,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8701234 -45.8635663,-67.8698123 -45.86132490000001,-67.8679776 -45.8603237,-67.8670549 -45.8588966,-67.8654027 -45.859457,-67.8654563 -45.8601518,-67.8656709 -45.8602639,-67.86895092 -45.86422008,-67.8682029 -45.8666817,-67.8692436 -45.8661961,-67.8702307 -45.8647318,-67.8701663 -45.8642088,-67.86635342 -45.86702056,-67.8668725 -45.8688706,-67.8667974 -45.868646500000004,-67.8676665 -45.8677127,-67.867012 -45.86727940000001,-67.86653014 -45.86909111,-67.8665292 -45.8705589,-67.866143 -45.8710594,-67.8657889 -45.8704767,-67.8668725 -45.8688706,-67.86552841 -45.87071955,-67.8687286 -45.87223970000001,-67.8671408 -45.8717542,-67.8661752 -45.8712611,-67.8662395 -45.8705888,-67.86803091 -45.87230485,-67.8686213 -45.87223970000001,-67.8679776 -45.8725012,-67.867173 -45.87342,-67.86601994 -45.87390747,-67.8666043 -45.8740773,-67.8655958 -45.8758999,-67.8658319 -45.8761464,-67.86520975 -45.8764158,-67.8690398 -45.8759074,-67.8681815 -45.8748691,-67.8664434 -45.8762585,-67.86877282 -45.87598303,-67.8721726 -45.8748019,-67.868793 -45.8753024,-67.8683639 -45.8750633,-67.8691471 -45.8759522,-67.87226293 -45.87472228,-67.8772473 -45.875646,-67.87714 -45.874899,-67.8760457 -45.8739578,-67.8750265 -45.8733005,-67.8741574 -45.8732108,-67.8737283 -45.8741819,-67.87580898 -45.87623664,-67.8836632 -45.8741296,-67.884264 -45.8734723,-67.8839421 -45.8733229,-67.8833306 -45.8736515,-67.8822899 -45.87404,-67.8816032 -45.8749737,-67.8808522 -45.875153,-67.8791678 -45.8762809,-67.8782129 -45.8766021,-67.8774083 -45.8765572,-67.88196942 -45.87464989,-67.8803158 -45.8771847,-67.8813779 -45.8760792,-67.8823113 -45.875519,-67.8828478 -45.87486160000001,-67.87897854 -45.87766371,-67.8797901 -45.8776627,-67.8792536 -45.87817810000001,-67.8798115 -45.8793806,-67.87875862 -45.87975391,-67.8785026 -45.8788802,-67.8798115 -45.8793806,-67.87684672 -45.87887091,-67.8772688 -45.8789101,-67.8749835 -45.8790146,-67.87362100000001 -45.8797765,-67.8724445 -45.87988188,-67.8726017 -45.880389,-67.8697157 -45.8828462,-67.8706813 -45.8831001,-67.8686643 -45.8830254,-67.86703039 -45.88312685,-67.8685462 -45.8831151,-67.869308 -45.8829582,-67.8708422 -45.883018,-67.8705847 -45.8839366,-67.8693122 -45.8842458,-67.8672695 -45.88491500000001,-67.867409 -45.8861099,-67.8680742 -45.8863339,-67.8686106 -45.8860875,-67.8688896 -45.8849822,-67.870338 -45.8842577,-67.86589689 -45.88477956,-67.86739830000002 -45.8868567,-67.8667223 -45.8862667,-67.8672802 -45.8848552,-67.86685323 -45.88712476,-67.8694582 -45.8876409,-67.8695869 -45.887372,-67.8687179 -45.8869837,-67.86795859 -45.88799202,-67.8701127 -45.8886117,-67.869705 -45.8873869,-67.8693724 -45.88761850000001,-67.86819029 -45.88904792;-67.86819029 -45.88904792,-67.8701127 -45.8886117,-67.869705 -45.8873869,-67.8693724 -45.88761850000001,-67.86795859 -45.88799202,-67.8694582 -45.8876409,-67.8695869 -45.887372,-67.8687179 -45.8869837,-67.86685323 -45.88712476,-67.8674626 -45.88708080000001,-67.866658 -45.886864200000005,-67.8658855 -45.887125600000005,-67.8670657 -45.8886864,-67.86520231 -45.88917465,-67.8652418 -45.8907101,-67.8656602 -45.890351700000004,-67.8659928 -45.88941820000001,-67.86328043 -45.89089136,-67.86183 -45.8907101,-67.8635895 -45.8906578,-67.85994544 -45.89074459;-67.85994544 -45.89074459,-67.86183 -45.8907101,-67.8635895 -45.8906578,-67.86328043 -45.89089136,-67.8652418 -45.8907101,-67.8656602 -45.890351700000004,-67.8659928 -45.88941820000001,-67.86520231 -45.88917465,-67.8674626 -45.88708080000001,-67.866658 -45.886864200000005,-67.8658855 -45.887125600000005,-67.8670657 -45.8886864,-67.86685323 -45.88712476,-67.86739830000002 -45.8868567,-67.8667223 -45.8862667,-67.8672802 -45.8848552,-67.86589689 -45.88477956,-67.8672695 -45.88491500000001,-67.867409 -45.8861099,-67.8680742 -45.8863339,-67.8686106 -45.8860875,-67.8688896 -45.8849822,-67.870338 -45.8842577,-67.8693122 -45.8842458,-67.8685462 -45.8831151,-67.869308 -45.8829582,-67.8708422 -45.883018,-67.8705847 -45.8839366,-67.86703039 -45.88312685,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.87263059 -45.88283868,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.8758872 -45.88413516,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.87630061 -45.88642699,,-67.87597578 -45.88674947,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87931365 -45.88515467,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.88934482 -45.88367092,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88477851 -45.88530377,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88304639 -45.88588109,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88085052 -45.88709026,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.87661058 -45.88889945,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87484305 -45.89067788,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87813787 -45.88993585,-67.8789854 -45.8901127,-67.8777838 -45.8901052,-67.8751981 -45.8927935,-67.8739536 -45.8942571,-67.87230402 -45.89457162,-67.8727734 -45.8946678,-67.8694153 -45.8954742,-67.8682566 -45.89504860000001,-67.86797017 -45.89505687,-67.86816 -45.8950113,-67.8676021 -45.8944886,-67.866143 -45.8944961,-67.86504739 -45.89456671,-67.8660572 -45.8945035,-67.8649414 -45.8945185,-67.8640723 -45.8941302,-67.8626239 -45.893936,-67.8611112 -45.8934058,-67.8592336 -45.8931445,-67.8576779 -45.8937045,-67.8559321 -45.89402021;-67.8559321 -45.89402021,-67.8660572 -45.8945035,-67.8649414 -45.8945185,-67.8640723 -45.8941302,-67.8626239 -45.893936,-67.8611112 -45.8934058,-67.8592336 -45.8931445,-67.8576779 -45.8937045,-67.86504739 -45.89456671,-67.86816 -45.8950113,-67.8676021 -45.8944886,-67.866143 -45.8944961,-67.86797017 -45.89505687,-67.8727734 -45.8946678,-67.8694153 -45.8954742,-67.8682566 -45.89504860000001,-67.87230402 -45.89457162,-67.8789854 -45.8901127,-67.8777838 -45.8901052,-67.8751981 -45.8927935,-67.8739536 -45.8942571,-67.87813787 -45.88993585,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87484305 -45.89067788,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87661058 -45.88889945,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.88085052 -45.88709026,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88304639 -45.88588109,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88477851 -45.88530377,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88725199 -45.88498287,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88986813 -45.88509226,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.89478887 -45.88442779,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89811074 -45.88424629,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.90293219 -45.8836944,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90362098 -45.8874036,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90705336 -45.88840606,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90594775 -45.88423937,,-67.90591516 -45.88446218,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90970498 -45.88326091,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91930941 -45.88137118,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.92260289 -45.87981886,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2088,S2001</t>
   </si>
   <si>
     <t>Base,Linea 14,S278,Linea 15,S2250,Linea 16,S977,Linea 17,S245,Linea 1340,S186,Linea 901,S539,Linea 1408,S2376,Linea 1346,S190,Linea 1395,S232,Linea 1348,S2314,Linea 1347,S643,Linea 1350,S291,Linea 1351,S292,Linea 1352,S117,Linea 1382,S2086,Linea 1383,S318,Linea 1384,S242,Linea 1385,S2085,Linea 1386,S2214,Linea 1411,S2088;S2088,Linea 1411,S2214,Linea 1386,S2085,Linea 1385,S242,Linea 1384,S318,Linea 1383,S2086,Linea 1382,S117,Linea 1352,S292,Linea 1351,S291,Linea 1350,S643,Linea 1347,S2314,Linea 1348,S232,Linea 1395,S190,Linea 1346,S2376,Linea 1408,S539,Linea 901,S186,Linea 1340,S245,Linea 1341,S2416,Linea 69,S154,Linea 71,S155,Linea 74,S156,Linea 75,S100,Linea 77,S558,Linea 78,S2227,Linea 85,S549,Linea 86,S2200,Linea 97,S356,Linea 143,S2017,Linea 144,S690,Linea 141,S538,Linea 104,S2206,Linea 105,S763,Linea 106,S719,Linea 108,S767,Linea 112,S555,Linea 1532,S2578,Linea 142,S556,Linea 1883,S2022,Linea 902,S2001;S2001,Linea 902,S2022,Linea 1883,S556,Linea 142,S2578,Linea 1821,S555,Linea 112,S767,Linea 108,S719,Linea 106,S763,Linea 105,S2206,Linea 104,S538,Linea 141,S690,Linea 144,S2017,Linea 143,S356,Linea 97,S2200,Linea 1847,S2199,Linea 46,S2569,Linea 42,S2032,Linea 34,S308,Linea 33,S2412,Linea 27,S2195,Linea 10,S309,Linea 4,S329,Linea 3,S993,Linea 2,S2447,Linea 1506,S176,Linea 1,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9427254 -45.8635364,-67.9464859 -45.8623447,-67.9469097 -45.862016,-67.94569946 -45.86221924,-67.9469097 -45.8620944,-67.9481596 -45.8620048,-67.94727301 -45.86217176,-67.9483044 -45.861911400000004,-67.9473495 -45.8614183,-67.94655091 -45.86160389,-67.9479718 -45.8615453,-67.9493934 -45.8606973,-67.9489589 -45.8606599,-67.94780419 -45.86081977,-67.9549134 -45.858239,-67.9527032 -45.8590684,-67.9493666 -45.8607794,-67.9491198 -45.8606898,-67.9539623 -45.85805836,-67.9549778 -45.85820170000001,-67.9571986 -45.85672970000001,-67.9579175 -45.8564981,-67.9585719 -45.8567521,-67.95773843 -45.85672753,-67.9586148 -45.8568044,-67.9579926 -45.8564383,-67.9605138 -45.8553847,-67.9615545 -45.8546374,-67.963078 -45.8525451,-67.9633892 -45.8522836,-67.9675841 -45.8512224,-67.9699767 -45.8512598,-67.9700732 -45.8515064,-67.9697835 -45.8517381,-67.96836168 -45.85192469,-67.9697835 -45.8517381,-67.9700947 -45.8517082,-67.9702342 -45.8514018,-67.9710817 -45.8516335,-67.97135 -45.8516633,-67.97067338 -45.85178783,-67.9748797 -45.8534568,-67.9738176 -45.8522612,-67.9730666 -45.8517007,-67.9728305 -45.8516858,-67.9720902 -45.8515438,-67.97404757 -45.85313584,-67.9750836 -45.8543983,-67.9752016 -45.8534194,-67.97353981 -45.85482131,-67.9721439 -45.8564532,-67.9723585 -45.855833,-67.9728305 -45.8549363,-67.9739249 -45.8544805,-67.9741395 -45.8540023,-67.9740536 -45.853539,-67.9744184 -45.8538977,-67.9746437 -45.8541517,-67.9750943 -45.8540247,-67.9749548 -45.854488,-67.97079424 -45.85669528,-67.9761672 -45.8586351,-67.9759634 -45.858508,-67.9757595 -45.8578206,-67.9751909 -45.8575143,-67.9723477 -45.8568567,-67.9721653 -45.8565802,-67.97543611 -45.85876585,-67.9762101 -45.8587172,-67.9768431 -45.8590385,-67.9774976 -45.8593075,-67.9783773 -45.8600024,-67.9787743 -45.859569,-67.97805617 -45.85962835,-67.9787743 -45.859569,-67.9784095 -45.8600622,-67.9786134 -45.860249,-67.9797721 -45.8603909,-67.9814243 -45.8607346,-67.98085648 -45.8609192,-67.9840422 -45.8594345,-67.9846001 -45.8591805,-67.9853618 -45.8588742,-67.9842031 -45.8589414,-67.9834092 -45.8591431,-67.9824221 -45.8597185,-67.9820251 -45.8604432,-67.98252887 -45.85998837,-67.9863274 -45.8592029,-67.9874325 -45.8590161,-67.9853618 -45.8588742,-67.9839349 -45.859442,-67.98485316 -45.85947976,-67.9892135 -45.8580672,-67.9890418 -45.8588742,-67.9885483 -45.8590684,-67.9874325 -45.8590161,-67.9863274 -45.8592627,-67.98816032 -45.8579739,-67.9891598 -45.8574097,-67.989471 -45.8568044,-67.9900932 -45.8564383,-67.9923999 -45.8559003,-67.9930544 -45.8553697,-67.9934084 -45.8544955,-67.99257609 -45.85442377,-67.9942131 -45.8542489,-67.9949319 -45.8537856,-67.9959404 -45.8535315,-67.99541214 -45.85331974,-67.9973888 -45.8529038,-67.9979253 -45.8530757,-67.998054 -45.8531654,-67.998848 -45.8531654,-67.9993522 -45.853808,-67.99882481 -45.85386089;-67.99882481 -45.85386089,-67.9973888 -45.8529038,-67.9979253 -45.8530757,-67.998054 -45.8531654,-67.998848 -45.8531654,-67.9993522 -45.853808,-67.99541214 -45.85331974,-67.9942131 -45.8542489,-67.9949319 -45.8537856,-67.9959404 -45.8535315,-67.99257609 -45.85442377,-67.9891598 -45.8574097,-67.989471 -45.8568044,-67.9900932 -45.8564383,-67.9923999 -45.8559003,-67.9930544 -45.8553697,-67.9934084 -45.8544955,-67.98816032 -45.8579739,-67.9892135 -45.8580672,-67.9890418 -45.8588742,-67.9885483 -45.8590684,-67.9874325 -45.8590161,-67.9863274 -45.8592627,-67.98485316 -45.85947976,-67.9863274 -45.8592029,-67.9874325 -45.8590161,-67.9853618 -45.8588742,-67.9839349 -45.859442,-67.98252887 -45.85998837,-67.9840422 -45.8594345,-67.9846001 -45.8591805,-67.9853618 -45.8588742,-67.9842031 -45.8589414,-67.9834092 -45.8591431,-67.9824221 -45.8597185,-67.9820251 -45.8604432,-67.98085648 -45.8609192,-67.9787743 -45.859569,-67.9784095 -45.8600622,-67.9786134 -45.860249,-67.9797721 -45.8603909,-67.9814243 -45.8607346,-67.97805617 -45.85962835,-67.9762101 -45.8587172,-67.9768431 -45.8590385,-67.9774976 -45.8593075,-67.9783773 -45.8600024,-67.9787743 -45.859569,-67.97543611 -45.85876585,-67.9761672 -45.8586351,-67.9759634 -45.858508,-67.9757595 -45.8578206,-67.9751909 -45.8575143,-67.9723477 -45.8568567,-67.9721653 -45.8565802,-67.97079424 -45.85669528,-67.9721439 -45.8564532,-67.9723585 -45.855833,-67.9728305 -45.8549363,-67.9739249 -45.8544805,-67.9741395 -45.8540023,-67.9740536 -45.853539,-67.9744184 -45.8538977,-67.9746437 -45.8541517,-67.9750943 -45.8540247,-67.9749548 -45.854488,-67.97353981 -45.85482131,-67.9750836 -45.8543983,-67.9752016 -45.8534194,-67.97404757 -45.85313584,-67.9748797 -45.8534568,-67.9738176 -45.8522612,-67.9730666 -45.8517007,-67.9728305 -45.8516858,-67.9720902 -45.8515438,-67.97067338 -45.85178783,-67.9697835 -45.8517381,-67.9700947 -45.8517082,-67.9702342 -45.8514018,-67.9710817 -45.8516335,-67.97135 -45.8516633,-67.96836168 -45.85192469,-67.9586148 -45.8568044,-67.9579926 -45.8564383,-67.9605138 -45.8553847,-67.9615545 -45.8546374,-67.963078 -45.8525451,-67.9633892 -45.8522836,-67.9675841 -45.8512224,-67.9699767 -45.8512598,-67.9700732 -45.8515064,-67.9697835 -45.8517381,-67.95773843 -45.85672753,-67.9549778 -45.85820170000001,-67.9571986 -45.85672970000001,-67.9579175 -45.8564981,-67.9585719 -45.8567521,-67.9539623 -45.85805836,-67.9549134 -45.858239,-67.9527032 -45.8590684,-67.9493666 -45.8607794,-67.9491198 -45.8606898,-67.94780419 -45.86081977,-67.9494631 -45.8607197,-67.9496992 -45.8604582,-67.9489589 -45.8596363,-67.9496777 -45.8591282,-67.9500318 -45.8586351,-67.9503858 -45.8584632,-67.94942594 -45.85854239,-67.95038580000002 -45.8584109,-67.9492486 -45.8582839,-67.9486799 -45.8563934,-67.9455793 -45.8575815,-67.94451337 -45.85788474,-67.9455793 -45.8575815,-67.9449892 -45.8573947,-67.9450321 -45.8569464,-67.9437447 -45.8569987,-67.9429507 -45.8566475,-67.94127839 -45.85682198,-67.9418778 -45.8559601,-67.9390132 -45.8553324,-67.93784211 -45.85566073,-67.9390132 -45.8553324,-67.9377794 -45.8546898,-67.9357088 -45.8545104,-67.93449161 -45.85473418,-67.9352367 -45.8546599,-67.9346144 -45.8547794,-67.9340136 -45.8552128,-67.9328218 -45.85546946,-67.9338741 -45.8553324,-67.9329085 -45.85672970000001,-67.9318249 -45.8585902,-67.92996431 -45.85892348,-67.930795 -45.8589115,-67.9290783 -45.859442,-67.9272544 -45.8596288,-67.9275012 -45.8597558,-67.92650257 -45.85998033,-67.9274476 -45.8598455,-67.9277694 -45.8609139,-67.9253554 -45.8608542,-67.92472033 -45.86078317,-67.9253769 -45.8604208,-67.9236388 -45.8595317,-67.9233384 -45.8597857,-67.92204432 -45.86025045,-67.9235315 -45.8601219,-67.9222655 -45.8604731,-67.92116295 -45.86077528,-67.9219651 -45.8610335,-67.9157424 -45.8609887,-67.91412974 -45.86109479,-67.9153347 -45.8605702,-67.9157317 -45.8599725,-67.9146159 -45.859457,-67.91347499 -45.85938782,-67.9145408 -45.8594047,-67.9124916 -45.858777,-67.9112792 -45.8592776,-67.91058213 -45.85962973,-67.9112792 -45.8592776,-67.9102921 -45.8588293,-67.9105067 -45.8586425,-67.90964669 -45.85881191,-67.9102653 -45.8586986,-67.9081625 -45.8581195,-67.90707943 -45.8582017,-67.90773330000002 -45.8580522,-67.9073417 -45.8579177,-67.9068965 -45.8568567,-67.9053408 -45.8563822,-67.90400196 -45.85653031,-67.904284 -45.8564084,-67.9033184 -45.8552726,-67.9019022 -45.8551232,-67.90067511 -45.8549717,,-67.90022567 -45.85540767,-67.9008508 -45.8548093,-67.8990161 -45.8545403,-67.898823 -45.8538678,-67.8965485 -45.8545553,-67.89483427 -45.85484841,-67.887429 -45.855564,-67.8894138 -45.853808,-67.8932333 -45.8533447,-67.8969455 -45.8545851,-67.8963768 -45.8546599,-67.88581092 -45.85597227,-67.887429 -45.855564,-67.8882551 -45.8548691,-67.8894138 -45.853808,-67.8920853 -45.8535689,-67.8916454 -45.8538678,-67.8897357 -45.85395,-67.88910 -45.85436,-67.8875685 -45.8562589,-67.885799 -45.8571033,-67.88544 -45.8578281,-67.88523 -45.85794,-67.88402968 -45.85834964;-67.88402968 -45.85834964,-67.887429 -45.855564,-67.8882551 -45.8548691,-67.8894138 -45.853808,-67.8920853 -45.8535689,-67.8916454 -45.8538678,-67.8897357 -45.85395,-67.88910 -45.85436,-67.8875685 -45.8562589,-67.885799 -45.8571033,-67.88544 -45.8578281,-67.88523 -45.85794,-67.88581092 -45.85597227,-67.887429 -45.855564,-67.8894138 -45.853808,-67.8932333 -45.8533447,-67.8969455 -45.8545851,-67.8963768 -45.8546599,-67.89483427 -45.85484841,-67.9008508 -45.8548093,-67.8990161 -45.8545403,-67.898823 -45.8538678,-67.8965485 -45.8545553,-67.90022567 -45.85540767,,-67.90067511 -45.8549717,-67.904284 -45.8564084,-67.9033184 -45.8552726,-67.9019022 -45.8551232,-67.90400196 -45.85653031,-67.90773330000002 -45.8580522,-67.9073417 -45.8579177,-67.9068965 -45.8568567,-67.9053408 -45.8563822,-67.90707943 -45.8582017,-67.9102653 -45.8586986,-67.9081625 -45.8581195,-67.90964669 -45.85881191,-67.9112792 -45.8592776,-67.9102921 -45.8588293,-67.9105067 -45.8586425,-67.91058213 -45.85962973,-67.9145408 -45.8594047,-67.9124916 -45.858777,-67.9112792 -45.8592776,-67.91347499 -45.85938782,-67.9153347 -45.8605702,-67.9157317 -45.8599725,-67.9146159 -45.859457,-67.91412974 -45.86109479,-67.9219651 -45.8610335,-67.9157424 -45.8609887,-67.92116295 -45.86077528,-67.9235315 -45.8601219,-67.9222655 -45.8604731,-67.92204432 -45.86025045,-67.9253769 -45.8604208,-67.9236388 -45.8595317,-67.9233384 -45.8597857,-67.92472033 -45.86078317,-67.9288423 -45.860757,-67.9286063 -45.8609812,-67.9269433 -45.8608168,-67.9254305 -45.8610559,-67.9256237 -45.8606898,-67.92827234 -45.86082887,-67.9307091 -45.86097370000001,-67.9287457 -45.8609588,-67.9288423 -45.860757,-67.92973166 -45.86112334,-67.9343569 -45.8614145,-67.9335523 -45.861549,-67.9334021 -45.8611381,-67.9309666 -45.8609214,-67.93332777 -45.86169272,-67.9375219 -45.8620421,-67.9357517 -45.861085800000005,-67.9346144 -45.8614519,-67.93652197 -45.86222667,-67.9388309 -45.8607794,-67.938112 -45.8611007,-67.9377472 -45.860899,-67.9362881 -45.8614743,-67.9374897 -45.8619749,-67.93809539 -45.86091501,-67.9389811 -45.8623559,-67.9389596 -45.8618329,-67.9381979 -45.8610783,-67.9390669 -45.8607794,-67.93749455 -45.86270022,-67.9407942 -45.8630844,-67.9403758 -45.8621878,-67.9386914 -45.8624792,-67.94016816 -45.86304785,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94026881 -45.86394522,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.9397787 -45.86446671,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.93820898 -45.86621382,,-67.93822649 -45.86645361,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S801,S747,S925,S2691,S938,S950</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 944,S56,Linea 940,S78,Linea 932,S645,Linea 1046,S928,Linea 1048,S840,Linea 1220,S826,Linea 1060,S828,Linea 1061,S801;S801,Linea 1054,S760,Linea 1073,S794,Linea 1297,S759,Linea 1306,S834,Linea 1307,S839,Linea 1313,S725,Linea 1310,S744,Linea 1321,S747;S747,Linea 1324,S752,Linea 1326,S2640,Linea 1246,S2627,Linea 1247,S2657,Linea 1260,S925;S925,Linea 1337,S924,Linea 1330,S2717,Linea 1333,S2718,Linea 1334,S2698,Linea 1335,S2711,Linea 1336,S2694,Linea 608,S2619,Linea 606,S2683,Linea 603,S2663,Linea 607,S2673,Linea 1866,S2684,Linea 1868,S2691;S2691,Linea 1868,S2684,Linea 1866,S2673,Linea 607,S2663,Linea 603,S2683,Linea 601,S2689,Linea 599,S2196,Linea 600,S2324,Linea 598,S4,Linea 597,S2293,Linea 596,S17,Linea 594,S2259,Linea 592,S2129,Linea 591,S949,Linea 579,S2132,Linea 578,S2443,Linea 581,S938;S938,Linea 582,S849,Linea 584,S2168,Linea 1617,S2167,Linea 736,S2110,Linea 930,S2111,Linea 934,S2334,Linea 717,S250,Linea 719,S2349,Linea 720,S986,Linea 722,S2454,Linea 1650,S578,Linea 727,S379,Linea 729,S950;S950,Linea 989,S271,Linea 987,S234,Linea 60,S254,Linea 55,S2253,Linea 52,S326,Linea 8,S2258,Linea 7,S328,Linea 6,S309,Linea 4,S329,Linea 3,S993,Linea 2,S2447,Linea 1506,S176,Linea 1,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92260289 -45.87981886,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.91930941 -45.88137118,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91747464 -45.88372353,-67.9183924 -45.8832943,-67.9178345 -45.8833989,-67.9181349 -45.883832,-67.9182851 -45.8847656,-67.9179955 -45.8868492,-67.9182959 -45.887021,-67.918725 -45.8867895,-67.9189289 -45.8859232,-67.91833856 -45.88592331,-67.9201949 -45.8901426,-67.920785 -45.8896646,-67.9178774 -45.8882906,-67.9180706 -45.8870061,-67.9186499 -45.8868642,-67.918961 -45.8857962,-67.91840225 -45.89042054,-67.9177594 -45.8928831,-67.9196584 -45.8908744,-67.9194117 -45.8909267,-67.9188323 -45.8915241,-67.9170513 -45.8923754,-67.9181993 -45.8910014,-67.918961 -45.8905234,-67.91657701 -45.89351753,-67.9165363 -45.8956086,-67.9175019 -45.8947275,-67.9165041 -45.893712,-67.9164827 -45.892689,-67.9183388 -45.8916958,-67.9195189 -45.8908296,-67.9196799 -45.8909341,-67.9177058 -45.8929802,-67.91506756 -45.89602857,-67.9198515 -45.8952876,-67.9187465 -45.8950934,-67.9171157 -45.8950187,-67.9165041 -45.8955564,-67.91895387 -45.89557581;-67.91895387 -45.89557581,-67.9221904 -45.8981548,-67.9233706 -45.8984385,-67.9223728 -45.8974903,-67.9203773 -45.8967212,-67.9203129 -45.8957953,-67.92046749 -45.89809236,-67.9312027 -45.9008128,-67.9299688 -45.9015296,-67.9282737 -45.9003723,-67.9263103 -45.8994316,-67.9232204 -45.8984983,-67.9221046 -45.8981623,-67.93028301 -45.90068278,-67.9313636 -45.9007755,-67.9299688 -45.9015296,-67.9309559 -45.9024778,-67.931664 -45.9022687,-67.9323721 -45.9010144,-67.9335737 -45.900447,-67.9371786 -45.9012832,-67.9379082 -45.9021045,-67.9396677 -45.9026719,-67.941041 -45.9025674,-67.94048121 -45.90255833,-67.9417276 -45.9060912,-67.9426718 -45.9047623,-67.9416203 -45.9047773,-67.9445601 -45.9035379,-67.942543 -45.9026271,-67.94070253 -45.90708056,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.93482704 -45.9074612,-67.922008 -45.9097193,-67.9201412 -45.9109884,-67.9196906 -45.9109585,-67.9200125 -45.9097492,-67.9210854 -45.909585,-67.9227591 -45.90851,-67.9267287 -45.9077933,-67.9317927 -45.9075544,-67.9344964 -45.9080023,-67.9353762 -45.9076142,-67.92132124 -45.90950332,-67.9221797 -45.9097492,-67.9201412 -45.9109884,-67.91924 -45.911063,-67.9191971 -45.9115109,-67.91938339 -45.91141146,-67.9150558 -45.9126903,-67.9162359 -45.9122126,-67.9164505 -45.9115408,-67.9181457 -45.910645,-67.9202914 -45.9111078,-67.91361731 -45.91301639;-67.91361731 -45.91301639,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.9049706 -45.9149894,-67.9050565 -45.9146311,-67.908597 -45.9143027,-67.9105282 -45.9135114,-67.9126954 -45.9130636,-67.9141974 -45.9123171,-67.90949828 -45.91775832,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.90527 -45.9149745,-67.9052067 -45.9146162,-67.9025245 -45.9141235,-67.90171 -45.9145565,-67.89907 -45.9147953,-67.8979325 -45.9163329,-67.8972459 -45.916945,-67.8961945 -45.916945,-67.896 -45.9166,-67.89415644 -45.91643339,-67.8951859 -45.9189752,-67.8956151 -45.9181094,-67.8975034 -45.9169749,-67.8979325 -45.9163329,-67.8972459 -45.916945,-67.8964305 -45.9169151,-67.8960013 -45.9166017,-67.8948966 -45.91911867,-67.895422 -45.9189901,-67.8929543 -45.9186468,-67.89164408 -45.91850265,-67.892257 -45.917781,-67.8922355 -45.9171241,-67.8925788 -45.9166017,-67.8926325 -45.9163553,-67.8917956 -45.9155044,-67.8909266 -45.914855,-67.8902507 -45.9144445,-67.8900683 -45.9137279,-67.8889096 -45.913601,-67.888813 -45.9138473,-67.88780562 -45.91450171;-67.88780562 -45.91450171,-67.8887486 -45.9139369,-67.8892422 -45.9133771,-67.889092 -45.9088982,-67.8895211 -45.9081964,-67.8884697 -45.9068527,-67.8891134 -45.9060464,-67.8899932 -45.905494,-67.890079 -45.9049863,-67.8895855 -45.9049415,-67.8884912 -45.9054641,-67.88690397 -45.90593083,-67.8877831 -45.9058523,-67.8869033 -45.9059867,-67.8840923 -45.9048668,-67.8834271 -45.9042397,-67.8832769 -45.9030601,-67.8820109 -45.9031497,-67.8811312 -45.903299,-67.8780627 -45.9027018,-67.8772688 -45.9023733,-67.8778911 -45.9022389,-67.87749311 -45.90223614,-67.8778911 -45.9022389,-67.8772688 -45.9023733,-67.8762174 -45.9020895,-67.8762174 -45.9018506,-67.875402 -45.9018954,-67.87401 -45.90242679,-67.875402 -45.9018954,-67.8762174 -45.9018506,-67.8767323 -45.9016117,-67.8774405 -45.9009995,-67.8778481 -45.8999691,-67.87600509 -45.90013168,-67.8778481 -45.8999691,-67.8795862 -45.8996556,-67.8816676 -45.8998198,-67.8823113 -45.899342,-67.88283131 -45.8994995,-67.8816462 -45.8976545,-67.8819466 -45.8992972,-67.8823757 -45.8992374,-67.88049412 -45.89765426,-67.8799939 -45.8961761,-67.8810668 -45.8968855,-67.881496 -45.8974007,-67.87842608 -45.89585515,-67.8782558 -45.8919497,-67.8778267 -45.8923828,-67.8780413 -45.8938315,-67.8791893 -45.8953398,-67.87768072 -45.89180609,-67.877419 -45.893361,-67.8777194 -45.8924724,-67.8782558 -45.8919497,-67.87597121 -45.89385401,-67.8765607 -45.8939958,-67.8749728 -45.8950561,-67.8745329 -45.895832600000006,-67.8753376 -45.896079,-67.87484942 -45.89595746,-67.8758526 -45.8962209,-67.8745222 -45.8968183,-67.87714 -45.8974753,-67.87660436 -45.89789111,-67.8773117 -45.8978935,-67.8737068 -45.8977441,-67.8735352 -45.8983713,-67.87284534 -45.89882294;-67.87284534 -45.89882294,-67.8773117 -45.8978935,-67.8737068 -45.8977441,-67.8735352 -45.8983713,-67.87660436 -45.89789111,-67.8758526 -45.8962209,-67.8745222 -45.8968183,-67.87714 -45.8974753,-67.87484942 -45.89595746,-67.8765607 -45.8939958,-67.8749728 -45.8950561,-67.8745329 -45.895832600000006,-67.8753376 -45.896079,-67.87597121 -45.89385401,-67.877419 -45.893361,-67.8777194 -45.8924724,-67.8782558 -45.8919497,-67.87768072 -45.89180609,-67.8788996 -45.8901426,-67.877934 -45.8900903,-67.8774834 -45.8904786,-67.8777945 -45.8925098,-67.8783524 -45.8919348,-67.87813787 -45.88993585,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87484305 -45.89067788,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87661058 -45.88889945,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.88085052 -45.88709026,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88304639 -45.88588109,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88477851 -45.88530377,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88725199 -45.88498287,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88986813 -45.88509226,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.89478887 -45.88442779,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89811074 -45.88424629,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.90293219 -45.8836944,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90362098 -45.8874036;-67.90362098 -45.8874036,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90705336 -45.88840606,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90594775 -45.88423937,,-67.90591516 -45.88446218,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90970498 -45.88326091,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9169762 -45.8821367,-67.9166543 -45.8815466,-67.913146 -45.8824205,-67.9128242 -45.8814645,-67.91214619 -45.88124859,-67.9129636 -45.879291,-67.9124808 -45.8793284,-67.9120302 -45.8802545,-67.9124165 -45.8806728,-67.9129958 -45.8809193,-67.91191949 -45.87938061,-67.9128349 -45.8790819,-67.91394 -45.8782827,-67.9123628 -45.8789922,-67.91076944 -45.87927096,-67.9123628 -45.8789922,-67.9139936 -45.8782154,-67.9156995 -45.8769755,-67.9165149 -45.8759447,-67.9189503 -45.874689800000006,-67.91777485 -45.87443865,-67.9194653 -45.874084800000006,-67.9204845 -45.8732108,-67.9206347 -45.8733602,-67.91957453 -45.87370778,,-67.91979942 -45.8736741,-67.9206347 -45.8733602,-67.9204845 -45.8732108,-67.9220188 -45.8711565,-67.92053462 -45.87127057,-67.9235101 -45.8711267,-67.9226303 -45.8711043,-67.9216754 -45.8713134,-67.92270363 -45.87121385;-67.92270363 -45.87121385,-67.9239607 -45.87091,-67.9254735 -45.8690648,-67.92477777 -45.86902425,-67.9271686 -45.8677052,-67.926718 -45.8677948,-67.925849 -45.8687063,-67.92759808 -45.86788307,-67.9312563 -45.8666892,-67.9306877 -45.8669805,-67.9292071 -45.866338,-67.9283273 -45.867257,-67.93029002 -45.86668754,-67.9317927 -45.8665099,-67.9313958 -45.8663156,-67.9318678 -45.8652174,-67.93025624 -45.86524613,-67.934196 -45.8650755,-67.9339492 -45.8648887,-67.9318678 -45.8652174,-67.93322311 -45.86539389,-67.9364544 -45.8650082,-67.9343033 -45.8651128,-67.93542287 -45.86514387,-67.9374468 -45.8637643,-67.93648120000002 -45.8648999,-67.93638614 -45.8639203,-67.9407513 -45.863103100000004,-67.9403973 -45.8622551,-67.93757020000001 -45.8636746,-67.94016816 -45.86304785,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94026881 -45.86394522,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.9397787 -45.86446671,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.93820898 -45.86621382,,-67.93822649 -45.86645361,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S827,S2439</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 943,S167,Linea 946,S2147,Linea 964,S2146,Linea 949,S31,Linea 950,S2094,Linea 1711,S33,Linea 1222,S927,Linea 1754,S115,Linea 1085,S944,Linea 1077,S2667,Linea 1078,S793,Linea 1076,S791,Linea 1221,S760,Linea 1062,S827;S827,Linea 1062,S760,Linea 1054,S801,Linea 1061,S828,Linea 1060,S826,Linea 1220,S840,Linea 1048,S928,Linea 1046,S645,Linea 931,S2111,Linea 934,S2334,Linea 1648,S77,Linea 713,S236,Linea 1646,S2231,Linea 927,S2278,Linea 688,S2047,Linea 689,S440,Linea 687,S2359,Linea 1644,S2036,Linea 490,S397,Linea 494,S2351,Linea 495,S2035,Linea 679,S642,Linea 680,S2575,Linea 408,S430,Linea 203,S632,Linea 205,S2387,Linea 912,S622,Linea 210,S633,Linea 127,S501,Linea 925,S789,Linea 923,Planta Norte,Linea 1214,S783,Linea 905,S629,Linea 631,S2077,Linea 629,S489,Linea 665,S2265,Linea 659,S683,Linea 637,S458,Linea 634,S2720,Linea 632,S460,Linea 616,S469,Linea 545,S439,Linea 538,S531,Linea 537,S2439;S2439,Linea 537,S531,Linea 538,S439,Linea 545,S469,Linea 614,S2634,Linea 615,S2273,Linea 566,S522,Linea 567,S882,Linea 568,S2255,Linea 1421,S354,Linea 1365,S2009,Linea 1363,S2006,Linea 1361,S353,Linea 1836,S997,Linea 854,S2504,Linea 853,S2716,Linea 849,S2056,Linea 850,S2407,Linea 773,S338,Linea 764,S395,Linea 763,S2468,Linea 760,S402,Linea 759,S2417,Linea 768,S172,Linea 1211,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.93512028 -45.8793768,-67.9380155 -45.8812404,-67.938627 -45.880852,-67.9384768 -45.8805682,-67.9371035 -45.8800827,-67.9358482 -45.8797093,-67.9335737 -45.8797616,-67.934432 -45.8794255,-67.9350007 -45.8792835,-67.9357088 -45.8792686,-67.93588984 -45.88149225,-67.9369104 -45.8822487,-67.9367441 -45.8819686,-67.9385787 -45.881274,-67.938568 -45.8809641,-67.9379243 -45.8811844,-67.93623372 -45.88237227,-67.9369962 -45.8822636,-67.9367441 -45.8819686,-67.9343677 -45.8832719,-67.93288041 -45.88347512,,-67.93297197 -45.88384007,-67.9325545 -45.8880964,-67.9324257 -45.8875363,-67.933048 -45.8868642,-67.9335093 -45.8836304,-67.93195275 -45.88880085,,-67.93184093 -45.88869985,-67.929883 -45.8876782,-67.9306018 -45.8878724,-67.9317605 -45.8883727,-67.9326189 -45.888201,-67.92838162 -45.88770662,-67.9286492 -45.8892166,-67.9288638 -45.8878724,-67.9292393 -45.8876931,-67.92758265 -45.88993498,-67.929368 -45.8925994,-67.9296148 -45.8919423,-67.9287994 -45.8913897,-67.9285097 -45.8910014,-67.9286277 -45.8901127,-67.92819602 -45.89300211,-67.9235637 -45.895743,-67.9241538 -45.8953249,-67.9267287 -45.8949142,-67.9271579 -45.8944961,-67.9267287 -45.8942048,-67.9257309 -45.8936448,-67.9256558 -45.8930698,-67.9268682 -45.8923604,-67.9289711 -45.8934208,-67.9293036 -45.893361,-67.92261639 -45.89612501,-67.9221904 -45.8981548,-67.9232204 -45.8984983,-67.9230487 -45.8980652,-67.9224908 -45.89755,-67.9236388 -45.8964449,-67.92046749 -45.89809236,-67.9196155 -45.9003499,-67.9192078 -45.9000214,-67.9200554 -45.8997825,-67.9231131 -45.8985207,-67.9222226 -45.8982295,-67.91900661 -45.90044035;-67.91900661 -45.90044035,-67.9196155 -45.9003499,-67.9192078 -45.9000214,-67.9200554 -45.8997825,-67.9231131 -45.8985207,-67.9222226 -45.8982295,-67.92046749 -45.89809236,-67.9221904 -45.8981548,-67.9233706 -45.8984385,-67.9223728 -45.8974903,-67.9203773 -45.8967212,-67.9203129 -45.8957953,-67.91895387 -45.89557581,-67.9198515 -45.8952876,-67.9187465 -45.8950934,-67.9171157 -45.8950187,-67.9165041 -45.8955564,-67.91506756 -45.89602857,-67.9165363 -45.8956086,-67.9175019 -45.8947275,-67.9165041 -45.893712,-67.9164827 -45.892689,-67.9183388 -45.8916958,-67.9195189 -45.8908296,-67.9196799 -45.8909341,-67.9177058 -45.8929802,-67.91657701 -45.89351753,-67.9177594 -45.8928831,-67.9196584 -45.8908744,-67.9194117 -45.8909267,-67.9188323 -45.8915241,-67.9170513 -45.8923754,-67.9181993 -45.8910014,-67.918961 -45.8905234,-67.91840225 -45.89042054,-67.9201949 -45.8901426,-67.920785 -45.8896646,-67.9178774 -45.8882906,-67.9180706 -45.8870061,-67.9186499 -45.8868642,-67.918961 -45.8857962,-67.91833856 -45.88592331,-67.9183924 -45.8832943,-67.9178345 -45.8833989,-67.9181349 -45.883832,-67.9182851 -45.8847656,-67.9179955 -45.8868492,-67.9182959 -45.887021,-67.918725 -45.8867895,-67.9189289 -45.8859232,-67.91747464 -45.88372353,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9169762 -45.8821367,-67.9166543 -45.8815466,-67.913146 -45.8824205,-67.9128242 -45.8814645,-67.91214619 -45.88124859,,-67.91210808 -45.8814063,-67.9107428 -45.880501,-67.9119766 -45.880389,-67.9123414 -45.8806952,-67.9129958 -45.8809193,-67.90891537 -45.88072557,,-67.90902811 -45.88062544,-67.9108071 -45.880613,-67.9116762 -45.8803665,-67.9099488 -45.8795972,-67.9089832 -45.8795748,-67.908479 -45.879291,-67.9081464 -45.8778345,-67.9075241 -45.8768784,-67.9078567 -45.8763107,-67.9075456 -45.8753322,-67.9072452 -45.8752799,-67.9064727 -45.8764004,-67.90493501 -45.87690763,-67.9065692 -45.87642280000001,-67.9066443 -45.8758626,-67.9054427 -45.876363,-67.9050243 -45.8759149,-67.90388535 -45.87594679,-67.9027498 -45.8764153,-67.9023206 -45.8766319,-67.9053462 -45.8764079,-67.9049706 -45.8759672,-67.90200809 -45.87637167,-67.8998315 -45.8761838,-67.9001212 -45.8769457,-67.900883 -45.8771399,-67.9025674 -45.8764527,-67.89805175 -45.8762384,,-67.89781334 -45.87614703,-67.8996062 -45.8756758,-67.8981364 -45.8751081,-67.8992522 -45.8749438,-67.89863672 -45.87485225,-67.8992522 -45.8749438,-67.8973424 -45.8751455,-67.8966451 -45.875362100000004,-67.8955722 -45.8745031,-67.89489679 -45.87455424,-67.8954864 -45.8744359,-67.8949392 -45.8739429,-67.895143 -45.8733378,-67.8949499 -45.8727701,-67.89420174 -45.8725767,-67.8951538 -45.8720604,-67.8954649 -45.8713209,-67.8950679 -45.870671,-67.8955185 -45.8706112,-67.89468537 -45.87097799,-67.8955185 -45.8706112,-67.895025 -45.8705813,-67.8944993 -45.8697073,-67.89334262 -45.86982277,-67.8929329 -45.86721210000001,-67.894392 -45.8695056,-67.89194102 -45.86726393,-67.8926647 -45.8667714,-67.8914416 -45.865972,-67.88982897 -45.86617984,-67.8914094 -45.8658749,-67.893244 -45.8652249,-67.8924736 -45.86523062,-67.8942311 -45.8647841,-67.8944886 -45.8644778,-67.8944886 -45.8640444,-67.8955936 -45.8639772,-67.8958511 -45.8637307,-67.8946526 -45.86372426,-67.8961945 -45.8632674,-67.8952932 -45.8629985,-67.8948426 -45.8620347,-67.89369378 -45.862107,-67.8961086 -45.8601668,-67.8949714 -45.8618927,-67.89506126 -45.86022417,-67.8960952 -45.8598436,-67.8959692 -45.8585678,-67.8961945 -45.8583138,-67.8955936 -45.8581419,-67.8949177 -45.8572976,-67.8950787 -45.8562589,-67.894907 -45.8558629,-67.8937376 -45.8558928,-67.8932869 -45.8566101,-67.8928149 -45.8568492,-67.8926003 -45.8566998,-67.89119881 -45.85678635,-67.8915596 -45.8569165,-67.8910661 -45.8570435,-67.8905296 -45.8572453,-67.8862917 -45.8600846,-67.8869355 -45.8600547,-67.8873861 -45.8596438,-67.8876221 -45.8588667,-67.8886843 -45.8579999,-67.88485253 -45.86038085,-67.8855836 -45.8605329,-67.8847253 -45.8611754,-67.8843284 -45.8612427,-67.88286864 -45.86153258,-67.8809917 -45.8619301,-67.8822792 -45.8616611,-67.8835666 -45.8617507,-67.8845859 -45.8612277,-67.8843284 -45.8612427,-67.87889297 -45.8626014,-67.8800154 -45.8627071,-67.880863 -45.8635887,-67.8814101 -45.8638502,-67.881496 -45.8643508,-67.8795862 -45.8651352,-67.87816911 -45.86559299,-67.8794253 -45.8652025,-67.8813779 -45.8643508,-67.8805947 -45.8648065,-67.8801227 -45.8652622,-67.8801119 -45.8658151,-67.8798544 -45.8661513,-67.87841593 -45.86693979,-67.8773224 -45.8682132,-67.8784168 -45.867951700000006,-67.8792751 -45.866988,-67.87529512 -45.86884053,-67.8755951 -45.8690125,-67.8751016 -45.8692815,-67.8764427 -45.8695952,-67.87545792 -45.87007243,-67.8735942 -45.8680488,-67.8724301 -45.8682281,-67.8724086 -45.8686689,-67.8764427 -45.8695952,-67.8729107 -45.86822856,-67.8699839 -45.8693413,-67.8700376 -45.8699389,-67.8703916 -45.8701929,-67.8709173 -45.8699239,-67.8707349 -45.8692815,-67.8712177 -45.8686166,-67.8731596 -45.8681236,-67.86891343 -45.86940172,-67.8665292 -45.8704394,-67.8664756 -45.8701107,-67.8674197 -45.8697073,-67.8698659 -45.8700883,-67.8700376 -45.8699389,-67.8700268 -45.8692964,-67.86552841 -45.87071955,-67.8687286 -45.87223970000001,-67.8671408 -45.8717542,-67.8661752 -45.8712611,-67.8662395 -45.8705888,-67.86803091 -45.87230485,-67.8686213 -45.87223970000001,-67.8679776 -45.8725012,-67.867173 -45.87342,-67.86601994 -45.87390747,-67.8661001 -45.8724788,-67.8660786 -45.8739279,-67.8666043 -45.8740773,-67.86537325 -45.87244509;-67.86537325 -45.87244509,-67.8661001 -45.8724788,-67.8660786 -45.8739279,-67.8666043 -45.8740773,-67.86601994 -45.87390747,-67.8686213 -45.87223970000001,-67.8679776 -45.8725012,-67.867173 -45.87342,-67.86803091 -45.87230485,-67.8687286 -45.87223970000001,-67.8671408 -45.8717542,-67.8661752 -45.8712611,-67.8662395 -45.8705888,-67.86552841 -45.87071955,-67.8665292 -45.8705589,-67.866143 -45.8710594,-67.8657889 -45.8704767,-67.8668725 -45.8688706,-67.86653014 -45.86909111,-67.8668725 -45.8688706,-67.8667974 -45.868646500000004,-67.8676665 -45.8677127,-67.867012 -45.86727940000001,-67.86635342 -45.86702056,-67.8682029 -45.8666817,-67.8692436 -45.8661961,-67.8702307 -45.8647318,-67.8701663 -45.8642088,-67.86895092 -45.86422008,-67.8701234 -45.8635663,-67.8698123 -45.86132490000001,-67.8679776 -45.8603237,-67.8670549 -45.8588966,-67.8654027 -45.859457,-67.8654563 -45.8601518,-67.8656709 -45.8602639,-67.86513556 -45.86046435,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.98715669 -45.86146692,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98206338 -45.86352335,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98026531 -45.86300386,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.97692655 -45.86298292,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97781889 -45.86412305,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97170451 -45.86764851,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.96898996 -45.86789944,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.9688479 -45.86924263,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.96992116 -45.87035971,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.9672039 -45.87497495,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.96572509 -45.87368099,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96214261 -45.87344787,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.95720623 -45.87256309,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95650202 -45.87386891,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95610675 -45.87170205,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95709848 -45.86769228,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2505,S2650,S2493,S2674,S2702</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 943,S167,Linea 946,S2147,Linea 964,S2146,Linea 949,S31,Linea 950,S2094,Linea 1711,S33,Linea 1222,S927,Linea 1754,S115,Linea 1085,S944,Linea 1077,S2667,Linea 1078,S793,Linea 1076,S791,Linea 1221,S760,Linea 1073,S794,Linea 1297,S759,Linea 1306,S834,Linea 1307,S839,Linea 1300,TS1,Linea 1269,S842,Linea 1268,S912,Linea 1850,S802,Linea 1266,S903,Linea 1267,S2505;S2505,Linea 1267,S903,Linea 1301,S2379,Linea 1311,S744,Linea 1321,S747,Linea 1324,S752,Linea 1244,S753,Linea 1323,S755,Linea 1236,S2648,Linea 1237,S2644,Linea 1238,S2524,Linea 1861,S2650;S2650,Linea 1861,S2524,Linea 1238,S2644,Linea 1237,S2648,Linea 1236,S755,Linea 1323,S753,Linea 1244,S752,Linea 1324,S747,Linea 1320,S2493;S2493,Linea 1320,S747,Linea 1324,S752,Linea 1326,S2640,Linea 1246,S2627,Linea 1247,S2657,Linea 1260,S925,Linea 1337,S924,Linea 1330,S2717,Linea 1333,S2718,Linea 1334,S2698,Linea 1335,S2711,Linea 1336,S2694,Linea 608,S2619,Linea 604,S2674;S2674,Linea 604,S2619,Linea 608,S2694,Linea 1336,S2711,Linea 1335,S2698,Linea 1772,S2702;S2702,Linea 1772,S2698,Linea 1335,S2711,Linea 1336,S2694,Linea 608,S2619,Linea 606,S2683,Linea 601,S2689,Linea 599,S2196,Linea 600,S2324,Linea 598,S4,Linea 597,S2293,Linea 596,S17,Linea 594,S2259,Linea 592,S2129,Linea 591,S949,Linea 579,S2132,Linea 578,S2443,Linea 581,S938,Linea 582,S849,Linea 584,S2168,Linea 1617,S2167,Linea 736,S2110,Linea 930,S2111,Linea 931,S645,Linea 932,S78,Linea 940,S56,Linea 944,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.93512028 -45.8793768,-67.9380155 -45.8812404,-67.938627 -45.880852,-67.9384768 -45.8805682,-67.9371035 -45.8800827,-67.9358482 -45.8797093,-67.9335737 -45.8797616,-67.934432 -45.8794255,-67.9350007 -45.8792835,-67.9357088 -45.8792686,-67.93588984 -45.88149225,-67.9369104 -45.8822487,-67.9367441 -45.8819686,-67.9385787 -45.881274,-67.938568 -45.8809641,-67.9379243 -45.8811844,-67.93623372 -45.88237227,-67.9369962 -45.8822636,-67.9367441 -45.8819686,-67.9343677 -45.8832719,-67.93288041 -45.88347512,,-67.93297197 -45.88384007,-67.9325545 -45.8880964,-67.9324257 -45.8875363,-67.933048 -45.8868642,-67.9335093 -45.8836304,-67.93195275 -45.88880085,,-67.93184093 -45.88869985,-67.929883 -45.8876782,-67.9306018 -45.8878724,-67.9317605 -45.8883727,-67.9326189 -45.888201,-67.92838162 -45.88770662,-67.9286492 -45.8892166,-67.9288638 -45.8878724,-67.9292393 -45.8876931,-67.92758265 -45.88993498,-67.929368 -45.8925994,-67.9296148 -45.8919423,-67.9287994 -45.8913897,-67.9285097 -45.8910014,-67.9286277 -45.8901127,-67.92819602 -45.89300211,-67.9235637 -45.895743,-67.9241538 -45.8953249,-67.9267287 -45.8949142,-67.9271579 -45.8944961,-67.9267287 -45.8942048,-67.9257309 -45.8936448,-67.9256558 -45.8930698,-67.9268682 -45.8923604,-67.9289711 -45.8934208,-67.9293036 -45.893361,-67.92261639 -45.89612501,-67.9221904 -45.8981548,-67.9232204 -45.8984983,-67.9230487 -45.8980652,-67.9224908 -45.89755,-67.9236388 -45.8964449,-67.92046749 -45.89809236,-67.9312027 -45.9008128,-67.9299688 -45.9015296,-67.9282737 -45.9003723,-67.9263103 -45.8994316,-67.9232204 -45.8984983,-67.9221046 -45.8981623,-67.93028301 -45.90068278,-67.9313636 -45.9007755,-67.9299688 -45.9015296,-67.9309559 -45.9024778,-67.931664 -45.9022687,-67.9323721 -45.9010144,-67.9335737 -45.900447,-67.9371786 -45.9012832,-67.9379082 -45.9021045,-67.9396677 -45.9026719,-67.941041 -45.9025674,-67.94048121 -45.90255833,-67.9417276 -45.9060912,-67.9426718 -45.9047623,-67.9416203 -45.9047773,-67.9445601 -45.9035379,-67.942543 -45.9026271,-67.94070253 -45.90708056,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.93482704 -45.9074612,-67.937994 -45.9086444,-67.9371142 -45.9083457,-67.9353976 -45.9082412,-67.9346466 -45.907853,-67.9353762 -45.9076142,NA,-67.9432511 -45.9099433,-67.9437232 -45.9109734,-67.9452038 -45.9116154,-67.9434228 -45.911287,-67.9401827 -45.9100179,-67.9391742 -45.9089579,-67.94205735 -45.90980155,-67.9382944 -45.9130934,-67.9395604 -45.9136906,-67.9405904 -45.9131382,-67.9431438 -45.9124664,-67.9441524 -45.9118692,-67.9452038 -45.9116154,-67.9438734 -45.9110779,-67.9432511 -45.9099433,-67.93665996 -45.91286222,-67.9371786 -45.9124813,-67.9369533 -45.9118916,-67.9363096 -45.9101747,-67.935183 -45.9100179,-67.9330123 -45.90989279,-67.93396 -45.910003,-67.9332089 -45.9102269,-67.9314494 -45.9103464,-67.9311919 -45.9100478,-67.9308486 -45.9099433,-67.92909659 -45.90983142,-67.9287028 -45.9107794,-67.9314494 -45.9103464,-67.9308486 -45.9099433,-67.92696483 -45.91132509;-67.92696483 -45.91132509,-67.9287028 -45.9107794,-67.9314494 -45.9103464,-67.9308486 -45.9099433,-67.92909659 -45.90983142,-67.9308486 -45.9099433,-67.9312348 -45.9102419,-67.9297328 -45.910421,-67.9279304 -45.9103613,-67.9261494 -45.9116303,-67.9255915 -45.9130038,-67.924819 -45.9119737,-67.9250765 -45.911063,-67.92339949 -45.91107871,-67.9191971 -45.9115109,-67.9193473 -45.9122574,-67.9206347 -45.9121827,-67.9237676 -45.911287,-67.91938339 -45.91141146,-67.9150558 -45.9126903,-67.9162359 -45.9122126,-67.9164505 -45.9115408,-67.9181457 -45.910645,-67.9202914 -45.9111078,-67.91361731 -45.91301639,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.9049706 -45.9149894,-67.9050565 -45.9146311,-67.908597 -45.9143027,-67.9105282 -45.9135114,-67.9126954 -45.9130636,-67.9141974 -45.9123171,-67.90949828 -45.91775832,-67.9105067 -45.9207068,-67.9081678 -45.9205276,-67.9078245 -45.9200798,-67.9065156 -45.9195574,-67.9081035 -45.9191991,-67.9097772 -45.9180049,-67.91006087 -45.92075561,-67.9186392 -45.925737,-67.9181242 -45.9258713,-67.9160213 -45.924319,-67.9144335 -45.9239011,-67.9125881 -45.9236324,-67.911365 -45.9232891,-67.908361 -45.9205575,-67.9107213 -45.9206172,-67.91781996 -45.92567691,-67.9183388 -45.9258713,-67.9167509 -45.9248116,-67.9175448 -45.9264683,-67.9174805 -45.9272444,-67.9163647 -45.9281549,-67.9153562 -45.9282295,-67.9142404 -45.9287071,-67.9133177 -45.9295131,-67.9126954 -45.9289758,-67.912631 -45.9280206,-67.9141116 -45.9273489,-67.9158497 -45.9268415,-67.9161072 -45.9264235,-67.9158711 -45.9259907,-67.91406535 -45.92603076,-67.9160428 -45.9260952,-67.9158497 -45.9268415,-67.9124379 -45.928125,-67.9126954 -45.9289758,-67.9133177 -45.9295131,-67.9122019 -45.9304384,-67.9106355 -45.9306175,-67.9069018 -45.9297071,-67.9082537 -45.9278265,-67.90777463 -45.92772469,-67.9082537 -45.9278265,-67.9069018 -45.9297071,-67.9044557 -45.9301399,-67.9031253 -45.9268564,-67.9025245 -45.9264086,-67.90071017 -45.92674612,-67.9025245 -45.9264086,-67.9055715 -45.9264683,-67.90418073 -45.92703668;-67.90418073 -45.92703668,-67.9025245 -45.9264086,-67.9055715 -45.9264683,-67.90071017 -45.92674612,-67.9082537 -45.9278265,-67.9069018 -45.9297071,-67.9044557 -45.9301399,-67.9031253 -45.9268564,-67.9025245 -45.9264086,-67.90777463 -45.92772469,-67.9160428 -45.9260952,-67.9158497 -45.9268415,-67.9124379 -45.928125,-67.9126954 -45.9289758,-67.9133177 -45.9295131,-67.9122019 -45.9304384,-67.9106355 -45.9306175,-67.9069018 -45.9297071,-67.9082537 -45.9278265,-67.91406535 -45.92603076,-67.9183388 -45.9258713,-67.9167509 -45.9248116,-67.9175448 -45.9264683,-67.9174805 -45.9272444,-67.9163647 -45.9281549,-67.9153562 -45.9282295,-67.9142404 -45.9287071,-67.9133177 -45.9295131,-67.9126954 -45.9289758,-67.912631 -45.9280206,-67.9141116 -45.9273489,-67.9158497 -45.9268415,-67.9161072 -45.9264235,-67.9158711 -45.9259907,-67.91781996 -45.92567691,-67.9186392 -45.925737,-67.9181242 -45.9258713,-67.9160213 -45.924319,-67.9144335 -45.9239011,-67.9125881 -45.9236324,-67.911365 -45.9232891,-67.908361 -45.9205575,-67.9107213 -45.9206172,-67.91006087 -45.92075561,-67.9105067 -45.9207068,-67.9081678 -45.9205276,-67.9078245 -45.9200798,-67.9065156 -45.9195574,-67.9081035 -45.9191991,-67.9097772 -45.9180049,-67.90949828 -45.91775832,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.9049706 -45.9149894,-67.9050565 -45.9146311,-67.908597 -45.9143027,-67.9105282 -45.9135114,-67.9126954 -45.9130636,-67.9141974 -45.9123171,-67.91361731 -45.91301639,-67.9115582 -45.9126157,-67.9142189 -45.9121827,-67.9144764 -45.9124216,-67.91006671 -45.91285318;-67.91006671 -45.91285318,-67.9115582 -45.9126157,-67.9142189 -45.9121827,-67.9144764 -45.9124216,-67.91361731 -45.91301639,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.9049706 -45.9149894,-67.9050565 -45.9146311,-67.908597 -45.9143027,-67.9105282 -45.9135114,-67.9126954 -45.9130636,-67.9141974 -45.9123171,-67.90949828 -45.91775832,-67.9095197 -45.9178556,-67.9090691 -45.9168107,-67.90527 -45.9149745,-67.9052067 -45.9146162,-67.9025245 -45.9141235,-67.90171 -45.9145565,-67.89907 -45.9147953,-67.8979325 -45.9163329,-67.8972459 -45.916945,-67.8961945 -45.916945,-67.896 -45.9166,-67.89415644 -45.91643339,-67.8951859 -45.9189752,-67.8956151 -45.9181094,-67.8975034 -45.9169749,-67.8979325 -45.9163329,-67.8972459 -45.916945,-67.8964305 -45.9169151,-67.8960013 -45.9166017,-67.8948966 -45.91911867,-67.895422 -45.9189901,-67.8929543 -45.9186468,-67.89164408 -45.91850265,-67.892257 -45.917781,-67.8922355 -45.9171241,-67.8925788 -45.9166017,-67.8926325 -45.9163553,-67.8917956 -45.9155044,-67.8909266 -45.914855,-67.8902507 -45.9144445,-67.8900683 -45.9137279,-67.8889096 -45.913601,-67.888813 -45.9138473,-67.88780562 -45.91450171,-67.8887486 -45.9139369,-67.8892422 -45.9133771,-67.889092 -45.9088982,-67.8895211 -45.9081964,-67.8884697 -45.9068527,-67.8891134 -45.9060464,-67.8899932 -45.905494,-67.890079 -45.9049863,-67.8895855 -45.9049415,-67.8884912 -45.9054641,-67.88690397 -45.90593083,-67.8877831 -45.9058523,-67.8869033 -45.9059867,-67.8840923 -45.9048668,-67.8834271 -45.9042397,-67.8832769 -45.9030601,-67.8820109 -45.9031497,-67.8811312 -45.903299,-67.8780627 -45.9027018,-67.8772688 -45.9023733,-67.8778911 -45.9022389,-67.87749311 -45.90223614,-67.8778911 -45.9022389,-67.8772688 -45.9023733,-67.8762174 -45.9020895,-67.8762174 -45.9018506,-67.875402 -45.9018954,-67.87401 -45.90242679,-67.875402 -45.9018954,-67.8762174 -45.9018506,-67.8767323 -45.9016117,-67.8774405 -45.9009995,-67.8778481 -45.8999691,-67.87600509 -45.90013168,-67.8778481 -45.8999691,-67.8795862 -45.8996556,-67.8816676 -45.8998198,-67.8823113 -45.899342,-67.88283131 -45.8994995,-67.8816462 -45.8976545,-67.8819466 -45.8992972,-67.8823757 -45.8992374,-67.88049412 -45.89765426,-67.8799939 -45.8961761,-67.8810668 -45.8968855,-67.881496 -45.8974007,-67.87842608 -45.89585515,-67.8803694 -45.8936299,-67.8794038 -45.8940256,-67.8790176 -45.8951009,-67.8792751 -45.8953174,-67.8799303 -45.89359628;-67.8799303 -45.89359628,-67.8803694 -45.8936299,-67.8794038 -45.8940256,-67.8790176 -45.8951009,-67.8792751 -45.8953174,-67.87842608 -45.89585515,-67.8799939 -45.8961761,-67.8810668 -45.8968855,-67.881496 -45.8974007,-67.88049412 -45.89765426,-67.8816462 -45.8976545,-67.8819466 -45.8992972,-67.8823757 -45.8992374,-67.88283131 -45.8994995,-67.8778481 -45.8999691,-67.8795862 -45.8996556,-67.8816676 -45.8998198,-67.8823113 -45.899342,-67.87600509 -45.90013168,,-67.87638486 -45.90010492;-67.87638486 -45.90010492,,-67.87600509 -45.90013168,-67.8778481 -45.8999691,-67.8795862 -45.8996556,-67.8816676 -45.8998198,-67.8823113 -45.899342,-67.88283131 -45.8994995,-67.8816462 -45.8976545,-67.8819466 -45.8992972,-67.8823757 -45.8992374,-67.88049412 -45.89765426,-67.8799939 -45.8961761,-67.8810668 -45.8968855,-67.881496 -45.8974007,-67.87842608 -45.89585515,-67.8782558 -45.8919497,-67.8778267 -45.8923828,-67.8780413 -45.8938315,-67.8791893 -45.8953398,-67.87768072 -45.89180609,-67.8788996 -45.8901426,-67.877934 -45.8900903,-67.8774834 -45.8904786,-67.8777945 -45.8925098,-67.8783524 -45.8919348,-67.87813787 -45.88993585,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87484305 -45.89067788,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87661058 -45.88889945,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.88085052 -45.88709026,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88304639 -45.88588109,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88477851 -45.88530377,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88725199 -45.88498287,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88986813 -45.88509226,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.89478887 -45.88442779,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89811074 -45.88424629,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.90293219 -45.8836944,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90362098 -45.8874036,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90705336 -45.88840606,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90594775 -45.88423937,,-67.90591516 -45.88446218,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90970498 -45.88326091,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.91541483 -45.88231338,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91747464 -45.88372353,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91930941 -45.88137118,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.92260289 -45.87981886,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2544,S2054,S892,S450,S2171</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 1211,S172,Linea 768,S2417,Linea 759,S402,Linea 760,S2468,Linea 763,S395,Linea 764,S338,Linea 773,S2407,Linea 850,S2056,Linea 849,S2716,Linea 853,S2504,Linea 854,S997,Linea 1836,S353,Linea 1361,S2006,Linea 1363,S2009,Linea 1365,S354,Linea 1421,S2255,Linea 568,S882,Linea 622,S523,Linea 221,S2458,Linea 220,S2054,Linea 222,S2544;S2544,Linea 222,S2054;S2054,Linea 220,S2458,Linea 214,S788,Linea 216,S2676,Linea 217,S2396,Linea 240,S2395,Linea 243,S1005,Linea 397,S543,Linea 399,S2288,Linea 247,S2418,Linea 249,S611,Linea 250,E291,Linea 252,S853,Linea 254,S851,Linea 257,S591,Linea 258,S876,Linea 263,S886,Linea 264,S868,Linea 270,S869,Linea 278,S864,Linea 277,S2582,Linea 275,S2279,Linea 274,S892;S892,Linea 274,S2279,Linea 275,S2582,Linea 277,S864,Linea 278,S869,Linea 270,S868,Linea 264,S886,Linea 263,S876,Linea 258,S591,Linea 257,S851,Linea 254,S853,Linea 252,E291,Linea 250,S611,Linea 249,S2418,Linea 247,S2288,Linea 399,S543,Linea 397,S1005,Linea 243,S2395,Linea 240,S2396,Linea 217,S2676,Linea 216,S788,Linea 215,S523,Linea 621,E290,Linea 620,S2386,Linea 238,S958,Linea 626,S2560,Linea 627,S2262,Linea 628,S2445,Linea 662,S2720,Linea 634,S458,Linea 660,S683,Linea 659,S2265,Linea 665,S489,Linea 629,S2077,Linea 631,S629,Linea 905,S783,Linea 1214,Planta Norte,Linea 923,S789,Linea 925,S501,Linea 127,S633,Linea 210,S622,Linea 211,S2552,Linea 1563,S635,Linea 186,S495,Linea 183,S637,Linea 178,S640,Linea 177,S676,Linea 170,S691,Linea 172,S450;S450,Linea 172,S691,Linea 170,S676,Linea 177,S640,Linea 178,S637,Linea 183,S495,Linea 186,S635,Linea 1555,S2552,Linea 211,S622,Linea 210,S633,Linea 127,S501,Linea 925,S789,Linea 923,Planta Norte,Linea 1214,S783,Linea 905,S629,Linea 631,S2077,Linea 629,S489,Linea 665,S2265,Linea 664,S2444,Linea 666,S782,Linea 906,S2171;S2171,Linea 906,S782,Linea 666,S2444,Linea 664,S2265,Linea 665,S489,Linea 629,S2077,Linea 631,S629,Linea 905,S783,Linea 1214,Planta Norte,Linea 923,S789,Linea 925,S501,Linea 127,S633,Linea 210,S622,Linea 211,S2552,Linea 1563,S635,Linea 186,S495,Linea 183,S637,Linea 178,S640,Linea 177,S676,Linea 170,S691,Linea 169,S451,Linea 168,S2478,Linea 167,S2510,Linea 164,S678,Linea 162,S662,Linea 161,S246,Linea 158,S680,Linea 1549,S2488,Linea 156,S208,Linea 57,S2253,Linea 52,S326,Linea 8,S2258,Linea 7,S328,Linea 6,S309,Linea 4,S329,Linea 3,S993,Linea 2,S2447,Linea 1506,S176,Linea 1,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.95709848 -45.86769228,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95610675 -45.87170205,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95650202 -45.87386891,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95720623 -45.87256309,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.96214261 -45.87344787,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96572509 -45.87368099,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.9672039 -45.87497495,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.96992116 -45.87035971,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.9688479 -45.86924263,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.96898996 -45.86789944,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.97170451 -45.86764851,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97781889 -45.86412305,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97692655 -45.86298292,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.98026531 -45.86300386,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98206338 -45.86352335,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86821501 -45.85959306,-67.8694689 -45.8577534,-67.8702736 -45.8579402,-67.8698766 -45.8584483,-67.8689003 -45.8587696,-67.86752908 -45.85773082,-67.8694689 -45.8577534,-67.8703272 -45.8578879,-67.8705525 -45.8574694,-67.8710139 -45.8575441,-67.87029294 -45.85782787,-67.8710139 -45.8575441,-67.8706169 -45.8573573,-67.8709602 -45.8560348,-67.86919632 -45.85619455;-67.86919632 -45.85619455,-67.8710139 -45.8575441,-67.8706169 -45.8573573,-67.8709602 -45.8560348,-67.87029294 -45.85782787;-67.87029294 -45.85782787,-67.8694689 -45.8577534,-67.8703272 -45.8578879,-67.8705525 -45.8574694,-67.8710139 -45.8575441,-67.86752908 -45.85773082,-67.8666365 -45.8577982,-67.8680527 -45.857716,-67.86509618 -45.85797591,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86269634 -45.8576934,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86119926 -45.8582863,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.85800456 -45.85865306,-67.8585362 -45.8586425,-67.8567231 -45.8591431,-67.8550386 -45.8605852,-67.85325633 -45.86047853,-67.8547168 -45.8600622,-67.8545237 -45.8589862,-67.8537083 -45.858508,-67.852335 -45.8585529,-67.85051371 -45.8587379,-67.8511226 -45.8587172,-67.8489661 -45.8581942,-67.8504252 -45.8565952,-67.84992667 -45.85649082,-67.851541 -45.8561394,-67.8511119 -45.8555416,-67.8497386 -45.8553249,-67.8490841 -45.8555341,-67.84737753 -45.85568862,-67.8480864 -45.8556163,-67.846477 -45.8561992,-67.8452325 -45.8556537,-67.84359994 -45.85582912,-67.8438914 -45.8557508,-67.8414237 -45.8563262,-67.8377545 -45.8563187,-67.83653581 -45.85644197,-67.8371108 -45.8561767,-67.8326368 -45.8556313,-67.83154193 -45.85548135,-67.8319716 -45.855437,-67.8292787 -45.855108200000004,-67.82760578 -45.8552439,-67.8277767 -45.8550036,-67.8251696 -45.8547271,-67.824676 -45.8544207,-67.82322995 -45.85451391,-67.8244078 -45.8540994,-67.8225088 -45.8518801,-67.82163737 -45.8516816,-67.8223801 -45.8515886,-67.8209639 -45.8504751,-67.8196657 -45.8504079,-67.81800483 -45.85079524,-67.8185713 -45.8505798,-67.816962 -45.851073,-67.8161895 -45.8523658,-67.81497943 -45.85259887,-67.816329 -45.8519921,-67.8167796 -45.8511701,-67.8158462 -45.8513121,-67.8150415 -45.8533148,-67.8138399 -45.8541293,-67.81217316 -45.85421245,-67.809999 -45.85395,-67.81053540000002 -45.8542265,-67.8125417 -45.8543386,-67.80813131 -45.85419968,-67.8093982 -45.8548467,-67.8103423 -45.8545851,-67.808851 -45.8544506,-67.8103101 -45.854219,-67.8097093 -45.8539126,-67.8072436 -45.85498762,-67.8098595 -45.8560647,-67.809999 -45.8550036,-67.8090441 -45.8548691,-67.80907829 -45.8565264,-67.8125632 -45.8568492,-67.810396 -45.8571033,-67.8101599 -45.8566923,-67.81224182 -45.85671416;-67.81224182 -45.85671416,-67.8125632 -45.8568492,-67.810396 -45.8571033,-67.8101599 -45.8566923,-67.80907829 -45.8565264,-67.8098595 -45.8560647,-67.809999 -45.8550036,-67.8090441 -45.8548691,-67.8072436 -45.85498762,-67.8093982 -45.8548467,-67.8103423 -45.8545851,-67.808851 -45.8544506,-67.8103101 -45.854219,-67.8097093 -45.8539126,-67.80813131 -45.85419968,-67.809999 -45.85395,-67.81053540000002 -45.8542265,-67.8125417 -45.8543386,-67.81217316 -45.85421245,-67.816329 -45.8519921,-67.8167796 -45.8511701,-67.8158462 -45.8513121,-67.8150415 -45.8533148,-67.8138399 -45.8541293,-67.81497943 -45.85259887,-67.8185713 -45.8505798,-67.816962 -45.851073,-67.8161895 -45.8523658,-67.81800483 -45.85079524,-67.8223801 -45.8515886,-67.8209639 -45.8504751,-67.8196657 -45.8504079,-67.82163737 -45.8516816,-67.8244078 -45.8540994,-67.8225088 -45.8518801,-67.82322995 -45.85451391,-67.8277767 -45.8550036,-67.8251696 -45.8547271,-67.824676 -45.8544207,-67.82760578 -45.8552439,-67.8319716 -45.855437,-67.8292787 -45.855108200000004,-67.83154193 -45.85548135,-67.8371108 -45.8561767,-67.8326368 -45.8556313,-67.83653581 -45.85644197,-67.8438914 -45.8557508,-67.8414237 -45.8563262,-67.8377545 -45.8563187,-67.84359994 -45.85582912,-67.8480864 -45.8556163,-67.846477 -45.8561992,-67.8452325 -45.8556537,-67.84737753 -45.85568862,-67.851541 -45.8561394,-67.8511119 -45.8555416,-67.8497386 -45.8553249,-67.8490841 -45.8555341,-67.84992667 -45.85649082,-67.8511226 -45.8587172,-67.8489661 -45.8581942,-67.8504252 -45.8565952,-67.85051371 -45.8587379,-67.8547168 -45.8600622,-67.8545237 -45.8589862,-67.8537083 -45.858508,-67.852335 -45.8585529,-67.85325633 -45.86047853,-67.8585362 -45.8586425,-67.8567231 -45.8591431,-67.8550386 -45.8605852,-67.85800456 -45.85865306,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.86119926 -45.8582863,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86269634 -45.8576934,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86509618 -45.85797591,-67.8666258 -45.8579551,-67.8677523 -45.8588443,-67.8689218 -45.8588293,-67.8688896 -45.8591954,-67.86821501 -45.85959306,-67.87273050000002 -45.8603909,-67.8713894 -45.86060760000001,-67.8696728 -45.8603312,-67.8687501 -45.8600248,-67.868396 -45.859329900000006,-67.8688145 -45.8588667,-67.8688037 -45.8592029,-67.87238238 -45.86053745,-67.8762281 -45.861026,-67.8764856 -45.8608841,-67.8761208 -45.8599501,-67.8737497 -45.8604133,-67.87444477 -45.86135588,-67.8761101 -45.86104100000001,-67.8766465 -45.8610185,-67.8767216 -45.8614071,-67.87598229 -45.86175617,-67.8765821 -45.8616835,-67.8769684 -45.861803,-67.877183 -45.8627295,-67.87624464 -45.86324951,-67.87849190000001 -45.8641416,-67.8785133 -45.863499,-67.8778052 -45.8630732,-67.87711554 -45.86436098,-67.8776658 -45.8646496,-67.876035 -45.8642312,-67.8759491 -45.8638278,-67.8749514 -45.864380600000004,-67.87319628 -45.86441938,-67.8740609 -45.8679218,-67.8740501 -45.8676828,-67.8730416 -45.867115,-67.8732347 -45.8667639,-67.8746724 -45.8662783,-67.8754556 -45.865591,-67.876035 -45.8638054,-67.8748977 -45.8643134,-67.8729107 -45.86822856,-67.8735942 -45.8680488,-67.8724301 -45.8682281,-67.8724086 -45.8686689,-67.8764427 -45.8695952,-67.87545792 -45.87007243,-67.8773439 -45.8681385,-67.878288 -45.8679816,-67.8767216 -45.8696102,-67.87529512 -45.86884053,-67.8773224 -45.8682132,-67.8784168 -45.867951700000006,-67.8792751 -45.866988,-67.87841593 -45.86693979,-67.8794253 -45.8652025,-67.8813779 -45.8643508,-67.8805947 -45.8648065,-67.8801227 -45.8652622,-67.8801119 -45.8658151,-67.8798544 -45.8661513,-67.87816911 -45.86559299,-67.8800154 -45.8627071,-67.880863 -45.8635887,-67.8814101 -45.8638502,-67.881496 -45.8643508,-67.8795862 -45.8651352,-67.87889297 -45.8626014,-67.8809917 -45.8619301,-67.8822792 -45.8616611,-67.8835666 -45.8617507,-67.8845859 -45.8612277,-67.8843284 -45.8612427,-67.88286864 -45.86153258,-67.8855836 -45.8605329,-67.8847253 -45.8611754,-67.8843284 -45.8612427,-67.88485253 -45.86038085,-67.8862917 -45.8600846,-67.8869355 -45.8600547,-67.8873861 -45.8596438,-67.8876221 -45.8588667,-67.8886843 -45.8579999,-67.8905296 -45.8572453,-67.8915596 -45.8569165,-67.8910661 -45.8570435,-67.89119881 -45.85678635,-67.8960952 -45.8598436,-67.8959692 -45.8585678,-67.8961945 -45.8583138,-67.8955936 -45.8581419,-67.8949177 -45.8572976,-67.8950787 -45.8562589,-67.894907 -45.8558629,-67.8937376 -45.8558928,-67.8932869 -45.8566101,-67.8928149 -45.8568492,-67.8926003 -45.8566998,-67.89506126 -45.86022417,-67.8961086 -45.8601668,-67.8949714 -45.8618927,-67.89369378 -45.862107,-67.8961945 -45.8632674,-67.8952932 -45.8629985,-67.8948426 -45.8620347,-67.8946526 -45.86372426,-67.8962696 -45.8632899,-67.8974175 -45.8625203,-67.8984583 -45.8622177,-67.89779792 -45.86312838,,-67.8975525 -45.86346654,-67.8993487 -45.8636634,-67.8988981 -45.8636933,-67.89861920000001 -45.8635215,-67.89867893 -45.86374335,-67.9039943 -45.8644255,-67.9028034 -45.8637381,-67.8999174 -45.8635812,-67.90314798 -45.8648888,-67.906419 -45.86626330000001,-67.9050887 -45.8652025,-67.9043591 -45.864814,-67.90565529 -45.8665856,-67.9108179 -45.86391,-67.9094768 -45.8638353,-67.9077816 -45.8657329,-67.9066443 -45.8662484,-67.90869072 -45.86438156,-67.9100454 -45.8663754,-67.9094982 -45.8663306,-67.909627 -45.86429100000001,-67.90947109 -45.86641003,-67.911644 -45.8674213,-67.9121912 -45.8666145,-67.9106033 -45.8662932,-67.91006247 -45.86780539;-67.91006247 -45.86780539,-67.911644 -45.8674213,-67.9121912 -45.8666145,-67.9106033 -45.8662932,-67.90947109 -45.86641003,-67.9100454 -45.8663754,-67.9094982 -45.8663306,-67.909627 -45.86429100000001,-67.90869072 -45.86438156,-67.9108179 -45.86391,-67.9094768 -45.8638353,-67.9077816 -45.8657329,-67.9066443 -45.8662484,-67.90565529 -45.8665856,-67.906419 -45.86626330000001,-67.9050887 -45.8652025,-67.9043591 -45.864814,-67.90314798 -45.8648888,-67.9039943 -45.8644255,-67.9028034 -45.8637381,-67.8999174 -45.8635812,-67.89867893 -45.86374335,-67.8993487 -45.8636634,-67.8988981 -45.8636933,-67.89861920000001 -45.8635215,-67.8975525 -45.86346654,,-67.89779792 -45.86312838,-67.8962696 -45.8632899,-67.8974175 -45.8625203,-67.8984583 -45.8622177,-67.8946526 -45.86372426,-67.8961945 -45.8632674,-67.8952932 -45.8629985,-67.8948426 -45.8620347,-67.89369378 -45.862107,-67.8961086 -45.8601668,-67.8949714 -45.8618927,-67.89506126 -45.86022417,-67.8960952 -45.8598436,-67.8959692 -45.8585678,-67.8961945 -45.8583138,-67.8955936 -45.8581419,-67.8949177 -45.8572976,-67.8950787 -45.8562589,-67.894907 -45.8558629,-67.8937376 -45.8558928,-67.8932869 -45.8566101,-67.8928149 -45.8568492,-67.8926003 -45.8566998,-67.89119881 -45.85678635,-67.8915596 -45.8569165,-67.8910661 -45.8570435,-67.8905296 -45.8572453,-67.8862917 -45.8600846,-67.8869355 -45.8600547,-67.8873861 -45.8596438,-67.8876221 -45.8588667,-67.8886843 -45.8579999,-67.88485253 -45.86038085,-67.8855836 -45.8605329,-67.8847253 -45.8611754,-67.8843284 -45.8612427,-67.88286864 -45.86153258,-67.8809917 -45.8619301,-67.8822792 -45.8616611,-67.8835666 -45.8617507,-67.8845859 -45.8612277,-67.8843284 -45.8612427,-67.87889297 -45.8626014,-67.8800154 -45.8627071,-67.880863 -45.8635887,-67.8814101 -45.8638502,-67.881496 -45.8643508,-67.8795862 -45.8651352,-67.87816911 -45.86559299,-67.8794253 -45.8652025,-67.8813779 -45.8643508,-67.8805947 -45.8648065,-67.8801227 -45.8652622,-67.8801119 -45.8658151,-67.8798544 -45.8661513,-67.87841593 -45.86693979,-67.881968 -45.8668087,-67.881099 -45.866046700000005,-67.879715 -45.8662036,-67.88072073 -45.86731686,-67.8820217 -45.866861,-67.8810775 -45.8659421,-67.8805304 -45.8654714,-67.8806269 -45.865195,-67.8815389 -45.8649484,-67.88079329 -45.86488873,-67.8823435 -45.864418,-67.8824079 -45.8637456,-67.8817427 -45.8630807,-67.8819895 -45.8626249,-67.8826332 -45.8624979,-67.8835452 -45.862722,-67.8839958 -45.8626847,-67.88289949 -45.86309075;-67.88289949 -45.86309075,-67.8823435 -45.864418,-67.8824079 -45.8637456,-67.8817427 -45.8630807,-67.8819895 -45.8626249,-67.8826332 -45.8624979,-67.8835452 -45.862722,-67.8839958 -45.8626847,-67.88079329 -45.86488873,-67.8820217 -45.866861,-67.8810775 -45.8659421,-67.8805304 -45.8654714,-67.8806269 -45.865195,-67.8815389 -45.8649484,-67.88072073 -45.86731686,-67.881968 -45.8668087,-67.881099 -45.866046700000005,-67.879715 -45.8662036,-67.87841593 -45.86693979,-67.8794253 -45.8652025,-67.8813779 -45.8643508,-67.8805947 -45.8648065,-67.8801227 -45.8652622,-67.8801119 -45.8658151,-67.8798544 -45.8661513,-67.87816911 -45.86559299,-67.8800154 -45.8627071,-67.880863 -45.8635887,-67.8814101 -45.8638502,-67.881496 -45.8643508,-67.8795862 -45.8651352,-67.87889297 -45.8626014,-67.8809917 -45.8619301,-67.8822792 -45.8616611,-67.8835666 -45.8617507,-67.8845859 -45.8612277,-67.8843284 -45.8612427,-67.88286864 -45.86153258,-67.8855836 -45.8605329,-67.8847253 -45.8611754,-67.8843284 -45.8612427,-67.88485253 -45.86038085,-67.8862917 -45.8600846,-67.8869355 -45.8600547,-67.8873861 -45.8596438,-67.8876221 -45.8588667,-67.8886843 -45.8579999,-67.8905296 -45.8572453,-67.8915596 -45.8569165,-67.8910661 -45.8570435,-67.89119881 -45.85678635,-67.8960952 -45.8598436,-67.8959692 -45.8585678,-67.8961945 -45.8583138,-67.8955936 -45.8581419,-67.8949177 -45.8572976,-67.8950787 -45.8562589,-67.894907 -45.8558629,-67.8937376 -45.8558928,-67.8932869 -45.8566101,-67.8928149 -45.8568492,-67.8926003 -45.8566998,-67.89506126 -45.86022417,-67.8961086 -45.8601668,-67.8949714 -45.8618927,-67.89369378 -45.862107,-67.8961945 -45.8632674,-67.8952932 -45.8629985,-67.8948426 -45.8620347,-67.8946526 -45.86372426,-67.8962696 -45.8632899,-67.8974175 -45.8625203,-67.8984583 -45.8622177,-67.89779792 -45.86312838,,-67.8975525 -45.86346654,-67.8993487 -45.8636634,-67.8988981 -45.8636933,-67.89861920000001 -45.8635215,-67.89867893 -45.86374335,-67.9039943 -45.8644255,-67.9028034 -45.8637381,-67.8999174 -45.8635812,-67.90314798 -45.8648888,-67.906419 -45.86626330000001,-67.9050887 -45.8652025,-67.9043591 -45.864814,-67.90565529 -45.8665856,-67.9108179 -45.86391,-67.9094768 -45.8638353,-67.9077816 -45.8657329,-67.9066443 -45.8662484,-67.90869072 -45.86438156,-67.9100454 -45.8663754,-67.9094982 -45.8663306,-67.909627 -45.86429100000001,-67.90947109 -45.86641003,-67.9100668 -45.8647318,-67.9098523 -45.8659197,-67.9103565 -45.8661513,-67.90917641 -45.86476613,-67.9122448 -45.8649709,-67.911129 -45.8644105,-67.9103887 -45.8645226,-67.91093971 -45.86527418,-67.9164934 -45.8652398,-67.9147875 -45.8642536,-67.9133606 -45.865322,-67.9120409 -45.8651352,-67.91575239 -45.86551598,-67.9187572 -45.8661064,-67.9176843 -45.8663679,-67.9172981 -45.8656657,-67.91774956 -45.8661538,-67.9224908 -45.8663306,-67.9191971 -45.8656582,-67.92069068 -45.86664171,-67.9258382 -45.86658460000001,-67.9220402 -45.8663903,-67.92478129 -45.86687146,-67.9266429 -45.8657927,-67.9259992 -45.8665696,-67.92617947 -45.86596757,,-67.92568273 -45.86555172,-67.9284239 -45.8655835,-67.9270077 -45.8655162,-67.92761571 -45.86576064,-67.92887450000002 -45.8655984,-67.929647 -45.8660093,-67.9311919 -45.8652622,-67.93025624 -45.86524613,-67.934196 -45.8650755,-67.9339492 -45.8648887,-67.9318678 -45.8652174,-67.93322311 -45.86539389,-67.9364544 -45.8650082,-67.9343033 -45.8651128,-67.93542287 -45.86514387,-67.9374468 -45.8637643,-67.93648120000002 -45.8648999,-67.93638614 -45.8639203,-67.9407513 -45.863103100000004,-67.9403973 -45.8622551,-67.93757020000001 -45.8636746,-67.94016816 -45.86304785,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94026881 -45.86394522,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.9397787 -45.86446671,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.93820898 -45.86621382,,-67.93822649 -45.86645361,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S640,S2195,S2377,S2239</t>
   </si>
   <si>
     <t>Base,Linea 1,S176,Linea 1506,S2447,Linea 2,S993,Linea 3,S329,Linea 4,S309,Linea 6,S328,Linea 7,S2258,Linea 8,S326,Linea 52,S2253,Linea 57,S208,Linea 156,S2488,Linea 1548,S680,Linea 158,S246,Linea 161,S662,Linea 162,S678,Linea 164,S2510,Linea 167,S2478,Linea 168,S451,Linea 169,S691,Linea 170,S676,Linea 177,S640;S640,Linea 177,S676,Linea 170,S691,Linea 169,S451,Linea 168,S2478,Linea 167,S2510,Linea 164,S678,Linea 162,S662,Linea 161,S246,Linea 158,S680,Linea 1549,S2488,Linea 156,S208,Linea 57,S2253,Linea 52,S326,Linea 8,S2258,Linea 7,S328,Linea 6,S309,Linea 10,S2195;S2195,Linea 10,S309,Linea 6,S328,Linea 7,S2258,Linea 8,S326,Linea 52,S2253,Linea 55,S254,Linea 60,S234,Linea 987,S271,Linea 989,S950,Linea 729,S379,Linea 727,S578,Linea 1651,S2454,Linea 722,S986,Linea 720,S2349,Linea 719,S250,Linea 716,S2277,Linea 715,S2360,Linea 938,S2377;S2377,Linea 938,S2360,Linea 715,S2277,Linea 716,S250,Linea 718,S2231,Linea 927,S2278,Linea 688,S2047,Linea 689,S440,Linea 687,S2359,Linea 1644,S2036,Linea 490,S397,Linea 494,S2351,Linea 495,S2035,Linea 679,S642,Linea 680,S2575,Linea 408,S430,Linea 203,S632,Linea 205,S2387,Linea 912,S622,Linea 210,S633,Linea 127,S501,Linea 925,S789,Linea 923,Planta Norte,Linea 924,S505,Linea 1213,S2239;S2239,Linea 1213,S505,Linea 924,Planta Norte,Linea 923,S789,Linea 925,S501,Linea 127,S633,Linea 210,S622,Linea 211,S2552,Linea 1563,S635,Linea 186,S495,Linea 183,S637,Linea 178,S640,Linea 177,S676,Linea 170,S691,Linea 169,S451,Linea 168,S2478,Linea 167,S2510,Linea 164,S678,Linea 162,S662,Linea 161,S246,Linea 158,S680,Linea 1549,S2488,Linea 156,S208,Linea 57,S2253,Linea 52,S326,Linea 8,S2258,Linea 7,S328,Linea 6,S309,Linea 4,S329,Linea 3,S993,Linea 2,S2447,Linea 1506,S176,Linea 1,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.93822649 -45.86645361,,-67.93820898 -45.86621382,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.9397787 -45.86446671,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.94026881 -45.86394522,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94016816 -45.86304785,-67.9407513 -45.863103100000004,-67.9403973 -45.8622551,-67.93757020000001 -45.8636746,-67.93638614 -45.8639203,-67.9374468 -45.8637643,-67.93648120000002 -45.8648999,-67.93542287 -45.86514387,-67.9364544 -45.8650082,-67.9343033 -45.8651128,-67.93322311 -45.86539389,-67.934196 -45.8650755,-67.9339492 -45.8648887,-67.9318678 -45.8652174,-67.93025624 -45.86524613,-67.92887450000002 -45.8655984,-67.929647 -45.8660093,-67.9311919 -45.8652622,-67.92761571 -45.86576064,-67.9284239 -45.8655835,-67.9270077 -45.8655162,-67.92568273 -45.86555172,,-67.92617947 -45.86596757,-67.9266429 -45.8657927,-67.9259992 -45.8665696,-67.92478129 -45.86687146,-67.9258382 -45.86658460000001,-67.9220402 -45.8663903,-67.92069068 -45.86664171,-67.9224908 -45.8663306,-67.9191971 -45.8656582,-67.91774956 -45.8661538,-67.9187572 -45.8661064,-67.9176843 -45.8663679,-67.9172981 -45.8656657,-67.91575239 -45.86551598,-67.9164934 -45.8652398,-67.9147875 -45.8642536,-67.9133606 -45.865322,-67.9120409 -45.8651352,-67.91093971 -45.86527418,-67.9122448 -45.8649709,-67.911129 -45.8644105,-67.9103887 -45.8645226,-67.90917641 -45.86476613,-67.9100668 -45.8647318,-67.9098523 -45.8659197,-67.9103565 -45.8661513,-67.90947109 -45.86641003,-67.9100454 -45.8663754,-67.9094982 -45.8663306,-67.909627 -45.86429100000001,-67.90869072 -45.86438156,-67.9108179 -45.86391,-67.9094768 -45.8638353,-67.9077816 -45.8657329,-67.9066443 -45.8662484,-67.90565529 -45.8665856;-67.90565529 -45.8665856,-67.9108179 -45.86391,-67.9094768 -45.8638353,-67.9077816 -45.8657329,-67.9066443 -45.8662484,-67.90869072 -45.86438156,-67.9100454 -45.8663754,-67.9094982 -45.8663306,-67.909627 -45.86429100000001,-67.90947109 -45.86641003,-67.9100668 -45.8647318,-67.9098523 -45.8659197,-67.9103565 -45.8661513,-67.90917641 -45.86476613,-67.9122448 -45.8649709,-67.911129 -45.8644105,-67.9103887 -45.8645226,-67.91093971 -45.86527418,-67.9164934 -45.8652398,-67.9147875 -45.8642536,-67.9133606 -45.865322,-67.9120409 -45.8651352,-67.91575239 -45.86551598,-67.9187572 -45.8661064,-67.9176843 -45.8663679,-67.9172981 -45.8656657,-67.91774956 -45.8661538,-67.9224908 -45.8663306,-67.9191971 -45.8656582,-67.92069068 -45.86664171,-67.9258382 -45.86658460000001,-67.9220402 -45.8663903,-67.92478129 -45.86687146,-67.9266429 -45.8657927,-67.9259992 -45.8665696,-67.92617947 -45.86596757,,-67.92568273 -45.86555172,-67.9284239 -45.8655835,-67.9270077 -45.8655162,-67.92761571 -45.86576064,-67.92887450000002 -45.8655984,-67.929647 -45.8660093,-67.9311919 -45.8652622,-67.93025624 -45.86524613,-67.934196 -45.8650755,-67.9339492 -45.8648887,-67.9318678 -45.8652174,-67.93322311 -45.86539389,-67.9364544 -45.8650082,-67.9343033 -45.8651128,-67.93542287 -45.86514387,-67.9374468 -45.8637643,-67.93648120000002 -45.8648999,-67.93638614 -45.8639203,-67.9407513 -45.863103100000004,-67.9403973 -45.8622551,-67.93757020000001 -45.8636746,-67.94016816 -45.86304785,-67.9407942 -45.8630844,-67.9403758 -45.8621878,-67.9386914 -45.8624792,-67.93749455 -45.86270022;-67.93749455 -45.86270022,-67.9407942 -45.8630844,-67.9403758 -45.8621878,-67.9386914 -45.8624792,-67.94016816 -45.86304785,-67.9407513 -45.863103100000004,-67.9403973 -45.8622551,-67.93757020000001 -45.8636746,-67.93638614 -45.8639203,-67.9374468 -45.8637643,-67.93648120000002 -45.8648999,-67.93542287 -45.86514387,-67.9364544 -45.8650082,-67.9343033 -45.8651128,-67.93322311 -45.86539389,-67.934196 -45.8650755,-67.9339492 -45.8648887,-67.9318678 -45.8652174,-67.93025624 -45.86524613,-67.9317927 -45.8665099,-67.9313958 -45.8663156,-67.9318678 -45.8652174,-67.93029002 -45.86668754,-67.9312563 -45.8666892,-67.9306877 -45.8669805,-67.9292071 -45.866338,-67.9283273 -45.867257,-67.92759808 -45.86788307,-67.9271686 -45.8677052,-67.926718 -45.8677948,-67.925849 -45.8687063,-67.92477777 -45.86902425,-67.9239607 -45.87091,-67.9254735 -45.8690648,-67.92270363 -45.87121385,-67.9235101 -45.8711267,-67.9226303 -45.8711043,-67.9216754 -45.8713134,-67.92053462 -45.87127057,-67.9206347 -45.8733602,-67.9204845 -45.8732108,-67.9220188 -45.8711565,-67.91979942 -45.8736741,,-67.91957453 -45.87370778,-67.9194653 -45.874084800000006,-67.9204845 -45.8732108,-67.9206347 -45.8733602,-67.91777485 -45.87443865,-67.9123628 -45.8789922,-67.9139936 -45.8782154,-67.9156995 -45.8769755,-67.9165149 -45.8759447,-67.9189503 -45.874689800000006,-67.91076944 -45.87927096,-67.9128349 -45.8790819,-67.91394 -45.8782827,-67.9123628 -45.8789922,-67.91191949 -45.87938061,-67.9140365 -45.879418,-67.9132962 -45.8793806,-67.9129636 -45.879291,-67.91353665 -45.87940202,-67.9153132 -45.8792537,-67.9169548 -45.8786935,-67.91624678 -45.87867996,-67.9178238 -45.878447,-67.9194975 -45.8781632,-67.9207098 -45.8777001,-67.9215896 -45.8770278,-67.9210664 -45.87704706;-67.9210664 -45.87704706,-67.9178238 -45.878447,-67.9194975 -45.8781632,-67.9207098 -45.8777001,-67.9215896 -45.8770278,-67.91624678 -45.87867996,-67.9153132 -45.8792537,-67.9169548 -45.8786935,-67.91353665 -45.87940202,-67.9140365 -45.879418,-67.9132962 -45.8793806,-67.9129636 -45.879291,-67.91191949 -45.87938061,-67.9128456 -45.8792537,-67.9124808 -45.8793284,-67.9119766 -45.880389,-67.9108071 -45.880613,-67.90902811 -45.88062544,-67.9108071 -45.880613,-67.9116762 -45.8803665,-67.9099488 -45.8795972,-67.9089832 -45.8795748,-67.908479 -45.879291,-67.9081464 -45.8778345,-67.9075241 -45.8768784,-67.9078567 -45.8763107,-67.9075456 -45.8753322,-67.9072452 -45.8752799,-67.9064727 -45.8764004,-67.90493501 -45.87690763,-67.9065692 -45.87642280000001,-67.9066443 -45.8758626,-67.9054427 -45.876363,-67.9050243 -45.8759149,-67.90388535 -45.87594679,-67.9027498 -45.8764153,-67.9023206 -45.8766319,-67.9053462 -45.8764079,-67.9049706 -45.8759672,-67.90200809 -45.87637167,-67.8998315 -45.8761838,-67.9001212 -45.8769457,-67.900883 -45.8771399,-67.9025674 -45.8764527,-67.89805175 -45.8762384,,-67.89781334 -45.87614703,-67.8996062 -45.8756758,-67.8981364 -45.8751081,-67.8992522 -45.8749438,-67.89863672 -45.87485225,-67.8992522 -45.8749438,-67.8973424 -45.8751455,-67.8966451 -45.875362100000004,-67.8955722 -45.8745031,-67.89489679 -45.87455424,-67.8954864 -45.8744359,-67.8949392 -45.8739429,-67.895143 -45.8733378,-67.8949499 -45.8727701,-67.89420174 -45.8725767,-67.8951538 -45.8720604,-67.8954649 -45.8713209,-67.8950679 -45.870671,-67.8955185 -45.8706112,-67.89468537 -45.87097799,-67.8955185 -45.8706112,-67.895025 -45.8705813,-67.8944993 -45.8697073,-67.89334262 -45.86982277,-67.8929329 -45.86721210000001,-67.894392 -45.8695056,-67.89194102 -45.86726393,-67.8926647 -45.8667714,-67.8914416 -45.865972,-67.88982897 -45.86617984,-67.8914094 -45.8658749,-67.893244 -45.8652249,-67.8924736 -45.86523062,-67.8942311 -45.8647841,-67.8944886 -45.8644778,-67.8944886 -45.8640444,-67.8955936 -45.8639772,-67.8958511 -45.8637307,-67.8946526 -45.86372426,-67.8961945 -45.8632674,-67.8952932 -45.8629985,-67.8948426 -45.8620347,-67.89369378 -45.862107,-67.8961086 -45.8601668,-67.8949714 -45.8618927,-67.89506126 -45.86022417,-67.8960952 -45.8598436,-67.8959692 -45.8585678,-67.8961945 -45.8583138,-67.8955936 -45.8581419,-67.8949177 -45.8572976,-67.8950787 -45.8562589,-67.894907 -45.8558629,-67.8937376 -45.8558928,-67.8932869 -45.8566101,-67.8928149 -45.8568492,-67.8926003 -45.8566998,-67.89119881 -45.85678635,-67.8915596 -45.8569165,-67.8910661 -45.8570435,-67.8905296 -45.8572453,-67.889328 -45.8585753,-67.8896499 -45.8581793,-67.890197 -45.8571108,-67.88793012 -45.85896742,-67.8874397 -45.861564,-67.8883946 -45.8610484,-67.8891027 -45.8595242,-67.8897572 -45.8589414,-67.889607 -45.8582764,-67.8858912 -45.86209946;-67.8858912 -45.86209946,-67.8874397 -45.861564,-67.8883946 -45.8610484,-67.8891027 -45.8595242,-67.8897572 -45.8589414,-67.889607 -45.8582764,-67.88793012 -45.85896742,-67.889328 -45.8585753,-67.8896499 -45.8581793,-67.890197 -45.8571108,-67.8905296 -45.8572453,-67.8915596 -45.8569165,-67.8910661 -45.8570435,-67.89119881 -45.85678635,-67.8960952 -45.8598436,-67.8959692 -45.8585678,-67.8961945 -45.8583138,-67.8955936 -45.8581419,-67.8949177 -45.8572976,-67.8950787 -45.8562589,-67.894907 -45.8558629,-67.8937376 -45.8558928,-67.8932869 -45.8566101,-67.8928149 -45.8568492,-67.8926003 -45.8566998,-67.89506126 -45.86022417,-67.8961086 -45.8601668,-67.8949714 -45.8618927,-67.89369378 -45.862107,-67.8961945 -45.8632674,-67.8952932 -45.8629985,-67.8948426 -45.8620347,-67.8946526 -45.86372426,-67.8962696 -45.8632899,-67.8974175 -45.8625203,-67.8984583 -45.8622177,-67.89779792 -45.86312838,,-67.8975525 -45.86346654,-67.8993487 -45.8636634,-67.8988981 -45.8636933,-67.89861920000001 -45.8635215,-67.89867893 -45.86374335,-67.9039943 -45.8644255,-67.9028034 -45.8637381,-67.8999174 -45.8635812,-67.90314798 -45.8648888,-67.906419 -45.86626330000001,-67.9050887 -45.8652025,-67.9043591 -45.864814,-67.90565529 -45.8665856,-67.9108179 -45.86391,-67.9094768 -45.8638353,-67.9077816 -45.8657329,-67.9066443 -45.8662484,-67.90869072 -45.86438156,-67.9100454 -45.8663754,-67.9094982 -45.8663306,-67.909627 -45.86429100000001,-67.90947109 -45.86641003,-67.9100668 -45.8647318,-67.9098523 -45.8659197,-67.9103565 -45.8661513,-67.90917641 -45.86476613,-67.9122448 -45.8649709,-67.911129 -45.8644105,-67.9103887 -45.8645226,-67.91093971 -45.86527418,-67.9164934 -45.8652398,-67.9147875 -45.8642536,-67.9133606 -45.865322,-67.9120409 -45.8651352,-67.91575239 -45.86551598,-67.9187572 -45.8661064,-67.9176843 -45.8663679,-67.9172981 -45.8656657,-67.91774956 -45.8661538,-67.9224908 -45.8663306,-67.9191971 -45.8656582,-67.92069068 -45.86664171,-67.9258382 -45.86658460000001,-67.9220402 -45.8663903,-67.92478129 -45.86687146,-67.9266429 -45.8657927,-67.9259992 -45.8665696,-67.92617947 -45.86596757,,-67.92568273 -45.86555172,-67.9284239 -45.8655835,-67.9270077 -45.8655162,-67.92761571 -45.86576064,-67.92887450000002 -45.8655984,-67.929647 -45.8660093,-67.9311919 -45.8652622,-67.93025624 -45.86524613,-67.934196 -45.8650755,-67.9339492 -45.8648887,-67.9318678 -45.8652174,-67.93322311 -45.86539389,-67.9364544 -45.8650082,-67.9343033 -45.8651128,-67.93542287 -45.86514387,-67.9374468 -45.8637643,-67.93648120000002 -45.8648999,-67.93638614 -45.8639203,-67.9407513 -45.863103100000004,-67.9403973 -45.8622551,-67.93757020000001 -45.8636746,-67.94016816 -45.86304785,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94026881 -45.86394522,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.9397787 -45.86446671,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.93820898 -45.86621382,,-67.93822649 -45.86645361,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S315,S2550,S2680,S2486</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 754,S2408,Linea 752,S370,Linea 1842,S2421,Linea 741,S980,Linea 740,S377,Linea 748,S381,Linea 747,S2572,Linea 746,S315;S315,Linea 790,S2546,Linea 792,S2503,Linea 782,S2547,Linea 785,S2460,Linea 784,S345,Linea 1658,S2550;S2550,Linea 1658,S345,Linea 784,S2460,Linea 785,S2547,Linea 782,S2503,Linea 792,S2546,Linea 790,S315,Linea 1008,S962,Linea 1212,S546,Linea 1753,S2465,Linea 968,S387,Linea 970,S316,Linea 969,S39,Linea 957,S36,Linea 1025,S2725,Linea 958,S37,Linea 959,S2680;S2680,Linea 959,S37,Linea 1024,S2695,Linea 1026,S43,Linea 1088,S2707,Linea 1098,S42,Linea 1856,S2724,Linea 1092,S163,Linea 1854,S66,Linea 1152,S2658,Linea 1145,S844,Linea 1135,S914,Linea 1274,S2180,Linea 1275,S2486;S2486,Linea 1275,S2180,Linea 1274,S914,Linea 1135,S844,Linea 1145,S2658,Linea 1152,S66,Linea 1854,S163,Linea 1092,S2724,Linea 1856,S42,Linea 1098,S2707,Linea 1088,S43,Linea 1026,S2695,Linea 1027,S36,Linea 957,S39,Linea 969,S316,Linea 970,S387,Linea 968,S2465,Linea 966,S2147,Linea 946,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9513514 -45.867951700000006,-67.9506004 -45.8681534,-67.9493558 -45.8665622,-67.9490876 -45.8664576,-67.9492164 -45.8668461,-67.95075242 -45.86791677,-67.9511476 -45.8693039,-67.95089010000001 -45.8697222,-67.9506433 -45.8681011,-67.9512978 -45.867892,-67.95011093 -45.86936834,-67.9526013 -45.869965,-67.9517484 -45.8700734,-67.9508901 -45.8697222,-67.9511476 -45.8693039,-67.95188123 -45.87007275,-67.9518449 -45.870925,-67.9516733 -45.8706037,-67.9509866 -45.870275,-67.95089010000001 -45.8697222,-67.9517484 -45.8700734,-67.9526281 -45.8699912,-67.95082673 -45.87123588,-67.9510081 -45.87218,-67.9515123 -45.8715599,-67.9518449 -45.870925,-67.94974928 -45.87213834,-67.9508579 -45.8736739,-67.9509115 -45.8721426,-67.94983615 -45.87396079,-67.9521346 -45.8759746,-67.951448 -45.8759597,-67.9509008 -45.8738383,-67.95155064 -45.87647635,-67.9521346 -45.8759746,-67.9517162 -45.8759074,-67.9513943 -45.8758999,-67.9525959 -45.87702780000001,-67.95337920000001 -45.8774162,-67.95259842 -45.87763583;-67.95259842 -45.87763583,-67.95394780000001 -45.8775432,-67.9556751 -45.8774162,-67.9568982 -45.8769083,-67.9582715 -45.8767813,-67.95749384 -45.8768117,-67.9582286 -45.8768411,-67.9568982 -45.8769083,-67.9591405 -45.8758775,-67.95866674 -45.87595626,-67.9605675 -45.8757281,-67.9607499 -45.8763556,-67.960943 -45.8763182,-67.96020228 -45.87662649,-67.9618549 -45.8754667,-67.9605675 -45.8757281,-67.9612454 -45.87560985,-67.963239 -45.8758775,-67.9627669 -45.8756161,-67.96258505 -45.87617321,,-67.96260538 -45.87628504;-67.96260538 -45.87628504,,-67.96258505 -45.87617321,-67.963239 -45.8758775,-67.9627669 -45.8756161,-67.9612454 -45.87560985,-67.9618549 -45.8754667,-67.9605675 -45.8757281,-67.96020228 -45.87662649,-67.9605675 -45.8757281,-67.9607499 -45.8763556,-67.960943 -45.8763182,-67.95866674 -45.87595626,-67.9582286 -45.8768411,-67.9568982 -45.8769083,-67.9591405 -45.8758775,-67.95749384 -45.8768117,-67.95394780000001 -45.8775432,-67.9556751 -45.8774162,-67.9568982 -45.8769083,-67.9582715 -45.8767813,-67.95259842 -45.87763583,-67.9534543 -45.8773565,-67.9526925 -45.87711,-67.9530144 -45.8775731,-67.9524779 -45.878813,-67.9512334 -45.8789325,-67.94944114 -45.87896309,-67.9512119 -45.8788877,-67.952435 -45.8787607,-67.9518127 -45.8800454,-67.9474354 -45.8786785,-67.9441524 -45.8779764,-67.9427791 -45.8776328,-67.940805 -45.8776926,-67.93921257 -45.87804782,,-67.93938002 -45.87863178,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.94258106 -45.87928487,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.9459034 -45.88040255,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.94607409 -45.88311995,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94628753 -45.88560005,-67.9471672 -45.8852884,-67.9470921 -45.8848627,-67.9461265 -45.8845565,-67.94483649 -45.8845247,-67.9459763 -45.8845415,-67.9446459 -45.8841607,-67.9436696 -45.8842353,-67.94255555 -45.88454697,-67.9423177 -45.8861323,-67.9425859 -45.8852137,-67.9431438 -45.8846088,-67.9432619 -45.8842802,-67.94198922 -45.88653728;-67.94198922 -45.88653728,-67.9423177 -45.8861323,-67.9425859 -45.8852137,-67.9431438 -45.8846088,-67.9432619 -45.8842802,-67.94255555 -45.88454697,-67.9484117 -45.88667,-67.947489 -45.8864908,-67.9468238 -45.8864609,-67.9463196 -45.8856021,-67.9456758 -45.8850643,-67.945118 -45.8847581,-67.9446459 -45.8841607,-67.9440129 -45.8842652,-67.94746568 -45.88694764,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94972726 -45.88693813,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.95178221 -45.88666191,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95650174 -45.8868325,-67.9573059 -45.8868268,-67.956748 -45.8864908,-67.9563725 -45.8857215,-67.9556644 -45.8849971,-67.9546167 -45.88506443,-67.960428 -45.8852436,-67.9597843 -45.8853855,-67.9578102 -45.8852959,-67.9558897 -45.8849448,-67.95958113 -45.88533853,-67.9643977 -45.8867746,-67.9641402 -45.8867895,-67.9629064 -45.8855274,-67.9625845 -45.8842055,-67.9620588 -45.8840412,-67.9608893 -45.8848926,-67.96291589 -45.88644251,-67.9671872 -45.8881412,-67.9659748 -45.8870061,-67.9642153 -45.8869314,-67.9642582 -45.8866849,-67.96633372 -45.88873533,-67.9702985 -45.892002,-67.9693437 -45.8927189,-67.9695046 -45.8920393,-67.9694617 -45.8909565,-67.9689038 -45.8902247,-67.9675949 -45.8891494,-67.9695987 -45.89181892,-67.9699337 -45.8946379,-67.9693973 -45.8950411,-67.9688287 -45.894847,-67.9686248 -45.893936,-67.9694724 -45.8926591,-67.9702985 -45.892002,-67.96939983 -45.89469974,-67.9721761 -45.8962209,-67.9716182 -45.8947873,-67.9710388 -45.8947723,-67.97161551 -45.8965517,-67.9729271 -45.8958177,-67.9726696 -45.8949515,-67.97168684 -45.8946769;-67.97168684 -45.8946769,-67.9729271 -45.8958177,-67.9726696 -45.8949515,-67.97161551 -45.8965517,-67.9721761 -45.8962209,-67.9716182 -45.8947873,-67.9710388 -45.8947723,-67.96939983 -45.89469974,-67.9699337 -45.8946379,-67.9693973 -45.8950411,-67.9688287 -45.894847,-67.9686248 -45.893936,-67.9694724 -45.8926591,-67.9702985 -45.892002,-67.9695987 -45.89181892,-67.9702985 -45.892002,-67.9693437 -45.8927189,-67.9695046 -45.8920393,-67.9694617 -45.8909565,-67.9689038 -45.8902247,-67.9675949 -45.8891494,-67.96633372 -45.88873533,-67.9671872 -45.8881412,-67.9659748 -45.8870061,-67.9642153 -45.8869314,-67.9642582 -45.8866849,-67.96291589 -45.88644251,-67.9643977 -45.8867746,-67.9641402 -45.8867895,-67.9629064 -45.8855274,-67.9625845 -45.8842055,-67.9620588 -45.8840412,-67.9608893 -45.8848926,-67.95958113 -45.88533853,-67.960428 -45.8852436,-67.9597843 -45.8853855,-67.9578102 -45.8852959,-67.9558897 -45.8849448,-67.9546167 -45.88506443,-67.9573059 -45.8868268,-67.956748 -45.8864908,-67.9563725 -45.8857215,-67.9556644 -45.8849971,-67.95650174 -45.8868325,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95178221 -45.88666191,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.94972726 -45.88693813,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94746568 -45.88694764,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94628753 -45.88560005,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94607409 -45.88311995,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.9459034 -45.88040255,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.94258106 -45.87928487,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S981,S2216,S2578,S2406,S2447</t>
   </si>
   <si>
     <t>Base,Linea 1,S176,Linea 1506,S2447,Linea 2,S993,Linea 3,S329,Linea 4,S309,Linea 6,S328,Linea 7,S2258,Linea 8,S326,Linea 52,S2253,Linea 55,S254,Linea 54,S270,Linea 59,S981;S981,Linea 59,S270,Linea 54,S254,Linea 56,S208,Linea 1876,S2216;S2216,Linea 1877,S2411,Linea 87,S2200,Linea 97,S356,Linea 143,S2017,Linea 144,S690,Linea 141,S538,Linea 104,S2206,Linea 105,S763,Linea 106,S719,Linea 108,S767,Linea 112,S555,Linea 1532,S2578;S2578,Linea 142,S556,Linea 1883,S2022,Linea 902,S2001,Linea 1849,S492,Linea 1848,S1041,Linea 230,S487,Linea 236,S2386,Linea 620,E290,Linea 621,S523,Linea 622,S882,Linea 568,S2255,Linea 1373,S323,Linea 1372,S325,Linea 1371,S2091,Linea 1370,S2081,Linea 1426,S2087,Linea 1427,S2406;S2406,Linea 1832,S285,Linea 830,S249,Linea 1678,S2548,Linea 1833,S339,Linea 1834,S312,Linea 839,S287,Linea 805,S198,Linea 1828,S2095,Linea 797,S2189,Linea 1292,S1,Linea 1293,S2116,Linea 1295,S59,Linea 1017,S315,Linea 746,S2572,Linea 747,S381,Linea 748,S377,Linea 740,S980,Linea 741,S2421,Linea 1842,S370,Linea 752,S2408,Linea 754,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base,Linea 1,S176,Linea 1506,S2447;S2447,Linea 1506,S176,Linea 1,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.93822649 -45.86645361,,-67.93820898 -45.86621382,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.9397787 -45.86446671,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.94026881 -45.86394522,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94016816 -45.86304785,-67.9407513 -45.863103100000004,-67.9403973 -45.8622551,-67.93757020000001 -45.8636746,-67.93638614 -45.8639203,-67.9374468 -45.8637643,-67.93648120000002 -45.8648999,-67.93542287 -45.86514387,-67.9364544 -45.8650082,-67.9343033 -45.8651128,-67.93322311 -45.86539389,-67.934196 -45.8650755,-67.9339492 -45.8648887,-67.9318678 -45.8652174,-67.93025624 -45.86524613,-67.9317927 -45.8665099,-67.9313958 -45.8663156,-67.9318678 -45.8652174,-67.93029002 -45.86668754,-67.9313529 -45.8667714,-67.9330587 -45.867608100000005,-67.9338741 -45.8675633,-67.93326477 -45.86771282,-67.9346037 -45.8674587,-67.9359341 -45.8661886,-67.93491943 -45.86627952;-67.93491943 -45.86627952,-67.9346037 -45.8674587,-67.9359341 -45.8661886,-67.93326477 -45.86771282,-67.9313529 -45.8667714,-67.9330587 -45.867608100000005,-67.9338741 -45.8675633,-67.93029002 -45.86668754,-67.9313958 -45.8666145,-67.9308701 -45.8667265,-67.9287565 -45.86563580000001,-67.92761571 -45.86576064,-67.9267931 -45.86391,-67.9258704 -45.8645525,-67.9281235 -45.8654938,-67.92562891 -45.86384385;-67.92562891 -45.86384385,-67.9267287 -45.8641042,-67.9260421 -45.8645525,-67.9272652 -45.8648663,-67.9282737 -45.8628789,-67.9276514 -45.8618479,-67.9260095 -45.86162722,-67.9257202 -45.8606599,-67.9255271 -45.861085800000005,-67.9269326 -45.8609513,-67.9270506 -45.8613025,-67.92472033 -45.86078317,-67.9253769 -45.8604208,-67.9236388 -45.8595317,-67.9233384 -45.8597857,-67.92204432 -45.86025045,-67.9235315 -45.8601219,-67.9222655 -45.8604731,-67.92116295 -45.86077528,-67.9219651 -45.8610335,-67.9157424 -45.8609887,-67.91412974 -45.86109479,-67.9153347 -45.8605702,-67.9157317 -45.8599725,-67.9146159 -45.859457,-67.91347499 -45.85938782,-67.9145408 -45.8594047,-67.9124916 -45.858777,-67.9112792 -45.8592776,-67.91058213 -45.85962973,-67.9112792 -45.8592776,-67.9102921 -45.8588293,-67.9105067 -45.8586425,-67.90964669 -45.85881191,-67.9102653 -45.8586986,-67.9081625 -45.8581195,-67.90707943 -45.8582017,-67.90773330000002 -45.8580522,-67.9073417 -45.8579177,-67.9068965 -45.8568567,-67.9053408 -45.8563822,-67.90400196 -45.85653031,-67.904284 -45.8564084,-67.9033184 -45.8552726,-67.9019022 -45.8551232,-67.90067511 -45.8549717,,-67.90022567 -45.85540767;-67.90022567 -45.85540767,-67.9008508 -45.8548093,-67.8990161 -45.8545403,-67.898823 -45.8538678,-67.8965485 -45.8545553,-67.89483427 -45.85484841,-67.887429 -45.855564,-67.8894138 -45.853808,-67.8932333 -45.8533447,-67.8969455 -45.8545851,-67.8963768 -45.8546599,-67.88581092 -45.85597227,-67.887429 -45.855564,-67.8882551 -45.8548691,-67.8894138 -45.853808,-67.8920853 -45.8535689,-67.8916454 -45.8538678,-67.8897357 -45.85395,-67.88910 -45.85436,-67.8875685 -45.8562589,-67.885799 -45.8571033,-67.88544 -45.8578281,-67.88523 -45.85794,-67.88402968 -45.85834964,-67.8814316 -45.8592926,-67.8808415 -45.8591357,-67.880863 -45.8587322,-67.8817642 -45.858239,-67.8850043 -45.8580522,-67.88077392 -45.85953999,-67.8790283 -45.8588293,-67.880466 -45.8587397,-67.8813028 -45.8593598,-67.87771797 -45.85914466,-67.875917 -45.8590236,-67.8765607 -45.8587098,-67.8784597 -45.8588443,-67.87446619 -45.85953534,-67.8759491 -45.8590983,-67.8764319 -45.8599501,-67.87655 -45.8609588,-67.8760779 -45.8611231,-67.87444477 -45.86135588,-67.8762281 -45.861026,-67.8764856 -45.8608841,-67.8761208 -45.8599501,-67.8737497 -45.8604133,-67.87238238 -45.86053745,-67.87273050000002 -45.8603909,-67.8713894 -45.86060760000001,-67.8696728 -45.8603312,-67.8687501 -45.8600248,-67.868396 -45.859329900000006,-67.8688145 -45.8588667,-67.8688037 -45.8592029,-67.86821501 -45.85959306,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86513556 -45.86046435,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.98715669 -45.86146692,-67.9928935 -45.8605404,-67.9914236 -45.8609588,-67.98931 -45.8614369,-67.9889023 -45.8613323,-67.99220337 -45.86057361,-67.9911339 -45.8618479,-67.9904687 -45.8619002,-67.9910696 -45.8615117,-67.9918849 -45.861295,-67.9930007 -45.8606151,-67.99023202 -45.86204363,-67.9886341 -45.8629088,-67.9906297 -45.8618479,-67.9911232 -45.8617956,-67.98677491 -45.86342245,-67.9859948 -45.8647094,-67.9874003 -45.863783,-67.98422803 -45.86529103,-67.9920459 -45.8642163,-67.9910159 -45.864672,-67.9903078 -45.8650157,-67.9890847 -45.8656208,-67.9855978 -45.8654415,-67.9855227 -45.865322,-67.99158422 -45.86437969,-67.9929578 -45.8671225,-67.9928398 -45.8662783,-67.9924321 -45.8655835,-67.9919815 -45.8652548,-67.992121 -45.8648663,-67.9910159 -45.864672,-67.9918528 -45.8642238,-67.99174523 -45.8677107;-67.99174523 -45.8677107,-67.9929042 -45.8670777,-67.9928398 -45.8661064,-67.9924321 -45.8655835,-67.9918849 -45.8652398,-67.9909408 -45.867115,-67.9902434 -45.8675334,-67.98895281 -45.86742251,-67.9901361 -45.8674661,-67.9900289 -45.8678098,-67.9882801 -45.8686838,-67.9882801 -45.8691246,-67.9875398 -45.8692665,-67.98621539 -45.86906201,,-67.98595749 -45.86942688,-67.9875398 -45.8692665,-67.988205 -45.8691993,-67.9883659 -45.8686465,-67.9866493 -45.8686017,-67.9853296 -45.8685195,-67.9839349 -45.868766,-67.9830122 -45.8690947,-67.9832804 -45.8686614,-67.9841065 -45.8682057,-67.98364252 -45.86827111,-67.9807377 -45.8716645,-67.9809952 -45.8709175,-67.9819071 -45.8698567,-67.9830122 -45.8690947,-67.9832804 -45.8686614,-67.9840744 -45.8683402,-67.97987219 -45.87199291,-67.9799759 -45.8737337,-67.9795146 -45.8726879,-67.9809093 -45.8709474,-67.980845 -45.8716421,-67.97905112 -45.87422359,-67.9801047 -45.8737412,-67.9795146 -45.8726879,-67.9791605 -45.8735694,-67.9792249 -45.8748467,-67.9793966 -45.8748467,-67.9797721 -45.8758476,-67.9800725 -45.876012,-67.97932522 -45.87631183,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9756951 -45.8784321,-67.9790318 -45.877588,-67.9792678 -45.8765199,-67.9792786 -45.8747272,-67.9798257 -45.8760045,-67.9801154 -45.8760643,-67.9757414 -45.87911165,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9755771 -45.8785142,-67.9742253 -45.8787756,-67.974236 -45.878222900000004,-67.97210325 -45.8786421,-67.9739785 -45.8781632,-67.9745579 -45.8782677,-67.9740644 -45.8788802,-67.9710174 -45.8792537,-67.96993071 -45.87922522,-67.9708028 -45.8792686,-67.9686999 -45.8795524,-67.9682064 -45.8792238,-67.96661757 -45.87943084,-67.967391 -45.8796271,-67.9660606 -45.879657,-67.9619408 -45.879179,-67.959795 -45.8789997,-67.9602242 -45.8794852,-67.95937836 -45.87978501,-67.9538298 -45.8776104,-67.9575419 -45.8788205,-67.9596341 -45.8789624,-67.9602242 -45.8794852,-67.95259842 -45.87763583,-67.9521346 -45.8759746,-67.9517162 -45.8759074,-67.9513943 -45.8758999,-67.9525959 -45.87702780000001,-67.95337920000001 -45.8774162,-67.95155064 -45.87647635,-67.9521346 -45.8759746,-67.951448 -45.8759597,-67.9509008 -45.8738383,-67.94983615 -45.87396079,-67.9508579 -45.8736739,-67.9509115 -45.8721426,-67.94974928 -45.87213834,-67.9510081 -45.87218,-67.9515123 -45.8715599,-67.9518449 -45.870925,-67.95082673 -45.87123588,-67.9518449 -45.870925,-67.9516733 -45.8706037,-67.9509866 -45.870275,-67.95089010000001 -45.8697222,-67.9517484 -45.8700734,-67.9526281 -45.8699912,-67.95188123 -45.87007275,-67.9526013 -45.869965,-67.9517484 -45.8700734,-67.9508901 -45.8697222,-67.9511476 -45.8693039,-67.95011093 -45.86936834,-67.9511476 -45.8693039,-67.95089010000001 -45.8697222,-67.9506433 -45.8681011,-67.9512978 -45.867892,-67.95075242 -45.86791677,-67.9513514 -45.867951700000006,-67.9506004 -45.8681534,-67.9493558 -45.8665622,-67.9490876 -45.8664576,-67.9492164 -45.8668461,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.93822649 -45.86645361,,-67.93820898 -45.86621382;-67.93820898 -45.86621382,,-67.93822649 -45.86645361,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S858,S868,S851</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 1211,S172,Linea 768,S2417,Linea 759,S402,Linea 760,S2468,Linea 763,S395,Linea 764,S338,Linea 773,S2407,Linea 850,S2056,Linea 849,S2716,Linea 853,S2504,Linea 854,S997,Linea 1836,S353,Linea 1361,S2006,Linea 1363,S2009,Linea 1365,S354,Linea 1421,S2255,Linea 568,S882,Linea 622,S523,Linea 215,S788,Linea 216,S2676,Linea 217,S2396,Linea 240,S2395,Linea 243,S1005,Linea 397,S543,Linea 399,S2288,Linea 247,S2418,Linea 249,S611,Linea 250,E291,Linea 252,S853,Linea 254,S851,Linea 257,S591,Linea 258,S876,Linea 263,S886,Linea 264,S868,Linea 270,S869,Linea 278,S864,Linea 281,S850,Linea 1880,Q50,Linea 271,S858;S858,Linea 271,Q50,Linea 1880,S850,Linea 281,S864,Linea 278,S869,Linea 270,S868;S868,Linea 264,S886,Linea 263,S876,Linea 258,S591,Linea 257,S851;S851,Linea 254,S853,Linea 252,E291,Linea 250,S611,Linea 249,S2418,Linea 247,S2288,Linea 399,S543,Linea 397,S1005,Linea 243,S2395,Linea 240,S2396,Linea 217,S2676,Linea 216,S788,Linea 215,S523,Linea 622,S882,Linea 568,S2255,Linea 1421,S354,Linea 1365,S2009,Linea 1363,S2006,Linea 1361,S353,Linea 1836,S997,Linea 854,S2504,Linea 853,S2716,Linea 849,S2056,Linea 850,S2407,Linea 773,S338,Linea 764,S395,Linea 763,S2468,Linea 760,S402,Linea 759,S2417,Linea 768,S172,Linea 1211,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.95709848 -45.86769228,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95610675 -45.87170205,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95650202 -45.87386891,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95720623 -45.87256309,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.96214261 -45.87344787,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96572509 -45.87368099,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.9672039 -45.87497495,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.96992116 -45.87035971,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.9688479 -45.86924263,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.96898996 -45.86789944,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.97170451 -45.86764851,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97781889 -45.86412305,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97692655 -45.86298292,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.98026531 -45.86300386,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98206338 -45.86352335,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86821501 -45.85959306,-67.8666258 -45.8579551,-67.8677523 -45.8588443,-67.8689218 -45.8588293,-67.8688896 -45.8591954,-67.86509618 -45.85797591,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86269634 -45.8576934,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86119926 -45.8582863,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.85800456 -45.85865306,-67.8585362 -45.8586425,-67.8567231 -45.8591431,-67.8550386 -45.8605852,-67.85325633 -45.86047853,-67.8547168 -45.8600622,-67.8545237 -45.8589862,-67.8537083 -45.858508,-67.852335 -45.8585529,-67.85051371 -45.8587379,-67.8511226 -45.8587172,-67.8489661 -45.8581942,-67.8504252 -45.8565952,-67.84992667 -45.85649082,-67.851541 -45.8561394,-67.8511119 -45.8555416,-67.8497386 -45.8553249,-67.8490841 -45.8555341,-67.84737753 -45.85568862,-67.8480864 -45.8556163,-67.846477 -45.8561992,-67.8452325 -45.8556537,-67.84359994 -45.85582912,-67.8438914 -45.8557508,-67.8414237 -45.8563262,-67.8377545 -45.8563187,-67.83653581 -45.85644197,-67.8371108 -45.8561767,-67.8326368 -45.8556313,-67.83154193 -45.85548135,-67.8319716 -45.855437,-67.8292787 -45.855108200000004,-67.82760578 -45.8552439,-67.8277767 -45.8550036,-67.8251696 -45.8547271,-67.824676 -45.8544207,-67.82322995 -45.85451391,-67.8244078 -45.8540994,-67.8225088 -45.8518801,-67.82163737 -45.8516816,-67.8223801 -45.8515886,-67.8209639 -45.8504751,-67.8196657 -45.8504079,-67.81800483 -45.85079524,-67.8185713 -45.8505798,-67.816962 -45.851073,-67.8161895 -45.8523658,-67.81497943 -45.85259887,-67.816329 -45.8519921,-67.8167796 -45.8511701,-67.8158462 -45.8513121,-67.8150415 -45.8533148,-67.8138399 -45.8541293,-67.81217316 -45.85421245,-67.809999 -45.85395,-67.81053540000002 -45.8542265,-67.8125417 -45.8543386,-67.80813131 -45.85419968,-67.8064048 -45.853539,-67.8089046 -45.854361,-67.8103852 -45.8542265,-67.8098702 -45.8539126,-67.80441533 -45.8533642,-67.8110075 -45.8532999,-67.8095913 -45.8534045,-67.8081751 -45.8532849,-67.8063512 -45.8536436,-67.81033656 -45.85331184,-67.8119838 -45.8516783,-67.8118229 -45.8524256,-67.8138614 -45.8534792,-67.8134108 -45.8536361,-67.8115761 -45.85313550000001,-67.81172912 -45.8516909;-67.81172912 -45.8516909,-67.8119838 -45.8516783,-67.8118229 -45.8524256,-67.8138614 -45.8534792,-67.8134108 -45.8536361,-67.8115761 -45.85313550000001,-67.81033656 -45.85331184,-67.8110075 -45.8532999,-67.8095913 -45.8534045,-67.8081751 -45.8532849,-67.8063512 -45.8536436,-67.80441533 -45.8533642,-67.8064048 -45.853539,-67.8089046 -45.854361,-67.8103852 -45.8542265,-67.8098702 -45.8539126,-67.80813131 -45.85419968,-67.809999 -45.85395,-67.81053540000002 -45.8542265,-67.8125417 -45.8543386,-67.81217316 -45.85421245,-67.816329 -45.8519921,-67.8167796 -45.8511701,-67.8158462 -45.8513121,-67.8150415 -45.8533148,-67.8138399 -45.8541293,-67.81497943 -45.85259887;-67.81497943 -45.85259887,-67.8185713 -45.8505798,-67.816962 -45.851073,-67.8161895 -45.8523658,-67.81800483 -45.85079524,-67.8223801 -45.8515886,-67.8209639 -45.8504751,-67.8196657 -45.8504079,-67.82163737 -45.8516816,-67.8244078 -45.8540994,-67.8225088 -45.8518801,-67.82322995 -45.85451391,-67.8277767 -45.8550036,-67.8251696 -45.8547271,-67.824676 -45.8544207,-67.82760578 -45.8552439;-67.82760578 -45.8552439,-67.8319716 -45.855437,-67.8292787 -45.855108200000004,-67.83154193 -45.85548135,-67.8371108 -45.8561767,-67.8326368 -45.8556313,-67.83653581 -45.85644197,-67.8438914 -45.8557508,-67.8414237 -45.8563262,-67.8377545 -45.8563187,-67.84359994 -45.85582912,-67.8480864 -45.8556163,-67.846477 -45.8561992,-67.8452325 -45.8556537,-67.84737753 -45.85568862,-67.851541 -45.8561394,-67.8511119 -45.8555416,-67.8497386 -45.8553249,-67.8490841 -45.8555341,-67.84992667 -45.85649082,-67.8511226 -45.8587172,-67.8489661 -45.8581942,-67.8504252 -45.8565952,-67.85051371 -45.8587379,-67.8547168 -45.8600622,-67.8545237 -45.8589862,-67.8537083 -45.858508,-67.852335 -45.8585529,-67.85325633 -45.86047853,-67.8585362 -45.8586425,-67.8567231 -45.8591431,-67.8550386 -45.8605852,-67.85800456 -45.85865306,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.86119926 -45.8582863,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86269634 -45.8576934,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86509618 -45.85797591,-67.8666258 -45.8579551,-67.8677523 -45.8588443,-67.8689218 -45.8588293,-67.8688896 -45.8591954,-67.86821501 -45.85959306,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86513556 -45.86046435,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.98715669 -45.86146692,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98206338 -45.86352335,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98026531 -45.86300386,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.97692655 -45.86298292,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97781889 -45.86412305,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97170451 -45.86764851,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.96898996 -45.86789944,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.9688479 -45.86924263,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.96992116 -45.87035971,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.9672039 -45.87497495,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.96572509 -45.87368099,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96214261 -45.87344787,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.95720623 -45.87256309,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95650202 -45.87386891,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95610675 -45.87170205,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95709848 -45.86769228,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2639,S2023,S968</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 944,S56,Linea 940,S78,Linea 932,S645,Linea 931,S2111,Linea 930,S2110,Linea 736,S2167,Linea 1617,S2168,Linea 584,S849,Linea 582,S938,Linea 581,S2443,Linea 578,S2132,Linea 579,S949,Linea 591,S2129,Linea 592,S2259,Linea 594,S17,Linea 735,S295,Linea 734,S3,Linea 613,Q16,Linea 1626,S2240,Linea 471,S2,Linea 1886,S13,Linea 1887,S2523,Linea 469,S26,Linea 467,S2223,Linea 455,S2639;S2639,Linea 455,S2223,Linea 467,S26,Linea 469,S2523,Linea 517,Q17,Linea 516,S2236,Linea 511,S509,Linea 512,S427,Linea 507,S2307,Linea 1875,S2023;S2023,Linea 1875,S2307,Linea 649,S426,Linea 645,S470,Linea 534,S506,Linea 536,S533,Linea 540,S531,Linea 538,S439,Linea 545,S469,Linea 614,S2634,Linea 615,S2273,Linea 566,S522,Linea 567,S882,Linea 568,S2255,Linea 1421,S354,Linea 1365,S2009,Linea 1363,S2006,Linea 1361,S353,Linea 1836,S997,Linea 854,S2504,Linea 853,S2716,Linea 849,S2056,Linea 850,S2407,Linea 773,S338,Linea 764,S395,Linea 763,S2468,Linea 1844,S403,Linea 762,S2422,Linea 765,S968;S968,Linea 765,S2422,Linea 762,S403,Linea 1844,S2468,Linea 760,S402,Linea 759,S2417,Linea 768,S172,Linea 1211,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92260289 -45.87981886,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.91930941 -45.88137118,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91747464 -45.88372353,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91541483 -45.88231338,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.90970498 -45.88326091,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90591516 -45.88446218,,-67.90594775 -45.88423937,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90705336 -45.88840606,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90362098 -45.8874036,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90293219 -45.8836944,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.89811074 -45.88424629,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89478887 -45.88442779,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.88986813 -45.88509226,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88725199 -45.88498287,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88477851 -45.88530377,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88934482 -45.88367092,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.87931365 -45.88515467,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87597578 -45.88674947,,-67.87630061 -45.88642699,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.8758872 -45.88413516,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.87263059 -45.88283868,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.86703039 -45.88312685,-67.8685462 -45.8831151,-67.869308 -45.8829582,-67.8708422 -45.883018,-67.8705847 -45.8839366,-67.8693122 -45.8842458,-67.8672695 -45.88491500000001,-67.867409 -45.8861099,-67.8680742 -45.8863339,-67.8686106 -45.8860875,-67.8688896 -45.8849822,-67.870338 -45.8842577,-67.86589689 -45.88477956,-67.863847 -45.885027,-67.864995 -45.8837723,-67.8665936 -45.8838395,-67.86707640000002 -45.88434740000001,-67.86201513 -45.88564989;-67.86201513 -45.88564989,-67.863847 -45.885027,-67.864995 -45.8837723,-67.8665936 -45.8838395,-67.86707640000002 -45.88434740000001,-67.86589689 -45.88477956,-67.8672695 -45.88491500000001,-67.867409 -45.8861099,-67.8680742 -45.8863339,-67.8686106 -45.8860875,-67.8688896 -45.8849822,-67.870338 -45.8842577,-67.8693122 -45.8842458,-67.8685462 -45.8831151,-67.869308 -45.8829582,-67.8708422 -45.883018,-67.8705847 -45.8839366,-67.86703039 -45.88312685,-67.8726017 -45.880389,-67.8697157 -45.8828462,-67.8706813 -45.8831001,-67.8686643 -45.8830254,-67.8724445 -45.87988188,-67.8772688 -45.8789101,-67.8749835 -45.8790146,-67.87362100000001 -45.8797765,-67.87684672 -45.87887091,-67.8785026 -45.8788802,-67.8798115 -45.8793806,-67.87875862 -45.87975391,-67.8797901 -45.8776627,-67.8792536 -45.87817810000001,-67.8798115 -45.8793806,-67.87897854 -45.87766371,-67.8803158 -45.8771847,-67.8813779 -45.8760792,-67.8823113 -45.875519,-67.8828478 -45.87486160000001,-67.88196942 -45.87464989,-67.8851008 -45.8739503,-67.8845429 -45.874533,-67.8839421 -45.8736665,-67.8834701 -45.8740549,-67.8844417 -45.8738576;-67.8844417 -45.8738576,-67.8851008 -45.8739503,-67.8845429 -45.874533,-67.8839421 -45.8736665,-67.8834701 -45.8740549,-67.88196942 -45.87464989,-67.8836632 -45.8741296,-67.884264 -45.8734723,-67.8839421 -45.8733229,-67.8833306 -45.8736515,-67.8822899 -45.87404,-67.8816032 -45.8749737,-67.8808522 -45.875153,-67.8791678 -45.8762809,-67.8782129 -45.8766021,-67.8774083 -45.8765572,-67.87580898 -45.87623664,-67.8772473 -45.875646,-67.87714 -45.874899,-67.8760457 -45.8739578,-67.8750265 -45.8733005,-67.8741574 -45.8732108,-67.8737283 -45.8741819,-67.87226293 -45.87472228,-67.8721726 -45.8748019,-67.868793 -45.8753024,-67.8683639 -45.8750633,-67.8691471 -45.8759522,-67.86877282 -45.87598303,-67.8690398 -45.8759074,-67.8681815 -45.8748691,-67.8664434 -45.8762585,-67.86520975 -45.8764158,-67.8666043 -45.8740773,-67.8655958 -45.8758999,-67.8658319 -45.8761464,-67.86601994 -45.87390747,-67.8686213 -45.87223970000001,-67.8679776 -45.8725012,-67.867173 -45.87342,-67.86803091 -45.87230485,-67.8687286 -45.87223970000001,-67.8671408 -45.8717542,-67.8661752 -45.8712611,-67.8662395 -45.8705888,-67.86552841 -45.87071955,-67.8665292 -45.8705589,-67.866143 -45.8710594,-67.8657889 -45.8704767,-67.8668725 -45.8688706,-67.86653014 -45.86909111,-67.8668725 -45.8688706,-67.8667974 -45.868646500000004,-67.8676665 -45.8677127,-67.867012 -45.86727940000001,-67.86635342 -45.86702056,-67.8682029 -45.8666817,-67.8692436 -45.8661961,-67.8702307 -45.8647318,-67.8701663 -45.8642088,-67.86895092 -45.86422008,-67.8701234 -45.8635663,-67.8698123 -45.86132490000001,-67.8679776 -45.8603237,-67.8670549 -45.8588966,-67.8654027 -45.859457,-67.8654563 -45.8601518,-67.8656709 -45.8602639,-67.86513556 -45.86046435,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.98715669 -45.86146692,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98206338 -45.86352335,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98026531 -45.86300386,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.97692655 -45.86298292,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97781889 -45.86412305,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97170451 -45.86764851,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.96898996 -45.86789944,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.9688479 -45.86924263,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.96992116 -45.87035971,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.9672039 -45.87497495,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.96572509 -45.87368099,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96214261 -45.87344787,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.95720623 -45.87256309,-67.9578531 -45.8725273,-67.9577994 -45.8722659,-67.9585719 -45.8716197,-67.9589689 -45.871291,-67.9592746 -45.8712275,-67.958393 -45.87134586,-67.9597306 -45.8712088,-67.9617476 -45.871029500000006,-67.96108026 -45.87118338,-67.9624021 -45.871029500000006,-67.9628313 -45.8711117,-67.9631317 -45.8718438,-67.9635072 -45.8717915,-67.96250387 -45.87218883;-67.96250387 -45.87218883,-67.9624021 -45.871029500000006,-67.9628313 -45.8711117,-67.9631317 -45.8718438,-67.9635072 -45.8717915,-67.96108026 -45.87118338,-67.9597306 -45.8712088,-67.9617476 -45.871029500000006,-67.958393 -45.87134586,-67.9578531 -45.8725273,-67.9577994 -45.8722659,-67.9585719 -45.8716197,-67.9589689 -45.871291,-67.9592746 -45.8712275,-67.95720623 -45.87256309,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95650202 -45.87386891,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95610675 -45.87170205,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95709848 -45.86769228,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S736,S2611,S2629</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 943,S167,Linea 946,S2147,Linea 966,S2465,Linea 968,S387,Linea 970,S316,Linea 969,S39,Linea 957,S36,Linea 1025,S2725,Linea 958,S37,Linea 959,S2680,Linea 956,S2666,Linea 955,S2656,Linea 1033,S904,Linea 1084,S736;S736,Linea 1084,S904,Linea 1033,S2656,Linea 955,S2666,Linea 956,S2680,Linea 959,S37,Linea 958,S2725,Linea 1025,S36,Linea 957,S39,Linea 969,S316,Linea 970,S387,Linea 968,S2465,Linea 1715,S546,Linea 1212,S962,Linea 1008,S315,Linea 1017,S59,Linea 1295,S2116,Linea 1293,S1,Linea 1292,S2189,Linea 797,S2095,Linea 1825,S2479,Linea 795,S189,Linea 1826,S18,Linea 1177,S2243,Linea 807,S205,Linea 1181,S2139,Linea 1180,S8,Linea 1183,S223,Linea 1182,S2611;S2611,Linea 1182,S223,Linea 1183,S8,Linea 1180,S2139,Linea 1181,S205,Linea 807,S2243,Linea 1177,S18,Linea 1826,S189,Linea 795,S2479,Linea 1825,S2095,Linea 797,S2189,Linea 1292,S1,Linea 1293,S2116,Linea 1295,S59,Linea 1017,S315,Linea 1008,S962,Linea 1212,S546,Linea 1753,S2465,Linea 966,S2147,Linea 964,S2146,Linea 949,S31,Linea 950,S2094,Linea 1711,S33,Linea 1222,S927,Linea 1754,S115,Linea 1085,S944,Linea 1077,S2667,Linea 1078,S793,Linea 1076,S791,Linea 1221,S760,Linea 1073,S794,Linea 1297,S759,Linea 1306,S834,Linea 1307,S839,Linea 1313,S725,Linea 1310,S744,Linea 1311,S2379,Linea 1302,S2519,Linea 1303,S2310,Linea 1768,S748,Linea 1263,S757,Linea 1262,S2629;S2629,Linea 1262,S757,Linea 1263,S748,Linea 1762,S2310,Linea 1303,S2519,Linea 1302,S2379,Linea 1311,S744,Linea 1310,S725,Linea 1313,S839,Linea 1307,S834,Linea 1306,S759,Linea 1297,S794,Linea 1073,S760,Linea 1221,S791,Linea 1076,S793,Linea 1078,S2667,Linea 1077,S944,Linea 1085,S115,Linea 1733,S927,Linea 1222,S33,Linea 1724,S2094,Linea 950,S31,Linea 949,S2146,Linea 964,S2147,Linea 946,S167,Linea 943,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.93512028 -45.8793768,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.94258106 -45.87928487,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.9459034 -45.88040255,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.94607409 -45.88311995,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94628753 -45.88560005,-67.9471672 -45.8852884,-67.9470921 -45.8848627,-67.9461265 -45.8845565,-67.94483649 -45.8845247,-67.9459763 -45.8845415,-67.9446459 -45.8841607,-67.9436696 -45.8842353,-67.94255555 -45.88454697,-67.9423177 -45.8861323,-67.9425859 -45.8852137,-67.9431438 -45.8846088,-67.9432619 -45.8842802,-67.94198922 -45.88653728,-67.9414594 -45.88785,-67.9417813 -45.8871554,-67.9419315 -45.8865879,-67.9423285 -45.8863414,-67.93992923 -45.88854577,-67.9410625 -45.888776,-67.9401827 -45.8890747,-67.9375863 -45.8886341,-67.93581454 -45.88863383,-67.9351616 -45.890628,-67.9353011 -45.8903069,-67.9351509 -45.889702,-67.9356337 -45.8888283,-67.9361594 -45.8882682,-67.9367387 -45.8882607,-67.93404442 -45.8909633,-67.9365563 -45.8934955,-67.9363203 -45.8936,-67.935344 -45.8928831,-67.935226 -45.8911432,-67.9360062 -45.89335158;-67.9360062 -45.89335158,-67.9365563 -45.8934955,-67.9363203 -45.8936,-67.935344 -45.8928831,-67.935226 -45.8911432,-67.93404442 -45.8909633,-67.9351616 -45.890628,-67.9353011 -45.8903069,-67.9351509 -45.889702,-67.9356337 -45.8888283,-67.9361594 -45.8882682,-67.9367387 -45.8882607,-67.93581454 -45.88863383,-67.9410625 -45.888776,-67.9401827 -45.8890747,-67.9375863 -45.8886341,-67.93992923 -45.88854577,-67.9414594 -45.88785,-67.9417813 -45.8871554,-67.9419315 -45.8865879,-67.9423285 -45.8863414,-67.94198922 -45.88653728,-67.9423177 -45.8861323,-67.9425859 -45.8852137,-67.9431438 -45.8846088,-67.9432619 -45.8842802,-67.94255555 -45.88454697,-67.9459763 -45.8845415,-67.9446459 -45.8841607,-67.9436696 -45.8842353,-67.94483649 -45.8845247,-67.9471672 -45.8852884,-67.9470921 -45.8848627,-67.9461265 -45.8845565,-67.94628753 -45.88560005,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94607409 -45.88311995,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.9459034 -45.88040255,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.94258106 -45.87928487,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.93938002 -45.87863178,,-67.93921257 -45.87804782,-67.9512119 -45.8788877,-67.952435 -45.8787607,-67.9518127 -45.8800454,-67.9474354 -45.8786785,-67.9441524 -45.8779764,-67.9427791 -45.8776328,-67.940805 -45.8776926,-67.94944114 -45.87896309,-67.9534543 -45.8773565,-67.9526925 -45.87711,-67.9530144 -45.8775731,-67.9524779 -45.878813,-67.9512334 -45.8789325,-67.95259842 -45.87763583,-67.9538298 -45.8776104,-67.9575419 -45.8788205,-67.9596341 -45.8789624,-67.9602242 -45.8794852,-67.95937836 -45.87978501,-67.967391 -45.8796271,-67.9660606 -45.879657,-67.9619408 -45.879179,-67.959795 -45.8789997,-67.9602242 -45.8794852,-67.96661757 -45.87943084,-67.9708028 -45.8792686,-67.9686999 -45.8795524,-67.9682064 -45.8792238,-67.96993071 -45.87922522,-67.9739785 -45.8781632,-67.9745579 -45.8782677,-67.9740644 -45.8788802,-67.9710174 -45.8792537,-67.97210325 -45.8786421,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9755771 -45.8785142,-67.9742253 -45.8787756,-67.974236 -45.878222900000004,-67.9757414 -45.87911165,-67.9789352 -45.8795823,-67.9791069 -45.8776627,-67.9756737 -45.8784769,-67.9758239 -45.8787234,-67.9765105 -45.8789474,-67.97764389 -45.88001208,-67.9789352 -45.8795823,-67.9789889 -45.8790669,-67.9799759 -45.8791491,-67.97934342 -45.87920812,-67.9797721 -45.879179,-67.9789889 -45.8790669,-67.9792571 -45.8776403,-67.9831409 -45.876744,-67.9844499 -45.8766842,-67.9838705 -45.8772892,-67.98257485 -45.87765379,-67.9838705 -45.8772892,-67.9842675 -45.8766469,-67.9854584 -45.876617,-67.9846001 -45.8763854,-67.98281428 -45.87644776,-67.9865313 -45.8763033,-67.9853833 -45.8764975,-67.98469660000002 -45.8764303,-67.98563419 -45.87640922,-67.9896748 -45.8771548,-67.9892349 -45.8767216,-67.985158 -45.8765946,-67.9863167 -45.8762734,-67.98904006 -45.87741924,-67.9909623 -45.8768411,-67.9909086 -45.8766394,-67.9893529 -45.876729,-67.9896641 -45.8770726,-67.98995293 -45.87688436,-67.9932904 -45.8760792,-67.9926252 -45.8763556,-67.9912949 -45.8766319,-67.99230343 -45.87612978,-67.9921103 -45.8760792,-67.9931402 -45.8760045,-67.99035969 -45.8762868;-67.99035969 -45.8762868,-67.9921103 -45.8760792,-67.9931402 -45.8760045,-67.99230343 -45.87612978,-67.9932904 -45.8760792,-67.9926252 -45.8763556,-67.9912949 -45.8766319,-67.98995293 -45.87688436,-67.9909623 -45.8768411,-67.9909086 -45.8766394,-67.9893529 -45.876729,-67.9896641 -45.8770726,-67.98904006 -45.87741924,-67.9896748 -45.8771548,-67.9892349 -45.8767216,-67.985158 -45.8765946,-67.9863167 -45.8762734,-67.98563419 -45.87640922,-67.9865313 -45.8763033,-67.9853833 -45.8764975,-67.98469660000002 -45.8764303,-67.98281428 -45.87644776,-67.9838705 -45.8772892,-67.9842675 -45.8766469,-67.9854584 -45.876617,-67.9846001 -45.8763854,-67.98257485 -45.87765379,-67.9797721 -45.879179,-67.9789889 -45.8790669,-67.9792571 -45.8776403,-67.9831409 -45.876744,-67.9844499 -45.8766842,-67.9838705 -45.8772892,-67.97934342 -45.87920812,-67.9789352 -45.8795823,-67.9789889 -45.8790669,-67.9799759 -45.8791491,-67.97764389 -45.88001208,-67.9789352 -45.8795823,-67.9791069 -45.8776627,-67.9756737 -45.8784769,-67.9758239 -45.8787234,-67.9765105 -45.8789474,-67.9757414 -45.87911165,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9755771 -45.8785142,-67.9742253 -45.8787756,-67.974236 -45.878222900000004,-67.97210325 -45.8786421,-67.9739785 -45.8781632,-67.9745579 -45.8782677,-67.9740644 -45.8788802,-67.9710174 -45.8792537,-67.96993071 -45.87922522,-67.9708028 -45.8792686,-67.9686999 -45.8795524,-67.9682064 -45.8792238,-67.96661757 -45.87943084,-67.967391 -45.8796271,-67.9660606 -45.879657,-67.9619408 -45.879179,-67.959795 -45.8789997,-67.9602242 -45.8794852,-67.95937836 -45.87978501,-67.9538298 -45.8776104,-67.9575419 -45.8788205,-67.9596341 -45.8789624,-67.9602242 -45.8794852,-67.95259842 -45.87763583,-67.9534543 -45.8773565,-67.9526925 -45.87711,-67.9530144 -45.8775731,-67.9524779 -45.878813,-67.9512334 -45.8789325,-67.94944114 -45.87896309,-67.9512119 -45.8788877,-67.952435 -45.8787607,-67.9518127 -45.8800454,-67.9474354 -45.8786785,-67.9441524 -45.8779764,-67.9427791 -45.8776328,-67.940805 -45.8776926,-67.93921257 -45.87804782,,-67.93938002 -45.87863178,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93512028 -45.8793768,-67.9380155 -45.8812404,-67.938627 -45.880852,-67.9384768 -45.8805682,-67.9371035 -45.8800827,-67.9358482 -45.8797093,-67.9335737 -45.8797616,-67.934432 -45.8794255,-67.9350007 -45.8792835,-67.9357088 -45.8792686,-67.93588984 -45.88149225,-67.9369104 -45.8822487,-67.9367441 -45.8819686,-67.9385787 -45.881274,-67.938568 -45.8809641,-67.9379243 -45.8811844,-67.93623372 -45.88237227,-67.9369962 -45.8822636,-67.9367441 -45.8819686,-67.9343677 -45.8832719,-67.93288041 -45.88347512,,-67.93297197 -45.88384007,-67.9325545 -45.8880964,-67.9324257 -45.8875363,-67.933048 -45.8868642,-67.9335093 -45.8836304,-67.93195275 -45.88880085,,-67.93184093 -45.88869985,-67.929883 -45.8876782,-67.9306018 -45.8878724,-67.9317605 -45.8883727,-67.9326189 -45.888201,-67.92838162 -45.88770662,-67.9286492 -45.8892166,-67.9288638 -45.8878724,-67.9292393 -45.8876931,-67.92758265 -45.88993498,-67.929368 -45.8925994,-67.9296148 -45.8919423,-67.9287994 -45.8913897,-67.9285097 -45.8910014,-67.9286277 -45.8901127,-67.92819602 -45.89300211,-67.9235637 -45.895743,-67.9241538 -45.8953249,-67.9267287 -45.8949142,-67.9271579 -45.8944961,-67.9267287 -45.8942048,-67.9257309 -45.8936448,-67.9256558 -45.8930698,-67.9268682 -45.8923604,-67.9289711 -45.8934208,-67.9293036 -45.893361,-67.92261639 -45.89612501,-67.9221904 -45.8981548,-67.9232204 -45.8984983,-67.9230487 -45.8980652,-67.9224908 -45.89755,-67.9236388 -45.8964449,-67.92046749 -45.89809236,-67.9312027 -45.9008128,-67.9299688 -45.9015296,-67.9282737 -45.9003723,-67.9263103 -45.8994316,-67.9232204 -45.8984983,-67.9221046 -45.8981623,-67.93028301 -45.90068278,-67.9313636 -45.9007755,-67.9299688 -45.9015296,-67.9309559 -45.9024778,-67.931664 -45.9022687,-67.9323721 -45.9010144,-67.9335737 -45.900447,-67.9371786 -45.9012832,-67.9379082 -45.9021045,-67.9396677 -45.9026719,-67.941041 -45.9025674,-67.94048121 -45.90255833,-67.9417276 -45.9060912,-67.9426718 -45.9047623,-67.9416203 -45.9047773,-67.9445601 -45.9035379,-67.942543 -45.9026271,-67.94070253 -45.90708056,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.93482704 -45.9074612,-67.922008 -45.9097193,-67.9201412 -45.9109884,-67.9196906 -45.9109585,-67.9200125 -45.9097492,-67.9210854 -45.909585,-67.9227591 -45.90851,-67.9267287 -45.9077933,-67.9317927 -45.9075544,-67.9344964 -45.9080023,-67.9353762 -45.9076142,-67.92132124 -45.90950332,-67.9221797 -45.9097492,-67.9201412 -45.9109884,-67.91924 -45.911063,-67.9191971 -45.9115109,-67.91938339 -45.91141146,-67.9191971 -45.9115109,-67.9193473 -45.9122574,-67.9206347 -45.9121827,-67.9237676 -45.911287,-67.92339949 -45.91107871,-67.9250765 -45.911063,-67.9249692 -45.9120036,-67.9233384 -45.9123171,-67.92178415 -45.91276334,-67.9231882 -45.9122723,-67.9249692 -45.9120036,-67.9255915 -45.9130038,-67.9226518 -45.9145117,-67.9209566 -45.9155119,-67.9190469 -45.9157209,-67.9196262 -45.9152282,-67.9198102 -45.91487479,,-67.91936766 -45.91518342,-67.9294324 -45.9165121,-67.930162 -45.916945,-67.9304409 -45.9174227,-67.9261708 -45.9179004,-67.9190469 -45.9157209,-67.9196262 -45.9152282,-67.92776392 -45.91634643,-67.9315567 -45.9216173,-67.9323292 -45.9215277,-67.9268146 -45.9178258,-67.9294968 -45.9176466,-67.9304409 -45.9174227,-67.9300117 -45.9168704,-67.9294324 -45.9165121,-67.92974857 -45.92193359;-67.92974857 -45.92193359,-67.9315567 -45.9216173,-67.9323292 -45.9215277,-67.9268146 -45.9178258,-67.9294968 -45.9176466,-67.9304409 -45.9174227,-67.9300117 -45.9168704,-67.9294324 -45.9165121,-67.92776392 -45.91634643,-67.9294324 -45.9165121,-67.930162 -45.916945,-67.9304409 -45.9174227,-67.9261708 -45.9179004,-67.9190469 -45.9157209,-67.9196262 -45.9152282,-67.91936766 -45.91518342,,-67.9198102 -45.91487479,-67.9231882 -45.9122723,-67.9249692 -45.9120036,-67.9255915 -45.9130038,-67.9226518 -45.9145117,-67.9209566 -45.9155119,-67.9190469 -45.9157209,-67.9196262 -45.9152282,-67.92178415 -45.91276334,-67.9250765 -45.911063,-67.9249692 -45.9120036,-67.9233384 -45.9123171,-67.92339949 -45.91107871,-67.9191971 -45.9115109,-67.9193473 -45.9122574,-67.9206347 -45.9121827,-67.9237676 -45.911287,-67.91938339 -45.91141146,-67.9221797 -45.9097492,-67.9201412 -45.9109884,-67.91924 -45.911063,-67.9191971 -45.9115109,-67.92132124 -45.90950332,-67.922008 -45.9097193,-67.9201412 -45.9109884,-67.9196906 -45.9109585,-67.9200125 -45.9097492,-67.9210854 -45.909585,-67.9227591 -45.90851,-67.9267287 -45.9077933,-67.9317927 -45.9075544,-67.9344964 -45.9080023,-67.9353762 -45.9076142,-67.93482704 -45.9074612,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.94070253 -45.90708056,-67.9417276 -45.9060912,-67.9426718 -45.9047623,-67.9416203 -45.9047773,-67.9445601 -45.9035379,-67.942543 -45.9026271,-67.94048121 -45.90255833,-67.9313636 -45.9007755,-67.9299688 -45.9015296,-67.9309559 -45.9024778,-67.931664 -45.9022687,-67.9323721 -45.9010144,-67.9335737 -45.900447,-67.9371786 -45.9012832,-67.9379082 -45.9021045,-67.9396677 -45.9026719,-67.941041 -45.9025674,-67.93028301 -45.90068278,-67.9312027 -45.9008128,-67.9299688 -45.9015296,-67.9282737 -45.9003723,-67.9263103 -45.8994316,-67.9232204 -45.8984983,-67.9221046 -45.8981623,-67.92046749 -45.89809236,-67.9221904 -45.8981548,-67.9232204 -45.8984983,-67.9230487 -45.8980652,-67.9224908 -45.89755,-67.9236388 -45.8964449,-67.92261639 -45.89612501,-67.9235637 -45.895743,-67.9241538 -45.8953249,-67.9267287 -45.8949142,-67.9271579 -45.8944961,-67.9267287 -45.8942048,-67.9257309 -45.8936448,-67.9256558 -45.8930698,-67.9268682 -45.8923604,-67.9289711 -45.8934208,-67.9293036 -45.893361,-67.92819602 -45.89300211,-67.929368 -45.8925994,-67.9296148 -45.8919423,-67.9287994 -45.8913897,-67.9285097 -45.8910014,-67.9286277 -45.8901127,-67.92758265 -45.88993498,-67.9286492 -45.8892166,-67.9288638 -45.8878724,-67.9292393 -45.8876931,-67.92838162 -45.88770662,-67.929883 -45.8876782,-67.9306018 -45.8878724,-67.9317605 -45.8883727,-67.9326189 -45.888201,-67.93184093 -45.88869985,,-67.93195275 -45.88880085,-67.9325545 -45.8880964,-67.9324257 -45.8875363,-67.933048 -45.8868642,-67.9335093 -45.8836304,-67.93297197 -45.88384007,,-67.93288041 -45.88347512,-67.9369962 -45.8822636,-67.9367441 -45.8819686,-67.9343677 -45.8832719,-67.93623372 -45.88237227,-67.9369104 -45.8822487,-67.9367441 -45.8819686,-67.9385787 -45.881274,-67.938568 -45.8809641,-67.9379243 -45.8811844,-67.93588984 -45.88149225,-67.9380155 -45.8812404,-67.938627 -45.880852,-67.9384768 -45.8805682,-67.9371035 -45.8800827,-67.9358482 -45.8797093,-67.9335737 -45.8797616,-67.934432 -45.8794255,-67.9350007 -45.8792835,-67.9357088 -45.8792686,-67.93512028 -45.8793768,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.92926139 -45.87980166,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92916705 -45.87686758,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.93292309 -45.87290945,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.933282 -45.87018527,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.93551008 -45.87004015,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2303,S1033,S888,S707,S2655</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 944,S56,Linea 940,S78,Linea 932,S645,Linea 931,S2111,Linea 930,S2110,Linea 736,S2167,Linea 1617,S2168,Linea 584,S849,Linea 582,S938,Linea 581,S2443,Linea 578,S2132,Linea 579,S949,Linea 591,S2129,Linea 592,S2259,Linea 594,S17,Linea 735,S295,Linea 734,S3,Linea 613,Q16,Linea 1626,S2240,Linea 471,S2,Linea 1886,S13,Linea 1887,S2523,Linea 517,Q17,Linea 516,S2236,Linea 511,S509,Linea 512,S427,Linea 506,S420,Linea 505,S418,Linea 485,S2303;S2303,Linea 485,S418,Linea 505,S420,Linea 506,S427,Linea 512,S509,Linea 511,S2236,Linea 516,Q17,Linea 517,S2523,Linea 1888,S2606,Linea 526,S2614,Linea 451,S2122,Linea 439,S2635,Linea 420,S2040,Linea 418,S2007,Linea 378,S1028,Linea 416,S1036,Linea 376,S1033;S1033,Linea 376,S1036,Linea 416,S1028,Linea 379,S544,Linea 380,S1037,Linea 381,S2300,Linea 412,S2151,Linea 415,S774,Linea 414,S722,Linea 413,S710,Linea 393,S709,Linea 392,S687,Linea 370,S613,Linea 365,S707,Linea 1497,S2496,Linea 314,S2440,Linea 315,S616,Linea 260,S594,Linea 340,S892,Linea 272,S888;S888,Linea 272,S892,Linea 340,S594,Linea 260,S616,Linea 315,S2440,Linea 314,S2496,Linea 1497,S707;S707,Linea 365,S613,Linea 369,S721,Linea 368,Planta La Petiza,Linea 366,S1039,Linea 361,S790,Linea 342,S1029,Linea 349,S2470,Linea 348,S2655;S2655,Linea 348,S2470,Linea 349,S1029,Linea 342,S790,Linea 361,S1039,Linea 366,Planta La Petiza,Linea 368,S721,Linea 369,S613,Linea 370,S687,Linea 392,S709,Linea 393,S710,Linea 413,S722,Linea 414,S774,Linea 415,S2151,Linea 531,S773,Linea 546,S437,Linea 549,S529,Linea 551,S525,Linea 552,S2273,Linea 566,S522,Linea 567,S882,Linea 568,S2255,Linea 1421,S354,Linea 1365,S2009,Linea 1363,S2006,Linea 1361,S353,Linea 1836,S997,Linea 854,S2504,Linea 853,S2716,Linea 849,S2056,Linea 850,S2407,Linea 773,S338,Linea 764,S395,Linea 763,S2468,Linea 760,S402,Linea 759,S2417,Linea 768,S172,Linea 1211,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299045 -45.8786188,-67.929765 -45.8784918,-67.9247224 -45.8798512,-67.9241753 -45.8796943,-67.92260289 -45.87981886,-67.9231775 -45.8798138,-67.9230273 -45.8801051,-67.9220295 -45.8802022,-67.9198301 -45.8807027,-67.9191542 -45.8814645,-67.9198301 -45.8813375,-67.91930941 -45.88137118,-67.9183173 -45.8833018,-67.9179525 -45.8832943,-67.9178452 -45.8829358,-67.9186606 -45.8819873,-67.9191113 -45.8815466,-67.9197979 -45.8813898,-67.91747464 -45.88372353,-67.9166651 -45.8823159,-67.9170835 -45.8822711,-67.9178345 -45.8833989,-67.9184783 -45.8832943,-67.91541483 -45.88231338,-67.911365 -45.8831076,-67.9142618 -45.8826968,-67.9159892 -45.8825026,-67.90970498 -45.88326091,-67.9076958 -45.8841084,-67.9082644 -45.8839366,-67.9093373 -45.8833167,-67.9103136 -45.8831972,-67.90591516 -45.88446218,,-67.90594775 -45.88423937,-67.9066443 -45.8844071,-67.9062474 -45.8852585,-67.908833 -45.885968,-67.9091012 -45.8864012,-67.90705336 -45.88840606,-67.9052818 -45.8875736,-67.90654780000001 -45.8882084,-67.9074919 -45.8882756,-67.90362098 -45.8874036,-67.9039729 -45.8871629,-67.9034686 -45.8869165,-67.9041123 -45.886192,-67.9042947 -45.8847656,-67.90316820000001 -45.883637900000004,-67.90293219 -45.8836944,-67.90316820000001 -45.883637900000004,-67.9026854 -45.8831823,-67.9021275 -45.8832794,-67.900722 -45.8842279,-67.9001105 -45.8851465,-67.8995955 -45.8843175,-67.89811074 -45.88424629,-67.896452 -45.8842129,-67.8972995 -45.8841607,-67.8987801 -45.8833839,-67.8993165 -45.8836304,-67.89478887 -45.88442779,-67.895658 -45.88465360000001,-67.8955078 -45.8872675,-67.89402720000001 -45.888186,-67.89313670000001 -45.8879097,-67.8935552 -45.8866999,-67.891624 -45.8850718,-67.88986813 -45.88509226,-67.8916669 -45.8851316,-67.891463 -45.8853332,-67.8890061 -45.8855946,-67.8886521 -45.8849672,-67.88725199 -45.88498287,-67.8877938 -45.885251,-67.8862166 -45.8849523,-67.88477851 -45.88530377,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88934482 -45.88367092,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.87931365 -45.88515467,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87597578 -45.88674947,,-67.87630061 -45.88642699,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.8758872 -45.88413516,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.87263059 -45.88283868,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.86703039 -45.88312685,-67.8726017 -45.880389,-67.8697157 -45.8828462,-67.8706813 -45.8831001,-67.8686643 -45.8830254,-67.8724445 -45.87988188,-67.8772688 -45.8789101,-67.8749835 -45.8790146,-67.87362100000001 -45.8797765,-67.87684672 -45.87887091,-67.8785026 -45.8788802,-67.8798115 -45.8793806,-67.87875862 -45.87975391,-67.8797901 -45.8776627,-67.8792536 -45.87817810000001,-67.8798115 -45.8793806,-67.87897854 -45.87766371,-67.8836739 -45.8759821,-67.8838027 -45.8758402,-67.883234 -45.875631,-67.8816783 -45.8762734,-67.8803587 -45.8772818,-67.88220216 -45.87628794,-67.8856909 -45.8773042,-67.88382410000001 -45.8758999,-67.8835773 -45.8759821,-67.88515558 -45.87764642,-67.8866458 -45.877476,-67.8866458 -45.8780437,-67.8858411 -45.8780212,-67.8857124 -45.8785142,-67.88533919 -45.87880887;-67.88533919 -45.87880887,-67.8866458 -45.877476,-67.8866458 -45.8780437,-67.8858411 -45.8780212,-67.8857124 -45.8785142,-67.88515558 -45.87764642,-67.8856909 -45.8773042,-67.88382410000001 -45.8758999,-67.8835773 -45.8759821,-67.88220216 -45.87628794,-67.8836739 -45.8759821,-67.8838027 -45.8758402,-67.883234 -45.875631,-67.8816783 -45.8762734,-67.8803587 -45.8772818,-67.87897854 -45.87766371,-67.8797901 -45.8776627,-67.8792536 -45.87817810000001,-67.8798115 -45.8793806,-67.87875862 -45.87975391,-67.8785026 -45.8788802,-67.8798115 -45.8793806,-67.87684672 -45.87887091,-67.8772688 -45.8789101,-67.8749835 -45.8790146,-67.87362100000001 -45.8797765,-67.8724445 -45.87988188,-67.8726017 -45.880389,-67.8697157 -45.8828462,-67.8706813 -45.8831001,-67.8686643 -45.8830254,-67.86703039 -45.88312685,-67.8685462 -45.8831151,-67.8700483 -45.8829059,-67.8648233 -45.8818603,-67.8628063 -45.8810537,-67.8621304 -45.8814645,-67.86071597 -45.88116865,-67.8614116 -45.8855274,-67.862978 -45.884788,-67.8635466 -45.8831599,-67.8632355 -45.8817483,-67.86391140000002 -45.8815093,-67.8628063 -45.8810537,-67.8623772 -45.8814346,-67.85908094 -45.88593849,-67.85825730000002 -45.8853855,-67.85964130000002 -45.8854228,-67.85655105 -45.88556448,-67.8571093 -45.8855572,-67.8559184 -45.8854378,-67.8555107 -45.884698400000005,-67.85493998 -45.88481908,-67.8556287 -45.8843698,-67.853719 -45.8831001,-67.8518629 -45.8825923,-67.8500605 -45.8812329,-67.8485758 -45.88086765,-67.8494382 -45.880628,-67.84873010000001 -45.8802396,-67.8461766 -45.8806653,-67.8457046 -45.880515900000006,-67.84518194 -45.88032275,-67.8455973 -45.8806504,-67.8449214 -45.8812852,-67.8420246 -45.8795972,-67.8425181 -45.87953,-67.84221298 -45.87973382,-67.842443 -45.8796122,-67.8389347 -45.8810612,-67.8383017 -45.8819499,-67.8395998 -45.8826445,-67.8392565 -45.8820246,-67.8403294 -45.8816064,-67.83977572 -45.88161766,-67.8418744 -45.8837275,-67.8411126 -45.8830703,-67.839793 -45.8826221,-67.8392565 -45.8819126,-67.8402436 -45.8815616,-67.8408227 -45.88408969;-67.8408227 -45.88408969,-67.8418744 -45.8837275,-67.8411126 -45.8830703,-67.839793 -45.8826221,-67.8392565 -45.8819126,-67.8402436 -45.8815616,-67.83977572 -45.88161766,-67.842443 -45.8796122,-67.8389347 -45.8810612,-67.8383017 -45.8819499,-67.8395998 -45.8826445,-67.8392565 -45.8820246,-67.8403294 -45.8816064,-67.84221298 -45.87973382,-67.842561 -45.8794628,-67.8420246 -45.8792462,-67.8431511 -45.8775283,-67.8462946 -45.877095,-67.8445137 -45.8768261,-67.84286672 -45.87711998,-67.8467989 -45.878081,-67.8463697 -45.8770502,-67.8443956 -45.8768859,-67.84627973 -45.87829114,-67.8467667 -45.8780212,-67.846477 -45.87698300000001,-67.8477967 -45.8764751,-67.84644226 -45.87649326,-67.847904 -45.8759074,-67.8490949 -45.8742491,-67.8510368 -45.8734349,-67.8488266 -45.8731585,-67.84711722 -45.87310355,-67.8489339 -45.8731324,-67.8501302 -45.8733565,-67.8485316 -45.8736739,-67.8459191 -45.8729942,-67.84549 -45.8723406,-67.8449106 -45.8726842,-67.84336962 -45.87289033,-67.8464448 -45.8713396,-67.8465736 -45.871657000000006,-67.84484620000002 -45.8726692,-67.84458226 -45.87132178,-67.8433174 -45.8702414,-67.8424054 -45.8705701,-67.8442401 -45.8712014,-67.8457582 -45.8705029,-67.8468794 -45.8714778,-67.8465736 -45.871657000000006,-67.8464073 -45.8713396,-67.84266503 -45.8702826,-67.8403401 -45.8715002,-67.8396213 -45.8713059,-67.8401256 -45.8706859,-67.8424323 -45.8705216,-67.8432369 -45.8702153,-67.83999726 -45.87142467,-67.8404045 -45.871440400000004,-67.8396642 -45.8713657,-67.8393745 -45.8705216,-67.8371751 -45.8699314,-67.8344822 -45.8697969,-67.8345251 -45.8700584,-67.8363597 -45.8707606,-67.83598551 -45.8713908,-67.8363276 -45.8710445,-67.8348899 -45.87091,-67.8336024 -45.8710221,-67.83204724 -45.87132308,-67.8326046 -45.8712686,-67.8287637 -45.8718438,-67.8266931 -45.8718811,-67.8259957 -45.8715076,-67.82435527 -45.87146335,-67.8260922 -45.8716048,-67.8258884 -45.8718886,-67.8219509 -45.871657,-67.8194082 -45.8687287,-67.8185391 -45.8670926,-67.8190756 -45.8667788,-67.8187144 -45.86699435,-67.819097 -45.8668461,-67.8186357 -45.8670552,-67.8192151 -45.868385,-67.81829240000002 -45.8680713,-67.81633269 -45.86814359,-67.8182173 -45.868004,-67.8160286 -45.8663455,-67.8181314 -45.8648065,-67.8182173 -45.864545,-67.81720169 -45.86444747,-67.8186142 -45.8634617,-67.8183568 -45.8624605,-67.8160179 -45.8615565,-67.8143764 -45.8610559,-67.81282229 -45.86107452,-67.8138077 -45.8564532,-67.814548 -45.8566699,-67.813561 -45.8597484,-67.8137219 -45.8605777,-67.81224182 -45.85671416,-67.8138828 -45.856371,-67.8149986 -45.8564981,-67.816329 -45.8556985,-67.81537995 -45.85550384;-67.81537995 -45.85550384,-67.8138828 -45.856371,-67.8149986 -45.8564981,-67.816329 -45.8556985,-67.81224182 -45.85671416,-67.8138077 -45.8564532,-67.814548 -45.8566699,-67.813561 -45.8597484,-67.8137219 -45.8605777,-67.81282229 -45.86107452,-67.8186142 -45.8634617,-67.8183568 -45.8624605,-67.8160179 -45.8615565,-67.8143764 -45.8610559,-67.81720169 -45.86444747,-67.8182173 -45.868004,-67.8160286 -45.8663455,-67.8181314 -45.8648065,-67.8182173 -45.864545,-67.81633269 -45.86814359,-67.819097 -45.8668461,-67.8186357 -45.8670552,-67.8192151 -45.868385,-67.81829240000002 -45.8680713,-67.8187144 -45.86699435,-67.8260922 -45.8716048,-67.8258884 -45.8718886,-67.8219509 -45.871657,-67.8194082 -45.8687287,-67.8185391 -45.8670926,-67.8190756 -45.8667788,-67.82435527 -45.87146335;-67.82435527 -45.87146335,-67.8326046 -45.8712686,-67.8287637 -45.8718438,-67.8266931 -45.8718811,-67.8259957 -45.8715076,-67.83204724 -45.87132308,-67.8347504 -45.8724041,-67.8345788 -45.8717915,-67.8335381 -45.8712686,-67.8339131 -45.87269245,-67.8368962 -45.8743761,-67.8363168 -45.8740101,-67.8365743 -45.8734723,-67.8358126 -45.8726879,-67.8366923 -45.875026,-67.8362739 -45.8749812,-67.8353405 -45.875362100000004,-67.8336787 -45.87548722,-67.8340852 -45.8751231,-67.8342354 -45.8742566,-67.8322077 -45.8732855,-67.8288817 -45.8737262,-67.82716871 -45.873948,-67.821511 -45.878081,-67.8234959 -45.8768037,-67.8260922 -45.8734274,-67.8288066 -45.8736889,-67.82018891 -45.8787842,-67.826339 -45.88047110000001,-67.8268754 -45.8811284,-67.8273153 -45.8802321,-67.8244936 -45.8781408,-67.8228843 -45.8780212,-67.8223586 -45.8783947,-67.8233027 -45.8768411,-67.8215861 -45.8781258,-67.82495492 -45.88019856,-67.8244615 -45.8810313,-67.8250515 -45.8799259,-67.8256953 -45.8798288,-67.82277878 -45.88156147;-67.82277878 -45.88156147,-67.8244615 -45.8810313,-67.8250515 -45.8799259,-67.8256953 -45.8798288,-67.82495492 -45.88019856,-67.826339 -45.88047110000001,-67.8268754 -45.8811284,-67.8273153 -45.8802321,-67.8244936 -45.8781408,-67.8228843 -45.8780212,-67.8223586 -45.8783947,-67.8233027 -45.8768411,-67.8215861 -45.8781258,-67.82018891 -45.8787842,-67.821511 -45.878081,-67.8234959 -45.8768037,-67.8260922 -45.8734274,-67.8288066 -45.8736889,-67.82716871 -45.873948,-67.8340852 -45.8751231,-67.8342354 -45.8742566,-67.8322077 -45.8732855,-67.8288817 -45.8737262,-67.8336787 -45.87548722,-67.8362739 -45.8749812,-67.8353405 -45.875362100000004,-67.8366923 -45.875026,-67.8368962 -45.8743761,-67.8363168 -45.8740101,-67.8365743 -45.8734723,-67.8358126 -45.8726879,-67.8339131 -45.87269245,-67.8347504 -45.8724041,-67.8345788 -45.8717915,-67.8335381 -45.8712686,-67.83204724 -45.87132308,-67.8363276 -45.8710445,-67.8348899 -45.87091,-67.8336024 -45.8710221,-67.83598551 -45.8713908,-67.8404045 -45.871440400000004,-67.8396642 -45.8713657,-67.8393745 -45.8705216,-67.8371751 -45.8699314,-67.8344822 -45.8697969,-67.8345251 -45.8700584,-67.8363597 -45.8707606,-67.83999726 -45.87142467,-67.8403401 -45.8715002,-67.8396213 -45.8713059,-67.8401256 -45.8706859,-67.8424323 -45.8705216,-67.8432369 -45.8702153,-67.84266503 -45.8702826,-67.8433174 -45.8702414,-67.8424054 -45.8705701,-67.8442401 -45.8712014,-67.8457582 -45.8705029,-67.8468794 -45.8714778,-67.8465736 -45.871657000000006,-67.8464073 -45.8713396,-67.84458226 -45.87132178,-67.8464448 -45.8713396,-67.8465736 -45.871657000000006,-67.84484620000002 -45.8726692,-67.84336962 -45.87289033,-67.8489339 -45.8731324,-67.8501302 -45.8733565,-67.8485316 -45.8736739,-67.8459191 -45.8729942,-67.84549 -45.8723406,-67.8449106 -45.8726842,-67.84711722 -45.87310355,-67.84873010000001 -45.87312860000001,-67.8543305 -45.8741595,-67.857635 -45.8744807,-67.857019 -45.87438052,-67.857635 -45.8744807,-67.8541696 -45.874152,-67.8588581 -45.8727103,-67.8593409 -45.8716048,-67.85882935 -45.87179542,-67.8593409 -45.8716048,-67.85971640000001 -45.8705365,-67.8614008 -45.870529,-67.861948 -45.8698268,-67.8630531 -45.8694832,-67.86235431 -45.86962035,-67.8639972 -45.8691171,-67.8657031 -45.8680713,-67.86498939 -45.86808329,-67.8668189 -45.8667639,-67.8664005 -45.866988,-67.8663254 -45.8676305,-67.86635342 -45.86702056,-67.8682029 -45.8666817,-67.8692436 -45.8661961,-67.8702307 -45.8647318,-67.8701663 -45.8642088,-67.86895092 -45.86422008,-67.8701234 -45.8635663,-67.8698123 -45.86132490000001,-67.8679776 -45.8603237,-67.8670549 -45.8588966,-67.8654027 -45.859457,-67.8654563 -45.8601518,-67.8656709 -45.8602639,-67.86513556 -45.86046435,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.98715669 -45.86146692,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98206338 -45.86352335,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98026531 -45.86300386,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.97692655 -45.86298292,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97781889 -45.86412305,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97170451 -45.86764851,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.96898996 -45.86789944,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.9688479 -45.86924263,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.96992116 -45.87035971,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.9672039 -45.87497495,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.96572509 -45.87368099,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96214261 -45.87344787,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.95720623 -45.87256309,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95650202 -45.87386891,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95610675 -45.87170205,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95709848 -45.86769228,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2695,S920,S2506,S2136</t>
   </si>
   <si>
     <t>Base,Linea 984,S2185,Linea 985,S310,Linea 1004,S178,Linea 998,S277,Linea 945,S229,Linea 943,S167,Linea 946,S2147,Linea 966,S2465,Linea 968,S387,Linea 970,S316,Linea 969,S39,Linea 957,S36,Linea 1027,S2695;S2695,Linea 1026,S43,Linea 1088,S2707,Linea 1098,S42,Linea 1853,S2723,Linea 1118,S841,Linea 1113,S2194,Linea 1110,S803,Linea 1138,S815,Linea 1129,S921,Linea 1273,S2055,Linea 1328,S778,Linea 1329,S834,Linea 1307,S839,Linea 1313,S725,Linea 1310,S744,Linea 1311,S2379,Linea 1302,S2519,Linea 1303,S2310,Linea 1768,S748,Linea 1263,S757,Linea 1262,S2629,Linea 1232,S812,Linea 1261,S2287,Linea 1229,S756,Linea 1226,S920;S920,Linea 1226,S756,Linea 1229,S2287,Linea 1261,S812,Linea 1232,S2629,Linea 1262,S757,Linea 1263,S748,Linea 1762,S2310,Linea 1303,S2519,Linea 1302,S2379,Linea 1311,S744,Linea 1310,S725,Linea 1313,S839,Linea 1307,S834,Linea 1306,S759,Linea 1297,S794,Linea 1073,S760,Linea 1221,S791,Linea 1063,S2506;S2506,Linea 1063,S791,Linea 1076,S793,Linea 1078,S2667,Linea 1077,S944,Linea 1085,S115,Linea 1733,S927,Linea 1222,S33,Linea 1724,S2094,Linea 950,S31,Linea 949,S2146,Linea 964,S2147,Linea 966,S2465,Linea 1715,S546,Linea 1212,S962,Linea 1008,S315,Linea 1017,S59,Linea 1295,S2116,Linea 1293,S1,Linea 1292,S2189,Linea 797,S2095,Linea 1825,S2479,Linea 795,S189,Linea 1826,S18,Linea 1177,S2243,Linea 807,S205,Linea 1181,S2139,Linea 1180,S8,Linea 1183,S223,Linea 1189,S224,Linea 1190,S203,Linea 1748,S2136;S2136,Linea 1748,S203,Linea 1190,S224,Linea 1189,S223,Linea 1183,S8,Linea 1180,S2139,Linea 1181,S205,Linea 807,S2243,Linea 1177,S18,Linea 1826,S189,Linea 795,S2479,Linea 1825,S2095,Linea 797,S2189,Linea 1292,S1,Linea 1293,S2116,Linea 1295,S59,Linea 1017,S315,Linea 746,S2572,Linea 747,S381,Linea 748,S377,Linea 740,S980,Linea 741,S2421,Linea 1842,S370,Linea 752,S2408,Linea 754,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380584 -45.8682655,-67.9363847 -45.8693786,-67.9365671 -45.8696326,-67.93551008 -45.87004015,-67.936492 -45.8696625,-67.9362881 -45.8694234,-67.9350436 -45.8703273,-67.9347003 -45.8699986,-67.933282 -45.87018527,-67.9337347 -45.872531,-67.9350007 -45.8704245,-67.9346895 -45.8701032,-67.93292309 -45.87290945,-67.9305589 -45.8765722,-67.9309773 -45.8765423,-67.9323184 -45.875011,-67.9336917 -45.8726132,-67.92916705 -45.87686758,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9304302 -45.8776552,-67.9309022 -45.8766245,-67.9306126 -45.8766543,-67.92746283 -45.879252,-67.9288745 -45.8790371,-67.9299796 -45.8786337,-67.9308271 -45.8793582,-67.9310632 -45.8796271,-67.9308057 -45.8796645,-67.92926139 -45.87980166,-67.9308057 -45.8796645,-67.9309773 -45.8795823,-67.9308271 -45.8793582,-67.9319429 -45.8795524,-67.9332089 -45.8799333,-67.9339921 -45.8795524,-67.9349685 -45.8793358,-67.935698 -45.8793209,-67.93512028 -45.8793768,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93938002 -45.87863178,-67.9433799 -45.8793582,-67.9425859 -45.8792462,-67.9414809 -45.8788951,-67.9399574 -45.8788802,-67.9395819 -45.8785889,-67.9398179 -45.8784246,-67.94258106 -45.87928487,-67.9468131 -45.8799931,-67.9464698 -45.8794927,-67.9443026 -45.8791491,-67.9459034 -45.88040255,-67.9472744 -45.8827118,-67.9475963 -45.8819051,-67.9476392 -45.8807475,-67.9472208 -45.8805159,-67.94607409 -45.88311995,-67.9472744 -45.8852212,-67.9470921 -45.8844967,-67.9472423 -45.883959,-67.9472315 -45.8831823,-67.94628753 -45.88560005,-67.9487872 -45.8868418,-67.9495382 -45.8874766,-67.9496884 -45.88726,-67.9485726 -45.886095,-67.9476714 -45.8855871,-67.94746568 -45.88694764;-67.94746568 -45.88694764,-67.948755 -45.886894,-67.9494202 -45.887484,-67.9503751 -45.8875587,-67.9509008 -45.8873571,-67.9508793 -45.8868716,-67.94972726 -45.88693813,-67.951051 -45.8868418,-67.9516089 -45.886207,-67.952832 -45.8866028,-67.95178221 -45.88666191,-67.957381 -45.8868268,-67.9566729 -45.8866327,-67.953701 -45.8868791,-67.9533148 -45.8869911,-67.9529393 -45.8866103,-67.95650174 -45.8868325,-67.9563618 -45.8869613,-67.9570055 -45.8870583,-67.9568553 -45.8866028,-67.957381 -45.8868268,-67.95495587 -45.8875866,-67.9576063 -45.8896124,-67.9577136 -45.888888,-67.9572308 -45.8876483,-67.9565012 -45.8869986,-67.95602222 -45.88970885,-67.958647 -45.8921289,-67.9580784 -45.8917854,-67.958411 -45.8907699,-67.9588509 -45.8902397,-67.9578209 -45.8896422,-67.95792371 -45.89252328,-67.958411 -45.8946678,-67.9585934 -45.8938464,-67.9590118 -45.8934581,-67.9594839 -45.8932714,-67.9597199 -45.892913,-67.9595053 -45.8926741,-67.95753705 -45.89518861,-67.9602778 -45.8973559,-67.959677 -45.8974604,-67.9590976 -45.897326,-67.9587114 -45.8968257,-67.95928 -45.896094,-67.9591405 -45.8953548,-67.95956637 -45.89743693,-67.9642367 -45.8983564,-67.9643333 -45.8976993,-67.9650199 -45.8970721,-67.9652989 -45.8964076,-67.9613721 -45.8972065,-67.96354703 -45.89869944,-67.9693437 -45.9027914,-67.9659963 -45.8987297,-67.965138 -45.8986401,-67.96793825 -45.90348141,-67.9685926 -45.9034484,-67.9653096 -45.9044488,-67.9600525 -45.9049564,-67.9584861 -45.9041651,-67.9576707 -45.9040606,-67.95594313 -45.90408308,-67.9576707 -45.9040606,-67.9586577 -45.9041501,-67.9598594 -45.9049266,-67.9530573 -45.9053894,-67.9526496 -45.9059568,-67.9507613 -45.9066437,-67.9497957 -45.9073603,-67.9479933 -45.907644,-67.9448175 -45.9073753,-67.9420066 -45.9072707,-67.94070253 -45.90708056,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.93482704 -45.9074612,-67.922008 -45.9097193,-67.9201412 -45.9109884,-67.9196906 -45.9109585,-67.9200125 -45.9097492,-67.9210854 -45.909585,-67.9227591 -45.90851,-67.9267287 -45.9077933,-67.9317927 -45.9075544,-67.9344964 -45.9080023,-67.9353762 -45.9076142,-67.92132124 -45.90950332,-67.9221797 -45.9097492,-67.9201412 -45.9109884,-67.91924 -45.911063,-67.9191971 -45.9115109,-67.91938339 -45.91141146,-67.9191971 -45.9115109,-67.9193473 -45.9122574,-67.9206347 -45.9121827,-67.9237676 -45.911287,-67.92339949 -45.91107871,-67.9250765 -45.911063,-67.9249692 -45.9120036,-67.9233384 -45.9123171,-67.92178415 -45.91276334,-67.9231882 -45.9122723,-67.9249692 -45.9120036,-67.9255915 -45.9130038,-67.9226518 -45.9145117,-67.9209566 -45.9155119,-67.9190469 -45.9157209,-67.9196262 -45.9152282,-67.9198102 -45.91487479,,-67.91936766 -45.91518342,-67.9294324 -45.9165121,-67.930162 -45.916945,-67.9304409 -45.9174227,-67.9261708 -45.9179004,-67.9190469 -45.9157209,-67.9196262 -45.9152282,-67.92776392 -45.91634643,-67.9315567 -45.9216173,-67.9323292 -45.9215277,-67.9268146 -45.9178258,-67.9294968 -45.9176466,-67.9304409 -45.9174227,-67.9300117 -45.9168704,-67.9294324 -45.9165121,-67.92974857 -45.92193359,-67.9378974 -45.9205575,-67.9375219 -45.920244,-67.9376721 -45.9193932,-67.9373181 -45.9201097,-67.9375005 -45.9207814,-67.9381657 -45.9214382,-67.9378438 -45.9222592,-67.9378653 -45.9235428,-67.9352689 -45.9230204,-67.9323292 -45.9215277,-67.9315567 -45.9216173,-67.93749101 -45.92107433,-67.9473066 -45.9191991,-67.9491735 -45.9182736,-67.9488516 -45.9169151,-67.9491198 -45.9161986,-67.9481864 -45.9168405,-67.9482937 -45.9178556,-67.947135 -45.9184079,-67.94559 -45.9178407,-67.9453111 -45.9174227,-67.9465771 -45.9168554,-67.9420924 -45.9173033,-67.9408264 -45.9169002,-67.9406118 -45.9177959,-67.9378867 -45.9191842,-67.9375434 -45.9200649,-67.9378974 -45.9205575,-67.94586231 -45.91962676,-67.9510295 -45.9188259,-67.949667 -45.9168704,-67.9491198 -45.9161986,-67.9486799 -45.916833,-67.9491198 -45.9181243,-67.9471564 -45.9191543,-67.95055552 -45.91916669,-67.9587436 -45.920871,-67.9575205 -45.9200947,-67.9542375 -45.9190946,-67.9514909 -45.9187513,-67.95749776 -45.92122866;-67.95749776 -45.92122866,-67.9587436 -45.920871,-67.9575205 -45.9200947,-67.9542375 -45.9190946,-67.9514909 -45.9187513,-67.95055552 -45.91916669,-67.9510295 -45.9188259,-67.949667 -45.9168704,-67.9491198 -45.9161986,-67.9486799 -45.916833,-67.9491198 -45.9181243,-67.9471564 -45.9191543,-67.94586231 -45.91962676,-67.9473066 -45.9191991,-67.9491735 -45.9182736,-67.9488516 -45.9169151,-67.9491198 -45.9161986,-67.9481864 -45.9168405,-67.9482937 -45.9178556,-67.947135 -45.9184079,-67.94559 -45.9178407,-67.9453111 -45.9174227,-67.9465771 -45.9168554,-67.9420924 -45.9173033,-67.9408264 -45.9169002,-67.9406118 -45.9177959,-67.9378867 -45.9191842,-67.9375434 -45.9200649,-67.9378974 -45.9205575,-67.93749101 -45.92107433,-67.9378974 -45.9205575,-67.9375219 -45.920244,-67.9376721 -45.9193932,-67.9373181 -45.9201097,-67.9375005 -45.9207814,-67.9381657 -45.9214382,-67.9378438 -45.9222592,-67.9378653 -45.9235428,-67.9352689 -45.9230204,-67.9323292 -45.9215277,-67.9315567 -45.9216173,-67.92974857 -45.92193359,-67.9315567 -45.9216173,-67.9323292 -45.9215277,-67.9268146 -45.9178258,-67.9294968 -45.9176466,-67.9304409 -45.9174227,-67.9300117 -45.9168704,-67.9294324 -45.9165121,-67.92776392 -45.91634643,-67.9294324 -45.9165121,-67.930162 -45.916945,-67.9304409 -45.9174227,-67.9261708 -45.9179004,-67.9190469 -45.9157209,-67.9196262 -45.9152282,-67.91936766 -45.91518342,,-67.9198102 -45.91487479,-67.9231882 -45.9122723,-67.9249692 -45.9120036,-67.9255915 -45.9130038,-67.9226518 -45.9145117,-67.9209566 -45.9155119,-67.9190469 -45.9157209,-67.9196262 -45.9152282,-67.92178415 -45.91276334,-67.9250765 -45.911063,-67.9249692 -45.9120036,-67.9233384 -45.9123171,-67.92339949 -45.91107871,-67.9191971 -45.9115109,-67.9193473 -45.9122574,-67.9206347 -45.9121827,-67.9237676 -45.911287,-67.91938339 -45.91141146,-67.9221797 -45.9097492,-67.9201412 -45.9109884,-67.91924 -45.911063,-67.9191971 -45.9115109,-67.92132124 -45.90950332,-67.922008 -45.9097193,-67.9201412 -45.9109884,-67.9196906 -45.9109585,-67.9200125 -45.9097492,-67.9210854 -45.909585,-67.9227591 -45.90851,-67.9267287 -45.9077933,-67.9317927 -45.9075544,-67.9344964 -45.9080023,-67.9353762 -45.9076142,-67.93482704 -45.9074612,-67.9419637 -45.9061061,-67.9426718 -45.9047623,-67.9415345 -45.9048967,-67.938745 -45.9059568,-67.9340029 -45.9072707,-67.9353547 -45.9073006,-67.94070253 -45.90708056,-67.9417276 -45.9060912,-67.9426718 -45.9047623,-67.9416203 -45.9047773,-67.9445601 -45.9035379,-67.942543 -45.9026271,-67.94048121 -45.90255833,-67.9313636 -45.9007755,-67.9299688 -45.9015296,-67.9309559 -45.9024778,-67.931664 -45.9022687,-67.9323721 -45.9010144,-67.9335737 -45.900447,-67.9371786 -45.9012832,-67.9379082 -45.9021045,-67.9396677 -45.9026719,-67.941041 -45.9025674,-67.93028301 -45.90068278,-67.9312027 -45.9008128,-67.9299688 -45.9015296,-67.9282737 -45.9003723,-67.9263103 -45.8994316,-67.9232204 -45.8984983,-67.9221046 -45.8981623,-67.92046749 -45.89809236,-67.9221904 -45.8981548,-67.9232204 -45.8984983,-67.9230487 -45.8980652,-67.9224908 -45.89755,-67.9236388 -45.8964449,-67.92261639 -45.89612501,-67.9247761 -45.8977964,-67.9243469 -45.8973633,-67.9243791 -45.8961313,-67.9234135 -45.8969676,-67.9229736 -45.897214,-67.9236066 -45.8963628,-67.92440714 -45.89809857;-67.92440714 -45.89809857,-67.9247761 -45.8977964,-67.9243469 -45.8973633,-67.9243791 -45.8961313,-67.9234135 -45.8969676,-67.9229736 -45.897214,-67.9236066 -45.8963628,-67.92261639 -45.89612501,-67.9235637 -45.895743,-67.9241538 -45.8953249,-67.9267287 -45.8949142,-67.9271579 -45.8944961,-67.9267287 -45.8942048,-67.9257309 -45.8936448,-67.9256558 -45.8930698,-67.9268682 -45.8923604,-67.9289711 -45.8934208,-67.9293036 -45.893361,-67.92819602 -45.89300211,-67.929368 -45.8925994,-67.9296148 -45.8919423,-67.9287994 -45.8913897,-67.9285097 -45.8910014,-67.9286277 -45.8901127,-67.92758265 -45.88993498,-67.9286492 -45.8892166,-67.9288638 -45.8878724,-67.9292393 -45.8876931,-67.92838162 -45.88770662,-67.929883 -45.8876782,-67.9306018 -45.8878724,-67.9317605 -45.8883727,-67.9326189 -45.888201,-67.93184093 -45.88869985,,-67.93195275 -45.88880085,-67.9325545 -45.8880964,-67.9324257 -45.8875363,-67.933048 -45.8868642,-67.9335093 -45.8836304,-67.93297197 -45.88384007,,-67.93288041 -45.88347512,-67.9369962 -45.8822636,-67.9367441 -45.8819686,-67.9343677 -45.8832719,-67.93623372 -45.88237227,-67.9369104 -45.8822487,-67.9367441 -45.8819686,-67.9385787 -45.881274,-67.938568 -45.8809641,-67.9379243 -45.8811844,-67.93588984 -45.88149225,-67.9380155 -45.8812404,-67.938627 -45.880852,-67.9384768 -45.8805682,-67.9371035 -45.8800827,-67.9358482 -45.8797093,-67.9335737 -45.8797616,-67.934432 -45.8794255,-67.9350007 -45.8792835,-67.9357088 -45.8792686,-67.93512028 -45.8793768,-67.9364383 -45.8791566,-67.9368889 -45.8790371,-67.9370821 -45.878798,-67.939657 -45.8787906,-67.9398179 -45.8784246,-67.93938002 -45.87863178,,-67.93921257 -45.87804782,-67.9512119 -45.8788877,-67.952435 -45.8787607,-67.9518127 -45.8800454,-67.9474354 -45.8786785,-67.9441524 -45.8779764,-67.9427791 -45.8776328,-67.940805 -45.8776926,-67.94944114 -45.87896309,-67.9534543 -45.8773565,-67.9526925 -45.87711,-67.9530144 -45.8775731,-67.9524779 -45.878813,-67.9512334 -45.8789325,-67.95259842 -45.87763583,-67.9538298 -45.8776104,-67.9575419 -45.8788205,-67.9596341 -45.8789624,-67.9602242 -45.8794852,-67.95937836 -45.87978501,-67.967391 -45.8796271,-67.9660606 -45.879657,-67.9619408 -45.879179,-67.959795 -45.8789997,-67.9602242 -45.8794852,-67.96661757 -45.87943084,-67.9708028 -45.8792686,-67.9686999 -45.8795524,-67.9682064 -45.8792238,-67.96993071 -45.87922522,-67.9739785 -45.8781632,-67.9745579 -45.8782677,-67.9740644 -45.8788802,-67.9710174 -45.8792537,-67.97210325 -45.8786421,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9755771 -45.8785142,-67.9742253 -45.8787756,-67.974236 -45.878222900000004,-67.9757414 -45.87911165,-67.9789352 -45.8795823,-67.9791069 -45.8776627,-67.9756737 -45.8784769,-67.9758239 -45.8787234,-67.9765105 -45.8789474,-67.97764389 -45.88001208,-67.9789352 -45.8795823,-67.9789889 -45.8790669,-67.9799759 -45.8791491,-67.97934342 -45.87920812,-67.9797721 -45.879179,-67.9789889 -45.8790669,-67.9792571 -45.8776403,-67.9831409 -45.876744,-67.9844499 -45.8766842,-67.9838705 -45.8772892,-67.98257485 -45.87765379,-67.9838705 -45.8772892,-67.9842675 -45.8766469,-67.9854584 -45.876617,-67.9846001 -45.8763854,-67.98281428 -45.87644776,-67.9865313 -45.8763033,-67.9853833 -45.8764975,-67.98469660000002 -45.8764303,-67.98563419 -45.87640922,-67.9896748 -45.8771548,-67.9892349 -45.8767216,-67.985158 -45.8765946,-67.9863167 -45.8762734,-67.98904006 -45.87741924,-67.9909623 -45.8768411,-67.9909086 -45.8766394,-67.9893529 -45.876729,-67.9896641 -45.8770726,-67.98995293 -45.87688436,-67.9932904 -45.8760792,-67.9926252 -45.8763556,-67.9912949 -45.8766319,-67.99230343 -45.87612978,-67.9940093 -45.875758,-67.9942882 -45.875646,-67.9944921 -45.8759223,-67.9952216 -45.8756385,-67.9962945 -45.874899,-67.99575168 -45.87505796,-67.9970562 -45.8749065,-67.998054 -45.8746002,-67.9989874 -45.8742865,-67.9998994 -45.8736889,-67.99900055 -45.87377745,,-67.99919655 -45.8737358;-67.99919655 -45.8737358,,-67.99900055 -45.87377745,-67.9970562 -45.8749065,-67.998054 -45.8746002,-67.9989874 -45.8742865,-67.9998994 -45.8736889,-67.99575168 -45.87505796,-67.9940093 -45.875758,-67.9942882 -45.875646,-67.9944921 -45.8759223,-67.9952216 -45.8756385,-67.9962945 -45.874899,-67.99230343 -45.87612978,-67.9932904 -45.8760792,-67.9926252 -45.8763556,-67.9912949 -45.8766319,-67.98995293 -45.87688436,-67.9909623 -45.8768411,-67.9909086 -45.8766394,-67.9893529 -45.876729,-67.9896641 -45.8770726,-67.98904006 -45.87741924,-67.9896748 -45.8771548,-67.9892349 -45.8767216,-67.985158 -45.8765946,-67.9863167 -45.8762734,-67.98563419 -45.87640922,-67.9865313 -45.8763033,-67.9853833 -45.8764975,-67.98469660000002 -45.8764303,-67.98281428 -45.87644776,-67.9838705 -45.8772892,-67.9842675 -45.8766469,-67.9854584 -45.876617,-67.9846001 -45.8763854,-67.98257485 -45.87765379,-67.9797721 -45.879179,-67.9789889 -45.8790669,-67.9792571 -45.8776403,-67.9831409 -45.876744,-67.9844499 -45.8766842,-67.9838705 -45.8772892,-67.97934342 -45.87920812,-67.9789352 -45.8795823,-67.9789889 -45.8790669,-67.9799759 -45.8791491,-67.97764389 -45.88001208,-67.9789352 -45.8795823,-67.9791069 -45.8776627,-67.9756737 -45.8784769,-67.9758239 -45.8787234,-67.9765105 -45.8789474,-67.9757414 -45.87911165,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9755771 -45.8785142,-67.9742253 -45.8787756,-67.974236 -45.878222900000004,-67.97210325 -45.8786421,-67.9739785 -45.8781632,-67.9745579 -45.8782677,-67.9740644 -45.8788802,-67.9710174 -45.8792537,-67.96993071 -45.87922522,-67.9708028 -45.8792686,-67.9686999 -45.8795524,-67.9682064 -45.8792238,-67.96661757 -45.87943084,-67.967391 -45.8796271,-67.9660606 -45.879657,-67.9619408 -45.879179,-67.959795 -45.8789997,-67.9602242 -45.8794852,-67.95937836 -45.87978501,-67.9538298 -45.8776104,-67.9575419 -45.8788205,-67.9596341 -45.8789624,-67.9602242 -45.8794852,-67.95259842 -45.87763583,-67.9521346 -45.8759746,-67.9517162 -45.8759074,-67.9513943 -45.8758999,-67.9525959 -45.87702780000001,-67.95337920000001 -45.8774162,-67.95155064 -45.87647635,-67.9521346 -45.8759746,-67.951448 -45.8759597,-67.9509008 -45.8738383,-67.94983615 -45.87396079,-67.9508579 -45.8736739,-67.9509115 -45.8721426,-67.94974928 -45.87213834,-67.9510081 -45.87218,-67.9515123 -45.8715599,-67.9518449 -45.870925,-67.95082673 -45.87123588,-67.9518449 -45.870925,-67.9516733 -45.8706037,-67.9509866 -45.870275,-67.95089010000001 -45.8697222,-67.9517484 -45.8700734,-67.9526281 -45.8699912,-67.95188123 -45.87007275,-67.9526013 -45.869965,-67.9517484 -45.8700734,-67.9508901 -45.8697222,-67.9511476 -45.8693039,-67.95011093 -45.86936834,-67.9511476 -45.8693039,-67.95089010000001 -45.8697222,-67.9506433 -45.8681011,-67.9512978 -45.867892,-67.95075242 -45.86791677,-67.9513514 -45.867951700000006,-67.9506004 -45.8681534,-67.9493558 -45.8665622,-67.9490876 -45.8664576,-67.9492164 -45.8668461,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2319,S2104,S2593,S2290,S2490</t>
   </si>
   <si>
     <t>Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 754,S2408,Linea 752,S370,Linea 1842,S2421,Linea 741,S980,Linea 740,S377,Linea 748,S381,Linea 747,S2572,Linea 746,S315,Linea 1017,S59,Linea 1295,S2116,Linea 1293,S1,Linea 1292,S2189,Linea 797,S2095,Linea 1825,S2479,Linea 795,S189,Linea 1826,S18,Linea 1177,S2243,Linea 807,S205,Linea 1181,S2139,Linea 1180,S8,Linea 1183,S223,Linea 1189,S224,Linea 1190,S203,Linea 1187,S2586,Linea 1192,S2584,Linea 1205,S138,Linea 1208,S2101,Linea 1462,S183,Linea 1829,S2135,Linea 1814,S2541,Linea 1459,S206,Linea 826,S715,Linea 827,S2356,Linea 1456,S151,Linea 1489,S2304,Linea 1461,S984,Linea 1447,S2093,Linea 1440,S2089,Linea 1438,S257,Linea 1437,S2074,Linea 1442,S2092,Linea 1835,S2319;S2319,Linea 1835,S2092,Linea 1442,S2074,Linea 1437,S257,Linea 1438,S2089,Linea 1440,S2093,Linea 1447,S984,Linea 1461,S2304,Linea 1489,S151,Linea 1456,S2356,Linea 827,S715,Linea 826,S206,Linea 1459,S2541,Linea 1794,S2135,Linea 1829,S183,Linea 1473,S148,Linea 1474,S2429,Linea 1476,S207,Linea 1475,S243,Linea 1482,S2104;S2104,Linea 1482,S243,Linea 1475,S207,Linea 1476,S2429,Linea 1474,S148,Linea 1473,S183,Linea 1462,S2101,Linea 1208,S138,Linea 1490,S2080,Linea 1804,S184,Linea 1206,S194,Linea 820,S2177,Linea 815,S2242,Linea 821,S2441,Linea 823,S2406,Linea 1427,S2087,Linea 1426,S2081,Linea 1370,S2091,Linea 1371,S325,Linea 1372,S323,Linea 1373,S2255,Linea 568,S882,Linea 622,S523,Linea 621,E290,Linea 620,S2386,Linea 236,S487,Linea 230,S1041,Linea 1848,S492,Linea 1849,S2001,Linea 232,S2027,Linea 231,S2593;S2593,Linea 231,S2027,Linea 232,S2001,Linea 1849,S492,Linea 1848,S1041,Linea 230,S487,Linea 236,S2386,Linea 238,S958,Linea 626,S2560,Linea 627,S2262,Linea 628,S2445,Linea 662,S2720,Linea 634,S458,Linea 660,S683,Linea 659,S2265,Linea 664,S2444,Linea 667,S2290;S2290,Linea 667,S2444,Linea 664,S2265,Linea 665,S489,Linea 629,S2077,Linea 631,S629,Linea 905,S783,Linea 903,S2521,Linea 1694,S2490;S2490,Linea 1694,S2521,Linea 903,S783,Linea 1214,Planta Norte,Linea 923,S789,Linea 925,S501,Linea 127,S633,Linea 210,S622,Linea 211,S2552,Linea 1563,S635,Linea 186,S495,Linea 183,S637,Linea 178,S640,Linea 177,S676,Linea 170,S691,Linea 169,S451,Linea 168,S2478,Linea 167,S2510,Linea 164,S678,Linea 162,S662,Linea 161,S246,Linea 158,S680,Linea 1549,S2488,Linea 156,S208,Linea 57,S2253,Linea 52,S326,Linea 8,S2258,Linea 7,S328,Linea 6,S309,Linea 4,S329,Linea 3,S993,Linea 2,S2447,Linea 1506,S176,Linea 1,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9513514 -45.867951700000006,-67.9506004 -45.8681534,-67.9493558 -45.8665622,-67.9490876 -45.8664576,-67.9492164 -45.8668461,-67.95075242 -45.86791677,-67.9511476 -45.8693039,-67.95089010000001 -45.8697222,-67.9506433 -45.8681011,-67.9512978 -45.867892,-67.95011093 -45.86936834,-67.9526013 -45.869965,-67.9517484 -45.8700734,-67.9508901 -45.8697222,-67.9511476 -45.8693039,-67.95188123 -45.87007275,-67.9518449 -45.870925,-67.9516733 -45.8706037,-67.9509866 -45.870275,-67.95089010000001 -45.8697222,-67.9517484 -45.8700734,-67.9526281 -45.8699912,-67.95082673 -45.87123588,-67.9510081 -45.87218,-67.9515123 -45.8715599,-67.9518449 -45.870925,-67.94974928 -45.87213834,-67.9508579 -45.8736739,-67.9509115 -45.8721426,-67.94983615 -45.87396079,-67.9521346 -45.8759746,-67.951448 -45.8759597,-67.9509008 -45.8738383,-67.95155064 -45.87647635,-67.9521346 -45.8759746,-67.9517162 -45.8759074,-67.9513943 -45.8758999,-67.9525959 -45.87702780000001,-67.95337920000001 -45.8774162,-67.95259842 -45.87763583,-67.9538298 -45.8776104,-67.9575419 -45.8788205,-67.9596341 -45.8789624,-67.9602242 -45.8794852,-67.95937836 -45.87978501,-67.967391 -45.8796271,-67.9660606 -45.879657,-67.9619408 -45.879179,-67.959795 -45.8789997,-67.9602242 -45.8794852,-67.96661757 -45.87943084,-67.9708028 -45.8792686,-67.9686999 -45.8795524,-67.9682064 -45.8792238,-67.96993071 -45.87922522,-67.9739785 -45.8781632,-67.9745579 -45.8782677,-67.9740644 -45.8788802,-67.9710174 -45.8792537,-67.97210325 -45.8786421,-67.9764569 -45.8790072,-67.9757595 -45.8787084,-67.9755771 -45.8785142,-67.9742253 -45.8787756,-67.974236 -45.878222900000004,-67.9757414 -45.87911165,-67.9789352 -45.8795823,-67.9791069 -45.8776627,-67.9756737 -45.8784769,-67.9758239 -45.8787234,-67.9765105 -45.8789474,-67.97764389 -45.88001208,-67.9789352 -45.8795823,-67.9789889 -45.8790669,-67.9799759 -45.8791491,-67.97934342 -45.87920812,-67.9797721 -45.879179,-67.9789889 -45.8790669,-67.9792571 -45.8776403,-67.9831409 -45.876744,-67.9844499 -45.8766842,-67.9838705 -45.8772892,-67.98257485 -45.87765379,-67.9838705 -45.8772892,-67.9842675 -45.8766469,-67.9854584 -45.876617,-67.9846001 -45.8763854,-67.98281428 -45.87644776,-67.9865313 -45.8763033,-67.9853833 -45.8764975,-67.98469660000002 -45.8764303,-67.98563419 -45.87640922,-67.9896748 -45.8771548,-67.9892349 -45.8767216,-67.985158 -45.8765946,-67.9863167 -45.8762734,-67.98904006 -45.87741924,-67.9909623 -45.8768411,-67.9909086 -45.8766394,-67.9893529 -45.876729,-67.9896641 -45.8770726,-67.98995293 -45.87688436,-67.9932904 -45.8760792,-67.9926252 -45.8763556,-67.9912949 -45.8766319,-67.99230343 -45.87612978,-67.9940093 -45.875758,-67.9942882 -45.875646,-67.9944921 -45.8759223,-67.9952216 -45.8756385,-67.9962945 -45.874899,-67.99575168 -45.87505796,-67.9970562 -45.8749065,-67.998054 -45.8746002,-67.9989874 -45.8742865,-67.9998994 -45.8736889,-67.99900055 -45.87377745,-68.0009079 -45.8733901,-68.0017447 -45.8731436,-68.0013478 -45.8728149,-68.0005753 -45.8728074,-67.9998672 -45.8727327,-67.9986441 -45.8728074,-67.99707801 -45.87306235,-67.9984939 -45.8727327,-67.9986763 -45.8725609,-67.9987407 -45.872292,-67.99743076 -45.87213204,-68.0036652 -45.8703498,-68.0024529 -45.8706934,-68.0012727 -45.8709175,-68.0001891 -45.8713881,-67.9995775 -45.8718363,-68.00284674 -45.87040916,-68.0041587 -45.8700285,-68.0051243 -45.8686091,-68.00449906 -45.86852742,-68.0070448 -45.8686241,-68.0060685 -45.868385,-68.00620422 -45.86892139,-68.0070448 -45.8686241,-68.0067122 -45.8683028,-68.0066907 -45.8679293,-68.0047274 -45.8681086,-68.0029786 -45.8686316,-68.0021524 -45.8685344,-68.0022383 -45.8682132,-68.00126819 -45.86832361,,-68.00080119 -45.86808139,-67.9980218 -45.8692665,-68.0000389 -45.8684074,-68.0017662 -45.8680339,-67.99627751 -45.86960923,-67.9969811 -45.8694981,-67.9958439 -45.8695654,-67.99512510000001 -45.8693413,-67.99505 -45.8690499,-67.99439359 -45.86914058,-67.99505 -45.8690499,-67.9947495 -45.8687287,-67.9952323 -45.8676529,-67.99437986 -45.8677879,-67.9954576 -45.8672868,-67.9960907 -45.8666518,-67.9968202 -45.8663306,-67.99554948 -45.86642106,-67.9970026 -45.8663754,-68.0035257 -45.8657777,-68.003397 -45.8661662,-68.00288598 -45.86648631,-68.0048561 -45.8661961,-68.0066156 -45.864941,-68.00601835 -45.8652672,-68.0066907 -45.8648887,-68.0076134 -45.8646197,-68.0077314 -45.8640818,-68.0066907 -45.862595,-68.0065084 -45.8626847,-68.00524993 -45.86266209,-68.0066907 -45.862595,-68.0062294 -45.8616088,-68.0054569 -45.8608467,-68.004663 -45.8610185,-68.00290781 -45.86119572,-68.0032039 -45.861564,-68.0037832 -45.8611157,-68.0040193 -45.8610858,-68.00170055 -45.8618692,-68.0024529 -45.8617881,-68.0025601 -45.862341,-68.0002105 -45.8608467,-68.0004787 -45.8601219,-67.99931829 -45.86009184,-68.0074525 -45.859442,-68.0054677 -45.8582764,-68.0048132 -45.8581195,-68.0035686 -45.8582092,-68.0016375 -45.8587994,-68.0007148 -45.8595093,-68.00660247 -45.85987417,-68.0073881 -45.8595317,-68.0048668 -45.8579775,-68.0083323 -45.8566475,-68.0111432 -45.8564831,-68.0119586 -45.855833,-68.0093408 -45.8553025,-68.0084181 -45.8553324,-68.0081391 -45.8549139,-68.0071521 -45.8545179,-68.00533143 -45.85441605;-68.00533143 -45.85441605,-68.0073881 -45.8595317,-68.0048668 -45.8579775,-68.0083323 -45.8566475,-68.0111432 -45.8564831,-68.0119586 -45.855833,-68.0093408 -45.8553025,-68.0084181 -45.8553324,-68.0081391 -45.8549139,-68.0071521 -45.8545179,-68.00660247 -45.85987417,-68.0074525 -45.859442,-68.0054677 -45.8582764,-68.0048132 -45.8581195,-68.0035686 -45.8582092,-68.0016375 -45.8587994,-68.0007148 -45.8595093,-67.99931829 -45.86009184,-68.0024529 -45.8617881,-68.0025601 -45.862341,-68.0002105 -45.8608467,-68.0004787 -45.8601219,-68.00170055 -45.8618692,-68.0032039 -45.861564,-68.0037832 -45.8611157,-68.0040193 -45.8610858,-68.00290781 -45.86119572,-68.0066907 -45.862595,-68.0062294 -45.8616088,-68.0054569 -45.8608467,-68.004663 -45.8610185,-68.00524993 -45.86266209,-68.0066907 -45.8648887,-68.0076134 -45.8646197,-68.0077314 -45.8640818,-68.0066907 -45.862595,-68.0065084 -45.8626847,-68.00601835 -45.8652672,-68.0048561 -45.8661961,-68.0066156 -45.864941,-68.00288598 -45.86648631,-67.9970026 -45.8663754,-68.0035257 -45.8657777,-68.003397 -45.8661662,-67.99554948 -45.86642106,-67.9954576 -45.8672868,-67.9960907 -45.8666518,-67.9968202 -45.8663306,-67.99437986 -45.8677879,-67.99505 -45.8690499,-67.9947495 -45.8687287,-67.9952323 -45.8676529,-67.99439359 -45.86914058,-67.9969811 -45.8694981,-67.9958439 -45.8695654,-67.99512510000001 -45.8693413,-67.99505 -45.8690499,-67.99627751 -45.86960923,-67.9980218 -45.8692665,-68.0000389 -45.8684074,-68.0017662 -45.8680339,-68.00080119 -45.86808139,,-68.00126819 -45.86832361,-68.0070448 -45.8686241,-68.0067122 -45.8683028,-68.0066907 -45.8679293,-68.0047274 -45.8681086,-68.0029786 -45.8686316,-68.0021524 -45.8685344,-68.0022383 -45.8682132,-68.00620422 -45.86892139,-68.0131066 -45.8689005,-68.0126238 -45.8687212,-68.0113363 -45.868385,-68.01036 -45.8679741,-68.0097055 -45.8679816,-68.0074954 -45.8686166,-68.01223482 -45.86912312,-68.0136108 -45.8697596,-68.012892 -45.8698418,-68.0106711 -45.8695579,-68.0112398 -45.869416,-68.0126882 -45.8689677,-68.01323141 -45.86984796,-68.0170333 -45.8699613,-68.0162179 -45.8701854,-68.0148554 -45.8699837,-68.01624065 -45.87002946,-68.0173981 -45.8697447,-68.018117 -45.8693263,-68.019619 -45.8685942,-68.01888103 -45.86869015,-68.0200803 -45.8683477,-68.0205953 -45.867877,-68.0235457 -45.8671822,-68.0237496 -45.867765,-68.02227322 -45.8681232;-68.02227322 -45.8681232,-68.0200803 -45.8683477,-68.0205953 -45.867877,-68.0235457 -45.8671822,-68.0237496 -45.867765,-68.01888103 -45.86869015,-68.0173981 -45.8697447,-68.018117 -45.8693263,-68.019619 -45.8685942,-68.01624065 -45.87002946,-68.0170333 -45.8699613,-68.0162179 -45.8701854,-68.0148554 -45.8699837,-68.01323141 -45.86984796,-68.0136108 -45.8697596,-68.012892 -45.8698418,-68.0106711 -45.8695579,-68.0112398 -45.869416,-68.0126882 -45.8689677,-68.01223482 -45.86912312,-68.0131066 -45.8689005,-68.0126238 -45.8687212,-68.0113363 -45.868385,-68.01036 -45.8679741,-68.0097055 -45.8679816,-68.0074954 -45.8686166,-68.00620422 -45.86892139,-68.0070448 -45.8686241,-68.0060685 -45.868385,-68.00449906 -45.86852742,-68.0041587 -45.8700285,-68.0051243 -45.8686091,-68.00284674 -45.87040916,-68.0035579 -45.8703423,-68.0025816 -45.8706859,-68.0014014 -45.8705066,-67.99960904 -45.87080973,,-67.99921407 -45.87121751,-67.9971957 -45.8714031,-67.9989982 -45.8712611,-67.9998028 -45.8710071,-67.99553288 -45.87226112,-67.9929739 -45.8721949,-67.9927379 -45.872546,-67.993784 -45.8729494,-67.9957634 -45.8725273,-67.9964232 -45.8722024,-67.99156523 -45.87210921,-67.9930758 -45.87218,-67.992754 -45.8724788,-67.9914343 -45.8718886,-67.9915845 -45.8711565,-67.9912734 -45.8710071,-67.9900866 -45.8710699,-67.9910052 -45.8707457,-67.9910266 -45.8705664,-67.99163820000001 -45.8700883,-67.9915524 -45.8697073,-67.99024475 -45.86974641,-67.9914558 -45.8692516,-67.9914558 -45.8690499,-67.9925716 -45.8679293,-67.99174523 -45.8677107,-67.9929578 -45.8671225,-67.9928398 -45.8662783,-67.9924321 -45.8655835,-67.9919815 -45.8652548,-67.992121 -45.8648663,-67.9910159 -45.864672,-67.9918528 -45.8642238,-67.99158422 -45.86437969,-67.9920459 -45.8642163,-67.9910159 -45.864672,-67.9903078 -45.8650157,-67.9890847 -45.8656208,-67.9855978 -45.8654415,-67.9855227 -45.865322,-67.98422803 -45.86529103,-67.9859948 -45.8647094,-67.9874003 -45.863783,-67.98677491 -45.86342245,-67.9886341 -45.8629088,-67.9906297 -45.8618479,-67.9911232 -45.8617956,-67.99023202 -45.86204363,-67.9911339 -45.8618479,-67.9904687 -45.8619002,-67.9910696 -45.8615117,-67.9918849 -45.861295,-67.9930007 -45.8606151,-67.99220337 -45.86057361,-67.9928935 -45.8605404,-67.9914236 -45.8609588,-67.98931 -45.8614369,-67.9889023 -45.8613323,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86821501 -45.85959306,-67.87273050000002 -45.8603909,-67.8713894 -45.86060760000001,-67.8696728 -45.8603312,-67.8687501 -45.8600248,-67.868396 -45.859329900000006,-67.8688145 -45.8588667,-67.8688037 -45.8592029,-67.87238238 -45.86053745,-67.8762281 -45.861026,-67.8764856 -45.8608841,-67.8761208 -45.8599501,-67.8737497 -45.8604133,-67.87444477 -45.86135588,-67.8759491 -45.8590983,-67.8764319 -45.8599501,-67.87655 -45.8609588,-67.8760779 -45.8611231,-67.87446619 -45.85953534,-67.875917 -45.8590236,-67.8765607 -45.8587098,-67.8784597 -45.8588443,-67.87771797 -45.85914466,-67.8790283 -45.8588293,-67.880466 -45.8587397,-67.8813028 -45.8593598,-67.88077392 -45.85953999,-67.8814316 -45.8592926,-67.8808415 -45.8591357,-67.880863 -45.8587322,-67.8817642 -45.858239,-67.8850043 -45.8580522,-67.88402968 -45.85834964,-67.8850043 -45.8580522,-67.8858519 -45.8571556,-67.8847897 -45.8575666,-67.8816998 -45.856909,-67.88007662 -45.85706707,-67.8804874 -45.8568642,-67.8787923 -45.8561469,-67.8767753 -45.8558554,-67.87507141 -45.85623923;-67.87507141 -45.85623923,-67.8804874 -45.8568642,-67.8787923 -45.8561469,-67.8767753 -45.8558554,-67.88007662 -45.85706707,-67.8850043 -45.8580522,-67.8858519 -45.8571556,-67.8847897 -45.8575666,-67.8816998 -45.856909,-67.88402968 -45.85834964,-67.8814316 -45.8592926,-67.8808415 -45.8591357,-67.880863 -45.8587322,-67.8817642 -45.858239,-67.8850043 -45.8580522,-67.88077392 -45.85953999,-67.8790283 -45.8588293,-67.880466 -45.8587397,-67.8813028 -45.8593598,-67.87771797 -45.85914466,-67.875917 -45.8590236,-67.8765607 -45.8587098,-67.8784597 -45.8588443,-67.87446619 -45.85953534,-67.8759491 -45.8590983,-67.8764319 -45.8599501,-67.87655 -45.8609588,-67.8760779 -45.8611231,-67.87444477 -45.86135588,-67.8761101 -45.86104100000001,-67.8766465 -45.8610185,-67.8767216 -45.8614071,-67.87598229 -45.86175617,-67.8765821 -45.8616835,-67.8769684 -45.861803,-67.877183 -45.8627295,-67.87624464 -45.86324951,-67.87849190000001 -45.8641416,-67.8785133 -45.863499,-67.8778052 -45.8630732,-67.87711554 -45.86436098,-67.8776658 -45.8646496,-67.876035 -45.8642312,-67.8759491 -45.8638278,-67.8749514 -45.864380600000004,-67.87319628 -45.86441938,-67.8740609 -45.8679218,-67.8740501 -45.8676828,-67.8730416 -45.867115,-67.8732347 -45.8667639,-67.8746724 -45.8662783,-67.8754556 -45.865591,-67.876035 -45.8638054,-67.8748977 -45.8643134,-67.8729107 -45.86822856,-67.8735942 -45.8680488,-67.8724301 -45.8682281,-67.8724086 -45.8686689,-67.8764427 -45.8695952,-67.87545792 -45.87007243,-67.8773439 -45.8681385,-67.878288 -45.8679816,-67.8767216 -45.8696102,-67.87529512 -45.86884053,-67.8773224 -45.8682132,-67.8784168 -45.867951700000006,-67.8792751 -45.866988,-67.87841593 -45.86693979,-67.881968 -45.8668087,-67.881099 -45.866046700000005,-67.879715 -45.8662036,-67.88072073 -45.86731686,-67.8823006 -45.8672345,-67.8820753 -45.8679144,-67.8836095 -45.867608100000005,-67.8840494 -45.8677052,-67.88291817 -45.86822032;-67.88291817 -45.86822032,-67.8823006 -45.8672345,-67.8820753 -45.8679144,-67.8836095 -45.867608100000005,-67.8840494 -45.8677052,-67.88072073 -45.86731686,-67.881968 -45.8668087,-67.881099 -45.866046700000005,-67.879715 -45.8662036,-67.87841593 -45.86693979,-67.8794253 -45.8652025,-67.8813779 -45.8643508,-67.8805947 -45.8648065,-67.8801227 -45.8652622,-67.8801119 -45.8658151,-67.8798544 -45.8661513,-67.87816911 -45.86559299,-67.8800154 -45.8627071,-67.880863 -45.8635887,-67.8814101 -45.8638502,-67.881496 -45.8643508,-67.8795862 -45.8651352,-67.87889297 -45.8626014,-67.8809917 -45.8619301,-67.8822792 -45.8616611,-67.8835666 -45.8617507,-67.8845859 -45.8612277,-67.8843284 -45.8612427,-67.88286864 -45.86153258,-67.8855836 -45.8605329,-67.8847253 -45.8611754,-67.8843284 -45.8612427,-67.88485253 -45.86038085,-67.8861415 -45.8600696,-67.8866887 -45.8595317,-67.8869033 -45.8586351,-67.88574793 -45.85866319,,-67.88589584 -45.85818603;-67.88589584 -45.85818603,,-67.88574793 -45.85866319,-67.8861415 -45.8600696,-67.8866887 -45.8595317,-67.8869033 -45.8586351,-67.88485253 -45.86038085,-67.8862917 -45.8600846,-67.8869355 -45.8600547,-67.8873861 -45.8596438,-67.8876221 -45.8588667,-67.8886843 -45.8579999,-67.8905296 -45.8572453,-67.8915596 -45.8569165,-67.8910661 -45.8570435,-67.89119881 -45.85678635,-67.8960952 -45.8598436,-67.8959692 -45.8585678,-67.8961945 -45.8583138,-67.8955936 -45.8581419,-67.8949177 -45.8572976,-67.8950787 -45.8562589,-67.894907 -45.8558629,-67.8937376 -45.8558928,-67.8932869 -45.8566101,-67.8928149 -45.8568492,-67.8926003 -45.8566998,-67.89506126 -45.86022417,-67.8961086 -45.8601668,-67.8949714 -45.8618927,-67.89369378 -45.862107,-67.8961945 -45.8632674,-67.8952932 -45.8629985,-67.8948426 -45.8620347,-67.8946526 -45.86372426,-67.8962696 -45.8632899,-67.8974175 -45.8625203,-67.8984583 -45.8622177,-67.89779792 -45.86312838,,-67.8975525 -45.86346654,-67.8993487 -45.8636634,-67.8988981 -45.8636933,-67.89861920000001 -45.8635215,-67.89867893 -45.86374335,-67.9039943 -45.8644255,-67.9028034 -45.8637381,-67.8999174 -45.8635812,-67.90314798 -45.8648888,-67.906419 -45.86626330000001,-67.9050887 -45.8652025,-67.9043591 -45.864814,-67.90565529 -45.8665856,-67.9108179 -45.86391,-67.9094768 -45.8638353,-67.9077816 -45.8657329,-67.9066443 -45.8662484,-67.90869072 -45.86438156,-67.9100454 -45.8663754,-67.9094982 -45.8663306,-67.909627 -45.86429100000001,-67.90947109 -45.86641003,-67.9100668 -45.8647318,-67.9098523 -45.8659197,-67.9103565 -45.8661513,-67.90917641 -45.86476613,-67.9122448 -45.8649709,-67.911129 -45.8644105,-67.9103887 -45.8645226,-67.91093971 -45.86527418,-67.9164934 -45.8652398,-67.9147875 -45.8642536,-67.9133606 -45.865322,-67.9120409 -45.8651352,-67.91575239 -45.86551598,-67.9187572 -45.8661064,-67.9176843 -45.8663679,-67.9172981 -45.8656657,-67.91774956 -45.8661538,-67.9224908 -45.8663306,-67.9191971 -45.8656582,-67.92069068 -45.86664171,-67.9258382 -45.86658460000001,-67.9220402 -45.8663903,-67.92478129 -45.86687146,-67.9266429 -45.8657927,-67.9259992 -45.8665696,-67.92617947 -45.86596757,,-67.92568273 -45.86555172,-67.9284239 -45.8655835,-67.9270077 -45.8655162,-67.92761571 -45.86576064,-67.92887450000002 -45.8655984,-67.929647 -45.8660093,-67.9311919 -45.8652622,-67.93025624 -45.86524613,-67.934196 -45.8650755,-67.9339492 -45.8648887,-67.9318678 -45.8652174,-67.93322311 -45.86539389,-67.9364544 -45.8650082,-67.9343033 -45.8651128,-67.93542287 -45.86514387,-67.9374468 -45.8637643,-67.93648120000002 -45.8648999,-67.93638614 -45.8639203,-67.9407513 -45.863103100000004,-67.9403973 -45.8622551,-67.93757020000001 -45.8636746,-67.94016816 -45.86304785,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94026881 -45.86394522,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.9397787 -45.86446671,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.93820898 -45.86621382,,-67.93822649 -45.86645361,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S2573,S2582</t>
   </si>
   <si>
     <t>Base,Linea 14,S278,Linea 15,S2250,Linea 16,S977,Linea 17,S245,Linea 1340,S186,Linea 901,S539,Linea 1394,S971,Linea 897,S2160,Linea 898,S2573;S2573,Linea 898,S2160,Linea 897,S971,Linea 1394,S539,Linea 901,S186,Linea 1340,S245,Linea 17,S977,Linea 16,S2250,Linea 15,S278,Linea 14,Base,Linea 12,S2401,Linea 1510,S2249,Linea 973,S192,Linea 1211,S172,Linea 768,S2417,Linea 759,S402,Linea 760,S2468,Linea 763,S395,Linea 764,S338,Linea 773,S2407,Linea 850,S2056,Linea 849,S2716,Linea 853,S2504,Linea 854,S997,Linea 1836,S353,Linea 1361,S2006,Linea 1363,S2009,Linea 1365,S354,Linea 1421,S2255,Linea 568,S882,Linea 622,S523,Linea 215,S788,Linea 216,S2676,Linea 217,S2396,Linea 240,S2395,Linea 243,S1005,Linea 397,S543,Linea 399,S2288,Linea 247,S2418,Linea 249,S611,Linea 250,E291,Linea 252,S853,Linea 254,S851,Linea 257,S591,Linea 258,S876,Linea 263,S886,Linea 264,S868,Linea 270,S869,Linea 278,S864,Linea 277,S2582;S2582,Linea 277,S864,Linea 278,S869,Linea 270,S868,Linea 264,S886,Linea 263,S876,Linea 258,S591,Linea 257,S851,Linea 254,S853,Linea 252,E291,Linea 250,S611,Linea 249,S2418,Linea 247,S2288,Linea 399,S543,Linea 397,S1005,Linea 243,S2395,Linea 240,S2396,Linea 217,S2676,Linea 216,S788,Linea 215,S523,Linea 622,S882,Linea 568,S2255,Linea 1421,S354,Linea 1365,S2009,Linea 1363,S2006,Linea 1361,S353,Linea 1836,S997,Linea 854,S2504,Linea 853,S2716,Linea 849,S2056,Linea 850,S2407,Linea 773,S338,Linea 764,S395,Linea 763,S2468,Linea 760,S402,Linea 759,S2417,Linea 768,S172,Linea 1211,S192,Linea 973,S2249,Linea 1816,S2401,Linea 12,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9427254 -45.8635364,-67.9464859 -45.8623447,-67.9469097 -45.862016,-67.94569946 -45.86221924,-67.9469097 -45.8620944,-67.9481596 -45.8620048,-67.94727301 -45.86217176,-67.9483044 -45.861911400000004,-67.9473495 -45.8614183,-67.94655091 -45.86160389,-67.9479718 -45.8615453,-67.9493934 -45.8606973,-67.9489589 -45.8606599,-67.94780419 -45.86081977,-67.9549134 -45.858239,-67.9527032 -45.8590684,-67.9493666 -45.8607794,-67.9491198 -45.8606898,-67.9539623 -45.85805836,-67.9549778 -45.85820170000001,-67.9571986 -45.85672970000001,-67.9579175 -45.8564981,-67.9585719 -45.8567521,-67.95773843 -45.85672753,-67.9637325 -45.8577459,-67.9643655 -45.8579476,-67.9642689 -45.8583885,-67.9623485 -45.8582017,-67.9617047 -45.8578879,-67.960825 -45.8571257,-67.9587221 -45.8568418,-67.96207279 -45.85789473,-67.9637325 -45.8577459,-67.9642367 -45.8578505,-67.9642689 -45.8583885,-67.963078 -45.8585603,-67.9614151 -45.8585603,-67.95977833 -45.85857686,-67.9602885 -45.8583661,-67.9596019 -45.8583063,-67.9588509 -45.8580298,-67.95694256 -45.85847796;-67.95694256 -45.85847796,-67.9602885 -45.8583661,-67.9596019 -45.8583063,-67.9588509 -45.8580298,-67.95977833 -45.85857686,-67.9637325 -45.8577459,-67.9642367 -45.8578505,-67.9642689 -45.8583885,-67.963078 -45.8585603,-67.9614151 -45.8585603,-67.96207279 -45.85789473,-67.9637325 -45.8577459,-67.9643655 -45.8579476,-67.9642689 -45.8583885,-67.9623485 -45.8582017,-67.9617047 -45.8578879,-67.960825 -45.8571257,-67.9587221 -45.8568418,-67.95773843 -45.85672753,-67.9549778 -45.85820170000001,-67.9571986 -45.85672970000001,-67.9579175 -45.8564981,-67.9585719 -45.8567521,-67.9539623 -45.85805836,-67.9549134 -45.858239,-67.9527032 -45.8590684,-67.9493666 -45.8607794,-67.9491198 -45.8606898,-67.94780419 -45.86081977,-67.9479718 -45.8615453,-67.9493934 -45.8606973,-67.9489589 -45.8606599,-67.94655091 -45.86160389,-67.9483044 -45.861911400000004,-67.9473495 -45.8614183,-67.94727301 -45.86217176,-67.9469097 -45.8620944,-67.9481596 -45.8620048,-67.94569946 -45.86221924,-67.9427254 -45.8635364,-67.9464859 -45.8623447,-67.9469097 -45.862016,-67.9400271 -45.8665472,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9454304 -45.86503525,,-67.94551194 -45.86495899,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94827454 -45.86749255,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.95709848 -45.86769228,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95610675 -45.87170205,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95650202 -45.87386891,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95720623 -45.87256309,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.96214261 -45.87344787,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96572509 -45.87368099,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.9672039 -45.87497495,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.96992116 -45.87035971,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.9688479 -45.86924263,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.96898996 -45.86789944,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.97170451 -45.86764851,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97781889 -45.86412305,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97692655 -45.86298292,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.98026531 -45.86300386,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98206338 -45.86352335,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98715669 -45.86146692,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.86513556 -45.86046435,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86821501 -45.85959306,-67.8666258 -45.8579551,-67.8677523 -45.8588443,-67.8689218 -45.8588293,-67.8688896 -45.8591954,-67.86509618 -45.85797591,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86269634 -45.8576934,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86119926 -45.8582863,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.85800456 -45.85865306,-67.8585362 -45.8586425,-67.8567231 -45.8591431,-67.8550386 -45.8605852,-67.85325633 -45.86047853,-67.8547168 -45.8600622,-67.8545237 -45.8589862,-67.8537083 -45.858508,-67.852335 -45.8585529,-67.85051371 -45.8587379,-67.8511226 -45.8587172,-67.8489661 -45.8581942,-67.8504252 -45.8565952,-67.84992667 -45.85649082,-67.851541 -45.8561394,-67.8511119 -45.8555416,-67.8497386 -45.8553249,-67.8490841 -45.8555341,-67.84737753 -45.85568862,-67.8480864 -45.8556163,-67.846477 -45.8561992,-67.8452325 -45.8556537,-67.84359994 -45.85582912,-67.8438914 -45.8557508,-67.8414237 -45.8563262,-67.8377545 -45.8563187,-67.83653581 -45.85644197,-67.8371108 -45.8561767,-67.8326368 -45.8556313,-67.83154193 -45.85548135,-67.8319716 -45.855437,-67.8292787 -45.855108200000004,-67.82760578 -45.8552439,-67.8277767 -45.8550036,-67.8251696 -45.8547271,-67.824676 -45.8544207,-67.82322995 -45.85451391,-67.8244078 -45.8540994,-67.8225088 -45.8518801,-67.82163737 -45.8516816,-67.8223801 -45.8515886,-67.8209639 -45.8504751,-67.8196657 -45.8504079,-67.81800483 -45.85079524,-67.8185713 -45.8505798,-67.816962 -45.851073,-67.8161895 -45.8523658,-67.81497943 -45.85259887,-67.816329 -45.8519921,-67.8167796 -45.8511701,-67.8158462 -45.8513121,-67.8150415 -45.8533148,-67.8138399 -45.8541293,-67.81217316 -45.85421245,-67.809999 -45.85395,-67.81053540000002 -45.8542265,-67.8125417 -45.8543386,-67.80813131 -45.85419968,-67.8093982 -45.8548467,-67.8103423 -45.8545851,-67.808851 -45.8544506,-67.8103101 -45.854219,-67.8097093 -45.8539126,-67.8072436 -45.85498762;-67.8072436 -45.85498762,-67.8093982 -45.8548467,-67.8103423 -45.8545851,-67.808851 -45.8544506,-67.8103101 -45.854219,-67.8097093 -45.8539126,-67.80813131 -45.85419968,-67.809999 -45.85395,-67.81053540000002 -45.8542265,-67.8125417 -45.8543386,-67.81217316 -45.85421245,-67.816329 -45.8519921,-67.8167796 -45.8511701,-67.8158462 -45.8513121,-67.8150415 -45.8533148,-67.8138399 -45.8541293,-67.81497943 -45.85259887,-67.8185713 -45.8505798,-67.816962 -45.851073,-67.8161895 -45.8523658,-67.81800483 -45.85079524,-67.8223801 -45.8515886,-67.8209639 -45.8504751,-67.8196657 -45.8504079,-67.82163737 -45.8516816,-67.8244078 -45.8540994,-67.8225088 -45.8518801,-67.82322995 -45.85451391,-67.8277767 -45.8550036,-67.8251696 -45.8547271,-67.824676 -45.8544207,-67.82760578 -45.8552439,-67.8319716 -45.855437,-67.8292787 -45.855108200000004,-67.83154193 -45.85548135,-67.8371108 -45.8561767,-67.8326368 -45.8556313,-67.83653581 -45.85644197,-67.8438914 -45.8557508,-67.8414237 -45.8563262,-67.8377545 -45.8563187,-67.84359994 -45.85582912,-67.8480864 -45.8556163,-67.846477 -45.8561992,-67.8452325 -45.8556537,-67.84737753 -45.85568862,-67.851541 -45.8561394,-67.8511119 -45.8555416,-67.8497386 -45.8553249,-67.8490841 -45.8555341,-67.84992667 -45.85649082,-67.8511226 -45.8587172,-67.8489661 -45.8581942,-67.8504252 -45.8565952,-67.85051371 -45.8587379,-67.8547168 -45.8600622,-67.8545237 -45.8589862,-67.8537083 -45.858508,-67.852335 -45.8585529,-67.85325633 -45.86047853,-67.8585362 -45.8586425,-67.8567231 -45.8591431,-67.8550386 -45.8605852,-67.85800456 -45.85865306,-67.8617334 -45.8580597,-67.8595233 -45.8583362,-67.86119926 -45.8582863,-67.8630531 -45.8577608,-67.8618944 -45.8580074,-67.86269634 -45.8576934,-67.8655958 -45.85783560000001,-67.8642118 -45.8570435,-67.86509618 -45.85797591,-67.8666258 -45.8579551,-67.8677523 -45.8588443,-67.8689218 -45.8588293,-67.8688896 -45.8591954,-67.86821501 -45.85959306,-67.8688037 -45.8592029,-67.8687608 -45.8588144,-67.8664434 -45.858963800000005,-67.8654027 -45.859457,-67.8655529 -45.8602116,-67.86513556 -45.86046435,-67.8675377 -45.8613772,-67.8664112 -45.8605329,-67.98715669 -45.86146692,-67.9887307 -45.8607944,-67.9889238 -45.8604806,-67.9867244 -45.8607421,-67.9861665 -45.8609737,-67.9860163 -45.8616088,-67.9854047 -45.8619674,-67.9846215 -45.8621617,-67.9841387 -45.862468,-67.9838812 -45.8630209,-67.9834414 -45.8631927,-67.98206338 -45.86352335,-67.9835165 -45.8632226,-67.9838812 -45.8630209,-67.9841387 -45.8625502,-67.9836881 -45.862991,-67.9831409 -45.8631255,-67.9816282 -45.862737,-67.98026531 -45.86300386,-67.9785919 -45.8629686,-67.9789352 -45.8631031,-67.9796863 -45.8629088,-67.9804587 -45.8629985,-67.9811132 -45.8627967,-67.97692655 -45.86298292,-67.9785061 -45.863768,-67.977562 -45.8638502,-67.9780233 -45.8634692,-67.9789352 -45.8631031,-67.9785919 -45.8629686,-67.97781889 -45.86412305,-67.9784846 -45.8638128,-67.9773581 -45.8639025,-67.9769611 -45.8641416,-67.9760814 -45.864545,-67.975781 -45.8649709,-67.9756951 -45.8656806,-67.9747403 -45.8664725,-67.9738927 -45.8666518,-67.9742575 -45.8674213,-67.9730237 -45.867369,-67.97170451 -45.86764851,-67.9704916 -45.8675259,-67.9713821 -45.8670777,-67.9725838 -45.8673092,-67.96898996 -45.86789944,-67.96972990000002 -45.8689453,-67.96923640000001 -45.8685867,-67.9698372 -45.8679667,-67.9688479 -45.86924263,-67.9710925 -45.8705739,-67.9709744 -45.8714329,-67.9711354 -45.8722173,-67.9706633 -45.8714479,-67.9697943 -45.8691545,-67.96992116 -45.87035971,-67.9711676 -45.8706262,-67.9712427 -45.8723667,-67.9717791 -45.8732033,-67.9711139 -45.8738906,-67.9693866 -45.8740474,-67.9686463 -45.874533,-67.9672039 -45.87497495,-67.96696190000002 -45.8736067,-67.9677129 -45.8742267,-67.9679918 -45.8746077,-67.96572509 -45.87368099,-67.9666829 -45.8734274,-67.9651701 -45.87286720000001,-67.9644513 -45.8730315,-67.9638612 -45.8733752,-67.9632068 -45.8733901,-67.96214261 -45.87344787,-67.9630244 -45.8733005,-67.9618549 -45.87156740000001,-67.9611683 -45.8714553,-67.9596126 -45.871724300000004,-67.95881870000001 -45.8720007,-67.95720623 -45.87256309,-67.9575098 -45.8735619,-67.9580784 -45.8727253,-67.95650202 -45.87386891,-67.9571235 -45.8715898,-67.9572952 -45.8723443,-67.9570484 -45.87342,-67.95743470000001 -45.8736217,-67.95610675 -45.87170205,-67.9570484 -45.8711267,-67.9574454 -45.8693637,-67.9580891 -45.8675707,-67.95709848 -45.86769228,-67.9581213 -45.8673466,-67.9581428 -45.8669731,-67.9568553 -45.866226,-67.9523492 -45.8659869,-67.9491305 -45.866226,-67.9489803 -45.8668834,-67.94827454 -45.86749255,-67.949152 -45.8670029,-67.9489589 -45.866338,-67.9464805 -45.8656358,-67.946502 -45.8652099,-67.94551194 -45.86495899,,-67.9454304 -45.86503525,-67.9452038 -45.8642219,-67.9464403 -45.8647635,-67.9400271 -45.8665472</t>
+  </si>
+  <si>
     <t>S668,S2276,S2350</t>
   </si>
   <si>
     <t>Base,Linea 1,S176,Linea 1506,S2447,Linea 2,S993,Linea 3,S329,Linea 4,S309,Linea 6,S328,Linea 7,S2258,Linea 8,S326,Linea 52,S2253,Linea 57,S208,Linea 156,S2488,Linea 1548,S680,Linea 158,S246,Linea 161,S662,Linea 701,S668;S668,Linea 731,S567,Linea 700,S677,Linea 175,S661,Linea 174,S2601,Linea 173,S691,Linea 170,S676,Linea 177,S640,Linea 178,S637,Linea 183,S495,Linea 186,S635,Linea 1555,S2552,Linea 211,S622,Linea 210,S633,Linea 127,S501,Linea 925,S789,Linea 923,Planta Norte,Linea 1214,S783,Linea 905,S629,Linea 631,S2077,Linea 629,S489,Linea 665,S2265,Linea 659,S683,Linea 637,S458,Linea 634,S2720,Linea 632,S460,Linea 616,S469,Linea 545,S439,Linea 538,S531,Linea 540,S533,Linea 536,S506,Linea 534,S470,Linea 645,S426,Linea 649,S2307,Linea 650,S455,Linea 502,S398,Linea 503,S2276;S2276,Linea 503,S398,Linea 502,S455,Linea 650,S2307,Linea 507,S427,Linea 512,S509,Linea 511,S2236,Linea 516,Q17,Linea 517,S2523,Linea 1887,S13,Linea 1886,S2,Linea 471,S2240,Linea 1593,Q16,Linea 613,S3,Linea 734,S295,Linea 735,S17,Linea 596,S2293,Linea 597,S4,Linea 598,S2324,Linea 600,S2196,Linea 599,S2689,Linea 601,S2683,Linea 606,S2619,Linea 608,S2694,Linea 1336,S2711,Linea 1335,S2698,Linea 1334,S2718,Linea 1333,S2717,Linea 1330,S924,Linea 1337,S925,Linea 1256,S2350;S2350,Linea 1256,S925,Linea 1337,S924,Linea 1330,S2717,Linea 1333,S2718,Linea 1334,S2698,Linea 1335,S2711,Linea 1336,S2694,Linea 608,S2619,Linea 606,S2683,Linea 601,S2689,Linea 599,S2196,Linea 600,S2324,Linea 598,S4,Linea 597,S2293,Linea 596,S17,Linea 594,S2259,Linea 592,S2129,Linea 591,S949,Linea 579,S2132,Linea 578,S2443,Linea 581,S938,Linea 582,S849,Linea 584,S2168,Linea 1617,S2167,Linea 736,S2110,Linea 930,S2111,Linea 931,S645,Linea 932,S78,Linea 940,S56,Linea 944,S229,Linea 945,S277,Linea 998,S178,Linea 1004,S310,Linea 985,S2185,Linea 984,Base</t>
   </si>
   <si>
+    <t>-67.9400271 -45.8665472,-67.9383588 -45.8674437,-67.9380101 -45.8666929,-67.9392922 -45.8661064,-67.93822649 -45.86645361,,-67.93820898 -45.86621382,-67.939437 -45.8659907,-67.9410034 -45.8642985,-67.9397787 -45.86446671,-67.9413575 -45.8643508,-67.94191 -45.8638801,-67.9413092 -45.8637717,-67.94026881 -45.86394522,-67.9412395 -45.8636896,-67.94085860000001 -45.8628677,-67.94016816 -45.86304785,-67.9407513 -45.863103100000004,-67.9403973 -45.8622551,-67.93757020000001 -45.8636746,-67.93638614 -45.8639203,-67.9374468 -45.8637643,-67.93648120000002 -45.8648999,-67.93542287 -45.86514387,-67.9364544 -45.8650082,-67.9343033 -45.8651128,-67.93322311 -45.86539389,-67.934196 -45.8650755,-67.9339492 -45.8648887,-67.9318678 -45.8652174,-67.93025624 -45.86524613,-67.92887450000002 -45.8655984,-67.929647 -45.8660093,-67.9311919 -45.8652622,-67.92761571 -45.86576064,-67.9284239 -45.8655835,-67.9270077 -45.8655162,-67.92568273 -45.86555172,,-67.92617947 -45.86596757,-67.9266429 -45.8657927,-67.9259992 -45.8665696,-67.92478129 -45.86687146,-67.9258382 -45.86658460000001,-67.9220402 -45.8663903,-67.92069068 -45.86664171,-67.9220402 -45.8663903,-67.9233062 -45.8663605,-67.9220939 -45.86691330000001,-67.9212034 -45.8670029,-67.9194438 -45.8683551,-67.918725 -45.8684821,-67.91712918 -45.86851117;-67.91712918 -45.86851117,-67.9188001 -45.868512,-67.9194438 -45.8683551,-67.9187143 -45.868885600000006,-67.9161716 -45.8689378,-67.9146481 -45.87009580000001,-67.91316355 -45.8704339,-67.912792 -45.8681833,-67.9137361 -45.8680638,-67.9160964 -45.8689304,-67.9145193 -45.8701256,-67.91127227 -45.86860891,-67.914927 -45.8677874,-67.912792 -45.8681833,-67.9143801 -45.8679855,-67.9147553 -45.8672868,-67.9154098 -45.8676977,-67.9130059 -45.86729039,-67.9110271 -45.86621850000001,-67.9131621 -45.8664613,-67.9139614 -45.8669058,-67.90947109 -45.86641003,-67.9100454 -45.8663754,-67.9094982 -45.8663306,-67.909627 -45.86429100000001,-67.90869072 -45.86438156,-67.9108179 -45.86391,-67.9094768 -45.8638353,-67.9077816 -45.8657329,-67.9066443 -45.8662484,-67.90565529 -45.8665856,-67.906419 -45.86626330000001,-67.9050887 -45.8652025,-67.9043591 -45.864814,-67.90314798 -45.8648888,-67.9039943 -45.8644255,-67.9028034 -45.8637381,-67.8999174 -45.8635812,-67.89867893 -45.86374335,-67.8993487 -45.8636634,-67.8988981 -45.8636933,-67.89861920000001 -45.8635215,-67.8975525 -45.86346654,,-67.89779792 -45.86312838,-67.8962696 -45.8632899,-67.8974175 -45.8625203,-67.8984583 -45.8622177,-67.8946526 -45.86372426,-67.8961945 -45.8632674,-67.8952932 -45.8629985,-67.8948426 -45.8620347,-67.89369378 -45.862107,-67.8961086 -45.8601668,-67.8949714 -45.8618927,-67.89506126 -45.86022417,-67.8960952 -45.8598436,-67.8959692 -45.8585678,-67.8961945 -45.8583138,-67.8955936 -45.8581419,-67.8949177 -45.8572976,-67.8950787 -45.8562589,-67.894907 -45.8558629,-67.8937376 -45.8558928,-67.8932869 -45.8566101,-67.8928149 -45.8568492,-67.8926003 -45.8566998,-67.89119881 -45.85678635,-67.8915596 -45.8569165,-67.8910661 -45.8570435,-67.8905296 -45.8572453,-67.8862917 -45.8600846,-67.8869355 -45.8600547,-67.8873861 -45.8596438,-67.8876221 -45.8588667,-67.8886843 -45.8579999,-67.88485253 -45.86038085,-67.8855836 -45.8605329,-67.8847253 -45.8611754,-67.8843284 -45.8612427,-67.88286864 -45.86153258,-67.8809917 -45.8619301,-67.8822792 -45.8616611,-67.8835666 -45.8617507,-67.8845859 -45.8612277,-67.8843284 -45.8612427,-67.87889297 -45.8626014,-67.8800154 -45.8627071,-67.880863 -45.8635887,-67.8814101 -45.8638502,-67.881496 -45.8643508,-67.8795862 -45.8651352,-67.87816911 -45.86559299,-67.8794253 -45.8652025,-67.8813779 -45.8643508,-67.8805947 -45.8648065,-67.8801227 -45.8652622,-67.8801119 -45.8658151,-67.8798544 -45.8661513,-67.87841593 -45.86693979,-67.8773224 -45.8682132,-67.8784168 -45.867951700000006,-67.8792751 -45.866988,-67.87529512 -45.86884053,-67.8755951 -45.8690125,-67.8751016 -45.8692815,-67.8764427 -45.8695952,-67.87545792 -45.87007243,-67.8735942 -45.8680488,-67.8724301 -45.8682281,-67.8724086 -45.8686689,-67.8764427 -45.8695952,-67.8729107 -45.86822856,-67.8699839 -45.8693413,-67.8700376 -45.8699389,-67.8703916 -45.8701929,-67.8709173 -45.8699239,-67.8707349 -45.8692815,-67.8712177 -45.8686166,-67.8731596 -45.8681236,-67.86891343 -45.86940172,-67.8665292 -45.8704394,-67.8664756 -45.8701107,-67.8674197 -45.8697073,-67.8698659 -45.8700883,-67.8700376 -45.8699389,-67.8700268 -45.8692964,-67.86552841 -45.87071955,-67.8687286 -45.87223970000001,-67.8671408 -45.8717542,-67.8661752 -45.8712611,-67.8662395 -45.8705888,-67.86803091 -45.87230485,-67.8686213 -45.87223970000001,-67.8679776 -45.8725012,-67.867173 -45.87342,-67.86601994 -45.87390747,-67.8666043 -45.8740773,-67.8655958 -45.8758999,-67.8658319 -45.8761464,-67.86520975 -45.8764158,-67.8690398 -45.8759074,-67.8681815 -45.8748691,-67.8664434 -45.8762585,-67.86877282 -45.87598303,-67.8721726 -45.8748019,-67.868793 -45.8753024,-67.8683639 -45.8750633,-67.8691471 -45.8759522,-67.87226293 -45.87472228,-67.8772473 -45.875646,-67.87714 -45.874899,-67.8760457 -45.8739578,-67.8750265 -45.8733005,-67.8741574 -45.8732108,-67.8737283 -45.8741819,-67.87580898 -45.87623664,-67.8836632 -45.8741296,-67.884264 -45.8734723,-67.8839421 -45.8733229,-67.8833306 -45.8736515,-67.8822899 -45.87404,-67.8816032 -45.8749737,-67.8808522 -45.875153,-67.8791678 -45.8762809,-67.8782129 -45.8766021,-67.8774083 -45.8765572,-67.88196942 -45.87464989,-67.8855407 -45.8747869,-67.8848219 -45.8745703,-67.8843713 -45.8743089,-67.8840923 -45.8735395,-67.8836632 -45.8741296,-67.88511415 -45.8749264,-67.88980010000002 -45.8758999,-67.8896391 -45.8754592,-67.8868389 -45.87464500000001,-67.8887044 -45.87631529,-67.88980010000002 -45.8758999,-67.8895426 -45.8756086,-67.886517 -45.875989600000004,-67.88477363 -45.87646395;-67.88477363 -45.87646395,-67.88980010000002 -45.8758999,-67.8895426 -45.8756086,-67.886517 -45.875989600000004,-67.8887044 -45.87631529,-67.88980010000002 -45.8758999,-67.8896391 -45.8754592,-67.8868389 -45.87464500000001,-67.88511415 -45.8749264,-67.8855407 -45.8747869,-67.8848219 -45.8745703,-67.8843713 -45.8743089,-67.8840923 -45.8735395,-67.8836632 -45.8741296,-67.88196942 -45.87464989,-67.8803158 -45.8771847,-67.8813779 -45.8760792,-67.8823113 -45.875519,-67.8828478 -45.87486160000001,-67.87897854 -45.87766371,-67.8797901 -45.8776627,-67.8792536 -45.87817810000001,-67.8798115 -45.8793806,-67.87875862 -45.87975391,-67.8785026 -45.8788802,-67.8798115 -45.8793806,-67.87684672 -45.87887091,-67.8772688 -45.8789101,-67.8749835 -45.8790146,-67.87362100000001 -45.8797765,-67.8724445 -45.87988188,-67.8726017 -45.880389,-67.8697157 -45.8828462,-67.8706813 -45.8831001,-67.8686643 -45.8830254,-67.86703039 -45.88312685,-67.8737283 -45.8829508,-67.8736854 -45.8833242,-67.8730094 -45.8829134,-67.8686643 -45.8830254,-67.87263059 -45.88283868,-67.8738034 -45.8829806,-67.8739858 -45.8834512,-67.87655 -45.8844445,-67.8765929 -45.8840262,-67.8758872 -45.88413516,-67.8775907 -45.885744,-67.8778374 -45.8851241,-67.8766251 -45.8844594,-67.8767002 -45.8840561,-67.87630061 -45.88642699,,-67.87597578 -45.88674947,-67.8775477 -45.8859232,-67.87784810000001 -45.8854153,-67.8789425 -45.8862742,-67.879554 -45.8862667,-67.8829443 -45.8844743,-67.8806055 -45.8848253,-67.87931365 -45.88515467,-67.8808522 -45.8847432,-67.8831053 -45.8843548,-67.884897 -45.8834586,-67.8876114 -45.88378720000001,-67.8901434 -45.8835856,-67.88934482 -45.88367092,-67.8863347 -45.8849448,-67.8869569 -45.8849672,-67.8874826 -45.883847,-67.8903258 -45.883570600000006,-67.88477851 -45.88530377,-67.8847039 -45.885542300000004,-67.8854334 -45.8851465,-67.88304639 -45.88588109,-67.8838027 -45.88608,-67.882483 -45.8868716,-67.88085052 -45.88709026,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.8823113 -45.8868119,-67.87661058 -45.88889945,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87484305 -45.89067788,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87813787 -45.88993585,-67.8788996 -45.8901426,-67.877934 -45.8900903,-67.8774834 -45.8904786,-67.8777945 -45.8925098,-67.8783524 -45.8919348,-67.87768072 -45.89180609,-67.8782558 -45.8919497,-67.8778267 -45.8923828,-67.8780413 -45.8938315,-67.8791893 -45.8953398,-67.87842608 -45.89585515,-67.8799939 -45.8961761,-67.8810668 -45.8968855,-67.881496 -45.8974007,-67.88049412 -45.89765426,-67.8816462 -45.8976545,-67.8819466 -45.8992972,-67.8823757 -45.8992374,-67.88283131 -45.8994995,-67.8778481 -45.8999691,-67.8795862 -45.8996556,-67.8816676 -45.8998198,-67.8823113 -45.899342,-67.87600509 -45.90013168,-67.875402 -45.9018954,-67.8762174 -45.9018506,-67.8767323 -45.9016117,-67.8774405 -45.9009995,-67.8778481 -45.8999691,-67.87401 -45.90242679,-67.8778911 -45.9022389,-67.8772688 -45.9023733,-67.8762174 -45.9020895,-67.8762174 -45.9018506,-67.875402 -45.9018954,-67.87749311 -45.90223614,-67.8877831 -45.9058523,-67.8869033 -45.9059867,-67.8840923 -45.9048668,-67.8834271 -45.9042397,-67.8832769 -45.9030601,-67.8820109 -45.9031497,-67.8811312 -45.903299,-67.8780627 -45.9027018,-67.8772688 -45.9023733,-67.8778911 -45.9022389,-67.88690397 -45.90593083,-67.8887486 -45.9139369,-67.8892422 -45.9133771,-67.889092 -45.9088982,-67.8895211 -45.9081964,-67.8884697 -45.9068527,-67.8891134 -45.9060464,-67.8899932 -45.905494,-67.890079 -45.9049863,-67.8895855 -45.9049415,-67.8884912 -45.9054641,-67.88780562 -45.91450171,-67.8887486 -45.9136607,-67.8879547 -45.9129889,-67.886517 -45.9125112,-67.8854227 -45.9119289,-67.8854227 -45.9116154,-67.88656 -45.9111825,-67.8872895 -45.9104509,-67.8866029 -45.9097343,-67.8843713 -45.9097193,-67.8802943 -45.9103016,-67.8787923 -45.9095999,-67.8778052 -45.9098238,-67.8731489 -45.9121529,-67.8766251 -45.9119737,-67.87602778 -45.91201315;-67.87602778 -45.91201315,-67.8887486 -45.9136607,-67.8879547 -45.9129889,-67.886517 -45.9125112,-67.8854227 -45.9119289,-67.8854227 -45.9116154,-67.88656 -45.9111825,-67.8872895 -45.9104509,-67.8866029 -45.9097343,-67.8843713 -45.9097193,-67.8802943 -45.9103016,-67.8787923 -45.9095999,-67.8778052 -45.9098238,-67.8731489 -45.9121529,-67.8766251 -45.9119737,-67.88780562 -45.91450171,-67.8887486 -45.9139369,-67.8892422 -45.9133771,-67.889092 -45.9088982,-67.8895211 -45.9081964,-67.8884697 -45.9068527,-67.8891134 -45.9060464,-67.8899932 -45.905494,-67.890079 -45.9049863,-67.8895855 -45.9049415,-67.8884912 -45.9054641,-67.88690397 -45.90593083,-67.8877831 -45.9058523,-67.8869033 -45.9059867,-67.8840923 -45.9048668,-67.8834271 -45.9042397,-67.8832769 -45.9030601,-67.8820109 -45.9031497,-67.8811312 -45.903299,-67.8780627 -45.9027018,-67.8772688 -45.9023733,-67.8778911 -45.9022389,-67.87749311 -45.90223614,-67.8778911 -45.9022389,-67.8772688 -45.9023733,-67.8762174 -45.9020895,-67.8762174 -45.9018506,-67.875402 -45.9018954,-67.87401 -45.90242679,-67.875402 -45.9018954,-67.8762174 -45.9018506,-67.8767323 -45.9016117,-67.8774405 -45.9009995,-67.8778481 -45.8999691,-67.87600509 -45.90013168,-67.8778481 -45.8999691,-67.8795862 -45.8996556,-67.8816676 -45.8998198,-67.8823113 -45.899342,-67.88283131 -45.8994995,-67.8816462 -45.8976545,-67.8819466 -45.8992972,-67.8823757 -45.8992374,-67.88049412 -45.89765426,-67.8799939 -45.8961761,-67.8810668 -45.8968855,-67.881496 -45.8974007,-67.87842608 -45.89585515,-67.8782558 -45.8919497,-67.8778267 -45.8923828,-67.8780413 -45.8938315,-67.8791893 -45.8953398,-67.87768072 -45.89180609,-67.8788996 -45.8901426,-67.877934 -45.8900903,-67.8774834 -45.8904786,-67.8777945 -45.8925098,-67.8783524 -45.8919348,-67.87813787 -45.88993585,-67.8792322 -45.8901127,-67.877934 -45.8900903,-67.8765285 -45.89045620000001,-67.87484305 -45.89067788,-67.8765285 -45.89045620000001,-67.877773 -45.8901799,-67.8803802 -45.8880143,-67.8783846 -45.8885519,-67.87661058 -45.88889945,-67.8783846 -45.8885519,-67.8803802 -45.8880143,-67.8826654 -45.8868044,-67.